--- a/Output/AcqTrends/NPS2024/DoD_2024_NPS.xlsx
+++ b/Output/AcqTrends/NPS2024/DoD_2024_NPS.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="1 Budg" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="1 K&amp;Ota" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t xml:space="preserve">source</t>
   </si>
@@ -157,14 +158,48 @@
   </si>
   <si>
     <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AreaType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SimpleAreaType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTA for Production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Products and Production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contract for Products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTA for Prototype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R&amp;D and Prototypes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contract for R&amp;D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contract for Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unlabeled</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.00,,,&quot;B&quot;"/>
+  <numFmts count="2">
+    <numFmt numFmtId="166" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -200,9 +235,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1145,11 +1182,1915 @@
       <c r="AZ6" s="1" t="str">
         <f>Sum(AZ2:AZ5)</f>
       </c>
-      <c r="BA6" s="1"/>
+      <c r="BA6" s="1" t="str">
+        <f>Sum(BA2:BA5)</f>
+      </c>
       <c r="BB6" s="1"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <f>M9</f>
+      </c>
+      <c r="B9" t="str">
+        <f>N9</f>
+      </c>
+      <c r="C9" t="str">
+        <f>AS9</f>
+      </c>
+      <c r="D9" t="str">
+        <f>AU9</f>
+      </c>
+      <c r="E9" t="str">
+        <f>AV9</f>
+      </c>
+      <c r="G9" t="str">
+        <f>AU9&amp;"-"&amp;AV9</f>
+      </c>
+      <c r="H9" t="str">
+        <f>AS9&amp;"-"&amp;AV9</f>
+      </c>
+      <c r="J9" t="str">
+        <f>"Share "&amp;AV9</f>
+      </c>
+      <c r="M9" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s">
+        <v>6</v>
+      </c>
+      <c r="T9" t="s">
+        <v>7</v>
+      </c>
+      <c r="U9" t="s">
+        <v>8</v>
+      </c>
+      <c r="V9" t="s">
+        <v>9</v>
+      </c>
+      <c r="W9" t="s">
+        <v>10</v>
+      </c>
+      <c r="X9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="B10" t="str">
+        <f>N10</f>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f>AS10</f>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f>AU10</f>
+      </c>
+      <c r="E10" s="1" t="str">
+        <f>AV10</f>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="2" t="str">
+        <f>AV10/AU10-1</f>
+      </c>
+      <c r="H10" s="2" t="str">
+        <f>AV10/AS10-1</f>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2" t="str">
+        <f>AV10/Sum(AV$9:AV$13)</f>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="M10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1" t="n">
+        <v>36390869420.0532</v>
+      </c>
+      <c r="AL10" s="1" t="n">
+        <v>25896384490.0193</v>
+      </c>
+      <c r="AM10" s="1" t="n">
+        <v>19992431792.9514</v>
+      </c>
+      <c r="AN10" s="1" t="n">
+        <v>30286399449.1285</v>
+      </c>
+      <c r="AO10" s="1" t="n">
+        <v>41815605260.499</v>
+      </c>
+      <c r="AP10" s="1" t="n">
+        <v>37884999724.2074</v>
+      </c>
+      <c r="AQ10" s="1" t="n">
+        <v>41573208124.9344</v>
+      </c>
+      <c r="AR10" s="1" t="n">
+        <v>44992590026.8429</v>
+      </c>
+      <c r="AS10" s="1" t="n">
+        <v>57987138191.6318</v>
+      </c>
+      <c r="AT10" s="1" t="n">
+        <v>27730527616.1122</v>
+      </c>
+      <c r="AU10" s="1" t="n">
+        <v>40499381567.492</v>
+      </c>
+      <c r="AV10" s="1" t="n">
+        <v>65793606575.0316</v>
+      </c>
+      <c r="AW10" s="1"/>
+      <c r="AX10" s="1"/>
+      <c r="AY10" s="1"/>
+      <c r="AZ10" s="1"/>
+      <c r="BA10" s="1"/>
+      <c r="BB10" s="1"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <f>M11</f>
+      </c>
+      <c r="B11" t="str">
+        <f>N11</f>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f>AS11</f>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f>AU11</f>
+      </c>
+      <c r="E11" s="1" t="str">
+        <f>AV11</f>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="2" t="str">
+        <f>AV11/AU11-1</f>
+      </c>
+      <c r="H11" s="2" t="str">
+        <f>AV11/AS11-1</f>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2" t="str">
+        <f>AV11/Sum(AV$9:AV$13)</f>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="M11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" t="s">
+        <v>43</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1" t="n">
+        <v>432330186054.03</v>
+      </c>
+      <c r="AL11" s="1" t="n">
+        <v>368750341721.862</v>
+      </c>
+      <c r="AM11" s="1" t="n">
+        <v>338132277217.976</v>
+      </c>
+      <c r="AN11" s="1" t="n">
+        <v>312773586648.454</v>
+      </c>
+      <c r="AO11" s="1" t="n">
+        <v>328542572360.358</v>
+      </c>
+      <c r="AP11" s="1" t="n">
+        <v>353490764546.252</v>
+      </c>
+      <c r="AQ11" s="1" t="n">
+        <v>387087885833.412</v>
+      </c>
+      <c r="AR11" s="1" t="n">
+        <v>405081653062.029</v>
+      </c>
+      <c r="AS11" s="1" t="n">
+        <v>431127980837.866</v>
+      </c>
+      <c r="AT11" s="1" t="n">
+        <v>405348242639.538</v>
+      </c>
+      <c r="AU11" s="1" t="n">
+        <v>392694446194.055</v>
+      </c>
+      <c r="AV11" s="1" t="n">
+        <v>390453368175.855</v>
+      </c>
+      <c r="AW11" s="1"/>
+      <c r="AX11" s="1"/>
+      <c r="AY11" s="1"/>
+      <c r="AZ11" s="1"/>
+      <c r="BA11" s="1"/>
+      <c r="BB11" s="1"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <f>M12</f>
+      </c>
+      <c r="B12" t="str">
+        <f>N12</f>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f>AS12</f>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f>AU12</f>
+      </c>
+      <c r="E12" s="1" t="str">
+        <f>AV12</f>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="2" t="str">
+        <f>AV12/AU12-1</f>
+      </c>
+      <c r="H12" s="2" t="str">
+        <f>AV12/AS12-1</f>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2" t="str">
+        <f>AV12/Sum(AV$9:AV$13)</f>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="M12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O12" s="1" t="n">
+        <v>248917998790.874</v>
+      </c>
+      <c r="P12" s="1" t="n">
+        <v>271885202720.129</v>
+      </c>
+      <c r="Q12" s="1" t="n">
+        <v>240412560734.939</v>
+      </c>
+      <c r="R12" s="1" t="n">
+        <v>231031479111.987</v>
+      </c>
+      <c r="S12" s="1" t="n">
+        <v>218250472650.085</v>
+      </c>
+      <c r="T12" s="1" t="n">
+        <v>212677633977.603</v>
+      </c>
+      <c r="U12" s="1" t="n">
+        <v>212071611328.834</v>
+      </c>
+      <c r="V12" s="1" t="n">
+        <v>204034317412.979</v>
+      </c>
+      <c r="W12" s="1" t="n">
+        <v>203216983313.484</v>
+      </c>
+      <c r="X12" s="1" t="n">
+        <v>209688280565.4</v>
+      </c>
+      <c r="Y12" s="1" t="n">
+        <v>222214954426.99</v>
+      </c>
+      <c r="Z12" s="1" t="n">
+        <v>236349380759.976</v>
+      </c>
+      <c r="AA12" s="1" t="n">
+        <v>274407867785.644</v>
+      </c>
+      <c r="AB12" s="1" t="n">
+        <v>335392180495.053</v>
+      </c>
+      <c r="AC12" s="1" t="n">
+        <v>355611032054.797</v>
+      </c>
+      <c r="AD12" s="1" t="n">
+        <v>399034409966.236</v>
+      </c>
+      <c r="AE12" s="1" t="n">
+        <v>429398322936.051</v>
+      </c>
+      <c r="AF12" s="1" t="n">
+        <v>464598647461.156</v>
+      </c>
+      <c r="AG12" s="1" t="n">
+        <v>524270052465.528</v>
+      </c>
+      <c r="AH12" s="1" t="n">
+        <v>523860817748.021</v>
+      </c>
+      <c r="AI12" s="1" t="n">
+        <v>493294382841.294</v>
+      </c>
+      <c r="AJ12" s="1" t="n">
+        <v>491810684195.121</v>
+      </c>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="1" t="n">
+        <v>7816340.87652611</v>
+      </c>
+      <c r="AO12" s="1"/>
+      <c r="AP12" s="1"/>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="1"/>
+      <c r="AS12" s="1"/>
+      <c r="AT12" s="1"/>
+      <c r="AU12" s="1"/>
+      <c r="AV12" s="1"/>
+      <c r="AW12" s="1"/>
+      <c r="AX12" s="1"/>
+      <c r="AY12" s="1"/>
+      <c r="AZ12" s="1"/>
+      <c r="BA12" s="1"/>
+      <c r="BB12" s="1"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <f>M13</f>
+      </c>
+      <c r="B13" t="str">
+        <f>N13</f>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f>AS13</f>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f>AU13</f>
+      </c>
+      <c r="E13" s="1" t="str">
+        <f>AV13</f>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="2" t="str">
+        <f>AV13/AU13-1</f>
+      </c>
+      <c r="H13" s="2" t="str">
+        <f>AV13/AS13-1</f>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2" t="str">
+        <f>AV13/Sum(AV$9:AV$13)</f>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="M13" t="s">
+        <v>45</v>
+      </c>
+      <c r="N13" t="s">
+        <v>43</v>
+      </c>
+      <c r="O13" s="1" t="n">
+        <v>602606352101.694</v>
+      </c>
+      <c r="P13" s="1" t="n">
+        <v>620274552583.297</v>
+      </c>
+      <c r="Q13" s="1" t="n">
+        <v>555597728301.067</v>
+      </c>
+      <c r="R13" s="1" t="n">
+        <v>513282174398.476</v>
+      </c>
+      <c r="S13" s="1" t="n">
+        <v>468197035636.694</v>
+      </c>
+      <c r="T13" s="1" t="n">
+        <v>463718246766.96</v>
+      </c>
+      <c r="U13" s="1" t="n">
+        <v>456647075846.094</v>
+      </c>
+      <c r="V13" s="1" t="n">
+        <v>447160758493.617</v>
+      </c>
+      <c r="W13" s="1" t="n">
+        <v>450201318466.152</v>
+      </c>
+      <c r="X13" s="1" t="n">
+        <v>468044833590.874</v>
+      </c>
+      <c r="Y13" s="1" t="n">
+        <v>482426154042.693</v>
+      </c>
+      <c r="Z13" s="1" t="n">
+        <v>519564848435.905</v>
+      </c>
+      <c r="AA13" s="1" t="n">
+        <v>574278428296.36</v>
+      </c>
+      <c r="AB13" s="1" t="n">
+        <v>686572797072.324</v>
+      </c>
+      <c r="AC13" s="1" t="n">
+        <v>705848454956.435</v>
+      </c>
+      <c r="AD13" s="1" t="n">
+        <v>754734162091.152</v>
+      </c>
+      <c r="AE13" s="1" t="n">
+        <v>780154010413.381</v>
+      </c>
+      <c r="AF13" s="1" t="n">
+        <v>854960044741.897</v>
+      </c>
+      <c r="AG13" s="1" t="n">
+        <v>928290961219.569</v>
+      </c>
+      <c r="AH13" s="1" t="n">
+        <v>914201464665.633</v>
+      </c>
+      <c r="AI13" s="1" t="n">
+        <v>941647271844.871</v>
+      </c>
+      <c r="AJ13" s="1" t="n">
+        <v>919517495559.997</v>
+      </c>
+      <c r="AK13" s="1" t="n">
+        <v>854893667495.288</v>
+      </c>
+      <c r="AL13" s="1" t="n">
+        <v>753547648271.248</v>
+      </c>
+      <c r="AM13" s="1" t="n">
+        <v>734730935805.295</v>
+      </c>
+      <c r="AN13" s="1" t="n">
+        <v>707449202632.779</v>
+      </c>
+      <c r="AO13" s="1" t="n">
+        <v>729860428011.978</v>
+      </c>
+      <c r="AP13" s="1" t="n">
+        <v>743756641042.876</v>
+      </c>
+      <c r="AQ13" s="1" t="n">
+        <v>803641431930.826</v>
+      </c>
+      <c r="AR13" s="1" t="n">
+        <v>812550495675.43</v>
+      </c>
+      <c r="AS13" s="1" t="n">
+        <v>839984421891.179</v>
+      </c>
+      <c r="AT13" s="1" t="n">
+        <v>795568567643.196</v>
+      </c>
+      <c r="AU13" s="1" t="n">
+        <v>804667494998.361</v>
+      </c>
+      <c r="AV13" s="1" t="n">
+        <v>853072000000</v>
+      </c>
+      <c r="AW13" s="1" t="n">
+        <v>820251376580.069</v>
+      </c>
+      <c r="AX13" s="1" t="n">
+        <v>819313863553.375</v>
+      </c>
+      <c r="AY13" s="1" t="n">
+        <v>819450662554.299</v>
+      </c>
+      <c r="AZ13" s="1" t="n">
+        <v>819548057151.466</v>
+      </c>
+      <c r="BA13" s="1" t="n">
+        <v>819669680013.5</v>
+      </c>
+      <c r="BB13" s="1"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <f>M14</f>
+      </c>
+      <c r="B14" t="str">
+        <f>N14</f>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f>AS14</f>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f>AU14</f>
+      </c>
+      <c r="E14" s="1" t="str">
+        <f>AV14</f>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="2" t="str">
+        <f>AV14/AU14-1</f>
+      </c>
+      <c r="H14" s="2" t="str">
+        <f>AV14/AS14-1</f>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2" t="str">
+        <f>Sum(J$9:J$13)</f>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="M14" t="s">
+        <v>46</v>
+      </c>
+      <c r="N14" t="s">
+        <v>47</v>
+      </c>
+      <c r="O14" s="1" t="str">
+        <f>Sum(O10:O13)</f>
+      </c>
+      <c r="P14" s="1" t="str">
+        <f>Sum(P10:P13)</f>
+      </c>
+      <c r="Q14" s="1" t="str">
+        <f>Sum(Q10:Q13)</f>
+      </c>
+      <c r="R14" s="1" t="str">
+        <f>Sum(R10:R13)</f>
+      </c>
+      <c r="S14" s="1" t="str">
+        <f>Sum(S10:S13)</f>
+      </c>
+      <c r="T14" s="1" t="str">
+        <f>Sum(T10:T13)</f>
+      </c>
+      <c r="U14" s="1" t="str">
+        <f>Sum(U10:U13)</f>
+      </c>
+      <c r="V14" s="1" t="str">
+        <f>Sum(V10:V13)</f>
+      </c>
+      <c r="W14" s="1" t="str">
+        <f>Sum(W10:W13)</f>
+      </c>
+      <c r="X14" s="1" t="str">
+        <f>Sum(X10:X13)</f>
+      </c>
+      <c r="Y14" s="1" t="str">
+        <f>Sum(Y10:Y13)</f>
+      </c>
+      <c r="Z14" s="1" t="str">
+        <f>Sum(Z10:Z13)</f>
+      </c>
+      <c r="AA14" s="1" t="str">
+        <f>Sum(AA10:AA13)</f>
+      </c>
+      <c r="AB14" s="1" t="str">
+        <f>Sum(AB10:AB13)</f>
+      </c>
+      <c r="AC14" s="1" t="str">
+        <f>Sum(AC10:AC13)</f>
+      </c>
+      <c r="AD14" s="1" t="str">
+        <f>Sum(AD10:AD13)</f>
+      </c>
+      <c r="AE14" s="1" t="str">
+        <f>Sum(AE10:AE13)</f>
+      </c>
+      <c r="AF14" s="1" t="str">
+        <f>Sum(AF10:AF13)</f>
+      </c>
+      <c r="AG14" s="1" t="str">
+        <f>Sum(AG10:AG13)</f>
+      </c>
+      <c r="AH14" s="1" t="str">
+        <f>Sum(AH10:AH13)</f>
+      </c>
+      <c r="AI14" s="1" t="str">
+        <f>Sum(AI10:AI13)</f>
+      </c>
+      <c r="AJ14" s="1" t="str">
+        <f>Sum(AJ10:AJ13)</f>
+      </c>
+      <c r="AK14" s="1" t="str">
+        <f>Sum(AK10:AK13)</f>
+      </c>
+      <c r="AL14" s="1" t="str">
+        <f>Sum(AL10:AL13)</f>
+      </c>
+      <c r="AM14" s="1" t="str">
+        <f>Sum(AM10:AM13)</f>
+      </c>
+      <c r="AN14" s="1" t="str">
+        <f>Sum(AN10:AN13)</f>
+      </c>
+      <c r="AO14" s="1" t="str">
+        <f>Sum(AO10:AO13)</f>
+      </c>
+      <c r="AP14" s="1" t="str">
+        <f>Sum(AP10:AP13)</f>
+      </c>
+      <c r="AQ14" s="1" t="str">
+        <f>Sum(AQ10:AQ13)</f>
+      </c>
+      <c r="AR14" s="1" t="str">
+        <f>Sum(AR10:AR13)</f>
+      </c>
+      <c r="AS14" s="1" t="str">
+        <f>Sum(AS10:AS13)</f>
+      </c>
+      <c r="AT14" s="1" t="str">
+        <f>Sum(AT10:AT13)</f>
+      </c>
+      <c r="AU14" s="1" t="str">
+        <f>Sum(AU10:AU13)</f>
+      </c>
+      <c r="AV14" s="1" t="str">
+        <f>Sum(AV10:AV13)</f>
+      </c>
+      <c r="AW14" s="1" t="str">
+        <f>Sum(AW10:AW13)</f>
+      </c>
+      <c r="AX14" s="1" t="str">
+        <f>Sum(AX10:AX13)</f>
+      </c>
+      <c r="AY14" s="1" t="str">
+        <f>Sum(AY10:AY13)</f>
+      </c>
+      <c r="AZ14" s="1" t="str">
+        <f>Sum(AZ10:AZ13)</f>
+      </c>
+      <c r="BA14" s="1" t="str">
+        <f>Sum(BA10:BA13)</f>
+      </c>
+      <c r="BB14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>N1</f>
+      </c>
+      <c r="M1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>N2</f>
+      </c>
+      <c r="M2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3" t="n">
+        <v>1003576.97</v>
+      </c>
+      <c r="T2" s="3" t="n">
+        <v>357061685.3</v>
+      </c>
+      <c r="U2" s="3" t="n">
+        <v>1079497813.63</v>
+      </c>
+      <c r="V2" s="3" t="n">
+        <v>1009757071.82</v>
+      </c>
+      <c r="W2" s="3" t="n">
+        <v>2082784769.7</v>
+      </c>
+      <c r="X2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>N3</f>
+      </c>
+      <c r="M3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" s="3" t="n">
+        <v>129800148412.8</v>
+      </c>
+      <c r="P3" s="3" t="n">
+        <v>148647289683.223</v>
+      </c>
+      <c r="Q3" s="3" t="n">
+        <v>163617709805.785</v>
+      </c>
+      <c r="R3" s="3" t="n">
+        <v>183152473080.586</v>
+      </c>
+      <c r="S3" s="3" t="n">
+        <v>192794964659.917</v>
+      </c>
+      <c r="T3" s="3" t="n">
+        <v>218384238186.164</v>
+      </c>
+      <c r="U3" s="3" t="n">
+        <v>193995037853.426</v>
+      </c>
+      <c r="V3" s="3" t="n">
+        <v>209676052547.551</v>
+      </c>
+      <c r="W3" s="3" t="n">
+        <v>225642793034.253</v>
+      </c>
+      <c r="X3" s="3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>N4</f>
+      </c>
+      <c r="M4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" s="3" t="n">
+        <v>694883317.68</v>
+      </c>
+      <c r="P4" s="3" t="n">
+        <v>1433156330.3</v>
+      </c>
+      <c r="Q4" s="3" t="n">
+        <v>2115488321.87</v>
+      </c>
+      <c r="R4" s="3" t="n">
+        <v>3953909229.18</v>
+      </c>
+      <c r="S4" s="3" t="n">
+        <v>7210412511.82</v>
+      </c>
+      <c r="T4" s="3" t="n">
+        <v>15977844023.82</v>
+      </c>
+      <c r="U4" s="3" t="n">
+        <v>13587248379.41</v>
+      </c>
+      <c r="V4" s="3" t="n">
+        <v>9970880441.6</v>
+      </c>
+      <c r="W4" s="3" t="n">
+        <v>13597718627.55</v>
+      </c>
+      <c r="X4" s="3"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>N5</f>
+      </c>
+      <c r="M5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" s="3" t="n">
+        <v>23781261098.9443</v>
+      </c>
+      <c r="P5" s="3" t="n">
+        <v>24573276196.2158</v>
+      </c>
+      <c r="Q5" s="3" t="n">
+        <v>25597996648.6431</v>
+      </c>
+      <c r="R5" s="3" t="n">
+        <v>27242841176.5787</v>
+      </c>
+      <c r="S5" s="3" t="n">
+        <v>31029627313.4931</v>
+      </c>
+      <c r="T5" s="3" t="n">
+        <v>31730385296.1509</v>
+      </c>
+      <c r="U5" s="3" t="n">
+        <v>32848499043.4238</v>
+      </c>
+      <c r="V5" s="3" t="n">
+        <v>35326395851.8385</v>
+      </c>
+      <c r="W5" s="3" t="n">
+        <v>43247146108.6712</v>
+      </c>
+      <c r="X5" s="3"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <f>M6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>N6</f>
+      </c>
+      <c r="M6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N6" t="s">
+        <v>57</v>
+      </c>
+      <c r="O6" s="3" t="n">
+        <v>120603002254.88</v>
+      </c>
+      <c r="P6" s="3" t="n">
+        <v>125137638219.523</v>
+      </c>
+      <c r="Q6" s="3" t="n">
+        <v>131399208203.59</v>
+      </c>
+      <c r="R6" s="3" t="n">
+        <v>148574738300.029</v>
+      </c>
+      <c r="S6" s="3" t="n">
+        <v>159815344233.307</v>
+      </c>
+      <c r="T6" s="3" t="n">
+        <v>172402223143.601</v>
+      </c>
+      <c r="U6" s="3" t="n">
+        <v>160008849942.056</v>
+      </c>
+      <c r="V6" s="3" t="n">
+        <v>169216514631.91</v>
+      </c>
+      <c r="W6" s="3" t="n">
+        <v>187356782728.035</v>
+      </c>
+      <c r="X6" s="3"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>M7</f>
+      </c>
+      <c r="B7" t="str">
+        <f>N7</f>
+      </c>
+      <c r="M7" t="s">
+        <v>58</v>
+      </c>
+      <c r="N7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O7" s="3" t="n">
+        <v>30000</v>
+      </c>
+      <c r="P7" s="3" t="n">
+        <v>3581529.4308</v>
+      </c>
+      <c r="Q7" s="3" t="n">
+        <v>1345607</v>
+      </c>
+      <c r="R7" s="3" t="n">
+        <v>-212795.3691</v>
+      </c>
+      <c r="S7" s="3" t="n">
+        <v>465885</v>
+      </c>
+      <c r="T7" s="3" t="n">
+        <v>245000</v>
+      </c>
+      <c r="U7" s="3" t="n">
+        <v>386316</v>
+      </c>
+      <c r="V7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="3" t="n">
+        <v>10000</v>
+      </c>
+      <c r="X7" s="3"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <f>M8</f>
+      </c>
+      <c r="B8" t="str">
+        <f>N8</f>
+      </c>
+      <c r="M8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8" s="3" t="str">
+        <f>Sum(O2:O7)</f>
+      </c>
+      <c r="P8" s="3" t="str">
+        <f>Sum(P2:P7)</f>
+      </c>
+      <c r="Q8" s="3" t="str">
+        <f>Sum(Q2:Q7)</f>
+      </c>
+      <c r="R8" s="3" t="str">
+        <f>Sum(R2:R7)</f>
+      </c>
+      <c r="S8" s="3" t="str">
+        <f>Sum(S2:S7)</f>
+      </c>
+      <c r="T8" s="3" t="str">
+        <f>Sum(T2:T7)</f>
+      </c>
+      <c r="U8" s="3" t="str">
+        <f>Sum(U2:U7)</f>
+      </c>
+      <c r="V8" s="3" t="str">
+        <f>Sum(V2:V7)</f>
+      </c>
+      <c r="W8" s="3" t="str">
+        <f>Sum(W2:W7)</f>
+      </c>
+      <c r="X8" s="3"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <f>M11</f>
+      </c>
+      <c r="B11" t="str">
+        <f>N11</f>
+      </c>
+      <c r="C11" t="str">
+        <f>T11</f>
+      </c>
+      <c r="D11" t="str">
+        <f>V11</f>
+      </c>
+      <c r="E11" t="str">
+        <f>W11</f>
+      </c>
+      <c r="G11" t="str">
+        <f>V11&amp;"-"&amp;W11</f>
+      </c>
+      <c r="H11" t="str">
+        <f>T11&amp;"-"&amp;W11</f>
+      </c>
+      <c r="J11" t="str">
+        <f>"Share "&amp;W11</f>
+      </c>
+      <c r="M11" t="s">
+        <v>48</v>
+      </c>
+      <c r="N11" t="s">
+        <v>49</v>
+      </c>
+      <c r="O11" t="s">
+        <v>27</v>
+      </c>
+      <c r="P11" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>29</v>
+      </c>
+      <c r="R11" t="s">
+        <v>30</v>
+      </c>
+      <c r="S11" t="s">
+        <v>31</v>
+      </c>
+      <c r="T11" t="s">
+        <v>32</v>
+      </c>
+      <c r="U11" t="s">
+        <v>33</v>
+      </c>
+      <c r="V11" t="s">
+        <v>34</v>
+      </c>
+      <c r="W11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <f>M12</f>
+      </c>
+      <c r="B12" t="str">
+        <f>N12</f>
+      </c>
+      <c r="C12" s="3" t="str">
+        <f>T12</f>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f>V12</f>
+      </c>
+      <c r="E12" s="3" t="str">
+        <f>W12</f>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="2" t="str">
+        <f>W12/V12-1</f>
+      </c>
+      <c r="H12" s="2" t="str">
+        <f>W12/T12-1</f>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2" t="str">
+        <f>W12/Sum(W$11:W$17)</f>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="M12" t="s">
+        <v>50</v>
+      </c>
+      <c r="N12" t="s">
+        <v>51</v>
+      </c>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3" t="n">
+        <v>1176703.87838105</v>
+      </c>
+      <c r="T12" s="3" t="n">
+        <v>413259883.550845</v>
+      </c>
+      <c r="U12" s="3" t="n">
+        <v>1207830413.4704</v>
+      </c>
+      <c r="V12" s="3" t="n">
+        <v>1055950019.34882</v>
+      </c>
+      <c r="W12" s="3" t="n">
+        <v>2082784769.7</v>
+      </c>
+      <c r="X12" s="3"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <f>M13</f>
+      </c>
+      <c r="B13" t="str">
+        <f>N13</f>
+      </c>
+      <c r="C13" s="3" t="str">
+        <f>T13</f>
+      </c>
+      <c r="D13" s="3" t="str">
+        <f>V13</f>
+      </c>
+      <c r="E13" s="3" t="str">
+        <f>W13</f>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="2" t="str">
+        <f>W13/V13-1</f>
+      </c>
+      <c r="H13" s="2" t="str">
+        <f>W13/T13-1</f>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2" t="str">
+        <f>W13/Sum(W$11:W$17)</f>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="M13" t="s">
+        <v>52</v>
+      </c>
+      <c r="N13" t="s">
+        <v>51</v>
+      </c>
+      <c r="O13" s="3" t="n">
+        <v>162409841292.409</v>
+      </c>
+      <c r="P13" s="3" t="n">
+        <v>184516724215.902</v>
+      </c>
+      <c r="Q13" s="3" t="n">
+        <v>199728138398.289</v>
+      </c>
+      <c r="R13" s="3" t="n">
+        <v>218718669353.533</v>
+      </c>
+      <c r="S13" s="3" t="n">
+        <v>226053994291.7</v>
+      </c>
+      <c r="T13" s="3" t="n">
+        <v>252755892210.41</v>
+      </c>
+      <c r="U13" s="3" t="n">
+        <v>217057509355.939</v>
+      </c>
+      <c r="V13" s="3" t="n">
+        <v>219268017945.646</v>
+      </c>
+      <c r="W13" s="3" t="n">
+        <v>225642793034.253</v>
+      </c>
+      <c r="X13" s="3"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <f>M14</f>
+      </c>
+      <c r="B14" t="str">
+        <f>N14</f>
+      </c>
+      <c r="C14" s="3" t="str">
+        <f>T14</f>
+      </c>
+      <c r="D14" s="3" t="str">
+        <f>V14</f>
+      </c>
+      <c r="E14" s="3" t="str">
+        <f>W14</f>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="2" t="str">
+        <f>W14/V14-1</f>
+      </c>
+      <c r="H14" s="2" t="str">
+        <f>W14/T14-1</f>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2" t="str">
+        <f>W14/Sum(W$11:W$17)</f>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="M14" t="s">
+        <v>53</v>
+      </c>
+      <c r="N14" t="s">
+        <v>54</v>
+      </c>
+      <c r="O14" s="3" t="n">
+        <v>869458862.113459</v>
+      </c>
+      <c r="P14" s="3" t="n">
+        <v>1778985085.56584</v>
+      </c>
+      <c r="Q14" s="3" t="n">
+        <v>2582376595.00278</v>
+      </c>
+      <c r="R14" s="3" t="n">
+        <v>4721714923.11983</v>
+      </c>
+      <c r="S14" s="3" t="n">
+        <v>8454279662.6609</v>
+      </c>
+      <c r="T14" s="3" t="n">
+        <v>18492608511.4107</v>
+      </c>
+      <c r="U14" s="3" t="n">
+        <v>15202524378.2965</v>
+      </c>
+      <c r="V14" s="3" t="n">
+        <v>10427014268.1498</v>
+      </c>
+      <c r="W14" s="3" t="n">
+        <v>13597718627.55</v>
+      </c>
+      <c r="X14" s="3"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <f>M15</f>
+      </c>
+      <c r="B15" t="str">
+        <f>N15</f>
+      </c>
+      <c r="C15" s="3" t="str">
+        <f>T15</f>
+      </c>
+      <c r="D15" s="3" t="str">
+        <f>V15</f>
+      </c>
+      <c r="E15" s="3" t="str">
+        <f>W15</f>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="2" t="str">
+        <f>W15/V15-1</f>
+      </c>
+      <c r="H15" s="2" t="str">
+        <f>W15/T15-1</f>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2" t="str">
+        <f>W15/Sum(W$11:W$17)</f>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="M15" t="s">
+        <v>55</v>
+      </c>
+      <c r="N15" t="s">
+        <v>54</v>
+      </c>
+      <c r="O15" s="3" t="n">
+        <v>29755827616.8504</v>
+      </c>
+      <c r="P15" s="3" t="n">
+        <v>30502947188.8857</v>
+      </c>
+      <c r="Q15" s="3" t="n">
+        <v>31247474515.0013</v>
+      </c>
+      <c r="R15" s="3" t="n">
+        <v>32533101362.6512</v>
+      </c>
+      <c r="S15" s="3" t="n">
+        <v>36382543537.7477</v>
+      </c>
+      <c r="T15" s="3" t="n">
+        <v>36724453707.4691</v>
+      </c>
+      <c r="U15" s="3" t="n">
+        <v>36753586418.1931</v>
+      </c>
+      <c r="V15" s="3" t="n">
+        <v>36942458165.7425</v>
+      </c>
+      <c r="W15" s="3" t="n">
+        <v>43247146108.6712</v>
+      </c>
+      <c r="X15" s="3"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <f>M16</f>
+      </c>
+      <c r="B16" t="str">
+        <f>N16</f>
+      </c>
+      <c r="C16" s="3" t="str">
+        <f>T16</f>
+      </c>
+      <c r="D16" s="3" t="str">
+        <f>V16</f>
+      </c>
+      <c r="E16" s="3" t="str">
+        <f>W16</f>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="2" t="str">
+        <f>W16/V16-1</f>
+      </c>
+      <c r="H16" s="2" t="str">
+        <f>W16/T16-1</f>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2" t="str">
+        <f>W16/Sum(W$11:W$17)</f>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="M16" t="s">
+        <v>56</v>
+      </c>
+      <c r="N16" t="s">
+        <v>57</v>
+      </c>
+      <c r="O16" s="3" t="n">
+        <v>150902095992.3</v>
+      </c>
+      <c r="P16" s="3" t="n">
+        <v>155334060443.263</v>
+      </c>
+      <c r="Q16" s="3" t="n">
+        <v>160399013484.935</v>
+      </c>
+      <c r="R16" s="3" t="n">
+        <v>177426318705.693</v>
+      </c>
+      <c r="S16" s="3" t="n">
+        <v>187385064629.507</v>
+      </c>
+      <c r="T16" s="3" t="n">
+        <v>199536734389.102</v>
+      </c>
+      <c r="U16" s="3" t="n">
+        <v>179030983615.014</v>
+      </c>
+      <c r="V16" s="3" t="n">
+        <v>176957593946.476</v>
+      </c>
+      <c r="W16" s="3" t="n">
+        <v>187356782728.035</v>
+      </c>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <f>M17</f>
+      </c>
+      <c r="B17" t="str">
+        <f>N17</f>
+      </c>
+      <c r="C17" s="3" t="str">
+        <f>T17</f>
+      </c>
+      <c r="D17" s="3" t="str">
+        <f>V17</f>
+      </c>
+      <c r="E17" s="3" t="str">
+        <f>W17</f>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="2" t="str">
+        <f>W17/V17-1</f>
+      </c>
+      <c r="H17" s="2" t="str">
+        <f>W17/T17-1</f>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2" t="str">
+        <f>W17/Sum(W$11:W$17)</f>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="M17" t="s">
+        <v>58</v>
+      </c>
+      <c r="N17" t="s">
+        <v>58</v>
+      </c>
+      <c r="O17" s="3" t="n">
+        <v>37536.9003683804</v>
+      </c>
+      <c r="P17" s="3" t="n">
+        <v>4445772.80663764</v>
+      </c>
+      <c r="Q17" s="3" t="n">
+        <v>1642582.46521554</v>
+      </c>
+      <c r="R17" s="3" t="n">
+        <v>-254117.889817779</v>
+      </c>
+      <c r="S17" s="3" t="n">
+        <v>546254.749528136</v>
+      </c>
+      <c r="T17" s="3" t="n">
+        <v>283560.728127099</v>
+      </c>
+      <c r="U17" s="3" t="n">
+        <v>432241.925938871</v>
+      </c>
+      <c r="V17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3" t="n">
+        <v>10000</v>
+      </c>
+      <c r="X17" s="3"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <f>M18</f>
+      </c>
+      <c r="B18" t="str">
+        <f>N18</f>
+      </c>
+      <c r="C18" s="3" t="str">
+        <f>T18</f>
+      </c>
+      <c r="D18" s="3" t="str">
+        <f>V18</f>
+      </c>
+      <c r="E18" s="3" t="str">
+        <f>W18</f>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="2" t="str">
+        <f>W18/V18-1</f>
+      </c>
+      <c r="H18" s="2" t="str">
+        <f>W18/T18-1</f>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2" t="str">
+        <f>Sum(J$11:J$17)</f>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="M18" t="s">
+        <v>46</v>
+      </c>
+      <c r="N18" t="s">
+        <v>47</v>
+      </c>
+      <c r="O18" s="3" t="str">
+        <f>Sum(O12:O17)</f>
+      </c>
+      <c r="P18" s="3" t="str">
+        <f>Sum(P12:P17)</f>
+      </c>
+      <c r="Q18" s="3" t="str">
+        <f>Sum(Q12:Q17)</f>
+      </c>
+      <c r="R18" s="3" t="str">
+        <f>Sum(R12:R17)</f>
+      </c>
+      <c r="S18" s="3" t="str">
+        <f>Sum(S12:S17)</f>
+      </c>
+      <c r="T18" s="3" t="str">
+        <f>Sum(T12:T17)</f>
+      </c>
+      <c r="U18" s="3" t="str">
+        <f>Sum(U12:U17)</f>
+      </c>
+      <c r="V18" s="3" t="str">
+        <f>Sum(V12:V17)</f>
+      </c>
+      <c r="W18" s="3" t="str">
+        <f>Sum(W12:W17)</f>
+      </c>
+      <c r="X18" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010025DE50B441C283468F0A19FFD0E26C8A" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9d7eaad3f2307abdda69af20ceb01590">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bec14128-4b25-4ac8-9cbb-ac2bd4640a4f" xmlns:ns3="361d4f7d-a938-4275-8fcb-42d4143832a1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7531f5b5039f72b900df0adb30279836" ns2:_="" ns3:_="">
+    <xsd:import namespace="bec14128-4b25-4ac8-9cbb-ac2bd4640a4f"/>
+    <xsd:import namespace="361d4f7d-a938-4275-8fcb-42d4143832a1"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns2:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:LastSharedByUser" minOccurs="0"/>
+                <xsd:element ref="ns2:LastSharedByTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bec14128-4b25-4ac8-9cbb-ac2bd4640a4f" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="9" nillable="true" ma:displayName="Sharing Hint Hash" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="10" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="LastSharedByUser" ma:index="11" nillable="true" ma:displayName="Last Shared By User" ma:description="" ma:internalName="LastSharedByUser" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="LastSharedByTime" ma:index="12" nillable="true" ma:displayName="Last Shared By Time" ma:description="" ma:internalName="LastSharedByTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:DateTime"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="26" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{973caeba-2f6e-4377-9853-72725798a959}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="bec14128-4b25-4ac8-9cbb-ac2bd4640a4f">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="361d4f7d-a938-4275-8fcb-42d4143832a1" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="13" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="14" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="15" nillable="true" ma:displayName="MediaServiceAutoTags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="18" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="19" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="20" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="21" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="22" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="23" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="25" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="ba7e76ad-b1d6-47d4-8d36-3cc9679ac96f" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="27" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="28" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D31577A-01B4-4631-8F0C-D8D5DB59688F}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2E89E69-F9C9-4727-B0BC-4B94DDA0BB9F}"/>
 </file>
--- a/Output/AcqTrends/NPS2024/DoD_2024_NPS.xlsx
+++ b/Output/AcqTrends/NPS2024/DoD_2024_NPS.xlsx
@@ -223,10 +223,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="166" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
+  <numFmts count="4">
+    <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="170" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="172" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -262,12 +263,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -708,70 +710,70 @@
       <c r="N2" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="1"/>
-      <c r="AJ2" s="1"/>
-      <c r="AK2" s="1" t="n">
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2" t="n">
         <v>27766409244.5725</v>
       </c>
-      <c r="AL2" s="1" t="n">
+      <c r="AL2" s="2" t="n">
         <v>20117589432.5252</v>
       </c>
-      <c r="AM2" s="1" t="n">
+      <c r="AM2" s="2" t="n">
         <v>15814444285.1675</v>
       </c>
-      <c r="AN2" s="1" t="n">
+      <c r="AN2" s="2" t="n">
         <v>24205301305.0384</v>
       </c>
-      <c r="AO2" s="1" t="n">
+      <c r="AO2" s="2" t="n">
         <v>33686791345.6108</v>
       </c>
-      <c r="AP2" s="1" t="n">
+      <c r="AP2" s="2" t="n">
         <v>31035471218.9151</v>
       </c>
-      <c r="AQ2" s="1" t="n">
+      <c r="AQ2" s="2" t="n">
         <v>34812921569.4345</v>
       </c>
-      <c r="AR2" s="1" t="n">
+      <c r="AR2" s="2" t="n">
         <v>38372888881.5383</v>
       </c>
-      <c r="AS2" s="1" t="n">
+      <c r="AS2" s="2" t="n">
         <v>50101609453.4146</v>
       </c>
-      <c r="AT2" s="1" t="n">
+      <c r="AT2" s="2" t="n">
         <v>24784144858.8701</v>
       </c>
-      <c r="AU2" s="1" t="n">
+      <c r="AU2" s="2" t="n">
         <v>38727720245.0645</v>
       </c>
-      <c r="AV2" s="1" t="n">
+      <c r="AV2" s="2" t="n">
         <v>65793606575.0316</v>
       </c>
-      <c r="AW2" s="1"/>
-      <c r="AX2" s="1"/>
-      <c r="AY2" s="1"/>
-      <c r="AZ2" s="1"/>
-      <c r="BA2" s="1"/>
-      <c r="BB2" s="1"/>
+      <c r="AW2" s="2"/>
+      <c r="AX2" s="2"/>
+      <c r="AY2" s="2"/>
+      <c r="AZ2" s="2"/>
+      <c r="BA2" s="2"/>
+      <c r="BB2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -786,70 +788,70 @@
       <c r="N3" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
-      <c r="AI3" s="1"/>
-      <c r="AJ3" s="1"/>
-      <c r="AK3" s="1" t="n">
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2" t="n">
         <v>329870021411.014</v>
       </c>
-      <c r="AL3" s="1" t="n">
+      <c r="AL3" s="2" t="n">
         <v>286463462910.156</v>
       </c>
-      <c r="AM3" s="1" t="n">
+      <c r="AM3" s="2" t="n">
         <v>267469916339.332</v>
       </c>
-      <c r="AN3" s="1" t="n">
+      <c r="AN3" s="2" t="n">
         <v>249972893535.921</v>
       </c>
-      <c r="AO3" s="1" t="n">
+      <c r="AO3" s="2" t="n">
         <v>264674994282.781</v>
       </c>
-      <c r="AP3" s="1" t="n">
+      <c r="AP3" s="2" t="n">
         <v>289580375586.423</v>
       </c>
-      <c r="AQ3" s="1" t="n">
+      <c r="AQ3" s="2" t="n">
         <v>324142899184.017</v>
       </c>
-      <c r="AR3" s="1" t="n">
+      <c r="AR3" s="2" t="n">
         <v>345482517268.407</v>
       </c>
-      <c r="AS3" s="1" t="n">
+      <c r="AS3" s="2" t="n">
         <v>372499943849.534</v>
       </c>
-      <c r="AT3" s="1" t="n">
+      <c r="AT3" s="2" t="n">
         <v>362279784320.787</v>
       </c>
-      <c r="AU3" s="1" t="n">
+      <c r="AU3" s="2" t="n">
         <v>375515873709.073</v>
       </c>
-      <c r="AV3" s="1" t="n">
+      <c r="AV3" s="2" t="n">
         <v>390453368175.855</v>
       </c>
-      <c r="AW3" s="1"/>
-      <c r="AX3" s="1"/>
-      <c r="AY3" s="1"/>
-      <c r="AZ3" s="1"/>
-      <c r="BA3" s="1"/>
-      <c r="BB3" s="1"/>
+      <c r="AW3" s="2"/>
+      <c r="AX3" s="2"/>
+      <c r="AY3" s="2"/>
+      <c r="AZ3" s="2"/>
+      <c r="BA3" s="2"/>
+      <c r="BB3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -864,92 +866,92 @@
       <c r="N4" t="s">
         <v>44</v>
       </c>
-      <c r="O4" s="1" t="n">
+      <c r="O4" s="2" t="n">
         <v>120350129405</v>
       </c>
-      <c r="P4" s="1" t="n">
+      <c r="P4" s="2" t="n">
         <v>136154193844</v>
       </c>
-      <c r="Q4" s="1" t="n">
+      <c r="Q4" s="2" t="n">
         <v>123406660550</v>
       </c>
-      <c r="R4" s="1" t="n">
+      <c r="R4" s="2" t="n">
         <v>121373382142</v>
       </c>
-      <c r="S4" s="1" t="n">
+      <c r="S4" s="2" t="n">
         <v>117161902725</v>
       </c>
-      <c r="T4" s="1" t="n">
+      <c r="T4" s="2" t="n">
         <v>116592014868</v>
       </c>
-      <c r="U4" s="1" t="n">
+      <c r="U4" s="2" t="n">
         <v>118448779098</v>
       </c>
-      <c r="V4" s="1" t="n">
+      <c r="V4" s="2" t="n">
         <v>115982151879</v>
       </c>
-      <c r="W4" s="1" t="n">
+      <c r="W4" s="2" t="n">
         <v>116965882167</v>
       </c>
-      <c r="X4" s="1" t="n">
+      <c r="X4" s="2" t="n">
         <v>122185036488</v>
       </c>
-      <c r="Y4" s="1" t="n">
+      <c r="Y4" s="2" t="n">
         <v>132178486506.387</v>
       </c>
-      <c r="Z4" s="1" t="n">
+      <c r="Z4" s="2" t="n">
         <v>143993638543.836</v>
       </c>
-      <c r="AA4" s="1" t="n">
+      <c r="AA4" s="2" t="n">
         <v>169810521226.128</v>
       </c>
-      <c r="AB4" s="1" t="n">
+      <c r="AB4" s="2" t="n">
         <v>211533087512.337</v>
       </c>
-      <c r="AC4" s="1" t="n">
+      <c r="AC4" s="2" t="n">
         <v>229761957048.789</v>
       </c>
-      <c r="AD4" s="1" t="n">
+      <c r="AD4" s="2" t="n">
         <v>265663361025.89</v>
       </c>
-      <c r="AE4" s="1" t="n">
+      <c r="AE4" s="2" t="n">
         <v>295165178110.853</v>
       </c>
-      <c r="AF4" s="1" t="n">
+      <c r="AF4" s="2" t="n">
         <v>328153480580.909</v>
       </c>
-      <c r="AG4" s="1" t="n">
+      <c r="AG4" s="2" t="n">
         <v>377988099747.404</v>
       </c>
-      <c r="AH4" s="1" t="n">
+      <c r="AH4" s="2" t="n">
         <v>381555380786.985</v>
       </c>
-      <c r="AI4" s="1" t="n">
+      <c r="AI4" s="2" t="n">
         <v>362403868841.008</v>
       </c>
-      <c r="AJ4" s="1" t="n">
+      <c r="AJ4" s="2" t="n">
         <v>368565915961.162</v>
       </c>
-      <c r="AK4" s="1"/>
-      <c r="AL4" s="1"/>
-      <c r="AM4" s="1"/>
-      <c r="AN4" s="1" t="n">
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2" t="n">
         <v>6246925.665</v>
       </c>
-      <c r="AO4" s="1"/>
-      <c r="AP4" s="1"/>
-      <c r="AQ4" s="1"/>
-      <c r="AR4" s="1"/>
-      <c r="AS4" s="1"/>
-      <c r="AT4" s="1"/>
-      <c r="AU4" s="1"/>
-      <c r="AV4" s="1"/>
-      <c r="AW4" s="1"/>
-      <c r="AX4" s="1"/>
-      <c r="AY4" s="1"/>
-      <c r="AZ4" s="1"/>
-      <c r="BA4" s="1"/>
-      <c r="BB4" s="1"/>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="2"/>
+      <c r="AU4" s="2"/>
+      <c r="AV4" s="2"/>
+      <c r="AW4" s="2"/>
+      <c r="AX4" s="2"/>
+      <c r="AY4" s="2"/>
+      <c r="AZ4" s="2"/>
+      <c r="BA4" s="2"/>
+      <c r="BB4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -964,124 +966,124 @@
       <c r="N5" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="1" t="n">
+      <c r="O5" s="2" t="n">
         <v>291356000000</v>
       </c>
-      <c r="P5" s="1" t="n">
+      <c r="P5" s="2" t="n">
         <v>310620000000</v>
       </c>
-      <c r="Q5" s="1" t="n">
+      <c r="Q5" s="2" t="n">
         <v>285195000000</v>
       </c>
-      <c r="R5" s="1" t="n">
+      <c r="R5" s="2" t="n">
         <v>269655000000</v>
       </c>
-      <c r="S5" s="1" t="n">
+      <c r="S5" s="2" t="n">
         <v>251339000000</v>
       </c>
-      <c r="T5" s="1" t="n">
+      <c r="T5" s="2" t="n">
         <v>254215000000</v>
       </c>
-      <c r="U5" s="1" t="n">
+      <c r="U5" s="2" t="n">
         <v>255052000000</v>
       </c>
-      <c r="V5" s="1" t="n">
+      <c r="V5" s="2" t="n">
         <v>254186000000</v>
       </c>
-      <c r="W5" s="1" t="n">
+      <c r="W5" s="2" t="n">
         <v>259123000000</v>
       </c>
-      <c r="X5" s="1" t="n">
+      <c r="X5" s="2" t="n">
         <v>272729000000</v>
       </c>
-      <c r="Y5" s="1" t="n">
+      <c r="Y5" s="2" t="n">
         <v>286958000000</v>
       </c>
-      <c r="Z5" s="1" t="n">
+      <c r="Z5" s="2" t="n">
         <v>316540000000</v>
       </c>
-      <c r="AA5" s="1" t="n">
+      <c r="AA5" s="2" t="n">
         <v>355378000000</v>
       </c>
-      <c r="AB5" s="1" t="n">
+      <c r="AB5" s="2" t="n">
         <v>433024000000</v>
       </c>
-      <c r="AC5" s="1" t="n">
+      <c r="AC5" s="2" t="n">
         <v>456052000000</v>
       </c>
-      <c r="AD5" s="1" t="n">
+      <c r="AD5" s="2" t="n">
         <v>502476000000</v>
       </c>
-      <c r="AE5" s="1" t="n">
+      <c r="AE5" s="2" t="n">
         <v>536272000000</v>
       </c>
-      <c r="AF5" s="1" t="n">
+      <c r="AF5" s="2" t="n">
         <v>603872000000</v>
       </c>
-      <c r="AG5" s="1" t="n">
+      <c r="AG5" s="2" t="n">
         <v>669279000000</v>
       </c>
-      <c r="AH5" s="1" t="n">
+      <c r="AH5" s="2" t="n">
         <v>665861000000</v>
       </c>
-      <c r="AI5" s="1" t="n">
+      <c r="AI5" s="2" t="n">
         <v>691791000000</v>
       </c>
-      <c r="AJ5" s="1" t="n">
+      <c r="AJ5" s="2" t="n">
         <v>689092000000</v>
       </c>
-      <c r="AK5" s="1" t="n">
+      <c r="AK5" s="2" t="n">
         <v>652288000000</v>
       </c>
-      <c r="AL5" s="1" t="n">
+      <c r="AL5" s="2" t="n">
         <v>585393000000</v>
       </c>
-      <c r="AM5" s="1" t="n">
+      <c r="AM5" s="2" t="n">
         <v>581188000000</v>
       </c>
-      <c r="AN5" s="1" t="n">
+      <c r="AN5" s="2" t="n">
         <v>565403000000</v>
       </c>
-      <c r="AO5" s="1" t="n">
+      <c r="AO5" s="2" t="n">
         <v>587978000000</v>
       </c>
-      <c r="AP5" s="1" t="n">
+      <c r="AP5" s="2" t="n">
         <v>609287000000</v>
       </c>
-      <c r="AQ5" s="1" t="n">
+      <c r="AQ5" s="2" t="n">
         <v>672960000000</v>
       </c>
-      <c r="AR5" s="1" t="n">
+      <c r="AR5" s="2" t="n">
         <v>693001000000</v>
       </c>
-      <c r="AS5" s="1" t="n">
+      <c r="AS5" s="2" t="n">
         <v>725757000000</v>
       </c>
-      <c r="AT5" s="1" t="n">
+      <c r="AT5" s="2" t="n">
         <v>711039000000</v>
       </c>
-      <c r="AU5" s="1" t="n">
+      <c r="AU5" s="2" t="n">
         <v>769467000000</v>
       </c>
-      <c r="AV5" s="1" t="n">
+      <c r="AV5" s="2" t="n">
         <v>853072000000</v>
       </c>
-      <c r="AW5" s="1" t="n">
+      <c r="AW5" s="2" t="n">
         <v>842157000000</v>
       </c>
-      <c r="AX5" s="1" t="n">
+      <c r="AX5" s="2" t="n">
         <v>859652000000</v>
       </c>
-      <c r="AY5" s="1" t="n">
+      <c r="AY5" s="2" t="n">
         <v>877652000000</v>
       </c>
-      <c r="AZ5" s="1" t="n">
+      <c r="AZ5" s="2" t="n">
         <v>896152000000</v>
       </c>
-      <c r="BA5" s="1" t="n">
+      <c r="BA5" s="2" t="n">
         <v>914952000000</v>
       </c>
-      <c r="BB5" s="1"/>
+      <c r="BB5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -1096,124 +1098,124 @@
       <c r="N6" t="s">
         <v>47</v>
       </c>
-      <c r="O6" s="1" t="str">
+      <c r="O6" s="2" t="str">
         <f>Sum(O2:O5)</f>
       </c>
-      <c r="P6" s="1" t="str">
+      <c r="P6" s="2" t="str">
         <f>Sum(P2:P5)</f>
       </c>
-      <c r="Q6" s="1" t="str">
+      <c r="Q6" s="2" t="str">
         <f>Sum(Q2:Q5)</f>
       </c>
-      <c r="R6" s="1" t="str">
+      <c r="R6" s="2" t="str">
         <f>Sum(R2:R5)</f>
       </c>
-      <c r="S6" s="1" t="str">
+      <c r="S6" s="2" t="str">
         <f>Sum(S2:S5)</f>
       </c>
-      <c r="T6" s="1" t="str">
+      <c r="T6" s="2" t="str">
         <f>Sum(T2:T5)</f>
       </c>
-      <c r="U6" s="1" t="str">
+      <c r="U6" s="2" t="str">
         <f>Sum(U2:U5)</f>
       </c>
-      <c r="V6" s="1" t="str">
+      <c r="V6" s="2" t="str">
         <f>Sum(V2:V5)</f>
       </c>
-      <c r="W6" s="1" t="str">
+      <c r="W6" s="2" t="str">
         <f>Sum(W2:W5)</f>
       </c>
-      <c r="X6" s="1" t="str">
+      <c r="X6" s="2" t="str">
         <f>Sum(X2:X5)</f>
       </c>
-      <c r="Y6" s="1" t="str">
+      <c r="Y6" s="2" t="str">
         <f>Sum(Y2:Y5)</f>
       </c>
-      <c r="Z6" s="1" t="str">
+      <c r="Z6" s="2" t="str">
         <f>Sum(Z2:Z5)</f>
       </c>
-      <c r="AA6" s="1" t="str">
+      <c r="AA6" s="2" t="str">
         <f>Sum(AA2:AA5)</f>
       </c>
-      <c r="AB6" s="1" t="str">
+      <c r="AB6" s="2" t="str">
         <f>Sum(AB2:AB5)</f>
       </c>
-      <c r="AC6" s="1" t="str">
+      <c r="AC6" s="2" t="str">
         <f>Sum(AC2:AC5)</f>
       </c>
-      <c r="AD6" s="1" t="str">
+      <c r="AD6" s="2" t="str">
         <f>Sum(AD2:AD5)</f>
       </c>
-      <c r="AE6" s="1" t="str">
+      <c r="AE6" s="2" t="str">
         <f>Sum(AE2:AE5)</f>
       </c>
-      <c r="AF6" s="1" t="str">
+      <c r="AF6" s="2" t="str">
         <f>Sum(AF2:AF5)</f>
       </c>
-      <c r="AG6" s="1" t="str">
+      <c r="AG6" s="2" t="str">
         <f>Sum(AG2:AG5)</f>
       </c>
-      <c r="AH6" s="1" t="str">
+      <c r="AH6" s="2" t="str">
         <f>Sum(AH2:AH5)</f>
       </c>
-      <c r="AI6" s="1" t="str">
+      <c r="AI6" s="2" t="str">
         <f>Sum(AI2:AI5)</f>
       </c>
-      <c r="AJ6" s="1" t="str">
+      <c r="AJ6" s="2" t="str">
         <f>Sum(AJ2:AJ5)</f>
       </c>
-      <c r="AK6" s="1" t="str">
+      <c r="AK6" s="2" t="str">
         <f>Sum(AK2:AK5)</f>
       </c>
-      <c r="AL6" s="1" t="str">
+      <c r="AL6" s="2" t="str">
         <f>Sum(AL2:AL5)</f>
       </c>
-      <c r="AM6" s="1" t="str">
+      <c r="AM6" s="2" t="str">
         <f>Sum(AM2:AM5)</f>
       </c>
-      <c r="AN6" s="1" t="str">
+      <c r="AN6" s="2" t="str">
         <f>Sum(AN2:AN5)</f>
       </c>
-      <c r="AO6" s="1" t="str">
+      <c r="AO6" s="2" t="str">
         <f>Sum(AO2:AO5)</f>
       </c>
-      <c r="AP6" s="1" t="str">
+      <c r="AP6" s="2" t="str">
         <f>Sum(AP2:AP5)</f>
       </c>
-      <c r="AQ6" s="1" t="str">
+      <c r="AQ6" s="2" t="str">
         <f>Sum(AQ2:AQ5)</f>
       </c>
-      <c r="AR6" s="1" t="str">
+      <c r="AR6" s="2" t="str">
         <f>Sum(AR2:AR5)</f>
       </c>
-      <c r="AS6" s="1" t="str">
+      <c r="AS6" s="2" t="str">
         <f>Sum(AS2:AS5)</f>
       </c>
-      <c r="AT6" s="1" t="str">
+      <c r="AT6" s="2" t="str">
         <f>Sum(AT2:AT5)</f>
       </c>
-      <c r="AU6" s="1" t="str">
+      <c r="AU6" s="2" t="str">
         <f>Sum(AU2:AU5)</f>
       </c>
-      <c r="AV6" s="1" t="str">
+      <c r="AV6" s="2" t="str">
         <f>Sum(AV2:AV5)</f>
       </c>
-      <c r="AW6" s="1" t="str">
+      <c r="AW6" s="2" t="str">
         <f>Sum(AW2:AW5)</f>
       </c>
-      <c r="AX6" s="1" t="str">
+      <c r="AX6" s="2" t="str">
         <f>Sum(AX2:AX5)</f>
       </c>
-      <c r="AY6" s="1" t="str">
+      <c r="AY6" s="2" t="str">
         <f>Sum(AY2:AY5)</f>
       </c>
-      <c r="AZ6" s="1" t="str">
+      <c r="AZ6" s="2" t="str">
         <f>Sum(AZ2:AZ5)</f>
       </c>
-      <c r="BA6" s="1" t="str">
+      <c r="BA6" s="2" t="str">
         <f>Sum(BA2:BA5)</f>
       </c>
-      <c r="BB6" s="1"/>
+      <c r="BB6" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -1371,97 +1373,97 @@
       <c r="B10" t="str">
         <f>N10</f>
       </c>
-      <c r="C10" s="1" t="str">
+      <c r="C10" s="2" t="str">
         <f>AS10</f>
       </c>
-      <c r="D10" s="1" t="str">
+      <c r="D10" s="2" t="str">
         <f>AU10</f>
       </c>
-      <c r="E10" s="1" t="str">
+      <c r="E10" s="2" t="str">
         <f>AV10</f>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="2" t="str">
+      <c r="F10" s="2"/>
+      <c r="G10" s="1" t="str">
         <f>AV10/AU10-1</f>
       </c>
-      <c r="H10" s="2" t="str">
+      <c r="H10" s="1" t="str">
         <f>AV10/AS10-1</f>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2" t="str">
+      <c r="I10" s="1"/>
+      <c r="J10" s="1" t="str">
         <f>AV10/Sum(AV$9:AV$13)</f>
       </c>
-      <c r="K10" s="2"/>
+      <c r="K10" s="1"/>
       <c r="M10" t="s">
         <v>41</v>
       </c>
       <c r="N10" t="s">
         <v>42</v>
       </c>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
-      <c r="AI10" s="1"/>
-      <c r="AJ10" s="1"/>
-      <c r="AK10" s="1" t="n">
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="2" t="n">
         <v>36390869420.0532</v>
       </c>
-      <c r="AL10" s="1" t="n">
+      <c r="AL10" s="2" t="n">
         <v>25896384490.0193</v>
       </c>
-      <c r="AM10" s="1" t="n">
+      <c r="AM10" s="2" t="n">
         <v>19992431792.9514</v>
       </c>
-      <c r="AN10" s="1" t="n">
+      <c r="AN10" s="2" t="n">
         <v>30286399449.1285</v>
       </c>
-      <c r="AO10" s="1" t="n">
+      <c r="AO10" s="2" t="n">
         <v>41815605260.499</v>
       </c>
-      <c r="AP10" s="1" t="n">
+      <c r="AP10" s="2" t="n">
         <v>37884999724.2074</v>
       </c>
-      <c r="AQ10" s="1" t="n">
+      <c r="AQ10" s="2" t="n">
         <v>41573208124.9344</v>
       </c>
-      <c r="AR10" s="1" t="n">
+      <c r="AR10" s="2" t="n">
         <v>44992590026.8429</v>
       </c>
-      <c r="AS10" s="1" t="n">
+      <c r="AS10" s="2" t="n">
         <v>57987138191.6318</v>
       </c>
-      <c r="AT10" s="1" t="n">
+      <c r="AT10" s="2" t="n">
         <v>27730527616.1122</v>
       </c>
-      <c r="AU10" s="1" t="n">
+      <c r="AU10" s="2" t="n">
         <v>40499381567.492</v>
       </c>
-      <c r="AV10" s="1" t="n">
+      <c r="AV10" s="2" t="n">
         <v>65793606575.0316</v>
       </c>
-      <c r="AW10" s="1"/>
-      <c r="AX10" s="1"/>
-      <c r="AY10" s="1"/>
-      <c r="AZ10" s="1"/>
-      <c r="BA10" s="1"/>
-      <c r="BB10" s="1"/>
+      <c r="AW10" s="2"/>
+      <c r="AX10" s="2"/>
+      <c r="AY10" s="2"/>
+      <c r="AZ10" s="2"/>
+      <c r="BA10" s="2"/>
+      <c r="BB10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -1470,97 +1472,97 @@
       <c r="B11" t="str">
         <f>N11</f>
       </c>
-      <c r="C11" s="1" t="str">
+      <c r="C11" s="2" t="str">
         <f>AS11</f>
       </c>
-      <c r="D11" s="1" t="str">
+      <c r="D11" s="2" t="str">
         <f>AU11</f>
       </c>
-      <c r="E11" s="1" t="str">
+      <c r="E11" s="2" t="str">
         <f>AV11</f>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="2" t="str">
+      <c r="F11" s="2"/>
+      <c r="G11" s="1" t="str">
         <f>AV11/AU11-1</f>
       </c>
-      <c r="H11" s="2" t="str">
+      <c r="H11" s="1" t="str">
         <f>AV11/AS11-1</f>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2" t="str">
+      <c r="I11" s="1"/>
+      <c r="J11" s="1" t="str">
         <f>AV11/Sum(AV$9:AV$13)</f>
       </c>
-      <c r="K11" s="2"/>
+      <c r="K11" s="1"/>
       <c r="M11" t="s">
         <v>41</v>
       </c>
       <c r="N11" t="s">
         <v>43</v>
       </c>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
-      <c r="AG11" s="1"/>
-      <c r="AH11" s="1"/>
-      <c r="AI11" s="1"/>
-      <c r="AJ11" s="1"/>
-      <c r="AK11" s="1" t="n">
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="2"/>
+      <c r="AK11" s="2" t="n">
         <v>432330186054.03</v>
       </c>
-      <c r="AL11" s="1" t="n">
+      <c r="AL11" s="2" t="n">
         <v>368750341721.862</v>
       </c>
-      <c r="AM11" s="1" t="n">
+      <c r="AM11" s="2" t="n">
         <v>338132277217.976</v>
       </c>
-      <c r="AN11" s="1" t="n">
+      <c r="AN11" s="2" t="n">
         <v>312773586648.454</v>
       </c>
-      <c r="AO11" s="1" t="n">
+      <c r="AO11" s="2" t="n">
         <v>328542572360.358</v>
       </c>
-      <c r="AP11" s="1" t="n">
+      <c r="AP11" s="2" t="n">
         <v>353490764546.252</v>
       </c>
-      <c r="AQ11" s="1" t="n">
+      <c r="AQ11" s="2" t="n">
         <v>387087885833.412</v>
       </c>
-      <c r="AR11" s="1" t="n">
+      <c r="AR11" s="2" t="n">
         <v>405081653062.029</v>
       </c>
-      <c r="AS11" s="1" t="n">
+      <c r="AS11" s="2" t="n">
         <v>431127980837.866</v>
       </c>
-      <c r="AT11" s="1" t="n">
+      <c r="AT11" s="2" t="n">
         <v>405348242639.538</v>
       </c>
-      <c r="AU11" s="1" t="n">
+      <c r="AU11" s="2" t="n">
         <v>392694446194.055</v>
       </c>
-      <c r="AV11" s="1" t="n">
+      <c r="AV11" s="2" t="n">
         <v>390453368175.855</v>
       </c>
-      <c r="AW11" s="1"/>
-      <c r="AX11" s="1"/>
-      <c r="AY11" s="1"/>
-      <c r="AZ11" s="1"/>
-      <c r="BA11" s="1"/>
-      <c r="BB11" s="1"/>
+      <c r="AW11" s="2"/>
+      <c r="AX11" s="2"/>
+      <c r="AY11" s="2"/>
+      <c r="AZ11" s="2"/>
+      <c r="BA11" s="2"/>
+      <c r="BB11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -1569,119 +1571,119 @@
       <c r="B12" t="str">
         <f>N12</f>
       </c>
-      <c r="C12" s="1" t="str">
+      <c r="C12" s="2" t="str">
         <f>AS12</f>
       </c>
-      <c r="D12" s="1" t="str">
+      <c r="D12" s="2" t="str">
         <f>AU12</f>
       </c>
-      <c r="E12" s="1" t="str">
+      <c r="E12" s="2" t="str">
         <f>AV12</f>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="2" t="str">
+      <c r="F12" s="2"/>
+      <c r="G12" s="1" t="str">
         <f>AV12/AU12-1</f>
       </c>
-      <c r="H12" s="2" t="str">
+      <c r="H12" s="1" t="str">
         <f>AV12/AS12-1</f>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2" t="str">
+      <c r="I12" s="1"/>
+      <c r="J12" s="1" t="str">
         <f>AV12/Sum(AV$9:AV$13)</f>
       </c>
-      <c r="K12" s="2"/>
+      <c r="K12" s="1"/>
       <c r="M12" t="s">
         <v>41</v>
       </c>
       <c r="N12" t="s">
         <v>44</v>
       </c>
-      <c r="O12" s="1" t="n">
+      <c r="O12" s="2" t="n">
         <v>248917998790.874</v>
       </c>
-      <c r="P12" s="1" t="n">
+      <c r="P12" s="2" t="n">
         <v>271885202720.129</v>
       </c>
-      <c r="Q12" s="1" t="n">
+      <c r="Q12" s="2" t="n">
         <v>240412560734.939</v>
       </c>
-      <c r="R12" s="1" t="n">
+      <c r="R12" s="2" t="n">
         <v>231031479111.987</v>
       </c>
-      <c r="S12" s="1" t="n">
+      <c r="S12" s="2" t="n">
         <v>218250472650.085</v>
       </c>
-      <c r="T12" s="1" t="n">
+      <c r="T12" s="2" t="n">
         <v>212677633977.603</v>
       </c>
-      <c r="U12" s="1" t="n">
+      <c r="U12" s="2" t="n">
         <v>212071611328.834</v>
       </c>
-      <c r="V12" s="1" t="n">
+      <c r="V12" s="2" t="n">
         <v>204034317412.979</v>
       </c>
-      <c r="W12" s="1" t="n">
+      <c r="W12" s="2" t="n">
         <v>203216983313.484</v>
       </c>
-      <c r="X12" s="1" t="n">
+      <c r="X12" s="2" t="n">
         <v>209688280565.4</v>
       </c>
-      <c r="Y12" s="1" t="n">
+      <c r="Y12" s="2" t="n">
         <v>222214954426.99</v>
       </c>
-      <c r="Z12" s="1" t="n">
+      <c r="Z12" s="2" t="n">
         <v>236349380759.976</v>
       </c>
-      <c r="AA12" s="1" t="n">
+      <c r="AA12" s="2" t="n">
         <v>274407867785.644</v>
       </c>
-      <c r="AB12" s="1" t="n">
+      <c r="AB12" s="2" t="n">
         <v>335392180495.053</v>
       </c>
-      <c r="AC12" s="1" t="n">
+      <c r="AC12" s="2" t="n">
         <v>355611032054.797</v>
       </c>
-      <c r="AD12" s="1" t="n">
+      <c r="AD12" s="2" t="n">
         <v>399034409966.236</v>
       </c>
-      <c r="AE12" s="1" t="n">
+      <c r="AE12" s="2" t="n">
         <v>429398322936.051</v>
       </c>
-      <c r="AF12" s="1" t="n">
+      <c r="AF12" s="2" t="n">
         <v>464598647461.156</v>
       </c>
-      <c r="AG12" s="1" t="n">
+      <c r="AG12" s="2" t="n">
         <v>524270052465.528</v>
       </c>
-      <c r="AH12" s="1" t="n">
+      <c r="AH12" s="2" t="n">
         <v>523860817748.021</v>
       </c>
-      <c r="AI12" s="1" t="n">
+      <c r="AI12" s="2" t="n">
         <v>493294382841.294</v>
       </c>
-      <c r="AJ12" s="1" t="n">
+      <c r="AJ12" s="2" t="n">
         <v>491810684195.121</v>
       </c>
-      <c r="AK12" s="1"/>
-      <c r="AL12" s="1"/>
-      <c r="AM12" s="1"/>
-      <c r="AN12" s="1" t="n">
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="2"/>
+      <c r="AM12" s="2"/>
+      <c r="AN12" s="2" t="n">
         <v>7816340.87652611</v>
       </c>
-      <c r="AO12" s="1"/>
-      <c r="AP12" s="1"/>
-      <c r="AQ12" s="1"/>
-      <c r="AR12" s="1"/>
-      <c r="AS12" s="1"/>
-      <c r="AT12" s="1"/>
-      <c r="AU12" s="1"/>
-      <c r="AV12" s="1"/>
-      <c r="AW12" s="1"/>
-      <c r="AX12" s="1"/>
-      <c r="AY12" s="1"/>
-      <c r="AZ12" s="1"/>
-      <c r="BA12" s="1"/>
-      <c r="BB12" s="1"/>
+      <c r="AO12" s="2"/>
+      <c r="AP12" s="2"/>
+      <c r="AQ12" s="2"/>
+      <c r="AR12" s="2"/>
+      <c r="AS12" s="2"/>
+      <c r="AT12" s="2"/>
+      <c r="AU12" s="2"/>
+      <c r="AV12" s="2"/>
+      <c r="AW12" s="2"/>
+      <c r="AX12" s="2"/>
+      <c r="AY12" s="2"/>
+      <c r="AZ12" s="2"/>
+      <c r="BA12" s="2"/>
+      <c r="BB12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -1690,151 +1692,151 @@
       <c r="B13" t="str">
         <f>N13</f>
       </c>
-      <c r="C13" s="1" t="str">
+      <c r="C13" s="2" t="str">
         <f>AS13</f>
       </c>
-      <c r="D13" s="1" t="str">
+      <c r="D13" s="2" t="str">
         <f>AU13</f>
       </c>
-      <c r="E13" s="1" t="str">
+      <c r="E13" s="2" t="str">
         <f>AV13</f>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="2" t="str">
+      <c r="F13" s="2"/>
+      <c r="G13" s="1" t="str">
         <f>AV13/AU13-1</f>
       </c>
-      <c r="H13" s="2" t="str">
+      <c r="H13" s="1" t="str">
         <f>AV13/AS13-1</f>
       </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2" t="str">
+      <c r="I13" s="1"/>
+      <c r="J13" s="1" t="str">
         <f>AV13/Sum(AV$9:AV$13)</f>
       </c>
-      <c r="K13" s="2"/>
+      <c r="K13" s="1"/>
       <c r="M13" t="s">
         <v>45</v>
       </c>
       <c r="N13" t="s">
         <v>43</v>
       </c>
-      <c r="O13" s="1" t="n">
+      <c r="O13" s="2" t="n">
         <v>602606352101.694</v>
       </c>
-      <c r="P13" s="1" t="n">
+      <c r="P13" s="2" t="n">
         <v>620274552583.297</v>
       </c>
-      <c r="Q13" s="1" t="n">
+      <c r="Q13" s="2" t="n">
         <v>555597728301.067</v>
       </c>
-      <c r="R13" s="1" t="n">
+      <c r="R13" s="2" t="n">
         <v>513282174398.476</v>
       </c>
-      <c r="S13" s="1" t="n">
+      <c r="S13" s="2" t="n">
         <v>468197035636.694</v>
       </c>
-      <c r="T13" s="1" t="n">
+      <c r="T13" s="2" t="n">
         <v>463718246766.96</v>
       </c>
-      <c r="U13" s="1" t="n">
+      <c r="U13" s="2" t="n">
         <v>456647075846.094</v>
       </c>
-      <c r="V13" s="1" t="n">
+      <c r="V13" s="2" t="n">
         <v>447160758493.617</v>
       </c>
-      <c r="W13" s="1" t="n">
+      <c r="W13" s="2" t="n">
         <v>450201318466.152</v>
       </c>
-      <c r="X13" s="1" t="n">
+      <c r="X13" s="2" t="n">
         <v>468044833590.874</v>
       </c>
-      <c r="Y13" s="1" t="n">
+      <c r="Y13" s="2" t="n">
         <v>482426154042.693</v>
       </c>
-      <c r="Z13" s="1" t="n">
+      <c r="Z13" s="2" t="n">
         <v>519564848435.905</v>
       </c>
-      <c r="AA13" s="1" t="n">
+      <c r="AA13" s="2" t="n">
         <v>574278428296.36</v>
       </c>
-      <c r="AB13" s="1" t="n">
+      <c r="AB13" s="2" t="n">
         <v>686572797072.324</v>
       </c>
-      <c r="AC13" s="1" t="n">
+      <c r="AC13" s="2" t="n">
         <v>705848454956.435</v>
       </c>
-      <c r="AD13" s="1" t="n">
+      <c r="AD13" s="2" t="n">
         <v>754734162091.152</v>
       </c>
-      <c r="AE13" s="1" t="n">
+      <c r="AE13" s="2" t="n">
         <v>780154010413.381</v>
       </c>
-      <c r="AF13" s="1" t="n">
+      <c r="AF13" s="2" t="n">
         <v>854960044741.897</v>
       </c>
-      <c r="AG13" s="1" t="n">
+      <c r="AG13" s="2" t="n">
         <v>928290961219.569</v>
       </c>
-      <c r="AH13" s="1" t="n">
+      <c r="AH13" s="2" t="n">
         <v>914201464665.633</v>
       </c>
-      <c r="AI13" s="1" t="n">
+      <c r="AI13" s="2" t="n">
         <v>941647271844.871</v>
       </c>
-      <c r="AJ13" s="1" t="n">
+      <c r="AJ13" s="2" t="n">
         <v>919517495559.997</v>
       </c>
-      <c r="AK13" s="1" t="n">
+      <c r="AK13" s="2" t="n">
         <v>854893667495.288</v>
       </c>
-      <c r="AL13" s="1" t="n">
+      <c r="AL13" s="2" t="n">
         <v>753547648271.248</v>
       </c>
-      <c r="AM13" s="1" t="n">
+      <c r="AM13" s="2" t="n">
         <v>734730935805.295</v>
       </c>
-      <c r="AN13" s="1" t="n">
+      <c r="AN13" s="2" t="n">
         <v>707449202632.779</v>
       </c>
-      <c r="AO13" s="1" t="n">
+      <c r="AO13" s="2" t="n">
         <v>729860428011.978</v>
       </c>
-      <c r="AP13" s="1" t="n">
+      <c r="AP13" s="2" t="n">
         <v>743756641042.876</v>
       </c>
-      <c r="AQ13" s="1" t="n">
+      <c r="AQ13" s="2" t="n">
         <v>803641431930.826</v>
       </c>
-      <c r="AR13" s="1" t="n">
+      <c r="AR13" s="2" t="n">
         <v>812550495675.43</v>
       </c>
-      <c r="AS13" s="1" t="n">
+      <c r="AS13" s="2" t="n">
         <v>839984421891.179</v>
       </c>
-      <c r="AT13" s="1" t="n">
+      <c r="AT13" s="2" t="n">
         <v>795568567643.196</v>
       </c>
-      <c r="AU13" s="1" t="n">
+      <c r="AU13" s="2" t="n">
         <v>804667494998.361</v>
       </c>
-      <c r="AV13" s="1" t="n">
+      <c r="AV13" s="2" t="n">
         <v>853072000000</v>
       </c>
-      <c r="AW13" s="1" t="n">
+      <c r="AW13" s="2" t="n">
         <v>820251376580.069</v>
       </c>
-      <c r="AX13" s="1" t="n">
+      <c r="AX13" s="2" t="n">
         <v>819313863553.375</v>
       </c>
-      <c r="AY13" s="1" t="n">
+      <c r="AY13" s="2" t="n">
         <v>819450662554.299</v>
       </c>
-      <c r="AZ13" s="1" t="n">
+      <c r="AZ13" s="2" t="n">
         <v>819548057151.466</v>
       </c>
-      <c r="BA13" s="1" t="n">
+      <c r="BA13" s="2" t="n">
         <v>819669680013.5</v>
       </c>
-      <c r="BB13" s="1"/>
+      <c r="BB13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -1843,151 +1845,151 @@
       <c r="B14" t="str">
         <f>N14</f>
       </c>
-      <c r="C14" s="1" t="str">
+      <c r="C14" s="2" t="str">
         <f>AS14</f>
       </c>
-      <c r="D14" s="1" t="str">
+      <c r="D14" s="2" t="str">
         <f>AU14</f>
       </c>
-      <c r="E14" s="1" t="str">
+      <c r="E14" s="2" t="str">
         <f>AV14</f>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="2" t="str">
+      <c r="F14" s="2"/>
+      <c r="G14" s="1" t="str">
         <f>AV14/AU14-1</f>
       </c>
-      <c r="H14" s="2" t="str">
+      <c r="H14" s="1" t="str">
         <f>AV14/AS14-1</f>
       </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2" t="str">
+      <c r="I14" s="1"/>
+      <c r="J14" s="1" t="str">
         <f>Sum(J$9:J$13)</f>
       </c>
-      <c r="K14" s="2"/>
+      <c r="K14" s="1"/>
       <c r="M14" t="s">
         <v>46</v>
       </c>
       <c r="N14" t="s">
         <v>47</v>
       </c>
-      <c r="O14" s="1" t="str">
+      <c r="O14" s="2" t="str">
         <f>Sum(O10:O13)</f>
       </c>
-      <c r="P14" s="1" t="str">
+      <c r="P14" s="2" t="str">
         <f>Sum(P10:P13)</f>
       </c>
-      <c r="Q14" s="1" t="str">
+      <c r="Q14" s="2" t="str">
         <f>Sum(Q10:Q13)</f>
       </c>
-      <c r="R14" s="1" t="str">
+      <c r="R14" s="2" t="str">
         <f>Sum(R10:R13)</f>
       </c>
-      <c r="S14" s="1" t="str">
+      <c r="S14" s="2" t="str">
         <f>Sum(S10:S13)</f>
       </c>
-      <c r="T14" s="1" t="str">
+      <c r="T14" s="2" t="str">
         <f>Sum(T10:T13)</f>
       </c>
-      <c r="U14" s="1" t="str">
+      <c r="U14" s="2" t="str">
         <f>Sum(U10:U13)</f>
       </c>
-      <c r="V14" s="1" t="str">
+      <c r="V14" s="2" t="str">
         <f>Sum(V10:V13)</f>
       </c>
-      <c r="W14" s="1" t="str">
+      <c r="W14" s="2" t="str">
         <f>Sum(W10:W13)</f>
       </c>
-      <c r="X14" s="1" t="str">
+      <c r="X14" s="2" t="str">
         <f>Sum(X10:X13)</f>
       </c>
-      <c r="Y14" s="1" t="str">
+      <c r="Y14" s="2" t="str">
         <f>Sum(Y10:Y13)</f>
       </c>
-      <c r="Z14" s="1" t="str">
+      <c r="Z14" s="2" t="str">
         <f>Sum(Z10:Z13)</f>
       </c>
-      <c r="AA14" s="1" t="str">
+      <c r="AA14" s="2" t="str">
         <f>Sum(AA10:AA13)</f>
       </c>
-      <c r="AB14" s="1" t="str">
+      <c r="AB14" s="2" t="str">
         <f>Sum(AB10:AB13)</f>
       </c>
-      <c r="AC14" s="1" t="str">
+      <c r="AC14" s="2" t="str">
         <f>Sum(AC10:AC13)</f>
       </c>
-      <c r="AD14" s="1" t="str">
+      <c r="AD14" s="2" t="str">
         <f>Sum(AD10:AD13)</f>
       </c>
-      <c r="AE14" s="1" t="str">
+      <c r="AE14" s="2" t="str">
         <f>Sum(AE10:AE13)</f>
       </c>
-      <c r="AF14" s="1" t="str">
+      <c r="AF14" s="2" t="str">
         <f>Sum(AF10:AF13)</f>
       </c>
-      <c r="AG14" s="1" t="str">
+      <c r="AG14" s="2" t="str">
         <f>Sum(AG10:AG13)</f>
       </c>
-      <c r="AH14" s="1" t="str">
+      <c r="AH14" s="2" t="str">
         <f>Sum(AH10:AH13)</f>
       </c>
-      <c r="AI14" s="1" t="str">
+      <c r="AI14" s="2" t="str">
         <f>Sum(AI10:AI13)</f>
       </c>
-      <c r="AJ14" s="1" t="str">
+      <c r="AJ14" s="2" t="str">
         <f>Sum(AJ10:AJ13)</f>
       </c>
-      <c r="AK14" s="1" t="str">
+      <c r="AK14" s="2" t="str">
         <f>Sum(AK10:AK13)</f>
       </c>
-      <c r="AL14" s="1" t="str">
+      <c r="AL14" s="2" t="str">
         <f>Sum(AL10:AL13)</f>
       </c>
-      <c r="AM14" s="1" t="str">
+      <c r="AM14" s="2" t="str">
         <f>Sum(AM10:AM13)</f>
       </c>
-      <c r="AN14" s="1" t="str">
+      <c r="AN14" s="2" t="str">
         <f>Sum(AN10:AN13)</f>
       </c>
-      <c r="AO14" s="1" t="str">
+      <c r="AO14" s="2" t="str">
         <f>Sum(AO10:AO13)</f>
       </c>
-      <c r="AP14" s="1" t="str">
+      <c r="AP14" s="2" t="str">
         <f>Sum(AP10:AP13)</f>
       </c>
-      <c r="AQ14" s="1" t="str">
+      <c r="AQ14" s="2" t="str">
         <f>Sum(AQ10:AQ13)</f>
       </c>
-      <c r="AR14" s="1" t="str">
+      <c r="AR14" s="2" t="str">
         <f>Sum(AR10:AR13)</f>
       </c>
-      <c r="AS14" s="1" t="str">
+      <c r="AS14" s="2" t="str">
         <f>Sum(AS10:AS13)</f>
       </c>
-      <c r="AT14" s="1" t="str">
+      <c r="AT14" s="2" t="str">
         <f>Sum(AT10:AT13)</f>
       </c>
-      <c r="AU14" s="1" t="str">
+      <c r="AU14" s="2" t="str">
         <f>Sum(AU10:AU13)</f>
       </c>
-      <c r="AV14" s="1" t="str">
+      <c r="AV14" s="2" t="str">
         <f>Sum(AV10:AV13)</f>
       </c>
-      <c r="AW14" s="1" t="str">
+      <c r="AW14" s="2" t="str">
         <f>Sum(AW10:AW13)</f>
       </c>
-      <c r="AX14" s="1" t="str">
+      <c r="AX14" s="2" t="str">
         <f>Sum(AX10:AX13)</f>
       </c>
-      <c r="AY14" s="1" t="str">
+      <c r="AY14" s="2" t="str">
         <f>Sum(AY10:AY13)</f>
       </c>
-      <c r="AZ14" s="1" t="str">
+      <c r="AZ14" s="2" t="str">
         <f>Sum(AZ10:AZ13)</f>
       </c>
-      <c r="BA14" s="1" t="str">
+      <c r="BA14" s="2" t="str">
         <f>Sum(BA10:BA13)</f>
       </c>
-      <c r="BB14" s="1"/>
+      <c r="BB14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2409,17 +2411,17 @@
         <f>W12</f>
       </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="2" t="str">
+      <c r="G12" s="1" t="str">
         <f>W12/V12-1</f>
       </c>
-      <c r="H12" s="2" t="str">
+      <c r="H12" s="1" t="str">
         <f>W12/T12-1</f>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2" t="str">
+      <c r="I12" s="1"/>
+      <c r="J12" s="1" t="str">
         <f>W12/Sum(W$11:W$17)</f>
       </c>
-      <c r="K12" s="2"/>
+      <c r="K12" s="1"/>
       <c r="M12" t="s">
         <v>50</v>
       </c>
@@ -2464,17 +2466,17 @@
         <f>W13</f>
       </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="2" t="str">
+      <c r="G13" s="1" t="str">
         <f>W13/V13-1</f>
       </c>
-      <c r="H13" s="2" t="str">
+      <c r="H13" s="1" t="str">
         <f>W13/T13-1</f>
       </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2" t="str">
+      <c r="I13" s="1"/>
+      <c r="J13" s="1" t="str">
         <f>W13/Sum(W$11:W$17)</f>
       </c>
-      <c r="K13" s="2"/>
+      <c r="K13" s="1"/>
       <c r="M13" t="s">
         <v>52</v>
       </c>
@@ -2527,17 +2529,17 @@
         <f>W14</f>
       </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="2" t="str">
+      <c r="G14" s="1" t="str">
         <f>W14/V14-1</f>
       </c>
-      <c r="H14" s="2" t="str">
+      <c r="H14" s="1" t="str">
         <f>W14/T14-1</f>
       </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2" t="str">
+      <c r="I14" s="1"/>
+      <c r="J14" s="1" t="str">
         <f>W14/Sum(W$11:W$17)</f>
       </c>
-      <c r="K14" s="2"/>
+      <c r="K14" s="1"/>
       <c r="M14" t="s">
         <v>53</v>
       </c>
@@ -2590,17 +2592,17 @@
         <f>W15</f>
       </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="2" t="str">
+      <c r="G15" s="1" t="str">
         <f>W15/V15-1</f>
       </c>
-      <c r="H15" s="2" t="str">
+      <c r="H15" s="1" t="str">
         <f>W15/T15-1</f>
       </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2" t="str">
+      <c r="I15" s="1"/>
+      <c r="J15" s="1" t="str">
         <f>W15/Sum(W$11:W$17)</f>
       </c>
-      <c r="K15" s="2"/>
+      <c r="K15" s="1"/>
       <c r="M15" t="s">
         <v>55</v>
       </c>
@@ -2653,17 +2655,17 @@
         <f>W16</f>
       </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="2" t="str">
+      <c r="G16" s="1" t="str">
         <f>W16/V16-1</f>
       </c>
-      <c r="H16" s="2" t="str">
+      <c r="H16" s="1" t="str">
         <f>W16/T16-1</f>
       </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2" t="str">
+      <c r="I16" s="1"/>
+      <c r="J16" s="1" t="str">
         <f>W16/Sum(W$11:W$17)</f>
       </c>
-      <c r="K16" s="2"/>
+      <c r="K16" s="1"/>
       <c r="M16" t="s">
         <v>56</v>
       </c>
@@ -2716,17 +2718,17 @@
         <f>W17</f>
       </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="2" t="str">
+      <c r="G17" s="1" t="str">
         <f>W17/V17-1</f>
       </c>
-      <c r="H17" s="2" t="str">
+      <c r="H17" s="1" t="str">
         <f>W17/T17-1</f>
       </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2" t="str">
+      <c r="I17" s="1"/>
+      <c r="J17" s="1" t="str">
         <f>W17/Sum(W$11:W$17)</f>
       </c>
-      <c r="K17" s="2"/>
+      <c r="K17" s="1"/>
       <c r="M17" t="s">
         <v>58</v>
       </c>
@@ -2779,17 +2781,17 @@
         <f>W18</f>
       </c>
       <c r="F18" s="3"/>
-      <c r="G18" s="2" t="str">
+      <c r="G18" s="1" t="str">
         <f>W18/V18-1</f>
       </c>
-      <c r="H18" s="2" t="str">
+      <c r="H18" s="1" t="str">
         <f>W18/T18-1</f>
       </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2" t="str">
+      <c r="I18" s="1"/>
+      <c r="J18" s="1" t="str">
         <f>Sum(J$11:J$17)</f>
       </c>
-      <c r="K18" s="2"/>
+      <c r="K18" s="1"/>
       <c r="M18" t="s">
         <v>46</v>
       </c>
@@ -2959,110 +2961,110 @@
       <c r="L2" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="4" t="n">
+      <c r="M2" s="5" t="n">
         <v>30980247148</v>
       </c>
-      <c r="N2" s="4" t="n">
+      <c r="N2" s="5" t="n">
         <v>30513099255</v>
       </c>
-      <c r="O2" s="4" t="n">
+      <c r="O2" s="5" t="n">
         <v>30337971567</v>
       </c>
-      <c r="P2" s="4" t="n">
+      <c r="P2" s="5" t="n">
         <v>29918044865</v>
       </c>
-      <c r="Q2" s="4" t="n">
+      <c r="Q2" s="5" t="n">
         <v>30546960405</v>
       </c>
-      <c r="R2" s="4" t="n">
+      <c r="R2" s="5" t="n">
         <v>26815505318</v>
       </c>
-      <c r="S2" s="4" t="n">
+      <c r="S2" s="5" t="n">
         <v>28856006190</v>
       </c>
-      <c r="T2" s="4" t="n">
+      <c r="T2" s="5" t="n">
         <v>24930833919</v>
       </c>
-      <c r="U2" s="4" t="n">
+      <c r="U2" s="5" t="n">
         <v>26529770069</v>
       </c>
-      <c r="V2" s="4" t="n">
+      <c r="V2" s="5" t="n">
         <v>27545374131</v>
       </c>
-      <c r="W2" s="4" t="n">
+      <c r="W2" s="5" t="n">
         <v>35420338064.53</v>
       </c>
-      <c r="X2" s="4" t="n">
+      <c r="X2" s="5" t="n">
         <v>36121846165.9257</v>
       </c>
-      <c r="Y2" s="4" t="n">
+      <c r="Y2" s="5" t="n">
         <v>39025889481.1626</v>
       </c>
-      <c r="Z2" s="4" t="n">
+      <c r="Z2" s="5" t="n">
         <v>49245020029.4637</v>
       </c>
-      <c r="AA2" s="4" t="n">
+      <c r="AA2" s="5" t="n">
         <v>47802126589.0065</v>
       </c>
-      <c r="AB2" s="4" t="n">
+      <c r="AB2" s="5" t="n">
         <v>47282598640.2872</v>
       </c>
-      <c r="AC2" s="4" t="n">
+      <c r="AC2" s="5" t="n">
         <v>53972978017.4748</v>
       </c>
-      <c r="AD2" s="4" t="n">
+      <c r="AD2" s="5" t="n">
         <v>60482591258.198</v>
       </c>
-      <c r="AE2" s="4" t="n">
+      <c r="AE2" s="5" t="n">
         <v>66726735467.1453</v>
       </c>
-      <c r="AF2" s="4" t="n">
+      <c r="AF2" s="5" t="n">
         <v>65849649896.1388</v>
       </c>
-      <c r="AG2" s="4" t="n">
+      <c r="AG2" s="5" t="n">
         <v>63602590938.9941</v>
       </c>
-      <c r="AH2" s="4" t="n">
+      <c r="AH2" s="5" t="n">
         <v>70302793893.225</v>
       </c>
-      <c r="AI2" s="4" t="n">
+      <c r="AI2" s="5" t="n">
         <v>78164108641.6892</v>
       </c>
-      <c r="AJ2" s="4" t="n">
+      <c r="AJ2" s="5" t="n">
         <v>73258708289.3698</v>
       </c>
-      <c r="AK2" s="4" t="n">
+      <c r="AK2" s="5" t="n">
         <v>58222443277.1414</v>
       </c>
-      <c r="AL2" s="4" t="n">
+      <c r="AL2" s="5" t="n">
         <v>61693160072.2121</v>
       </c>
-      <c r="AM2" s="4" t="n">
+      <c r="AM2" s="5" t="n">
         <v>75346140622.7846</v>
       </c>
-      <c r="AN2" s="4" t="n">
+      <c r="AN2" s="5" t="n">
         <v>85822546369.7272</v>
       </c>
-      <c r="AO2" s="4" t="n">
+      <c r="AO2" s="5" t="n">
         <v>83373304201.1622</v>
       </c>
-      <c r="AP2" s="4" t="n">
+      <c r="AP2" s="5" t="n">
         <v>89852892406.702</v>
       </c>
-      <c r="AQ2" s="4" t="n">
+      <c r="AQ2" s="5" t="n">
         <v>105298017809.666</v>
       </c>
-      <c r="AR2" s="4" t="n">
+      <c r="AR2" s="5" t="n">
         <v>72317396325.3251</v>
       </c>
-      <c r="AS2" s="4" t="n">
+      <c r="AS2" s="5" t="n">
         <v>75108585015.672</v>
       </c>
-      <c r="AT2" s="4" t="n">
+      <c r="AT2" s="5" t="n">
         <v>96995646293.0624</v>
       </c>
-      <c r="AU2" s="4"/>
-      <c r="AV2" s="4"/>
+      <c r="AU2" s="5"/>
+      <c r="AV2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -3071,110 +3073,110 @@
       <c r="L3" t="s">
         <v>61</v>
       </c>
-      <c r="M3" s="4" t="n">
+      <c r="M3" s="5" t="n">
         <v>19702439894</v>
       </c>
-      <c r="N3" s="4" t="n">
+      <c r="N3" s="5" t="n">
         <v>19319595733</v>
       </c>
-      <c r="O3" s="4" t="n">
+      <c r="O3" s="5" t="n">
         <v>19385047958</v>
       </c>
-      <c r="P3" s="4" t="n">
+      <c r="P3" s="5" t="n">
         <v>18241613499</v>
       </c>
-      <c r="Q3" s="4" t="n">
+      <c r="Q3" s="5" t="n">
         <v>17643919462</v>
       </c>
-      <c r="R3" s="4" t="n">
+      <c r="R3" s="5" t="n">
         <v>18690643667</v>
       </c>
-      <c r="S3" s="4" t="n">
+      <c r="S3" s="5" t="n">
         <v>18181185718</v>
       </c>
-      <c r="T3" s="4" t="n">
+      <c r="T3" s="5" t="n">
         <v>18425728076</v>
       </c>
-      <c r="U3" s="4" t="n">
+      <c r="U3" s="5" t="n">
         <v>17479311563</v>
       </c>
-      <c r="V3" s="4" t="n">
+      <c r="V3" s="5" t="n">
         <v>19571291342</v>
       </c>
-      <c r="W3" s="4" t="n">
+      <c r="W3" s="5" t="n">
         <v>20750676264.8069</v>
       </c>
-      <c r="X3" s="4" t="n">
+      <c r="X3" s="5" t="n">
         <v>22386721023.8738</v>
       </c>
-      <c r="Y3" s="4" t="n">
+      <c r="Y3" s="5" t="n">
         <v>25803292760.2489</v>
       </c>
-      <c r="Z3" s="4" t="n">
+      <c r="Z3" s="5" t="n">
         <v>31478087363.2645</v>
       </c>
-      <c r="AA3" s="4" t="n">
+      <c r="AA3" s="5" t="n">
         <v>37532046093.9956</v>
       </c>
-      <c r="AB3" s="4" t="n">
+      <c r="AB3" s="5" t="n">
         <v>42233245585.0679</v>
       </c>
-      <c r="AC3" s="4" t="n">
+      <c r="AC3" s="5" t="n">
         <v>45202505169.8666</v>
       </c>
-      <c r="AD3" s="4" t="n">
+      <c r="AD3" s="5" t="n">
         <v>52453611935.7844</v>
       </c>
-      <c r="AE3" s="4" t="n">
+      <c r="AE3" s="5" t="n">
         <v>56952456675.6228</v>
       </c>
-      <c r="AF3" s="4" t="n">
+      <c r="AF3" s="5" t="n">
         <v>55345684535.234</v>
       </c>
-      <c r="AG3" s="4" t="n">
+      <c r="AG3" s="5" t="n">
         <v>56120936477.6944</v>
       </c>
-      <c r="AH3" s="4" t="n">
+      <c r="AH3" s="5" t="n">
         <v>52418075878.9569</v>
       </c>
-      <c r="AI3" s="4" t="n">
+      <c r="AI3" s="5" t="n">
         <v>49620215540.7029</v>
       </c>
-      <c r="AJ3" s="4" t="n">
+      <c r="AJ3" s="5" t="n">
         <v>41112635436.1571</v>
       </c>
-      <c r="AK3" s="4" t="n">
+      <c r="AK3" s="5" t="n">
         <v>40854073127.2958</v>
       </c>
-      <c r="AL3" s="4" t="n">
+      <c r="AL3" s="5" t="n">
         <v>39614815295.5962</v>
       </c>
-      <c r="AM3" s="4" t="n">
+      <c r="AM3" s="5" t="n">
         <v>43304184712.7622</v>
       </c>
-      <c r="AN3" s="4" t="n">
+      <c r="AN3" s="5" t="n">
         <v>45708263092.2476</v>
       </c>
-      <c r="AO3" s="4" t="n">
+      <c r="AO3" s="5" t="n">
         <v>50957130555.7439</v>
       </c>
-      <c r="AP3" s="4" t="n">
+      <c r="AP3" s="5" t="n">
         <v>54952893120.2498</v>
       </c>
-      <c r="AQ3" s="4" t="n">
+      <c r="AQ3" s="5" t="n">
         <v>55329834166.3768</v>
       </c>
-      <c r="AR3" s="4" t="n">
+      <c r="AR3" s="5" t="n">
         <v>49583442424.8847</v>
       </c>
-      <c r="AS3" s="4" t="n">
+      <c r="AS3" s="5" t="n">
         <v>53546284748.8237</v>
       </c>
-      <c r="AT3" s="4" t="n">
+      <c r="AT3" s="5" t="n">
         <v>56374981980.7601</v>
       </c>
-      <c r="AU3" s="4"/>
-      <c r="AV3" s="4"/>
+      <c r="AU3" s="5"/>
+      <c r="AV3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -3183,110 +3185,110 @@
       <c r="L4" t="s">
         <v>62</v>
       </c>
-      <c r="M4" s="4" t="n">
+      <c r="M4" s="5" t="n">
         <v>12183236305</v>
       </c>
-      <c r="N4" s="4" t="n">
+      <c r="N4" s="5" t="n">
         <v>18492829868</v>
       </c>
-      <c r="O4" s="4" t="n">
+      <c r="O4" s="5" t="n">
         <v>17657715911</v>
       </c>
-      <c r="P4" s="4" t="n">
+      <c r="P4" s="5" t="n">
         <v>17178015869</v>
       </c>
-      <c r="Q4" s="4" t="n">
+      <c r="Q4" s="5" t="n">
         <v>20332444544</v>
       </c>
-      <c r="R4" s="4" t="n">
+      <c r="R4" s="5" t="n">
         <v>20137905407</v>
       </c>
-      <c r="S4" s="4" t="n">
+      <c r="S4" s="5" t="n">
         <v>20282796585</v>
       </c>
-      <c r="T4" s="4" t="n">
+      <c r="T4" s="5" t="n">
         <v>20228512717</v>
       </c>
-      <c r="U4" s="4" t="n">
+      <c r="U4" s="5" t="n">
         <v>19564618261</v>
       </c>
-      <c r="V4" s="4" t="n">
+      <c r="V4" s="5" t="n">
         <v>20604829391</v>
       </c>
-      <c r="W4" s="4" t="n">
+      <c r="W4" s="5" t="n">
         <v>20799929809.0744</v>
       </c>
-      <c r="X4" s="4" t="n">
+      <c r="X4" s="5" t="n">
         <v>23066281711.1986</v>
       </c>
-      <c r="Y4" s="4" t="n">
+      <c r="Y4" s="5" t="n">
         <v>26062764948.2615</v>
       </c>
-      <c r="Z4" s="4" t="n">
+      <c r="Z4" s="5" t="n">
         <v>34446873946.1072</v>
       </c>
-      <c r="AA4" s="4" t="n">
+      <c r="AA4" s="5" t="n">
         <v>35703041181.6458</v>
       </c>
-      <c r="AB4" s="4" t="n">
+      <c r="AB4" s="5" t="n">
         <v>39558477133.0259</v>
       </c>
-      <c r="AC4" s="4" t="n">
+      <c r="AC4" s="5" t="n">
         <v>45549460658.2664</v>
       </c>
-      <c r="AD4" s="4" t="n">
+      <c r="AD4" s="5" t="n">
         <v>46197030193.4649</v>
       </c>
-      <c r="AE4" s="4" t="n">
+      <c r="AE4" s="5" t="n">
         <v>57291112174.4563</v>
       </c>
-      <c r="AF4" s="4" t="n">
+      <c r="AF4" s="5" t="n">
         <v>52462080706.4339</v>
       </c>
-      <c r="AG4" s="4" t="n">
+      <c r="AG4" s="5" t="n">
         <v>61240165211.3601</v>
       </c>
-      <c r="AH4" s="4" t="n">
+      <c r="AH4" s="5" t="n">
         <v>54580627218.1194</v>
       </c>
-      <c r="AI4" s="4" t="n">
+      <c r="AI4" s="5" t="n">
         <v>49011661646.401</v>
       </c>
-      <c r="AJ4" s="4" t="n">
+      <c r="AJ4" s="5" t="n">
         <v>39240744680.2693</v>
       </c>
-      <c r="AK4" s="4" t="n">
+      <c r="AK4" s="5" t="n">
         <v>42213355161.2693</v>
       </c>
-      <c r="AL4" s="4" t="n">
+      <c r="AL4" s="5" t="n">
         <v>38127789059.9686</v>
       </c>
-      <c r="AM4" s="4" t="n">
+      <c r="AM4" s="5" t="n">
         <v>38561474127.2722</v>
       </c>
-      <c r="AN4" s="4" t="n">
+      <c r="AN4" s="5" t="n">
         <v>38440853796.0754</v>
       </c>
-      <c r="AO4" s="4" t="n">
+      <c r="AO4" s="5" t="n">
         <v>46952349647.6577</v>
       </c>
-      <c r="AP4" s="4" t="n">
+      <c r="AP4" s="5" t="n">
         <v>52043159899.2098</v>
       </c>
-      <c r="AQ4" s="4" t="n">
+      <c r="AQ4" s="5" t="n">
         <v>60166730893.8145</v>
       </c>
-      <c r="AR4" s="4" t="n">
+      <c r="AR4" s="5" t="n">
         <v>51157807959.2961</v>
       </c>
-      <c r="AS4" s="4" t="n">
+      <c r="AS4" s="5" t="n">
         <v>57278598256.3794</v>
       </c>
-      <c r="AT4" s="4" t="n">
+      <c r="AT4" s="5" t="n">
         <v>65051855498.8764</v>
       </c>
-      <c r="AU4" s="4"/>
-      <c r="AV4" s="4"/>
+      <c r="AU4" s="5"/>
+      <c r="AV4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -3295,110 +3297,110 @@
       <c r="L5" t="s">
         <v>63</v>
       </c>
-      <c r="M5" s="4" t="n">
+      <c r="M5" s="5" t="n">
         <v>4275032000</v>
       </c>
-      <c r="N5" s="4" t="n">
+      <c r="N5" s="5" t="n">
         <v>6503975889</v>
       </c>
-      <c r="O5" s="4" t="n">
+      <c r="O5" s="5" t="n">
         <v>4166812450</v>
       </c>
-      <c r="P5" s="4" t="n">
+      <c r="P5" s="5" t="n">
         <v>4396364530</v>
       </c>
-      <c r="Q5" s="4" t="n">
+      <c r="Q5" s="5" t="n">
         <v>3619043411</v>
       </c>
-      <c r="R5" s="4" t="n">
+      <c r="R5" s="5" t="n">
         <v>3098454659</v>
       </c>
-      <c r="S5" s="4" t="n">
+      <c r="S5" s="5" t="n">
         <v>3678250068</v>
       </c>
-      <c r="T5" s="4" t="n">
+      <c r="T5" s="5" t="n">
         <v>3652647546</v>
       </c>
-      <c r="U5" s="4" t="n">
+      <c r="U5" s="5" t="n">
         <v>2804250415</v>
       </c>
-      <c r="V5" s="4" t="n">
+      <c r="V5" s="5" t="n">
         <v>3507393596</v>
       </c>
-      <c r="W5" s="4" t="n">
+      <c r="W5" s="5" t="n">
         <v>3396266974.419</v>
       </c>
-      <c r="X5" s="4" t="n">
+      <c r="X5" s="5" t="n">
         <v>3297789660.2609</v>
       </c>
-      <c r="Y5" s="4" t="n">
+      <c r="Y5" s="5" t="n">
         <v>4784757835.3455</v>
       </c>
-      <c r="Z5" s="4" t="n">
+      <c r="Z5" s="5" t="n">
         <v>9641512545.4737</v>
       </c>
-      <c r="AA5" s="4" t="n">
+      <c r="AA5" s="5" t="n">
         <v>8545490688.4385</v>
       </c>
-      <c r="AB5" s="4" t="n">
+      <c r="AB5" s="5" t="n">
         <v>15261772563.5679</v>
       </c>
-      <c r="AC5" s="4" t="n">
+      <c r="AC5" s="5" t="n">
         <v>16131764915.1655</v>
       </c>
-      <c r="AD5" s="4" t="n">
+      <c r="AD5" s="5" t="n">
         <v>28198596869.2682</v>
       </c>
-      <c r="AE5" s="4" t="n">
+      <c r="AE5" s="5" t="n">
         <v>39757131645.2551</v>
       </c>
-      <c r="AF5" s="4" t="n">
+      <c r="AF5" s="5" t="n">
         <v>28835153649.3425</v>
       </c>
-      <c r="AG5" s="4" t="n">
+      <c r="AG5" s="5" t="n">
         <v>25336094910.7151</v>
       </c>
-      <c r="AH5" s="4" t="n">
+      <c r="AH5" s="5" t="n">
         <v>19578188100.5525</v>
       </c>
-      <c r="AI5" s="4" t="n">
+      <c r="AI5" s="5" t="n">
         <v>10836528628.4807</v>
       </c>
-      <c r="AJ5" s="4" t="n">
+      <c r="AJ5" s="5" t="n">
         <v>7434900089.5787</v>
       </c>
-      <c r="AK5" s="4" t="n">
+      <c r="AK5" s="5" t="n">
         <v>5825586534.0528</v>
       </c>
-      <c r="AL5" s="4" t="n">
+      <c r="AL5" s="5" t="n">
         <v>7498132862.7277</v>
       </c>
-      <c r="AM5" s="4" t="n">
+      <c r="AM5" s="5" t="n">
         <v>7352597731.5422</v>
       </c>
-      <c r="AN5" s="4" t="n">
+      <c r="AN5" s="5" t="n">
         <v>8253304453.7592</v>
       </c>
-      <c r="AO5" s="4" t="n">
+      <c r="AO5" s="5" t="n">
         <v>12689097517.359</v>
       </c>
-      <c r="AP5" s="4" t="n">
+      <c r="AP5" s="5" t="n">
         <v>12908661948.8232</v>
       </c>
-      <c r="AQ5" s="4" t="n">
+      <c r="AQ5" s="5" t="n">
         <v>11744812495.6055</v>
       </c>
-      <c r="AR5" s="4" t="n">
+      <c r="AR5" s="5" t="n">
         <v>9688901727.4408</v>
       </c>
-      <c r="AS5" s="4" t="n">
+      <c r="AS5" s="5" t="n">
         <v>10751280211.3575</v>
       </c>
-      <c r="AT5" s="4" t="n">
+      <c r="AT5" s="5" t="n">
         <v>14479765870.1516</v>
       </c>
-      <c r="AU5" s="4"/>
-      <c r="AV5" s="4"/>
+      <c r="AU5" s="5"/>
+      <c r="AV5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -3407,110 +3409,110 @@
       <c r="L6" t="s">
         <v>64</v>
       </c>
-      <c r="M6" s="4" t="n">
+      <c r="M6" s="5" t="n">
         <v>3035334000</v>
       </c>
-      <c r="N6" s="4" t="n">
+      <c r="N6" s="5" t="n">
         <v>5206015283</v>
       </c>
-      <c r="O6" s="4" t="n">
+      <c r="O6" s="5" t="n">
         <v>3918554592</v>
       </c>
-      <c r="P6" s="4" t="n">
+      <c r="P6" s="5" t="n">
         <v>4991418711</v>
       </c>
-      <c r="Q6" s="4" t="n">
+      <c r="Q6" s="5" t="n">
         <v>4289293657</v>
       </c>
-      <c r="R6" s="4" t="n">
+      <c r="R6" s="5" t="n">
         <v>3486356407</v>
       </c>
-      <c r="S6" s="4" t="n">
+      <c r="S6" s="5" t="n">
         <v>3715624896</v>
       </c>
-      <c r="T6" s="4" t="n">
+      <c r="T6" s="5" t="n">
         <v>4012460461</v>
       </c>
-      <c r="U6" s="4" t="n">
+      <c r="U6" s="5" t="n">
         <v>3602703203</v>
       </c>
-      <c r="V6" s="4" t="n">
+      <c r="V6" s="5" t="n">
         <v>3665542951</v>
       </c>
-      <c r="W6" s="4" t="n">
+      <c r="W6" s="5" t="n">
         <v>3001039117</v>
       </c>
-      <c r="X6" s="4" t="n">
+      <c r="X6" s="5" t="n">
         <v>3364291531.4</v>
       </c>
-      <c r="Y6" s="4" t="n">
+      <c r="Y6" s="5" t="n">
         <v>4726590946.825</v>
       </c>
-      <c r="Z6" s="4" t="n">
+      <c r="Z6" s="5" t="n">
         <v>5036432095.0938</v>
       </c>
-      <c r="AA6" s="4" t="n">
+      <c r="AA6" s="5" t="n">
         <v>5992625468.5797</v>
       </c>
-      <c r="AB6" s="4" t="n">
+      <c r="AB6" s="5" t="n">
         <v>6492707660.0175</v>
       </c>
-      <c r="AC6" s="4" t="n">
+      <c r="AC6" s="5" t="n">
         <v>6763227952.9035</v>
       </c>
-      <c r="AD6" s="4" t="n">
+      <c r="AD6" s="5" t="n">
         <v>8308217799.1016</v>
       </c>
-      <c r="AE6" s="4" t="n">
+      <c r="AE6" s="5" t="n">
         <v>8761740938.3708</v>
       </c>
-      <c r="AF6" s="4" t="n">
+      <c r="AF6" s="5" t="n">
         <v>10499669779.5773</v>
       </c>
-      <c r="AG6" s="4" t="n">
+      <c r="AG6" s="5" t="n">
         <v>10542656756.6485</v>
       </c>
-      <c r="AH6" s="4" t="n">
+      <c r="AH6" s="5" t="n">
         <v>10910330875.6452</v>
       </c>
-      <c r="AI6" s="4" t="n">
+      <c r="AI6" s="5" t="n">
         <v>11207421398.9962</v>
       </c>
-      <c r="AJ6" s="4" t="n">
+      <c r="AJ6" s="5" t="n">
         <v>10807937186.4424</v>
       </c>
-      <c r="AK6" s="4" t="n">
+      <c r="AK6" s="5" t="n">
         <v>8516457737.3941</v>
       </c>
-      <c r="AL6" s="4" t="n">
+      <c r="AL6" s="5" t="n">
         <v>9379386451.573</v>
       </c>
-      <c r="AM6" s="4" t="n">
+      <c r="AM6" s="5" t="n">
         <v>9985841658.1002</v>
       </c>
-      <c r="AN6" s="4" t="n">
+      <c r="AN6" s="5" t="n">
         <v>8633210134.3361</v>
       </c>
-      <c r="AO6" s="4" t="n">
+      <c r="AO6" s="5" t="n">
         <v>13427043673.9019</v>
       </c>
-      <c r="AP6" s="4" t="n">
+      <c r="AP6" s="5" t="n">
         <v>14829080764.0133</v>
       </c>
-      <c r="AQ6" s="4" t="n">
+      <c r="AQ6" s="5" t="n">
         <v>19369052642.8584</v>
       </c>
-      <c r="AR6" s="4" t="n">
+      <c r="AR6" s="5" t="n">
         <v>12097540388.2391</v>
       </c>
-      <c r="AS6" s="4" t="n">
+      <c r="AS6" s="5" t="n">
         <v>13817290467.525</v>
       </c>
-      <c r="AT6" s="4" t="n">
+      <c r="AT6" s="5" t="n">
         <v>12565805969.0619</v>
       </c>
-      <c r="AU6" s="4"/>
-      <c r="AV6" s="4"/>
+      <c r="AU6" s="5"/>
+      <c r="AV6" s="5"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -3519,110 +3521,110 @@
       <c r="L7" t="s">
         <v>65</v>
       </c>
-      <c r="M7" s="4" t="n">
+      <c r="M7" s="5" t="n">
         <v>11331278000</v>
       </c>
-      <c r="N7" s="4" t="n">
+      <c r="N7" s="5" t="n">
         <v>14834080775</v>
       </c>
-      <c r="O7" s="4" t="n">
+      <c r="O7" s="5" t="n">
         <v>13464555013</v>
       </c>
-      <c r="P7" s="4" t="n">
+      <c r="P7" s="5" t="n">
         <v>11175370345</v>
       </c>
-      <c r="Q7" s="4" t="n">
+      <c r="Q7" s="5" t="n">
         <v>8533017359</v>
       </c>
-      <c r="R7" s="4" t="n">
+      <c r="R7" s="5" t="n">
         <v>8543659793</v>
       </c>
-      <c r="S7" s="4" t="n">
+      <c r="S7" s="5" t="n">
         <v>8817441132</v>
       </c>
-      <c r="T7" s="4" t="n">
+      <c r="T7" s="5" t="n">
         <v>8032566815</v>
       </c>
-      <c r="U7" s="4" t="n">
+      <c r="U7" s="5" t="n">
         <v>8630834203</v>
       </c>
-      <c r="V7" s="4" t="n">
+      <c r="V7" s="5" t="n">
         <v>9161817835</v>
       </c>
-      <c r="W7" s="4" t="n">
+      <c r="W7" s="5" t="n">
         <v>8681402236.275</v>
       </c>
-      <c r="X7" s="4" t="n">
+      <c r="X7" s="5" t="n">
         <v>9120773485.3995</v>
       </c>
-      <c r="Y7" s="4" t="n">
+      <c r="Y7" s="5" t="n">
         <v>12359020197.6434</v>
       </c>
-      <c r="Z7" s="4" t="n">
+      <c r="Z7" s="5" t="n">
         <v>13573436529.0499</v>
       </c>
-      <c r="AA7" s="4" t="n">
+      <c r="AA7" s="5" t="n">
         <v>14093492581.0852</v>
       </c>
-      <c r="AB7" s="4" t="n">
+      <c r="AB7" s="5" t="n">
         <v>14840541927.2791</v>
       </c>
-      <c r="AC7" s="4" t="n">
+      <c r="AC7" s="5" t="n">
         <v>15025795442.0167</v>
       </c>
-      <c r="AD7" s="4" t="n">
+      <c r="AD7" s="5" t="n">
         <v>17946664167.9909</v>
       </c>
-      <c r="AE7" s="4" t="n">
+      <c r="AE7" s="5" t="n">
         <v>19206047806.6576</v>
       </c>
-      <c r="AF7" s="4" t="n">
+      <c r="AF7" s="5" t="n">
         <v>17915540938.4535</v>
       </c>
-      <c r="AG7" s="4" t="n">
+      <c r="AG7" s="5" t="n">
         <v>16686895593.123</v>
       </c>
-      <c r="AH7" s="4" t="n">
+      <c r="AH7" s="5" t="n">
         <v>15426122050.0091</v>
       </c>
-      <c r="AI7" s="4" t="n">
+      <c r="AI7" s="5" t="n">
         <v>15679934177.9548</v>
       </c>
-      <c r="AJ7" s="4" t="n">
+      <c r="AJ7" s="5" t="n">
         <v>13040612597.5447</v>
       </c>
-      <c r="AK7" s="4" t="n">
+      <c r="AK7" s="5" t="n">
         <v>12578103270.4523</v>
       </c>
-      <c r="AL7" s="4" t="n">
+      <c r="AL7" s="5" t="n">
         <v>13250994230.3246</v>
       </c>
-      <c r="AM7" s="4" t="n">
+      <c r="AM7" s="5" t="n">
         <v>16476049112.8483</v>
       </c>
-      <c r="AN7" s="4" t="n">
+      <c r="AN7" s="5" t="n">
         <v>18044712601.5428</v>
       </c>
-      <c r="AO7" s="4" t="n">
+      <c r="AO7" s="5" t="n">
         <v>21672331633.5341</v>
       </c>
-      <c r="AP7" s="4" t="n">
+      <c r="AP7" s="5" t="n">
         <v>23141257555.4644</v>
       </c>
-      <c r="AQ7" s="4" t="n">
+      <c r="AQ7" s="5" t="n">
         <v>23860916065.7684</v>
       </c>
-      <c r="AR7" s="4" t="n">
+      <c r="AR7" s="5" t="n">
         <v>21969758183.3525</v>
       </c>
-      <c r="AS7" s="4" t="n">
+      <c r="AS7" s="5" t="n">
         <v>20477257803.2334</v>
       </c>
-      <c r="AT7" s="4" t="n">
+      <c r="AT7" s="5" t="n">
         <v>34107188711.9913</v>
       </c>
-      <c r="AU7" s="4"/>
-      <c r="AV7" s="4"/>
+      <c r="AU7" s="5"/>
+      <c r="AV7" s="5"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -3631,110 +3633,110 @@
       <c r="L8" t="s">
         <v>66</v>
       </c>
-      <c r="M8" s="4" t="n">
+      <c r="M8" s="5" t="n">
         <v>10893531000</v>
       </c>
-      <c r="N8" s="4" t="n">
+      <c r="N8" s="5" t="n">
         <v>13666534115</v>
       </c>
-      <c r="O8" s="4" t="n">
+      <c r="O8" s="5" t="n">
         <v>9670953302</v>
       </c>
-      <c r="P8" s="4" t="n">
+      <c r="P8" s="5" t="n">
         <v>10550468583</v>
       </c>
-      <c r="Q8" s="4" t="n">
+      <c r="Q8" s="5" t="n">
         <v>8625703645</v>
       </c>
-      <c r="R8" s="4" t="n">
+      <c r="R8" s="5" t="n">
         <v>8564693193</v>
       </c>
-      <c r="S8" s="4" t="n">
+      <c r="S8" s="5" t="n">
         <v>9626845429</v>
       </c>
-      <c r="T8" s="4" t="n">
+      <c r="T8" s="5" t="n">
         <v>9689825022</v>
       </c>
-      <c r="U8" s="4" t="n">
+      <c r="U8" s="5" t="n">
         <v>8560246161</v>
       </c>
-      <c r="V8" s="4" t="n">
+      <c r="V8" s="5" t="n">
         <v>7673714576</v>
       </c>
-      <c r="W8" s="4" t="n">
+      <c r="W8" s="5" t="n">
         <v>8636765200.09</v>
       </c>
-      <c r="X8" s="4" t="n">
+      <c r="X8" s="5" t="n">
         <v>10224964698</v>
       </c>
-      <c r="Y8" s="4" t="n">
+      <c r="Y8" s="5" t="n">
         <v>13391908176.2413</v>
       </c>
-      <c r="Z8" s="4" t="n">
+      <c r="Z8" s="5" t="n">
         <v>15543175627.4263</v>
       </c>
-      <c r="AA8" s="4" t="n">
+      <c r="AA8" s="5" t="n">
         <v>18316590305.9026</v>
       </c>
-      <c r="AB8" s="4" t="n">
+      <c r="AB8" s="5" t="n">
         <v>31788501748.0453</v>
       </c>
-      <c r="AC8" s="4" t="n">
+      <c r="AC8" s="5" t="n">
         <v>34619998279.9158</v>
       </c>
-      <c r="AD8" s="4" t="n">
+      <c r="AD8" s="5" t="n">
         <v>34291731704.586</v>
       </c>
-      <c r="AE8" s="4" t="n">
+      <c r="AE8" s="5" t="n">
         <v>39100082213.1777</v>
       </c>
-      <c r="AF8" s="4" t="n">
+      <c r="AF8" s="5" t="n">
         <v>35618893846.8764</v>
       </c>
-      <c r="AG8" s="4" t="n">
+      <c r="AG8" s="5" t="n">
         <v>29121536359.5554</v>
       </c>
-      <c r="AH8" s="4" t="n">
+      <c r="AH8" s="5" t="n">
         <v>30007007163.88</v>
       </c>
-      <c r="AI8" s="4" t="n">
+      <c r="AI8" s="5" t="n">
         <v>35357832226.4521</v>
       </c>
-      <c r="AJ8" s="4" t="n">
+      <c r="AJ8" s="5" t="n">
         <v>26464056854.4453</v>
       </c>
-      <c r="AK8" s="4" t="n">
+      <c r="AK8" s="5" t="n">
         <v>24267856901.2681</v>
       </c>
-      <c r="AL8" s="4" t="n">
+      <c r="AL8" s="5" t="n">
         <v>21069110791.9282</v>
       </c>
-      <c r="AM8" s="4" t="n">
+      <c r="AM8" s="5" t="n">
         <v>19406249663.8794</v>
       </c>
-      <c r="AN8" s="4" t="n">
+      <c r="AN8" s="5" t="n">
         <v>21576569443.7504</v>
       </c>
-      <c r="AO8" s="4" t="n">
+      <c r="AO8" s="5" t="n">
         <v>25383412216.5396</v>
       </c>
-      <c r="AP8" s="4" t="n">
+      <c r="AP8" s="5" t="n">
         <v>23212977680.1147</v>
       </c>
-      <c r="AQ8" s="4" t="n">
+      <c r="AQ8" s="5" t="n">
         <v>25509679725.0878</v>
       </c>
-      <c r="AR8" s="4" t="n">
+      <c r="AR8" s="5" t="n">
         <v>53503934881.0247</v>
       </c>
-      <c r="AS8" s="4" t="n">
+      <c r="AS8" s="5" t="n">
         <v>58510550519.1283</v>
       </c>
-      <c r="AT8" s="4" t="n">
+      <c r="AT8" s="5" t="n">
         <v>32031182874.2855</v>
       </c>
-      <c r="AU8" s="4"/>
-      <c r="AV8" s="4"/>
+      <c r="AU8" s="5"/>
+      <c r="AV8" s="5"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -3743,110 +3745,110 @@
       <c r="L9" t="s">
         <v>67</v>
       </c>
-      <c r="M9" s="4" t="n">
+      <c r="M9" s="5" t="n">
         <v>7773865381</v>
       </c>
-      <c r="N9" s="4" t="n">
+      <c r="N9" s="5" t="n">
         <v>7927436229</v>
       </c>
-      <c r="O9" s="4" t="n">
+      <c r="O9" s="5" t="n">
         <v>8786567450</v>
       </c>
-      <c r="P9" s="4" t="n">
+      <c r="P9" s="5" t="n">
         <v>8567595442</v>
       </c>
-      <c r="Q9" s="4" t="n">
+      <c r="Q9" s="5" t="n">
         <v>8463162454</v>
       </c>
-      <c r="R9" s="4" t="n">
+      <c r="R9" s="5" t="n">
         <v>8878189431</v>
       </c>
-      <c r="S9" s="4" t="n">
+      <c r="S9" s="5" t="n">
         <v>9287693638</v>
       </c>
-      <c r="T9" s="4" t="n">
+      <c r="T9" s="5" t="n">
         <v>9695769466</v>
       </c>
-      <c r="U9" s="4" t="n">
+      <c r="U9" s="5" t="n">
         <v>10804672536</v>
       </c>
-      <c r="V9" s="4" t="n">
+      <c r="V9" s="5" t="n">
         <v>11285682035</v>
       </c>
-      <c r="W9" s="4" t="n">
+      <c r="W9" s="5" t="n">
         <v>12417095330.0637</v>
       </c>
-      <c r="X9" s="4" t="n">
+      <c r="X9" s="5" t="n">
         <v>12422083506.9764</v>
       </c>
-      <c r="Y9" s="4" t="n">
+      <c r="Y9" s="5" t="n">
         <v>15837779623.0314</v>
       </c>
-      <c r="Z9" s="4" t="n">
+      <c r="Z9" s="5" t="n">
         <v>18425337218.2575</v>
       </c>
-      <c r="AA9" s="4" t="n">
+      <c r="AA9" s="5" t="n">
         <v>20538698310.4903</v>
       </c>
-      <c r="AB9" s="4" t="n">
+      <c r="AB9" s="5" t="n">
         <v>25425408590.5914</v>
       </c>
-      <c r="AC9" s="4" t="n">
+      <c r="AC9" s="5" t="n">
         <v>28721179673.6596</v>
       </c>
-      <c r="AD9" s="4" t="n">
+      <c r="AD9" s="5" t="n">
         <v>30296153196.6308</v>
       </c>
-      <c r="AE9" s="4" t="n">
+      <c r="AE9" s="5" t="n">
         <v>33793862112.8894</v>
       </c>
-      <c r="AF9" s="4" t="n">
+      <c r="AF9" s="5" t="n">
         <v>38519468121.9372</v>
       </c>
-      <c r="AG9" s="4" t="n">
+      <c r="AG9" s="5" t="n">
         <v>40073864580.8397</v>
       </c>
-      <c r="AH9" s="4" t="n">
+      <c r="AH9" s="5" t="n">
         <v>39862268290.4983</v>
       </c>
-      <c r="AI9" s="4" t="n">
+      <c r="AI9" s="5" t="n">
         <v>40121733965.4144</v>
       </c>
-      <c r="AJ9" s="4" t="n">
+      <c r="AJ9" s="5" t="n">
         <v>33944150887.7485</v>
       </c>
-      <c r="AK9" s="4" t="n">
+      <c r="AK9" s="5" t="n">
         <v>33472011888.3599</v>
       </c>
-      <c r="AL9" s="4" t="n">
+      <c r="AL9" s="5" t="n">
         <v>33145726977.1681</v>
       </c>
-      <c r="AM9" s="4" t="n">
+      <c r="AM9" s="5" t="n">
         <v>33368023633.9218</v>
       </c>
-      <c r="AN9" s="4" t="n">
+      <c r="AN9" s="5" t="n">
         <v>34659189321.5545</v>
       </c>
-      <c r="AO9" s="4" t="n">
+      <c r="AO9" s="5" t="n">
         <v>38655727918.7517</v>
       </c>
-      <c r="AP9" s="4" t="n">
+      <c r="AP9" s="5" t="n">
         <v>42566479782.3748</v>
       </c>
-      <c r="AQ9" s="4" t="n">
+      <c r="AQ9" s="5" t="n">
         <v>44263930326.6549</v>
       </c>
-      <c r="AR9" s="4" t="n">
+      <c r="AR9" s="5" t="n">
         <v>52161150489.8981</v>
       </c>
-      <c r="AS9" s="4" t="n">
+      <c r="AS9" s="5" t="n">
         <v>55006275313.3216</v>
       </c>
-      <c r="AT9" s="4" t="n">
+      <c r="AT9" s="5" t="n">
         <v>67333947968.5568</v>
       </c>
-      <c r="AU9" s="4"/>
-      <c r="AV9" s="4"/>
+      <c r="AU9" s="5"/>
+      <c r="AV9" s="5"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -3855,110 +3857,110 @@
       <c r="L10" t="s">
         <v>68</v>
       </c>
-      <c r="M10" s="4" t="n">
+      <c r="M10" s="5" t="n">
         <v>4385190184</v>
       </c>
-      <c r="N10" s="4" t="n">
+      <c r="N10" s="5" t="n">
         <v>5641814985</v>
       </c>
-      <c r="O10" s="4" t="n">
+      <c r="O10" s="5" t="n">
         <v>4211344274</v>
       </c>
-      <c r="P10" s="4" t="n">
+      <c r="P10" s="5" t="n">
         <v>3075823560</v>
       </c>
-      <c r="Q10" s="4" t="n">
+      <c r="Q10" s="5" t="n">
         <v>4014703413</v>
       </c>
-      <c r="R10" s="4" t="n">
+      <c r="R10" s="5" t="n">
         <v>5272937433</v>
       </c>
-      <c r="S10" s="4" t="n">
+      <c r="S10" s="5" t="n">
         <v>5083168952</v>
       </c>
-      <c r="T10" s="4" t="n">
+      <c r="T10" s="5" t="n">
         <v>5793220616</v>
       </c>
-      <c r="U10" s="4" t="n">
+      <c r="U10" s="5" t="n">
         <v>6068760797</v>
       </c>
-      <c r="V10" s="4" t="n">
+      <c r="V10" s="5" t="n">
         <v>7339018466</v>
       </c>
-      <c r="W10" s="4" t="n">
+      <c r="W10" s="5" t="n">
         <v>6506896271.1198</v>
       </c>
-      <c r="X10" s="4" t="n">
+      <c r="X10" s="5" t="n">
         <v>7420418599.3494</v>
       </c>
-      <c r="Y10" s="4" t="n">
+      <c r="Y10" s="5" t="n">
         <v>10545115941.9799</v>
       </c>
-      <c r="Z10" s="4" t="n">
+      <c r="Z10" s="5" t="n">
         <v>16105347747.7896</v>
       </c>
-      <c r="AA10" s="4" t="n">
+      <c r="AA10" s="5" t="n">
         <v>20109780726.6094</v>
       </c>
-      <c r="AB10" s="4" t="n">
+      <c r="AB10" s="5" t="n">
         <v>22213036982.5083</v>
       </c>
-      <c r="AC10" s="4" t="n">
+      <c r="AC10" s="5" t="n">
         <v>24238830668.3656</v>
       </c>
-      <c r="AD10" s="4" t="n">
+      <c r="AD10" s="5" t="n">
         <v>24497884759.1049</v>
       </c>
-      <c r="AE10" s="4" t="n">
+      <c r="AE10" s="5" t="n">
         <v>27467961595.1801</v>
       </c>
-      <c r="AF10" s="4" t="n">
+      <c r="AF10" s="5" t="n">
         <v>30723649236.1862</v>
       </c>
-      <c r="AG10" s="4" t="n">
+      <c r="AG10" s="5" t="n">
         <v>33027824591.2976</v>
       </c>
-      <c r="AH10" s="4" t="n">
+      <c r="AH10" s="5" t="n">
         <v>36792670341.8412</v>
       </c>
-      <c r="AI10" s="4" t="n">
+      <c r="AI10" s="5" t="n">
         <v>33864152994.884</v>
       </c>
-      <c r="AJ10" s="4" t="n">
+      <c r="AJ10" s="5" t="n">
         <v>30654947847.6359</v>
       </c>
-      <c r="AK10" s="4" t="n">
+      <c r="AK10" s="5" t="n">
         <v>25657560820.3307</v>
       </c>
-      <c r="AL10" s="4" t="n">
+      <c r="AL10" s="5" t="n">
         <v>22964024432.7188</v>
       </c>
-      <c r="AM10" s="4" t="n">
+      <c r="AM10" s="5" t="n">
         <v>23829117897.8035</v>
       </c>
-      <c r="AN10" s="4" t="n">
+      <c r="AN10" s="5" t="n">
         <v>26217769701.1504</v>
       </c>
-      <c r="AO10" s="4" t="n">
+      <c r="AO10" s="5" t="n">
         <v>28605233303.0701</v>
       </c>
-      <c r="AP10" s="4" t="n">
+      <c r="AP10" s="5" t="n">
         <v>29614691816.3822</v>
       </c>
-      <c r="AQ10" s="4" t="n">
+      <c r="AQ10" s="5" t="n">
         <v>29574434846.3574</v>
       </c>
-      <c r="AR10" s="4" t="n">
+      <c r="AR10" s="5" t="n">
         <v>28823200233.734</v>
       </c>
-      <c r="AS10" s="4" t="n">
+      <c r="AS10" s="5" t="n">
         <v>30704358655.735</v>
       </c>
-      <c r="AT10" s="4" t="n">
+      <c r="AT10" s="5" t="n">
         <v>32091803138.3627</v>
       </c>
-      <c r="AU10" s="4"/>
-      <c r="AV10" s="4"/>
+      <c r="AU10" s="5"/>
+      <c r="AV10" s="5"/>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -3967,110 +3969,110 @@
       <c r="L11" t="s">
         <v>69</v>
       </c>
-      <c r="M11" s="4" t="n">
+      <c r="M11" s="5" t="n">
         <v>10680657493</v>
       </c>
-      <c r="N11" s="4" t="n">
+      <c r="N11" s="5" t="n">
         <v>9512770712</v>
       </c>
-      <c r="O11" s="4" t="n">
+      <c r="O11" s="5" t="n">
         <v>8600082026</v>
       </c>
-      <c r="P11" s="4" t="n">
+      <c r="P11" s="5" t="n">
         <v>9502770472</v>
       </c>
-      <c r="Q11" s="4" t="n">
+      <c r="Q11" s="5" t="n">
         <v>7389026646</v>
       </c>
-      <c r="R11" s="4" t="n">
+      <c r="R11" s="5" t="n">
         <v>9654356740</v>
       </c>
-      <c r="S11" s="4" t="n">
+      <c r="S11" s="5" t="n">
         <v>7969628348</v>
       </c>
-      <c r="T11" s="4" t="n">
+      <c r="T11" s="5" t="n">
         <v>8340521642</v>
       </c>
-      <c r="U11" s="4" t="n">
+      <c r="U11" s="5" t="n">
         <v>9369233233</v>
       </c>
-      <c r="V11" s="4" t="n">
+      <c r="V11" s="5" t="n">
         <v>8320132027</v>
       </c>
-      <c r="W11" s="4" t="n">
+      <c r="W11" s="5" t="n">
         <v>9355821763</v>
       </c>
-      <c r="X11" s="4" t="n">
+      <c r="X11" s="5" t="n">
         <v>12404327288</v>
       </c>
-      <c r="Y11" s="4" t="n">
+      <c r="Y11" s="5" t="n">
         <v>12695551337.9302</v>
       </c>
-      <c r="Z11" s="4" t="n">
+      <c r="Z11" s="5" t="n">
         <v>12672639053.0506</v>
       </c>
-      <c r="AA11" s="4" t="n">
+      <c r="AA11" s="5" t="n">
         <v>14842821715.218</v>
       </c>
-      <c r="AB11" s="4" t="n">
+      <c r="AB11" s="5" t="n">
         <v>14040438232.125</v>
       </c>
-      <c r="AC11" s="4" t="n">
+      <c r="AC11" s="5" t="n">
         <v>16819203918.0557</v>
       </c>
-      <c r="AD11" s="4" t="n">
+      <c r="AD11" s="5" t="n">
         <v>17252495018.4087</v>
       </c>
-      <c r="AE11" s="4" t="n">
+      <c r="AE11" s="5" t="n">
         <v>19353085549.2856</v>
       </c>
-      <c r="AF11" s="4" t="n">
+      <c r="AF11" s="5" t="n">
         <v>21501494553.2492</v>
       </c>
-      <c r="AG11" s="4" t="n">
+      <c r="AG11" s="5" t="n">
         <v>17562189933.0446</v>
       </c>
-      <c r="AH11" s="4" t="n">
+      <c r="AH11" s="5" t="n">
         <v>28389571263.5333</v>
       </c>
-      <c r="AI11" s="4" t="n">
+      <c r="AI11" s="5" t="n">
         <v>23823517535.9178</v>
       </c>
-      <c r="AJ11" s="4" t="n">
+      <c r="AJ11" s="5" t="n">
         <v>23051278527.2609</v>
       </c>
-      <c r="AK11" s="4" t="n">
+      <c r="AK11" s="5" t="n">
         <v>23827426373.0695</v>
       </c>
-      <c r="AL11" s="4" t="n">
+      <c r="AL11" s="5" t="n">
         <v>21478209072.9086</v>
       </c>
-      <c r="AM11" s="4" t="n">
+      <c r="AM11" s="5" t="n">
         <v>24652659223.7647</v>
       </c>
-      <c r="AN11" s="4" t="n">
+      <c r="AN11" s="5" t="n">
         <v>27207917365.1003</v>
       </c>
-      <c r="AO11" s="4" t="n">
+      <c r="AO11" s="5" t="n">
         <v>31309731161.7674</v>
       </c>
-      <c r="AP11" s="4" t="n">
+      <c r="AP11" s="5" t="n">
         <v>33306137418.9457</v>
       </c>
-      <c r="AQ11" s="4" t="n">
+      <c r="AQ11" s="5" t="n">
         <v>40083302918.2624</v>
       </c>
-      <c r="AR11" s="4" t="n">
+      <c r="AR11" s="5" t="n">
         <v>31960874260.6986</v>
       </c>
-      <c r="AS11" s="4" t="n">
+      <c r="AS11" s="5" t="n">
         <v>34380528500.5512</v>
       </c>
-      <c r="AT11" s="4" t="n">
+      <c r="AT11" s="5" t="n">
         <v>40080961983.957</v>
       </c>
-      <c r="AU11" s="4"/>
-      <c r="AV11" s="4"/>
+      <c r="AU11" s="5"/>
+      <c r="AV11" s="5"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -4079,110 +4081,110 @@
       <c r="L12" t="s">
         <v>70</v>
       </c>
-      <c r="M12" s="4" t="n">
+      <c r="M12" s="5" t="n">
         <v>5109318000</v>
       </c>
-      <c r="N12" s="4" t="n">
+      <c r="N12" s="5" t="n">
         <v>4536041000</v>
       </c>
-      <c r="O12" s="4" t="n">
+      <c r="O12" s="5" t="n">
         <v>3207056007</v>
       </c>
-      <c r="P12" s="4" t="n">
+      <c r="P12" s="5" t="n">
         <v>3775896266</v>
       </c>
-      <c r="Q12" s="4" t="n">
+      <c r="Q12" s="5" t="n">
         <v>3704627729</v>
       </c>
-      <c r="R12" s="4" t="n">
+      <c r="R12" s="5" t="n">
         <v>3449312820</v>
       </c>
-      <c r="S12" s="4" t="n">
+      <c r="S12" s="5" t="n">
         <v>2950138142</v>
       </c>
-      <c r="T12" s="4" t="n">
+      <c r="T12" s="5" t="n">
         <v>3180065599</v>
       </c>
-      <c r="U12" s="4" t="n">
+      <c r="U12" s="5" t="n">
         <v>3551481726</v>
       </c>
-      <c r="V12" s="4" t="n">
+      <c r="V12" s="5" t="n">
         <v>3510240138</v>
       </c>
-      <c r="W12" s="4" t="n">
+      <c r="W12" s="5" t="n">
         <v>3182752124</v>
       </c>
-      <c r="X12" s="4" t="n">
+      <c r="X12" s="5" t="n">
         <v>4154315718</v>
       </c>
-      <c r="Y12" s="4" t="n">
+      <c r="Y12" s="5" t="n">
         <v>4493775536.64</v>
       </c>
-      <c r="Z12" s="4" t="n">
+      <c r="Z12" s="5" t="n">
         <v>5289484148.71</v>
       </c>
-      <c r="AA12" s="4" t="n">
+      <c r="AA12" s="5" t="n">
         <v>6278698518.1575</v>
       </c>
-      <c r="AB12" s="4" t="n">
+      <c r="AB12" s="5" t="n">
         <v>6522295855.15</v>
       </c>
-      <c r="AC12" s="4" t="n">
+      <c r="AC12" s="5" t="n">
         <v>8010484956.6197</v>
       </c>
-      <c r="AD12" s="4" t="n">
+      <c r="AD12" s="5" t="n">
         <v>8210408405.3334</v>
       </c>
-      <c r="AE12" s="4" t="n">
+      <c r="AE12" s="5" t="n">
         <v>9577508055.1393</v>
       </c>
-      <c r="AF12" s="4" t="n">
+      <c r="AF12" s="5" t="n">
         <v>10381036873.8353</v>
       </c>
-      <c r="AG12" s="4" t="n">
+      <c r="AG12" s="5" t="n">
         <v>9089367407.3932</v>
       </c>
-      <c r="AH12" s="4" t="n">
+      <c r="AH12" s="5" t="n">
         <v>10298401710.0025</v>
       </c>
-      <c r="AI12" s="4" t="n">
+      <c r="AI12" s="5" t="n">
         <v>9949330376.4938</v>
       </c>
-      <c r="AJ12" s="4" t="n">
+      <c r="AJ12" s="5" t="n">
         <v>7571179669.3494</v>
       </c>
-      <c r="AK12" s="4" t="n">
+      <c r="AK12" s="5" t="n">
         <v>7849485533.8651</v>
       </c>
-      <c r="AL12" s="4" t="n">
+      <c r="AL12" s="5" t="n">
         <v>5963062519.4985</v>
       </c>
-      <c r="AM12" s="4" t="n">
+      <c r="AM12" s="5" t="n">
         <v>6075865714.2822</v>
       </c>
-      <c r="AN12" s="4" t="n">
+      <c r="AN12" s="5" t="n">
         <v>6050578378.7743</v>
       </c>
-      <c r="AO12" s="4" t="n">
+      <c r="AO12" s="5" t="n">
         <v>5944690727.7059</v>
       </c>
-      <c r="AP12" s="4" t="n">
+      <c r="AP12" s="5" t="n">
         <v>7211703814.4366</v>
       </c>
-      <c r="AQ12" s="4" t="n">
+      <c r="AQ12" s="5" t="n">
         <v>7316134735.464</v>
       </c>
-      <c r="AR12" s="4" t="n">
+      <c r="AR12" s="5" t="n">
         <v>3588379965.0111</v>
       </c>
-      <c r="AS12" s="4" t="n">
+      <c r="AS12" s="5" t="n">
         <v>4636972619.8123</v>
       </c>
-      <c r="AT12" s="4" t="n">
+      <c r="AT12" s="5" t="n">
         <v>5131120129.3471</v>
       </c>
-      <c r="AU12" s="4"/>
-      <c r="AV12" s="4"/>
+      <c r="AU12" s="5"/>
+      <c r="AV12" s="5"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -4191,88 +4193,88 @@
       <c r="L13" t="s">
         <v>58</v>
       </c>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4" t="n">
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5" t="n">
         <v>29503352.0086</v>
       </c>
-      <c r="X13" s="4" t="n">
+      <c r="X13" s="5" t="n">
         <v>9825233.9431</v>
       </c>
-      <c r="Y13" s="4" t="n">
+      <c r="Y13" s="5" t="n">
         <v>84074351.1753</v>
       </c>
-      <c r="Z13" s="4" t="n">
+      <c r="Z13" s="5" t="n">
         <v>75741000.1739</v>
       </c>
-      <c r="AA13" s="4" t="n">
+      <c r="AA13" s="5" t="n">
         <v>7078195.786</v>
       </c>
-      <c r="AB13" s="4" t="n">
+      <c r="AB13" s="5" t="n">
         <v>3802636.121</v>
       </c>
-      <c r="AC13" s="4" t="n">
+      <c r="AC13" s="5" t="n">
         <v>109748296.8079</v>
       </c>
-      <c r="AD13" s="4" t="n">
+      <c r="AD13" s="5" t="n">
         <v>18047584.62</v>
       </c>
-      <c r="AE13" s="4" t="n">
+      <c r="AE13" s="5" t="n">
         <v>368043.2203</v>
       </c>
-      <c r="AF13" s="4" t="n">
+      <c r="AF13" s="5" t="n">
         <v>986168.1493</v>
       </c>
-      <c r="AG13" s="4" t="n">
+      <c r="AG13" s="5" t="n">
         <v>-253919.658</v>
       </c>
-      <c r="AH13" s="4" t="n">
+      <c r="AH13" s="5" t="n">
         <v>-140825.1013</v>
       </c>
-      <c r="AI13" s="4" t="n">
+      <c r="AI13" s="5" t="n">
         <v>-6477.8001</v>
       </c>
-      <c r="AJ13" s="4" t="n">
+      <c r="AJ13" s="5" t="n">
         <v>-99723.1206</v>
       </c>
-      <c r="AK13" s="4"/>
-      <c r="AL13" s="4" t="n">
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5" t="n">
         <v>30000</v>
       </c>
-      <c r="AM13" s="4" t="n">
+      <c r="AM13" s="5" t="n">
         <v>3581529.4308</v>
       </c>
-      <c r="AN13" s="4" t="n">
+      <c r="AN13" s="5" t="n">
         <v>1345607</v>
       </c>
-      <c r="AO13" s="4" t="n">
+      <c r="AO13" s="5" t="n">
         <v>-212795.3691</v>
       </c>
-      <c r="AP13" s="4" t="n">
+      <c r="AP13" s="5" t="n">
         <v>465885</v>
       </c>
-      <c r="AQ13" s="4" t="n">
+      <c r="AQ13" s="5" t="n">
         <v>10000</v>
       </c>
-      <c r="AR13" s="4" t="n">
+      <c r="AR13" s="5" t="n">
         <v>386316</v>
       </c>
-      <c r="AS13" s="4" t="n">
+      <c r="AS13" s="5" t="n">
         <v>980919.7602</v>
       </c>
-      <c r="AT13" s="4" t="n">
+      <c r="AT13" s="5" t="n">
         <v>2471452.5461</v>
       </c>
-      <c r="AU13" s="4"/>
-      <c r="AV13" s="4"/>
+      <c r="AU13" s="5"/>
+      <c r="AV13" s="5"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -4281,112 +4283,112 @@
       <c r="L14" t="s">
         <v>46</v>
       </c>
-      <c r="M14" s="4" t="str">
+      <c r="M14" s="5" t="str">
         <f>Sum(M2:M13)</f>
       </c>
-      <c r="N14" s="4" t="str">
+      <c r="N14" s="5" t="str">
         <f>Sum(N2:N13)</f>
       </c>
-      <c r="O14" s="4" t="str">
+      <c r="O14" s="5" t="str">
         <f>Sum(O2:O13)</f>
       </c>
-      <c r="P14" s="4" t="str">
+      <c r="P14" s="5" t="str">
         <f>Sum(P2:P13)</f>
       </c>
-      <c r="Q14" s="4" t="str">
+      <c r="Q14" s="5" t="str">
         <f>Sum(Q2:Q13)</f>
       </c>
-      <c r="R14" s="4" t="str">
+      <c r="R14" s="5" t="str">
         <f>Sum(R2:R13)</f>
       </c>
-      <c r="S14" s="4" t="str">
+      <c r="S14" s="5" t="str">
         <f>Sum(S2:S13)</f>
       </c>
-      <c r="T14" s="4" t="str">
+      <c r="T14" s="5" t="str">
         <f>Sum(T2:T13)</f>
       </c>
-      <c r="U14" s="4" t="str">
+      <c r="U14" s="5" t="str">
         <f>Sum(U2:U13)</f>
       </c>
-      <c r="V14" s="4" t="str">
+      <c r="V14" s="5" t="str">
         <f>Sum(V2:V13)</f>
       </c>
-      <c r="W14" s="4" t="str">
+      <c r="W14" s="5" t="str">
         <f>Sum(W2:W13)</f>
       </c>
-      <c r="X14" s="4" t="str">
+      <c r="X14" s="5" t="str">
         <f>Sum(X2:X13)</f>
       </c>
-      <c r="Y14" s="4" t="str">
+      <c r="Y14" s="5" t="str">
         <f>Sum(Y2:Y13)</f>
       </c>
-      <c r="Z14" s="4" t="str">
+      <c r="Z14" s="5" t="str">
         <f>Sum(Z2:Z13)</f>
       </c>
-      <c r="AA14" s="4" t="str">
+      <c r="AA14" s="5" t="str">
         <f>Sum(AA2:AA13)</f>
       </c>
-      <c r="AB14" s="4" t="str">
+      <c r="AB14" s="5" t="str">
         <f>Sum(AB2:AB13)</f>
       </c>
-      <c r="AC14" s="4" t="str">
+      <c r="AC14" s="5" t="str">
         <f>Sum(AC2:AC13)</f>
       </c>
-      <c r="AD14" s="4" t="str">
+      <c r="AD14" s="5" t="str">
         <f>Sum(AD2:AD13)</f>
       </c>
-      <c r="AE14" s="4" t="str">
+      <c r="AE14" s="5" t="str">
         <f>Sum(AE2:AE13)</f>
       </c>
-      <c r="AF14" s="4" t="str">
+      <c r="AF14" s="5" t="str">
         <f>Sum(AF2:AF13)</f>
       </c>
-      <c r="AG14" s="4" t="str">
+      <c r="AG14" s="5" t="str">
         <f>Sum(AG2:AG13)</f>
       </c>
-      <c r="AH14" s="4" t="str">
+      <c r="AH14" s="5" t="str">
         <f>Sum(AH2:AH13)</f>
       </c>
-      <c r="AI14" s="4" t="str">
+      <c r="AI14" s="5" t="str">
         <f>Sum(AI2:AI13)</f>
       </c>
-      <c r="AJ14" s="4" t="str">
+      <c r="AJ14" s="5" t="str">
         <f>Sum(AJ2:AJ13)</f>
       </c>
-      <c r="AK14" s="4" t="str">
+      <c r="AK14" s="5" t="str">
         <f>Sum(AK2:AK13)</f>
       </c>
-      <c r="AL14" s="4" t="str">
+      <c r="AL14" s="5" t="str">
         <f>Sum(AL2:AL13)</f>
       </c>
-      <c r="AM14" s="4" t="str">
+      <c r="AM14" s="5" t="str">
         <f>Sum(AM2:AM13)</f>
       </c>
-      <c r="AN14" s="4" t="str">
+      <c r="AN14" s="5" t="str">
         <f>Sum(AN2:AN13)</f>
       </c>
-      <c r="AO14" s="4" t="str">
+      <c r="AO14" s="5" t="str">
         <f>Sum(AO2:AO13)</f>
       </c>
-      <c r="AP14" s="4" t="str">
+      <c r="AP14" s="5" t="str">
         <f>Sum(AP2:AP13)</f>
       </c>
-      <c r="AQ14" s="4" t="str">
+      <c r="AQ14" s="5" t="str">
         <f>Sum(AQ2:AQ13)</f>
       </c>
-      <c r="AR14" s="4" t="str">
+      <c r="AR14" s="5" t="str">
         <f>Sum(AR2:AR13)</f>
       </c>
-      <c r="AS14" s="4" t="str">
+      <c r="AS14" s="5" t="str">
         <f>Sum(AS2:AS13)</f>
       </c>
-      <c r="AT14" s="4" t="str">
+      <c r="AT14" s="5" t="str">
         <f>Sum(AT2:AT13)</f>
       </c>
-      <c r="AU14" s="4" t="str">
+      <c r="AU14" s="5" t="str">
         <f>Sum(AU2:AU13)</f>
       </c>
-      <c r="AV14" s="4"/>
+      <c r="AV14" s="5"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -4520,1710 +4522,1710 @@
       <c r="A18" t="str">
         <f>L18</f>
       </c>
-      <c r="B18" s="4" t="str">
+      <c r="B18" s="5" t="str">
         <f>AQ18</f>
       </c>
-      <c r="C18" s="4" t="str">
+      <c r="C18" s="5" t="str">
         <f>AS18</f>
       </c>
-      <c r="D18" s="4" t="str">
+      <c r="D18" s="5" t="str">
         <f>AT18</f>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="2" t="str">
+      <c r="E18" s="5"/>
+      <c r="F18" s="1" t="str">
         <f>AT18/AS18-1</f>
       </c>
-      <c r="G18" s="2" t="str">
+      <c r="G18" s="1" t="str">
         <f>AT18/AQ18-1</f>
       </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2" t="str">
+      <c r="H18" s="1"/>
+      <c r="I18" s="1" t="str">
         <f>AT18/Sum(AT$17:AT$29)</f>
       </c>
-      <c r="J18" s="2"/>
+      <c r="J18" s="1"/>
       <c r="L18" t="s">
         <v>60</v>
       </c>
-      <c r="M18" s="4" t="n">
+      <c r="M18" s="5" t="n">
         <v>64075885586.9287</v>
       </c>
-      <c r="N18" s="4" t="n">
+      <c r="N18" s="5" t="n">
         <v>60931359823.3367</v>
       </c>
-      <c r="O18" s="4" t="n">
+      <c r="O18" s="5" t="n">
         <v>59102396899.9721</v>
       </c>
-      <c r="P18" s="4" t="n">
+      <c r="P18" s="5" t="n">
         <v>56948319601.188</v>
       </c>
-      <c r="Q18" s="4" t="n">
+      <c r="Q18" s="5" t="n">
         <v>56903211635.8085</v>
       </c>
-      <c r="R18" s="4" t="n">
+      <c r="R18" s="5" t="n">
         <v>48914655359.5699</v>
       </c>
-      <c r="S18" s="4" t="n">
+      <c r="S18" s="5" t="n">
         <v>51664016934.8223</v>
       </c>
-      <c r="T18" s="4" t="n">
+      <c r="T18" s="5" t="n">
         <v>43858004001.3944</v>
       </c>
-      <c r="U18" s="4" t="n">
+      <c r="U18" s="5" t="n">
         <v>46092926770.9453</v>
       </c>
-      <c r="V18" s="4" t="n">
+      <c r="V18" s="5" t="n">
         <v>47272090798.3466</v>
       </c>
-      <c r="W18" s="4" t="n">
+      <c r="W18" s="5" t="n">
         <v>59547729867.6574</v>
       </c>
-      <c r="X18" s="4" t="n">
+      <c r="X18" s="5" t="n">
         <v>59289952386.5049</v>
       </c>
-      <c r="Y18" s="4" t="n">
+      <c r="Y18" s="5" t="n">
         <v>63064473529.902</v>
       </c>
-      <c r="Z18" s="4" t="n">
+      <c r="Z18" s="5" t="n">
         <v>78079485533.161</v>
       </c>
-      <c r="AA18" s="4" t="n">
+      <c r="AA18" s="5" t="n">
         <v>73985109585.052</v>
       </c>
-      <c r="AB18" s="4" t="n">
+      <c r="AB18" s="5" t="n">
         <v>71019894415.3938</v>
       </c>
-      <c r="AC18" s="4" t="n">
+      <c r="AC18" s="5" t="n">
         <v>78518429554.939</v>
       </c>
-      <c r="AD18" s="4" t="n">
+      <c r="AD18" s="5" t="n">
         <v>85631059112.2205</v>
       </c>
-      <c r="AE18" s="4" t="n">
+      <c r="AE18" s="5" t="n">
         <v>92550080617.8593</v>
       </c>
-      <c r="AF18" s="4" t="n">
+      <c r="AF18" s="5" t="n">
         <v>90409028885.5621</v>
       </c>
-      <c r="AG18" s="4" t="n">
+      <c r="AG18" s="5" t="n">
         <v>86574133285.8755</v>
       </c>
-      <c r="AH18" s="4" t="n">
+      <c r="AH18" s="5" t="n">
         <v>93811347355.0251</v>
       </c>
-      <c r="AI18" s="4" t="n">
+      <c r="AI18" s="5" t="n">
         <v>102442481700.098</v>
       </c>
-      <c r="AJ18" s="4" t="n">
+      <c r="AJ18" s="5" t="n">
         <v>94302335946.6956</v>
       </c>
-      <c r="AK18" s="4" t="n">
+      <c r="AK18" s="5" t="n">
         <v>73604118174.9878</v>
       </c>
-      <c r="AL18" s="4" t="n">
+      <c r="AL18" s="5" t="n">
         <v>77192333434.7056</v>
       </c>
-      <c r="AM18" s="4" t="n">
+      <c r="AM18" s="5" t="n">
         <v>93527591923.501</v>
       </c>
-      <c r="AN18" s="4" t="n">
+      <c r="AN18" s="5" t="n">
         <v>104763582373.651</v>
       </c>
-      <c r="AO18" s="4" t="n">
+      <c r="AO18" s="5" t="n">
         <v>99563483079.2711</v>
       </c>
-      <c r="AP18" s="4" t="n">
+      <c r="AP18" s="5" t="n">
         <v>105353401023.861</v>
       </c>
-      <c r="AQ18" s="4" t="n">
+      <c r="AQ18" s="5" t="n">
         <v>121870949389.588</v>
       </c>
-      <c r="AR18" s="4" t="n">
+      <c r="AR18" s="5" t="n">
         <v>80914615668.373</v>
       </c>
-      <c r="AS18" s="4" t="n">
+      <c r="AS18" s="5" t="n">
         <v>78544547014.2738</v>
       </c>
-      <c r="AT18" s="4" t="n">
+      <c r="AT18" s="5" t="n">
         <v>96995646293.0624</v>
       </c>
-      <c r="AU18" s="4"/>
-      <c r="AV18" s="4"/>
+      <c r="AU18" s="5"/>
+      <c r="AV18" s="5"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
         <f>L19</f>
       </c>
-      <c r="B19" s="4" t="str">
+      <c r="B19" s="5" t="str">
         <f>AQ19</f>
       </c>
-      <c r="C19" s="4" t="str">
+      <c r="C19" s="5" t="str">
         <f>AS19</f>
       </c>
-      <c r="D19" s="4" t="str">
+      <c r="D19" s="5" t="str">
         <f>AT19</f>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="2" t="str">
+      <c r="E19" s="5"/>
+      <c r="F19" s="1" t="str">
         <f>AT19/AS19-1</f>
       </c>
-      <c r="G19" s="2" t="str">
+      <c r="G19" s="1" t="str">
         <f>AT19/AQ19-1</f>
       </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2" t="str">
+      <c r="H19" s="1"/>
+      <c r="I19" s="1" t="str">
         <f>AT19/Sum(AT$17:AT$29)</f>
       </c>
-      <c r="J19" s="2"/>
+      <c r="J19" s="1"/>
       <c r="L19" t="s">
         <v>61</v>
       </c>
-      <c r="M19" s="4" t="n">
+      <c r="M19" s="5" t="n">
         <v>40750200551.9922</v>
       </c>
-      <c r="N19" s="4" t="n">
+      <c r="N19" s="5" t="n">
         <v>38579143646.181</v>
       </c>
-      <c r="O19" s="4" t="n">
+      <c r="O19" s="5" t="n">
         <v>37764647376.2585</v>
       </c>
-      <c r="P19" s="4" t="n">
+      <c r="P19" s="5" t="n">
         <v>34722497418.1948</v>
       </c>
-      <c r="Q19" s="4" t="n">
+      <c r="Q19" s="5" t="n">
         <v>32867285972.8135</v>
       </c>
-      <c r="R19" s="4" t="n">
+      <c r="R19" s="5" t="n">
         <v>34093946117.2914</v>
       </c>
-      <c r="S19" s="4" t="n">
+      <c r="S19" s="5" t="n">
         <v>32551735699.1495</v>
       </c>
-      <c r="T19" s="4" t="n">
+      <c r="T19" s="5" t="n">
         <v>32414305045.3656</v>
       </c>
-      <c r="U19" s="4" t="n">
+      <c r="U19" s="5" t="n">
         <v>30368624597.366</v>
       </c>
-      <c r="V19" s="4" t="n">
+      <c r="V19" s="5" t="n">
         <v>33587340544.3679</v>
       </c>
-      <c r="W19" s="4" t="n">
+      <c r="W19" s="5" t="n">
         <v>34885484789.4667</v>
       </c>
-      <c r="X19" s="4" t="n">
+      <c r="X19" s="5" t="n">
         <v>36745287533.1582</v>
       </c>
-      <c r="Y19" s="4" t="n">
+      <c r="Y19" s="5" t="n">
         <v>41697219330.4779</v>
       </c>
-      <c r="Z19" s="4" t="n">
+      <c r="Z19" s="5" t="n">
         <v>49909470346.871</v>
       </c>
-      <c r="AA19" s="4" t="n">
+      <c r="AA19" s="5" t="n">
         <v>58089728247.657</v>
       </c>
-      <c r="AB19" s="4" t="n">
+      <c r="AB19" s="5" t="n">
         <v>63435613281.1041</v>
       </c>
-      <c r="AC19" s="4" t="n">
+      <c r="AC19" s="5" t="n">
         <v>65759382718.1039</v>
       </c>
-      <c r="AD19" s="4" t="n">
+      <c r="AD19" s="5" t="n">
         <v>74263655886.4997</v>
       </c>
-      <c r="AE19" s="4" t="n">
+      <c r="AE19" s="5" t="n">
         <v>78993141501.8696</v>
       </c>
-      <c r="AF19" s="4" t="n">
+      <c r="AF19" s="5" t="n">
         <v>75987489678.8264</v>
       </c>
-      <c r="AG19" s="4" t="n">
+      <c r="AG19" s="5" t="n">
         <v>76390306794.3935</v>
       </c>
-      <c r="AH19" s="4" t="n">
+      <c r="AH19" s="5" t="n">
         <v>69946157921.2824</v>
       </c>
-      <c r="AI19" s="4" t="n">
+      <c r="AI19" s="5" t="n">
         <v>65032635960.6465</v>
       </c>
-      <c r="AJ19" s="4" t="n">
+      <c r="AJ19" s="5" t="n">
         <v>52922275714.1772</v>
       </c>
-      <c r="AK19" s="4" t="n">
+      <c r="AK19" s="5" t="n">
         <v>51647231842.8391</v>
       </c>
-      <c r="AL19" s="4" t="n">
+      <c r="AL19" s="5" t="n">
         <v>49567245828.7529</v>
       </c>
-      <c r="AM19" s="4" t="n">
+      <c r="AM19" s="5" t="n">
         <v>53753730223.1825</v>
       </c>
-      <c r="AN19" s="4" t="n">
+      <c r="AN19" s="5" t="n">
         <v>55796076767.4251</v>
       </c>
-      <c r="AO19" s="4" t="n">
+      <c r="AO19" s="5" t="n">
         <v>60852444969.8408</v>
       </c>
-      <c r="AP19" s="4" t="n">
+      <c r="AP19" s="5" t="n">
         <v>64432808240.7643</v>
       </c>
-      <c r="AQ19" s="4" t="n">
+      <c r="AQ19" s="5" t="n">
         <v>64038236993.3446</v>
       </c>
-      <c r="AR19" s="4" t="n">
+      <c r="AR19" s="5" t="n">
         <v>55478009319.8607</v>
       </c>
-      <c r="AS19" s="4" t="n">
+      <c r="AS19" s="5" t="n">
         <v>55995844935.9166</v>
       </c>
-      <c r="AT19" s="4" t="n">
+      <c r="AT19" s="5" t="n">
         <v>56374981980.7601</v>
       </c>
-      <c r="AU19" s="4"/>
-      <c r="AV19" s="4"/>
+      <c r="AU19" s="5"/>
+      <c r="AV19" s="5"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
         <f>L20</f>
       </c>
-      <c r="B20" s="4" t="str">
+      <c r="B20" s="5" t="str">
         <f>AQ20</f>
       </c>
-      <c r="C20" s="4" t="str">
+      <c r="C20" s="5" t="str">
         <f>AS20</f>
       </c>
-      <c r="D20" s="4" t="str">
+      <c r="D20" s="5" t="str">
         <f>AT20</f>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="2" t="str">
+      <c r="E20" s="5"/>
+      <c r="F20" s="1" t="str">
         <f>AT20/AS20-1</f>
       </c>
-      <c r="G20" s="2" t="str">
+      <c r="G20" s="1" t="str">
         <f>AT20/AQ20-1</f>
       </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2" t="str">
+      <c r="H20" s="1"/>
+      <c r="I20" s="1" t="str">
         <f>AT20/Sum(AT$17:AT$29)</f>
       </c>
-      <c r="J20" s="2"/>
+      <c r="J20" s="1"/>
       <c r="L20" t="s">
         <v>62</v>
       </c>
-      <c r="M20" s="4" t="n">
+      <c r="M20" s="5" t="n">
         <v>25198367586.5573</v>
       </c>
-      <c r="N20" s="4" t="n">
+      <c r="N20" s="5" t="n">
         <v>36928181612.1716</v>
       </c>
-      <c r="O20" s="4" t="n">
+      <c r="O20" s="5" t="n">
         <v>34399575192.8933</v>
       </c>
-      <c r="P20" s="4" t="n">
+      <c r="P20" s="5" t="n">
         <v>32697963461.0589</v>
       </c>
-      <c r="Q20" s="4" t="n">
+      <c r="Q20" s="5" t="n">
         <v>37875499873.6697</v>
       </c>
-      <c r="R20" s="4" t="n">
+      <c r="R20" s="5" t="n">
         <v>36733922816.8792</v>
       </c>
-      <c r="S20" s="4" t="n">
+      <c r="S20" s="5" t="n">
         <v>36314476069.6697</v>
       </c>
-      <c r="T20" s="4" t="n">
+      <c r="T20" s="5" t="n">
         <v>35585740716.3711</v>
       </c>
-      <c r="U20" s="4" t="n">
+      <c r="U20" s="5" t="n">
         <v>33991644649.0244</v>
       </c>
-      <c r="V20" s="4" t="n">
+      <c r="V20" s="5" t="n">
         <v>35361050506.1029</v>
       </c>
-      <c r="W20" s="4" t="n">
+      <c r="W20" s="5" t="n">
         <v>34968288537.5202</v>
       </c>
-      <c r="X20" s="4" t="n">
+      <c r="X20" s="5" t="n">
         <v>37860710056.4188</v>
       </c>
-      <c r="Y20" s="4" t="n">
+      <c r="Y20" s="5" t="n">
         <v>42116517318.3064</v>
       </c>
-      <c r="Z20" s="4" t="n">
+      <c r="Z20" s="5" t="n">
         <v>54616572281.3899</v>
       </c>
-      <c r="AA20" s="4" t="n">
+      <c r="AA20" s="5" t="n">
         <v>55258910070.1469</v>
       </c>
-      <c r="AB20" s="4" t="n">
+      <c r="AB20" s="5" t="n">
         <v>59418030100.1367</v>
       </c>
-      <c r="AC20" s="4" t="n">
+      <c r="AC20" s="5" t="n">
         <v>66264124184.58</v>
       </c>
-      <c r="AD20" s="4" t="n">
+      <c r="AD20" s="5" t="n">
         <v>65405607481.6311</v>
       </c>
-      <c r="AE20" s="4" t="n">
+      <c r="AE20" s="5" t="n">
         <v>79462857178.7912</v>
       </c>
-      <c r="AF20" s="4" t="n">
+      <c r="AF20" s="5" t="n">
         <v>72028412868.7947</v>
       </c>
-      <c r="AG20" s="4" t="n">
+      <c r="AG20" s="5" t="n">
         <v>83358463030.8958</v>
       </c>
-      <c r="AH20" s="4" t="n">
+      <c r="AH20" s="5" t="n">
         <v>72831844870.785</v>
       </c>
-      <c r="AI20" s="4" t="n">
+      <c r="AI20" s="5" t="n">
         <v>64235060548.3006</v>
       </c>
-      <c r="AJ20" s="4" t="n">
+      <c r="AJ20" s="5" t="n">
         <v>50512682710.9812</v>
       </c>
-      <c r="AK20" s="4" t="n">
+      <c r="AK20" s="5" t="n">
         <v>53365619973.4349</v>
       </c>
-      <c r="AL20" s="4" t="n">
+      <c r="AL20" s="5" t="n">
         <v>47706633973.6888</v>
       </c>
-      <c r="AM20" s="4" t="n">
+      <c r="AM20" s="5" t="n">
         <v>47866576659.8473</v>
       </c>
-      <c r="AN20" s="4" t="n">
+      <c r="AN20" s="5" t="n">
         <v>46924750237.8835</v>
       </c>
-      <c r="AO20" s="4" t="n">
+      <c r="AO20" s="5" t="n">
         <v>56069979647.1713</v>
       </c>
-      <c r="AP20" s="4" t="n">
+      <c r="AP20" s="5" t="n">
         <v>61021117390.3336</v>
       </c>
-      <c r="AQ20" s="4" t="n">
+      <c r="AQ20" s="5" t="n">
         <v>69636416413.3765</v>
       </c>
-      <c r="AR20" s="4" t="n">
+      <c r="AR20" s="5" t="n">
         <v>57239538199.6528</v>
       </c>
-      <c r="AS20" s="4" t="n">
+      <c r="AS20" s="5" t="n">
         <v>59898899076.8653</v>
       </c>
-      <c r="AT20" s="4" t="n">
+      <c r="AT20" s="5" t="n">
         <v>65051855498.8764</v>
       </c>
-      <c r="AU20" s="4"/>
-      <c r="AV20" s="4"/>
+      <c r="AU20" s="5"/>
+      <c r="AV20" s="5"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
         <f>L21</f>
       </c>
-      <c r="B21" s="4" t="str">
+      <c r="B21" s="5" t="str">
         <f>AQ21</f>
       </c>
-      <c r="C21" s="4" t="str">
+      <c r="C21" s="5" t="str">
         <f>AS21</f>
       </c>
-      <c r="D21" s="4" t="str">
+      <c r="D21" s="5" t="str">
         <f>AT21</f>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="2" t="str">
+      <c r="E21" s="5"/>
+      <c r="F21" s="1" t="str">
         <f>AT21/AS21-1</f>
       </c>
-      <c r="G21" s="2" t="str">
+      <c r="G21" s="1" t="str">
         <f>AT21/AQ21-1</f>
       </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2" t="str">
+      <c r="H21" s="1"/>
+      <c r="I21" s="1" t="str">
         <f>AT21/Sum(AT$17:AT$29)</f>
       </c>
-      <c r="J21" s="2"/>
+      <c r="J21" s="1"/>
       <c r="L21" t="s">
         <v>63</v>
       </c>
-      <c r="M21" s="4" t="n">
+      <c r="M21" s="5" t="n">
         <v>8841971466.65252</v>
       </c>
-      <c r="N21" s="4" t="n">
+      <c r="N21" s="5" t="n">
         <v>12987736573.8266</v>
       </c>
-      <c r="O21" s="4" t="n">
+      <c r="O21" s="5" t="n">
         <v>8117503923.54916</v>
       </c>
-      <c r="P21" s="4" t="n">
+      <c r="P21" s="5" t="n">
         <v>8368380135.38311</v>
       </c>
-      <c r="Q21" s="4" t="n">
+      <c r="Q21" s="5" t="n">
         <v>6741593612.09646</v>
       </c>
-      <c r="R21" s="4" t="n">
+      <c r="R21" s="5" t="n">
         <v>5651948005.26484</v>
       </c>
-      <c r="S21" s="4" t="n">
+      <c r="S21" s="5" t="n">
         <v>6585567405.01113</v>
       </c>
-      <c r="T21" s="4" t="n">
+      <c r="T21" s="5" t="n">
         <v>6425690821.59997</v>
       </c>
-      <c r="U21" s="4" t="n">
+      <c r="U21" s="5" t="n">
         <v>4872115690.78104</v>
       </c>
-      <c r="V21" s="4" t="n">
+      <c r="V21" s="5" t="n">
         <v>6019225868.8204</v>
       </c>
-      <c r="W21" s="4" t="n">
+      <c r="W21" s="5" t="n">
         <v>5709713667.40489</v>
       </c>
-      <c r="X21" s="4" t="n">
+      <c r="X21" s="5" t="n">
         <v>5412951238.41205</v>
       </c>
-      <c r="Y21" s="4" t="n">
+      <c r="Y21" s="5" t="n">
         <v>7732001444.83031</v>
       </c>
-      <c r="Z21" s="4" t="n">
+      <c r="Z21" s="5" t="n">
         <v>15286913049.5164</v>
       </c>
-      <c r="AA21" s="4" t="n">
+      <c r="AA21" s="5" t="n">
         <v>13226170259.7048</v>
       </c>
-      <c r="AB21" s="4" t="n">
+      <c r="AB21" s="5" t="n">
         <v>22923644368.6667</v>
       </c>
-      <c r="AC21" s="4" t="n">
+      <c r="AC21" s="5" t="n">
         <v>23468055564.3633</v>
       </c>
-      <c r="AD21" s="4" t="n">
+      <c r="AD21" s="5" t="n">
         <v>39923483190.1599</v>
       </c>
-      <c r="AE21" s="4" t="n">
+      <c r="AE21" s="5" t="n">
         <v>55143200295.1038</v>
       </c>
-      <c r="AF21" s="4" t="n">
+      <c r="AF21" s="5" t="n">
         <v>39589553525.5669</v>
       </c>
-      <c r="AG21" s="4" t="n">
+      <c r="AG21" s="5" t="n">
         <v>34486809819.5519</v>
       </c>
-      <c r="AH21" s="4" t="n">
+      <c r="AH21" s="5" t="n">
         <v>26124939035.4591</v>
       </c>
-      <c r="AI21" s="4" t="n">
+      <c r="AI21" s="5" t="n">
         <v>14202437730.1431</v>
       </c>
-      <c r="AJ21" s="4" t="n">
+      <c r="AJ21" s="5" t="n">
         <v>9570581605.23566</v>
       </c>
-      <c r="AK21" s="4" t="n">
+      <c r="AK21" s="5" t="n">
         <v>7364636994.87831</v>
       </c>
-      <c r="AL21" s="4" t="n">
+      <c r="AL21" s="5" t="n">
         <v>9381888873.90295</v>
       </c>
-      <c r="AM21" s="4" t="n">
+      <c r="AM21" s="5" t="n">
         <v>9126821288.11502</v>
       </c>
-      <c r="AN21" s="4" t="n">
+      <c r="AN21" s="5" t="n">
         <v>10074808748.6392</v>
       </c>
-      <c r="AO21" s="4" t="n">
+      <c r="AO21" s="5" t="n">
         <v>15153180722.1236</v>
       </c>
-      <c r="AP21" s="4" t="n">
+      <c r="AP21" s="5" t="n">
         <v>15135533231.5868</v>
       </c>
-      <c r="AQ21" s="4" t="n">
+      <c r="AQ21" s="5" t="n">
         <v>13593337073.3475</v>
       </c>
-      <c r="AR21" s="4" t="n">
+      <c r="AR21" s="5" t="n">
         <v>10840735415.8292</v>
       </c>
-      <c r="AS21" s="4" t="n">
+      <c r="AS21" s="5" t="n">
         <v>11243114669.8929</v>
       </c>
-      <c r="AT21" s="4" t="n">
+      <c r="AT21" s="5" t="n">
         <v>14479765870.1516</v>
       </c>
-      <c r="AU21" s="4"/>
-      <c r="AV21" s="4"/>
+      <c r="AU21" s="5"/>
+      <c r="AV21" s="5"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
         <f>L22</f>
       </c>
-      <c r="B22" s="4" t="str">
+      <c r="B22" s="5" t="str">
         <f>AQ22</f>
       </c>
-      <c r="C22" s="4" t="str">
+      <c r="C22" s="5" t="str">
         <f>AS22</f>
       </c>
-      <c r="D22" s="4" t="str">
+      <c r="D22" s="5" t="str">
         <f>AT22</f>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="2" t="str">
+      <c r="E22" s="5"/>
+      <c r="F22" s="1" t="str">
         <f>AT22/AS22-1</f>
       </c>
-      <c r="G22" s="2" t="str">
+      <c r="G22" s="1" t="str">
         <f>AT22/AQ22-1</f>
       </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2" t="str">
+      <c r="H22" s="1"/>
+      <c r="I22" s="1" t="str">
         <f>AT22/Sum(AT$17:AT$29)</f>
       </c>
-      <c r="J22" s="2"/>
+      <c r="J22" s="1"/>
       <c r="L22" t="s">
         <v>64</v>
       </c>
-      <c r="M22" s="4" t="n">
+      <c r="M22" s="5" t="n">
         <v>6277926485.6404</v>
       </c>
-      <c r="N22" s="4" t="n">
+      <c r="N22" s="5" t="n">
         <v>10395849592.443</v>
       </c>
-      <c r="O22" s="4" t="n">
+      <c r="O22" s="5" t="n">
         <v>7633864652.39192</v>
       </c>
-      <c r="P22" s="4" t="n">
+      <c r="P22" s="5" t="n">
         <v>9501052267.95467</v>
       </c>
-      <c r="Q22" s="4" t="n">
+      <c r="Q22" s="5" t="n">
         <v>7990143094.31754</v>
       </c>
-      <c r="R22" s="4" t="n">
+      <c r="R22" s="5" t="n">
         <v>6359526702.43219</v>
       </c>
-      <c r="S22" s="4" t="n">
+      <c r="S22" s="5" t="n">
         <v>6652483586.48177</v>
       </c>
-      <c r="T22" s="4" t="n">
+      <c r="T22" s="5" t="n">
         <v>7058669097.30044</v>
       </c>
-      <c r="U22" s="4" t="n">
+      <c r="U22" s="5" t="n">
         <v>6259350702.30289</v>
       </c>
-      <c r="V22" s="4" t="n">
+      <c r="V22" s="5" t="n">
         <v>6290634441.22553</v>
       </c>
-      <c r="W22" s="4" t="n">
+      <c r="W22" s="5" t="n">
         <v>5045267109.98122</v>
       </c>
-      <c r="X22" s="4" t="n">
+      <c r="X22" s="5" t="n">
         <v>5522106588.75984</v>
       </c>
-      <c r="Y22" s="4" t="n">
+      <c r="Y22" s="5" t="n">
         <v>7638005785.78996</v>
       </c>
-      <c r="Z22" s="4" t="n">
+      <c r="Z22" s="5" t="n">
         <v>7985417138.06481</v>
       </c>
-      <c r="AA22" s="4" t="n">
+      <c r="AA22" s="5" t="n">
         <v>9275006859.15106</v>
       </c>
-      <c r="AB22" s="4" t="n">
+      <c r="AB22" s="5" t="n">
         <v>9752243441.45016</v>
       </c>
-      <c r="AC22" s="4" t="n">
+      <c r="AC22" s="5" t="n">
         <v>9838961218.9291</v>
       </c>
-      <c r="AD22" s="4" t="n">
+      <c r="AD22" s="5" t="n">
         <v>11762748167.2363</v>
       </c>
-      <c r="AE22" s="4" t="n">
+      <c r="AE22" s="5" t="n">
         <v>12152547618.6121</v>
       </c>
-      <c r="AF22" s="4" t="n">
+      <c r="AF22" s="5" t="n">
         <v>14415641539.2928</v>
       </c>
-      <c r="AG22" s="4" t="n">
+      <c r="AG22" s="5" t="n">
         <v>14350380350.2719</v>
       </c>
-      <c r="AH22" s="4" t="n">
+      <c r="AH22" s="5" t="n">
         <v>14558636760.4096</v>
       </c>
-      <c r="AI22" s="4" t="n">
+      <c r="AI22" s="5" t="n">
         <v>14688532646.5504</v>
       </c>
-      <c r="AJ22" s="4" t="n">
+      <c r="AJ22" s="5" t="n">
         <v>13912526541.1562</v>
       </c>
-      <c r="AK22" s="4" t="n">
+      <c r="AK22" s="5" t="n">
         <v>10766404267.0217</v>
       </c>
-      <c r="AL22" s="4" t="n">
+      <c r="AL22" s="5" t="n">
         <v>11735769824.9744</v>
       </c>
-      <c r="AM22" s="4" t="n">
+      <c r="AM22" s="5" t="n">
         <v>12395481917.08</v>
       </c>
-      <c r="AN22" s="4" t="n">
+      <c r="AN22" s="5" t="n">
         <v>10538559613.0085</v>
       </c>
-      <c r="AO22" s="4" t="n">
+      <c r="AO22" s="5" t="n">
         <v>16034427907.5907</v>
       </c>
-      <c r="AP22" s="4" t="n">
+      <c r="AP22" s="5" t="n">
         <v>17387243200.5293</v>
       </c>
-      <c r="AQ22" s="4" t="n">
+      <c r="AQ22" s="5" t="n">
         <v>22417561920.5757</v>
       </c>
-      <c r="AR22" s="4" t="n">
+      <c r="AR22" s="5" t="n">
         <v>13535717279.47</v>
       </c>
-      <c r="AS22" s="4" t="n">
+      <c r="AS22" s="5" t="n">
         <v>14449384454.6525</v>
       </c>
-      <c r="AT22" s="4" t="n">
+      <c r="AT22" s="5" t="n">
         <v>12565805969.0619</v>
       </c>
-      <c r="AU22" s="4"/>
-      <c r="AV22" s="4"/>
+      <c r="AU22" s="5"/>
+      <c r="AV22" s="5"/>
     </row>
     <row r="23">
       <c r="A23" t="str">
         <f>L23</f>
       </c>
-      <c r="B23" s="4" t="str">
+      <c r="B23" s="5" t="str">
         <f>AQ23</f>
       </c>
-      <c r="C23" s="4" t="str">
+      <c r="C23" s="5" t="str">
         <f>AS23</f>
       </c>
-      <c r="D23" s="4" t="str">
+      <c r="D23" s="5" t="str">
         <f>AT23</f>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="2" t="str">
+      <c r="E23" s="5"/>
+      <c r="F23" s="1" t="str">
         <f>AT23/AS23-1</f>
       </c>
-      <c r="G23" s="2" t="str">
+      <c r="G23" s="1" t="str">
         <f>AT23/AQ23-1</f>
       </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2" t="str">
+      <c r="H23" s="1"/>
+      <c r="I23" s="1" t="str">
         <f>AT23/Sum(AT$17:AT$29)</f>
       </c>
-      <c r="J23" s="2"/>
+      <c r="J23" s="1"/>
       <c r="L23" t="s">
         <v>65</v>
       </c>
-      <c r="M23" s="4" t="n">
+      <c r="M23" s="5" t="n">
         <v>23436277613.0582</v>
       </c>
-      <c r="N23" s="4" t="n">
+      <c r="N23" s="5" t="n">
         <v>29622055294.8864</v>
       </c>
-      <c r="O23" s="4" t="n">
+      <c r="O23" s="5" t="n">
         <v>26230740994.0831</v>
       </c>
-      <c r="P23" s="4" t="n">
+      <c r="P23" s="5" t="n">
         <v>21272063897.906</v>
       </c>
-      <c r="Q23" s="4" t="n">
+      <c r="Q23" s="5" t="n">
         <v>15895397978.5081</v>
       </c>
-      <c r="R23" s="4" t="n">
+      <c r="R23" s="5" t="n">
         <v>15584646618.7414</v>
       </c>
-      <c r="S23" s="4" t="n">
+      <c r="S23" s="5" t="n">
         <v>15786814882.349</v>
       </c>
-      <c r="T23" s="4" t="n">
+      <c r="T23" s="5" t="n">
         <v>14130788751.7254</v>
       </c>
-      <c r="U23" s="4" t="n">
+      <c r="U23" s="5" t="n">
         <v>14995245260.5649</v>
       </c>
-      <c r="V23" s="4" t="n">
+      <c r="V23" s="5" t="n">
         <v>15723085935.0215</v>
       </c>
-      <c r="W23" s="4" t="n">
+      <c r="W23" s="5" t="n">
         <v>14594942439.4643</v>
       </c>
-      <c r="X23" s="4" t="n">
+      <c r="X23" s="5" t="n">
         <v>14970725006.5073</v>
       </c>
-      <c r="Y23" s="4" t="n">
+      <c r="Y23" s="5" t="n">
         <v>19971744717.9781</v>
       </c>
-      <c r="Z23" s="4" t="n">
+      <c r="Z23" s="5" t="n">
         <v>21521098792.7539</v>
       </c>
-      <c r="AA23" s="4" t="n">
+      <c r="AA23" s="5" t="n">
         <v>21813016856.1896</v>
       </c>
-      <c r="AB23" s="4" t="n">
+      <c r="AB23" s="5" t="n">
         <v>22290943202.19</v>
       </c>
-      <c r="AC23" s="4" t="n">
+      <c r="AC23" s="5" t="n">
         <v>21859121068.6749</v>
       </c>
-      <c r="AD23" s="4" t="n">
+      <c r="AD23" s="5" t="n">
         <v>25408829685.8164</v>
       </c>
-      <c r="AE23" s="4" t="n">
+      <c r="AE23" s="5" t="n">
         <v>26638816666.3995</v>
       </c>
-      <c r="AF23" s="4" t="n">
+      <c r="AF23" s="5" t="n">
         <v>24597346542.6137</v>
       </c>
-      <c r="AG23" s="4" t="n">
+      <c r="AG23" s="5" t="n">
         <v>22713752724.1963</v>
       </c>
-      <c r="AH23" s="4" t="n">
+      <c r="AH23" s="5" t="n">
         <v>20584463487.6435</v>
       </c>
-      <c r="AI23" s="4" t="n">
+      <c r="AI23" s="5" t="n">
         <v>20550242278.6813</v>
       </c>
-      <c r="AJ23" s="4" t="n">
+      <c r="AJ23" s="5" t="n">
         <v>16786539905.4929</v>
       </c>
-      <c r="AK23" s="4" t="n">
+      <c r="AK23" s="5" t="n">
         <v>15901088092.9322</v>
       </c>
-      <c r="AL23" s="4" t="n">
+      <c r="AL23" s="5" t="n">
         <v>16580041673.5226</v>
       </c>
-      <c r="AM23" s="4" t="n">
+      <c r="AM23" s="5" t="n">
         <v>20451813260.785</v>
       </c>
-      <c r="AN23" s="4" t="n">
+      <c r="AN23" s="5" t="n">
         <v>22027180676.9347</v>
       </c>
-      <c r="AO23" s="4" t="n">
+      <c r="AO23" s="5" t="n">
         <v>25880860121.3342</v>
       </c>
-      <c r="AP23" s="4" t="n">
+      <c r="AP23" s="5" t="n">
         <v>27133352328.85</v>
       </c>
-      <c r="AQ23" s="4" t="n">
+      <c r="AQ23" s="5" t="n">
         <v>27616402993.424</v>
       </c>
-      <c r="AR23" s="4" t="n">
+      <c r="AR23" s="5" t="n">
         <v>24581561699.7058</v>
       </c>
-      <c r="AS23" s="4" t="n">
+      <c r="AS23" s="5" t="n">
         <v>21414022616.9069</v>
       </c>
-      <c r="AT23" s="4" t="n">
+      <c r="AT23" s="5" t="n">
         <v>34107188711.9913</v>
       </c>
-      <c r="AU23" s="4"/>
-      <c r="AV23" s="4"/>
+      <c r="AU23" s="5"/>
+      <c r="AV23" s="5"/>
     </row>
     <row r="24">
       <c r="A24" t="str">
         <f>L24</f>
       </c>
-      <c r="B24" s="4" t="str">
+      <c r="B24" s="5" t="str">
         <f>AQ24</f>
       </c>
-      <c r="C24" s="4" t="str">
+      <c r="C24" s="5" t="str">
         <f>AS24</f>
       </c>
-      <c r="D24" s="4" t="str">
+      <c r="D24" s="5" t="str">
         <f>AT24</f>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="2" t="str">
+      <c r="E24" s="5"/>
+      <c r="F24" s="1" t="str">
         <f>AT24/AS24-1</f>
       </c>
-      <c r="G24" s="2" t="str">
+      <c r="G24" s="1" t="str">
         <f>AT24/AQ24-1</f>
       </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2" t="str">
+      <c r="H24" s="1"/>
+      <c r="I24" s="1" t="str">
         <f>AT24/Sum(AT$17:AT$29)</f>
       </c>
-      <c r="J24" s="2"/>
+      <c r="J24" s="1"/>
       <c r="L24" t="s">
         <v>66</v>
       </c>
-      <c r="M24" s="4" t="n">
+      <c r="M24" s="5" t="n">
         <v>22530893399.8844</v>
       </c>
-      <c r="N24" s="4" t="n">
+      <c r="N24" s="5" t="n">
         <v>27290590861.9728</v>
       </c>
-      <c r="O24" s="4" t="n">
+      <c r="O24" s="5" t="n">
         <v>18840301145.1705</v>
       </c>
-      <c r="P24" s="4" t="n">
+      <c r="P24" s="5" t="n">
         <v>20082577572.1016</v>
       </c>
-      <c r="Q24" s="4" t="n">
+      <c r="Q24" s="5" t="n">
         <v>16068055004.8724</v>
       </c>
-      <c r="R24" s="4" t="n">
+      <c r="R24" s="5" t="n">
         <v>15623014029.6791</v>
       </c>
-      <c r="S24" s="4" t="n">
+      <c r="S24" s="5" t="n">
         <v>17235978603.4816</v>
       </c>
-      <c r="T24" s="4" t="n">
+      <c r="T24" s="5" t="n">
         <v>17046216182.2758</v>
       </c>
-      <c r="U24" s="4" t="n">
+      <c r="U24" s="5" t="n">
         <v>14872605319.0069</v>
       </c>
-      <c r="V24" s="4" t="n">
+      <c r="V24" s="5" t="n">
         <v>13169272287.6841</v>
       </c>
-      <c r="W24" s="4" t="n">
+      <c r="W24" s="5" t="n">
         <v>14519899841.9601</v>
       </c>
-      <c r="X24" s="4" t="n">
+      <c r="X24" s="5" t="n">
         <v>16783130832.0555</v>
       </c>
-      <c r="Y24" s="4" t="n">
+      <c r="Y24" s="5" t="n">
         <v>21640855594.159</v>
       </c>
-      <c r="Z24" s="4" t="n">
+      <c r="Z24" s="5" t="n">
         <v>24644180382.4002</v>
       </c>
-      <c r="AA24" s="4" t="n">
+      <c r="AA24" s="5" t="n">
         <v>28349260539.3494</v>
       </c>
-      <c r="AB24" s="4" t="n">
+      <c r="AB24" s="5" t="n">
         <v>47747291872.5354</v>
       </c>
-      <c r="AC24" s="4" t="n">
+      <c r="AC24" s="5" t="n">
         <v>50364237734.9194</v>
       </c>
-      <c r="AD24" s="4" t="n">
+      <c r="AD24" s="5" t="n">
         <v>48550123987.2522</v>
       </c>
-      <c r="AE24" s="4" t="n">
+      <c r="AE24" s="5" t="n">
         <v>54231871762.6504</v>
       </c>
-      <c r="AF24" s="4" t="n">
+      <c r="AF24" s="5" t="n">
         <v>48903367106.0238</v>
       </c>
-      <c r="AG24" s="4" t="n">
+      <c r="AG24" s="5" t="n">
         <v>39639450737.1541</v>
       </c>
-      <c r="AH24" s="4" t="n">
+      <c r="AH24" s="5" t="n">
         <v>40041051233.4809</v>
       </c>
-      <c r="AI24" s="4" t="n">
+      <c r="AI24" s="5" t="n">
         <v>46340246741.8605</v>
       </c>
-      <c r="AJ24" s="4" t="n">
+      <c r="AJ24" s="5" t="n">
         <v>34065880197.3783</v>
       </c>
-      <c r="AK24" s="4" t="n">
+      <c r="AK24" s="5" t="n">
         <v>30679135169.7862</v>
       </c>
-      <c r="AL24" s="4" t="n">
+      <c r="AL24" s="5" t="n">
         <v>26362303754.8992</v>
       </c>
-      <c r="AM24" s="4" t="n">
+      <c r="AM24" s="5" t="n">
         <v>24089087832.8548</v>
       </c>
-      <c r="AN24" s="4" t="n">
+      <c r="AN24" s="5" t="n">
         <v>26338518325.0457</v>
       </c>
-      <c r="AO24" s="4" t="n">
+      <c r="AO24" s="5" t="n">
         <v>30312591745.4088</v>
       </c>
-      <c r="AP24" s="4" t="n">
+      <c r="AP24" s="5" t="n">
         <v>27217444881.1472</v>
       </c>
-      <c r="AQ24" s="4" t="n">
+      <c r="AQ24" s="5" t="n">
         <v>29524666763.8163</v>
       </c>
-      <c r="AR24" s="4" t="n">
+      <c r="AR24" s="5" t="n">
         <v>59864576818.6719</v>
       </c>
-      <c r="AS24" s="4" t="n">
+      <c r="AS24" s="5" t="n">
         <v>61187208960.4909</v>
       </c>
-      <c r="AT24" s="4" t="n">
+      <c r="AT24" s="5" t="n">
         <v>32031182874.2855</v>
       </c>
-      <c r="AU24" s="4"/>
-      <c r="AV24" s="4"/>
+      <c r="AU24" s="5"/>
+      <c r="AV24" s="5"/>
     </row>
     <row r="25">
       <c r="A25" t="str">
         <f>L25</f>
       </c>
-      <c r="B25" s="4" t="str">
+      <c r="B25" s="5" t="str">
         <f>AQ25</f>
       </c>
-      <c r="C25" s="4" t="str">
+      <c r="C25" s="5" t="str">
         <f>AS25</f>
       </c>
-      <c r="D25" s="4" t="str">
+      <c r="D25" s="5" t="str">
         <f>AT25</f>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="2" t="str">
+      <c r="E25" s="5"/>
+      <c r="F25" s="1" t="str">
         <f>AT25/AS25-1</f>
       </c>
-      <c r="G25" s="2" t="str">
+      <c r="G25" s="1" t="str">
         <f>AT25/AQ25-1</f>
       </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2" t="str">
+      <c r="H25" s="1"/>
+      <c r="I25" s="1" t="str">
         <f>AT25/Sum(AT$17:AT$29)</f>
       </c>
-      <c r="J25" s="2"/>
+      <c r="J25" s="1"/>
       <c r="L25" t="s">
         <v>67</v>
       </c>
-      <c r="M25" s="4" t="n">
+      <c r="M25" s="5" t="n">
         <v>16078545349.9295</v>
       </c>
-      <c r="N25" s="4" t="n">
+      <c r="N25" s="5" t="n">
         <v>15830232953.6913</v>
       </c>
-      <c r="O25" s="4" t="n">
+      <c r="O25" s="5" t="n">
         <v>17117400076.3832</v>
       </c>
-      <c r="P25" s="4" t="n">
+      <c r="P25" s="5" t="n">
         <v>16308223536.8757</v>
       </c>
-      <c r="Q25" s="4" t="n">
+      <c r="Q25" s="5" t="n">
         <v>15765271498.1542</v>
       </c>
-      <c r="R25" s="4" t="n">
+      <c r="R25" s="5" t="n">
         <v>16194868270.591</v>
       </c>
-      <c r="S25" s="4" t="n">
+      <c r="S25" s="5" t="n">
         <v>16628758610.5856</v>
       </c>
-      <c r="T25" s="4" t="n">
+      <c r="T25" s="5" t="n">
         <v>17056673572.0922</v>
       </c>
-      <c r="U25" s="4" t="n">
+      <c r="U25" s="5" t="n">
         <v>18772080522.7719</v>
       </c>
-      <c r="V25" s="4" t="n">
+      <c r="V25" s="5" t="n">
         <v>19367962959.6819</v>
       </c>
-      <c r="W25" s="4" t="n">
+      <c r="W25" s="5" t="n">
         <v>20875290267.0918</v>
       </c>
-      <c r="X25" s="4" t="n">
+      <c r="X25" s="5" t="n">
         <v>20389454522.5259</v>
       </c>
-      <c r="Y25" s="4" t="n">
+      <c r="Y25" s="5" t="n">
         <v>25593298374.1779</v>
       </c>
-      <c r="Z25" s="4" t="n">
+      <c r="Z25" s="5" t="n">
         <v>29213935742.4527</v>
       </c>
-      <c r="AA25" s="4" t="n">
+      <c r="AA25" s="5" t="n">
         <v>31788498831.8786</v>
       </c>
-      <c r="AB25" s="4" t="n">
+      <c r="AB25" s="5" t="n">
         <v>38189733337.4035</v>
       </c>
-      <c r="AC25" s="4" t="n">
+      <c r="AC25" s="5" t="n">
         <v>41782795868.9039</v>
       </c>
-      <c r="AD25" s="4" t="n">
+      <c r="AD25" s="5" t="n">
         <v>42893196724.6351</v>
       </c>
-      <c r="AE25" s="4" t="n">
+      <c r="AE25" s="5" t="n">
         <v>46872136648.6856</v>
       </c>
-      <c r="AF25" s="4" t="n">
+      <c r="AF25" s="5" t="n">
         <v>52885743684.0664</v>
       </c>
-      <c r="AG25" s="4" t="n">
+      <c r="AG25" s="5" t="n">
         <v>54547464848.2396</v>
       </c>
-      <c r="AH25" s="4" t="n">
+      <c r="AH25" s="5" t="n">
         <v>53191813438.2923</v>
       </c>
-      <c r="AI25" s="4" t="n">
+      <c r="AI25" s="5" t="n">
         <v>52583852985.1283</v>
       </c>
-      <c r="AJ25" s="4" t="n">
+      <c r="AJ25" s="5" t="n">
         <v>43694637745.9711</v>
       </c>
-      <c r="AK25" s="4" t="n">
+      <c r="AK25" s="5" t="n">
         <v>42314918095.385</v>
       </c>
-      <c r="AL25" s="4" t="n">
+      <c r="AL25" s="5" t="n">
         <v>41472928372.6499</v>
       </c>
-      <c r="AM25" s="4" t="n">
+      <c r="AM25" s="5" t="n">
         <v>41419917091.0612</v>
       </c>
-      <c r="AN25" s="4" t="n">
+      <c r="AN25" s="5" t="n">
         <v>42308472412.949</v>
       </c>
-      <c r="AO25" s="4" t="n">
+      <c r="AO25" s="5" t="n">
         <v>46162245210.6425</v>
       </c>
-      <c r="AP25" s="4" t="n">
+      <c r="AP25" s="5" t="n">
         <v>49909616647.4894</v>
       </c>
-      <c r="AQ25" s="4" t="n">
+      <c r="AQ25" s="5" t="n">
         <v>51230662502.8303</v>
       </c>
-      <c r="AR25" s="4" t="n">
+      <c r="AR25" s="5" t="n">
         <v>58362159856.0268</v>
       </c>
-      <c r="AS25" s="4" t="n">
+      <c r="AS25" s="5" t="n">
         <v>57522625097.0616</v>
       </c>
-      <c r="AT25" s="4" t="n">
+      <c r="AT25" s="5" t="n">
         <v>67333947968.5568</v>
       </c>
-      <c r="AU25" s="4"/>
-      <c r="AV25" s="4"/>
+      <c r="AU25" s="5"/>
+      <c r="AV25" s="5"/>
     </row>
     <row r="26">
       <c r="A26" t="str">
         <f>L26</f>
       </c>
-      <c r="B26" s="4" t="str">
+      <c r="B26" s="5" t="str">
         <f>AQ26</f>
       </c>
-      <c r="C26" s="4" t="str">
+      <c r="C26" s="5" t="str">
         <f>AS26</f>
       </c>
-      <c r="D26" s="4" t="str">
+      <c r="D26" s="5" t="str">
         <f>AT26</f>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="2" t="str">
+      <c r="E26" s="5"/>
+      <c r="F26" s="1" t="str">
         <f>AT26/AS26-1</f>
       </c>
-      <c r="G26" s="2" t="str">
+      <c r="G26" s="1" t="str">
         <f>AT26/AQ26-1</f>
       </c>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2" t="str">
+      <c r="H26" s="1"/>
+      <c r="I26" s="1" t="str">
         <f>AT26/Sum(AT$17:AT$29)</f>
       </c>
-      <c r="J26" s="2"/>
+      <c r="J26" s="1"/>
       <c r="L26" t="s">
         <v>68</v>
       </c>
-      <c r="M26" s="4" t="n">
+      <c r="M26" s="5" t="n">
         <v>9069809648.85706</v>
       </c>
-      <c r="N26" s="4" t="n">
+      <c r="N26" s="5" t="n">
         <v>11266094474.2084</v>
       </c>
-      <c r="O26" s="4" t="n">
+      <c r="O26" s="5" t="n">
         <v>8204257829.65377</v>
       </c>
-      <c r="P26" s="4" t="n">
+      <c r="P26" s="5" t="n">
         <v>5854760360.24869</v>
       </c>
-      <c r="Q26" s="4" t="n">
+      <c r="Q26" s="5" t="n">
         <v>7478633387.28617</v>
       </c>
-      <c r="R26" s="4" t="n">
+      <c r="R26" s="5" t="n">
         <v>9618461938.68433</v>
       </c>
-      <c r="S26" s="4" t="n">
+      <c r="S26" s="5" t="n">
         <v>9100945054.19466</v>
       </c>
-      <c r="T26" s="4" t="n">
+      <c r="T26" s="5" t="n">
         <v>10191359574.3724</v>
       </c>
-      <c r="U26" s="4" t="n">
+      <c r="U26" s="5" t="n">
         <v>10543888856.8946</v>
       </c>
-      <c r="V26" s="4" t="n">
+      <c r="V26" s="5" t="n">
         <v>12594882380.0891</v>
       </c>
-      <c r="W26" s="4" t="n">
+      <c r="W26" s="5" t="n">
         <v>10939220871.4553</v>
       </c>
-      <c r="X26" s="4" t="n">
+      <c r="X26" s="5" t="n">
         <v>12179783486.7693</v>
       </c>
-      <c r="Y26" s="4" t="n">
+      <c r="Y26" s="5" t="n">
         <v>17040538832.9134</v>
       </c>
-      <c r="Z26" s="4" t="n">
+      <c r="Z26" s="5" t="n">
         <v>25535521474.6119</v>
       </c>
-      <c r="AA26" s="4" t="n">
+      <c r="AA26" s="5" t="n">
         <v>31124647310.8109</v>
       </c>
-      <c r="AB26" s="4" t="n">
+      <c r="AB26" s="5" t="n">
         <v>33364653942.6623</v>
       </c>
-      <c r="AC26" s="4" t="n">
+      <c r="AC26" s="5" t="n">
         <v>35261995691.8435</v>
       </c>
-      <c r="AD26" s="4" t="n">
+      <c r="AD26" s="5" t="n">
         <v>34684026829.7357</v>
       </c>
-      <c r="AE26" s="4" t="n">
+      <c r="AE26" s="5" t="n">
         <v>38098103290.1554</v>
       </c>
-      <c r="AF26" s="4" t="n">
+      <c r="AF26" s="5" t="n">
         <v>42182385109.7971</v>
       </c>
-      <c r="AG26" s="4" t="n">
+      <c r="AG26" s="5" t="n">
         <v>44956585039.9417</v>
       </c>
-      <c r="AH26" s="4" t="n">
+      <c r="AH26" s="5" t="n">
         <v>49095772535.009</v>
       </c>
-      <c r="AI26" s="4" t="n">
+      <c r="AI26" s="5" t="n">
         <v>44382619257.7787</v>
       </c>
-      <c r="AJ26" s="4" t="n">
+      <c r="AJ26" s="5" t="n">
         <v>39460608272.5003</v>
       </c>
-      <c r="AK26" s="4" t="n">
+      <c r="AK26" s="5" t="n">
         <v>32435982284.5669</v>
       </c>
-      <c r="AL26" s="4" t="n">
+      <c r="AL26" s="5" t="n">
         <v>28733276572.9339</v>
       </c>
-      <c r="AM26" s="4" t="n">
+      <c r="AM26" s="5" t="n">
         <v>29579219270.1747</v>
       </c>
-      <c r="AN26" s="4" t="n">
+      <c r="AN26" s="5" t="n">
         <v>32004031480.3423</v>
       </c>
-      <c r="AO26" s="4" t="n">
+      <c r="AO26" s="5" t="n">
         <v>34160055058.8365</v>
       </c>
-      <c r="AP26" s="4" t="n">
+      <c r="AP26" s="5" t="n">
         <v>34723517736.1598</v>
       </c>
-      <c r="AQ26" s="4" t="n">
+      <c r="AQ26" s="5" t="n">
         <v>34229176648.9002</v>
       </c>
-      <c r="AR26" s="4" t="n">
+      <c r="AR26" s="5" t="n">
         <v>32249753002.0784</v>
       </c>
-      <c r="AS26" s="4" t="n">
+      <c r="AS26" s="5" t="n">
         <v>32108978507.2544</v>
       </c>
-      <c r="AT26" s="4" t="n">
+      <c r="AT26" s="5" t="n">
         <v>32091803138.3627</v>
       </c>
-      <c r="AU26" s="4"/>
-      <c r="AV26" s="4"/>
+      <c r="AU26" s="5"/>
+      <c r="AV26" s="5"/>
     </row>
     <row r="27">
       <c r="A27" t="str">
         <f>L27</f>
       </c>
-      <c r="B27" s="4" t="str">
+      <c r="B27" s="5" t="str">
         <f>AQ27</f>
       </c>
-      <c r="C27" s="4" t="str">
+      <c r="C27" s="5" t="str">
         <f>AS27</f>
       </c>
-      <c r="D27" s="4" t="str">
+      <c r="D27" s="5" t="str">
         <f>AT27</f>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="2" t="str">
+      <c r="E27" s="5"/>
+      <c r="F27" s="1" t="str">
         <f>AT27/AS27-1</f>
       </c>
-      <c r="G27" s="2" t="str">
+      <c r="G27" s="1" t="str">
         <f>AT27/AQ27-1</f>
       </c>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2" t="str">
+      <c r="H27" s="1"/>
+      <c r="I27" s="1" t="str">
         <f>AT27/Sum(AT$17:AT$29)</f>
       </c>
-      <c r="J27" s="2"/>
+      <c r="J27" s="1"/>
       <c r="L27" t="s">
         <v>69</v>
       </c>
-      <c r="M27" s="4" t="n">
+      <c r="M27" s="5" t="n">
         <v>22090610970.4429</v>
       </c>
-      <c r="N27" s="4" t="n">
+      <c r="N27" s="5" t="n">
         <v>18995974493.6362</v>
       </c>
-      <c r="O27" s="4" t="n">
+      <c r="O27" s="5" t="n">
         <v>16754101708.8253</v>
       </c>
-      <c r="P27" s="4" t="n">
+      <c r="P27" s="5" t="n">
         <v>18088307988.644</v>
       </c>
-      <c r="Q27" s="4" t="n">
+      <c r="Q27" s="5" t="n">
         <v>13764359577.6929</v>
       </c>
-      <c r="R27" s="4" t="n">
+      <c r="R27" s="5" t="n">
         <v>17610689302.8955</v>
       </c>
-      <c r="S27" s="4" t="n">
+      <c r="S27" s="5" t="n">
         <v>14268884308.6678</v>
       </c>
-      <c r="T27" s="4" t="n">
+      <c r="T27" s="5" t="n">
         <v>14672538942.6214</v>
       </c>
-      <c r="U27" s="4" t="n">
+      <c r="U27" s="5" t="n">
         <v>16278142636.9465</v>
       </c>
-      <c r="V27" s="4" t="n">
+      <c r="V27" s="5" t="n">
         <v>14278623872.1636</v>
       </c>
-      <c r="W27" s="4" t="n">
+      <c r="W27" s="5" t="n">
         <v>15728758602.4192</v>
       </c>
-      <c r="X27" s="4" t="n">
+      <c r="X27" s="5" t="n">
         <v>20360309683.8917</v>
       </c>
-      <c r="Y27" s="4" t="n">
+      <c r="Y27" s="5" t="n">
         <v>20515567279.6355</v>
       </c>
-      <c r="Z27" s="4" t="n">
+      <c r="Z27" s="5" t="n">
         <v>20092856841.5167</v>
       </c>
-      <c r="AA27" s="4" t="n">
+      <c r="AA27" s="5" t="n">
         <v>22972781118.9962</v>
       </c>
-      <c r="AB27" s="4" t="n">
+      <c r="AB27" s="5" t="n">
         <v>21089163232.7025</v>
       </c>
-      <c r="AC27" s="4" t="n">
+      <c r="AC27" s="5" t="n">
         <v>24468123244.6065</v>
       </c>
-      <c r="AD27" s="4" t="n">
+      <c r="AD27" s="5" t="n">
         <v>24426027225.7168</v>
       </c>
-      <c r="AE27" s="4" t="n">
+      <c r="AE27" s="5" t="n">
         <v>26842758232.5321</v>
       </c>
-      <c r="AF27" s="4" t="n">
+      <c r="AF27" s="5" t="n">
         <v>29520722512.7775</v>
       </c>
-      <c r="AG27" s="4" t="n">
+      <c r="AG27" s="5" t="n">
         <v>23905179798.6284</v>
       </c>
-      <c r="AH27" s="4" t="n">
+      <c r="AH27" s="5" t="n">
         <v>37882760891.53</v>
       </c>
-      <c r="AI27" s="4" t="n">
+      <c r="AI27" s="5" t="n">
         <v>31223285234.3123</v>
       </c>
-      <c r="AJ27" s="4" t="n">
+      <c r="AJ27" s="5" t="n">
         <v>29672778328.1709</v>
       </c>
-      <c r="AK27" s="4" t="n">
+      <c r="AK27" s="5" t="n">
         <v>30122348150.5418</v>
       </c>
-      <c r="AL27" s="4" t="n">
+      <c r="AL27" s="5" t="n">
         <v>26874179802.0338</v>
       </c>
-      <c r="AM27" s="4" t="n">
+      <c r="AM27" s="5" t="n">
         <v>30601485791.4588</v>
       </c>
-      <c r="AN27" s="4" t="n">
+      <c r="AN27" s="5" t="n">
         <v>33212704733.9581</v>
       </c>
-      <c r="AO27" s="4" t="n">
+      <c r="AO27" s="5" t="n">
         <v>37389736662.2265</v>
       </c>
-      <c r="AP27" s="4" t="n">
+      <c r="AP27" s="5" t="n">
         <v>39051774050.5401</v>
       </c>
-      <c r="AQ27" s="4" t="n">
+      <c r="AQ27" s="5" t="n">
         <v>46392043107.1084</v>
       </c>
-      <c r="AR27" s="4" t="n">
+      <c r="AR27" s="5" t="n">
         <v>35760439239.2095</v>
       </c>
-      <c r="AS27" s="4" t="n">
+      <c r="AS27" s="5" t="n">
         <v>35953320604.0783</v>
       </c>
-      <c r="AT27" s="4" t="n">
+      <c r="AT27" s="5" t="n">
         <v>40080961983.957</v>
       </c>
-      <c r="AU27" s="4"/>
-      <c r="AV27" s="4"/>
+      <c r="AU27" s="5"/>
+      <c r="AV27" s="5"/>
     </row>
     <row r="28">
       <c r="A28" t="str">
         <f>L28</f>
       </c>
-      <c r="B28" s="4" t="str">
+      <c r="B28" s="5" t="str">
         <f>AQ28</f>
       </c>
-      <c r="C28" s="4" t="str">
+      <c r="C28" s="5" t="str">
         <f>AS28</f>
       </c>
-      <c r="D28" s="4" t="str">
+      <c r="D28" s="5" t="str">
         <f>AT28</f>
       </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="2" t="str">
+      <c r="E28" s="5"/>
+      <c r="F28" s="1" t="str">
         <f>AT28/AS28-1</f>
       </c>
-      <c r="G28" s="2" t="str">
+      <c r="G28" s="1" t="str">
         <f>AT28/AQ28-1</f>
       </c>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2" t="str">
+      <c r="H28" s="1"/>
+      <c r="I28" s="1" t="str">
         <f>AT28/Sum(AT$17:AT$29)</f>
       </c>
-      <c r="J28" s="2"/>
+      <c r="J28" s="1"/>
       <c r="L28" t="s">
         <v>70</v>
       </c>
-      <c r="M28" s="4" t="n">
+      <c r="M28" s="5" t="n">
         <v>10567510130.931</v>
       </c>
-      <c r="N28" s="4" t="n">
+      <c r="N28" s="5" t="n">
         <v>9057983393.77532</v>
       </c>
-      <c r="O28" s="4" t="n">
+      <c r="O28" s="5" t="n">
         <v>6247770935.75796</v>
       </c>
-      <c r="P28" s="4" t="n">
+      <c r="P28" s="5" t="n">
         <v>7187332872.43168</v>
       </c>
-      <c r="Q28" s="4" t="n">
+      <c r="Q28" s="5" t="n">
         <v>6901021014.86558</v>
       </c>
-      <c r="R28" s="4" t="n">
+      <c r="R28" s="5" t="n">
         <v>6291954815.57422</v>
       </c>
-      <c r="S28" s="4" t="n">
+      <c r="S28" s="5" t="n">
         <v>5281950174.42063</v>
       </c>
-      <c r="T28" s="4" t="n">
+      <c r="T28" s="5" t="n">
         <v>5594330707.86078</v>
       </c>
-      <c r="U28" s="4" t="n">
+      <c r="U28" s="5" t="n">
         <v>6170358306.87992</v>
       </c>
-      <c r="V28" s="4" t="n">
+      <c r="V28" s="5" t="n">
         <v>6024110971.89597</v>
       </c>
-      <c r="W28" s="4" t="n">
+      <c r="W28" s="5" t="n">
         <v>5350758182.21668</v>
       </c>
-      <c r="X28" s="4" t="n">
+      <c r="X28" s="5" t="n">
         <v>6818842536.1015</v>
       </c>
-      <c r="Y28" s="4" t="n">
+      <c r="Y28" s="5" t="n">
         <v>7261784219.33336</v>
       </c>
-      <c r="Z28" s="4" t="n">
+      <c r="Z28" s="5" t="n">
         <v>8386638909.27419</v>
       </c>
-      <c r="AA28" s="4" t="n">
+      <c r="AA28" s="5" t="n">
         <v>9717772640.35401</v>
       </c>
-      <c r="AB28" s="4" t="n">
+      <c r="AB28" s="5" t="n">
         <v>9796685806.18224</v>
       </c>
-      <c r="AC28" s="4" t="n">
+      <c r="AC28" s="5" t="n">
         <v>11653436995.1497</v>
       </c>
-      <c r="AD28" s="4" t="n">
+      <c r="AD28" s="5" t="n">
         <v>11624269940.6051</v>
       </c>
-      <c r="AE28" s="4" t="n">
+      <c r="AE28" s="5" t="n">
         <v>13284017814.0856</v>
       </c>
-      <c r="AF28" s="4" t="n">
+      <c r="AF28" s="5" t="n">
         <v>14252763136.4627</v>
       </c>
-      <c r="AG28" s="4" t="n">
+      <c r="AG28" s="5" t="n">
         <v>12372202040.7428</v>
       </c>
-      <c r="AH28" s="4" t="n">
+      <c r="AH28" s="5" t="n">
         <v>13742084581.8153</v>
       </c>
-      <c r="AI28" s="4" t="n">
+      <c r="AI28" s="5" t="n">
         <v>13039668880.4379</v>
       </c>
-      <c r="AJ28" s="4" t="n">
+      <c r="AJ28" s="5" t="n">
         <v>9746007612.79572</v>
       </c>
-      <c r="AK28" s="4" t="n">
+      <c r="AK28" s="5" t="n">
         <v>9923225964.55334</v>
       </c>
-      <c r="AL28" s="4" t="n">
+      <c r="AL28" s="5" t="n">
         <v>7461162789.49462</v>
       </c>
-      <c r="AM28" s="4" t="n">
+      <c r="AM28" s="5" t="n">
         <v>7542006589.99029</v>
       </c>
-      <c r="AN28" s="4" t="n">
+      <c r="AN28" s="5" t="n">
         <v>7385941028.38863</v>
       </c>
-      <c r="AO28" s="4" t="n">
+      <c r="AO28" s="5" t="n">
         <v>7099084297.43145</v>
       </c>
-      <c r="AP28" s="4" t="n">
+      <c r="AP28" s="5" t="n">
         <v>8455793727.69282</v>
       </c>
-      <c r="AQ28" s="4" t="n">
+      <c r="AQ28" s="5" t="n">
         <v>8467626500.66992</v>
       </c>
-      <c r="AR28" s="4" t="n">
+      <c r="AR28" s="5" t="n">
         <v>4014972890.26822</v>
       </c>
-      <c r="AS28" s="4" t="n">
+      <c r="AS28" s="5" t="n">
         <v>4849098326.97225</v>
       </c>
-      <c r="AT28" s="4" t="n">
+      <c r="AT28" s="5" t="n">
         <v>5131120129.3471</v>
       </c>
-      <c r="AU28" s="4"/>
-      <c r="AV28" s="4"/>
+      <c r="AU28" s="5"/>
+      <c r="AV28" s="5"/>
     </row>
     <row r="29">
       <c r="A29" t="str">
         <f>L29</f>
       </c>
-      <c r="B29" s="4" t="str">
+      <c r="B29" s="5" t="str">
         <f>AQ29</f>
       </c>
-      <c r="C29" s="4" t="str">
+      <c r="C29" s="5" t="str">
         <f>AS29</f>
       </c>
-      <c r="D29" s="4" t="str">
+      <c r="D29" s="5" t="str">
         <f>AT29</f>
       </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="2" t="str">
+      <c r="E29" s="5"/>
+      <c r="F29" s="1" t="str">
         <f>AT29/AS29-1</f>
       </c>
-      <c r="G29" s="2" t="str">
+      <c r="G29" s="1" t="str">
         <f>AT29/AQ29-1</f>
       </c>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2" t="str">
+      <c r="H29" s="1"/>
+      <c r="I29" s="1" t="str">
         <f>AT29/Sum(AT$17:AT$29)</f>
       </c>
-      <c r="J29" s="2"/>
+      <c r="J29" s="1"/>
       <c r="L29" t="s">
         <v>58</v>
       </c>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4" t="n">
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5" t="n">
         <v>49600250.3532805</v>
       </c>
-      <c r="X29" s="4" t="n">
+      <c r="X29" s="5" t="n">
         <v>16127017.7054845</v>
       </c>
-      <c r="Y29" s="4" t="n">
+      <c r="Y29" s="5" t="n">
         <v>135861213.279909</v>
       </c>
-      <c r="Z29" s="4" t="n">
+      <c r="Z29" s="5" t="n">
         <v>120089672.494942</v>
       </c>
-      <c r="AA29" s="4" t="n">
+      <c r="AA29" s="5" t="n">
         <v>10955183.9689931</v>
       </c>
-      <c r="AB29" s="4" t="n">
+      <c r="AB29" s="5" t="n">
         <v>5711674.56061679</v>
       </c>
-      <c r="AC29" s="4" t="n">
+      <c r="AC29" s="5" t="n">
         <v>159658855.74992</v>
       </c>
-      <c r="AD29" s="4" t="n">
+      <c r="AD29" s="5" t="n">
         <v>25551712.5387472</v>
       </c>
-      <c r="AE29" s="4" t="n">
+      <c r="AE29" s="5" t="n">
         <v>510476.489987931</v>
       </c>
-      <c r="AF29" s="4" t="n">
+      <c r="AF29" s="5" t="n">
         <v>1353970.82348517</v>
       </c>
-      <c r="AG29" s="4" t="n">
+      <c r="AG29" s="5" t="n">
         <v>-345628.597688439</v>
       </c>
-      <c r="AH29" s="4" t="n">
+      <c r="AH29" s="5" t="n">
         <v>-187915.611354302</v>
       </c>
-      <c r="AI29" s="4" t="n">
+      <c r="AI29" s="5" t="n">
         <v>-8489.85461144517</v>
       </c>
-      <c r="AJ29" s="4" t="n">
+      <c r="AJ29" s="5" t="n">
         <v>-128368.673705357</v>
       </c>
-      <c r="AK29" s="4"/>
-      <c r="AL29" s="4" t="n">
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5" t="n">
         <v>37536.9003683804</v>
       </c>
-      <c r="AM29" s="4" t="n">
+      <c r="AM29" s="5" t="n">
         <v>4445772.80663764</v>
       </c>
-      <c r="AN29" s="4" t="n">
+      <c r="AN29" s="5" t="n">
         <v>1642582.46521554</v>
       </c>
-      <c r="AO29" s="4" t="n">
+      <c r="AO29" s="5" t="n">
         <v>-254117.889817779</v>
       </c>
-      <c r="AP29" s="4" t="n">
+      <c r="AP29" s="5" t="n">
         <v>546254.749528136</v>
       </c>
-      <c r="AQ29" s="4" t="n">
+      <c r="AQ29" s="5" t="n">
         <v>11573.9072704938</v>
       </c>
-      <c r="AR29" s="4" t="n">
+      <c r="AR29" s="5" t="n">
         <v>432241.925938871</v>
       </c>
-      <c r="AS29" s="4" t="n">
+      <c r="AS29" s="5" t="n">
         <v>1025793.49892137</v>
       </c>
-      <c r="AT29" s="4" t="n">
+      <c r="AT29" s="5" t="n">
         <v>2471452.5461</v>
       </c>
-      <c r="AU29" s="4"/>
-      <c r="AV29" s="4"/>
+      <c r="AU29" s="5"/>
+      <c r="AV29" s="5"/>
     </row>
     <row r="30">
       <c r="A30" t="str">
         <f>L30</f>
       </c>
-      <c r="B30" s="4" t="str">
+      <c r="B30" s="5" t="str">
         <f>AQ30</f>
       </c>
-      <c r="C30" s="4" t="str">
+      <c r="C30" s="5" t="str">
         <f>AS30</f>
       </c>
-      <c r="D30" s="4" t="str">
+      <c r="D30" s="5" t="str">
         <f>AT30</f>
       </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="2" t="str">
+      <c r="E30" s="5"/>
+      <c r="F30" s="1" t="str">
         <f>AT30/AS30-1</f>
       </c>
-      <c r="G30" s="2" t="str">
+      <c r="G30" s="1" t="str">
         <f>AT30/AQ30-1</f>
       </c>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2" t="str">
+      <c r="H30" s="1"/>
+      <c r="I30" s="1" t="str">
         <f>Sum(I$17:I$29)</f>
       </c>
-      <c r="J30" s="2"/>
+      <c r="J30" s="1"/>
       <c r="L30" t="s">
         <v>46</v>
       </c>
-      <c r="M30" s="4" t="str">
+      <c r="M30" s="5" t="str">
         <f>Sum(M18:M29)</f>
       </c>
-      <c r="N30" s="4" t="str">
+      <c r="N30" s="5" t="str">
         <f>Sum(N18:N29)</f>
       </c>
-      <c r="O30" s="4" t="str">
+      <c r="O30" s="5" t="str">
         <f>Sum(O18:O29)</f>
       </c>
-      <c r="P30" s="4" t="str">
+      <c r="P30" s="5" t="str">
         <f>Sum(P18:P29)</f>
       </c>
-      <c r="Q30" s="4" t="str">
+      <c r="Q30" s="5" t="str">
         <f>Sum(Q18:Q29)</f>
       </c>
-      <c r="R30" s="4" t="str">
+      <c r="R30" s="5" t="str">
         <f>Sum(R18:R29)</f>
       </c>
-      <c r="S30" s="4" t="str">
+      <c r="S30" s="5" t="str">
         <f>Sum(S18:S29)</f>
       </c>
-      <c r="T30" s="4" t="str">
+      <c r="T30" s="5" t="str">
         <f>Sum(T18:T29)</f>
       </c>
-      <c r="U30" s="4" t="str">
+      <c r="U30" s="5" t="str">
         <f>Sum(U18:U29)</f>
       </c>
-      <c r="V30" s="4" t="str">
+      <c r="V30" s="5" t="str">
         <f>Sum(V18:V29)</f>
       </c>
-      <c r="W30" s="4" t="str">
+      <c r="W30" s="5" t="str">
         <f>Sum(W18:W29)</f>
       </c>
-      <c r="X30" s="4" t="str">
+      <c r="X30" s="5" t="str">
         <f>Sum(X18:X29)</f>
       </c>
-      <c r="Y30" s="4" t="str">
+      <c r="Y30" s="5" t="str">
         <f>Sum(Y18:Y29)</f>
       </c>
-      <c r="Z30" s="4" t="str">
+      <c r="Z30" s="5" t="str">
         <f>Sum(Z18:Z29)</f>
       </c>
-      <c r="AA30" s="4" t="str">
+      <c r="AA30" s="5" t="str">
         <f>Sum(AA18:AA29)</f>
       </c>
-      <c r="AB30" s="4" t="str">
+      <c r="AB30" s="5" t="str">
         <f>Sum(AB18:AB29)</f>
       </c>
-      <c r="AC30" s="4" t="str">
+      <c r="AC30" s="5" t="str">
         <f>Sum(AC18:AC29)</f>
       </c>
-      <c r="AD30" s="4" t="str">
+      <c r="AD30" s="5" t="str">
         <f>Sum(AD18:AD29)</f>
       </c>
-      <c r="AE30" s="4" t="str">
+      <c r="AE30" s="5" t="str">
         <f>Sum(AE18:AE29)</f>
       </c>
-      <c r="AF30" s="4" t="str">
+      <c r="AF30" s="5" t="str">
         <f>Sum(AF18:AF29)</f>
       </c>
-      <c r="AG30" s="4" t="str">
+      <c r="AG30" s="5" t="str">
         <f>Sum(AG18:AG29)</f>
       </c>
-      <c r="AH30" s="4" t="str">
+      <c r="AH30" s="5" t="str">
         <f>Sum(AH18:AH29)</f>
       </c>
-      <c r="AI30" s="4" t="str">
+      <c r="AI30" s="5" t="str">
         <f>Sum(AI18:AI29)</f>
       </c>
-      <c r="AJ30" s="4" t="str">
+      <c r="AJ30" s="5" t="str">
         <f>Sum(AJ18:AJ29)</f>
       </c>
-      <c r="AK30" s="4" t="str">
+      <c r="AK30" s="5" t="str">
         <f>Sum(AK18:AK29)</f>
       </c>
-      <c r="AL30" s="4" t="str">
+      <c r="AL30" s="5" t="str">
         <f>Sum(AL18:AL29)</f>
       </c>
-      <c r="AM30" s="4" t="str">
+      <c r="AM30" s="5" t="str">
         <f>Sum(AM18:AM29)</f>
       </c>
-      <c r="AN30" s="4" t="str">
+      <c r="AN30" s="5" t="str">
         <f>Sum(AN18:AN29)</f>
       </c>
-      <c r="AO30" s="4" t="str">
+      <c r="AO30" s="5" t="str">
         <f>Sum(AO18:AO29)</f>
       </c>
-      <c r="AP30" s="4" t="str">
+      <c r="AP30" s="5" t="str">
         <f>Sum(AP18:AP29)</f>
       </c>
-      <c r="AQ30" s="4" t="str">
+      <c r="AQ30" s="5" t="str">
         <f>Sum(AQ18:AQ29)</f>
       </c>
-      <c r="AR30" s="4" t="str">
+      <c r="AR30" s="5" t="str">
         <f>Sum(AR18:AR29)</f>
       </c>
-      <c r="AS30" s="4" t="str">
+      <c r="AS30" s="5" t="str">
         <f>Sum(AS18:AS29)</f>
       </c>
-      <c r="AT30" s="4" t="str">
+      <c r="AT30" s="5" t="str">
         <f>Sum(AT18:AT29)</f>
       </c>
-      <c r="AU30" s="4" t="str">
+      <c r="AU30" s="5" t="str">
         <f>Sum(AU18:AU29)</f>
       </c>
-      <c r="AV30" s="4"/>
+      <c r="AV30" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/NPS2024/DoD_2024_NPS.xlsx
+++ b/Output/AcqTrends/NPS2024/DoD_2024_NPS.xlsx
@@ -1,5 +1,5 @@
 
-<file path=xl/workbook.xml><?xml version="1.0" encoding="UTF-8" standalone="yes"?><workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x15 xr xr6 xr10 xr2" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2"><workbookPr date1904="false"/><bookViews><workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/></bookViews><sheets><sheet name="1 Budg" sheetId="1" state="visible" r:id="rId1"/><sheet name="2 K&Ota" sheetId="2" state="visible" r:id="rId2"/><sheet name="3 Plat" sheetId="3" state="visible" r:id="rId3"/><sheet name="5 Vend" sheetId="4" state="visible" r:id="rId4"/><sheet name="9 Dur" sheetId="5" state="visible" r:id="rId5"/><sheet name="11 OTAtype" sheetId="6" state="visible" r:id="rId6"/></sheets></workbook>
+<file path=xl/workbook.xml><?xml version="1.0" encoding="UTF-8" standalone="yes"?><workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x15 xr xr6 xr10 xr2" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2"><workbookPr date1904="false"/><bookViews><workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/></bookViews><sheets><sheet name="1 Budg" sheetId="1" state="visible" r:id="rId1"/><sheet name="2 K&Ota" sheetId="2" state="visible" r:id="rId2"/><sheet name="3 Plat" sheetId="3" state="visible" r:id="rId3"/><sheet name="5 Vend" sheetId="4" state="visible" r:id="rId4"/><sheet name="9 Dur" sheetId="5" state="visible" r:id="rId5"/><sheet name="11 OTAtype" sheetId="6" state="visible" r:id="rId6"/><sheet name="9 GFE" sheetId="7" state="visible" r:id="rId7"/><sheet name="10 Mult" sheetId="8" state="visible" r:id="rId8"/><sheet name="11 Mult" sheetId="9" state="visible" r:id="rId9"/></sheets></workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -295,14 +295,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="10">
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="170" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="174" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="177" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="178" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="183" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="185" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -338,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -346,8 +349,11 @@
     <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="174" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10285,43 +10291,43 @@
       <c r="N2" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="8" t="n">
+      <c r="O2" s="7" t="n">
         <v>305798391.22</v>
       </c>
-      <c r="P2" s="8" t="n">
+      <c r="P2" s="7" t="n">
         <v>467083660.6</v>
       </c>
-      <c r="Q2" s="8" t="n">
+      <c r="Q2" s="7" t="n">
         <v>623306976.79</v>
       </c>
-      <c r="R2" s="8" t="n">
+      <c r="R2" s="7" t="n">
         <v>902166349.31</v>
       </c>
-      <c r="S2" s="8" t="n">
+      <c r="S2" s="7" t="n">
         <v>1545404234.55</v>
       </c>
-      <c r="T2" s="8" t="n">
+      <c r="T2" s="7" t="n">
         <v>2947049116.68</v>
       </c>
-      <c r="U2" s="8" t="n">
+      <c r="U2" s="7" t="n">
         <v>4946987294.07</v>
       </c>
-      <c r="V2" s="8" t="n">
+      <c r="V2" s="7" t="n">
         <v>13038972855.76</v>
       </c>
-      <c r="W2" s="8" t="n">
+      <c r="W2" s="7" t="n">
         <v>9791890070.47</v>
       </c>
-      <c r="X2" s="8" t="n">
+      <c r="X2" s="7" t="n">
         <v>5526836631.66</v>
       </c>
-      <c r="Y2" s="8" t="n">
+      <c r="Y2" s="7" t="n">
         <v>5551948646.64</v>
       </c>
-      <c r="Z2" s="8" t="n">
+      <c r="Z2" s="7" t="n">
         <v>900528444.88</v>
       </c>
-      <c r="AA2" s="8"/>
+      <c r="AA2" s="7"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -10336,31 +10342,31 @@
       <c r="N3" t="s">
         <v>88</v>
       </c>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8" t="n">
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7" t="n">
         <v>348308</v>
       </c>
-      <c r="V3" s="8" t="n">
+      <c r="V3" s="7" t="n">
         <v>229376133.84</v>
       </c>
-      <c r="W3" s="8" t="n">
+      <c r="W3" s="7" t="n">
         <v>763694993.38</v>
       </c>
-      <c r="X3" s="8" t="n">
+      <c r="X3" s="7" t="n">
         <v>571942623.76</v>
       </c>
-      <c r="Y3" s="8" t="n">
+      <c r="Y3" s="7" t="n">
         <v>1420811414.95</v>
       </c>
-      <c r="Z3" s="8" t="n">
+      <c r="Z3" s="7" t="n">
         <v>134979795.75</v>
       </c>
-      <c r="AA3" s="8"/>
+      <c r="AA3" s="7"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -10375,43 +10381,43 @@
       <c r="N4" t="s">
         <v>87</v>
       </c>
-      <c r="O4" s="8" t="n">
+      <c r="O4" s="7" t="n">
         <v>1087637</v>
       </c>
-      <c r="P4" s="8" t="n">
+      <c r="P4" s="7" t="n">
         <v>2694831</v>
       </c>
-      <c r="Q4" s="8" t="n">
+      <c r="Q4" s="7" t="n">
         <v>2316363</v>
       </c>
-      <c r="R4" s="8" t="n">
+      <c r="R4" s="7" t="n">
         <v>4928841</v>
       </c>
-      <c r="S4" s="8" t="n">
+      <c r="S4" s="7" t="n">
         <v>50000</v>
       </c>
-      <c r="T4" s="8" t="n">
+      <c r="T4" s="7" t="n">
         <v>31955707.71</v>
       </c>
-      <c r="U4" s="8" t="n">
+      <c r="U4" s="7" t="n">
         <v>167767241.67</v>
       </c>
-      <c r="V4" s="8" t="n">
+      <c r="V4" s="7" t="n">
         <v>621072980.27</v>
       </c>
-      <c r="W4" s="8" t="n">
+      <c r="W4" s="7" t="n">
         <v>946299367.02</v>
       </c>
-      <c r="X4" s="8" t="n">
+      <c r="X4" s="7" t="n">
         <v>1392818930.33</v>
       </c>
-      <c r="Y4" s="8" t="n">
+      <c r="Y4" s="7" t="n">
         <v>2396228169.59</v>
       </c>
-      <c r="Z4" s="8" t="n">
+      <c r="Z4" s="7" t="n">
         <v>287480377.3</v>
       </c>
-      <c r="AA4" s="8"/>
+      <c r="AA4" s="7"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -10426,29 +10432,29 @@
       <c r="N5" t="s">
         <v>88</v>
       </c>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8" t="n">
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7" t="n">
         <v>10203844.83</v>
       </c>
-      <c r="W5" s="8" t="n">
+      <c r="W5" s="7" t="n">
         <v>37345087.25</v>
       </c>
-      <c r="X5" s="8" t="n">
+      <c r="X5" s="7" t="n">
         <v>80559943.51</v>
       </c>
-      <c r="Y5" s="8" t="n">
+      <c r="Y5" s="7" t="n">
         <v>213676422.24</v>
       </c>
-      <c r="Z5" s="8" t="n">
+      <c r="Z5" s="7" t="n">
         <v>42162701.4</v>
       </c>
-      <c r="AA5" s="8"/>
+      <c r="AA5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -10463,43 +10469,43 @@
       <c r="N6" t="s">
         <v>87</v>
       </c>
-      <c r="O6" s="8" t="n">
+      <c r="O6" s="7" t="n">
         <v>3903539</v>
       </c>
-      <c r="P6" s="8" t="n">
+      <c r="P6" s="7" t="n">
         <v>4636181</v>
       </c>
-      <c r="Q6" s="8" t="n">
+      <c r="Q6" s="7" t="n">
         <v>4993631</v>
       </c>
-      <c r="R6" s="8" t="n">
+      <c r="R6" s="7" t="n">
         <v>250037783</v>
       </c>
-      <c r="S6" s="8" t="n">
+      <c r="S6" s="7" t="n">
         <v>187693198</v>
       </c>
-      <c r="T6" s="8" t="n">
+      <c r="T6" s="7" t="n">
         <v>526509339.38</v>
       </c>
-      <c r="U6" s="8" t="n">
+      <c r="U6" s="7" t="n">
         <v>1428461728.3</v>
       </c>
-      <c r="V6" s="8" t="n">
+      <c r="V6" s="7" t="n">
         <v>1358409639.11</v>
       </c>
-      <c r="W6" s="8" t="n">
+      <c r="W6" s="7" t="n">
         <v>1922431021.18</v>
       </c>
-      <c r="X6" s="8" t="n">
+      <c r="X6" s="7" t="n">
         <v>1373770303.73</v>
       </c>
-      <c r="Y6" s="8" t="n">
+      <c r="Y6" s="7" t="n">
         <v>2582227987.89</v>
       </c>
-      <c r="Z6" s="8" t="n">
+      <c r="Z6" s="7" t="n">
         <v>1081080934.21</v>
       </c>
-      <c r="AA6" s="8"/>
+      <c r="AA6" s="7"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -10514,29 +10520,29 @@
       <c r="N7" t="s">
         <v>88</v>
       </c>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8" t="n">
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7" t="n">
         <v>76299804.16</v>
       </c>
-      <c r="W7" s="8" t="n">
+      <c r="W7" s="7" t="n">
         <v>62117307.39</v>
       </c>
-      <c r="X7" s="8" t="n">
+      <c r="X7" s="7" t="n">
         <v>61769399.21</v>
       </c>
-      <c r="Y7" s="8" t="n">
+      <c r="Y7" s="7" t="n">
         <v>107150475.74</v>
       </c>
-      <c r="Z7" s="8" t="n">
+      <c r="Z7" s="7" t="n">
         <v>31352988.8</v>
       </c>
-      <c r="AA7" s="8"/>
+      <c r="AA7" s="7"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -10549,21 +10555,21 @@
         <v>90</v>
       </c>
       <c r="N8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8" t="n">
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7" t="n">
         <v>235000</v>
       </c>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -10578,25 +10584,25 @@
       <c r="N9" t="s">
         <v>87</v>
       </c>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8" t="n">
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7" t="n">
         <v>623617676</v>
       </c>
-      <c r="Y9" s="8" t="n">
+      <c r="Y9" s="7" t="n">
         <v>1151457876.22</v>
       </c>
-      <c r="Z9" s="8" t="n">
+      <c r="Z9" s="7" t="n">
         <v>205871368</v>
       </c>
-      <c r="AA9" s="8"/>
+      <c r="AA9" s="7"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -10611,29 +10617,29 @@
       <c r="N10" t="s">
         <v>87</v>
       </c>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8" t="n">
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7" t="n">
         <v>79948980</v>
       </c>
-      <c r="W10" s="8" t="n">
+      <c r="W10" s="7" t="n">
         <v>160693402</v>
       </c>
-      <c r="X10" s="8" t="n">
+      <c r="X10" s="7" t="n">
         <v>232946539</v>
       </c>
-      <c r="Y10" s="8" t="n">
+      <c r="Y10" s="7" t="n">
         <v>421174933.8</v>
       </c>
-      <c r="Z10" s="8" t="n">
+      <c r="Z10" s="7" t="n">
         <v>48319960</v>
       </c>
-      <c r="AA10" s="8"/>
+      <c r="AA10" s="7"/>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -10648,27 +10654,27 @@
       <c r="N11" t="s">
         <v>88</v>
       </c>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8" t="n">
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7" t="n">
         <v>3500000</v>
       </c>
-      <c r="X11" s="8" t="n">
+      <c r="X11" s="7" t="n">
         <v>6155000</v>
       </c>
-      <c r="Y11" s="8" t="n">
+      <c r="Y11" s="7" t="n">
         <v>8050000</v>
       </c>
-      <c r="Z11" s="8" t="n">
+      <c r="Z11" s="7" t="n">
         <v>2500000</v>
       </c>
-      <c r="AA11" s="8"/>
+      <c r="AA11" s="7"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -10683,43 +10689,43 @@
       <c r="N12" t="s">
         <v>87</v>
       </c>
-      <c r="O12" s="8" t="n">
+      <c r="O12" s="7" t="n">
         <v>22014936</v>
       </c>
-      <c r="P12" s="8" t="n">
+      <c r="P12" s="7" t="n">
         <v>40849581</v>
       </c>
-      <c r="Q12" s="8" t="n">
+      <c r="Q12" s="7" t="n">
         <v>62907051</v>
       </c>
-      <c r="R12" s="8" t="n">
+      <c r="R12" s="7" t="n">
         <v>214782354.78</v>
       </c>
-      <c r="S12" s="8" t="n">
+      <c r="S12" s="7" t="n">
         <v>379711068.32</v>
       </c>
-      <c r="T12" s="8" t="n">
+      <c r="T12" s="7" t="n">
         <v>377879847.47</v>
       </c>
-      <c r="U12" s="8" t="n">
+      <c r="U12" s="7" t="n">
         <v>423307981.86</v>
       </c>
-      <c r="V12" s="8" t="n">
+      <c r="V12" s="7" t="n">
         <v>354104917.18</v>
       </c>
-      <c r="W12" s="8" t="n">
+      <c r="W12" s="7" t="n">
         <v>347468914.34</v>
       </c>
-      <c r="X12" s="8" t="n">
+      <c r="X12" s="7" t="n">
         <v>312343199.61</v>
       </c>
-      <c r="Y12" s="8" t="n">
+      <c r="Y12" s="7" t="n">
         <v>469335440.28</v>
       </c>
-      <c r="Z12" s="8" t="n">
+      <c r="Z12" s="7" t="n">
         <v>130386939.07</v>
       </c>
-      <c r="AA12" s="8"/>
+      <c r="AA12" s="7"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -10734,23 +10740,23 @@
       <c r="N13" t="s">
         <v>88</v>
       </c>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8" t="n">
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7" t="n">
         <v>6065329.49</v>
       </c>
-      <c r="Z13" s="8" t="n">
+      <c r="Z13" s="7" t="n">
         <v>3293394</v>
       </c>
-      <c r="AA13" s="8"/>
+      <c r="AA13" s="7"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -10765,43 +10771,43 @@
       <c r="N14" t="s">
         <v>87</v>
       </c>
-      <c r="O14" s="8" t="n">
+      <c r="O14" s="7" t="n">
         <v>7755269.51</v>
       </c>
-      <c r="P14" s="8" t="n">
+      <c r="P14" s="7" t="n">
         <v>8294831</v>
       </c>
-      <c r="Q14" s="8" t="n">
+      <c r="Q14" s="7" t="n">
         <v>1359295.89</v>
       </c>
-      <c r="R14" s="8" t="n">
+      <c r="R14" s="7" t="n">
         <v>61241002.21</v>
       </c>
-      <c r="S14" s="8" t="n">
+      <c r="S14" s="7" t="n">
         <v>2629821</v>
       </c>
-      <c r="T14" s="8" t="n">
+      <c r="T14" s="7" t="n">
         <v>70515217.94</v>
       </c>
-      <c r="U14" s="8" t="n">
+      <c r="U14" s="7" t="n">
         <v>243888265.92</v>
       </c>
-      <c r="V14" s="8" t="n">
+      <c r="V14" s="7" t="n">
         <v>525334651.5</v>
       </c>
-      <c r="W14" s="8" t="n">
+      <c r="W14" s="7" t="n">
         <v>418465604.4</v>
       </c>
-      <c r="X14" s="8" t="n">
+      <c r="X14" s="7" t="n">
         <v>508547161.27</v>
       </c>
-      <c r="Y14" s="8" t="n">
+      <c r="Y14" s="7" t="n">
         <v>1025345573.13</v>
       </c>
-      <c r="Z14" s="8" t="n">
+      <c r="Z14" s="7" t="n">
         <v>174609780.59</v>
       </c>
-      <c r="AA14" s="8"/>
+      <c r="AA14" s="7"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -10816,31 +10822,31 @@
       <c r="N15" t="s">
         <v>88</v>
       </c>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8" t="n">
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7" t="n">
         <v>655268.97</v>
       </c>
-      <c r="V15" s="8" t="n">
+      <c r="V15" s="7" t="n">
         <v>41181902.47</v>
       </c>
-      <c r="W15" s="8" t="n">
+      <c r="W15" s="7" t="n">
         <v>212840425.61</v>
       </c>
-      <c r="X15" s="8" t="n">
+      <c r="X15" s="7" t="n">
         <v>289330105.34</v>
       </c>
-      <c r="Y15" s="8" t="n">
+      <c r="Y15" s="7" t="n">
         <v>327031127.28</v>
       </c>
-      <c r="Z15" s="8" t="n">
+      <c r="Z15" s="7" t="n">
         <v>83820685.66</v>
       </c>
-      <c r="AA15" s="8"/>
+      <c r="AA15" s="7"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -10855,43 +10861,43 @@
       <c r="N16" t="s">
         <v>47</v>
       </c>
-      <c r="O16" s="8" t="str">
+      <c r="O16" s="7" t="str">
         <f>Sum(O2:O15)</f>
       </c>
-      <c r="P16" s="8" t="str">
+      <c r="P16" s="7" t="str">
         <f>Sum(P2:P15)</f>
       </c>
-      <c r="Q16" s="8" t="str">
+      <c r="Q16" s="7" t="str">
         <f>Sum(Q2:Q15)</f>
       </c>
-      <c r="R16" s="8" t="str">
+      <c r="R16" s="7" t="str">
         <f>Sum(R2:R15)</f>
       </c>
-      <c r="S16" s="8" t="str">
+      <c r="S16" s="7" t="str">
         <f>Sum(S2:S15)</f>
       </c>
-      <c r="T16" s="8" t="str">
+      <c r="T16" s="7" t="str">
         <f>Sum(T2:T15)</f>
       </c>
-      <c r="U16" s="8" t="str">
+      <c r="U16" s="7" t="str">
         <f>Sum(U2:U15)</f>
       </c>
-      <c r="V16" s="8" t="str">
+      <c r="V16" s="7" t="str">
         <f>Sum(V2:V15)</f>
       </c>
-      <c r="W16" s="8" t="str">
+      <c r="W16" s="7" t="str">
         <f>Sum(W2:W15)</f>
       </c>
-      <c r="X16" s="8" t="str">
+      <c r="X16" s="7" t="str">
         <f>Sum(X2:X15)</f>
       </c>
-      <c r="Y16" s="8" t="str">
+      <c r="Y16" s="7" t="str">
         <f>Sum(Y2:Y15)</f>
       </c>
-      <c r="Z16" s="8" t="str">
+      <c r="Z16" s="7" t="str">
         <f>Sum(Z2:Z15)</f>
       </c>
-      <c r="AA16" s="8"/>
+      <c r="AA16" s="7"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -10968,16 +10974,16 @@
       <c r="B20" t="str">
         <f>N20</f>
       </c>
-      <c r="C20" s="8" t="str">
+      <c r="C20" s="7" t="str">
         <f>V20</f>
       </c>
-      <c r="D20" s="8" t="str">
+      <c r="D20" s="7" t="str">
         <f>X20</f>
       </c>
-      <c r="E20" s="8" t="str">
+      <c r="E20" s="7" t="str">
         <f>Y20</f>
       </c>
-      <c r="F20" s="8"/>
+      <c r="F20" s="7"/>
       <c r="G20" s="1" t="str">
         <f>Y20/X20-1</f>
       </c>
@@ -10995,43 +11001,43 @@
       <c r="N20" t="s">
         <v>87</v>
       </c>
-      <c r="O20" s="8" t="n">
+      <c r="O20" s="7" t="n">
         <v>378171377.680593</v>
       </c>
-      <c r="P20" s="8" t="n">
+      <c r="P20" s="7" t="n">
         <v>566665177.182479</v>
       </c>
-      <c r="Q20" s="8" t="n">
+      <c r="Q20" s="7" t="n">
         <v>747624036.852</v>
       </c>
-      <c r="R20" s="8" t="n">
+      <c r="R20" s="7" t="n">
         <v>1073208090.22237</v>
       </c>
-      <c r="S20" s="8" t="n">
+      <c r="S20" s="7" t="n">
         <v>1806150861.75354</v>
       </c>
-      <c r="T20" s="8" t="n">
+      <c r="T20" s="7" t="n">
         <v>3365269271.17564</v>
       </c>
-      <c r="U20" s="8" t="n">
+      <c r="U20" s="7" t="n">
         <v>5540502579.60784</v>
       </c>
-      <c r="V20" s="8" t="n">
+      <c r="V20" s="7" t="n">
         <v>14411074711.4441</v>
       </c>
-      <c r="W20" s="8" t="n">
+      <c r="W20" s="7" t="n">
         <v>10470346583.216</v>
       </c>
-      <c r="X20" s="8" t="n">
+      <c r="X20" s="7" t="n">
         <v>5526836631.66</v>
       </c>
-      <c r="Y20" s="8" t="n">
+      <c r="Y20" s="7" t="n">
         <v>5295439621.87335</v>
       </c>
-      <c r="Z20" s="8" t="n">
+      <c r="Z20" s="7" t="n">
         <v>839093948.1948</v>
       </c>
-      <c r="AA20" s="8"/>
+      <c r="AA20" s="7"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -11040,16 +11046,16 @@
       <c r="B21" t="str">
         <f>N21</f>
       </c>
-      <c r="C21" s="8" t="str">
+      <c r="C21" s="7" t="str">
         <f>V21</f>
       </c>
-      <c r="D21" s="8" t="str">
+      <c r="D21" s="7" t="str">
         <f>X21</f>
       </c>
-      <c r="E21" s="8" t="str">
+      <c r="E21" s="7" t="str">
         <f>Y21</f>
       </c>
-      <c r="F21" s="8"/>
+      <c r="F21" s="7"/>
       <c r="G21" s="1" t="str">
         <f>Y21/X21-1</f>
       </c>
@@ -11067,31 +11073,31 @@
       <c r="N21" t="s">
         <v>88</v>
       </c>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8" t="n">
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7" t="n">
         <v>390096.286443129</v>
       </c>
-      <c r="V21" s="8" t="n">
+      <c r="V21" s="7" t="n">
         <v>253513573.37401</v>
       </c>
-      <c r="W21" s="8" t="n">
+      <c r="W21" s="7" t="n">
         <v>816609582.727026</v>
       </c>
-      <c r="X21" s="8" t="n">
+      <c r="X21" s="7" t="n">
         <v>571942623.76</v>
       </c>
-      <c r="Y21" s="8" t="n">
+      <c r="Y21" s="7" t="n">
         <v>1355167625.06251</v>
       </c>
-      <c r="Z21" s="8" t="n">
+      <c r="Z21" s="7" t="n">
         <v>125771407.206896</v>
       </c>
-      <c r="AA21" s="8"/>
+      <c r="AA21" s="7"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -11100,16 +11106,16 @@
       <c r="B22" t="str">
         <f>N22</f>
       </c>
-      <c r="C22" s="8" t="str">
+      <c r="C22" s="7" t="str">
         <f>V22</f>
       </c>
-      <c r="D22" s="8" t="str">
+      <c r="D22" s="7" t="str">
         <f>X22</f>
       </c>
-      <c r="E22" s="8" t="str">
+      <c r="E22" s="7" t="str">
         <f>Y22</f>
       </c>
-      <c r="F22" s="8"/>
+      <c r="F22" s="7"/>
       <c r="G22" s="1" t="str">
         <f>Y22/X22-1</f>
       </c>
@@ -11127,43 +11133,43 @@
       <c r="N22" t="s">
         <v>87</v>
       </c>
-      <c r="O22" s="8" t="n">
+      <c r="O22" s="7" t="n">
         <v>1345046.91494756</v>
       </c>
-      <c r="P22" s="8" t="n">
+      <c r="P22" s="7" t="n">
         <v>3269364.8159951</v>
       </c>
-      <c r="Q22" s="8" t="n">
+      <c r="Q22" s="7" t="n">
         <v>2778355.96481389</v>
       </c>
-      <c r="R22" s="8" t="n">
+      <c r="R22" s="7" t="n">
         <v>5863300.08946288</v>
       </c>
-      <c r="S22" s="8" t="n">
+      <c r="S22" s="7" t="n">
         <v>58436.1949247365</v>
       </c>
-      <c r="T22" s="8" t="n">
+      <c r="T22" s="7" t="n">
         <v>36490590.0571763</v>
       </c>
-      <c r="U22" s="8" t="n">
+      <c r="U22" s="7" t="n">
         <v>187895132.934856</v>
       </c>
-      <c r="V22" s="8" t="n">
+      <c r="V22" s="7" t="n">
         <v>686429001.650722</v>
       </c>
-      <c r="W22" s="8" t="n">
+      <c r="W22" s="7" t="n">
         <v>1011866174.2392</v>
       </c>
-      <c r="X22" s="8" t="n">
+      <c r="X22" s="7" t="n">
         <v>1392818930.33</v>
       </c>
-      <c r="Y22" s="8" t="n">
+      <c r="Y22" s="7" t="n">
         <v>2285518544.9122</v>
       </c>
-      <c r="Z22" s="8" t="n">
+      <c r="Z22" s="7" t="n">
         <v>267868323.525674</v>
       </c>
-      <c r="AA22" s="8"/>
+      <c r="AA22" s="7"/>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -11172,16 +11178,16 @@
       <c r="B23" t="str">
         <f>N23</f>
       </c>
-      <c r="C23" s="8" t="str">
+      <c r="C23" s="7" t="str">
         <f>V23</f>
       </c>
-      <c r="D23" s="8" t="str">
+      <c r="D23" s="7" t="str">
         <f>X23</f>
       </c>
-      <c r="E23" s="8" t="str">
+      <c r="E23" s="7" t="str">
         <f>Y23</f>
       </c>
-      <c r="F23" s="8"/>
+      <c r="F23" s="7"/>
       <c r="G23" s="1" t="str">
         <f>Y23/X23-1</f>
       </c>
@@ -11199,29 +11205,29 @@
       <c r="N23" t="s">
         <v>88</v>
       </c>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8" t="n">
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7" t="n">
         <v>11277603.8278317</v>
       </c>
-      <c r="W23" s="8" t="n">
+      <c r="W23" s="7" t="n">
         <v>39932638.5277905</v>
       </c>
-      <c r="X23" s="8" t="n">
+      <c r="X23" s="7" t="n">
         <v>80559943.51</v>
       </c>
-      <c r="Y23" s="8" t="n">
+      <c r="Y23" s="7" t="n">
         <v>203804225.256049</v>
       </c>
-      <c r="Z23" s="8" t="n">
+      <c r="Z23" s="7" t="n">
         <v>39286341.0205757</v>
       </c>
-      <c r="AA23" s="8"/>
+      <c r="AA23" s="7"/>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -11230,16 +11236,16 @@
       <c r="B24" t="str">
         <f>N24</f>
       </c>
-      <c r="C24" s="8" t="str">
+      <c r="C24" s="7" t="str">
         <f>V24</f>
       </c>
-      <c r="D24" s="8" t="str">
+      <c r="D24" s="7" t="str">
         <f>X24</f>
       </c>
-      <c r="E24" s="8" t="str">
+      <c r="E24" s="7" t="str">
         <f>Y24</f>
       </c>
-      <c r="F24" s="8"/>
+      <c r="F24" s="7"/>
       <c r="G24" s="1" t="str">
         <f>Y24/X24-1</f>
       </c>
@@ -11257,43 +11263,43 @@
       <c r="N24" t="s">
         <v>87</v>
       </c>
-      <c r="O24" s="8" t="n">
+      <c r="O24" s="7" t="n">
         <v>4827385.50575925</v>
       </c>
-      <c r="P24" s="8" t="n">
+      <c r="P24" s="7" t="n">
         <v>5624607.64403593</v>
       </c>
-      <c r="Q24" s="8" t="n">
+      <c r="Q24" s="7" t="n">
         <v>5989598.55382319</v>
       </c>
-      <c r="R24" s="8" t="n">
+      <c r="R24" s="7" t="n">
         <v>297442452.583275</v>
       </c>
-      <c r="S24" s="8" t="n">
+      <c r="S24" s="7" t="n">
         <v>219361526.087503</v>
       </c>
-      <c r="T24" s="8" t="n">
+      <c r="T24" s="7" t="n">
         <v>601227068.383093</v>
       </c>
-      <c r="U24" s="8" t="n">
+      <c r="U24" s="7" t="n">
         <v>1599841564.17873</v>
       </c>
-      <c r="V24" s="8" t="n">
+      <c r="V24" s="7" t="n">
         <v>1501356204.55044</v>
       </c>
-      <c r="W24" s="8" t="n">
+      <c r="W24" s="7" t="n">
         <v>2055631643.04542</v>
       </c>
-      <c r="X24" s="8" t="n">
+      <c r="X24" s="7" t="n">
         <v>1373770303.73</v>
       </c>
-      <c r="Y24" s="8" t="n">
+      <c r="Y24" s="7" t="n">
         <v>2462924870.18201</v>
       </c>
-      <c r="Z24" s="8" t="n">
+      <c r="Z24" s="7" t="n">
         <v>1007329057.24624</v>
       </c>
-      <c r="AA24" s="8"/>
+      <c r="AA24" s="7"/>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -11302,16 +11308,16 @@
       <c r="B25" t="str">
         <f>N25</f>
       </c>
-      <c r="C25" s="8" t="str">
+      <c r="C25" s="7" t="str">
         <f>V25</f>
       </c>
-      <c r="D25" s="8" t="str">
+      <c r="D25" s="7" t="str">
         <f>X25</f>
       </c>
-      <c r="E25" s="8" t="str">
+      <c r="E25" s="7" t="str">
         <f>Y25</f>
       </c>
-      <c r="F25" s="8"/>
+      <c r="F25" s="7"/>
       <c r="G25" s="1" t="str">
         <f>Y25/X25-1</f>
       </c>
@@ -11329,29 +11335,29 @@
       <c r="N25" t="s">
         <v>88</v>
       </c>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8" t="n">
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7" t="n">
         <v>84328895.4108511</v>
       </c>
-      <c r="W25" s="8" t="n">
+      <c r="W25" s="7" t="n">
         <v>66421266.2222263</v>
       </c>
-      <c r="X25" s="8" t="n">
+      <c r="X25" s="7" t="n">
         <v>61769399.21</v>
       </c>
-      <c r="Y25" s="8" t="n">
+      <c r="Y25" s="7" t="n">
         <v>102199950.116536</v>
       </c>
-      <c r="Z25" s="8" t="n">
+      <c r="Z25" s="7" t="n">
         <v>29214072.3699239</v>
       </c>
-      <c r="AA25" s="8"/>
+      <c r="AA25" s="7"/>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -11360,16 +11366,16 @@
       <c r="B26" t="str">
         <f>N26</f>
       </c>
-      <c r="C26" s="8" t="str">
+      <c r="C26" s="7" t="str">
         <f>V26</f>
       </c>
-      <c r="D26" s="8" t="str">
+      <c r="D26" s="7" t="str">
         <f>X26</f>
       </c>
-      <c r="E26" s="8" t="str">
+      <c r="E26" s="7" t="str">
         <f>Y26</f>
       </c>
-      <c r="F26" s="8"/>
+      <c r="F26" s="7"/>
       <c r="G26" s="1" t="str">
         <f>Y26/X26-1</f>
       </c>
@@ -11385,21 +11391,21 @@
         <v>90</v>
       </c>
       <c r="N26"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8" t="n">
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7" t="n">
         <v>259729.243603212</v>
       </c>
-      <c r="W26" s="8"/>
-      <c r="X26" s="8"/>
-      <c r="Y26" s="8"/>
-      <c r="Z26" s="8"/>
-      <c r="AA26" s="8"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -11408,16 +11414,16 @@
       <c r="B27" t="str">
         <f>N27</f>
       </c>
-      <c r="C27" s="8" t="str">
+      <c r="C27" s="7" t="str">
         <f>V27</f>
       </c>
-      <c r="D27" s="8" t="str">
+      <c r="D27" s="7" t="str">
         <f>X27</f>
       </c>
-      <c r="E27" s="8" t="str">
+      <c r="E27" s="7" t="str">
         <f>Y27</f>
       </c>
-      <c r="F27" s="8"/>
+      <c r="F27" s="7"/>
       <c r="G27" s="1" t="str">
         <f>Y27/X27-1</f>
       </c>
@@ -11435,25 +11441,25 @@
       <c r="N27" t="s">
         <v>87</v>
       </c>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8" t="n">
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7" t="n">
         <v>623617676</v>
       </c>
-      <c r="Y27" s="8" t="n">
+      <c r="Y27" s="7" t="n">
         <v>1098258656.32667</v>
       </c>
-      <c r="Z27" s="8" t="n">
+      <c r="Z27" s="7" t="n">
         <v>191826721.274089</v>
       </c>
-      <c r="AA27" s="8"/>
+      <c r="AA27" s="7"/>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -11462,16 +11468,16 @@
       <c r="B28" t="str">
         <f>N28</f>
       </c>
-      <c r="C28" s="8" t="str">
+      <c r="C28" s="7" t="str">
         <f>V28</f>
       </c>
-      <c r="D28" s="8" t="str">
+      <c r="D28" s="7" t="str">
         <f>X28</f>
       </c>
-      <c r="E28" s="8" t="str">
+      <c r="E28" s="7" t="str">
         <f>Y28</f>
       </c>
-      <c r="F28" s="8"/>
+      <c r="F28" s="7"/>
       <c r="G28" s="1" t="str">
         <f>Y28/X28-1</f>
       </c>
@@ -11489,29 +11495,29 @@
       <c r="N28" t="s">
         <v>87</v>
       </c>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
-      <c r="V28" s="8" t="n">
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7" t="n">
         <v>88362077.0308439</v>
       </c>
-      <c r="W28" s="8" t="n">
+      <c r="W28" s="7" t="n">
         <v>171827461.344783</v>
       </c>
-      <c r="X28" s="8" t="n">
+      <c r="X28" s="7" t="n">
         <v>232946539</v>
       </c>
-      <c r="Y28" s="8" t="n">
+      <c r="Y28" s="7" t="n">
         <v>401715969.317218</v>
       </c>
-      <c r="Z28" s="8" t="n">
+      <c r="Z28" s="7" t="n">
         <v>45023548.3882107</v>
       </c>
-      <c r="AA28" s="8"/>
+      <c r="AA28" s="7"/>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -11520,16 +11526,16 @@
       <c r="B29" t="str">
         <f>N29</f>
       </c>
-      <c r="C29" s="8" t="str">
+      <c r="C29" s="7" t="str">
         <f>V29</f>
       </c>
-      <c r="D29" s="8" t="str">
+      <c r="D29" s="7" t="str">
         <f>X29</f>
       </c>
-      <c r="E29" s="8" t="str">
+      <c r="E29" s="7" t="str">
         <f>Y29</f>
       </c>
-      <c r="F29" s="8"/>
+      <c r="F29" s="7"/>
       <c r="G29" s="1" t="str">
         <f>Y29/X29-1</f>
       </c>
@@ -11547,27 +11553,27 @@
       <c r="N29" t="s">
         <v>88</v>
       </c>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8"/>
-      <c r="V29" s="8"/>
-      <c r="W29" s="8" t="n">
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7" t="n">
         <v>3742506.58223503</v>
       </c>
-      <c r="X29" s="8" t="n">
+      <c r="X29" s="7" t="n">
         <v>6155000</v>
       </c>
-      <c r="Y29" s="8" t="n">
+      <c r="Y29" s="7" t="n">
         <v>7678076.95445432</v>
       </c>
-      <c r="Z29" s="8" t="n">
+      <c r="Z29" s="7" t="n">
         <v>2329448.76135094</v>
       </c>
-      <c r="AA29" s="8"/>
+      <c r="AA29" s="7"/>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -11576,16 +11582,16 @@
       <c r="B30" t="str">
         <f>N30</f>
       </c>
-      <c r="C30" s="8" t="str">
+      <c r="C30" s="7" t="str">
         <f>V30</f>
       </c>
-      <c r="D30" s="8" t="str">
+      <c r="D30" s="7" t="str">
         <f>X30</f>
       </c>
-      <c r="E30" s="8" t="str">
+      <c r="E30" s="7" t="str">
         <f>Y30</f>
       </c>
-      <c r="F30" s="8"/>
+      <c r="F30" s="7"/>
       <c r="G30" s="1" t="str">
         <f>Y30/X30-1</f>
       </c>
@@ -11603,43 +11609,43 @@
       <c r="N30" t="s">
         <v>87</v>
       </c>
-      <c r="O30" s="8" t="n">
+      <c r="O30" s="7" t="n">
         <v>27225187.9529364</v>
       </c>
-      <c r="P30" s="8" t="n">
+      <c r="P30" s="7" t="n">
         <v>49558648.7128662</v>
       </c>
-      <c r="Q30" s="8" t="n">
+      <c r="Q30" s="7" t="n">
         <v>75453709.2738494</v>
       </c>
-      <c r="R30" s="8" t="n">
+      <c r="R30" s="7" t="n">
         <v>255502946.838135</v>
       </c>
-      <c r="S30" s="8" t="n">
+      <c r="S30" s="7" t="n">
         <v>443777400.068549</v>
       </c>
-      <c r="T30" s="8" t="n">
+      <c r="T30" s="7" t="n">
         <v>431505342.645909</v>
       </c>
-      <c r="U30" s="8" t="n">
+      <c r="U30" s="7" t="n">
         <v>474094398.478706</v>
       </c>
-      <c r="V30" s="8" t="n">
+      <c r="V30" s="7" t="n">
         <v>391367669.34187</v>
       </c>
-      <c r="W30" s="8" t="n">
+      <c r="W30" s="7" t="n">
         <v>371544199.725575</v>
       </c>
-      <c r="X30" s="8" t="n">
+      <c r="X30" s="7" t="n">
         <v>312343199.61</v>
       </c>
-      <c r="Y30" s="8" t="n">
+      <c r="Y30" s="7" t="n">
         <v>447651382.350626</v>
       </c>
-      <c r="Z30" s="8" t="n">
+      <c r="Z30" s="7" t="n">
         <v>121491877.485181</v>
       </c>
-      <c r="AA30" s="8"/>
+      <c r="AA30" s="7"/>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -11648,16 +11654,16 @@
       <c r="B31" t="str">
         <f>N31</f>
       </c>
-      <c r="C31" s="8" t="str">
+      <c r="C31" s="7" t="str">
         <f>V31</f>
       </c>
-      <c r="D31" s="8" t="str">
+      <c r="D31" s="7" t="str">
         <f>X31</f>
       </c>
-      <c r="E31" s="8" t="str">
+      <c r="E31" s="7" t="str">
         <f>Y31</f>
       </c>
-      <c r="F31" s="8"/>
+      <c r="F31" s="7"/>
       <c r="G31" s="1" t="str">
         <f>Y31/X31-1</f>
       </c>
@@ -11675,23 +11681,23 @@
       <c r="N31" t="s">
         <v>88</v>
       </c>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="8"/>
-      <c r="V31" s="8"/>
-      <c r="W31" s="8"/>
-      <c r="X31" s="8"/>
-      <c r="Y31" s="8" t="n">
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7" t="n">
         <v>5785101.43830325</v>
       </c>
-      <c r="Z31" s="8" t="n">
+      <c r="Z31" s="7" t="n">
         <v>3068717.02957624</v>
       </c>
-      <c r="AA31" s="8"/>
+      <c r="AA31" s="7"/>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -11700,16 +11706,16 @@
       <c r="B32" t="str">
         <f>N32</f>
       </c>
-      <c r="C32" s="8" t="str">
+      <c r="C32" s="7" t="str">
         <f>V32</f>
       </c>
-      <c r="D32" s="8" t="str">
+      <c r="D32" s="7" t="str">
         <f>X32</f>
       </c>
-      <c r="E32" s="8" t="str">
+      <c r="E32" s="7" t="str">
         <f>Y32</f>
       </c>
-      <c r="F32" s="8"/>
+      <c r="F32" s="7"/>
       <c r="G32" s="1" t="str">
         <f>Y32/X32-1</f>
       </c>
@@ -11727,43 +11733,43 @@
       <c r="N32" t="s">
         <v>87</v>
       </c>
-      <c r="O32" s="8" t="n">
+      <c r="O32" s="7" t="n">
         <v>9590701.06019964</v>
       </c>
-      <c r="P32" s="8" t="n">
+      <c r="P32" s="7" t="n">
         <v>10063276.1854177</v>
       </c>
-      <c r="Q32" s="8" t="n">
+      <c r="Q32" s="7" t="n">
         <v>1630404.14819633</v>
       </c>
-      <c r="R32" s="8" t="n">
+      <c r="R32" s="7" t="n">
         <v>72851685.3630883</v>
       </c>
-      <c r="S32" s="8" t="n">
+      <c r="S32" s="7" t="n">
         <v>3073534.65146331</v>
       </c>
-      <c r="T32" s="8" t="n">
+      <c r="T32" s="7" t="n">
         <v>80522138.141718</v>
       </c>
-      <c r="U32" s="8" t="n">
+      <c r="U32" s="7" t="n">
         <v>273148784.531065</v>
       </c>
-      <c r="V32" s="8" t="n">
+      <c r="V32" s="7" t="n">
         <v>580616049.670859</v>
       </c>
-      <c r="W32" s="8" t="n">
+      <c r="W32" s="7" t="n">
         <v>447460079.687418</v>
       </c>
-      <c r="X32" s="8" t="n">
+      <c r="X32" s="7" t="n">
         <v>508547161.27</v>
       </c>
-      <c r="Y32" s="8" t="n">
+      <c r="Y32" s="7" t="n">
         <v>977972946.012573</v>
       </c>
-      <c r="Z32" s="8" t="n">
+      <c r="Z32" s="7" t="n">
         <v>162697814.846054</v>
       </c>
-      <c r="AA32" s="8"/>
+      <c r="AA32" s="7"/>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -11772,16 +11778,16 @@
       <c r="B33" t="str">
         <f>N33</f>
       </c>
-      <c r="C33" s="8" t="str">
+      <c r="C33" s="7" t="str">
         <f>V33</f>
       </c>
-      <c r="D33" s="8" t="str">
+      <c r="D33" s="7" t="str">
         <f>X33</f>
       </c>
-      <c r="E33" s="8" t="str">
+      <c r="E33" s="7" t="str">
         <f>Y33</f>
       </c>
-      <c r="F33" s="8"/>
+      <c r="F33" s="7"/>
       <c r="G33" s="1" t="str">
         <f>Y33/X33-1</f>
       </c>
@@ -11799,31 +11805,31 @@
       <c r="N33" t="s">
         <v>88</v>
       </c>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="8" t="n">
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7" t="n">
         <v>733884.928908937</v>
       </c>
-      <c r="V33" s="8" t="n">
+      <c r="V33" s="7" t="n">
         <v>45515507.9943589</v>
       </c>
-      <c r="W33" s="8" t="n">
+      <c r="W33" s="7" t="n">
         <v>227587626.80318</v>
       </c>
-      <c r="X33" s="8" t="n">
+      <c r="X33" s="7" t="n">
         <v>289330105.34</v>
       </c>
-      <c r="Y33" s="8" t="n">
+      <c r="Y33" s="7" t="n">
         <v>311921759.22457</v>
       </c>
-      <c r="Z33" s="8" t="n">
+      <c r="Z33" s="7" t="n">
         <v>78102396.9545093</v>
       </c>
-      <c r="AA33" s="8"/>
+      <c r="AA33" s="7"/>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -11832,16 +11838,16 @@
       <c r="B34" t="str">
         <f>N34</f>
       </c>
-      <c r="C34" s="8" t="str">
+      <c r="C34" s="7" t="str">
         <f>V34</f>
       </c>
-      <c r="D34" s="8" t="str">
+      <c r="D34" s="7" t="str">
         <f>X34</f>
       </c>
-      <c r="E34" s="8" t="str">
+      <c r="E34" s="7" t="str">
         <f>Y34</f>
       </c>
-      <c r="F34" s="8"/>
+      <c r="F34" s="7"/>
       <c r="G34" s="1" t="str">
         <f>Y34/X34-1</f>
       </c>
@@ -11859,43 +11865,4831 @@
       <c r="N34" t="s">
         <v>47</v>
       </c>
-      <c r="O34" s="8" t="str">
+      <c r="O34" s="7" t="str">
         <f>Sum(O20:O33)</f>
       </c>
-      <c r="P34" s="8" t="str">
+      <c r="P34" s="7" t="str">
         <f>Sum(P20:P33)</f>
       </c>
-      <c r="Q34" s="8" t="str">
+      <c r="Q34" s="7" t="str">
         <f>Sum(Q20:Q33)</f>
       </c>
-      <c r="R34" s="8" t="str">
+      <c r="R34" s="7" t="str">
         <f>Sum(R20:R33)</f>
       </c>
-      <c r="S34" s="8" t="str">
+      <c r="S34" s="7" t="str">
         <f>Sum(S20:S33)</f>
       </c>
-      <c r="T34" s="8" t="str">
+      <c r="T34" s="7" t="str">
         <f>Sum(T20:T33)</f>
       </c>
-      <c r="U34" s="8" t="str">
+      <c r="U34" s="7" t="str">
         <f>Sum(U20:U33)</f>
       </c>
-      <c r="V34" s="8" t="str">
+      <c r="V34" s="7" t="str">
         <f>Sum(V20:V33)</f>
       </c>
-      <c r="W34" s="8" t="str">
+      <c r="W34" s="7" t="str">
         <f>Sum(W20:W33)</f>
       </c>
-      <c r="X34" s="8" t="str">
+      <c r="X34" s="7" t="str">
         <f>Sum(X20:X33)</f>
       </c>
-      <c r="Y34" s="8" t="str">
+      <c r="Y34" s="7" t="str">
         <f>Sum(Y20:Y33)</f>
       </c>
-      <c r="Z34" s="8" t="str">
+      <c r="Z34" s="7" t="str">
         <f>Sum(Z20:Z33)</f>
       </c>
-      <c r="AA34" s="8"/>
+      <c r="AA34" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>L1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>Z1</f>
+      </c>
+      <c r="C1" t="str">
+        <f>AB1</f>
+      </c>
+      <c r="D1" t="str">
+        <f>AC1</f>
+      </c>
+      <c r="F1" t="str">
+        <f>AB1&amp;"-"&amp;AC1</f>
+      </c>
+      <c r="G1" t="str">
+        <f>Z1&amp;"-"&amp;AC1</f>
+      </c>
+      <c r="I1" t="str">
+        <f>"Share "&amp;AC1</f>
+      </c>
+      <c r="L1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>L2</f>
+      </c>
+      <c r="B2" s="8" t="str">
+        <f>Z2</f>
+      </c>
+      <c r="C2" s="8" t="str">
+        <f>AB2</f>
+      </c>
+      <c r="D2" s="8" t="str">
+        <f>AC2</f>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="1" t="str">
+        <f>AC2/AB2-1</f>
+      </c>
+      <c r="G2" s="1" t="str">
+        <f>AC2/Z2-1</f>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="str">
+        <f>AC2/Sum(AC$1:AC$12)</f>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="L2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="8" t="n">
+        <v>0.244288842474733</v>
+      </c>
+      <c r="N2" s="8" t="n">
+        <v>0.181331139304656</v>
+      </c>
+      <c r="O2" s="8" t="n">
+        <v>0.218690522472674</v>
+      </c>
+      <c r="P2" s="8" t="n">
+        <v>0.289430370044773</v>
+      </c>
+      <c r="Q2" s="8" t="n">
+        <v>0.309447517798952</v>
+      </c>
+      <c r="R2" s="8" t="n">
+        <v>0.298227428515395</v>
+      </c>
+      <c r="S2" s="8" t="n">
+        <v>0.336333385394367</v>
+      </c>
+      <c r="T2" s="8" t="n">
+        <v>0.3378615751333</v>
+      </c>
+      <c r="U2" s="8" t="n">
+        <v>0.369771817462502</v>
+      </c>
+      <c r="V2" s="8" t="n">
+        <v>0.337857009937933</v>
+      </c>
+      <c r="W2" s="8" t="n">
+        <v>0.439179487687924</v>
+      </c>
+      <c r="X2" s="8" t="n">
+        <v>0.422778715677836</v>
+      </c>
+      <c r="Y2" s="8" t="n">
+        <v>0.362149191197945</v>
+      </c>
+      <c r="Z2" s="8" t="n">
+        <v>0.312404790002818</v>
+      </c>
+      <c r="AA2" s="8" t="n">
+        <v>0.318454692491537</v>
+      </c>
+      <c r="AB2" s="8" t="n">
+        <v>0.40973857447243</v>
+      </c>
+      <c r="AC2" s="8" t="n">
+        <v>0.637138126051249</v>
+      </c>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>L3</f>
+      </c>
+      <c r="B3" s="8" t="str">
+        <f>Z3</f>
+      </c>
+      <c r="C3" s="8" t="str">
+        <f>AB3</f>
+      </c>
+      <c r="D3" s="8" t="str">
+        <f>AC3</f>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="1" t="str">
+        <f>AC3/AB3-1</f>
+      </c>
+      <c r="G3" s="1" t="str">
+        <f>AC3/Z3-1</f>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="str">
+        <f>AC3/Sum(AC$1:AC$12)</f>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" s="8" t="n">
+        <v>0.117547195836249</v>
+      </c>
+      <c r="N3" s="8" t="n">
+        <v>0.103012124149906</v>
+      </c>
+      <c r="O3" s="8" t="n">
+        <v>0.0867818693777456</v>
+      </c>
+      <c r="P3" s="8" t="n">
+        <v>0.128255163948157</v>
+      </c>
+      <c r="Q3" s="8" t="n">
+        <v>0.140527927495539</v>
+      </c>
+      <c r="R3" s="8" t="n">
+        <v>0.15620621028757</v>
+      </c>
+      <c r="S3" s="8" t="n">
+        <v>0.16998608869707</v>
+      </c>
+      <c r="T3" s="8" t="n">
+        <v>0.193101403009296</v>
+      </c>
+      <c r="U3" s="8" t="n">
+        <v>0.188199883780743</v>
+      </c>
+      <c r="V3" s="8" t="n">
+        <v>0.179125819788367</v>
+      </c>
+      <c r="W3" s="8" t="n">
+        <v>0.152783093886708</v>
+      </c>
+      <c r="X3" s="8" t="n">
+        <v>0.131349927065318</v>
+      </c>
+      <c r="Y3" s="8" t="n">
+        <v>0.135448861496523</v>
+      </c>
+      <c r="Z3" s="8" t="n">
+        <v>0.122924930220262</v>
+      </c>
+      <c r="AA3" s="8" t="n">
+        <v>0.131618030068024</v>
+      </c>
+      <c r="AB3" s="8" t="n">
+        <v>0.162660204616974</v>
+      </c>
+      <c r="AC3" s="8" t="n">
+        <v>0.219516154082481</v>
+      </c>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>L4</f>
+      </c>
+      <c r="B4" s="8" t="str">
+        <f>Z4</f>
+      </c>
+      <c r="C4" s="8" t="str">
+        <f>AB4</f>
+      </c>
+      <c r="D4" s="8" t="str">
+        <f>AC4</f>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="1" t="str">
+        <f>AC4/AB4-1</f>
+      </c>
+      <c r="G4" s="1" t="str">
+        <f>AC4/Z4-1</f>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="str">
+        <f>AC4/Sum(AC$1:AC$12)</f>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="L4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="8" t="n">
+        <v>0.0399065519335946</v>
+      </c>
+      <c r="N4" s="8" t="n">
+        <v>0.0349239892227475</v>
+      </c>
+      <c r="O4" s="8" t="n">
+        <v>0.0332828671269281</v>
+      </c>
+      <c r="P4" s="8" t="n">
+        <v>0.101924537320251</v>
+      </c>
+      <c r="Q4" s="8" t="n">
+        <v>0.112138809087663</v>
+      </c>
+      <c r="R4" s="8" t="n">
+        <v>0.104471915953543</v>
+      </c>
+      <c r="S4" s="8" t="n">
+        <v>0.138669907147049</v>
+      </c>
+      <c r="T4" s="8" t="n">
+        <v>0.111844037187714</v>
+      </c>
+      <c r="U4" s="8" t="n">
+        <v>0.104001074459854</v>
+      </c>
+      <c r="V4" s="8" t="n">
+        <v>0.0890534982326678</v>
+      </c>
+      <c r="W4" s="8" t="n">
+        <v>0.0978516944805094</v>
+      </c>
+      <c r="X4" s="8" t="n">
+        <v>0.0756536879733556</v>
+      </c>
+      <c r="Y4" s="8" t="n">
+        <v>0.0676750050349321</v>
+      </c>
+      <c r="Z4" s="8" t="n">
+        <v>0.0589942614727324</v>
+      </c>
+      <c r="AA4" s="8" t="n">
+        <v>0.0510745336698672</v>
+      </c>
+      <c r="AB4" s="8" t="n">
+        <v>0.0889426951892148</v>
+      </c>
+      <c r="AC4" s="8" t="n">
+        <v>0.10766197849154</v>
+      </c>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <f>L5</f>
+      </c>
+      <c r="B5" s="8" t="str">
+        <f>Z5</f>
+      </c>
+      <c r="C5" s="8" t="str">
+        <f>AB5</f>
+      </c>
+      <c r="D5" s="8" t="str">
+        <f>AC5</f>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="1" t="str">
+        <f>AC5/AB5-1</f>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f>AC5/Z5-1</f>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="str">
+        <f>AC5/Sum(AC$1:AC$12)</f>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="L5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" s="8" t="n">
+        <v>0.33396065583259</v>
+      </c>
+      <c r="N5" s="8" t="n">
+        <v>0.289322792199683</v>
+      </c>
+      <c r="O5" s="8" t="n">
+        <v>0.492286810985501</v>
+      </c>
+      <c r="P5" s="8" t="n">
+        <v>0.282041534405785</v>
+      </c>
+      <c r="Q5" s="8" t="n">
+        <v>0.193561092182149</v>
+      </c>
+      <c r="R5" s="8" t="n">
+        <v>0.26957740648921</v>
+      </c>
+      <c r="S5" s="8" t="n">
+        <v>0.307263510601385</v>
+      </c>
+      <c r="T5" s="8" t="n">
+        <v>0.261660523128174</v>
+      </c>
+      <c r="U5" s="8" t="n">
+        <v>0.341739084337689</v>
+      </c>
+      <c r="V5" s="8" t="n">
+        <v>0.419066433373503</v>
+      </c>
+      <c r="W5" s="8" t="n">
+        <v>0.37223343280539</v>
+      </c>
+      <c r="X5" s="8" t="n">
+        <v>0.300699845726176</v>
+      </c>
+      <c r="Y5" s="8" t="n">
+        <v>0.444590400016084</v>
+      </c>
+      <c r="Z5" s="8" t="n">
+        <v>0.499890879405105</v>
+      </c>
+      <c r="AA5" s="8" t="n">
+        <v>0.493589938339823</v>
+      </c>
+      <c r="AB5" s="8" t="n">
+        <v>0.531029585020027</v>
+      </c>
+      <c r="AC5" s="8" t="n">
+        <v>0.558596965483444</v>
+      </c>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <f>L6</f>
+      </c>
+      <c r="B6" s="8" t="str">
+        <f>Z6</f>
+      </c>
+      <c r="C6" s="8" t="str">
+        <f>AB6</f>
+      </c>
+      <c r="D6" s="8" t="str">
+        <f>AC6</f>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="1" t="str">
+        <f>AC6/AB6-1</f>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f>AC6/Z6-1</f>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="str">
+        <f>AC6/Sum(AC$1:AC$12)</f>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="L6" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" s="8" t="n">
+        <v>0.110107958521111</v>
+      </c>
+      <c r="N6" s="8" t="n">
+        <v>0.264702553609805</v>
+      </c>
+      <c r="O6" s="8" t="n">
+        <v>0.102205319591314</v>
+      </c>
+      <c r="P6" s="8" t="n">
+        <v>0.172516115321921</v>
+      </c>
+      <c r="Q6" s="8" t="n">
+        <v>0.254636174055446</v>
+      </c>
+      <c r="R6" s="8" t="n">
+        <v>0.275618404589798</v>
+      </c>
+      <c r="S6" s="8" t="n">
+        <v>0.466006956980925</v>
+      </c>
+      <c r="T6" s="8" t="n">
+        <v>0.264306819656837</v>
+      </c>
+      <c r="U6" s="8" t="n">
+        <v>0.223838659535156</v>
+      </c>
+      <c r="V6" s="8" t="n">
+        <v>0.360640198457287</v>
+      </c>
+      <c r="W6" s="8" t="n">
+        <v>0.223864437180345</v>
+      </c>
+      <c r="X6" s="8" t="n">
+        <v>0.275008018389797</v>
+      </c>
+      <c r="Y6" s="8" t="n">
+        <v>0.273672329140252</v>
+      </c>
+      <c r="Z6" s="8" t="n">
+        <v>0.378922709284296</v>
+      </c>
+      <c r="AA6" s="8" t="n">
+        <v>0.203543316067311</v>
+      </c>
+      <c r="AB6" s="8" t="n">
+        <v>0.406621724742776</v>
+      </c>
+      <c r="AC6" s="8" t="n">
+        <v>0.559949488365749</v>
+      </c>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>L7</f>
+      </c>
+      <c r="B7" s="8" t="str">
+        <f>Z7</f>
+      </c>
+      <c r="C7" s="8" t="str">
+        <f>AB7</f>
+      </c>
+      <c r="D7" s="8" t="str">
+        <f>AC7</f>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="1" t="str">
+        <f>AC7/AB7-1</f>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f>AC7/Z7-1</f>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="str">
+        <f>AC7/Sum(AC$1:AC$12)</f>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="L7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="8" t="n">
+        <v>0.36982948663391</v>
+      </c>
+      <c r="N7" s="8" t="n">
+        <v>0.315799601036747</v>
+      </c>
+      <c r="O7" s="8" t="n">
+        <v>0.375859307844742</v>
+      </c>
+      <c r="P7" s="8" t="n">
+        <v>0.484084624551091</v>
+      </c>
+      <c r="Q7" s="8" t="n">
+        <v>0.494307156990606</v>
+      </c>
+      <c r="R7" s="8" t="n">
+        <v>0.497556374849151</v>
+      </c>
+      <c r="S7" s="8" t="n">
+        <v>0.579807027180234</v>
+      </c>
+      <c r="T7" s="8" t="n">
+        <v>0.497583564752028</v>
+      </c>
+      <c r="U7" s="8" t="n">
+        <v>0.507378619610953</v>
+      </c>
+      <c r="V7" s="8" t="n">
+        <v>0.496741829305074</v>
+      </c>
+      <c r="W7" s="8" t="n">
+        <v>0.409492926894393</v>
+      </c>
+      <c r="X7" s="8" t="n">
+        <v>0.379850865193058</v>
+      </c>
+      <c r="Y7" s="8" t="n">
+        <v>0.362639727981481</v>
+      </c>
+      <c r="Z7" s="8" t="n">
+        <v>0.384633004030513</v>
+      </c>
+      <c r="AA7" s="8" t="n">
+        <v>0.436792271009618</v>
+      </c>
+      <c r="AB7" s="8" t="n">
+        <v>0.435977305320979</v>
+      </c>
+      <c r="AC7" s="8" t="n">
+        <v>0.481688649754757</v>
+      </c>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <f>L8</f>
+      </c>
+      <c r="B8" s="8" t="str">
+        <f>Z8</f>
+      </c>
+      <c r="C8" s="8" t="str">
+        <f>AB8</f>
+      </c>
+      <c r="D8" s="8" t="str">
+        <f>AC8</f>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="1" t="str">
+        <f>AC8/AB8-1</f>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f>AC8/Z8-1</f>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="str">
+        <f>AC8/Sum(AC$1:AC$12)</f>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="L8" t="s">
+        <v>66</v>
+      </c>
+      <c r="M8" s="8" t="n">
+        <v>0.0022850717757856</v>
+      </c>
+      <c r="N8" s="8" t="n">
+        <v>0.00108632229171277</v>
+      </c>
+      <c r="O8" s="8" t="n">
+        <v>0.00230888123967373</v>
+      </c>
+      <c r="P8" s="8" t="n">
+        <v>0.0228127425734465</v>
+      </c>
+      <c r="Q8" s="8" t="n">
+        <v>0.0198091727665899</v>
+      </c>
+      <c r="R8" s="8" t="n">
+        <v>0.0188547914671237</v>
+      </c>
+      <c r="S8" s="8" t="n">
+        <v>0.0142783631094803</v>
+      </c>
+      <c r="T8" s="8" t="n">
+        <v>0.0202786785777521</v>
+      </c>
+      <c r="U8" s="8" t="n">
+        <v>0.00945342029151065</v>
+      </c>
+      <c r="V8" s="8" t="n">
+        <v>0.0237474658518628</v>
+      </c>
+      <c r="W8" s="8" t="n">
+        <v>0.0185233583891589</v>
+      </c>
+      <c r="X8" s="8" t="n">
+        <v>0.0164872361540036</v>
+      </c>
+      <c r="Y8" s="8" t="n">
+        <v>0.0185881644682902</v>
+      </c>
+      <c r="Z8" s="8" t="n">
+        <v>0.0135273915128051</v>
+      </c>
+      <c r="AA8" s="8" t="n">
+        <v>0.0105330547578826</v>
+      </c>
+      <c r="AB8" s="8" t="n">
+        <v>0.187555576347191</v>
+      </c>
+      <c r="AC8" s="8" t="n">
+        <v>0.117939875447412</v>
+      </c>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <f>L9</f>
+      </c>
+      <c r="B9" s="8" t="str">
+        <f>Z9</f>
+      </c>
+      <c r="C9" s="8" t="str">
+        <f>AB9</f>
+      </c>
+      <c r="D9" s="8" t="str">
+        <f>AC9</f>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="1" t="str">
+        <f>AC9/AB9-1</f>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f>AC9/Z9-1</f>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="str">
+        <f>AC9/Sum(AC$1:AC$12)</f>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="L9" t="s">
+        <v>67</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.103005784166556</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.0775730137838047</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.0948010467321878</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>0.177398886739666</v>
+      </c>
+      <c r="Q9" s="8" t="n">
+        <v>0.19497003477962</v>
+      </c>
+      <c r="R9" s="8" t="n">
+        <v>0.156407876688706</v>
+      </c>
+      <c r="S9" s="8" t="n">
+        <v>0.176364728926875</v>
+      </c>
+      <c r="T9" s="8" t="n">
+        <v>0.186773641699257</v>
+      </c>
+      <c r="U9" s="8" t="n">
+        <v>0.168048726741522</v>
+      </c>
+      <c r="V9" s="8" t="n">
+        <v>0.170764485973756</v>
+      </c>
+      <c r="W9" s="8" t="n">
+        <v>0.163778696084739</v>
+      </c>
+      <c r="X9" s="8" t="n">
+        <v>0.144815154129949</v>
+      </c>
+      <c r="Y9" s="8" t="n">
+        <v>0.122453926276428</v>
+      </c>
+      <c r="Z9" s="8" t="n">
+        <v>0.13002478460158</v>
+      </c>
+      <c r="AA9" s="8" t="n">
+        <v>0.119821341554273</v>
+      </c>
+      <c r="AB9" s="8" t="n">
+        <v>0.207440149460135</v>
+      </c>
+      <c r="AC9" s="8" t="n">
+        <v>0.267041876500151</v>
+      </c>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>L10</f>
+      </c>
+      <c r="B10" s="8" t="str">
+        <f>Z10</f>
+      </c>
+      <c r="C10" s="8" t="str">
+        <f>AB10</f>
+      </c>
+      <c r="D10" s="8" t="str">
+        <f>AC10</f>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="1" t="str">
+        <f>AC10/AB10-1</f>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f>AC10/Z10-1</f>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="str">
+        <f>AC10/Sum(AC$1:AC$12)</f>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="L10" t="s">
+        <v>68</v>
+      </c>
+      <c r="M10" s="8" t="n">
+        <v>0.207410351036034</v>
+      </c>
+      <c r="N10" s="8" t="n">
+        <v>0.230895988152193</v>
+      </c>
+      <c r="O10" s="8" t="n">
+        <v>0.187467185791569</v>
+      </c>
+      <c r="P10" s="8" t="n">
+        <v>0.281105190051436</v>
+      </c>
+      <c r="Q10" s="8" t="n">
+        <v>0.261503267372091</v>
+      </c>
+      <c r="R10" s="8" t="n">
+        <v>0.185062580232834</v>
+      </c>
+      <c r="S10" s="8" t="n">
+        <v>0.220955496386615</v>
+      </c>
+      <c r="T10" s="8" t="n">
+        <v>0.137177900024728</v>
+      </c>
+      <c r="U10" s="8" t="n">
+        <v>0.137335451824087</v>
+      </c>
+      <c r="V10" s="8" t="n">
+        <v>0.128404842190656</v>
+      </c>
+      <c r="W10" s="8" t="n">
+        <v>0.142996760323129</v>
+      </c>
+      <c r="X10" s="8" t="n">
+        <v>0.165146182783303</v>
+      </c>
+      <c r="Y10" s="8" t="n">
+        <v>0.14631149574404</v>
+      </c>
+      <c r="Z10" s="8" t="n">
+        <v>0.136645436605663</v>
+      </c>
+      <c r="AA10" s="8" t="n">
+        <v>0.106489035351921</v>
+      </c>
+      <c r="AB10" s="8" t="n">
+        <v>0.255670555447205</v>
+      </c>
+      <c r="AC10" s="8" t="n">
+        <v>0.404932848515492</v>
+      </c>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <f>L11</f>
+      </c>
+      <c r="B11" s="8" t="str">
+        <f>Z11</f>
+      </c>
+      <c r="C11" s="8" t="str">
+        <f>AB11</f>
+      </c>
+      <c r="D11" s="8" t="str">
+        <f>AC11</f>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="1" t="str">
+        <f>AC11/AB11-1</f>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f>AC11/Z11-1</f>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1" t="str">
+        <f>AC11/Sum(AC$1:AC$12)</f>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="L11" t="s">
+        <v>69</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.147230862082578</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.164247697885029</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.0687582660042001</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>0.276585543725816</v>
+      </c>
+      <c r="Q11" s="8" t="n">
+        <v>0.498580370566719</v>
+      </c>
+      <c r="R11" s="8" t="n">
+        <v>0.238312587725294</v>
+      </c>
+      <c r="S11" s="8" t="n">
+        <v>0.231917589792602</v>
+      </c>
+      <c r="T11" s="8" t="n">
+        <v>0.23009150386136</v>
+      </c>
+      <c r="U11" s="8" t="n">
+        <v>0.0776645268798059</v>
+      </c>
+      <c r="V11" s="8" t="n">
+        <v>0.254682284323318</v>
+      </c>
+      <c r="W11" s="8" t="n">
+        <v>0.173359454845812</v>
+      </c>
+      <c r="X11" s="8" t="n">
+        <v>0.160672133335423</v>
+      </c>
+      <c r="Y11" s="8" t="n">
+        <v>0.194400586393175</v>
+      </c>
+      <c r="Z11" s="8" t="n">
+        <v>0.267876719791767</v>
+      </c>
+      <c r="AA11" s="8" t="n">
+        <v>0.136703370997787</v>
+      </c>
+      <c r="AB11" s="8" t="n">
+        <v>0.261929325123185</v>
+      </c>
+      <c r="AC11" s="8" t="n">
+        <v>0.198077607805238</v>
+      </c>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <f>L12</f>
+      </c>
+      <c r="B12" s="8" t="str">
+        <f>Z12</f>
+      </c>
+      <c r="C12" s="8" t="str">
+        <f>AB12</f>
+      </c>
+      <c r="D12" s="8" t="str">
+        <f>AC12</f>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="1" t="str">
+        <f>AC12/AB12-1</f>
+      </c>
+      <c r="G12" s="1" t="str">
+        <f>AC12/Z12-1</f>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1" t="str">
+        <f>AC12/Sum(AC$1:AC$12)</f>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="L12" t="s">
+        <v>70</v>
+      </c>
+      <c r="M12" s="8" t="n">
+        <v>0.116063597111035</v>
+      </c>
+      <c r="N12" s="8" t="n">
+        <v>0.0291044615095279</v>
+      </c>
+      <c r="O12" s="8" t="n">
+        <v>0.105561303999703</v>
+      </c>
+      <c r="P12" s="8" t="n">
+        <v>0.217222189728114</v>
+      </c>
+      <c r="Q12" s="8" t="n">
+        <v>0.381161399502093</v>
+      </c>
+      <c r="R12" s="8" t="n">
+        <v>0.247741014872634</v>
+      </c>
+      <c r="S12" s="8" t="n">
+        <v>0.420179312752575</v>
+      </c>
+      <c r="T12" s="8" t="n">
+        <v>0.19024973320102</v>
+      </c>
+      <c r="U12" s="8" t="n">
+        <v>0.171287275408426</v>
+      </c>
+      <c r="V12" s="8" t="n">
+        <v>0.254717111026661</v>
+      </c>
+      <c r="W12" s="8" t="n">
+        <v>0.142308020978406</v>
+      </c>
+      <c r="X12" s="8" t="n">
+        <v>0.156114273316409</v>
+      </c>
+      <c r="Y12" s="8" t="n">
+        <v>0.198457721306595</v>
+      </c>
+      <c r="Z12" s="8" t="n">
+        <v>0.0803098057622689</v>
+      </c>
+      <c r="AA12" s="8" t="n">
+        <v>0.05042416029229</v>
+      </c>
+      <c r="AB12" s="8" t="n">
+        <v>0.260561605637114</v>
+      </c>
+      <c r="AC12" s="8" t="n">
+        <v>0.309624623115239</v>
+      </c>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <f>L13</f>
+      </c>
+      <c r="B13" s="8" t="str">
+        <f>Z13</f>
+      </c>
+      <c r="C13" s="8" t="str">
+        <f>AB13</f>
+      </c>
+      <c r="D13" s="8" t="str">
+        <f>AC13</f>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="1" t="str">
+        <f>AC13/AB13-1</f>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f>AC13/Z13-1</f>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="str">
+        <f>Sum(I$1:I$12)</f>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="L13" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13" s="8" t="str">
+        <f>Sum(M2:M12)</f>
+      </c>
+      <c r="N13" s="8" t="str">
+        <f>Sum(N2:N12)</f>
+      </c>
+      <c r="O13" s="8" t="str">
+        <f>Sum(O2:O12)</f>
+      </c>
+      <c r="P13" s="8" t="str">
+        <f>Sum(P2:P12)</f>
+      </c>
+      <c r="Q13" s="8" t="str">
+        <f>Sum(Q2:Q12)</f>
+      </c>
+      <c r="R13" s="8" t="str">
+        <f>Sum(R2:R12)</f>
+      </c>
+      <c r="S13" s="8" t="str">
+        <f>Sum(S2:S12)</f>
+      </c>
+      <c r="T13" s="8" t="str">
+        <f>Sum(T2:T12)</f>
+      </c>
+      <c r="U13" s="8" t="str">
+        <f>Sum(U2:U12)</f>
+      </c>
+      <c r="V13" s="8" t="str">
+        <f>Sum(V2:V12)</f>
+      </c>
+      <c r="W13" s="8" t="str">
+        <f>Sum(W2:W12)</f>
+      </c>
+      <c r="X13" s="8" t="str">
+        <f>Sum(X2:X12)</f>
+      </c>
+      <c r="Y13" s="8" t="str">
+        <f>Sum(Y2:Y12)</f>
+      </c>
+      <c r="Z13" s="8" t="str">
+        <f>Sum(Z2:Z12)</f>
+      </c>
+      <c r="AA13" s="8" t="str">
+        <f>Sum(AA2:AA12)</f>
+      </c>
+      <c r="AB13" s="8" t="str">
+        <f>Sum(AB2:AB12)</f>
+      </c>
+      <c r="AC13" s="8" t="str">
+        <f>Sum(AC2:AC12)</f>
+      </c>
+      <c r="AD13" s="8" t="str">
+        <f>Sum(AD2:AD12)</f>
+      </c>
+      <c r="AE13" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>L1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>AQ1</f>
+      </c>
+      <c r="C1" t="str">
+        <f>AS1</f>
+      </c>
+      <c r="D1" t="str">
+        <f>AT1</f>
+      </c>
+      <c r="F1" t="str">
+        <f>AS1&amp;"-"&amp;AT1</f>
+      </c>
+      <c r="G1" t="str">
+        <f>AQ1&amp;"-"&amp;AT1</f>
+      </c>
+      <c r="I1" t="str">
+        <f>"Share "&amp;AT1</f>
+      </c>
+      <c r="L1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>L2</f>
+      </c>
+      <c r="B2" s="9" t="str">
+        <f>AQ2</f>
+      </c>
+      <c r="C2" s="9" t="str">
+        <f>AS2</f>
+      </c>
+      <c r="D2" s="9" t="str">
+        <f>AT2</f>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="1" t="str">
+        <f>AT2/AS2-1</f>
+      </c>
+      <c r="G2" s="1" t="str">
+        <f>AT2/AQ2-1</f>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="str">
+        <f>AT2/Sum(AT$1:AT$13)</f>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="L2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU2" s="9"/>
+      <c r="AV2" s="9"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>L3</f>
+      </c>
+      <c r="B3" s="9" t="str">
+        <f>AQ3</f>
+      </c>
+      <c r="C3" s="9" t="str">
+        <f>AS3</f>
+      </c>
+      <c r="D3" s="9" t="str">
+        <f>AT3</f>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="1" t="str">
+        <f>AT3/AS3-1</f>
+      </c>
+      <c r="G3" s="1" t="str">
+        <f>AT3/AQ3-1</f>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="str">
+        <f>AT3/Sum(AT$1:AT$13)</f>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="9"/>
+      <c r="AV3" s="9"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>L4</f>
+      </c>
+      <c r="B4" s="9" t="str">
+        <f>AQ4</f>
+      </c>
+      <c r="C4" s="9" t="str">
+        <f>AS4</f>
+      </c>
+      <c r="D4" s="9" t="str">
+        <f>AT4</f>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="1" t="str">
+        <f>AT4/AS4-1</f>
+      </c>
+      <c r="G4" s="1" t="str">
+        <f>AT4/AQ4-1</f>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="str">
+        <f>AT4/Sum(AT$1:AT$13)</f>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="L4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU4" s="9"/>
+      <c r="AV4" s="9"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <f>L5</f>
+      </c>
+      <c r="B5" s="9" t="str">
+        <f>AQ5</f>
+      </c>
+      <c r="C5" s="9" t="str">
+        <f>AS5</f>
+      </c>
+      <c r="D5" s="9" t="str">
+        <f>AT5</f>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="1" t="str">
+        <f>AT5/AS5-1</f>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f>AT5/AQ5-1</f>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="str">
+        <f>AT5/Sum(AT$1:AT$13)</f>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="L5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU5" s="9"/>
+      <c r="AV5" s="9"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <f>L6</f>
+      </c>
+      <c r="B6" s="9" t="str">
+        <f>AQ6</f>
+      </c>
+      <c r="C6" s="9" t="str">
+        <f>AS6</f>
+      </c>
+      <c r="D6" s="9" t="str">
+        <f>AT6</f>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="1" t="str">
+        <f>AT6/AS6-1</f>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f>AT6/AQ6-1</f>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="str">
+        <f>AT6/Sum(AT$1:AT$13)</f>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="L6" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="9"/>
+      <c r="AV6" s="9"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>L7</f>
+      </c>
+      <c r="B7" s="9" t="str">
+        <f>AQ7</f>
+      </c>
+      <c r="C7" s="9" t="str">
+        <f>AS7</f>
+      </c>
+      <c r="D7" s="9" t="str">
+        <f>AT7</f>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="1" t="str">
+        <f>AT7/AS7-1</f>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f>AT7/AQ7-1</f>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="str">
+        <f>AT7/Sum(AT$1:AT$13)</f>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="L7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT7" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="9"/>
+      <c r="AV7" s="9"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <f>L8</f>
+      </c>
+      <c r="B8" s="9" t="str">
+        <f>AQ8</f>
+      </c>
+      <c r="C8" s="9" t="str">
+        <f>AS8</f>
+      </c>
+      <c r="D8" s="9" t="str">
+        <f>AT8</f>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="1" t="str">
+        <f>AT8/AS8-1</f>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f>AT8/AQ8-1</f>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="str">
+        <f>AT8/Sum(AT$1:AT$13)</f>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="L8" t="s">
+        <v>66</v>
+      </c>
+      <c r="M8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="U8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="W8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU8" s="9"/>
+      <c r="AV8" s="9"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <f>L9</f>
+      </c>
+      <c r="B9" s="9" t="str">
+        <f>AQ9</f>
+      </c>
+      <c r="C9" s="9" t="str">
+        <f>AS9</f>
+      </c>
+      <c r="D9" s="9" t="str">
+        <f>AT9</f>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="1" t="str">
+        <f>AT9/AS9-1</f>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f>AT9/AQ9-1</f>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="str">
+        <f>AT9/Sum(AT$1:AT$13)</f>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="L9" t="s">
+        <v>67</v>
+      </c>
+      <c r="M9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="U9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="W9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU9" s="9"/>
+      <c r="AV9" s="9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>L10</f>
+      </c>
+      <c r="B10" s="9" t="str">
+        <f>AQ10</f>
+      </c>
+      <c r="C10" s="9" t="str">
+        <f>AS10</f>
+      </c>
+      <c r="D10" s="9" t="str">
+        <f>AT10</f>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="1" t="str">
+        <f>AT10/AS10-1</f>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f>AT10/AQ10-1</f>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="str">
+        <f>AT10/Sum(AT$1:AT$13)</f>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="L10" t="s">
+        <v>68</v>
+      </c>
+      <c r="M10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="U10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="W10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU10" s="9"/>
+      <c r="AV10" s="9"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <f>L11</f>
+      </c>
+      <c r="B11" s="9" t="str">
+        <f>AQ11</f>
+      </c>
+      <c r="C11" s="9" t="str">
+        <f>AS11</f>
+      </c>
+      <c r="D11" s="9" t="str">
+        <f>AT11</f>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="1" t="str">
+        <f>AT11/AS11-1</f>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f>AT11/AQ11-1</f>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1" t="str">
+        <f>AT11/Sum(AT$1:AT$13)</f>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="L11" t="s">
+        <v>69</v>
+      </c>
+      <c r="M11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="W11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT11" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU11" s="9"/>
+      <c r="AV11" s="9"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <f>L12</f>
+      </c>
+      <c r="B12" s="9" t="str">
+        <f>AQ12</f>
+      </c>
+      <c r="C12" s="9" t="str">
+        <f>AS12</f>
+      </c>
+      <c r="D12" s="9" t="str">
+        <f>AT12</f>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="1" t="str">
+        <f>AT12/AS12-1</f>
+      </c>
+      <c r="G12" s="1" t="str">
+        <f>AT12/AQ12-1</f>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1" t="str">
+        <f>AT12/Sum(AT$1:AT$13)</f>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="L12" t="s">
+        <v>70</v>
+      </c>
+      <c r="M12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="U12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="W12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT12" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU12" s="9"/>
+      <c r="AV12" s="9"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <f>L13</f>
+      </c>
+      <c r="B13" s="9" t="str">
+        <f>AQ13</f>
+      </c>
+      <c r="C13" s="9" t="str">
+        <f>AS13</f>
+      </c>
+      <c r="D13" s="9" t="str">
+        <f>AT13</f>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="1" t="str">
+        <f>AT13/AS13-1</f>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f>AT13/AQ13-1</f>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="str">
+        <f>AT13/Sum(AT$1:AT$13)</f>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="L13" t="s">
+        <v>58</v>
+      </c>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK13" s="9"/>
+      <c r="AL13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU13" s="9"/>
+      <c r="AV13" s="9"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <f>L14</f>
+      </c>
+      <c r="B14" s="9" t="str">
+        <f>AQ14</f>
+      </c>
+      <c r="C14" s="9" t="str">
+        <f>AS14</f>
+      </c>
+      <c r="D14" s="9" t="str">
+        <f>AT14</f>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="1" t="str">
+        <f>AT14/AS14-1</f>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f>AT14/AQ14-1</f>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1" t="str">
+        <f>Sum(I$1:I$13)</f>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="L14" t="s">
+        <v>46</v>
+      </c>
+      <c r="M14" s="9" t="str">
+        <f>Sum(M2:M13)</f>
+      </c>
+      <c r="N14" s="9" t="str">
+        <f>Sum(N2:N13)</f>
+      </c>
+      <c r="O14" s="9" t="str">
+        <f>Sum(O2:O13)</f>
+      </c>
+      <c r="P14" s="9" t="str">
+        <f>Sum(P2:P13)</f>
+      </c>
+      <c r="Q14" s="9" t="str">
+        <f>Sum(Q2:Q13)</f>
+      </c>
+      <c r="R14" s="9" t="str">
+        <f>Sum(R2:R13)</f>
+      </c>
+      <c r="S14" s="9" t="str">
+        <f>Sum(S2:S13)</f>
+      </c>
+      <c r="T14" s="9" t="str">
+        <f>Sum(T2:T13)</f>
+      </c>
+      <c r="U14" s="9" t="str">
+        <f>Sum(U2:U13)</f>
+      </c>
+      <c r="V14" s="9" t="str">
+        <f>Sum(V2:V13)</f>
+      </c>
+      <c r="W14" s="9" t="str">
+        <f>Sum(W2:W13)</f>
+      </c>
+      <c r="X14" s="9" t="str">
+        <f>Sum(X2:X13)</f>
+      </c>
+      <c r="Y14" s="9" t="str">
+        <f>Sum(Y2:Y13)</f>
+      </c>
+      <c r="Z14" s="9" t="str">
+        <f>Sum(Z2:Z13)</f>
+      </c>
+      <c r="AA14" s="9" t="str">
+        <f>Sum(AA2:AA13)</f>
+      </c>
+      <c r="AB14" s="9" t="str">
+        <f>Sum(AB2:AB13)</f>
+      </c>
+      <c r="AC14" s="9" t="str">
+        <f>Sum(AC2:AC13)</f>
+      </c>
+      <c r="AD14" s="9" t="str">
+        <f>Sum(AD2:AD13)</f>
+      </c>
+      <c r="AE14" s="9" t="str">
+        <f>Sum(AE2:AE13)</f>
+      </c>
+      <c r="AF14" s="9" t="str">
+        <f>Sum(AF2:AF13)</f>
+      </c>
+      <c r="AG14" s="9" t="str">
+        <f>Sum(AG2:AG13)</f>
+      </c>
+      <c r="AH14" s="9" t="str">
+        <f>Sum(AH2:AH13)</f>
+      </c>
+      <c r="AI14" s="9" t="str">
+        <f>Sum(AI2:AI13)</f>
+      </c>
+      <c r="AJ14" s="9" t="str">
+        <f>Sum(AJ2:AJ13)</f>
+      </c>
+      <c r="AK14" s="9" t="str">
+        <f>Sum(AK2:AK13)</f>
+      </c>
+      <c r="AL14" s="9" t="str">
+        <f>Sum(AL2:AL13)</f>
+      </c>
+      <c r="AM14" s="9" t="str">
+        <f>Sum(AM2:AM13)</f>
+      </c>
+      <c r="AN14" s="9" t="str">
+        <f>Sum(AN2:AN13)</f>
+      </c>
+      <c r="AO14" s="9" t="str">
+        <f>Sum(AO2:AO13)</f>
+      </c>
+      <c r="AP14" s="9" t="str">
+        <f>Sum(AP2:AP13)</f>
+      </c>
+      <c r="AQ14" s="9" t="str">
+        <f>Sum(AQ2:AQ13)</f>
+      </c>
+      <c r="AR14" s="9" t="str">
+        <f>Sum(AR2:AR13)</f>
+      </c>
+      <c r="AS14" s="9" t="str">
+        <f>Sum(AS2:AS13)</f>
+      </c>
+      <c r="AT14" s="9" t="str">
+        <f>Sum(AT2:AT13)</f>
+      </c>
+      <c r="AU14" s="9" t="str">
+        <f>Sum(AU2:AU13)</f>
+      </c>
+      <c r="AV14" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>L1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>AQ1</f>
+      </c>
+      <c r="C1" t="str">
+        <f>AS1</f>
+      </c>
+      <c r="D1" t="str">
+        <f>AT1</f>
+      </c>
+      <c r="F1" t="str">
+        <f>AS1&amp;"-"&amp;AT1</f>
+      </c>
+      <c r="G1" t="str">
+        <f>AQ1&amp;"-"&amp;AT1</f>
+      </c>
+      <c r="I1" t="str">
+        <f>"Share "&amp;AT1</f>
+      </c>
+      <c r="L1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>L2</f>
+      </c>
+      <c r="B2" s="11" t="str">
+        <f>AQ2</f>
+      </c>
+      <c r="C2" s="11" t="str">
+        <f>AS2</f>
+      </c>
+      <c r="D2" s="11" t="str">
+        <f>AT2</f>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="1" t="str">
+        <f>AT2/AS2-1</f>
+      </c>
+      <c r="G2" s="1" t="str">
+        <f>AT2/AQ2-1</f>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="str">
+        <f>AT2/Sum(AT$1:AT$13)</f>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="L2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU2" s="11"/>
+      <c r="AV2" s="11"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>L3</f>
+      </c>
+      <c r="B3" s="11" t="str">
+        <f>AQ3</f>
+      </c>
+      <c r="C3" s="11" t="str">
+        <f>AS3</f>
+      </c>
+      <c r="D3" s="11" t="str">
+        <f>AT3</f>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="1" t="str">
+        <f>AT3/AS3-1</f>
+      </c>
+      <c r="G3" s="1" t="str">
+        <f>AT3/AQ3-1</f>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="str">
+        <f>AT3/Sum(AT$1:AT$13)</f>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="X3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="11"/>
+      <c r="AV3" s="11"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>L4</f>
+      </c>
+      <c r="B4" s="11" t="str">
+        <f>AQ4</f>
+      </c>
+      <c r="C4" s="11" t="str">
+        <f>AS4</f>
+      </c>
+      <c r="D4" s="11" t="str">
+        <f>AT4</f>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="1" t="str">
+        <f>AT4/AS4-1</f>
+      </c>
+      <c r="G4" s="1" t="str">
+        <f>AT4/AQ4-1</f>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="str">
+        <f>AT4/Sum(AT$1:AT$13)</f>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="L4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU4" s="11"/>
+      <c r="AV4" s="11"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <f>L5</f>
+      </c>
+      <c r="B5" s="11" t="str">
+        <f>AQ5</f>
+      </c>
+      <c r="C5" s="11" t="str">
+        <f>AS5</f>
+      </c>
+      <c r="D5" s="11" t="str">
+        <f>AT5</f>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="1" t="str">
+        <f>AT5/AS5-1</f>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f>AT5/AQ5-1</f>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="str">
+        <f>AT5/Sum(AT$1:AT$13)</f>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="L5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="X5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU5" s="11"/>
+      <c r="AV5" s="11"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <f>L6</f>
+      </c>
+      <c r="B6" s="11" t="str">
+        <f>AQ6</f>
+      </c>
+      <c r="C6" s="11" t="str">
+        <f>AS6</f>
+      </c>
+      <c r="D6" s="11" t="str">
+        <f>AT6</f>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="1" t="str">
+        <f>AT6/AS6-1</f>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f>AT6/AQ6-1</f>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="str">
+        <f>AT6/Sum(AT$1:AT$13)</f>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="L6" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="11"/>
+      <c r="AV6" s="11"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>L7</f>
+      </c>
+      <c r="B7" s="11" t="str">
+        <f>AQ7</f>
+      </c>
+      <c r="C7" s="11" t="str">
+        <f>AS7</f>
+      </c>
+      <c r="D7" s="11" t="str">
+        <f>AT7</f>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="1" t="str">
+        <f>AT7/AS7-1</f>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f>AT7/AQ7-1</f>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="str">
+        <f>AT7/Sum(AT$1:AT$13)</f>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="L7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="11"/>
+      <c r="AV7" s="11"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <f>L8</f>
+      </c>
+      <c r="B8" s="11" t="str">
+        <f>AQ8</f>
+      </c>
+      <c r="C8" s="11" t="str">
+        <f>AS8</f>
+      </c>
+      <c r="D8" s="11" t="str">
+        <f>AT8</f>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="1" t="str">
+        <f>AT8/AS8-1</f>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f>AT8/AQ8-1</f>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="str">
+        <f>AT8/Sum(AT$1:AT$13)</f>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="L8" t="s">
+        <v>66</v>
+      </c>
+      <c r="M8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="U8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="W8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="X8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU8" s="11"/>
+      <c r="AV8" s="11"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <f>L9</f>
+      </c>
+      <c r="B9" s="11" t="str">
+        <f>AQ9</f>
+      </c>
+      <c r="C9" s="11" t="str">
+        <f>AS9</f>
+      </c>
+      <c r="D9" s="11" t="str">
+        <f>AT9</f>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="1" t="str">
+        <f>AT9/AS9-1</f>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f>AT9/AQ9-1</f>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="str">
+        <f>AT9/Sum(AT$1:AT$13)</f>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="L9" t="s">
+        <v>67</v>
+      </c>
+      <c r="M9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="U9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="W9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="X9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU9" s="11"/>
+      <c r="AV9" s="11"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>L10</f>
+      </c>
+      <c r="B10" s="11" t="str">
+        <f>AQ10</f>
+      </c>
+      <c r="C10" s="11" t="str">
+        <f>AS10</f>
+      </c>
+      <c r="D10" s="11" t="str">
+        <f>AT10</f>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="1" t="str">
+        <f>AT10/AS10-1</f>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f>AT10/AQ10-1</f>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="str">
+        <f>AT10/Sum(AT$1:AT$13)</f>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="L10" t="s">
+        <v>68</v>
+      </c>
+      <c r="M10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="U10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="W10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="X10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU10" s="11"/>
+      <c r="AV10" s="11"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <f>L11</f>
+      </c>
+      <c r="B11" s="11" t="str">
+        <f>AQ11</f>
+      </c>
+      <c r="C11" s="11" t="str">
+        <f>AS11</f>
+      </c>
+      <c r="D11" s="11" t="str">
+        <f>AT11</f>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="1" t="str">
+        <f>AT11/AS11-1</f>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f>AT11/AQ11-1</f>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1" t="str">
+        <f>AT11/Sum(AT$1:AT$13)</f>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="L11" t="s">
+        <v>69</v>
+      </c>
+      <c r="M11" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="W11" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="X11" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO11" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP11" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ11" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR11" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS11" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT11" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU11" s="11"/>
+      <c r="AV11" s="11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <f>L12</f>
+      </c>
+      <c r="B12" s="11" t="str">
+        <f>AQ12</f>
+      </c>
+      <c r="C12" s="11" t="str">
+        <f>AS12</f>
+      </c>
+      <c r="D12" s="11" t="str">
+        <f>AT12</f>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="1" t="str">
+        <f>AT12/AS12-1</f>
+      </c>
+      <c r="G12" s="1" t="str">
+        <f>AT12/AQ12-1</f>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1" t="str">
+        <f>AT12/Sum(AT$1:AT$13)</f>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="L12" t="s">
+        <v>70</v>
+      </c>
+      <c r="M12" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="U12" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="W12" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="X12" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ12" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR12" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS12" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT12" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU12" s="11"/>
+      <c r="AV12" s="11"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <f>L13</f>
+      </c>
+      <c r="B13" s="11" t="str">
+        <f>AQ13</f>
+      </c>
+      <c r="C13" s="11" t="str">
+        <f>AS13</f>
+      </c>
+      <c r="D13" s="11" t="str">
+        <f>AT13</f>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="1" t="str">
+        <f>AT13/AS13-1</f>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f>AT13/AQ13-1</f>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="str">
+        <f>AT13/Sum(AT$1:AT$13)</f>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="L13" t="s">
+        <v>58</v>
+      </c>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="X13" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ13" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK13" s="11"/>
+      <c r="AL13" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM13" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP13" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR13" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS13" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT13" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU13" s="11"/>
+      <c r="AV13" s="11"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <f>L14</f>
+      </c>
+      <c r="B14" s="11" t="str">
+        <f>AQ14</f>
+      </c>
+      <c r="C14" s="11" t="str">
+        <f>AS14</f>
+      </c>
+      <c r="D14" s="11" t="str">
+        <f>AT14</f>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="1" t="str">
+        <f>AT14/AS14-1</f>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f>AT14/AQ14-1</f>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1" t="str">
+        <f>Sum(I$1:I$13)</f>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="L14" t="s">
+        <v>46</v>
+      </c>
+      <c r="M14" s="11" t="str">
+        <f>Sum(M2:M13)</f>
+      </c>
+      <c r="N14" s="11" t="str">
+        <f>Sum(N2:N13)</f>
+      </c>
+      <c r="O14" s="11" t="str">
+        <f>Sum(O2:O13)</f>
+      </c>
+      <c r="P14" s="11" t="str">
+        <f>Sum(P2:P13)</f>
+      </c>
+      <c r="Q14" s="11" t="str">
+        <f>Sum(Q2:Q13)</f>
+      </c>
+      <c r="R14" s="11" t="str">
+        <f>Sum(R2:R13)</f>
+      </c>
+      <c r="S14" s="11" t="str">
+        <f>Sum(S2:S13)</f>
+      </c>
+      <c r="T14" s="11" t="str">
+        <f>Sum(T2:T13)</f>
+      </c>
+      <c r="U14" s="11" t="str">
+        <f>Sum(U2:U13)</f>
+      </c>
+      <c r="V14" s="11" t="str">
+        <f>Sum(V2:V13)</f>
+      </c>
+      <c r="W14" s="11" t="str">
+        <f>Sum(W2:W13)</f>
+      </c>
+      <c r="X14" s="11" t="str">
+        <f>Sum(X2:X13)</f>
+      </c>
+      <c r="Y14" s="11" t="str">
+        <f>Sum(Y2:Y13)</f>
+      </c>
+      <c r="Z14" s="11" t="str">
+        <f>Sum(Z2:Z13)</f>
+      </c>
+      <c r="AA14" s="11" t="str">
+        <f>Sum(AA2:AA13)</f>
+      </c>
+      <c r="AB14" s="11" t="str">
+        <f>Sum(AB2:AB13)</f>
+      </c>
+      <c r="AC14" s="11" t="str">
+        <f>Sum(AC2:AC13)</f>
+      </c>
+      <c r="AD14" s="11" t="str">
+        <f>Sum(AD2:AD13)</f>
+      </c>
+      <c r="AE14" s="11" t="str">
+        <f>Sum(AE2:AE13)</f>
+      </c>
+      <c r="AF14" s="11" t="str">
+        <f>Sum(AF2:AF13)</f>
+      </c>
+      <c r="AG14" s="11" t="str">
+        <f>Sum(AG2:AG13)</f>
+      </c>
+      <c r="AH14" s="11" t="str">
+        <f>Sum(AH2:AH13)</f>
+      </c>
+      <c r="AI14" s="11" t="str">
+        <f>Sum(AI2:AI13)</f>
+      </c>
+      <c r="AJ14" s="11" t="str">
+        <f>Sum(AJ2:AJ13)</f>
+      </c>
+      <c r="AK14" s="11" t="str">
+        <f>Sum(AK2:AK13)</f>
+      </c>
+      <c r="AL14" s="11" t="str">
+        <f>Sum(AL2:AL13)</f>
+      </c>
+      <c r="AM14" s="11" t="str">
+        <f>Sum(AM2:AM13)</f>
+      </c>
+      <c r="AN14" s="11" t="str">
+        <f>Sum(AN2:AN13)</f>
+      </c>
+      <c r="AO14" s="11" t="str">
+        <f>Sum(AO2:AO13)</f>
+      </c>
+      <c r="AP14" s="11" t="str">
+        <f>Sum(AP2:AP13)</f>
+      </c>
+      <c r="AQ14" s="11" t="str">
+        <f>Sum(AQ2:AQ13)</f>
+      </c>
+      <c r="AR14" s="11" t="str">
+        <f>Sum(AR2:AR13)</f>
+      </c>
+      <c r="AS14" s="11" t="str">
+        <f>Sum(AS2:AS13)</f>
+      </c>
+      <c r="AT14" s="11" t="str">
+        <f>Sum(AT2:AT13)</f>
+      </c>
+      <c r="AU14" s="11" t="str">
+        <f>Sum(AU2:AU13)</f>
+      </c>
+      <c r="AV14" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/NPS2024/DoD_2024_NPS.xlsx
+++ b/Output/AcqTrends/NPS2024/DoD_2024_NPS.xlsx
@@ -1,9 +1,9 @@
 
-<file path=xl/workbook.xml><?xml version="1.0" encoding="UTF-8" standalone="yes"?><workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x15 xr xr6 xr10 xr2" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2"><workbookPr date1904="false"/><bookViews><workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/></bookViews><sheets><sheet name="1 Budg" sheetId="1" state="visible" r:id="rId1"/><sheet name="2 K&Ota" sheetId="2" state="visible" r:id="rId2"/><sheet name="3 Plat" sheetId="3" state="visible" r:id="rId3"/><sheet name="5 Vend" sheetId="4" state="visible" r:id="rId4"/><sheet name="9 Dur" sheetId="5" state="visible" r:id="rId5"/><sheet name="11 OTAtype" sheetId="6" state="visible" r:id="rId6"/><sheet name="9 GFE" sheetId="7" state="visible" r:id="rId7"/><sheet name="10 Mult" sheetId="8" state="visible" r:id="rId8"/><sheet name="11 Mult" sheetId="9" state="visible" r:id="rId9"/></sheets></workbook>
+<file path=xl/workbook.xml><?xml version="1.0" encoding="UTF-8" standalone="yes"?><workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x15 xr xr6 xr10 xr2" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2"><workbookPr date1904="false"/><bookViews><workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/></bookViews><sheets><sheet name="1 Budg" sheetId="1" state="visible" r:id="rId1"/><sheet name="2 K&Ota" sheetId="2" state="visible" r:id="rId2"/><sheet name="3 Plat" sheetId="3" state="visible" r:id="rId3"/><sheet name="5 Vend" sheetId="4" state="visible" r:id="rId4"/><sheet name="9 Dur" sheetId="5" state="visible" r:id="rId5"/><sheet name="11 OTAtype" sheetId="6" state="visible" r:id="rId6"/><sheet name="9 GFE" sheetId="7" state="visible" r:id="rId7"/><sheet name="10 Mult" sheetId="8" state="visible" r:id="rId8"/><sheet name="11 Mult" sheetId="9" state="visible" r:id="rId9"/><sheet name="1 Outlay" sheetId="10" state="visible" r:id="rId10"/><sheet name="1 TOA" sheetId="11" state="visible" r:id="rId11"/></sheets></workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t xml:space="preserve">source</t>
   </si>
@@ -290,12 +290,18 @@
   <si>
     <t xml:space="preserve">Other DoD</t>
   </si>
+  <si>
+    <t xml:space="preserve">2029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outlays</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="11">
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="170" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
@@ -304,8 +310,9 @@
     <numFmt numFmtId="178" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="183" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="185" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="188" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="189" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -341,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -352,8 +359,9 @@
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="185" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="188" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="189" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2081,6 +2089,2914 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>N1</f>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>N2</f>
+      </c>
+      <c r="M2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="11"/>
+      <c r="AK2" s="11" t="n">
+        <v>27766409244.5725</v>
+      </c>
+      <c r="AL2" s="11" t="n">
+        <v>20117589432.5252</v>
+      </c>
+      <c r="AM2" s="11" t="n">
+        <v>15814444285.1675</v>
+      </c>
+      <c r="AN2" s="11" t="n">
+        <v>24205301305.0384</v>
+      </c>
+      <c r="AO2" s="11" t="n">
+        <v>33686791345.6108</v>
+      </c>
+      <c r="AP2" s="11" t="n">
+        <v>31035471218.9151</v>
+      </c>
+      <c r="AQ2" s="11" t="n">
+        <v>34812921569.4345</v>
+      </c>
+      <c r="AR2" s="11" t="n">
+        <v>38372888881.5383</v>
+      </c>
+      <c r="AS2" s="11" t="n">
+        <v>50101609453.4146</v>
+      </c>
+      <c r="AT2" s="11" t="n">
+        <v>24784144858.8701</v>
+      </c>
+      <c r="AU2" s="11" t="n">
+        <v>38727720245.0645</v>
+      </c>
+      <c r="AV2" s="11" t="n">
+        <v>65793606575.0316</v>
+      </c>
+      <c r="AW2" s="11"/>
+      <c r="AX2" s="11"/>
+      <c r="AY2" s="11"/>
+      <c r="AZ2" s="11"/>
+      <c r="BA2" s="11"/>
+      <c r="BB2" s="11"/>
+      <c r="BC2" s="11"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>N3</f>
+      </c>
+      <c r="M3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="11"/>
+      <c r="AK3" s="11" t="n">
+        <v>329870021411.014</v>
+      </c>
+      <c r="AL3" s="11" t="n">
+        <v>286463462910.156</v>
+      </c>
+      <c r="AM3" s="11" t="n">
+        <v>267469916339.332</v>
+      </c>
+      <c r="AN3" s="11" t="n">
+        <v>249972893535.921</v>
+      </c>
+      <c r="AO3" s="11" t="n">
+        <v>264674994282.781</v>
+      </c>
+      <c r="AP3" s="11" t="n">
+        <v>289580375586.423</v>
+      </c>
+      <c r="AQ3" s="11" t="n">
+        <v>324142899184.017</v>
+      </c>
+      <c r="AR3" s="11" t="n">
+        <v>345482517268.407</v>
+      </c>
+      <c r="AS3" s="11" t="n">
+        <v>372499943849.534</v>
+      </c>
+      <c r="AT3" s="11" t="n">
+        <v>362279784320.787</v>
+      </c>
+      <c r="AU3" s="11" t="n">
+        <v>375515873709.073</v>
+      </c>
+      <c r="AV3" s="11" t="n">
+        <v>390453368175.855</v>
+      </c>
+      <c r="AW3" s="11"/>
+      <c r="AX3" s="11"/>
+      <c r="AY3" s="11"/>
+      <c r="AZ3" s="11"/>
+      <c r="BA3" s="11"/>
+      <c r="BB3" s="11"/>
+      <c r="BC3" s="11"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>N4</f>
+      </c>
+      <c r="M4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="11" t="n">
+        <v>120350129405</v>
+      </c>
+      <c r="P4" s="11" t="n">
+        <v>136154193844</v>
+      </c>
+      <c r="Q4" s="11" t="n">
+        <v>123406660550</v>
+      </c>
+      <c r="R4" s="11" t="n">
+        <v>121373382142</v>
+      </c>
+      <c r="S4" s="11" t="n">
+        <v>117161902725</v>
+      </c>
+      <c r="T4" s="11" t="n">
+        <v>116592014868</v>
+      </c>
+      <c r="U4" s="11" t="n">
+        <v>118448779098</v>
+      </c>
+      <c r="V4" s="11" t="n">
+        <v>115982151879</v>
+      </c>
+      <c r="W4" s="11" t="n">
+        <v>116965882167</v>
+      </c>
+      <c r="X4" s="11" t="n">
+        <v>122185036488</v>
+      </c>
+      <c r="Y4" s="11" t="n">
+        <v>132178486506.387</v>
+      </c>
+      <c r="Z4" s="11" t="n">
+        <v>143993638543.836</v>
+      </c>
+      <c r="AA4" s="11" t="n">
+        <v>169810521226.128</v>
+      </c>
+      <c r="AB4" s="11" t="n">
+        <v>211533087512.337</v>
+      </c>
+      <c r="AC4" s="11" t="n">
+        <v>229761957048.789</v>
+      </c>
+      <c r="AD4" s="11" t="n">
+        <v>265663361025.89</v>
+      </c>
+      <c r="AE4" s="11" t="n">
+        <v>295165178110.853</v>
+      </c>
+      <c r="AF4" s="11" t="n">
+        <v>328153480580.909</v>
+      </c>
+      <c r="AG4" s="11" t="n">
+        <v>377988099747.404</v>
+      </c>
+      <c r="AH4" s="11" t="n">
+        <v>381555380786.985</v>
+      </c>
+      <c r="AI4" s="11" t="n">
+        <v>362403868841.008</v>
+      </c>
+      <c r="AJ4" s="11" t="n">
+        <v>368565915961.162</v>
+      </c>
+      <c r="AK4" s="11"/>
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="11"/>
+      <c r="AN4" s="11" t="n">
+        <v>6246925.665</v>
+      </c>
+      <c r="AO4" s="11"/>
+      <c r="AP4" s="11"/>
+      <c r="AQ4" s="11"/>
+      <c r="AR4" s="11"/>
+      <c r="AS4" s="11"/>
+      <c r="AT4" s="11"/>
+      <c r="AU4" s="11"/>
+      <c r="AV4" s="11"/>
+      <c r="AW4" s="11"/>
+      <c r="AX4" s="11"/>
+      <c r="AY4" s="11"/>
+      <c r="AZ4" s="11"/>
+      <c r="BA4" s="11"/>
+      <c r="BB4" s="11"/>
+      <c r="BC4" s="11"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>N5</f>
+      </c>
+      <c r="M5" t="s">
+        <v>96</v>
+      </c>
+      <c r="N5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="11" t="n">
+        <v>289694000000</v>
+      </c>
+      <c r="P5" s="11" t="n">
+        <v>262324000000</v>
+      </c>
+      <c r="Q5" s="11" t="n">
+        <v>286834000000</v>
+      </c>
+      <c r="R5" s="11" t="n">
+        <v>278497000000</v>
+      </c>
+      <c r="S5" s="11" t="n">
+        <v>268553000000</v>
+      </c>
+      <c r="T5" s="11" t="n">
+        <v>259373000000</v>
+      </c>
+      <c r="U5" s="11" t="n">
+        <v>253130000000</v>
+      </c>
+      <c r="V5" s="11" t="n">
+        <v>258251000000</v>
+      </c>
+      <c r="W5" s="11" t="n">
+        <v>255793000000</v>
+      </c>
+      <c r="X5" s="11" t="n">
+        <v>261198000000</v>
+      </c>
+      <c r="Y5" s="11" t="n">
+        <v>281029000000</v>
+      </c>
+      <c r="Z5" s="11" t="n">
+        <v>290185000000</v>
+      </c>
+      <c r="AA5" s="11" t="n">
+        <v>331845000000</v>
+      </c>
+      <c r="AB5" s="11" t="n">
+        <v>387136000000</v>
+      </c>
+      <c r="AC5" s="11" t="n">
+        <v>436439000000</v>
+      </c>
+      <c r="AD5" s="11" t="n">
+        <v>474071000000</v>
+      </c>
+      <c r="AE5" s="11" t="n">
+        <v>499297000000</v>
+      </c>
+      <c r="AF5" s="11" t="n">
+        <v>528548000000</v>
+      </c>
+      <c r="AG5" s="11" t="n">
+        <v>594632000000</v>
+      </c>
+      <c r="AH5" s="11" t="n">
+        <v>636742000000</v>
+      </c>
+      <c r="AI5" s="11" t="n">
+        <v>666703000000</v>
+      </c>
+      <c r="AJ5" s="11" t="n">
+        <v>678064000000</v>
+      </c>
+      <c r="AK5" s="11" t="n">
+        <v>650851000000</v>
+      </c>
+      <c r="AL5" s="11" t="n">
+        <v>607795000000</v>
+      </c>
+      <c r="AM5" s="11" t="n">
+        <v>577897000000</v>
+      </c>
+      <c r="AN5" s="11" t="n">
+        <v>562499000000</v>
+      </c>
+      <c r="AO5" s="11" t="n">
+        <v>565370000000</v>
+      </c>
+      <c r="AP5" s="11" t="n">
+        <v>568897000000</v>
+      </c>
+      <c r="AQ5" s="11" t="n">
+        <v>600804000000</v>
+      </c>
+      <c r="AR5" s="11" t="n">
+        <v>653690000000</v>
+      </c>
+      <c r="AS5" s="11" t="n">
+        <v>690363000000</v>
+      </c>
+      <c r="AT5" s="11" t="n">
+        <v>717577000000</v>
+      </c>
+      <c r="AU5" s="11" t="n">
+        <v>726458000000</v>
+      </c>
+      <c r="AV5" s="11" t="n">
+        <v>775874000000</v>
+      </c>
+      <c r="AW5" s="11" t="n">
+        <v>859539000000</v>
+      </c>
+      <c r="AX5" s="11" t="n">
+        <v>878467000000</v>
+      </c>
+      <c r="AY5" s="11" t="n">
+        <v>883218000000</v>
+      </c>
+      <c r="AZ5" s="11" t="n">
+        <v>895811000000</v>
+      </c>
+      <c r="BA5" s="11" t="n">
+        <v>914366000000</v>
+      </c>
+      <c r="BB5" s="11" t="n">
+        <v>934814000000</v>
+      </c>
+      <c r="BC5" s="11"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <f>M6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>N6</f>
+      </c>
+      <c r="M6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="11" t="str">
+        <f>Sum(O2:O5)</f>
+      </c>
+      <c r="P6" s="11" t="str">
+        <f>Sum(P2:P5)</f>
+      </c>
+      <c r="Q6" s="11" t="str">
+        <f>Sum(Q2:Q5)</f>
+      </c>
+      <c r="R6" s="11" t="str">
+        <f>Sum(R2:R5)</f>
+      </c>
+      <c r="S6" s="11" t="str">
+        <f>Sum(S2:S5)</f>
+      </c>
+      <c r="T6" s="11" t="str">
+        <f>Sum(T2:T5)</f>
+      </c>
+      <c r="U6" s="11" t="str">
+        <f>Sum(U2:U5)</f>
+      </c>
+      <c r="V6" s="11" t="str">
+        <f>Sum(V2:V5)</f>
+      </c>
+      <c r="W6" s="11" t="str">
+        <f>Sum(W2:W5)</f>
+      </c>
+      <c r="X6" s="11" t="str">
+        <f>Sum(X2:X5)</f>
+      </c>
+      <c r="Y6" s="11" t="str">
+        <f>Sum(Y2:Y5)</f>
+      </c>
+      <c r="Z6" s="11" t="str">
+        <f>Sum(Z2:Z5)</f>
+      </c>
+      <c r="AA6" s="11" t="str">
+        <f>Sum(AA2:AA5)</f>
+      </c>
+      <c r="AB6" s="11" t="str">
+        <f>Sum(AB2:AB5)</f>
+      </c>
+      <c r="AC6" s="11" t="str">
+        <f>Sum(AC2:AC5)</f>
+      </c>
+      <c r="AD6" s="11" t="str">
+        <f>Sum(AD2:AD5)</f>
+      </c>
+      <c r="AE6" s="11" t="str">
+        <f>Sum(AE2:AE5)</f>
+      </c>
+      <c r="AF6" s="11" t="str">
+        <f>Sum(AF2:AF5)</f>
+      </c>
+      <c r="AG6" s="11" t="str">
+        <f>Sum(AG2:AG5)</f>
+      </c>
+      <c r="AH6" s="11" t="str">
+        <f>Sum(AH2:AH5)</f>
+      </c>
+      <c r="AI6" s="11" t="str">
+        <f>Sum(AI2:AI5)</f>
+      </c>
+      <c r="AJ6" s="11" t="str">
+        <f>Sum(AJ2:AJ5)</f>
+      </c>
+      <c r="AK6" s="11" t="str">
+        <f>Sum(AK2:AK5)</f>
+      </c>
+      <c r="AL6" s="11" t="str">
+        <f>Sum(AL2:AL5)</f>
+      </c>
+      <c r="AM6" s="11" t="str">
+        <f>Sum(AM2:AM5)</f>
+      </c>
+      <c r="AN6" s="11" t="str">
+        <f>Sum(AN2:AN5)</f>
+      </c>
+      <c r="AO6" s="11" t="str">
+        <f>Sum(AO2:AO5)</f>
+      </c>
+      <c r="AP6" s="11" t="str">
+        <f>Sum(AP2:AP5)</f>
+      </c>
+      <c r="AQ6" s="11" t="str">
+        <f>Sum(AQ2:AQ5)</f>
+      </c>
+      <c r="AR6" s="11" t="str">
+        <f>Sum(AR2:AR5)</f>
+      </c>
+      <c r="AS6" s="11" t="str">
+        <f>Sum(AS2:AS5)</f>
+      </c>
+      <c r="AT6" s="11" t="str">
+        <f>Sum(AT2:AT5)</f>
+      </c>
+      <c r="AU6" s="11" t="str">
+        <f>Sum(AU2:AU5)</f>
+      </c>
+      <c r="AV6" s="11" t="str">
+        <f>Sum(AV2:AV5)</f>
+      </c>
+      <c r="AW6" s="11" t="str">
+        <f>Sum(AW2:AW5)</f>
+      </c>
+      <c r="AX6" s="11" t="str">
+        <f>Sum(AX2:AX5)</f>
+      </c>
+      <c r="AY6" s="11" t="str">
+        <f>Sum(AY2:AY5)</f>
+      </c>
+      <c r="AZ6" s="11" t="str">
+        <f>Sum(AZ2:AZ5)</f>
+      </c>
+      <c r="BA6" s="11" t="str">
+        <f>Sum(BA2:BA5)</f>
+      </c>
+      <c r="BB6" s="11" t="str">
+        <f>Sum(BB2:BB5)</f>
+      </c>
+      <c r="BC6" s="11"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <f>M9</f>
+      </c>
+      <c r="B9" t="str">
+        <f>N9</f>
+      </c>
+      <c r="C9" t="str">
+        <f>AS9</f>
+      </c>
+      <c r="D9" t="str">
+        <f>AU9</f>
+      </c>
+      <c r="E9" t="str">
+        <f>AV9</f>
+      </c>
+      <c r="G9" t="str">
+        <f>AU9&amp;"-"&amp;AV9</f>
+      </c>
+      <c r="H9" t="str">
+        <f>AS9&amp;"-"&amp;AV9</f>
+      </c>
+      <c r="J9" t="str">
+        <f>"Share "&amp;AV9</f>
+      </c>
+      <c r="M9" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s">
+        <v>6</v>
+      </c>
+      <c r="T9" t="s">
+        <v>7</v>
+      </c>
+      <c r="U9" t="s">
+        <v>8</v>
+      </c>
+      <c r="V9" t="s">
+        <v>9</v>
+      </c>
+      <c r="W9" t="s">
+        <v>10</v>
+      </c>
+      <c r="X9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>40</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="B10" t="str">
+        <f>N10</f>
+      </c>
+      <c r="C10" s="11" t="str">
+        <f>AS10</f>
+      </c>
+      <c r="D10" s="11" t="str">
+        <f>AU10</f>
+      </c>
+      <c r="E10" s="11" t="str">
+        <f>AV10</f>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="1" t="str">
+        <f>AV10/AU10-1</f>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f>AV10/AS10-1</f>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1" t="str">
+        <f>AV10/Sum(AV$9:AV$13)</f>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="M10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="11" t="n">
+        <v>36390869420.0532</v>
+      </c>
+      <c r="AL10" s="11" t="n">
+        <v>25896384490.0193</v>
+      </c>
+      <c r="AM10" s="11" t="n">
+        <v>19992431792.9514</v>
+      </c>
+      <c r="AN10" s="11" t="n">
+        <v>30286399449.1285</v>
+      </c>
+      <c r="AO10" s="11" t="n">
+        <v>41815605260.499</v>
+      </c>
+      <c r="AP10" s="11" t="n">
+        <v>37884999724.2074</v>
+      </c>
+      <c r="AQ10" s="11" t="n">
+        <v>41573208124.9344</v>
+      </c>
+      <c r="AR10" s="11" t="n">
+        <v>44992590026.8429</v>
+      </c>
+      <c r="AS10" s="11" t="n">
+        <v>57987138191.6318</v>
+      </c>
+      <c r="AT10" s="11" t="n">
+        <v>27730527616.1122</v>
+      </c>
+      <c r="AU10" s="11" t="n">
+        <v>40499381567.492</v>
+      </c>
+      <c r="AV10" s="11" t="n">
+        <v>65793606575.0316</v>
+      </c>
+      <c r="AW10" s="11"/>
+      <c r="AX10" s="11"/>
+      <c r="AY10" s="11"/>
+      <c r="AZ10" s="11"/>
+      <c r="BA10" s="11"/>
+      <c r="BB10" s="11"/>
+      <c r="BC10" s="11"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <f>M11</f>
+      </c>
+      <c r="B11" t="str">
+        <f>N11</f>
+      </c>
+      <c r="C11" s="11" t="str">
+        <f>AS11</f>
+      </c>
+      <c r="D11" s="11" t="str">
+        <f>AU11</f>
+      </c>
+      <c r="E11" s="11" t="str">
+        <f>AV11</f>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="1" t="str">
+        <f>AV11/AU11-1</f>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f>AV11/AS11-1</f>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1" t="str">
+        <f>AV11/Sum(AV$9:AV$13)</f>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="M11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" t="s">
+        <v>43</v>
+      </c>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="11" t="n">
+        <v>432330186054.03</v>
+      </c>
+      <c r="AL11" s="11" t="n">
+        <v>368750341721.862</v>
+      </c>
+      <c r="AM11" s="11" t="n">
+        <v>338132277217.976</v>
+      </c>
+      <c r="AN11" s="11" t="n">
+        <v>312773586648.454</v>
+      </c>
+      <c r="AO11" s="11" t="n">
+        <v>328542572360.358</v>
+      </c>
+      <c r="AP11" s="11" t="n">
+        <v>353490764546.252</v>
+      </c>
+      <c r="AQ11" s="11" t="n">
+        <v>387087885833.412</v>
+      </c>
+      <c r="AR11" s="11" t="n">
+        <v>405081653062.029</v>
+      </c>
+      <c r="AS11" s="11" t="n">
+        <v>431127980837.866</v>
+      </c>
+      <c r="AT11" s="11" t="n">
+        <v>405348242639.538</v>
+      </c>
+      <c r="AU11" s="11" t="n">
+        <v>392694446194.055</v>
+      </c>
+      <c r="AV11" s="11" t="n">
+        <v>390453368175.855</v>
+      </c>
+      <c r="AW11" s="11"/>
+      <c r="AX11" s="11"/>
+      <c r="AY11" s="11"/>
+      <c r="AZ11" s="11"/>
+      <c r="BA11" s="11"/>
+      <c r="BB11" s="11"/>
+      <c r="BC11" s="11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <f>M12</f>
+      </c>
+      <c r="B12" t="str">
+        <f>N12</f>
+      </c>
+      <c r="C12" s="11" t="str">
+        <f>AS12</f>
+      </c>
+      <c r="D12" s="11" t="str">
+        <f>AU12</f>
+      </c>
+      <c r="E12" s="11" t="str">
+        <f>AV12</f>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="1" t="str">
+        <f>AV12/AU12-1</f>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f>AV12/AS12-1</f>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1" t="str">
+        <f>AV12/Sum(AV$9:AV$13)</f>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="M12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O12" s="11" t="n">
+        <v>248917998790.874</v>
+      </c>
+      <c r="P12" s="11" t="n">
+        <v>271885202720.129</v>
+      </c>
+      <c r="Q12" s="11" t="n">
+        <v>240412560734.939</v>
+      </c>
+      <c r="R12" s="11" t="n">
+        <v>231031479111.987</v>
+      </c>
+      <c r="S12" s="11" t="n">
+        <v>218250472650.085</v>
+      </c>
+      <c r="T12" s="11" t="n">
+        <v>212677633977.603</v>
+      </c>
+      <c r="U12" s="11" t="n">
+        <v>212071611328.834</v>
+      </c>
+      <c r="V12" s="11" t="n">
+        <v>204034317412.979</v>
+      </c>
+      <c r="W12" s="11" t="n">
+        <v>203216983313.484</v>
+      </c>
+      <c r="X12" s="11" t="n">
+        <v>209688280565.4</v>
+      </c>
+      <c r="Y12" s="11" t="n">
+        <v>222214954426.99</v>
+      </c>
+      <c r="Z12" s="11" t="n">
+        <v>236349380759.976</v>
+      </c>
+      <c r="AA12" s="11" t="n">
+        <v>274407867785.644</v>
+      </c>
+      <c r="AB12" s="11" t="n">
+        <v>335392180495.053</v>
+      </c>
+      <c r="AC12" s="11" t="n">
+        <v>355611032054.797</v>
+      </c>
+      <c r="AD12" s="11" t="n">
+        <v>399034409966.236</v>
+      </c>
+      <c r="AE12" s="11" t="n">
+        <v>429398322936.051</v>
+      </c>
+      <c r="AF12" s="11" t="n">
+        <v>464598647461.156</v>
+      </c>
+      <c r="AG12" s="11" t="n">
+        <v>524270052465.528</v>
+      </c>
+      <c r="AH12" s="11" t="n">
+        <v>523860817748.021</v>
+      </c>
+      <c r="AI12" s="11" t="n">
+        <v>493294382841.294</v>
+      </c>
+      <c r="AJ12" s="11" t="n">
+        <v>491810684195.121</v>
+      </c>
+      <c r="AK12" s="11"/>
+      <c r="AL12" s="11"/>
+      <c r="AM12" s="11"/>
+      <c r="AN12" s="11" t="n">
+        <v>7816340.87652611</v>
+      </c>
+      <c r="AO12" s="11"/>
+      <c r="AP12" s="11"/>
+      <c r="AQ12" s="11"/>
+      <c r="AR12" s="11"/>
+      <c r="AS12" s="11"/>
+      <c r="AT12" s="11"/>
+      <c r="AU12" s="11"/>
+      <c r="AV12" s="11"/>
+      <c r="AW12" s="11"/>
+      <c r="AX12" s="11"/>
+      <c r="AY12" s="11"/>
+      <c r="AZ12" s="11"/>
+      <c r="BA12" s="11"/>
+      <c r="BB12" s="11"/>
+      <c r="BC12" s="11"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <f>M13</f>
+      </c>
+      <c r="B13" t="str">
+        <f>N13</f>
+      </c>
+      <c r="C13" s="11" t="str">
+        <f>AS13</f>
+      </c>
+      <c r="D13" s="11" t="str">
+        <f>AU13</f>
+      </c>
+      <c r="E13" s="11" t="str">
+        <f>AV13</f>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="1" t="str">
+        <f>AV13/AU13-1</f>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f>AV13/AS13-1</f>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1" t="str">
+        <f>AV13/Sum(AV$9:AV$13)</f>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="M13" t="s">
+        <v>96</v>
+      </c>
+      <c r="N13" t="s">
+        <v>43</v>
+      </c>
+      <c r="O13" s="11" t="n">
+        <v>599168867522.029</v>
+      </c>
+      <c r="P13" s="11" t="n">
+        <v>523832662841.61</v>
+      </c>
+      <c r="Q13" s="11" t="n">
+        <v>558790717928.113</v>
+      </c>
+      <c r="R13" s="11" t="n">
+        <v>530112720785.642</v>
+      </c>
+      <c r="S13" s="11" t="n">
+        <v>500263462937.87</v>
+      </c>
+      <c r="T13" s="11" t="n">
+        <v>473127049224.817</v>
+      </c>
+      <c r="U13" s="11" t="n">
+        <v>453205912162.704</v>
+      </c>
+      <c r="V13" s="11" t="n">
+        <v>454311854475.601</v>
+      </c>
+      <c r="W13" s="11" t="n">
+        <v>444415763380.374</v>
+      </c>
+      <c r="X13" s="11" t="n">
+        <v>448255867341.827</v>
+      </c>
+      <c r="Y13" s="11" t="n">
+        <v>472458477005.221</v>
+      </c>
+      <c r="Z13" s="11" t="n">
+        <v>476306076778.206</v>
+      </c>
+      <c r="AA13" s="11" t="n">
+        <v>536249922724.551</v>
+      </c>
+      <c r="AB13" s="11" t="n">
+        <v>613815969478.346</v>
+      </c>
+      <c r="AC13" s="11" t="n">
+        <v>675492693448.842</v>
+      </c>
+      <c r="AD13" s="11" t="n">
+        <v>712068992263.739</v>
+      </c>
+      <c r="AE13" s="11" t="n">
+        <v>726363779830.702</v>
+      </c>
+      <c r="AF13" s="11" t="n">
+        <v>748316566637.036</v>
+      </c>
+      <c r="AG13" s="11" t="n">
+        <v>824755462000.025</v>
+      </c>
+      <c r="AH13" s="11" t="n">
+        <v>874222201051.157</v>
+      </c>
+      <c r="AI13" s="11" t="n">
+        <v>907498162133.927</v>
+      </c>
+      <c r="AJ13" s="11" t="n">
+        <v>904801842293.038</v>
+      </c>
+      <c r="AK13" s="11" t="n">
+        <v>853010324247.841</v>
+      </c>
+      <c r="AL13" s="11" t="n">
+        <v>782384642250.63</v>
+      </c>
+      <c r="AM13" s="11" t="n">
+        <v>730570492868.181</v>
+      </c>
+      <c r="AN13" s="11" t="n">
+        <v>703815630677.12</v>
+      </c>
+      <c r="AO13" s="11" t="n">
+        <v>701796989317.852</v>
+      </c>
+      <c r="AP13" s="11" t="n">
+        <v>694452568033.404</v>
+      </c>
+      <c r="AQ13" s="11" t="n">
+        <v>717473530179.755</v>
+      </c>
+      <c r="AR13" s="11" t="n">
+        <v>766457961125.701</v>
+      </c>
+      <c r="AS13" s="11" t="n">
+        <v>799019734497.993</v>
+      </c>
+      <c r="AT13" s="11" t="n">
+        <v>802883816589.107</v>
+      </c>
+      <c r="AU13" s="11" t="n">
+        <v>759690979706.108</v>
+      </c>
+      <c r="AV13" s="11" t="n">
+        <v>775874000000</v>
+      </c>
+      <c r="AW13" s="11" t="n">
+        <v>837181247646.527</v>
+      </c>
+      <c r="AX13" s="11" t="n">
+        <v>837245992301.702</v>
+      </c>
+      <c r="AY13" s="11" t="n">
+        <v>824647554246.88</v>
+      </c>
+      <c r="AZ13" s="11" t="n">
+        <v>819236206162.472</v>
+      </c>
+      <c r="BA13" s="11" t="n">
+        <v>819144705553.104</v>
+      </c>
+      <c r="BB13" s="11" t="n">
+        <v>820305837219.535</v>
+      </c>
+      <c r="BC13" s="11"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <f>M14</f>
+      </c>
+      <c r="B14" t="str">
+        <f>N14</f>
+      </c>
+      <c r="C14" s="11" t="str">
+        <f>AS14</f>
+      </c>
+      <c r="D14" s="11" t="str">
+        <f>AU14</f>
+      </c>
+      <c r="E14" s="11" t="str">
+        <f>AV14</f>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="1" t="str">
+        <f>AV14/AU14-1</f>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f>AV14/AS14-1</f>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1" t="str">
+        <f>Sum(J$9:J$13)</f>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="M14" t="s">
+        <v>46</v>
+      </c>
+      <c r="N14" t="s">
+        <v>47</v>
+      </c>
+      <c r="O14" s="11" t="str">
+        <f>Sum(O10:O13)</f>
+      </c>
+      <c r="P14" s="11" t="str">
+        <f>Sum(P10:P13)</f>
+      </c>
+      <c r="Q14" s="11" t="str">
+        <f>Sum(Q10:Q13)</f>
+      </c>
+      <c r="R14" s="11" t="str">
+        <f>Sum(R10:R13)</f>
+      </c>
+      <c r="S14" s="11" t="str">
+        <f>Sum(S10:S13)</f>
+      </c>
+      <c r="T14" s="11" t="str">
+        <f>Sum(T10:T13)</f>
+      </c>
+      <c r="U14" s="11" t="str">
+        <f>Sum(U10:U13)</f>
+      </c>
+      <c r="V14" s="11" t="str">
+        <f>Sum(V10:V13)</f>
+      </c>
+      <c r="W14" s="11" t="str">
+        <f>Sum(W10:W13)</f>
+      </c>
+      <c r="X14" s="11" t="str">
+        <f>Sum(X10:X13)</f>
+      </c>
+      <c r="Y14" s="11" t="str">
+        <f>Sum(Y10:Y13)</f>
+      </c>
+      <c r="Z14" s="11" t="str">
+        <f>Sum(Z10:Z13)</f>
+      </c>
+      <c r="AA14" s="11" t="str">
+        <f>Sum(AA10:AA13)</f>
+      </c>
+      <c r="AB14" s="11" t="str">
+        <f>Sum(AB10:AB13)</f>
+      </c>
+      <c r="AC14" s="11" t="str">
+        <f>Sum(AC10:AC13)</f>
+      </c>
+      <c r="AD14" s="11" t="str">
+        <f>Sum(AD10:AD13)</f>
+      </c>
+      <c r="AE14" s="11" t="str">
+        <f>Sum(AE10:AE13)</f>
+      </c>
+      <c r="AF14" s="11" t="str">
+        <f>Sum(AF10:AF13)</f>
+      </c>
+      <c r="AG14" s="11" t="str">
+        <f>Sum(AG10:AG13)</f>
+      </c>
+      <c r="AH14" s="11" t="str">
+        <f>Sum(AH10:AH13)</f>
+      </c>
+      <c r="AI14" s="11" t="str">
+        <f>Sum(AI10:AI13)</f>
+      </c>
+      <c r="AJ14" s="11" t="str">
+        <f>Sum(AJ10:AJ13)</f>
+      </c>
+      <c r="AK14" s="11" t="str">
+        <f>Sum(AK10:AK13)</f>
+      </c>
+      <c r="AL14" s="11" t="str">
+        <f>Sum(AL10:AL13)</f>
+      </c>
+      <c r="AM14" s="11" t="str">
+        <f>Sum(AM10:AM13)</f>
+      </c>
+      <c r="AN14" s="11" t="str">
+        <f>Sum(AN10:AN13)</f>
+      </c>
+      <c r="AO14" s="11" t="str">
+        <f>Sum(AO10:AO13)</f>
+      </c>
+      <c r="AP14" s="11" t="str">
+        <f>Sum(AP10:AP13)</f>
+      </c>
+      <c r="AQ14" s="11" t="str">
+        <f>Sum(AQ10:AQ13)</f>
+      </c>
+      <c r="AR14" s="11" t="str">
+        <f>Sum(AR10:AR13)</f>
+      </c>
+      <c r="AS14" s="11" t="str">
+        <f>Sum(AS10:AS13)</f>
+      </c>
+      <c r="AT14" s="11" t="str">
+        <f>Sum(AT10:AT13)</f>
+      </c>
+      <c r="AU14" s="11" t="str">
+        <f>Sum(AU10:AU13)</f>
+      </c>
+      <c r="AV14" s="11" t="str">
+        <f>Sum(AV10:AV13)</f>
+      </c>
+      <c r="AW14" s="11" t="str">
+        <f>Sum(AW10:AW13)</f>
+      </c>
+      <c r="AX14" s="11" t="str">
+        <f>Sum(AX10:AX13)</f>
+      </c>
+      <c r="AY14" s="11" t="str">
+        <f>Sum(AY10:AY13)</f>
+      </c>
+      <c r="AZ14" s="11" t="str">
+        <f>Sum(AZ10:AZ13)</f>
+      </c>
+      <c r="BA14" s="11" t="str">
+        <f>Sum(BA10:BA13)</f>
+      </c>
+      <c r="BB14" s="11" t="str">
+        <f>Sum(BB10:BB13)</f>
+      </c>
+      <c r="BC14" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>N1</f>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>N2</f>
+      </c>
+      <c r="M2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12" t="n">
+        <v>27766409244.5725</v>
+      </c>
+      <c r="AL2" s="12" t="n">
+        <v>20117589432.5252</v>
+      </c>
+      <c r="AM2" s="12" t="n">
+        <v>15814444285.1675</v>
+      </c>
+      <c r="AN2" s="12" t="n">
+        <v>24205301305.0384</v>
+      </c>
+      <c r="AO2" s="12" t="n">
+        <v>33686791345.6108</v>
+      </c>
+      <c r="AP2" s="12" t="n">
+        <v>31035471218.9151</v>
+      </c>
+      <c r="AQ2" s="12" t="n">
+        <v>34812921569.4345</v>
+      </c>
+      <c r="AR2" s="12" t="n">
+        <v>38372888881.5383</v>
+      </c>
+      <c r="AS2" s="12" t="n">
+        <v>50101609453.4146</v>
+      </c>
+      <c r="AT2" s="12" t="n">
+        <v>24784144858.8701</v>
+      </c>
+      <c r="AU2" s="12" t="n">
+        <v>38727720245.0645</v>
+      </c>
+      <c r="AV2" s="12" t="n">
+        <v>65793606575.0316</v>
+      </c>
+      <c r="AW2" s="12"/>
+      <c r="AX2" s="12"/>
+      <c r="AY2" s="12"/>
+      <c r="AZ2" s="12"/>
+      <c r="BA2" s="12"/>
+      <c r="BB2" s="12"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>N3</f>
+      </c>
+      <c r="M3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12"/>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="12"/>
+      <c r="AK3" s="12" t="n">
+        <v>329870021411.014</v>
+      </c>
+      <c r="AL3" s="12" t="n">
+        <v>286463462910.156</v>
+      </c>
+      <c r="AM3" s="12" t="n">
+        <v>267469916339.332</v>
+      </c>
+      <c r="AN3" s="12" t="n">
+        <v>249972893535.921</v>
+      </c>
+      <c r="AO3" s="12" t="n">
+        <v>264674994282.781</v>
+      </c>
+      <c r="AP3" s="12" t="n">
+        <v>289580375586.423</v>
+      </c>
+      <c r="AQ3" s="12" t="n">
+        <v>324142899184.017</v>
+      </c>
+      <c r="AR3" s="12" t="n">
+        <v>345482517268.407</v>
+      </c>
+      <c r="AS3" s="12" t="n">
+        <v>372499943849.534</v>
+      </c>
+      <c r="AT3" s="12" t="n">
+        <v>362279784320.787</v>
+      </c>
+      <c r="AU3" s="12" t="n">
+        <v>375515873709.073</v>
+      </c>
+      <c r="AV3" s="12" t="n">
+        <v>390453368175.855</v>
+      </c>
+      <c r="AW3" s="12"/>
+      <c r="AX3" s="12"/>
+      <c r="AY3" s="12"/>
+      <c r="AZ3" s="12"/>
+      <c r="BA3" s="12"/>
+      <c r="BB3" s="12"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>N4</f>
+      </c>
+      <c r="M4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="12" t="n">
+        <v>120350129405</v>
+      </c>
+      <c r="P4" s="12" t="n">
+        <v>136154193844</v>
+      </c>
+      <c r="Q4" s="12" t="n">
+        <v>123406660550</v>
+      </c>
+      <c r="R4" s="12" t="n">
+        <v>121373382142</v>
+      </c>
+      <c r="S4" s="12" t="n">
+        <v>117161902725</v>
+      </c>
+      <c r="T4" s="12" t="n">
+        <v>116592014868</v>
+      </c>
+      <c r="U4" s="12" t="n">
+        <v>118448779098</v>
+      </c>
+      <c r="V4" s="12" t="n">
+        <v>115982151879</v>
+      </c>
+      <c r="W4" s="12" t="n">
+        <v>116965882167</v>
+      </c>
+      <c r="X4" s="12" t="n">
+        <v>122185036488</v>
+      </c>
+      <c r="Y4" s="12" t="n">
+        <v>132178486506.387</v>
+      </c>
+      <c r="Z4" s="12" t="n">
+        <v>143993638543.836</v>
+      </c>
+      <c r="AA4" s="12" t="n">
+        <v>169810521226.128</v>
+      </c>
+      <c r="AB4" s="12" t="n">
+        <v>211533087512.337</v>
+      </c>
+      <c r="AC4" s="12" t="n">
+        <v>229761957048.789</v>
+      </c>
+      <c r="AD4" s="12" t="n">
+        <v>265663361025.89</v>
+      </c>
+      <c r="AE4" s="12" t="n">
+        <v>295165178110.853</v>
+      </c>
+      <c r="AF4" s="12" t="n">
+        <v>328153480580.909</v>
+      </c>
+      <c r="AG4" s="12" t="n">
+        <v>377988099747.404</v>
+      </c>
+      <c r="AH4" s="12" t="n">
+        <v>381555380786.985</v>
+      </c>
+      <c r="AI4" s="12" t="n">
+        <v>362403868841.008</v>
+      </c>
+      <c r="AJ4" s="12" t="n">
+        <v>368565915961.162</v>
+      </c>
+      <c r="AK4" s="12"/>
+      <c r="AL4" s="12"/>
+      <c r="AM4" s="12"/>
+      <c r="AN4" s="12" t="n">
+        <v>6246925.665</v>
+      </c>
+      <c r="AO4" s="12"/>
+      <c r="AP4" s="12"/>
+      <c r="AQ4" s="12"/>
+      <c r="AR4" s="12"/>
+      <c r="AS4" s="12"/>
+      <c r="AT4" s="12"/>
+      <c r="AU4" s="12"/>
+      <c r="AV4" s="12"/>
+      <c r="AW4" s="12"/>
+      <c r="AX4" s="12"/>
+      <c r="AY4" s="12"/>
+      <c r="AZ4" s="12"/>
+      <c r="BA4" s="12"/>
+      <c r="BB4" s="12"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>N5</f>
+      </c>
+      <c r="M5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="12" t="n">
+        <v>291356000000</v>
+      </c>
+      <c r="P5" s="12" t="n">
+        <v>310620000000</v>
+      </c>
+      <c r="Q5" s="12" t="n">
+        <v>285195000000</v>
+      </c>
+      <c r="R5" s="12" t="n">
+        <v>269655000000</v>
+      </c>
+      <c r="S5" s="12" t="n">
+        <v>251339000000</v>
+      </c>
+      <c r="T5" s="12" t="n">
+        <v>254215000000</v>
+      </c>
+      <c r="U5" s="12" t="n">
+        <v>255052000000</v>
+      </c>
+      <c r="V5" s="12" t="n">
+        <v>254186000000</v>
+      </c>
+      <c r="W5" s="12" t="n">
+        <v>259123000000</v>
+      </c>
+      <c r="X5" s="12" t="n">
+        <v>272729000000</v>
+      </c>
+      <c r="Y5" s="12" t="n">
+        <v>286958000000</v>
+      </c>
+      <c r="Z5" s="12" t="n">
+        <v>316540000000</v>
+      </c>
+      <c r="AA5" s="12" t="n">
+        <v>355378000000</v>
+      </c>
+      <c r="AB5" s="12" t="n">
+        <v>433024000000</v>
+      </c>
+      <c r="AC5" s="12" t="n">
+        <v>456052000000</v>
+      </c>
+      <c r="AD5" s="12" t="n">
+        <v>502476000000</v>
+      </c>
+      <c r="AE5" s="12" t="n">
+        <v>536272000000</v>
+      </c>
+      <c r="AF5" s="12" t="n">
+        <v>603872000000</v>
+      </c>
+      <c r="AG5" s="12" t="n">
+        <v>669279000000</v>
+      </c>
+      <c r="AH5" s="12" t="n">
+        <v>665861000000</v>
+      </c>
+      <c r="AI5" s="12" t="n">
+        <v>691791000000</v>
+      </c>
+      <c r="AJ5" s="12" t="n">
+        <v>689092000000</v>
+      </c>
+      <c r="AK5" s="12" t="n">
+        <v>652288000000</v>
+      </c>
+      <c r="AL5" s="12" t="n">
+        <v>585393000000</v>
+      </c>
+      <c r="AM5" s="12" t="n">
+        <v>581188000000</v>
+      </c>
+      <c r="AN5" s="12" t="n">
+        <v>565403000000</v>
+      </c>
+      <c r="AO5" s="12" t="n">
+        <v>587978000000</v>
+      </c>
+      <c r="AP5" s="12" t="n">
+        <v>609287000000</v>
+      </c>
+      <c r="AQ5" s="12" t="n">
+        <v>672960000000</v>
+      </c>
+      <c r="AR5" s="12" t="n">
+        <v>693001000000</v>
+      </c>
+      <c r="AS5" s="12" t="n">
+        <v>725757000000</v>
+      </c>
+      <c r="AT5" s="12" t="n">
+        <v>711039000000</v>
+      </c>
+      <c r="AU5" s="12" t="n">
+        <v>769467000000</v>
+      </c>
+      <c r="AV5" s="12" t="n">
+        <v>853072000000</v>
+      </c>
+      <c r="AW5" s="12" t="n">
+        <v>842157000000</v>
+      </c>
+      <c r="AX5" s="12" t="n">
+        <v>859652000000</v>
+      </c>
+      <c r="AY5" s="12" t="n">
+        <v>877652000000</v>
+      </c>
+      <c r="AZ5" s="12" t="n">
+        <v>896152000000</v>
+      </c>
+      <c r="BA5" s="12" t="n">
+        <v>914952000000</v>
+      </c>
+      <c r="BB5" s="12"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <f>M6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>N6</f>
+      </c>
+      <c r="M6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="12" t="str">
+        <f>Sum(O2:O5)</f>
+      </c>
+      <c r="P6" s="12" t="str">
+        <f>Sum(P2:P5)</f>
+      </c>
+      <c r="Q6" s="12" t="str">
+        <f>Sum(Q2:Q5)</f>
+      </c>
+      <c r="R6" s="12" t="str">
+        <f>Sum(R2:R5)</f>
+      </c>
+      <c r="S6" s="12" t="str">
+        <f>Sum(S2:S5)</f>
+      </c>
+      <c r="T6" s="12" t="str">
+        <f>Sum(T2:T5)</f>
+      </c>
+      <c r="U6" s="12" t="str">
+        <f>Sum(U2:U5)</f>
+      </c>
+      <c r="V6" s="12" t="str">
+        <f>Sum(V2:V5)</f>
+      </c>
+      <c r="W6" s="12" t="str">
+        <f>Sum(W2:W5)</f>
+      </c>
+      <c r="X6" s="12" t="str">
+        <f>Sum(X2:X5)</f>
+      </c>
+      <c r="Y6" s="12" t="str">
+        <f>Sum(Y2:Y5)</f>
+      </c>
+      <c r="Z6" s="12" t="str">
+        <f>Sum(Z2:Z5)</f>
+      </c>
+      <c r="AA6" s="12" t="str">
+        <f>Sum(AA2:AA5)</f>
+      </c>
+      <c r="AB6" s="12" t="str">
+        <f>Sum(AB2:AB5)</f>
+      </c>
+      <c r="AC6" s="12" t="str">
+        <f>Sum(AC2:AC5)</f>
+      </c>
+      <c r="AD6" s="12" t="str">
+        <f>Sum(AD2:AD5)</f>
+      </c>
+      <c r="AE6" s="12" t="str">
+        <f>Sum(AE2:AE5)</f>
+      </c>
+      <c r="AF6" s="12" t="str">
+        <f>Sum(AF2:AF5)</f>
+      </c>
+      <c r="AG6" s="12" t="str">
+        <f>Sum(AG2:AG5)</f>
+      </c>
+      <c r="AH6" s="12" t="str">
+        <f>Sum(AH2:AH5)</f>
+      </c>
+      <c r="AI6" s="12" t="str">
+        <f>Sum(AI2:AI5)</f>
+      </c>
+      <c r="AJ6" s="12" t="str">
+        <f>Sum(AJ2:AJ5)</f>
+      </c>
+      <c r="AK6" s="12" t="str">
+        <f>Sum(AK2:AK5)</f>
+      </c>
+      <c r="AL6" s="12" t="str">
+        <f>Sum(AL2:AL5)</f>
+      </c>
+      <c r="AM6" s="12" t="str">
+        <f>Sum(AM2:AM5)</f>
+      </c>
+      <c r="AN6" s="12" t="str">
+        <f>Sum(AN2:AN5)</f>
+      </c>
+      <c r="AO6" s="12" t="str">
+        <f>Sum(AO2:AO5)</f>
+      </c>
+      <c r="AP6" s="12" t="str">
+        <f>Sum(AP2:AP5)</f>
+      </c>
+      <c r="AQ6" s="12" t="str">
+        <f>Sum(AQ2:AQ5)</f>
+      </c>
+      <c r="AR6" s="12" t="str">
+        <f>Sum(AR2:AR5)</f>
+      </c>
+      <c r="AS6" s="12" t="str">
+        <f>Sum(AS2:AS5)</f>
+      </c>
+      <c r="AT6" s="12" t="str">
+        <f>Sum(AT2:AT5)</f>
+      </c>
+      <c r="AU6" s="12" t="str">
+        <f>Sum(AU2:AU5)</f>
+      </c>
+      <c r="AV6" s="12" t="str">
+        <f>Sum(AV2:AV5)</f>
+      </c>
+      <c r="AW6" s="12" t="str">
+        <f>Sum(AW2:AW5)</f>
+      </c>
+      <c r="AX6" s="12" t="str">
+        <f>Sum(AX2:AX5)</f>
+      </c>
+      <c r="AY6" s="12" t="str">
+        <f>Sum(AY2:AY5)</f>
+      </c>
+      <c r="AZ6" s="12" t="str">
+        <f>Sum(AZ2:AZ5)</f>
+      </c>
+      <c r="BA6" s="12" t="str">
+        <f>Sum(BA2:BA5)</f>
+      </c>
+      <c r="BB6" s="12"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <f>M9</f>
+      </c>
+      <c r="B9" t="str">
+        <f>N9</f>
+      </c>
+      <c r="C9" t="str">
+        <f>AS9</f>
+      </c>
+      <c r="D9" t="str">
+        <f>AU9</f>
+      </c>
+      <c r="E9" t="str">
+        <f>AV9</f>
+      </c>
+      <c r="G9" t="str">
+        <f>AU9&amp;"-"&amp;AV9</f>
+      </c>
+      <c r="H9" t="str">
+        <f>AS9&amp;"-"&amp;AV9</f>
+      </c>
+      <c r="J9" t="str">
+        <f>"Share "&amp;AV9</f>
+      </c>
+      <c r="M9" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s">
+        <v>6</v>
+      </c>
+      <c r="T9" t="s">
+        <v>7</v>
+      </c>
+      <c r="U9" t="s">
+        <v>8</v>
+      </c>
+      <c r="V9" t="s">
+        <v>9</v>
+      </c>
+      <c r="W9" t="s">
+        <v>10</v>
+      </c>
+      <c r="X9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="B10" t="str">
+        <f>N10</f>
+      </c>
+      <c r="C10" s="12" t="str">
+        <f>AS10</f>
+      </c>
+      <c r="D10" s="12" t="str">
+        <f>AU10</f>
+      </c>
+      <c r="E10" s="12" t="str">
+        <f>AV10</f>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="1" t="str">
+        <f>AV10/AU10-1</f>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f>AV10/AS10-1</f>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1" t="str">
+        <f>AV10/Sum(AV$9:AV$13)</f>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="M10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="12"/>
+      <c r="AE10" s="12"/>
+      <c r="AF10" s="12"/>
+      <c r="AG10" s="12"/>
+      <c r="AH10" s="12"/>
+      <c r="AI10" s="12"/>
+      <c r="AJ10" s="12"/>
+      <c r="AK10" s="12" t="n">
+        <v>36390869420.0532</v>
+      </c>
+      <c r="AL10" s="12" t="n">
+        <v>25896384490.0193</v>
+      </c>
+      <c r="AM10" s="12" t="n">
+        <v>19992431792.9514</v>
+      </c>
+      <c r="AN10" s="12" t="n">
+        <v>30286399449.1285</v>
+      </c>
+      <c r="AO10" s="12" t="n">
+        <v>41815605260.499</v>
+      </c>
+      <c r="AP10" s="12" t="n">
+        <v>37884999724.2074</v>
+      </c>
+      <c r="AQ10" s="12" t="n">
+        <v>41573208124.9344</v>
+      </c>
+      <c r="AR10" s="12" t="n">
+        <v>44992590026.8429</v>
+      </c>
+      <c r="AS10" s="12" t="n">
+        <v>57987138191.6318</v>
+      </c>
+      <c r="AT10" s="12" t="n">
+        <v>27730527616.1122</v>
+      </c>
+      <c r="AU10" s="12" t="n">
+        <v>40499381567.492</v>
+      </c>
+      <c r="AV10" s="12" t="n">
+        <v>65793606575.0316</v>
+      </c>
+      <c r="AW10" s="12"/>
+      <c r="AX10" s="12"/>
+      <c r="AY10" s="12"/>
+      <c r="AZ10" s="12"/>
+      <c r="BA10" s="12"/>
+      <c r="BB10" s="12"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <f>M11</f>
+      </c>
+      <c r="B11" t="str">
+        <f>N11</f>
+      </c>
+      <c r="C11" s="12" t="str">
+        <f>AS11</f>
+      </c>
+      <c r="D11" s="12" t="str">
+        <f>AU11</f>
+      </c>
+      <c r="E11" s="12" t="str">
+        <f>AV11</f>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="1" t="str">
+        <f>AV11/AU11-1</f>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f>AV11/AS11-1</f>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1" t="str">
+        <f>AV11/Sum(AV$9:AV$13)</f>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="M11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" t="s">
+        <v>43</v>
+      </c>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="12"/>
+      <c r="AG11" s="12"/>
+      <c r="AH11" s="12"/>
+      <c r="AI11" s="12"/>
+      <c r="AJ11" s="12"/>
+      <c r="AK11" s="12" t="n">
+        <v>432330186054.03</v>
+      </c>
+      <c r="AL11" s="12" t="n">
+        <v>368750341721.862</v>
+      </c>
+      <c r="AM11" s="12" t="n">
+        <v>338132277217.976</v>
+      </c>
+      <c r="AN11" s="12" t="n">
+        <v>312773586648.454</v>
+      </c>
+      <c r="AO11" s="12" t="n">
+        <v>328542572360.358</v>
+      </c>
+      <c r="AP11" s="12" t="n">
+        <v>353490764546.252</v>
+      </c>
+      <c r="AQ11" s="12" t="n">
+        <v>387087885833.412</v>
+      </c>
+      <c r="AR11" s="12" t="n">
+        <v>405081653062.029</v>
+      </c>
+      <c r="AS11" s="12" t="n">
+        <v>431127980837.866</v>
+      </c>
+      <c r="AT11" s="12" t="n">
+        <v>405348242639.538</v>
+      </c>
+      <c r="AU11" s="12" t="n">
+        <v>392694446194.055</v>
+      </c>
+      <c r="AV11" s="12" t="n">
+        <v>390453368175.855</v>
+      </c>
+      <c r="AW11" s="12"/>
+      <c r="AX11" s="12"/>
+      <c r="AY11" s="12"/>
+      <c r="AZ11" s="12"/>
+      <c r="BA11" s="12"/>
+      <c r="BB11" s="12"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <f>M12</f>
+      </c>
+      <c r="B12" t="str">
+        <f>N12</f>
+      </c>
+      <c r="C12" s="12" t="str">
+        <f>AS12</f>
+      </c>
+      <c r="D12" s="12" t="str">
+        <f>AU12</f>
+      </c>
+      <c r="E12" s="12" t="str">
+        <f>AV12</f>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="1" t="str">
+        <f>AV12/AU12-1</f>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f>AV12/AS12-1</f>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1" t="str">
+        <f>AV12/Sum(AV$9:AV$13)</f>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="M12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O12" s="12" t="n">
+        <v>248917998790.874</v>
+      </c>
+      <c r="P12" s="12" t="n">
+        <v>271885202720.129</v>
+      </c>
+      <c r="Q12" s="12" t="n">
+        <v>240412560734.939</v>
+      </c>
+      <c r="R12" s="12" t="n">
+        <v>231031479111.987</v>
+      </c>
+      <c r="S12" s="12" t="n">
+        <v>218250472650.085</v>
+      </c>
+      <c r="T12" s="12" t="n">
+        <v>212677633977.603</v>
+      </c>
+      <c r="U12" s="12" t="n">
+        <v>212071611328.834</v>
+      </c>
+      <c r="V12" s="12" t="n">
+        <v>204034317412.979</v>
+      </c>
+      <c r="W12" s="12" t="n">
+        <v>203216983313.484</v>
+      </c>
+      <c r="X12" s="12" t="n">
+        <v>209688280565.4</v>
+      </c>
+      <c r="Y12" s="12" t="n">
+        <v>222214954426.99</v>
+      </c>
+      <c r="Z12" s="12" t="n">
+        <v>236349380759.976</v>
+      </c>
+      <c r="AA12" s="12" t="n">
+        <v>274407867785.644</v>
+      </c>
+      <c r="AB12" s="12" t="n">
+        <v>335392180495.053</v>
+      </c>
+      <c r="AC12" s="12" t="n">
+        <v>355611032054.797</v>
+      </c>
+      <c r="AD12" s="12" t="n">
+        <v>399034409966.236</v>
+      </c>
+      <c r="AE12" s="12" t="n">
+        <v>429398322936.051</v>
+      </c>
+      <c r="AF12" s="12" t="n">
+        <v>464598647461.156</v>
+      </c>
+      <c r="AG12" s="12" t="n">
+        <v>524270052465.528</v>
+      </c>
+      <c r="AH12" s="12" t="n">
+        <v>523860817748.021</v>
+      </c>
+      <c r="AI12" s="12" t="n">
+        <v>493294382841.294</v>
+      </c>
+      <c r="AJ12" s="12" t="n">
+        <v>491810684195.121</v>
+      </c>
+      <c r="AK12" s="12"/>
+      <c r="AL12" s="12"/>
+      <c r="AM12" s="12"/>
+      <c r="AN12" s="12" t="n">
+        <v>7816340.87652611</v>
+      </c>
+      <c r="AO12" s="12"/>
+      <c r="AP12" s="12"/>
+      <c r="AQ12" s="12"/>
+      <c r="AR12" s="12"/>
+      <c r="AS12" s="12"/>
+      <c r="AT12" s="12"/>
+      <c r="AU12" s="12"/>
+      <c r="AV12" s="12"/>
+      <c r="AW12" s="12"/>
+      <c r="AX12" s="12"/>
+      <c r="AY12" s="12"/>
+      <c r="AZ12" s="12"/>
+      <c r="BA12" s="12"/>
+      <c r="BB12" s="12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <f>M13</f>
+      </c>
+      <c r="B13" t="str">
+        <f>N13</f>
+      </c>
+      <c r="C13" s="12" t="str">
+        <f>AS13</f>
+      </c>
+      <c r="D13" s="12" t="str">
+        <f>AU13</f>
+      </c>
+      <c r="E13" s="12" t="str">
+        <f>AV13</f>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="1" t="str">
+        <f>AV13/AU13-1</f>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f>AV13/AS13-1</f>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1" t="str">
+        <f>AV13/Sum(AV$9:AV$13)</f>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="M13" t="s">
+        <v>45</v>
+      </c>
+      <c r="N13" t="s">
+        <v>43</v>
+      </c>
+      <c r="O13" s="12" t="n">
+        <v>602606352101.694</v>
+      </c>
+      <c r="P13" s="12" t="n">
+        <v>620274552583.297</v>
+      </c>
+      <c r="Q13" s="12" t="n">
+        <v>555597728301.067</v>
+      </c>
+      <c r="R13" s="12" t="n">
+        <v>513282174398.476</v>
+      </c>
+      <c r="S13" s="12" t="n">
+        <v>468197035636.694</v>
+      </c>
+      <c r="T13" s="12" t="n">
+        <v>463718246766.96</v>
+      </c>
+      <c r="U13" s="12" t="n">
+        <v>456647075846.094</v>
+      </c>
+      <c r="V13" s="12" t="n">
+        <v>447160758493.617</v>
+      </c>
+      <c r="W13" s="12" t="n">
+        <v>450201318466.152</v>
+      </c>
+      <c r="X13" s="12" t="n">
+        <v>468044833590.874</v>
+      </c>
+      <c r="Y13" s="12" t="n">
+        <v>482426154042.693</v>
+      </c>
+      <c r="Z13" s="12" t="n">
+        <v>519564848435.905</v>
+      </c>
+      <c r="AA13" s="12" t="n">
+        <v>574278428296.36</v>
+      </c>
+      <c r="AB13" s="12" t="n">
+        <v>686572797072.324</v>
+      </c>
+      <c r="AC13" s="12" t="n">
+        <v>705848454956.435</v>
+      </c>
+      <c r="AD13" s="12" t="n">
+        <v>754734162091.152</v>
+      </c>
+      <c r="AE13" s="12" t="n">
+        <v>780154010413.381</v>
+      </c>
+      <c r="AF13" s="12" t="n">
+        <v>854960044741.897</v>
+      </c>
+      <c r="AG13" s="12" t="n">
+        <v>928290961219.569</v>
+      </c>
+      <c r="AH13" s="12" t="n">
+        <v>914201464665.633</v>
+      </c>
+      <c r="AI13" s="12" t="n">
+        <v>941647271844.871</v>
+      </c>
+      <c r="AJ13" s="12" t="n">
+        <v>919517495559.997</v>
+      </c>
+      <c r="AK13" s="12" t="n">
+        <v>854893667495.288</v>
+      </c>
+      <c r="AL13" s="12" t="n">
+        <v>753547648271.248</v>
+      </c>
+      <c r="AM13" s="12" t="n">
+        <v>734730935805.295</v>
+      </c>
+      <c r="AN13" s="12" t="n">
+        <v>707449202632.779</v>
+      </c>
+      <c r="AO13" s="12" t="n">
+        <v>729860428011.978</v>
+      </c>
+      <c r="AP13" s="12" t="n">
+        <v>743756641042.876</v>
+      </c>
+      <c r="AQ13" s="12" t="n">
+        <v>803641431930.826</v>
+      </c>
+      <c r="AR13" s="12" t="n">
+        <v>812550495675.43</v>
+      </c>
+      <c r="AS13" s="12" t="n">
+        <v>839984421891.179</v>
+      </c>
+      <c r="AT13" s="12" t="n">
+        <v>795568567643.196</v>
+      </c>
+      <c r="AU13" s="12" t="n">
+        <v>804667494998.361</v>
+      </c>
+      <c r="AV13" s="12" t="n">
+        <v>853072000000</v>
+      </c>
+      <c r="AW13" s="12" t="n">
+        <v>820251376580.069</v>
+      </c>
+      <c r="AX13" s="12" t="n">
+        <v>819313863553.375</v>
+      </c>
+      <c r="AY13" s="12" t="n">
+        <v>819450662554.299</v>
+      </c>
+      <c r="AZ13" s="12" t="n">
+        <v>819548057151.466</v>
+      </c>
+      <c r="BA13" s="12" t="n">
+        <v>819669680013.5</v>
+      </c>
+      <c r="BB13" s="12"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <f>M14</f>
+      </c>
+      <c r="B14" t="str">
+        <f>N14</f>
+      </c>
+      <c r="C14" s="12" t="str">
+        <f>AS14</f>
+      </c>
+      <c r="D14" s="12" t="str">
+        <f>AU14</f>
+      </c>
+      <c r="E14" s="12" t="str">
+        <f>AV14</f>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="1" t="str">
+        <f>AV14/AU14-1</f>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f>AV14/AS14-1</f>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1" t="str">
+        <f>Sum(J$9:J$13)</f>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="M14" t="s">
+        <v>46</v>
+      </c>
+      <c r="N14" t="s">
+        <v>47</v>
+      </c>
+      <c r="O14" s="12" t="str">
+        <f>Sum(O10:O13)</f>
+      </c>
+      <c r="P14" s="12" t="str">
+        <f>Sum(P10:P13)</f>
+      </c>
+      <c r="Q14" s="12" t="str">
+        <f>Sum(Q10:Q13)</f>
+      </c>
+      <c r="R14" s="12" t="str">
+        <f>Sum(R10:R13)</f>
+      </c>
+      <c r="S14" s="12" t="str">
+        <f>Sum(S10:S13)</f>
+      </c>
+      <c r="T14" s="12" t="str">
+        <f>Sum(T10:T13)</f>
+      </c>
+      <c r="U14" s="12" t="str">
+        <f>Sum(U10:U13)</f>
+      </c>
+      <c r="V14" s="12" t="str">
+        <f>Sum(V10:V13)</f>
+      </c>
+      <c r="W14" s="12" t="str">
+        <f>Sum(W10:W13)</f>
+      </c>
+      <c r="X14" s="12" t="str">
+        <f>Sum(X10:X13)</f>
+      </c>
+      <c r="Y14" s="12" t="str">
+        <f>Sum(Y10:Y13)</f>
+      </c>
+      <c r="Z14" s="12" t="str">
+        <f>Sum(Z10:Z13)</f>
+      </c>
+      <c r="AA14" s="12" t="str">
+        <f>Sum(AA10:AA13)</f>
+      </c>
+      <c r="AB14" s="12" t="str">
+        <f>Sum(AB10:AB13)</f>
+      </c>
+      <c r="AC14" s="12" t="str">
+        <f>Sum(AC10:AC13)</f>
+      </c>
+      <c r="AD14" s="12" t="str">
+        <f>Sum(AD10:AD13)</f>
+      </c>
+      <c r="AE14" s="12" t="str">
+        <f>Sum(AE10:AE13)</f>
+      </c>
+      <c r="AF14" s="12" t="str">
+        <f>Sum(AF10:AF13)</f>
+      </c>
+      <c r="AG14" s="12" t="str">
+        <f>Sum(AG10:AG13)</f>
+      </c>
+      <c r="AH14" s="12" t="str">
+        <f>Sum(AH10:AH13)</f>
+      </c>
+      <c r="AI14" s="12" t="str">
+        <f>Sum(AI10:AI13)</f>
+      </c>
+      <c r="AJ14" s="12" t="str">
+        <f>Sum(AJ10:AJ13)</f>
+      </c>
+      <c r="AK14" s="12" t="str">
+        <f>Sum(AK10:AK13)</f>
+      </c>
+      <c r="AL14" s="12" t="str">
+        <f>Sum(AL10:AL13)</f>
+      </c>
+      <c r="AM14" s="12" t="str">
+        <f>Sum(AM10:AM13)</f>
+      </c>
+      <c r="AN14" s="12" t="str">
+        <f>Sum(AN10:AN13)</f>
+      </c>
+      <c r="AO14" s="12" t="str">
+        <f>Sum(AO10:AO13)</f>
+      </c>
+      <c r="AP14" s="12" t="str">
+        <f>Sum(AP10:AP13)</f>
+      </c>
+      <c r="AQ14" s="12" t="str">
+        <f>Sum(AQ10:AQ13)</f>
+      </c>
+      <c r="AR14" s="12" t="str">
+        <f>Sum(AR10:AR13)</f>
+      </c>
+      <c r="AS14" s="12" t="str">
+        <f>Sum(AS10:AS13)</f>
+      </c>
+      <c r="AT14" s="12" t="str">
+        <f>Sum(AT10:AT13)</f>
+      </c>
+      <c r="AU14" s="12" t="str">
+        <f>Sum(AU10:AU13)</f>
+      </c>
+      <c r="AV14" s="12" t="str">
+        <f>Sum(AV10:AV13)</f>
+      </c>
+      <c r="AW14" s="12" t="str">
+        <f>Sum(AW10:AW13)</f>
+      </c>
+      <c r="AX14" s="12" t="str">
+        <f>Sum(AX10:AX13)</f>
+      </c>
+      <c r="AY14" s="12" t="str">
+        <f>Sum(AY10:AY13)</f>
+      </c>
+      <c r="AZ14" s="12" t="str">
+        <f>Sum(AZ10:AZ13)</f>
+      </c>
+      <c r="BA14" s="12" t="str">
+        <f>Sum(BA10:BA13)</f>
+      </c>
+      <c r="BB14" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
@@ -14986,16 +17902,16 @@
       <c r="A2" t="str">
         <f>L2</f>
       </c>
-      <c r="B2" s="11" t="str">
+      <c r="B2" s="10" t="str">
         <f>AQ2</f>
       </c>
-      <c r="C2" s="11" t="str">
+      <c r="C2" s="10" t="str">
         <f>AS2</f>
       </c>
-      <c r="D2" s="11" t="str">
+      <c r="D2" s="10" t="str">
         <f>AT2</f>
       </c>
-      <c r="E2" s="11"/>
+      <c r="E2" s="10"/>
       <c r="F2" s="1" t="str">
         <f>AT2/AS2-1</f>
       </c>
@@ -15010,125 +17926,125 @@
       <c r="L2" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="S2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="T2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="U2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="W2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU2" s="11"/>
-      <c r="AV2" s="11"/>
+      <c r="M2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU2" s="10"/>
+      <c r="AV2" s="10"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
         <f>L3</f>
       </c>
-      <c r="B3" s="11" t="str">
+      <c r="B3" s="10" t="str">
         <f>AQ3</f>
       </c>
-      <c r="C3" s="11" t="str">
+      <c r="C3" s="10" t="str">
         <f>AS3</f>
       </c>
-      <c r="D3" s="11" t="str">
+      <c r="D3" s="10" t="str">
         <f>AT3</f>
       </c>
-      <c r="E3" s="11"/>
+      <c r="E3" s="10"/>
       <c r="F3" s="1" t="str">
         <f>AT3/AS3-1</f>
       </c>
@@ -15143,125 +18059,125 @@
       <c r="L3" t="s">
         <v>61</v>
       </c>
-      <c r="M3" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="S3" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="T3" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="U3" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="V3" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="W3" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="X3" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG3" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH3" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI3" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ3" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK3" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL3" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM3" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO3" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP3" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ3" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR3" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS3" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT3" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU3" s="11"/>
-      <c r="AV3" s="11"/>
+      <c r="M3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="X3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="10"/>
+      <c r="AV3" s="10"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
         <f>L4</f>
       </c>
-      <c r="B4" s="11" t="str">
+      <c r="B4" s="10" t="str">
         <f>AQ4</f>
       </c>
-      <c r="C4" s="11" t="str">
+      <c r="C4" s="10" t="str">
         <f>AS4</f>
       </c>
-      <c r="D4" s="11" t="str">
+      <c r="D4" s="10" t="str">
         <f>AT4</f>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="10"/>
       <c r="F4" s="1" t="str">
         <f>AT4/AS4-1</f>
       </c>
@@ -15276,125 +18192,125 @@
       <c r="L4" t="s">
         <v>62</v>
       </c>
-      <c r="M4" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="S4" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="T4" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="U4" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="V4" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="W4" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="X4" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG4" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH4" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI4" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ4" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK4" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL4" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM4" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO4" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP4" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ4" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR4" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS4" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT4" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU4" s="11"/>
-      <c r="AV4" s="11"/>
+      <c r="M4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU4" s="10"/>
+      <c r="AV4" s="10"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
         <f>L5</f>
       </c>
-      <c r="B5" s="11" t="str">
+      <c r="B5" s="10" t="str">
         <f>AQ5</f>
       </c>
-      <c r="C5" s="11" t="str">
+      <c r="C5" s="10" t="str">
         <f>AS5</f>
       </c>
-      <c r="D5" s="11" t="str">
+      <c r="D5" s="10" t="str">
         <f>AT5</f>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="10"/>
       <c r="F5" s="1" t="str">
         <f>AT5/AS5-1</f>
       </c>
@@ -15409,125 +18325,125 @@
       <c r="L5" t="s">
         <v>63</v>
       </c>
-      <c r="M5" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="S5" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="T5" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="U5" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="V5" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="W5" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="X5" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH5" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI5" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ5" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK5" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL5" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM5" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN5" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO5" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP5" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ5" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR5" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS5" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT5" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU5" s="11"/>
-      <c r="AV5" s="11"/>
+      <c r="M5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="X5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU5" s="10"/>
+      <c r="AV5" s="10"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
         <f>L6</f>
       </c>
-      <c r="B6" s="11" t="str">
+      <c r="B6" s="10" t="str">
         <f>AQ6</f>
       </c>
-      <c r="C6" s="11" t="str">
+      <c r="C6" s="10" t="str">
         <f>AS6</f>
       </c>
-      <c r="D6" s="11" t="str">
+      <c r="D6" s="10" t="str">
         <f>AT6</f>
       </c>
-      <c r="E6" s="11"/>
+      <c r="E6" s="10"/>
       <c r="F6" s="1" t="str">
         <f>AT6/AS6-1</f>
       </c>
@@ -15542,125 +18458,125 @@
       <c r="L6" t="s">
         <v>64</v>
       </c>
-      <c r="M6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="S6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="T6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="U6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="V6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="W6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="X6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU6" s="11"/>
-      <c r="AV6" s="11"/>
+      <c r="M6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="10"/>
+      <c r="AV6" s="10"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
         <f>L7</f>
       </c>
-      <c r="B7" s="11" t="str">
+      <c r="B7" s="10" t="str">
         <f>AQ7</f>
       </c>
-      <c r="C7" s="11" t="str">
+      <c r="C7" s="10" t="str">
         <f>AS7</f>
       </c>
-      <c r="D7" s="11" t="str">
+      <c r="D7" s="10" t="str">
         <f>AT7</f>
       </c>
-      <c r="E7" s="11"/>
+      <c r="E7" s="10"/>
       <c r="F7" s="1" t="str">
         <f>AT7/AS7-1</f>
       </c>
@@ -15675,125 +18591,125 @@
       <c r="L7" t="s">
         <v>65</v>
       </c>
-      <c r="M7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="T7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="U7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="V7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="W7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="X7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU7" s="11"/>
-      <c r="AV7" s="11"/>
+      <c r="M7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="10"/>
+      <c r="AV7" s="10"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
         <f>L8</f>
       </c>
-      <c r="B8" s="11" t="str">
+      <c r="B8" s="10" t="str">
         <f>AQ8</f>
       </c>
-      <c r="C8" s="11" t="str">
+      <c r="C8" s="10" t="str">
         <f>AS8</f>
       </c>
-      <c r="D8" s="11" t="str">
+      <c r="D8" s="10" t="str">
         <f>AT8</f>
       </c>
-      <c r="E8" s="11"/>
+      <c r="E8" s="10"/>
       <c r="F8" s="1" t="str">
         <f>AT8/AS8-1</f>
       </c>
@@ -15808,125 +18724,125 @@
       <c r="L8" t="s">
         <v>66</v>
       </c>
-      <c r="M8" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="S8" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="T8" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="U8" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="V8" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="W8" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="X8" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD8" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF8" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG8" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH8" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI8" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ8" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK8" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL8" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM8" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN8" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO8" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP8" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ8" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR8" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS8" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT8" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU8" s="11"/>
-      <c r="AV8" s="11"/>
+      <c r="M8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="U8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="X8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU8" s="10"/>
+      <c r="AV8" s="10"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
         <f>L9</f>
       </c>
-      <c r="B9" s="11" t="str">
+      <c r="B9" s="10" t="str">
         <f>AQ9</f>
       </c>
-      <c r="C9" s="11" t="str">
+      <c r="C9" s="10" t="str">
         <f>AS9</f>
       </c>
-      <c r="D9" s="11" t="str">
+      <c r="D9" s="10" t="str">
         <f>AT9</f>
       </c>
-      <c r="E9" s="11"/>
+      <c r="E9" s="10"/>
       <c r="F9" s="1" t="str">
         <f>AT9/AS9-1</f>
       </c>
@@ -15941,125 +18857,125 @@
       <c r="L9" t="s">
         <v>67</v>
       </c>
-      <c r="M9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="O9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="S9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="T9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="U9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="V9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="W9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="X9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU9" s="11"/>
-      <c r="AV9" s="11"/>
+      <c r="M9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="U9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="X9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU9" s="10"/>
+      <c r="AV9" s="10"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
         <f>L10</f>
       </c>
-      <c r="B10" s="11" t="str">
+      <c r="B10" s="10" t="str">
         <f>AQ10</f>
       </c>
-      <c r="C10" s="11" t="str">
+      <c r="C10" s="10" t="str">
         <f>AS10</f>
       </c>
-      <c r="D10" s="11" t="str">
+      <c r="D10" s="10" t="str">
         <f>AT10</f>
       </c>
-      <c r="E10" s="11"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="1" t="str">
         <f>AT10/AS10-1</f>
       </c>
@@ -16074,125 +18990,125 @@
       <c r="L10" t="s">
         <v>68</v>
       </c>
-      <c r="M10" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="S10" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="T10" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="U10" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="V10" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="W10" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="X10" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF10" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG10" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH10" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI10" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ10" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK10" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL10" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM10" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN10" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO10" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP10" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ10" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR10" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS10" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT10" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU10" s="11"/>
-      <c r="AV10" s="11"/>
+      <c r="M10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="U10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="X10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU10" s="10"/>
+      <c r="AV10" s="10"/>
     </row>
     <row r="11">
       <c r="A11" t="str">
         <f>L11</f>
       </c>
-      <c r="B11" s="11" t="str">
+      <c r="B11" s="10" t="str">
         <f>AQ11</f>
       </c>
-      <c r="C11" s="11" t="str">
+      <c r="C11" s="10" t="str">
         <f>AS11</f>
       </c>
-      <c r="D11" s="11" t="str">
+      <c r="D11" s="10" t="str">
         <f>AT11</f>
       </c>
-      <c r="E11" s="11"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="1" t="str">
         <f>AT11/AS11-1</f>
       </c>
@@ -16207,125 +19123,125 @@
       <c r="L11" t="s">
         <v>69</v>
       </c>
-      <c r="M11" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="S11" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="T11" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="U11" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="V11" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="W11" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="X11" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC11" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD11" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF11" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG11" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH11" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI11" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ11" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK11" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL11" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM11" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN11" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO11" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP11" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ11" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR11" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS11" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT11" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU11" s="11"/>
-      <c r="AV11" s="11"/>
+      <c r="M11" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W11" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="X11" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO11" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP11" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ11" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR11" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS11" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT11" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU11" s="10"/>
+      <c r="AV11" s="10"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
         <f>L12</f>
       </c>
-      <c r="B12" s="11" t="str">
+      <c r="B12" s="10" t="str">
         <f>AQ12</f>
       </c>
-      <c r="C12" s="11" t="str">
+      <c r="C12" s="10" t="str">
         <f>AS12</f>
       </c>
-      <c r="D12" s="11" t="str">
+      <c r="D12" s="10" t="str">
         <f>AT12</f>
       </c>
-      <c r="E12" s="11"/>
+      <c r="E12" s="10"/>
       <c r="F12" s="1" t="str">
         <f>AT12/AS12-1</f>
       </c>
@@ -16340,125 +19256,125 @@
       <c r="L12" t="s">
         <v>70</v>
       </c>
-      <c r="M12" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="O12" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="S12" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="T12" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="U12" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="V12" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="W12" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="X12" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD12" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE12" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF12" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG12" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH12" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI12" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ12" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK12" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL12" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM12" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN12" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO12" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP12" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ12" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR12" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS12" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT12" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU12" s="11"/>
-      <c r="AV12" s="11"/>
+      <c r="M12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="U12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="X12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU12" s="10"/>
+      <c r="AV12" s="10"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
         <f>L13</f>
       </c>
-      <c r="B13" s="11" t="str">
+      <c r="B13" s="10" t="str">
         <f>AQ13</f>
       </c>
-      <c r="C13" s="11" t="str">
+      <c r="C13" s="10" t="str">
         <f>AS13</f>
       </c>
-      <c r="D13" s="11" t="str">
+      <c r="D13" s="10" t="str">
         <f>AT13</f>
       </c>
-      <c r="E13" s="11"/>
+      <c r="E13" s="10"/>
       <c r="F13" s="1" t="str">
         <f>AT13/AS13-1</f>
       </c>
@@ -16473,103 +19389,103 @@
       <c r="L13" t="s">
         <v>58</v>
       </c>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="X13" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC13" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD13" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE13" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF13" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG13" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH13" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI13" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ13" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK13" s="11"/>
-      <c r="AL13" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM13" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN13" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO13" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP13" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ13" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR13" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS13" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT13" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU13" s="11"/>
-      <c r="AV13" s="11"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="X13" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ13" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM13" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP13" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR13" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS13" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT13" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU13" s="10"/>
+      <c r="AV13" s="10"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
         <f>L14</f>
       </c>
-      <c r="B14" s="11" t="str">
+      <c r="B14" s="10" t="str">
         <f>AQ14</f>
       </c>
-      <c r="C14" s="11" t="str">
+      <c r="C14" s="10" t="str">
         <f>AS14</f>
       </c>
-      <c r="D14" s="11" t="str">
+      <c r="D14" s="10" t="str">
         <f>AT14</f>
       </c>
-      <c r="E14" s="11"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="1" t="str">
         <f>AT14/AS14-1</f>
       </c>
@@ -16584,112 +19500,112 @@
       <c r="L14" t="s">
         <v>46</v>
       </c>
-      <c r="M14" s="11" t="str">
+      <c r="M14" s="10" t="str">
         <f>Sum(M2:M13)</f>
       </c>
-      <c r="N14" s="11" t="str">
+      <c r="N14" s="10" t="str">
         <f>Sum(N2:N13)</f>
       </c>
-      <c r="O14" s="11" t="str">
+      <c r="O14" s="10" t="str">
         <f>Sum(O2:O13)</f>
       </c>
-      <c r="P14" s="11" t="str">
+      <c r="P14" s="10" t="str">
         <f>Sum(P2:P13)</f>
       </c>
-      <c r="Q14" s="11" t="str">
+      <c r="Q14" s="10" t="str">
         <f>Sum(Q2:Q13)</f>
       </c>
-      <c r="R14" s="11" t="str">
+      <c r="R14" s="10" t="str">
         <f>Sum(R2:R13)</f>
       </c>
-      <c r="S14" s="11" t="str">
+      <c r="S14" s="10" t="str">
         <f>Sum(S2:S13)</f>
       </c>
-      <c r="T14" s="11" t="str">
+      <c r="T14" s="10" t="str">
         <f>Sum(T2:T13)</f>
       </c>
-      <c r="U14" s="11" t="str">
+      <c r="U14" s="10" t="str">
         <f>Sum(U2:U13)</f>
       </c>
-      <c r="V14" s="11" t="str">
+      <c r="V14" s="10" t="str">
         <f>Sum(V2:V13)</f>
       </c>
-      <c r="W14" s="11" t="str">
+      <c r="W14" s="10" t="str">
         <f>Sum(W2:W13)</f>
       </c>
-      <c r="X14" s="11" t="str">
+      <c r="X14" s="10" t="str">
         <f>Sum(X2:X13)</f>
       </c>
-      <c r="Y14" s="11" t="str">
+      <c r="Y14" s="10" t="str">
         <f>Sum(Y2:Y13)</f>
       </c>
-      <c r="Z14" s="11" t="str">
+      <c r="Z14" s="10" t="str">
         <f>Sum(Z2:Z13)</f>
       </c>
-      <c r="AA14" s="11" t="str">
+      <c r="AA14" s="10" t="str">
         <f>Sum(AA2:AA13)</f>
       </c>
-      <c r="AB14" s="11" t="str">
+      <c r="AB14" s="10" t="str">
         <f>Sum(AB2:AB13)</f>
       </c>
-      <c r="AC14" s="11" t="str">
+      <c r="AC14" s="10" t="str">
         <f>Sum(AC2:AC13)</f>
       </c>
-      <c r="AD14" s="11" t="str">
+      <c r="AD14" s="10" t="str">
         <f>Sum(AD2:AD13)</f>
       </c>
-      <c r="AE14" s="11" t="str">
+      <c r="AE14" s="10" t="str">
         <f>Sum(AE2:AE13)</f>
       </c>
-      <c r="AF14" s="11" t="str">
+      <c r="AF14" s="10" t="str">
         <f>Sum(AF2:AF13)</f>
       </c>
-      <c r="AG14" s="11" t="str">
+      <c r="AG14" s="10" t="str">
         <f>Sum(AG2:AG13)</f>
       </c>
-      <c r="AH14" s="11" t="str">
+      <c r="AH14" s="10" t="str">
         <f>Sum(AH2:AH13)</f>
       </c>
-      <c r="AI14" s="11" t="str">
+      <c r="AI14" s="10" t="str">
         <f>Sum(AI2:AI13)</f>
       </c>
-      <c r="AJ14" s="11" t="str">
+      <c r="AJ14" s="10" t="str">
         <f>Sum(AJ2:AJ13)</f>
       </c>
-      <c r="AK14" s="11" t="str">
+      <c r="AK14" s="10" t="str">
         <f>Sum(AK2:AK13)</f>
       </c>
-      <c r="AL14" s="11" t="str">
+      <c r="AL14" s="10" t="str">
         <f>Sum(AL2:AL13)</f>
       </c>
-      <c r="AM14" s="11" t="str">
+      <c r="AM14" s="10" t="str">
         <f>Sum(AM2:AM13)</f>
       </c>
-      <c r="AN14" s="11" t="str">
+      <c r="AN14" s="10" t="str">
         <f>Sum(AN2:AN13)</f>
       </c>
-      <c r="AO14" s="11" t="str">
+      <c r="AO14" s="10" t="str">
         <f>Sum(AO2:AO13)</f>
       </c>
-      <c r="AP14" s="11" t="str">
+      <c r="AP14" s="10" t="str">
         <f>Sum(AP2:AP13)</f>
       </c>
-      <c r="AQ14" s="11" t="str">
+      <c r="AQ14" s="10" t="str">
         <f>Sum(AQ2:AQ13)</f>
       </c>
-      <c r="AR14" s="11" t="str">
+      <c r="AR14" s="10" t="str">
         <f>Sum(AR2:AR13)</f>
       </c>
-      <c r="AS14" s="11" t="str">
+      <c r="AS14" s="10" t="str">
         <f>Sum(AS2:AS13)</f>
       </c>
-      <c r="AT14" s="11" t="str">
+      <c r="AT14" s="10" t="str">
         <f>Sum(AT2:AT13)</f>
       </c>
-      <c r="AU14" s="11" t="str">
+      <c r="AU14" s="10" t="str">
         <f>Sum(AU2:AU13)</f>
       </c>
-      <c r="AV14" s="11"/>
+      <c r="AV14" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/NPS2024/DoD_2024_NPS.xlsx
+++ b/Output/AcqTrends/NPS2024/DoD_2024_NPS.xlsx
@@ -301,7 +301,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="11">
+  <numFmts count="12">
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="170" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
@@ -313,6 +313,7 @@
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="188" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="189" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="190" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -348,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -362,6 +363,7 @@
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="188" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="189" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="190" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2247,71 +2249,71 @@
       <c r="N2" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="11"/>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="11" t="n">
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="13"/>
+      <c r="AK2" s="13" t="n">
         <v>27766409244.5725</v>
       </c>
-      <c r="AL2" s="11" t="n">
+      <c r="AL2" s="13" t="n">
         <v>20117589432.5252</v>
       </c>
-      <c r="AM2" s="11" t="n">
+      <c r="AM2" s="13" t="n">
         <v>15814444285.1675</v>
       </c>
-      <c r="AN2" s="11" t="n">
+      <c r="AN2" s="13" t="n">
         <v>24205301305.0384</v>
       </c>
-      <c r="AO2" s="11" t="n">
+      <c r="AO2" s="13" t="n">
         <v>33686791345.6108</v>
       </c>
-      <c r="AP2" s="11" t="n">
+      <c r="AP2" s="13" t="n">
         <v>31035471218.9151</v>
       </c>
-      <c r="AQ2" s="11" t="n">
+      <c r="AQ2" s="13" t="n">
         <v>34812921569.4345</v>
       </c>
-      <c r="AR2" s="11" t="n">
+      <c r="AR2" s="13" t="n">
         <v>38372888881.5383</v>
       </c>
-      <c r="AS2" s="11" t="n">
+      <c r="AS2" s="13" t="n">
         <v>50101609453.4146</v>
       </c>
-      <c r="AT2" s="11" t="n">
+      <c r="AT2" s="13" t="n">
         <v>24784144858.8701</v>
       </c>
-      <c r="AU2" s="11" t="n">
+      <c r="AU2" s="13" t="n">
         <v>38727720245.0645</v>
       </c>
-      <c r="AV2" s="11" t="n">
+      <c r="AV2" s="13" t="n">
         <v>65793606575.0316</v>
       </c>
-      <c r="AW2" s="11"/>
-      <c r="AX2" s="11"/>
-      <c r="AY2" s="11"/>
-      <c r="AZ2" s="11"/>
-      <c r="BA2" s="11"/>
-      <c r="BB2" s="11"/>
-      <c r="BC2" s="11"/>
+      <c r="AW2" s="13"/>
+      <c r="AX2" s="13"/>
+      <c r="AY2" s="13"/>
+      <c r="AZ2" s="13"/>
+      <c r="BA2" s="13"/>
+      <c r="BB2" s="13"/>
+      <c r="BC2" s="13"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -2326,71 +2328,71 @@
       <c r="N3" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11"/>
-      <c r="AG3" s="11"/>
-      <c r="AH3" s="11"/>
-      <c r="AI3" s="11"/>
-      <c r="AJ3" s="11"/>
-      <c r="AK3" s="11" t="n">
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="13"/>
+      <c r="AJ3" s="13"/>
+      <c r="AK3" s="13" t="n">
         <v>329870021411.014</v>
       </c>
-      <c r="AL3" s="11" t="n">
+      <c r="AL3" s="13" t="n">
         <v>286463462910.156</v>
       </c>
-      <c r="AM3" s="11" t="n">
+      <c r="AM3" s="13" t="n">
         <v>267469916339.332</v>
       </c>
-      <c r="AN3" s="11" t="n">
+      <c r="AN3" s="13" t="n">
         <v>249972893535.921</v>
       </c>
-      <c r="AO3" s="11" t="n">
+      <c r="AO3" s="13" t="n">
         <v>264674994282.781</v>
       </c>
-      <c r="AP3" s="11" t="n">
+      <c r="AP3" s="13" t="n">
         <v>289580375586.423</v>
       </c>
-      <c r="AQ3" s="11" t="n">
+      <c r="AQ3" s="13" t="n">
         <v>324142899184.017</v>
       </c>
-      <c r="AR3" s="11" t="n">
+      <c r="AR3" s="13" t="n">
         <v>345482517268.407</v>
       </c>
-      <c r="AS3" s="11" t="n">
+      <c r="AS3" s="13" t="n">
         <v>372499943849.534</v>
       </c>
-      <c r="AT3" s="11" t="n">
+      <c r="AT3" s="13" t="n">
         <v>362279784320.787</v>
       </c>
-      <c r="AU3" s="11" t="n">
+      <c r="AU3" s="13" t="n">
         <v>375515873709.073</v>
       </c>
-      <c r="AV3" s="11" t="n">
+      <c r="AV3" s="13" t="n">
         <v>390453368175.855</v>
       </c>
-      <c r="AW3" s="11"/>
-      <c r="AX3" s="11"/>
-      <c r="AY3" s="11"/>
-      <c r="AZ3" s="11"/>
-      <c r="BA3" s="11"/>
-      <c r="BB3" s="11"/>
-      <c r="BC3" s="11"/>
+      <c r="AW3" s="13"/>
+      <c r="AX3" s="13"/>
+      <c r="AY3" s="13"/>
+      <c r="AZ3" s="13"/>
+      <c r="BA3" s="13"/>
+      <c r="BB3" s="13"/>
+      <c r="BC3" s="13"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -2405,93 +2407,93 @@
       <c r="N4" t="s">
         <v>44</v>
       </c>
-      <c r="O4" s="11" t="n">
+      <c r="O4" s="13" t="n">
         <v>120350129405</v>
       </c>
-      <c r="P4" s="11" t="n">
+      <c r="P4" s="13" t="n">
         <v>136154193844</v>
       </c>
-      <c r="Q4" s="11" t="n">
+      <c r="Q4" s="13" t="n">
         <v>123406660550</v>
       </c>
-      <c r="R4" s="11" t="n">
+      <c r="R4" s="13" t="n">
         <v>121373382142</v>
       </c>
-      <c r="S4" s="11" t="n">
+      <c r="S4" s="13" t="n">
         <v>117161902725</v>
       </c>
-      <c r="T4" s="11" t="n">
+      <c r="T4" s="13" t="n">
         <v>116592014868</v>
       </c>
-      <c r="U4" s="11" t="n">
+      <c r="U4" s="13" t="n">
         <v>118448779098</v>
       </c>
-      <c r="V4" s="11" t="n">
+      <c r="V4" s="13" t="n">
         <v>115982151879</v>
       </c>
-      <c r="W4" s="11" t="n">
+      <c r="W4" s="13" t="n">
         <v>116965882167</v>
       </c>
-      <c r="X4" s="11" t="n">
+      <c r="X4" s="13" t="n">
         <v>122185036488</v>
       </c>
-      <c r="Y4" s="11" t="n">
+      <c r="Y4" s="13" t="n">
         <v>132178486506.387</v>
       </c>
-      <c r="Z4" s="11" t="n">
+      <c r="Z4" s="13" t="n">
         <v>143993638543.836</v>
       </c>
-      <c r="AA4" s="11" t="n">
+      <c r="AA4" s="13" t="n">
         <v>169810521226.128</v>
       </c>
-      <c r="AB4" s="11" t="n">
+      <c r="AB4" s="13" t="n">
         <v>211533087512.337</v>
       </c>
-      <c r="AC4" s="11" t="n">
+      <c r="AC4" s="13" t="n">
         <v>229761957048.789</v>
       </c>
-      <c r="AD4" s="11" t="n">
+      <c r="AD4" s="13" t="n">
         <v>265663361025.89</v>
       </c>
-      <c r="AE4" s="11" t="n">
+      <c r="AE4" s="13" t="n">
         <v>295165178110.853</v>
       </c>
-      <c r="AF4" s="11" t="n">
+      <c r="AF4" s="13" t="n">
         <v>328153480580.909</v>
       </c>
-      <c r="AG4" s="11" t="n">
+      <c r="AG4" s="13" t="n">
         <v>377988099747.404</v>
       </c>
-      <c r="AH4" s="11" t="n">
+      <c r="AH4" s="13" t="n">
         <v>381555380786.985</v>
       </c>
-      <c r="AI4" s="11" t="n">
+      <c r="AI4" s="13" t="n">
         <v>362403868841.008</v>
       </c>
-      <c r="AJ4" s="11" t="n">
+      <c r="AJ4" s="13" t="n">
         <v>368565915961.162</v>
       </c>
-      <c r="AK4" s="11"/>
-      <c r="AL4" s="11"/>
-      <c r="AM4" s="11"/>
-      <c r="AN4" s="11" t="n">
+      <c r="AK4" s="13"/>
+      <c r="AL4" s="13"/>
+      <c r="AM4" s="13"/>
+      <c r="AN4" s="13" t="n">
         <v>6246925.665</v>
       </c>
-      <c r="AO4" s="11"/>
-      <c r="AP4" s="11"/>
-      <c r="AQ4" s="11"/>
-      <c r="AR4" s="11"/>
-      <c r="AS4" s="11"/>
-      <c r="AT4" s="11"/>
-      <c r="AU4" s="11"/>
-      <c r="AV4" s="11"/>
-      <c r="AW4" s="11"/>
-      <c r="AX4" s="11"/>
-      <c r="AY4" s="11"/>
-      <c r="AZ4" s="11"/>
-      <c r="BA4" s="11"/>
-      <c r="BB4" s="11"/>
-      <c r="BC4" s="11"/>
+      <c r="AO4" s="13"/>
+      <c r="AP4" s="13"/>
+      <c r="AQ4" s="13"/>
+      <c r="AR4" s="13"/>
+      <c r="AS4" s="13"/>
+      <c r="AT4" s="13"/>
+      <c r="AU4" s="13"/>
+      <c r="AV4" s="13"/>
+      <c r="AW4" s="13"/>
+      <c r="AX4" s="13"/>
+      <c r="AY4" s="13"/>
+      <c r="AZ4" s="13"/>
+      <c r="BA4" s="13"/>
+      <c r="BB4" s="13"/>
+      <c r="BC4" s="13"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -2506,127 +2508,127 @@
       <c r="N5" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="11" t="n">
+      <c r="O5" s="13" t="n">
         <v>289694000000</v>
       </c>
-      <c r="P5" s="11" t="n">
+      <c r="P5" s="13" t="n">
         <v>262324000000</v>
       </c>
-      <c r="Q5" s="11" t="n">
+      <c r="Q5" s="13" t="n">
         <v>286834000000</v>
       </c>
-      <c r="R5" s="11" t="n">
+      <c r="R5" s="13" t="n">
         <v>278497000000</v>
       </c>
-      <c r="S5" s="11" t="n">
+      <c r="S5" s="13" t="n">
         <v>268553000000</v>
       </c>
-      <c r="T5" s="11" t="n">
+      <c r="T5" s="13" t="n">
         <v>259373000000</v>
       </c>
-      <c r="U5" s="11" t="n">
+      <c r="U5" s="13" t="n">
         <v>253130000000</v>
       </c>
-      <c r="V5" s="11" t="n">
+      <c r="V5" s="13" t="n">
         <v>258251000000</v>
       </c>
-      <c r="W5" s="11" t="n">
+      <c r="W5" s="13" t="n">
         <v>255793000000</v>
       </c>
-      <c r="X5" s="11" t="n">
+      <c r="X5" s="13" t="n">
         <v>261198000000</v>
       </c>
-      <c r="Y5" s="11" t="n">
+      <c r="Y5" s="13" t="n">
         <v>281029000000</v>
       </c>
-      <c r="Z5" s="11" t="n">
+      <c r="Z5" s="13" t="n">
         <v>290185000000</v>
       </c>
-      <c r="AA5" s="11" t="n">
+      <c r="AA5" s="13" t="n">
         <v>331845000000</v>
       </c>
-      <c r="AB5" s="11" t="n">
+      <c r="AB5" s="13" t="n">
         <v>387136000000</v>
       </c>
-      <c r="AC5" s="11" t="n">
+      <c r="AC5" s="13" t="n">
         <v>436439000000</v>
       </c>
-      <c r="AD5" s="11" t="n">
+      <c r="AD5" s="13" t="n">
         <v>474071000000</v>
       </c>
-      <c r="AE5" s="11" t="n">
+      <c r="AE5" s="13" t="n">
         <v>499297000000</v>
       </c>
-      <c r="AF5" s="11" t="n">
+      <c r="AF5" s="13" t="n">
         <v>528548000000</v>
       </c>
-      <c r="AG5" s="11" t="n">
+      <c r="AG5" s="13" t="n">
         <v>594632000000</v>
       </c>
-      <c r="AH5" s="11" t="n">
+      <c r="AH5" s="13" t="n">
         <v>636742000000</v>
       </c>
-      <c r="AI5" s="11" t="n">
+      <c r="AI5" s="13" t="n">
         <v>666703000000</v>
       </c>
-      <c r="AJ5" s="11" t="n">
+      <c r="AJ5" s="13" t="n">
         <v>678064000000</v>
       </c>
-      <c r="AK5" s="11" t="n">
+      <c r="AK5" s="13" t="n">
         <v>650851000000</v>
       </c>
-      <c r="AL5" s="11" t="n">
+      <c r="AL5" s="13" t="n">
         <v>607795000000</v>
       </c>
-      <c r="AM5" s="11" t="n">
+      <c r="AM5" s="13" t="n">
         <v>577897000000</v>
       </c>
-      <c r="AN5" s="11" t="n">
+      <c r="AN5" s="13" t="n">
         <v>562499000000</v>
       </c>
-      <c r="AO5" s="11" t="n">
+      <c r="AO5" s="13" t="n">
         <v>565370000000</v>
       </c>
-      <c r="AP5" s="11" t="n">
+      <c r="AP5" s="13" t="n">
         <v>568897000000</v>
       </c>
-      <c r="AQ5" s="11" t="n">
+      <c r="AQ5" s="13" t="n">
         <v>600804000000</v>
       </c>
-      <c r="AR5" s="11" t="n">
+      <c r="AR5" s="13" t="n">
         <v>653690000000</v>
       </c>
-      <c r="AS5" s="11" t="n">
+      <c r="AS5" s="13" t="n">
         <v>690363000000</v>
       </c>
-      <c r="AT5" s="11" t="n">
+      <c r="AT5" s="13" t="n">
         <v>717577000000</v>
       </c>
-      <c r="AU5" s="11" t="n">
+      <c r="AU5" s="13" t="n">
         <v>726458000000</v>
       </c>
-      <c r="AV5" s="11" t="n">
+      <c r="AV5" s="13" t="n">
         <v>775874000000</v>
       </c>
-      <c r="AW5" s="11" t="n">
+      <c r="AW5" s="13" t="n">
         <v>859539000000</v>
       </c>
-      <c r="AX5" s="11" t="n">
+      <c r="AX5" s="13" t="n">
         <v>878467000000</v>
       </c>
-      <c r="AY5" s="11" t="n">
+      <c r="AY5" s="13" t="n">
         <v>883218000000</v>
       </c>
-      <c r="AZ5" s="11" t="n">
+      <c r="AZ5" s="13" t="n">
         <v>895811000000</v>
       </c>
-      <c r="BA5" s="11" t="n">
+      <c r="BA5" s="13" t="n">
         <v>914366000000</v>
       </c>
-      <c r="BB5" s="11" t="n">
+      <c r="BB5" s="13" t="n">
         <v>934814000000</v>
       </c>
-      <c r="BC5" s="11"/>
+      <c r="BC5" s="13"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -2641,127 +2643,127 @@
       <c r="N6" t="s">
         <v>47</v>
       </c>
-      <c r="O6" s="11" t="str">
+      <c r="O6" s="13" t="str">
         <f>Sum(O2:O5)</f>
       </c>
-      <c r="P6" s="11" t="str">
+      <c r="P6" s="13" t="str">
         <f>Sum(P2:P5)</f>
       </c>
-      <c r="Q6" s="11" t="str">
+      <c r="Q6" s="13" t="str">
         <f>Sum(Q2:Q5)</f>
       </c>
-      <c r="R6" s="11" t="str">
+      <c r="R6" s="13" t="str">
         <f>Sum(R2:R5)</f>
       </c>
-      <c r="S6" s="11" t="str">
+      <c r="S6" s="13" t="str">
         <f>Sum(S2:S5)</f>
       </c>
-      <c r="T6" s="11" t="str">
+      <c r="T6" s="13" t="str">
         <f>Sum(T2:T5)</f>
       </c>
-      <c r="U6" s="11" t="str">
+      <c r="U6" s="13" t="str">
         <f>Sum(U2:U5)</f>
       </c>
-      <c r="V6" s="11" t="str">
+      <c r="V6" s="13" t="str">
         <f>Sum(V2:V5)</f>
       </c>
-      <c r="W6" s="11" t="str">
+      <c r="W6" s="13" t="str">
         <f>Sum(W2:W5)</f>
       </c>
-      <c r="X6" s="11" t="str">
+      <c r="X6" s="13" t="str">
         <f>Sum(X2:X5)</f>
       </c>
-      <c r="Y6" s="11" t="str">
+      <c r="Y6" s="13" t="str">
         <f>Sum(Y2:Y5)</f>
       </c>
-      <c r="Z6" s="11" t="str">
+      <c r="Z6" s="13" t="str">
         <f>Sum(Z2:Z5)</f>
       </c>
-      <c r="AA6" s="11" t="str">
+      <c r="AA6" s="13" t="str">
         <f>Sum(AA2:AA5)</f>
       </c>
-      <c r="AB6" s="11" t="str">
+      <c r="AB6" s="13" t="str">
         <f>Sum(AB2:AB5)</f>
       </c>
-      <c r="AC6" s="11" t="str">
+      <c r="AC6" s="13" t="str">
         <f>Sum(AC2:AC5)</f>
       </c>
-      <c r="AD6" s="11" t="str">
+      <c r="AD6" s="13" t="str">
         <f>Sum(AD2:AD5)</f>
       </c>
-      <c r="AE6" s="11" t="str">
+      <c r="AE6" s="13" t="str">
         <f>Sum(AE2:AE5)</f>
       </c>
-      <c r="AF6" s="11" t="str">
+      <c r="AF6" s="13" t="str">
         <f>Sum(AF2:AF5)</f>
       </c>
-      <c r="AG6" s="11" t="str">
+      <c r="AG6" s="13" t="str">
         <f>Sum(AG2:AG5)</f>
       </c>
-      <c r="AH6" s="11" t="str">
+      <c r="AH6" s="13" t="str">
         <f>Sum(AH2:AH5)</f>
       </c>
-      <c r="AI6" s="11" t="str">
+      <c r="AI6" s="13" t="str">
         <f>Sum(AI2:AI5)</f>
       </c>
-      <c r="AJ6" s="11" t="str">
+      <c r="AJ6" s="13" t="str">
         <f>Sum(AJ2:AJ5)</f>
       </c>
-      <c r="AK6" s="11" t="str">
+      <c r="AK6" s="13" t="str">
         <f>Sum(AK2:AK5)</f>
       </c>
-      <c r="AL6" s="11" t="str">
+      <c r="AL6" s="13" t="str">
         <f>Sum(AL2:AL5)</f>
       </c>
-      <c r="AM6" s="11" t="str">
+      <c r="AM6" s="13" t="str">
         <f>Sum(AM2:AM5)</f>
       </c>
-      <c r="AN6" s="11" t="str">
+      <c r="AN6" s="13" t="str">
         <f>Sum(AN2:AN5)</f>
       </c>
-      <c r="AO6" s="11" t="str">
+      <c r="AO6" s="13" t="str">
         <f>Sum(AO2:AO5)</f>
       </c>
-      <c r="AP6" s="11" t="str">
+      <c r="AP6" s="13" t="str">
         <f>Sum(AP2:AP5)</f>
       </c>
-      <c r="AQ6" s="11" t="str">
+      <c r="AQ6" s="13" t="str">
         <f>Sum(AQ2:AQ5)</f>
       </c>
-      <c r="AR6" s="11" t="str">
+      <c r="AR6" s="13" t="str">
         <f>Sum(AR2:AR5)</f>
       </c>
-      <c r="AS6" s="11" t="str">
+      <c r="AS6" s="13" t="str">
         <f>Sum(AS2:AS5)</f>
       </c>
-      <c r="AT6" s="11" t="str">
+      <c r="AT6" s="13" t="str">
         <f>Sum(AT2:AT5)</f>
       </c>
-      <c r="AU6" s="11" t="str">
+      <c r="AU6" s="13" t="str">
         <f>Sum(AU2:AU5)</f>
       </c>
-      <c r="AV6" s="11" t="str">
+      <c r="AV6" s="13" t="str">
         <f>Sum(AV2:AV5)</f>
       </c>
-      <c r="AW6" s="11" t="str">
+      <c r="AW6" s="13" t="str">
         <f>Sum(AW2:AW5)</f>
       </c>
-      <c r="AX6" s="11" t="str">
+      <c r="AX6" s="13" t="str">
         <f>Sum(AX2:AX5)</f>
       </c>
-      <c r="AY6" s="11" t="str">
+      <c r="AY6" s="13" t="str">
         <f>Sum(AY2:AY5)</f>
       </c>
-      <c r="AZ6" s="11" t="str">
+      <c r="AZ6" s="13" t="str">
         <f>Sum(AZ2:AZ5)</f>
       </c>
-      <c r="BA6" s="11" t="str">
+      <c r="BA6" s="13" t="str">
         <f>Sum(BA2:BA5)</f>
       </c>
-      <c r="BB6" s="11" t="str">
+      <c r="BB6" s="13" t="str">
         <f>Sum(BB2:BB5)</f>
       </c>
-      <c r="BC6" s="11"/>
+      <c r="BC6" s="13"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -2922,16 +2924,16 @@
       <c r="B10" t="str">
         <f>N10</f>
       </c>
-      <c r="C10" s="11" t="str">
+      <c r="C10" s="13" t="str">
         <f>AS10</f>
       </c>
-      <c r="D10" s="11" t="str">
+      <c r="D10" s="13" t="str">
         <f>AU10</f>
       </c>
-      <c r="E10" s="11" t="str">
+      <c r="E10" s="13" t="str">
         <f>AV10</f>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="1" t="str">
         <f>AV10/AU10-1</f>
       </c>
@@ -2949,71 +2951,71 @@
       <c r="N10" t="s">
         <v>42</v>
       </c>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="11"/>
-      <c r="AC10" s="11"/>
-      <c r="AD10" s="11"/>
-      <c r="AE10" s="11"/>
-      <c r="AF10" s="11"/>
-      <c r="AG10" s="11"/>
-      <c r="AH10" s="11"/>
-      <c r="AI10" s="11"/>
-      <c r="AJ10" s="11"/>
-      <c r="AK10" s="11" t="n">
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="13"/>
+      <c r="AI10" s="13"/>
+      <c r="AJ10" s="13"/>
+      <c r="AK10" s="13" t="n">
         <v>36390869420.0532</v>
       </c>
-      <c r="AL10" s="11" t="n">
+      <c r="AL10" s="13" t="n">
         <v>25896384490.0193</v>
       </c>
-      <c r="AM10" s="11" t="n">
+      <c r="AM10" s="13" t="n">
         <v>19992431792.9514</v>
       </c>
-      <c r="AN10" s="11" t="n">
+      <c r="AN10" s="13" t="n">
         <v>30286399449.1285</v>
       </c>
-      <c r="AO10" s="11" t="n">
+      <c r="AO10" s="13" t="n">
         <v>41815605260.499</v>
       </c>
-      <c r="AP10" s="11" t="n">
+      <c r="AP10" s="13" t="n">
         <v>37884999724.2074</v>
       </c>
-      <c r="AQ10" s="11" t="n">
+      <c r="AQ10" s="13" t="n">
         <v>41573208124.9344</v>
       </c>
-      <c r="AR10" s="11" t="n">
+      <c r="AR10" s="13" t="n">
         <v>44992590026.8429</v>
       </c>
-      <c r="AS10" s="11" t="n">
+      <c r="AS10" s="13" t="n">
         <v>57987138191.6318</v>
       </c>
-      <c r="AT10" s="11" t="n">
+      <c r="AT10" s="13" t="n">
         <v>27730527616.1122</v>
       </c>
-      <c r="AU10" s="11" t="n">
+      <c r="AU10" s="13" t="n">
         <v>40499381567.492</v>
       </c>
-      <c r="AV10" s="11" t="n">
+      <c r="AV10" s="13" t="n">
         <v>65793606575.0316</v>
       </c>
-      <c r="AW10" s="11"/>
-      <c r="AX10" s="11"/>
-      <c r="AY10" s="11"/>
-      <c r="AZ10" s="11"/>
-      <c r="BA10" s="11"/>
-      <c r="BB10" s="11"/>
-      <c r="BC10" s="11"/>
+      <c r="AW10" s="13"/>
+      <c r="AX10" s="13"/>
+      <c r="AY10" s="13"/>
+      <c r="AZ10" s="13"/>
+      <c r="BA10" s="13"/>
+      <c r="BB10" s="13"/>
+      <c r="BC10" s="13"/>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -3022,16 +3024,16 @@
       <c r="B11" t="str">
         <f>N11</f>
       </c>
-      <c r="C11" s="11" t="str">
+      <c r="C11" s="13" t="str">
         <f>AS11</f>
       </c>
-      <c r="D11" s="11" t="str">
+      <c r="D11" s="13" t="str">
         <f>AU11</f>
       </c>
-      <c r="E11" s="11" t="str">
+      <c r="E11" s="13" t="str">
         <f>AV11</f>
       </c>
-      <c r="F11" s="11"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="1" t="str">
         <f>AV11/AU11-1</f>
       </c>
@@ -3049,71 +3051,71 @@
       <c r="N11" t="s">
         <v>43</v>
       </c>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="11"/>
-      <c r="AC11" s="11"/>
-      <c r="AD11" s="11"/>
-      <c r="AE11" s="11"/>
-      <c r="AF11" s="11"/>
-      <c r="AG11" s="11"/>
-      <c r="AH11" s="11"/>
-      <c r="AI11" s="11"/>
-      <c r="AJ11" s="11"/>
-      <c r="AK11" s="11" t="n">
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="13"/>
+      <c r="AI11" s="13"/>
+      <c r="AJ11" s="13"/>
+      <c r="AK11" s="13" t="n">
         <v>432330186054.03</v>
       </c>
-      <c r="AL11" s="11" t="n">
+      <c r="AL11" s="13" t="n">
         <v>368750341721.862</v>
       </c>
-      <c r="AM11" s="11" t="n">
+      <c r="AM11" s="13" t="n">
         <v>338132277217.976</v>
       </c>
-      <c r="AN11" s="11" t="n">
+      <c r="AN11" s="13" t="n">
         <v>312773586648.454</v>
       </c>
-      <c r="AO11" s="11" t="n">
+      <c r="AO11" s="13" t="n">
         <v>328542572360.358</v>
       </c>
-      <c r="AP11" s="11" t="n">
+      <c r="AP11" s="13" t="n">
         <v>353490764546.252</v>
       </c>
-      <c r="AQ11" s="11" t="n">
+      <c r="AQ11" s="13" t="n">
         <v>387087885833.412</v>
       </c>
-      <c r="AR11" s="11" t="n">
+      <c r="AR11" s="13" t="n">
         <v>405081653062.029</v>
       </c>
-      <c r="AS11" s="11" t="n">
+      <c r="AS11" s="13" t="n">
         <v>431127980837.866</v>
       </c>
-      <c r="AT11" s="11" t="n">
+      <c r="AT11" s="13" t="n">
         <v>405348242639.538</v>
       </c>
-      <c r="AU11" s="11" t="n">
+      <c r="AU11" s="13" t="n">
         <v>392694446194.055</v>
       </c>
-      <c r="AV11" s="11" t="n">
+      <c r="AV11" s="13" t="n">
         <v>390453368175.855</v>
       </c>
-      <c r="AW11" s="11"/>
-      <c r="AX11" s="11"/>
-      <c r="AY11" s="11"/>
-      <c r="AZ11" s="11"/>
-      <c r="BA11" s="11"/>
-      <c r="BB11" s="11"/>
-      <c r="BC11" s="11"/>
+      <c r="AW11" s="13"/>
+      <c r="AX11" s="13"/>
+      <c r="AY11" s="13"/>
+      <c r="AZ11" s="13"/>
+      <c r="BA11" s="13"/>
+      <c r="BB11" s="13"/>
+      <c r="BC11" s="13"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -3122,16 +3124,16 @@
       <c r="B12" t="str">
         <f>N12</f>
       </c>
-      <c r="C12" s="11" t="str">
+      <c r="C12" s="13" t="str">
         <f>AS12</f>
       </c>
-      <c r="D12" s="11" t="str">
+      <c r="D12" s="13" t="str">
         <f>AU12</f>
       </c>
-      <c r="E12" s="11" t="str">
+      <c r="E12" s="13" t="str">
         <f>AV12</f>
       </c>
-      <c r="F12" s="11"/>
+      <c r="F12" s="13"/>
       <c r="G12" s="1" t="str">
         <f>AV12/AU12-1</f>
       </c>
@@ -3149,93 +3151,93 @@
       <c r="N12" t="s">
         <v>44</v>
       </c>
-      <c r="O12" s="11" t="n">
+      <c r="O12" s="13" t="n">
         <v>248917998790.874</v>
       </c>
-      <c r="P12" s="11" t="n">
+      <c r="P12" s="13" t="n">
         <v>271885202720.129</v>
       </c>
-      <c r="Q12" s="11" t="n">
+      <c r="Q12" s="13" t="n">
         <v>240412560734.939</v>
       </c>
-      <c r="R12" s="11" t="n">
+      <c r="R12" s="13" t="n">
         <v>231031479111.987</v>
       </c>
-      <c r="S12" s="11" t="n">
+      <c r="S12" s="13" t="n">
         <v>218250472650.085</v>
       </c>
-      <c r="T12" s="11" t="n">
+      <c r="T12" s="13" t="n">
         <v>212677633977.603</v>
       </c>
-      <c r="U12" s="11" t="n">
+      <c r="U12" s="13" t="n">
         <v>212071611328.834</v>
       </c>
-      <c r="V12" s="11" t="n">
+      <c r="V12" s="13" t="n">
         <v>204034317412.979</v>
       </c>
-      <c r="W12" s="11" t="n">
+      <c r="W12" s="13" t="n">
         <v>203216983313.484</v>
       </c>
-      <c r="X12" s="11" t="n">
+      <c r="X12" s="13" t="n">
         <v>209688280565.4</v>
       </c>
-      <c r="Y12" s="11" t="n">
+      <c r="Y12" s="13" t="n">
         <v>222214954426.99</v>
       </c>
-      <c r="Z12" s="11" t="n">
+      <c r="Z12" s="13" t="n">
         <v>236349380759.976</v>
       </c>
-      <c r="AA12" s="11" t="n">
+      <c r="AA12" s="13" t="n">
         <v>274407867785.644</v>
       </c>
-      <c r="AB12" s="11" t="n">
+      <c r="AB12" s="13" t="n">
         <v>335392180495.053</v>
       </c>
-      <c r="AC12" s="11" t="n">
+      <c r="AC12" s="13" t="n">
         <v>355611032054.797</v>
       </c>
-      <c r="AD12" s="11" t="n">
+      <c r="AD12" s="13" t="n">
         <v>399034409966.236</v>
       </c>
-      <c r="AE12" s="11" t="n">
+      <c r="AE12" s="13" t="n">
         <v>429398322936.051</v>
       </c>
-      <c r="AF12" s="11" t="n">
+      <c r="AF12" s="13" t="n">
         <v>464598647461.156</v>
       </c>
-      <c r="AG12" s="11" t="n">
+      <c r="AG12" s="13" t="n">
         <v>524270052465.528</v>
       </c>
-      <c r="AH12" s="11" t="n">
+      <c r="AH12" s="13" t="n">
         <v>523860817748.021</v>
       </c>
-      <c r="AI12" s="11" t="n">
+      <c r="AI12" s="13" t="n">
         <v>493294382841.294</v>
       </c>
-      <c r="AJ12" s="11" t="n">
+      <c r="AJ12" s="13" t="n">
         <v>491810684195.121</v>
       </c>
-      <c r="AK12" s="11"/>
-      <c r="AL12" s="11"/>
-      <c r="AM12" s="11"/>
-      <c r="AN12" s="11" t="n">
+      <c r="AK12" s="13"/>
+      <c r="AL12" s="13"/>
+      <c r="AM12" s="13"/>
+      <c r="AN12" s="13" t="n">
         <v>7816340.87652611</v>
       </c>
-      <c r="AO12" s="11"/>
-      <c r="AP12" s="11"/>
-      <c r="AQ12" s="11"/>
-      <c r="AR12" s="11"/>
-      <c r="AS12" s="11"/>
-      <c r="AT12" s="11"/>
-      <c r="AU12" s="11"/>
-      <c r="AV12" s="11"/>
-      <c r="AW12" s="11"/>
-      <c r="AX12" s="11"/>
-      <c r="AY12" s="11"/>
-      <c r="AZ12" s="11"/>
-      <c r="BA12" s="11"/>
-      <c r="BB12" s="11"/>
-      <c r="BC12" s="11"/>
+      <c r="AO12" s="13"/>
+      <c r="AP12" s="13"/>
+      <c r="AQ12" s="13"/>
+      <c r="AR12" s="13"/>
+      <c r="AS12" s="13"/>
+      <c r="AT12" s="13"/>
+      <c r="AU12" s="13"/>
+      <c r="AV12" s="13"/>
+      <c r="AW12" s="13"/>
+      <c r="AX12" s="13"/>
+      <c r="AY12" s="13"/>
+      <c r="AZ12" s="13"/>
+      <c r="BA12" s="13"/>
+      <c r="BB12" s="13"/>
+      <c r="BC12" s="13"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -3244,16 +3246,16 @@
       <c r="B13" t="str">
         <f>N13</f>
       </c>
-      <c r="C13" s="11" t="str">
+      <c r="C13" s="13" t="str">
         <f>AS13</f>
       </c>
-      <c r="D13" s="11" t="str">
+      <c r="D13" s="13" t="str">
         <f>AU13</f>
       </c>
-      <c r="E13" s="11" t="str">
+      <c r="E13" s="13" t="str">
         <f>AV13</f>
       </c>
-      <c r="F13" s="11"/>
+      <c r="F13" s="13"/>
       <c r="G13" s="1" t="str">
         <f>AV13/AU13-1</f>
       </c>
@@ -3271,127 +3273,127 @@
       <c r="N13" t="s">
         <v>43</v>
       </c>
-      <c r="O13" s="11" t="n">
+      <c r="O13" s="13" t="n">
         <v>599168867522.029</v>
       </c>
-      <c r="P13" s="11" t="n">
+      <c r="P13" s="13" t="n">
         <v>523832662841.61</v>
       </c>
-      <c r="Q13" s="11" t="n">
+      <c r="Q13" s="13" t="n">
         <v>558790717928.113</v>
       </c>
-      <c r="R13" s="11" t="n">
+      <c r="R13" s="13" t="n">
         <v>530112720785.642</v>
       </c>
-      <c r="S13" s="11" t="n">
+      <c r="S13" s="13" t="n">
         <v>500263462937.87</v>
       </c>
-      <c r="T13" s="11" t="n">
+      <c r="T13" s="13" t="n">
         <v>473127049224.817</v>
       </c>
-      <c r="U13" s="11" t="n">
+      <c r="U13" s="13" t="n">
         <v>453205912162.704</v>
       </c>
-      <c r="V13" s="11" t="n">
+      <c r="V13" s="13" t="n">
         <v>454311854475.601</v>
       </c>
-      <c r="W13" s="11" t="n">
+      <c r="W13" s="13" t="n">
         <v>444415763380.374</v>
       </c>
-      <c r="X13" s="11" t="n">
+      <c r="X13" s="13" t="n">
         <v>448255867341.827</v>
       </c>
-      <c r="Y13" s="11" t="n">
+      <c r="Y13" s="13" t="n">
         <v>472458477005.221</v>
       </c>
-      <c r="Z13" s="11" t="n">
+      <c r="Z13" s="13" t="n">
         <v>476306076778.206</v>
       </c>
-      <c r="AA13" s="11" t="n">
+      <c r="AA13" s="13" t="n">
         <v>536249922724.551</v>
       </c>
-      <c r="AB13" s="11" t="n">
+      <c r="AB13" s="13" t="n">
         <v>613815969478.346</v>
       </c>
-      <c r="AC13" s="11" t="n">
+      <c r="AC13" s="13" t="n">
         <v>675492693448.842</v>
       </c>
-      <c r="AD13" s="11" t="n">
+      <c r="AD13" s="13" t="n">
         <v>712068992263.739</v>
       </c>
-      <c r="AE13" s="11" t="n">
+      <c r="AE13" s="13" t="n">
         <v>726363779830.702</v>
       </c>
-      <c r="AF13" s="11" t="n">
+      <c r="AF13" s="13" t="n">
         <v>748316566637.036</v>
       </c>
-      <c r="AG13" s="11" t="n">
+      <c r="AG13" s="13" t="n">
         <v>824755462000.025</v>
       </c>
-      <c r="AH13" s="11" t="n">
+      <c r="AH13" s="13" t="n">
         <v>874222201051.157</v>
       </c>
-      <c r="AI13" s="11" t="n">
+      <c r="AI13" s="13" t="n">
         <v>907498162133.927</v>
       </c>
-      <c r="AJ13" s="11" t="n">
+      <c r="AJ13" s="13" t="n">
         <v>904801842293.038</v>
       </c>
-      <c r="AK13" s="11" t="n">
+      <c r="AK13" s="13" t="n">
         <v>853010324247.841</v>
       </c>
-      <c r="AL13" s="11" t="n">
+      <c r="AL13" s="13" t="n">
         <v>782384642250.63</v>
       </c>
-      <c r="AM13" s="11" t="n">
+      <c r="AM13" s="13" t="n">
         <v>730570492868.181</v>
       </c>
-      <c r="AN13" s="11" t="n">
+      <c r="AN13" s="13" t="n">
         <v>703815630677.12</v>
       </c>
-      <c r="AO13" s="11" t="n">
+      <c r="AO13" s="13" t="n">
         <v>701796989317.852</v>
       </c>
-      <c r="AP13" s="11" t="n">
+      <c r="AP13" s="13" t="n">
         <v>694452568033.404</v>
       </c>
-      <c r="AQ13" s="11" t="n">
+      <c r="AQ13" s="13" t="n">
         <v>717473530179.755</v>
       </c>
-      <c r="AR13" s="11" t="n">
+      <c r="AR13" s="13" t="n">
         <v>766457961125.701</v>
       </c>
-      <c r="AS13" s="11" t="n">
+      <c r="AS13" s="13" t="n">
         <v>799019734497.993</v>
       </c>
-      <c r="AT13" s="11" t="n">
+      <c r="AT13" s="13" t="n">
         <v>802883816589.107</v>
       </c>
-      <c r="AU13" s="11" t="n">
+      <c r="AU13" s="13" t="n">
         <v>759690979706.108</v>
       </c>
-      <c r="AV13" s="11" t="n">
+      <c r="AV13" s="13" t="n">
         <v>775874000000</v>
       </c>
-      <c r="AW13" s="11" t="n">
+      <c r="AW13" s="13" t="n">
         <v>837181247646.527</v>
       </c>
-      <c r="AX13" s="11" t="n">
+      <c r="AX13" s="13" t="n">
         <v>837245992301.702</v>
       </c>
-      <c r="AY13" s="11" t="n">
+      <c r="AY13" s="13" t="n">
         <v>824647554246.88</v>
       </c>
-      <c r="AZ13" s="11" t="n">
+      <c r="AZ13" s="13" t="n">
         <v>819236206162.472</v>
       </c>
-      <c r="BA13" s="11" t="n">
+      <c r="BA13" s="13" t="n">
         <v>819144705553.104</v>
       </c>
-      <c r="BB13" s="11" t="n">
+      <c r="BB13" s="13" t="n">
         <v>820305837219.535</v>
       </c>
-      <c r="BC13" s="11"/>
+      <c r="BC13" s="13"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -3400,16 +3402,16 @@
       <c r="B14" t="str">
         <f>N14</f>
       </c>
-      <c r="C14" s="11" t="str">
+      <c r="C14" s="13" t="str">
         <f>AS14</f>
       </c>
-      <c r="D14" s="11" t="str">
+      <c r="D14" s="13" t="str">
         <f>AU14</f>
       </c>
-      <c r="E14" s="11" t="str">
+      <c r="E14" s="13" t="str">
         <f>AV14</f>
       </c>
-      <c r="F14" s="11"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="1" t="str">
         <f>AV14/AU14-1</f>
       </c>
@@ -3427,127 +3429,127 @@
       <c r="N14" t="s">
         <v>47</v>
       </c>
-      <c r="O14" s="11" t="str">
+      <c r="O14" s="13" t="str">
         <f>Sum(O10:O13)</f>
       </c>
-      <c r="P14" s="11" t="str">
+      <c r="P14" s="13" t="str">
         <f>Sum(P10:P13)</f>
       </c>
-      <c r="Q14" s="11" t="str">
+      <c r="Q14" s="13" t="str">
         <f>Sum(Q10:Q13)</f>
       </c>
-      <c r="R14" s="11" t="str">
+      <c r="R14" s="13" t="str">
         <f>Sum(R10:R13)</f>
       </c>
-      <c r="S14" s="11" t="str">
+      <c r="S14" s="13" t="str">
         <f>Sum(S10:S13)</f>
       </c>
-      <c r="T14" s="11" t="str">
+      <c r="T14" s="13" t="str">
         <f>Sum(T10:T13)</f>
       </c>
-      <c r="U14" s="11" t="str">
+      <c r="U14" s="13" t="str">
         <f>Sum(U10:U13)</f>
       </c>
-      <c r="V14" s="11" t="str">
+      <c r="V14" s="13" t="str">
         <f>Sum(V10:V13)</f>
       </c>
-      <c r="W14" s="11" t="str">
+      <c r="W14" s="13" t="str">
         <f>Sum(W10:W13)</f>
       </c>
-      <c r="X14" s="11" t="str">
+      <c r="X14" s="13" t="str">
         <f>Sum(X10:X13)</f>
       </c>
-      <c r="Y14" s="11" t="str">
+      <c r="Y14" s="13" t="str">
         <f>Sum(Y10:Y13)</f>
       </c>
-      <c r="Z14" s="11" t="str">
+      <c r="Z14" s="13" t="str">
         <f>Sum(Z10:Z13)</f>
       </c>
-      <c r="AA14" s="11" t="str">
+      <c r="AA14" s="13" t="str">
         <f>Sum(AA10:AA13)</f>
       </c>
-      <c r="AB14" s="11" t="str">
+      <c r="AB14" s="13" t="str">
         <f>Sum(AB10:AB13)</f>
       </c>
-      <c r="AC14" s="11" t="str">
+      <c r="AC14" s="13" t="str">
         <f>Sum(AC10:AC13)</f>
       </c>
-      <c r="AD14" s="11" t="str">
+      <c r="AD14" s="13" t="str">
         <f>Sum(AD10:AD13)</f>
       </c>
-      <c r="AE14" s="11" t="str">
+      <c r="AE14" s="13" t="str">
         <f>Sum(AE10:AE13)</f>
       </c>
-      <c r="AF14" s="11" t="str">
+      <c r="AF14" s="13" t="str">
         <f>Sum(AF10:AF13)</f>
       </c>
-      <c r="AG14" s="11" t="str">
+      <c r="AG14" s="13" t="str">
         <f>Sum(AG10:AG13)</f>
       </c>
-      <c r="AH14" s="11" t="str">
+      <c r="AH14" s="13" t="str">
         <f>Sum(AH10:AH13)</f>
       </c>
-      <c r="AI14" s="11" t="str">
+      <c r="AI14" s="13" t="str">
         <f>Sum(AI10:AI13)</f>
       </c>
-      <c r="AJ14" s="11" t="str">
+      <c r="AJ14" s="13" t="str">
         <f>Sum(AJ10:AJ13)</f>
       </c>
-      <c r="AK14" s="11" t="str">
+      <c r="AK14" s="13" t="str">
         <f>Sum(AK10:AK13)</f>
       </c>
-      <c r="AL14" s="11" t="str">
+      <c r="AL14" s="13" t="str">
         <f>Sum(AL10:AL13)</f>
       </c>
-      <c r="AM14" s="11" t="str">
+      <c r="AM14" s="13" t="str">
         <f>Sum(AM10:AM13)</f>
       </c>
-      <c r="AN14" s="11" t="str">
+      <c r="AN14" s="13" t="str">
         <f>Sum(AN10:AN13)</f>
       </c>
-      <c r="AO14" s="11" t="str">
+      <c r="AO14" s="13" t="str">
         <f>Sum(AO10:AO13)</f>
       </c>
-      <c r="AP14" s="11" t="str">
+      <c r="AP14" s="13" t="str">
         <f>Sum(AP10:AP13)</f>
       </c>
-      <c r="AQ14" s="11" t="str">
+      <c r="AQ14" s="13" t="str">
         <f>Sum(AQ10:AQ13)</f>
       </c>
-      <c r="AR14" s="11" t="str">
+      <c r="AR14" s="13" t="str">
         <f>Sum(AR10:AR13)</f>
       </c>
-      <c r="AS14" s="11" t="str">
+      <c r="AS14" s="13" t="str">
         <f>Sum(AS10:AS13)</f>
       </c>
-      <c r="AT14" s="11" t="str">
+      <c r="AT14" s="13" t="str">
         <f>Sum(AT10:AT13)</f>
       </c>
-      <c r="AU14" s="11" t="str">
+      <c r="AU14" s="13" t="str">
         <f>Sum(AU10:AU13)</f>
       </c>
-      <c r="AV14" s="11" t="str">
+      <c r="AV14" s="13" t="str">
         <f>Sum(AV10:AV13)</f>
       </c>
-      <c r="AW14" s="11" t="str">
+      <c r="AW14" s="13" t="str">
         <f>Sum(AW10:AW13)</f>
       </c>
-      <c r="AX14" s="11" t="str">
+      <c r="AX14" s="13" t="str">
         <f>Sum(AX10:AX13)</f>
       </c>
-      <c r="AY14" s="11" t="str">
+      <c r="AY14" s="13" t="str">
         <f>Sum(AY10:AY13)</f>
       </c>
-      <c r="AZ14" s="11" t="str">
+      <c r="AZ14" s="13" t="str">
         <f>Sum(AZ10:AZ13)</f>
       </c>
-      <c r="BA14" s="11" t="str">
+      <c r="BA14" s="13" t="str">
         <f>Sum(BA10:BA13)</f>
       </c>
-      <c r="BB14" s="11" t="str">
+      <c r="BB14" s="13" t="str">
         <f>Sum(BB10:BB13)</f>
       </c>
-      <c r="BC14" s="11"/>
+      <c r="BC14" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/NPS2024/DoD_2024_NPS.xlsx
+++ b/Output/AcqTrends/NPS2024/DoD_2024_NPS.xlsx
@@ -362,7 +362,7 @@
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="170" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="213" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="174" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="218" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="178" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="183" formatCode="0.00,,,&quot;B&quot;"/>
@@ -370,11 +370,11 @@
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="204" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="209" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="214" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="215" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="193" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="189" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="192" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="215" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="219" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -416,7 +416,7 @@
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="213" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="218" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -424,11 +424,11 @@
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="204" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="209" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="214" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="215" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="193" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="189" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="192" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="215" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="219" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9569,110 +9569,110 @@
       <c r="L2" t="s">
         <v>58</v>
       </c>
-      <c r="M2" s="5" t="n">
+      <c r="M2" s="17" t="n">
         <v>120350129405</v>
       </c>
-      <c r="N2" s="5" t="n">
+      <c r="N2" s="17" t="n">
         <v>136154193844</v>
       </c>
-      <c r="O2" s="5" t="n">
+      <c r="O2" s="17" t="n">
         <v>123406660550</v>
       </c>
-      <c r="P2" s="5" t="n">
+      <c r="P2" s="17" t="n">
         <v>121373382142</v>
       </c>
-      <c r="Q2" s="5" t="n">
+      <c r="Q2" s="17" t="n">
         <v>117161902725</v>
       </c>
-      <c r="R2" s="5" t="n">
+      <c r="R2" s="17" t="n">
         <v>116592014868</v>
       </c>
-      <c r="S2" s="5" t="n">
+      <c r="S2" s="17" t="n">
         <v>118448779098</v>
       </c>
-      <c r="T2" s="5" t="n">
+      <c r="T2" s="17" t="n">
         <v>115982151879</v>
       </c>
-      <c r="U2" s="5" t="n">
+      <c r="U2" s="17" t="n">
         <v>116965882167</v>
       </c>
-      <c r="V2" s="5" t="n">
+      <c r="V2" s="17" t="n">
         <v>122185036488</v>
       </c>
-      <c r="W2" s="5" t="n">
+      <c r="W2" s="17" t="n">
         <v>5236358155.9916</v>
       </c>
-      <c r="X2" s="5" t="n">
+      <c r="X2" s="17" t="n">
         <v>5491432009.7286</v>
       </c>
-      <c r="Y2" s="5" t="n">
+      <c r="Y2" s="17" t="n">
         <v>6587487263.1819</v>
       </c>
-      <c r="Z2" s="5" t="n">
+      <c r="Z2" s="17" t="n">
         <v>6976292471.2142</v>
       </c>
-      <c r="AA2" s="5" t="n">
+      <c r="AA2" s="17" t="n">
         <v>9469780522.9719</v>
       </c>
-      <c r="AB2" s="5" t="n">
+      <c r="AB2" s="17" t="n">
         <v>15314661031.4702</v>
       </c>
-      <c r="AC2" s="5" t="n">
+      <c r="AC2" s="17" t="n">
         <v>13690206159.2622</v>
       </c>
-      <c r="AD2" s="5" t="n">
+      <c r="AD2" s="17" t="n">
         <v>8188109934.3742</v>
       </c>
-      <c r="AE2" s="5" t="n">
+      <c r="AE2" s="17" t="n">
         <v>10574055160.1785</v>
       </c>
-      <c r="AF2" s="5" t="n">
+      <c r="AF2" s="17" t="n">
         <v>6764981953.2342</v>
       </c>
-      <c r="AG2" s="5" t="n">
+      <c r="AG2" s="17" t="n">
         <v>5104291491.3231</v>
       </c>
-      <c r="AH2" s="5" t="n">
+      <c r="AH2" s="17" t="n">
         <v>4330718826.8533</v>
       </c>
-      <c r="AI2" s="5" t="n">
+      <c r="AI2" s="17" t="n">
         <v>3082990599.5089</v>
       </c>
-      <c r="AJ2" s="5" t="n">
+      <c r="AJ2" s="17" t="n">
         <v>1609033568.5028</v>
       </c>
-      <c r="AK2" s="5" t="n">
+      <c r="AK2" s="17" t="n">
         <v>680453391.7032</v>
       </c>
-      <c r="AL2" s="5" t="n">
+      <c r="AL2" s="17" t="n">
         <v>566899218.0891</v>
       </c>
-      <c r="AM2" s="5" t="n">
+      <c r="AM2" s="17" t="n">
         <v>766600193.2492</v>
       </c>
-      <c r="AN2" s="5" t="n">
+      <c r="AN2" s="17" t="n">
         <v>547517746.2317</v>
       </c>
-      <c r="AO2" s="5" t="n">
+      <c r="AO2" s="17" t="n">
         <v>240712405.9436</v>
       </c>
-      <c r="AP2" s="5" t="n">
+      <c r="AP2" s="17" t="n">
         <v>380518692.1141</v>
       </c>
-      <c r="AQ2" s="5" t="n">
+      <c r="AQ2" s="17" t="n">
         <v>789032280.102</v>
       </c>
-      <c r="AR2" s="5" t="n">
+      <c r="AR2" s="17" t="n">
         <v>769670794.6879</v>
       </c>
-      <c r="AS2" s="5" t="n">
+      <c r="AS2" s="17" t="n">
         <v>285283811.2825</v>
       </c>
-      <c r="AT2" s="5" t="n">
+      <c r="AT2" s="17" t="n">
         <v>235044504.6941</v>
       </c>
-      <c r="AU2" s="5"/>
-      <c r="AV2" s="5"/>
+      <c r="AU2" s="17"/>
+      <c r="AV2" s="17"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -9681,90 +9681,90 @@
       <c r="L3" t="s">
         <v>72</v>
       </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5" t="n">
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17" t="n">
         <v>1329220610.9815</v>
       </c>
-      <c r="X3" s="5" t="n">
+      <c r="X3" s="17" t="n">
         <v>1064745085.42</v>
       </c>
-      <c r="Y3" s="5" t="n">
+      <c r="Y3" s="17" t="n">
         <v>1807184389.3146</v>
       </c>
-      <c r="Z3" s="5" t="n">
+      <c r="Z3" s="17" t="n">
         <v>1921193307.4043</v>
       </c>
-      <c r="AA3" s="5" t="n">
+      <c r="AA3" s="17" t="n">
         <v>2648920884.8399</v>
       </c>
-      <c r="AB3" s="5" t="n">
+      <c r="AB3" s="17" t="n">
         <v>3794008336.1995</v>
       </c>
-      <c r="AC3" s="5" t="n">
+      <c r="AC3" s="17" t="n">
         <v>9741097914.2115</v>
       </c>
-      <c r="AD3" s="5" t="n">
+      <c r="AD3" s="17" t="n">
         <v>12868195666.4892</v>
       </c>
-      <c r="AE3" s="5" t="n">
+      <c r="AE3" s="17" t="n">
         <v>16499453100.5148</v>
       </c>
-      <c r="AF3" s="5" t="n">
+      <c r="AF3" s="17" t="n">
         <v>20075739480.5829</v>
       </c>
-      <c r="AG3" s="5" t="n">
+      <c r="AG3" s="17" t="n">
         <v>22679836748.4971</v>
       </c>
-      <c r="AH3" s="5" t="n">
+      <c r="AH3" s="17" t="n">
         <v>19753164985.6706</v>
       </c>
-      <c r="AI3" s="5" t="n">
+      <c r="AI3" s="17" t="n">
         <v>18705132716.5269</v>
       </c>
-      <c r="AJ3" s="5" t="n">
+      <c r="AJ3" s="17" t="n">
         <v>18039454964.6385</v>
       </c>
-      <c r="AK3" s="5" t="n">
+      <c r="AK3" s="17" t="n">
         <v>12582856811.9378</v>
       </c>
-      <c r="AL3" s="5" t="n">
+      <c r="AL3" s="17" t="n">
         <v>10809719855.91</v>
       </c>
-      <c r="AM3" s="5" t="n">
+      <c r="AM3" s="17" t="n">
         <v>9825055376.308</v>
       </c>
-      <c r="AN3" s="5" t="n">
+      <c r="AN3" s="17" t="n">
         <v>9874481423.791</v>
       </c>
-      <c r="AO3" s="5" t="n">
+      <c r="AO3" s="17" t="n">
         <v>11566748983.7809</v>
       </c>
-      <c r="AP3" s="5" t="n">
+      <c r="AP3" s="17" t="n">
         <v>11431443200.7392</v>
       </c>
-      <c r="AQ3" s="5" t="n">
+      <c r="AQ3" s="17" t="n">
         <v>10618049742.5667</v>
       </c>
-      <c r="AR3" s="5" t="n">
+      <c r="AR3" s="17" t="n">
         <v>10617066974.1711</v>
       </c>
-      <c r="AS3" s="5" t="n">
+      <c r="AS3" s="17" t="n">
         <v>14696330210.8885</v>
       </c>
-      <c r="AT3" s="5" t="n">
+      <c r="AT3" s="17" t="n">
         <v>6690070397.66</v>
       </c>
-      <c r="AU3" s="5"/>
-      <c r="AV3" s="5"/>
+      <c r="AU3" s="17"/>
+      <c r="AV3" s="17"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -9773,90 +9773,90 @@
       <c r="L4" t="s">
         <v>73</v>
       </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5" t="n">
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17" t="n">
         <v>42550348684.2254</v>
       </c>
-      <c r="X4" s="5" t="n">
+      <c r="X4" s="17" t="n">
         <v>45917051459.0678</v>
       </c>
-      <c r="Y4" s="5" t="n">
+      <c r="Y4" s="17" t="n">
         <v>60117240828.9049</v>
       </c>
-      <c r="Z4" s="5" t="n">
+      <c r="Z4" s="17" t="n">
         <v>70050048326.1247</v>
       </c>
-      <c r="AA4" s="5" t="n">
+      <c r="AA4" s="17" t="n">
         <v>72695496311.2301</v>
       </c>
-      <c r="AB4" s="5" t="n">
+      <c r="AB4" s="17" t="n">
         <v>73850346664.7419</v>
       </c>
-      <c r="AC4" s="5" t="n">
+      <c r="AC4" s="17" t="n">
         <v>88459373239.3844</v>
       </c>
-      <c r="AD4" s="5" t="n">
+      <c r="AD4" s="17" t="n">
         <v>98609321172.6504</v>
       </c>
-      <c r="AE4" s="5" t="n">
+      <c r="AE4" s="17" t="n">
         <v>104453708239.205</v>
       </c>
-      <c r="AF4" s="5" t="n">
+      <c r="AF4" s="17" t="n">
         <v>106806901294.444</v>
       </c>
-      <c r="AG4" s="5" t="n">
+      <c r="AG4" s="17" t="n">
         <v>95972949166.2754</v>
       </c>
-      <c r="AH4" s="5" t="n">
+      <c r="AH4" s="17" t="n">
         <v>108581856624.386</v>
       </c>
-      <c r="AI4" s="5" t="n">
+      <c r="AI4" s="17" t="n">
         <v>105059996799.245</v>
       </c>
-      <c r="AJ4" s="5" t="n">
+      <c r="AJ4" s="17" t="n">
         <v>96262274718.1229</v>
       </c>
-      <c r="AK4" s="5" t="n">
+      <c r="AK4" s="17" t="n">
         <v>81791269260.1643</v>
       </c>
-      <c r="AL4" s="5" t="n">
+      <c r="AL4" s="17" t="n">
         <v>81079398578.4434</v>
       </c>
-      <c r="AM4" s="5" t="n">
+      <c r="AM4" s="17" t="n">
         <v>102613616343.317</v>
       </c>
-      <c r="AN4" s="5" t="n">
+      <c r="AN4" s="17" t="n">
         <v>112269920603.578</v>
       </c>
-      <c r="AO4" s="5" t="n">
+      <c r="AO4" s="17" t="n">
         <v>112777911380.805</v>
       </c>
-      <c r="AP4" s="5" t="n">
+      <c r="AP4" s="17" t="n">
         <v>123162121122.305</v>
       </c>
-      <c r="AQ4" s="5" t="n">
+      <c r="AQ4" s="17" t="n">
         <v>152100850792.38</v>
       </c>
-      <c r="AR4" s="5" t="n">
+      <c r="AR4" s="17" t="n">
         <v>113891441901.645</v>
       </c>
-      <c r="AS4" s="5" t="n">
+      <c r="AS4" s="17" t="n">
         <v>121494516261.001</v>
       </c>
-      <c r="AT4" s="5" t="n">
+      <c r="AT4" s="17" t="n">
         <v>84206478607.0139</v>
       </c>
-      <c r="AU4" s="5"/>
-      <c r="AV4" s="5"/>
+      <c r="AU4" s="17"/>
+      <c r="AV4" s="17"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -9865,90 +9865,90 @@
       <c r="L5" t="s">
         <v>74</v>
       </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5" t="n">
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17" t="n">
         <v>34771960308.124</v>
       </c>
-      <c r="X5" s="5" t="n">
+      <c r="X5" s="17" t="n">
         <v>34505522327.9598</v>
       </c>
-      <c r="Y5" s="5" t="n">
+      <c r="Y5" s="17" t="n">
         <v>39749055232.3268</v>
       </c>
-      <c r="Z5" s="5" t="n">
+      <c r="Z5" s="17" t="n">
         <v>57603373075.2766</v>
       </c>
-      <c r="AA5" s="5" t="n">
+      <c r="AA5" s="17" t="n">
         <v>68106048145.708</v>
       </c>
-      <c r="AB5" s="5" t="n">
+      <c r="AB5" s="17" t="n">
         <v>77903401149.8159</v>
       </c>
-      <c r="AC5" s="5" t="n">
+      <c r="AC5" s="17" t="n">
         <v>85116776817.2881</v>
       </c>
-      <c r="AD5" s="5" t="n">
+      <c r="AD5" s="17" t="n">
         <v>99651450297.1159</v>
       </c>
-      <c r="AE5" s="5" t="n">
+      <c r="AE5" s="17" t="n">
         <v>122895484993.633</v>
       </c>
-      <c r="AF5" s="5" t="n">
+      <c r="AF5" s="17" t="n">
         <v>115392227736.743</v>
       </c>
-      <c r="AG5" s="5" t="n">
+      <c r="AG5" s="17" t="n">
         <v>112773841229.609</v>
       </c>
-      <c r="AH5" s="5" t="n">
+      <c r="AH5" s="17" t="n">
         <v>112002045671.281</v>
       </c>
-      <c r="AI5" s="5" t="n">
+      <c r="AI5" s="17" t="n">
         <v>112706301394.788</v>
       </c>
-      <c r="AJ5" s="5" t="n">
+      <c r="AJ5" s="17" t="n">
         <v>92009456672.6568</v>
       </c>
-      <c r="AK5" s="5" t="n">
+      <c r="AK5" s="17" t="n">
         <v>87683491745.7842</v>
       </c>
-      <c r="AL5" s="5" t="n">
+      <c r="AL5" s="17" t="n">
         <v>82490216234.141</v>
       </c>
-      <c r="AM5" s="5" t="n">
+      <c r="AM5" s="17" t="n">
         <v>81735528122.8488</v>
       </c>
-      <c r="AN5" s="5" t="n">
+      <c r="AN5" s="17" t="n">
         <v>86483132759.9886</v>
       </c>
-      <c r="AO5" s="5" t="n">
+      <c r="AO5" s="17" t="n">
         <v>102597589171.143</v>
       </c>
-      <c r="AP5" s="5" t="n">
+      <c r="AP5" s="17" t="n">
         <v>106177490090.298</v>
       </c>
-      <c r="AQ5" s="5" t="n">
+      <c r="AQ5" s="17" t="n">
         <v>109077960637.558</v>
       </c>
-      <c r="AR5" s="5" t="n">
+      <c r="AR5" s="17" t="n">
         <v>118928831895.369</v>
       </c>
-      <c r="AS5" s="5" t="n">
+      <c r="AS5" s="17" t="n">
         <v>120230112251.207</v>
       </c>
-      <c r="AT5" s="5" t="n">
+      <c r="AT5" s="17" t="n">
         <v>53200181316.3679</v>
       </c>
-      <c r="AU5" s="5"/>
-      <c r="AV5" s="5"/>
+      <c r="AU5" s="17"/>
+      <c r="AV5" s="17"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -9957,90 +9957,90 @@
       <c r="L6" t="s">
         <v>75</v>
       </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5" t="n">
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17" t="n">
         <v>27694622520.5188</v>
       </c>
-      <c r="X6" s="5" t="n">
+      <c r="X6" s="17" t="n">
         <v>35321226116.5173</v>
       </c>
-      <c r="Y6" s="5" t="n">
+      <c r="Y6" s="17" t="n">
         <v>35479100087.3137</v>
       </c>
-      <c r="Z6" s="5" t="n">
+      <c r="Z6" s="17" t="n">
         <v>42482595240.0615</v>
       </c>
-      <c r="AA6" s="5" t="n">
+      <c r="AA6" s="17" t="n">
         <v>42241259511.0147</v>
       </c>
-      <c r="AB6" s="5" t="n">
+      <c r="AB6" s="17" t="n">
         <v>51515737177.5681</v>
       </c>
-      <c r="AC6" s="5" t="n">
+      <c r="AC6" s="17" t="n">
         <v>52686944659.3421</v>
       </c>
-      <c r="AD6" s="5" t="n">
+      <c r="AD6" s="17" t="n">
         <v>59156529141.1112</v>
       </c>
-      <c r="AE6" s="5" t="n">
+      <c r="AE6" s="17" t="n">
         <v>68785814990.9706</v>
       </c>
-      <c r="AF6" s="5" t="n">
+      <c r="AF6" s="17" t="n">
         <v>73316171682.0021</v>
       </c>
-      <c r="AG6" s="5" t="n">
+      <c r="AG6" s="17" t="n">
         <v>67896388549.7625</v>
       </c>
-      <c r="AH6" s="5" t="n">
+      <c r="AH6" s="17" t="n">
         <v>67582752969.7274</v>
       </c>
-      <c r="AI6" s="5" t="n">
+      <c r="AI6" s="17" t="n">
         <v>61772665022.7063</v>
       </c>
-      <c r="AJ6" s="5" t="n">
+      <c r="AJ6" s="17" t="n">
         <v>51521870959.8257</v>
       </c>
-      <c r="AK6" s="5" t="n">
+      <c r="AK6" s="17" t="n">
         <v>47080827373.4356</v>
       </c>
-      <c r="AL6" s="5" t="n">
+      <c r="AL6" s="17" t="n">
         <v>46743111826.9035</v>
       </c>
-      <c r="AM6" s="5" t="n">
+      <c r="AM6" s="17" t="n">
         <v>46913522999.3205</v>
       </c>
-      <c r="AN6" s="5" t="n">
+      <c r="AN6" s="17" t="n">
         <v>52279423408.0778</v>
       </c>
-      <c r="AO6" s="5" t="n">
+      <c r="AO6" s="17" t="n">
         <v>61590797753.2091</v>
       </c>
-      <c r="AP6" s="5" t="n">
+      <c r="AP6" s="17" t="n">
         <v>69492927376.2443</v>
       </c>
-      <c r="AQ6" s="5" t="n">
+      <c r="AQ6" s="17" t="n">
         <v>74295272089.9873</v>
       </c>
-      <c r="AR6" s="5" t="n">
+      <c r="AR6" s="17" t="n">
         <v>68774128716.5469</v>
       </c>
-      <c r="AS6" s="5" t="n">
+      <c r="AS6" s="17" t="n">
         <v>76336782621.0928</v>
       </c>
-      <c r="AT6" s="5" t="n">
+      <c r="AT6" s="17" t="n">
         <v>38965329412.2745</v>
       </c>
-      <c r="AU6" s="5"/>
-      <c r="AV6" s="5"/>
+      <c r="AU6" s="17"/>
+      <c r="AV6" s="17"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -10049,90 +10049,90 @@
       <c r="L7" t="s">
         <v>76</v>
       </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5" t="n">
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17" t="n">
         <v>20595976226.5461</v>
       </c>
-      <c r="X7" s="5" t="n">
+      <c r="X7" s="17" t="n">
         <v>21693661545.1428</v>
       </c>
-      <c r="Y7" s="5" t="n">
+      <c r="Y7" s="17" t="n">
         <v>26070453425.0865</v>
       </c>
-      <c r="Z7" s="5" t="n">
+      <c r="Z7" s="17" t="n">
         <v>32499585092.2557</v>
       </c>
-      <c r="AA7" s="5" t="n">
+      <c r="AA7" s="17" t="n">
         <v>34600451673.0244</v>
       </c>
-      <c r="AB7" s="5" t="n">
+      <c r="AB7" s="17" t="n">
         <v>43285206666.0946</v>
       </c>
-      <c r="AC7" s="5" t="n">
+      <c r="AC7" s="17" t="n">
         <v>45470779321.3648</v>
       </c>
-      <c r="AD7" s="5" t="n">
+      <c r="AD7" s="17" t="n">
         <v>49679874369.1679</v>
       </c>
-      <c r="AE7" s="5" t="n">
+      <c r="AE7" s="17" t="n">
         <v>54779583262.9025</v>
       </c>
-      <c r="AF7" s="5" t="n">
+      <c r="AF7" s="17" t="n">
         <v>59199358639.9791</v>
       </c>
-      <c r="AG7" s="5" t="n">
+      <c r="AG7" s="17" t="n">
         <v>57976561655.5411</v>
       </c>
-      <c r="AH7" s="5" t="n">
+      <c r="AH7" s="17" t="n">
         <v>56315376883.2436</v>
       </c>
-      <c r="AI7" s="5" t="n">
+      <c r="AI7" s="17" t="n">
         <v>56309344122.8112</v>
       </c>
-      <c r="AJ7" s="5" t="n">
+      <c r="AJ7" s="17" t="n">
         <v>47138961458.9347</v>
       </c>
-      <c r="AK7" s="5" t="n">
+      <c r="AK7" s="17" t="n">
         <v>53465462041.4739</v>
       </c>
-      <c r="AL7" s="5" t="n">
+      <c r="AL7" s="17" t="n">
         <v>52495096053.1374</v>
       </c>
-      <c r="AM7" s="5" t="n">
+      <c r="AM7" s="17" t="n">
         <v>56507462593.3487</v>
       </c>
-      <c r="AN7" s="5" t="n">
+      <c r="AN7" s="17" t="n">
         <v>59161370863.6707</v>
       </c>
-      <c r="AO7" s="5" t="n">
+      <c r="AO7" s="17" t="n">
         <v>70182061058.5694</v>
       </c>
-      <c r="AP7" s="5" t="n">
+      <c r="AP7" s="17" t="n">
         <v>73210905668.2453</v>
       </c>
-      <c r="AQ7" s="5" t="n">
+      <c r="AQ7" s="17" t="n">
         <v>75720333560.9938</v>
       </c>
-      <c r="AR7" s="5" t="n">
+      <c r="AR7" s="17" t="n">
         <v>74082748315.2369</v>
       </c>
-      <c r="AS7" s="5" t="n">
+      <c r="AS7" s="17" t="n">
         <v>81277666893.7311</v>
       </c>
-      <c r="AT7" s="5" t="n">
+      <c r="AT7" s="17" t="n">
         <v>32703442132.7152</v>
       </c>
-      <c r="AU7" s="5"/>
-      <c r="AV7" s="5"/>
+      <c r="AU7" s="17"/>
+      <c r="AV7" s="17"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -10141,112 +10141,112 @@
       <c r="L8" t="s">
         <v>46</v>
       </c>
-      <c r="M8" s="5" t="str">
+      <c r="M8" s="17" t="str">
         <f>Sum(M2:M7)</f>
       </c>
-      <c r="N8" s="5" t="str">
+      <c r="N8" s="17" t="str">
         <f>Sum(N2:N7)</f>
       </c>
-      <c r="O8" s="5" t="str">
+      <c r="O8" s="17" t="str">
         <f>Sum(O2:O7)</f>
       </c>
-      <c r="P8" s="5" t="str">
+      <c r="P8" s="17" t="str">
         <f>Sum(P2:P7)</f>
       </c>
-      <c r="Q8" s="5" t="str">
+      <c r="Q8" s="17" t="str">
         <f>Sum(Q2:Q7)</f>
       </c>
-      <c r="R8" s="5" t="str">
+      <c r="R8" s="17" t="str">
         <f>Sum(R2:R7)</f>
       </c>
-      <c r="S8" s="5" t="str">
+      <c r="S8" s="17" t="str">
         <f>Sum(S2:S7)</f>
       </c>
-      <c r="T8" s="5" t="str">
+      <c r="T8" s="17" t="str">
         <f>Sum(T2:T7)</f>
       </c>
-      <c r="U8" s="5" t="str">
+      <c r="U8" s="17" t="str">
         <f>Sum(U2:U7)</f>
       </c>
-      <c r="V8" s="5" t="str">
+      <c r="V8" s="17" t="str">
         <f>Sum(V2:V7)</f>
       </c>
-      <c r="W8" s="5" t="str">
+      <c r="W8" s="17" t="str">
         <f>Sum(W2:W7)</f>
       </c>
-      <c r="X8" s="5" t="str">
+      <c r="X8" s="17" t="str">
         <f>Sum(X2:X7)</f>
       </c>
-      <c r="Y8" s="5" t="str">
+      <c r="Y8" s="17" t="str">
         <f>Sum(Y2:Y7)</f>
       </c>
-      <c r="Z8" s="5" t="str">
+      <c r="Z8" s="17" t="str">
         <f>Sum(Z2:Z7)</f>
       </c>
-      <c r="AA8" s="5" t="str">
+      <c r="AA8" s="17" t="str">
         <f>Sum(AA2:AA7)</f>
       </c>
-      <c r="AB8" s="5" t="str">
+      <c r="AB8" s="17" t="str">
         <f>Sum(AB2:AB7)</f>
       </c>
-      <c r="AC8" s="5" t="str">
+      <c r="AC8" s="17" t="str">
         <f>Sum(AC2:AC7)</f>
       </c>
-      <c r="AD8" s="5" t="str">
+      <c r="AD8" s="17" t="str">
         <f>Sum(AD2:AD7)</f>
       </c>
-      <c r="AE8" s="5" t="str">
+      <c r="AE8" s="17" t="str">
         <f>Sum(AE2:AE7)</f>
       </c>
-      <c r="AF8" s="5" t="str">
+      <c r="AF8" s="17" t="str">
         <f>Sum(AF2:AF7)</f>
       </c>
-      <c r="AG8" s="5" t="str">
+      <c r="AG8" s="17" t="str">
         <f>Sum(AG2:AG7)</f>
       </c>
-      <c r="AH8" s="5" t="str">
+      <c r="AH8" s="17" t="str">
         <f>Sum(AH2:AH7)</f>
       </c>
-      <c r="AI8" s="5" t="str">
+      <c r="AI8" s="17" t="str">
         <f>Sum(AI2:AI7)</f>
       </c>
-      <c r="AJ8" s="5" t="str">
+      <c r="AJ8" s="17" t="str">
         <f>Sum(AJ2:AJ7)</f>
       </c>
-      <c r="AK8" s="5" t="str">
+      <c r="AK8" s="17" t="str">
         <f>Sum(AK2:AK7)</f>
       </c>
-      <c r="AL8" s="5" t="str">
+      <c r="AL8" s="17" t="str">
         <f>Sum(AL2:AL7)</f>
       </c>
-      <c r="AM8" s="5" t="str">
+      <c r="AM8" s="17" t="str">
         <f>Sum(AM2:AM7)</f>
       </c>
-      <c r="AN8" s="5" t="str">
+      <c r="AN8" s="17" t="str">
         <f>Sum(AN2:AN7)</f>
       </c>
-      <c r="AO8" s="5" t="str">
+      <c r="AO8" s="17" t="str">
         <f>Sum(AO2:AO7)</f>
       </c>
-      <c r="AP8" s="5" t="str">
+      <c r="AP8" s="17" t="str">
         <f>Sum(AP2:AP7)</f>
       </c>
-      <c r="AQ8" s="5" t="str">
+      <c r="AQ8" s="17" t="str">
         <f>Sum(AQ2:AQ7)</f>
       </c>
-      <c r="AR8" s="5" t="str">
+      <c r="AR8" s="17" t="str">
         <f>Sum(AR2:AR7)</f>
       </c>
-      <c r="AS8" s="5" t="str">
+      <c r="AS8" s="17" t="str">
         <f>Sum(AS2:AS7)</f>
       </c>
-      <c r="AT8" s="5" t="str">
+      <c r="AT8" s="17" t="str">
         <f>Sum(AT2:AT7)</f>
       </c>
-      <c r="AU8" s="5" t="str">
+      <c r="AU8" s="17" t="str">
         <f>Sum(AU2:AU7)</f>
       </c>
-      <c r="AV8" s="5"/>
+      <c r="AV8" s="17"/>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -10389,16 +10389,16 @@
       <c r="A12" t="str">
         <f>L12</f>
       </c>
-      <c r="B12" s="5" t="str">
+      <c r="B12" s="17" t="str">
         <f>AQ12</f>
       </c>
-      <c r="C12" s="5" t="str">
+      <c r="C12" s="17" t="str">
         <f>AS12</f>
       </c>
-      <c r="D12" s="5" t="str">
+      <c r="D12" s="17" t="str">
         <f>AT12</f>
       </c>
-      <c r="E12" s="5" t="str">
+      <c r="E12" s="17" t="str">
         <f>AU12</f>
       </c>
       <c r="F12" s="1" t="str">
@@ -10419,125 +10419,125 @@
       <c r="L12" t="s">
         <v>58</v>
       </c>
-      <c r="M12" s="5" t="n">
+      <c r="M12" s="17" t="n">
         <v>248917998790.874</v>
       </c>
-      <c r="N12" s="5" t="n">
+      <c r="N12" s="17" t="n">
         <v>271885202720.129</v>
       </c>
-      <c r="O12" s="5" t="n">
+      <c r="O12" s="17" t="n">
         <v>240412560734.939</v>
       </c>
-      <c r="P12" s="5" t="n">
+      <c r="P12" s="17" t="n">
         <v>231031479111.987</v>
       </c>
-      <c r="Q12" s="5" t="n">
+      <c r="Q12" s="17" t="n">
         <v>218250472650.085</v>
       </c>
-      <c r="R12" s="5" t="n">
+      <c r="R12" s="17" t="n">
         <v>212677633977.603</v>
       </c>
-      <c r="S12" s="5" t="n">
+      <c r="S12" s="17" t="n">
         <v>212071611328.834</v>
       </c>
-      <c r="T12" s="5" t="n">
+      <c r="T12" s="17" t="n">
         <v>204034317412.979</v>
       </c>
-      <c r="U12" s="5" t="n">
+      <c r="U12" s="17" t="n">
         <v>203216983313.484</v>
       </c>
-      <c r="V12" s="5" t="n">
+      <c r="V12" s="17" t="n">
         <v>209688280565.4</v>
       </c>
-      <c r="W12" s="5" t="n">
+      <c r="W12" s="17" t="n">
         <v>8803225999.57178</v>
       </c>
-      <c r="X12" s="5" t="n">
+      <c r="X12" s="17" t="n">
         <v>9013568711.16042</v>
       </c>
-      <c r="Y12" s="5" t="n">
+      <c r="Y12" s="17" t="n">
         <v>10645149198.6628</v>
       </c>
-      <c r="Z12" s="5" t="n">
+      <c r="Z12" s="17" t="n">
         <v>11061125099.6622</v>
       </c>
-      <c r="AA12" s="5" t="n">
+      <c r="AA12" s="17" t="n">
         <v>14656727633.9458</v>
       </c>
-      <c r="AB12" s="5" t="n">
+      <c r="AB12" s="17" t="n">
         <v>23003084448.4049</v>
       </c>
-      <c r="AC12" s="5" t="n">
+      <c r="AC12" s="17" t="n">
         <v>19916141880.4905</v>
       </c>
-      <c r="AD12" s="5" t="n">
+      <c r="AD12" s="17" t="n">
         <v>11592699836.7935</v>
       </c>
-      <c r="AE12" s="5" t="n">
+      <c r="AE12" s="17" t="n">
         <v>14666230120.2202</v>
       </c>
-      <c r="AF12" s="5" t="n">
+      <c r="AF12" s="17" t="n">
         <v>9288059234.71007</v>
       </c>
-      <c r="AG12" s="5" t="n">
+      <c r="AG12" s="17" t="n">
         <v>6947824064.64581</v>
       </c>
-      <c r="AH12" s="5" t="n">
+      <c r="AH12" s="17" t="n">
         <v>5778868031.6165</v>
       </c>
-      <c r="AI12" s="5" t="n">
+      <c r="AI12" s="17" t="n">
         <v>4040591181.29977</v>
       </c>
-      <c r="AJ12" s="5" t="n">
+      <c r="AJ12" s="17" t="n">
         <v>2071229860.17048</v>
       </c>
-      <c r="AK12" s="5" t="n">
+      <c r="AK12" s="17" t="n">
         <v>860221059.722463</v>
       </c>
-      <c r="AL12" s="5" t="n">
+      <c r="AL12" s="17" t="n">
         <v>709321315.610776</v>
       </c>
-      <c r="AM12" s="5" t="n">
+      <c r="AM12" s="17" t="n">
         <v>951585170.123587</v>
       </c>
-      <c r="AN12" s="5" t="n">
+      <c r="AN12" s="17" t="n">
         <v>668354912.953427</v>
       </c>
-      <c r="AO12" s="5" t="n">
+      <c r="AO12" s="17" t="n">
         <v>287456108.23233</v>
       </c>
-      <c r="AP12" s="5" t="n">
+      <c r="AP12" s="17" t="n">
         <v>446161913.029099</v>
       </c>
-      <c r="AQ12" s="5" t="n">
+      <c r="AQ12" s="17" t="n">
         <v>913218644.332686</v>
       </c>
-      <c r="AR12" s="5" t="n">
+      <c r="AR12" s="17" t="n">
         <v>861170613.266858</v>
       </c>
-      <c r="AS12" s="5" t="n">
+      <c r="AS12" s="17" t="n">
         <v>298334574.177027</v>
       </c>
-      <c r="AT12" s="5" t="n">
+      <c r="AT12" s="17" t="n">
         <v>235044504.6941</v>
       </c>
-      <c r="AU12" s="5"/>
-      <c r="AV12" s="5"/>
+      <c r="AU12" s="17"/>
+      <c r="AV12" s="17"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
         <f>L13</f>
       </c>
-      <c r="B13" s="5" t="str">
+      <c r="B13" s="17" t="str">
         <f>AQ13</f>
       </c>
-      <c r="C13" s="5" t="str">
+      <c r="C13" s="17" t="str">
         <f>AS13</f>
       </c>
-      <c r="D13" s="5" t="str">
+      <c r="D13" s="17" t="str">
         <f>AT13</f>
       </c>
-      <c r="E13" s="5" t="str">
+      <c r="E13" s="17" t="str">
         <f>AU13</f>
       </c>
       <c r="F13" s="1" t="str">
@@ -10558,105 +10558,105 @@
       <c r="L13" t="s">
         <v>72</v>
       </c>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5" t="n">
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17" t="n">
         <v>2234650322.45166</v>
       </c>
-      <c r="X13" s="5" t="n">
+      <c r="X13" s="17" t="n">
         <v>1747659439.34137</v>
       </c>
-      <c r="Y13" s="5" t="n">
+      <c r="Y13" s="17" t="n">
         <v>2920346815.88986</v>
       </c>
-      <c r="Z13" s="5" t="n">
+      <c r="Z13" s="17" t="n">
         <v>3046110753.17119</v>
       </c>
-      <c r="AA13" s="5" t="n">
+      <c r="AA13" s="17" t="n">
         <v>4099832286.3754</v>
       </c>
-      <c r="AB13" s="5" t="n">
+      <c r="AB13" s="17" t="n">
         <v>5698715366.68095</v>
       </c>
-      <c r="AC13" s="5" t="n">
+      <c r="AC13" s="17" t="n">
         <v>14171085948.1784</v>
       </c>
-      <c r="AD13" s="5" t="n">
+      <c r="AD13" s="17" t="n">
         <v>18218750236.4228</v>
       </c>
-      <c r="AE13" s="5" t="n">
+      <c r="AE13" s="17" t="n">
         <v>22884765812.5746</v>
       </c>
-      <c r="AF13" s="5" t="n">
+      <c r="AF13" s="17" t="n">
         <v>27563215802.389</v>
       </c>
-      <c r="AG13" s="5" t="n">
+      <c r="AG13" s="17" t="n">
         <v>30871182770.6769</v>
       </c>
-      <c r="AH13" s="5" t="n">
+      <c r="AH13" s="17" t="n">
         <v>26358426446.6969</v>
       </c>
-      <c r="AI13" s="5" t="n">
+      <c r="AI13" s="17" t="n">
         <v>24515090740.6204</v>
       </c>
-      <c r="AJ13" s="5" t="n">
+      <c r="AJ13" s="17" t="n">
         <v>23221304089.216</v>
       </c>
-      <c r="AK13" s="5" t="n">
+      <c r="AK13" s="17" t="n">
         <v>15907097463.3666</v>
       </c>
-      <c r="AL13" s="5" t="n">
+      <c r="AL13" s="17" t="n">
         <v>13525445908.0466</v>
       </c>
-      <c r="AM13" s="5" t="n">
+      <c r="AM13" s="17" t="n">
         <v>12195896993.0738</v>
       </c>
-      <c r="AN13" s="5" t="n">
+      <c r="AN13" s="17" t="n">
         <v>12053779476.3372</v>
       </c>
-      <c r="AO13" s="5" t="n">
+      <c r="AO13" s="17" t="n">
         <v>13812884445.0043</v>
       </c>
-      <c r="AP13" s="5" t="n">
+      <c r="AP13" s="17" t="n">
         <v>13403479705.0021</v>
       </c>
-      <c r="AQ13" s="5" t="n">
+      <c r="AQ13" s="17" t="n">
         <v>12289232311.3958</v>
       </c>
-      <c r="AR13" s="5" t="n">
+      <c r="AR13" s="17" t="n">
         <v>11879242580.524</v>
       </c>
-      <c r="AS13" s="5" t="n">
+      <c r="AS13" s="17" t="n">
         <v>15368637272.8972</v>
       </c>
-      <c r="AT13" s="5" t="n">
+      <c r="AT13" s="17" t="n">
         <v>6690070397.66</v>
       </c>
-      <c r="AU13" s="5"/>
-      <c r="AV13" s="5"/>
+      <c r="AU13" s="17"/>
+      <c r="AV13" s="17"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
         <f>L14</f>
       </c>
-      <c r="B14" s="5" t="str">
+      <c r="B14" s="17" t="str">
         <f>AQ14</f>
       </c>
-      <c r="C14" s="5" t="str">
+      <c r="C14" s="17" t="str">
         <f>AS14</f>
       </c>
-      <c r="D14" s="5" t="str">
+      <c r="D14" s="17" t="str">
         <f>AT14</f>
       </c>
-      <c r="E14" s="5" t="str">
+      <c r="E14" s="17" t="str">
         <f>AU14</f>
       </c>
       <c r="F14" s="1" t="str">
@@ -10677,105 +10677,105 @@
       <c r="L14" t="s">
         <v>73</v>
       </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5" t="n">
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17" t="n">
         <v>71534514001.723</v>
       </c>
-      <c r="X14" s="5" t="n">
+      <c r="X14" s="17" t="n">
         <v>75367681436.6406</v>
       </c>
-      <c r="Y14" s="5" t="n">
+      <c r="Y14" s="17" t="n">
         <v>97147360210.0785</v>
       </c>
-      <c r="Z14" s="5" t="n">
+      <c r="Z14" s="17" t="n">
         <v>111066494268.953</v>
       </c>
-      <c r="AA14" s="5" t="n">
+      <c r="AA14" s="17" t="n">
         <v>112513493534.888</v>
       </c>
-      <c r="AB14" s="5" t="n">
+      <c r="AB14" s="17" t="n">
         <v>110925456161.399</v>
       </c>
-      <c r="AC14" s="5" t="n">
+      <c r="AC14" s="17" t="n">
         <v>128688305172.3</v>
       </c>
-      <c r="AD14" s="5" t="n">
+      <c r="AD14" s="17" t="n">
         <v>139610761290.037</v>
       </c>
-      <c r="AE14" s="5" t="n">
+      <c r="AE14" s="17" t="n">
         <v>144877447558.223</v>
       </c>
-      <c r="AF14" s="5" t="n">
+      <c r="AF14" s="17" t="n">
         <v>146641754960.537</v>
       </c>
-      <c r="AG14" s="5" t="n">
+      <c r="AG14" s="17" t="n">
         <v>130635792823.743</v>
       </c>
-      <c r="AH14" s="5" t="n">
+      <c r="AH14" s="17" t="n">
         <v>144890547077.183</v>
       </c>
-      <c r="AI14" s="5" t="n">
+      <c r="AI14" s="17" t="n">
         <v>137692439491.068</v>
       </c>
-      <c r="AJ14" s="5" t="n">
+      <c r="AJ14" s="17" t="n">
         <v>123913696834.575</v>
       </c>
-      <c r="AK14" s="5" t="n">
+      <c r="AK14" s="17" t="n">
         <v>103399546797.634</v>
       </c>
-      <c r="AL14" s="5" t="n">
+      <c r="AL14" s="17" t="n">
         <v>101448976878.908</v>
       </c>
-      <c r="AM14" s="5" t="n">
+      <c r="AM14" s="17" t="n">
         <v>127374864270.755</v>
       </c>
-      <c r="AN14" s="5" t="n">
+      <c r="AN14" s="17" t="n">
         <v>137047892107.115</v>
       </c>
-      <c r="AO14" s="5" t="n">
+      <c r="AO14" s="17" t="n">
         <v>134678141631.357</v>
       </c>
-      <c r="AP14" s="5" t="n">
+      <c r="AP14" s="17" t="n">
         <v>144408799650.168</v>
       </c>
-      <c r="AQ14" s="5" t="n">
+      <c r="AQ14" s="17" t="n">
         <v>176040114283.422</v>
       </c>
-      <c r="AR14" s="5" t="n">
+      <c r="AR14" s="17" t="n">
         <v>127431056946.961</v>
       </c>
-      <c r="AS14" s="5" t="n">
+      <c r="AS14" s="17" t="n">
         <v>127052476656.93</v>
       </c>
-      <c r="AT14" s="5" t="n">
+      <c r="AT14" s="17" t="n">
         <v>84206478607.0139</v>
       </c>
-      <c r="AU14" s="5"/>
-      <c r="AV14" s="5"/>
+      <c r="AU14" s="17"/>
+      <c r="AV14" s="17"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
         <f>L15</f>
       </c>
-      <c r="B15" s="5" t="str">
+      <c r="B15" s="17" t="str">
         <f>AQ15</f>
       </c>
-      <c r="C15" s="5" t="str">
+      <c r="C15" s="17" t="str">
         <f>AS15</f>
       </c>
-      <c r="D15" s="5" t="str">
+      <c r="D15" s="17" t="str">
         <f>AT15</f>
       </c>
-      <c r="E15" s="5" t="str">
+      <c r="E15" s="17" t="str">
         <f>AU15</f>
       </c>
       <c r="F15" s="1" t="str">
@@ -10796,105 +10796,105 @@
       <c r="L15" t="s">
         <v>74</v>
       </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5" t="n">
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17" t="n">
         <v>58457694436.027</v>
       </c>
-      <c r="X15" s="5" t="n">
+      <c r="X15" s="17" t="n">
         <v>56636938391.7615</v>
       </c>
-      <c r="Y15" s="5" t="n">
+      <c r="Y15" s="17" t="n">
         <v>64233084110.6817</v>
       </c>
-      <c r="Z15" s="5" t="n">
+      <c r="Z15" s="17" t="n">
         <v>91331909947.47</v>
       </c>
-      <c r="AA15" s="5" t="n">
+      <c r="AA15" s="17" t="n">
         <v>105410235799.507</v>
       </c>
-      <c r="AB15" s="5" t="n">
+      <c r="AB15" s="17" t="n">
         <v>117013266685.09</v>
       </c>
-      <c r="AC15" s="5" t="n">
+      <c r="AC15" s="17" t="n">
         <v>123825586246.286</v>
       </c>
-      <c r="AD15" s="5" t="n">
+      <c r="AD15" s="17" t="n">
         <v>141086204368.835</v>
       </c>
-      <c r="AE15" s="5" t="n">
+      <c r="AE15" s="17" t="n">
         <v>170456219146.701</v>
       </c>
-      <c r="AF15" s="5" t="n">
+      <c r="AF15" s="17" t="n">
         <v>158429076951.437</v>
       </c>
-      <c r="AG15" s="5" t="n">
+      <c r="AG15" s="17" t="n">
         <v>153504714472.041</v>
       </c>
-      <c r="AH15" s="5" t="n">
+      <c r="AH15" s="17" t="n">
         <v>149454413247.074</v>
       </c>
-      <c r="AI15" s="5" t="n">
+      <c r="AI15" s="17" t="n">
         <v>147713745077.665</v>
       </c>
-      <c r="AJ15" s="5" t="n">
+      <c r="AJ15" s="17" t="n">
         <v>118439253107.563</v>
       </c>
-      <c r="AK15" s="5" t="n">
+      <c r="AK15" s="17" t="n">
         <v>110848424167.491</v>
       </c>
-      <c r="AL15" s="5" t="n">
+      <c r="AL15" s="17" t="n">
         <v>103214234271.57</v>
       </c>
-      <c r="AM15" s="5" t="n">
+      <c r="AM15" s="17" t="n">
         <v>101458774885.332</v>
       </c>
-      <c r="AN15" s="5" t="n">
+      <c r="AN15" s="17" t="n">
         <v>105569960180.398</v>
       </c>
-      <c r="AO15" s="5" t="n">
+      <c r="AO15" s="17" t="n">
         <v>122520912794.443</v>
       </c>
-      <c r="AP15" s="5" t="n">
+      <c r="AP15" s="17" t="n">
         <v>124494152537.218</v>
       </c>
-      <c r="AQ15" s="5" t="n">
+      <c r="AQ15" s="17" t="n">
         <v>126245820167.367</v>
       </c>
-      <c r="AR15" s="5" t="n">
+      <c r="AR15" s="17" t="n">
         <v>133067300728.198</v>
       </c>
-      <c r="AS15" s="5" t="n">
+      <c r="AS15" s="17" t="n">
         <v>125730230469.339</v>
       </c>
-      <c r="AT15" s="5" t="n">
+      <c r="AT15" s="17" t="n">
         <v>53200181316.3679</v>
       </c>
-      <c r="AU15" s="5"/>
-      <c r="AV15" s="5"/>
+      <c r="AU15" s="17"/>
+      <c r="AV15" s="17"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
         <f>L16</f>
       </c>
-      <c r="B16" s="5" t="str">
+      <c r="B16" s="17" t="str">
         <f>AQ16</f>
       </c>
-      <c r="C16" s="5" t="str">
+      <c r="C16" s="17" t="str">
         <f>AS16</f>
       </c>
-      <c r="D16" s="5" t="str">
+      <c r="D16" s="17" t="str">
         <f>AT16</f>
       </c>
-      <c r="E16" s="5" t="str">
+      <c r="E16" s="17" t="str">
         <f>AU16</f>
       </c>
       <c r="F16" s="1" t="str">
@@ -10915,105 +10915,105 @@
       <c r="L16" t="s">
         <v>75</v>
       </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5" t="n">
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17" t="n">
         <v>46559462465.7199</v>
       </c>
-      <c r="X16" s="5" t="n">
+      <c r="X16" s="17" t="n">
         <v>57975824520.7514</v>
       </c>
-      <c r="Y16" s="5" t="n">
+      <c r="Y16" s="17" t="n">
         <v>57332985822.1718</v>
       </c>
-      <c r="Z16" s="5" t="n">
+      <c r="Z16" s="17" t="n">
         <v>67357454184.6651</v>
       </c>
-      <c r="AA16" s="5" t="n">
+      <c r="AA16" s="17" t="n">
         <v>65378351068</v>
       </c>
-      <c r="AB16" s="5" t="n">
+      <c r="AB16" s="17" t="n">
         <v>77378196636.6948</v>
       </c>
-      <c r="AC16" s="5" t="n">
+      <c r="AC16" s="17" t="n">
         <v>76647542986.4204</v>
       </c>
-      <c r="AD16" s="5" t="n">
+      <c r="AD16" s="17" t="n">
         <v>83753624611.2749</v>
       </c>
-      <c r="AE16" s="5" t="n">
+      <c r="AE16" s="17" t="n">
         <v>95406026957.7255</v>
       </c>
-      <c r="AF16" s="5" t="n">
+      <c r="AF16" s="17" t="n">
         <v>100660275245.679</v>
       </c>
-      <c r="AG16" s="5" t="n">
+      <c r="AG16" s="17" t="n">
         <v>92418734915.6078</v>
       </c>
-      <c r="AH16" s="5" t="n">
+      <c r="AH16" s="17" t="n">
         <v>90181751861.542</v>
       </c>
-      <c r="AI16" s="5" t="n">
+      <c r="AI16" s="17" t="n">
         <v>80959729678.0246</v>
       </c>
-      <c r="AJ16" s="5" t="n">
+      <c r="AJ16" s="17" t="n">
         <v>66321573193.2417</v>
       </c>
-      <c r="AK16" s="5" t="n">
+      <c r="AK16" s="17" t="n">
         <v>59519020273.2539</v>
       </c>
-      <c r="AL16" s="5" t="n">
+      <c r="AL16" s="17" t="n">
         <v>58486384385.1513</v>
       </c>
-      <c r="AM16" s="5" t="n">
+      <c r="AM16" s="17" t="n">
         <v>58234022320.2804</v>
       </c>
-      <c r="AN16" s="5" t="n">
+      <c r="AN16" s="17" t="n">
         <v>63817492166.4999</v>
       </c>
-      <c r="AO16" s="5" t="n">
+      <c r="AO16" s="17" t="n">
         <v>73551053406.0729</v>
       </c>
-      <c r="AP16" s="5" t="n">
+      <c r="AP16" s="17" t="n">
         <v>81481141564.7365</v>
       </c>
-      <c r="AQ16" s="5" t="n">
+      <c r="AQ16" s="17" t="n">
         <v>85988658980.5621</v>
       </c>
-      <c r="AR16" s="5" t="n">
+      <c r="AR16" s="17" t="n">
         <v>76950118170.6376</v>
       </c>
-      <c r="AS16" s="5" t="n">
+      <c r="AS16" s="17" t="n">
         <v>79828930477.7842</v>
       </c>
-      <c r="AT16" s="5" t="n">
+      <c r="AT16" s="17" t="n">
         <v>38965329412.2745</v>
       </c>
-      <c r="AU16" s="5"/>
-      <c r="AV16" s="5"/>
+      <c r="AU16" s="17"/>
+      <c r="AV16" s="17"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
         <f>L17</f>
       </c>
-      <c r="B17" s="5" t="str">
+      <c r="B17" s="17" t="str">
         <f>AQ17</f>
       </c>
-      <c r="C17" s="5" t="str">
+      <c r="C17" s="17" t="str">
         <f>AS17</f>
       </c>
-      <c r="D17" s="5" t="str">
+      <c r="D17" s="17" t="str">
         <f>AT17</f>
       </c>
-      <c r="E17" s="5" t="str">
+      <c r="E17" s="17" t="str">
         <f>AU17</f>
       </c>
       <c r="F17" s="1" t="str">
@@ -11034,105 +11034,105 @@
       <c r="L17" t="s">
         <v>76</v>
       </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5" t="n">
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17" t="n">
         <v>34625407201.4977</v>
       </c>
-      <c r="X17" s="5" t="n">
+      <c r="X17" s="17" t="n">
         <v>35607708260.3208</v>
       </c>
-      <c r="Y17" s="5" t="n">
+      <c r="Y17" s="17" t="n">
         <v>42128941628.1597</v>
       </c>
-      <c r="Z17" s="5" t="n">
+      <c r="Z17" s="17" t="n">
         <v>51529086241.1321</v>
       </c>
-      <c r="AA17" s="5" t="n">
+      <c r="AA17" s="17" t="n">
         <v>53552391732.0811</v>
       </c>
-      <c r="AB17" s="5" t="n">
+      <c r="AB17" s="17" t="n">
         <v>65015690667.9667</v>
       </c>
-      <c r="AC17" s="5" t="n">
+      <c r="AC17" s="17" t="n">
         <v>66149660702.376</v>
       </c>
-      <c r="AD17" s="5" t="n">
+      <c r="AD17" s="17" t="n">
         <v>70336607117.7925</v>
       </c>
-      <c r="AE17" s="5" t="n">
+      <c r="AE17" s="17" t="n">
         <v>75979362870.0844</v>
       </c>
-      <c r="AF17" s="5" t="n">
+      <c r="AF17" s="17" t="n">
         <v>81278435553.2686</v>
       </c>
-      <c r="AG17" s="5" t="n">
+      <c r="AG17" s="17" t="n">
         <v>78916133794.5799</v>
       </c>
-      <c r="AH17" s="5" t="n">
+      <c r="AH17" s="17" t="n">
         <v>75146677531.0082</v>
       </c>
-      <c r="AI17" s="5" t="n">
+      <c r="AI17" s="17" t="n">
         <v>73799459305.4055</v>
       </c>
-      <c r="AJ17" s="5" t="n">
+      <c r="AJ17" s="17" t="n">
         <v>60679669127.115</v>
       </c>
-      <c r="AK17" s="5" t="n">
+      <c r="AK17" s="17" t="n">
         <v>67590399249.459</v>
       </c>
-      <c r="AL17" s="5" t="n">
+      <c r="AL17" s="17" t="n">
         <v>65683439679.1726</v>
       </c>
-      <c r="AM17" s="5" t="n">
+      <c r="AM17" s="17" t="n">
         <v>70143033981.2924</v>
       </c>
-      <c r="AN17" s="5" t="n">
+      <c r="AN17" s="17" t="n">
         <v>72218285427.156</v>
       </c>
-      <c r="AO17" s="5" t="n">
+      <c r="AO17" s="17" t="n">
         <v>83810645573.2366</v>
       </c>
-      <c r="AP17" s="5" t="n">
+      <c r="AP17" s="17" t="n">
         <v>85840507718.7188</v>
       </c>
-      <c r="AQ17" s="5" t="n">
+      <c r="AQ17" s="17" t="n">
         <v>87638011912.5804</v>
       </c>
-      <c r="AR17" s="5" t="n">
+      <c r="AR17" s="17" t="n">
         <v>82889835809.6032</v>
       </c>
-      <c r="AS17" s="5" t="n">
+      <c r="AS17" s="17" t="n">
         <v>84995843380.7946</v>
       </c>
-      <c r="AT17" s="5" t="n">
+      <c r="AT17" s="17" t="n">
         <v>32703442132.7152</v>
       </c>
-      <c r="AU17" s="5"/>
-      <c r="AV17" s="5"/>
+      <c r="AU17" s="17"/>
+      <c r="AV17" s="17"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
         <f>L18</f>
       </c>
-      <c r="B18" s="5" t="str">
+      <c r="B18" s="17" t="str">
         <f>AQ18</f>
       </c>
-      <c r="C18" s="5" t="str">
+      <c r="C18" s="17" t="str">
         <f>AS18</f>
       </c>
-      <c r="D18" s="5" t="str">
+      <c r="D18" s="17" t="str">
         <f>AT18</f>
       </c>
-      <c r="E18" s="5" t="str">
+      <c r="E18" s="17" t="str">
         <f>AU18</f>
       </c>
       <c r="F18" s="1" t="str">
@@ -11153,112 +11153,112 @@
       <c r="L18" t="s">
         <v>46</v>
       </c>
-      <c r="M18" s="5" t="str">
+      <c r="M18" s="17" t="str">
         <f>Sum(M12:M17)</f>
       </c>
-      <c r="N18" s="5" t="str">
+      <c r="N18" s="17" t="str">
         <f>Sum(N12:N17)</f>
       </c>
-      <c r="O18" s="5" t="str">
+      <c r="O18" s="17" t="str">
         <f>Sum(O12:O17)</f>
       </c>
-      <c r="P18" s="5" t="str">
+      <c r="P18" s="17" t="str">
         <f>Sum(P12:P17)</f>
       </c>
-      <c r="Q18" s="5" t="str">
+      <c r="Q18" s="17" t="str">
         <f>Sum(Q12:Q17)</f>
       </c>
-      <c r="R18" s="5" t="str">
+      <c r="R18" s="17" t="str">
         <f>Sum(R12:R17)</f>
       </c>
-      <c r="S18" s="5" t="str">
+      <c r="S18" s="17" t="str">
         <f>Sum(S12:S17)</f>
       </c>
-      <c r="T18" s="5" t="str">
+      <c r="T18" s="17" t="str">
         <f>Sum(T12:T17)</f>
       </c>
-      <c r="U18" s="5" t="str">
+      <c r="U18" s="17" t="str">
         <f>Sum(U12:U17)</f>
       </c>
-      <c r="V18" s="5" t="str">
+      <c r="V18" s="17" t="str">
         <f>Sum(V12:V17)</f>
       </c>
-      <c r="W18" s="5" t="str">
+      <c r="W18" s="17" t="str">
         <f>Sum(W12:W17)</f>
       </c>
-      <c r="X18" s="5" t="str">
+      <c r="X18" s="17" t="str">
         <f>Sum(X12:X17)</f>
       </c>
-      <c r="Y18" s="5" t="str">
+      <c r="Y18" s="17" t="str">
         <f>Sum(Y12:Y17)</f>
       </c>
-      <c r="Z18" s="5" t="str">
+      <c r="Z18" s="17" t="str">
         <f>Sum(Z12:Z17)</f>
       </c>
-      <c r="AA18" s="5" t="str">
+      <c r="AA18" s="17" t="str">
         <f>Sum(AA12:AA17)</f>
       </c>
-      <c r="AB18" s="5" t="str">
+      <c r="AB18" s="17" t="str">
         <f>Sum(AB12:AB17)</f>
       </c>
-      <c r="AC18" s="5" t="str">
+      <c r="AC18" s="17" t="str">
         <f>Sum(AC12:AC17)</f>
       </c>
-      <c r="AD18" s="5" t="str">
+      <c r="AD18" s="17" t="str">
         <f>Sum(AD12:AD17)</f>
       </c>
-      <c r="AE18" s="5" t="str">
+      <c r="AE18" s="17" t="str">
         <f>Sum(AE12:AE17)</f>
       </c>
-      <c r="AF18" s="5" t="str">
+      <c r="AF18" s="17" t="str">
         <f>Sum(AF12:AF17)</f>
       </c>
-      <c r="AG18" s="5" t="str">
+      <c r="AG18" s="17" t="str">
         <f>Sum(AG12:AG17)</f>
       </c>
-      <c r="AH18" s="5" t="str">
+      <c r="AH18" s="17" t="str">
         <f>Sum(AH12:AH17)</f>
       </c>
-      <c r="AI18" s="5" t="str">
+      <c r="AI18" s="17" t="str">
         <f>Sum(AI12:AI17)</f>
       </c>
-      <c r="AJ18" s="5" t="str">
+      <c r="AJ18" s="17" t="str">
         <f>Sum(AJ12:AJ17)</f>
       </c>
-      <c r="AK18" s="5" t="str">
+      <c r="AK18" s="17" t="str">
         <f>Sum(AK12:AK17)</f>
       </c>
-      <c r="AL18" s="5" t="str">
+      <c r="AL18" s="17" t="str">
         <f>Sum(AL12:AL17)</f>
       </c>
-      <c r="AM18" s="5" t="str">
+      <c r="AM18" s="17" t="str">
         <f>Sum(AM12:AM17)</f>
       </c>
-      <c r="AN18" s="5" t="str">
+      <c r="AN18" s="17" t="str">
         <f>Sum(AN12:AN17)</f>
       </c>
-      <c r="AO18" s="5" t="str">
+      <c r="AO18" s="17" t="str">
         <f>Sum(AO12:AO17)</f>
       </c>
-      <c r="AP18" s="5" t="str">
+      <c r="AP18" s="17" t="str">
         <f>Sum(AP12:AP17)</f>
       </c>
-      <c r="AQ18" s="5" t="str">
+      <c r="AQ18" s="17" t="str">
         <f>Sum(AQ12:AQ17)</f>
       </c>
-      <c r="AR18" s="5" t="str">
+      <c r="AR18" s="17" t="str">
         <f>Sum(AR12:AR17)</f>
       </c>
-      <c r="AS18" s="5" t="str">
+      <c r="AS18" s="17" t="str">
         <f>Sum(AS12:AS17)</f>
       </c>
-      <c r="AT18" s="5" t="str">
+      <c r="AT18" s="17" t="str">
         <f>Sum(AT12:AT17)</f>
       </c>
-      <c r="AU18" s="5" t="str">
+      <c r="AU18" s="17" t="str">
         <f>Sum(AU12:AU17)</f>
       </c>
-      <c r="AV18" s="5"/>
+      <c r="AV18" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18128,16 +18128,16 @@
       <c r="B2" s="10" t="str">
         <f>N2</f>
       </c>
-      <c r="C2" s="17" t="str">
+      <c r="C2" s="13" t="str">
         <f>AI2</f>
       </c>
-      <c r="D2" s="17" t="str">
+      <c r="D2" s="13" t="str">
         <f>AK2</f>
       </c>
-      <c r="E2" s="17" t="str">
+      <c r="E2" s="13" t="str">
         <f>AL2</f>
       </c>
-      <c r="F2" s="17" t="str">
+      <c r="F2" s="13" t="str">
         <f>AT2/AS2-1</f>
       </c>
       <c r="G2" s="1" t="str">
@@ -18162,79 +18162,79 @@
       <c r="N2" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="17" t="n">
+      <c r="O2" s="13" t="n">
         <v>59437630207.2448</v>
       </c>
-      <c r="P2" s="17" t="n">
+      <c r="P2" s="13" t="n">
         <v>59211288108.7318</v>
       </c>
-      <c r="Q2" s="17" t="n">
+      <c r="Q2" s="13" t="n">
         <v>62045010242.571</v>
       </c>
-      <c r="R2" s="17" t="n">
+      <c r="R2" s="13" t="n">
         <v>74254668857.86</v>
       </c>
-      <c r="S2" s="17" t="n">
+      <c r="S2" s="13" t="n">
         <v>68525978638.2338</v>
       </c>
-      <c r="T2" s="17" t="n">
+      <c r="T2" s="13" t="n">
         <v>61154400064.5777</v>
       </c>
-      <c r="U2" s="17" t="n">
+      <c r="U2" s="13" t="n">
         <v>69080591718.6393</v>
       </c>
-      <c r="V2" s="17" t="n">
+      <c r="V2" s="13" t="n">
         <v>78727250348.9854</v>
       </c>
-      <c r="W2" s="17" t="n">
+      <c r="W2" s="13" t="n">
         <v>80182202668.0941</v>
       </c>
-      <c r="X2" s="17" t="n">
+      <c r="X2" s="13" t="n">
         <v>83197598996.438</v>
       </c>
-      <c r="Y2" s="17" t="n">
+      <c r="Y2" s="13" t="n">
         <v>78877621776.0082</v>
       </c>
-      <c r="Z2" s="17" t="n">
+      <c r="Z2" s="13" t="n">
         <v>83974635584.593</v>
       </c>
-      <c r="AA2" s="17" t="n">
+      <c r="AA2" s="13" t="n">
         <v>85757952898.3284</v>
       </c>
-      <c r="AB2" s="17" t="n">
+      <c r="AB2" s="13" t="n">
         <v>78300475981.4131</v>
       </c>
-      <c r="AC2" s="17" t="n">
+      <c r="AC2" s="13" t="n">
         <v>61433665596.8671</v>
       </c>
-      <c r="AD2" s="17" t="n">
+      <c r="AD2" s="13" t="n">
         <v>63998322849.6493</v>
       </c>
-      <c r="AE2" s="17" t="n">
+      <c r="AE2" s="13" t="n">
         <v>79196536179.6018</v>
       </c>
-      <c r="AF2" s="17" t="n">
+      <c r="AF2" s="13" t="n">
         <v>88768995949.5139</v>
       </c>
-      <c r="AG2" s="17" t="n">
+      <c r="AG2" s="13" t="n">
         <v>79109600577.5145</v>
       </c>
-      <c r="AH2" s="17" t="n">
+      <c r="AH2" s="13" t="n">
         <v>84277119720.0796</v>
       </c>
-      <c r="AI2" s="17" t="n">
+      <c r="AI2" s="13" t="n">
         <v>105306850242.087</v>
       </c>
-      <c r="AJ2" s="17" t="n">
+      <c r="AJ2" s="13" t="n">
         <v>64147589758.4595</v>
       </c>
-      <c r="AK2" s="17" t="n">
+      <c r="AK2" s="13" t="n">
         <v>61632524801.5775</v>
       </c>
-      <c r="AL2" s="17" t="n">
+      <c r="AL2" s="13" t="n">
         <v>79188466054.4052</v>
       </c>
-      <c r="AM2" s="17" t="n">
+      <c r="AM2" s="13" t="n">
         <v>61461822020.116</v>
       </c>
       <c r="AN2" s="12" t="n">
@@ -18273,16 +18273,16 @@
       <c r="B3" s="10" t="str">
         <f>N3</f>
       </c>
-      <c r="C3" s="17" t="str">
+      <c r="C3" s="13" t="str">
         <f>AI3</f>
       </c>
-      <c r="D3" s="17" t="str">
+      <c r="D3" s="13" t="str">
         <f>AK3</f>
       </c>
-      <c r="E3" s="17" t="str">
+      <c r="E3" s="13" t="str">
         <f>AL3</f>
       </c>
-      <c r="F3" s="17" t="str">
+      <c r="F3" s="13" t="str">
         <f>AT3/AS3-1</f>
       </c>
       <c r="G3" s="1" t="str">
@@ -18307,79 +18307,79 @@
       <c r="N3" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="O3" s="17" t="n">
+      <c r="O3" s="13" t="n">
         <v>34768195529.1791</v>
       </c>
-      <c r="P3" s="17" t="n">
+      <c r="P3" s="13" t="n">
         <v>36508946193.8254</v>
       </c>
-      <c r="Q3" s="17" t="n">
+      <c r="Q3" s="13" t="n">
         <v>41023799914.6688</v>
       </c>
-      <c r="R3" s="17" t="n">
+      <c r="R3" s="13" t="n">
         <v>48642520203.3657</v>
       </c>
-      <c r="S3" s="17" t="n">
+      <c r="S3" s="13" t="n">
         <v>55556887911.2154</v>
       </c>
-      <c r="T3" s="17" t="n">
+      <c r="T3" s="13" t="n">
         <v>62001073253.6825</v>
       </c>
-      <c r="U3" s="17" t="n">
+      <c r="U3" s="13" t="n">
         <v>63839431332.7391</v>
       </c>
-      <c r="V3" s="17" t="n">
+      <c r="V3" s="13" t="n">
         <v>73923513044.6965</v>
       </c>
-      <c r="W3" s="17" t="n">
+      <c r="W3" s="13" t="n">
         <v>78629077856.0985</v>
       </c>
-      <c r="X3" s="17" t="n">
+      <c r="X3" s="13" t="n">
         <v>74222496251.542</v>
       </c>
-      <c r="Y3" s="17" t="n">
+      <c r="Y3" s="13" t="n">
         <v>70259981678.1793</v>
       </c>
-      <c r="Z3" s="17" t="n">
+      <c r="Z3" s="13" t="n">
         <v>62882297569.0752</v>
       </c>
-      <c r="AA3" s="17" t="n">
+      <c r="AA3" s="13" t="n">
         <v>57340974239.2376</v>
       </c>
-      <c r="AB3" s="17" t="n">
+      <c r="AB3" s="13" t="n">
         <v>46179793496.1404</v>
       </c>
-      <c r="AC3" s="17" t="n">
+      <c r="AC3" s="13" t="n">
         <v>43865569649.2852</v>
       </c>
-      <c r="AD3" s="17" t="n">
+      <c r="AD3" s="13" t="n">
         <v>41021334099.7071</v>
       </c>
-      <c r="AE3" s="17" t="n">
+      <c r="AE3" s="13" t="n">
         <v>43068459427.2238</v>
       </c>
-      <c r="AF3" s="17" t="n">
+      <c r="AF3" s="13" t="n">
         <v>43960250354.657</v>
       </c>
-      <c r="AG3" s="17" t="n">
+      <c r="AG3" s="13" t="n">
         <v>47767789115.0819</v>
       </c>
-      <c r="AH3" s="17" t="n">
+      <c r="AH3" s="13" t="n">
         <v>50054140169.9917</v>
       </c>
-      <c r="AI3" s="17" t="n">
+      <c r="AI3" s="13" t="n">
         <v>48243857054.4228</v>
       </c>
-      <c r="AJ3" s="17" t="n">
+      <c r="AJ3" s="13" t="n">
         <v>40394212433.5729</v>
       </c>
-      <c r="AK3" s="17" t="n">
+      <c r="AK3" s="13" t="n">
         <v>40880963113.3212</v>
       </c>
-      <c r="AL3" s="17" t="n">
+      <c r="AL3" s="13" t="n">
         <v>38848195826.6314</v>
       </c>
-      <c r="AM3" s="17" t="n">
+      <c r="AM3" s="13" t="n">
         <v>43740815021.7951</v>
       </c>
       <c r="AN3" s="12" t="n">
@@ -18418,16 +18418,16 @@
       <c r="B4" s="10" t="str">
         <f>N4</f>
       </c>
-      <c r="C4" s="17" t="str">
+      <c r="C4" s="13" t="str">
         <f>AI4</f>
       </c>
-      <c r="D4" s="17" t="str">
+      <c r="D4" s="13" t="str">
         <f>AK4</f>
       </c>
-      <c r="E4" s="17" t="str">
+      <c r="E4" s="13" t="str">
         <f>AL4</f>
       </c>
-      <c r="F4" s="17" t="str">
+      <c r="F4" s="13" t="str">
         <f>AT4/AS4-1</f>
       </c>
       <c r="G4" s="1" t="str">
@@ -18452,79 +18452,79 @@
       <c r="N4" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="O4" s="17" t="n">
+      <c r="O4" s="13" t="n">
         <v>34845438461.4852</v>
       </c>
-      <c r="P4" s="17" t="n">
+      <c r="P4" s="13" t="n">
         <v>37772643397.6964</v>
       </c>
-      <c r="Q4" s="17" t="n">
+      <c r="Q4" s="13" t="n">
         <v>42038900597.5546</v>
       </c>
-      <c r="R4" s="17" t="n">
+      <c r="R4" s="13" t="n">
         <v>54521454605.5789</v>
       </c>
-      <c r="S4" s="17" t="n">
+      <c r="S4" s="13" t="n">
         <v>54894821503.216</v>
       </c>
-      <c r="T4" s="17" t="n">
+      <c r="T4" s="13" t="n">
         <v>58851160100.7417</v>
       </c>
-      <c r="U4" s="17" t="n">
+      <c r="U4" s="13" t="n">
         <v>65958170056.6272</v>
       </c>
-      <c r="V4" s="17" t="n">
+      <c r="V4" s="13" t="n">
         <v>64734205711.1249</v>
       </c>
-      <c r="W4" s="17" t="n">
+      <c r="W4" s="13" t="n">
         <v>78729947568.4735</v>
       </c>
-      <c r="X4" s="17" t="n">
+      <c r="X4" s="13" t="n">
         <v>69787451609.7343</v>
       </c>
-      <c r="Y4" s="17" t="n">
+      <c r="Y4" s="13" t="n">
         <v>75130636538.9975</v>
       </c>
-      <c r="Z4" s="17" t="n">
+      <c r="Z4" s="13" t="n">
         <v>64466910296.1132</v>
       </c>
-      <c r="AA4" s="17" t="n">
+      <c r="AA4" s="13" t="n">
         <v>57390278285.8079</v>
       </c>
-      <c r="AB4" s="17" t="n">
+      <c r="AB4" s="13" t="n">
         <v>45628972412.1476</v>
       </c>
-      <c r="AC4" s="17" t="n">
+      <c r="AC4" s="13" t="n">
         <v>47658584817.1531</v>
       </c>
-      <c r="AD4" s="17" t="n">
+      <c r="AD4" s="13" t="n">
         <v>43160720063.759</v>
       </c>
-      <c r="AE4" s="17" t="n">
+      <c r="AE4" s="13" t="n">
         <v>43574194513.3891</v>
       </c>
-      <c r="AF4" s="17" t="n">
+      <c r="AF4" s="13" t="n">
         <v>42871228807.6289</v>
       </c>
-      <c r="AG4" s="17" t="n">
+      <c r="AG4" s="13" t="n">
         <v>50555168530.8503</v>
       </c>
-      <c r="AH4" s="17" t="n">
+      <c r="AH4" s="13" t="n">
         <v>56413189615.2018</v>
       </c>
-      <c r="AI4" s="17" t="n">
+      <c r="AI4" s="13" t="n">
         <v>64399583980.7981</v>
       </c>
-      <c r="AJ4" s="17" t="n">
+      <c r="AJ4" s="13" t="n">
         <v>51996916181.6673</v>
       </c>
-      <c r="AK4" s="17" t="n">
+      <c r="AK4" s="13" t="n">
         <v>53742518637.1049</v>
       </c>
-      <c r="AL4" s="17" t="n">
+      <c r="AL4" s="13" t="n">
         <v>58831781203.8491</v>
       </c>
-      <c r="AM4" s="17" t="n">
+      <c r="AM4" s="13" t="n">
         <v>47661737715.1314</v>
       </c>
       <c r="AN4" s="12" t="n">
@@ -18563,16 +18563,16 @@
       <c r="B5" s="10" t="str">
         <f>N5</f>
       </c>
-      <c r="C5" s="17" t="str">
+      <c r="C5" s="13" t="str">
         <f>AI5</f>
       </c>
-      <c r="D5" s="17" t="str">
+      <c r="D5" s="13" t="str">
         <f>AK5</f>
       </c>
-      <c r="E5" s="17" t="str">
+      <c r="E5" s="13" t="str">
         <f>AL5</f>
       </c>
-      <c r="F5" s="17" t="str">
+      <c r="F5" s="13" t="str">
         <f>AT5/AS5-1</f>
       </c>
       <c r="G5" s="1" t="str">
@@ -18597,79 +18597,79 @@
       <c r="N5" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="O5" s="17" t="n">
+      <c r="O5" s="13" t="n">
         <v>5486401618.741</v>
       </c>
-      <c r="P5" s="17" t="n">
+      <c r="P5" s="13" t="n">
         <v>4501552552.14442</v>
       </c>
-      <c r="Q5" s="17" t="n">
+      <c r="Q5" s="13" t="n">
         <v>6737236663.50749</v>
       </c>
-      <c r="R5" s="17" t="n">
+      <c r="R5" s="13" t="n">
         <v>14715023805.6295</v>
       </c>
-      <c r="S5" s="17" t="n">
+      <c r="S5" s="13" t="n">
         <v>12366738212.5134</v>
       </c>
-      <c r="T5" s="17" t="n">
+      <c r="T5" s="13" t="n">
         <v>22404590773.3968</v>
       </c>
-      <c r="U5" s="17" t="n">
+      <c r="U5" s="13" t="n">
         <v>22899529411.2001</v>
       </c>
-      <c r="V5" s="17" t="n">
+      <c r="V5" s="13" t="n">
         <v>39879407830.0741</v>
       </c>
-      <c r="W5" s="17" t="n">
+      <c r="W5" s="13" t="n">
         <v>54903154886.5868</v>
       </c>
-      <c r="X5" s="17" t="n">
+      <c r="X5" s="13" t="n">
         <v>39200973932.8275</v>
       </c>
-      <c r="Y5" s="17" t="n">
+      <c r="Y5" s="13" t="n">
         <v>33184595595.5146</v>
       </c>
-      <c r="Z5" s="17" t="n">
+      <c r="Z5" s="13" t="n">
         <v>23656616905.0863</v>
       </c>
-      <c r="AA5" s="17" t="n">
+      <c r="AA5" s="13" t="n">
         <v>12227239764.3852</v>
       </c>
-      <c r="AB5" s="17" t="n">
+      <c r="AB5" s="13" t="n">
         <v>8720432427.42899</v>
       </c>
-      <c r="AC5" s="17" t="n">
+      <c r="AC5" s="13" t="n">
         <v>6109362711.39505</v>
       </c>
-      <c r="AD5" s="17" t="n">
+      <c r="AD5" s="13" t="n">
         <v>7268400402.10253</v>
       </c>
-      <c r="AE5" s="17" t="n">
+      <c r="AE5" s="13" t="n">
         <v>7039765507.06837</v>
       </c>
-      <c r="AF5" s="17" t="n">
+      <c r="AF5" s="13" t="n">
         <v>7834619497.10597</v>
       </c>
-      <c r="AG5" s="17" t="n">
+      <c r="AG5" s="13" t="n">
         <v>12427551361.541</v>
       </c>
-      <c r="AH5" s="17" t="n">
+      <c r="AH5" s="13" t="n">
         <v>12792869915.6386</v>
       </c>
-      <c r="AI5" s="17" t="n">
+      <c r="AI5" s="13" t="n">
         <v>11853747657.4827</v>
       </c>
-      <c r="AJ5" s="17" t="n">
+      <c r="AJ5" s="13" t="n">
         <v>9646849791.19473</v>
       </c>
-      <c r="AK5" s="17" t="n">
+      <c r="AK5" s="13" t="n">
         <v>10250823000.495</v>
       </c>
-      <c r="AL5" s="17" t="n">
+      <c r="AL5" s="13" t="n">
         <v>13182088217.2964</v>
       </c>
-      <c r="AM5" s="17" t="n">
+      <c r="AM5" s="13" t="n">
         <v>6108631413.9814</v>
       </c>
       <c r="AN5" s="12" t="n">
@@ -18708,16 +18708,16 @@
       <c r="B6" s="10" t="str">
         <f>N6</f>
       </c>
-      <c r="C6" s="17" t="str">
+      <c r="C6" s="13" t="str">
         <f>AI6</f>
       </c>
-      <c r="D6" s="17" t="str">
+      <c r="D6" s="13" t="str">
         <f>AK6</f>
       </c>
-      <c r="E6" s="17" t="str">
+      <c r="E6" s="13" t="str">
         <f>AL6</f>
       </c>
-      <c r="F6" s="17" t="str">
+      <c r="F6" s="13" t="str">
         <f>AT6/AS6-1</f>
       </c>
       <c r="G6" s="1" t="str">
@@ -18742,79 +18742,79 @@
       <c r="N6" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="O6" s="17" t="n">
+      <c r="O6" s="13" t="n">
         <v>5045267109.98122</v>
       </c>
-      <c r="P6" s="17" t="n">
+      <c r="P6" s="13" t="n">
         <v>5522106588.75984</v>
       </c>
-      <c r="Q6" s="17" t="n">
+      <c r="Q6" s="13" t="n">
         <v>7638005785.78996</v>
       </c>
-      <c r="R6" s="17" t="n">
+      <c r="R6" s="13" t="n">
         <v>7985417138.06481</v>
       </c>
-      <c r="S6" s="17" t="n">
+      <c r="S6" s="13" t="n">
         <v>9275006859.15106</v>
       </c>
-      <c r="T6" s="17" t="n">
+      <c r="T6" s="13" t="n">
         <v>9752243441.45016</v>
       </c>
-      <c r="U6" s="17" t="n">
+      <c r="U6" s="13" t="n">
         <v>9836779545.36759</v>
       </c>
-      <c r="V6" s="17" t="n">
+      <c r="V6" s="13" t="n">
         <v>11762748167.2363</v>
       </c>
-      <c r="W6" s="17" t="n">
+      <c r="W6" s="13" t="n">
         <v>12135169178.6461</v>
       </c>
-      <c r="X6" s="17" t="n">
+      <c r="X6" s="13" t="n">
         <v>14364662126.6358</v>
       </c>
-      <c r="Y6" s="17" t="n">
+      <c r="Y6" s="13" t="n">
         <v>14173262656.3534</v>
       </c>
-      <c r="Z6" s="17" t="n">
+      <c r="Z6" s="13" t="n">
         <v>14004449651.2624</v>
       </c>
-      <c r="AA6" s="17" t="n">
+      <c r="AA6" s="13" t="n">
         <v>14194639883.275</v>
       </c>
-      <c r="AB6" s="17" t="n">
+      <c r="AB6" s="13" t="n">
         <v>13183896752.6168</v>
       </c>
-      <c r="AC6" s="17" t="n">
+      <c r="AC6" s="13" t="n">
         <v>9932761347.10288</v>
       </c>
-      <c r="AD6" s="17" t="n">
+      <c r="AD6" s="13" t="n">
         <v>10387013822.3683</v>
       </c>
-      <c r="AE6" s="17" t="n">
+      <c r="AE6" s="13" t="n">
         <v>10622531855.8714</v>
       </c>
-      <c r="AF6" s="17" t="n">
+      <c r="AF6" s="13" t="n">
         <v>9013122793.04847</v>
       </c>
-      <c r="AG6" s="17" t="n">
+      <c r="AG6" s="13" t="n">
         <v>15227823170.5868</v>
       </c>
-      <c r="AH6" s="17" t="n">
+      <c r="AH6" s="13" t="n">
         <v>16420864595.8319</v>
       </c>
-      <c r="AI6" s="17" t="n">
+      <c r="AI6" s="13" t="n">
         <v>19725617745.0437</v>
       </c>
-      <c r="AJ6" s="17" t="n">
+      <c r="AJ6" s="13" t="n">
         <v>11358816271.512</v>
       </c>
-      <c r="AK6" s="17" t="n">
+      <c r="AK6" s="13" t="n">
         <v>12086366837.6955</v>
       </c>
-      <c r="AL6" s="17" t="n">
+      <c r="AL6" s="13" t="n">
         <v>9328016402.2707</v>
       </c>
-      <c r="AM6" s="17" t="n">
+      <c r="AM6" s="13" t="n">
         <v>9931947266.0275</v>
       </c>
       <c r="AN6" s="12" t="n">
@@ -18853,16 +18853,16 @@
       <c r="B7" s="10" t="str">
         <f>N7</f>
       </c>
-      <c r="C7" s="17" t="str">
+      <c r="C7" s="13" t="str">
         <f>AI7</f>
       </c>
-      <c r="D7" s="17" t="str">
+      <c r="D7" s="13" t="str">
         <f>AK7</f>
       </c>
-      <c r="E7" s="17" t="str">
+      <c r="E7" s="13" t="str">
         <f>AL7</f>
       </c>
-      <c r="F7" s="17" t="str">
+      <c r="F7" s="13" t="str">
         <f>AT7/AS7-1</f>
       </c>
       <c r="G7" s="1" t="str">
@@ -18887,79 +18887,79 @@
       <c r="N7" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="O7" s="17" t="n">
+      <c r="O7" s="13" t="n">
         <v>13435598330.5683</v>
       </c>
-      <c r="P7" s="17" t="n">
+      <c r="P7" s="13" t="n">
         <v>13950648160.02</v>
       </c>
-      <c r="Q7" s="17" t="n">
+      <c r="Q7" s="13" t="n">
         <v>18994035366.7322</v>
       </c>
-      <c r="R7" s="17" t="n">
+      <c r="R7" s="13" t="n">
         <v>20726949632.1088</v>
       </c>
-      <c r="S7" s="17" t="n">
+      <c r="S7" s="13" t="n">
         <v>21126764847.6258</v>
       </c>
-      <c r="T7" s="17" t="n">
+      <c r="T7" s="13" t="n">
         <v>21788942600.008</v>
       </c>
-      <c r="U7" s="17" t="n">
+      <c r="U7" s="13" t="n">
         <v>21195043275.7669</v>
       </c>
-      <c r="V7" s="17" t="n">
+      <c r="V7" s="13" t="n">
         <v>24865486517.8887</v>
       </c>
-      <c r="W7" s="17" t="n">
+      <c r="W7" s="13" t="n">
         <v>25342423889.8857</v>
       </c>
-      <c r="X7" s="17" t="n">
+      <c r="X7" s="13" t="n">
         <v>23577297358.9515</v>
       </c>
-      <c r="Y7" s="17" t="n">
+      <c r="Y7" s="13" t="n">
         <v>20840917989.4607</v>
       </c>
-      <c r="Z7" s="17" t="n">
+      <c r="Z7" s="13" t="n">
         <v>19095311804.9431</v>
       </c>
-      <c r="AA7" s="17" t="n">
+      <c r="AA7" s="13" t="n">
         <v>19237426337.9476</v>
       </c>
-      <c r="AB7" s="17" t="n">
+      <c r="AB7" s="13" t="n">
         <v>15687246139.3307</v>
       </c>
-      <c r="AC7" s="17" t="n">
+      <c r="AC7" s="13" t="n">
         <v>14418520032.2436</v>
       </c>
-      <c r="AD7" s="17" t="n">
+      <c r="AD7" s="13" t="n">
         <v>15099274424.0167</v>
       </c>
-      <c r="AE7" s="17" t="n">
+      <c r="AE7" s="13" t="n">
         <v>18869485905.0668</v>
       </c>
-      <c r="AF7" s="17" t="n">
+      <c r="AF7" s="13" t="n">
         <v>19800058049.2375</v>
       </c>
-      <c r="AG7" s="17" t="n">
+      <c r="AG7" s="13" t="n">
         <v>23259023201.0931</v>
       </c>
-      <c r="AH7" s="17" t="n">
+      <c r="AH7" s="13" t="n">
         <v>24931471583.4004</v>
       </c>
-      <c r="AI7" s="17" t="n">
+      <c r="AI7" s="13" t="n">
         <v>25432379888.0451</v>
       </c>
-      <c r="AJ7" s="17" t="n">
+      <c r="AJ7" s="13" t="n">
         <v>22680048765.6849</v>
       </c>
-      <c r="AK7" s="17" t="n">
+      <c r="AK7" s="13" t="n">
         <v>20245438341.2182</v>
       </c>
-      <c r="AL7" s="17" t="n">
+      <c r="AL7" s="13" t="n">
         <v>32153931499.6371</v>
       </c>
-      <c r="AM7" s="17" t="n">
+      <c r="AM7" s="13" t="n">
         <v>14418509619.7839</v>
       </c>
       <c r="AN7" s="12" t="n">
@@ -18998,16 +18998,16 @@
       <c r="B8" s="10" t="str">
         <f>N8</f>
       </c>
-      <c r="C8" s="17" t="str">
+      <c r="C8" s="13" t="str">
         <f>AI8</f>
       </c>
-      <c r="D8" s="17" t="str">
+      <c r="D8" s="13" t="str">
         <f>AK8</f>
       </c>
-      <c r="E8" s="17" t="str">
+      <c r="E8" s="13" t="str">
         <f>AL8</f>
       </c>
-      <c r="F8" s="17" t="str">
+      <c r="F8" s="13" t="str">
         <f>AT8/AS8-1</f>
       </c>
       <c r="G8" s="1" t="str">
@@ -19032,79 +19032,79 @@
       <c r="N8" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="O8" s="17" t="n">
+      <c r="O8" s="13" t="n">
         <v>13599844108.49</v>
       </c>
-      <c r="P8" s="17" t="n">
+      <c r="P8" s="13" t="n">
         <v>15714301819.3469</v>
       </c>
-      <c r="Q8" s="17" t="n">
+      <c r="Q8" s="13" t="n">
         <v>19362539644.5374</v>
       </c>
-      <c r="R8" s="17" t="n">
+      <c r="R8" s="13" t="n">
         <v>23329912347.2169</v>
       </c>
-      <c r="S8" s="17" t="n">
+      <c r="S8" s="13" t="n">
         <v>27915106150.7801</v>
       </c>
-      <c r="T8" s="17" t="n">
+      <c r="T8" s="13" t="n">
         <v>45352309280.1752</v>
       </c>
-      <c r="U8" s="17" t="n">
+      <c r="U8" s="13" t="n">
         <v>49217710774.7539</v>
       </c>
-      <c r="V8" s="17" t="n">
+      <c r="V8" s="13" t="n">
         <v>48447005805.0982</v>
       </c>
-      <c r="W8" s="17" t="n">
+      <c r="W8" s="13" t="n">
         <v>51535253186.3158</v>
       </c>
-      <c r="X8" s="17" t="n">
+      <c r="X8" s="13" t="n">
         <v>45003213342.7918</v>
       </c>
-      <c r="Y8" s="17" t="n">
+      <c r="Y8" s="13" t="n">
         <v>34855501734.0309</v>
       </c>
-      <c r="Z8" s="17" t="n">
+      <c r="Z8" s="13" t="n">
         <v>33400676989.0475</v>
       </c>
-      <c r="AA8" s="17" t="n">
+      <c r="AA8" s="13" t="n">
         <v>42248469023.2739</v>
       </c>
-      <c r="AB8" s="17" t="n">
+      <c r="AB8" s="13" t="n">
         <v>27901183172.6728</v>
       </c>
-      <c r="AC8" s="17" t="n">
+      <c r="AC8" s="13" t="n">
         <v>24455753017.8212</v>
       </c>
-      <c r="AD8" s="17" t="n">
+      <c r="AD8" s="13" t="n">
         <v>22328873891.1759</v>
       </c>
-      <c r="AE8" s="17" t="n">
+      <c r="AE8" s="13" t="n">
         <v>21604268464.1588</v>
       </c>
-      <c r="AF8" s="17" t="n">
+      <c r="AF8" s="13" t="n">
         <v>23900473892.8282</v>
       </c>
-      <c r="AG8" s="17" t="n">
+      <c r="AG8" s="13" t="n">
         <v>27092086222.2132</v>
       </c>
-      <c r="AH8" s="17" t="n">
+      <c r="AH8" s="13" t="n">
         <v>24575350374.7523</v>
       </c>
-      <c r="AI8" s="17" t="n">
+      <c r="AI8" s="13" t="n">
         <v>25808726525.6529</v>
       </c>
-      <c r="AJ8" s="17" t="n">
+      <c r="AJ8" s="13" t="n">
         <v>50368819400.4044</v>
       </c>
-      <c r="AK8" s="17" t="n">
+      <c r="AK8" s="13" t="n">
         <v>59121216072.2072</v>
       </c>
-      <c r="AL8" s="17" t="n">
+      <c r="AL8" s="13" t="n">
         <v>29089255998.0359</v>
       </c>
-      <c r="AM8" s="17" t="n">
+      <c r="AM8" s="13" t="n">
         <v>24360677409.1536</v>
       </c>
       <c r="AN8" s="12" t="n">
@@ -19143,16 +19143,16 @@
       <c r="B9" s="10" t="str">
         <f>N9</f>
       </c>
-      <c r="C9" s="17" t="str">
+      <c r="C9" s="13" t="str">
         <f>AI9</f>
       </c>
-      <c r="D9" s="17" t="str">
+      <c r="D9" s="13" t="str">
         <f>AK9</f>
       </c>
-      <c r="E9" s="17" t="str">
+      <c r="E9" s="13" t="str">
         <f>AL9</f>
       </c>
-      <c r="F9" s="17" t="str">
+      <c r="F9" s="13" t="str">
         <f>AT9/AS9-1</f>
       </c>
       <c r="G9" s="1" t="str">
@@ -19177,79 +19177,79 @@
       <c r="N9" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O9" s="17" t="n">
+      <c r="O9" s="13" t="n">
         <v>20767413713.2481</v>
       </c>
-      <c r="P9" s="17" t="n">
+      <c r="P9" s="13" t="n">
         <v>20306854243.3095</v>
       </c>
-      <c r="Q9" s="17" t="n">
+      <c r="Q9" s="13" t="n">
         <v>25570813448.6109</v>
       </c>
-      <c r="R9" s="17" t="n">
+      <c r="R9" s="13" t="n">
         <v>29013802951.095</v>
       </c>
-      <c r="S9" s="17" t="n">
+      <c r="S9" s="13" t="n">
         <v>31521536515.0873</v>
       </c>
-      <c r="T9" s="17" t="n">
+      <c r="T9" s="13" t="n">
         <v>38045813744.8321</v>
       </c>
-      <c r="U9" s="17" t="n">
+      <c r="U9" s="13" t="n">
         <v>41671259072.7507</v>
       </c>
-      <c r="V9" s="17" t="n">
+      <c r="V9" s="13" t="n">
         <v>42705687859.4677</v>
       </c>
-      <c r="W9" s="17" t="n">
+      <c r="W9" s="13" t="n">
         <v>46545271135.9775</v>
       </c>
-      <c r="X9" s="17" t="n">
+      <c r="X9" s="13" t="n">
         <v>52078221829.0095</v>
       </c>
-      <c r="Y9" s="17" t="n">
+      <c r="Y9" s="13" t="n">
         <v>51666965340.8638</v>
       </c>
-      <c r="Z9" s="17" t="n">
+      <c r="Z9" s="13" t="n">
         <v>49611852653.0253</v>
       </c>
-      <c r="AA9" s="17" t="n">
+      <c r="AA9" s="13" t="n">
         <v>48692611895.5762</v>
       </c>
-      <c r="AB9" s="17" t="n">
+      <c r="AB9" s="13" t="n">
         <v>40105868731.5607</v>
       </c>
-      <c r="AC9" s="17" t="n">
+      <c r="AC9" s="13" t="n">
         <v>38392477279.3417</v>
       </c>
-      <c r="AD9" s="17" t="n">
+      <c r="AD9" s="13" t="n">
         <v>37081314392.2876</v>
       </c>
-      <c r="AE9" s="17" t="n">
+      <c r="AE9" s="13" t="n">
         <v>36427765440.3668</v>
       </c>
-      <c r="AF9" s="17" t="n">
+      <c r="AF9" s="13" t="n">
         <v>37175858213.5962</v>
       </c>
-      <c r="AG9" s="17" t="n">
+      <c r="AG9" s="13" t="n">
         <v>40923264507.7221</v>
       </c>
-      <c r="AH9" s="17" t="n">
+      <c r="AH9" s="13" t="n">
         <v>43623515994.3633</v>
       </c>
-      <c r="AI9" s="17" t="n">
+      <c r="AI9" s="13" t="n">
         <v>44618031494.4688</v>
       </c>
-      <c r="AJ9" s="17" t="n">
+      <c r="AJ9" s="13" t="n">
         <v>52413135742.2336</v>
       </c>
-      <c r="AK9" s="17" t="n">
+      <c r="AK9" s="13" t="n">
         <v>52210081301.9729</v>
       </c>
-      <c r="AL9" s="17" t="n">
+      <c r="AL9" s="13" t="n">
         <v>60139105077.5851</v>
       </c>
-      <c r="AM9" s="17" t="n">
+      <c r="AM9" s="13" t="n">
         <v>38393364041.7118</v>
       </c>
       <c r="AN9" s="12" t="n">
@@ -19288,16 +19288,16 @@
       <c r="B10" s="10" t="str">
         <f>N10</f>
       </c>
-      <c r="C10" s="17" t="str">
+      <c r="C10" s="13" t="str">
         <f>AI10</f>
       </c>
-      <c r="D10" s="17" t="str">
+      <c r="D10" s="13" t="str">
         <f>AK10</f>
       </c>
-      <c r="E10" s="17" t="str">
+      <c r="E10" s="13" t="str">
         <f>AL10</f>
       </c>
-      <c r="F10" s="17" t="str">
+      <c r="F10" s="13" t="str">
         <f>AT10/AS10-1</f>
       </c>
       <c r="G10" s="1" t="str">
@@ -19322,79 +19322,79 @@
       <c r="N10" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="O10" s="17" t="n">
+      <c r="O10" s="13" t="n">
         <v>10939220871.4553</v>
       </c>
-      <c r="P10" s="17" t="n">
+      <c r="P10" s="13" t="n">
         <v>12179783486.7693</v>
       </c>
-      <c r="Q10" s="17" t="n">
+      <c r="Q10" s="13" t="n">
         <v>17040037883.7473</v>
       </c>
-      <c r="R10" s="17" t="n">
+      <c r="R10" s="13" t="n">
         <v>25534021476.9988</v>
       </c>
-      <c r="S10" s="17" t="n">
+      <c r="S10" s="13" t="n">
         <v>31137361156.8747</v>
       </c>
-      <c r="T10" s="17" t="n">
+      <c r="T10" s="13" t="n">
         <v>33338045571.908</v>
       </c>
-      <c r="U10" s="17" t="n">
+      <c r="U10" s="13" t="n">
         <v>35249102232.8704</v>
       </c>
-      <c r="V10" s="17" t="n">
+      <c r="V10" s="13" t="n">
         <v>34672632661.2006</v>
       </c>
-      <c r="W10" s="17" t="n">
+      <c r="W10" s="13" t="n">
         <v>38070842439.1344</v>
       </c>
-      <c r="X10" s="17" t="n">
+      <c r="X10" s="13" t="n">
         <v>42079352047.9846</v>
       </c>
-      <c r="Y10" s="17" t="n">
+      <c r="Y10" s="13" t="n">
         <v>40692280556.1576</v>
       </c>
-      <c r="Z10" s="17" t="n">
+      <c r="Z10" s="13" t="n">
         <v>46439621415.0193</v>
       </c>
-      <c r="AA10" s="17" t="n">
+      <c r="AA10" s="13" t="n">
         <v>42363709065.2208</v>
       </c>
-      <c r="AB10" s="17" t="n">
+      <c r="AB10" s="13" t="n">
         <v>37922429188.4619</v>
       </c>
-      <c r="AC10" s="17" t="n">
+      <c r="AC10" s="13" t="n">
         <v>30548151693.1742</v>
       </c>
-      <c r="AD10" s="17" t="n">
+      <c r="AD10" s="13" t="n">
         <v>26985941054.5395</v>
       </c>
-      <c r="AE10" s="17" t="n">
+      <c r="AE10" s="13" t="n">
         <v>27516210797.6896</v>
       </c>
-      <c r="AF10" s="17" t="n">
+      <c r="AF10" s="13" t="n">
         <v>29520298083.32</v>
       </c>
-      <c r="AG10" s="17" t="n">
+      <c r="AG10" s="13" t="n">
         <v>30788001089.3238</v>
       </c>
-      <c r="AH10" s="17" t="n">
+      <c r="AH10" s="13" t="n">
         <v>31908499545.9515</v>
       </c>
-      <c r="AI10" s="17" t="n">
+      <c r="AI10" s="13" t="n">
         <v>30992189989.7488</v>
       </c>
-      <c r="AJ10" s="17" t="n">
+      <c r="AJ10" s="13" t="n">
         <v>29625263732.6794</v>
       </c>
-      <c r="AK10" s="17" t="n">
+      <c r="AK10" s="13" t="n">
         <v>29471816376.8176</v>
       </c>
-      <c r="AL10" s="17" t="n">
+      <c r="AL10" s="13" t="n">
         <v>29427671490.9201</v>
       </c>
-      <c r="AM10" s="17" t="n">
+      <c r="AM10" s="13" t="n">
         <v>30529842634.0101</v>
       </c>
       <c r="AN10" s="12" t="n">
@@ -19433,16 +19433,16 @@
       <c r="B11" s="10" t="str">
         <f>N11</f>
       </c>
-      <c r="C11" s="17" t="str">
+      <c r="C11" s="13" t="str">
         <f>AI11</f>
       </c>
-      <c r="D11" s="17" t="str">
+      <c r="D11" s="13" t="str">
         <f>AK11</f>
       </c>
-      <c r="E11" s="17" t="str">
+      <c r="E11" s="13" t="str">
         <f>AL11</f>
       </c>
-      <c r="F11" s="17" t="str">
+      <c r="F11" s="13" t="str">
         <f>AT11/AS11-1</f>
       </c>
       <c r="G11" s="1" t="str">
@@ -19467,79 +19467,79 @@
       <c r="N11" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="O11" s="17" t="n">
+      <c r="O11" s="13" t="n">
         <v>14029816529.6979</v>
       </c>
-      <c r="P11" s="17" t="n">
+      <c r="P11" s="13" t="n">
         <v>19693077994.1455</v>
       </c>
-      <c r="Q11" s="17" t="n">
+      <c r="Q11" s="13" t="n">
         <v>20286025886.8329</v>
       </c>
-      <c r="R11" s="17" t="n">
+      <c r="R11" s="13" t="n">
         <v>19606615458.3899</v>
       </c>
-      <c r="S11" s="17" t="n">
+      <c r="S11" s="13" t="n">
         <v>22719496478.7208</v>
       </c>
-      <c r="T11" s="17" t="n">
+      <c r="T11" s="13" t="n">
         <v>20824757419.5954</v>
       </c>
-      <c r="U11" s="17" t="n">
+      <c r="U11" s="13" t="n">
         <v>24343095620.097</v>
       </c>
-      <c r="V11" s="17" t="n">
+      <c r="V11" s="13" t="n">
         <v>24277298681.8482</v>
       </c>
-      <c r="W11" s="17" t="n">
+      <c r="W11" s="13" t="n">
         <v>26685281355.7328</v>
       </c>
-      <c r="X11" s="17" t="n">
+      <c r="X11" s="13" t="n">
         <v>25465454401.248</v>
       </c>
-      <c r="Y11" s="17" t="n">
+      <c r="Y11" s="13" t="n">
         <v>19177140401.0576</v>
       </c>
-      <c r="Z11" s="17" t="n">
+      <c r="Z11" s="13" t="n">
         <v>31675399289.0885</v>
       </c>
-      <c r="AA11" s="17" t="n">
+      <c r="AA11" s="13" t="n">
         <v>25728406328.1075</v>
       </c>
-      <c r="AB11" s="17" t="n">
+      <c r="AB11" s="13" t="n">
         <v>22758150479.3814</v>
       </c>
-      <c r="AC11" s="17" t="n">
+      <c r="AC11" s="13" t="n">
         <v>23779399846.1562</v>
       </c>
-      <c r="AD11" s="17" t="n">
+      <c r="AD11" s="13" t="n">
         <v>22940958920.9842</v>
       </c>
-      <c r="AE11" s="17" t="n">
+      <c r="AE11" s="13" t="n">
         <v>25919316968.3142</v>
       </c>
-      <c r="AF11" s="17" t="n">
+      <c r="AF11" s="13" t="n">
         <v>28868564130.0456</v>
       </c>
-      <c r="AG11" s="17" t="n">
+      <c r="AG11" s="13" t="n">
         <v>32486710691.5765</v>
       </c>
-      <c r="AH11" s="17" t="n">
+      <c r="AH11" s="13" t="n">
         <v>33177715360.1961</v>
       </c>
-      <c r="AI11" s="17" t="n">
+      <c r="AI11" s="13" t="n">
         <v>40352386332.7043</v>
       </c>
-      <c r="AJ11" s="17" t="n">
+      <c r="AJ11" s="13" t="n">
         <v>32292179611.2139</v>
       </c>
-      <c r="AK11" s="17" t="n">
+      <c r="AK11" s="13" t="n">
         <v>31958476175.6901</v>
       </c>
-      <c r="AL11" s="17" t="n">
+      <c r="AL11" s="13" t="n">
         <v>33560949773.3629</v>
       </c>
-      <c r="AM11" s="17" t="n">
+      <c r="AM11" s="13" t="n">
         <v>23779399846.1562</v>
       </c>
       <c r="AN11" s="12" t="n">
@@ -19578,16 +19578,16 @@
       <c r="B12" s="10" t="str">
         <f>N12</f>
       </c>
-      <c r="C12" s="17" t="str">
+      <c r="C12" s="13" t="str">
         <f>AI12</f>
       </c>
-      <c r="D12" s="17" t="str">
+      <c r="D12" s="13" t="str">
         <f>AK12</f>
       </c>
-      <c r="E12" s="17" t="str">
+      <c r="E12" s="13" t="str">
         <f>AL12</f>
       </c>
-      <c r="F12" s="17" t="str">
+      <c r="F12" s="13" t="str">
         <f>AT12/AS12-1</f>
       </c>
       <c r="G12" s="1" t="str">
@@ -19612,79 +19612,79 @@
       <c r="N12" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="O12" s="17" t="n">
+      <c r="O12" s="13" t="n">
         <v>5350758182.21668</v>
       </c>
-      <c r="P12" s="17" t="n">
+      <c r="P12" s="13" t="n">
         <v>6813302852.76457</v>
       </c>
-      <c r="Q12" s="17" t="n">
+      <c r="Q12" s="13" t="n">
         <v>7261784219.33336</v>
       </c>
-      <c r="R12" s="17" t="n">
+      <c r="R12" s="13" t="n">
         <v>8386638909.27419</v>
       </c>
-      <c r="S12" s="17" t="n">
+      <c r="S12" s="13" t="n">
         <v>9710946898.27079</v>
       </c>
-      <c r="T12" s="17" t="n">
+      <c r="T12" s="13" t="n">
         <v>9796685806.18224</v>
       </c>
-      <c r="U12" s="17" t="n">
+      <c r="U12" s="13" t="n">
         <v>11653358946.5798</v>
       </c>
-      <c r="V12" s="17" t="n">
+      <c r="V12" s="13" t="n">
         <v>11617955357.7599</v>
       </c>
-      <c r="W12" s="17" t="n">
+      <c r="W12" s="13" t="n">
         <v>13248156910.4665</v>
       </c>
-      <c r="X12" s="17" t="n">
+      <c r="X12" s="13" t="n">
         <v>14162004767.0274</v>
       </c>
-      <c r="Y12" s="17" t="n">
+      <c r="Y12" s="13" t="n">
         <v>11983297502.0378</v>
       </c>
-      <c r="Z12" s="17" t="n">
+      <c r="Z12" s="13" t="n">
         <v>13008660848.8734</v>
       </c>
-      <c r="AA12" s="17" t="n">
+      <c r="AA12" s="13" t="n">
         <v>11440019151.6497</v>
       </c>
-      <c r="AB12" s="17" t="n">
+      <c r="AB12" s="13" t="n">
         <v>9638259353.92449</v>
       </c>
-      <c r="AC12" s="17" t="n">
+      <c r="AC12" s="13" t="n">
         <v>9818042915.03198</v>
       </c>
-      <c r="AD12" s="17" t="n">
+      <c r="AD12" s="13" t="n">
         <v>7311026374.04543</v>
       </c>
-      <c r="AE12" s="17" t="n">
+      <c r="AE12" s="13" t="n">
         <v>7292140324.87504</v>
       </c>
-      <c r="AF12" s="17" t="n">
+      <c r="AF12" s="13" t="n">
         <v>7233282612.5749</v>
       </c>
-      <c r="AG12" s="17" t="n">
+      <c r="AG12" s="13" t="n">
         <v>7016909571.99987</v>
       </c>
-      <c r="AH12" s="17" t="n">
+      <c r="AH12" s="13" t="n">
         <v>8184757971.31364</v>
       </c>
-      <c r="AI12" s="17" t="n">
+      <c r="AI12" s="13" t="n">
         <v>8239113043.87752</v>
       </c>
-      <c r="AJ12" s="17" t="n">
+      <c r="AJ12" s="13" t="n">
         <v>3973024257.29143</v>
       </c>
-      <c r="AK12" s="17" t="n">
+      <c r="AK12" s="13" t="n">
         <v>4769784821.65306</v>
       </c>
-      <c r="AL12" s="17" t="n">
+      <c r="AL12" s="13" t="n">
         <v>5025451538.9715</v>
       </c>
-      <c r="AM12" s="17" t="n">
+      <c r="AM12" s="13" t="n">
         <v>9818145438.24454</v>
       </c>
       <c r="AN12" s="12" t="n">
@@ -19723,16 +19723,16 @@
       <c r="B13" s="10" t="str">
         <f>N13</f>
       </c>
-      <c r="C13" s="17" t="str">
+      <c r="C13" s="13" t="str">
         <f>AI13</f>
       </c>
-      <c r="D13" s="17" t="str">
+      <c r="D13" s="13" t="str">
         <f>AK13</f>
       </c>
-      <c r="E13" s="17" t="str">
+      <c r="E13" s="13" t="str">
         <f>AL13</f>
       </c>
-      <c r="F13" s="17" t="str">
+      <c r="F13" s="13" t="str">
         <f>AT13/AS13-1</f>
       </c>
       <c r="G13" s="1" t="str">
@@ -19757,79 +19757,79 @@
       <c r="N13" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="O13" s="17" t="n">
+      <c r="O13" s="13" t="n">
         <v>49452293.8135696</v>
       </c>
-      <c r="P13" s="17" t="n">
+      <c r="P13" s="13" t="n">
         <v>15843052.9291712</v>
       </c>
-      <c r="Q13" s="17" t="n">
+      <c r="Q13" s="13" t="n">
         <v>134821636.298449</v>
       </c>
-      <c r="R13" s="17" t="n">
+      <c r="R13" s="13" t="n">
         <v>119967911.594207</v>
       </c>
-      <c r="S13" s="17" t="n">
+      <c r="S13" s="13" t="n">
         <v>10934521.6829519</v>
       </c>
-      <c r="T13" s="17" t="n">
+      <c r="T13" s="13" t="n">
         <v>5711674.56061679</v>
       </c>
-      <c r="U13" s="17" t="n">
+      <c r="U13" s="13" t="n">
         <v>159658855.74992</v>
       </c>
-      <c r="V13" s="17" t="n">
+      <c r="V13" s="13" t="n">
         <v>25551712.5387472</v>
       </c>
-      <c r="W13" s="17" t="n">
+      <c r="W13" s="13" t="n">
         <v>647942.206328159</v>
       </c>
-      <c r="X13" s="17" t="n">
+      <c r="X13" s="13" t="n">
         <v>1353970.82348517</v>
       </c>
-      <c r="Y13" s="17" t="n">
+      <c r="Y13" s="13" t="n">
         <v>-320199.707200513</v>
       </c>
-      <c r="Z13" s="17" t="n">
+      <c r="Z13" s="13" t="n">
         <v>-139337.836141756</v>
       </c>
-      <c r="AA13" s="17" t="n">
+      <c r="AA13" s="13" t="n">
         <v>-7077.20300901423</v>
       </c>
-      <c r="AB13" s="17" t="n">
+      <c r="AB13" s="13" t="n">
         <v>-117424.5440476</v>
       </c>
-      <c r="AC13" s="17" t="n">
+      <c r="AC13" s="13" t="n">
         <v>567671.010781381</v>
       </c>
-      <c r="AD13" s="17" t="n">
+      <c r="AD13" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE13" s="17" t="n">
+      <c r="AE13" s="13" t="n">
         <v>4443615.1319988</v>
       </c>
-      <c r="AF13" s="17" t="n">
+      <c r="AF13" s="13" t="n">
         <v>-299.071500057452</v>
       </c>
-      <c r="AG13" s="17" t="n">
+      <c r="AG13" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AH13" s="17" t="n">
+      <c r="AH13" s="13" t="n">
         <v>546254.749528136</v>
       </c>
-      <c r="AI13" s="17" t="n">
+      <c r="AI13" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AJ13" s="17" t="n">
+      <c r="AJ13" s="13" t="n">
         <v>421053.108340354</v>
       </c>
-      <c r="AK13" s="17" t="n">
+      <c r="AK13" s="13" t="n">
         <v>62577.4762279629</v>
       </c>
-      <c r="AL13" s="17" t="n">
+      <c r="AL13" s="13" t="n">
         <v>30637.5606</v>
       </c>
-      <c r="AM13" s="17"/>
+      <c r="AM13" s="13"/>
       <c r="AN13" s="12"/>
       <c r="AO13" s="12" t="n">
         <v>4443615.13187466</v>
@@ -19862,16 +19862,16 @@
       <c r="B14" s="10" t="str">
         <f>N14</f>
       </c>
-      <c r="C14" s="17" t="str">
+      <c r="C14" s="13" t="str">
         <f>AI14</f>
       </c>
-      <c r="D14" s="17" t="str">
+      <c r="D14" s="13" t="str">
         <f>AK14</f>
       </c>
-      <c r="E14" s="17" t="str">
+      <c r="E14" s="13" t="str">
         <f>AL14</f>
       </c>
-      <c r="F14" s="17" t="str">
+      <c r="F14" s="13" t="str">
         <f>AT14/AS14-1</f>
       </c>
       <c r="G14" s="1" t="str">
@@ -19896,79 +19896,79 @@
       <c r="N14" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="O14" s="17" t="n">
+      <c r="O14" s="13" t="n">
         <v>110099660.412558</v>
       </c>
-      <c r="P14" s="17" t="n">
+      <c r="P14" s="13" t="n">
         <v>78664277.7731819</v>
       </c>
-      <c r="Q14" s="17" t="n">
+      <c r="Q14" s="13" t="n">
         <v>1019374504.72287</v>
       </c>
-      <c r="R14" s="17" t="n">
+      <c r="R14" s="13" t="n">
         <v>3824757934.86512</v>
       </c>
-      <c r="S14" s="17" t="n">
+      <c r="S14" s="13" t="n">
         <v>5459072473.47749</v>
       </c>
-      <c r="T14" s="17" t="n">
+      <c r="T14" s="13" t="n">
         <v>9865428810.02565</v>
       </c>
-      <c r="U14" s="17" t="n">
+      <c r="U14" s="13" t="n">
         <v>9435454162.04582</v>
       </c>
-      <c r="V14" s="17" t="n">
+      <c r="V14" s="13" t="n">
         <v>6902793096.09457</v>
       </c>
-      <c r="W14" s="17" t="n">
+      <c r="W14" s="13" t="n">
         <v>12363373778.1749</v>
       </c>
-      <c r="X14" s="17" t="n">
+      <c r="X14" s="13" t="n">
         <v>6599301612.57065</v>
       </c>
-      <c r="Y14" s="17" t="n">
+      <c r="Y14" s="13" t="n">
         <v>5372500473.67393</v>
       </c>
-      <c r="Z14" s="17" t="n">
+      <c r="Z14" s="13" t="n">
         <v>5759251767.74467</v>
       </c>
-      <c r="AA14" s="17" t="n">
+      <c r="AA14" s="13" t="n">
         <v>9995721454.34759</v>
       </c>
-      <c r="AB14" s="17" t="n">
+      <c r="AB14" s="13" t="n">
         <v>8599766936.79214</v>
       </c>
-      <c r="AC14" s="17" t="n">
+      <c r="AC14" s="13" t="n">
         <v>4886851238.04725</v>
       </c>
-      <c r="AD14" s="17" t="n">
+      <c r="AD14" s="13" t="n">
         <v>4873135761.88157</v>
       </c>
-      <c r="AE14" s="17" t="n">
+      <c r="AE14" s="13" t="n">
         <v>6205144681.24476</v>
       </c>
-      <c r="AF14" s="17" t="n">
+      <c r="AF14" s="13" t="n">
         <v>6205388120.25648</v>
       </c>
-      <c r="AG14" s="17" t="n">
+      <c r="AG14" s="13" t="n">
         <v>7066950562.37728</v>
       </c>
-      <c r="AH14" s="17" t="n">
+      <c r="AH14" s="13" t="n">
         <v>9270840684.193</v>
       </c>
-      <c r="AI14" s="17" t="n">
+      <c r="AI14" s="13" t="n">
         <v>7109495815.07767</v>
       </c>
-      <c r="AJ14" s="17" t="n">
+      <c r="AJ14" s="13" t="n">
         <v>6364424904.70585</v>
       </c>
-      <c r="AK14" s="17" t="n">
+      <c r="AK14" s="13" t="n">
         <v>6211931790.09507</v>
       </c>
-      <c r="AL14" s="17" t="n">
+      <c r="AL14" s="13" t="n">
         <v>8012446970.1006</v>
       </c>
-      <c r="AM14" s="17" t="n">
+      <c r="AM14" s="13" t="n">
         <v>4870568464.08058</v>
       </c>
       <c r="AN14" s="12" t="n">
@@ -20007,16 +20007,16 @@
       <c r="B15" t="str">
         <f>N15</f>
       </c>
-      <c r="C15" s="17" t="str">
+      <c r="C15" s="13" t="str">
         <f>AI15</f>
       </c>
-      <c r="D15" s="17" t="str">
+      <c r="D15" s="13" t="str">
         <f>AK15</f>
       </c>
-      <c r="E15" s="17" t="str">
+      <c r="E15" s="13" t="str">
         <f>AL15</f>
       </c>
-      <c r="F15" s="17"/>
+      <c r="F15" s="13"/>
       <c r="G15" s="1" t="str">
         <f>AL15/AK15-1</f>
       </c>
@@ -20034,79 +20034,79 @@
       <c r="N15" t="s">
         <v>61</v>
       </c>
-      <c r="O15" s="17" t="n">
+      <c r="O15" s="13" t="n">
         <v>117167358.741587</v>
       </c>
-      <c r="P15" s="17" t="n">
+      <c r="P15" s="13" t="n">
         <v>236186060.154231</v>
       </c>
-      <c r="Q15" s="17" t="n">
+      <c r="Q15" s="13" t="n">
         <v>634464512.668636</v>
       </c>
-      <c r="R15" s="17" t="n">
+      <c r="R15" s="13" t="n">
         <v>864023861.474285</v>
       </c>
-      <c r="S15" s="17" t="n">
+      <c r="S15" s="13" t="n">
         <v>2049791362.45062</v>
       </c>
-      <c r="T15" s="17" t="n">
+      <c r="T15" s="13" t="n">
         <v>1433805998.70756</v>
       </c>
-      <c r="U15" s="17" t="n">
+      <c r="U15" s="13" t="n">
         <v>1804372908.85056</v>
       </c>
-      <c r="V15" s="17" t="n">
+      <c r="V15" s="13" t="n">
         <v>335651403.418063</v>
       </c>
-      <c r="W15" s="17" t="n">
+      <c r="W15" s="13" t="n">
         <v>324443752.831616</v>
       </c>
-      <c r="X15" s="17" t="n">
+      <c r="X15" s="13" t="n">
         <v>567996028.748357</v>
       </c>
-      <c r="Y15" s="17" t="n">
+      <c r="Y15" s="13" t="n">
         <v>565262956.170931</v>
       </c>
-      <c r="Z15" s="17" t="n">
+      <c r="Z15" s="13" t="n">
         <v>903312897.61517</v>
       </c>
-      <c r="AA15" s="17" t="n">
+      <c r="AA15" s="13" t="n">
         <v>892824646.937328</v>
       </c>
-      <c r="AB15" s="17" t="n">
+      <c r="AB15" s="13" t="n">
         <v>1204769184.84938</v>
       </c>
-      <c r="AC15" s="17" t="n">
+      <c r="AC15" s="13" t="n">
         <v>1011945300.06183</v>
       </c>
-      <c r="AD15" s="17" t="n">
+      <c r="AD15" s="13" t="n">
         <v>985367747.868534</v>
       </c>
-      <c r="AE15" s="17" t="n">
+      <c r="AE15" s="13" t="n">
         <v>1480137091.91365</v>
       </c>
-      <c r="AF15" s="17" t="n">
+      <c r="AF15" s="13" t="n">
         <v>2130638154.62157</v>
       </c>
-      <c r="AG15" s="17" t="n">
+      <c r="AG15" s="13" t="n">
         <v>2385871291.9746</v>
       </c>
-      <c r="AH15" s="17" t="n">
+      <c r="AH15" s="13" t="n">
         <v>2370306862.00905</v>
       </c>
-      <c r="AI15" s="17" t="n">
+      <c r="AI15" s="13" t="n">
         <v>1913432758.45798</v>
       </c>
-      <c r="AJ15" s="17" t="n">
+      <c r="AJ15" s="13" t="n">
         <v>2176963868.41443</v>
       </c>
-      <c r="AK15" s="17" t="n">
+      <c r="AK15" s="13" t="n">
         <v>1703601326.1762</v>
       </c>
-      <c r="AL15" s="17" t="n">
+      <c r="AL15" s="13" t="n">
         <v>2861615194.9487</v>
       </c>
-      <c r="AM15" s="17" t="n">
+      <c r="AM15" s="13" t="n">
         <v>1011182000.75119</v>
       </c>
       <c r="AN15" s="12" t="n">
@@ -20145,16 +20145,16 @@
       <c r="B16" t="str">
         <f>N16</f>
       </c>
-      <c r="C16" s="17" t="str">
+      <c r="C16" s="13" t="str">
         <f>AI16</f>
       </c>
-      <c r="D16" s="17" t="str">
+      <c r="D16" s="13" t="str">
         <f>AK16</f>
       </c>
-      <c r="E16" s="17" t="str">
+      <c r="E16" s="13" t="str">
         <f>AL16</f>
       </c>
-      <c r="F16" s="17"/>
+      <c r="F16" s="13"/>
       <c r="G16" s="1" t="str">
         <f>AL16/AK16-1</f>
       </c>
@@ -20172,79 +20172,79 @@
       <c r="N16" t="s">
         <v>62</v>
       </c>
-      <c r="O16" s="17" t="n">
+      <c r="O16" s="13" t="n">
         <v>122810538.8715</v>
       </c>
-      <c r="P16" s="17" t="n">
+      <c r="P16" s="13" t="n">
         <v>88054801.3379279</v>
       </c>
-      <c r="Q16" s="17" t="n">
+      <c r="Q16" s="13" t="n">
         <v>77403630.2273528</v>
       </c>
-      <c r="R16" s="17" t="n">
+      <c r="R16" s="13" t="n">
         <v>94785852.1989474</v>
       </c>
-      <c r="S16" s="17" t="n">
+      <c r="S16" s="13" t="n">
         <v>231725349.862572</v>
       </c>
-      <c r="T16" s="17" t="n">
+      <c r="T16" s="13" t="n">
         <v>284834141.930451</v>
       </c>
-      <c r="U16" s="17" t="n">
+      <c r="U16" s="13" t="n">
         <v>291808323.569528</v>
       </c>
-      <c r="V16" s="17" t="n">
+      <c r="V16" s="13" t="n">
         <v>663339717.454926</v>
       </c>
-      <c r="W16" s="17" t="n">
+      <c r="W16" s="13" t="n">
         <v>704910596.756886</v>
       </c>
-      <c r="X16" s="17" t="n">
+      <c r="X16" s="13" t="n">
         <v>692531237.335692</v>
       </c>
-      <c r="Y16" s="17" t="n">
+      <c r="Y16" s="13" t="n">
         <v>1623479140.11611</v>
       </c>
-      <c r="Z16" s="17" t="n">
+      <c r="Z16" s="13" t="n">
         <v>1888415968.34233</v>
       </c>
-      <c r="AA16" s="17" t="n">
+      <c r="AA16" s="13" t="n">
         <v>1670124429.61354</v>
       </c>
-      <c r="AB16" s="17" t="n">
+      <c r="AB16" s="13" t="n">
         <v>1647880034.34434</v>
       </c>
-      <c r="AC16" s="17" t="n">
+      <c r="AC16" s="13" t="n">
         <v>1964593999.37621</v>
       </c>
-      <c r="AD16" s="17" t="n">
+      <c r="AD16" s="13" t="n">
         <v>1531318000.2639</v>
       </c>
-      <c r="AE16" s="17" t="n">
+      <c r="AE16" s="13" t="n">
         <v>1198422252.3702</v>
       </c>
-      <c r="AF16" s="17" t="n">
+      <c r="AF16" s="13" t="n">
         <v>1143481661.1258</v>
       </c>
-      <c r="AG16" s="17" t="n">
+      <c r="AG16" s="13" t="n">
         <v>1251612669.78872</v>
       </c>
-      <c r="AH16" s="17" t="n">
+      <c r="AH16" s="13" t="n">
         <v>1422651243.24051</v>
       </c>
-      <c r="AI16" s="17" t="n">
+      <c r="AI16" s="13" t="n">
         <v>1853615449.27931</v>
       </c>
-      <c r="AJ16" s="17" t="n">
+      <c r="AJ16" s="13" t="n">
         <v>2165396538.68423</v>
       </c>
-      <c r="AK16" s="17" t="n">
+      <c r="AK16" s="13" t="n">
         <v>3094706690.9881</v>
       </c>
-      <c r="AL16" s="17" t="n">
+      <c r="AL16" s="13" t="n">
         <v>2397983066.7312</v>
       </c>
-      <c r="AM16" s="17" t="n">
+      <c r="AM16" s="13" t="n">
         <v>1970506649.15113</v>
       </c>
       <c r="AN16" s="12" t="n">
@@ -20283,16 +20283,16 @@
       <c r="B17" t="str">
         <f>N17</f>
       </c>
-      <c r="C17" s="17" t="str">
+      <c r="C17" s="13" t="str">
         <f>AI17</f>
       </c>
-      <c r="D17" s="17" t="str">
+      <c r="D17" s="13" t="str">
         <f>AK17</f>
       </c>
-      <c r="E17" s="17" t="str">
+      <c r="E17" s="13" t="str">
         <f>AL17</f>
       </c>
-      <c r="F17" s="17"/>
+      <c r="F17" s="13"/>
       <c r="G17" s="1" t="str">
         <f>AL17/AK17-1</f>
       </c>
@@ -20310,79 +20310,79 @@
       <c r="N17" t="s">
         <v>63</v>
       </c>
-      <c r="O17" s="17" t="n">
+      <c r="O17" s="13" t="n">
         <v>223312048.663891</v>
       </c>
-      <c r="P17" s="17" t="n">
+      <c r="P17" s="13" t="n">
         <v>911363466.256188</v>
       </c>
-      <c r="Q17" s="17" t="n">
+      <c r="Q17" s="13" t="n">
         <v>994764781.322826</v>
       </c>
-      <c r="R17" s="17" t="n">
+      <c r="R17" s="13" t="n">
         <v>571862227.634484</v>
       </c>
-      <c r="S17" s="17" t="n">
+      <c r="S17" s="13" t="n">
         <v>849865107.155529</v>
       </c>
-      <c r="T17" s="17" t="n">
+      <c r="T17" s="13" t="n">
         <v>518649498.643925</v>
       </c>
-      <c r="U17" s="17" t="n">
+      <c r="U17" s="13" t="n">
         <v>446811488.845499</v>
       </c>
-      <c r="V17" s="17" t="n">
+      <c r="V17" s="13" t="n">
         <v>-15993539.8353005</v>
       </c>
-      <c r="W17" s="17" t="n">
+      <c r="W17" s="13" t="n">
         <v>152455436.824145</v>
       </c>
-      <c r="X17" s="17" t="n">
+      <c r="X17" s="13" t="n">
         <v>218258523.191347</v>
       </c>
-      <c r="Y17" s="17" t="n">
+      <c r="Y17" s="13" t="n">
         <v>253114336.078972</v>
       </c>
-      <c r="Z17" s="17" t="n">
+      <c r="Z17" s="13" t="n">
         <v>378662643.214911</v>
       </c>
-      <c r="AA17" s="17" t="n">
+      <c r="AA17" s="13" t="n">
         <v>351556730.035811</v>
       </c>
-      <c r="AB17" s="17" t="n">
+      <c r="AB17" s="13" t="n">
         <v>127801010.859185</v>
       </c>
-      <c r="AC17" s="17" t="n">
+      <c r="AC17" s="13" t="n">
         <v>330231829.756293</v>
       </c>
-      <c r="AD17" s="17" t="n">
+      <c r="AD17" s="13" t="n">
         <v>1209450013.4581</v>
       </c>
-      <c r="AE17" s="17" t="n">
+      <c r="AE17" s="13" t="n">
         <v>1350262720.16384</v>
       </c>
-      <c r="AF17" s="17" t="n">
+      <c r="AF17" s="13" t="n">
         <v>1486640992.77409</v>
       </c>
-      <c r="AG17" s="17" t="n">
+      <c r="AG17" s="13" t="n">
         <v>1557520674.98228</v>
       </c>
-      <c r="AH17" s="17" t="n">
+      <c r="AH17" s="13" t="n">
         <v>1275765512.69342</v>
       </c>
-      <c r="AI17" s="17" t="n">
+      <c r="AI17" s="13" t="n">
         <v>798252061.491702</v>
       </c>
-      <c r="AJ17" s="17" t="n">
+      <c r="AJ17" s="13" t="n">
         <v>431293310.313594</v>
       </c>
-      <c r="AK17" s="17" t="n">
+      <c r="AK17" s="13" t="n">
         <v>364331220.666703</v>
       </c>
-      <c r="AL17" s="17" t="n">
+      <c r="AL17" s="13" t="n">
         <v>447981792.5263</v>
       </c>
-      <c r="AM17" s="17" t="n">
+      <c r="AM17" s="13" t="n">
         <v>330231829.756293</v>
       </c>
       <c r="AN17" s="12" t="n">
@@ -20421,16 +20421,16 @@
       <c r="B18" t="str">
         <f>N18</f>
       </c>
-      <c r="C18" s="17" t="str">
+      <c r="C18" s="13" t="str">
         <f>AI18</f>
       </c>
-      <c r="D18" s="17" t="str">
+      <c r="D18" s="13" t="str">
         <f>AK18</f>
       </c>
-      <c r="E18" s="17" t="str">
+      <c r="E18" s="13" t="str">
         <f>AL18</f>
       </c>
-      <c r="F18" s="17"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="1" t="str">
         <f>AL18/AK18-1</f>
       </c>
@@ -20448,69 +20448,69 @@
       <c r="N18" t="s">
         <v>64</v>
       </c>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17" t="n">
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="U18" s="17" t="n">
+      <c r="U18" s="13" t="n">
         <v>2181673.56151467</v>
       </c>
-      <c r="V18" s="17" t="n">
+      <c r="V18" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="W18" s="17" t="n">
+      <c r="W18" s="13" t="n">
         <v>17357638.3002127</v>
       </c>
-      <c r="X18" s="17" t="n">
+      <c r="X18" s="13" t="n">
         <v>46593781.2247896</v>
       </c>
-      <c r="Y18" s="17" t="n">
+      <c r="Y18" s="13" t="n">
         <v>171406125.142513</v>
       </c>
-      <c r="Z18" s="17" t="n">
+      <c r="Z18" s="13" t="n">
         <v>511242530.752466</v>
       </c>
-      <c r="AA18" s="17" t="n">
+      <c r="AA18" s="13" t="n">
         <v>555689935.827313</v>
       </c>
-      <c r="AB18" s="17" t="n">
+      <c r="AB18" s="13" t="n">
         <v>554620380.661219</v>
       </c>
-      <c r="AC18" s="17" t="n">
+      <c r="AC18" s="13" t="n">
         <v>545924394.91961</v>
       </c>
-      <c r="AD18" s="17" t="n">
+      <c r="AD18" s="13" t="n">
         <v>1064367860.74387</v>
       </c>
-      <c r="AE18" s="17" t="n">
+      <c r="AE18" s="13" t="n">
         <v>1361382799.9605</v>
       </c>
-      <c r="AF18" s="17" t="n">
+      <c r="AF18" s="13" t="n">
         <v>1195990049.79476</v>
       </c>
-      <c r="AG18" s="17" t="n">
+      <c r="AG18" s="13" t="n">
         <v>489630927.398439</v>
       </c>
-      <c r="AH18" s="17" t="n">
+      <c r="AH18" s="13" t="n">
         <v>624419028.787747</v>
       </c>
-      <c r="AI18" s="17" t="n">
+      <c r="AI18" s="13" t="n">
         <v>2387217382.40273</v>
       </c>
-      <c r="AJ18" s="17" t="n">
+      <c r="AJ18" s="13" t="n">
         <v>1920840265.79068</v>
       </c>
-      <c r="AK18" s="17" t="n">
+      <c r="AK18" s="13" t="n">
         <v>2151998223.81499</v>
       </c>
-      <c r="AL18" s="17" t="n">
+      <c r="AL18" s="13" t="n">
         <v>3049943479.6013</v>
       </c>
-      <c r="AM18" s="17" t="n">
+      <c r="AM18" s="13" t="n">
         <v>545924394.91961</v>
       </c>
       <c r="AN18" s="12" t="n">
@@ -20549,16 +20549,16 @@
       <c r="B19" t="str">
         <f>N19</f>
       </c>
-      <c r="C19" s="17" t="str">
+      <c r="C19" s="13" t="str">
         <f>AI19</f>
       </c>
-      <c r="D19" s="17" t="str">
+      <c r="D19" s="13" t="str">
         <f>AK19</f>
       </c>
-      <c r="E19" s="17" t="str">
+      <c r="E19" s="13" t="str">
         <f>AL19</f>
       </c>
-      <c r="F19" s="17"/>
+      <c r="F19" s="13"/>
       <c r="G19" s="1" t="str">
         <f>AL19/AK19-1</f>
       </c>
@@ -20576,79 +20576,79 @@
       <c r="N19" t="s">
         <v>65</v>
       </c>
-      <c r="O19" s="17" t="n">
+      <c r="O19" s="13" t="n">
         <v>1159344108.896</v>
       </c>
-      <c r="P19" s="17" t="n">
+      <c r="P19" s="13" t="n">
         <v>1020054441.54575</v>
       </c>
-      <c r="Q19" s="17" t="n">
+      <c r="Q19" s="13" t="n">
         <v>977578556.004139</v>
       </c>
-      <c r="R19" s="17" t="n">
+      <c r="R19" s="13" t="n">
         <v>790965833.805683</v>
       </c>
-      <c r="S19" s="17" t="n">
+      <c r="S19" s="13" t="n">
         <v>684067938.376563</v>
       </c>
-      <c r="T19" s="17" t="n">
+      <c r="T19" s="13" t="n">
         <v>502000602.18196</v>
       </c>
-      <c r="U19" s="17" t="n">
+      <c r="U19" s="13" t="n">
         <v>664085965.851707</v>
       </c>
-      <c r="V19" s="17" t="n">
+      <c r="V19" s="13" t="n">
         <v>543262630.328909</v>
       </c>
-      <c r="W19" s="17" t="n">
+      <c r="W19" s="13" t="n">
         <v>1281765196.79888</v>
       </c>
-      <c r="X19" s="17" t="n">
+      <c r="X19" s="13" t="n">
         <v>826451506.833603</v>
       </c>
-      <c r="Y19" s="17" t="n">
+      <c r="Y19" s="13" t="n">
         <v>1354545660.59451</v>
       </c>
-      <c r="Z19" s="17" t="n">
+      <c r="Z19" s="13" t="n">
         <v>915783263.744493</v>
       </c>
-      <c r="AA19" s="17" t="n">
+      <c r="AA19" s="13" t="n">
         <v>669031246.468658</v>
       </c>
-      <c r="AB19" s="17" t="n">
+      <c r="AB19" s="13" t="n">
         <v>793341687.591477</v>
       </c>
-      <c r="AC19" s="17" t="n">
+      <c r="AC19" s="13" t="n">
         <v>1042885833.84679</v>
       </c>
-      <c r="AD19" s="17" t="n">
+      <c r="AD19" s="13" t="n">
         <v>1140642970.69615</v>
       </c>
-      <c r="AE19" s="17" t="n">
+      <c r="AE19" s="13" t="n">
         <v>809273017.772064</v>
       </c>
-      <c r="AF19" s="17" t="n">
+      <c r="AF19" s="13" t="n">
         <v>1217091255.48344</v>
       </c>
-      <c r="AG19" s="17" t="n">
+      <c r="AG19" s="13" t="n">
         <v>1643105611.39979</v>
       </c>
-      <c r="AH19" s="17" t="n">
+      <c r="AH19" s="13" t="n">
         <v>1244100062.45772</v>
       </c>
-      <c r="AI19" s="17" t="n">
+      <c r="AI19" s="13" t="n">
         <v>1396356462.07828</v>
       </c>
-      <c r="AJ19" s="17" t="n">
+      <c r="AJ19" s="13" t="n">
         <v>1410007538.55022</v>
       </c>
-      <c r="AK19" s="17" t="n">
+      <c r="AK19" s="13" t="n">
         <v>668145090.609278</v>
       </c>
-      <c r="AL19" s="17" t="n">
+      <c r="AL19" s="13" t="n">
         <v>1190114919.3018</v>
       </c>
-      <c r="AM19" s="17" t="n">
+      <c r="AM19" s="13" t="n">
         <v>1042885833.84679</v>
       </c>
       <c r="AN19" s="12" t="n">
@@ -20687,16 +20687,16 @@
       <c r="B20" t="str">
         <f>N20</f>
       </c>
-      <c r="C20" s="17" t="str">
+      <c r="C20" s="13" t="str">
         <f>AI20</f>
       </c>
-      <c r="D20" s="17" t="str">
+      <c r="D20" s="13" t="str">
         <f>AK20</f>
       </c>
-      <c r="E20" s="17" t="str">
+      <c r="E20" s="13" t="str">
         <f>AL20</f>
       </c>
-      <c r="F20" s="17"/>
+      <c r="F20" s="13"/>
       <c r="G20" s="1" t="str">
         <f>AL20/AK20-1</f>
       </c>
@@ -20714,79 +20714,79 @@
       <c r="N20" t="s">
         <v>66</v>
       </c>
-      <c r="O20" s="17" t="n">
+      <c r="O20" s="13" t="n">
         <v>920011377.240056</v>
       </c>
-      <c r="P20" s="17" t="n">
+      <c r="P20" s="13" t="n">
         <v>1068804178.51338</v>
       </c>
-      <c r="Q20" s="17" t="n">
+      <c r="Q20" s="13" t="n">
         <v>2278313971.68038</v>
       </c>
-      <c r="R20" s="17" t="n">
+      <c r="R20" s="13" t="n">
         <v>1314182313.45545</v>
       </c>
-      <c r="S20" s="17" t="n">
+      <c r="S20" s="13" t="n">
         <v>432992232.292929</v>
       </c>
-      <c r="T20" s="17" t="n">
+      <c r="T20" s="13" t="n">
         <v>2394157457.34838</v>
       </c>
-      <c r="U20" s="17" t="n">
+      <c r="U20" s="13" t="n">
         <v>1143204740.6086</v>
       </c>
-      <c r="V20" s="17" t="n">
+      <c r="V20" s="13" t="n">
         <v>103016588.539979</v>
       </c>
-      <c r="W20" s="17" t="n">
+      <c r="W20" s="13" t="n">
         <v>2687277024.39891</v>
       </c>
-      <c r="X20" s="17" t="n">
+      <c r="X20" s="13" t="n">
         <v>2747476959.29644</v>
       </c>
-      <c r="Y20" s="17" t="n">
+      <c r="Y20" s="13" t="n">
         <v>2126802365.57939</v>
       </c>
-      <c r="Z20" s="17" t="n">
+      <c r="Z20" s="13" t="n">
         <v>3622062856.37905</v>
       </c>
-      <c r="AA20" s="17" t="n">
+      <c r="AA20" s="13" t="n">
         <v>1595813446.43973</v>
       </c>
-      <c r="AB20" s="17" t="n">
+      <c r="AB20" s="13" t="n">
         <v>3790198396.21208</v>
       </c>
-      <c r="AC20" s="17" t="n">
+      <c r="AC20" s="13" t="n">
         <v>3938514518.88886</v>
       </c>
-      <c r="AD20" s="17" t="n">
+      <c r="AD20" s="13" t="n">
         <v>1694563845.67902</v>
       </c>
-      <c r="AE20" s="17" t="n">
+      <c r="AE20" s="13" t="n">
         <v>311068781.99979</v>
       </c>
-      <c r="AF20" s="17" t="n">
+      <c r="AF20" s="13" t="n">
         <v>210697536.945514</v>
       </c>
-      <c r="AG20" s="17" t="n">
+      <c r="AG20" s="13" t="n">
         <v>277824046.988213</v>
       </c>
-      <c r="AH20" s="17" t="n">
+      <c r="AH20" s="13" t="n">
         <v>395555850.571396</v>
       </c>
-      <c r="AI20" s="17" t="n">
+      <c r="AI20" s="13" t="n">
         <v>1670663035.0883</v>
       </c>
-      <c r="AJ20" s="17" t="n">
+      <c r="AJ20" s="13" t="n">
         <v>8038459670.97326</v>
       </c>
-      <c r="AK20" s="17" t="n">
+      <c r="AK20" s="13" t="n">
         <v>280272165.177478</v>
       </c>
-      <c r="AL20" s="17" t="n">
+      <c r="AL20" s="13" t="n">
         <v>273784814.4502</v>
       </c>
-      <c r="AM20" s="17" t="n">
+      <c r="AM20" s="13" t="n">
         <v>3938449313.76224</v>
       </c>
       <c r="AN20" s="12" t="n">
@@ -20825,16 +20825,16 @@
       <c r="B21" t="str">
         <f>N21</f>
       </c>
-      <c r="C21" s="17" t="str">
+      <c r="C21" s="13" t="str">
         <f>AI21</f>
       </c>
-      <c r="D21" s="17" t="str">
+      <c r="D21" s="13" t="str">
         <f>AK21</f>
       </c>
-      <c r="E21" s="17" t="str">
+      <c r="E21" s="13" t="str">
         <f>AL21</f>
       </c>
-      <c r="F21" s="17"/>
+      <c r="F21" s="13"/>
       <c r="G21" s="1" t="str">
         <f>AL21/AK21-1</f>
       </c>
@@ -20852,79 +20852,79 @@
       <c r="N21" t="s">
         <v>67</v>
       </c>
-      <c r="O21" s="17" t="n">
+      <c r="O21" s="13" t="n">
         <v>107842459.647253</v>
       </c>
-      <c r="P21" s="17" t="n">
+      <c r="P21" s="13" t="n">
         <v>82556981.5931506</v>
       </c>
-      <c r="Q21" s="17" t="n">
+      <c r="Q21" s="13" t="n">
         <v>22481693.6368648</v>
       </c>
-      <c r="R21" s="17" t="n">
+      <c r="R21" s="13" t="n">
         <v>200023151.917637</v>
       </c>
-      <c r="S21" s="17" t="n">
+      <c r="S21" s="13" t="n">
         <v>266872614.610659</v>
       </c>
-      <c r="T21" s="17" t="n">
+      <c r="T21" s="13" t="n">
         <v>141816686.702248</v>
       </c>
-      <c r="U21" s="17" t="n">
+      <c r="U21" s="13" t="n">
         <v>108743826.528041</v>
       </c>
-      <c r="V21" s="17" t="n">
+      <c r="V21" s="13" t="n">
         <v>186734670.666863</v>
       </c>
-      <c r="W21" s="17" t="n">
+      <c r="W21" s="13" t="n">
         <v>322297421.472713</v>
       </c>
-      <c r="X21" s="17" t="n">
+      <c r="X21" s="13" t="n">
         <v>415406866.648108</v>
       </c>
-      <c r="Y21" s="17" t="n">
+      <c r="Y21" s="13" t="n">
         <v>843276437.805503</v>
       </c>
-      <c r="Z21" s="17" t="n">
+      <c r="Z21" s="13" t="n">
         <v>850814445.684947</v>
       </c>
-      <c r="AA21" s="17" t="n">
+      <c r="AA21" s="13" t="n">
         <v>779688347.098058</v>
       </c>
-      <c r="AB21" s="17" t="n">
+      <c r="AB21" s="13" t="n">
         <v>844398972.17768</v>
       </c>
-      <c r="AC21" s="17" t="n">
+      <c r="AC21" s="13" t="n">
         <v>555036719.286072</v>
       </c>
-      <c r="AD21" s="17" t="n">
+      <c r="AD21" s="13" t="n">
         <v>640698318.198843</v>
       </c>
-      <c r="AE21" s="17" t="n">
+      <c r="AE21" s="13" t="n">
         <v>856909971.773057</v>
       </c>
-      <c r="AF21" s="17" t="n">
+      <c r="AF21" s="13" t="n">
         <v>1127150163.91419</v>
       </c>
-      <c r="AG21" s="17" t="n">
+      <c r="AG21" s="13" t="n">
         <v>813628065.877135</v>
       </c>
-      <c r="AH21" s="17" t="n">
+      <c r="AH21" s="13" t="n">
         <v>1275927940.64558</v>
       </c>
-      <c r="AI21" s="17" t="n">
+      <c r="AI21" s="13" t="n">
         <v>1452405988.5093</v>
       </c>
-      <c r="AJ21" s="17" t="n">
+      <c r="AJ21" s="13" t="n">
         <v>1087696839.05956</v>
       </c>
-      <c r="AK21" s="17" t="n">
+      <c r="AK21" s="13" t="n">
         <v>1157978895.9464</v>
       </c>
-      <c r="AL21" s="17" t="n">
+      <c r="AL21" s="13" t="n">
         <v>1880387533.3401</v>
       </c>
-      <c r="AM21" s="17" t="n">
+      <c r="AM21" s="13" t="n">
         <v>555036719.286072</v>
       </c>
       <c r="AN21" s="12" t="n">
@@ -20963,16 +20963,16 @@
       <c r="B22" t="str">
         <f>N22</f>
       </c>
-      <c r="C22" s="17" t="str">
+      <c r="C22" s="13" t="str">
         <f>AI22</f>
       </c>
-      <c r="D22" s="17" t="str">
+      <c r="D22" s="13" t="str">
         <f>AK22</f>
       </c>
-      <c r="E22" s="17" t="str">
+      <c r="E22" s="13" t="str">
         <f>AL22</f>
       </c>
-      <c r="F22" s="17"/>
+      <c r="F22" s="13"/>
       <c r="G22" s="1" t="str">
         <f>AL22/AK22-1</f>
       </c>
@@ -20990,75 +20990,75 @@
       <c r="N22" t="s">
         <v>68</v>
       </c>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17" t="n">
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13" t="n">
         <v>500949.16616074</v>
       </c>
-      <c r="R22" s="17" t="n">
+      <c r="R22" s="13" t="n">
         <v>1421347.21043611</v>
       </c>
-      <c r="S22" s="17" t="n">
+      <c r="S22" s="13" t="n">
         <v>5361383.98554956</v>
       </c>
-      <c r="T22" s="17" t="n">
+      <c r="T22" s="13" t="n">
         <v>26297114.4989143</v>
       </c>
-      <c r="U22" s="17" t="n">
+      <c r="U22" s="13" t="n">
         <v>12353385.0704913</v>
       </c>
-      <c r="V22" s="17" t="n">
+      <c r="V22" s="13" t="n">
         <v>11072724.4866451</v>
       </c>
-      <c r="W22" s="17" t="n">
+      <c r="W22" s="13" t="n">
         <v>22635387.9657976</v>
       </c>
-      <c r="X22" s="17" t="n">
+      <c r="X22" s="13" t="n">
         <v>31649377.8563304</v>
       </c>
-      <c r="Y22" s="17" t="n">
+      <c r="Y22" s="13" t="n">
         <v>69082762.8801099</v>
       </c>
-      <c r="Z22" s="17" t="n">
+      <c r="Z22" s="13" t="n">
         <v>128686448.144607</v>
       </c>
-      <c r="AA22" s="17" t="n">
+      <c r="AA22" s="13" t="n">
         <v>325700106.458828</v>
       </c>
-      <c r="AB22" s="17" t="n">
+      <c r="AB22" s="13" t="n">
         <v>278518343.995549</v>
       </c>
-      <c r="AC22" s="17" t="n">
+      <c r="AC22" s="13" t="n">
         <v>144342756.273598</v>
       </c>
-      <c r="AD22" s="17" t="n">
+      <c r="AD22" s="13" t="n">
         <v>118176555.747178</v>
       </c>
-      <c r="AE22" s="17" t="n">
+      <c r="AE22" s="13" t="n">
         <v>94268986.8709606</v>
       </c>
-      <c r="AF22" s="17" t="n">
+      <c r="AF22" s="13" t="n">
         <v>118450998.461128</v>
       </c>
-      <c r="AG22" s="17" t="n">
+      <c r="AG22" s="13" t="n">
         <v>258474156.294841</v>
       </c>
-      <c r="AH22" s="17" t="n">
+      <c r="AH22" s="13" t="n">
         <v>102898869.604246</v>
       </c>
-      <c r="AI22" s="17" t="n">
+      <c r="AI22" s="13" t="n">
         <v>157248779.412383</v>
       </c>
-      <c r="AJ22" s="17" t="n">
+      <c r="AJ22" s="13" t="n">
         <v>175345363.055805</v>
       </c>
-      <c r="AK22" s="17" t="n">
+      <c r="AK22" s="13" t="n">
         <v>267336269.068938</v>
       </c>
-      <c r="AL22" s="17" t="n">
+      <c r="AL22" s="13" t="n">
         <v>423359381.986</v>
       </c>
-      <c r="AM22" s="17" t="n">
+      <c r="AM22" s="13" t="n">
         <v>144342756.273598</v>
       </c>
       <c r="AN22" s="12" t="n">
@@ -21097,16 +21097,16 @@
       <c r="B23" t="str">
         <f>N23</f>
       </c>
-      <c r="C23" s="17" t="str">
+      <c r="C23" s="13" t="str">
         <f>AI23</f>
       </c>
-      <c r="D23" s="17" t="str">
+      <c r="D23" s="13" t="str">
         <f>AK23</f>
       </c>
-      <c r="E23" s="17" t="str">
+      <c r="E23" s="13" t="str">
         <f>AL23</f>
       </c>
-      <c r="F23" s="17"/>
+      <c r="F23" s="13"/>
       <c r="G23" s="1" t="str">
         <f>AL23/AK23-1</f>
       </c>
@@ -21124,79 +21124,79 @@
       <c r="N23" t="s">
         <v>69</v>
       </c>
-      <c r="O23" s="17" t="n">
+      <c r="O23" s="13" t="n">
         <v>1698942072.72133</v>
       </c>
-      <c r="P23" s="17" t="n">
+      <c r="P23" s="13" t="n">
         <v>667231689.746219</v>
       </c>
-      <c r="Q23" s="17" t="n">
+      <c r="Q23" s="13" t="n">
         <v>229541392.802605</v>
       </c>
-      <c r="R23" s="17" t="n">
+      <c r="R23" s="13" t="n">
         <v>486241383.126826</v>
       </c>
-      <c r="S23" s="17" t="n">
+      <c r="S23" s="13" t="n">
         <v>253193877.894965</v>
       </c>
-      <c r="T23" s="17" t="n">
+      <c r="T23" s="13" t="n">
         <v>264367639.007765</v>
       </c>
-      <c r="U23" s="17" t="n">
+      <c r="U23" s="13" t="n">
         <v>125002327.636753</v>
       </c>
-      <c r="V23" s="17" t="n">
+      <c r="V23" s="13" t="n">
         <v>150089414.363696</v>
       </c>
-      <c r="W23" s="17" t="n">
+      <c r="W23" s="13" t="n">
         <v>156376649.404194</v>
       </c>
-      <c r="X23" s="17" t="n">
+      <c r="X23" s="13" t="n">
         <v>3982384804.18903</v>
       </c>
-      <c r="Y23" s="17" t="n">
+      <c r="Y23" s="13" t="n">
         <v>3740017137.84028</v>
       </c>
-      <c r="Z23" s="17" t="n">
+      <c r="Z23" s="13" t="n">
         <v>4790852418.30985</v>
       </c>
-      <c r="AA23" s="17" t="n">
+      <c r="AA23" s="13" t="n">
         <v>3969606632.14502</v>
       </c>
-      <c r="AB23" s="17" t="n">
+      <c r="AB23" s="13" t="n">
         <v>5419853706.45371</v>
       </c>
-      <c r="AC23" s="17" t="n">
+      <c r="AC23" s="13" t="n">
         <v>4333921620.52729</v>
       </c>
-      <c r="AD23" s="17" t="n">
+      <c r="AD23" s="13" t="n">
         <v>2022749776.43785</v>
       </c>
-      <c r="AE23" s="17" t="n">
+      <c r="AE23" s="13" t="n">
         <v>2856207823.65535</v>
       </c>
-      <c r="AF23" s="17" t="n">
+      <c r="AF23" s="13" t="n">
         <v>2595727620.30149</v>
       </c>
-      <c r="AG23" s="17" t="n">
+      <c r="AG23" s="13" t="n">
         <v>2650964612.30969</v>
       </c>
-      <c r="AH23" s="17" t="n">
+      <c r="AH23" s="13" t="n">
         <v>3886121215.57102</v>
       </c>
-      <c r="AI23" s="17" t="n">
+      <c r="AI23" s="13" t="n">
         <v>4550327597.13167</v>
       </c>
-      <c r="AJ23" s="17" t="n">
+      <c r="AJ23" s="13" t="n">
         <v>1931770254.10011</v>
       </c>
-      <c r="AK23" s="17" t="n">
+      <c r="AK23" s="13" t="n">
         <v>2301755504.90649</v>
       </c>
-      <c r="AL23" s="17" t="n">
+      <c r="AL23" s="13" t="n">
         <v>5343199818.6205</v>
       </c>
-      <c r="AM23" s="17" t="n">
+      <c r="AM23" s="13" t="n">
         <v>4333921620.52729</v>
       </c>
       <c r="AN23" s="12" t="n">
@@ -21235,16 +21235,16 @@
       <c r="B24" t="str">
         <f>N24</f>
       </c>
-      <c r="C24" s="17" t="str">
+      <c r="C24" s="13" t="str">
         <f>AI24</f>
       </c>
-      <c r="D24" s="17" t="str">
+      <c r="D24" s="13" t="str">
         <f>AK24</f>
       </c>
-      <c r="E24" s="17" t="str">
+      <c r="E24" s="13" t="str">
         <f>AL24</f>
       </c>
-      <c r="F24" s="17"/>
+      <c r="F24" s="13"/>
       <c r="G24" s="1" t="str">
         <f>AL24/AK24-1</f>
       </c>
@@ -21262,69 +21262,69 @@
       <c r="N24" t="s">
         <v>70</v>
       </c>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17" t="n">
+      <c r="O24" s="13"/>
+      <c r="P24" s="13" t="n">
         <v>5539683.33692797</v>
       </c>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17" t="n">
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13" t="n">
         <v>6825742.08321724</v>
       </c>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="17" t="n">
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13" t="n">
         <v>6314582.84521379</v>
       </c>
-      <c r="W24" s="17" t="n">
+      <c r="W24" s="13" t="n">
         <v>35852222.5157703</v>
       </c>
-      <c r="X24" s="17" t="n">
+      <c r="X24" s="13" t="n">
         <v>86097755.4160805</v>
       </c>
-      <c r="Y24" s="17" t="n">
+      <c r="Y24" s="13" t="n">
         <v>340123073.330009</v>
       </c>
-      <c r="Z24" s="17" t="n">
+      <c r="Z24" s="13" t="n">
         <v>690048328.860365</v>
       </c>
-      <c r="AA24" s="17" t="n">
+      <c r="AA24" s="13" t="n">
         <v>1539310026.41604</v>
       </c>
-      <c r="AB24" s="17" t="n">
+      <c r="AB24" s="13" t="n">
         <v>42919830.0068344</v>
       </c>
-      <c r="AC24" s="17" t="n">
+      <c r="AC24" s="13" t="n">
         <v>31864603.0937122</v>
       </c>
-      <c r="AD24" s="17" t="n">
+      <c r="AD24" s="13" t="n">
         <v>128760602.731185</v>
       </c>
-      <c r="AE24" s="17" t="n">
+      <c r="AE24" s="13" t="n">
         <v>129737430.059346</v>
       </c>
-      <c r="AF24" s="17" t="n">
+      <c r="AF24" s="13" t="n">
         <v>104426431.698331</v>
       </c>
-      <c r="AG24" s="17" t="n">
+      <c r="AG24" s="13" t="n">
         <v>70540909.6698193</v>
       </c>
-      <c r="AH24" s="17" t="n">
+      <c r="AH24" s="13" t="n">
         <v>235407372.418415</v>
       </c>
-      <c r="AI24" s="17" t="n">
+      <c r="AI24" s="13" t="n">
         <v>238596052.902256</v>
       </c>
-      <c r="AJ24" s="17" t="n">
+      <c r="AJ24" s="13" t="n">
         <v>92717804.8975845</v>
       </c>
-      <c r="AK24" s="17" t="n">
+      <c r="AK24" s="13" t="n">
         <v>106530961.41211</v>
       </c>
-      <c r="AL24" s="17" t="n">
+      <c r="AL24" s="13" t="n">
         <v>96650466.9706</v>
       </c>
-      <c r="AM24" s="17" t="n">
+      <c r="AM24" s="13" t="n">
         <v>31864603.0937122</v>
       </c>
       <c r="AN24" s="12" t="n">
@@ -21363,16 +21363,16 @@
       <c r="B25" t="str">
         <f>N25</f>
       </c>
-      <c r="C25" s="17" t="str">
+      <c r="C25" s="13" t="str">
         <f>AI25</f>
       </c>
-      <c r="D25" s="17" t="str">
+      <c r="D25" s="13" t="str">
         <f>AK25</f>
       </c>
-      <c r="E25" s="17" t="str">
+      <c r="E25" s="13" t="str">
         <f>AL25</f>
       </c>
-      <c r="F25" s="17"/>
+      <c r="F25" s="13"/>
       <c r="G25" s="1" t="str">
         <f>AL25/AK25-1</f>
       </c>
@@ -21390,43 +21390,43 @@
       <c r="N25" t="s">
         <v>58</v>
       </c>
-      <c r="O25" s="17" t="n">
+      <c r="O25" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17" t="n">
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13" t="n">
         <v>459601.468371854</v>
       </c>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17"/>
-      <c r="U25" s="17"/>
-      <c r="V25" s="17"/>
-      <c r="W25" s="17" t="n">
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13" t="n">
         <v>-137465.716340228</v>
       </c>
-      <c r="X25" s="17"/>
-      <c r="Y25" s="17"/>
-      <c r="Z25" s="17"/>
-      <c r="AA25" s="17"/>
-      <c r="AB25" s="17"/>
-      <c r="AC25" s="17"/>
-      <c r="AD25" s="17"/>
-      <c r="AE25" s="17"/>
-      <c r="AF25" s="17" t="n">
+      <c r="X25" s="13"/>
+      <c r="Y25" s="13"/>
+      <c r="Z25" s="13"/>
+      <c r="AA25" s="13"/>
+      <c r="AB25" s="13"/>
+      <c r="AC25" s="13"/>
+      <c r="AD25" s="13"/>
+      <c r="AE25" s="13"/>
+      <c r="AF25" s="13" t="n">
         <v>24414.0000046899</v>
       </c>
-      <c r="AG25" s="17" t="n">
+      <c r="AG25" s="13" t="n">
         <v>-278246.133397523</v>
       </c>
-      <c r="AH25" s="17"/>
-      <c r="AI25" s="17" t="n">
+      <c r="AH25" s="13"/>
+      <c r="AI25" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AJ25" s="17"/>
-      <c r="AK25" s="17"/>
-      <c r="AL25" s="17"/>
-      <c r="AM25" s="17"/>
+      <c r="AJ25" s="13"/>
+      <c r="AK25" s="13"/>
+      <c r="AL25" s="13"/>
+      <c r="AM25" s="13"/>
       <c r="AN25" s="12"/>
       <c r="AO25" s="12"/>
       <c r="AP25" s="12" t="n">
@@ -21451,16 +21451,16 @@
       <c r="B26" t="str">
         <f>N26</f>
       </c>
-      <c r="C26" s="17" t="str">
+      <c r="C26" s="13" t="str">
         <f>AI26</f>
       </c>
-      <c r="D26" s="17" t="str">
+      <c r="D26" s="13" t="str">
         <f>AK26</f>
       </c>
-      <c r="E26" s="17" t="str">
+      <c r="E26" s="13" t="str">
         <f>AL26</f>
       </c>
-      <c r="F26" s="17"/>
+      <c r="F26" s="13"/>
       <c r="G26" s="1" t="str">
         <f>AL26/AK26-1</f>
       </c>
@@ -21476,75 +21476,75 @@
       <c r="N26" t="s">
         <v>60</v>
       </c>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17" t="n">
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13" t="n">
         <v>88782.6081063167</v>
       </c>
-      <c r="R26" s="17" t="n">
+      <c r="R26" s="13" t="n">
         <v>58740.4359506725</v>
       </c>
-      <c r="S26" s="17" t="n">
+      <c r="S26" s="13" t="n">
         <v>58473.3406997969</v>
       </c>
-      <c r="T26" s="17" t="n">
+      <c r="T26" s="13" t="n">
         <v>65540.7904377821</v>
       </c>
-      <c r="U26" s="17" t="n">
+      <c r="U26" s="13" t="n">
         <v>2388344.07513449</v>
       </c>
-      <c r="V26" s="17" t="n">
+      <c r="V26" s="13" t="n">
         <v>1028052.53095425</v>
       </c>
-      <c r="W26" s="17" t="n">
+      <c r="W26" s="13" t="n">
         <v>5732552.80384665</v>
       </c>
-      <c r="X26" s="17" t="n">
+      <c r="X26" s="13" t="n">
         <v>612129733.265517</v>
       </c>
-      <c r="Y26" s="17" t="n">
+      <c r="Y26" s="13" t="n">
         <v>2318978099.51455</v>
       </c>
-      <c r="Z26" s="17" t="n">
+      <c r="Z26" s="13" t="n">
         <v>4076742626.7202</v>
       </c>
-      <c r="AA26" s="17" t="n">
+      <c r="AA26" s="13" t="n">
         <v>6670588645.54964</v>
       </c>
-      <c r="AB26" s="17" t="n">
+      <c r="AB26" s="13" t="n">
         <v>7821366508.605</v>
       </c>
-      <c r="AC26" s="17" t="n">
+      <c r="AC26" s="13" t="n">
         <v>7270226157.10031</v>
       </c>
-      <c r="AD26" s="17" t="n">
+      <c r="AD26" s="13" t="n">
         <v>8380826025.0685</v>
       </c>
-      <c r="AE26" s="17" t="n">
+      <c r="AE26" s="13" t="n">
         <v>8419411546.72308</v>
       </c>
-      <c r="AF26" s="17" t="n">
+      <c r="AF26" s="13" t="n">
         <v>10386011014.295</v>
       </c>
-      <c r="AG26" s="17" t="n">
+      <c r="AG26" s="13" t="n">
         <v>13393000116.2458</v>
       </c>
-      <c r="AH26" s="17" t="n">
+      <c r="AH26" s="13" t="n">
         <v>12007101903.2371</v>
       </c>
-      <c r="AI26" s="17" t="n">
+      <c r="AI26" s="13" t="n">
         <v>9471941480.27614</v>
       </c>
-      <c r="AJ26" s="17" t="n">
+      <c r="AJ26" s="13" t="n">
         <v>10400930530.9528</v>
       </c>
-      <c r="AK26" s="17" t="n">
+      <c r="AK26" s="13" t="n">
         <v>10705051157.1382</v>
       </c>
-      <c r="AL26" s="17" t="n">
+      <c r="AL26" s="13" t="n">
         <v>9794733268.5566</v>
       </c>
-      <c r="AM26" s="17" t="n">
+      <c r="AM26" s="13" t="n">
         <v>7271727690.79115</v>
       </c>
       <c r="AN26" s="12" t="n">
@@ -21583,16 +21583,16 @@
       <c r="B27" t="str">
         <f>N27</f>
       </c>
-      <c r="C27" s="17" t="str">
+      <c r="C27" s="13" t="str">
         <f>AI27</f>
       </c>
-      <c r="D27" s="17" t="str">
+      <c r="D27" s="13" t="str">
         <f>AK27</f>
       </c>
-      <c r="E27" s="17" t="str">
+      <c r="E27" s="13" t="str">
         <f>AL27</f>
       </c>
-      <c r="F27" s="17"/>
+      <c r="F27" s="13"/>
       <c r="G27" s="1" t="str">
         <f>AL27/AK27-1</f>
       </c>
@@ -21608,79 +21608,79 @@
       <c r="N27" t="s">
         <v>61</v>
       </c>
-      <c r="O27" s="17" t="n">
+      <c r="O27" s="13" t="n">
         <v>121901.546037816</v>
       </c>
-      <c r="P27" s="17" t="n">
+      <c r="P27" s="13" t="n">
         <v>155279.178538003</v>
       </c>
-      <c r="Q27" s="17" t="n">
+      <c r="Q27" s="13" t="n">
         <v>38954903.1404768</v>
       </c>
-      <c r="R27" s="17" t="n">
+      <c r="R27" s="13" t="n">
         <v>402926282.031057</v>
       </c>
-      <c r="S27" s="17" t="n">
+      <c r="S27" s="13" t="n">
         <v>483048973.991048</v>
       </c>
-      <c r="T27" s="17" t="n">
+      <c r="T27" s="13" t="n">
         <v>734028.714018279</v>
       </c>
-      <c r="U27" s="17" t="n">
+      <c r="U27" s="13" t="n">
         <v>115586018.057399</v>
       </c>
-      <c r="V27" s="17" t="n">
+      <c r="V27" s="13" t="n">
         <v>4491438.38510094</v>
       </c>
-      <c r="W27" s="17" t="n">
+      <c r="W27" s="13" t="n">
         <v>39356243.9821647</v>
       </c>
-      <c r="X27" s="17" t="n">
+      <c r="X27" s="13" t="n">
         <v>1191034547.82878</v>
       </c>
-      <c r="Y27" s="17" t="n">
+      <c r="Y27" s="13" t="n">
         <v>5555807016.97248</v>
       </c>
-      <c r="Z27" s="17" t="n">
+      <c r="Z27" s="13" t="n">
         <v>6186452913.57098</v>
       </c>
-      <c r="AA27" s="17" t="n">
+      <c r="AA27" s="13" t="n">
         <v>6824042605.09828</v>
       </c>
-      <c r="AB27" s="17" t="n">
+      <c r="AB27" s="13" t="n">
         <v>6133664404.0626</v>
       </c>
-      <c r="AC27" s="17" t="n">
+      <c r="AC27" s="13" t="n">
         <v>6894375367.19155</v>
       </c>
-      <c r="AD27" s="17" t="n">
+      <c r="AD27" s="13" t="n">
         <v>7488775559.49069</v>
       </c>
-      <c r="AE27" s="17" t="n">
+      <c r="AE27" s="13" t="n">
         <v>9265311179.078</v>
       </c>
-      <c r="AF27" s="17" t="n">
+      <c r="AF27" s="13" t="n">
         <v>9920156725.62689</v>
       </c>
-      <c r="AG27" s="17" t="n">
+      <c r="AG27" s="13" t="n">
         <v>10705026502.6295</v>
       </c>
-      <c r="AH27" s="17" t="n">
+      <c r="AH27" s="13" t="n">
         <v>12052534955.6319</v>
       </c>
-      <c r="AI27" s="17" t="n">
+      <c r="AI27" s="13" t="n">
         <v>13930985991.5944</v>
       </c>
-      <c r="AJ27" s="17" t="n">
+      <c r="AJ27" s="13" t="n">
         <v>13101671327.0954</v>
       </c>
-      <c r="AK27" s="17" t="n">
+      <c r="AK27" s="13" t="n">
         <v>13457736778.8239</v>
       </c>
-      <c r="AL27" s="17" t="n">
+      <c r="AL27" s="13" t="n">
         <v>14665170959.18</v>
       </c>
-      <c r="AM27" s="17" t="n">
+      <c r="AM27" s="13" t="n">
         <v>6895234820.29279</v>
       </c>
       <c r="AN27" s="12" t="n">
@@ -21719,16 +21719,16 @@
       <c r="B28" t="str">
         <f>N28</f>
       </c>
-      <c r="C28" s="17" t="str">
+      <c r="C28" s="13" t="str">
         <f>AI28</f>
       </c>
-      <c r="D28" s="17" t="str">
+      <c r="D28" s="13" t="str">
         <f>AK28</f>
       </c>
-      <c r="E28" s="17" t="str">
+      <c r="E28" s="13" t="str">
         <f>AL28</f>
       </c>
-      <c r="F28" s="17"/>
+      <c r="F28" s="13"/>
       <c r="G28" s="1" t="str">
         <f>AL28/AK28-1</f>
       </c>
@@ -21744,79 +21744,79 @@
       <c r="N28" t="s">
         <v>62</v>
       </c>
-      <c r="O28" s="17" t="n">
+      <c r="O28" s="13" t="n">
         <v>39537.1635171595</v>
       </c>
-      <c r="P28" s="17" t="n">
+      <c r="P28" s="13" t="n">
         <v>11857.3844225089</v>
       </c>
-      <c r="Q28" s="17" t="n">
+      <c r="Q28" s="13" t="n">
         <v>213090.524371351</v>
       </c>
-      <c r="R28" s="17" t="n">
+      <c r="R28" s="13" t="n">
         <v>331823.612037028</v>
       </c>
-      <c r="S28" s="17" t="n">
+      <c r="S28" s="13" t="n">
         <v>132363217.068347</v>
       </c>
-      <c r="T28" s="17" t="n">
+      <c r="T28" s="13" t="n">
         <v>284576013.958451</v>
       </c>
-      <c r="U28" s="17" t="n">
+      <c r="U28" s="13" t="n">
         <v>14145804.3832542</v>
       </c>
-      <c r="V28" s="17" t="n">
+      <c r="V28" s="13" t="n">
         <v>8062053.05121426</v>
       </c>
-      <c r="W28" s="17" t="n">
+      <c r="W28" s="13" t="n">
         <v>26186628.4295973</v>
       </c>
-      <c r="X28" s="17" t="n">
+      <c r="X28" s="13" t="n">
         <v>1548408015.84414</v>
       </c>
-      <c r="Y28" s="17" t="n">
+      <c r="Y28" s="13" t="n">
         <v>6598927086.25821</v>
       </c>
-      <c r="Z28" s="17" t="n">
+      <c r="Z28" s="13" t="n">
         <v>6477280270.35404</v>
       </c>
-      <c r="AA28" s="17" t="n">
+      <c r="AA28" s="13" t="n">
         <v>5169838758.34336</v>
       </c>
-      <c r="AB28" s="17" t="n">
+      <c r="AB28" s="13" t="n">
         <v>3545325371.11388</v>
       </c>
-      <c r="AC28" s="17" t="n">
+      <c r="AC28" s="13" t="n">
         <v>3732250779.61309</v>
       </c>
-      <c r="AD28" s="17" t="n">
+      <c r="AD28" s="13" t="n">
         <v>2968378868.42426</v>
       </c>
-      <c r="AE28" s="17" t="n">
+      <c r="AE28" s="13" t="n">
         <v>3054444771.22353</v>
       </c>
-      <c r="AF28" s="17" t="n">
+      <c r="AF28" s="13" t="n">
         <v>2940142196.06581</v>
       </c>
-      <c r="AG28" s="17" t="n">
+      <c r="AG28" s="13" t="n">
         <v>4266759374.85061</v>
       </c>
-      <c r="AH28" s="17" t="n">
+      <c r="AH28" s="13" t="n">
         <v>3229821040.63068</v>
       </c>
-      <c r="AI28" s="17" t="n">
+      <c r="AI28" s="13" t="n">
         <v>3410731278.66021</v>
       </c>
-      <c r="AJ28" s="17" t="n">
+      <c r="AJ28" s="13" t="n">
         <v>3165545608.12906</v>
       </c>
-      <c r="AK28" s="17" t="n">
+      <c r="AK28" s="13" t="n">
         <v>3112302096.41636</v>
       </c>
-      <c r="AL28" s="17" t="n">
+      <c r="AL28" s="13" t="n">
         <v>3822091228.2961</v>
       </c>
-      <c r="AM28" s="17" t="n">
+      <c r="AM28" s="13" t="n">
         <v>3733375609.15234</v>
       </c>
       <c r="AN28" s="12" t="n">
@@ -21855,16 +21855,16 @@
       <c r="B29" t="str">
         <f>N29</f>
       </c>
-      <c r="C29" s="17" t="str">
+      <c r="C29" s="13" t="str">
         <f>AI29</f>
       </c>
-      <c r="D29" s="17" t="str">
+      <c r="D29" s="13" t="str">
         <f>AK29</f>
       </c>
-      <c r="E29" s="17" t="str">
+      <c r="E29" s="13" t="str">
         <f>AL29</f>
       </c>
-      <c r="F29" s="17"/>
+      <c r="F29" s="13"/>
       <c r="G29" s="1" t="str">
         <f>AL29/AK29-1</f>
       </c>
@@ -21880,75 +21880,75 @@
       <c r="N29" t="s">
         <v>63</v>
       </c>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17" t="n">
+      <c r="O29" s="13"/>
+      <c r="P29" s="13" t="n">
         <v>35220.0114371892</v>
       </c>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17" t="n">
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13" t="n">
         <v>27016.2523782265</v>
       </c>
-      <c r="S29" s="17" t="n">
+      <c r="S29" s="13" t="n">
         <v>9566940.03588217</v>
       </c>
-      <c r="T29" s="17" t="n">
+      <c r="T29" s="13" t="n">
         <v>404096.625943742</v>
       </c>
-      <c r="U29" s="17" t="n">
+      <c r="U29" s="13" t="n">
         <v>121714664.317684</v>
       </c>
-      <c r="V29" s="17" t="n">
+      <c r="V29" s="13" t="n">
         <v>60068899.9211299</v>
       </c>
-      <c r="W29" s="17" t="n">
+      <c r="W29" s="13" t="n">
         <v>87589971.6929088</v>
       </c>
-      <c r="X29" s="17" t="n">
+      <c r="X29" s="13" t="n">
         <v>170288877.448139</v>
       </c>
-      <c r="Y29" s="17" t="n">
+      <c r="Y29" s="13" t="n">
         <v>1043831364.74133</v>
       </c>
-      <c r="Z29" s="17" t="n">
+      <c r="Z29" s="13" t="n">
         <v>2087004692.18305</v>
       </c>
-      <c r="AA29" s="17" t="n">
+      <c r="AA29" s="13" t="n">
         <v>1613503047.68528</v>
       </c>
-      <c r="AB29" s="17" t="n">
+      <c r="AB29" s="13" t="n">
         <v>771094724.499151</v>
       </c>
-      <c r="AC29" s="17" t="n">
+      <c r="AC29" s="13" t="n">
         <v>924076708.160585</v>
       </c>
-      <c r="AD29" s="17" t="n">
+      <c r="AD29" s="13" t="n">
         <v>899764329.80243</v>
       </c>
-      <c r="AE29" s="17" t="n">
+      <c r="AE29" s="13" t="n">
         <v>730015167.49964</v>
       </c>
-      <c r="AF29" s="17" t="n">
+      <c r="AF29" s="13" t="n">
         <v>736481338.920816</v>
       </c>
-      <c r="AG29" s="17" t="n">
+      <c r="AG29" s="13" t="n">
         <v>1166953025.36129</v>
       </c>
-      <c r="AH29" s="17" t="n">
+      <c r="AH29" s="13" t="n">
         <v>1076411753.88416</v>
       </c>
-      <c r="AI29" s="17" t="n">
+      <c r="AI29" s="13" t="n">
         <v>951577789.067674</v>
       </c>
-      <c r="AJ29" s="17" t="n">
+      <c r="AJ29" s="13" t="n">
         <v>783441410.4828</v>
       </c>
-      <c r="AK29" s="17" t="n">
+      <c r="AK29" s="13" t="n">
         <v>632140291.083439</v>
       </c>
-      <c r="AL29" s="17" t="n">
+      <c r="AL29" s="13" t="n">
         <v>849695860.3289</v>
       </c>
-      <c r="AM29" s="17" t="n">
+      <c r="AM29" s="13" t="n">
         <v>925773751.140622</v>
       </c>
       <c r="AN29" s="12" t="n">
@@ -21987,16 +21987,16 @@
       <c r="B30" t="str">
         <f>N30</f>
       </c>
-      <c r="C30" s="17" t="str">
+      <c r="C30" s="13" t="str">
         <f>AI30</f>
       </c>
-      <c r="D30" s="17" t="str">
+      <c r="D30" s="13" t="str">
         <f>AK30</f>
       </c>
-      <c r="E30" s="17" t="str">
+      <c r="E30" s="13" t="str">
         <f>AL30</f>
       </c>
-      <c r="F30" s="17"/>
+      <c r="F30" s="13"/>
       <c r="G30" s="1" t="str">
         <f>AL30/AK30-1</f>
       </c>
@@ -22012,63 +22012,63 @@
       <c r="N30" t="s">
         <v>64</v>
       </c>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="17"/>
-      <c r="T30" s="17"/>
-      <c r="U30" s="17"/>
-      <c r="V30" s="17"/>
-      <c r="W30" s="17" t="n">
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13" t="n">
         <v>20801.6657432797</v>
       </c>
-      <c r="X30" s="17" t="n">
+      <c r="X30" s="13" t="n">
         <v>4385631.43219983</v>
       </c>
-      <c r="Y30" s="17" t="n">
+      <c r="Y30" s="13" t="n">
         <v>5711568.77602996</v>
       </c>
-      <c r="Z30" s="17" t="n">
+      <c r="Z30" s="13" t="n">
         <v>42944578.3947859</v>
       </c>
-      <c r="AA30" s="17" t="n">
+      <c r="AA30" s="13" t="n">
         <v>163327830.031058</v>
       </c>
-      <c r="AB30" s="17" t="n">
+      <c r="AB30" s="13" t="n">
         <v>196775001.378034</v>
       </c>
-      <c r="AC30" s="17" t="n">
+      <c r="AC30" s="13" t="n">
         <v>288532606.074592</v>
       </c>
-      <c r="AD30" s="17" t="n">
+      <c r="AD30" s="13" t="n">
         <v>287019832.243438</v>
       </c>
-      <c r="AE30" s="17" t="n">
+      <c r="AE30" s="13" t="n">
         <v>411567244.282609</v>
       </c>
-      <c r="AF30" s="17" t="n">
+      <c r="AF30" s="13" t="n">
         <v>327849685.856822</v>
       </c>
-      <c r="AG30" s="17" t="n">
+      <c r="AG30" s="13" t="n">
         <v>316973809.605532</v>
       </c>
-      <c r="AH30" s="17" t="n">
+      <c r="AH30" s="13" t="n">
         <v>345110208.004501</v>
       </c>
-      <c r="AI30" s="17" t="n">
+      <c r="AI30" s="13" t="n">
         <v>304719580.443848</v>
       </c>
-      <c r="AJ30" s="17" t="n">
+      <c r="AJ30" s="13" t="n">
         <v>256606038.770676</v>
       </c>
-      <c r="AK30" s="17" t="n">
+      <c r="AK30" s="13" t="n">
         <v>211019393.141999</v>
       </c>
-      <c r="AL30" s="17" t="n">
+      <c r="AL30" s="13" t="n">
         <v>187846087.1899</v>
       </c>
-      <c r="AM30" s="17" t="n">
+      <c r="AM30" s="13" t="n">
         <v>288532606.074592</v>
       </c>
       <c r="AN30" s="12" t="n">
@@ -22107,16 +22107,16 @@
       <c r="B31" t="str">
         <f>N31</f>
       </c>
-      <c r="C31" s="17" t="str">
+      <c r="C31" s="13" t="str">
         <f>AI31</f>
       </c>
-      <c r="D31" s="17" t="str">
+      <c r="D31" s="13" t="str">
         <f>AK31</f>
       </c>
-      <c r="E31" s="17" t="str">
+      <c r="E31" s="13" t="str">
         <f>AL31</f>
       </c>
-      <c r="F31" s="17"/>
+      <c r="F31" s="13"/>
       <c r="G31" s="1" t="str">
         <f>AL31/AK31-1</f>
       </c>
@@ -22132,75 +22132,75 @@
       <c r="N31" t="s">
         <v>65</v>
       </c>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17" t="n">
+      <c r="O31" s="13"/>
+      <c r="P31" s="13" t="n">
         <v>22404.9414960198</v>
       </c>
-      <c r="Q31" s="17" t="n">
+      <c r="Q31" s="13" t="n">
         <v>130795.241740486</v>
       </c>
-      <c r="R31" s="17" t="n">
+      <c r="R31" s="13" t="n">
         <v>3183326.83939643</v>
       </c>
-      <c r="S31" s="17" t="n">
+      <c r="S31" s="13" t="n">
         <v>2184070.18723811</v>
       </c>
-      <c r="T31" s="17"/>
-      <c r="U31" s="17" t="n">
+      <c r="T31" s="13"/>
+      <c r="U31" s="13" t="n">
         <v>-8172.94364349171</v>
       </c>
-      <c r="V31" s="17" t="n">
+      <c r="V31" s="13" t="n">
         <v>80537.598800247</v>
       </c>
-      <c r="W31" s="17" t="n">
+      <c r="W31" s="13" t="n">
         <v>14627579.714907</v>
       </c>
-      <c r="X31" s="17" t="n">
+      <c r="X31" s="13" t="n">
         <v>193597676.828593</v>
       </c>
-      <c r="Y31" s="17" t="n">
+      <c r="Y31" s="13" t="n">
         <v>513721198.980414</v>
       </c>
-      <c r="Z31" s="17" t="n">
+      <c r="Z31" s="13" t="n">
         <v>572520050.77653</v>
       </c>
-      <c r="AA31" s="17" t="n">
+      <c r="AA31" s="13" t="n">
         <v>643921169.835762</v>
       </c>
-      <c r="AB31" s="17" t="n">
+      <c r="AB31" s="13" t="n">
         <v>364884455.265084</v>
       </c>
-      <c r="AC31" s="17" t="n">
+      <c r="AC31" s="13" t="n">
         <v>439364195.845513</v>
       </c>
-      <c r="AD31" s="17" t="n">
+      <c r="AD31" s="13" t="n">
         <v>451062390.72536</v>
       </c>
-      <c r="AE31" s="17" t="n">
+      <c r="AE31" s="13" t="n">
         <v>699929880.569686</v>
       </c>
-      <c r="AF31" s="17" t="n">
+      <c r="AF31" s="13" t="n">
         <v>1011776485.77272</v>
       </c>
-      <c r="AG31" s="17" t="n">
+      <c r="AG31" s="13" t="n">
         <v>979217228.180228</v>
       </c>
-      <c r="AH31" s="17" t="n">
+      <c r="AH31" s="13" t="n">
         <v>971937109.404067</v>
       </c>
-      <c r="AI31" s="17" t="n">
+      <c r="AI31" s="13" t="n">
         <v>787594377.744917</v>
       </c>
-      <c r="AJ31" s="17" t="n">
+      <c r="AJ31" s="13" t="n">
         <v>565931396.048196</v>
       </c>
-      <c r="AK31" s="17" t="n">
+      <c r="AK31" s="13" t="n">
         <v>543300908.795098</v>
       </c>
-      <c r="AL31" s="17" t="n">
+      <c r="AL31" s="13" t="n">
         <v>763142293.0524</v>
       </c>
-      <c r="AM31" s="17" t="n">
+      <c r="AM31" s="13" t="n">
         <v>439692639.3015</v>
       </c>
       <c r="AN31" s="12" t="n">
@@ -22239,16 +22239,16 @@
       <c r="B32" t="str">
         <f>N32</f>
       </c>
-      <c r="C32" s="17" t="str">
+      <c r="C32" s="13" t="str">
         <f>AI32</f>
       </c>
-      <c r="D32" s="17" t="str">
+      <c r="D32" s="13" t="str">
         <f>AK32</f>
       </c>
-      <c r="E32" s="17" t="str">
+      <c r="E32" s="13" t="str">
         <f>AL32</f>
       </c>
-      <c r="F32" s="17"/>
+      <c r="F32" s="13"/>
       <c r="G32" s="1" t="str">
         <f>AL32/AK32-1</f>
       </c>
@@ -22264,79 +22264,79 @@
       <c r="N32" t="s">
         <v>66</v>
       </c>
-      <c r="O32" s="17" t="n">
+      <c r="O32" s="13" t="n">
         <v>44356.2300636898</v>
       </c>
-      <c r="P32" s="17" t="n">
+      <c r="P32" s="13" t="n">
         <v>24834.1952259912</v>
       </c>
-      <c r="Q32" s="17" t="n">
+      <c r="Q32" s="13" t="n">
         <v>1977.94122380886</v>
       </c>
-      <c r="R32" s="17" t="n">
+      <c r="R32" s="13" t="n">
         <v>85721.7278551064</v>
       </c>
-      <c r="S32" s="17" t="n">
+      <c r="S32" s="13" t="n">
         <v>1162156.27633252</v>
       </c>
-      <c r="T32" s="17" t="n">
+      <c r="T32" s="13" t="n">
         <v>825135.011793281</v>
       </c>
-      <c r="U32" s="17" t="n">
+      <c r="U32" s="13" t="n">
         <v>3322219.55686801</v>
       </c>
-      <c r="V32" s="17" t="n">
+      <c r="V32" s="13" t="n">
         <v>101593.614081384</v>
       </c>
-      <c r="W32" s="17" t="n">
+      <c r="W32" s="13" t="n">
         <v>9341551.93573075</v>
       </c>
-      <c r="X32" s="17" t="n">
+      <c r="X32" s="13" t="n">
         <v>1152622965.70966</v>
       </c>
-      <c r="Y32" s="17" t="n">
+      <c r="Y32" s="13" t="n">
         <v>3089466560.40175</v>
       </c>
-      <c r="Z32" s="17" t="n">
+      <c r="Z32" s="13" t="n">
         <v>2992576365.33954</v>
       </c>
-      <c r="AA32" s="17" t="n">
+      <c r="AA32" s="13" t="n">
         <v>2490260083.24563</v>
       </c>
-      <c r="AB32" s="17" t="n">
+      <c r="AB32" s="13" t="n">
         <v>2627181365.63245</v>
       </c>
-      <c r="AC32" s="17" t="n">
+      <c r="AC32" s="13" t="n">
         <v>2375363852.43009</v>
       </c>
-      <c r="AD32" s="17" t="n">
+      <c r="AD32" s="13" t="n">
         <v>2334217042.54905</v>
       </c>
-      <c r="AE32" s="17" t="n">
+      <c r="AE32" s="13" t="n">
         <v>2171279379.85528</v>
       </c>
-      <c r="AF32" s="17" t="n">
+      <c r="AF32" s="13" t="n">
         <v>2246374419.64007</v>
       </c>
-      <c r="AG32" s="17" t="n">
+      <c r="AG32" s="13" t="n">
         <v>2921101985.13095</v>
       </c>
-      <c r="AH32" s="17" t="n">
+      <c r="AH32" s="13" t="n">
         <v>2259755968.22502</v>
       </c>
-      <c r="AI32" s="17" t="n">
+      <c r="AI32" s="13" t="n">
         <v>2149429816.63024</v>
       </c>
-      <c r="AJ32" s="17" t="n">
+      <c r="AJ32" s="13" t="n">
         <v>1786279013.91066</v>
       </c>
-      <c r="AK32" s="17" t="n">
+      <c r="AK32" s="13" t="n">
         <v>1826965555.36117</v>
       </c>
-      <c r="AL32" s="17" t="n">
+      <c r="AL32" s="13" t="n">
         <v>2668142061.7994</v>
       </c>
-      <c r="AM32" s="17" t="n">
+      <c r="AM32" s="13" t="n">
         <v>2380008446.87031</v>
       </c>
       <c r="AN32" s="12" t="n">
@@ -22375,16 +22375,16 @@
       <c r="B33" t="str">
         <f>N33</f>
       </c>
-      <c r="C33" s="17" t="str">
+      <c r="C33" s="13" t="str">
         <f>AI33</f>
       </c>
-      <c r="D33" s="17" t="str">
+      <c r="D33" s="13" t="str">
         <f>AK33</f>
       </c>
-      <c r="E33" s="17" t="str">
+      <c r="E33" s="13" t="str">
         <f>AL33</f>
       </c>
-      <c r="F33" s="17"/>
+      <c r="F33" s="13"/>
       <c r="G33" s="1" t="str">
         <f>AL33/AK33-1</f>
       </c>
@@ -22400,79 +22400,79 @@
       <c r="N33" t="s">
         <v>67</v>
       </c>
-      <c r="O33" s="17" t="n">
+      <c r="O33" s="13" t="n">
         <v>34094.1963771208</v>
       </c>
-      <c r="P33" s="17" t="n">
+      <c r="P33" s="13" t="n">
         <v>43297.6233035028</v>
       </c>
-      <c r="Q33" s="17" t="n">
+      <c r="Q33" s="13" t="n">
         <v>3231.93010426284</v>
       </c>
-      <c r="R33" s="17" t="n">
+      <c r="R33" s="13" t="n">
         <v>109639.440117756</v>
       </c>
-      <c r="S33" s="17" t="n">
+      <c r="S33" s="13" t="n">
         <v>89702.1806809532</v>
       </c>
-      <c r="T33" s="17" t="n">
+      <c r="T33" s="13" t="n">
         <v>2102905.86921693</v>
       </c>
-      <c r="U33" s="17" t="n">
+      <c r="U33" s="13" t="n">
         <v>2792969.62515505</v>
       </c>
-      <c r="V33" s="17" t="n">
+      <c r="V33" s="13" t="n">
         <v>774194.50053328</v>
       </c>
-      <c r="W33" s="17" t="n">
+      <c r="W33" s="13" t="n">
         <v>4568091.23544807</v>
       </c>
-      <c r="X33" s="17" t="n">
+      <c r="X33" s="13" t="n">
         <v>392529038.768772</v>
       </c>
-      <c r="Y33" s="17" t="n">
+      <c r="Y33" s="13" t="n">
         <v>2039932625.55851</v>
       </c>
-      <c r="Z33" s="17" t="n">
+      <c r="Z33" s="13" t="n">
         <v>2730828412.32614</v>
       </c>
-      <c r="AA33" s="17" t="n">
+      <c r="AA33" s="13" t="n">
         <v>3108485908.55767</v>
       </c>
-      <c r="AB33" s="17" t="n">
+      <c r="AB33" s="13" t="n">
         <v>2922572734.76019</v>
       </c>
-      <c r="AC33" s="17" t="n">
+      <c r="AC33" s="13" t="n">
         <v>3366537187.70226</v>
       </c>
-      <c r="AD33" s="17" t="n">
+      <c r="AD33" s="13" t="n">
         <v>3684599738.1382</v>
       </c>
-      <c r="AE33" s="17" t="n">
+      <c r="AE33" s="13" t="n">
         <v>4167357876.89657</v>
       </c>
-      <c r="AF33" s="17" t="n">
+      <c r="AF33" s="13" t="n">
         <v>4584510678.82899</v>
       </c>
-      <c r="AG33" s="17" t="n">
+      <c r="AG33" s="13" t="n">
         <v>4440562919.42043</v>
       </c>
-      <c r="AH33" s="17" t="n">
+      <c r="AH33" s="13" t="n">
         <v>5041285251.75421</v>
       </c>
-      <c r="AI33" s="17" t="n">
+      <c r="AI33" s="13" t="n">
         <v>5194831825.99352</v>
       </c>
-      <c r="AJ33" s="17" t="n">
+      <c r="AJ33" s="13" t="n">
         <v>5003627562.93249</v>
       </c>
-      <c r="AK33" s="17" t="n">
+      <c r="AK33" s="13" t="n">
         <v>4203547954.81404</v>
       </c>
-      <c r="AL33" s="17" t="n">
+      <c r="AL33" s="13" t="n">
         <v>5314455357.6316</v>
       </c>
-      <c r="AM33" s="17" t="n">
+      <c r="AM33" s="13" t="n">
         <v>3366517334.38714</v>
       </c>
       <c r="AN33" s="12" t="n">
@@ -22511,16 +22511,16 @@
       <c r="B34" t="str">
         <f>N34</f>
       </c>
-      <c r="C34" s="17" t="str">
+      <c r="C34" s="13" t="str">
         <f>AI34</f>
       </c>
-      <c r="D34" s="17" t="str">
+      <c r="D34" s="13" t="str">
         <f>AK34</f>
       </c>
-      <c r="E34" s="17" t="str">
+      <c r="E34" s="13" t="str">
         <f>AL34</f>
       </c>
-      <c r="F34" s="17"/>
+      <c r="F34" s="13"/>
       <c r="G34" s="1" t="str">
         <f>AL34/AK34-1</f>
       </c>
@@ -22536,75 +22536,75 @@
       <c r="N34" t="s">
         <v>68</v>
       </c>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17" t="n">
+      <c r="O34" s="13"/>
+      <c r="P34" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17" t="n">
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13" t="n">
         <v>78650.4027061392</v>
       </c>
-      <c r="S34" s="17" t="n">
+      <c r="S34" s="13" t="n">
         <v>1335628.77350029</v>
       </c>
-      <c r="T34" s="17" t="n">
+      <c r="T34" s="13" t="n">
         <v>311256.255400325</v>
       </c>
-      <c r="U34" s="17" t="n">
+      <c r="U34" s="13" t="n">
         <v>540073.902612377</v>
       </c>
-      <c r="V34" s="17" t="n">
+      <c r="V34" s="13" t="n">
         <v>321444.048514667</v>
       </c>
-      <c r="W34" s="17" t="n">
+      <c r="W34" s="13" t="n">
         <v>4625463.0552281</v>
       </c>
-      <c r="X34" s="17" t="n">
+      <c r="X34" s="13" t="n">
         <v>71395653.1316492</v>
       </c>
-      <c r="Y34" s="17" t="n">
+      <c r="Y34" s="13" t="n">
         <v>4190230205.715</v>
       </c>
-      <c r="Z34" s="17" t="n">
+      <c r="Z34" s="13" t="n">
         <v>2527296847.05199</v>
       </c>
-      <c r="AA34" s="17" t="n">
+      <c r="AA34" s="13" t="n">
         <v>1693208879.73707</v>
       </c>
-      <c r="AB34" s="17" t="n">
+      <c r="AB34" s="13" t="n">
         <v>1343758410.90124</v>
       </c>
-      <c r="AC34" s="17" t="n">
+      <c r="AC34" s="13" t="n">
         <v>1761952167.05773</v>
       </c>
-      <c r="AD34" s="17" t="n">
+      <c r="AD34" s="13" t="n">
         <v>1671169337.45091</v>
       </c>
-      <c r="AE34" s="17" t="n">
+      <c r="AE34" s="13" t="n">
         <v>1976663244.44468</v>
       </c>
-      <c r="AF34" s="17" t="n">
+      <c r="AF34" s="13" t="n">
         <v>2455367162.96736</v>
       </c>
-      <c r="AG34" s="17" t="n">
+      <c r="AG34" s="13" t="n">
         <v>2929681898.88994</v>
       </c>
-      <c r="AH34" s="17" t="n">
+      <c r="AH34" s="13" t="n">
         <v>2730325001.58468</v>
       </c>
-      <c r="AI34" s="17" t="n">
+      <c r="AI34" s="13" t="n">
         <v>3082715782.99036</v>
       </c>
-      <c r="AJ34" s="17" t="n">
+      <c r="AJ34" s="13" t="n">
         <v>2460198571.08159</v>
       </c>
-      <c r="AK34" s="17" t="n">
+      <c r="AK34" s="13" t="n">
         <v>2374115033.23245</v>
       </c>
-      <c r="AL34" s="17" t="n">
+      <c r="AL34" s="13" t="n">
         <v>2240772265.4566</v>
       </c>
-      <c r="AM34" s="17" t="n">
+      <c r="AM34" s="13" t="n">
         <v>1761796894.2832</v>
       </c>
       <c r="AN34" s="12" t="n">
@@ -22643,16 +22643,16 @@
       <c r="B35" t="str">
         <f>N35</f>
       </c>
-      <c r="C35" s="17" t="str">
+      <c r="C35" s="13" t="str">
         <f>AI35</f>
       </c>
-      <c r="D35" s="17" t="str">
+      <c r="D35" s="13" t="str">
         <f>AK35</f>
       </c>
-      <c r="E35" s="17" t="str">
+      <c r="E35" s="13" t="str">
         <f>AL35</f>
       </c>
-      <c r="F35" s="17"/>
+      <c r="F35" s="13"/>
       <c r="G35" s="1" t="str">
         <f>AL35/AK35-1</f>
       </c>
@@ -22668,71 +22668,71 @@
       <c r="N35" t="s">
         <v>69</v>
       </c>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="17" t="n">
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="13" t="n">
         <v>90762.380376701</v>
       </c>
-      <c r="T35" s="17" t="n">
+      <c r="T35" s="13" t="n">
         <v>38174.0993192643</v>
       </c>
-      <c r="U35" s="17" t="n">
+      <c r="U35" s="13" t="n">
         <v>25296.8727560127</v>
       </c>
-      <c r="V35" s="17" t="n">
+      <c r="V35" s="13" t="n">
         <v>28327.7297134271</v>
       </c>
-      <c r="W35" s="17" t="n">
+      <c r="W35" s="13" t="n">
         <v>1939292.5513807</v>
       </c>
-      <c r="X35" s="17" t="n">
+      <c r="X35" s="13" t="n">
         <v>74074441.659049</v>
       </c>
-      <c r="Y35" s="17" t="n">
+      <c r="Y35" s="13" t="n">
         <v>985640029.965081</v>
       </c>
-      <c r="Z35" s="17" t="n">
+      <c r="Z35" s="13" t="n">
         <v>1415271534.38846</v>
       </c>
-      <c r="AA35" s="17" t="n">
+      <c r="AA35" s="13" t="n">
         <v>1522249504.59586</v>
       </c>
-      <c r="AB35" s="17" t="n">
+      <c r="AB35" s="13" t="n">
         <v>1628913012.44509</v>
       </c>
-      <c r="AC35" s="17" t="n">
+      <c r="AC35" s="13" t="n">
         <v>2008659725.34528</v>
       </c>
-      <c r="AD35" s="17" t="n">
+      <c r="AD35" s="13" t="n">
         <v>1917770730.406</v>
       </c>
-      <c r="AE35" s="17" t="n">
+      <c r="AE35" s="13" t="n">
         <v>1825389562.69747</v>
       </c>
-      <c r="AF35" s="17" t="n">
+      <c r="AF35" s="13" t="n">
         <v>1763806059.26269</v>
       </c>
-      <c r="AG35" s="17" t="n">
+      <c r="AG35" s="13" t="n">
         <v>2258094248.31883</v>
       </c>
-      <c r="AH35" s="17" t="n">
+      <c r="AH35" s="13" t="n">
         <v>1999826373.27885</v>
       </c>
-      <c r="AI35" s="17" t="n">
+      <c r="AI35" s="13" t="n">
         <v>1490895103.15333</v>
       </c>
-      <c r="AJ35" s="17" t="n">
+      <c r="AJ35" s="13" t="n">
         <v>1575600990.50541</v>
       </c>
-      <c r="AK35" s="17" t="n">
+      <c r="AK35" s="13" t="n">
         <v>1706764968.4498</v>
       </c>
-      <c r="AL35" s="17" t="n">
+      <c r="AL35" s="13" t="n">
         <v>1176812391.9736</v>
       </c>
-      <c r="AM35" s="17" t="n">
+      <c r="AM35" s="13" t="n">
         <v>2009026683.8584</v>
       </c>
       <c r="AN35" s="12" t="n">
@@ -22771,16 +22771,16 @@
       <c r="B36" t="str">
         <f>N36</f>
       </c>
-      <c r="C36" s="17" t="str">
+      <c r="C36" s="13" t="str">
         <f>AI36</f>
       </c>
-      <c r="D36" s="17" t="str">
+      <c r="D36" s="13" t="str">
         <f>AK36</f>
       </c>
-      <c r="E36" s="17" t="str">
+      <c r="E36" s="13" t="str">
         <f>AL36</f>
       </c>
-      <c r="F36" s="17"/>
+      <c r="F36" s="13"/>
       <c r="G36" s="1" t="str">
         <f>AL36/AK36-1</f>
       </c>
@@ -22796,67 +22796,67 @@
       <c r="N36" t="s">
         <v>70</v>
       </c>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="17"/>
-      <c r="S36" s="17"/>
-      <c r="T36" s="17"/>
-      <c r="U36" s="17" t="n">
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="13" t="n">
         <v>78048.5698650646</v>
       </c>
-      <c r="V36" s="17" t="n">
+      <c r="V36" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="W36" s="17" t="n">
+      <c r="W36" s="13" t="n">
         <v>8681.10340283808</v>
       </c>
-      <c r="X36" s="17" t="n">
+      <c r="X36" s="13" t="n">
         <v>4660614.01923905</v>
       </c>
-      <c r="Y36" s="17" t="n">
+      <c r="Y36" s="13" t="n">
         <v>48781465.3749677</v>
       </c>
-      <c r="Z36" s="17" t="n">
+      <c r="Z36" s="13" t="n">
         <v>43375404.0815239</v>
       </c>
-      <c r="AA36" s="17" t="n">
+      <c r="AA36" s="13" t="n">
         <v>60444442.2066983</v>
       </c>
-      <c r="AB36" s="17" t="n">
+      <c r="AB36" s="13" t="n">
         <v>81108748.8727496</v>
       </c>
-      <c r="AC36" s="17" t="n">
+      <c r="AC36" s="13" t="n">
         <v>73215923.2150877</v>
       </c>
-      <c r="AD36" s="17" t="n">
+      <c r="AD36" s="13" t="n">
         <v>44068841.4941145</v>
       </c>
-      <c r="AE36" s="17" t="n">
+      <c r="AE36" s="13" t="n">
         <v>51188952.6455068</v>
       </c>
-      <c r="AF36" s="17" t="n">
+      <c r="AF36" s="13" t="n">
         <v>31923929.028834</v>
       </c>
-      <c r="AG36" s="17" t="n">
+      <c r="AG36" s="13" t="n">
         <v>13801966.3770497</v>
       </c>
-      <c r="AH36" s="17" t="n">
+      <c r="AH36" s="13" t="n">
         <v>37055967.4610133</v>
       </c>
-      <c r="AI36" s="17" t="n">
+      <c r="AI36" s="13" t="n">
         <v>8673963.87083551</v>
       </c>
-      <c r="AJ36" s="17" t="n">
+      <c r="AJ36" s="13" t="n">
         <v>1859473.97107768</v>
       </c>
-      <c r="AK36" s="17" t="n">
+      <c r="AK36" s="13" t="n">
         <v>5150671.7791419</v>
       </c>
-      <c r="AL36" s="17" t="n">
+      <c r="AL36" s="13" t="n">
         <v>9018123.405</v>
       </c>
-      <c r="AM36" s="17" t="n">
+      <c r="AM36" s="13" t="n">
         <v>73215923.2150877</v>
       </c>
       <c r="AN36" s="12" t="n">
@@ -22895,16 +22895,16 @@
       <c r="B37" t="str">
         <f>N37</f>
       </c>
-      <c r="C37" s="17" t="str">
+      <c r="C37" s="13" t="str">
         <f>AI37</f>
       </c>
-      <c r="D37" s="17" t="str">
+      <c r="D37" s="13" t="str">
         <f>AK37</f>
       </c>
-      <c r="E37" s="17" t="str">
+      <c r="E37" s="13" t="str">
         <f>AL37</f>
       </c>
-      <c r="F37" s="17"/>
+      <c r="F37" s="13"/>
       <c r="G37" s="1" t="str">
         <f>AL37/AK37-1</f>
       </c>
@@ -22920,69 +22920,69 @@
       <c r="N37" t="s">
         <v>58</v>
       </c>
-      <c r="O37" s="17" t="n">
+      <c r="O37" s="13" t="n">
         <v>147956.539710947</v>
       </c>
-      <c r="P37" s="17" t="n">
+      <c r="P37" s="13" t="n">
         <v>283964.776313332</v>
       </c>
-      <c r="Q37" s="17" t="n">
+      <c r="Q37" s="13" t="n">
         <v>579975.513087649</v>
       </c>
-      <c r="R37" s="17" t="n">
+      <c r="R37" s="13" t="n">
         <v>121760.900734853</v>
       </c>
-      <c r="S37" s="17" t="n">
+      <c r="S37" s="13" t="n">
         <v>20662.2860412155</v>
       </c>
-      <c r="T37" s="17"/>
-      <c r="U37" s="17" t="n">
+      <c r="T37" s="13"/>
+      <c r="U37" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="V37" s="17"/>
-      <c r="W37" s="17"/>
-      <c r="X37" s="17"/>
-      <c r="Y37" s="17" t="n">
+      <c r="V37" s="13"/>
+      <c r="W37" s="13"/>
+      <c r="X37" s="13"/>
+      <c r="Y37" s="13" t="n">
         <v>-25428.8904879254</v>
       </c>
-      <c r="Z37" s="17" t="n">
+      <c r="Z37" s="13" t="n">
         <v>-48577.7752125464</v>
       </c>
-      <c r="AA37" s="17" t="n">
+      <c r="AA37" s="13" t="n">
         <v>-1412.65160243094</v>
       </c>
-      <c r="AB37" s="17" t="n">
+      <c r="AB37" s="13" t="n">
         <v>-10944.1296577568</v>
       </c>
-      <c r="AC37" s="17"/>
-      <c r="AD37" s="17" t="n">
+      <c r="AC37" s="13"/>
+      <c r="AD37" s="13" t="n">
         <v>37536.9003683804</v>
       </c>
-      <c r="AE37" s="17" t="n">
+      <c r="AE37" s="13" t="n">
         <v>2157.67476297287</v>
       </c>
-      <c r="AF37" s="17" t="n">
+      <c r="AF37" s="13" t="n">
         <v>1633115.93671372</v>
       </c>
-      <c r="AG37" s="17" t="n">
+      <c r="AG37" s="13" t="n">
         <v>24128.2435797438</v>
       </c>
-      <c r="AH37" s="17" t="n">
+      <c r="AH37" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AI37" s="17" t="n">
+      <c r="AI37" s="13" t="n">
         <v>11573.9072704938</v>
       </c>
-      <c r="AJ37" s="17" t="n">
+      <c r="AJ37" s="13" t="n">
         <v>11188.817598517</v>
       </c>
-      <c r="AK37" s="17" t="n">
+      <c r="AK37" s="13" t="n">
         <v>963216.022693404</v>
       </c>
-      <c r="AL37" s="17" t="n">
+      <c r="AL37" s="13" t="n">
         <v>2440814.9855</v>
       </c>
-      <c r="AM37" s="17"/>
+      <c r="AM37" s="13"/>
       <c r="AN37" s="12" t="n">
         <v>37536.9003683804</v>
       </c>
@@ -23019,16 +23019,16 @@
       <c r="B38" t="str">
         <f>N38</f>
       </c>
-      <c r="C38" s="17" t="str">
+      <c r="C38" s="13" t="str">
         <f>AI38</f>
       </c>
-      <c r="D38" s="17" t="str">
+      <c r="D38" s="13" t="str">
         <f>AK38</f>
       </c>
-      <c r="E38" s="17" t="str">
+      <c r="E38" s="13" t="str">
         <f>AL38</f>
       </c>
-      <c r="F38" s="17"/>
+      <c r="F38" s="13"/>
       <c r="G38" s="1" t="str">
         <f>AL38/AK38-1</f>
       </c>
@@ -23046,79 +23046,79 @@
       <c r="N38" t="s">
         <v>47</v>
       </c>
-      <c r="O38" s="17" t="str">
+      <c r="O38" s="13" t="str">
         <f>Sum(O2:O37)</f>
       </c>
-      <c r="P38" s="17" t="str">
+      <c r="P38" s="13" t="str">
         <f>Sum(P2:P37)</f>
       </c>
-      <c r="Q38" s="17" t="str">
+      <c r="Q38" s="13" t="str">
         <f>Sum(Q2:Q37)</f>
       </c>
-      <c r="R38" s="17" t="str">
+      <c r="R38" s="13" t="str">
         <f>Sum(R2:R37)</f>
       </c>
-      <c r="S38" s="17" t="str">
+      <c r="S38" s="13" t="str">
         <f>Sum(S2:S37)</f>
       </c>
-      <c r="T38" s="17" t="str">
+      <c r="T38" s="13" t="str">
         <f>Sum(T2:T37)</f>
       </c>
-      <c r="U38" s="17" t="str">
+      <c r="U38" s="13" t="str">
         <f>Sum(U2:U37)</f>
       </c>
-      <c r="V38" s="17" t="str">
+      <c r="V38" s="13" t="str">
         <f>Sum(V2:V37)</f>
       </c>
-      <c r="W38" s="17" t="str">
+      <c r="W38" s="13" t="str">
         <f>Sum(W2:W37)</f>
       </c>
-      <c r="X38" s="17" t="str">
+      <c r="X38" s="13" t="str">
         <f>Sum(X2:X37)</f>
       </c>
-      <c r="Y38" s="17" t="str">
+      <c r="Y38" s="13" t="str">
         <f>Sum(Y2:Y37)</f>
       </c>
-      <c r="Z38" s="17" t="str">
+      <c r="Z38" s="13" t="str">
         <f>Sum(Z2:Z37)</f>
       </c>
-      <c r="AA38" s="17" t="str">
+      <c r="AA38" s="13" t="str">
         <f>Sum(AA2:AA37)</f>
       </c>
-      <c r="AB38" s="17" t="str">
+      <c r="AB38" s="13" t="str">
         <f>Sum(AB2:AB37)</f>
       </c>
-      <c r="AC38" s="17" t="str">
+      <c r="AC38" s="13" t="str">
         <f>Sum(AC2:AC37)</f>
       </c>
-      <c r="AD38" s="17" t="str">
+      <c r="AD38" s="13" t="str">
         <f>Sum(AD2:AD37)</f>
       </c>
-      <c r="AE38" s="17" t="str">
+      <c r="AE38" s="13" t="str">
         <f>Sum(AE2:AE37)</f>
       </c>
-      <c r="AF38" s="17" t="str">
+      <c r="AF38" s="13" t="str">
         <f>Sum(AF2:AF37)</f>
       </c>
-      <c r="AG38" s="17" t="str">
+      <c r="AG38" s="13" t="str">
         <f>Sum(AG2:AG37)</f>
       </c>
-      <c r="AH38" s="17" t="str">
+      <c r="AH38" s="13" t="str">
         <f>Sum(AH2:AH37)</f>
       </c>
-      <c r="AI38" s="17" t="str">
+      <c r="AI38" s="13" t="str">
         <f>Sum(AI2:AI37)</f>
       </c>
-      <c r="AJ38" s="17" t="str">
+      <c r="AJ38" s="13" t="str">
         <f>Sum(AJ2:AJ37)</f>
       </c>
-      <c r="AK38" s="17" t="str">
+      <c r="AK38" s="13" t="str">
         <f>Sum(AK2:AK37)</f>
       </c>
-      <c r="AL38" s="17" t="str">
+      <c r="AL38" s="13" t="str">
         <f>Sum(AL2:AL37)</f>
       </c>
-      <c r="AM38" s="17" t="str">
+      <c r="AM38" s="13" t="str">
         <f>Sum(AM2:AM37)</f>
       </c>
       <c r="AN38" s="12" t="str">

--- a/Output/AcqTrends/NPS2024/DoD_2024_NPS.xlsx
+++ b/Output/AcqTrends/NPS2024/DoD_2024_NPS.xlsx
@@ -3,7 +3,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t xml:space="preserve">source</t>
   </si>
@@ -353,6 +353,24 @@
   <si>
     <t xml:space="preserve">multiyearcontract</t>
   </si>
+  <si>
+    <t xml:space="preserve">VendorSize.NTDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Five</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Large Traditional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium or Large Non-Traditional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium Traditional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small</t>
+  </si>
 </sst>
 </file>
 
@@ -362,7 +380,7 @@
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="170" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="213" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="218" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="219" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="178" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="183" formatCode="0.00,,,&quot;B&quot;"/>
@@ -374,7 +392,7 @@
     <numFmt numFmtId="193" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="189" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="192" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="219" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="220" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -416,7 +434,7 @@
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="213" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="218" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="219" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -428,7 +446,7 @@
     <xf numFmtId="193" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="189" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="192" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="219" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="220" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9457,7 +9475,7 @@
         <f>L1</f>
       </c>
       <c r="L1" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="M1" t="s">
         <v>2</v>
@@ -9567,109 +9585,109 @@
         <f>L2</f>
       </c>
       <c r="L2" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="M2" s="17" t="n">
-        <v>120350129405</v>
+        <v>29993312707</v>
       </c>
       <c r="N2" s="17" t="n">
-        <v>136154193844</v>
+        <v>31945138023</v>
       </c>
       <c r="O2" s="17" t="n">
-        <v>123406660550</v>
+        <v>29753069568</v>
       </c>
       <c r="P2" s="17" t="n">
-        <v>121373382142</v>
+        <v>30346592157</v>
       </c>
       <c r="Q2" s="17" t="n">
-        <v>117161902725</v>
+        <v>31747329388</v>
       </c>
       <c r="R2" s="17" t="n">
-        <v>116592014868</v>
+        <v>28791249139</v>
       </c>
       <c r="S2" s="17" t="n">
-        <v>118448779098</v>
+        <v>32842967690</v>
       </c>
       <c r="T2" s="17" t="n">
-        <v>115982151879</v>
+        <v>34627617203</v>
       </c>
       <c r="U2" s="17" t="n">
-        <v>116965882167</v>
+        <v>37288669184</v>
       </c>
       <c r="V2" s="17" t="n">
-        <v>122185036488</v>
+        <v>39481622310</v>
       </c>
       <c r="W2" s="17" t="n">
-        <v>5236358155.9916</v>
+        <v>42902822546.2254</v>
       </c>
       <c r="X2" s="17" t="n">
-        <v>5491432009.7286</v>
+        <v>45999287165.102</v>
       </c>
       <c r="Y2" s="17" t="n">
-        <v>6587487263.1819</v>
+        <v>60247822851.393</v>
       </c>
       <c r="Z2" s="17" t="n">
-        <v>6976292471.2142</v>
+        <v>70112736203.1276</v>
       </c>
       <c r="AA2" s="17" t="n">
-        <v>9469780522.9719</v>
+        <v>72882060944.0123</v>
       </c>
       <c r="AB2" s="17" t="n">
-        <v>15314661031.4702</v>
+        <v>73955064380.7206</v>
       </c>
       <c r="AC2" s="17" t="n">
-        <v>13690206159.2622</v>
+        <v>88529377435.8539</v>
       </c>
       <c r="AD2" s="17" t="n">
-        <v>8188109934.3742</v>
+        <v>99100586147.3638</v>
       </c>
       <c r="AE2" s="17" t="n">
-        <v>10574055160.1785</v>
+        <v>105266669700.67</v>
       </c>
       <c r="AF2" s="17" t="n">
-        <v>6764981953.2342</v>
+        <v>107245503547.368</v>
       </c>
       <c r="AG2" s="17" t="n">
-        <v>5104291491.3231</v>
+        <v>96939369086.5759</v>
       </c>
       <c r="AH2" s="17" t="n">
-        <v>4330718826.8533</v>
+        <v>109468302700.962</v>
       </c>
       <c r="AI2" s="17" t="n">
-        <v>3082990599.5089</v>
+        <v>105499463138.199</v>
       </c>
       <c r="AJ2" s="17" t="n">
-        <v>1609033568.5028</v>
+        <v>96995856740.5779</v>
       </c>
       <c r="AK2" s="17" t="n">
-        <v>680453391.7032</v>
+        <v>82026660480.1835</v>
       </c>
       <c r="AL2" s="17" t="n">
-        <v>566899218.0891</v>
+        <v>82093613281.8144</v>
       </c>
       <c r="AM2" s="17" t="n">
-        <v>766600193.2492</v>
+        <v>103132925805.592</v>
       </c>
       <c r="AN2" s="17" t="n">
-        <v>547517746.2317</v>
+        <v>112799135328.923</v>
       </c>
       <c r="AO2" s="17" t="n">
-        <v>240712405.9436</v>
+        <v>113078047450.629</v>
       </c>
       <c r="AP2" s="17" t="n">
-        <v>380518692.1141</v>
+        <v>123281118568.194</v>
       </c>
       <c r="AQ2" s="17" t="n">
-        <v>789032280.102</v>
+        <v>153210907310.412</v>
       </c>
       <c r="AR2" s="17" t="n">
-        <v>769670794.6879</v>
+        <v>114361655314.093</v>
       </c>
       <c r="AS2" s="17" t="n">
-        <v>285283811.2825</v>
+        <v>122304776861.729</v>
       </c>
       <c r="AT2" s="17" t="n">
-        <v>235044504.6941</v>
+        <v>84663692097.9125</v>
       </c>
       <c r="AU2" s="17"/>
       <c r="AV2" s="17"/>
@@ -9679,89 +9697,109 @@
         <f>L3</f>
       </c>
       <c r="L3" t="s">
-        <v>72</v>
-      </c>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
+        <v>118</v>
+      </c>
+      <c r="M3" s="17" t="n">
+        <v>35960694888</v>
+      </c>
+      <c r="N3" s="17" t="n">
+        <v>37863506273</v>
+      </c>
+      <c r="O3" s="17" t="n">
+        <v>35092959873</v>
+      </c>
+      <c r="P3" s="17" t="n">
+        <v>33829226700</v>
+      </c>
+      <c r="Q3" s="17" t="n">
+        <v>31124696371</v>
+      </c>
+      <c r="R3" s="17" t="n">
+        <v>28535738215</v>
+      </c>
+      <c r="S3" s="17" t="n">
+        <v>30194170969</v>
+      </c>
+      <c r="T3" s="17" t="n">
+        <v>29073662056</v>
+      </c>
+      <c r="U3" s="17" t="n">
+        <v>28130482737</v>
+      </c>
+      <c r="V3" s="17" t="n">
+        <v>29677352211</v>
+      </c>
       <c r="W3" s="17" t="n">
-        <v>1329220610.9815</v>
+        <v>24339685706.4517</v>
       </c>
       <c r="X3" s="17" t="n">
-        <v>1064745085.42</v>
+        <v>25668062870.6387</v>
       </c>
       <c r="Y3" s="17" t="n">
-        <v>1807184389.3146</v>
+        <v>32788951053.1231</v>
       </c>
       <c r="Z3" s="17" t="n">
-        <v>1921193307.4043</v>
+        <v>47830922262.423</v>
       </c>
       <c r="AA3" s="17" t="n">
-        <v>2648920884.8399</v>
+        <v>58825443576.2251</v>
       </c>
       <c r="AB3" s="17" t="n">
-        <v>3794008336.1995</v>
+        <v>65108861243.7038</v>
       </c>
       <c r="AC3" s="17" t="n">
-        <v>9741097914.2115</v>
+        <v>68516071349.0288</v>
       </c>
       <c r="AD3" s="17" t="n">
-        <v>12868195666.4892</v>
+        <v>82810086269.79</v>
       </c>
       <c r="AE3" s="17" t="n">
-        <v>16499453100.5148</v>
+        <v>101935552219.899</v>
       </c>
       <c r="AF3" s="17" t="n">
-        <v>20075739480.5829</v>
+        <v>91082000212.6408</v>
       </c>
       <c r="AG3" s="17" t="n">
-        <v>22679836748.4971</v>
+        <v>106725389754.146</v>
       </c>
       <c r="AH3" s="17" t="n">
-        <v>19753164985.6706</v>
+        <v>103383013784.238</v>
       </c>
       <c r="AI3" s="17" t="n">
-        <v>18705132716.5269</v>
+        <v>98265166220.3349</v>
       </c>
       <c r="AJ3" s="17" t="n">
-        <v>18039454964.6385</v>
+        <v>86438880967.1992</v>
       </c>
       <c r="AK3" s="17" t="n">
-        <v>12582856811.9378</v>
+        <v>77207039866.9569</v>
       </c>
       <c r="AL3" s="17" t="n">
-        <v>10809719855.91</v>
+        <v>71996639966.4858</v>
       </c>
       <c r="AM3" s="17" t="n">
-        <v>9825055376.308</v>
+        <v>71551510997.6919</v>
       </c>
       <c r="AN3" s="17" t="n">
-        <v>9874481423.791</v>
+        <v>76631880839.9451</v>
       </c>
       <c r="AO3" s="17" t="n">
-        <v>11566748983.7809</v>
+        <v>88698325243.6305</v>
       </c>
       <c r="AP3" s="17" t="n">
-        <v>11431443200.7392</v>
+        <v>92762373993.5141</v>
       </c>
       <c r="AQ3" s="17" t="n">
-        <v>10618049742.5667</v>
+        <v>98398389839.8272</v>
       </c>
       <c r="AR3" s="17" t="n">
-        <v>10617066974.1711</v>
+        <v>90770167372.218</v>
       </c>
       <c r="AS3" s="17" t="n">
-        <v>14696330210.8885</v>
+        <v>99021129618.9242</v>
       </c>
       <c r="AT3" s="17" t="n">
-        <v>6690070397.66</v>
+        <v>48591295833.2184</v>
       </c>
       <c r="AU3" s="17"/>
       <c r="AV3" s="17"/>
@@ -9771,7 +9809,7 @@
         <f>L4</f>
       </c>
       <c r="L4" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
@@ -9784,76 +9822,76 @@
       <c r="U4" s="17"/>
       <c r="V4" s="17"/>
       <c r="W4" s="17" t="n">
-        <v>42550348684.2254</v>
+        <v>30879636954.9954</v>
       </c>
       <c r="X4" s="17" t="n">
-        <v>45917051459.0678</v>
+        <v>28990916270.223</v>
       </c>
       <c r="Y4" s="17" t="n">
-        <v>60117240828.9049</v>
+        <v>30113227132.5393</v>
       </c>
       <c r="Z4" s="17" t="n">
-        <v>70050048326.1247</v>
+        <v>35201492871.434</v>
       </c>
       <c r="AA4" s="17" t="n">
-        <v>72695496311.2301</v>
+        <v>35241294858.2151</v>
       </c>
       <c r="AB4" s="17" t="n">
-        <v>73850346664.7419</v>
+        <v>41875695732.6547</v>
       </c>
       <c r="AC4" s="17" t="n">
-        <v>88459373239.3844</v>
+        <v>49185549119.2547</v>
       </c>
       <c r="AD4" s="17" t="n">
-        <v>98609321172.6504</v>
+        <v>46279650071.9425</v>
       </c>
       <c r="AE4" s="17" t="n">
-        <v>104453708239.205</v>
+        <v>54012288564.5049</v>
       </c>
       <c r="AF4" s="17" t="n">
-        <v>106806901294.444</v>
+        <v>47688602187.0404</v>
       </c>
       <c r="AG4" s="17" t="n">
-        <v>95972949166.2754</v>
+        <v>39399834017.7615</v>
       </c>
       <c r="AH4" s="17" t="n">
-        <v>108581856624.386</v>
+        <v>38073802839.4699</v>
       </c>
       <c r="AI4" s="17" t="n">
-        <v>105059996799.245</v>
+        <v>42291049655.6658</v>
       </c>
       <c r="AJ4" s="17" t="n">
-        <v>96262274718.1229</v>
+        <v>32247405087.1344</v>
       </c>
       <c r="AK4" s="17" t="n">
-        <v>81791269260.1643</v>
+        <v>31296907203.1947</v>
       </c>
       <c r="AL4" s="17" t="n">
-        <v>81079398578.4434</v>
+        <v>28506482015.0489</v>
       </c>
       <c r="AM4" s="17" t="n">
-        <v>102613616343.317</v>
+        <v>26784143602.9829</v>
       </c>
       <c r="AN4" s="17" t="n">
-        <v>112269920603.578</v>
+        <v>29083589497.9641</v>
       </c>
       <c r="AO4" s="17" t="n">
-        <v>112777911380.805</v>
+        <v>33837415345.756</v>
       </c>
       <c r="AP4" s="17" t="n">
-        <v>123162121122.305</v>
+        <v>35835726921.9774</v>
       </c>
       <c r="AQ4" s="17" t="n">
-        <v>152100850792.38</v>
+        <v>34006207873.992</v>
       </c>
       <c r="AR4" s="17" t="n">
-        <v>113891441901.645</v>
+        <v>52156510661.3755</v>
       </c>
       <c r="AS4" s="17" t="n">
-        <v>121494516261.001</v>
+        <v>50741258836.9179</v>
       </c>
       <c r="AT4" s="17" t="n">
-        <v>84206478607.0139</v>
+        <v>20342650358.8622</v>
       </c>
       <c r="AU4" s="17"/>
       <c r="AV4" s="17"/>
@@ -9863,89 +9901,109 @@
         <f>L5</f>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
-      </c>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
+        <v>120</v>
+      </c>
+      <c r="M5" s="17" t="n">
+        <v>28304563806</v>
+      </c>
+      <c r="N5" s="17" t="n">
+        <v>41243339793</v>
+      </c>
+      <c r="O5" s="17" t="n">
+        <v>34954992394</v>
+      </c>
+      <c r="P5" s="17" t="n">
+        <v>33954732784</v>
+      </c>
+      <c r="Q5" s="17" t="n">
+        <v>32186662449</v>
+      </c>
+      <c r="R5" s="17" t="n">
+        <v>35189234715</v>
+      </c>
+      <c r="S5" s="17" t="n">
+        <v>30275743132</v>
+      </c>
+      <c r="T5" s="17" t="n">
+        <v>30248655247</v>
+      </c>
+      <c r="U5" s="17" t="n">
+        <v>30401001630</v>
+      </c>
+      <c r="V5" s="17" t="n">
+        <v>32561216997</v>
+      </c>
       <c r="W5" s="17" t="n">
-        <v>34771960308.124</v>
+        <v>12561996255.8882</v>
       </c>
       <c r="X5" s="17" t="n">
-        <v>34505522327.9598</v>
+        <v>20376379119.5963</v>
       </c>
       <c r="Y5" s="17" t="n">
-        <v>39749055232.3268</v>
+        <v>19098314585.8526</v>
       </c>
       <c r="Z5" s="17" t="n">
-        <v>57603373075.2766</v>
+        <v>25174152975.356</v>
       </c>
       <c r="AA5" s="17" t="n">
-        <v>68106048145.708</v>
+        <v>26390491632.9557</v>
       </c>
       <c r="AB5" s="17" t="n">
-        <v>77903401149.8159</v>
+        <v>34314078131.7759</v>
       </c>
       <c r="AC5" s="17" t="n">
-        <v>85116776817.2881</v>
+        <v>36302990528.4341</v>
       </c>
       <c r="AD5" s="17" t="n">
-        <v>99651450297.1159</v>
+        <v>43285772133.7758</v>
       </c>
       <c r="AE5" s="17" t="n">
-        <v>122895484993.633</v>
+        <v>52322135708.5164</v>
       </c>
       <c r="AF5" s="17" t="n">
-        <v>115392227736.743</v>
+        <v>56439625804.5077</v>
       </c>
       <c r="AG5" s="17" t="n">
-        <v>112773841229.609</v>
+        <v>56543203658.8858</v>
       </c>
       <c r="AH5" s="17" t="n">
-        <v>112002045671.281</v>
+        <v>57356213929.8226</v>
       </c>
       <c r="AI5" s="17" t="n">
-        <v>112706301394.788</v>
+        <v>52731495692.821</v>
       </c>
       <c r="AJ5" s="17" t="n">
-        <v>92009456672.6568</v>
+        <v>43802955073.4203</v>
       </c>
       <c r="AK5" s="17" t="n">
-        <v>87683491745.7842</v>
+        <v>38918110176.3577</v>
       </c>
       <c r="AL5" s="17" t="n">
-        <v>82490216234.141</v>
+        <v>38302470301.744</v>
       </c>
       <c r="AM5" s="17" t="n">
-        <v>81735528122.8488</v>
+        <v>39722090100.4181</v>
       </c>
       <c r="AN5" s="17" t="n">
-        <v>86483132759.9886</v>
+        <v>43597259051.7596</v>
       </c>
       <c r="AO5" s="17" t="n">
-        <v>102597589171.143</v>
+        <v>51940589519.8209</v>
       </c>
       <c r="AP5" s="17" t="n">
-        <v>106177490090.298</v>
+        <v>57640239173.7832</v>
       </c>
       <c r="AQ5" s="17" t="n">
-        <v>109077960637.558</v>
+        <v>60573407783.3784</v>
       </c>
       <c r="AR5" s="17" t="n">
-        <v>118928831895.369</v>
+        <v>55378049713.2556</v>
       </c>
       <c r="AS5" s="17" t="n">
-        <v>120230112251.207</v>
+        <v>39014152184.0631</v>
       </c>
       <c r="AT5" s="17" t="n">
-        <v>53200181316.3679</v>
+        <v>17449481642.3526</v>
       </c>
       <c r="AU5" s="17"/>
       <c r="AV5" s="17"/>
@@ -9955,89 +10013,109 @@
         <f>L6</f>
       </c>
       <c r="L6" t="s">
-        <v>75</v>
-      </c>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
+        <v>121</v>
+      </c>
+      <c r="M6" s="17" t="n">
+        <v>13434401635</v>
+      </c>
+      <c r="N6" s="17" t="n">
+        <v>19369182588</v>
+      </c>
+      <c r="O6" s="17" t="n">
+        <v>17619229930</v>
+      </c>
+      <c r="P6" s="17" t="n">
+        <v>17645725767</v>
+      </c>
+      <c r="Q6" s="17" t="n">
+        <v>18075942350</v>
+      </c>
+      <c r="R6" s="17" t="n">
+        <v>19041220687</v>
+      </c>
+      <c r="S6" s="17" t="n">
+        <v>19347390330</v>
+      </c>
+      <c r="T6" s="17" t="n">
+        <v>17934428738</v>
+      </c>
+      <c r="U6" s="17" t="n">
+        <v>17288342573</v>
+      </c>
+      <c r="V6" s="17" t="n">
+        <v>19013150234</v>
+      </c>
       <c r="W6" s="17" t="n">
-        <v>27694622520.5188</v>
+        <v>20597636512.8267</v>
       </c>
       <c r="X6" s="17" t="n">
-        <v>35321226116.5173</v>
+        <v>21626410588.6674</v>
       </c>
       <c r="Y6" s="17" t="n">
-        <v>35479100087.3137</v>
+        <v>25988398540.367</v>
       </c>
       <c r="Z6" s="17" t="n">
-        <v>42482595240.0615</v>
+        <v>32503996698.2746</v>
       </c>
       <c r="AA6" s="17" t="n">
-        <v>42241259511.0147</v>
+        <v>34598872059.718</v>
       </c>
       <c r="AB6" s="17" t="n">
-        <v>51515737177.5681</v>
+        <v>43335587798.781</v>
       </c>
       <c r="AC6" s="17" t="n">
-        <v>52686944659.3421</v>
+        <v>45538329543.2904</v>
       </c>
       <c r="AD6" s="17" t="n">
-        <v>59156529141.1112</v>
+        <v>49801473286.0533</v>
       </c>
       <c r="AE6" s="17" t="n">
-        <v>68785814990.9706</v>
+        <v>54964300849.7418</v>
       </c>
       <c r="AF6" s="17" t="n">
-        <v>73316171682.0021</v>
+        <v>59264807867.4139</v>
       </c>
       <c r="AG6" s="17" t="n">
-        <v>67896388549.7625</v>
+        <v>58277206632.2153</v>
       </c>
       <c r="AH6" s="17" t="n">
-        <v>67582752969.7274</v>
+        <v>56309134741.6547</v>
       </c>
       <c r="AI6" s="17" t="n">
-        <v>61772665022.7063</v>
+        <v>56266882362.0404</v>
       </c>
       <c r="AJ6" s="17" t="n">
-        <v>51521870959.8257</v>
+        <v>47418032358.0387</v>
       </c>
       <c r="AK6" s="17" t="n">
-        <v>47080827373.4356</v>
+        <v>53482722030.406</v>
       </c>
       <c r="AL6" s="17" t="n">
-        <v>46743111826.9035</v>
+        <v>52427120840.6328</v>
       </c>
       <c r="AM6" s="17" t="n">
-        <v>46913522999.3205</v>
+        <v>56461734363.4189</v>
       </c>
       <c r="AN6" s="17" t="n">
-        <v>52279423408.0778</v>
+        <v>59242049642.4755</v>
       </c>
       <c r="AO6" s="17" t="n">
-        <v>61590797753.2091</v>
+        <v>70266476117.5831</v>
       </c>
       <c r="AP6" s="17" t="n">
-        <v>69492927376.2443</v>
+        <v>73354518952.1936</v>
       </c>
       <c r="AQ6" s="17" t="n">
-        <v>74295272089.9873</v>
+        <v>75798633027.2083</v>
       </c>
       <c r="AR6" s="17" t="n">
-        <v>68774128716.5469</v>
+        <v>74294234511.4505</v>
       </c>
       <c r="AS6" s="17" t="n">
-        <v>76336782621.0928</v>
+        <v>81672645182.5426</v>
       </c>
       <c r="AT6" s="17" t="n">
-        <v>38965329412.2745</v>
+        <v>32808828005.7754</v>
       </c>
       <c r="AU6" s="17"/>
       <c r="AV6" s="17"/>
@@ -10046,90 +10124,108 @@
       <c r="A7" t="str">
         <f>L7</f>
       </c>
-      <c r="L7" t="s">
-        <v>76</v>
-      </c>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
+      <c r="L7"/>
+      <c r="M7" s="17" t="n">
+        <v>12657156369</v>
+      </c>
+      <c r="N7" s="17" t="n">
+        <v>5733027167</v>
+      </c>
+      <c r="O7" s="17" t="n">
+        <v>5986408785</v>
+      </c>
+      <c r="P7" s="17" t="n">
+        <v>5597104734</v>
+      </c>
+      <c r="Q7" s="17" t="n">
+        <v>4027272167</v>
+      </c>
+      <c r="R7" s="17" t="n">
+        <v>5034572112</v>
+      </c>
+      <c r="S7" s="17" t="n">
+        <v>5788506977</v>
+      </c>
+      <c r="T7" s="17" t="n">
+        <v>4097788635</v>
+      </c>
+      <c r="U7" s="17" t="n">
+        <v>3857386043</v>
+      </c>
+      <c r="V7" s="17" t="n">
+        <v>1451694736</v>
+      </c>
       <c r="W7" s="17" t="n">
-        <v>20595976226.5461</v>
+        <v>896708530</v>
       </c>
       <c r="X7" s="17" t="n">
-        <v>21693661545.1428</v>
+        <v>1332582608.1</v>
       </c>
       <c r="Y7" s="17" t="n">
-        <v>26070453425.0865</v>
+        <v>1573806973.21</v>
       </c>
       <c r="Z7" s="17" t="n">
-        <v>32499585092.2557</v>
+        <v>709786293.2455</v>
       </c>
       <c r="AA7" s="17" t="n">
-        <v>34600451673.0244</v>
+        <v>1836868750.7889</v>
       </c>
       <c r="AB7" s="17" t="n">
-        <v>43285206666.0946</v>
+        <v>7075231414.8205</v>
       </c>
       <c r="AC7" s="17" t="n">
-        <v>45470779321.3648</v>
+        <v>7092868367.2559</v>
       </c>
       <c r="AD7" s="17" t="n">
-        <v>49679874369.1679</v>
+        <v>6876854944.5664</v>
       </c>
       <c r="AE7" s="17" t="n">
-        <v>54779583262.9025</v>
+        <v>9487139041.4969</v>
       </c>
       <c r="AF7" s="17" t="n">
-        <v>59199358639.9791</v>
+        <v>5929525859.4555</v>
       </c>
       <c r="AG7" s="17" t="n">
-        <v>57976561655.5411</v>
+        <v>4811342087.0799</v>
       </c>
       <c r="AH7" s="17" t="n">
-        <v>56315376883.2436</v>
+        <v>3973190873.3447</v>
       </c>
       <c r="AI7" s="17" t="n">
-        <v>56309344122.8112</v>
+        <v>2739247979.5661</v>
       </c>
       <c r="AJ7" s="17" t="n">
-        <v>47138961458.9347</v>
+        <v>1325283035.7596</v>
       </c>
       <c r="AK7" s="17" t="n">
-        <v>53465462041.4739</v>
+        <v>518098070.4508</v>
       </c>
       <c r="AL7" s="17" t="n">
-        <v>52495096053.1374</v>
+        <v>899913864.8209</v>
       </c>
       <c r="AM7" s="17" t="n">
-        <v>56507462593.3487</v>
+        <v>872368734.0903</v>
       </c>
       <c r="AN7" s="17" t="n">
-        <v>59161370863.6707</v>
+        <v>501162415.0376</v>
       </c>
       <c r="AO7" s="17" t="n">
-        <v>70182061058.5694</v>
+        <v>1009255457.355</v>
       </c>
       <c r="AP7" s="17" t="n">
-        <v>73210905668.2453</v>
+        <v>1101647733.6542</v>
       </c>
       <c r="AQ7" s="17" t="n">
-        <v>75720333560.9938</v>
+        <v>760098902.1179</v>
       </c>
       <c r="AR7" s="17" t="n">
-        <v>74082748315.2369</v>
+        <v>742455295.4319</v>
       </c>
       <c r="AS7" s="17" t="n">
-        <v>81277666893.7311</v>
+        <v>21741977737.9626</v>
       </c>
       <c r="AT7" s="17" t="n">
-        <v>32703442132.7152</v>
+        <v>13529156156.6481</v>
       </c>
       <c r="AU7" s="17"/>
       <c r="AV7" s="17"/>
@@ -10280,7 +10376,7 @@
         <f>"Share "&amp;AU11</f>
       </c>
       <c r="L11" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="M11" t="s">
         <v>2</v>
@@ -10417,109 +10513,109 @@
         <f>AU12/Sum(AU11:AU$17)</f>
       </c>
       <c r="L12" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="M12" s="17" t="n">
-        <v>248917998790.874</v>
+        <v>62034626909.3846</v>
       </c>
       <c r="N12" s="17" t="n">
-        <v>271885202720.129</v>
+        <v>63790986396.3299</v>
       </c>
       <c r="O12" s="17" t="n">
-        <v>240412560734.939</v>
+        <v>57962930142.4092</v>
       </c>
       <c r="P12" s="17" t="n">
-        <v>231031479111.987</v>
+        <v>57764049648.3606</v>
       </c>
       <c r="Q12" s="17" t="n">
-        <v>218250472650.085</v>
+        <v>59139272094.0376</v>
       </c>
       <c r="R12" s="17" t="n">
-        <v>212677633977.603</v>
+        <v>52518645921.6326</v>
       </c>
       <c r="S12" s="17" t="n">
-        <v>212071611328.834</v>
+        <v>58802303678.2549</v>
       </c>
       <c r="T12" s="17" t="n">
-        <v>204034317412.979</v>
+        <v>60916461069.1388</v>
       </c>
       <c r="U12" s="17" t="n">
-        <v>203216983313.484</v>
+        <v>64785480372.1977</v>
       </c>
       <c r="V12" s="17" t="n">
-        <v>209688280565.4</v>
+        <v>67756525136.607</v>
       </c>
       <c r="W12" s="17" t="n">
-        <v>8803225999.57178</v>
+        <v>72127083679.6732</v>
       </c>
       <c r="X12" s="17" t="n">
-        <v>9013568711.16042</v>
+        <v>75502662109.3571</v>
       </c>
       <c r="Y12" s="17" t="n">
-        <v>10645149198.6628</v>
+        <v>97358376194.8559</v>
       </c>
       <c r="Z12" s="17" t="n">
-        <v>11061125099.6622</v>
+        <v>111165887815.399</v>
       </c>
       <c r="AA12" s="17" t="n">
-        <v>14656727633.9458</v>
+        <v>112802246479.287</v>
       </c>
       <c r="AB12" s="17" t="n">
-        <v>23003084448.4049</v>
+        <v>111082745340.634</v>
       </c>
       <c r="AC12" s="17" t="n">
-        <v>19916141880.4905</v>
+        <v>128790145385.143</v>
       </c>
       <c r="AD12" s="17" t="n">
-        <v>11592699836.7935</v>
+        <v>140306292668.808</v>
       </c>
       <c r="AE12" s="17" t="n">
-        <v>14666230120.2202</v>
+        <v>146005026305.648</v>
       </c>
       <c r="AF12" s="17" t="n">
-        <v>9288059234.71007</v>
+        <v>147243938932.912</v>
       </c>
       <c r="AG12" s="17" t="n">
-        <v>6947824064.64581</v>
+        <v>131951257583.197</v>
       </c>
       <c r="AH12" s="17" t="n">
-        <v>5778868031.6165</v>
+        <v>146073411885.194</v>
       </c>
       <c r="AI12" s="17" t="n">
-        <v>4040591181.29977</v>
+        <v>138268407453.454</v>
       </c>
       <c r="AJ12" s="17" t="n">
-        <v>2071229860.17048</v>
+        <v>124858000930.857</v>
       </c>
       <c r="AK12" s="17" t="n">
-        <v>860221059.722463</v>
+        <v>103697125569.675</v>
       </c>
       <c r="AL12" s="17" t="n">
-        <v>709321315.610776</v>
+        <v>102717992754.661</v>
       </c>
       <c r="AM12" s="17" t="n">
-        <v>951585170.123587</v>
+        <v>128019486053.215</v>
       </c>
       <c r="AN12" s="17" t="n">
-        <v>668354912.953427</v>
+        <v>137693904522.467</v>
       </c>
       <c r="AO12" s="17" t="n">
-        <v>287456108.23233</v>
+        <v>135036560825.555</v>
       </c>
       <c r="AP12" s="17" t="n">
-        <v>446161913.029099</v>
+        <v>144548325327.103</v>
       </c>
       <c r="AQ12" s="17" t="n">
-        <v>913218644.332686</v>
+        <v>177324883403.893</v>
       </c>
       <c r="AR12" s="17" t="n">
-        <v>861170613.266858</v>
+        <v>127957170157.387</v>
       </c>
       <c r="AS12" s="17" t="n">
-        <v>298334574.177027</v>
+        <v>127899803920.975</v>
       </c>
       <c r="AT12" s="17" t="n">
-        <v>235044504.6941</v>
+        <v>84663692097.9125</v>
       </c>
       <c r="AU12" s="17"/>
       <c r="AV12" s="17"/>
@@ -10556,89 +10652,109 @@
         <f>AU13/Sum(AU11:AU$17)</f>
       </c>
       <c r="L13" t="s">
-        <v>72</v>
-      </c>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
+        <v>118</v>
+      </c>
+      <c r="M13" s="17" t="n">
+        <v>74376855686.8564</v>
+      </c>
+      <c r="N13" s="17" t="n">
+        <v>75609327836.971</v>
+      </c>
+      <c r="O13" s="17" t="n">
+        <v>68365745489.2242</v>
+      </c>
+      <c r="P13" s="17" t="n">
+        <v>64393165484.7675</v>
+      </c>
+      <c r="Q13" s="17" t="n">
+        <v>57979424506.3217</v>
+      </c>
+      <c r="R13" s="17" t="n">
+        <v>52052563756.1149</v>
+      </c>
+      <c r="S13" s="17" t="n">
+        <v>54059877517.4901</v>
+      </c>
+      <c r="T13" s="17" t="n">
+        <v>51146014246.0563</v>
+      </c>
+      <c r="U13" s="17" t="n">
+        <v>48874011250.5904</v>
+      </c>
+      <c r="V13" s="17" t="n">
+        <v>50930892486.7369</v>
+      </c>
       <c r="W13" s="17" t="n">
-        <v>2234650322.45166</v>
+        <v>40919231964.1599</v>
       </c>
       <c r="X13" s="17" t="n">
-        <v>1747659439.34137</v>
+        <v>42131241533.5398</v>
       </c>
       <c r="Y13" s="17" t="n">
-        <v>2920346815.88986</v>
+        <v>52985798997.8947</v>
       </c>
       <c r="Z13" s="17" t="n">
-        <v>3046110753.17119</v>
+        <v>75837390269.9635</v>
       </c>
       <c r="AA13" s="17" t="n">
-        <v>4099832286.3754</v>
+        <v>91046302747.067</v>
       </c>
       <c r="AB13" s="17" t="n">
-        <v>5698715366.68095</v>
+        <v>97795480451.7547</v>
       </c>
       <c r="AC13" s="17" t="n">
-        <v>14171085948.1784</v>
+        <v>99675328640.5298</v>
       </c>
       <c r="AD13" s="17" t="n">
-        <v>18218750236.4228</v>
+        <v>117242255084.356</v>
       </c>
       <c r="AE13" s="17" t="n">
-        <v>22884765812.5746</v>
+        <v>141384761441.279</v>
       </c>
       <c r="AF13" s="17" t="n">
-        <v>27563215802.389</v>
+        <v>125052072428.137</v>
       </c>
       <c r="AG13" s="17" t="n">
-        <v>30871182770.6769</v>
+        <v>145271725273.345</v>
       </c>
       <c r="AH13" s="17" t="n">
-        <v>26358426446.6969</v>
+        <v>137953263016.154</v>
       </c>
       <c r="AI13" s="17" t="n">
-        <v>24515090740.6204</v>
+        <v>128787082296.679</v>
       </c>
       <c r="AJ13" s="17" t="n">
-        <v>23221304089.216</v>
+        <v>111268524686.888</v>
       </c>
       <c r="AK13" s="17" t="n">
-        <v>15907097463.3666</v>
+        <v>97604218690.3479</v>
       </c>
       <c r="AL13" s="17" t="n">
-        <v>13525445908.0466</v>
+        <v>90084356709.3377</v>
       </c>
       <c r="AM13" s="17" t="n">
-        <v>12195896993.0738</v>
+        <v>88817296636.4034</v>
       </c>
       <c r="AN13" s="17" t="n">
-        <v>12053779476.3372</v>
+        <v>93544536959.2909</v>
       </c>
       <c r="AO13" s="17" t="n">
-        <v>13812884445.0043</v>
+        <v>105922564652.665</v>
       </c>
       <c r="AP13" s="17" t="n">
-        <v>13403479705.0021</v>
+        <v>108764796830.682</v>
       </c>
       <c r="AQ13" s="17" t="n">
-        <v>12289232311.3958</v>
+        <v>113885383957.206</v>
       </c>
       <c r="AR13" s="17" t="n">
-        <v>11879242580.524</v>
+        <v>101561084611.461</v>
       </c>
       <c r="AS13" s="17" t="n">
-        <v>15368637272.8972</v>
+        <v>103551009104.182</v>
       </c>
       <c r="AT13" s="17" t="n">
-        <v>6690070397.66</v>
+        <v>48591295833.2184</v>
       </c>
       <c r="AU13" s="17"/>
       <c r="AV13" s="17"/>
@@ -10675,7 +10791,7 @@
         <f>AU14/Sum(AU11:AU$17)</f>
       </c>
       <c r="L14" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="M14" s="17"/>
       <c r="N14" s="17"/>
@@ -10688,76 +10804,76 @@
       <c r="U14" s="17"/>
       <c r="V14" s="17"/>
       <c r="W14" s="17" t="n">
-        <v>71534514001.723</v>
+        <v>51914023984.1129</v>
       </c>
       <c r="X14" s="17" t="n">
-        <v>75367681436.6406</v>
+        <v>47585332084.2751</v>
       </c>
       <c r="Y14" s="17" t="n">
-        <v>97147360210.0785</v>
+        <v>48661922653.0792</v>
       </c>
       <c r="Z14" s="17" t="n">
-        <v>111066494268.953</v>
+        <v>55813043669.3161</v>
       </c>
       <c r="AA14" s="17" t="n">
-        <v>112513493534.888</v>
+        <v>54544248301.3675</v>
       </c>
       <c r="AB14" s="17" t="n">
-        <v>110925456161.399</v>
+        <v>62898562579.644</v>
       </c>
       <c r="AC14" s="17" t="n">
-        <v>128688305172.3</v>
+        <v>71553807395.8195</v>
       </c>
       <c r="AD14" s="17" t="n">
-        <v>139610761290.037</v>
+        <v>65522580441.1321</v>
       </c>
       <c r="AE14" s="17" t="n">
-        <v>144877447558.223</v>
+        <v>74915123990.4629</v>
       </c>
       <c r="AF14" s="17" t="n">
-        <v>146641754960.537</v>
+        <v>65474611018.2892</v>
       </c>
       <c r="AG14" s="17" t="n">
-        <v>130635792823.743</v>
+        <v>53629992604.6535</v>
       </c>
       <c r="AH14" s="17" t="n">
-        <v>144890547077.183</v>
+        <v>50805302968.8263</v>
       </c>
       <c r="AI14" s="17" t="n">
-        <v>137692439491.068</v>
+        <v>55426974806.1554</v>
       </c>
       <c r="AJ14" s="17" t="n">
-        <v>123913696834.575</v>
+        <v>41510500238.7463</v>
       </c>
       <c r="AK14" s="17" t="n">
-        <v>103399546797.634</v>
+        <v>39565176702.2284</v>
       </c>
       <c r="AL14" s="17" t="n">
-        <v>101448976878.908</v>
+        <v>35668165841.7306</v>
       </c>
       <c r="AM14" s="17" t="n">
-        <v>127374864270.755</v>
+        <v>33247309446.9647</v>
       </c>
       <c r="AN14" s="17" t="n">
-        <v>137047892107.115</v>
+        <v>35502337706.9848</v>
       </c>
       <c r="AO14" s="17" t="n">
-        <v>134678141631.357</v>
+        <v>40408269319.5754</v>
       </c>
       <c r="AP14" s="17" t="n">
-        <v>144408799650.168</v>
+        <v>42017742648.7726</v>
       </c>
       <c r="AQ14" s="17" t="n">
-        <v>176040114283.422</v>
+        <v>39358469655.472</v>
       </c>
       <c r="AR14" s="17" t="n">
-        <v>127431056946.961</v>
+        <v>58356968436.524</v>
       </c>
       <c r="AS14" s="17" t="n">
-        <v>127052476656.93</v>
+        <v>53062498640.4436</v>
       </c>
       <c r="AT14" s="17" t="n">
-        <v>84206478607.0139</v>
+        <v>20342650358.8622</v>
       </c>
       <c r="AU14" s="17"/>
       <c r="AV14" s="17"/>
@@ -10794,89 +10910,109 @@
         <f>AU15/Sum(AU11:AU$17)</f>
       </c>
       <c r="L15" t="s">
-        <v>74</v>
-      </c>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
+        <v>120</v>
+      </c>
+      <c r="M15" s="17" t="n">
+        <v>58541818060.9403</v>
+      </c>
+      <c r="N15" s="17" t="n">
+        <v>82358489914.1844</v>
+      </c>
+      <c r="O15" s="17" t="n">
+        <v>68096966520.7576</v>
+      </c>
+      <c r="P15" s="17" t="n">
+        <v>64632063468.1008</v>
+      </c>
+      <c r="Q15" s="17" t="n">
+        <v>59957666520.7577</v>
+      </c>
+      <c r="R15" s="17" t="n">
+        <v>64189328824.463</v>
+      </c>
+      <c r="S15" s="17" t="n">
+        <v>54205924949.7956</v>
+      </c>
+      <c r="T15" s="17" t="n">
+        <v>53213047231.7927</v>
+      </c>
+      <c r="U15" s="17" t="n">
+        <v>52818819697.6635</v>
+      </c>
+      <c r="V15" s="17" t="n">
+        <v>55880047192.9175</v>
+      </c>
       <c r="W15" s="17" t="n">
-        <v>58457694436.027</v>
+        <v>21118893847.9738</v>
       </c>
       <c r="X15" s="17" t="n">
-        <v>56636938391.7615</v>
+        <v>33445537148.3718</v>
       </c>
       <c r="Y15" s="17" t="n">
-        <v>64233084110.6817</v>
+        <v>30862208925.3496</v>
       </c>
       <c r="Z15" s="17" t="n">
-        <v>91331909947.47</v>
+        <v>39914389553.9664</v>
       </c>
       <c r="AA15" s="17" t="n">
-        <v>105410235799.507</v>
+        <v>40845534598.3846</v>
       </c>
       <c r="AB15" s="17" t="n">
-        <v>117013266685.09</v>
+        <v>51540784050.8128</v>
       </c>
       <c r="AC15" s="17" t="n">
-        <v>123825586246.286</v>
+        <v>52812609367.5539</v>
       </c>
       <c r="AD15" s="17" t="n">
-        <v>141086204368.835</v>
+        <v>61283857639.0038</v>
       </c>
       <c r="AE15" s="17" t="n">
-        <v>170456219146.701</v>
+        <v>72570879483.6226</v>
       </c>
       <c r="AF15" s="17" t="n">
-        <v>158429076951.437</v>
+        <v>77489428838.2428</v>
       </c>
       <c r="AG15" s="17" t="n">
-        <v>153504714472.041</v>
+        <v>76965085505.2447</v>
       </c>
       <c r="AH15" s="17" t="n">
-        <v>149454413247.074</v>
+        <v>76535560110.3393</v>
       </c>
       <c r="AI15" s="17" t="n">
-        <v>147713745077.665</v>
+        <v>69110303647.0819</v>
       </c>
       <c r="AJ15" s="17" t="n">
-        <v>118439253107.563</v>
+        <v>56385392006.5785</v>
       </c>
       <c r="AK15" s="17" t="n">
-        <v>110848424167.491</v>
+        <v>49199810577.0402</v>
       </c>
       <c r="AL15" s="17" t="n">
-        <v>103214234271.57</v>
+        <v>47925200385.9804</v>
       </c>
       <c r="AM15" s="17" t="n">
-        <v>101458774885.332</v>
+        <v>49307255853.4869</v>
       </c>
       <c r="AN15" s="17" t="n">
-        <v>105569960180.398</v>
+        <v>53219174134.7063</v>
       </c>
       <c r="AO15" s="17" t="n">
-        <v>122520912794.443</v>
+        <v>62026880850.333</v>
       </c>
       <c r="AP15" s="17" t="n">
-        <v>124494152537.218</v>
+        <v>67583747947.7055</v>
       </c>
       <c r="AQ15" s="17" t="n">
-        <v>126245820167.367</v>
+        <v>70107100474.2631</v>
       </c>
       <c r="AR15" s="17" t="n">
-        <v>133067300728.198</v>
+        <v>61961489720.3226</v>
       </c>
       <c r="AS15" s="17" t="n">
-        <v>125730230469.339</v>
+        <v>40798916792.3185</v>
       </c>
       <c r="AT15" s="17" t="n">
-        <v>53200181316.3679</v>
+        <v>17449481642.3526</v>
       </c>
       <c r="AU15" s="17"/>
       <c r="AV15" s="17"/>
@@ -10913,89 +11049,109 @@
         <f>AU16/Sum(AU11:AU$17)</f>
       </c>
       <c r="L16" t="s">
-        <v>75</v>
-      </c>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
+        <v>121</v>
+      </c>
+      <c r="M16" s="17" t="n">
+        <v>27786130239.0766</v>
+      </c>
+      <c r="N16" s="17" t="n">
+        <v>38678163233.7772</v>
+      </c>
+      <c r="O16" s="17" t="n">
+        <v>34324599391.722</v>
+      </c>
+      <c r="P16" s="17" t="n">
+        <v>33588238640.2068</v>
+      </c>
+      <c r="Q16" s="17" t="n">
+        <v>33672062929.3893</v>
+      </c>
+      <c r="R16" s="17" t="n">
+        <v>34733440093.1433</v>
+      </c>
+      <c r="S16" s="17" t="n">
+        <v>34639717467.2126</v>
+      </c>
+      <c r="T16" s="17" t="n">
+        <v>31550017536.8974</v>
+      </c>
+      <c r="U16" s="17" t="n">
+        <v>30036834323.6961</v>
+      </c>
+      <c r="V16" s="17" t="n">
+        <v>32629484716.7365</v>
+      </c>
       <c r="W16" s="17" t="n">
-        <v>46559462465.7199</v>
+        <v>34628198430.6147</v>
       </c>
       <c r="X16" s="17" t="n">
-        <v>57975824520.7514</v>
+        <v>35497323370.5492</v>
       </c>
       <c r="Y16" s="17" t="n">
-        <v>57332985822.1718</v>
+        <v>41996343802.0963</v>
       </c>
       <c r="Z16" s="17" t="n">
-        <v>67357454184.6651</v>
+        <v>51536080977.4146</v>
       </c>
       <c r="AA16" s="17" t="n">
-        <v>65378351068</v>
+        <v>53549946906.4653</v>
       </c>
       <c r="AB16" s="17" t="n">
-        <v>77378196636.6948</v>
+        <v>65091364654.3129</v>
       </c>
       <c r="AC16" s="17" t="n">
-        <v>76647542986.4204</v>
+        <v>66247930939.3818</v>
       </c>
       <c r="AD16" s="17" t="n">
-        <v>83753624611.2749</v>
+        <v>70508766475.1082</v>
       </c>
       <c r="AE16" s="17" t="n">
-        <v>95406026957.7255</v>
+        <v>76235566435.774</v>
       </c>
       <c r="AF16" s="17" t="n">
-        <v>100660275245.679</v>
+        <v>81368294817.5627</v>
       </c>
       <c r="AG16" s="17" t="n">
-        <v>92418734915.6078</v>
+        <v>79325363637.2335</v>
       </c>
       <c r="AH16" s="17" t="n">
-        <v>90181751861.542</v>
+        <v>75138348079.497</v>
       </c>
       <c r="AI16" s="17" t="n">
-        <v>80959729678.0246</v>
+        <v>73743808595.2994</v>
       </c>
       <c r="AJ16" s="17" t="n">
-        <v>66321573193.2417</v>
+        <v>61038903384.6493</v>
       </c>
       <c r="AK16" s="17" t="n">
-        <v>59519020273.2539</v>
+        <v>67612219121.5487</v>
       </c>
       <c r="AL16" s="17" t="n">
-        <v>58486384385.1513</v>
+        <v>65598387053.1957</v>
       </c>
       <c r="AM16" s="17" t="n">
-        <v>58234022320.2804</v>
+        <v>70086271269.9855</v>
       </c>
       <c r="AN16" s="17" t="n">
-        <v>63817492166.4999</v>
+        <v>72316770012.4619</v>
       </c>
       <c r="AO16" s="17" t="n">
-        <v>73551053406.0729</v>
+        <v>83911453108.4576</v>
       </c>
       <c r="AP16" s="17" t="n">
-        <v>81481141564.7365</v>
+        <v>86008895708.1413</v>
       </c>
       <c r="AQ16" s="17" t="n">
-        <v>85988658980.5621</v>
+        <v>87728634988.71</v>
       </c>
       <c r="AR16" s="17" t="n">
-        <v>76950118170.6376</v>
+        <v>83126463857.007</v>
       </c>
       <c r="AS16" s="17" t="n">
-        <v>79828930477.7842</v>
+        <v>85408890581.307</v>
       </c>
       <c r="AT16" s="17" t="n">
-        <v>38965329412.2745</v>
+        <v>32808828005.7754</v>
       </c>
       <c r="AU16" s="17"/>
       <c r="AV16" s="17"/>
@@ -11031,90 +11187,108 @@
       <c r="J17" s="1" t="str">
         <f>AU17/Sum(AU11:AU$17)</f>
       </c>
-      <c r="L17" t="s">
-        <v>76</v>
-      </c>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
+      <c r="L17"/>
+      <c r="M17" s="17" t="n">
+        <v>26178567894.6163</v>
+      </c>
+      <c r="N17" s="17" t="n">
+        <v>11448235338.8668</v>
+      </c>
+      <c r="O17" s="17" t="n">
+        <v>11662319190.8258</v>
+      </c>
+      <c r="P17" s="17" t="n">
+        <v>10653961870.5513</v>
+      </c>
+      <c r="Q17" s="17" t="n">
+        <v>7502046599.57892</v>
+      </c>
+      <c r="R17" s="17" t="n">
+        <v>9183655382.24917</v>
+      </c>
+      <c r="S17" s="17" t="n">
+        <v>10363787716.0805</v>
+      </c>
+      <c r="T17" s="17" t="n">
+        <v>7208777329.09415</v>
+      </c>
+      <c r="U17" s="17" t="n">
+        <v>6701837669.3367</v>
+      </c>
+      <c r="V17" s="17" t="n">
+        <v>2491331032.40164</v>
+      </c>
       <c r="W17" s="17" t="n">
-        <v>34625407201.4977</v>
+        <v>1507522520.45657</v>
       </c>
       <c r="X17" s="17" t="n">
-        <v>35607708260.3208</v>
+        <v>2187284642.71751</v>
       </c>
       <c r="Y17" s="17" t="n">
-        <v>42128941628.1597</v>
+        <v>2543217067.50809</v>
       </c>
       <c r="Z17" s="17" t="n">
-        <v>51529086241.1321</v>
+        <v>1125387878.44821</v>
       </c>
       <c r="AA17" s="17" t="n">
-        <v>53552391732.0811</v>
+        <v>2842989329.51089</v>
       </c>
       <c r="AB17" s="17" t="n">
-        <v>65015690667.9667</v>
+        <v>10627211754.3237</v>
       </c>
       <c r="AC17" s="17" t="n">
-        <v>66149660702.376</v>
+        <v>10318513183.6995</v>
       </c>
       <c r="AD17" s="17" t="n">
-        <v>70336607117.7925</v>
+        <v>9736229219.25512</v>
       </c>
       <c r="AE17" s="17" t="n">
-        <v>75979362870.0844</v>
+        <v>13158675858.7299</v>
       </c>
       <c r="AF17" s="17" t="n">
-        <v>81278435553.2686</v>
+        <v>8141010249.1165</v>
       </c>
       <c r="AG17" s="17" t="n">
-        <v>78916133794.5799</v>
+        <v>6549069227.86101</v>
       </c>
       <c r="AH17" s="17" t="n">
-        <v>75146677531.0082</v>
+        <v>5301786294.48572</v>
       </c>
       <c r="AI17" s="17" t="n">
-        <v>73799459305.4055</v>
+        <v>3590079460.95946</v>
       </c>
       <c r="AJ17" s="17" t="n">
-        <v>60679669127.115</v>
+        <v>1705971740.16503</v>
       </c>
       <c r="AK17" s="17" t="n">
-        <v>67590399249.459</v>
+        <v>654973399.55614</v>
       </c>
       <c r="AL17" s="17" t="n">
-        <v>65683439679.1726</v>
+        <v>1125999236.13021</v>
       </c>
       <c r="AM17" s="17" t="n">
-        <v>70143033981.2924</v>
+        <v>1082876260.07676</v>
       </c>
       <c r="AN17" s="17" t="n">
-        <v>72218285427.156</v>
+        <v>611768960.153919</v>
       </c>
       <c r="AO17" s="17" t="n">
-        <v>83810645573.2366</v>
+        <v>1205241769.09887</v>
       </c>
       <c r="AP17" s="17" t="n">
-        <v>85840507718.7188</v>
+        <v>1291692814.35443</v>
       </c>
       <c r="AQ17" s="17" t="n">
-        <v>87638011912.5804</v>
+        <v>879731420.951674</v>
       </c>
       <c r="AR17" s="17" t="n">
-        <v>82889835809.6032</v>
+        <v>830719687.564062</v>
       </c>
       <c r="AS17" s="17" t="n">
-        <v>84995843380.7946</v>
+        <v>22736599181.9227</v>
       </c>
       <c r="AT17" s="17" t="n">
-        <v>32703442132.7152</v>
+        <v>13529156156.6481</v>
       </c>
       <c r="AU17" s="17"/>
       <c r="AV17" s="17"/>

--- a/Output/AcqTrends/NPS2024/DoD_2024_NPS.xlsx
+++ b/Output/AcqTrends/NPS2024/DoD_2024_NPS.xlsx
@@ -380,7 +380,7 @@
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="170" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="213" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="219" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="220" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="178" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="183" formatCode="0.00,,,&quot;B&quot;"/>
@@ -389,10 +389,10 @@
     <numFmt numFmtId="204" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="209" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="215" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="193" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="222" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="189" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="192" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="220" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="223" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -434,7 +434,7 @@
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="213" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="219" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="220" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -443,10 +443,10 @@
     <xf numFmtId="204" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="209" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="215" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="193" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="222" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="189" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="192" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="220" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="223" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2332,71 +2332,71 @@
       <c r="N2" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="14"/>
-      <c r="AF2" s="14"/>
-      <c r="AG2" s="14"/>
-      <c r="AH2" s="14"/>
-      <c r="AI2" s="14"/>
-      <c r="AJ2" s="14"/>
-      <c r="AK2" s="14" t="n">
-        <v>27766409244.5725</v>
-      </c>
-      <c r="AL2" s="14" t="n">
-        <v>20117589432.5252</v>
-      </c>
-      <c r="AM2" s="14" t="n">
-        <v>15814444285.1675</v>
-      </c>
-      <c r="AN2" s="14" t="n">
-        <v>24205301305.0384</v>
-      </c>
-      <c r="AO2" s="14" t="n">
-        <v>33686791345.6108</v>
-      </c>
-      <c r="AP2" s="14" t="n">
-        <v>31035471218.9151</v>
-      </c>
-      <c r="AQ2" s="14" t="n">
-        <v>34812921569.4345</v>
-      </c>
-      <c r="AR2" s="14" t="n">
-        <v>38372888881.5383</v>
-      </c>
-      <c r="AS2" s="14" t="n">
-        <v>50101609453.4146</v>
-      </c>
-      <c r="AT2" s="14" t="n">
-        <v>24784144858.8701</v>
-      </c>
-      <c r="AU2" s="14" t="n">
-        <v>38727720245.0645</v>
-      </c>
-      <c r="AV2" s="14" t="n">
-        <v>65793606575.0316</v>
-      </c>
-      <c r="AW2" s="14"/>
-      <c r="AX2" s="14"/>
-      <c r="AY2" s="14"/>
-      <c r="AZ2" s="14"/>
-      <c r="BA2" s="14"/>
-      <c r="BB2" s="14"/>
-      <c r="BC2" s="14"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="17"/>
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="17" t="n">
+        <v>27766499707.7925</v>
+      </c>
+      <c r="AL2" s="17" t="n">
+        <v>20370470402.3352</v>
+      </c>
+      <c r="AM2" s="17" t="n">
+        <v>15761273120.7975</v>
+      </c>
+      <c r="AN2" s="17" t="n">
+        <v>23354753347.4642</v>
+      </c>
+      <c r="AO2" s="17" t="n">
+        <v>33579323851.3433</v>
+      </c>
+      <c r="AP2" s="17" t="n">
+        <v>31744209582.4775</v>
+      </c>
+      <c r="AQ2" s="17" t="n">
+        <v>34798072386.1799</v>
+      </c>
+      <c r="AR2" s="17" t="n">
+        <v>38381428744.3879</v>
+      </c>
+      <c r="AS2" s="17" t="n">
+        <v>50194113808.9869</v>
+      </c>
+      <c r="AT2" s="17" t="n">
+        <v>24883846155.5851</v>
+      </c>
+      <c r="AU2" s="17" t="n">
+        <v>38749898900.9551</v>
+      </c>
+      <c r="AV2" s="17" t="n">
+        <v>65793606959.6752</v>
+      </c>
+      <c r="AW2" s="17"/>
+      <c r="AX2" s="17"/>
+      <c r="AY2" s="17"/>
+      <c r="AZ2" s="17"/>
+      <c r="BA2" s="17"/>
+      <c r="BB2" s="17"/>
+      <c r="BC2" s="17"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -2411,71 +2411,71 @@
       <c r="N3" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14"/>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="14"/>
-      <c r="AE3" s="14"/>
-      <c r="AF3" s="14"/>
-      <c r="AG3" s="14"/>
-      <c r="AH3" s="14"/>
-      <c r="AI3" s="14"/>
-      <c r="AJ3" s="14"/>
-      <c r="AK3" s="14" t="n">
-        <v>329870021411.014</v>
-      </c>
-      <c r="AL3" s="14" t="n">
-        <v>286463462910.156</v>
-      </c>
-      <c r="AM3" s="14" t="n">
-        <v>267469916339.332</v>
-      </c>
-      <c r="AN3" s="14" t="n">
-        <v>249972893535.921</v>
-      </c>
-      <c r="AO3" s="14" t="n">
-        <v>264674994282.781</v>
-      </c>
-      <c r="AP3" s="14" t="n">
-        <v>289580375586.423</v>
-      </c>
-      <c r="AQ3" s="14" t="n">
-        <v>324142899184.017</v>
-      </c>
-      <c r="AR3" s="14" t="n">
-        <v>345482517268.407</v>
-      </c>
-      <c r="AS3" s="14" t="n">
-        <v>372499943849.534</v>
-      </c>
-      <c r="AT3" s="14" t="n">
-        <v>362279784320.787</v>
-      </c>
-      <c r="AU3" s="14" t="n">
-        <v>375515873709.073</v>
-      </c>
-      <c r="AV3" s="14" t="n">
-        <v>390453368175.855</v>
-      </c>
-      <c r="AW3" s="14"/>
-      <c r="AX3" s="14"/>
-      <c r="AY3" s="14"/>
-      <c r="AZ3" s="14"/>
-      <c r="BA3" s="14"/>
-      <c r="BB3" s="14"/>
-      <c r="BC3" s="14"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="17"/>
+      <c r="AD3" s="17"/>
+      <c r="AE3" s="17"/>
+      <c r="AF3" s="17"/>
+      <c r="AG3" s="17"/>
+      <c r="AH3" s="17"/>
+      <c r="AI3" s="17"/>
+      <c r="AJ3" s="17"/>
+      <c r="AK3" s="17" t="n">
+        <v>330026805340.834</v>
+      </c>
+      <c r="AL3" s="17" t="n">
+        <v>287169645793.985</v>
+      </c>
+      <c r="AM3" s="17" t="n">
+        <v>267688247411.752</v>
+      </c>
+      <c r="AN3" s="17" t="n">
+        <v>182341674892.763</v>
+      </c>
+      <c r="AO3" s="17" t="n">
+        <v>264945449752.851</v>
+      </c>
+      <c r="AP3" s="17" t="n">
+        <v>290110867193.627</v>
+      </c>
+      <c r="AQ3" s="17" t="n">
+        <v>324032036748.594</v>
+      </c>
+      <c r="AR3" s="17" t="n">
+        <v>345594196598.929</v>
+      </c>
+      <c r="AS3" s="17" t="n">
+        <v>372553530927.949</v>
+      </c>
+      <c r="AT3" s="17" t="n">
+        <v>362819226712.24</v>
+      </c>
+      <c r="AU3" s="17" t="n">
+        <v>375746041521.185</v>
+      </c>
+      <c r="AV3" s="17" t="n">
+        <v>390453124911.284</v>
+      </c>
+      <c r="AW3" s="17"/>
+      <c r="AX3" s="17"/>
+      <c r="AY3" s="17"/>
+      <c r="AZ3" s="17"/>
+      <c r="BA3" s="17"/>
+      <c r="BB3" s="17"/>
+      <c r="BC3" s="17"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -2490,93 +2490,99 @@
       <c r="N4" t="s">
         <v>44</v>
       </c>
-      <c r="O4" s="14" t="n">
+      <c r="O4" s="17" t="n">
         <v>120350129405</v>
       </c>
-      <c r="P4" s="14" t="n">
+      <c r="P4" s="17" t="n">
         <v>136154193844</v>
       </c>
-      <c r="Q4" s="14" t="n">
+      <c r="Q4" s="17" t="n">
         <v>123406660550</v>
       </c>
-      <c r="R4" s="14" t="n">
+      <c r="R4" s="17" t="n">
         <v>121373382142</v>
       </c>
-      <c r="S4" s="14" t="n">
+      <c r="S4" s="17" t="n">
         <v>117161902725</v>
       </c>
-      <c r="T4" s="14" t="n">
+      <c r="T4" s="17" t="n">
         <v>116592014868</v>
       </c>
-      <c r="U4" s="14" t="n">
+      <c r="U4" s="17" t="n">
         <v>118448779098</v>
       </c>
-      <c r="V4" s="14" t="n">
+      <c r="V4" s="17" t="n">
         <v>115982151879</v>
       </c>
-      <c r="W4" s="14" t="n">
+      <c r="W4" s="17" t="n">
         <v>116965882167</v>
       </c>
-      <c r="X4" s="14" t="n">
+      <c r="X4" s="17" t="n">
         <v>122185036488</v>
       </c>
-      <c r="Y4" s="14" t="n">
+      <c r="Y4" s="17" t="n">
         <v>132178486506.387</v>
       </c>
-      <c r="Z4" s="14" t="n">
-        <v>143993638543.836</v>
-      </c>
-      <c r="AA4" s="14" t="n">
-        <v>169810521226.128</v>
-      </c>
-      <c r="AB4" s="14" t="n">
-        <v>211533087512.337</v>
-      </c>
-      <c r="AC4" s="14" t="n">
-        <v>229761957048.789</v>
-      </c>
-      <c r="AD4" s="14" t="n">
-        <v>265663361025.89</v>
-      </c>
-      <c r="AE4" s="14" t="n">
-        <v>295165178110.853</v>
-      </c>
-      <c r="AF4" s="14" t="n">
-        <v>328153480580.909</v>
-      </c>
-      <c r="AG4" s="14" t="n">
-        <v>377988099747.404</v>
-      </c>
-      <c r="AH4" s="14" t="n">
-        <v>381555380786.985</v>
-      </c>
-      <c r="AI4" s="14" t="n">
-        <v>362403868841.008</v>
-      </c>
-      <c r="AJ4" s="14" t="n">
-        <v>368565915961.162</v>
-      </c>
-      <c r="AK4" s="14"/>
-      <c r="AL4" s="14"/>
-      <c r="AM4" s="14"/>
-      <c r="AN4" s="14" t="n">
-        <v>6246925.665</v>
-      </c>
-      <c r="AO4" s="14"/>
-      <c r="AP4" s="14"/>
-      <c r="AQ4" s="14"/>
-      <c r="AR4" s="14"/>
-      <c r="AS4" s="14"/>
-      <c r="AT4" s="14"/>
-      <c r="AU4" s="14"/>
-      <c r="AV4" s="14"/>
-      <c r="AW4" s="14"/>
-      <c r="AX4" s="14"/>
-      <c r="AY4" s="14"/>
-      <c r="AZ4" s="14"/>
-      <c r="BA4" s="14"/>
-      <c r="BB4" s="14"/>
-      <c r="BC4" s="14"/>
+      <c r="Z4" s="17" t="n">
+        <v>143993638622.327</v>
+      </c>
+      <c r="AA4" s="17" t="n">
+        <v>169810521136.485</v>
+      </c>
+      <c r="AB4" s="17" t="n">
+        <v>211533087303.861</v>
+      </c>
+      <c r="AC4" s="17" t="n">
+        <v>229775031821.915</v>
+      </c>
+      <c r="AD4" s="17" t="n">
+        <v>265664518702.457</v>
+      </c>
+      <c r="AE4" s="17" t="n">
+        <v>295165186343.118</v>
+      </c>
+      <c r="AF4" s="17" t="n">
+        <v>328154422853.492</v>
+      </c>
+      <c r="AG4" s="17" t="n">
+        <v>377988086084.829</v>
+      </c>
+      <c r="AH4" s="17" t="n">
+        <v>367650065478.427</v>
+      </c>
+      <c r="AI4" s="17" t="n">
+        <v>362696345236.665</v>
+      </c>
+      <c r="AJ4" s="17" t="n">
+        <v>368563658869.492</v>
+      </c>
+      <c r="AK4" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="17" t="n">
+        <v>688297065.81</v>
+      </c>
+      <c r="AM4" s="17" t="n">
+        <v>17295</v>
+      </c>
+      <c r="AN4" s="17" t="n">
+        <v>68529812030.32</v>
+      </c>
+      <c r="AO4" s="17"/>
+      <c r="AP4" s="17"/>
+      <c r="AQ4" s="17"/>
+      <c r="AR4" s="17"/>
+      <c r="AS4" s="17"/>
+      <c r="AT4" s="17"/>
+      <c r="AU4" s="17"/>
+      <c r="AV4" s="17"/>
+      <c r="AW4" s="17"/>
+      <c r="AX4" s="17"/>
+      <c r="AY4" s="17"/>
+      <c r="AZ4" s="17"/>
+      <c r="BA4" s="17"/>
+      <c r="BB4" s="17"/>
+      <c r="BC4" s="17"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -2591,127 +2597,127 @@
       <c r="N5" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="14" t="n">
+      <c r="O5" s="17" t="n">
         <v>289694000000</v>
       </c>
-      <c r="P5" s="14" t="n">
+      <c r="P5" s="17" t="n">
         <v>262324000000</v>
       </c>
-      <c r="Q5" s="14" t="n">
+      <c r="Q5" s="17" t="n">
         <v>286834000000</v>
       </c>
-      <c r="R5" s="14" t="n">
+      <c r="R5" s="17" t="n">
         <v>278497000000</v>
       </c>
-      <c r="S5" s="14" t="n">
+      <c r="S5" s="17" t="n">
         <v>268553000000</v>
       </c>
-      <c r="T5" s="14" t="n">
+      <c r="T5" s="17" t="n">
         <v>259373000000</v>
       </c>
-      <c r="U5" s="14" t="n">
+      <c r="U5" s="17" t="n">
         <v>253130000000</v>
       </c>
-      <c r="V5" s="14" t="n">
+      <c r="V5" s="17" t="n">
         <v>258251000000</v>
       </c>
-      <c r="W5" s="14" t="n">
+      <c r="W5" s="17" t="n">
         <v>255793000000</v>
       </c>
-      <c r="X5" s="14" t="n">
+      <c r="X5" s="17" t="n">
         <v>261198000000</v>
       </c>
-      <c r="Y5" s="14" t="n">
+      <c r="Y5" s="17" t="n">
         <v>281029000000</v>
       </c>
-      <c r="Z5" s="14" t="n">
+      <c r="Z5" s="17" t="n">
         <v>290185000000</v>
       </c>
-      <c r="AA5" s="14" t="n">
+      <c r="AA5" s="17" t="n">
         <v>331845000000</v>
       </c>
-      <c r="AB5" s="14" t="n">
+      <c r="AB5" s="17" t="n">
         <v>387136000000</v>
       </c>
-      <c r="AC5" s="14" t="n">
+      <c r="AC5" s="17" t="n">
         <v>436439000000</v>
       </c>
-      <c r="AD5" s="14" t="n">
+      <c r="AD5" s="17" t="n">
         <v>474071000000</v>
       </c>
-      <c r="AE5" s="14" t="n">
+      <c r="AE5" s="17" t="n">
         <v>499297000000</v>
       </c>
-      <c r="AF5" s="14" t="n">
+      <c r="AF5" s="17" t="n">
         <v>528548000000</v>
       </c>
-      <c r="AG5" s="14" t="n">
+      <c r="AG5" s="17" t="n">
         <v>594632000000</v>
       </c>
-      <c r="AH5" s="14" t="n">
+      <c r="AH5" s="17" t="n">
         <v>636742000000</v>
       </c>
-      <c r="AI5" s="14" t="n">
+      <c r="AI5" s="17" t="n">
         <v>666703000000</v>
       </c>
-      <c r="AJ5" s="14" t="n">
+      <c r="AJ5" s="17" t="n">
         <v>678064000000</v>
       </c>
-      <c r="AK5" s="14" t="n">
+      <c r="AK5" s="17" t="n">
         <v>650851000000</v>
       </c>
-      <c r="AL5" s="14" t="n">
+      <c r="AL5" s="17" t="n">
         <v>607795000000</v>
       </c>
-      <c r="AM5" s="14" t="n">
+      <c r="AM5" s="17" t="n">
         <v>577897000000</v>
       </c>
-      <c r="AN5" s="14" t="n">
+      <c r="AN5" s="17" t="n">
         <v>562499000000</v>
       </c>
-      <c r="AO5" s="14" t="n">
+      <c r="AO5" s="17" t="n">
         <v>565370000000</v>
       </c>
-      <c r="AP5" s="14" t="n">
+      <c r="AP5" s="17" t="n">
         <v>568897000000</v>
       </c>
-      <c r="AQ5" s="14" t="n">
+      <c r="AQ5" s="17" t="n">
         <v>600804000000</v>
       </c>
-      <c r="AR5" s="14" t="n">
+      <c r="AR5" s="17" t="n">
         <v>653690000000</v>
       </c>
-      <c r="AS5" s="14" t="n">
+      <c r="AS5" s="17" t="n">
         <v>690363000000</v>
       </c>
-      <c r="AT5" s="14" t="n">
+      <c r="AT5" s="17" t="n">
         <v>717577000000</v>
       </c>
-      <c r="AU5" s="14" t="n">
+      <c r="AU5" s="17" t="n">
         <v>726458000000</v>
       </c>
-      <c r="AV5" s="14" t="n">
+      <c r="AV5" s="17" t="n">
         <v>775874000000</v>
       </c>
-      <c r="AW5" s="14" t="n">
+      <c r="AW5" s="17" t="n">
         <v>859539000000</v>
       </c>
-      <c r="AX5" s="14" t="n">
+      <c r="AX5" s="17" t="n">
         <v>878467000000</v>
       </c>
-      <c r="AY5" s="14" t="n">
+      <c r="AY5" s="17" t="n">
         <v>883218000000</v>
       </c>
-      <c r="AZ5" s="14" t="n">
+      <c r="AZ5" s="17" t="n">
         <v>895811000000</v>
       </c>
-      <c r="BA5" s="14" t="n">
+      <c r="BA5" s="17" t="n">
         <v>914366000000</v>
       </c>
-      <c r="BB5" s="14" t="n">
+      <c r="BB5" s="17" t="n">
         <v>934814000000</v>
       </c>
-      <c r="BC5" s="14"/>
+      <c r="BC5" s="17"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -2726,127 +2732,127 @@
       <c r="N6" t="s">
         <v>47</v>
       </c>
-      <c r="O6" s="14" t="str">
+      <c r="O6" s="17" t="str">
         <f>Sum(O2:O5)</f>
       </c>
-      <c r="P6" s="14" t="str">
+      <c r="P6" s="17" t="str">
         <f>Sum(P2:P5)</f>
       </c>
-      <c r="Q6" s="14" t="str">
+      <c r="Q6" s="17" t="str">
         <f>Sum(Q2:Q5)</f>
       </c>
-      <c r="R6" s="14" t="str">
+      <c r="R6" s="17" t="str">
         <f>Sum(R2:R5)</f>
       </c>
-      <c r="S6" s="14" t="str">
+      <c r="S6" s="17" t="str">
         <f>Sum(S2:S5)</f>
       </c>
-      <c r="T6" s="14" t="str">
+      <c r="T6" s="17" t="str">
         <f>Sum(T2:T5)</f>
       </c>
-      <c r="U6" s="14" t="str">
+      <c r="U6" s="17" t="str">
         <f>Sum(U2:U5)</f>
       </c>
-      <c r="V6" s="14" t="str">
+      <c r="V6" s="17" t="str">
         <f>Sum(V2:V5)</f>
       </c>
-      <c r="W6" s="14" t="str">
+      <c r="W6" s="17" t="str">
         <f>Sum(W2:W5)</f>
       </c>
-      <c r="X6" s="14" t="str">
+      <c r="X6" s="17" t="str">
         <f>Sum(X2:X5)</f>
       </c>
-      <c r="Y6" s="14" t="str">
+      <c r="Y6" s="17" t="str">
         <f>Sum(Y2:Y5)</f>
       </c>
-      <c r="Z6" s="14" t="str">
+      <c r="Z6" s="17" t="str">
         <f>Sum(Z2:Z5)</f>
       </c>
-      <c r="AA6" s="14" t="str">
+      <c r="AA6" s="17" t="str">
         <f>Sum(AA2:AA5)</f>
       </c>
-      <c r="AB6" s="14" t="str">
+      <c r="AB6" s="17" t="str">
         <f>Sum(AB2:AB5)</f>
       </c>
-      <c r="AC6" s="14" t="str">
+      <c r="AC6" s="17" t="str">
         <f>Sum(AC2:AC5)</f>
       </c>
-      <c r="AD6" s="14" t="str">
+      <c r="AD6" s="17" t="str">
         <f>Sum(AD2:AD5)</f>
       </c>
-      <c r="AE6" s="14" t="str">
+      <c r="AE6" s="17" t="str">
         <f>Sum(AE2:AE5)</f>
       </c>
-      <c r="AF6" s="14" t="str">
+      <c r="AF6" s="17" t="str">
         <f>Sum(AF2:AF5)</f>
       </c>
-      <c r="AG6" s="14" t="str">
+      <c r="AG6" s="17" t="str">
         <f>Sum(AG2:AG5)</f>
       </c>
-      <c r="AH6" s="14" t="str">
+      <c r="AH6" s="17" t="str">
         <f>Sum(AH2:AH5)</f>
       </c>
-      <c r="AI6" s="14" t="str">
+      <c r="AI6" s="17" t="str">
         <f>Sum(AI2:AI5)</f>
       </c>
-      <c r="AJ6" s="14" t="str">
+      <c r="AJ6" s="17" t="str">
         <f>Sum(AJ2:AJ5)</f>
       </c>
-      <c r="AK6" s="14" t="str">
+      <c r="AK6" s="17" t="str">
         <f>Sum(AK2:AK5)</f>
       </c>
-      <c r="AL6" s="14" t="str">
+      <c r="AL6" s="17" t="str">
         <f>Sum(AL2:AL5)</f>
       </c>
-      <c r="AM6" s="14" t="str">
+      <c r="AM6" s="17" t="str">
         <f>Sum(AM2:AM5)</f>
       </c>
-      <c r="AN6" s="14" t="str">
+      <c r="AN6" s="17" t="str">
         <f>Sum(AN2:AN5)</f>
       </c>
-      <c r="AO6" s="14" t="str">
+      <c r="AO6" s="17" t="str">
         <f>Sum(AO2:AO5)</f>
       </c>
-      <c r="AP6" s="14" t="str">
+      <c r="AP6" s="17" t="str">
         <f>Sum(AP2:AP5)</f>
       </c>
-      <c r="AQ6" s="14" t="str">
+      <c r="AQ6" s="17" t="str">
         <f>Sum(AQ2:AQ5)</f>
       </c>
-      <c r="AR6" s="14" t="str">
+      <c r="AR6" s="17" t="str">
         <f>Sum(AR2:AR5)</f>
       </c>
-      <c r="AS6" s="14" t="str">
+      <c r="AS6" s="17" t="str">
         <f>Sum(AS2:AS5)</f>
       </c>
-      <c r="AT6" s="14" t="str">
+      <c r="AT6" s="17" t="str">
         <f>Sum(AT2:AT5)</f>
       </c>
-      <c r="AU6" s="14" t="str">
+      <c r="AU6" s="17" t="str">
         <f>Sum(AU2:AU5)</f>
       </c>
-      <c r="AV6" s="14" t="str">
+      <c r="AV6" s="17" t="str">
         <f>Sum(AV2:AV5)</f>
       </c>
-      <c r="AW6" s="14" t="str">
+      <c r="AW6" s="17" t="str">
         <f>Sum(AW2:AW5)</f>
       </c>
-      <c r="AX6" s="14" t="str">
+      <c r="AX6" s="17" t="str">
         <f>Sum(AX2:AX5)</f>
       </c>
-      <c r="AY6" s="14" t="str">
+      <c r="AY6" s="17" t="str">
         <f>Sum(AY2:AY5)</f>
       </c>
-      <c r="AZ6" s="14" t="str">
+      <c r="AZ6" s="17" t="str">
         <f>Sum(AZ2:AZ5)</f>
       </c>
-      <c r="BA6" s="14" t="str">
+      <c r="BA6" s="17" t="str">
         <f>Sum(BA2:BA5)</f>
       </c>
-      <c r="BB6" s="14" t="str">
+      <c r="BB6" s="17" t="str">
         <f>Sum(BB2:BB5)</f>
       </c>
-      <c r="BC6" s="14"/>
+      <c r="BC6" s="17"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -3007,16 +3013,16 @@
       <c r="B10" t="str">
         <f>N10</f>
       </c>
-      <c r="C10" s="14" t="str">
+      <c r="C10" s="17" t="str">
         <f>AS10</f>
       </c>
-      <c r="D10" s="14" t="str">
+      <c r="D10" s="17" t="str">
         <f>AU10</f>
       </c>
-      <c r="E10" s="14" t="str">
+      <c r="E10" s="17" t="str">
         <f>AV10</f>
       </c>
-      <c r="F10" s="14"/>
+      <c r="F10" s="17"/>
       <c r="G10" s="1" t="str">
         <f>AV10/AU10-1</f>
       </c>
@@ -3034,71 +3040,71 @@
       <c r="N10" t="s">
         <v>42</v>
       </c>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
-      <c r="AC10" s="14"/>
-      <c r="AD10" s="14"/>
-      <c r="AE10" s="14"/>
-      <c r="AF10" s="14"/>
-      <c r="AG10" s="14"/>
-      <c r="AH10" s="14"/>
-      <c r="AI10" s="14"/>
-      <c r="AJ10" s="14"/>
-      <c r="AK10" s="14" t="n">
-        <v>36390869420.0532</v>
-      </c>
-      <c r="AL10" s="14" t="n">
-        <v>25896384490.0193</v>
-      </c>
-      <c r="AM10" s="14" t="n">
-        <v>19992431792.9514</v>
-      </c>
-      <c r="AN10" s="14" t="n">
-        <v>30286399449.1285</v>
-      </c>
-      <c r="AO10" s="14" t="n">
-        <v>41815605260.499</v>
-      </c>
-      <c r="AP10" s="14" t="n">
-        <v>37884999724.2074</v>
-      </c>
-      <c r="AQ10" s="14" t="n">
-        <v>41573208124.9344</v>
-      </c>
-      <c r="AR10" s="14" t="n">
-        <v>44992590026.8429</v>
-      </c>
-      <c r="AS10" s="14" t="n">
-        <v>57987138191.6318</v>
-      </c>
-      <c r="AT10" s="14" t="n">
-        <v>27730527616.1122</v>
-      </c>
-      <c r="AU10" s="14" t="n">
-        <v>40499381567.492</v>
-      </c>
-      <c r="AV10" s="14" t="n">
-        <v>65793606575.0316</v>
-      </c>
-      <c r="AW10" s="14"/>
-      <c r="AX10" s="14"/>
-      <c r="AY10" s="14"/>
-      <c r="AZ10" s="14"/>
-      <c r="BA10" s="14"/>
-      <c r="BB10" s="14"/>
-      <c r="BC10" s="14"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="17"/>
+      <c r="AE10" s="17"/>
+      <c r="AF10" s="17"/>
+      <c r="AG10" s="17"/>
+      <c r="AH10" s="17"/>
+      <c r="AI10" s="17"/>
+      <c r="AJ10" s="17"/>
+      <c r="AK10" s="17" t="n">
+        <v>36390987981.8448</v>
+      </c>
+      <c r="AL10" s="17" t="n">
+        <v>26221905738.2968</v>
+      </c>
+      <c r="AM10" s="17" t="n">
+        <v>19925213441.3071</v>
+      </c>
+      <c r="AN10" s="17" t="n">
+        <v>29222168317.7287</v>
+      </c>
+      <c r="AO10" s="17" t="n">
+        <v>41682205250.0166</v>
+      </c>
+      <c r="AP10" s="17" t="n">
+        <v>38750156644.7742</v>
+      </c>
+      <c r="AQ10" s="17" t="n">
+        <v>41555475393.5778</v>
+      </c>
+      <c r="AR10" s="17" t="n">
+        <v>45002603100.1161</v>
+      </c>
+      <c r="AS10" s="17" t="n">
+        <v>58094201874.9828</v>
+      </c>
+      <c r="AT10" s="17" t="n">
+        <v>27842081578.4401</v>
+      </c>
+      <c r="AU10" s="17" t="n">
+        <v>40522574821.365</v>
+      </c>
+      <c r="AV10" s="17" t="n">
+        <v>65793606959.6752</v>
+      </c>
+      <c r="AW10" s="17"/>
+      <c r="AX10" s="17"/>
+      <c r="AY10" s="17"/>
+      <c r="AZ10" s="17"/>
+      <c r="BA10" s="17"/>
+      <c r="BB10" s="17"/>
+      <c r="BC10" s="17"/>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -3107,16 +3113,16 @@
       <c r="B11" t="str">
         <f>N11</f>
       </c>
-      <c r="C11" s="14" t="str">
+      <c r="C11" s="17" t="str">
         <f>AS11</f>
       </c>
-      <c r="D11" s="14" t="str">
+      <c r="D11" s="17" t="str">
         <f>AU11</f>
       </c>
-      <c r="E11" s="14" t="str">
+      <c r="E11" s="17" t="str">
         <f>AV11</f>
       </c>
-      <c r="F11" s="14"/>
+      <c r="F11" s="17"/>
       <c r="G11" s="1" t="str">
         <f>AV11/AU11-1</f>
       </c>
@@ -3134,71 +3140,71 @@
       <c r="N11" t="s">
         <v>43</v>
       </c>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="14"/>
-      <c r="AC11" s="14"/>
-      <c r="AD11" s="14"/>
-      <c r="AE11" s="14"/>
-      <c r="AF11" s="14"/>
-      <c r="AG11" s="14"/>
-      <c r="AH11" s="14"/>
-      <c r="AI11" s="14"/>
-      <c r="AJ11" s="14"/>
-      <c r="AK11" s="14" t="n">
-        <v>432330186054.03</v>
-      </c>
-      <c r="AL11" s="14" t="n">
-        <v>368750341721.862</v>
-      </c>
-      <c r="AM11" s="14" t="n">
-        <v>338132277217.976</v>
-      </c>
-      <c r="AN11" s="14" t="n">
-        <v>312773586648.454</v>
-      </c>
-      <c r="AO11" s="14" t="n">
-        <v>328542572360.358</v>
-      </c>
-      <c r="AP11" s="14" t="n">
-        <v>353490764546.252</v>
-      </c>
-      <c r="AQ11" s="14" t="n">
-        <v>387087885833.412</v>
-      </c>
-      <c r="AR11" s="14" t="n">
-        <v>405081653062.029</v>
-      </c>
-      <c r="AS11" s="14" t="n">
-        <v>431127980837.866</v>
-      </c>
-      <c r="AT11" s="14" t="n">
-        <v>405348242639.538</v>
-      </c>
-      <c r="AU11" s="14" t="n">
-        <v>392694446194.055</v>
-      </c>
-      <c r="AV11" s="14" t="n">
-        <v>390453368175.855</v>
-      </c>
-      <c r="AW11" s="14"/>
-      <c r="AX11" s="14"/>
-      <c r="AY11" s="14"/>
-      <c r="AZ11" s="14"/>
-      <c r="BA11" s="14"/>
-      <c r="BB11" s="14"/>
-      <c r="BC11" s="14"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="17"/>
+      <c r="AE11" s="17"/>
+      <c r="AF11" s="17"/>
+      <c r="AG11" s="17"/>
+      <c r="AH11" s="17"/>
+      <c r="AI11" s="17"/>
+      <c r="AJ11" s="17"/>
+      <c r="AK11" s="17" t="n">
+        <v>432535668277.784</v>
+      </c>
+      <c r="AL11" s="17" t="n">
+        <v>369659376253.123</v>
+      </c>
+      <c r="AM11" s="17" t="n">
+        <v>338408288754.957</v>
+      </c>
+      <c r="AN11" s="17" t="n">
+        <v>228151376115.108</v>
+      </c>
+      <c r="AO11" s="17" t="n">
+        <v>328878290270.115</v>
+      </c>
+      <c r="AP11" s="17" t="n">
+        <v>354138335651.29</v>
+      </c>
+      <c r="AQ11" s="17" t="n">
+        <v>386955495132.106</v>
+      </c>
+      <c r="AR11" s="17" t="n">
+        <v>405212598176.643</v>
+      </c>
+      <c r="AS11" s="17" t="n">
+        <v>431190002025.514</v>
+      </c>
+      <c r="AT11" s="17" t="n">
+        <v>405951814891.826</v>
+      </c>
+      <c r="AU11" s="17" t="n">
+        <v>392935143399.785</v>
+      </c>
+      <c r="AV11" s="17" t="n">
+        <v>390453124911.284</v>
+      </c>
+      <c r="AW11" s="17"/>
+      <c r="AX11" s="17"/>
+      <c r="AY11" s="17"/>
+      <c r="AZ11" s="17"/>
+      <c r="BA11" s="17"/>
+      <c r="BB11" s="17"/>
+      <c r="BC11" s="17"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -3207,16 +3213,16 @@
       <c r="B12" t="str">
         <f>N12</f>
       </c>
-      <c r="C12" s="14" t="str">
+      <c r="C12" s="17" t="str">
         <f>AS12</f>
       </c>
-      <c r="D12" s="14" t="str">
+      <c r="D12" s="17" t="str">
         <f>AU12</f>
       </c>
-      <c r="E12" s="14" t="str">
+      <c r="E12" s="17" t="str">
         <f>AV12</f>
       </c>
-      <c r="F12" s="14"/>
+      <c r="F12" s="17"/>
       <c r="G12" s="1" t="str">
         <f>AV12/AU12-1</f>
       </c>
@@ -3234,93 +3240,99 @@
       <c r="N12" t="s">
         <v>44</v>
       </c>
-      <c r="O12" s="14" t="n">
+      <c r="O12" s="17" t="n">
         <v>248917998790.874</v>
       </c>
-      <c r="P12" s="14" t="n">
+      <c r="P12" s="17" t="n">
         <v>271885202720.129</v>
       </c>
-      <c r="Q12" s="14" t="n">
+      <c r="Q12" s="17" t="n">
         <v>240412560734.939</v>
       </c>
-      <c r="R12" s="14" t="n">
+      <c r="R12" s="17" t="n">
         <v>231031479111.987</v>
       </c>
-      <c r="S12" s="14" t="n">
+      <c r="S12" s="17" t="n">
         <v>218250472650.085</v>
       </c>
-      <c r="T12" s="14" t="n">
+      <c r="T12" s="17" t="n">
         <v>212677633977.603</v>
       </c>
-      <c r="U12" s="14" t="n">
+      <c r="U12" s="17" t="n">
         <v>212071611328.834</v>
       </c>
-      <c r="V12" s="14" t="n">
+      <c r="V12" s="17" t="n">
         <v>204034317412.979</v>
       </c>
-      <c r="W12" s="14" t="n">
+      <c r="W12" s="17" t="n">
         <v>203216983313.484</v>
       </c>
-      <c r="X12" s="14" t="n">
+      <c r="X12" s="17" t="n">
         <v>209688280565.4</v>
       </c>
-      <c r="Y12" s="14" t="n">
+      <c r="Y12" s="17" t="n">
         <v>222214954426.99</v>
       </c>
-      <c r="Z12" s="14" t="n">
-        <v>236349380759.976</v>
-      </c>
-      <c r="AA12" s="14" t="n">
-        <v>274407867785.644</v>
-      </c>
-      <c r="AB12" s="14" t="n">
-        <v>335392180495.053</v>
-      </c>
-      <c r="AC12" s="14" t="n">
-        <v>355611032054.797</v>
-      </c>
-      <c r="AD12" s="14" t="n">
-        <v>399034409966.236</v>
-      </c>
-      <c r="AE12" s="14" t="n">
-        <v>429398322936.051</v>
-      </c>
-      <c r="AF12" s="14" t="n">
-        <v>464598647461.156</v>
-      </c>
-      <c r="AG12" s="14" t="n">
-        <v>524270052465.528</v>
-      </c>
-      <c r="AH12" s="14" t="n">
-        <v>523860817748.021</v>
-      </c>
-      <c r="AI12" s="14" t="n">
-        <v>493294382841.294</v>
-      </c>
-      <c r="AJ12" s="14" t="n">
-        <v>491810684195.121</v>
-      </c>
-      <c r="AK12" s="14"/>
-      <c r="AL12" s="14"/>
-      <c r="AM12" s="14"/>
-      <c r="AN12" s="14" t="n">
-        <v>7816340.87652611</v>
-      </c>
-      <c r="AO12" s="14"/>
-      <c r="AP12" s="14"/>
-      <c r="AQ12" s="14"/>
-      <c r="AR12" s="14"/>
-      <c r="AS12" s="14"/>
-      <c r="AT12" s="14"/>
-      <c r="AU12" s="14"/>
-      <c r="AV12" s="14"/>
-      <c r="AW12" s="14"/>
-      <c r="AX12" s="14"/>
-      <c r="AY12" s="14"/>
-      <c r="AZ12" s="14"/>
-      <c r="BA12" s="14"/>
-      <c r="BB12" s="14"/>
-      <c r="BC12" s="14"/>
+      <c r="Z12" s="17" t="n">
+        <v>236349380888.81</v>
+      </c>
+      <c r="AA12" s="17" t="n">
+        <v>274407867640.784</v>
+      </c>
+      <c r="AB12" s="17" t="n">
+        <v>335392180164.508</v>
+      </c>
+      <c r="AC12" s="17" t="n">
+        <v>355631268362.082</v>
+      </c>
+      <c r="AD12" s="17" t="n">
+        <v>399036148831.483</v>
+      </c>
+      <c r="AE12" s="17" t="n">
+        <v>429398334912.128</v>
+      </c>
+      <c r="AF12" s="17" t="n">
+        <v>464599981527.663</v>
+      </c>
+      <c r="AG12" s="17" t="n">
+        <v>524270033515.516</v>
+      </c>
+      <c r="AH12" s="17" t="n">
+        <v>504769356284.26</v>
+      </c>
+      <c r="AI12" s="17" t="n">
+        <v>493692493831.535</v>
+      </c>
+      <c r="AJ12" s="17" t="n">
+        <v>491807672354.496</v>
+      </c>
+      <c r="AK12" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="17" t="n">
+        <v>886010996.464129</v>
+      </c>
+      <c r="AM12" s="17" t="n">
+        <v>21864.1326640477</v>
+      </c>
+      <c r="AN12" s="17" t="n">
+        <v>85746557548.1986</v>
+      </c>
+      <c r="AO12" s="17"/>
+      <c r="AP12" s="17"/>
+      <c r="AQ12" s="17"/>
+      <c r="AR12" s="17"/>
+      <c r="AS12" s="17"/>
+      <c r="AT12" s="17"/>
+      <c r="AU12" s="17"/>
+      <c r="AV12" s="17"/>
+      <c r="AW12" s="17"/>
+      <c r="AX12" s="17"/>
+      <c r="AY12" s="17"/>
+      <c r="AZ12" s="17"/>
+      <c r="BA12" s="17"/>
+      <c r="BB12" s="17"/>
+      <c r="BC12" s="17"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -3329,16 +3341,16 @@
       <c r="B13" t="str">
         <f>N13</f>
       </c>
-      <c r="C13" s="14" t="str">
+      <c r="C13" s="17" t="str">
         <f>AS13</f>
       </c>
-      <c r="D13" s="14" t="str">
+      <c r="D13" s="17" t="str">
         <f>AU13</f>
       </c>
-      <c r="E13" s="14" t="str">
+      <c r="E13" s="17" t="str">
         <f>AV13</f>
       </c>
-      <c r="F13" s="14"/>
+      <c r="F13" s="17"/>
       <c r="G13" s="1" t="str">
         <f>AV13/AU13-1</f>
       </c>
@@ -3356,127 +3368,127 @@
       <c r="N13" t="s">
         <v>43</v>
       </c>
-      <c r="O13" s="14" t="n">
+      <c r="O13" s="17" t="n">
         <v>599168867522.029</v>
       </c>
-      <c r="P13" s="14" t="n">
+      <c r="P13" s="17" t="n">
         <v>523832662841.61</v>
       </c>
-      <c r="Q13" s="14" t="n">
+      <c r="Q13" s="17" t="n">
         <v>558790717928.113</v>
       </c>
-      <c r="R13" s="14" t="n">
+      <c r="R13" s="17" t="n">
         <v>530112720785.642</v>
       </c>
-      <c r="S13" s="14" t="n">
+      <c r="S13" s="17" t="n">
         <v>500263462937.87</v>
       </c>
-      <c r="T13" s="14" t="n">
+      <c r="T13" s="17" t="n">
         <v>473127049224.817</v>
       </c>
-      <c r="U13" s="14" t="n">
+      <c r="U13" s="17" t="n">
         <v>453205912162.704</v>
       </c>
-      <c r="V13" s="14" t="n">
+      <c r="V13" s="17" t="n">
         <v>454311854475.601</v>
       </c>
-      <c r="W13" s="14" t="n">
+      <c r="W13" s="17" t="n">
         <v>444415763380.374</v>
       </c>
-      <c r="X13" s="14" t="n">
+      <c r="X13" s="17" t="n">
         <v>448255867341.827</v>
       </c>
-      <c r="Y13" s="14" t="n">
+      <c r="Y13" s="17" t="n">
         <v>472458477005.221</v>
       </c>
-      <c r="Z13" s="14" t="n">
+      <c r="Z13" s="17" t="n">
         <v>476306076778.206</v>
       </c>
-      <c r="AA13" s="14" t="n">
+      <c r="AA13" s="17" t="n">
         <v>536249922724.551</v>
       </c>
-      <c r="AB13" s="14" t="n">
+      <c r="AB13" s="17" t="n">
         <v>613815969478.346</v>
       </c>
-      <c r="AC13" s="14" t="n">
+      <c r="AC13" s="17" t="n">
         <v>675492693448.842</v>
       </c>
-      <c r="AD13" s="14" t="n">
+      <c r="AD13" s="17" t="n">
         <v>712068992263.739</v>
       </c>
-      <c r="AE13" s="14" t="n">
+      <c r="AE13" s="17" t="n">
         <v>726363779830.702</v>
       </c>
-      <c r="AF13" s="14" t="n">
+      <c r="AF13" s="17" t="n">
         <v>748316566637.036</v>
       </c>
-      <c r="AG13" s="14" t="n">
+      <c r="AG13" s="17" t="n">
         <v>824755462000.025</v>
       </c>
-      <c r="AH13" s="14" t="n">
+      <c r="AH13" s="17" t="n">
         <v>874222201051.157</v>
       </c>
-      <c r="AI13" s="14" t="n">
+      <c r="AI13" s="17" t="n">
         <v>907498162133.927</v>
       </c>
-      <c r="AJ13" s="14" t="n">
+      <c r="AJ13" s="17" t="n">
         <v>904801842293.038</v>
       </c>
-      <c r="AK13" s="14" t="n">
+      <c r="AK13" s="17" t="n">
         <v>853010324247.841</v>
       </c>
-      <c r="AL13" s="14" t="n">
+      <c r="AL13" s="17" t="n">
         <v>782384642250.63</v>
       </c>
-      <c r="AM13" s="14" t="n">
+      <c r="AM13" s="17" t="n">
         <v>730570492868.181</v>
       </c>
-      <c r="AN13" s="14" t="n">
+      <c r="AN13" s="17" t="n">
         <v>703815630677.12</v>
       </c>
-      <c r="AO13" s="14" t="n">
+      <c r="AO13" s="17" t="n">
         <v>701796989317.852</v>
       </c>
-      <c r="AP13" s="14" t="n">
+      <c r="AP13" s="17" t="n">
         <v>694452568033.404</v>
       </c>
-      <c r="AQ13" s="14" t="n">
+      <c r="AQ13" s="17" t="n">
         <v>717473530179.755</v>
       </c>
-      <c r="AR13" s="14" t="n">
+      <c r="AR13" s="17" t="n">
         <v>766457961125.701</v>
       </c>
-      <c r="AS13" s="14" t="n">
+      <c r="AS13" s="17" t="n">
         <v>799019734497.993</v>
       </c>
-      <c r="AT13" s="14" t="n">
+      <c r="AT13" s="17" t="n">
         <v>802883816589.107</v>
       </c>
-      <c r="AU13" s="14" t="n">
+      <c r="AU13" s="17" t="n">
         <v>759690979706.108</v>
       </c>
-      <c r="AV13" s="14" t="n">
+      <c r="AV13" s="17" t="n">
         <v>775874000000</v>
       </c>
-      <c r="AW13" s="14" t="n">
+      <c r="AW13" s="17" t="n">
         <v>837181247646.527</v>
       </c>
-      <c r="AX13" s="14" t="n">
+      <c r="AX13" s="17" t="n">
         <v>837245992301.702</v>
       </c>
-      <c r="AY13" s="14" t="n">
+      <c r="AY13" s="17" t="n">
         <v>824647554246.88</v>
       </c>
-      <c r="AZ13" s="14" t="n">
+      <c r="AZ13" s="17" t="n">
         <v>819236206162.472</v>
       </c>
-      <c r="BA13" s="14" t="n">
+      <c r="BA13" s="17" t="n">
         <v>819144705553.104</v>
       </c>
-      <c r="BB13" s="14" t="n">
+      <c r="BB13" s="17" t="n">
         <v>820305837219.535</v>
       </c>
-      <c r="BC13" s="14"/>
+      <c r="BC13" s="17"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -3485,16 +3497,16 @@
       <c r="B14" t="str">
         <f>N14</f>
       </c>
-      <c r="C14" s="14" t="str">
+      <c r="C14" s="17" t="str">
         <f>AS14</f>
       </c>
-      <c r="D14" s="14" t="str">
+      <c r="D14" s="17" t="str">
         <f>AU14</f>
       </c>
-      <c r="E14" s="14" t="str">
+      <c r="E14" s="17" t="str">
         <f>AV14</f>
       </c>
-      <c r="F14" s="14"/>
+      <c r="F14" s="17"/>
       <c r="G14" s="1" t="str">
         <f>AV14/AU14-1</f>
       </c>
@@ -3512,127 +3524,127 @@
       <c r="N14" t="s">
         <v>47</v>
       </c>
-      <c r="O14" s="14" t="str">
+      <c r="O14" s="17" t="str">
         <f>Sum(O10:O13)</f>
       </c>
-      <c r="P14" s="14" t="str">
+      <c r="P14" s="17" t="str">
         <f>Sum(P10:P13)</f>
       </c>
-      <c r="Q14" s="14" t="str">
+      <c r="Q14" s="17" t="str">
         <f>Sum(Q10:Q13)</f>
       </c>
-      <c r="R14" s="14" t="str">
+      <c r="R14" s="17" t="str">
         <f>Sum(R10:R13)</f>
       </c>
-      <c r="S14" s="14" t="str">
+      <c r="S14" s="17" t="str">
         <f>Sum(S10:S13)</f>
       </c>
-      <c r="T14" s="14" t="str">
+      <c r="T14" s="17" t="str">
         <f>Sum(T10:T13)</f>
       </c>
-      <c r="U14" s="14" t="str">
+      <c r="U14" s="17" t="str">
         <f>Sum(U10:U13)</f>
       </c>
-      <c r="V14" s="14" t="str">
+      <c r="V14" s="17" t="str">
         <f>Sum(V10:V13)</f>
       </c>
-      <c r="W14" s="14" t="str">
+      <c r="W14" s="17" t="str">
         <f>Sum(W10:W13)</f>
       </c>
-      <c r="X14" s="14" t="str">
+      <c r="X14" s="17" t="str">
         <f>Sum(X10:X13)</f>
       </c>
-      <c r="Y14" s="14" t="str">
+      <c r="Y14" s="17" t="str">
         <f>Sum(Y10:Y13)</f>
       </c>
-      <c r="Z14" s="14" t="str">
+      <c r="Z14" s="17" t="str">
         <f>Sum(Z10:Z13)</f>
       </c>
-      <c r="AA14" s="14" t="str">
+      <c r="AA14" s="17" t="str">
         <f>Sum(AA10:AA13)</f>
       </c>
-      <c r="AB14" s="14" t="str">
+      <c r="AB14" s="17" t="str">
         <f>Sum(AB10:AB13)</f>
       </c>
-      <c r="AC14" s="14" t="str">
+      <c r="AC14" s="17" t="str">
         <f>Sum(AC10:AC13)</f>
       </c>
-      <c r="AD14" s="14" t="str">
+      <c r="AD14" s="17" t="str">
         <f>Sum(AD10:AD13)</f>
       </c>
-      <c r="AE14" s="14" t="str">
+      <c r="AE14" s="17" t="str">
         <f>Sum(AE10:AE13)</f>
       </c>
-      <c r="AF14" s="14" t="str">
+      <c r="AF14" s="17" t="str">
         <f>Sum(AF10:AF13)</f>
       </c>
-      <c r="AG14" s="14" t="str">
+      <c r="AG14" s="17" t="str">
         <f>Sum(AG10:AG13)</f>
       </c>
-      <c r="AH14" s="14" t="str">
+      <c r="AH14" s="17" t="str">
         <f>Sum(AH10:AH13)</f>
       </c>
-      <c r="AI14" s="14" t="str">
+      <c r="AI14" s="17" t="str">
         <f>Sum(AI10:AI13)</f>
       </c>
-      <c r="AJ14" s="14" t="str">
+      <c r="AJ14" s="17" t="str">
         <f>Sum(AJ10:AJ13)</f>
       </c>
-      <c r="AK14" s="14" t="str">
+      <c r="AK14" s="17" t="str">
         <f>Sum(AK10:AK13)</f>
       </c>
-      <c r="AL14" s="14" t="str">
+      <c r="AL14" s="17" t="str">
         <f>Sum(AL10:AL13)</f>
       </c>
-      <c r="AM14" s="14" t="str">
+      <c r="AM14" s="17" t="str">
         <f>Sum(AM10:AM13)</f>
       </c>
-      <c r="AN14" s="14" t="str">
+      <c r="AN14" s="17" t="str">
         <f>Sum(AN10:AN13)</f>
       </c>
-      <c r="AO14" s="14" t="str">
+      <c r="AO14" s="17" t="str">
         <f>Sum(AO10:AO13)</f>
       </c>
-      <c r="AP14" s="14" t="str">
+      <c r="AP14" s="17" t="str">
         <f>Sum(AP10:AP13)</f>
       </c>
-      <c r="AQ14" s="14" t="str">
+      <c r="AQ14" s="17" t="str">
         <f>Sum(AQ10:AQ13)</f>
       </c>
-      <c r="AR14" s="14" t="str">
+      <c r="AR14" s="17" t="str">
         <f>Sum(AR10:AR13)</f>
       </c>
-      <c r="AS14" s="14" t="str">
+      <c r="AS14" s="17" t="str">
         <f>Sum(AS10:AS13)</f>
       </c>
-      <c r="AT14" s="14" t="str">
+      <c r="AT14" s="17" t="str">
         <f>Sum(AT10:AT13)</f>
       </c>
-      <c r="AU14" s="14" t="str">
+      <c r="AU14" s="17" t="str">
         <f>Sum(AU10:AU13)</f>
       </c>
-      <c r="AV14" s="14" t="str">
+      <c r="AV14" s="17" t="str">
         <f>Sum(AV10:AV13)</f>
       </c>
-      <c r="AW14" s="14" t="str">
+      <c r="AW14" s="17" t="str">
         <f>Sum(AW10:AW13)</f>
       </c>
-      <c r="AX14" s="14" t="str">
+      <c r="AX14" s="17" t="str">
         <f>Sum(AX10:AX13)</f>
       </c>
-      <c r="AY14" s="14" t="str">
+      <c r="AY14" s="17" t="str">
         <f>Sum(AY10:AY13)</f>
       </c>
-      <c r="AZ14" s="14" t="str">
+      <c r="AZ14" s="17" t="str">
         <f>Sum(AZ10:AZ13)</f>
       </c>
-      <c r="BA14" s="14" t="str">
+      <c r="BA14" s="17" t="str">
         <f>Sum(BA10:BA13)</f>
       </c>
-      <c r="BB14" s="14" t="str">
+      <c r="BB14" s="17" t="str">
         <f>Sum(BB10:BB13)</f>
       </c>
-      <c r="BC14" s="14"/>
+      <c r="BC14" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9587,110 +9599,110 @@
       <c r="L2" t="s">
         <v>117</v>
       </c>
-      <c r="M2" s="17" t="n">
+      <c r="M2" s="5" t="n">
         <v>29993312707</v>
       </c>
-      <c r="N2" s="17" t="n">
+      <c r="N2" s="5" t="n">
         <v>31945138023</v>
       </c>
-      <c r="O2" s="17" t="n">
+      <c r="O2" s="5" t="n">
         <v>29753069568</v>
       </c>
-      <c r="P2" s="17" t="n">
+      <c r="P2" s="5" t="n">
         <v>30346592157</v>
       </c>
-      <c r="Q2" s="17" t="n">
+      <c r="Q2" s="5" t="n">
         <v>31747329388</v>
       </c>
-      <c r="R2" s="17" t="n">
+      <c r="R2" s="5" t="n">
         <v>28791249139</v>
       </c>
-      <c r="S2" s="17" t="n">
+      <c r="S2" s="5" t="n">
         <v>32842967690</v>
       </c>
-      <c r="T2" s="17" t="n">
+      <c r="T2" s="5" t="n">
         <v>34627617203</v>
       </c>
-      <c r="U2" s="17" t="n">
+      <c r="U2" s="5" t="n">
         <v>37288669184</v>
       </c>
-      <c r="V2" s="17" t="n">
+      <c r="V2" s="5" t="n">
         <v>39481622310</v>
       </c>
-      <c r="W2" s="17" t="n">
+      <c r="W2" s="5" t="n">
         <v>42902822546.2254</v>
       </c>
-      <c r="X2" s="17" t="n">
+      <c r="X2" s="5" t="n">
         <v>45999287165.102</v>
       </c>
-      <c r="Y2" s="17" t="n">
+      <c r="Y2" s="5" t="n">
         <v>60247822851.393</v>
       </c>
-      <c r="Z2" s="17" t="n">
+      <c r="Z2" s="5" t="n">
         <v>70112736203.1276</v>
       </c>
-      <c r="AA2" s="17" t="n">
+      <c r="AA2" s="5" t="n">
         <v>72882060944.0123</v>
       </c>
-      <c r="AB2" s="17" t="n">
+      <c r="AB2" s="5" t="n">
         <v>73955064380.7206</v>
       </c>
-      <c r="AC2" s="17" t="n">
+      <c r="AC2" s="5" t="n">
         <v>88529377435.8539</v>
       </c>
-      <c r="AD2" s="17" t="n">
+      <c r="AD2" s="5" t="n">
         <v>99100586147.3638</v>
       </c>
-      <c r="AE2" s="17" t="n">
+      <c r="AE2" s="5" t="n">
         <v>105266669700.67</v>
       </c>
-      <c r="AF2" s="17" t="n">
+      <c r="AF2" s="5" t="n">
         <v>107245503547.368</v>
       </c>
-      <c r="AG2" s="17" t="n">
+      <c r="AG2" s="5" t="n">
         <v>96939369086.5759</v>
       </c>
-      <c r="AH2" s="17" t="n">
+      <c r="AH2" s="5" t="n">
         <v>109468302700.962</v>
       </c>
-      <c r="AI2" s="17" t="n">
+      <c r="AI2" s="5" t="n">
         <v>105499463138.199</v>
       </c>
-      <c r="AJ2" s="17" t="n">
+      <c r="AJ2" s="5" t="n">
         <v>96995856740.5779</v>
       </c>
-      <c r="AK2" s="17" t="n">
+      <c r="AK2" s="5" t="n">
         <v>82026660480.1835</v>
       </c>
-      <c r="AL2" s="17" t="n">
+      <c r="AL2" s="5" t="n">
         <v>82093613281.8144</v>
       </c>
-      <c r="AM2" s="17" t="n">
+      <c r="AM2" s="5" t="n">
         <v>103132925805.592</v>
       </c>
-      <c r="AN2" s="17" t="n">
+      <c r="AN2" s="5" t="n">
         <v>112799135328.923</v>
       </c>
-      <c r="AO2" s="17" t="n">
+      <c r="AO2" s="5" t="n">
         <v>113078047450.629</v>
       </c>
-      <c r="AP2" s="17" t="n">
+      <c r="AP2" s="5" t="n">
         <v>123281118568.194</v>
       </c>
-      <c r="AQ2" s="17" t="n">
+      <c r="AQ2" s="5" t="n">
         <v>153210907310.412</v>
       </c>
-      <c r="AR2" s="17" t="n">
+      <c r="AR2" s="5" t="n">
         <v>114361655314.093</v>
       </c>
-      <c r="AS2" s="17" t="n">
+      <c r="AS2" s="5" t="n">
         <v>122304776861.729</v>
       </c>
-      <c r="AT2" s="17" t="n">
+      <c r="AT2" s="5" t="n">
         <v>84663692097.9125</v>
       </c>
-      <c r="AU2" s="17"/>
-      <c r="AV2" s="17"/>
+      <c r="AU2" s="5"/>
+      <c r="AV2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -9699,110 +9711,110 @@
       <c r="L3" t="s">
         <v>118</v>
       </c>
-      <c r="M3" s="17" t="n">
+      <c r="M3" s="5" t="n">
         <v>35960694888</v>
       </c>
-      <c r="N3" s="17" t="n">
+      <c r="N3" s="5" t="n">
         <v>37863506273</v>
       </c>
-      <c r="O3" s="17" t="n">
+      <c r="O3" s="5" t="n">
         <v>35092959873</v>
       </c>
-      <c r="P3" s="17" t="n">
+      <c r="P3" s="5" t="n">
         <v>33829226700</v>
       </c>
-      <c r="Q3" s="17" t="n">
+      <c r="Q3" s="5" t="n">
         <v>31124696371</v>
       </c>
-      <c r="R3" s="17" t="n">
+      <c r="R3" s="5" t="n">
         <v>28535738215</v>
       </c>
-      <c r="S3" s="17" t="n">
+      <c r="S3" s="5" t="n">
         <v>30194170969</v>
       </c>
-      <c r="T3" s="17" t="n">
+      <c r="T3" s="5" t="n">
         <v>29073662056</v>
       </c>
-      <c r="U3" s="17" t="n">
+      <c r="U3" s="5" t="n">
         <v>28130482737</v>
       </c>
-      <c r="V3" s="17" t="n">
+      <c r="V3" s="5" t="n">
         <v>29677352211</v>
       </c>
-      <c r="W3" s="17" t="n">
+      <c r="W3" s="5" t="n">
         <v>24339685706.4517</v>
       </c>
-      <c r="X3" s="17" t="n">
+      <c r="X3" s="5" t="n">
         <v>25668062870.6387</v>
       </c>
-      <c r="Y3" s="17" t="n">
+      <c r="Y3" s="5" t="n">
         <v>32788951053.1231</v>
       </c>
-      <c r="Z3" s="17" t="n">
+      <c r="Z3" s="5" t="n">
         <v>47830922262.423</v>
       </c>
-      <c r="AA3" s="17" t="n">
+      <c r="AA3" s="5" t="n">
         <v>58825443576.2251</v>
       </c>
-      <c r="AB3" s="17" t="n">
+      <c r="AB3" s="5" t="n">
         <v>65108861243.7038</v>
       </c>
-      <c r="AC3" s="17" t="n">
+      <c r="AC3" s="5" t="n">
         <v>68516071349.0288</v>
       </c>
-      <c r="AD3" s="17" t="n">
+      <c r="AD3" s="5" t="n">
         <v>82810086269.79</v>
       </c>
-      <c r="AE3" s="17" t="n">
+      <c r="AE3" s="5" t="n">
         <v>101935552219.899</v>
       </c>
-      <c r="AF3" s="17" t="n">
+      <c r="AF3" s="5" t="n">
         <v>91082000212.6408</v>
       </c>
-      <c r="AG3" s="17" t="n">
+      <c r="AG3" s="5" t="n">
         <v>106725389754.146</v>
       </c>
-      <c r="AH3" s="17" t="n">
+      <c r="AH3" s="5" t="n">
         <v>103383013784.238</v>
       </c>
-      <c r="AI3" s="17" t="n">
+      <c r="AI3" s="5" t="n">
         <v>98265166220.3349</v>
       </c>
-      <c r="AJ3" s="17" t="n">
+      <c r="AJ3" s="5" t="n">
         <v>86438880967.1992</v>
       </c>
-      <c r="AK3" s="17" t="n">
+      <c r="AK3" s="5" t="n">
         <v>77207039866.9569</v>
       </c>
-      <c r="AL3" s="17" t="n">
+      <c r="AL3" s="5" t="n">
         <v>71996639966.4858</v>
       </c>
-      <c r="AM3" s="17" t="n">
+      <c r="AM3" s="5" t="n">
         <v>71551510997.6919</v>
       </c>
-      <c r="AN3" s="17" t="n">
+      <c r="AN3" s="5" t="n">
         <v>76631880839.9451</v>
       </c>
-      <c r="AO3" s="17" t="n">
+      <c r="AO3" s="5" t="n">
         <v>88698325243.6305</v>
       </c>
-      <c r="AP3" s="17" t="n">
+      <c r="AP3" s="5" t="n">
         <v>92762373993.5141</v>
       </c>
-      <c r="AQ3" s="17" t="n">
+      <c r="AQ3" s="5" t="n">
         <v>98398389839.8272</v>
       </c>
-      <c r="AR3" s="17" t="n">
+      <c r="AR3" s="5" t="n">
         <v>90770167372.218</v>
       </c>
-      <c r="AS3" s="17" t="n">
+      <c r="AS3" s="5" t="n">
         <v>99021129618.9242</v>
       </c>
-      <c r="AT3" s="17" t="n">
+      <c r="AT3" s="5" t="n">
         <v>48591295833.2184</v>
       </c>
-      <c r="AU3" s="17"/>
-      <c r="AV3" s="17"/>
+      <c r="AU3" s="5"/>
+      <c r="AV3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -9811,90 +9823,90 @@
       <c r="L4" t="s">
         <v>119</v>
       </c>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17" t="n">
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5" t="n">
         <v>30879636954.9954</v>
       </c>
-      <c r="X4" s="17" t="n">
+      <c r="X4" s="5" t="n">
         <v>28990916270.223</v>
       </c>
-      <c r="Y4" s="17" t="n">
+      <c r="Y4" s="5" t="n">
         <v>30113227132.5393</v>
       </c>
-      <c r="Z4" s="17" t="n">
+      <c r="Z4" s="5" t="n">
         <v>35201492871.434</v>
       </c>
-      <c r="AA4" s="17" t="n">
+      <c r="AA4" s="5" t="n">
         <v>35241294858.2151</v>
       </c>
-      <c r="AB4" s="17" t="n">
+      <c r="AB4" s="5" t="n">
         <v>41875695732.6547</v>
       </c>
-      <c r="AC4" s="17" t="n">
+      <c r="AC4" s="5" t="n">
         <v>49185549119.2547</v>
       </c>
-      <c r="AD4" s="17" t="n">
+      <c r="AD4" s="5" t="n">
         <v>46279650071.9425</v>
       </c>
-      <c r="AE4" s="17" t="n">
+      <c r="AE4" s="5" t="n">
         <v>54012288564.5049</v>
       </c>
-      <c r="AF4" s="17" t="n">
+      <c r="AF4" s="5" t="n">
         <v>47688602187.0404</v>
       </c>
-      <c r="AG4" s="17" t="n">
+      <c r="AG4" s="5" t="n">
         <v>39399834017.7615</v>
       </c>
-      <c r="AH4" s="17" t="n">
+      <c r="AH4" s="5" t="n">
         <v>38073802839.4699</v>
       </c>
-      <c r="AI4" s="17" t="n">
+      <c r="AI4" s="5" t="n">
         <v>42291049655.6658</v>
       </c>
-      <c r="AJ4" s="17" t="n">
+      <c r="AJ4" s="5" t="n">
         <v>32247405087.1344</v>
       </c>
-      <c r="AK4" s="17" t="n">
+      <c r="AK4" s="5" t="n">
         <v>31296907203.1947</v>
       </c>
-      <c r="AL4" s="17" t="n">
+      <c r="AL4" s="5" t="n">
         <v>28506482015.0489</v>
       </c>
-      <c r="AM4" s="17" t="n">
+      <c r="AM4" s="5" t="n">
         <v>26784143602.9829</v>
       </c>
-      <c r="AN4" s="17" t="n">
+      <c r="AN4" s="5" t="n">
         <v>29083589497.9641</v>
       </c>
-      <c r="AO4" s="17" t="n">
+      <c r="AO4" s="5" t="n">
         <v>33837415345.756</v>
       </c>
-      <c r="AP4" s="17" t="n">
+      <c r="AP4" s="5" t="n">
         <v>35835726921.9774</v>
       </c>
-      <c r="AQ4" s="17" t="n">
+      <c r="AQ4" s="5" t="n">
         <v>34006207873.992</v>
       </c>
-      <c r="AR4" s="17" t="n">
+      <c r="AR4" s="5" t="n">
         <v>52156510661.3755</v>
       </c>
-      <c r="AS4" s="17" t="n">
+      <c r="AS4" s="5" t="n">
         <v>50741258836.9179</v>
       </c>
-      <c r="AT4" s="17" t="n">
+      <c r="AT4" s="5" t="n">
         <v>20342650358.8622</v>
       </c>
-      <c r="AU4" s="17"/>
-      <c r="AV4" s="17"/>
+      <c r="AU4" s="5"/>
+      <c r="AV4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -9903,110 +9915,110 @@
       <c r="L5" t="s">
         <v>120</v>
       </c>
-      <c r="M5" s="17" t="n">
+      <c r="M5" s="5" t="n">
         <v>28304563806</v>
       </c>
-      <c r="N5" s="17" t="n">
+      <c r="N5" s="5" t="n">
         <v>41243339793</v>
       </c>
-      <c r="O5" s="17" t="n">
+      <c r="O5" s="5" t="n">
         <v>34954992394</v>
       </c>
-      <c r="P5" s="17" t="n">
+      <c r="P5" s="5" t="n">
         <v>33954732784</v>
       </c>
-      <c r="Q5" s="17" t="n">
+      <c r="Q5" s="5" t="n">
         <v>32186662449</v>
       </c>
-      <c r="R5" s="17" t="n">
+      <c r="R5" s="5" t="n">
         <v>35189234715</v>
       </c>
-      <c r="S5" s="17" t="n">
+      <c r="S5" s="5" t="n">
         <v>30275743132</v>
       </c>
-      <c r="T5" s="17" t="n">
+      <c r="T5" s="5" t="n">
         <v>30248655247</v>
       </c>
-      <c r="U5" s="17" t="n">
+      <c r="U5" s="5" t="n">
         <v>30401001630</v>
       </c>
-      <c r="V5" s="17" t="n">
+      <c r="V5" s="5" t="n">
         <v>32561216997</v>
       </c>
-      <c r="W5" s="17" t="n">
+      <c r="W5" s="5" t="n">
         <v>12561996255.8882</v>
       </c>
-      <c r="X5" s="17" t="n">
+      <c r="X5" s="5" t="n">
         <v>20376379119.5963</v>
       </c>
-      <c r="Y5" s="17" t="n">
+      <c r="Y5" s="5" t="n">
         <v>19098314585.8526</v>
       </c>
-      <c r="Z5" s="17" t="n">
+      <c r="Z5" s="5" t="n">
         <v>25174152975.356</v>
       </c>
-      <c r="AA5" s="17" t="n">
+      <c r="AA5" s="5" t="n">
         <v>26390491632.9557</v>
       </c>
-      <c r="AB5" s="17" t="n">
+      <c r="AB5" s="5" t="n">
         <v>34314078131.7759</v>
       </c>
-      <c r="AC5" s="17" t="n">
+      <c r="AC5" s="5" t="n">
         <v>36302990528.4341</v>
       </c>
-      <c r="AD5" s="17" t="n">
+      <c r="AD5" s="5" t="n">
         <v>43285772133.7758</v>
       </c>
-      <c r="AE5" s="17" t="n">
+      <c r="AE5" s="5" t="n">
         <v>52322135708.5164</v>
       </c>
-      <c r="AF5" s="17" t="n">
+      <c r="AF5" s="5" t="n">
         <v>56439625804.5077</v>
       </c>
-      <c r="AG5" s="17" t="n">
+      <c r="AG5" s="5" t="n">
         <v>56543203658.8858</v>
       </c>
-      <c r="AH5" s="17" t="n">
+      <c r="AH5" s="5" t="n">
         <v>57356213929.8226</v>
       </c>
-      <c r="AI5" s="17" t="n">
+      <c r="AI5" s="5" t="n">
         <v>52731495692.821</v>
       </c>
-      <c r="AJ5" s="17" t="n">
+      <c r="AJ5" s="5" t="n">
         <v>43802955073.4203</v>
       </c>
-      <c r="AK5" s="17" t="n">
+      <c r="AK5" s="5" t="n">
         <v>38918110176.3577</v>
       </c>
-      <c r="AL5" s="17" t="n">
+      <c r="AL5" s="5" t="n">
         <v>38302470301.744</v>
       </c>
-      <c r="AM5" s="17" t="n">
+      <c r="AM5" s="5" t="n">
         <v>39722090100.4181</v>
       </c>
-      <c r="AN5" s="17" t="n">
+      <c r="AN5" s="5" t="n">
         <v>43597259051.7596</v>
       </c>
-      <c r="AO5" s="17" t="n">
+      <c r="AO5" s="5" t="n">
         <v>51940589519.8209</v>
       </c>
-      <c r="AP5" s="17" t="n">
+      <c r="AP5" s="5" t="n">
         <v>57640239173.7832</v>
       </c>
-      <c r="AQ5" s="17" t="n">
+      <c r="AQ5" s="5" t="n">
         <v>60573407783.3784</v>
       </c>
-      <c r="AR5" s="17" t="n">
+      <c r="AR5" s="5" t="n">
         <v>55378049713.2556</v>
       </c>
-      <c r="AS5" s="17" t="n">
+      <c r="AS5" s="5" t="n">
         <v>39014152184.0631</v>
       </c>
-      <c r="AT5" s="17" t="n">
+      <c r="AT5" s="5" t="n">
         <v>17449481642.3526</v>
       </c>
-      <c r="AU5" s="17"/>
-      <c r="AV5" s="17"/>
+      <c r="AU5" s="5"/>
+      <c r="AV5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -10015,220 +10027,220 @@
       <c r="L6" t="s">
         <v>121</v>
       </c>
-      <c r="M6" s="17" t="n">
+      <c r="M6" s="5" t="n">
         <v>13434401635</v>
       </c>
-      <c r="N6" s="17" t="n">
+      <c r="N6" s="5" t="n">
         <v>19369182588</v>
       </c>
-      <c r="O6" s="17" t="n">
+      <c r="O6" s="5" t="n">
         <v>17619229930</v>
       </c>
-      <c r="P6" s="17" t="n">
+      <c r="P6" s="5" t="n">
         <v>17645725767</v>
       </c>
-      <c r="Q6" s="17" t="n">
+      <c r="Q6" s="5" t="n">
         <v>18075942350</v>
       </c>
-      <c r="R6" s="17" t="n">
+      <c r="R6" s="5" t="n">
         <v>19041220687</v>
       </c>
-      <c r="S6" s="17" t="n">
+      <c r="S6" s="5" t="n">
         <v>19347390330</v>
       </c>
-      <c r="T6" s="17" t="n">
+      <c r="T6" s="5" t="n">
         <v>17934428738</v>
       </c>
-      <c r="U6" s="17" t="n">
+      <c r="U6" s="5" t="n">
         <v>17288342573</v>
       </c>
-      <c r="V6" s="17" t="n">
+      <c r="V6" s="5" t="n">
         <v>19013150234</v>
       </c>
-      <c r="W6" s="17" t="n">
+      <c r="W6" s="5" t="n">
         <v>20597636512.8267</v>
       </c>
-      <c r="X6" s="17" t="n">
+      <c r="X6" s="5" t="n">
         <v>21626410588.6674</v>
       </c>
-      <c r="Y6" s="17" t="n">
+      <c r="Y6" s="5" t="n">
         <v>25988398540.367</v>
       </c>
-      <c r="Z6" s="17" t="n">
+      <c r="Z6" s="5" t="n">
         <v>32503996698.2746</v>
       </c>
-      <c r="AA6" s="17" t="n">
+      <c r="AA6" s="5" t="n">
         <v>34598872059.718</v>
       </c>
-      <c r="AB6" s="17" t="n">
+      <c r="AB6" s="5" t="n">
         <v>43335587798.781</v>
       </c>
-      <c r="AC6" s="17" t="n">
+      <c r="AC6" s="5" t="n">
         <v>45538329543.2904</v>
       </c>
-      <c r="AD6" s="17" t="n">
+      <c r="AD6" s="5" t="n">
         <v>49801473286.0533</v>
       </c>
-      <c r="AE6" s="17" t="n">
+      <c r="AE6" s="5" t="n">
         <v>54964300849.7418</v>
       </c>
-      <c r="AF6" s="17" t="n">
+      <c r="AF6" s="5" t="n">
         <v>59264807867.4139</v>
       </c>
-      <c r="AG6" s="17" t="n">
+      <c r="AG6" s="5" t="n">
         <v>58277206632.2153</v>
       </c>
-      <c r="AH6" s="17" t="n">
+      <c r="AH6" s="5" t="n">
         <v>56309134741.6547</v>
       </c>
-      <c r="AI6" s="17" t="n">
+      <c r="AI6" s="5" t="n">
         <v>56266882362.0404</v>
       </c>
-      <c r="AJ6" s="17" t="n">
+      <c r="AJ6" s="5" t="n">
         <v>47418032358.0387</v>
       </c>
-      <c r="AK6" s="17" t="n">
+      <c r="AK6" s="5" t="n">
         <v>53482722030.406</v>
       </c>
-      <c r="AL6" s="17" t="n">
+      <c r="AL6" s="5" t="n">
         <v>52427120840.6328</v>
       </c>
-      <c r="AM6" s="17" t="n">
+      <c r="AM6" s="5" t="n">
         <v>56461734363.4189</v>
       </c>
-      <c r="AN6" s="17" t="n">
+      <c r="AN6" s="5" t="n">
         <v>59242049642.4755</v>
       </c>
-      <c r="AO6" s="17" t="n">
+      <c r="AO6" s="5" t="n">
         <v>70266476117.5831</v>
       </c>
-      <c r="AP6" s="17" t="n">
+      <c r="AP6" s="5" t="n">
         <v>73354518952.1936</v>
       </c>
-      <c r="AQ6" s="17" t="n">
+      <c r="AQ6" s="5" t="n">
         <v>75798633027.2083</v>
       </c>
-      <c r="AR6" s="17" t="n">
+      <c r="AR6" s="5" t="n">
         <v>74294234511.4505</v>
       </c>
-      <c r="AS6" s="17" t="n">
+      <c r="AS6" s="5" t="n">
         <v>81672645182.5426</v>
       </c>
-      <c r="AT6" s="17" t="n">
+      <c r="AT6" s="5" t="n">
         <v>32808828005.7754</v>
       </c>
-      <c r="AU6" s="17"/>
-      <c r="AV6" s="17"/>
+      <c r="AU6" s="5"/>
+      <c r="AV6" s="5"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
         <f>L7</f>
       </c>
       <c r="L7"/>
-      <c r="M7" s="17" t="n">
+      <c r="M7" s="5" t="n">
         <v>12657156369</v>
       </c>
-      <c r="N7" s="17" t="n">
+      <c r="N7" s="5" t="n">
         <v>5733027167</v>
       </c>
-      <c r="O7" s="17" t="n">
+      <c r="O7" s="5" t="n">
         <v>5986408785</v>
       </c>
-      <c r="P7" s="17" t="n">
+      <c r="P7" s="5" t="n">
         <v>5597104734</v>
       </c>
-      <c r="Q7" s="17" t="n">
+      <c r="Q7" s="5" t="n">
         <v>4027272167</v>
       </c>
-      <c r="R7" s="17" t="n">
+      <c r="R7" s="5" t="n">
         <v>5034572112</v>
       </c>
-      <c r="S7" s="17" t="n">
+      <c r="S7" s="5" t="n">
         <v>5788506977</v>
       </c>
-      <c r="T7" s="17" t="n">
+      <c r="T7" s="5" t="n">
         <v>4097788635</v>
       </c>
-      <c r="U7" s="17" t="n">
+      <c r="U7" s="5" t="n">
         <v>3857386043</v>
       </c>
-      <c r="V7" s="17" t="n">
+      <c r="V7" s="5" t="n">
         <v>1451694736</v>
       </c>
-      <c r="W7" s="17" t="n">
+      <c r="W7" s="5" t="n">
         <v>896708530</v>
       </c>
-      <c r="X7" s="17" t="n">
+      <c r="X7" s="5" t="n">
         <v>1332582608.1</v>
       </c>
-      <c r="Y7" s="17" t="n">
+      <c r="Y7" s="5" t="n">
         <v>1573806973.21</v>
       </c>
-      <c r="Z7" s="17" t="n">
+      <c r="Z7" s="5" t="n">
         <v>709786293.2455</v>
       </c>
-      <c r="AA7" s="17" t="n">
+      <c r="AA7" s="5" t="n">
         <v>1836868750.7889</v>
       </c>
-      <c r="AB7" s="17" t="n">
+      <c r="AB7" s="5" t="n">
         <v>7075231414.8205</v>
       </c>
-      <c r="AC7" s="17" t="n">
+      <c r="AC7" s="5" t="n">
         <v>7092868367.2559</v>
       </c>
-      <c r="AD7" s="17" t="n">
+      <c r="AD7" s="5" t="n">
         <v>6876854944.5664</v>
       </c>
-      <c r="AE7" s="17" t="n">
+      <c r="AE7" s="5" t="n">
         <v>9487139041.4969</v>
       </c>
-      <c r="AF7" s="17" t="n">
+      <c r="AF7" s="5" t="n">
         <v>5929525859.4555</v>
       </c>
-      <c r="AG7" s="17" t="n">
+      <c r="AG7" s="5" t="n">
         <v>4811342087.0799</v>
       </c>
-      <c r="AH7" s="17" t="n">
+      <c r="AH7" s="5" t="n">
         <v>3973190873.3447</v>
       </c>
-      <c r="AI7" s="17" t="n">
+      <c r="AI7" s="5" t="n">
         <v>2739247979.5661</v>
       </c>
-      <c r="AJ7" s="17" t="n">
+      <c r="AJ7" s="5" t="n">
         <v>1325283035.7596</v>
       </c>
-      <c r="AK7" s="17" t="n">
+      <c r="AK7" s="5" t="n">
         <v>518098070.4508</v>
       </c>
-      <c r="AL7" s="17" t="n">
+      <c r="AL7" s="5" t="n">
         <v>899913864.8209</v>
       </c>
-      <c r="AM7" s="17" t="n">
+      <c r="AM7" s="5" t="n">
         <v>872368734.0903</v>
       </c>
-      <c r="AN7" s="17" t="n">
+      <c r="AN7" s="5" t="n">
         <v>501162415.0376</v>
       </c>
-      <c r="AO7" s="17" t="n">
+      <c r="AO7" s="5" t="n">
         <v>1009255457.355</v>
       </c>
-      <c r="AP7" s="17" t="n">
+      <c r="AP7" s="5" t="n">
         <v>1101647733.6542</v>
       </c>
-      <c r="AQ7" s="17" t="n">
+      <c r="AQ7" s="5" t="n">
         <v>760098902.1179</v>
       </c>
-      <c r="AR7" s="17" t="n">
+      <c r="AR7" s="5" t="n">
         <v>742455295.4319</v>
       </c>
-      <c r="AS7" s="17" t="n">
+      <c r="AS7" s="5" t="n">
         <v>21741977737.9626</v>
       </c>
-      <c r="AT7" s="17" t="n">
+      <c r="AT7" s="5" t="n">
         <v>13529156156.6481</v>
       </c>
-      <c r="AU7" s="17"/>
-      <c r="AV7" s="17"/>
+      <c r="AU7" s="5"/>
+      <c r="AV7" s="5"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -10237,112 +10249,112 @@
       <c r="L8" t="s">
         <v>46</v>
       </c>
-      <c r="M8" s="17" t="str">
+      <c r="M8" s="5" t="str">
         <f>Sum(M2:M7)</f>
       </c>
-      <c r="N8" s="17" t="str">
+      <c r="N8" s="5" t="str">
         <f>Sum(N2:N7)</f>
       </c>
-      <c r="O8" s="17" t="str">
+      <c r="O8" s="5" t="str">
         <f>Sum(O2:O7)</f>
       </c>
-      <c r="P8" s="17" t="str">
+      <c r="P8" s="5" t="str">
         <f>Sum(P2:P7)</f>
       </c>
-      <c r="Q8" s="17" t="str">
+      <c r="Q8" s="5" t="str">
         <f>Sum(Q2:Q7)</f>
       </c>
-      <c r="R8" s="17" t="str">
+      <c r="R8" s="5" t="str">
         <f>Sum(R2:R7)</f>
       </c>
-      <c r="S8" s="17" t="str">
+      <c r="S8" s="5" t="str">
         <f>Sum(S2:S7)</f>
       </c>
-      <c r="T8" s="17" t="str">
+      <c r="T8" s="5" t="str">
         <f>Sum(T2:T7)</f>
       </c>
-      <c r="U8" s="17" t="str">
+      <c r="U8" s="5" t="str">
         <f>Sum(U2:U7)</f>
       </c>
-      <c r="V8" s="17" t="str">
+      <c r="V8" s="5" t="str">
         <f>Sum(V2:V7)</f>
       </c>
-      <c r="W8" s="17" t="str">
+      <c r="W8" s="5" t="str">
         <f>Sum(W2:W7)</f>
       </c>
-      <c r="X8" s="17" t="str">
+      <c r="X8" s="5" t="str">
         <f>Sum(X2:X7)</f>
       </c>
-      <c r="Y8" s="17" t="str">
+      <c r="Y8" s="5" t="str">
         <f>Sum(Y2:Y7)</f>
       </c>
-      <c r="Z8" s="17" t="str">
+      <c r="Z8" s="5" t="str">
         <f>Sum(Z2:Z7)</f>
       </c>
-      <c r="AA8" s="17" t="str">
+      <c r="AA8" s="5" t="str">
         <f>Sum(AA2:AA7)</f>
       </c>
-      <c r="AB8" s="17" t="str">
+      <c r="AB8" s="5" t="str">
         <f>Sum(AB2:AB7)</f>
       </c>
-      <c r="AC8" s="17" t="str">
+      <c r="AC8" s="5" t="str">
         <f>Sum(AC2:AC7)</f>
       </c>
-      <c r="AD8" s="17" t="str">
+      <c r="AD8" s="5" t="str">
         <f>Sum(AD2:AD7)</f>
       </c>
-      <c r="AE8" s="17" t="str">
+      <c r="AE8" s="5" t="str">
         <f>Sum(AE2:AE7)</f>
       </c>
-      <c r="AF8" s="17" t="str">
+      <c r="AF8" s="5" t="str">
         <f>Sum(AF2:AF7)</f>
       </c>
-      <c r="AG8" s="17" t="str">
+      <c r="AG8" s="5" t="str">
         <f>Sum(AG2:AG7)</f>
       </c>
-      <c r="AH8" s="17" t="str">
+      <c r="AH8" s="5" t="str">
         <f>Sum(AH2:AH7)</f>
       </c>
-      <c r="AI8" s="17" t="str">
+      <c r="AI8" s="5" t="str">
         <f>Sum(AI2:AI7)</f>
       </c>
-      <c r="AJ8" s="17" t="str">
+      <c r="AJ8" s="5" t="str">
         <f>Sum(AJ2:AJ7)</f>
       </c>
-      <c r="AK8" s="17" t="str">
+      <c r="AK8" s="5" t="str">
         <f>Sum(AK2:AK7)</f>
       </c>
-      <c r="AL8" s="17" t="str">
+      <c r="AL8" s="5" t="str">
         <f>Sum(AL2:AL7)</f>
       </c>
-      <c r="AM8" s="17" t="str">
+      <c r="AM8" s="5" t="str">
         <f>Sum(AM2:AM7)</f>
       </c>
-      <c r="AN8" s="17" t="str">
+      <c r="AN8" s="5" t="str">
         <f>Sum(AN2:AN7)</f>
       </c>
-      <c r="AO8" s="17" t="str">
+      <c r="AO8" s="5" t="str">
         <f>Sum(AO2:AO7)</f>
       </c>
-      <c r="AP8" s="17" t="str">
+      <c r="AP8" s="5" t="str">
         <f>Sum(AP2:AP7)</f>
       </c>
-      <c r="AQ8" s="17" t="str">
+      <c r="AQ8" s="5" t="str">
         <f>Sum(AQ2:AQ7)</f>
       </c>
-      <c r="AR8" s="17" t="str">
+      <c r="AR8" s="5" t="str">
         <f>Sum(AR2:AR7)</f>
       </c>
-      <c r="AS8" s="17" t="str">
+      <c r="AS8" s="5" t="str">
         <f>Sum(AS2:AS7)</f>
       </c>
-      <c r="AT8" s="17" t="str">
+      <c r="AT8" s="5" t="str">
         <f>Sum(AT2:AT7)</f>
       </c>
-      <c r="AU8" s="17" t="str">
+      <c r="AU8" s="5" t="str">
         <f>Sum(AU2:AU7)</f>
       </c>
-      <c r="AV8" s="17"/>
+      <c r="AV8" s="5"/>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -10485,16 +10497,16 @@
       <c r="A12" t="str">
         <f>L12</f>
       </c>
-      <c r="B12" s="17" t="str">
+      <c r="B12" s="5" t="str">
         <f>AQ12</f>
       </c>
-      <c r="C12" s="17" t="str">
+      <c r="C12" s="5" t="str">
         <f>AS12</f>
       </c>
-      <c r="D12" s="17" t="str">
+      <c r="D12" s="5" t="str">
         <f>AT12</f>
       </c>
-      <c r="E12" s="17" t="str">
+      <c r="E12" s="5" t="str">
         <f>AU12</f>
       </c>
       <c r="F12" s="1" t="str">
@@ -10515,125 +10527,125 @@
       <c r="L12" t="s">
         <v>117</v>
       </c>
-      <c r="M12" s="17" t="n">
+      <c r="M12" s="5" t="n">
         <v>62034626909.3846</v>
       </c>
-      <c r="N12" s="17" t="n">
+      <c r="N12" s="5" t="n">
         <v>63790986396.3299</v>
       </c>
-      <c r="O12" s="17" t="n">
+      <c r="O12" s="5" t="n">
         <v>57962930142.4092</v>
       </c>
-      <c r="P12" s="17" t="n">
+      <c r="P12" s="5" t="n">
         <v>57764049648.3606</v>
       </c>
-      <c r="Q12" s="17" t="n">
+      <c r="Q12" s="5" t="n">
         <v>59139272094.0376</v>
       </c>
-      <c r="R12" s="17" t="n">
+      <c r="R12" s="5" t="n">
         <v>52518645921.6326</v>
       </c>
-      <c r="S12" s="17" t="n">
+      <c r="S12" s="5" t="n">
         <v>58802303678.2549</v>
       </c>
-      <c r="T12" s="17" t="n">
+      <c r="T12" s="5" t="n">
         <v>60916461069.1388</v>
       </c>
-      <c r="U12" s="17" t="n">
+      <c r="U12" s="5" t="n">
         <v>64785480372.1977</v>
       </c>
-      <c r="V12" s="17" t="n">
+      <c r="V12" s="5" t="n">
         <v>67756525136.607</v>
       </c>
-      <c r="W12" s="17" t="n">
+      <c r="W12" s="5" t="n">
         <v>72127083679.6732</v>
       </c>
-      <c r="X12" s="17" t="n">
+      <c r="X12" s="5" t="n">
         <v>75502662109.3571</v>
       </c>
-      <c r="Y12" s="17" t="n">
+      <c r="Y12" s="5" t="n">
         <v>97358376194.8559</v>
       </c>
-      <c r="Z12" s="17" t="n">
+      <c r="Z12" s="5" t="n">
         <v>111165887815.399</v>
       </c>
-      <c r="AA12" s="17" t="n">
+      <c r="AA12" s="5" t="n">
         <v>112802246479.287</v>
       </c>
-      <c r="AB12" s="17" t="n">
+      <c r="AB12" s="5" t="n">
         <v>111082745340.634</v>
       </c>
-      <c r="AC12" s="17" t="n">
+      <c r="AC12" s="5" t="n">
         <v>128790145385.143</v>
       </c>
-      <c r="AD12" s="17" t="n">
+      <c r="AD12" s="5" t="n">
         <v>140306292668.808</v>
       </c>
-      <c r="AE12" s="17" t="n">
+      <c r="AE12" s="5" t="n">
         <v>146005026305.648</v>
       </c>
-      <c r="AF12" s="17" t="n">
+      <c r="AF12" s="5" t="n">
         <v>147243938932.912</v>
       </c>
-      <c r="AG12" s="17" t="n">
+      <c r="AG12" s="5" t="n">
         <v>131951257583.197</v>
       </c>
-      <c r="AH12" s="17" t="n">
+      <c r="AH12" s="5" t="n">
         <v>146073411885.194</v>
       </c>
-      <c r="AI12" s="17" t="n">
+      <c r="AI12" s="5" t="n">
         <v>138268407453.454</v>
       </c>
-      <c r="AJ12" s="17" t="n">
+      <c r="AJ12" s="5" t="n">
         <v>124858000930.857</v>
       </c>
-      <c r="AK12" s="17" t="n">
+      <c r="AK12" s="5" t="n">
         <v>103697125569.675</v>
       </c>
-      <c r="AL12" s="17" t="n">
+      <c r="AL12" s="5" t="n">
         <v>102717992754.661</v>
       </c>
-      <c r="AM12" s="17" t="n">
+      <c r="AM12" s="5" t="n">
         <v>128019486053.215</v>
       </c>
-      <c r="AN12" s="17" t="n">
+      <c r="AN12" s="5" t="n">
         <v>137693904522.467</v>
       </c>
-      <c r="AO12" s="17" t="n">
+      <c r="AO12" s="5" t="n">
         <v>135036560825.555</v>
       </c>
-      <c r="AP12" s="17" t="n">
+      <c r="AP12" s="5" t="n">
         <v>144548325327.103</v>
       </c>
-      <c r="AQ12" s="17" t="n">
+      <c r="AQ12" s="5" t="n">
         <v>177324883403.893</v>
       </c>
-      <c r="AR12" s="17" t="n">
+      <c r="AR12" s="5" t="n">
         <v>127957170157.387</v>
       </c>
-      <c r="AS12" s="17" t="n">
+      <c r="AS12" s="5" t="n">
         <v>127899803920.975</v>
       </c>
-      <c r="AT12" s="17" t="n">
+      <c r="AT12" s="5" t="n">
         <v>84663692097.9125</v>
       </c>
-      <c r="AU12" s="17"/>
-      <c r="AV12" s="17"/>
+      <c r="AU12" s="5"/>
+      <c r="AV12" s="5"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
         <f>L13</f>
       </c>
-      <c r="B13" s="17" t="str">
+      <c r="B13" s="5" t="str">
         <f>AQ13</f>
       </c>
-      <c r="C13" s="17" t="str">
+      <c r="C13" s="5" t="str">
         <f>AS13</f>
       </c>
-      <c r="D13" s="17" t="str">
+      <c r="D13" s="5" t="str">
         <f>AT13</f>
       </c>
-      <c r="E13" s="17" t="str">
+      <c r="E13" s="5" t="str">
         <f>AU13</f>
       </c>
       <c r="F13" s="1" t="str">
@@ -10654,125 +10666,125 @@
       <c r="L13" t="s">
         <v>118</v>
       </c>
-      <c r="M13" s="17" t="n">
+      <c r="M13" s="5" t="n">
         <v>74376855686.8564</v>
       </c>
-      <c r="N13" s="17" t="n">
+      <c r="N13" s="5" t="n">
         <v>75609327836.971</v>
       </c>
-      <c r="O13" s="17" t="n">
+      <c r="O13" s="5" t="n">
         <v>68365745489.2242</v>
       </c>
-      <c r="P13" s="17" t="n">
+      <c r="P13" s="5" t="n">
         <v>64393165484.7675</v>
       </c>
-      <c r="Q13" s="17" t="n">
+      <c r="Q13" s="5" t="n">
         <v>57979424506.3217</v>
       </c>
-      <c r="R13" s="17" t="n">
+      <c r="R13" s="5" t="n">
         <v>52052563756.1149</v>
       </c>
-      <c r="S13" s="17" t="n">
+      <c r="S13" s="5" t="n">
         <v>54059877517.4901</v>
       </c>
-      <c r="T13" s="17" t="n">
+      <c r="T13" s="5" t="n">
         <v>51146014246.0563</v>
       </c>
-      <c r="U13" s="17" t="n">
+      <c r="U13" s="5" t="n">
         <v>48874011250.5904</v>
       </c>
-      <c r="V13" s="17" t="n">
+      <c r="V13" s="5" t="n">
         <v>50930892486.7369</v>
       </c>
-      <c r="W13" s="17" t="n">
+      <c r="W13" s="5" t="n">
         <v>40919231964.1599</v>
       </c>
-      <c r="X13" s="17" t="n">
+      <c r="X13" s="5" t="n">
         <v>42131241533.5398</v>
       </c>
-      <c r="Y13" s="17" t="n">
+      <c r="Y13" s="5" t="n">
         <v>52985798997.8947</v>
       </c>
-      <c r="Z13" s="17" t="n">
+      <c r="Z13" s="5" t="n">
         <v>75837390269.9635</v>
       </c>
-      <c r="AA13" s="17" t="n">
+      <c r="AA13" s="5" t="n">
         <v>91046302747.067</v>
       </c>
-      <c r="AB13" s="17" t="n">
+      <c r="AB13" s="5" t="n">
         <v>97795480451.7547</v>
       </c>
-      <c r="AC13" s="17" t="n">
+      <c r="AC13" s="5" t="n">
         <v>99675328640.5298</v>
       </c>
-      <c r="AD13" s="17" t="n">
+      <c r="AD13" s="5" t="n">
         <v>117242255084.356</v>
       </c>
-      <c r="AE13" s="17" t="n">
+      <c r="AE13" s="5" t="n">
         <v>141384761441.279</v>
       </c>
-      <c r="AF13" s="17" t="n">
+      <c r="AF13" s="5" t="n">
         <v>125052072428.137</v>
       </c>
-      <c r="AG13" s="17" t="n">
+      <c r="AG13" s="5" t="n">
         <v>145271725273.345</v>
       </c>
-      <c r="AH13" s="17" t="n">
+      <c r="AH13" s="5" t="n">
         <v>137953263016.154</v>
       </c>
-      <c r="AI13" s="17" t="n">
+      <c r="AI13" s="5" t="n">
         <v>128787082296.679</v>
       </c>
-      <c r="AJ13" s="17" t="n">
+      <c r="AJ13" s="5" t="n">
         <v>111268524686.888</v>
       </c>
-      <c r="AK13" s="17" t="n">
+      <c r="AK13" s="5" t="n">
         <v>97604218690.3479</v>
       </c>
-      <c r="AL13" s="17" t="n">
+      <c r="AL13" s="5" t="n">
         <v>90084356709.3377</v>
       </c>
-      <c r="AM13" s="17" t="n">
+      <c r="AM13" s="5" t="n">
         <v>88817296636.4034</v>
       </c>
-      <c r="AN13" s="17" t="n">
+      <c r="AN13" s="5" t="n">
         <v>93544536959.2909</v>
       </c>
-      <c r="AO13" s="17" t="n">
+      <c r="AO13" s="5" t="n">
         <v>105922564652.665</v>
       </c>
-      <c r="AP13" s="17" t="n">
+      <c r="AP13" s="5" t="n">
         <v>108764796830.682</v>
       </c>
-      <c r="AQ13" s="17" t="n">
+      <c r="AQ13" s="5" t="n">
         <v>113885383957.206</v>
       </c>
-      <c r="AR13" s="17" t="n">
+      <c r="AR13" s="5" t="n">
         <v>101561084611.461</v>
       </c>
-      <c r="AS13" s="17" t="n">
+      <c r="AS13" s="5" t="n">
         <v>103551009104.182</v>
       </c>
-      <c r="AT13" s="17" t="n">
+      <c r="AT13" s="5" t="n">
         <v>48591295833.2184</v>
       </c>
-      <c r="AU13" s="17"/>
-      <c r="AV13" s="17"/>
+      <c r="AU13" s="5"/>
+      <c r="AV13" s="5"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
         <f>L14</f>
       </c>
-      <c r="B14" s="17" t="str">
+      <c r="B14" s="5" t="str">
         <f>AQ14</f>
       </c>
-      <c r="C14" s="17" t="str">
+      <c r="C14" s="5" t="str">
         <f>AS14</f>
       </c>
-      <c r="D14" s="17" t="str">
+      <c r="D14" s="5" t="str">
         <f>AT14</f>
       </c>
-      <c r="E14" s="17" t="str">
+      <c r="E14" s="5" t="str">
         <f>AU14</f>
       </c>
       <c r="F14" s="1" t="str">
@@ -10793,105 +10805,105 @@
       <c r="L14" t="s">
         <v>119</v>
       </c>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17" t="n">
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5" t="n">
         <v>51914023984.1129</v>
       </c>
-      <c r="X14" s="17" t="n">
+      <c r="X14" s="5" t="n">
         <v>47585332084.2751</v>
       </c>
-      <c r="Y14" s="17" t="n">
+      <c r="Y14" s="5" t="n">
         <v>48661922653.0792</v>
       </c>
-      <c r="Z14" s="17" t="n">
+      <c r="Z14" s="5" t="n">
         <v>55813043669.3161</v>
       </c>
-      <c r="AA14" s="17" t="n">
+      <c r="AA14" s="5" t="n">
         <v>54544248301.3675</v>
       </c>
-      <c r="AB14" s="17" t="n">
+      <c r="AB14" s="5" t="n">
         <v>62898562579.644</v>
       </c>
-      <c r="AC14" s="17" t="n">
+      <c r="AC14" s="5" t="n">
         <v>71553807395.8195</v>
       </c>
-      <c r="AD14" s="17" t="n">
+      <c r="AD14" s="5" t="n">
         <v>65522580441.1321</v>
       </c>
-      <c r="AE14" s="17" t="n">
+      <c r="AE14" s="5" t="n">
         <v>74915123990.4629</v>
       </c>
-      <c r="AF14" s="17" t="n">
+      <c r="AF14" s="5" t="n">
         <v>65474611018.2892</v>
       </c>
-      <c r="AG14" s="17" t="n">
+      <c r="AG14" s="5" t="n">
         <v>53629992604.6535</v>
       </c>
-      <c r="AH14" s="17" t="n">
+      <c r="AH14" s="5" t="n">
         <v>50805302968.8263</v>
       </c>
-      <c r="AI14" s="17" t="n">
+      <c r="AI14" s="5" t="n">
         <v>55426974806.1554</v>
       </c>
-      <c r="AJ14" s="17" t="n">
+      <c r="AJ14" s="5" t="n">
         <v>41510500238.7463</v>
       </c>
-      <c r="AK14" s="17" t="n">
+      <c r="AK14" s="5" t="n">
         <v>39565176702.2284</v>
       </c>
-      <c r="AL14" s="17" t="n">
+      <c r="AL14" s="5" t="n">
         <v>35668165841.7306</v>
       </c>
-      <c r="AM14" s="17" t="n">
+      <c r="AM14" s="5" t="n">
         <v>33247309446.9647</v>
       </c>
-      <c r="AN14" s="17" t="n">
+      <c r="AN14" s="5" t="n">
         <v>35502337706.9848</v>
       </c>
-      <c r="AO14" s="17" t="n">
+      <c r="AO14" s="5" t="n">
         <v>40408269319.5754</v>
       </c>
-      <c r="AP14" s="17" t="n">
+      <c r="AP14" s="5" t="n">
         <v>42017742648.7726</v>
       </c>
-      <c r="AQ14" s="17" t="n">
+      <c r="AQ14" s="5" t="n">
         <v>39358469655.472</v>
       </c>
-      <c r="AR14" s="17" t="n">
+      <c r="AR14" s="5" t="n">
         <v>58356968436.524</v>
       </c>
-      <c r="AS14" s="17" t="n">
+      <c r="AS14" s="5" t="n">
         <v>53062498640.4436</v>
       </c>
-      <c r="AT14" s="17" t="n">
+      <c r="AT14" s="5" t="n">
         <v>20342650358.8622</v>
       </c>
-      <c r="AU14" s="17"/>
-      <c r="AV14" s="17"/>
+      <c r="AU14" s="5"/>
+      <c r="AV14" s="5"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
         <f>L15</f>
       </c>
-      <c r="B15" s="17" t="str">
+      <c r="B15" s="5" t="str">
         <f>AQ15</f>
       </c>
-      <c r="C15" s="17" t="str">
+      <c r="C15" s="5" t="str">
         <f>AS15</f>
       </c>
-      <c r="D15" s="17" t="str">
+      <c r="D15" s="5" t="str">
         <f>AT15</f>
       </c>
-      <c r="E15" s="17" t="str">
+      <c r="E15" s="5" t="str">
         <f>AU15</f>
       </c>
       <c r="F15" s="1" t="str">
@@ -10912,125 +10924,125 @@
       <c r="L15" t="s">
         <v>120</v>
       </c>
-      <c r="M15" s="17" t="n">
+      <c r="M15" s="5" t="n">
         <v>58541818060.9403</v>
       </c>
-      <c r="N15" s="17" t="n">
+      <c r="N15" s="5" t="n">
         <v>82358489914.1844</v>
       </c>
-      <c r="O15" s="17" t="n">
+      <c r="O15" s="5" t="n">
         <v>68096966520.7576</v>
       </c>
-      <c r="P15" s="17" t="n">
+      <c r="P15" s="5" t="n">
         <v>64632063468.1008</v>
       </c>
-      <c r="Q15" s="17" t="n">
+      <c r="Q15" s="5" t="n">
         <v>59957666520.7577</v>
       </c>
-      <c r="R15" s="17" t="n">
+      <c r="R15" s="5" t="n">
         <v>64189328824.463</v>
       </c>
-      <c r="S15" s="17" t="n">
+      <c r="S15" s="5" t="n">
         <v>54205924949.7956</v>
       </c>
-      <c r="T15" s="17" t="n">
+      <c r="T15" s="5" t="n">
         <v>53213047231.7927</v>
       </c>
-      <c r="U15" s="17" t="n">
+      <c r="U15" s="5" t="n">
         <v>52818819697.6635</v>
       </c>
-      <c r="V15" s="17" t="n">
+      <c r="V15" s="5" t="n">
         <v>55880047192.9175</v>
       </c>
-      <c r="W15" s="17" t="n">
+      <c r="W15" s="5" t="n">
         <v>21118893847.9738</v>
       </c>
-      <c r="X15" s="17" t="n">
+      <c r="X15" s="5" t="n">
         <v>33445537148.3718</v>
       </c>
-      <c r="Y15" s="17" t="n">
+      <c r="Y15" s="5" t="n">
         <v>30862208925.3496</v>
       </c>
-      <c r="Z15" s="17" t="n">
+      <c r="Z15" s="5" t="n">
         <v>39914389553.9664</v>
       </c>
-      <c r="AA15" s="17" t="n">
+      <c r="AA15" s="5" t="n">
         <v>40845534598.3846</v>
       </c>
-      <c r="AB15" s="17" t="n">
+      <c r="AB15" s="5" t="n">
         <v>51540784050.8128</v>
       </c>
-      <c r="AC15" s="17" t="n">
+      <c r="AC15" s="5" t="n">
         <v>52812609367.5539</v>
       </c>
-      <c r="AD15" s="17" t="n">
+      <c r="AD15" s="5" t="n">
         <v>61283857639.0038</v>
       </c>
-      <c r="AE15" s="17" t="n">
+      <c r="AE15" s="5" t="n">
         <v>72570879483.6226</v>
       </c>
-      <c r="AF15" s="17" t="n">
+      <c r="AF15" s="5" t="n">
         <v>77489428838.2428</v>
       </c>
-      <c r="AG15" s="17" t="n">
+      <c r="AG15" s="5" t="n">
         <v>76965085505.2447</v>
       </c>
-      <c r="AH15" s="17" t="n">
+      <c r="AH15" s="5" t="n">
         <v>76535560110.3393</v>
       </c>
-      <c r="AI15" s="17" t="n">
+      <c r="AI15" s="5" t="n">
         <v>69110303647.0819</v>
       </c>
-      <c r="AJ15" s="17" t="n">
+      <c r="AJ15" s="5" t="n">
         <v>56385392006.5785</v>
       </c>
-      <c r="AK15" s="17" t="n">
+      <c r="AK15" s="5" t="n">
         <v>49199810577.0402</v>
       </c>
-      <c r="AL15" s="17" t="n">
+      <c r="AL15" s="5" t="n">
         <v>47925200385.9804</v>
       </c>
-      <c r="AM15" s="17" t="n">
+      <c r="AM15" s="5" t="n">
         <v>49307255853.4869</v>
       </c>
-      <c r="AN15" s="17" t="n">
+      <c r="AN15" s="5" t="n">
         <v>53219174134.7063</v>
       </c>
-      <c r="AO15" s="17" t="n">
+      <c r="AO15" s="5" t="n">
         <v>62026880850.333</v>
       </c>
-      <c r="AP15" s="17" t="n">
+      <c r="AP15" s="5" t="n">
         <v>67583747947.7055</v>
       </c>
-      <c r="AQ15" s="17" t="n">
+      <c r="AQ15" s="5" t="n">
         <v>70107100474.2631</v>
       </c>
-      <c r="AR15" s="17" t="n">
+      <c r="AR15" s="5" t="n">
         <v>61961489720.3226</v>
       </c>
-      <c r="AS15" s="17" t="n">
+      <c r="AS15" s="5" t="n">
         <v>40798916792.3185</v>
       </c>
-      <c r="AT15" s="17" t="n">
+      <c r="AT15" s="5" t="n">
         <v>17449481642.3526</v>
       </c>
-      <c r="AU15" s="17"/>
-      <c r="AV15" s="17"/>
+      <c r="AU15" s="5"/>
+      <c r="AV15" s="5"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
         <f>L16</f>
       </c>
-      <c r="B16" s="17" t="str">
+      <c r="B16" s="5" t="str">
         <f>AQ16</f>
       </c>
-      <c r="C16" s="17" t="str">
+      <c r="C16" s="5" t="str">
         <f>AS16</f>
       </c>
-      <c r="D16" s="17" t="str">
+      <c r="D16" s="5" t="str">
         <f>AT16</f>
       </c>
-      <c r="E16" s="17" t="str">
+      <c r="E16" s="5" t="str">
         <f>AU16</f>
       </c>
       <c r="F16" s="1" t="str">
@@ -11051,125 +11063,125 @@
       <c r="L16" t="s">
         <v>121</v>
       </c>
-      <c r="M16" s="17" t="n">
+      <c r="M16" s="5" t="n">
         <v>27786130239.0766</v>
       </c>
-      <c r="N16" s="17" t="n">
+      <c r="N16" s="5" t="n">
         <v>38678163233.7772</v>
       </c>
-      <c r="O16" s="17" t="n">
+      <c r="O16" s="5" t="n">
         <v>34324599391.722</v>
       </c>
-      <c r="P16" s="17" t="n">
+      <c r="P16" s="5" t="n">
         <v>33588238640.2068</v>
       </c>
-      <c r="Q16" s="17" t="n">
+      <c r="Q16" s="5" t="n">
         <v>33672062929.3893</v>
       </c>
-      <c r="R16" s="17" t="n">
+      <c r="R16" s="5" t="n">
         <v>34733440093.1433</v>
       </c>
-      <c r="S16" s="17" t="n">
+      <c r="S16" s="5" t="n">
         <v>34639717467.2126</v>
       </c>
-      <c r="T16" s="17" t="n">
+      <c r="T16" s="5" t="n">
         <v>31550017536.8974</v>
       </c>
-      <c r="U16" s="17" t="n">
+      <c r="U16" s="5" t="n">
         <v>30036834323.6961</v>
       </c>
-      <c r="V16" s="17" t="n">
+      <c r="V16" s="5" t="n">
         <v>32629484716.7365</v>
       </c>
-      <c r="W16" s="17" t="n">
+      <c r="W16" s="5" t="n">
         <v>34628198430.6147</v>
       </c>
-      <c r="X16" s="17" t="n">
+      <c r="X16" s="5" t="n">
         <v>35497323370.5492</v>
       </c>
-      <c r="Y16" s="17" t="n">
+      <c r="Y16" s="5" t="n">
         <v>41996343802.0963</v>
       </c>
-      <c r="Z16" s="17" t="n">
+      <c r="Z16" s="5" t="n">
         <v>51536080977.4146</v>
       </c>
-      <c r="AA16" s="17" t="n">
+      <c r="AA16" s="5" t="n">
         <v>53549946906.4653</v>
       </c>
-      <c r="AB16" s="17" t="n">
+      <c r="AB16" s="5" t="n">
         <v>65091364654.3129</v>
       </c>
-      <c r="AC16" s="17" t="n">
+      <c r="AC16" s="5" t="n">
         <v>66247930939.3818</v>
       </c>
-      <c r="AD16" s="17" t="n">
+      <c r="AD16" s="5" t="n">
         <v>70508766475.1082</v>
       </c>
-      <c r="AE16" s="17" t="n">
+      <c r="AE16" s="5" t="n">
         <v>76235566435.774</v>
       </c>
-      <c r="AF16" s="17" t="n">
+      <c r="AF16" s="5" t="n">
         <v>81368294817.5627</v>
       </c>
-      <c r="AG16" s="17" t="n">
+      <c r="AG16" s="5" t="n">
         <v>79325363637.2335</v>
       </c>
-      <c r="AH16" s="17" t="n">
+      <c r="AH16" s="5" t="n">
         <v>75138348079.497</v>
       </c>
-      <c r="AI16" s="17" t="n">
+      <c r="AI16" s="5" t="n">
         <v>73743808595.2994</v>
       </c>
-      <c r="AJ16" s="17" t="n">
+      <c r="AJ16" s="5" t="n">
         <v>61038903384.6493</v>
       </c>
-      <c r="AK16" s="17" t="n">
+      <c r="AK16" s="5" t="n">
         <v>67612219121.5487</v>
       </c>
-      <c r="AL16" s="17" t="n">
+      <c r="AL16" s="5" t="n">
         <v>65598387053.1957</v>
       </c>
-      <c r="AM16" s="17" t="n">
+      <c r="AM16" s="5" t="n">
         <v>70086271269.9855</v>
       </c>
-      <c r="AN16" s="17" t="n">
+      <c r="AN16" s="5" t="n">
         <v>72316770012.4619</v>
       </c>
-      <c r="AO16" s="17" t="n">
+      <c r="AO16" s="5" t="n">
         <v>83911453108.4576</v>
       </c>
-      <c r="AP16" s="17" t="n">
+      <c r="AP16" s="5" t="n">
         <v>86008895708.1413</v>
       </c>
-      <c r="AQ16" s="17" t="n">
+      <c r="AQ16" s="5" t="n">
         <v>87728634988.71</v>
       </c>
-      <c r="AR16" s="17" t="n">
+      <c r="AR16" s="5" t="n">
         <v>83126463857.007</v>
       </c>
-      <c r="AS16" s="17" t="n">
+      <c r="AS16" s="5" t="n">
         <v>85408890581.307</v>
       </c>
-      <c r="AT16" s="17" t="n">
+      <c r="AT16" s="5" t="n">
         <v>32808828005.7754</v>
       </c>
-      <c r="AU16" s="17"/>
-      <c r="AV16" s="17"/>
+      <c r="AU16" s="5"/>
+      <c r="AV16" s="5"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
         <f>L17</f>
       </c>
-      <c r="B17" s="17" t="str">
+      <c r="B17" s="5" t="str">
         <f>AQ17</f>
       </c>
-      <c r="C17" s="17" t="str">
+      <c r="C17" s="5" t="str">
         <f>AS17</f>
       </c>
-      <c r="D17" s="17" t="str">
+      <c r="D17" s="5" t="str">
         <f>AT17</f>
       </c>
-      <c r="E17" s="17" t="str">
+      <c r="E17" s="5" t="str">
         <f>AU17</f>
       </c>
       <c r="F17" s="1" t="str">
@@ -11188,125 +11200,125 @@
         <f>AU17/Sum(AU11:AU$17)</f>
       </c>
       <c r="L17"/>
-      <c r="M17" s="17" t="n">
+      <c r="M17" s="5" t="n">
         <v>26178567894.6163</v>
       </c>
-      <c r="N17" s="17" t="n">
+      <c r="N17" s="5" t="n">
         <v>11448235338.8668</v>
       </c>
-      <c r="O17" s="17" t="n">
+      <c r="O17" s="5" t="n">
         <v>11662319190.8258</v>
       </c>
-      <c r="P17" s="17" t="n">
+      <c r="P17" s="5" t="n">
         <v>10653961870.5513</v>
       </c>
-      <c r="Q17" s="17" t="n">
+      <c r="Q17" s="5" t="n">
         <v>7502046599.57892</v>
       </c>
-      <c r="R17" s="17" t="n">
+      <c r="R17" s="5" t="n">
         <v>9183655382.24917</v>
       </c>
-      <c r="S17" s="17" t="n">
+      <c r="S17" s="5" t="n">
         <v>10363787716.0805</v>
       </c>
-      <c r="T17" s="17" t="n">
+      <c r="T17" s="5" t="n">
         <v>7208777329.09415</v>
       </c>
-      <c r="U17" s="17" t="n">
+      <c r="U17" s="5" t="n">
         <v>6701837669.3367</v>
       </c>
-      <c r="V17" s="17" t="n">
+      <c r="V17" s="5" t="n">
         <v>2491331032.40164</v>
       </c>
-      <c r="W17" s="17" t="n">
+      <c r="W17" s="5" t="n">
         <v>1507522520.45657</v>
       </c>
-      <c r="X17" s="17" t="n">
+      <c r="X17" s="5" t="n">
         <v>2187284642.71751</v>
       </c>
-      <c r="Y17" s="17" t="n">
+      <c r="Y17" s="5" t="n">
         <v>2543217067.50809</v>
       </c>
-      <c r="Z17" s="17" t="n">
+      <c r="Z17" s="5" t="n">
         <v>1125387878.44821</v>
       </c>
-      <c r="AA17" s="17" t="n">
+      <c r="AA17" s="5" t="n">
         <v>2842989329.51089</v>
       </c>
-      <c r="AB17" s="17" t="n">
+      <c r="AB17" s="5" t="n">
         <v>10627211754.3237</v>
       </c>
-      <c r="AC17" s="17" t="n">
+      <c r="AC17" s="5" t="n">
         <v>10318513183.6995</v>
       </c>
-      <c r="AD17" s="17" t="n">
+      <c r="AD17" s="5" t="n">
         <v>9736229219.25512</v>
       </c>
-      <c r="AE17" s="17" t="n">
+      <c r="AE17" s="5" t="n">
         <v>13158675858.7299</v>
       </c>
-      <c r="AF17" s="17" t="n">
+      <c r="AF17" s="5" t="n">
         <v>8141010249.1165</v>
       </c>
-      <c r="AG17" s="17" t="n">
+      <c r="AG17" s="5" t="n">
         <v>6549069227.86101</v>
       </c>
-      <c r="AH17" s="17" t="n">
+      <c r="AH17" s="5" t="n">
         <v>5301786294.48572</v>
       </c>
-      <c r="AI17" s="17" t="n">
+      <c r="AI17" s="5" t="n">
         <v>3590079460.95946</v>
       </c>
-      <c r="AJ17" s="17" t="n">
+      <c r="AJ17" s="5" t="n">
         <v>1705971740.16503</v>
       </c>
-      <c r="AK17" s="17" t="n">
+      <c r="AK17" s="5" t="n">
         <v>654973399.55614</v>
       </c>
-      <c r="AL17" s="17" t="n">
+      <c r="AL17" s="5" t="n">
         <v>1125999236.13021</v>
       </c>
-      <c r="AM17" s="17" t="n">
+      <c r="AM17" s="5" t="n">
         <v>1082876260.07676</v>
       </c>
-      <c r="AN17" s="17" t="n">
+      <c r="AN17" s="5" t="n">
         <v>611768960.153919</v>
       </c>
-      <c r="AO17" s="17" t="n">
+      <c r="AO17" s="5" t="n">
         <v>1205241769.09887</v>
       </c>
-      <c r="AP17" s="17" t="n">
+      <c r="AP17" s="5" t="n">
         <v>1291692814.35443</v>
       </c>
-      <c r="AQ17" s="17" t="n">
+      <c r="AQ17" s="5" t="n">
         <v>879731420.951674</v>
       </c>
-      <c r="AR17" s="17" t="n">
+      <c r="AR17" s="5" t="n">
         <v>830719687.564062</v>
       </c>
-      <c r="AS17" s="17" t="n">
+      <c r="AS17" s="5" t="n">
         <v>22736599181.9227</v>
       </c>
-      <c r="AT17" s="17" t="n">
+      <c r="AT17" s="5" t="n">
         <v>13529156156.6481</v>
       </c>
-      <c r="AU17" s="17"/>
-      <c r="AV17" s="17"/>
+      <c r="AU17" s="5"/>
+      <c r="AV17" s="5"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
         <f>L18</f>
       </c>
-      <c r="B18" s="17" t="str">
+      <c r="B18" s="5" t="str">
         <f>AQ18</f>
       </c>
-      <c r="C18" s="17" t="str">
+      <c r="C18" s="5" t="str">
         <f>AS18</f>
       </c>
-      <c r="D18" s="17" t="str">
+      <c r="D18" s="5" t="str">
         <f>AT18</f>
       </c>
-      <c r="E18" s="17" t="str">
+      <c r="E18" s="5" t="str">
         <f>AU18</f>
       </c>
       <c r="F18" s="1" t="str">
@@ -11327,112 +11339,112 @@
       <c r="L18" t="s">
         <v>46</v>
       </c>
-      <c r="M18" s="17" t="str">
+      <c r="M18" s="5" t="str">
         <f>Sum(M12:M17)</f>
       </c>
-      <c r="N18" s="17" t="str">
+      <c r="N18" s="5" t="str">
         <f>Sum(N12:N17)</f>
       </c>
-      <c r="O18" s="17" t="str">
+      <c r="O18" s="5" t="str">
         <f>Sum(O12:O17)</f>
       </c>
-      <c r="P18" s="17" t="str">
+      <c r="P18" s="5" t="str">
         <f>Sum(P12:P17)</f>
       </c>
-      <c r="Q18" s="17" t="str">
+      <c r="Q18" s="5" t="str">
         <f>Sum(Q12:Q17)</f>
       </c>
-      <c r="R18" s="17" t="str">
+      <c r="R18" s="5" t="str">
         <f>Sum(R12:R17)</f>
       </c>
-      <c r="S18" s="17" t="str">
+      <c r="S18" s="5" t="str">
         <f>Sum(S12:S17)</f>
       </c>
-      <c r="T18" s="17" t="str">
+      <c r="T18" s="5" t="str">
         <f>Sum(T12:T17)</f>
       </c>
-      <c r="U18" s="17" t="str">
+      <c r="U18" s="5" t="str">
         <f>Sum(U12:U17)</f>
       </c>
-      <c r="V18" s="17" t="str">
+      <c r="V18" s="5" t="str">
         <f>Sum(V12:V17)</f>
       </c>
-      <c r="W18" s="17" t="str">
+      <c r="W18" s="5" t="str">
         <f>Sum(W12:W17)</f>
       </c>
-      <c r="X18" s="17" t="str">
+      <c r="X18" s="5" t="str">
         <f>Sum(X12:X17)</f>
       </c>
-      <c r="Y18" s="17" t="str">
+      <c r="Y18" s="5" t="str">
         <f>Sum(Y12:Y17)</f>
       </c>
-      <c r="Z18" s="17" t="str">
+      <c r="Z18" s="5" t="str">
         <f>Sum(Z12:Z17)</f>
       </c>
-      <c r="AA18" s="17" t="str">
+      <c r="AA18" s="5" t="str">
         <f>Sum(AA12:AA17)</f>
       </c>
-      <c r="AB18" s="17" t="str">
+      <c r="AB18" s="5" t="str">
         <f>Sum(AB12:AB17)</f>
       </c>
-      <c r="AC18" s="17" t="str">
+      <c r="AC18" s="5" t="str">
         <f>Sum(AC12:AC17)</f>
       </c>
-      <c r="AD18" s="17" t="str">
+      <c r="AD18" s="5" t="str">
         <f>Sum(AD12:AD17)</f>
       </c>
-      <c r="AE18" s="17" t="str">
+      <c r="AE18" s="5" t="str">
         <f>Sum(AE12:AE17)</f>
       </c>
-      <c r="AF18" s="17" t="str">
+      <c r="AF18" s="5" t="str">
         <f>Sum(AF12:AF17)</f>
       </c>
-      <c r="AG18" s="17" t="str">
+      <c r="AG18" s="5" t="str">
         <f>Sum(AG12:AG17)</f>
       </c>
-      <c r="AH18" s="17" t="str">
+      <c r="AH18" s="5" t="str">
         <f>Sum(AH12:AH17)</f>
       </c>
-      <c r="AI18" s="17" t="str">
+      <c r="AI18" s="5" t="str">
         <f>Sum(AI12:AI17)</f>
       </c>
-      <c r="AJ18" s="17" t="str">
+      <c r="AJ18" s="5" t="str">
         <f>Sum(AJ12:AJ17)</f>
       </c>
-      <c r="AK18" s="17" t="str">
+      <c r="AK18" s="5" t="str">
         <f>Sum(AK12:AK17)</f>
       </c>
-      <c r="AL18" s="17" t="str">
+      <c r="AL18" s="5" t="str">
         <f>Sum(AL12:AL17)</f>
       </c>
-      <c r="AM18" s="17" t="str">
+      <c r="AM18" s="5" t="str">
         <f>Sum(AM12:AM17)</f>
       </c>
-      <c r="AN18" s="17" t="str">
+      <c r="AN18" s="5" t="str">
         <f>Sum(AN12:AN17)</f>
       </c>
-      <c r="AO18" s="17" t="str">
+      <c r="AO18" s="5" t="str">
         <f>Sum(AO12:AO17)</f>
       </c>
-      <c r="AP18" s="17" t="str">
+      <c r="AP18" s="5" t="str">
         <f>Sum(AP12:AP17)</f>
       </c>
-      <c r="AQ18" s="17" t="str">
+      <c r="AQ18" s="5" t="str">
         <f>Sum(AQ12:AQ17)</f>
       </c>
-      <c r="AR18" s="17" t="str">
+      <c r="AR18" s="5" t="str">
         <f>Sum(AR12:AR17)</f>
       </c>
-      <c r="AS18" s="17" t="str">
+      <c r="AS18" s="5" t="str">
         <f>Sum(AS12:AS17)</f>
       </c>
-      <c r="AT18" s="17" t="str">
+      <c r="AT18" s="5" t="str">
         <f>Sum(AT12:AT17)</f>
       </c>
-      <c r="AU18" s="17" t="str">
+      <c r="AU18" s="5" t="str">
         <f>Sum(AU12:AU17)</f>
       </c>
-      <c r="AV18" s="17"/>
+      <c r="AV18" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/NPS2024/DoD_2024_NPS.xlsx
+++ b/Output/AcqTrends/NPS2024/DoD_2024_NPS.xlsx
@@ -1,5 +1,5 @@
 
-<file path=xl/workbook.xml><?xml version="1.0" encoding="UTF-8" standalone="yes"?><workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x15 xr xr6 xr10 xr2" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2"><workbookPr date1904="false"/><bookViews><workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/></bookViews><sheets><sheet name="1 Budg" sheetId="1" state="visible" r:id="rId1"/><sheet name="2 K&Ota" sheetId="2" state="visible" r:id="rId2"/><sheet name="3 Plat" sheetId="3" state="visible" r:id="rId3"/><sheet name="5 Vend" sheetId="4" state="visible" r:id="rId4"/><sheet name="9 Dur" sheetId="5" state="visible" r:id="rId5"/><sheet name="11 OTAtype" sheetId="6" state="visible" r:id="rId6"/><sheet name="9 GFE" sheetId="7" state="visible" r:id="rId7"/><sheet name="10 Mult" sheetId="8" state="visible" r:id="rId8"/><sheet name="11 Mult" sheetId="9" state="visible" r:id="rId9"/><sheet name="1 Outlay" sheetId="10" state="visible" r:id="rId10"/><sheet name="1 TOA" sheetId="11" state="visible" r:id="rId11"/><sheet name="12 OTAtype" sheetId="12" state="visible" r:id="rId12"/><sheet name="9 DIB count" sheetId="13" state="visible" r:id="rId13"/><sheet name="DIB dollars" sheetId="14" state="visible" r:id="rId14"/><sheet name="11 NTDC" sheetId="15" state="visible" r:id="rId15"/><sheet name="4 Cust" sheetId="16" state="visible" r:id="rId16"/><sheet name="10 DIB dollars" sheetId="17" state="visible" r:id="rId17"/><sheet name="5a VendIntl" sheetId="18" state="visible" r:id="rId18"/><sheet name="5 VendNTDC" sheetId="19" state="visible" r:id="rId19"/></sheets></workbook>
+<file path=xl/workbook.xml><?xml version="1.0" encoding="UTF-8" standalone="yes"?><workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x15 xr xr6 xr10 xr2" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2"><workbookPr date1904="false"/><bookViews><workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/></bookViews><sheets><sheet name="1 Budg" sheetId="1" state="visible" r:id="rId1"/><sheet name="2 K&Ota" sheetId="2" state="visible" r:id="rId2"/><sheet name="3 Plat" sheetId="3" state="visible" r:id="rId3"/><sheet name="5 Vend" sheetId="4" state="visible" r:id="rId4"/><sheet name="9 Dur" sheetId="5" state="visible" r:id="rId5"/><sheet name="11 OTAtype" sheetId="6" state="visible" r:id="rId6"/><sheet name="9 GFE" sheetId="7" state="visible" r:id="rId7"/><sheet name="10 Mult" sheetId="8" state="visible" r:id="rId8"/><sheet name="11 Mult" sheetId="9" state="visible" r:id="rId9"/><sheet name="1 Outlay" sheetId="10" state="visible" r:id="rId10"/><sheet name="1 TOA" sheetId="11" state="visible" r:id="rId11"/><sheet name="12 OTAtype" sheetId="12" state="visible" r:id="rId12"/><sheet name="9 DIB count" sheetId="13" state="visible" r:id="rId13"/><sheet name="DIB dollars" sheetId="14" state="visible" r:id="rId14"/><sheet name="11 NTDC" sheetId="15" state="visible" r:id="rId15"/><sheet name="4 Cust" sheetId="16" state="visible" r:id="rId16"/><sheet name="10 DIB dollars" sheetId="17" state="visible" r:id="rId17"/><sheet name="5a VendIntl" sheetId="18" state="visible" r:id="rId18"/><sheet name="5 VendNTDC" sheetId="19" state="visible" r:id="rId19"/><sheet name="11 MultPSC" sheetId="20" state="visible" r:id="rId20"/></sheets></workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -456,12 +456,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="25">
+  <numFmts count="26">
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="170" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="245" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="252" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="251" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="263" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="178" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="183" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="185" formatCode="0.00,,,&quot;B&quot;"/>
@@ -480,8 +480,9 @@
     <numFmt numFmtId="242" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="250" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="255" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="257" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="258" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="259" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="262" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="264" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -517,14 +518,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="245" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="252" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="251" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="263" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="185" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -543,8 +544,9 @@
     <xf numFmtId="242" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="250" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="255" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="257" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="258" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="259" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="262" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="264" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17365,110 +17367,110 @@
       <c r="L2" t="s">
         <v>117</v>
       </c>
-      <c r="M2" s="26" t="n">
+      <c r="M2" s="25" t="n">
         <v>29993312707</v>
       </c>
-      <c r="N2" s="26" t="n">
+      <c r="N2" s="25" t="n">
         <v>31945138023</v>
       </c>
-      <c r="O2" s="26" t="n">
+      <c r="O2" s="25" t="n">
         <v>29753069568</v>
       </c>
-      <c r="P2" s="26" t="n">
+      <c r="P2" s="25" t="n">
         <v>30346592157</v>
       </c>
-      <c r="Q2" s="26" t="n">
+      <c r="Q2" s="25" t="n">
         <v>31747329388</v>
       </c>
-      <c r="R2" s="26" t="n">
+      <c r="R2" s="25" t="n">
         <v>28791249139</v>
       </c>
-      <c r="S2" s="26" t="n">
+      <c r="S2" s="25" t="n">
         <v>32842967690</v>
       </c>
-      <c r="T2" s="26" t="n">
+      <c r="T2" s="25" t="n">
         <v>34627617203</v>
       </c>
-      <c r="U2" s="26" t="n">
+      <c r="U2" s="25" t="n">
         <v>37288669184</v>
       </c>
-      <c r="V2" s="26" t="n">
+      <c r="V2" s="25" t="n">
         <v>39481622310</v>
       </c>
-      <c r="W2" s="26" t="n">
+      <c r="W2" s="25" t="n">
         <v>42902822546.2254</v>
       </c>
-      <c r="X2" s="26" t="n">
+      <c r="X2" s="25" t="n">
         <v>45999287165.102</v>
       </c>
-      <c r="Y2" s="26" t="n">
+      <c r="Y2" s="25" t="n">
         <v>60247822851.393</v>
       </c>
-      <c r="Z2" s="26" t="n">
+      <c r="Z2" s="25" t="n">
         <v>70112736203.1276</v>
       </c>
-      <c r="AA2" s="26" t="n">
+      <c r="AA2" s="25" t="n">
         <v>72882060944.0123</v>
       </c>
-      <c r="AB2" s="26" t="n">
+      <c r="AB2" s="25" t="n">
         <v>73955064380.7206</v>
       </c>
-      <c r="AC2" s="26" t="n">
+      <c r="AC2" s="25" t="n">
         <v>88529377435.8539</v>
       </c>
-      <c r="AD2" s="26" t="n">
+      <c r="AD2" s="25" t="n">
         <v>99100586147.3638</v>
       </c>
-      <c r="AE2" s="26" t="n">
+      <c r="AE2" s="25" t="n">
         <v>105266669700.67</v>
       </c>
-      <c r="AF2" s="26" t="n">
+      <c r="AF2" s="25" t="n">
         <v>107245503547.368</v>
       </c>
-      <c r="AG2" s="26" t="n">
+      <c r="AG2" s="25" t="n">
         <v>96939369086.5759</v>
       </c>
-      <c r="AH2" s="26" t="n">
+      <c r="AH2" s="25" t="n">
         <v>109468302700.962</v>
       </c>
-      <c r="AI2" s="26" t="n">
+      <c r="AI2" s="25" t="n">
         <v>105499463138.199</v>
       </c>
-      <c r="AJ2" s="26" t="n">
+      <c r="AJ2" s="25" t="n">
         <v>96995856740.5779</v>
       </c>
-      <c r="AK2" s="26" t="n">
+      <c r="AK2" s="25" t="n">
         <v>82026660480.1835</v>
       </c>
-      <c r="AL2" s="26" t="n">
+      <c r="AL2" s="25" t="n">
         <v>82093613281.8144</v>
       </c>
-      <c r="AM2" s="26" t="n">
+      <c r="AM2" s="25" t="n">
         <v>103132925805.592</v>
       </c>
-      <c r="AN2" s="26" t="n">
+      <c r="AN2" s="25" t="n">
         <v>112799135328.923</v>
       </c>
-      <c r="AO2" s="26" t="n">
+      <c r="AO2" s="25" t="n">
         <v>113078047450.629</v>
       </c>
-      <c r="AP2" s="26" t="n">
+      <c r="AP2" s="25" t="n">
         <v>123281118568.194</v>
       </c>
-      <c r="AQ2" s="26" t="n">
+      <c r="AQ2" s="25" t="n">
         <v>153210907310.412</v>
       </c>
-      <c r="AR2" s="26" t="n">
+      <c r="AR2" s="25" t="n">
         <v>114361655314.093</v>
       </c>
-      <c r="AS2" s="26" t="n">
+      <c r="AS2" s="25" t="n">
         <v>122304776861.729</v>
       </c>
-      <c r="AT2" s="26" t="n">
+      <c r="AT2" s="25" t="n">
         <v>84663692097.9125</v>
       </c>
-      <c r="AU2" s="26"/>
-      <c r="AV2" s="26"/>
+      <c r="AU2" s="25"/>
+      <c r="AV2" s="25"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -17477,110 +17479,110 @@
       <c r="L3" t="s">
         <v>118</v>
       </c>
-      <c r="M3" s="26" t="n">
+      <c r="M3" s="25" t="n">
         <v>35960694888</v>
       </c>
-      <c r="N3" s="26" t="n">
+      <c r="N3" s="25" t="n">
         <v>37863506273</v>
       </c>
-      <c r="O3" s="26" t="n">
+      <c r="O3" s="25" t="n">
         <v>35092959873</v>
       </c>
-      <c r="P3" s="26" t="n">
+      <c r="P3" s="25" t="n">
         <v>33829226700</v>
       </c>
-      <c r="Q3" s="26" t="n">
+      <c r="Q3" s="25" t="n">
         <v>31124696371</v>
       </c>
-      <c r="R3" s="26" t="n">
+      <c r="R3" s="25" t="n">
         <v>28535738215</v>
       </c>
-      <c r="S3" s="26" t="n">
+      <c r="S3" s="25" t="n">
         <v>30194170969</v>
       </c>
-      <c r="T3" s="26" t="n">
+      <c r="T3" s="25" t="n">
         <v>29073662056</v>
       </c>
-      <c r="U3" s="26" t="n">
+      <c r="U3" s="25" t="n">
         <v>28130482737</v>
       </c>
-      <c r="V3" s="26" t="n">
+      <c r="V3" s="25" t="n">
         <v>29677352211</v>
       </c>
-      <c r="W3" s="26" t="n">
+      <c r="W3" s="25" t="n">
         <v>24339685706.4517</v>
       </c>
-      <c r="X3" s="26" t="n">
+      <c r="X3" s="25" t="n">
         <v>25668062870.6387</v>
       </c>
-      <c r="Y3" s="26" t="n">
+      <c r="Y3" s="25" t="n">
         <v>32788951053.1231</v>
       </c>
-      <c r="Z3" s="26" t="n">
+      <c r="Z3" s="25" t="n">
         <v>47830922262.423</v>
       </c>
-      <c r="AA3" s="26" t="n">
+      <c r="AA3" s="25" t="n">
         <v>58825443576.2251</v>
       </c>
-      <c r="AB3" s="26" t="n">
+      <c r="AB3" s="25" t="n">
         <v>65108861243.7038</v>
       </c>
-      <c r="AC3" s="26" t="n">
+      <c r="AC3" s="25" t="n">
         <v>68516071349.0288</v>
       </c>
-      <c r="AD3" s="26" t="n">
+      <c r="AD3" s="25" t="n">
         <v>82810086269.79</v>
       </c>
-      <c r="AE3" s="26" t="n">
+      <c r="AE3" s="25" t="n">
         <v>101935552219.899</v>
       </c>
-      <c r="AF3" s="26" t="n">
+      <c r="AF3" s="25" t="n">
         <v>91082000212.6408</v>
       </c>
-      <c r="AG3" s="26" t="n">
+      <c r="AG3" s="25" t="n">
         <v>106725389754.146</v>
       </c>
-      <c r="AH3" s="26" t="n">
+      <c r="AH3" s="25" t="n">
         <v>103383013784.238</v>
       </c>
-      <c r="AI3" s="26" t="n">
+      <c r="AI3" s="25" t="n">
         <v>98265166220.3349</v>
       </c>
-      <c r="AJ3" s="26" t="n">
+      <c r="AJ3" s="25" t="n">
         <v>86438880967.1992</v>
       </c>
-      <c r="AK3" s="26" t="n">
+      <c r="AK3" s="25" t="n">
         <v>77207039866.9569</v>
       </c>
-      <c r="AL3" s="26" t="n">
+      <c r="AL3" s="25" t="n">
         <v>71996639966.4858</v>
       </c>
-      <c r="AM3" s="26" t="n">
+      <c r="AM3" s="25" t="n">
         <v>71551510997.6919</v>
       </c>
-      <c r="AN3" s="26" t="n">
+      <c r="AN3" s="25" t="n">
         <v>76631880839.9451</v>
       </c>
-      <c r="AO3" s="26" t="n">
+      <c r="AO3" s="25" t="n">
         <v>88698325243.6305</v>
       </c>
-      <c r="AP3" s="26" t="n">
+      <c r="AP3" s="25" t="n">
         <v>92762373993.5141</v>
       </c>
-      <c r="AQ3" s="26" t="n">
+      <c r="AQ3" s="25" t="n">
         <v>98398389839.8272</v>
       </c>
-      <c r="AR3" s="26" t="n">
+      <c r="AR3" s="25" t="n">
         <v>90770167372.218</v>
       </c>
-      <c r="AS3" s="26" t="n">
+      <c r="AS3" s="25" t="n">
         <v>99021129618.9242</v>
       </c>
-      <c r="AT3" s="26" t="n">
+      <c r="AT3" s="25" t="n">
         <v>48591295833.2184</v>
       </c>
-      <c r="AU3" s="26"/>
-      <c r="AV3" s="26"/>
+      <c r="AU3" s="25"/>
+      <c r="AV3" s="25"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -17589,90 +17591,90 @@
       <c r="L4" t="s">
         <v>119</v>
       </c>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26" t="n">
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25" t="n">
         <v>30879636954.9954</v>
       </c>
-      <c r="X4" s="26" t="n">
+      <c r="X4" s="25" t="n">
         <v>28990916270.223</v>
       </c>
-      <c r="Y4" s="26" t="n">
+      <c r="Y4" s="25" t="n">
         <v>30113227132.5393</v>
       </c>
-      <c r="Z4" s="26" t="n">
+      <c r="Z4" s="25" t="n">
         <v>35201492871.434</v>
       </c>
-      <c r="AA4" s="26" t="n">
+      <c r="AA4" s="25" t="n">
         <v>35241294858.2151</v>
       </c>
-      <c r="AB4" s="26" t="n">
+      <c r="AB4" s="25" t="n">
         <v>41875695732.6547</v>
       </c>
-      <c r="AC4" s="26" t="n">
+      <c r="AC4" s="25" t="n">
         <v>49185549119.2547</v>
       </c>
-      <c r="AD4" s="26" t="n">
+      <c r="AD4" s="25" t="n">
         <v>46279650071.9425</v>
       </c>
-      <c r="AE4" s="26" t="n">
+      <c r="AE4" s="25" t="n">
         <v>54012288564.5049</v>
       </c>
-      <c r="AF4" s="26" t="n">
+      <c r="AF4" s="25" t="n">
         <v>47688602187.0404</v>
       </c>
-      <c r="AG4" s="26" t="n">
+      <c r="AG4" s="25" t="n">
         <v>39399834017.7615</v>
       </c>
-      <c r="AH4" s="26" t="n">
+      <c r="AH4" s="25" t="n">
         <v>38073802839.4699</v>
       </c>
-      <c r="AI4" s="26" t="n">
+      <c r="AI4" s="25" t="n">
         <v>42291049655.6658</v>
       </c>
-      <c r="AJ4" s="26" t="n">
+      <c r="AJ4" s="25" t="n">
         <v>32247405087.1344</v>
       </c>
-      <c r="AK4" s="26" t="n">
+      <c r="AK4" s="25" t="n">
         <v>31296907203.1947</v>
       </c>
-      <c r="AL4" s="26" t="n">
+      <c r="AL4" s="25" t="n">
         <v>28506482015.0489</v>
       </c>
-      <c r="AM4" s="26" t="n">
+      <c r="AM4" s="25" t="n">
         <v>26784143602.9829</v>
       </c>
-      <c r="AN4" s="26" t="n">
+      <c r="AN4" s="25" t="n">
         <v>29083589497.9641</v>
       </c>
-      <c r="AO4" s="26" t="n">
+      <c r="AO4" s="25" t="n">
         <v>33837415345.756</v>
       </c>
-      <c r="AP4" s="26" t="n">
+      <c r="AP4" s="25" t="n">
         <v>35835726921.9774</v>
       </c>
-      <c r="AQ4" s="26" t="n">
+      <c r="AQ4" s="25" t="n">
         <v>34006207873.992</v>
       </c>
-      <c r="AR4" s="26" t="n">
+      <c r="AR4" s="25" t="n">
         <v>52156510661.3755</v>
       </c>
-      <c r="AS4" s="26" t="n">
+      <c r="AS4" s="25" t="n">
         <v>50741258836.9179</v>
       </c>
-      <c r="AT4" s="26" t="n">
+      <c r="AT4" s="25" t="n">
         <v>20342650358.8622</v>
       </c>
-      <c r="AU4" s="26"/>
-      <c r="AV4" s="26"/>
+      <c r="AU4" s="25"/>
+      <c r="AV4" s="25"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -17681,110 +17683,110 @@
       <c r="L5" t="s">
         <v>120</v>
       </c>
-      <c r="M5" s="26" t="n">
+      <c r="M5" s="25" t="n">
         <v>28304563806</v>
       </c>
-      <c r="N5" s="26" t="n">
+      <c r="N5" s="25" t="n">
         <v>41243339793</v>
       </c>
-      <c r="O5" s="26" t="n">
+      <c r="O5" s="25" t="n">
         <v>34954992394</v>
       </c>
-      <c r="P5" s="26" t="n">
+      <c r="P5" s="25" t="n">
         <v>33954732784</v>
       </c>
-      <c r="Q5" s="26" t="n">
+      <c r="Q5" s="25" t="n">
         <v>32186662449</v>
       </c>
-      <c r="R5" s="26" t="n">
+      <c r="R5" s="25" t="n">
         <v>35189234715</v>
       </c>
-      <c r="S5" s="26" t="n">
+      <c r="S5" s="25" t="n">
         <v>30275743132</v>
       </c>
-      <c r="T5" s="26" t="n">
+      <c r="T5" s="25" t="n">
         <v>30248655247</v>
       </c>
-      <c r="U5" s="26" t="n">
+      <c r="U5" s="25" t="n">
         <v>30401001630</v>
       </c>
-      <c r="V5" s="26" t="n">
+      <c r="V5" s="25" t="n">
         <v>32561216997</v>
       </c>
-      <c r="W5" s="26" t="n">
+      <c r="W5" s="25" t="n">
         <v>12561996255.8882</v>
       </c>
-      <c r="X5" s="26" t="n">
+      <c r="X5" s="25" t="n">
         <v>20376379119.5963</v>
       </c>
-      <c r="Y5" s="26" t="n">
+      <c r="Y5" s="25" t="n">
         <v>19098314585.8526</v>
       </c>
-      <c r="Z5" s="26" t="n">
+      <c r="Z5" s="25" t="n">
         <v>25174152975.356</v>
       </c>
-      <c r="AA5" s="26" t="n">
+      <c r="AA5" s="25" t="n">
         <v>26390491632.9557</v>
       </c>
-      <c r="AB5" s="26" t="n">
+      <c r="AB5" s="25" t="n">
         <v>34314078131.7759</v>
       </c>
-      <c r="AC5" s="26" t="n">
+      <c r="AC5" s="25" t="n">
         <v>36302990528.4341</v>
       </c>
-      <c r="AD5" s="26" t="n">
+      <c r="AD5" s="25" t="n">
         <v>43285772133.7758</v>
       </c>
-      <c r="AE5" s="26" t="n">
+      <c r="AE5" s="25" t="n">
         <v>52322135708.5164</v>
       </c>
-      <c r="AF5" s="26" t="n">
+      <c r="AF5" s="25" t="n">
         <v>56439625804.5077</v>
       </c>
-      <c r="AG5" s="26" t="n">
+      <c r="AG5" s="25" t="n">
         <v>56543203658.8858</v>
       </c>
-      <c r="AH5" s="26" t="n">
+      <c r="AH5" s="25" t="n">
         <v>57356213929.8226</v>
       </c>
-      <c r="AI5" s="26" t="n">
+      <c r="AI5" s="25" t="n">
         <v>52731495692.821</v>
       </c>
-      <c r="AJ5" s="26" t="n">
+      <c r="AJ5" s="25" t="n">
         <v>43802955073.4203</v>
       </c>
-      <c r="AK5" s="26" t="n">
+      <c r="AK5" s="25" t="n">
         <v>38918110176.3577</v>
       </c>
-      <c r="AL5" s="26" t="n">
+      <c r="AL5" s="25" t="n">
         <v>38302470301.744</v>
       </c>
-      <c r="AM5" s="26" t="n">
+      <c r="AM5" s="25" t="n">
         <v>39722090100.4181</v>
       </c>
-      <c r="AN5" s="26" t="n">
+      <c r="AN5" s="25" t="n">
         <v>43597259051.7596</v>
       </c>
-      <c r="AO5" s="26" t="n">
+      <c r="AO5" s="25" t="n">
         <v>51940589519.8209</v>
       </c>
-      <c r="AP5" s="26" t="n">
+      <c r="AP5" s="25" t="n">
         <v>57640239173.7832</v>
       </c>
-      <c r="AQ5" s="26" t="n">
+      <c r="AQ5" s="25" t="n">
         <v>60573407783.3784</v>
       </c>
-      <c r="AR5" s="26" t="n">
+      <c r="AR5" s="25" t="n">
         <v>55378049713.2556</v>
       </c>
-      <c r="AS5" s="26" t="n">
+      <c r="AS5" s="25" t="n">
         <v>39014152184.0631</v>
       </c>
-      <c r="AT5" s="26" t="n">
+      <c r="AT5" s="25" t="n">
         <v>17449481642.3526</v>
       </c>
-      <c r="AU5" s="26"/>
-      <c r="AV5" s="26"/>
+      <c r="AU5" s="25"/>
+      <c r="AV5" s="25"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -17793,220 +17795,220 @@
       <c r="L6" t="s">
         <v>121</v>
       </c>
-      <c r="M6" s="26" t="n">
+      <c r="M6" s="25" t="n">
         <v>13434401635</v>
       </c>
-      <c r="N6" s="26" t="n">
+      <c r="N6" s="25" t="n">
         <v>19369182588</v>
       </c>
-      <c r="O6" s="26" t="n">
+      <c r="O6" s="25" t="n">
         <v>17619229930</v>
       </c>
-      <c r="P6" s="26" t="n">
+      <c r="P6" s="25" t="n">
         <v>17645725767</v>
       </c>
-      <c r="Q6" s="26" t="n">
+      <c r="Q6" s="25" t="n">
         <v>18075942350</v>
       </c>
-      <c r="R6" s="26" t="n">
+      <c r="R6" s="25" t="n">
         <v>19041220687</v>
       </c>
-      <c r="S6" s="26" t="n">
+      <c r="S6" s="25" t="n">
         <v>19347390330</v>
       </c>
-      <c r="T6" s="26" t="n">
+      <c r="T6" s="25" t="n">
         <v>17934428738</v>
       </c>
-      <c r="U6" s="26" t="n">
+      <c r="U6" s="25" t="n">
         <v>17288342573</v>
       </c>
-      <c r="V6" s="26" t="n">
+      <c r="V6" s="25" t="n">
         <v>19013150234</v>
       </c>
-      <c r="W6" s="26" t="n">
+      <c r="W6" s="25" t="n">
         <v>20597636512.8267</v>
       </c>
-      <c r="X6" s="26" t="n">
+      <c r="X6" s="25" t="n">
         <v>21626410588.6674</v>
       </c>
-      <c r="Y6" s="26" t="n">
+      <c r="Y6" s="25" t="n">
         <v>25988398540.367</v>
       </c>
-      <c r="Z6" s="26" t="n">
+      <c r="Z6" s="25" t="n">
         <v>32503996698.2746</v>
       </c>
-      <c r="AA6" s="26" t="n">
+      <c r="AA6" s="25" t="n">
         <v>34598872059.718</v>
       </c>
-      <c r="AB6" s="26" t="n">
+      <c r="AB6" s="25" t="n">
         <v>43335587798.781</v>
       </c>
-      <c r="AC6" s="26" t="n">
+      <c r="AC6" s="25" t="n">
         <v>45538329543.2904</v>
       </c>
-      <c r="AD6" s="26" t="n">
+      <c r="AD6" s="25" t="n">
         <v>49801473286.0533</v>
       </c>
-      <c r="AE6" s="26" t="n">
+      <c r="AE6" s="25" t="n">
         <v>54964300849.7418</v>
       </c>
-      <c r="AF6" s="26" t="n">
+      <c r="AF6" s="25" t="n">
         <v>59264807867.4139</v>
       </c>
-      <c r="AG6" s="26" t="n">
+      <c r="AG6" s="25" t="n">
         <v>58277206632.2153</v>
       </c>
-      <c r="AH6" s="26" t="n">
+      <c r="AH6" s="25" t="n">
         <v>56309134741.6547</v>
       </c>
-      <c r="AI6" s="26" t="n">
+      <c r="AI6" s="25" t="n">
         <v>56266882362.0404</v>
       </c>
-      <c r="AJ6" s="26" t="n">
+      <c r="AJ6" s="25" t="n">
         <v>47418032358.0387</v>
       </c>
-      <c r="AK6" s="26" t="n">
+      <c r="AK6" s="25" t="n">
         <v>53482722030.406</v>
       </c>
-      <c r="AL6" s="26" t="n">
+      <c r="AL6" s="25" t="n">
         <v>52427120840.6328</v>
       </c>
-      <c r="AM6" s="26" t="n">
+      <c r="AM6" s="25" t="n">
         <v>56461734363.4189</v>
       </c>
-      <c r="AN6" s="26" t="n">
+      <c r="AN6" s="25" t="n">
         <v>59242049642.4755</v>
       </c>
-      <c r="AO6" s="26" t="n">
+      <c r="AO6" s="25" t="n">
         <v>70266476117.5831</v>
       </c>
-      <c r="AP6" s="26" t="n">
+      <c r="AP6" s="25" t="n">
         <v>73354518952.1936</v>
       </c>
-      <c r="AQ6" s="26" t="n">
+      <c r="AQ6" s="25" t="n">
         <v>75798633027.2083</v>
       </c>
-      <c r="AR6" s="26" t="n">
+      <c r="AR6" s="25" t="n">
         <v>74294234511.4505</v>
       </c>
-      <c r="AS6" s="26" t="n">
+      <c r="AS6" s="25" t="n">
         <v>81672645182.5426</v>
       </c>
-      <c r="AT6" s="26" t="n">
+      <c r="AT6" s="25" t="n">
         <v>32808828005.7754</v>
       </c>
-      <c r="AU6" s="26"/>
-      <c r="AV6" s="26"/>
+      <c r="AU6" s="25"/>
+      <c r="AV6" s="25"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
         <f>L7</f>
       </c>
       <c r="L7"/>
-      <c r="M7" s="26" t="n">
+      <c r="M7" s="25" t="n">
         <v>12657156369</v>
       </c>
-      <c r="N7" s="26" t="n">
+      <c r="N7" s="25" t="n">
         <v>5733027167</v>
       </c>
-      <c r="O7" s="26" t="n">
+      <c r="O7" s="25" t="n">
         <v>5986408785</v>
       </c>
-      <c r="P7" s="26" t="n">
+      <c r="P7" s="25" t="n">
         <v>5597104734</v>
       </c>
-      <c r="Q7" s="26" t="n">
+      <c r="Q7" s="25" t="n">
         <v>4027272167</v>
       </c>
-      <c r="R7" s="26" t="n">
+      <c r="R7" s="25" t="n">
         <v>5034572112</v>
       </c>
-      <c r="S7" s="26" t="n">
+      <c r="S7" s="25" t="n">
         <v>5788506977</v>
       </c>
-      <c r="T7" s="26" t="n">
+      <c r="T7" s="25" t="n">
         <v>4097788635</v>
       </c>
-      <c r="U7" s="26" t="n">
+      <c r="U7" s="25" t="n">
         <v>3857386043</v>
       </c>
-      <c r="V7" s="26" t="n">
+      <c r="V7" s="25" t="n">
         <v>1451694736</v>
       </c>
-      <c r="W7" s="26" t="n">
+      <c r="W7" s="25" t="n">
         <v>896708530</v>
       </c>
-      <c r="X7" s="26" t="n">
+      <c r="X7" s="25" t="n">
         <v>1332582608.1</v>
       </c>
-      <c r="Y7" s="26" t="n">
+      <c r="Y7" s="25" t="n">
         <v>1573806973.21</v>
       </c>
-      <c r="Z7" s="26" t="n">
+      <c r="Z7" s="25" t="n">
         <v>709786293.2455</v>
       </c>
-      <c r="AA7" s="26" t="n">
+      <c r="AA7" s="25" t="n">
         <v>1836868750.7889</v>
       </c>
-      <c r="AB7" s="26" t="n">
+      <c r="AB7" s="25" t="n">
         <v>7075231414.8205</v>
       </c>
-      <c r="AC7" s="26" t="n">
+      <c r="AC7" s="25" t="n">
         <v>7092868367.2559</v>
       </c>
-      <c r="AD7" s="26" t="n">
+      <c r="AD7" s="25" t="n">
         <v>6876854944.5664</v>
       </c>
-      <c r="AE7" s="26" t="n">
+      <c r="AE7" s="25" t="n">
         <v>9487139041.4969</v>
       </c>
-      <c r="AF7" s="26" t="n">
+      <c r="AF7" s="25" t="n">
         <v>5929525859.4555</v>
       </c>
-      <c r="AG7" s="26" t="n">
+      <c r="AG7" s="25" t="n">
         <v>4811342087.0799</v>
       </c>
-      <c r="AH7" s="26" t="n">
+      <c r="AH7" s="25" t="n">
         <v>3973190873.3447</v>
       </c>
-      <c r="AI7" s="26" t="n">
+      <c r="AI7" s="25" t="n">
         <v>2739247979.5661</v>
       </c>
-      <c r="AJ7" s="26" t="n">
+      <c r="AJ7" s="25" t="n">
         <v>1325283035.7596</v>
       </c>
-      <c r="AK7" s="26" t="n">
+      <c r="AK7" s="25" t="n">
         <v>518098070.4508</v>
       </c>
-      <c r="AL7" s="26" t="n">
+      <c r="AL7" s="25" t="n">
         <v>899913864.8209</v>
       </c>
-      <c r="AM7" s="26" t="n">
+      <c r="AM7" s="25" t="n">
         <v>872368734.0903</v>
       </c>
-      <c r="AN7" s="26" t="n">
+      <c r="AN7" s="25" t="n">
         <v>501162415.0376</v>
       </c>
-      <c r="AO7" s="26" t="n">
+      <c r="AO7" s="25" t="n">
         <v>1009255457.355</v>
       </c>
-      <c r="AP7" s="26" t="n">
+      <c r="AP7" s="25" t="n">
         <v>1101647733.6542</v>
       </c>
-      <c r="AQ7" s="26" t="n">
+      <c r="AQ7" s="25" t="n">
         <v>760098902.1179</v>
       </c>
-      <c r="AR7" s="26" t="n">
+      <c r="AR7" s="25" t="n">
         <v>742455295.4319</v>
       </c>
-      <c r="AS7" s="26" t="n">
+      <c r="AS7" s="25" t="n">
         <v>21741977737.9626</v>
       </c>
-      <c r="AT7" s="26" t="n">
+      <c r="AT7" s="25" t="n">
         <v>13529156156.6481</v>
       </c>
-      <c r="AU7" s="26"/>
-      <c r="AV7" s="26"/>
+      <c r="AU7" s="25"/>
+      <c r="AV7" s="25"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -18015,112 +18017,112 @@
       <c r="L8" t="s">
         <v>46</v>
       </c>
-      <c r="M8" s="26" t="str">
+      <c r="M8" s="25" t="str">
         <f>Sum(M2:M7)</f>
       </c>
-      <c r="N8" s="26" t="str">
+      <c r="N8" s="25" t="str">
         <f>Sum(N2:N7)</f>
       </c>
-      <c r="O8" s="26" t="str">
+      <c r="O8" s="25" t="str">
         <f>Sum(O2:O7)</f>
       </c>
-      <c r="P8" s="26" t="str">
+      <c r="P8" s="25" t="str">
         <f>Sum(P2:P7)</f>
       </c>
-      <c r="Q8" s="26" t="str">
+      <c r="Q8" s="25" t="str">
         <f>Sum(Q2:Q7)</f>
       </c>
-      <c r="R8" s="26" t="str">
+      <c r="R8" s="25" t="str">
         <f>Sum(R2:R7)</f>
       </c>
-      <c r="S8" s="26" t="str">
+      <c r="S8" s="25" t="str">
         <f>Sum(S2:S7)</f>
       </c>
-      <c r="T8" s="26" t="str">
+      <c r="T8" s="25" t="str">
         <f>Sum(T2:T7)</f>
       </c>
-      <c r="U8" s="26" t="str">
+      <c r="U8" s="25" t="str">
         <f>Sum(U2:U7)</f>
       </c>
-      <c r="V8" s="26" t="str">
+      <c r="V8" s="25" t="str">
         <f>Sum(V2:V7)</f>
       </c>
-      <c r="W8" s="26" t="str">
+      <c r="W8" s="25" t="str">
         <f>Sum(W2:W7)</f>
       </c>
-      <c r="X8" s="26" t="str">
+      <c r="X8" s="25" t="str">
         <f>Sum(X2:X7)</f>
       </c>
-      <c r="Y8" s="26" t="str">
+      <c r="Y8" s="25" t="str">
         <f>Sum(Y2:Y7)</f>
       </c>
-      <c r="Z8" s="26" t="str">
+      <c r="Z8" s="25" t="str">
         <f>Sum(Z2:Z7)</f>
       </c>
-      <c r="AA8" s="26" t="str">
+      <c r="AA8" s="25" t="str">
         <f>Sum(AA2:AA7)</f>
       </c>
-      <c r="AB8" s="26" t="str">
+      <c r="AB8" s="25" t="str">
         <f>Sum(AB2:AB7)</f>
       </c>
-      <c r="AC8" s="26" t="str">
+      <c r="AC8" s="25" t="str">
         <f>Sum(AC2:AC7)</f>
       </c>
-      <c r="AD8" s="26" t="str">
+      <c r="AD8" s="25" t="str">
         <f>Sum(AD2:AD7)</f>
       </c>
-      <c r="AE8" s="26" t="str">
+      <c r="AE8" s="25" t="str">
         <f>Sum(AE2:AE7)</f>
       </c>
-      <c r="AF8" s="26" t="str">
+      <c r="AF8" s="25" t="str">
         <f>Sum(AF2:AF7)</f>
       </c>
-      <c r="AG8" s="26" t="str">
+      <c r="AG8" s="25" t="str">
         <f>Sum(AG2:AG7)</f>
       </c>
-      <c r="AH8" s="26" t="str">
+      <c r="AH8" s="25" t="str">
         <f>Sum(AH2:AH7)</f>
       </c>
-      <c r="AI8" s="26" t="str">
+      <c r="AI8" s="25" t="str">
         <f>Sum(AI2:AI7)</f>
       </c>
-      <c r="AJ8" s="26" t="str">
+      <c r="AJ8" s="25" t="str">
         <f>Sum(AJ2:AJ7)</f>
       </c>
-      <c r="AK8" s="26" t="str">
+      <c r="AK8" s="25" t="str">
         <f>Sum(AK2:AK7)</f>
       </c>
-      <c r="AL8" s="26" t="str">
+      <c r="AL8" s="25" t="str">
         <f>Sum(AL2:AL7)</f>
       </c>
-      <c r="AM8" s="26" t="str">
+      <c r="AM8" s="25" t="str">
         <f>Sum(AM2:AM7)</f>
       </c>
-      <c r="AN8" s="26" t="str">
+      <c r="AN8" s="25" t="str">
         <f>Sum(AN2:AN7)</f>
       </c>
-      <c r="AO8" s="26" t="str">
+      <c r="AO8" s="25" t="str">
         <f>Sum(AO2:AO7)</f>
       </c>
-      <c r="AP8" s="26" t="str">
+      <c r="AP8" s="25" t="str">
         <f>Sum(AP2:AP7)</f>
       </c>
-      <c r="AQ8" s="26" t="str">
+      <c r="AQ8" s="25" t="str">
         <f>Sum(AQ2:AQ7)</f>
       </c>
-      <c r="AR8" s="26" t="str">
+      <c r="AR8" s="25" t="str">
         <f>Sum(AR2:AR7)</f>
       </c>
-      <c r="AS8" s="26" t="str">
+      <c r="AS8" s="25" t="str">
         <f>Sum(AS2:AS7)</f>
       </c>
-      <c r="AT8" s="26" t="str">
+      <c r="AT8" s="25" t="str">
         <f>Sum(AT2:AT7)</f>
       </c>
-      <c r="AU8" s="26" t="str">
+      <c r="AU8" s="25" t="str">
         <f>Sum(AU2:AU7)</f>
       </c>
-      <c r="AV8" s="26"/>
+      <c r="AV8" s="25"/>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -18263,16 +18265,16 @@
       <c r="A12" t="str">
         <f>L12</f>
       </c>
-      <c r="B12" s="26" t="str">
+      <c r="B12" s="25" t="str">
         <f>AQ12</f>
       </c>
-      <c r="C12" s="26" t="str">
+      <c r="C12" s="25" t="str">
         <f>AS12</f>
       </c>
-      <c r="D12" s="26" t="str">
+      <c r="D12" s="25" t="str">
         <f>AT12</f>
       </c>
-      <c r="E12" s="26" t="str">
+      <c r="E12" s="25" t="str">
         <f>AU12</f>
       </c>
       <c r="F12" s="1" t="str">
@@ -18293,125 +18295,125 @@
       <c r="L12" t="s">
         <v>117</v>
       </c>
-      <c r="M12" s="26" t="n">
+      <c r="M12" s="25" t="n">
         <v>62034626909.3846</v>
       </c>
-      <c r="N12" s="26" t="n">
+      <c r="N12" s="25" t="n">
         <v>63790986396.3299</v>
       </c>
-      <c r="O12" s="26" t="n">
+      <c r="O12" s="25" t="n">
         <v>57962930142.4092</v>
       </c>
-      <c r="P12" s="26" t="n">
+      <c r="P12" s="25" t="n">
         <v>57764049648.3606</v>
       </c>
-      <c r="Q12" s="26" t="n">
+      <c r="Q12" s="25" t="n">
         <v>59139272094.0376</v>
       </c>
-      <c r="R12" s="26" t="n">
+      <c r="R12" s="25" t="n">
         <v>52518645921.6326</v>
       </c>
-      <c r="S12" s="26" t="n">
+      <c r="S12" s="25" t="n">
         <v>58802303678.2549</v>
       </c>
-      <c r="T12" s="26" t="n">
+      <c r="T12" s="25" t="n">
         <v>60916461069.1388</v>
       </c>
-      <c r="U12" s="26" t="n">
+      <c r="U12" s="25" t="n">
         <v>64785480372.1977</v>
       </c>
-      <c r="V12" s="26" t="n">
+      <c r="V12" s="25" t="n">
         <v>67756525136.607</v>
       </c>
-      <c r="W12" s="26" t="n">
+      <c r="W12" s="25" t="n">
         <v>72127083679.6732</v>
       </c>
-      <c r="X12" s="26" t="n">
+      <c r="X12" s="25" t="n">
         <v>75502662109.3571</v>
       </c>
-      <c r="Y12" s="26" t="n">
+      <c r="Y12" s="25" t="n">
         <v>97358376194.8559</v>
       </c>
-      <c r="Z12" s="26" t="n">
+      <c r="Z12" s="25" t="n">
         <v>111165887815.399</v>
       </c>
-      <c r="AA12" s="26" t="n">
+      <c r="AA12" s="25" t="n">
         <v>112802246479.287</v>
       </c>
-      <c r="AB12" s="26" t="n">
+      <c r="AB12" s="25" t="n">
         <v>111082745340.634</v>
       </c>
-      <c r="AC12" s="26" t="n">
+      <c r="AC12" s="25" t="n">
         <v>128790145385.143</v>
       </c>
-      <c r="AD12" s="26" t="n">
+      <c r="AD12" s="25" t="n">
         <v>140306292668.808</v>
       </c>
-      <c r="AE12" s="26" t="n">
+      <c r="AE12" s="25" t="n">
         <v>146005026305.648</v>
       </c>
-      <c r="AF12" s="26" t="n">
+      <c r="AF12" s="25" t="n">
         <v>147243938932.912</v>
       </c>
-      <c r="AG12" s="26" t="n">
+      <c r="AG12" s="25" t="n">
         <v>131951257583.197</v>
       </c>
-      <c r="AH12" s="26" t="n">
+      <c r="AH12" s="25" t="n">
         <v>146073411885.194</v>
       </c>
-      <c r="AI12" s="26" t="n">
+      <c r="AI12" s="25" t="n">
         <v>138268407453.454</v>
       </c>
-      <c r="AJ12" s="26" t="n">
+      <c r="AJ12" s="25" t="n">
         <v>124858000930.857</v>
       </c>
-      <c r="AK12" s="26" t="n">
+      <c r="AK12" s="25" t="n">
         <v>103697125569.675</v>
       </c>
-      <c r="AL12" s="26" t="n">
+      <c r="AL12" s="25" t="n">
         <v>102717992754.661</v>
       </c>
-      <c r="AM12" s="26" t="n">
+      <c r="AM12" s="25" t="n">
         <v>128019486053.215</v>
       </c>
-      <c r="AN12" s="26" t="n">
+      <c r="AN12" s="25" t="n">
         <v>137693904522.467</v>
       </c>
-      <c r="AO12" s="26" t="n">
+      <c r="AO12" s="25" t="n">
         <v>135036560825.555</v>
       </c>
-      <c r="AP12" s="26" t="n">
+      <c r="AP12" s="25" t="n">
         <v>144548325327.103</v>
       </c>
-      <c r="AQ12" s="26" t="n">
+      <c r="AQ12" s="25" t="n">
         <v>177324883403.893</v>
       </c>
-      <c r="AR12" s="26" t="n">
+      <c r="AR12" s="25" t="n">
         <v>127957170157.387</v>
       </c>
-      <c r="AS12" s="26" t="n">
+      <c r="AS12" s="25" t="n">
         <v>127899803920.975</v>
       </c>
-      <c r="AT12" s="26" t="n">
+      <c r="AT12" s="25" t="n">
         <v>84663692097.9125</v>
       </c>
-      <c r="AU12" s="26"/>
-      <c r="AV12" s="26"/>
+      <c r="AU12" s="25"/>
+      <c r="AV12" s="25"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
         <f>L13</f>
       </c>
-      <c r="B13" s="26" t="str">
+      <c r="B13" s="25" t="str">
         <f>AQ13</f>
       </c>
-      <c r="C13" s="26" t="str">
+      <c r="C13" s="25" t="str">
         <f>AS13</f>
       </c>
-      <c r="D13" s="26" t="str">
+      <c r="D13" s="25" t="str">
         <f>AT13</f>
       </c>
-      <c r="E13" s="26" t="str">
+      <c r="E13" s="25" t="str">
         <f>AU13</f>
       </c>
       <c r="F13" s="1" t="str">
@@ -18432,125 +18434,125 @@
       <c r="L13" t="s">
         <v>118</v>
       </c>
-      <c r="M13" s="26" t="n">
+      <c r="M13" s="25" t="n">
         <v>74376855686.8564</v>
       </c>
-      <c r="N13" s="26" t="n">
+      <c r="N13" s="25" t="n">
         <v>75609327836.971</v>
       </c>
-      <c r="O13" s="26" t="n">
+      <c r="O13" s="25" t="n">
         <v>68365745489.2242</v>
       </c>
-      <c r="P13" s="26" t="n">
+      <c r="P13" s="25" t="n">
         <v>64393165484.7675</v>
       </c>
-      <c r="Q13" s="26" t="n">
+      <c r="Q13" s="25" t="n">
         <v>57979424506.3217</v>
       </c>
-      <c r="R13" s="26" t="n">
+      <c r="R13" s="25" t="n">
         <v>52052563756.1149</v>
       </c>
-      <c r="S13" s="26" t="n">
+      <c r="S13" s="25" t="n">
         <v>54059877517.4901</v>
       </c>
-      <c r="T13" s="26" t="n">
+      <c r="T13" s="25" t="n">
         <v>51146014246.0563</v>
       </c>
-      <c r="U13" s="26" t="n">
+      <c r="U13" s="25" t="n">
         <v>48874011250.5904</v>
       </c>
-      <c r="V13" s="26" t="n">
+      <c r="V13" s="25" t="n">
         <v>50930892486.7369</v>
       </c>
-      <c r="W13" s="26" t="n">
+      <c r="W13" s="25" t="n">
         <v>40919231964.1599</v>
       </c>
-      <c r="X13" s="26" t="n">
+      <c r="X13" s="25" t="n">
         <v>42131241533.5398</v>
       </c>
-      <c r="Y13" s="26" t="n">
+      <c r="Y13" s="25" t="n">
         <v>52985798997.8947</v>
       </c>
-      <c r="Z13" s="26" t="n">
+      <c r="Z13" s="25" t="n">
         <v>75837390269.9635</v>
       </c>
-      <c r="AA13" s="26" t="n">
+      <c r="AA13" s="25" t="n">
         <v>91046302747.067</v>
       </c>
-      <c r="AB13" s="26" t="n">
+      <c r="AB13" s="25" t="n">
         <v>97795480451.7547</v>
       </c>
-      <c r="AC13" s="26" t="n">
+      <c r="AC13" s="25" t="n">
         <v>99675328640.5298</v>
       </c>
-      <c r="AD13" s="26" t="n">
+      <c r="AD13" s="25" t="n">
         <v>117242255084.356</v>
       </c>
-      <c r="AE13" s="26" t="n">
+      <c r="AE13" s="25" t="n">
         <v>141384761441.279</v>
       </c>
-      <c r="AF13" s="26" t="n">
+      <c r="AF13" s="25" t="n">
         <v>125052072428.137</v>
       </c>
-      <c r="AG13" s="26" t="n">
+      <c r="AG13" s="25" t="n">
         <v>145271725273.345</v>
       </c>
-      <c r="AH13" s="26" t="n">
+      <c r="AH13" s="25" t="n">
         <v>137953263016.154</v>
       </c>
-      <c r="AI13" s="26" t="n">
+      <c r="AI13" s="25" t="n">
         <v>128787082296.679</v>
       </c>
-      <c r="AJ13" s="26" t="n">
+      <c r="AJ13" s="25" t="n">
         <v>111268524686.888</v>
       </c>
-      <c r="AK13" s="26" t="n">
+      <c r="AK13" s="25" t="n">
         <v>97604218690.3479</v>
       </c>
-      <c r="AL13" s="26" t="n">
+      <c r="AL13" s="25" t="n">
         <v>90084356709.3377</v>
       </c>
-      <c r="AM13" s="26" t="n">
+      <c r="AM13" s="25" t="n">
         <v>88817296636.4034</v>
       </c>
-      <c r="AN13" s="26" t="n">
+      <c r="AN13" s="25" t="n">
         <v>93544536959.2909</v>
       </c>
-      <c r="AO13" s="26" t="n">
+      <c r="AO13" s="25" t="n">
         <v>105922564652.665</v>
       </c>
-      <c r="AP13" s="26" t="n">
+      <c r="AP13" s="25" t="n">
         <v>108764796830.682</v>
       </c>
-      <c r="AQ13" s="26" t="n">
+      <c r="AQ13" s="25" t="n">
         <v>113885383957.206</v>
       </c>
-      <c r="AR13" s="26" t="n">
+      <c r="AR13" s="25" t="n">
         <v>101561084611.461</v>
       </c>
-      <c r="AS13" s="26" t="n">
+      <c r="AS13" s="25" t="n">
         <v>103551009104.182</v>
       </c>
-      <c r="AT13" s="26" t="n">
+      <c r="AT13" s="25" t="n">
         <v>48591295833.2184</v>
       </c>
-      <c r="AU13" s="26"/>
-      <c r="AV13" s="26"/>
+      <c r="AU13" s="25"/>
+      <c r="AV13" s="25"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
         <f>L14</f>
       </c>
-      <c r="B14" s="26" t="str">
+      <c r="B14" s="25" t="str">
         <f>AQ14</f>
       </c>
-      <c r="C14" s="26" t="str">
+      <c r="C14" s="25" t="str">
         <f>AS14</f>
       </c>
-      <c r="D14" s="26" t="str">
+      <c r="D14" s="25" t="str">
         <f>AT14</f>
       </c>
-      <c r="E14" s="26" t="str">
+      <c r="E14" s="25" t="str">
         <f>AU14</f>
       </c>
       <c r="F14" s="1" t="str">
@@ -18571,105 +18573,105 @@
       <c r="L14" t="s">
         <v>119</v>
       </c>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="26"/>
-      <c r="W14" s="26" t="n">
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25" t="n">
         <v>51914023984.1129</v>
       </c>
-      <c r="X14" s="26" t="n">
+      <c r="X14" s="25" t="n">
         <v>47585332084.2751</v>
       </c>
-      <c r="Y14" s="26" t="n">
+      <c r="Y14" s="25" t="n">
         <v>48661922653.0792</v>
       </c>
-      <c r="Z14" s="26" t="n">
+      <c r="Z14" s="25" t="n">
         <v>55813043669.3161</v>
       </c>
-      <c r="AA14" s="26" t="n">
+      <c r="AA14" s="25" t="n">
         <v>54544248301.3675</v>
       </c>
-      <c r="AB14" s="26" t="n">
+      <c r="AB14" s="25" t="n">
         <v>62898562579.644</v>
       </c>
-      <c r="AC14" s="26" t="n">
+      <c r="AC14" s="25" t="n">
         <v>71553807395.8195</v>
       </c>
-      <c r="AD14" s="26" t="n">
+      <c r="AD14" s="25" t="n">
         <v>65522580441.1321</v>
       </c>
-      <c r="AE14" s="26" t="n">
+      <c r="AE14" s="25" t="n">
         <v>74915123990.4629</v>
       </c>
-      <c r="AF14" s="26" t="n">
+      <c r="AF14" s="25" t="n">
         <v>65474611018.2892</v>
       </c>
-      <c r="AG14" s="26" t="n">
+      <c r="AG14" s="25" t="n">
         <v>53629992604.6535</v>
       </c>
-      <c r="AH14" s="26" t="n">
+      <c r="AH14" s="25" t="n">
         <v>50805302968.8263</v>
       </c>
-      <c r="AI14" s="26" t="n">
+      <c r="AI14" s="25" t="n">
         <v>55426974806.1554</v>
       </c>
-      <c r="AJ14" s="26" t="n">
+      <c r="AJ14" s="25" t="n">
         <v>41510500238.7463</v>
       </c>
-      <c r="AK14" s="26" t="n">
+      <c r="AK14" s="25" t="n">
         <v>39565176702.2284</v>
       </c>
-      <c r="AL14" s="26" t="n">
+      <c r="AL14" s="25" t="n">
         <v>35668165841.7306</v>
       </c>
-      <c r="AM14" s="26" t="n">
+      <c r="AM14" s="25" t="n">
         <v>33247309446.9647</v>
       </c>
-      <c r="AN14" s="26" t="n">
+      <c r="AN14" s="25" t="n">
         <v>35502337706.9848</v>
       </c>
-      <c r="AO14" s="26" t="n">
+      <c r="AO14" s="25" t="n">
         <v>40408269319.5754</v>
       </c>
-      <c r="AP14" s="26" t="n">
+      <c r="AP14" s="25" t="n">
         <v>42017742648.7726</v>
       </c>
-      <c r="AQ14" s="26" t="n">
+      <c r="AQ14" s="25" t="n">
         <v>39358469655.472</v>
       </c>
-      <c r="AR14" s="26" t="n">
+      <c r="AR14" s="25" t="n">
         <v>58356968436.524</v>
       </c>
-      <c r="AS14" s="26" t="n">
+      <c r="AS14" s="25" t="n">
         <v>53062498640.4436</v>
       </c>
-      <c r="AT14" s="26" t="n">
+      <c r="AT14" s="25" t="n">
         <v>20342650358.8622</v>
       </c>
-      <c r="AU14" s="26"/>
-      <c r="AV14" s="26"/>
+      <c r="AU14" s="25"/>
+      <c r="AV14" s="25"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
         <f>L15</f>
       </c>
-      <c r="B15" s="26" t="str">
+      <c r="B15" s="25" t="str">
         <f>AQ15</f>
       </c>
-      <c r="C15" s="26" t="str">
+      <c r="C15" s="25" t="str">
         <f>AS15</f>
       </c>
-      <c r="D15" s="26" t="str">
+      <c r="D15" s="25" t="str">
         <f>AT15</f>
       </c>
-      <c r="E15" s="26" t="str">
+      <c r="E15" s="25" t="str">
         <f>AU15</f>
       </c>
       <c r="F15" s="1" t="str">
@@ -18690,125 +18692,125 @@
       <c r="L15" t="s">
         <v>120</v>
       </c>
-      <c r="M15" s="26" t="n">
+      <c r="M15" s="25" t="n">
         <v>58541818060.9403</v>
       </c>
-      <c r="N15" s="26" t="n">
+      <c r="N15" s="25" t="n">
         <v>82358489914.1844</v>
       </c>
-      <c r="O15" s="26" t="n">
+      <c r="O15" s="25" t="n">
         <v>68096966520.7576</v>
       </c>
-      <c r="P15" s="26" t="n">
+      <c r="P15" s="25" t="n">
         <v>64632063468.1008</v>
       </c>
-      <c r="Q15" s="26" t="n">
+      <c r="Q15" s="25" t="n">
         <v>59957666520.7577</v>
       </c>
-      <c r="R15" s="26" t="n">
+      <c r="R15" s="25" t="n">
         <v>64189328824.463</v>
       </c>
-      <c r="S15" s="26" t="n">
+      <c r="S15" s="25" t="n">
         <v>54205924949.7956</v>
       </c>
-      <c r="T15" s="26" t="n">
+      <c r="T15" s="25" t="n">
         <v>53213047231.7927</v>
       </c>
-      <c r="U15" s="26" t="n">
+      <c r="U15" s="25" t="n">
         <v>52818819697.6635</v>
       </c>
-      <c r="V15" s="26" t="n">
+      <c r="V15" s="25" t="n">
         <v>55880047192.9175</v>
       </c>
-      <c r="W15" s="26" t="n">
+      <c r="W15" s="25" t="n">
         <v>21118893847.9738</v>
       </c>
-      <c r="X15" s="26" t="n">
+      <c r="X15" s="25" t="n">
         <v>33445537148.3718</v>
       </c>
-      <c r="Y15" s="26" t="n">
+      <c r="Y15" s="25" t="n">
         <v>30862208925.3496</v>
       </c>
-      <c r="Z15" s="26" t="n">
+      <c r="Z15" s="25" t="n">
         <v>39914389553.9664</v>
       </c>
-      <c r="AA15" s="26" t="n">
+      <c r="AA15" s="25" t="n">
         <v>40845534598.3846</v>
       </c>
-      <c r="AB15" s="26" t="n">
+      <c r="AB15" s="25" t="n">
         <v>51540784050.8128</v>
       </c>
-      <c r="AC15" s="26" t="n">
+      <c r="AC15" s="25" t="n">
         <v>52812609367.5539</v>
       </c>
-      <c r="AD15" s="26" t="n">
+      <c r="AD15" s="25" t="n">
         <v>61283857639.0038</v>
       </c>
-      <c r="AE15" s="26" t="n">
+      <c r="AE15" s="25" t="n">
         <v>72570879483.6226</v>
       </c>
-      <c r="AF15" s="26" t="n">
+      <c r="AF15" s="25" t="n">
         <v>77489428838.2428</v>
       </c>
-      <c r="AG15" s="26" t="n">
+      <c r="AG15" s="25" t="n">
         <v>76965085505.2447</v>
       </c>
-      <c r="AH15" s="26" t="n">
+      <c r="AH15" s="25" t="n">
         <v>76535560110.3393</v>
       </c>
-      <c r="AI15" s="26" t="n">
+      <c r="AI15" s="25" t="n">
         <v>69110303647.0819</v>
       </c>
-      <c r="AJ15" s="26" t="n">
+      <c r="AJ15" s="25" t="n">
         <v>56385392006.5785</v>
       </c>
-      <c r="AK15" s="26" t="n">
+      <c r="AK15" s="25" t="n">
         <v>49199810577.0402</v>
       </c>
-      <c r="AL15" s="26" t="n">
+      <c r="AL15" s="25" t="n">
         <v>47925200385.9804</v>
       </c>
-      <c r="AM15" s="26" t="n">
+      <c r="AM15" s="25" t="n">
         <v>49307255853.4869</v>
       </c>
-      <c r="AN15" s="26" t="n">
+      <c r="AN15" s="25" t="n">
         <v>53219174134.7063</v>
       </c>
-      <c r="AO15" s="26" t="n">
+      <c r="AO15" s="25" t="n">
         <v>62026880850.333</v>
       </c>
-      <c r="AP15" s="26" t="n">
+      <c r="AP15" s="25" t="n">
         <v>67583747947.7055</v>
       </c>
-      <c r="AQ15" s="26" t="n">
+      <c r="AQ15" s="25" t="n">
         <v>70107100474.2631</v>
       </c>
-      <c r="AR15" s="26" t="n">
+      <c r="AR15" s="25" t="n">
         <v>61961489720.3226</v>
       </c>
-      <c r="AS15" s="26" t="n">
+      <c r="AS15" s="25" t="n">
         <v>40798916792.3185</v>
       </c>
-      <c r="AT15" s="26" t="n">
+      <c r="AT15" s="25" t="n">
         <v>17449481642.3526</v>
       </c>
-      <c r="AU15" s="26"/>
-      <c r="AV15" s="26"/>
+      <c r="AU15" s="25"/>
+      <c r="AV15" s="25"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
         <f>L16</f>
       </c>
-      <c r="B16" s="26" t="str">
+      <c r="B16" s="25" t="str">
         <f>AQ16</f>
       </c>
-      <c r="C16" s="26" t="str">
+      <c r="C16" s="25" t="str">
         <f>AS16</f>
       </c>
-      <c r="D16" s="26" t="str">
+      <c r="D16" s="25" t="str">
         <f>AT16</f>
       </c>
-      <c r="E16" s="26" t="str">
+      <c r="E16" s="25" t="str">
         <f>AU16</f>
       </c>
       <c r="F16" s="1" t="str">
@@ -18829,125 +18831,125 @@
       <c r="L16" t="s">
         <v>121</v>
       </c>
-      <c r="M16" s="26" t="n">
+      <c r="M16" s="25" t="n">
         <v>27786130239.0766</v>
       </c>
-      <c r="N16" s="26" t="n">
+      <c r="N16" s="25" t="n">
         <v>38678163233.7772</v>
       </c>
-      <c r="O16" s="26" t="n">
+      <c r="O16" s="25" t="n">
         <v>34324599391.722</v>
       </c>
-      <c r="P16" s="26" t="n">
+      <c r="P16" s="25" t="n">
         <v>33588238640.2068</v>
       </c>
-      <c r="Q16" s="26" t="n">
+      <c r="Q16" s="25" t="n">
         <v>33672062929.3893</v>
       </c>
-      <c r="R16" s="26" t="n">
+      <c r="R16" s="25" t="n">
         <v>34733440093.1433</v>
       </c>
-      <c r="S16" s="26" t="n">
+      <c r="S16" s="25" t="n">
         <v>34639717467.2126</v>
       </c>
-      <c r="T16" s="26" t="n">
+      <c r="T16" s="25" t="n">
         <v>31550017536.8974</v>
       </c>
-      <c r="U16" s="26" t="n">
+      <c r="U16" s="25" t="n">
         <v>30036834323.6961</v>
       </c>
-      <c r="V16" s="26" t="n">
+      <c r="V16" s="25" t="n">
         <v>32629484716.7365</v>
       </c>
-      <c r="W16" s="26" t="n">
+      <c r="W16" s="25" t="n">
         <v>34628198430.6147</v>
       </c>
-      <c r="X16" s="26" t="n">
+      <c r="X16" s="25" t="n">
         <v>35497323370.5492</v>
       </c>
-      <c r="Y16" s="26" t="n">
+      <c r="Y16" s="25" t="n">
         <v>41996343802.0963</v>
       </c>
-      <c r="Z16" s="26" t="n">
+      <c r="Z16" s="25" t="n">
         <v>51536080977.4146</v>
       </c>
-      <c r="AA16" s="26" t="n">
+      <c r="AA16" s="25" t="n">
         <v>53549946906.4653</v>
       </c>
-      <c r="AB16" s="26" t="n">
+      <c r="AB16" s="25" t="n">
         <v>65091364654.3129</v>
       </c>
-      <c r="AC16" s="26" t="n">
+      <c r="AC16" s="25" t="n">
         <v>66247930939.3818</v>
       </c>
-      <c r="AD16" s="26" t="n">
+      <c r="AD16" s="25" t="n">
         <v>70508766475.1082</v>
       </c>
-      <c r="AE16" s="26" t="n">
+      <c r="AE16" s="25" t="n">
         <v>76235566435.774</v>
       </c>
-      <c r="AF16" s="26" t="n">
+      <c r="AF16" s="25" t="n">
         <v>81368294817.5627</v>
       </c>
-      <c r="AG16" s="26" t="n">
+      <c r="AG16" s="25" t="n">
         <v>79325363637.2335</v>
       </c>
-      <c r="AH16" s="26" t="n">
+      <c r="AH16" s="25" t="n">
         <v>75138348079.497</v>
       </c>
-      <c r="AI16" s="26" t="n">
+      <c r="AI16" s="25" t="n">
         <v>73743808595.2994</v>
       </c>
-      <c r="AJ16" s="26" t="n">
+      <c r="AJ16" s="25" t="n">
         <v>61038903384.6493</v>
       </c>
-      <c r="AK16" s="26" t="n">
+      <c r="AK16" s="25" t="n">
         <v>67612219121.5487</v>
       </c>
-      <c r="AL16" s="26" t="n">
+      <c r="AL16" s="25" t="n">
         <v>65598387053.1957</v>
       </c>
-      <c r="AM16" s="26" t="n">
+      <c r="AM16" s="25" t="n">
         <v>70086271269.9855</v>
       </c>
-      <c r="AN16" s="26" t="n">
+      <c r="AN16" s="25" t="n">
         <v>72316770012.4619</v>
       </c>
-      <c r="AO16" s="26" t="n">
+      <c r="AO16" s="25" t="n">
         <v>83911453108.4576</v>
       </c>
-      <c r="AP16" s="26" t="n">
+      <c r="AP16" s="25" t="n">
         <v>86008895708.1413</v>
       </c>
-      <c r="AQ16" s="26" t="n">
+      <c r="AQ16" s="25" t="n">
         <v>87728634988.71</v>
       </c>
-      <c r="AR16" s="26" t="n">
+      <c r="AR16" s="25" t="n">
         <v>83126463857.007</v>
       </c>
-      <c r="AS16" s="26" t="n">
+      <c r="AS16" s="25" t="n">
         <v>85408890581.307</v>
       </c>
-      <c r="AT16" s="26" t="n">
+      <c r="AT16" s="25" t="n">
         <v>32808828005.7754</v>
       </c>
-      <c r="AU16" s="26"/>
-      <c r="AV16" s="26"/>
+      <c r="AU16" s="25"/>
+      <c r="AV16" s="25"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
         <f>L17</f>
       </c>
-      <c r="B17" s="26" t="str">
+      <c r="B17" s="25" t="str">
         <f>AQ17</f>
       </c>
-      <c r="C17" s="26" t="str">
+      <c r="C17" s="25" t="str">
         <f>AS17</f>
       </c>
-      <c r="D17" s="26" t="str">
+      <c r="D17" s="25" t="str">
         <f>AT17</f>
       </c>
-      <c r="E17" s="26" t="str">
+      <c r="E17" s="25" t="str">
         <f>AU17</f>
       </c>
       <c r="F17" s="1" t="str">
@@ -18966,125 +18968,125 @@
         <f>AU17/Sum(AU11:AU$17)</f>
       </c>
       <c r="L17"/>
-      <c r="M17" s="26" t="n">
+      <c r="M17" s="25" t="n">
         <v>26178567894.6163</v>
       </c>
-      <c r="N17" s="26" t="n">
+      <c r="N17" s="25" t="n">
         <v>11448235338.8668</v>
       </c>
-      <c r="O17" s="26" t="n">
+      <c r="O17" s="25" t="n">
         <v>11662319190.8258</v>
       </c>
-      <c r="P17" s="26" t="n">
+      <c r="P17" s="25" t="n">
         <v>10653961870.5513</v>
       </c>
-      <c r="Q17" s="26" t="n">
+      <c r="Q17" s="25" t="n">
         <v>7502046599.57892</v>
       </c>
-      <c r="R17" s="26" t="n">
+      <c r="R17" s="25" t="n">
         <v>9183655382.24917</v>
       </c>
-      <c r="S17" s="26" t="n">
+      <c r="S17" s="25" t="n">
         <v>10363787716.0805</v>
       </c>
-      <c r="T17" s="26" t="n">
+      <c r="T17" s="25" t="n">
         <v>7208777329.09415</v>
       </c>
-      <c r="U17" s="26" t="n">
+      <c r="U17" s="25" t="n">
         <v>6701837669.3367</v>
       </c>
-      <c r="V17" s="26" t="n">
+      <c r="V17" s="25" t="n">
         <v>2491331032.40164</v>
       </c>
-      <c r="W17" s="26" t="n">
+      <c r="W17" s="25" t="n">
         <v>1507522520.45657</v>
       </c>
-      <c r="X17" s="26" t="n">
+      <c r="X17" s="25" t="n">
         <v>2187284642.71751</v>
       </c>
-      <c r="Y17" s="26" t="n">
+      <c r="Y17" s="25" t="n">
         <v>2543217067.50809</v>
       </c>
-      <c r="Z17" s="26" t="n">
+      <c r="Z17" s="25" t="n">
         <v>1125387878.44821</v>
       </c>
-      <c r="AA17" s="26" t="n">
+      <c r="AA17" s="25" t="n">
         <v>2842989329.51089</v>
       </c>
-      <c r="AB17" s="26" t="n">
+      <c r="AB17" s="25" t="n">
         <v>10627211754.3237</v>
       </c>
-      <c r="AC17" s="26" t="n">
+      <c r="AC17" s="25" t="n">
         <v>10318513183.6995</v>
       </c>
-      <c r="AD17" s="26" t="n">
+      <c r="AD17" s="25" t="n">
         <v>9736229219.25512</v>
       </c>
-      <c r="AE17" s="26" t="n">
+      <c r="AE17" s="25" t="n">
         <v>13158675858.7299</v>
       </c>
-      <c r="AF17" s="26" t="n">
+      <c r="AF17" s="25" t="n">
         <v>8141010249.1165</v>
       </c>
-      <c r="AG17" s="26" t="n">
+      <c r="AG17" s="25" t="n">
         <v>6549069227.86101</v>
       </c>
-      <c r="AH17" s="26" t="n">
+      <c r="AH17" s="25" t="n">
         <v>5301786294.48572</v>
       </c>
-      <c r="AI17" s="26" t="n">
+      <c r="AI17" s="25" t="n">
         <v>3590079460.95946</v>
       </c>
-      <c r="AJ17" s="26" t="n">
+      <c r="AJ17" s="25" t="n">
         <v>1705971740.16503</v>
       </c>
-      <c r="AK17" s="26" t="n">
+      <c r="AK17" s="25" t="n">
         <v>654973399.55614</v>
       </c>
-      <c r="AL17" s="26" t="n">
+      <c r="AL17" s="25" t="n">
         <v>1125999236.13021</v>
       </c>
-      <c r="AM17" s="26" t="n">
+      <c r="AM17" s="25" t="n">
         <v>1082876260.07676</v>
       </c>
-      <c r="AN17" s="26" t="n">
+      <c r="AN17" s="25" t="n">
         <v>611768960.153919</v>
       </c>
-      <c r="AO17" s="26" t="n">
+      <c r="AO17" s="25" t="n">
         <v>1205241769.09887</v>
       </c>
-      <c r="AP17" s="26" t="n">
+      <c r="AP17" s="25" t="n">
         <v>1291692814.35443</v>
       </c>
-      <c r="AQ17" s="26" t="n">
+      <c r="AQ17" s="25" t="n">
         <v>879731420.951674</v>
       </c>
-      <c r="AR17" s="26" t="n">
+      <c r="AR17" s="25" t="n">
         <v>830719687.564062</v>
       </c>
-      <c r="AS17" s="26" t="n">
+      <c r="AS17" s="25" t="n">
         <v>22736599181.9227</v>
       </c>
-      <c r="AT17" s="26" t="n">
+      <c r="AT17" s="25" t="n">
         <v>13529156156.6481</v>
       </c>
-      <c r="AU17" s="26"/>
-      <c r="AV17" s="26"/>
+      <c r="AU17" s="25"/>
+      <c r="AV17" s="25"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
         <f>L18</f>
       </c>
-      <c r="B18" s="26" t="str">
+      <c r="B18" s="25" t="str">
         <f>AQ18</f>
       </c>
-      <c r="C18" s="26" t="str">
+      <c r="C18" s="25" t="str">
         <f>AS18</f>
       </c>
-      <c r="D18" s="26" t="str">
+      <c r="D18" s="25" t="str">
         <f>AT18</f>
       </c>
-      <c r="E18" s="26" t="str">
+      <c r="E18" s="25" t="str">
         <f>AU18</f>
       </c>
       <c r="F18" s="1" t="str">
@@ -19105,112 +19107,112 @@
       <c r="L18" t="s">
         <v>46</v>
       </c>
-      <c r="M18" s="26" t="str">
+      <c r="M18" s="25" t="str">
         <f>Sum(M12:M17)</f>
       </c>
-      <c r="N18" s="26" t="str">
+      <c r="N18" s="25" t="str">
         <f>Sum(N12:N17)</f>
       </c>
-      <c r="O18" s="26" t="str">
+      <c r="O18" s="25" t="str">
         <f>Sum(O12:O17)</f>
       </c>
-      <c r="P18" s="26" t="str">
+      <c r="P18" s="25" t="str">
         <f>Sum(P12:P17)</f>
       </c>
-      <c r="Q18" s="26" t="str">
+      <c r="Q18" s="25" t="str">
         <f>Sum(Q12:Q17)</f>
       </c>
-      <c r="R18" s="26" t="str">
+      <c r="R18" s="25" t="str">
         <f>Sum(R12:R17)</f>
       </c>
-      <c r="S18" s="26" t="str">
+      <c r="S18" s="25" t="str">
         <f>Sum(S12:S17)</f>
       </c>
-      <c r="T18" s="26" t="str">
+      <c r="T18" s="25" t="str">
         <f>Sum(T12:T17)</f>
       </c>
-      <c r="U18" s="26" t="str">
+      <c r="U18" s="25" t="str">
         <f>Sum(U12:U17)</f>
       </c>
-      <c r="V18" s="26" t="str">
+      <c r="V18" s="25" t="str">
         <f>Sum(V12:V17)</f>
       </c>
-      <c r="W18" s="26" t="str">
+      <c r="W18" s="25" t="str">
         <f>Sum(W12:W17)</f>
       </c>
-      <c r="X18" s="26" t="str">
+      <c r="X18" s="25" t="str">
         <f>Sum(X12:X17)</f>
       </c>
-      <c r="Y18" s="26" t="str">
+      <c r="Y18" s="25" t="str">
         <f>Sum(Y12:Y17)</f>
       </c>
-      <c r="Z18" s="26" t="str">
+      <c r="Z18" s="25" t="str">
         <f>Sum(Z12:Z17)</f>
       </c>
-      <c r="AA18" s="26" t="str">
+      <c r="AA18" s="25" t="str">
         <f>Sum(AA12:AA17)</f>
       </c>
-      <c r="AB18" s="26" t="str">
+      <c r="AB18" s="25" t="str">
         <f>Sum(AB12:AB17)</f>
       </c>
-      <c r="AC18" s="26" t="str">
+      <c r="AC18" s="25" t="str">
         <f>Sum(AC12:AC17)</f>
       </c>
-      <c r="AD18" s="26" t="str">
+      <c r="AD18" s="25" t="str">
         <f>Sum(AD12:AD17)</f>
       </c>
-      <c r="AE18" s="26" t="str">
+      <c r="AE18" s="25" t="str">
         <f>Sum(AE12:AE17)</f>
       </c>
-      <c r="AF18" s="26" t="str">
+      <c r="AF18" s="25" t="str">
         <f>Sum(AF12:AF17)</f>
       </c>
-      <c r="AG18" s="26" t="str">
+      <c r="AG18" s="25" t="str">
         <f>Sum(AG12:AG17)</f>
       </c>
-      <c r="AH18" s="26" t="str">
+      <c r="AH18" s="25" t="str">
         <f>Sum(AH12:AH17)</f>
       </c>
-      <c r="AI18" s="26" t="str">
+      <c r="AI18" s="25" t="str">
         <f>Sum(AI12:AI17)</f>
       </c>
-      <c r="AJ18" s="26" t="str">
+      <c r="AJ18" s="25" t="str">
         <f>Sum(AJ12:AJ17)</f>
       </c>
-      <c r="AK18" s="26" t="str">
+      <c r="AK18" s="25" t="str">
         <f>Sum(AK12:AK17)</f>
       </c>
-      <c r="AL18" s="26" t="str">
+      <c r="AL18" s="25" t="str">
         <f>Sum(AL12:AL17)</f>
       </c>
-      <c r="AM18" s="26" t="str">
+      <c r="AM18" s="25" t="str">
         <f>Sum(AM12:AM17)</f>
       </c>
-      <c r="AN18" s="26" t="str">
+      <c r="AN18" s="25" t="str">
         <f>Sum(AN12:AN17)</f>
       </c>
-      <c r="AO18" s="26" t="str">
+      <c r="AO18" s="25" t="str">
         <f>Sum(AO12:AO17)</f>
       </c>
-      <c r="AP18" s="26" t="str">
+      <c r="AP18" s="25" t="str">
         <f>Sum(AP12:AP17)</f>
       </c>
-      <c r="AQ18" s="26" t="str">
+      <c r="AQ18" s="25" t="str">
         <f>Sum(AQ12:AQ17)</f>
       </c>
-      <c r="AR18" s="26" t="str">
+      <c r="AR18" s="25" t="str">
         <f>Sum(AR12:AR17)</f>
       </c>
-      <c r="AS18" s="26" t="str">
+      <c r="AS18" s="25" t="str">
         <f>Sum(AS12:AS17)</f>
       </c>
-      <c r="AT18" s="26" t="str">
+      <c r="AT18" s="25" t="str">
         <f>Sum(AT12:AT17)</f>
       </c>
-      <c r="AU18" s="26" t="str">
+      <c r="AU18" s="25" t="str">
         <f>Sum(AU12:AU17)</f>
       </c>
-      <c r="AV18" s="26"/>
+      <c r="AV18" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20054,6 +20056,2841 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>N1</f>
+      </c>
+      <c r="C1" t="str">
+        <f>AI1</f>
+      </c>
+      <c r="D1" t="str">
+        <f>AK1</f>
+      </c>
+      <c r="E1" t="str">
+        <f>AL1</f>
+      </c>
+      <c r="G1" t="str">
+        <f>AK1&amp;"-"&amp;AL1</f>
+      </c>
+      <c r="H1" t="str">
+        <f>AI1&amp;"-"&amp;AL1</f>
+      </c>
+      <c r="J1" t="str">
+        <f>"Share "&amp;AL1</f>
+      </c>
+      <c r="M1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>N2</f>
+      </c>
+      <c r="C2" s="26" t="str">
+        <f>AI2</f>
+      </c>
+      <c r="D2" s="26" t="str">
+        <f>AK2</f>
+      </c>
+      <c r="E2" s="26" t="str">
+        <f>AL2</f>
+      </c>
+      <c r="F2" s="26"/>
+      <c r="G2" s="1" t="str">
+        <f>AL2/AK2-1</f>
+      </c>
+      <c r="H2" s="1" t="str">
+        <f>AL2/AI2-1</f>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="str">
+        <f>AL2/Sum(AL$1:AL$30)</f>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="M2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26" t="n">
+        <v>397365806.319116</v>
+      </c>
+      <c r="R2" s="26" t="n">
+        <v>2839480303.02883</v>
+      </c>
+      <c r="S2" s="26" t="n">
+        <v>4109445149.76701</v>
+      </c>
+      <c r="T2" s="26" t="n">
+        <v>7875574308.78399</v>
+      </c>
+      <c r="U2" s="26" t="n">
+        <v>7073998460.09372</v>
+      </c>
+      <c r="V2" s="26" t="n">
+        <v>6152213033.87404</v>
+      </c>
+      <c r="W2" s="26" t="n">
+        <v>5801207584.22227</v>
+      </c>
+      <c r="X2" s="26" t="n">
+        <v>2668848611.28076</v>
+      </c>
+      <c r="Y2" s="26" t="n">
+        <v>792576556.757872</v>
+      </c>
+      <c r="Z2" s="26" t="n">
+        <v>56035989.1754174</v>
+      </c>
+      <c r="AA2" s="26" t="n">
+        <v>2849315372.07039</v>
+      </c>
+      <c r="AB2" s="26" t="n">
+        <v>2915235881.85436</v>
+      </c>
+      <c r="AC2" s="26" t="n">
+        <v>-22828334.1764098</v>
+      </c>
+      <c r="AD2" s="26" t="n">
+        <v>9053791.37420698</v>
+      </c>
+      <c r="AE2" s="26" t="n">
+        <v>14219533.5008926</v>
+      </c>
+      <c r="AF2" s="26" t="n">
+        <v>51965389.4391825</v>
+      </c>
+      <c r="AG2" s="26" t="n">
+        <v>1889872947.93917</v>
+      </c>
+      <c r="AH2" s="26" t="n">
+        <v>4149941105.51202</v>
+      </c>
+      <c r="AI2" s="26" t="n">
+        <v>2513447394.60167</v>
+      </c>
+      <c r="AJ2" s="26" t="n">
+        <v>2384770193.94276</v>
+      </c>
+      <c r="AK2" s="26" t="n">
+        <v>2177721855.78697</v>
+      </c>
+      <c r="AL2" s="26" t="n">
+        <v>1773563167.807</v>
+      </c>
+      <c r="AM2" s="26"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>N3</f>
+      </c>
+      <c r="C3" s="26" t="str">
+        <f>AI3</f>
+      </c>
+      <c r="D3" s="26" t="str">
+        <f>AK3</f>
+      </c>
+      <c r="E3" s="26" t="str">
+        <f>AL3</f>
+      </c>
+      <c r="F3" s="26"/>
+      <c r="G3" s="1" t="str">
+        <f>AL3/AK3-1</f>
+      </c>
+      <c r="H3" s="1" t="str">
+        <f>AL3/AI3-1</f>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="str">
+        <f>AL3/Sum(AL$1:AL$30)</f>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="M3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" t="s">
+        <v>99</v>
+      </c>
+      <c r="O3" s="26" t="n">
+        <v>892703.070821061</v>
+      </c>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26" t="n">
+        <v>555016414.132698</v>
+      </c>
+      <c r="R3" s="26" t="n">
+        <v>581237098.983541</v>
+      </c>
+      <c r="S3" s="26" t="n">
+        <v>612865751.753848</v>
+      </c>
+      <c r="T3" s="26" t="n">
+        <v>968359556.618929</v>
+      </c>
+      <c r="U3" s="26" t="n">
+        <v>1383139767.5459</v>
+      </c>
+      <c r="V3" s="26" t="n">
+        <v>100628033.2243</v>
+      </c>
+      <c r="W3" s="26" t="n">
+        <v>6179231553.48301</v>
+      </c>
+      <c r="X3" s="26" t="n">
+        <v>3426854207.2981</v>
+      </c>
+      <c r="Y3" s="26" t="n">
+        <v>3813123902.50872</v>
+      </c>
+      <c r="Z3" s="26" t="n">
+        <v>4279209448.87573</v>
+      </c>
+      <c r="AA3" s="26" t="n">
+        <v>5854121087.39238</v>
+      </c>
+      <c r="AB3" s="26" t="n">
+        <v>4053717172.65866</v>
+      </c>
+      <c r="AC3" s="26" t="n">
+        <v>3396788701.03342</v>
+      </c>
+      <c r="AD3" s="26" t="n">
+        <v>3573693639.78001</v>
+      </c>
+      <c r="AE3" s="26" t="n">
+        <v>4569729826.82835</v>
+      </c>
+      <c r="AF3" s="26" t="n">
+        <v>3053492264.81399</v>
+      </c>
+      <c r="AG3" s="26" t="n">
+        <v>1123486359.85999</v>
+      </c>
+      <c r="AH3" s="26" t="n">
+        <v>1152110340.69979</v>
+      </c>
+      <c r="AI3" s="26" t="n">
+        <v>1397012313.55159</v>
+      </c>
+      <c r="AJ3" s="26" t="n">
+        <v>1156028730.96057</v>
+      </c>
+      <c r="AK3" s="26" t="n">
+        <v>567453299.051815</v>
+      </c>
+      <c r="AL3" s="26" t="n">
+        <v>1330217877.4287</v>
+      </c>
+      <c r="AM3" s="26"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>N4</f>
+      </c>
+      <c r="C4" s="26" t="str">
+        <f>AI4</f>
+      </c>
+      <c r="D4" s="26" t="str">
+        <f>AK4</f>
+      </c>
+      <c r="E4" s="26" t="str">
+        <f>AL4</f>
+      </c>
+      <c r="F4" s="26"/>
+      <c r="G4" s="1" t="str">
+        <f>AL4/AK4-1</f>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f>AL4/AI4-1</f>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="str">
+        <f>AL4/Sum(AL$1:AL$30)</f>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="M4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" t="s">
+        <v>107</v>
+      </c>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26" t="n">
+        <v>5424175.49620942</v>
+      </c>
+      <c r="X4" s="26" t="n">
+        <v>4545847.42086142</v>
+      </c>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26" t="n">
+        <v>29658.1528392675</v>
+      </c>
+      <c r="AA4" s="26" t="n">
+        <v>177999.135688306</v>
+      </c>
+      <c r="AB4" s="26" t="n">
+        <v>366463.704148641</v>
+      </c>
+      <c r="AC4" s="26" t="n">
+        <v>361553.021921799</v>
+      </c>
+      <c r="AD4" s="26" t="n">
+        <v>18212.7539111367</v>
+      </c>
+      <c r="AE4" s="26" t="n">
+        <v>-186507.915454998</v>
+      </c>
+      <c r="AF4" s="26" t="n">
+        <v>123931.738910087</v>
+      </c>
+      <c r="AG4" s="26" t="n">
+        <v>334492.279988446</v>
+      </c>
+      <c r="AH4" s="26" t="n">
+        <v>2087251.70038931</v>
+      </c>
+      <c r="AI4" s="26" t="n">
+        <v>712707.795095527</v>
+      </c>
+      <c r="AJ4" s="26" t="n">
+        <v>188380405.952412</v>
+      </c>
+      <c r="AK4" s="26" t="n">
+        <v>-4976172.57976131</v>
+      </c>
+      <c r="AL4" s="26" t="n">
+        <v>2374808234.41</v>
+      </c>
+      <c r="AM4" s="26"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>N5</f>
+      </c>
+      <c r="C5" s="26" t="str">
+        <f>AI5</f>
+      </c>
+      <c r="D5" s="26" t="str">
+        <f>AK5</f>
+      </c>
+      <c r="E5" s="26" t="str">
+        <f>AL5</f>
+      </c>
+      <c r="F5" s="26"/>
+      <c r="G5" s="1" t="str">
+        <f>AL5/AK5-1</f>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f>AL5/AI5-1</f>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="str">
+        <f>AL5/Sum(AL$1:AL$30)</f>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="M5" t="s">
+        <v>60</v>
+      </c>
+      <c r="N5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O5" s="26" t="n">
+        <v>109206957.341737</v>
+      </c>
+      <c r="P5" s="26" t="n">
+        <v>78664277.7731819</v>
+      </c>
+      <c r="Q5" s="26" t="n">
+        <v>66992284.2710572</v>
+      </c>
+      <c r="R5" s="26" t="n">
+        <v>404040532.852753</v>
+      </c>
+      <c r="S5" s="26" t="n">
+        <v>736761571.956634</v>
+      </c>
+      <c r="T5" s="26" t="n">
+        <v>1021494944.62273</v>
+      </c>
+      <c r="U5" s="26" t="n">
+        <v>978315934.406207</v>
+      </c>
+      <c r="V5" s="26" t="n">
+        <v>649952028.996232</v>
+      </c>
+      <c r="W5" s="26" t="n">
+        <v>377510464.973437</v>
+      </c>
+      <c r="X5" s="26" t="n">
+        <v>499052946.570925</v>
+      </c>
+      <c r="Y5" s="26" t="n">
+        <v>766800014.407336</v>
+      </c>
+      <c r="Z5" s="26" t="n">
+        <v>1423976671.54069</v>
+      </c>
+      <c r="AA5" s="26" t="n">
+        <v>1292106995.74913</v>
+      </c>
+      <c r="AB5" s="26" t="n">
+        <v>1630447418.57498</v>
+      </c>
+      <c r="AC5" s="26" t="n">
+        <v>1512529318.16832</v>
+      </c>
+      <c r="AD5" s="26" t="n">
+        <v>1290370117.97345</v>
+      </c>
+      <c r="AE5" s="26" t="n">
+        <v>1621381828.83097</v>
+      </c>
+      <c r="AF5" s="26" t="n">
+        <v>3099806534.2644</v>
+      </c>
+      <c r="AG5" s="26" t="n">
+        <v>4053256762.29813</v>
+      </c>
+      <c r="AH5" s="26" t="n">
+        <v>3966701986.28081</v>
+      </c>
+      <c r="AI5" s="26" t="n">
+        <v>3198323399.12932</v>
+      </c>
+      <c r="AJ5" s="26" t="n">
+        <v>2635245573.85011</v>
+      </c>
+      <c r="AK5" s="26" t="n">
+        <v>3471732807.83605</v>
+      </c>
+      <c r="AL5" s="26" t="n">
+        <v>2533857690.4549</v>
+      </c>
+      <c r="AM5" s="26"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <f>M6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>N6</f>
+      </c>
+      <c r="C6" s="26" t="str">
+        <f>AI6</f>
+      </c>
+      <c r="D6" s="26" t="str">
+        <f>AK6</f>
+      </c>
+      <c r="E6" s="26" t="str">
+        <f>AL6</f>
+      </c>
+      <c r="F6" s="26"/>
+      <c r="G6" s="1" t="str">
+        <f>AL6/AK6-1</f>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f>AL6/AI6-1</f>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="str">
+        <f>AL6/Sum(AL$1:AL$30)</f>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="M6" t="s">
+        <v>61</v>
+      </c>
+      <c r="N6" t="s">
+        <v>98</v>
+      </c>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="26"/>
+      <c r="AE6" s="26"/>
+      <c r="AF6" s="26"/>
+      <c r="AG6" s="26"/>
+      <c r="AH6" s="26" t="n">
+        <v>12160191.0669516</v>
+      </c>
+      <c r="AI6" s="26" t="n">
+        <v>10933558.8603299</v>
+      </c>
+      <c r="AJ6" s="26" t="n">
+        <v>4871322.51090028</v>
+      </c>
+      <c r="AK6" s="26" t="n">
+        <v>1117618.84445737</v>
+      </c>
+      <c r="AL6" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="26"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>M7</f>
+      </c>
+      <c r="B7" t="str">
+        <f>N7</f>
+      </c>
+      <c r="C7" s="26" t="str">
+        <f>AI7</f>
+      </c>
+      <c r="D7" s="26" t="str">
+        <f>AK7</f>
+      </c>
+      <c r="E7" s="26" t="str">
+        <f>AL7</f>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="1" t="str">
+        <f>AL7/AK7-1</f>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f>AL7/AI7-1</f>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1" t="str">
+        <f>AL7/Sum(AL$1:AL$30)</f>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="M7" t="s">
+        <v>61</v>
+      </c>
+      <c r="N7" t="s">
+        <v>101</v>
+      </c>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="26"/>
+      <c r="AE7" s="26"/>
+      <c r="AF7" s="26"/>
+      <c r="AG7" s="26"/>
+      <c r="AH7" s="26"/>
+      <c r="AI7" s="26"/>
+      <c r="AJ7" s="26" t="n">
+        <v>3410852.86305641</v>
+      </c>
+      <c r="AK7" s="26" t="n">
+        <v>28998040.0169742</v>
+      </c>
+      <c r="AL7" s="26" t="n">
+        <v>30841171.9922</v>
+      </c>
+      <c r="AM7" s="26"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <f>M8</f>
+      </c>
+      <c r="B8" t="str">
+        <f>N8</f>
+      </c>
+      <c r="C8" s="26" t="str">
+        <f>AI8</f>
+      </c>
+      <c r="D8" s="26" t="str">
+        <f>AK8</f>
+      </c>
+      <c r="E8" s="26" t="str">
+        <f>AL8</f>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="1" t="str">
+        <f>AL8/AK8-1</f>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f>AL8/AI8-1</f>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1" t="str">
+        <f>AL8/Sum(AL$1:AL$30)</f>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="M8" t="s">
+        <v>61</v>
+      </c>
+      <c r="N8" t="s">
+        <v>107</v>
+      </c>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26" t="n">
+        <v>51120.2682274273</v>
+      </c>
+      <c r="Z8" s="26" t="n">
+        <v>82036.6051261196</v>
+      </c>
+      <c r="AA8" s="26" t="n">
+        <v>75091.8703551646</v>
+      </c>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26" t="n">
+        <v>70359.6512026736</v>
+      </c>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="26" t="n">
+        <v>57255.9559744389</v>
+      </c>
+      <c r="AG8" s="26" t="n">
+        <v>61030.2232231585</v>
+      </c>
+      <c r="AH8" s="26" t="n">
+        <v>149805.720453464</v>
+      </c>
+      <c r="AI8" s="26"/>
+      <c r="AJ8" s="26"/>
+      <c r="AK8" s="26" t="n">
+        <v>6363281.23189551</v>
+      </c>
+      <c r="AL8" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="26"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <f>M9</f>
+      </c>
+      <c r="B9" t="str">
+        <f>N9</f>
+      </c>
+      <c r="C9" s="26" t="str">
+        <f>AI9</f>
+      </c>
+      <c r="D9" s="26" t="str">
+        <f>AK9</f>
+      </c>
+      <c r="E9" s="26" t="str">
+        <f>AL9</f>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="G9" s="1" t="str">
+        <f>AL9/AK9-1</f>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f>AL9/AI9-1</f>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1" t="str">
+        <f>AL9/Sum(AL$1:AL$30)</f>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="M9" t="s">
+        <v>61</v>
+      </c>
+      <c r="N9" t="s">
+        <v>113</v>
+      </c>
+      <c r="O9" s="26" t="n">
+        <v>117167358.741587</v>
+      </c>
+      <c r="P9" s="26" t="n">
+        <v>236186060.154231</v>
+      </c>
+      <c r="Q9" s="26" t="n">
+        <v>634464512.668636</v>
+      </c>
+      <c r="R9" s="26" t="n">
+        <v>864023861.474285</v>
+      </c>
+      <c r="S9" s="26" t="n">
+        <v>2049791362.45062</v>
+      </c>
+      <c r="T9" s="26" t="n">
+        <v>1433805998.70756</v>
+      </c>
+      <c r="U9" s="26" t="n">
+        <v>1804372908.85056</v>
+      </c>
+      <c r="V9" s="26" t="n">
+        <v>335651403.418063</v>
+      </c>
+      <c r="W9" s="26" t="n">
+        <v>324443752.831616</v>
+      </c>
+      <c r="X9" s="26" t="n">
+        <v>567996028.748357</v>
+      </c>
+      <c r="Y9" s="26" t="n">
+        <v>565211835.902704</v>
+      </c>
+      <c r="Z9" s="26" t="n">
+        <v>903230861.010044</v>
+      </c>
+      <c r="AA9" s="26" t="n">
+        <v>892749555.066973</v>
+      </c>
+      <c r="AB9" s="26" t="n">
+        <v>1204769184.84938</v>
+      </c>
+      <c r="AC9" s="26" t="n">
+        <v>1011874940.41063</v>
+      </c>
+      <c r="AD9" s="26" t="n">
+        <v>985367747.868534</v>
+      </c>
+      <c r="AE9" s="26" t="n">
+        <v>1480137091.91365</v>
+      </c>
+      <c r="AF9" s="26" t="n">
+        <v>2130580898.6656</v>
+      </c>
+      <c r="AG9" s="26" t="n">
+        <v>2385810261.75137</v>
+      </c>
+      <c r="AH9" s="26" t="n">
+        <v>2357996865.22165</v>
+      </c>
+      <c r="AI9" s="26" t="n">
+        <v>1902499199.59765</v>
+      </c>
+      <c r="AJ9" s="26" t="n">
+        <v>2168681693.04048</v>
+      </c>
+      <c r="AK9" s="26" t="n">
+        <v>1667122386.08287</v>
+      </c>
+      <c r="AL9" s="26" t="n">
+        <v>2830774022.9565</v>
+      </c>
+      <c r="AM9" s="26"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="B10" t="str">
+        <f>N10</f>
+      </c>
+      <c r="C10" s="26" t="str">
+        <f>AI10</f>
+      </c>
+      <c r="D10" s="26" t="str">
+        <f>AK10</f>
+      </c>
+      <c r="E10" s="26" t="str">
+        <f>AL10</f>
+      </c>
+      <c r="F10" s="26"/>
+      <c r="G10" s="1" t="str">
+        <f>AL10/AK10-1</f>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f>AL10/AI10-1</f>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1" t="str">
+        <f>AL10/Sum(AL$1:AL$30)</f>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="M10" t="s">
+        <v>62</v>
+      </c>
+      <c r="N10" t="s">
+        <v>113</v>
+      </c>
+      <c r="O10" s="26" t="n">
+        <v>122810538.8715</v>
+      </c>
+      <c r="P10" s="26" t="n">
+        <v>88054801.3379279</v>
+      </c>
+      <c r="Q10" s="26" t="n">
+        <v>77403630.2273528</v>
+      </c>
+      <c r="R10" s="26" t="n">
+        <v>94785852.1989474</v>
+      </c>
+      <c r="S10" s="26" t="n">
+        <v>231725349.862572</v>
+      </c>
+      <c r="T10" s="26" t="n">
+        <v>284834141.930451</v>
+      </c>
+      <c r="U10" s="26" t="n">
+        <v>291808323.569528</v>
+      </c>
+      <c r="V10" s="26" t="n">
+        <v>663339717.454926</v>
+      </c>
+      <c r="W10" s="26" t="n">
+        <v>704910596.756886</v>
+      </c>
+      <c r="X10" s="26" t="n">
+        <v>692531237.335692</v>
+      </c>
+      <c r="Y10" s="26" t="n">
+        <v>1623479140.11611</v>
+      </c>
+      <c r="Z10" s="26" t="n">
+        <v>1888415968.34233</v>
+      </c>
+      <c r="AA10" s="26" t="n">
+        <v>1670124429.61354</v>
+      </c>
+      <c r="AB10" s="26" t="n">
+        <v>1647880034.34434</v>
+      </c>
+      <c r="AC10" s="26" t="n">
+        <v>1964593999.37621</v>
+      </c>
+      <c r="AD10" s="26" t="n">
+        <v>1531318000.2639</v>
+      </c>
+      <c r="AE10" s="26" t="n">
+        <v>1198422252.3702</v>
+      </c>
+      <c r="AF10" s="26" t="n">
+        <v>1143481661.1258</v>
+      </c>
+      <c r="AG10" s="26" t="n">
+        <v>1251612669.78872</v>
+      </c>
+      <c r="AH10" s="26" t="n">
+        <v>1422651243.24051</v>
+      </c>
+      <c r="AI10" s="26" t="n">
+        <v>1853615449.27931</v>
+      </c>
+      <c r="AJ10" s="26" t="n">
+        <v>2165396538.68423</v>
+      </c>
+      <c r="AK10" s="26" t="n">
+        <v>3094706690.9881</v>
+      </c>
+      <c r="AL10" s="26" t="n">
+        <v>2397983066.7312</v>
+      </c>
+      <c r="AM10" s="26"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <f>M11</f>
+      </c>
+      <c r="B11" t="str">
+        <f>N11</f>
+      </c>
+      <c r="C11" s="26" t="str">
+        <f>AI11</f>
+      </c>
+      <c r="D11" s="26" t="str">
+        <f>AK11</f>
+      </c>
+      <c r="E11" s="26" t="str">
+        <f>AL11</f>
+      </c>
+      <c r="F11" s="26"/>
+      <c r="G11" s="1" t="str">
+        <f>AL11/AK11-1</f>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f>AL11/AI11-1</f>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1" t="str">
+        <f>AL11/Sum(AL$1:AL$30)</f>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="M11" t="s">
+        <v>63</v>
+      </c>
+      <c r="N11" t="s">
+        <v>98</v>
+      </c>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="26"/>
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="26"/>
+      <c r="AE11" s="26"/>
+      <c r="AF11" s="26"/>
+      <c r="AG11" s="26"/>
+      <c r="AH11" s="26"/>
+      <c r="AI11" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="26"/>
+      <c r="AK11" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="26"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <f>M12</f>
+      </c>
+      <c r="B12" t="str">
+        <f>N12</f>
+      </c>
+      <c r="C12" s="26" t="str">
+        <f>AI12</f>
+      </c>
+      <c r="D12" s="26" t="str">
+        <f>AK12</f>
+      </c>
+      <c r="E12" s="26" t="str">
+        <f>AL12</f>
+      </c>
+      <c r="F12" s="26"/>
+      <c r="G12" s="1" t="str">
+        <f>AL12/AK12-1</f>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f>AL12/AI12-1</f>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1" t="str">
+        <f>AL12/Sum(AL$1:AL$30)</f>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="M12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N12" t="s">
+        <v>107</v>
+      </c>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="26"/>
+      <c r="AC12" s="26"/>
+      <c r="AD12" s="26"/>
+      <c r="AE12" s="26"/>
+      <c r="AF12" s="26"/>
+      <c r="AG12" s="26" t="n">
+        <v>70904.422648404</v>
+      </c>
+      <c r="AH12" s="26" t="n">
+        <v>29111.3797740244</v>
+      </c>
+      <c r="AI12" s="26" t="n">
+        <v>14330.0249566311</v>
+      </c>
+      <c r="AJ12" s="26" t="n">
+        <v>37143.9530268016</v>
+      </c>
+      <c r="AK12" s="26" t="n">
+        <v>41286.3053100184</v>
+      </c>
+      <c r="AL12" s="26"/>
+      <c r="AM12" s="26"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <f>M13</f>
+      </c>
+      <c r="B13" t="str">
+        <f>N13</f>
+      </c>
+      <c r="C13" s="26" t="str">
+        <f>AI13</f>
+      </c>
+      <c r="D13" s="26" t="str">
+        <f>AK13</f>
+      </c>
+      <c r="E13" s="26" t="str">
+        <f>AL13</f>
+      </c>
+      <c r="F13" s="26"/>
+      <c r="G13" s="1" t="str">
+        <f>AL13/AK13-1</f>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f>AL13/AI13-1</f>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1" t="str">
+        <f>AL13/Sum(AL$1:AL$30)</f>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="M13" t="s">
+        <v>63</v>
+      </c>
+      <c r="N13" t="s">
+        <v>113</v>
+      </c>
+      <c r="O13" s="26" t="n">
+        <v>223312048.663891</v>
+      </c>
+      <c r="P13" s="26" t="n">
+        <v>911363466.256188</v>
+      </c>
+      <c r="Q13" s="26" t="n">
+        <v>994764781.322826</v>
+      </c>
+      <c r="R13" s="26" t="n">
+        <v>571862227.634484</v>
+      </c>
+      <c r="S13" s="26" t="n">
+        <v>849865107.155529</v>
+      </c>
+      <c r="T13" s="26" t="n">
+        <v>518649498.643925</v>
+      </c>
+      <c r="U13" s="26" t="n">
+        <v>446811488.845499</v>
+      </c>
+      <c r="V13" s="26" t="n">
+        <v>-15993539.8353005</v>
+      </c>
+      <c r="W13" s="26" t="n">
+        <v>152455436.824145</v>
+      </c>
+      <c r="X13" s="26" t="n">
+        <v>218258523.191347</v>
+      </c>
+      <c r="Y13" s="26" t="n">
+        <v>253114336.078972</v>
+      </c>
+      <c r="Z13" s="26" t="n">
+        <v>378662643.214911</v>
+      </c>
+      <c r="AA13" s="26" t="n">
+        <v>351556730.035811</v>
+      </c>
+      <c r="AB13" s="26" t="n">
+        <v>127801010.859185</v>
+      </c>
+      <c r="AC13" s="26" t="n">
+        <v>330231829.756293</v>
+      </c>
+      <c r="AD13" s="26" t="n">
+        <v>1209450013.4581</v>
+      </c>
+      <c r="AE13" s="26" t="n">
+        <v>1350262720.16384</v>
+      </c>
+      <c r="AF13" s="26" t="n">
+        <v>1486640992.77409</v>
+      </c>
+      <c r="AG13" s="26" t="n">
+        <v>1557449770.55963</v>
+      </c>
+      <c r="AH13" s="26" t="n">
+        <v>1275736401.31365</v>
+      </c>
+      <c r="AI13" s="26" t="n">
+        <v>798237731.466745</v>
+      </c>
+      <c r="AJ13" s="26" t="n">
+        <v>431256166.360568</v>
+      </c>
+      <c r="AK13" s="26" t="n">
+        <v>364289934.361393</v>
+      </c>
+      <c r="AL13" s="26" t="n">
+        <v>447981792.5263</v>
+      </c>
+      <c r="AM13" s="26"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <f>M14</f>
+      </c>
+      <c r="B14" t="str">
+        <f>N14</f>
+      </c>
+      <c r="C14" s="26" t="str">
+        <f>AI14</f>
+      </c>
+      <c r="D14" s="26" t="str">
+        <f>AK14</f>
+      </c>
+      <c r="E14" s="26" t="str">
+        <f>AL14</f>
+      </c>
+      <c r="F14" s="26"/>
+      <c r="G14" s="1" t="str">
+        <f>AL14/AK14-1</f>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f>AL14/AI14-1</f>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1" t="str">
+        <f>AL14/Sum(AL$1:AL$30)</f>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="M14" t="s">
+        <v>64</v>
+      </c>
+      <c r="N14" t="s">
+        <v>101</v>
+      </c>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="26"/>
+      <c r="AD14" s="26"/>
+      <c r="AE14" s="26"/>
+      <c r="AF14" s="26"/>
+      <c r="AG14" s="26"/>
+      <c r="AH14" s="26"/>
+      <c r="AI14" s="26"/>
+      <c r="AJ14" s="26" t="n">
+        <v>757267483.173988</v>
+      </c>
+      <c r="AK14" s="26" t="n">
+        <v>880702039.273206</v>
+      </c>
+      <c r="AL14" s="26" t="n">
+        <v>1730402389.9924</v>
+      </c>
+      <c r="AM14" s="26"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <f>M15</f>
+      </c>
+      <c r="B15" t="str">
+        <f>N15</f>
+      </c>
+      <c r="C15" s="26" t="str">
+        <f>AI15</f>
+      </c>
+      <c r="D15" s="26" t="str">
+        <f>AK15</f>
+      </c>
+      <c r="E15" s="26" t="str">
+        <f>AL15</f>
+      </c>
+      <c r="F15" s="26"/>
+      <c r="G15" s="1" t="str">
+        <f>AL15/AK15-1</f>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f>AL15/AI15-1</f>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1" t="str">
+        <f>AL15/Sum(AL$1:AL$30)</f>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="M15" t="s">
+        <v>64</v>
+      </c>
+      <c r="N15" t="s">
+        <v>106</v>
+      </c>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26" t="n">
+        <v>54446922.3707664</v>
+      </c>
+      <c r="Z15" s="26" t="n">
+        <v>355439677.925857</v>
+      </c>
+      <c r="AA15" s="26" t="n">
+        <v>471119588.652068</v>
+      </c>
+      <c r="AB15" s="26" t="n">
+        <v>438549754.464684</v>
+      </c>
+      <c r="AC15" s="26" t="n">
+        <v>344467231.951312</v>
+      </c>
+      <c r="AD15" s="26" t="n">
+        <v>895996065.036764</v>
+      </c>
+      <c r="AE15" s="26" t="n">
+        <v>1159442710.57902</v>
+      </c>
+      <c r="AF15" s="26" t="n">
+        <v>837962271.26235</v>
+      </c>
+      <c r="AG15" s="26" t="n">
+        <v>137259921.116006</v>
+      </c>
+      <c r="AH15" s="26" t="n">
+        <v>155866452.151691</v>
+      </c>
+      <c r="AI15" s="26" t="n">
+        <v>1911969073.48287</v>
+      </c>
+      <c r="AJ15" s="26" t="n">
+        <v>693066248.953756</v>
+      </c>
+      <c r="AK15" s="26" t="n">
+        <v>538465808.250516</v>
+      </c>
+      <c r="AL15" s="26" t="n">
+        <v>660934111.0548</v>
+      </c>
+      <c r="AM15" s="26"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <f>M16</f>
+      </c>
+      <c r="B16" t="str">
+        <f>N16</f>
+      </c>
+      <c r="C16" s="26" t="str">
+        <f>AI16</f>
+      </c>
+      <c r="D16" s="26" t="str">
+        <f>AK16</f>
+      </c>
+      <c r="E16" s="26" t="str">
+        <f>AL16</f>
+      </c>
+      <c r="F16" s="26"/>
+      <c r="G16" s="1" t="str">
+        <f>AL16/AK16-1</f>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f>AL16/AI16-1</f>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1" t="str">
+        <f>AL16/Sum(AL$1:AL$30)</f>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="M16" t="s">
+        <v>64</v>
+      </c>
+      <c r="N16" t="s">
+        <v>113</v>
+      </c>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" s="26" t="n">
+        <v>2181673.56151467</v>
+      </c>
+      <c r="V16" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" s="26" t="n">
+        <v>17357638.3002127</v>
+      </c>
+      <c r="X16" s="26" t="n">
+        <v>46593781.2247896</v>
+      </c>
+      <c r="Y16" s="26" t="n">
+        <v>116959202.771747</v>
+      </c>
+      <c r="Z16" s="26" t="n">
+        <v>155802852.826609</v>
+      </c>
+      <c r="AA16" s="26" t="n">
+        <v>84570347.1752452</v>
+      </c>
+      <c r="AB16" s="26" t="n">
+        <v>116070626.196534</v>
+      </c>
+      <c r="AC16" s="26" t="n">
+        <v>201457162.968298</v>
+      </c>
+      <c r="AD16" s="26" t="n">
+        <v>168371795.707106</v>
+      </c>
+      <c r="AE16" s="26" t="n">
+        <v>201940089.381481</v>
+      </c>
+      <c r="AF16" s="26" t="n">
+        <v>358027778.532408</v>
+      </c>
+      <c r="AG16" s="26" t="n">
+        <v>352371006.282432</v>
+      </c>
+      <c r="AH16" s="26" t="n">
+        <v>468552576.636055</v>
+      </c>
+      <c r="AI16" s="26" t="n">
+        <v>475248308.919858</v>
+      </c>
+      <c r="AJ16" s="26" t="n">
+        <v>470506533.662932</v>
+      </c>
+      <c r="AK16" s="26" t="n">
+        <v>732830376.291269</v>
+      </c>
+      <c r="AL16" s="26" t="n">
+        <v>658606978.5541</v>
+      </c>
+      <c r="AM16" s="26"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <f>M17</f>
+      </c>
+      <c r="B17" t="str">
+        <f>N17</f>
+      </c>
+      <c r="C17" s="26" t="str">
+        <f>AI17</f>
+      </c>
+      <c r="D17" s="26" t="str">
+        <f>AK17</f>
+      </c>
+      <c r="E17" s="26" t="str">
+        <f>AL17</f>
+      </c>
+      <c r="F17" s="26"/>
+      <c r="G17" s="1" t="str">
+        <f>AL17/AK17-1</f>
+      </c>
+      <c r="H17" s="1" t="str">
+        <f>AL17/AI17-1</f>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1" t="str">
+        <f>AL17/Sum(AL$1:AL$30)</f>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="M17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N17" t="s">
+        <v>106</v>
+      </c>
+      <c r="O17" s="26" t="n">
+        <v>488214064.171057</v>
+      </c>
+      <c r="P17" s="26" t="n">
+        <v>449148858.4313</v>
+      </c>
+      <c r="Q17" s="26" t="n">
+        <v>350018324.397305</v>
+      </c>
+      <c r="R17" s="26" t="n">
+        <v>271799752.179984</v>
+      </c>
+      <c r="S17" s="26" t="n">
+        <v>465295533.048704</v>
+      </c>
+      <c r="T17" s="26" t="n">
+        <v>383698529.162693</v>
+      </c>
+      <c r="U17" s="26" t="n">
+        <v>589608609.043846</v>
+      </c>
+      <c r="V17" s="26" t="n">
+        <v>487175349.69558</v>
+      </c>
+      <c r="W17" s="26" t="n">
+        <v>998603316.92027</v>
+      </c>
+      <c r="X17" s="26" t="n">
+        <v>125977100.829538</v>
+      </c>
+      <c r="Y17" s="26" t="n">
+        <v>93945822.0569957</v>
+      </c>
+      <c r="Z17" s="26" t="n">
+        <v>6323212.95197715</v>
+      </c>
+      <c r="AA17" s="26" t="n">
+        <v>-901805.866280797</v>
+      </c>
+      <c r="AB17" s="26" t="n">
+        <v>142285309.503426</v>
+      </c>
+      <c r="AC17" s="26" t="n">
+        <v>130065358.295645</v>
+      </c>
+      <c r="AD17" s="26" t="n">
+        <v>138221564.409731</v>
+      </c>
+      <c r="AE17" s="26" t="n">
+        <v>134982842.860277</v>
+      </c>
+      <c r="AF17" s="26" t="n">
+        <v>567267030.107956</v>
+      </c>
+      <c r="AG17" s="26" t="n">
+        <v>993567024.518339</v>
+      </c>
+      <c r="AH17" s="26" t="n">
+        <v>1054733613.76892</v>
+      </c>
+      <c r="AI17" s="26" t="n">
+        <v>1200420238.37927</v>
+      </c>
+      <c r="AJ17" s="26" t="n">
+        <v>1276043983.69188</v>
+      </c>
+      <c r="AK17" s="26" t="n">
+        <v>327643124.314858</v>
+      </c>
+      <c r="AL17" s="26" t="n">
+        <v>965168691.875</v>
+      </c>
+      <c r="AM17" s="26"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <f>M18</f>
+      </c>
+      <c r="B18" t="str">
+        <f>N18</f>
+      </c>
+      <c r="C18" s="26" t="str">
+        <f>AI18</f>
+      </c>
+      <c r="D18" s="26" t="str">
+        <f>AK18</f>
+      </c>
+      <c r="E18" s="26" t="str">
+        <f>AL18</f>
+      </c>
+      <c r="F18" s="26"/>
+      <c r="G18" s="1" t="str">
+        <f>AL18/AK18-1</f>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f>AL18/AI18-1</f>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1" t="str">
+        <f>AL18/Sum(AL$1:AL$30)</f>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="M18" t="s">
+        <v>65</v>
+      </c>
+      <c r="N18" t="s">
+        <v>107</v>
+      </c>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="26" t="n">
+        <v>3709846.7500795</v>
+      </c>
+      <c r="AB18" s="26" t="n">
+        <v>-103790.857395698</v>
+      </c>
+      <c r="AC18" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="26"/>
+      <c r="AE18" s="26"/>
+      <c r="AF18" s="26"/>
+      <c r="AG18" s="26"/>
+      <c r="AH18" s="26"/>
+      <c r="AI18" s="26"/>
+      <c r="AJ18" s="26"/>
+      <c r="AK18" s="26"/>
+      <c r="AL18" s="26"/>
+      <c r="AM18" s="26"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <f>M19</f>
+      </c>
+      <c r="B19" t="str">
+        <f>N19</f>
+      </c>
+      <c r="C19" s="26" t="str">
+        <f>AI19</f>
+      </c>
+      <c r="D19" s="26" t="str">
+        <f>AK19</f>
+      </c>
+      <c r="E19" s="26" t="str">
+        <f>AL19</f>
+      </c>
+      <c r="F19" s="26"/>
+      <c r="G19" s="1" t="str">
+        <f>AL19/AK19-1</f>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f>AL19/AI19-1</f>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1" t="str">
+        <f>AL19/Sum(AL$1:AL$30)</f>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="M19" t="s">
+        <v>65</v>
+      </c>
+      <c r="N19" t="s">
+        <v>113</v>
+      </c>
+      <c r="O19" s="26" t="n">
+        <v>671130044.724945</v>
+      </c>
+      <c r="P19" s="26" t="n">
+        <v>570905583.114454</v>
+      </c>
+      <c r="Q19" s="26" t="n">
+        <v>627560231.606834</v>
+      </c>
+      <c r="R19" s="26" t="n">
+        <v>519166081.625699</v>
+      </c>
+      <c r="S19" s="26" t="n">
+        <v>218772405.327859</v>
+      </c>
+      <c r="T19" s="26" t="n">
+        <v>118302073.019267</v>
+      </c>
+      <c r="U19" s="26" t="n">
+        <v>74477356.8078603</v>
+      </c>
+      <c r="V19" s="26" t="n">
+        <v>56087280.6333292</v>
+      </c>
+      <c r="W19" s="26" t="n">
+        <v>283161879.87861</v>
+      </c>
+      <c r="X19" s="26" t="n">
+        <v>700474406.004065</v>
+      </c>
+      <c r="Y19" s="26" t="n">
+        <v>1260599838.53752</v>
+      </c>
+      <c r="Z19" s="26" t="n">
+        <v>909460050.792516</v>
+      </c>
+      <c r="AA19" s="26" t="n">
+        <v>666223205.584859</v>
+      </c>
+      <c r="AB19" s="26" t="n">
+        <v>651160168.945446</v>
+      </c>
+      <c r="AC19" s="26" t="n">
+        <v>912820475.551143</v>
+      </c>
+      <c r="AD19" s="26" t="n">
+        <v>1002421406.28641</v>
+      </c>
+      <c r="AE19" s="26" t="n">
+        <v>674290174.911787</v>
+      </c>
+      <c r="AF19" s="26" t="n">
+        <v>649824225.375488</v>
+      </c>
+      <c r="AG19" s="26" t="n">
+        <v>649538586.881449</v>
+      </c>
+      <c r="AH19" s="26" t="n">
+        <v>189366448.688801</v>
+      </c>
+      <c r="AI19" s="26" t="n">
+        <v>195936223.699008</v>
+      </c>
+      <c r="AJ19" s="26" t="n">
+        <v>133963554.858339</v>
+      </c>
+      <c r="AK19" s="26" t="n">
+        <v>340501966.29442</v>
+      </c>
+      <c r="AL19" s="26" t="n">
+        <v>224946227.4268</v>
+      </c>
+      <c r="AM19" s="26"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <f>M20</f>
+      </c>
+      <c r="B20" t="str">
+        <f>N20</f>
+      </c>
+      <c r="C20" s="26" t="str">
+        <f>AI20</f>
+      </c>
+      <c r="D20" s="26" t="str">
+        <f>AK20</f>
+      </c>
+      <c r="E20" s="26" t="str">
+        <f>AL20</f>
+      </c>
+      <c r="F20" s="26"/>
+      <c r="G20" s="1" t="str">
+        <f>AL20/AK20-1</f>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f>AL20/AI20-1</f>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1" t="str">
+        <f>AL20/Sum(AL$1:AL$30)</f>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="M20" t="s">
+        <v>66</v>
+      </c>
+      <c r="N20" t="s">
+        <v>107</v>
+      </c>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="26" t="n">
+        <v>32040.0657332272</v>
+      </c>
+      <c r="AA20" s="26" t="n">
+        <v>328446.150222485</v>
+      </c>
+      <c r="AB20" s="26"/>
+      <c r="AC20" s="26" t="n">
+        <v>1479006.59267125</v>
+      </c>
+      <c r="AD20" s="26" t="n">
+        <v>-22952.8636404553</v>
+      </c>
+      <c r="AE20" s="26" t="n">
+        <v>1599.17422487555</v>
+      </c>
+      <c r="AF20" s="26" t="n">
+        <v>9074682.06859339</v>
+      </c>
+      <c r="AG20" s="26" t="n">
+        <v>300835.75866751</v>
+      </c>
+      <c r="AH20" s="26" t="n">
+        <v>101609.023301843</v>
+      </c>
+      <c r="AI20" s="26" t="n">
+        <v>24562.1228616275</v>
+      </c>
+      <c r="AJ20" s="26" t="n">
+        <v>405328.346884603</v>
+      </c>
+      <c r="AK20" s="26" t="n">
+        <v>66516.0400461046</v>
+      </c>
+      <c r="AL20" s="26" t="n">
+        <v>1089571.6679</v>
+      </c>
+      <c r="AM20" s="26"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <f>M21</f>
+      </c>
+      <c r="B21" t="str">
+        <f>N21</f>
+      </c>
+      <c r="C21" s="26" t="str">
+        <f>AI21</f>
+      </c>
+      <c r="D21" s="26" t="str">
+        <f>AK21</f>
+      </c>
+      <c r="E21" s="26" t="str">
+        <f>AL21</f>
+      </c>
+      <c r="F21" s="26"/>
+      <c r="G21" s="1" t="str">
+        <f>AL21/AK21-1</f>
+      </c>
+      <c r="H21" s="1" t="str">
+        <f>AL21/AI21-1</f>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1" t="str">
+        <f>AL21/Sum(AL$1:AL$30)</f>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="M21" t="s">
+        <v>66</v>
+      </c>
+      <c r="N21" t="s">
+        <v>113</v>
+      </c>
+      <c r="O21" s="26" t="n">
+        <v>920011377.240056</v>
+      </c>
+      <c r="P21" s="26" t="n">
+        <v>1068804178.51338</v>
+      </c>
+      <c r="Q21" s="26" t="n">
+        <v>2278313971.68038</v>
+      </c>
+      <c r="R21" s="26" t="n">
+        <v>1314182313.45545</v>
+      </c>
+      <c r="S21" s="26" t="n">
+        <v>432992232.292929</v>
+      </c>
+      <c r="T21" s="26" t="n">
+        <v>2394157457.34838</v>
+      </c>
+      <c r="U21" s="26" t="n">
+        <v>1143204740.6086</v>
+      </c>
+      <c r="V21" s="26" t="n">
+        <v>103016588.539979</v>
+      </c>
+      <c r="W21" s="26" t="n">
+        <v>2687277024.39891</v>
+      </c>
+      <c r="X21" s="26" t="n">
+        <v>2747476959.29644</v>
+      </c>
+      <c r="Y21" s="26" t="n">
+        <v>2126802365.57939</v>
+      </c>
+      <c r="Z21" s="26" t="n">
+        <v>3622030816.31332</v>
+      </c>
+      <c r="AA21" s="26" t="n">
+        <v>1595485000.28951</v>
+      </c>
+      <c r="AB21" s="26" t="n">
+        <v>3790198396.21208</v>
+      </c>
+      <c r="AC21" s="26" t="n">
+        <v>3937035512.29619</v>
+      </c>
+      <c r="AD21" s="26" t="n">
+        <v>1694586798.54266</v>
+      </c>
+      <c r="AE21" s="26" t="n">
+        <v>311067182.825565</v>
+      </c>
+      <c r="AF21" s="26" t="n">
+        <v>201622854.876921</v>
+      </c>
+      <c r="AG21" s="26" t="n">
+        <v>277523211.229546</v>
+      </c>
+      <c r="AH21" s="26" t="n">
+        <v>395454241.548094</v>
+      </c>
+      <c r="AI21" s="26" t="n">
+        <v>1670638472.96543</v>
+      </c>
+      <c r="AJ21" s="26" t="n">
+        <v>8038054342.62638</v>
+      </c>
+      <c r="AK21" s="26" t="n">
+        <v>280205649.137431</v>
+      </c>
+      <c r="AL21" s="26" t="n">
+        <v>272695242.7823</v>
+      </c>
+      <c r="AM21" s="26"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <f>M22</f>
+      </c>
+      <c r="B22" t="str">
+        <f>N22</f>
+      </c>
+      <c r="C22" s="26" t="str">
+        <f>AI22</f>
+      </c>
+      <c r="D22" s="26" t="str">
+        <f>AK22</f>
+      </c>
+      <c r="E22" s="26" t="str">
+        <f>AL22</f>
+      </c>
+      <c r="F22" s="26"/>
+      <c r="G22" s="1" t="str">
+        <f>AL22/AK22-1</f>
+      </c>
+      <c r="H22" s="1" t="str">
+        <f>AL22/AI22-1</f>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1" t="str">
+        <f>AL22/Sum(AL$1:AL$30)</f>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="M22" t="s">
+        <v>67</v>
+      </c>
+      <c r="N22" t="s">
+        <v>101</v>
+      </c>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="26"/>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="26"/>
+      <c r="AC22" s="26"/>
+      <c r="AD22" s="26"/>
+      <c r="AE22" s="26"/>
+      <c r="AF22" s="26"/>
+      <c r="AG22" s="26"/>
+      <c r="AH22" s="26"/>
+      <c r="AI22" s="26"/>
+      <c r="AJ22" s="26" t="n">
+        <v>19209656.7738677</v>
+      </c>
+      <c r="AK22" s="26" t="n">
+        <v>17844100.5483761</v>
+      </c>
+      <c r="AL22" s="26" t="n">
+        <v>66464625.3829</v>
+      </c>
+      <c r="AM22" s="26"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <f>M23</f>
+      </c>
+      <c r="B23" t="str">
+        <f>N23</f>
+      </c>
+      <c r="C23" s="26" t="str">
+        <f>AI23</f>
+      </c>
+      <c r="D23" s="26" t="str">
+        <f>AK23</f>
+      </c>
+      <c r="E23" s="26" t="str">
+        <f>AL23</f>
+      </c>
+      <c r="F23" s="26"/>
+      <c r="G23" s="1" t="str">
+        <f>AL23/AK23-1</f>
+      </c>
+      <c r="H23" s="1" t="str">
+        <f>AL23/AI23-1</f>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1" t="str">
+        <f>AL23/Sum(AL$1:AL$30)</f>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="M23" t="s">
+        <v>67</v>
+      </c>
+      <c r="N23" t="s">
+        <v>113</v>
+      </c>
+      <c r="O23" s="26" t="n">
+        <v>107842459.647253</v>
+      </c>
+      <c r="P23" s="26" t="n">
+        <v>82556981.5931506</v>
+      </c>
+      <c r="Q23" s="26" t="n">
+        <v>22481693.6368648</v>
+      </c>
+      <c r="R23" s="26" t="n">
+        <v>200023151.917637</v>
+      </c>
+      <c r="S23" s="26" t="n">
+        <v>266872614.610659</v>
+      </c>
+      <c r="T23" s="26" t="n">
+        <v>141816686.702248</v>
+      </c>
+      <c r="U23" s="26" t="n">
+        <v>108743826.528041</v>
+      </c>
+      <c r="V23" s="26" t="n">
+        <v>186734670.666863</v>
+      </c>
+      <c r="W23" s="26" t="n">
+        <v>322297421.472713</v>
+      </c>
+      <c r="X23" s="26" t="n">
+        <v>415406866.648108</v>
+      </c>
+      <c r="Y23" s="26" t="n">
+        <v>843276437.805503</v>
+      </c>
+      <c r="Z23" s="26" t="n">
+        <v>850814445.684947</v>
+      </c>
+      <c r="AA23" s="26" t="n">
+        <v>779688347.098058</v>
+      </c>
+      <c r="AB23" s="26" t="n">
+        <v>844398972.17768</v>
+      </c>
+      <c r="AC23" s="26" t="n">
+        <v>555036719.286072</v>
+      </c>
+      <c r="AD23" s="26" t="n">
+        <v>640698318.198843</v>
+      </c>
+      <c r="AE23" s="26" t="n">
+        <v>856909971.773057</v>
+      </c>
+      <c r="AF23" s="26" t="n">
+        <v>1127150163.91419</v>
+      </c>
+      <c r="AG23" s="26" t="n">
+        <v>813628065.877135</v>
+      </c>
+      <c r="AH23" s="26" t="n">
+        <v>1275927940.64558</v>
+      </c>
+      <c r="AI23" s="26" t="n">
+        <v>1452405988.5093</v>
+      </c>
+      <c r="AJ23" s="26" t="n">
+        <v>1068487182.28569</v>
+      </c>
+      <c r="AK23" s="26" t="n">
+        <v>1140134795.39803</v>
+      </c>
+      <c r="AL23" s="26" t="n">
+        <v>1813922907.9572</v>
+      </c>
+      <c r="AM23" s="26"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <f>M24</f>
+      </c>
+      <c r="B24" t="str">
+        <f>N24</f>
+      </c>
+      <c r="C24" s="26" t="str">
+        <f>AI24</f>
+      </c>
+      <c r="D24" s="26" t="str">
+        <f>AK24</f>
+      </c>
+      <c r="E24" s="26" t="str">
+        <f>AL24</f>
+      </c>
+      <c r="F24" s="26"/>
+      <c r="G24" s="1" t="str">
+        <f>AL24/AK24-1</f>
+      </c>
+      <c r="H24" s="1" t="str">
+        <f>AL24/AI24-1</f>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1" t="str">
+        <f>AL24/Sum(AL$1:AL$30)</f>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="M24" t="s">
+        <v>68</v>
+      </c>
+      <c r="N24" t="s">
+        <v>113</v>
+      </c>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26" t="n">
+        <v>500949.16616074</v>
+      </c>
+      <c r="R24" s="26" t="n">
+        <v>1421347.21043611</v>
+      </c>
+      <c r="S24" s="26" t="n">
+        <v>5361383.98554956</v>
+      </c>
+      <c r="T24" s="26" t="n">
+        <v>26297114.4989144</v>
+      </c>
+      <c r="U24" s="26" t="n">
+        <v>12353385.0704913</v>
+      </c>
+      <c r="V24" s="26" t="n">
+        <v>11072724.4866451</v>
+      </c>
+      <c r="W24" s="26" t="n">
+        <v>22635387.9657976</v>
+      </c>
+      <c r="X24" s="26" t="n">
+        <v>31649377.8563304</v>
+      </c>
+      <c r="Y24" s="26" t="n">
+        <v>69082762.8801099</v>
+      </c>
+      <c r="Z24" s="26" t="n">
+        <v>128686448.144607</v>
+      </c>
+      <c r="AA24" s="26" t="n">
+        <v>325700106.458828</v>
+      </c>
+      <c r="AB24" s="26" t="n">
+        <v>278518343.995549</v>
+      </c>
+      <c r="AC24" s="26" t="n">
+        <v>144342756.273598</v>
+      </c>
+      <c r="AD24" s="26" t="n">
+        <v>118176555.747178</v>
+      </c>
+      <c r="AE24" s="26" t="n">
+        <v>94268986.8709606</v>
+      </c>
+      <c r="AF24" s="26" t="n">
+        <v>118450998.461128</v>
+      </c>
+      <c r="AG24" s="26" t="n">
+        <v>258474156.294841</v>
+      </c>
+      <c r="AH24" s="26" t="n">
+        <v>102898869.604246</v>
+      </c>
+      <c r="AI24" s="26" t="n">
+        <v>157248779.412383</v>
+      </c>
+      <c r="AJ24" s="26" t="n">
+        <v>175345363.055805</v>
+      </c>
+      <c r="AK24" s="26" t="n">
+        <v>267336269.068938</v>
+      </c>
+      <c r="AL24" s="26" t="n">
+        <v>423359381.986</v>
+      </c>
+      <c r="AM24" s="26"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <f>M25</f>
+      </c>
+      <c r="B25" t="str">
+        <f>N25</f>
+      </c>
+      <c r="C25" s="26" t="str">
+        <f>AI25</f>
+      </c>
+      <c r="D25" s="26" t="str">
+        <f>AK25</f>
+      </c>
+      <c r="E25" s="26" t="str">
+        <f>AL25</f>
+      </c>
+      <c r="F25" s="26"/>
+      <c r="G25" s="1" t="str">
+        <f>AL25/AK25-1</f>
+      </c>
+      <c r="H25" s="1" t="str">
+        <f>AL25/AI25-1</f>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1" t="str">
+        <f>AL25/Sum(AL$1:AL$30)</f>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="M25" t="s">
+        <v>69</v>
+      </c>
+      <c r="N25" t="s">
+        <v>100</v>
+      </c>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="26"/>
+      <c r="Z25" s="26"/>
+      <c r="AA25" s="26" t="n">
+        <v>125000163.703681</v>
+      </c>
+      <c r="AB25" s="26" t="n">
+        <v>1935898147.18375</v>
+      </c>
+      <c r="AC25" s="26" t="n">
+        <v>1790916506.22487</v>
+      </c>
+      <c r="AD25" s="26" t="n">
+        <v>1538167312.90319</v>
+      </c>
+      <c r="AE25" s="26" t="n">
+        <v>1609352726.59283</v>
+      </c>
+      <c r="AF25" s="26" t="n">
+        <v>2236356244.3371</v>
+      </c>
+      <c r="AG25" s="26" t="n">
+        <v>2166925748.75746</v>
+      </c>
+      <c r="AH25" s="26" t="n">
+        <v>3511954025.72948</v>
+      </c>
+      <c r="AI25" s="26" t="n">
+        <v>4090629028.34183</v>
+      </c>
+      <c r="AJ25" s="26" t="n">
+        <v>1681840936.61825</v>
+      </c>
+      <c r="AK25" s="26" t="n">
+        <v>2065826953.45297</v>
+      </c>
+      <c r="AL25" s="26" t="n">
+        <v>5182942540.7032</v>
+      </c>
+      <c r="AM25" s="26"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <f>M26</f>
+      </c>
+      <c r="B26" t="str">
+        <f>N26</f>
+      </c>
+      <c r="C26" s="26" t="str">
+        <f>AI26</f>
+      </c>
+      <c r="D26" s="26" t="str">
+        <f>AK26</f>
+      </c>
+      <c r="E26" s="26" t="str">
+        <f>AL26</f>
+      </c>
+      <c r="F26" s="26"/>
+      <c r="G26" s="1" t="str">
+        <f>AL26/AK26-1</f>
+      </c>
+      <c r="H26" s="1" t="str">
+        <f>AL26/AI26-1</f>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1" t="str">
+        <f>AL26/Sum(AL$1:AL$30)</f>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="M26" t="s">
+        <v>69</v>
+      </c>
+      <c r="N26" t="s">
+        <v>107</v>
+      </c>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="26"/>
+      <c r="X26" s="26" t="n">
+        <v>4486.42603499513</v>
+      </c>
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="26" t="n">
+        <v>7060.95153928015</v>
+      </c>
+      <c r="AA26" s="26"/>
+      <c r="AB26" s="26"/>
+      <c r="AC26" s="26"/>
+      <c r="AD26" s="26"/>
+      <c r="AE26" s="26"/>
+      <c r="AF26" s="26"/>
+      <c r="AG26" s="26"/>
+      <c r="AH26" s="26"/>
+      <c r="AI26" s="26"/>
+      <c r="AJ26" s="26"/>
+      <c r="AK26" s="26"/>
+      <c r="AL26" s="26"/>
+      <c r="AM26" s="26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <f>M27</f>
+      </c>
+      <c r="B27" t="str">
+        <f>N27</f>
+      </c>
+      <c r="C27" s="26" t="str">
+        <f>AI27</f>
+      </c>
+      <c r="D27" s="26" t="str">
+        <f>AK27</f>
+      </c>
+      <c r="E27" s="26" t="str">
+        <f>AL27</f>
+      </c>
+      <c r="F27" s="26"/>
+      <c r="G27" s="1" t="str">
+        <f>AL27/AK27-1</f>
+      </c>
+      <c r="H27" s="1" t="str">
+        <f>AL27/AI27-1</f>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1" t="str">
+        <f>AL27/Sum(AL$1:AL$30)</f>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="M27" t="s">
+        <v>69</v>
+      </c>
+      <c r="N27" t="s">
+        <v>113</v>
+      </c>
+      <c r="O27" s="26" t="n">
+        <v>1698942072.72133</v>
+      </c>
+      <c r="P27" s="26" t="n">
+        <v>667231689.746218</v>
+      </c>
+      <c r="Q27" s="26" t="n">
+        <v>229541392.802605</v>
+      </c>
+      <c r="R27" s="26" t="n">
+        <v>486241383.126826</v>
+      </c>
+      <c r="S27" s="26" t="n">
+        <v>253193877.894965</v>
+      </c>
+      <c r="T27" s="26" t="n">
+        <v>264367639.007765</v>
+      </c>
+      <c r="U27" s="26" t="n">
+        <v>125002327.636753</v>
+      </c>
+      <c r="V27" s="26" t="n">
+        <v>150089414.363696</v>
+      </c>
+      <c r="W27" s="26" t="n">
+        <v>156376649.404194</v>
+      </c>
+      <c r="X27" s="26" t="n">
+        <v>199993240.767862</v>
+      </c>
+      <c r="Y27" s="26" t="n">
+        <v>352434737.714835</v>
+      </c>
+      <c r="Z27" s="26" t="n">
+        <v>380434494.637766</v>
+      </c>
+      <c r="AA27" s="26" t="n">
+        <v>190225792.981314</v>
+      </c>
+      <c r="AB27" s="26" t="n">
+        <v>225966566.606211</v>
+      </c>
+      <c r="AC27" s="26" t="n">
+        <v>739024872.525312</v>
+      </c>
+      <c r="AD27" s="26" t="n">
+        <v>361043114.103746</v>
+      </c>
+      <c r="AE27" s="26" t="n">
+        <v>907288272.127476</v>
+      </c>
+      <c r="AF27" s="26" t="n">
+        <v>239157821.384092</v>
+      </c>
+      <c r="AG27" s="26" t="n">
+        <v>371016642.551373</v>
+      </c>
+      <c r="AH27" s="26" t="n">
+        <v>236180652.3815</v>
+      </c>
+      <c r="AI27" s="26" t="n">
+        <v>375701740.003395</v>
+      </c>
+      <c r="AJ27" s="26" t="n">
+        <v>124981625.204131</v>
+      </c>
+      <c r="AK27" s="26" t="n">
+        <v>155254674.062914</v>
+      </c>
+      <c r="AL27" s="26" t="n">
+        <v>160257277.9173</v>
+      </c>
+      <c r="AM27" s="26"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <f>M28</f>
+      </c>
+      <c r="B28" t="str">
+        <f>N28</f>
+      </c>
+      <c r="C28" s="26" t="str">
+        <f>AI28</f>
+      </c>
+      <c r="D28" s="26" t="str">
+        <f>AK28</f>
+      </c>
+      <c r="E28" s="26" t="str">
+        <f>AL28</f>
+      </c>
+      <c r="F28" s="26"/>
+      <c r="G28" s="1" t="str">
+        <f>AL28/AK28-1</f>
+      </c>
+      <c r="H28" s="1" t="str">
+        <f>AL28/AI28-1</f>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1" t="str">
+        <f>AL28/Sum(AL$1:AL$30)</f>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="M28" t="s">
+        <v>69</v>
+      </c>
+      <c r="N28" t="s">
+        <v>114</v>
+      </c>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="26"/>
+      <c r="W28" s="26"/>
+      <c r="X28" s="26" t="n">
+        <v>3782387076.99513</v>
+      </c>
+      <c r="Y28" s="26" t="n">
+        <v>3387582400.12545</v>
+      </c>
+      <c r="Z28" s="26" t="n">
+        <v>4410410862.72054</v>
+      </c>
+      <c r="AA28" s="26" t="n">
+        <v>3654380675.46002</v>
+      </c>
+      <c r="AB28" s="26" t="n">
+        <v>3257988992.66375</v>
+      </c>
+      <c r="AC28" s="26" t="n">
+        <v>1803980241.77711</v>
+      </c>
+      <c r="AD28" s="26" t="n">
+        <v>123539349.430913</v>
+      </c>
+      <c r="AE28" s="26" t="n">
+        <v>339566824.935044</v>
+      </c>
+      <c r="AF28" s="26" t="n">
+        <v>120213554.580293</v>
+      </c>
+      <c r="AG28" s="26" t="n">
+        <v>113022221.000859</v>
+      </c>
+      <c r="AH28" s="26" t="n">
+        <v>137986537.460037</v>
+      </c>
+      <c r="AI28" s="26" t="n">
+        <v>83996828.7864444</v>
+      </c>
+      <c r="AJ28" s="26" t="n">
+        <v>124947692.277727</v>
+      </c>
+      <c r="AK28" s="26" t="n">
+        <v>80673877.3906123</v>
+      </c>
+      <c r="AL28" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="26"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <f>M29</f>
+      </c>
+      <c r="B29" t="str">
+        <f>N29</f>
+      </c>
+      <c r="C29" s="26" t="str">
+        <f>AI29</f>
+      </c>
+      <c r="D29" s="26" t="str">
+        <f>AK29</f>
+      </c>
+      <c r="E29" s="26" t="str">
+        <f>AL29</f>
+      </c>
+      <c r="F29" s="26"/>
+      <c r="G29" s="1" t="str">
+        <f>AL29/AK29-1</f>
+      </c>
+      <c r="H29" s="1" t="str">
+        <f>AL29/AI29-1</f>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1" t="str">
+        <f>AL29/Sum(AL$1:AL$30)</f>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="M29" t="s">
+        <v>70</v>
+      </c>
+      <c r="N29" t="s">
+        <v>113</v>
+      </c>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26" t="n">
+        <v>5539683.33692797</v>
+      </c>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26" t="n">
+        <v>6825742.08321724</v>
+      </c>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="26" t="n">
+        <v>6314582.84521379</v>
+      </c>
+      <c r="W29" s="26" t="n">
+        <v>35852222.5157703</v>
+      </c>
+      <c r="X29" s="26" t="n">
+        <v>86097755.4160805</v>
+      </c>
+      <c r="Y29" s="26" t="n">
+        <v>340123073.330009</v>
+      </c>
+      <c r="Z29" s="26" t="n">
+        <v>690048328.860365</v>
+      </c>
+      <c r="AA29" s="26" t="n">
+        <v>1539310026.41604</v>
+      </c>
+      <c r="AB29" s="26" t="n">
+        <v>42919830.0068344</v>
+      </c>
+      <c r="AC29" s="26" t="n">
+        <v>31864603.0937122</v>
+      </c>
+      <c r="AD29" s="26" t="n">
+        <v>128760602.731185</v>
+      </c>
+      <c r="AE29" s="26" t="n">
+        <v>129737430.059346</v>
+      </c>
+      <c r="AF29" s="26" t="n">
+        <v>104426431.698331</v>
+      </c>
+      <c r="AG29" s="26" t="n">
+        <v>70540909.6698193</v>
+      </c>
+      <c r="AH29" s="26" t="n">
+        <v>235407372.418415</v>
+      </c>
+      <c r="AI29" s="26" t="n">
+        <v>238596052.902256</v>
+      </c>
+      <c r="AJ29" s="26" t="n">
+        <v>92717804.8975845</v>
+      </c>
+      <c r="AK29" s="26" t="n">
+        <v>106530961.41211</v>
+      </c>
+      <c r="AL29" s="26" t="n">
+        <v>96650466.9706</v>
+      </c>
+      <c r="AM29" s="26"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <f>M30</f>
+      </c>
+      <c r="B30" t="str">
+        <f>N30</f>
+      </c>
+      <c r="C30" s="26" t="str">
+        <f>AI30</f>
+      </c>
+      <c r="D30" s="26" t="str">
+        <f>AK30</f>
+      </c>
+      <c r="E30" s="26" t="str">
+        <f>AL30</f>
+      </c>
+      <c r="F30" s="26"/>
+      <c r="G30" s="1" t="str">
+        <f>AL30/AK30-1</f>
+      </c>
+      <c r="H30" s="1" t="str">
+        <f>AL30/AI30-1</f>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1" t="str">
+        <f>AL30/Sum(AL$1:AL$30)</f>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="M30" t="s">
+        <v>58</v>
+      </c>
+      <c r="N30"/>
+      <c r="O30" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26" t="n">
+        <v>459601.468371854</v>
+      </c>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="26"/>
+      <c r="W30" s="26" t="n">
+        <v>-137465.716340228</v>
+      </c>
+      <c r="X30" s="26"/>
+      <c r="Y30" s="26"/>
+      <c r="Z30" s="26"/>
+      <c r="AA30" s="26"/>
+      <c r="AB30" s="26"/>
+      <c r="AC30" s="26"/>
+      <c r="AD30" s="26"/>
+      <c r="AE30" s="26"/>
+      <c r="AF30" s="26" t="n">
+        <v>24414.0000046899</v>
+      </c>
+      <c r="AG30" s="26" t="n">
+        <v>-278246.133397523</v>
+      </c>
+      <c r="AH30" s="26"/>
+      <c r="AI30" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="26"/>
+      <c r="AK30" s="26"/>
+      <c r="AL30" s="26"/>
+      <c r="AM30" s="26"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <f>M31</f>
+      </c>
+      <c r="B31" t="str">
+        <f>N31</f>
+      </c>
+      <c r="C31" s="26" t="str">
+        <f>AI31</f>
+      </c>
+      <c r="D31" s="26" t="str">
+        <f>AK31</f>
+      </c>
+      <c r="E31" s="26" t="str">
+        <f>AL31</f>
+      </c>
+      <c r="F31" s="26"/>
+      <c r="G31" s="1" t="str">
+        <f>AL31/AK31-1</f>
+      </c>
+      <c r="H31" s="1" t="str">
+        <f>AL31/AI31-1</f>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1" t="str">
+        <f>Sum(J$1:J$30)</f>
+      </c>
+      <c r="K31" s="1"/>
+      <c r="M31" t="s">
+        <v>46</v>
+      </c>
+      <c r="N31" t="s">
+        <v>47</v>
+      </c>
+      <c r="O31" s="26" t="str">
+        <f>Sum(O2:O30)</f>
+      </c>
+      <c r="P31" s="26" t="str">
+        <f>Sum(P2:P30)</f>
+      </c>
+      <c r="Q31" s="26" t="str">
+        <f>Sum(Q2:Q30)</f>
+      </c>
+      <c r="R31" s="26" t="str">
+        <f>Sum(R2:R30)</f>
+      </c>
+      <c r="S31" s="26" t="str">
+        <f>Sum(S2:S30)</f>
+      </c>
+      <c r="T31" s="26" t="str">
+        <f>Sum(T2:T30)</f>
+      </c>
+      <c r="U31" s="26" t="str">
+        <f>Sum(U2:U30)</f>
+      </c>
+      <c r="V31" s="26" t="str">
+        <f>Sum(V2:V30)</f>
+      </c>
+      <c r="W31" s="26" t="str">
+        <f>Sum(W2:W30)</f>
+      </c>
+      <c r="X31" s="26" t="str">
+        <f>Sum(X2:X30)</f>
+      </c>
+      <c r="Y31" s="26" t="str">
+        <f>Sum(Y2:Y30)</f>
+      </c>
+      <c r="Z31" s="26" t="str">
+        <f>Sum(Z2:Z30)</f>
+      </c>
+      <c r="AA31" s="26" t="str">
+        <f>Sum(AA2:AA30)</f>
+      </c>
+      <c r="AB31" s="26" t="str">
+        <f>Sum(AB2:AB30)</f>
+      </c>
+      <c r="AC31" s="26" t="str">
+        <f>Sum(AC2:AC30)</f>
+      </c>
+      <c r="AD31" s="26" t="str">
+        <f>Sum(AD2:AD30)</f>
+      </c>
+      <c r="AE31" s="26" t="str">
+        <f>Sum(AE2:AE30)</f>
+      </c>
+      <c r="AF31" s="26" t="str">
+        <f>Sum(AF2:AF30)</f>
+      </c>
+      <c r="AG31" s="26" t="str">
+        <f>Sum(AG2:AG30)</f>
+      </c>
+      <c r="AH31" s="26" t="str">
+        <f>Sum(AH2:AH30)</f>
+      </c>
+      <c r="AI31" s="26" t="str">
+        <f>Sum(AI2:AI30)</f>
+      </c>
+      <c r="AJ31" s="26" t="str">
+        <f>Sum(AJ2:AJ30)</f>
+      </c>
+      <c r="AK31" s="26" t="str">
+        <f>Sum(AK2:AK30)</f>
+      </c>
+      <c r="AL31" s="26" t="str">
+        <f>Sum(AL2:AL30)</f>
+      </c>
+      <c r="AM31" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
@@ -25411,90 +28248,90 @@
       <c r="L2" t="s">
         <v>78</v>
       </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6" t="n">
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27" t="n">
         <v>74734263.2115</v>
       </c>
-      <c r="X2" s="6" t="n">
+      <c r="X2" s="27" t="n">
         <v>651380311.6253</v>
       </c>
-      <c r="Y2" s="6" t="n">
+      <c r="Y2" s="27" t="n">
         <v>2369331099.6546</v>
       </c>
-      <c r="Z2" s="6" t="n">
+      <c r="Z2" s="27" t="n">
         <v>389472349.0247</v>
       </c>
-      <c r="AA2" s="6" t="n">
+      <c r="AA2" s="27" t="n">
         <v>926767810.7713</v>
       </c>
-      <c r="AB2" s="6" t="n">
+      <c r="AB2" s="27" t="n">
         <v>2068972362.7543</v>
       </c>
-      <c r="AC2" s="6" t="n">
+      <c r="AC2" s="27" t="n">
         <v>9040956617.9254</v>
       </c>
-      <c r="AD2" s="6" t="n">
+      <c r="AD2" s="27" t="n">
         <v>28856537609.4008</v>
       </c>
-      <c r="AE2" s="6" t="n">
+      <c r="AE2" s="27" t="n">
         <v>32918075773.2283</v>
       </c>
-      <c r="AF2" s="6" t="n">
+      <c r="AF2" s="27" t="n">
         <v>27981624445.2773</v>
       </c>
-      <c r="AG2" s="6" t="n">
+      <c r="AG2" s="27" t="n">
         <v>26916948312.8638</v>
       </c>
-      <c r="AH2" s="6" t="n">
+      <c r="AH2" s="27" t="n">
         <v>25381059794.7938</v>
       </c>
-      <c r="AI2" s="6" t="n">
+      <c r="AI2" s="27" t="n">
         <v>23781236602.951</v>
       </c>
-      <c r="AJ2" s="6" t="n">
+      <c r="AJ2" s="27" t="n">
         <v>19497175336.1248</v>
       </c>
-      <c r="AK2" s="6" t="n">
+      <c r="AK2" s="27" t="n">
         <v>30744190284.6907</v>
       </c>
-      <c r="AL2" s="6" t="n">
+      <c r="AL2" s="27" t="n">
         <v>27640767677.3332</v>
       </c>
-      <c r="AM2" s="6" t="n">
+      <c r="AM2" s="27" t="n">
         <v>28807000700.5906</v>
       </c>
-      <c r="AN2" s="6" t="n">
+      <c r="AN2" s="27" t="n">
         <v>29406916248.8912</v>
       </c>
-      <c r="AO2" s="6" t="n">
+      <c r="AO2" s="27" t="n">
         <v>33682363136.9994</v>
       </c>
-      <c r="AP2" s="6" t="n">
+      <c r="AP2" s="27" t="n">
         <v>28537357724.827</v>
       </c>
-      <c r="AQ2" s="6" t="n">
+      <c r="AQ2" s="27" t="n">
         <v>28280428246.215</v>
       </c>
-      <c r="AR2" s="6" t="n">
+      <c r="AR2" s="27" t="n">
         <v>29217464869.0707</v>
       </c>
-      <c r="AS2" s="6" t="n">
+      <c r="AS2" s="27" t="n">
         <v>36768744492.4267</v>
       </c>
-      <c r="AT2" s="6" t="n">
+      <c r="AT2" s="27" t="n">
         <v>35866308853.3797</v>
       </c>
-      <c r="AU2" s="6"/>
-      <c r="AV2" s="6"/>
+      <c r="AU2" s="27"/>
+      <c r="AV2" s="27"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -25503,92 +28340,92 @@
       <c r="L3" t="s">
         <v>79</v>
       </c>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6" t="n">
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27" t="n">
         <v>3325939</v>
       </c>
-      <c r="W3" s="6" t="n">
+      <c r="W3" s="27" t="n">
         <v>1135593048.9812</v>
       </c>
-      <c r="X3" s="6" t="n">
+      <c r="X3" s="27" t="n">
         <v>4073193632.4718</v>
       </c>
-      <c r="Y3" s="6" t="n">
+      <c r="Y3" s="27" t="n">
         <v>2801053888.6658</v>
       </c>
-      <c r="Z3" s="6" t="n">
+      <c r="Z3" s="27" t="n">
         <v>5596788703.4387</v>
       </c>
-      <c r="AA3" s="6" t="n">
+      <c r="AA3" s="27" t="n">
         <v>5970437340.4126</v>
       </c>
-      <c r="AB3" s="6" t="n">
+      <c r="AB3" s="27" t="n">
         <v>10006109627.2385</v>
       </c>
-      <c r="AC3" s="6" t="n">
+      <c r="AC3" s="27" t="n">
         <v>16988292857.9503</v>
       </c>
-      <c r="AD3" s="6" t="n">
+      <c r="AD3" s="27" t="n">
         <v>49557963726.3316</v>
       </c>
-      <c r="AE3" s="6" t="n">
+      <c r="AE3" s="27" t="n">
         <v>64642941835.688</v>
       </c>
-      <c r="AF3" s="6" t="n">
+      <c r="AF3" s="27" t="n">
         <v>58098643257.0653</v>
       </c>
-      <c r="AG3" s="6" t="n">
+      <c r="AG3" s="27" t="n">
         <v>67756921458.8457</v>
       </c>
-      <c r="AH3" s="6" t="n">
+      <c r="AH3" s="27" t="n">
         <v>64575747345.7738</v>
       </c>
-      <c r="AI3" s="6" t="n">
+      <c r="AI3" s="27" t="n">
         <v>67595393425.143</v>
       </c>
-      <c r="AJ3" s="6" t="n">
+      <c r="AJ3" s="27" t="n">
         <v>51484301339.8842</v>
       </c>
-      <c r="AK3" s="6" t="n">
+      <c r="AK3" s="27" t="n">
         <v>41629203081.7025</v>
       </c>
-      <c r="AL3" s="6" t="n">
+      <c r="AL3" s="27" t="n">
         <v>43097580358.3998</v>
       </c>
-      <c r="AM3" s="6" t="n">
+      <c r="AM3" s="27" t="n">
         <v>47378754022.3691</v>
       </c>
-      <c r="AN3" s="6" t="n">
+      <c r="AN3" s="27" t="n">
         <v>57485126680.2272</v>
       </c>
-      <c r="AO3" s="6" t="n">
+      <c r="AO3" s="27" t="n">
         <v>65151912922.4511</v>
       </c>
-      <c r="AP3" s="6" t="n">
+      <c r="AP3" s="27" t="n">
         <v>72644543852.8073</v>
       </c>
-      <c r="AQ3" s="6" t="n">
+      <c r="AQ3" s="27" t="n">
         <v>93453038550.4417</v>
       </c>
-      <c r="AR3" s="6" t="n">
+      <c r="AR3" s="27" t="n">
         <v>59821074027.5788</v>
       </c>
-      <c r="AS3" s="6" t="n">
+      <c r="AS3" s="27" t="n">
         <v>64994474219.4722</v>
       </c>
-      <c r="AT3" s="6" t="n">
+      <c r="AT3" s="27" t="n">
         <v>68481733084.6695</v>
       </c>
-      <c r="AU3" s="6"/>
-      <c r="AV3" s="6"/>
+      <c r="AU3" s="27"/>
+      <c r="AV3" s="27"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -25597,104 +28434,104 @@
       <c r="L4" t="s">
         <v>80</v>
       </c>
-      <c r="M4" s="6" t="n">
+      <c r="M4" s="27" t="n">
         <v>1135000</v>
       </c>
-      <c r="N4" s="6" t="n">
+      <c r="N4" s="27" t="n">
         <v>3869000</v>
       </c>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6" t="n">
+      <c r="O4" s="27"/>
+      <c r="P4" s="27" t="n">
         <v>2766869</v>
       </c>
-      <c r="Q4" s="6" t="n">
+      <c r="Q4" s="27" t="n">
         <v>1621810</v>
       </c>
-      <c r="R4" s="6" t="n">
+      <c r="R4" s="27" t="n">
         <v>486569</v>
       </c>
-      <c r="S4" s="6" t="n">
+      <c r="S4" s="27" t="n">
         <v>262350</v>
       </c>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6" t="n">
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27" t="n">
         <v>2850000</v>
       </c>
-      <c r="W4" s="6" t="n">
+      <c r="W4" s="27" t="n">
         <v>2488488999.5</v>
       </c>
-      <c r="X4" s="6" t="n">
+      <c r="X4" s="27" t="n">
         <v>3599840088.1738</v>
       </c>
-      <c r="Y4" s="6" t="n">
+      <c r="Y4" s="27" t="n">
         <v>6015953476.0031</v>
       </c>
-      <c r="Z4" s="6" t="n">
+      <c r="Z4" s="27" t="n">
         <v>7646423798.3568</v>
       </c>
-      <c r="AA4" s="6" t="n">
+      <c r="AA4" s="27" t="n">
         <v>12781940166.5436</v>
       </c>
-      <c r="AB4" s="6" t="n">
+      <c r="AB4" s="27" t="n">
         <v>12707129305.2915</v>
       </c>
-      <c r="AC4" s="6" t="n">
+      <c r="AC4" s="27" t="n">
         <v>18382045134.1066</v>
       </c>
-      <c r="AD4" s="6" t="n">
+      <c r="AD4" s="27" t="n">
         <v>43013018845.1704</v>
       </c>
-      <c r="AE4" s="6" t="n">
+      <c r="AE4" s="27" t="n">
         <v>61456442976.9896</v>
       </c>
-      <c r="AF4" s="6" t="n">
+      <c r="AF4" s="27" t="n">
         <v>64889783985.1913</v>
       </c>
-      <c r="AG4" s="6" t="n">
+      <c r="AG4" s="27" t="n">
         <v>63572407065.2249</v>
       </c>
-      <c r="AH4" s="6" t="n">
+      <c r="AH4" s="27" t="n">
         <v>63728548103.9943</v>
       </c>
-      <c r="AI4" s="6" t="n">
+      <c r="AI4" s="27" t="n">
         <v>65983640595.1122</v>
       </c>
-      <c r="AJ4" s="6" t="n">
+      <c r="AJ4" s="27" t="n">
         <v>67211134917.3349</v>
       </c>
-      <c r="AK4" s="6" t="n">
+      <c r="AK4" s="27" t="n">
         <v>58281307207.8006</v>
       </c>
-      <c r="AL4" s="6" t="n">
+      <c r="AL4" s="27" t="n">
         <v>58315355386.1029</v>
       </c>
-      <c r="AM4" s="6" t="n">
+      <c r="AM4" s="27" t="n">
         <v>65807704779.3839</v>
       </c>
-      <c r="AN4" s="6" t="n">
+      <c r="AN4" s="27" t="n">
         <v>68217966167.0995</v>
       </c>
-      <c r="AO4" s="6" t="n">
+      <c r="AO4" s="27" t="n">
         <v>80288950328.7238</v>
       </c>
-      <c r="AP4" s="6" t="n">
+      <c r="AP4" s="27" t="n">
         <v>85770574912.6139</v>
       </c>
-      <c r="AQ4" s="6" t="n">
+      <c r="AQ4" s="27" t="n">
         <v>82014106010.0969</v>
       </c>
-      <c r="AR4" s="6" t="n">
+      <c r="AR4" s="27" t="n">
         <v>72939639695.5639</v>
       </c>
-      <c r="AS4" s="6" t="n">
+      <c r="AS4" s="27" t="n">
         <v>80313789564.7666</v>
       </c>
-      <c r="AT4" s="6" t="n">
+      <c r="AT4" s="27" t="n">
         <v>89778421220.0439</v>
       </c>
-      <c r="AU4" s="6"/>
-      <c r="AV4" s="6"/>
+      <c r="AU4" s="27"/>
+      <c r="AV4" s="27"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -25703,90 +28540,90 @@
       <c r="L5" t="s">
         <v>81</v>
       </c>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6" t="n">
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27" t="n">
         <v>343143083.9819</v>
       </c>
-      <c r="X5" s="6" t="n">
+      <c r="X5" s="27" t="n">
         <v>512987622.1616</v>
       </c>
-      <c r="Y5" s="6" t="n">
+      <c r="Y5" s="27" t="n">
         <v>1555406580.2656</v>
       </c>
-      <c r="Z5" s="6" t="n">
+      <c r="Z5" s="27" t="n">
         <v>3214731746.0247</v>
       </c>
-      <c r="AA5" s="6" t="n">
+      <c r="AA5" s="27" t="n">
         <v>3670535010.3677</v>
       </c>
-      <c r="AB5" s="6" t="n">
+      <c r="AB5" s="27" t="n">
         <v>7146022773.0194</v>
       </c>
-      <c r="AC5" s="6" t="n">
+      <c r="AC5" s="27" t="n">
         <v>13410079539.1641</v>
       </c>
-      <c r="AD5" s="6" t="n">
+      <c r="AD5" s="27" t="n">
         <v>32693496752.3323</v>
       </c>
-      <c r="AE5" s="6" t="n">
+      <c r="AE5" s="27" t="n">
         <v>41338416839.809</v>
       </c>
-      <c r="AF5" s="6" t="n">
+      <c r="AF5" s="27" t="n">
         <v>38889201730.5229</v>
       </c>
-      <c r="AG5" s="6" t="n">
+      <c r="AG5" s="27" t="n">
         <v>41830329250.2352</v>
       </c>
-      <c r="AH5" s="6" t="n">
+      <c r="AH5" s="27" t="n">
         <v>45943085309.8793</v>
       </c>
-      <c r="AI5" s="6" t="n">
+      <c r="AI5" s="27" t="n">
         <v>41274574111.2405</v>
       </c>
-      <c r="AJ5" s="6" t="n">
+      <c r="AJ5" s="27" t="n">
         <v>27696084407.0696</v>
       </c>
-      <c r="AK5" s="6" t="n">
+      <c r="AK5" s="27" t="n">
         <v>24167197519.375</v>
       </c>
-      <c r="AL5" s="6" t="n">
+      <c r="AL5" s="27" t="n">
         <v>26163704965.6678</v>
       </c>
-      <c r="AM5" s="6" t="n">
+      <c r="AM5" s="27" t="n">
         <v>24483600183.9948</v>
       </c>
-      <c r="AN5" s="6" t="n">
+      <c r="AN5" s="27" t="n">
         <v>33313188457.7358</v>
       </c>
-      <c r="AO5" s="6" t="n">
+      <c r="AO5" s="27" t="n">
         <v>28211687367.8067</v>
       </c>
-      <c r="AP5" s="6" t="n">
+      <c r="AP5" s="27" t="n">
         <v>25030868434.1995</v>
       </c>
-      <c r="AQ5" s="6" t="n">
+      <c r="AQ5" s="27" t="n">
         <v>28385087232.3506</v>
       </c>
-      <c r="AR5" s="6" t="n">
+      <c r="AR5" s="27" t="n">
         <v>33340717530.8196</v>
       </c>
-      <c r="AS5" s="6" t="n">
+      <c r="AS5" s="27" t="n">
         <v>35042199201.2074</v>
       </c>
-      <c r="AT5" s="6" t="n">
+      <c r="AT5" s="27" t="n">
         <v>28416003107.7987</v>
       </c>
-      <c r="AU5" s="6"/>
-      <c r="AV5" s="6"/>
+      <c r="AU5" s="27"/>
+      <c r="AV5" s="27"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -25795,110 +28632,110 @@
       <c r="L6" t="s">
         <v>82</v>
       </c>
-      <c r="M6" s="6" t="n">
+      <c r="M6" s="27" t="n">
         <v>1499432000</v>
       </c>
-      <c r="N6" s="6" t="n">
+      <c r="N6" s="27" t="n">
         <v>237541000</v>
       </c>
-      <c r="O6" s="6" t="n">
+      <c r="O6" s="27" t="n">
         <v>364081104</v>
       </c>
-      <c r="P6" s="6" t="n">
+      <c r="P6" s="27" t="n">
         <v>313330343</v>
       </c>
-      <c r="Q6" s="6" t="n">
+      <c r="Q6" s="27" t="n">
         <v>543901007</v>
       </c>
-      <c r="R6" s="6" t="n">
+      <c r="R6" s="27" t="n">
         <v>665199848</v>
       </c>
-      <c r="S6" s="6" t="n">
+      <c r="S6" s="27" t="n">
         <v>7555413</v>
       </c>
-      <c r="T6" s="6" t="n">
+      <c r="T6" s="27" t="n">
         <v>38487552</v>
       </c>
-      <c r="U6" s="6" t="n">
+      <c r="U6" s="27" t="n">
         <v>1052459050</v>
       </c>
-      <c r="V6" s="6" t="n">
+      <c r="V6" s="27" t="n">
         <v>986981234</v>
       </c>
-      <c r="W6" s="6" t="n">
+      <c r="W6" s="27" t="n">
         <v>5017460203.1224</v>
       </c>
-      <c r="X6" s="6" t="n">
+      <c r="X6" s="27" t="n">
         <v>8192697201.2665</v>
       </c>
-      <c r="Y6" s="6" t="n">
+      <c r="Y6" s="27" t="n">
         <v>17486083739.8113</v>
       </c>
-      <c r="Z6" s="6" t="n">
+      <c r="Z6" s="27" t="n">
         <v>30631888746.4587</v>
       </c>
-      <c r="AA6" s="6" t="n">
+      <c r="AA6" s="27" t="n">
         <v>40530857470.8198</v>
       </c>
-      <c r="AB6" s="6" t="n">
+      <c r="AB6" s="27" t="n">
         <v>51826794137.3968</v>
       </c>
-      <c r="AC6" s="6" t="n">
+      <c r="AC6" s="27" t="n">
         <v>65802878622.2959</v>
       </c>
-      <c r="AD6" s="6" t="n">
+      <c r="AD6" s="27" t="n">
         <v>81097959961.1024</v>
       </c>
-      <c r="AE6" s="6" t="n">
+      <c r="AE6" s="27" t="n">
         <v>94140306524.4107</v>
       </c>
-      <c r="AF6" s="6" t="n">
+      <c r="AF6" s="27" t="n">
         <v>92793319747.1754</v>
       </c>
-      <c r="AG6" s="6" t="n">
+      <c r="AG6" s="27" t="n">
         <v>82610307060.0663</v>
       </c>
-      <c r="AH6" s="6" t="n">
+      <c r="AH6" s="27" t="n">
         <v>90761159336.0793</v>
       </c>
-      <c r="AI6" s="6" t="n">
+      <c r="AI6" s="27" t="n">
         <v>91077193305.2115</v>
       </c>
-      <c r="AJ6" s="6" t="n">
+      <c r="AJ6" s="27" t="n">
         <v>86210083967.808</v>
       </c>
-      <c r="AK6" s="6" t="n">
+      <c r="AK6" s="27" t="n">
         <v>74260515794.5409</v>
       </c>
-      <c r="AL6" s="6" t="n">
+      <c r="AL6" s="27" t="n">
         <v>67799824325.1675</v>
       </c>
-      <c r="AM6" s="6" t="n">
+      <c r="AM6" s="27" t="n">
         <v>79367863107.4402</v>
       </c>
-      <c r="AN6" s="6" t="n">
+      <c r="AN6" s="27" t="n">
         <v>81619262660.3654</v>
       </c>
-      <c r="AO6" s="6" t="n">
+      <c r="AO6" s="27" t="n">
         <v>95357389196.199</v>
       </c>
-      <c r="AP6" s="6" t="n">
+      <c r="AP6" s="27" t="n">
         <v>117059090928.897</v>
       </c>
-      <c r="AQ6" s="6" t="n">
+      <c r="AQ6" s="27" t="n">
         <v>126405243988.628</v>
       </c>
-      <c r="AR6" s="6" t="n">
+      <c r="AR6" s="27" t="n">
         <v>118993315876.376</v>
       </c>
-      <c r="AS6" s="6" t="n">
+      <c r="AS6" s="27" t="n">
         <v>128962993546.785</v>
       </c>
-      <c r="AT6" s="6" t="n">
+      <c r="AT6" s="27" t="n">
         <v>169358749192.801</v>
       </c>
-      <c r="AU6" s="6"/>
-      <c r="AV6" s="6"/>
+      <c r="AU6" s="27"/>
+      <c r="AV6" s="27"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -25907,214 +28744,214 @@
       <c r="L7" t="s">
         <v>83</v>
       </c>
-      <c r="M7" s="6" t="n">
+      <c r="M7" s="27" t="n">
         <v>2200000</v>
       </c>
-      <c r="N7" s="6" t="n">
+      <c r="N7" s="27" t="n">
         <v>387000</v>
       </c>
-      <c r="O7" s="6" t="n">
+      <c r="O7" s="27" t="n">
         <v>2335875</v>
       </c>
-      <c r="P7" s="6" t="n">
+      <c r="P7" s="27" t="n">
         <v>4100000</v>
       </c>
-      <c r="Q7" s="6" t="n">
+      <c r="Q7" s="27" t="n">
         <v>1450000</v>
       </c>
-      <c r="R7" s="6" t="n">
+      <c r="R7" s="27" t="n">
         <v>600000</v>
       </c>
-      <c r="S7" s="6" t="n">
+      <c r="S7" s="27" t="n">
         <v>-245000</v>
       </c>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6" t="n">
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27" t="n">
         <v>995882938.2904</v>
       </c>
-      <c r="X7" s="6" t="n">
+      <c r="X7" s="27" t="n">
         <v>1727062270.7531</v>
       </c>
-      <c r="Y7" s="6" t="n">
+      <c r="Y7" s="27" t="n">
         <v>3828081479.2755</v>
       </c>
-      <c r="Z7" s="6" t="n">
+      <c r="Z7" s="27" t="n">
         <v>8312847280.5822</v>
       </c>
-      <c r="AA7" s="6" t="n">
+      <c r="AA7" s="27" t="n">
         <v>6488614271.6003</v>
       </c>
-      <c r="AB7" s="6" t="n">
+      <c r="AB7" s="27" t="n">
         <v>9320351005.8188</v>
       </c>
-      <c r="AC7" s="6" t="n">
+      <c r="AC7" s="27" t="n">
         <v>14305442867.5493</v>
       </c>
-      <c r="AD7" s="6" t="n">
+      <c r="AD7" s="27" t="n">
         <v>41151929253.5699</v>
       </c>
-      <c r="AE7" s="6" t="n">
+      <c r="AE7" s="27" t="n">
         <v>53101507561.5764</v>
       </c>
-      <c r="AF7" s="6" t="n">
+      <c r="AF7" s="27" t="n">
         <v>62151834436.6196</v>
       </c>
-      <c r="AG7" s="6" t="n">
+      <c r="AG7" s="27" t="n">
         <v>66264680920.1594</v>
       </c>
-      <c r="AH7" s="6" t="n">
+      <c r="AH7" s="27" t="n">
         <v>67146619592.9186</v>
       </c>
-      <c r="AI7" s="6" t="n">
+      <c r="AI7" s="27" t="n">
         <v>62581435363.5812</v>
       </c>
-      <c r="AJ7" s="6" t="n">
+      <c r="AJ7" s="27" t="n">
         <v>50857444903.498</v>
       </c>
-      <c r="AK7" s="6" t="n">
+      <c r="AK7" s="27" t="n">
         <v>51567430494.4379</v>
       </c>
-      <c r="AL7" s="6" t="n">
+      <c r="AL7" s="27" t="n">
         <v>48753708679.7811</v>
       </c>
-      <c r="AM7" s="6" t="n">
+      <c r="AM7" s="27" t="n">
         <v>50300319393.6406</v>
       </c>
-      <c r="AN7" s="6" t="n">
+      <c r="AN7" s="27" t="n">
         <v>49862787751.9017</v>
       </c>
-      <c r="AO7" s="6" t="n">
+      <c r="AO7" s="27" t="n">
         <v>55097328272.2253</v>
       </c>
-      <c r="AP7" s="6" t="n">
+      <c r="AP7" s="27" t="n">
         <v>54976772204.4665</v>
       </c>
-      <c r="AQ7" s="6" t="n">
+      <c r="AQ7" s="27" t="n">
         <v>63824372022.0734</v>
       </c>
-      <c r="AR7" s="6" t="n">
+      <c r="AR7" s="27" t="n">
         <v>71891546335.4883</v>
       </c>
-      <c r="AS7" s="6" t="n">
+      <c r="AS7" s="27" t="n">
         <v>67999359130.6915</v>
       </c>
-      <c r="AT7" s="6" t="n">
+      <c r="AT7" s="27" t="n">
         <v>64110104150.2955</v>
       </c>
-      <c r="AU7" s="6"/>
-      <c r="AV7" s="6"/>
+      <c r="AU7" s="27"/>
+      <c r="AV7" s="27"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
         <f>L8</f>
       </c>
       <c r="L8"/>
-      <c r="M8" s="6" t="n">
+      <c r="M8" s="27" t="n">
         <v>118847362405</v>
       </c>
-      <c r="N8" s="6" t="n">
+      <c r="N8" s="27" t="n">
         <v>135912396844</v>
       </c>
-      <c r="O8" s="6" t="n">
+      <c r="O8" s="27" t="n">
         <v>123040243571</v>
       </c>
-      <c r="P8" s="6" t="n">
+      <c r="P8" s="27" t="n">
         <v>121053184930</v>
       </c>
-      <c r="Q8" s="6" t="n">
+      <c r="Q8" s="27" t="n">
         <v>116614929908</v>
       </c>
-      <c r="R8" s="6" t="n">
+      <c r="R8" s="27" t="n">
         <v>115925728451</v>
       </c>
-      <c r="S8" s="6" t="n">
+      <c r="S8" s="27" t="n">
         <v>118441206335</v>
       </c>
-      <c r="T8" s="6" t="n">
+      <c r="T8" s="27" t="n">
         <v>115943664327</v>
       </c>
-      <c r="U8" s="6" t="n">
+      <c r="U8" s="27" t="n">
         <v>115913423117</v>
       </c>
-      <c r="V8" s="6" t="n">
+      <c r="V8" s="27" t="n">
         <v>121191879315</v>
       </c>
-      <c r="W8" s="6" t="n">
+      <c r="W8" s="27" t="n">
         <v>122123183969.3</v>
       </c>
-      <c r="X8" s="6" t="n">
+      <c r="X8" s="27" t="n">
         <v>125236477495.875</v>
       </c>
-      <c r="Y8" s="6" t="n">
+      <c r="Y8" s="27" t="n">
         <v>135754610872.809</v>
       </c>
-      <c r="Z8" s="6" t="n">
+      <c r="Z8" s="27" t="n">
         <v>155740934679.975</v>
       </c>
-      <c r="AA8" s="6" t="n">
+      <c r="AA8" s="27" t="n">
         <v>159405879751.4</v>
       </c>
-      <c r="AB8" s="6" t="n">
+      <c r="AB8" s="27" t="n">
         <v>172589139490.937</v>
       </c>
-      <c r="AC8" s="6" t="n">
+      <c r="AC8" s="27" t="n">
         <v>157235490704.126</v>
       </c>
-      <c r="AD8" s="6" t="n">
+      <c r="AD8" s="27" t="n">
         <v>51783516705.5844</v>
       </c>
-      <c r="AE8" s="6" t="n">
+      <c r="AE8" s="27" t="n">
         <v>30390394573.127</v>
       </c>
-      <c r="AF8" s="6" t="n">
+      <c r="AF8" s="27" t="n">
         <v>22845657876.5749</v>
       </c>
-      <c r="AG8" s="6" t="n">
+      <c r="AG8" s="27" t="n">
         <v>13744751169.2694</v>
       </c>
-      <c r="AH8" s="6" t="n">
+      <c r="AH8" s="27" t="n">
         <v>11027439386.0527</v>
       </c>
-      <c r="AI8" s="6" t="n">
+      <c r="AI8" s="27" t="n">
         <v>5499831645.3876</v>
       </c>
-      <c r="AJ8" s="6" t="n">
+      <c r="AJ8" s="27" t="n">
         <v>5272188390.4106</v>
       </c>
-      <c r="AK8" s="6" t="n">
+      <c r="AK8" s="27" t="n">
         <v>2799693445.002</v>
       </c>
-      <c r="AL8" s="6" t="n">
+      <c r="AL8" s="27" t="n">
         <v>2455298878.0945</v>
       </c>
-      <c r="AM8" s="6" t="n">
+      <c r="AM8" s="27" t="n">
         <v>2379531416.7751</v>
       </c>
-      <c r="AN8" s="6" t="n">
+      <c r="AN8" s="27" t="n">
         <v>1949828809.8837</v>
       </c>
-      <c r="AO8" s="6" t="n">
+      <c r="AO8" s="27" t="n">
         <v>1040477910.3691</v>
       </c>
-      <c r="AP8" s="6" t="n">
+      <c r="AP8" s="27" t="n">
         <v>-43582714.495</v>
       </c>
-      <c r="AQ8" s="6" t="n">
+      <c r="AQ8" s="27" t="n">
         <v>385368687.1303</v>
       </c>
-      <c r="AR8" s="6" t="n">
+      <c r="AR8" s="27" t="n">
         <v>1499314532.9273</v>
       </c>
-      <c r="AS8" s="6" t="n">
+      <c r="AS8" s="27" t="n">
         <v>414380266.7902</v>
       </c>
-      <c r="AT8" s="6" t="n">
+      <c r="AT8" s="27" t="n">
         <v>235412261.9706</v>
       </c>
-      <c r="AU8" s="6"/>
-      <c r="AV8" s="6"/>
+      <c r="AU8" s="27"/>
+      <c r="AV8" s="27"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -26123,112 +28960,112 @@
       <c r="L9" t="s">
         <v>46</v>
       </c>
-      <c r="M9" s="6" t="str">
+      <c r="M9" s="27" t="str">
         <f>Sum(M2:M8)</f>
       </c>
-      <c r="N9" s="6" t="str">
+      <c r="N9" s="27" t="str">
         <f>Sum(N2:N8)</f>
       </c>
-      <c r="O9" s="6" t="str">
+      <c r="O9" s="27" t="str">
         <f>Sum(O2:O8)</f>
       </c>
-      <c r="P9" s="6" t="str">
+      <c r="P9" s="27" t="str">
         <f>Sum(P2:P8)</f>
       </c>
-      <c r="Q9" s="6" t="str">
+      <c r="Q9" s="27" t="str">
         <f>Sum(Q2:Q8)</f>
       </c>
-      <c r="R9" s="6" t="str">
+      <c r="R9" s="27" t="str">
         <f>Sum(R2:R8)</f>
       </c>
-      <c r="S9" s="6" t="str">
+      <c r="S9" s="27" t="str">
         <f>Sum(S2:S8)</f>
       </c>
-      <c r="T9" s="6" t="str">
+      <c r="T9" s="27" t="str">
         <f>Sum(T2:T8)</f>
       </c>
-      <c r="U9" s="6" t="str">
+      <c r="U9" s="27" t="str">
         <f>Sum(U2:U8)</f>
       </c>
-      <c r="V9" s="6" t="str">
+      <c r="V9" s="27" t="str">
         <f>Sum(V2:V8)</f>
       </c>
-      <c r="W9" s="6" t="str">
+      <c r="W9" s="27" t="str">
         <f>Sum(W2:W8)</f>
       </c>
-      <c r="X9" s="6" t="str">
+      <c r="X9" s="27" t="str">
         <f>Sum(X2:X8)</f>
       </c>
-      <c r="Y9" s="6" t="str">
+      <c r="Y9" s="27" t="str">
         <f>Sum(Y2:Y8)</f>
       </c>
-      <c r="Z9" s="6" t="str">
+      <c r="Z9" s="27" t="str">
         <f>Sum(Z2:Z8)</f>
       </c>
-      <c r="AA9" s="6" t="str">
+      <c r="AA9" s="27" t="str">
         <f>Sum(AA2:AA8)</f>
       </c>
-      <c r="AB9" s="6" t="str">
+      <c r="AB9" s="27" t="str">
         <f>Sum(AB2:AB8)</f>
       </c>
-      <c r="AC9" s="6" t="str">
+      <c r="AC9" s="27" t="str">
         <f>Sum(AC2:AC8)</f>
       </c>
-      <c r="AD9" s="6" t="str">
+      <c r="AD9" s="27" t="str">
         <f>Sum(AD2:AD8)</f>
       </c>
-      <c r="AE9" s="6" t="str">
+      <c r="AE9" s="27" t="str">
         <f>Sum(AE2:AE8)</f>
       </c>
-      <c r="AF9" s="6" t="str">
+      <c r="AF9" s="27" t="str">
         <f>Sum(AF2:AF8)</f>
       </c>
-      <c r="AG9" s="6" t="str">
+      <c r="AG9" s="27" t="str">
         <f>Sum(AG2:AG8)</f>
       </c>
-      <c r="AH9" s="6" t="str">
+      <c r="AH9" s="27" t="str">
         <f>Sum(AH2:AH8)</f>
       </c>
-      <c r="AI9" s="6" t="str">
+      <c r="AI9" s="27" t="str">
         <f>Sum(AI2:AI8)</f>
       </c>
-      <c r="AJ9" s="6" t="str">
+      <c r="AJ9" s="27" t="str">
         <f>Sum(AJ2:AJ8)</f>
       </c>
-      <c r="AK9" s="6" t="str">
+      <c r="AK9" s="27" t="str">
         <f>Sum(AK2:AK8)</f>
       </c>
-      <c r="AL9" s="6" t="str">
+      <c r="AL9" s="27" t="str">
         <f>Sum(AL2:AL8)</f>
       </c>
-      <c r="AM9" s="6" t="str">
+      <c r="AM9" s="27" t="str">
         <f>Sum(AM2:AM8)</f>
       </c>
-      <c r="AN9" s="6" t="str">
+      <c r="AN9" s="27" t="str">
         <f>Sum(AN2:AN8)</f>
       </c>
-      <c r="AO9" s="6" t="str">
+      <c r="AO9" s="27" t="str">
         <f>Sum(AO2:AO8)</f>
       </c>
-      <c r="AP9" s="6" t="str">
+      <c r="AP9" s="27" t="str">
         <f>Sum(AP2:AP8)</f>
       </c>
-      <c r="AQ9" s="6" t="str">
+      <c r="AQ9" s="27" t="str">
         <f>Sum(AQ2:AQ8)</f>
       </c>
-      <c r="AR9" s="6" t="str">
+      <c r="AR9" s="27" t="str">
         <f>Sum(AR2:AR8)</f>
       </c>
-      <c r="AS9" s="6" t="str">
+      <c r="AS9" s="27" t="str">
         <f>Sum(AS2:AS8)</f>
       </c>
-      <c r="AT9" s="6" t="str">
+      <c r="AT9" s="27" t="str">
         <f>Sum(AT2:AT8)</f>
       </c>
-      <c r="AU9" s="6" t="str">
+      <c r="AU9" s="27" t="str">
         <f>Sum(AU2:AU8)</f>
       </c>
-      <c r="AV9" s="6"/>
+      <c r="AV9" s="27"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -26362,16 +29199,16 @@
       <c r="A13" t="str">
         <f>L13</f>
       </c>
-      <c r="B13" s="6" t="str">
+      <c r="B13" s="27" t="str">
         <f>AQ13</f>
       </c>
-      <c r="C13" s="6" t="str">
+      <c r="C13" s="27" t="str">
         <f>AS13</f>
       </c>
-      <c r="D13" s="6" t="str">
+      <c r="D13" s="27" t="str">
         <f>AT13</f>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="27"/>
       <c r="F13" s="1" t="str">
         <f>AT13/AS13-1</f>
       </c>
@@ -26386,105 +29223,105 @@
       <c r="L13" t="s">
         <v>78</v>
       </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6" t="n">
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27" t="n">
         <v>125641254.735321</v>
       </c>
-      <c r="X13" s="6" t="n">
+      <c r="X13" s="27" t="n">
         <v>1069167602.4633</v>
       </c>
-      <c r="Y13" s="6" t="n">
+      <c r="Y13" s="27" t="n">
         <v>3828756253.96994</v>
       </c>
-      <c r="Z13" s="6" t="n">
+      <c r="Z13" s="27" t="n">
         <v>617520322.319818</v>
       </c>
-      <c r="AA13" s="6" t="n">
+      <c r="AA13" s="27" t="n">
         <v>1434392629.20956</v>
       </c>
-      <c r="AB13" s="6" t="n">
+      <c r="AB13" s="27" t="n">
         <v>3107659117.23767</v>
       </c>
-      <c r="AC13" s="6" t="n">
+      <c r="AC13" s="27" t="n">
         <v>13152539314.84</v>
       </c>
-      <c r="AD13" s="6" t="n">
+      <c r="AD13" s="27" t="n">
         <v>40854993584.1197</v>
       </c>
-      <c r="AE13" s="6" t="n">
+      <c r="AE13" s="27" t="n">
         <v>45657419702.4391</v>
       </c>
-      <c r="AF13" s="6" t="n">
+      <c r="AF13" s="27" t="n">
         <v>38417690856.7947</v>
       </c>
-      <c r="AG13" s="6" t="n">
+      <c r="AG13" s="27" t="n">
         <v>36638624881.2107</v>
       </c>
-      <c r="AH13" s="6" t="n">
+      <c r="AH13" s="27" t="n">
         <v>33868233178.1059</v>
       </c>
-      <c r="AI13" s="6" t="n">
+      <c r="AI13" s="27" t="n">
         <v>31167871518.5163</v>
       </c>
-      <c r="AJ13" s="6" t="n">
+      <c r="AJ13" s="27" t="n">
         <v>25097755904.9545</v>
       </c>
-      <c r="AK13" s="6" t="n">
+      <c r="AK13" s="27" t="n">
         <v>38866438567.9795</v>
       </c>
-      <c r="AL13" s="6" t="n">
+      <c r="AL13" s="27" t="n">
         <v>34584958080.3202</v>
       </c>
-      <c r="AM13" s="6" t="n">
+      <c r="AM13" s="27" t="n">
         <v>35758293441.3778</v>
       </c>
-      <c r="AN13" s="6" t="n">
+      <c r="AN13" s="27" t="n">
         <v>35897022671.9173</v>
       </c>
-      <c r="AO13" s="6" t="n">
+      <c r="AO13" s="27" t="n">
         <v>40223107676.8786</v>
       </c>
-      <c r="AP13" s="6" t="n">
+      <c r="AP13" s="27" t="n">
         <v>33460332906.5546</v>
       </c>
-      <c r="AQ13" s="6" t="n">
+      <c r="AQ13" s="27" t="n">
         <v>32731505409.1547</v>
       </c>
-      <c r="AR13" s="6" t="n">
+      <c r="AR13" s="27" t="n">
         <v>32690888511.1112</v>
       </c>
-      <c r="AS13" s="6" t="n">
+      <c r="AS13" s="27" t="n">
         <v>38450789345.0347</v>
       </c>
-      <c r="AT13" s="6" t="n">
+      <c r="AT13" s="27" t="n">
         <v>35866308853.3797</v>
       </c>
-      <c r="AU13" s="6"/>
-      <c r="AV13" s="6"/>
+      <c r="AU13" s="27"/>
+      <c r="AV13" s="27"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
         <f>L14</f>
       </c>
-      <c r="B14" s="6" t="str">
+      <c r="B14" s="27" t="str">
         <f>AQ14</f>
       </c>
-      <c r="C14" s="6" t="str">
+      <c r="C14" s="27" t="str">
         <f>AS14</f>
       </c>
-      <c r="D14" s="6" t="str">
+      <c r="D14" s="27" t="str">
         <f>AT14</f>
       </c>
-      <c r="E14" s="6"/>
+      <c r="E14" s="27"/>
       <c r="F14" s="1" t="str">
         <f>AT14/AS14-1</f>
       </c>
@@ -26499,107 +29336,107 @@
       <c r="L14" t="s">
         <v>79</v>
       </c>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6" t="n">
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27" t="n">
         <v>5707821.9250186</v>
       </c>
-      <c r="W14" s="6" t="n">
+      <c r="W14" s="27" t="n">
         <v>1909128817.3796</v>
       </c>
-      <c r="X14" s="6" t="n">
+      <c r="X14" s="27" t="n">
         <v>6685689746.33634</v>
       </c>
-      <c r="Y14" s="6" t="n">
+      <c r="Y14" s="27" t="n">
         <v>4526405193.22075</v>
       </c>
-      <c r="Z14" s="6" t="n">
+      <c r="Z14" s="27" t="n">
         <v>8873879680.43964</v>
       </c>
-      <c r="AA14" s="6" t="n">
+      <c r="AA14" s="27" t="n">
         <v>9240665477.06059</v>
       </c>
-      <c r="AB14" s="6" t="n">
+      <c r="AB14" s="27" t="n">
         <v>15029479547.891</v>
       </c>
-      <c r="AC14" s="6" t="n">
+      <c r="AC14" s="27" t="n">
         <v>24714109263.9685</v>
       </c>
-      <c r="AD14" s="6" t="n">
+      <c r="AD14" s="27" t="n">
         <v>70164006419.8734</v>
       </c>
-      <c r="AE14" s="6" t="n">
+      <c r="AE14" s="27" t="n">
         <v>89659855774.216</v>
       </c>
-      <c r="AF14" s="6" t="n">
+      <c r="AF14" s="27" t="n">
         <v>79767195797.1637</v>
       </c>
-      <c r="AG14" s="6" t="n">
+      <c r="AG14" s="27" t="n">
         <v>92228896068.7972</v>
       </c>
-      <c r="AH14" s="6" t="n">
+      <c r="AH14" s="27" t="n">
         <v>86169233532.3891</v>
       </c>
-      <c r="AI14" s="6" t="n">
+      <c r="AI14" s="27" t="n">
         <v>88591042286.5473</v>
       </c>
-      <c r="AJ14" s="6" t="n">
+      <c r="AJ14" s="27" t="n">
         <v>66273211667.3038</v>
       </c>
-      <c r="AK14" s="6" t="n">
+      <c r="AK14" s="27" t="n">
         <v>52627141883.6038</v>
       </c>
-      <c r="AL14" s="6" t="n">
+      <c r="AL14" s="27" t="n">
         <v>53924986001.0507</v>
       </c>
-      <c r="AM14" s="6" t="n">
+      <c r="AM14" s="27" t="n">
         <v>58811516229.2476</v>
       </c>
-      <c r="AN14" s="6" t="n">
+      <c r="AN14" s="27" t="n">
         <v>70172094152.0334</v>
       </c>
-      <c r="AO14" s="6" t="n">
+      <c r="AO14" s="27" t="n">
         <v>77803697982.0956</v>
       </c>
-      <c r="AP14" s="6" t="n">
+      <c r="AP14" s="27" t="n">
         <v>85176442913.8112</v>
       </c>
-      <c r="AQ14" s="6" t="n">
+      <c r="AQ14" s="27" t="n">
         <v>108161680232.87</v>
       </c>
-      <c r="AR14" s="6" t="n">
+      <c r="AR14" s="27" t="n">
         <v>66932708584.1965</v>
       </c>
-      <c r="AS14" s="6" t="n">
+      <c r="AS14" s="27" t="n">
         <v>67967750090.541</v>
       </c>
-      <c r="AT14" s="6" t="n">
+      <c r="AT14" s="27" t="n">
         <v>68481733084.6695</v>
       </c>
-      <c r="AU14" s="6"/>
-      <c r="AV14" s="6"/>
+      <c r="AU14" s="27"/>
+      <c r="AV14" s="27"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
         <f>L15</f>
       </c>
-      <c r="B15" s="6" t="str">
+      <c r="B15" s="27" t="str">
         <f>AQ15</f>
       </c>
-      <c r="C15" s="6" t="str">
+      <c r="C15" s="27" t="str">
         <f>AS15</f>
       </c>
-      <c r="D15" s="6" t="str">
+      <c r="D15" s="27" t="str">
         <f>AT15</f>
       </c>
-      <c r="E15" s="6"/>
+      <c r="E15" s="27"/>
       <c r="F15" s="1" t="str">
         <f>AT15/AS15-1</f>
       </c>
@@ -26614,119 +29451,119 @@
       <c r="L15" t="s">
         <v>80</v>
       </c>
-      <c r="M15" s="6" t="n">
+      <c r="M15" s="27" t="n">
         <v>2347499.99874869</v>
       </c>
-      <c r="N15" s="6" t="n">
+      <c r="N15" s="27" t="n">
         <v>7725974.64408208</v>
       </c>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6" t="n">
+      <c r="O15" s="27"/>
+      <c r="P15" s="27" t="n">
         <v>5266672.36504324</v>
       </c>
-      <c r="Q15" s="6" t="n">
+      <c r="Q15" s="27" t="n">
         <v>3021125.38987562</v>
       </c>
-      <c r="R15" s="6" t="n">
+      <c r="R15" s="27" t="n">
         <v>887559.442248306</v>
       </c>
-      <c r="S15" s="6" t="n">
+      <c r="S15" s="27" t="n">
         <v>469713.471559615</v>
       </c>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6" t="n">
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27" t="n">
         <v>4891037.53445358</v>
       </c>
-      <c r="W15" s="6" t="n">
+      <c r="W15" s="27" t="n">
         <v>4183581490.69318</v>
       </c>
-      <c r="X15" s="6" t="n">
+      <c r="X15" s="27" t="n">
         <v>5908733082.09236</v>
       </c>
-      <c r="Y15" s="6" t="n">
+      <c r="Y15" s="27" t="n">
         <v>9721570572.46955</v>
       </c>
-      <c r="Z15" s="6" t="n">
+      <c r="Z15" s="27" t="n">
         <v>12123638816.4125</v>
       </c>
-      <c r="AA15" s="6" t="n">
+      <c r="AA15" s="27" t="n">
         <v>19783078942.5337</v>
       </c>
-      <c r="AB15" s="6" t="n">
+      <c r="AB15" s="27" t="n">
         <v>19086492864.9589</v>
       </c>
-      <c r="AC15" s="6" t="n">
+      <c r="AC15" s="27" t="n">
         <v>26741702402.8348</v>
       </c>
-      <c r="AD15" s="6" t="n">
+      <c r="AD15" s="27" t="n">
         <v>60897694406.0181</v>
       </c>
-      <c r="AE15" s="6" t="n">
+      <c r="AE15" s="27" t="n">
         <v>85240177152.1971</v>
       </c>
-      <c r="AF15" s="6" t="n">
+      <c r="AF15" s="27" t="n">
         <v>89091170020.6176</v>
       </c>
-      <c r="AG15" s="6" t="n">
+      <c r="AG15" s="27" t="n">
         <v>86533047810.0765</v>
       </c>
-      <c r="AH15" s="6" t="n">
+      <c r="AH15" s="27" t="n">
         <v>85038739309.4966</v>
       </c>
-      <c r="AI15" s="6" t="n">
+      <c r="AI15" s="27" t="n">
         <v>86478666636.5876</v>
       </c>
-      <c r="AJ15" s="6" t="n">
+      <c r="AJ15" s="27" t="n">
         <v>86517591864.951</v>
       </c>
-      <c r="AK15" s="6" t="n">
+      <c r="AK15" s="27" t="n">
         <v>73678533253.858</v>
       </c>
-      <c r="AL15" s="6" t="n">
+      <c r="AL15" s="27" t="n">
         <v>72965922835.828</v>
       </c>
-      <c r="AM15" s="6" t="n">
+      <c r="AM15" s="27" t="n">
         <v>81687477383.1113</v>
       </c>
-      <c r="AN15" s="6" t="n">
+      <c r="AN15" s="27" t="n">
         <v>83273671316.1752</v>
       </c>
-      <c r="AO15" s="6" t="n">
+      <c r="AO15" s="27" t="n">
         <v>95880181601.2817</v>
       </c>
-      <c r="AP15" s="6" t="n">
+      <c r="AP15" s="27" t="n">
         <v>100566843568.207</v>
       </c>
-      <c r="AQ15" s="6" t="n">
+      <c r="AQ15" s="27" t="n">
         <v>94922365783.3312</v>
       </c>
-      <c r="AR15" s="6" t="n">
+      <c r="AR15" s="27" t="n">
         <v>81610832425.5218</v>
       </c>
-      <c r="AS15" s="6" t="n">
+      <c r="AS15" s="27" t="n">
         <v>83987871946.3035</v>
       </c>
-      <c r="AT15" s="6" t="n">
+      <c r="AT15" s="27" t="n">
         <v>89778421220.0439</v>
       </c>
-      <c r="AU15" s="6"/>
-      <c r="AV15" s="6"/>
+      <c r="AU15" s="27"/>
+      <c r="AV15" s="27"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
         <f>L16</f>
       </c>
-      <c r="B16" s="6" t="str">
+      <c r="B16" s="27" t="str">
         <f>AQ16</f>
       </c>
-      <c r="C16" s="6" t="str">
+      <c r="C16" s="27" t="str">
         <f>AS16</f>
       </c>
-      <c r="D16" s="6" t="str">
+      <c r="D16" s="27" t="str">
         <f>AT16</f>
       </c>
-      <c r="E16" s="6"/>
+      <c r="E16" s="27"/>
       <c r="F16" s="1" t="str">
         <f>AT16/AS16-1</f>
       </c>
@@ -26741,105 +29578,105 @@
       <c r="L16" t="s">
         <v>81</v>
       </c>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6" t="n">
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27" t="n">
         <v>576883022.225332</v>
       </c>
-      <c r="X16" s="6" t="n">
+      <c r="X16" s="27" t="n">
         <v>842011550.381902</v>
       </c>
-      <c r="Y16" s="6" t="n">
+      <c r="Y16" s="27" t="n">
         <v>2513482675.56445</v>
       </c>
-      <c r="Z16" s="6" t="n">
+      <c r="Z16" s="27" t="n">
         <v>5097055513.56362</v>
       </c>
-      <c r="AA16" s="6" t="n">
+      <c r="AA16" s="27" t="n">
         <v>5681022045.58152</v>
       </c>
-      <c r="AB16" s="6" t="n">
+      <c r="AB16" s="27" t="n">
         <v>10733542517.2129</v>
       </c>
-      <c r="AC16" s="6" t="n">
+      <c r="AC16" s="27" t="n">
         <v>19508621245.266</v>
       </c>
-      <c r="AD16" s="6" t="n">
+      <c r="AD16" s="27" t="n">
         <v>46287348057.4411</v>
       </c>
-      <c r="AE16" s="6" t="n">
+      <c r="AE16" s="27" t="n">
         <v>57336445194.7865</v>
       </c>
-      <c r="AF16" s="6" t="n">
+      <c r="AF16" s="27" t="n">
         <v>53393373664.6557</v>
       </c>
-      <c r="AG16" s="6" t="n">
+      <c r="AG16" s="27" t="n">
         <v>56938317235.7789</v>
       </c>
-      <c r="AH16" s="6" t="n">
+      <c r="AH16" s="27" t="n">
         <v>61305995052.0968</v>
       </c>
-      <c r="AI16" s="6" t="n">
+      <c r="AI16" s="27" t="n">
         <v>54094774143.1154</v>
       </c>
-      <c r="AJ16" s="6" t="n">
+      <c r="AJ16" s="27" t="n">
         <v>35651808735.7882</v>
       </c>
-      <c r="AK16" s="6" t="n">
+      <c r="AK16" s="27" t="n">
         <v>30551882780.1018</v>
       </c>
-      <c r="AL16" s="6" t="n">
+      <c r="AL16" s="27" t="n">
         <v>32736812885.4657</v>
       </c>
-      <c r="AM16" s="6" t="n">
+      <c r="AM16" s="27" t="n">
         <v>30391631846.0293</v>
       </c>
-      <c r="AN16" s="6" t="n">
+      <c r="AN16" s="27" t="n">
         <v>40665409158.1699</v>
       </c>
-      <c r="AO16" s="6" t="n">
+      <c r="AO16" s="27" t="n">
         <v>33690086830.4936</v>
       </c>
-      <c r="AP16" s="6" t="n">
+      <c r="AP16" s="27" t="n">
         <v>29348939688.9691</v>
       </c>
-      <c r="AQ16" s="6" t="n">
+      <c r="AQ16" s="27" t="n">
         <v>32852636749.2104</v>
       </c>
-      <c r="AR16" s="6" t="n">
+      <c r="AR16" s="27" t="n">
         <v>37304320705.602</v>
       </c>
-      <c r="AS16" s="6" t="n">
+      <c r="AS16" s="27" t="n">
         <v>36645260486.1146</v>
       </c>
-      <c r="AT16" s="6" t="n">
+      <c r="AT16" s="27" t="n">
         <v>28416003107.7987</v>
       </c>
-      <c r="AU16" s="6"/>
-      <c r="AV16" s="6"/>
+      <c r="AU16" s="27"/>
+      <c r="AV16" s="27"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
         <f>L17</f>
       </c>
-      <c r="B17" s="6" t="str">
+      <c r="B17" s="27" t="str">
         <f>AQ17</f>
       </c>
-      <c r="C17" s="6" t="str">
+      <c r="C17" s="27" t="str">
         <f>AS17</f>
       </c>
-      <c r="D17" s="6" t="str">
+      <c r="D17" s="27" t="str">
         <f>AT17</f>
       </c>
-      <c r="E17" s="6"/>
+      <c r="E17" s="27"/>
       <c r="F17" s="1" t="str">
         <f>AT17/AS17-1</f>
       </c>
@@ -26854,125 +29691,125 @@
       <c r="L17" t="s">
         <v>82</v>
       </c>
-      <c r="M17" s="6" t="n">
+      <c r="M17" s="27" t="n">
         <v>3101248121.69493</v>
       </c>
-      <c r="N17" s="6" t="n">
+      <c r="N17" s="27" t="n">
         <v>474343691.633472</v>
       </c>
-      <c r="O17" s="6" t="n">
+      <c r="O17" s="27" t="n">
         <v>709278333.420097</v>
       </c>
-      <c r="P17" s="6" t="n">
+      <c r="P17" s="27" t="n">
         <v>596417198.86544</v>
       </c>
-      <c r="Q17" s="6" t="n">
+      <c r="Q17" s="27" t="n">
         <v>1013184739.16588</v>
       </c>
-      <c r="R17" s="6" t="n">
+      <c r="R17" s="27" t="n">
         <v>1213403250.25749</v>
       </c>
-      <c r="S17" s="6" t="n">
+      <c r="S17" s="27" t="n">
         <v>13527269.9420493</v>
       </c>
-      <c r="T17" s="6" t="n">
+      <c r="T17" s="27" t="n">
         <v>67706808.9701342</v>
       </c>
-      <c r="U17" s="6" t="n">
+      <c r="U17" s="27" t="n">
         <v>1828546489.27974</v>
       </c>
-      <c r="V17" s="6" t="n">
+      <c r="V17" s="27" t="n">
         <v>1693811319.75274</v>
       </c>
-      <c r="W17" s="6" t="n">
+      <c r="W17" s="27" t="n">
         <v>8435220585.78123</v>
       </c>
-      <c r="X17" s="6" t="n">
+      <c r="X17" s="27" t="n">
         <v>13447392050.4748</v>
       </c>
-      <c r="Y17" s="6" t="n">
+      <c r="Y17" s="27" t="n">
         <v>28256900222.1785</v>
       </c>
-      <c r="Z17" s="6" t="n">
+      <c r="Z17" s="27" t="n">
         <v>48567796556.9215</v>
       </c>
-      <c r="AA17" s="6" t="n">
+      <c r="AA17" s="27" t="n">
         <v>62731098918.1883</v>
       </c>
-      <c r="AB17" s="6" t="n">
+      <c r="AB17" s="27" t="n">
         <v>77845413606.14</v>
       </c>
-      <c r="AC17" s="6" t="n">
+      <c r="AC17" s="27" t="n">
         <v>95728249198.0359</v>
       </c>
-      <c r="AD17" s="6" t="n">
+      <c r="AD17" s="27" t="n">
         <v>114818232136.646</v>
       </c>
-      <c r="AE17" s="6" t="n">
+      <c r="AE17" s="27" t="n">
         <v>130572744151.617</v>
       </c>
-      <c r="AF17" s="6" t="n">
+      <c r="AF17" s="27" t="n">
         <v>127401648127.844</v>
       </c>
-      <c r="AG17" s="6" t="n">
+      <c r="AG17" s="27" t="n">
         <v>112446924388.115</v>
       </c>
-      <c r="AH17" s="6" t="n">
+      <c r="AH17" s="27" t="n">
         <v>121110786261.97</v>
       </c>
-      <c r="AI17" s="6" t="n">
+      <c r="AI17" s="27" t="n">
         <v>119366469734.028</v>
       </c>
-      <c r="AJ17" s="6" t="n">
+      <c r="AJ17" s="27" t="n">
         <v>110974005550.474</v>
       </c>
-      <c r="AK17" s="6" t="n">
+      <c r="AK17" s="27" t="n">
         <v>93879258111.1566</v>
       </c>
-      <c r="AL17" s="6" t="n">
+      <c r="AL17" s="27" t="n">
         <v>84833175022.9168</v>
       </c>
-      <c r="AM17" s="6" t="n">
+      <c r="AM17" s="27" t="n">
         <v>98519778865.863</v>
       </c>
-      <c r="AN17" s="6" t="n">
+      <c r="AN17" s="27" t="n">
         <v>99632633948.6475</v>
       </c>
-      <c r="AO17" s="6" t="n">
+      <c r="AO17" s="27" t="n">
         <v>113874745599.766</v>
       </c>
-      <c r="AP17" s="6" t="n">
+      <c r="AP17" s="27" t="n">
         <v>137252936658.953</v>
       </c>
-      <c r="AQ17" s="6" t="n">
+      <c r="AQ17" s="27" t="n">
         <v>146300257242.853</v>
       </c>
-      <c r="AR17" s="6" t="n">
+      <c r="AR17" s="27" t="n">
         <v>133139450678.35</v>
       </c>
-      <c r="AS17" s="6" t="n">
+      <c r="AS17" s="27" t="n">
         <v>134862611346.271</v>
       </c>
-      <c r="AT17" s="6" t="n">
+      <c r="AT17" s="27" t="n">
         <v>169358749192.801</v>
       </c>
-      <c r="AU17" s="6"/>
-      <c r="AV17" s="6"/>
+      <c r="AU17" s="27"/>
+      <c r="AV17" s="27"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
         <f>L18</f>
       </c>
-      <c r="B18" s="6" t="str">
+      <c r="B18" s="27" t="str">
         <f>AQ18</f>
       </c>
-      <c r="C18" s="6" t="str">
+      <c r="C18" s="27" t="str">
         <f>AS18</f>
       </c>
-      <c r="D18" s="6" t="str">
+      <c r="D18" s="27" t="str">
         <f>AT18</f>
       </c>
-      <c r="E18" s="6"/>
+      <c r="E18" s="27"/>
       <c r="F18" s="1" t="str">
         <f>AT18/AS18-1</f>
       </c>
@@ -26987,119 +29824,119 @@
       <c r="L18" t="s">
         <v>83</v>
       </c>
-      <c r="M18" s="6" t="n">
+      <c r="M18" s="27" t="n">
         <v>4550220.26189173</v>
       </c>
-      <c r="N18" s="6" t="n">
+      <c r="N18" s="27" t="n">
         <v>772797.153595184</v>
       </c>
-      <c r="O18" s="6" t="n">
+      <c r="O18" s="27" t="n">
         <v>4550594.65837499</v>
       </c>
-      <c r="P18" s="6" t="n">
+      <c r="P18" s="27" t="n">
         <v>7804256.97663218</v>
       </c>
-      <c r="Q18" s="6" t="n">
+      <c r="Q18" s="27" t="n">
         <v>2701075.84446985</v>
       </c>
-      <c r="R18" s="6" t="n">
+      <c r="R18" s="27" t="n">
         <v>1094471.01099532</v>
       </c>
-      <c r="S18" s="6" t="n">
+      <c r="S18" s="27" t="n">
         <v>-438649.897206425</v>
       </c>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6" t="n">
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="27" t="n">
         <v>1674251896.77993</v>
       </c>
-      <c r="X18" s="6" t="n">
+      <c r="X18" s="27" t="n">
         <v>2834778691.29717</v>
       </c>
-      <c r="Y18" s="6" t="n">
+      <c r="Y18" s="27" t="n">
         <v>6186045887.22076</v>
       </c>
-      <c r="Z18" s="6" t="n">
+      <c r="Z18" s="27" t="n">
         <v>13180273631.6333</v>
       </c>
-      <c r="AA18" s="6" t="n">
+      <c r="AA18" s="27" t="n">
         <v>10042666973.1025</v>
       </c>
-      <c r="AB18" s="6" t="n">
+      <c r="AB18" s="27" t="n">
         <v>13999449340.4104</v>
       </c>
-      <c r="AC18" s="6" t="n">
+      <c r="AC18" s="27" t="n">
         <v>20811171614.14</v>
       </c>
-      <c r="AD18" s="6" t="n">
+      <c r="AD18" s="27" t="n">
         <v>58262769719.1582</v>
       </c>
-      <c r="AE18" s="6" t="n">
+      <c r="AE18" s="27" t="n">
         <v>73651869394.5932</v>
       </c>
-      <c r="AF18" s="6" t="n">
+      <c r="AF18" s="27" t="n">
         <v>85332070918.1249</v>
       </c>
-      <c r="AG18" s="6" t="n">
+      <c r="AG18" s="27" t="n">
         <v>90197698449.5881</v>
       </c>
-      <c r="AH18" s="6" t="n">
+      <c r="AH18" s="27" t="n">
         <v>89599779831.1406</v>
       </c>
-      <c r="AI18" s="6" t="n">
+      <c r="AI18" s="27" t="n">
         <v>82019710304.484</v>
       </c>
-      <c r="AJ18" s="6" t="n">
+      <c r="AJ18" s="27" t="n">
         <v>65466290174.4904</v>
       </c>
-      <c r="AK18" s="6" t="n">
+      <c r="AK18" s="27" t="n">
         <v>65190930411.937</v>
       </c>
-      <c r="AL18" s="6" t="n">
+      <c r="AL18" s="27" t="n">
         <v>61002103510.0662</v>
       </c>
-      <c r="AM18" s="6" t="n">
+      <c r="AM18" s="27" t="n">
         <v>62438071903.6796</v>
       </c>
-      <c r="AN18" s="6" t="n">
+      <c r="AN18" s="27" t="n">
         <v>60867505020.439</v>
       </c>
-      <c r="AO18" s="6" t="n">
+      <c r="AO18" s="27" t="n">
         <v>65796623556.0121</v>
       </c>
-      <c r="AP18" s="6" t="n">
+      <c r="AP18" s="27" t="n">
         <v>64460806702.118</v>
       </c>
-      <c r="AQ18" s="6" t="n">
+      <c r="AQ18" s="27" t="n">
         <v>73869736338.0978</v>
       </c>
-      <c r="AR18" s="6" t="n">
+      <c r="AR18" s="27" t="n">
         <v>80438139882.3115</v>
       </c>
-      <c r="AS18" s="6" t="n">
+      <c r="AS18" s="27" t="n">
         <v>71110098253.9699</v>
       </c>
-      <c r="AT18" s="6" t="n">
+      <c r="AT18" s="27" t="n">
         <v>64110104150.2955</v>
       </c>
-      <c r="AU18" s="6"/>
-      <c r="AV18" s="6"/>
+      <c r="AU18" s="27"/>
+      <c r="AV18" s="27"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
         <f>L19</f>
       </c>
-      <c r="B19" s="6" t="str">
+      <c r="B19" s="27" t="str">
         <f>AQ19</f>
       </c>
-      <c r="C19" s="6" t="str">
+      <c r="C19" s="27" t="str">
         <f>AS19</f>
       </c>
-      <c r="D19" s="6" t="str">
+      <c r="D19" s="27" t="str">
         <f>AT19</f>
       </c>
-      <c r="E19" s="6"/>
+      <c r="E19" s="27"/>
       <c r="F19" s="1" t="str">
         <f>AT19/AS19-1</f>
       </c>
@@ -27112,125 +29949,125 @@
       </c>
       <c r="J19" s="1"/>
       <c r="L19"/>
-      <c r="M19" s="6" t="n">
+      <c r="M19" s="27" t="n">
         <v>245809852948.919</v>
       </c>
-      <c r="N19" s="6" t="n">
+      <c r="N19" s="27" t="n">
         <v>271402360256.698</v>
       </c>
-      <c r="O19" s="6" t="n">
+      <c r="O19" s="27" t="n">
         <v>239698731806.86</v>
       </c>
-      <c r="P19" s="6" t="n">
+      <c r="P19" s="27" t="n">
         <v>230421990983.78</v>
       </c>
-      <c r="Q19" s="6" t="n">
+      <c r="Q19" s="27" t="n">
         <v>217231565709.685</v>
       </c>
-      <c r="R19" s="6" t="n">
+      <c r="R19" s="27" t="n">
         <v>211462248696.892</v>
       </c>
-      <c r="S19" s="6" t="n">
+      <c r="S19" s="27" t="n">
         <v>212058052995.317</v>
       </c>
-      <c r="T19" s="6" t="n">
+      <c r="T19" s="27" t="n">
         <v>203966610604.009</v>
       </c>
-      <c r="U19" s="6" t="n">
+      <c r="U19" s="27" t="n">
         <v>201388436824.205</v>
       </c>
-      <c r="V19" s="6" t="n">
+      <c r="V19" s="27" t="n">
         <v>207983870386.187</v>
       </c>
-      <c r="W19" s="6" t="n">
+      <c r="W19" s="27" t="n">
         <v>205310247359.397</v>
       </c>
-      <c r="X19" s="6" t="n">
+      <c r="X19" s="27" t="n">
         <v>205561608165.765</v>
       </c>
-      <c r="Y19" s="6" t="n">
+      <c r="Y19" s="27" t="n">
         <v>219374706836.16</v>
       </c>
-      <c r="Z19" s="6" t="n">
+      <c r="Z19" s="27" t="n">
         <v>246932015643.217</v>
       </c>
-      <c r="AA19" s="6" t="n">
+      <c r="AA19" s="27" t="n">
         <v>246718343376.406</v>
       </c>
-      <c r="AB19" s="6" t="n">
+      <c r="AB19" s="27" t="n">
         <v>259234111837.631</v>
       </c>
-      <c r="AC19" s="6" t="n">
+      <c r="AC19" s="27" t="n">
         <v>228741941873.042</v>
       </c>
-      <c r="AD19" s="6" t="n">
+      <c r="AD19" s="27" t="n">
         <v>73314937204.4063</v>
       </c>
-      <c r="AE19" s="6" t="n">
+      <c r="AE19" s="27" t="n">
         <v>42151522145.6673</v>
       </c>
-      <c r="AF19" s="6" t="n">
+      <c r="AF19" s="27" t="n">
         <v>31366206899.0596</v>
       </c>
-      <c r="AG19" s="6" t="n">
+      <c r="AG19" s="27" t="n">
         <v>18708984997.9678</v>
       </c>
-      <c r="AH19" s="6" t="n">
+      <c r="AH19" s="27" t="n">
         <v>14714905189.2967</v>
       </c>
-      <c r="AI19" s="6" t="n">
+      <c r="AI19" s="27" t="n">
         <v>7208121636.35089</v>
       </c>
-      <c r="AJ19" s="6" t="n">
+      <c r="AJ19" s="27" t="n">
         <v>6786629089.9223</v>
       </c>
-      <c r="AK19" s="6" t="n">
+      <c r="AK19" s="27" t="n">
         <v>3539339051.75996</v>
       </c>
-      <c r="AL19" s="6" t="n">
+      <c r="AL19" s="27" t="n">
         <v>3072143645.38765</v>
       </c>
-      <c r="AM19" s="6" t="n">
+      <c r="AM19" s="27" t="n">
         <v>2953725850.82337</v>
       </c>
-      <c r="AN19" s="6" t="n">
+      <c r="AN19" s="27" t="n">
         <v>2380156028.68226</v>
       </c>
-      <c r="AO19" s="6" t="n">
+      <c r="AO19" s="27" t="n">
         <v>1242527279.15688</v>
       </c>
-      <c r="AP19" s="6" t="n">
+      <c r="AP19" s="27" t="n">
         <v>-51101161.8537246</v>
       </c>
-      <c r="AQ19" s="6" t="n">
+      <c r="AQ19" s="27" t="n">
         <v>446022144.979804</v>
       </c>
-      <c r="AR19" s="6" t="n">
+      <c r="AR19" s="27" t="n">
         <v>1677555683.17293</v>
       </c>
-      <c r="AS19" s="6" t="n">
+      <c r="AS19" s="27" t="n">
         <v>433336752.91445</v>
       </c>
-      <c r="AT19" s="6" t="n">
+      <c r="AT19" s="27" t="n">
         <v>235412261.9706</v>
       </c>
-      <c r="AU19" s="6"/>
-      <c r="AV19" s="6"/>
+      <c r="AU19" s="27"/>
+      <c r="AV19" s="27"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
         <f>L20</f>
       </c>
-      <c r="B20" s="6" t="str">
+      <c r="B20" s="27" t="str">
         <f>AQ20</f>
       </c>
-      <c r="C20" s="6" t="str">
+      <c r="C20" s="27" t="str">
         <f>AS20</f>
       </c>
-      <c r="D20" s="6" t="str">
+      <c r="D20" s="27" t="str">
         <f>AT20</f>
       </c>
-      <c r="E20" s="6"/>
+      <c r="E20" s="27"/>
       <c r="F20" s="1" t="str">
         <f>AT20/AS20-1</f>
       </c>
@@ -27245,112 +30082,112 @@
       <c r="L20" t="s">
         <v>46</v>
       </c>
-      <c r="M20" s="6" t="str">
+      <c r="M20" s="27" t="str">
         <f>Sum(M13:M19)</f>
       </c>
-      <c r="N20" s="6" t="str">
+      <c r="N20" s="27" t="str">
         <f>Sum(N13:N19)</f>
       </c>
-      <c r="O20" s="6" t="str">
+      <c r="O20" s="27" t="str">
         <f>Sum(O13:O19)</f>
       </c>
-      <c r="P20" s="6" t="str">
+      <c r="P20" s="27" t="str">
         <f>Sum(P13:P19)</f>
       </c>
-      <c r="Q20" s="6" t="str">
+      <c r="Q20" s="27" t="str">
         <f>Sum(Q13:Q19)</f>
       </c>
-      <c r="R20" s="6" t="str">
+      <c r="R20" s="27" t="str">
         <f>Sum(R13:R19)</f>
       </c>
-      <c r="S20" s="6" t="str">
+      <c r="S20" s="27" t="str">
         <f>Sum(S13:S19)</f>
       </c>
-      <c r="T20" s="6" t="str">
+      <c r="T20" s="27" t="str">
         <f>Sum(T13:T19)</f>
       </c>
-      <c r="U20" s="6" t="str">
+      <c r="U20" s="27" t="str">
         <f>Sum(U13:U19)</f>
       </c>
-      <c r="V20" s="6" t="str">
+      <c r="V20" s="27" t="str">
         <f>Sum(V13:V19)</f>
       </c>
-      <c r="W20" s="6" t="str">
+      <c r="W20" s="27" t="str">
         <f>Sum(W13:W19)</f>
       </c>
-      <c r="X20" s="6" t="str">
+      <c r="X20" s="27" t="str">
         <f>Sum(X13:X19)</f>
       </c>
-      <c r="Y20" s="6" t="str">
+      <c r="Y20" s="27" t="str">
         <f>Sum(Y13:Y19)</f>
       </c>
-      <c r="Z20" s="6" t="str">
+      <c r="Z20" s="27" t="str">
         <f>Sum(Z13:Z19)</f>
       </c>
-      <c r="AA20" s="6" t="str">
+      <c r="AA20" s="27" t="str">
         <f>Sum(AA13:AA19)</f>
       </c>
-      <c r="AB20" s="6" t="str">
+      <c r="AB20" s="27" t="str">
         <f>Sum(AB13:AB19)</f>
       </c>
-      <c r="AC20" s="6" t="str">
+      <c r="AC20" s="27" t="str">
         <f>Sum(AC13:AC19)</f>
       </c>
-      <c r="AD20" s="6" t="str">
+      <c r="AD20" s="27" t="str">
         <f>Sum(AD13:AD19)</f>
       </c>
-      <c r="AE20" s="6" t="str">
+      <c r="AE20" s="27" t="str">
         <f>Sum(AE13:AE19)</f>
       </c>
-      <c r="AF20" s="6" t="str">
+      <c r="AF20" s="27" t="str">
         <f>Sum(AF13:AF19)</f>
       </c>
-      <c r="AG20" s="6" t="str">
+      <c r="AG20" s="27" t="str">
         <f>Sum(AG13:AG19)</f>
       </c>
-      <c r="AH20" s="6" t="str">
+      <c r="AH20" s="27" t="str">
         <f>Sum(AH13:AH19)</f>
       </c>
-      <c r="AI20" s="6" t="str">
+      <c r="AI20" s="27" t="str">
         <f>Sum(AI13:AI19)</f>
       </c>
-      <c r="AJ20" s="6" t="str">
+      <c r="AJ20" s="27" t="str">
         <f>Sum(AJ13:AJ19)</f>
       </c>
-      <c r="AK20" s="6" t="str">
+      <c r="AK20" s="27" t="str">
         <f>Sum(AK13:AK19)</f>
       </c>
-      <c r="AL20" s="6" t="str">
+      <c r="AL20" s="27" t="str">
         <f>Sum(AL13:AL19)</f>
       </c>
-      <c r="AM20" s="6" t="str">
+      <c r="AM20" s="27" t="str">
         <f>Sum(AM13:AM19)</f>
       </c>
-      <c r="AN20" s="6" t="str">
+      <c r="AN20" s="27" t="str">
         <f>Sum(AN13:AN19)</f>
       </c>
-      <c r="AO20" s="6" t="str">
+      <c r="AO20" s="27" t="str">
         <f>Sum(AO13:AO19)</f>
       </c>
-      <c r="AP20" s="6" t="str">
+      <c r="AP20" s="27" t="str">
         <f>Sum(AP13:AP19)</f>
       </c>
-      <c r="AQ20" s="6" t="str">
+      <c r="AQ20" s="27" t="str">
         <f>Sum(AQ13:AQ19)</f>
       </c>
-      <c r="AR20" s="6" t="str">
+      <c r="AR20" s="27" t="str">
         <f>Sum(AR13:AR19)</f>
       </c>
-      <c r="AS20" s="6" t="str">
+      <c r="AS20" s="27" t="str">
         <f>Sum(AS13:AS19)</f>
       </c>
-      <c r="AT20" s="6" t="str">
+      <c r="AT20" s="27" t="str">
         <f>Sum(AT13:AT19)</f>
       </c>
-      <c r="AU20" s="6" t="str">
+      <c r="AU20" s="27" t="str">
         <f>Sum(AU13:AU19)</f>
       </c>
-      <c r="AV20" s="6"/>
+      <c r="AV20" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/NPS2024/DoD_2024_NPS.xlsx
+++ b/Output/AcqTrends/NPS2024/DoD_2024_NPS.xlsx
@@ -461,7 +461,7 @@
     <numFmt numFmtId="170" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="245" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="252" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="263" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="264" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="178" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="183" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="185" formatCode="0.00,,,&quot;B&quot;"/>
@@ -481,8 +481,8 @@
     <numFmt numFmtId="250" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="255" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="259" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="262" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="264" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="265" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="266" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -525,7 +525,7 @@
     <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="245" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="252" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="263" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="264" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="185" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -545,8 +545,8 @@
     <xf numFmtId="250" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="255" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="259" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="262" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="264" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="265" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="266" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -20178,16 +20178,16 @@
       <c r="B2" t="str">
         <f>N2</f>
       </c>
-      <c r="C2" s="26" t="str">
+      <c r="C2" s="27" t="str">
         <f>AI2</f>
       </c>
-      <c r="D2" s="26" t="str">
+      <c r="D2" s="27" t="str">
         <f>AK2</f>
       </c>
-      <c r="E2" s="26" t="str">
+      <c r="E2" s="27" t="str">
         <f>AL2</f>
       </c>
-      <c r="F2" s="26"/>
+      <c r="F2" s="27"/>
       <c r="G2" s="1" t="str">
         <f>AL2/AK2-1</f>
       </c>
@@ -20205,75 +20205,75 @@
       <c r="N2" t="s">
         <v>98</v>
       </c>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26" t="n">
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27" t="n">
         <v>397365806.319116</v>
       </c>
-      <c r="R2" s="26" t="n">
+      <c r="R2" s="27" t="n">
         <v>2839480303.02883</v>
       </c>
-      <c r="S2" s="26" t="n">
+      <c r="S2" s="27" t="n">
         <v>4109445149.76701</v>
       </c>
-      <c r="T2" s="26" t="n">
+      <c r="T2" s="27" t="n">
         <v>7875574308.78399</v>
       </c>
-      <c r="U2" s="26" t="n">
+      <c r="U2" s="27" t="n">
         <v>7073998460.09372</v>
       </c>
-      <c r="V2" s="26" t="n">
+      <c r="V2" s="27" t="n">
         <v>6152213033.87404</v>
       </c>
-      <c r="W2" s="26" t="n">
+      <c r="W2" s="27" t="n">
         <v>5801207584.22227</v>
       </c>
-      <c r="X2" s="26" t="n">
+      <c r="X2" s="27" t="n">
         <v>2668848611.28076</v>
       </c>
-      <c r="Y2" s="26" t="n">
+      <c r="Y2" s="27" t="n">
         <v>792576556.757872</v>
       </c>
-      <c r="Z2" s="26" t="n">
+      <c r="Z2" s="27" t="n">
         <v>56035989.1754174</v>
       </c>
-      <c r="AA2" s="26" t="n">
+      <c r="AA2" s="27" t="n">
         <v>2849315372.07039</v>
       </c>
-      <c r="AB2" s="26" t="n">
+      <c r="AB2" s="27" t="n">
         <v>2915235881.85436</v>
       </c>
-      <c r="AC2" s="26" t="n">
+      <c r="AC2" s="27" t="n">
         <v>-22828334.1764098</v>
       </c>
-      <c r="AD2" s="26" t="n">
+      <c r="AD2" s="27" t="n">
         <v>9053791.37420698</v>
       </c>
-      <c r="AE2" s="26" t="n">
+      <c r="AE2" s="27" t="n">
         <v>14219533.5008926</v>
       </c>
-      <c r="AF2" s="26" t="n">
+      <c r="AF2" s="27" t="n">
         <v>51965389.4391825</v>
       </c>
-      <c r="AG2" s="26" t="n">
+      <c r="AG2" s="27" t="n">
         <v>1889872947.93917</v>
       </c>
-      <c r="AH2" s="26" t="n">
+      <c r="AH2" s="27" t="n">
         <v>4149941105.51202</v>
       </c>
-      <c r="AI2" s="26" t="n">
+      <c r="AI2" s="27" t="n">
         <v>2513447394.60167</v>
       </c>
-      <c r="AJ2" s="26" t="n">
+      <c r="AJ2" s="27" t="n">
         <v>2384770193.94276</v>
       </c>
-      <c r="AK2" s="26" t="n">
+      <c r="AK2" s="27" t="n">
         <v>2177721855.78697</v>
       </c>
-      <c r="AL2" s="26" t="n">
+      <c r="AL2" s="27" t="n">
         <v>1773563167.807</v>
       </c>
-      <c r="AM2" s="26"/>
+      <c r="AM2" s="27"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -20282,16 +20282,16 @@
       <c r="B3" t="str">
         <f>N3</f>
       </c>
-      <c r="C3" s="26" t="str">
+      <c r="C3" s="27" t="str">
         <f>AI3</f>
       </c>
-      <c r="D3" s="26" t="str">
+      <c r="D3" s="27" t="str">
         <f>AK3</f>
       </c>
-      <c r="E3" s="26" t="str">
+      <c r="E3" s="27" t="str">
         <f>AL3</f>
       </c>
-      <c r="F3" s="26"/>
+      <c r="F3" s="27"/>
       <c r="G3" s="1" t="str">
         <f>AL3/AK3-1</f>
       </c>
@@ -20309,77 +20309,77 @@
       <c r="N3" t="s">
         <v>99</v>
       </c>
-      <c r="O3" s="26" t="n">
+      <c r="O3" s="27" t="n">
         <v>892703.070821061</v>
       </c>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26" t="n">
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27" t="n">
         <v>555016414.132698</v>
       </c>
-      <c r="R3" s="26" t="n">
+      <c r="R3" s="27" t="n">
         <v>581237098.983541</v>
       </c>
-      <c r="S3" s="26" t="n">
+      <c r="S3" s="27" t="n">
         <v>612865751.753848</v>
       </c>
-      <c r="T3" s="26" t="n">
+      <c r="T3" s="27" t="n">
         <v>968359556.618929</v>
       </c>
-      <c r="U3" s="26" t="n">
+      <c r="U3" s="27" t="n">
         <v>1383139767.5459</v>
       </c>
-      <c r="V3" s="26" t="n">
+      <c r="V3" s="27" t="n">
         <v>100628033.2243</v>
       </c>
-      <c r="W3" s="26" t="n">
+      <c r="W3" s="27" t="n">
         <v>6179231553.48301</v>
       </c>
-      <c r="X3" s="26" t="n">
+      <c r="X3" s="27" t="n">
         <v>3426854207.2981</v>
       </c>
-      <c r="Y3" s="26" t="n">
+      <c r="Y3" s="27" t="n">
         <v>3813123902.50872</v>
       </c>
-      <c r="Z3" s="26" t="n">
+      <c r="Z3" s="27" t="n">
         <v>4279209448.87573</v>
       </c>
-      <c r="AA3" s="26" t="n">
+      <c r="AA3" s="27" t="n">
         <v>5854121087.39238</v>
       </c>
-      <c r="AB3" s="26" t="n">
+      <c r="AB3" s="27" t="n">
         <v>4053717172.65866</v>
       </c>
-      <c r="AC3" s="26" t="n">
+      <c r="AC3" s="27" t="n">
         <v>3396788701.03342</v>
       </c>
-      <c r="AD3" s="26" t="n">
+      <c r="AD3" s="27" t="n">
         <v>3573693639.78001</v>
       </c>
-      <c r="AE3" s="26" t="n">
+      <c r="AE3" s="27" t="n">
         <v>4569729826.82835</v>
       </c>
-      <c r="AF3" s="26" t="n">
+      <c r="AF3" s="27" t="n">
         <v>3053492264.81399</v>
       </c>
-      <c r="AG3" s="26" t="n">
+      <c r="AG3" s="27" t="n">
         <v>1123486359.85999</v>
       </c>
-      <c r="AH3" s="26" t="n">
+      <c r="AH3" s="27" t="n">
         <v>1152110340.69979</v>
       </c>
-      <c r="AI3" s="26" t="n">
+      <c r="AI3" s="27" t="n">
         <v>1397012313.55159</v>
       </c>
-      <c r="AJ3" s="26" t="n">
+      <c r="AJ3" s="27" t="n">
         <v>1156028730.96057</v>
       </c>
-      <c r="AK3" s="26" t="n">
+      <c r="AK3" s="27" t="n">
         <v>567453299.051815</v>
       </c>
-      <c r="AL3" s="26" t="n">
+      <c r="AL3" s="27" t="n">
         <v>1330217877.4287</v>
       </c>
-      <c r="AM3" s="26"/>
+      <c r="AM3" s="27"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -20388,16 +20388,16 @@
       <c r="B4" t="str">
         <f>N4</f>
       </c>
-      <c r="C4" s="26" t="str">
+      <c r="C4" s="27" t="str">
         <f>AI4</f>
       </c>
-      <c r="D4" s="26" t="str">
+      <c r="D4" s="27" t="str">
         <f>AK4</f>
       </c>
-      <c r="E4" s="26" t="str">
+      <c r="E4" s="27" t="str">
         <f>AL4</f>
       </c>
-      <c r="F4" s="26"/>
+      <c r="F4" s="27"/>
       <c r="G4" s="1" t="str">
         <f>AL4/AK4-1</f>
       </c>
@@ -20415,61 +20415,61 @@
       <c r="N4" t="s">
         <v>107</v>
       </c>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26" t="n">
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27" t="n">
         <v>5424175.49620942</v>
       </c>
-      <c r="X4" s="26" t="n">
+      <c r="X4" s="27" t="n">
         <v>4545847.42086142</v>
       </c>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26" t="n">
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27" t="n">
         <v>29658.1528392675</v>
       </c>
-      <c r="AA4" s="26" t="n">
+      <c r="AA4" s="27" t="n">
         <v>177999.135688306</v>
       </c>
-      <c r="AB4" s="26" t="n">
+      <c r="AB4" s="27" t="n">
         <v>366463.704148641</v>
       </c>
-      <c r="AC4" s="26" t="n">
+      <c r="AC4" s="27" t="n">
         <v>361553.021921799</v>
       </c>
-      <c r="AD4" s="26" t="n">
+      <c r="AD4" s="27" t="n">
         <v>18212.7539111367</v>
       </c>
-      <c r="AE4" s="26" t="n">
+      <c r="AE4" s="27" t="n">
         <v>-186507.915454998</v>
       </c>
-      <c r="AF4" s="26" t="n">
+      <c r="AF4" s="27" t="n">
         <v>123931.738910087</v>
       </c>
-      <c r="AG4" s="26" t="n">
+      <c r="AG4" s="27" t="n">
         <v>334492.279988446</v>
       </c>
-      <c r="AH4" s="26" t="n">
+      <c r="AH4" s="27" t="n">
         <v>2087251.70038931</v>
       </c>
-      <c r="AI4" s="26" t="n">
+      <c r="AI4" s="27" t="n">
         <v>712707.795095527</v>
       </c>
-      <c r="AJ4" s="26" t="n">
+      <c r="AJ4" s="27" t="n">
         <v>188380405.952412</v>
       </c>
-      <c r="AK4" s="26" t="n">
+      <c r="AK4" s="27" t="n">
         <v>-4976172.57976131</v>
       </c>
-      <c r="AL4" s="26" t="n">
+      <c r="AL4" s="27" t="n">
         <v>2374808234.41</v>
       </c>
-      <c r="AM4" s="26"/>
+      <c r="AM4" s="27"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -20478,16 +20478,16 @@
       <c r="B5" t="str">
         <f>N5</f>
       </c>
-      <c r="C5" s="26" t="str">
+      <c r="C5" s="27" t="str">
         <f>AI5</f>
       </c>
-      <c r="D5" s="26" t="str">
+      <c r="D5" s="27" t="str">
         <f>AK5</f>
       </c>
-      <c r="E5" s="26" t="str">
+      <c r="E5" s="27" t="str">
         <f>AL5</f>
       </c>
-      <c r="F5" s="26"/>
+      <c r="F5" s="27"/>
       <c r="G5" s="1" t="str">
         <f>AL5/AK5-1</f>
       </c>
@@ -20505,79 +20505,79 @@
       <c r="N5" t="s">
         <v>113</v>
       </c>
-      <c r="O5" s="26" t="n">
+      <c r="O5" s="27" t="n">
         <v>109206957.341737</v>
       </c>
-      <c r="P5" s="26" t="n">
+      <c r="P5" s="27" t="n">
         <v>78664277.7731819</v>
       </c>
-      <c r="Q5" s="26" t="n">
+      <c r="Q5" s="27" t="n">
         <v>66992284.2710572</v>
       </c>
-      <c r="R5" s="26" t="n">
+      <c r="R5" s="27" t="n">
         <v>404040532.852753</v>
       </c>
-      <c r="S5" s="26" t="n">
+      <c r="S5" s="27" t="n">
         <v>736761571.956634</v>
       </c>
-      <c r="T5" s="26" t="n">
+      <c r="T5" s="27" t="n">
         <v>1021494944.62273</v>
       </c>
-      <c r="U5" s="26" t="n">
+      <c r="U5" s="27" t="n">
         <v>978315934.406207</v>
       </c>
-      <c r="V5" s="26" t="n">
+      <c r="V5" s="27" t="n">
         <v>649952028.996232</v>
       </c>
-      <c r="W5" s="26" t="n">
+      <c r="W5" s="27" t="n">
         <v>377510464.973437</v>
       </c>
-      <c r="X5" s="26" t="n">
+      <c r="X5" s="27" t="n">
         <v>499052946.570925</v>
       </c>
-      <c r="Y5" s="26" t="n">
+      <c r="Y5" s="27" t="n">
         <v>766800014.407336</v>
       </c>
-      <c r="Z5" s="26" t="n">
+      <c r="Z5" s="27" t="n">
         <v>1423976671.54069</v>
       </c>
-      <c r="AA5" s="26" t="n">
+      <c r="AA5" s="27" t="n">
         <v>1292106995.74913</v>
       </c>
-      <c r="AB5" s="26" t="n">
+      <c r="AB5" s="27" t="n">
         <v>1630447418.57498</v>
       </c>
-      <c r="AC5" s="26" t="n">
+      <c r="AC5" s="27" t="n">
         <v>1512529318.16832</v>
       </c>
-      <c r="AD5" s="26" t="n">
+      <c r="AD5" s="27" t="n">
         <v>1290370117.97345</v>
       </c>
-      <c r="AE5" s="26" t="n">
+      <c r="AE5" s="27" t="n">
         <v>1621381828.83097</v>
       </c>
-      <c r="AF5" s="26" t="n">
+      <c r="AF5" s="27" t="n">
         <v>3099806534.2644</v>
       </c>
-      <c r="AG5" s="26" t="n">
+      <c r="AG5" s="27" t="n">
         <v>4053256762.29813</v>
       </c>
-      <c r="AH5" s="26" t="n">
+      <c r="AH5" s="27" t="n">
         <v>3966701986.28081</v>
       </c>
-      <c r="AI5" s="26" t="n">
+      <c r="AI5" s="27" t="n">
         <v>3198323399.12932</v>
       </c>
-      <c r="AJ5" s="26" t="n">
+      <c r="AJ5" s="27" t="n">
         <v>2635245573.85011</v>
       </c>
-      <c r="AK5" s="26" t="n">
+      <c r="AK5" s="27" t="n">
         <v>3471732807.83605</v>
       </c>
-      <c r="AL5" s="26" t="n">
+      <c r="AL5" s="27" t="n">
         <v>2533857690.4549</v>
       </c>
-      <c r="AM5" s="26"/>
+      <c r="AM5" s="27"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -20586,16 +20586,16 @@
       <c r="B6" t="str">
         <f>N6</f>
       </c>
-      <c r="C6" s="26" t="str">
+      <c r="C6" s="27" t="str">
         <f>AI6</f>
       </c>
-      <c r="D6" s="26" t="str">
+      <c r="D6" s="27" t="str">
         <f>AK6</f>
       </c>
-      <c r="E6" s="26" t="str">
+      <c r="E6" s="27" t="str">
         <f>AL6</f>
       </c>
-      <c r="F6" s="26"/>
+      <c r="F6" s="27"/>
       <c r="G6" s="1" t="str">
         <f>AL6/AK6-1</f>
       </c>
@@ -20613,41 +20613,41 @@
       <c r="N6" t="s">
         <v>98</v>
       </c>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="26"/>
-      <c r="AC6" s="26"/>
-      <c r="AD6" s="26"/>
-      <c r="AE6" s="26"/>
-      <c r="AF6" s="26"/>
-      <c r="AG6" s="26"/>
-      <c r="AH6" s="26" t="n">
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="27"/>
+      <c r="AF6" s="27"/>
+      <c r="AG6" s="27"/>
+      <c r="AH6" s="27" t="n">
         <v>12160191.0669516</v>
       </c>
-      <c r="AI6" s="26" t="n">
+      <c r="AI6" s="27" t="n">
         <v>10933558.8603299</v>
       </c>
-      <c r="AJ6" s="26" t="n">
+      <c r="AJ6" s="27" t="n">
         <v>4871322.51090028</v>
       </c>
-      <c r="AK6" s="26" t="n">
+      <c r="AK6" s="27" t="n">
         <v>1117618.84445737</v>
       </c>
-      <c r="AL6" s="26" t="n">
+      <c r="AL6" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="AM6" s="26"/>
+      <c r="AM6" s="27"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -20656,16 +20656,16 @@
       <c r="B7" t="str">
         <f>N7</f>
       </c>
-      <c r="C7" s="26" t="str">
+      <c r="C7" s="27" t="str">
         <f>AI7</f>
       </c>
-      <c r="D7" s="26" t="str">
+      <c r="D7" s="27" t="str">
         <f>AK7</f>
       </c>
-      <c r="E7" s="26" t="str">
+      <c r="E7" s="27" t="str">
         <f>AL7</f>
       </c>
-      <c r="F7" s="26"/>
+      <c r="F7" s="27"/>
       <c r="G7" s="1" t="str">
         <f>AL7/AK7-1</f>
       </c>
@@ -20683,37 +20683,37 @@
       <c r="N7" t="s">
         <v>101</v>
       </c>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="26"/>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="26"/>
-      <c r="AC7" s="26"/>
-      <c r="AD7" s="26"/>
-      <c r="AE7" s="26"/>
-      <c r="AF7" s="26"/>
-      <c r="AG7" s="26"/>
-      <c r="AH7" s="26"/>
-      <c r="AI7" s="26"/>
-      <c r="AJ7" s="26" t="n">
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="27"/>
+      <c r="AE7" s="27"/>
+      <c r="AF7" s="27"/>
+      <c r="AG7" s="27"/>
+      <c r="AH7" s="27"/>
+      <c r="AI7" s="27"/>
+      <c r="AJ7" s="27" t="n">
         <v>3410852.86305641</v>
       </c>
-      <c r="AK7" s="26" t="n">
+      <c r="AK7" s="27" t="n">
         <v>28998040.0169742</v>
       </c>
-      <c r="AL7" s="26" t="n">
+      <c r="AL7" s="27" t="n">
         <v>30841171.9922</v>
       </c>
-      <c r="AM7" s="26"/>
+      <c r="AM7" s="27"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -20722,16 +20722,16 @@
       <c r="B8" t="str">
         <f>N8</f>
       </c>
-      <c r="C8" s="26" t="str">
+      <c r="C8" s="27" t="str">
         <f>AI8</f>
       </c>
-      <c r="D8" s="26" t="str">
+      <c r="D8" s="27" t="str">
         <f>AK8</f>
       </c>
-      <c r="E8" s="26" t="str">
+      <c r="E8" s="27" t="str">
         <f>AL8</f>
       </c>
-      <c r="F8" s="26"/>
+      <c r="F8" s="27"/>
       <c r="G8" s="1" t="str">
         <f>AL8/AK8-1</f>
       </c>
@@ -20749,49 +20749,49 @@
       <c r="N8" t="s">
         <v>107</v>
       </c>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26" t="n">
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="27" t="n">
         <v>51120.2682274273</v>
       </c>
-      <c r="Z8" s="26" t="n">
+      <c r="Z8" s="27" t="n">
         <v>82036.6051261196</v>
       </c>
-      <c r="AA8" s="26" t="n">
+      <c r="AA8" s="27" t="n">
         <v>75091.8703551646</v>
       </c>
-      <c r="AB8" s="26"/>
-      <c r="AC8" s="26" t="n">
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="27" t="n">
         <v>70359.6512026736</v>
       </c>
-      <c r="AD8" s="26"/>
-      <c r="AE8" s="26"/>
-      <c r="AF8" s="26" t="n">
+      <c r="AD8" s="27"/>
+      <c r="AE8" s="27"/>
+      <c r="AF8" s="27" t="n">
         <v>57255.9559744389</v>
       </c>
-      <c r="AG8" s="26" t="n">
+      <c r="AG8" s="27" t="n">
         <v>61030.2232231585</v>
       </c>
-      <c r="AH8" s="26" t="n">
+      <c r="AH8" s="27" t="n">
         <v>149805.720453464</v>
       </c>
-      <c r="AI8" s="26"/>
-      <c r="AJ8" s="26"/>
-      <c r="AK8" s="26" t="n">
+      <c r="AI8" s="27"/>
+      <c r="AJ8" s="27"/>
+      <c r="AK8" s="27" t="n">
         <v>6363281.23189551</v>
       </c>
-      <c r="AL8" s="26" t="n">
+      <c r="AL8" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="AM8" s="26"/>
+      <c r="AM8" s="27"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -20800,16 +20800,16 @@
       <c r="B9" t="str">
         <f>N9</f>
       </c>
-      <c r="C9" s="26" t="str">
+      <c r="C9" s="27" t="str">
         <f>AI9</f>
       </c>
-      <c r="D9" s="26" t="str">
+      <c r="D9" s="27" t="str">
         <f>AK9</f>
       </c>
-      <c r="E9" s="26" t="str">
+      <c r="E9" s="27" t="str">
         <f>AL9</f>
       </c>
-      <c r="F9" s="26"/>
+      <c r="F9" s="27"/>
       <c r="G9" s="1" t="str">
         <f>AL9/AK9-1</f>
       </c>
@@ -20827,79 +20827,79 @@
       <c r="N9" t="s">
         <v>113</v>
       </c>
-      <c r="O9" s="26" t="n">
+      <c r="O9" s="27" t="n">
         <v>117167358.741587</v>
       </c>
-      <c r="P9" s="26" t="n">
+      <c r="P9" s="27" t="n">
         <v>236186060.154231</v>
       </c>
-      <c r="Q9" s="26" t="n">
+      <c r="Q9" s="27" t="n">
         <v>634464512.668636</v>
       </c>
-      <c r="R9" s="26" t="n">
+      <c r="R9" s="27" t="n">
         <v>864023861.474285</v>
       </c>
-      <c r="S9" s="26" t="n">
+      <c r="S9" s="27" t="n">
         <v>2049791362.45062</v>
       </c>
-      <c r="T9" s="26" t="n">
+      <c r="T9" s="27" t="n">
         <v>1433805998.70756</v>
       </c>
-      <c r="U9" s="26" t="n">
+      <c r="U9" s="27" t="n">
         <v>1804372908.85056</v>
       </c>
-      <c r="V9" s="26" t="n">
+      <c r="V9" s="27" t="n">
         <v>335651403.418063</v>
       </c>
-      <c r="W9" s="26" t="n">
+      <c r="W9" s="27" t="n">
         <v>324443752.831616</v>
       </c>
-      <c r="X9" s="26" t="n">
+      <c r="X9" s="27" t="n">
         <v>567996028.748357</v>
       </c>
-      <c r="Y9" s="26" t="n">
+      <c r="Y9" s="27" t="n">
         <v>565211835.902704</v>
       </c>
-      <c r="Z9" s="26" t="n">
+      <c r="Z9" s="27" t="n">
         <v>903230861.010044</v>
       </c>
-      <c r="AA9" s="26" t="n">
+      <c r="AA9" s="27" t="n">
         <v>892749555.066973</v>
       </c>
-      <c r="AB9" s="26" t="n">
+      <c r="AB9" s="27" t="n">
         <v>1204769184.84938</v>
       </c>
-      <c r="AC9" s="26" t="n">
+      <c r="AC9" s="27" t="n">
         <v>1011874940.41063</v>
       </c>
-      <c r="AD9" s="26" t="n">
+      <c r="AD9" s="27" t="n">
         <v>985367747.868534</v>
       </c>
-      <c r="AE9" s="26" t="n">
+      <c r="AE9" s="27" t="n">
         <v>1480137091.91365</v>
       </c>
-      <c r="AF9" s="26" t="n">
+      <c r="AF9" s="27" t="n">
         <v>2130580898.6656</v>
       </c>
-      <c r="AG9" s="26" t="n">
+      <c r="AG9" s="27" t="n">
         <v>2385810261.75137</v>
       </c>
-      <c r="AH9" s="26" t="n">
+      <c r="AH9" s="27" t="n">
         <v>2357996865.22165</v>
       </c>
-      <c r="AI9" s="26" t="n">
+      <c r="AI9" s="27" t="n">
         <v>1902499199.59765</v>
       </c>
-      <c r="AJ9" s="26" t="n">
+      <c r="AJ9" s="27" t="n">
         <v>2168681693.04048</v>
       </c>
-      <c r="AK9" s="26" t="n">
+      <c r="AK9" s="27" t="n">
         <v>1667122386.08287</v>
       </c>
-      <c r="AL9" s="26" t="n">
+      <c r="AL9" s="27" t="n">
         <v>2830774022.9565</v>
       </c>
-      <c r="AM9" s="26"/>
+      <c r="AM9" s="27"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -20908,16 +20908,16 @@
       <c r="B10" t="str">
         <f>N10</f>
       </c>
-      <c r="C10" s="26" t="str">
+      <c r="C10" s="27" t="str">
         <f>AI10</f>
       </c>
-      <c r="D10" s="26" t="str">
+      <c r="D10" s="27" t="str">
         <f>AK10</f>
       </c>
-      <c r="E10" s="26" t="str">
+      <c r="E10" s="27" t="str">
         <f>AL10</f>
       </c>
-      <c r="F10" s="26"/>
+      <c r="F10" s="27"/>
       <c r="G10" s="1" t="str">
         <f>AL10/AK10-1</f>
       </c>
@@ -20935,79 +20935,79 @@
       <c r="N10" t="s">
         <v>113</v>
       </c>
-      <c r="O10" s="26" t="n">
+      <c r="O10" s="27" t="n">
         <v>122810538.8715</v>
       </c>
-      <c r="P10" s="26" t="n">
+      <c r="P10" s="27" t="n">
         <v>88054801.3379279</v>
       </c>
-      <c r="Q10" s="26" t="n">
+      <c r="Q10" s="27" t="n">
         <v>77403630.2273528</v>
       </c>
-      <c r="R10" s="26" t="n">
+      <c r="R10" s="27" t="n">
         <v>94785852.1989474</v>
       </c>
-      <c r="S10" s="26" t="n">
+      <c r="S10" s="27" t="n">
         <v>231725349.862572</v>
       </c>
-      <c r="T10" s="26" t="n">
+      <c r="T10" s="27" t="n">
         <v>284834141.930451</v>
       </c>
-      <c r="U10" s="26" t="n">
+      <c r="U10" s="27" t="n">
         <v>291808323.569528</v>
       </c>
-      <c r="V10" s="26" t="n">
+      <c r="V10" s="27" t="n">
         <v>663339717.454926</v>
       </c>
-      <c r="W10" s="26" t="n">
+      <c r="W10" s="27" t="n">
         <v>704910596.756886</v>
       </c>
-      <c r="X10" s="26" t="n">
+      <c r="X10" s="27" t="n">
         <v>692531237.335692</v>
       </c>
-      <c r="Y10" s="26" t="n">
+      <c r="Y10" s="27" t="n">
         <v>1623479140.11611</v>
       </c>
-      <c r="Z10" s="26" t="n">
+      <c r="Z10" s="27" t="n">
         <v>1888415968.34233</v>
       </c>
-      <c r="AA10" s="26" t="n">
+      <c r="AA10" s="27" t="n">
         <v>1670124429.61354</v>
       </c>
-      <c r="AB10" s="26" t="n">
+      <c r="AB10" s="27" t="n">
         <v>1647880034.34434</v>
       </c>
-      <c r="AC10" s="26" t="n">
+      <c r="AC10" s="27" t="n">
         <v>1964593999.37621</v>
       </c>
-      <c r="AD10" s="26" t="n">
+      <c r="AD10" s="27" t="n">
         <v>1531318000.2639</v>
       </c>
-      <c r="AE10" s="26" t="n">
+      <c r="AE10" s="27" t="n">
         <v>1198422252.3702</v>
       </c>
-      <c r="AF10" s="26" t="n">
+      <c r="AF10" s="27" t="n">
         <v>1143481661.1258</v>
       </c>
-      <c r="AG10" s="26" t="n">
+      <c r="AG10" s="27" t="n">
         <v>1251612669.78872</v>
       </c>
-      <c r="AH10" s="26" t="n">
+      <c r="AH10" s="27" t="n">
         <v>1422651243.24051</v>
       </c>
-      <c r="AI10" s="26" t="n">
+      <c r="AI10" s="27" t="n">
         <v>1853615449.27931</v>
       </c>
-      <c r="AJ10" s="26" t="n">
+      <c r="AJ10" s="27" t="n">
         <v>2165396538.68423</v>
       </c>
-      <c r="AK10" s="26" t="n">
+      <c r="AK10" s="27" t="n">
         <v>3094706690.9881</v>
       </c>
-      <c r="AL10" s="26" t="n">
+      <c r="AL10" s="27" t="n">
         <v>2397983066.7312</v>
       </c>
-      <c r="AM10" s="26"/>
+      <c r="AM10" s="27"/>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -21016,16 +21016,16 @@
       <c r="B11" t="str">
         <f>N11</f>
       </c>
-      <c r="C11" s="26" t="str">
+      <c r="C11" s="27" t="str">
         <f>AI11</f>
       </c>
-      <c r="D11" s="26" t="str">
+      <c r="D11" s="27" t="str">
         <f>AK11</f>
       </c>
-      <c r="E11" s="26" t="str">
+      <c r="E11" s="27" t="str">
         <f>AL11</f>
       </c>
-      <c r="F11" s="26"/>
+      <c r="F11" s="27"/>
       <c r="G11" s="1" t="str">
         <f>AL11/AK11-1</f>
       </c>
@@ -21043,37 +21043,37 @@
       <c r="N11" t="s">
         <v>98</v>
       </c>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="26"/>
-      <c r="AA11" s="26"/>
-      <c r="AB11" s="26"/>
-      <c r="AC11" s="26"/>
-      <c r="AD11" s="26"/>
-      <c r="AE11" s="26"/>
-      <c r="AF11" s="26"/>
-      <c r="AG11" s="26"/>
-      <c r="AH11" s="26"/>
-      <c r="AI11" s="26" t="n">
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="27"/>
+      <c r="AE11" s="27"/>
+      <c r="AF11" s="27"/>
+      <c r="AG11" s="27"/>
+      <c r="AH11" s="27"/>
+      <c r="AI11" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="AJ11" s="26"/>
-      <c r="AK11" s="26" t="n">
+      <c r="AJ11" s="27"/>
+      <c r="AK11" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="AL11" s="26" t="n">
+      <c r="AL11" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="AM11" s="26"/>
+      <c r="AM11" s="27"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -21082,16 +21082,16 @@
       <c r="B12" t="str">
         <f>N12</f>
       </c>
-      <c r="C12" s="26" t="str">
+      <c r="C12" s="27" t="str">
         <f>AI12</f>
       </c>
-      <c r="D12" s="26" t="str">
+      <c r="D12" s="27" t="str">
         <f>AK12</f>
       </c>
-      <c r="E12" s="26" t="str">
+      <c r="E12" s="27" t="str">
         <f>AL12</f>
       </c>
-      <c r="F12" s="26"/>
+      <c r="F12" s="27"/>
       <c r="G12" s="1" t="str">
         <f>AL12/AK12-1</f>
       </c>
@@ -21109,41 +21109,41 @@
       <c r="N12" t="s">
         <v>107</v>
       </c>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="26"/>
-      <c r="AA12" s="26"/>
-      <c r="AB12" s="26"/>
-      <c r="AC12" s="26"/>
-      <c r="AD12" s="26"/>
-      <c r="AE12" s="26"/>
-      <c r="AF12" s="26"/>
-      <c r="AG12" s="26" t="n">
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="27"/>
+      <c r="AC12" s="27"/>
+      <c r="AD12" s="27"/>
+      <c r="AE12" s="27"/>
+      <c r="AF12" s="27"/>
+      <c r="AG12" s="27" t="n">
         <v>70904.422648404</v>
       </c>
-      <c r="AH12" s="26" t="n">
+      <c r="AH12" s="27" t="n">
         <v>29111.3797740244</v>
       </c>
-      <c r="AI12" s="26" t="n">
+      <c r="AI12" s="27" t="n">
         <v>14330.0249566311</v>
       </c>
-      <c r="AJ12" s="26" t="n">
+      <c r="AJ12" s="27" t="n">
         <v>37143.9530268016</v>
       </c>
-      <c r="AK12" s="26" t="n">
+      <c r="AK12" s="27" t="n">
         <v>41286.3053100184</v>
       </c>
-      <c r="AL12" s="26"/>
-      <c r="AM12" s="26"/>
+      <c r="AL12" s="27"/>
+      <c r="AM12" s="27"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -21152,16 +21152,16 @@
       <c r="B13" t="str">
         <f>N13</f>
       </c>
-      <c r="C13" s="26" t="str">
+      <c r="C13" s="27" t="str">
         <f>AI13</f>
       </c>
-      <c r="D13" s="26" t="str">
+      <c r="D13" s="27" t="str">
         <f>AK13</f>
       </c>
-      <c r="E13" s="26" t="str">
+      <c r="E13" s="27" t="str">
         <f>AL13</f>
       </c>
-      <c r="F13" s="26"/>
+      <c r="F13" s="27"/>
       <c r="G13" s="1" t="str">
         <f>AL13/AK13-1</f>
       </c>
@@ -21179,79 +21179,79 @@
       <c r="N13" t="s">
         <v>113</v>
       </c>
-      <c r="O13" s="26" t="n">
+      <c r="O13" s="27" t="n">
         <v>223312048.663891</v>
       </c>
-      <c r="P13" s="26" t="n">
+      <c r="P13" s="27" t="n">
         <v>911363466.256188</v>
       </c>
-      <c r="Q13" s="26" t="n">
+      <c r="Q13" s="27" t="n">
         <v>994764781.322826</v>
       </c>
-      <c r="R13" s="26" t="n">
+      <c r="R13" s="27" t="n">
         <v>571862227.634484</v>
       </c>
-      <c r="S13" s="26" t="n">
+      <c r="S13" s="27" t="n">
         <v>849865107.155529</v>
       </c>
-      <c r="T13" s="26" t="n">
+      <c r="T13" s="27" t="n">
         <v>518649498.643925</v>
       </c>
-      <c r="U13" s="26" t="n">
+      <c r="U13" s="27" t="n">
         <v>446811488.845499</v>
       </c>
-      <c r="V13" s="26" t="n">
+      <c r="V13" s="27" t="n">
         <v>-15993539.8353005</v>
       </c>
-      <c r="W13" s="26" t="n">
+      <c r="W13" s="27" t="n">
         <v>152455436.824145</v>
       </c>
-      <c r="X13" s="26" t="n">
+      <c r="X13" s="27" t="n">
         <v>218258523.191347</v>
       </c>
-      <c r="Y13" s="26" t="n">
+      <c r="Y13" s="27" t="n">
         <v>253114336.078972</v>
       </c>
-      <c r="Z13" s="26" t="n">
+      <c r="Z13" s="27" t="n">
         <v>378662643.214911</v>
       </c>
-      <c r="AA13" s="26" t="n">
+      <c r="AA13" s="27" t="n">
         <v>351556730.035811</v>
       </c>
-      <c r="AB13" s="26" t="n">
+      <c r="AB13" s="27" t="n">
         <v>127801010.859185</v>
       </c>
-      <c r="AC13" s="26" t="n">
+      <c r="AC13" s="27" t="n">
         <v>330231829.756293</v>
       </c>
-      <c r="AD13" s="26" t="n">
+      <c r="AD13" s="27" t="n">
         <v>1209450013.4581</v>
       </c>
-      <c r="AE13" s="26" t="n">
+      <c r="AE13" s="27" t="n">
         <v>1350262720.16384</v>
       </c>
-      <c r="AF13" s="26" t="n">
+      <c r="AF13" s="27" t="n">
         <v>1486640992.77409</v>
       </c>
-      <c r="AG13" s="26" t="n">
+      <c r="AG13" s="27" t="n">
         <v>1557449770.55963</v>
       </c>
-      <c r="AH13" s="26" t="n">
+      <c r="AH13" s="27" t="n">
         <v>1275736401.31365</v>
       </c>
-      <c r="AI13" s="26" t="n">
+      <c r="AI13" s="27" t="n">
         <v>798237731.466745</v>
       </c>
-      <c r="AJ13" s="26" t="n">
+      <c r="AJ13" s="27" t="n">
         <v>431256166.360568</v>
       </c>
-      <c r="AK13" s="26" t="n">
+      <c r="AK13" s="27" t="n">
         <v>364289934.361393</v>
       </c>
-      <c r="AL13" s="26" t="n">
+      <c r="AL13" s="27" t="n">
         <v>447981792.5263</v>
       </c>
-      <c r="AM13" s="26"/>
+      <c r="AM13" s="27"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -21260,16 +21260,16 @@
       <c r="B14" t="str">
         <f>N14</f>
       </c>
-      <c r="C14" s="26" t="str">
+      <c r="C14" s="27" t="str">
         <f>AI14</f>
       </c>
-      <c r="D14" s="26" t="str">
+      <c r="D14" s="27" t="str">
         <f>AK14</f>
       </c>
-      <c r="E14" s="26" t="str">
+      <c r="E14" s="27" t="str">
         <f>AL14</f>
       </c>
-      <c r="F14" s="26"/>
+      <c r="F14" s="27"/>
       <c r="G14" s="1" t="str">
         <f>AL14/AK14-1</f>
       </c>
@@ -21287,37 +21287,37 @@
       <c r="N14" t="s">
         <v>101</v>
       </c>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="26"/>
-      <c r="W14" s="26"/>
-      <c r="X14" s="26"/>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="26"/>
-      <c r="AA14" s="26"/>
-      <c r="AB14" s="26"/>
-      <c r="AC14" s="26"/>
-      <c r="AD14" s="26"/>
-      <c r="AE14" s="26"/>
-      <c r="AF14" s="26"/>
-      <c r="AG14" s="26"/>
-      <c r="AH14" s="26"/>
-      <c r="AI14" s="26"/>
-      <c r="AJ14" s="26" t="n">
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="27"/>
+      <c r="AE14" s="27"/>
+      <c r="AF14" s="27"/>
+      <c r="AG14" s="27"/>
+      <c r="AH14" s="27"/>
+      <c r="AI14" s="27"/>
+      <c r="AJ14" s="27" t="n">
         <v>757267483.173988</v>
       </c>
-      <c r="AK14" s="26" t="n">
+      <c r="AK14" s="27" t="n">
         <v>880702039.273206</v>
       </c>
-      <c r="AL14" s="26" t="n">
+      <c r="AL14" s="27" t="n">
         <v>1730402389.9924</v>
       </c>
-      <c r="AM14" s="26"/>
+      <c r="AM14" s="27"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -21326,16 +21326,16 @@
       <c r="B15" t="str">
         <f>N15</f>
       </c>
-      <c r="C15" s="26" t="str">
+      <c r="C15" s="27" t="str">
         <f>AI15</f>
       </c>
-      <c r="D15" s="26" t="str">
+      <c r="D15" s="27" t="str">
         <f>AK15</f>
       </c>
-      <c r="E15" s="26" t="str">
+      <c r="E15" s="27" t="str">
         <f>AL15</f>
       </c>
-      <c r="F15" s="26"/>
+      <c r="F15" s="27"/>
       <c r="G15" s="1" t="str">
         <f>AL15/AK15-1</f>
       </c>
@@ -21353,59 +21353,59 @@
       <c r="N15" t="s">
         <v>106</v>
       </c>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="26"/>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="26" t="n">
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27" t="n">
         <v>54446922.3707664</v>
       </c>
-      <c r="Z15" s="26" t="n">
+      <c r="Z15" s="27" t="n">
         <v>355439677.925857</v>
       </c>
-      <c r="AA15" s="26" t="n">
+      <c r="AA15" s="27" t="n">
         <v>471119588.652068</v>
       </c>
-      <c r="AB15" s="26" t="n">
+      <c r="AB15" s="27" t="n">
         <v>438549754.464684</v>
       </c>
-      <c r="AC15" s="26" t="n">
+      <c r="AC15" s="27" t="n">
         <v>344467231.951312</v>
       </c>
-      <c r="AD15" s="26" t="n">
+      <c r="AD15" s="27" t="n">
         <v>895996065.036764</v>
       </c>
-      <c r="AE15" s="26" t="n">
+      <c r="AE15" s="27" t="n">
         <v>1159442710.57902</v>
       </c>
-      <c r="AF15" s="26" t="n">
+      <c r="AF15" s="27" t="n">
         <v>837962271.26235</v>
       </c>
-      <c r="AG15" s="26" t="n">
+      <c r="AG15" s="27" t="n">
         <v>137259921.116006</v>
       </c>
-      <c r="AH15" s="26" t="n">
+      <c r="AH15" s="27" t="n">
         <v>155866452.151691</v>
       </c>
-      <c r="AI15" s="26" t="n">
+      <c r="AI15" s="27" t="n">
         <v>1911969073.48287</v>
       </c>
-      <c r="AJ15" s="26" t="n">
+      <c r="AJ15" s="27" t="n">
         <v>693066248.953756</v>
       </c>
-      <c r="AK15" s="26" t="n">
+      <c r="AK15" s="27" t="n">
         <v>538465808.250516</v>
       </c>
-      <c r="AL15" s="26" t="n">
+      <c r="AL15" s="27" t="n">
         <v>660934111.0548</v>
       </c>
-      <c r="AM15" s="26"/>
+      <c r="AM15" s="27"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -21414,16 +21414,16 @@
       <c r="B16" t="str">
         <f>N16</f>
       </c>
-      <c r="C16" s="26" t="str">
+      <c r="C16" s="27" t="str">
         <f>AI16</f>
       </c>
-      <c r="D16" s="26" t="str">
+      <c r="D16" s="27" t="str">
         <f>AK16</f>
       </c>
-      <c r="E16" s="26" t="str">
+      <c r="E16" s="27" t="str">
         <f>AL16</f>
       </c>
-      <c r="F16" s="26"/>
+      <c r="F16" s="27"/>
       <c r="G16" s="1" t="str">
         <f>AL16/AK16-1</f>
       </c>
@@ -21441,69 +21441,69 @@
       <c r="N16" t="s">
         <v>113</v>
       </c>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26" t="n">
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="U16" s="26" t="n">
+      <c r="U16" s="27" t="n">
         <v>2181673.56151467</v>
       </c>
-      <c r="V16" s="26" t="n">
+      <c r="V16" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="W16" s="26" t="n">
+      <c r="W16" s="27" t="n">
         <v>17357638.3002127</v>
       </c>
-      <c r="X16" s="26" t="n">
+      <c r="X16" s="27" t="n">
         <v>46593781.2247896</v>
       </c>
-      <c r="Y16" s="26" t="n">
+      <c r="Y16" s="27" t="n">
         <v>116959202.771747</v>
       </c>
-      <c r="Z16" s="26" t="n">
+      <c r="Z16" s="27" t="n">
         <v>155802852.826609</v>
       </c>
-      <c r="AA16" s="26" t="n">
+      <c r="AA16" s="27" t="n">
         <v>84570347.1752452</v>
       </c>
-      <c r="AB16" s="26" t="n">
+      <c r="AB16" s="27" t="n">
         <v>116070626.196534</v>
       </c>
-      <c r="AC16" s="26" t="n">
+      <c r="AC16" s="27" t="n">
         <v>201457162.968298</v>
       </c>
-      <c r="AD16" s="26" t="n">
+      <c r="AD16" s="27" t="n">
         <v>168371795.707106</v>
       </c>
-      <c r="AE16" s="26" t="n">
+      <c r="AE16" s="27" t="n">
         <v>201940089.381481</v>
       </c>
-      <c r="AF16" s="26" t="n">
+      <c r="AF16" s="27" t="n">
         <v>358027778.532408</v>
       </c>
-      <c r="AG16" s="26" t="n">
+      <c r="AG16" s="27" t="n">
         <v>352371006.282432</v>
       </c>
-      <c r="AH16" s="26" t="n">
+      <c r="AH16" s="27" t="n">
         <v>468552576.636055</v>
       </c>
-      <c r="AI16" s="26" t="n">
+      <c r="AI16" s="27" t="n">
         <v>475248308.919858</v>
       </c>
-      <c r="AJ16" s="26" t="n">
+      <c r="AJ16" s="27" t="n">
         <v>470506533.662932</v>
       </c>
-      <c r="AK16" s="26" t="n">
+      <c r="AK16" s="27" t="n">
         <v>732830376.291269</v>
       </c>
-      <c r="AL16" s="26" t="n">
+      <c r="AL16" s="27" t="n">
         <v>658606978.5541</v>
       </c>
-      <c r="AM16" s="26"/>
+      <c r="AM16" s="27"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -21512,16 +21512,16 @@
       <c r="B17" t="str">
         <f>N17</f>
       </c>
-      <c r="C17" s="26" t="str">
+      <c r="C17" s="27" t="str">
         <f>AI17</f>
       </c>
-      <c r="D17" s="26" t="str">
+      <c r="D17" s="27" t="str">
         <f>AK17</f>
       </c>
-      <c r="E17" s="26" t="str">
+      <c r="E17" s="27" t="str">
         <f>AL17</f>
       </c>
-      <c r="F17" s="26"/>
+      <c r="F17" s="27"/>
       <c r="G17" s="1" t="str">
         <f>AL17/AK17-1</f>
       </c>
@@ -21539,79 +21539,79 @@
       <c r="N17" t="s">
         <v>106</v>
       </c>
-      <c r="O17" s="26" t="n">
+      <c r="O17" s="27" t="n">
         <v>488214064.171057</v>
       </c>
-      <c r="P17" s="26" t="n">
+      <c r="P17" s="27" t="n">
         <v>449148858.4313</v>
       </c>
-      <c r="Q17" s="26" t="n">
+      <c r="Q17" s="27" t="n">
         <v>350018324.397305</v>
       </c>
-      <c r="R17" s="26" t="n">
+      <c r="R17" s="27" t="n">
         <v>271799752.179984</v>
       </c>
-      <c r="S17" s="26" t="n">
+      <c r="S17" s="27" t="n">
         <v>465295533.048704</v>
       </c>
-      <c r="T17" s="26" t="n">
+      <c r="T17" s="27" t="n">
         <v>383698529.162693</v>
       </c>
-      <c r="U17" s="26" t="n">
+      <c r="U17" s="27" t="n">
         <v>589608609.043846</v>
       </c>
-      <c r="V17" s="26" t="n">
+      <c r="V17" s="27" t="n">
         <v>487175349.69558</v>
       </c>
-      <c r="W17" s="26" t="n">
+      <c r="W17" s="27" t="n">
         <v>998603316.92027</v>
       </c>
-      <c r="X17" s="26" t="n">
+      <c r="X17" s="27" t="n">
         <v>125977100.829538</v>
       </c>
-      <c r="Y17" s="26" t="n">
+      <c r="Y17" s="27" t="n">
         <v>93945822.0569957</v>
       </c>
-      <c r="Z17" s="26" t="n">
+      <c r="Z17" s="27" t="n">
         <v>6323212.95197715</v>
       </c>
-      <c r="AA17" s="26" t="n">
+      <c r="AA17" s="27" t="n">
         <v>-901805.866280797</v>
       </c>
-      <c r="AB17" s="26" t="n">
+      <c r="AB17" s="27" t="n">
         <v>142285309.503426</v>
       </c>
-      <c r="AC17" s="26" t="n">
+      <c r="AC17" s="27" t="n">
         <v>130065358.295645</v>
       </c>
-      <c r="AD17" s="26" t="n">
+      <c r="AD17" s="27" t="n">
         <v>138221564.409731</v>
       </c>
-      <c r="AE17" s="26" t="n">
+      <c r="AE17" s="27" t="n">
         <v>134982842.860277</v>
       </c>
-      <c r="AF17" s="26" t="n">
+      <c r="AF17" s="27" t="n">
         <v>567267030.107956</v>
       </c>
-      <c r="AG17" s="26" t="n">
+      <c r="AG17" s="27" t="n">
         <v>993567024.518339</v>
       </c>
-      <c r="AH17" s="26" t="n">
+      <c r="AH17" s="27" t="n">
         <v>1054733613.76892</v>
       </c>
-      <c r="AI17" s="26" t="n">
+      <c r="AI17" s="27" t="n">
         <v>1200420238.37927</v>
       </c>
-      <c r="AJ17" s="26" t="n">
+      <c r="AJ17" s="27" t="n">
         <v>1276043983.69188</v>
       </c>
-      <c r="AK17" s="26" t="n">
+      <c r="AK17" s="27" t="n">
         <v>327643124.314858</v>
       </c>
-      <c r="AL17" s="26" t="n">
+      <c r="AL17" s="27" t="n">
         <v>965168691.875</v>
       </c>
-      <c r="AM17" s="26"/>
+      <c r="AM17" s="27"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -21620,16 +21620,16 @@
       <c r="B18" t="str">
         <f>N18</f>
       </c>
-      <c r="C18" s="26" t="str">
+      <c r="C18" s="27" t="str">
         <f>AI18</f>
       </c>
-      <c r="D18" s="26" t="str">
+      <c r="D18" s="27" t="str">
         <f>AK18</f>
       </c>
-      <c r="E18" s="26" t="str">
+      <c r="E18" s="27" t="str">
         <f>AL18</f>
       </c>
-      <c r="F18" s="26"/>
+      <c r="F18" s="27"/>
       <c r="G18" s="1" t="str">
         <f>AL18/AK18-1</f>
       </c>
@@ -21647,37 +21647,37 @@
       <c r="N18" t="s">
         <v>107</v>
       </c>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="26"/>
-      <c r="X18" s="26"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="26"/>
-      <c r="AA18" s="26" t="n">
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="27" t="n">
         <v>3709846.7500795</v>
       </c>
-      <c r="AB18" s="26" t="n">
+      <c r="AB18" s="27" t="n">
         <v>-103790.857395698</v>
       </c>
-      <c r="AC18" s="26" t="n">
+      <c r="AC18" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="AD18" s="26"/>
-      <c r="AE18" s="26"/>
-      <c r="AF18" s="26"/>
-      <c r="AG18" s="26"/>
-      <c r="AH18" s="26"/>
-      <c r="AI18" s="26"/>
-      <c r="AJ18" s="26"/>
-      <c r="AK18" s="26"/>
-      <c r="AL18" s="26"/>
-      <c r="AM18" s="26"/>
+      <c r="AD18" s="27"/>
+      <c r="AE18" s="27"/>
+      <c r="AF18" s="27"/>
+      <c r="AG18" s="27"/>
+      <c r="AH18" s="27"/>
+      <c r="AI18" s="27"/>
+      <c r="AJ18" s="27"/>
+      <c r="AK18" s="27"/>
+      <c r="AL18" s="27"/>
+      <c r="AM18" s="27"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -21686,16 +21686,16 @@
       <c r="B19" t="str">
         <f>N19</f>
       </c>
-      <c r="C19" s="26" t="str">
+      <c r="C19" s="27" t="str">
         <f>AI19</f>
       </c>
-      <c r="D19" s="26" t="str">
+      <c r="D19" s="27" t="str">
         <f>AK19</f>
       </c>
-      <c r="E19" s="26" t="str">
+      <c r="E19" s="27" t="str">
         <f>AL19</f>
       </c>
-      <c r="F19" s="26"/>
+      <c r="F19" s="27"/>
       <c r="G19" s="1" t="str">
         <f>AL19/AK19-1</f>
       </c>
@@ -21713,79 +21713,79 @@
       <c r="N19" t="s">
         <v>113</v>
       </c>
-      <c r="O19" s="26" t="n">
+      <c r="O19" s="27" t="n">
         <v>671130044.724945</v>
       </c>
-      <c r="P19" s="26" t="n">
+      <c r="P19" s="27" t="n">
         <v>570905583.114454</v>
       </c>
-      <c r="Q19" s="26" t="n">
+      <c r="Q19" s="27" t="n">
         <v>627560231.606834</v>
       </c>
-      <c r="R19" s="26" t="n">
+      <c r="R19" s="27" t="n">
         <v>519166081.625699</v>
       </c>
-      <c r="S19" s="26" t="n">
+      <c r="S19" s="27" t="n">
         <v>218772405.327859</v>
       </c>
-      <c r="T19" s="26" t="n">
+      <c r="T19" s="27" t="n">
         <v>118302073.019267</v>
       </c>
-      <c r="U19" s="26" t="n">
+      <c r="U19" s="27" t="n">
         <v>74477356.8078603</v>
       </c>
-      <c r="V19" s="26" t="n">
+      <c r="V19" s="27" t="n">
         <v>56087280.6333292</v>
       </c>
-      <c r="W19" s="26" t="n">
+      <c r="W19" s="27" t="n">
         <v>283161879.87861</v>
       </c>
-      <c r="X19" s="26" t="n">
+      <c r="X19" s="27" t="n">
         <v>700474406.004065</v>
       </c>
-      <c r="Y19" s="26" t="n">
+      <c r="Y19" s="27" t="n">
         <v>1260599838.53752</v>
       </c>
-      <c r="Z19" s="26" t="n">
+      <c r="Z19" s="27" t="n">
         <v>909460050.792516</v>
       </c>
-      <c r="AA19" s="26" t="n">
+      <c r="AA19" s="27" t="n">
         <v>666223205.584859</v>
       </c>
-      <c r="AB19" s="26" t="n">
+      <c r="AB19" s="27" t="n">
         <v>651160168.945446</v>
       </c>
-      <c r="AC19" s="26" t="n">
+      <c r="AC19" s="27" t="n">
         <v>912820475.551143</v>
       </c>
-      <c r="AD19" s="26" t="n">
+      <c r="AD19" s="27" t="n">
         <v>1002421406.28641</v>
       </c>
-      <c r="AE19" s="26" t="n">
+      <c r="AE19" s="27" t="n">
         <v>674290174.911787</v>
       </c>
-      <c r="AF19" s="26" t="n">
+      <c r="AF19" s="27" t="n">
         <v>649824225.375488</v>
       </c>
-      <c r="AG19" s="26" t="n">
+      <c r="AG19" s="27" t="n">
         <v>649538586.881449</v>
       </c>
-      <c r="AH19" s="26" t="n">
+      <c r="AH19" s="27" t="n">
         <v>189366448.688801</v>
       </c>
-      <c r="AI19" s="26" t="n">
+      <c r="AI19" s="27" t="n">
         <v>195936223.699008</v>
       </c>
-      <c r="AJ19" s="26" t="n">
+      <c r="AJ19" s="27" t="n">
         <v>133963554.858339</v>
       </c>
-      <c r="AK19" s="26" t="n">
+      <c r="AK19" s="27" t="n">
         <v>340501966.29442</v>
       </c>
-      <c r="AL19" s="26" t="n">
+      <c r="AL19" s="27" t="n">
         <v>224946227.4268</v>
       </c>
-      <c r="AM19" s="26"/>
+      <c r="AM19" s="27"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -21794,16 +21794,16 @@
       <c r="B20" t="str">
         <f>N20</f>
       </c>
-      <c r="C20" s="26" t="str">
+      <c r="C20" s="27" t="str">
         <f>AI20</f>
       </c>
-      <c r="D20" s="26" t="str">
+      <c r="D20" s="27" t="str">
         <f>AK20</f>
       </c>
-      <c r="E20" s="26" t="str">
+      <c r="E20" s="27" t="str">
         <f>AL20</f>
       </c>
-      <c r="F20" s="26"/>
+      <c r="F20" s="27"/>
       <c r="G20" s="1" t="str">
         <f>AL20/AK20-1</f>
       </c>
@@ -21821,61 +21821,61 @@
       <c r="N20" t="s">
         <v>107</v>
       </c>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
-      <c r="U20" s="26"/>
-      <c r="V20" s="26"/>
-      <c r="W20" s="26" t="n">
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="X20" s="26" t="n">
+      <c r="X20" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="Y20" s="26" t="n">
+      <c r="Y20" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="Z20" s="26" t="n">
+      <c r="Z20" s="27" t="n">
         <v>32040.0657332272</v>
       </c>
-      <c r="AA20" s="26" t="n">
+      <c r="AA20" s="27" t="n">
         <v>328446.150222485</v>
       </c>
-      <c r="AB20" s="26"/>
-      <c r="AC20" s="26" t="n">
+      <c r="AB20" s="27"/>
+      <c r="AC20" s="27" t="n">
         <v>1479006.59267125</v>
       </c>
-      <c r="AD20" s="26" t="n">
+      <c r="AD20" s="27" t="n">
         <v>-22952.8636404553</v>
       </c>
-      <c r="AE20" s="26" t="n">
+      <c r="AE20" s="27" t="n">
         <v>1599.17422487555</v>
       </c>
-      <c r="AF20" s="26" t="n">
+      <c r="AF20" s="27" t="n">
         <v>9074682.06859339</v>
       </c>
-      <c r="AG20" s="26" t="n">
+      <c r="AG20" s="27" t="n">
         <v>300835.75866751</v>
       </c>
-      <c r="AH20" s="26" t="n">
+      <c r="AH20" s="27" t="n">
         <v>101609.023301843</v>
       </c>
-      <c r="AI20" s="26" t="n">
+      <c r="AI20" s="27" t="n">
         <v>24562.1228616275</v>
       </c>
-      <c r="AJ20" s="26" t="n">
+      <c r="AJ20" s="27" t="n">
         <v>405328.346884603</v>
       </c>
-      <c r="AK20" s="26" t="n">
+      <c r="AK20" s="27" t="n">
         <v>66516.0400461046</v>
       </c>
-      <c r="AL20" s="26" t="n">
+      <c r="AL20" s="27" t="n">
         <v>1089571.6679</v>
       </c>
-      <c r="AM20" s="26"/>
+      <c r="AM20" s="27"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -21884,16 +21884,16 @@
       <c r="B21" t="str">
         <f>N21</f>
       </c>
-      <c r="C21" s="26" t="str">
+      <c r="C21" s="27" t="str">
         <f>AI21</f>
       </c>
-      <c r="D21" s="26" t="str">
+      <c r="D21" s="27" t="str">
         <f>AK21</f>
       </c>
-      <c r="E21" s="26" t="str">
+      <c r="E21" s="27" t="str">
         <f>AL21</f>
       </c>
-      <c r="F21" s="26"/>
+      <c r="F21" s="27"/>
       <c r="G21" s="1" t="str">
         <f>AL21/AK21-1</f>
       </c>
@@ -21911,79 +21911,79 @@
       <c r="N21" t="s">
         <v>113</v>
       </c>
-      <c r="O21" s="26" t="n">
+      <c r="O21" s="27" t="n">
         <v>920011377.240056</v>
       </c>
-      <c r="P21" s="26" t="n">
+      <c r="P21" s="27" t="n">
         <v>1068804178.51338</v>
       </c>
-      <c r="Q21" s="26" t="n">
+      <c r="Q21" s="27" t="n">
         <v>2278313971.68038</v>
       </c>
-      <c r="R21" s="26" t="n">
+      <c r="R21" s="27" t="n">
         <v>1314182313.45545</v>
       </c>
-      <c r="S21" s="26" t="n">
+      <c r="S21" s="27" t="n">
         <v>432992232.292929</v>
       </c>
-      <c r="T21" s="26" t="n">
+      <c r="T21" s="27" t="n">
         <v>2394157457.34838</v>
       </c>
-      <c r="U21" s="26" t="n">
+      <c r="U21" s="27" t="n">
         <v>1143204740.6086</v>
       </c>
-      <c r="V21" s="26" t="n">
+      <c r="V21" s="27" t="n">
         <v>103016588.539979</v>
       </c>
-      <c r="W21" s="26" t="n">
+      <c r="W21" s="27" t="n">
         <v>2687277024.39891</v>
       </c>
-      <c r="X21" s="26" t="n">
+      <c r="X21" s="27" t="n">
         <v>2747476959.29644</v>
       </c>
-      <c r="Y21" s="26" t="n">
+      <c r="Y21" s="27" t="n">
         <v>2126802365.57939</v>
       </c>
-      <c r="Z21" s="26" t="n">
+      <c r="Z21" s="27" t="n">
         <v>3622030816.31332</v>
       </c>
-      <c r="AA21" s="26" t="n">
+      <c r="AA21" s="27" t="n">
         <v>1595485000.28951</v>
       </c>
-      <c r="AB21" s="26" t="n">
+      <c r="AB21" s="27" t="n">
         <v>3790198396.21208</v>
       </c>
-      <c r="AC21" s="26" t="n">
+      <c r="AC21" s="27" t="n">
         <v>3937035512.29619</v>
       </c>
-      <c r="AD21" s="26" t="n">
+      <c r="AD21" s="27" t="n">
         <v>1694586798.54266</v>
       </c>
-      <c r="AE21" s="26" t="n">
+      <c r="AE21" s="27" t="n">
         <v>311067182.825565</v>
       </c>
-      <c r="AF21" s="26" t="n">
+      <c r="AF21" s="27" t="n">
         <v>201622854.876921</v>
       </c>
-      <c r="AG21" s="26" t="n">
+      <c r="AG21" s="27" t="n">
         <v>277523211.229546</v>
       </c>
-      <c r="AH21" s="26" t="n">
+      <c r="AH21" s="27" t="n">
         <v>395454241.548094</v>
       </c>
-      <c r="AI21" s="26" t="n">
+      <c r="AI21" s="27" t="n">
         <v>1670638472.96543</v>
       </c>
-      <c r="AJ21" s="26" t="n">
+      <c r="AJ21" s="27" t="n">
         <v>8038054342.62638</v>
       </c>
-      <c r="AK21" s="26" t="n">
+      <c r="AK21" s="27" t="n">
         <v>280205649.137431</v>
       </c>
-      <c r="AL21" s="26" t="n">
+      <c r="AL21" s="27" t="n">
         <v>272695242.7823</v>
       </c>
-      <c r="AM21" s="26"/>
+      <c r="AM21" s="27"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -21992,16 +21992,16 @@
       <c r="B22" t="str">
         <f>N22</f>
       </c>
-      <c r="C22" s="26" t="str">
+      <c r="C22" s="27" t="str">
         <f>AI22</f>
       </c>
-      <c r="D22" s="26" t="str">
+      <c r="D22" s="27" t="str">
         <f>AK22</f>
       </c>
-      <c r="E22" s="26" t="str">
+      <c r="E22" s="27" t="str">
         <f>AL22</f>
       </c>
-      <c r="F22" s="26"/>
+      <c r="F22" s="27"/>
       <c r="G22" s="1" t="str">
         <f>AL22/AK22-1</f>
       </c>
@@ -22019,37 +22019,37 @@
       <c r="N22" t="s">
         <v>101</v>
       </c>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="26"/>
-      <c r="V22" s="26"/>
-      <c r="W22" s="26"/>
-      <c r="X22" s="26"/>
-      <c r="Y22" s="26"/>
-      <c r="Z22" s="26"/>
-      <c r="AA22" s="26"/>
-      <c r="AB22" s="26"/>
-      <c r="AC22" s="26"/>
-      <c r="AD22" s="26"/>
-      <c r="AE22" s="26"/>
-      <c r="AF22" s="26"/>
-      <c r="AG22" s="26"/>
-      <c r="AH22" s="26"/>
-      <c r="AI22" s="26"/>
-      <c r="AJ22" s="26" t="n">
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="27"/>
+      <c r="AC22" s="27"/>
+      <c r="AD22" s="27"/>
+      <c r="AE22" s="27"/>
+      <c r="AF22" s="27"/>
+      <c r="AG22" s="27"/>
+      <c r="AH22" s="27"/>
+      <c r="AI22" s="27"/>
+      <c r="AJ22" s="27" t="n">
         <v>19209656.7738677</v>
       </c>
-      <c r="AK22" s="26" t="n">
+      <c r="AK22" s="27" t="n">
         <v>17844100.5483761</v>
       </c>
-      <c r="AL22" s="26" t="n">
+      <c r="AL22" s="27" t="n">
         <v>66464625.3829</v>
       </c>
-      <c r="AM22" s="26"/>
+      <c r="AM22" s="27"/>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -22058,16 +22058,16 @@
       <c r="B23" t="str">
         <f>N23</f>
       </c>
-      <c r="C23" s="26" t="str">
+      <c r="C23" s="27" t="str">
         <f>AI23</f>
       </c>
-      <c r="D23" s="26" t="str">
+      <c r="D23" s="27" t="str">
         <f>AK23</f>
       </c>
-      <c r="E23" s="26" t="str">
+      <c r="E23" s="27" t="str">
         <f>AL23</f>
       </c>
-      <c r="F23" s="26"/>
+      <c r="F23" s="27"/>
       <c r="G23" s="1" t="str">
         <f>AL23/AK23-1</f>
       </c>
@@ -22085,79 +22085,79 @@
       <c r="N23" t="s">
         <v>113</v>
       </c>
-      <c r="O23" s="26" t="n">
+      <c r="O23" s="27" t="n">
         <v>107842459.647253</v>
       </c>
-      <c r="P23" s="26" t="n">
+      <c r="P23" s="27" t="n">
         <v>82556981.5931506</v>
       </c>
-      <c r="Q23" s="26" t="n">
+      <c r="Q23" s="27" t="n">
         <v>22481693.6368648</v>
       </c>
-      <c r="R23" s="26" t="n">
+      <c r="R23" s="27" t="n">
         <v>200023151.917637</v>
       </c>
-      <c r="S23" s="26" t="n">
+      <c r="S23" s="27" t="n">
         <v>266872614.610659</v>
       </c>
-      <c r="T23" s="26" t="n">
+      <c r="T23" s="27" t="n">
         <v>141816686.702248</v>
       </c>
-      <c r="U23" s="26" t="n">
+      <c r="U23" s="27" t="n">
         <v>108743826.528041</v>
       </c>
-      <c r="V23" s="26" t="n">
+      <c r="V23" s="27" t="n">
         <v>186734670.666863</v>
       </c>
-      <c r="W23" s="26" t="n">
+      <c r="W23" s="27" t="n">
         <v>322297421.472713</v>
       </c>
-      <c r="X23" s="26" t="n">
+      <c r="X23" s="27" t="n">
         <v>415406866.648108</v>
       </c>
-      <c r="Y23" s="26" t="n">
+      <c r="Y23" s="27" t="n">
         <v>843276437.805503</v>
       </c>
-      <c r="Z23" s="26" t="n">
+      <c r="Z23" s="27" t="n">
         <v>850814445.684947</v>
       </c>
-      <c r="AA23" s="26" t="n">
+      <c r="AA23" s="27" t="n">
         <v>779688347.098058</v>
       </c>
-      <c r="AB23" s="26" t="n">
+      <c r="AB23" s="27" t="n">
         <v>844398972.17768</v>
       </c>
-      <c r="AC23" s="26" t="n">
+      <c r="AC23" s="27" t="n">
         <v>555036719.286072</v>
       </c>
-      <c r="AD23" s="26" t="n">
+      <c r="AD23" s="27" t="n">
         <v>640698318.198843</v>
       </c>
-      <c r="AE23" s="26" t="n">
+      <c r="AE23" s="27" t="n">
         <v>856909971.773057</v>
       </c>
-      <c r="AF23" s="26" t="n">
+      <c r="AF23" s="27" t="n">
         <v>1127150163.91419</v>
       </c>
-      <c r="AG23" s="26" t="n">
+      <c r="AG23" s="27" t="n">
         <v>813628065.877135</v>
       </c>
-      <c r="AH23" s="26" t="n">
+      <c r="AH23" s="27" t="n">
         <v>1275927940.64558</v>
       </c>
-      <c r="AI23" s="26" t="n">
+      <c r="AI23" s="27" t="n">
         <v>1452405988.5093</v>
       </c>
-      <c r="AJ23" s="26" t="n">
+      <c r="AJ23" s="27" t="n">
         <v>1068487182.28569</v>
       </c>
-      <c r="AK23" s="26" t="n">
+      <c r="AK23" s="27" t="n">
         <v>1140134795.39803</v>
       </c>
-      <c r="AL23" s="26" t="n">
+      <c r="AL23" s="27" t="n">
         <v>1813922907.9572</v>
       </c>
-      <c r="AM23" s="26"/>
+      <c r="AM23" s="27"/>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -22166,16 +22166,16 @@
       <c r="B24" t="str">
         <f>N24</f>
       </c>
-      <c r="C24" s="26" t="str">
+      <c r="C24" s="27" t="str">
         <f>AI24</f>
       </c>
-      <c r="D24" s="26" t="str">
+      <c r="D24" s="27" t="str">
         <f>AK24</f>
       </c>
-      <c r="E24" s="26" t="str">
+      <c r="E24" s="27" t="str">
         <f>AL24</f>
       </c>
-      <c r="F24" s="26"/>
+      <c r="F24" s="27"/>
       <c r="G24" s="1" t="str">
         <f>AL24/AK24-1</f>
       </c>
@@ -22193,75 +22193,75 @@
       <c r="N24" t="s">
         <v>113</v>
       </c>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26" t="n">
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27" t="n">
         <v>500949.16616074</v>
       </c>
-      <c r="R24" s="26" t="n">
+      <c r="R24" s="27" t="n">
         <v>1421347.21043611</v>
       </c>
-      <c r="S24" s="26" t="n">
+      <c r="S24" s="27" t="n">
         <v>5361383.98554956</v>
       </c>
-      <c r="T24" s="26" t="n">
+      <c r="T24" s="27" t="n">
         <v>26297114.4989144</v>
       </c>
-      <c r="U24" s="26" t="n">
+      <c r="U24" s="27" t="n">
         <v>12353385.0704913</v>
       </c>
-      <c r="V24" s="26" t="n">
+      <c r="V24" s="27" t="n">
         <v>11072724.4866451</v>
       </c>
-      <c r="W24" s="26" t="n">
+      <c r="W24" s="27" t="n">
         <v>22635387.9657976</v>
       </c>
-      <c r="X24" s="26" t="n">
+      <c r="X24" s="27" t="n">
         <v>31649377.8563304</v>
       </c>
-      <c r="Y24" s="26" t="n">
+      <c r="Y24" s="27" t="n">
         <v>69082762.8801099</v>
       </c>
-      <c r="Z24" s="26" t="n">
+      <c r="Z24" s="27" t="n">
         <v>128686448.144607</v>
       </c>
-      <c r="AA24" s="26" t="n">
+      <c r="AA24" s="27" t="n">
         <v>325700106.458828</v>
       </c>
-      <c r="AB24" s="26" t="n">
+      <c r="AB24" s="27" t="n">
         <v>278518343.995549</v>
       </c>
-      <c r="AC24" s="26" t="n">
+      <c r="AC24" s="27" t="n">
         <v>144342756.273598</v>
       </c>
-      <c r="AD24" s="26" t="n">
+      <c r="AD24" s="27" t="n">
         <v>118176555.747178</v>
       </c>
-      <c r="AE24" s="26" t="n">
+      <c r="AE24" s="27" t="n">
         <v>94268986.8709606</v>
       </c>
-      <c r="AF24" s="26" t="n">
+      <c r="AF24" s="27" t="n">
         <v>118450998.461128</v>
       </c>
-      <c r="AG24" s="26" t="n">
+      <c r="AG24" s="27" t="n">
         <v>258474156.294841</v>
       </c>
-      <c r="AH24" s="26" t="n">
+      <c r="AH24" s="27" t="n">
         <v>102898869.604246</v>
       </c>
-      <c r="AI24" s="26" t="n">
+      <c r="AI24" s="27" t="n">
         <v>157248779.412383</v>
       </c>
-      <c r="AJ24" s="26" t="n">
+      <c r="AJ24" s="27" t="n">
         <v>175345363.055805</v>
       </c>
-      <c r="AK24" s="26" t="n">
+      <c r="AK24" s="27" t="n">
         <v>267336269.068938</v>
       </c>
-      <c r="AL24" s="26" t="n">
+      <c r="AL24" s="27" t="n">
         <v>423359381.986</v>
       </c>
-      <c r="AM24" s="26"/>
+      <c r="AM24" s="27"/>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -22270,16 +22270,16 @@
       <c r="B25" t="str">
         <f>N25</f>
       </c>
-      <c r="C25" s="26" t="str">
+      <c r="C25" s="27" t="str">
         <f>AI25</f>
       </c>
-      <c r="D25" s="26" t="str">
+      <c r="D25" s="27" t="str">
         <f>AK25</f>
       </c>
-      <c r="E25" s="26" t="str">
+      <c r="E25" s="27" t="str">
         <f>AL25</f>
       </c>
-      <c r="F25" s="26"/>
+      <c r="F25" s="27"/>
       <c r="G25" s="1" t="str">
         <f>AL25/AK25-1</f>
       </c>
@@ -22297,55 +22297,55 @@
       <c r="N25" t="s">
         <v>100</v>
       </c>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="26"/>
-      <c r="U25" s="26"/>
-      <c r="V25" s="26"/>
-      <c r="W25" s="26"/>
-      <c r="X25" s="26"/>
-      <c r="Y25" s="26"/>
-      <c r="Z25" s="26"/>
-      <c r="AA25" s="26" t="n">
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="27"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="27" t="n">
         <v>125000163.703681</v>
       </c>
-      <c r="AB25" s="26" t="n">
+      <c r="AB25" s="27" t="n">
         <v>1935898147.18375</v>
       </c>
-      <c r="AC25" s="26" t="n">
+      <c r="AC25" s="27" t="n">
         <v>1790916506.22487</v>
       </c>
-      <c r="AD25" s="26" t="n">
+      <c r="AD25" s="27" t="n">
         <v>1538167312.90319</v>
       </c>
-      <c r="AE25" s="26" t="n">
+      <c r="AE25" s="27" t="n">
         <v>1609352726.59283</v>
       </c>
-      <c r="AF25" s="26" t="n">
+      <c r="AF25" s="27" t="n">
         <v>2236356244.3371</v>
       </c>
-      <c r="AG25" s="26" t="n">
+      <c r="AG25" s="27" t="n">
         <v>2166925748.75746</v>
       </c>
-      <c r="AH25" s="26" t="n">
+      <c r="AH25" s="27" t="n">
         <v>3511954025.72948</v>
       </c>
-      <c r="AI25" s="26" t="n">
+      <c r="AI25" s="27" t="n">
         <v>4090629028.34183</v>
       </c>
-      <c r="AJ25" s="26" t="n">
+      <c r="AJ25" s="27" t="n">
         <v>1681840936.61825</v>
       </c>
-      <c r="AK25" s="26" t="n">
+      <c r="AK25" s="27" t="n">
         <v>2065826953.45297</v>
       </c>
-      <c r="AL25" s="26" t="n">
+      <c r="AL25" s="27" t="n">
         <v>5182942540.7032</v>
       </c>
-      <c r="AM25" s="26"/>
+      <c r="AM25" s="27"/>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -22354,16 +22354,16 @@
       <c r="B26" t="str">
         <f>N26</f>
       </c>
-      <c r="C26" s="26" t="str">
+      <c r="C26" s="27" t="str">
         <f>AI26</f>
       </c>
-      <c r="D26" s="26" t="str">
+      <c r="D26" s="27" t="str">
         <f>AK26</f>
       </c>
-      <c r="E26" s="26" t="str">
+      <c r="E26" s="27" t="str">
         <f>AL26</f>
       </c>
-      <c r="F26" s="26"/>
+      <c r="F26" s="27"/>
       <c r="G26" s="1" t="str">
         <f>AL26/AK26-1</f>
       </c>
@@ -22381,35 +22381,35 @@
       <c r="N26" t="s">
         <v>107</v>
       </c>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="26"/>
-      <c r="V26" s="26"/>
-      <c r="W26" s="26"/>
-      <c r="X26" s="26" t="n">
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="27"/>
+      <c r="U26" s="27"/>
+      <c r="V26" s="27"/>
+      <c r="W26" s="27"/>
+      <c r="X26" s="27" t="n">
         <v>4486.42603499513</v>
       </c>
-      <c r="Y26" s="26"/>
-      <c r="Z26" s="26" t="n">
+      <c r="Y26" s="27"/>
+      <c r="Z26" s="27" t="n">
         <v>7060.95153928015</v>
       </c>
-      <c r="AA26" s="26"/>
-      <c r="AB26" s="26"/>
-      <c r="AC26" s="26"/>
-      <c r="AD26" s="26"/>
-      <c r="AE26" s="26"/>
-      <c r="AF26" s="26"/>
-      <c r="AG26" s="26"/>
-      <c r="AH26" s="26"/>
-      <c r="AI26" s="26"/>
-      <c r="AJ26" s="26"/>
-      <c r="AK26" s="26"/>
-      <c r="AL26" s="26"/>
-      <c r="AM26" s="26"/>
+      <c r="AA26" s="27"/>
+      <c r="AB26" s="27"/>
+      <c r="AC26" s="27"/>
+      <c r="AD26" s="27"/>
+      <c r="AE26" s="27"/>
+      <c r="AF26" s="27"/>
+      <c r="AG26" s="27"/>
+      <c r="AH26" s="27"/>
+      <c r="AI26" s="27"/>
+      <c r="AJ26" s="27"/>
+      <c r="AK26" s="27"/>
+      <c r="AL26" s="27"/>
+      <c r="AM26" s="27"/>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -22418,16 +22418,16 @@
       <c r="B27" t="str">
         <f>N27</f>
       </c>
-      <c r="C27" s="26" t="str">
+      <c r="C27" s="27" t="str">
         <f>AI27</f>
       </c>
-      <c r="D27" s="26" t="str">
+      <c r="D27" s="27" t="str">
         <f>AK27</f>
       </c>
-      <c r="E27" s="26" t="str">
+      <c r="E27" s="27" t="str">
         <f>AL27</f>
       </c>
-      <c r="F27" s="26"/>
+      <c r="F27" s="27"/>
       <c r="G27" s="1" t="str">
         <f>AL27/AK27-1</f>
       </c>
@@ -22445,79 +22445,79 @@
       <c r="N27" t="s">
         <v>113</v>
       </c>
-      <c r="O27" s="26" t="n">
+      <c r="O27" s="27" t="n">
         <v>1698942072.72133</v>
       </c>
-      <c r="P27" s="26" t="n">
+      <c r="P27" s="27" t="n">
         <v>667231689.746218</v>
       </c>
-      <c r="Q27" s="26" t="n">
+      <c r="Q27" s="27" t="n">
         <v>229541392.802605</v>
       </c>
-      <c r="R27" s="26" t="n">
+      <c r="R27" s="27" t="n">
         <v>486241383.126826</v>
       </c>
-      <c r="S27" s="26" t="n">
+      <c r="S27" s="27" t="n">
         <v>253193877.894965</v>
       </c>
-      <c r="T27" s="26" t="n">
+      <c r="T27" s="27" t="n">
         <v>264367639.007765</v>
       </c>
-      <c r="U27" s="26" t="n">
+      <c r="U27" s="27" t="n">
         <v>125002327.636753</v>
       </c>
-      <c r="V27" s="26" t="n">
+      <c r="V27" s="27" t="n">
         <v>150089414.363696</v>
       </c>
-      <c r="W27" s="26" t="n">
+      <c r="W27" s="27" t="n">
         <v>156376649.404194</v>
       </c>
-      <c r="X27" s="26" t="n">
+      <c r="X27" s="27" t="n">
         <v>199993240.767862</v>
       </c>
-      <c r="Y27" s="26" t="n">
+      <c r="Y27" s="27" t="n">
         <v>352434737.714835</v>
       </c>
-      <c r="Z27" s="26" t="n">
+      <c r="Z27" s="27" t="n">
         <v>380434494.637766</v>
       </c>
-      <c r="AA27" s="26" t="n">
+      <c r="AA27" s="27" t="n">
         <v>190225792.981314</v>
       </c>
-      <c r="AB27" s="26" t="n">
+      <c r="AB27" s="27" t="n">
         <v>225966566.606211</v>
       </c>
-      <c r="AC27" s="26" t="n">
+      <c r="AC27" s="27" t="n">
         <v>739024872.525312</v>
       </c>
-      <c r="AD27" s="26" t="n">
+      <c r="AD27" s="27" t="n">
         <v>361043114.103746</v>
       </c>
-      <c r="AE27" s="26" t="n">
+      <c r="AE27" s="27" t="n">
         <v>907288272.127476</v>
       </c>
-      <c r="AF27" s="26" t="n">
+      <c r="AF27" s="27" t="n">
         <v>239157821.384092</v>
       </c>
-      <c r="AG27" s="26" t="n">
+      <c r="AG27" s="27" t="n">
         <v>371016642.551373</v>
       </c>
-      <c r="AH27" s="26" t="n">
+      <c r="AH27" s="27" t="n">
         <v>236180652.3815</v>
       </c>
-      <c r="AI27" s="26" t="n">
+      <c r="AI27" s="27" t="n">
         <v>375701740.003395</v>
       </c>
-      <c r="AJ27" s="26" t="n">
+      <c r="AJ27" s="27" t="n">
         <v>124981625.204131</v>
       </c>
-      <c r="AK27" s="26" t="n">
+      <c r="AK27" s="27" t="n">
         <v>155254674.062914</v>
       </c>
-      <c r="AL27" s="26" t="n">
+      <c r="AL27" s="27" t="n">
         <v>160257277.9173</v>
       </c>
-      <c r="AM27" s="26"/>
+      <c r="AM27" s="27"/>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -22526,16 +22526,16 @@
       <c r="B28" t="str">
         <f>N28</f>
       </c>
-      <c r="C28" s="26" t="str">
+      <c r="C28" s="27" t="str">
         <f>AI28</f>
       </c>
-      <c r="D28" s="26" t="str">
+      <c r="D28" s="27" t="str">
         <f>AK28</f>
       </c>
-      <c r="E28" s="26" t="str">
+      <c r="E28" s="27" t="str">
         <f>AL28</f>
       </c>
-      <c r="F28" s="26"/>
+      <c r="F28" s="27"/>
       <c r="G28" s="1" t="str">
         <f>AL28/AK28-1</f>
       </c>
@@ -22553,61 +22553,61 @@
       <c r="N28" t="s">
         <v>114</v>
       </c>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="26"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="26"/>
-      <c r="U28" s="26"/>
-      <c r="V28" s="26"/>
-      <c r="W28" s="26"/>
-      <c r="X28" s="26" t="n">
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="27"/>
+      <c r="V28" s="27"/>
+      <c r="W28" s="27"/>
+      <c r="X28" s="27" t="n">
         <v>3782387076.99513</v>
       </c>
-      <c r="Y28" s="26" t="n">
+      <c r="Y28" s="27" t="n">
         <v>3387582400.12545</v>
       </c>
-      <c r="Z28" s="26" t="n">
+      <c r="Z28" s="27" t="n">
         <v>4410410862.72054</v>
       </c>
-      <c r="AA28" s="26" t="n">
+      <c r="AA28" s="27" t="n">
         <v>3654380675.46002</v>
       </c>
-      <c r="AB28" s="26" t="n">
+      <c r="AB28" s="27" t="n">
         <v>3257988992.66375</v>
       </c>
-      <c r="AC28" s="26" t="n">
+      <c r="AC28" s="27" t="n">
         <v>1803980241.77711</v>
       </c>
-      <c r="AD28" s="26" t="n">
+      <c r="AD28" s="27" t="n">
         <v>123539349.430913</v>
       </c>
-      <c r="AE28" s="26" t="n">
+      <c r="AE28" s="27" t="n">
         <v>339566824.935044</v>
       </c>
-      <c r="AF28" s="26" t="n">
+      <c r="AF28" s="27" t="n">
         <v>120213554.580293</v>
       </c>
-      <c r="AG28" s="26" t="n">
+      <c r="AG28" s="27" t="n">
         <v>113022221.000859</v>
       </c>
-      <c r="AH28" s="26" t="n">
+      <c r="AH28" s="27" t="n">
         <v>137986537.460037</v>
       </c>
-      <c r="AI28" s="26" t="n">
+      <c r="AI28" s="27" t="n">
         <v>83996828.7864444</v>
       </c>
-      <c r="AJ28" s="26" t="n">
+      <c r="AJ28" s="27" t="n">
         <v>124947692.277727</v>
       </c>
-      <c r="AK28" s="26" t="n">
+      <c r="AK28" s="27" t="n">
         <v>80673877.3906123</v>
       </c>
-      <c r="AL28" s="26" t="n">
+      <c r="AL28" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="AM28" s="26"/>
+      <c r="AM28" s="27"/>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -22616,16 +22616,16 @@
       <c r="B29" t="str">
         <f>N29</f>
       </c>
-      <c r="C29" s="26" t="str">
+      <c r="C29" s="27" t="str">
         <f>AI29</f>
       </c>
-      <c r="D29" s="26" t="str">
+      <c r="D29" s="27" t="str">
         <f>AK29</f>
       </c>
-      <c r="E29" s="26" t="str">
+      <c r="E29" s="27" t="str">
         <f>AL29</f>
       </c>
-      <c r="F29" s="26"/>
+      <c r="F29" s="27"/>
       <c r="G29" s="1" t="str">
         <f>AL29/AK29-1</f>
       </c>
@@ -22643,69 +22643,69 @@
       <c r="N29" t="s">
         <v>113</v>
       </c>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26" t="n">
+      <c r="O29" s="27"/>
+      <c r="P29" s="27" t="n">
         <v>5539683.33692797</v>
       </c>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="26"/>
-      <c r="S29" s="26" t="n">
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27" t="n">
         <v>6825742.08321724</v>
       </c>
-      <c r="T29" s="26"/>
-      <c r="U29" s="26"/>
-      <c r="V29" s="26" t="n">
+      <c r="T29" s="27"/>
+      <c r="U29" s="27"/>
+      <c r="V29" s="27" t="n">
         <v>6314582.84521379</v>
       </c>
-      <c r="W29" s="26" t="n">
+      <c r="W29" s="27" t="n">
         <v>35852222.5157703</v>
       </c>
-      <c r="X29" s="26" t="n">
+      <c r="X29" s="27" t="n">
         <v>86097755.4160805</v>
       </c>
-      <c r="Y29" s="26" t="n">
+      <c r="Y29" s="27" t="n">
         <v>340123073.330009</v>
       </c>
-      <c r="Z29" s="26" t="n">
+      <c r="Z29" s="27" t="n">
         <v>690048328.860365</v>
       </c>
-      <c r="AA29" s="26" t="n">
+      <c r="AA29" s="27" t="n">
         <v>1539310026.41604</v>
       </c>
-      <c r="AB29" s="26" t="n">
+      <c r="AB29" s="27" t="n">
         <v>42919830.0068344</v>
       </c>
-      <c r="AC29" s="26" t="n">
+      <c r="AC29" s="27" t="n">
         <v>31864603.0937122</v>
       </c>
-      <c r="AD29" s="26" t="n">
+      <c r="AD29" s="27" t="n">
         <v>128760602.731185</v>
       </c>
-      <c r="AE29" s="26" t="n">
+      <c r="AE29" s="27" t="n">
         <v>129737430.059346</v>
       </c>
-      <c r="AF29" s="26" t="n">
+      <c r="AF29" s="27" t="n">
         <v>104426431.698331</v>
       </c>
-      <c r="AG29" s="26" t="n">
+      <c r="AG29" s="27" t="n">
         <v>70540909.6698193</v>
       </c>
-      <c r="AH29" s="26" t="n">
+      <c r="AH29" s="27" t="n">
         <v>235407372.418415</v>
       </c>
-      <c r="AI29" s="26" t="n">
+      <c r="AI29" s="27" t="n">
         <v>238596052.902256</v>
       </c>
-      <c r="AJ29" s="26" t="n">
+      <c r="AJ29" s="27" t="n">
         <v>92717804.8975845</v>
       </c>
-      <c r="AK29" s="26" t="n">
+      <c r="AK29" s="27" t="n">
         <v>106530961.41211</v>
       </c>
-      <c r="AL29" s="26" t="n">
+      <c r="AL29" s="27" t="n">
         <v>96650466.9706</v>
       </c>
-      <c r="AM29" s="26"/>
+      <c r="AM29" s="27"/>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -22714,16 +22714,16 @@
       <c r="B30" t="str">
         <f>N30</f>
       </c>
-      <c r="C30" s="26" t="str">
+      <c r="C30" s="27" t="str">
         <f>AI30</f>
       </c>
-      <c r="D30" s="26" t="str">
+      <c r="D30" s="27" t="str">
         <f>AK30</f>
       </c>
-      <c r="E30" s="26" t="str">
+      <c r="E30" s="27" t="str">
         <f>AL30</f>
       </c>
-      <c r="F30" s="26"/>
+      <c r="F30" s="27"/>
       <c r="G30" s="1" t="str">
         <f>AL30/AK30-1</f>
       </c>
@@ -22739,43 +22739,43 @@
         <v>58</v>
       </c>
       <c r="N30"/>
-      <c r="O30" s="26" t="n">
+      <c r="O30" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="26" t="n">
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27" t="n">
         <v>459601.468371854</v>
       </c>
-      <c r="R30" s="26"/>
-      <c r="S30" s="26"/>
-      <c r="T30" s="26"/>
-      <c r="U30" s="26"/>
-      <c r="V30" s="26"/>
-      <c r="W30" s="26" t="n">
+      <c r="R30" s="27"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="27"/>
+      <c r="U30" s="27"/>
+      <c r="V30" s="27"/>
+      <c r="W30" s="27" t="n">
         <v>-137465.716340228</v>
       </c>
-      <c r="X30" s="26"/>
-      <c r="Y30" s="26"/>
-      <c r="Z30" s="26"/>
-      <c r="AA30" s="26"/>
-      <c r="AB30" s="26"/>
-      <c r="AC30" s="26"/>
-      <c r="AD30" s="26"/>
-      <c r="AE30" s="26"/>
-      <c r="AF30" s="26" t="n">
+      <c r="X30" s="27"/>
+      <c r="Y30" s="27"/>
+      <c r="Z30" s="27"/>
+      <c r="AA30" s="27"/>
+      <c r="AB30" s="27"/>
+      <c r="AC30" s="27"/>
+      <c r="AD30" s="27"/>
+      <c r="AE30" s="27"/>
+      <c r="AF30" s="27" t="n">
         <v>24414.0000046899</v>
       </c>
-      <c r="AG30" s="26" t="n">
+      <c r="AG30" s="27" t="n">
         <v>-278246.133397523</v>
       </c>
-      <c r="AH30" s="26"/>
-      <c r="AI30" s="26" t="n">
+      <c r="AH30" s="27"/>
+      <c r="AI30" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="AJ30" s="26"/>
-      <c r="AK30" s="26"/>
-      <c r="AL30" s="26"/>
-      <c r="AM30" s="26"/>
+      <c r="AJ30" s="27"/>
+      <c r="AK30" s="27"/>
+      <c r="AL30" s="27"/>
+      <c r="AM30" s="27"/>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -22784,16 +22784,16 @@
       <c r="B31" t="str">
         <f>N31</f>
       </c>
-      <c r="C31" s="26" t="str">
+      <c r="C31" s="27" t="str">
         <f>AI31</f>
       </c>
-      <c r="D31" s="26" t="str">
+      <c r="D31" s="27" t="str">
         <f>AK31</f>
       </c>
-      <c r="E31" s="26" t="str">
+      <c r="E31" s="27" t="str">
         <f>AL31</f>
       </c>
-      <c r="F31" s="26"/>
+      <c r="F31" s="27"/>
       <c r="G31" s="1" t="str">
         <f>AL31/AK31-1</f>
       </c>
@@ -22811,79 +22811,79 @@
       <c r="N31" t="s">
         <v>47</v>
       </c>
-      <c r="O31" s="26" t="str">
+      <c r="O31" s="27" t="str">
         <f>Sum(O2:O30)</f>
       </c>
-      <c r="P31" s="26" t="str">
+      <c r="P31" s="27" t="str">
         <f>Sum(P2:P30)</f>
       </c>
-      <c r="Q31" s="26" t="str">
+      <c r="Q31" s="27" t="str">
         <f>Sum(Q2:Q30)</f>
       </c>
-      <c r="R31" s="26" t="str">
+      <c r="R31" s="27" t="str">
         <f>Sum(R2:R30)</f>
       </c>
-      <c r="S31" s="26" t="str">
+      <c r="S31" s="27" t="str">
         <f>Sum(S2:S30)</f>
       </c>
-      <c r="T31" s="26" t="str">
+      <c r="T31" s="27" t="str">
         <f>Sum(T2:T30)</f>
       </c>
-      <c r="U31" s="26" t="str">
+      <c r="U31" s="27" t="str">
         <f>Sum(U2:U30)</f>
       </c>
-      <c r="V31" s="26" t="str">
+      <c r="V31" s="27" t="str">
         <f>Sum(V2:V30)</f>
       </c>
-      <c r="W31" s="26" t="str">
+      <c r="W31" s="27" t="str">
         <f>Sum(W2:W30)</f>
       </c>
-      <c r="X31" s="26" t="str">
+      <c r="X31" s="27" t="str">
         <f>Sum(X2:X30)</f>
       </c>
-      <c r="Y31" s="26" t="str">
+      <c r="Y31" s="27" t="str">
         <f>Sum(Y2:Y30)</f>
       </c>
-      <c r="Z31" s="26" t="str">
+      <c r="Z31" s="27" t="str">
         <f>Sum(Z2:Z30)</f>
       </c>
-      <c r="AA31" s="26" t="str">
+      <c r="AA31" s="27" t="str">
         <f>Sum(AA2:AA30)</f>
       </c>
-      <c r="AB31" s="26" t="str">
+      <c r="AB31" s="27" t="str">
         <f>Sum(AB2:AB30)</f>
       </c>
-      <c r="AC31" s="26" t="str">
+      <c r="AC31" s="27" t="str">
         <f>Sum(AC2:AC30)</f>
       </c>
-      <c r="AD31" s="26" t="str">
+      <c r="AD31" s="27" t="str">
         <f>Sum(AD2:AD30)</f>
       </c>
-      <c r="AE31" s="26" t="str">
+      <c r="AE31" s="27" t="str">
         <f>Sum(AE2:AE30)</f>
       </c>
-      <c r="AF31" s="26" t="str">
+      <c r="AF31" s="27" t="str">
         <f>Sum(AF2:AF30)</f>
       </c>
-      <c r="AG31" s="26" t="str">
+      <c r="AG31" s="27" t="str">
         <f>Sum(AG2:AG30)</f>
       </c>
-      <c r="AH31" s="26" t="str">
+      <c r="AH31" s="27" t="str">
         <f>Sum(AH2:AH30)</f>
       </c>
-      <c r="AI31" s="26" t="str">
+      <c r="AI31" s="27" t="str">
         <f>Sum(AI2:AI30)</f>
       </c>
-      <c r="AJ31" s="26" t="str">
+      <c r="AJ31" s="27" t="str">
         <f>Sum(AJ2:AJ30)</f>
       </c>
-      <c r="AK31" s="26" t="str">
+      <c r="AK31" s="27" t="str">
         <f>Sum(AK2:AK30)</f>
       </c>
-      <c r="AL31" s="26" t="str">
+      <c r="AL31" s="27" t="str">
         <f>Sum(AL2:AL30)</f>
       </c>
-      <c r="AM31" s="26"/>
+      <c r="AM31" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28248,90 +28248,90 @@
       <c r="L2" t="s">
         <v>78</v>
       </c>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27" t="n">
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6" t="n">
         <v>74734263.2115</v>
       </c>
-      <c r="X2" s="27" t="n">
+      <c r="X2" s="6" t="n">
         <v>651380311.6253</v>
       </c>
-      <c r="Y2" s="27" t="n">
+      <c r="Y2" s="6" t="n">
         <v>2369331099.6546</v>
       </c>
-      <c r="Z2" s="27" t="n">
+      <c r="Z2" s="6" t="n">
         <v>389472349.0247</v>
       </c>
-      <c r="AA2" s="27" t="n">
+      <c r="AA2" s="6" t="n">
         <v>926767810.7713</v>
       </c>
-      <c r="AB2" s="27" t="n">
+      <c r="AB2" s="6" t="n">
         <v>2068972362.7543</v>
       </c>
-      <c r="AC2" s="27" t="n">
+      <c r="AC2" s="6" t="n">
         <v>9040956617.9254</v>
       </c>
-      <c r="AD2" s="27" t="n">
+      <c r="AD2" s="6" t="n">
         <v>28856537609.4008</v>
       </c>
-      <c r="AE2" s="27" t="n">
+      <c r="AE2" s="6" t="n">
         <v>32918075773.2283</v>
       </c>
-      <c r="AF2" s="27" t="n">
+      <c r="AF2" s="6" t="n">
         <v>27981624445.2773</v>
       </c>
-      <c r="AG2" s="27" t="n">
+      <c r="AG2" s="6" t="n">
         <v>26916948312.8638</v>
       </c>
-      <c r="AH2" s="27" t="n">
+      <c r="AH2" s="6" t="n">
         <v>25381059794.7938</v>
       </c>
-      <c r="AI2" s="27" t="n">
+      <c r="AI2" s="6" t="n">
         <v>23781236602.951</v>
       </c>
-      <c r="AJ2" s="27" t="n">
+      <c r="AJ2" s="6" t="n">
         <v>19497175336.1248</v>
       </c>
-      <c r="AK2" s="27" t="n">
+      <c r="AK2" s="6" t="n">
         <v>30744190284.6907</v>
       </c>
-      <c r="AL2" s="27" t="n">
+      <c r="AL2" s="6" t="n">
         <v>27640767677.3332</v>
       </c>
-      <c r="AM2" s="27" t="n">
+      <c r="AM2" s="6" t="n">
         <v>28807000700.5906</v>
       </c>
-      <c r="AN2" s="27" t="n">
+      <c r="AN2" s="6" t="n">
         <v>29406916248.8912</v>
       </c>
-      <c r="AO2" s="27" t="n">
+      <c r="AO2" s="6" t="n">
         <v>33682363136.9994</v>
       </c>
-      <c r="AP2" s="27" t="n">
+      <c r="AP2" s="6" t="n">
         <v>28537357724.827</v>
       </c>
-      <c r="AQ2" s="27" t="n">
+      <c r="AQ2" s="6" t="n">
         <v>28280428246.215</v>
       </c>
-      <c r="AR2" s="27" t="n">
+      <c r="AR2" s="6" t="n">
         <v>29217464869.0707</v>
       </c>
-      <c r="AS2" s="27" t="n">
+      <c r="AS2" s="6" t="n">
         <v>36768744492.4267</v>
       </c>
-      <c r="AT2" s="27" t="n">
+      <c r="AT2" s="6" t="n">
         <v>35866308853.3797</v>
       </c>
-      <c r="AU2" s="27"/>
-      <c r="AV2" s="27"/>
+      <c r="AU2" s="6"/>
+      <c r="AV2" s="6"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -28340,92 +28340,92 @@
       <c r="L3" t="s">
         <v>79</v>
       </c>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27" t="n">
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6" t="n">
         <v>3325939</v>
       </c>
-      <c r="W3" s="27" t="n">
+      <c r="W3" s="6" t="n">
         <v>1135593048.9812</v>
       </c>
-      <c r="X3" s="27" t="n">
+      <c r="X3" s="6" t="n">
         <v>4073193632.4718</v>
       </c>
-      <c r="Y3" s="27" t="n">
+      <c r="Y3" s="6" t="n">
         <v>2801053888.6658</v>
       </c>
-      <c r="Z3" s="27" t="n">
+      <c r="Z3" s="6" t="n">
         <v>5596788703.4387</v>
       </c>
-      <c r="AA3" s="27" t="n">
+      <c r="AA3" s="6" t="n">
         <v>5970437340.4126</v>
       </c>
-      <c r="AB3" s="27" t="n">
+      <c r="AB3" s="6" t="n">
         <v>10006109627.2385</v>
       </c>
-      <c r="AC3" s="27" t="n">
+      <c r="AC3" s="6" t="n">
         <v>16988292857.9503</v>
       </c>
-      <c r="AD3" s="27" t="n">
+      <c r="AD3" s="6" t="n">
         <v>49557963726.3316</v>
       </c>
-      <c r="AE3" s="27" t="n">
+      <c r="AE3" s="6" t="n">
         <v>64642941835.688</v>
       </c>
-      <c r="AF3" s="27" t="n">
+      <c r="AF3" s="6" t="n">
         <v>58098643257.0653</v>
       </c>
-      <c r="AG3" s="27" t="n">
+      <c r="AG3" s="6" t="n">
         <v>67756921458.8457</v>
       </c>
-      <c r="AH3" s="27" t="n">
+      <c r="AH3" s="6" t="n">
         <v>64575747345.7738</v>
       </c>
-      <c r="AI3" s="27" t="n">
+      <c r="AI3" s="6" t="n">
         <v>67595393425.143</v>
       </c>
-      <c r="AJ3" s="27" t="n">
+      <c r="AJ3" s="6" t="n">
         <v>51484301339.8842</v>
       </c>
-      <c r="AK3" s="27" t="n">
+      <c r="AK3" s="6" t="n">
         <v>41629203081.7025</v>
       </c>
-      <c r="AL3" s="27" t="n">
+      <c r="AL3" s="6" t="n">
         <v>43097580358.3998</v>
       </c>
-      <c r="AM3" s="27" t="n">
+      <c r="AM3" s="6" t="n">
         <v>47378754022.3691</v>
       </c>
-      <c r="AN3" s="27" t="n">
+      <c r="AN3" s="6" t="n">
         <v>57485126680.2272</v>
       </c>
-      <c r="AO3" s="27" t="n">
+      <c r="AO3" s="6" t="n">
         <v>65151912922.4511</v>
       </c>
-      <c r="AP3" s="27" t="n">
+      <c r="AP3" s="6" t="n">
         <v>72644543852.8073</v>
       </c>
-      <c r="AQ3" s="27" t="n">
+      <c r="AQ3" s="6" t="n">
         <v>93453038550.4417</v>
       </c>
-      <c r="AR3" s="27" t="n">
+      <c r="AR3" s="6" t="n">
         <v>59821074027.5788</v>
       </c>
-      <c r="AS3" s="27" t="n">
+      <c r="AS3" s="6" t="n">
         <v>64994474219.4722</v>
       </c>
-      <c r="AT3" s="27" t="n">
+      <c r="AT3" s="6" t="n">
         <v>68481733084.6695</v>
       </c>
-      <c r="AU3" s="27"/>
-      <c r="AV3" s="27"/>
+      <c r="AU3" s="6"/>
+      <c r="AV3" s="6"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -28434,104 +28434,104 @@
       <c r="L4" t="s">
         <v>80</v>
       </c>
-      <c r="M4" s="27" t="n">
+      <c r="M4" s="6" t="n">
         <v>1135000</v>
       </c>
-      <c r="N4" s="27" t="n">
+      <c r="N4" s="6" t="n">
         <v>3869000</v>
       </c>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27" t="n">
+      <c r="O4" s="6"/>
+      <c r="P4" s="6" t="n">
         <v>2766869</v>
       </c>
-      <c r="Q4" s="27" t="n">
+      <c r="Q4" s="6" t="n">
         <v>1621810</v>
       </c>
-      <c r="R4" s="27" t="n">
+      <c r="R4" s="6" t="n">
         <v>486569</v>
       </c>
-      <c r="S4" s="27" t="n">
+      <c r="S4" s="6" t="n">
         <v>262350</v>
       </c>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27" t="n">
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6" t="n">
         <v>2850000</v>
       </c>
-      <c r="W4" s="27" t="n">
+      <c r="W4" s="6" t="n">
         <v>2488488999.5</v>
       </c>
-      <c r="X4" s="27" t="n">
+      <c r="X4" s="6" t="n">
         <v>3599840088.1738</v>
       </c>
-      <c r="Y4" s="27" t="n">
+      <c r="Y4" s="6" t="n">
         <v>6015953476.0031</v>
       </c>
-      <c r="Z4" s="27" t="n">
+      <c r="Z4" s="6" t="n">
         <v>7646423798.3568</v>
       </c>
-      <c r="AA4" s="27" t="n">
+      <c r="AA4" s="6" t="n">
         <v>12781940166.5436</v>
       </c>
-      <c r="AB4" s="27" t="n">
+      <c r="AB4" s="6" t="n">
         <v>12707129305.2915</v>
       </c>
-      <c r="AC4" s="27" t="n">
+      <c r="AC4" s="6" t="n">
         <v>18382045134.1066</v>
       </c>
-      <c r="AD4" s="27" t="n">
+      <c r="AD4" s="6" t="n">
         <v>43013018845.1704</v>
       </c>
-      <c r="AE4" s="27" t="n">
+      <c r="AE4" s="6" t="n">
         <v>61456442976.9896</v>
       </c>
-      <c r="AF4" s="27" t="n">
+      <c r="AF4" s="6" t="n">
         <v>64889783985.1913</v>
       </c>
-      <c r="AG4" s="27" t="n">
+      <c r="AG4" s="6" t="n">
         <v>63572407065.2249</v>
       </c>
-      <c r="AH4" s="27" t="n">
+      <c r="AH4" s="6" t="n">
         <v>63728548103.9943</v>
       </c>
-      <c r="AI4" s="27" t="n">
+      <c r="AI4" s="6" t="n">
         <v>65983640595.1122</v>
       </c>
-      <c r="AJ4" s="27" t="n">
+      <c r="AJ4" s="6" t="n">
         <v>67211134917.3349</v>
       </c>
-      <c r="AK4" s="27" t="n">
+      <c r="AK4" s="6" t="n">
         <v>58281307207.8006</v>
       </c>
-      <c r="AL4" s="27" t="n">
+      <c r="AL4" s="6" t="n">
         <v>58315355386.1029</v>
       </c>
-      <c r="AM4" s="27" t="n">
+      <c r="AM4" s="6" t="n">
         <v>65807704779.3839</v>
       </c>
-      <c r="AN4" s="27" t="n">
+      <c r="AN4" s="6" t="n">
         <v>68217966167.0995</v>
       </c>
-      <c r="AO4" s="27" t="n">
+      <c r="AO4" s="6" t="n">
         <v>80288950328.7238</v>
       </c>
-      <c r="AP4" s="27" t="n">
+      <c r="AP4" s="6" t="n">
         <v>85770574912.6139</v>
       </c>
-      <c r="AQ4" s="27" t="n">
+      <c r="AQ4" s="6" t="n">
         <v>82014106010.0969</v>
       </c>
-      <c r="AR4" s="27" t="n">
+      <c r="AR4" s="6" t="n">
         <v>72939639695.5639</v>
       </c>
-      <c r="AS4" s="27" t="n">
+      <c r="AS4" s="6" t="n">
         <v>80313789564.7666</v>
       </c>
-      <c r="AT4" s="27" t="n">
+      <c r="AT4" s="6" t="n">
         <v>89778421220.0439</v>
       </c>
-      <c r="AU4" s="27"/>
-      <c r="AV4" s="27"/>
+      <c r="AU4" s="6"/>
+      <c r="AV4" s="6"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -28540,90 +28540,90 @@
       <c r="L5" t="s">
         <v>81</v>
       </c>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27" t="n">
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6" t="n">
         <v>343143083.9819</v>
       </c>
-      <c r="X5" s="27" t="n">
+      <c r="X5" s="6" t="n">
         <v>512987622.1616</v>
       </c>
-      <c r="Y5" s="27" t="n">
+      <c r="Y5" s="6" t="n">
         <v>1555406580.2656</v>
       </c>
-      <c r="Z5" s="27" t="n">
+      <c r="Z5" s="6" t="n">
         <v>3214731746.0247</v>
       </c>
-      <c r="AA5" s="27" t="n">
+      <c r="AA5" s="6" t="n">
         <v>3670535010.3677</v>
       </c>
-      <c r="AB5" s="27" t="n">
+      <c r="AB5" s="6" t="n">
         <v>7146022773.0194</v>
       </c>
-      <c r="AC5" s="27" t="n">
+      <c r="AC5" s="6" t="n">
         <v>13410079539.1641</v>
       </c>
-      <c r="AD5" s="27" t="n">
+      <c r="AD5" s="6" t="n">
         <v>32693496752.3323</v>
       </c>
-      <c r="AE5" s="27" t="n">
+      <c r="AE5" s="6" t="n">
         <v>41338416839.809</v>
       </c>
-      <c r="AF5" s="27" t="n">
+      <c r="AF5" s="6" t="n">
         <v>38889201730.5229</v>
       </c>
-      <c r="AG5" s="27" t="n">
+      <c r="AG5" s="6" t="n">
         <v>41830329250.2352</v>
       </c>
-      <c r="AH5" s="27" t="n">
+      <c r="AH5" s="6" t="n">
         <v>45943085309.8793</v>
       </c>
-      <c r="AI5" s="27" t="n">
+      <c r="AI5" s="6" t="n">
         <v>41274574111.2405</v>
       </c>
-      <c r="AJ5" s="27" t="n">
+      <c r="AJ5" s="6" t="n">
         <v>27696084407.0696</v>
       </c>
-      <c r="AK5" s="27" t="n">
+      <c r="AK5" s="6" t="n">
         <v>24167197519.375</v>
       </c>
-      <c r="AL5" s="27" t="n">
+      <c r="AL5" s="6" t="n">
         <v>26163704965.6678</v>
       </c>
-      <c r="AM5" s="27" t="n">
+      <c r="AM5" s="6" t="n">
         <v>24483600183.9948</v>
       </c>
-      <c r="AN5" s="27" t="n">
+      <c r="AN5" s="6" t="n">
         <v>33313188457.7358</v>
       </c>
-      <c r="AO5" s="27" t="n">
+      <c r="AO5" s="6" t="n">
         <v>28211687367.8067</v>
       </c>
-      <c r="AP5" s="27" t="n">
+      <c r="AP5" s="6" t="n">
         <v>25030868434.1995</v>
       </c>
-      <c r="AQ5" s="27" t="n">
+      <c r="AQ5" s="6" t="n">
         <v>28385087232.3506</v>
       </c>
-      <c r="AR5" s="27" t="n">
+      <c r="AR5" s="6" t="n">
         <v>33340717530.8196</v>
       </c>
-      <c r="AS5" s="27" t="n">
+      <c r="AS5" s="6" t="n">
         <v>35042199201.2074</v>
       </c>
-      <c r="AT5" s="27" t="n">
+      <c r="AT5" s="6" t="n">
         <v>28416003107.7987</v>
       </c>
-      <c r="AU5" s="27"/>
-      <c r="AV5" s="27"/>
+      <c r="AU5" s="6"/>
+      <c r="AV5" s="6"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -28632,110 +28632,110 @@
       <c r="L6" t="s">
         <v>82</v>
       </c>
-      <c r="M6" s="27" t="n">
+      <c r="M6" s="6" t="n">
         <v>1499432000</v>
       </c>
-      <c r="N6" s="27" t="n">
+      <c r="N6" s="6" t="n">
         <v>237541000</v>
       </c>
-      <c r="O6" s="27" t="n">
+      <c r="O6" s="6" t="n">
         <v>364081104</v>
       </c>
-      <c r="P6" s="27" t="n">
+      <c r="P6" s="6" t="n">
         <v>313330343</v>
       </c>
-      <c r="Q6" s="27" t="n">
+      <c r="Q6" s="6" t="n">
         <v>543901007</v>
       </c>
-      <c r="R6" s="27" t="n">
+      <c r="R6" s="6" t="n">
         <v>665199848</v>
       </c>
-      <c r="S6" s="27" t="n">
+      <c r="S6" s="6" t="n">
         <v>7555413</v>
       </c>
-      <c r="T6" s="27" t="n">
+      <c r="T6" s="6" t="n">
         <v>38487552</v>
       </c>
-      <c r="U6" s="27" t="n">
+      <c r="U6" s="6" t="n">
         <v>1052459050</v>
       </c>
-      <c r="V6" s="27" t="n">
+      <c r="V6" s="6" t="n">
         <v>986981234</v>
       </c>
-      <c r="W6" s="27" t="n">
+      <c r="W6" s="6" t="n">
         <v>5017460203.1224</v>
       </c>
-      <c r="X6" s="27" t="n">
+      <c r="X6" s="6" t="n">
         <v>8192697201.2665</v>
       </c>
-      <c r="Y6" s="27" t="n">
+      <c r="Y6" s="6" t="n">
         <v>17486083739.8113</v>
       </c>
-      <c r="Z6" s="27" t="n">
+      <c r="Z6" s="6" t="n">
         <v>30631888746.4587</v>
       </c>
-      <c r="AA6" s="27" t="n">
+      <c r="AA6" s="6" t="n">
         <v>40530857470.8198</v>
       </c>
-      <c r="AB6" s="27" t="n">
+      <c r="AB6" s="6" t="n">
         <v>51826794137.3968</v>
       </c>
-      <c r="AC6" s="27" t="n">
+      <c r="AC6" s="6" t="n">
         <v>65802878622.2959</v>
       </c>
-      <c r="AD6" s="27" t="n">
+      <c r="AD6" s="6" t="n">
         <v>81097959961.1024</v>
       </c>
-      <c r="AE6" s="27" t="n">
+      <c r="AE6" s="6" t="n">
         <v>94140306524.4107</v>
       </c>
-      <c r="AF6" s="27" t="n">
+      <c r="AF6" s="6" t="n">
         <v>92793319747.1754</v>
       </c>
-      <c r="AG6" s="27" t="n">
+      <c r="AG6" s="6" t="n">
         <v>82610307060.0663</v>
       </c>
-      <c r="AH6" s="27" t="n">
+      <c r="AH6" s="6" t="n">
         <v>90761159336.0793</v>
       </c>
-      <c r="AI6" s="27" t="n">
+      <c r="AI6" s="6" t="n">
         <v>91077193305.2115</v>
       </c>
-      <c r="AJ6" s="27" t="n">
+      <c r="AJ6" s="6" t="n">
         <v>86210083967.808</v>
       </c>
-      <c r="AK6" s="27" t="n">
+      <c r="AK6" s="6" t="n">
         <v>74260515794.5409</v>
       </c>
-      <c r="AL6" s="27" t="n">
+      <c r="AL6" s="6" t="n">
         <v>67799824325.1675</v>
       </c>
-      <c r="AM6" s="27" t="n">
+      <c r="AM6" s="6" t="n">
         <v>79367863107.4402</v>
       </c>
-      <c r="AN6" s="27" t="n">
+      <c r="AN6" s="6" t="n">
         <v>81619262660.3654</v>
       </c>
-      <c r="AO6" s="27" t="n">
+      <c r="AO6" s="6" t="n">
         <v>95357389196.199</v>
       </c>
-      <c r="AP6" s="27" t="n">
+      <c r="AP6" s="6" t="n">
         <v>117059090928.897</v>
       </c>
-      <c r="AQ6" s="27" t="n">
+      <c r="AQ6" s="6" t="n">
         <v>126405243988.628</v>
       </c>
-      <c r="AR6" s="27" t="n">
+      <c r="AR6" s="6" t="n">
         <v>118993315876.376</v>
       </c>
-      <c r="AS6" s="27" t="n">
+      <c r="AS6" s="6" t="n">
         <v>128962993546.785</v>
       </c>
-      <c r="AT6" s="27" t="n">
+      <c r="AT6" s="6" t="n">
         <v>169358749192.801</v>
       </c>
-      <c r="AU6" s="27"/>
-      <c r="AV6" s="27"/>
+      <c r="AU6" s="6"/>
+      <c r="AV6" s="6"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -28744,214 +28744,214 @@
       <c r="L7" t="s">
         <v>83</v>
       </c>
-      <c r="M7" s="27" t="n">
+      <c r="M7" s="6" t="n">
         <v>2200000</v>
       </c>
-      <c r="N7" s="27" t="n">
+      <c r="N7" s="6" t="n">
         <v>387000</v>
       </c>
-      <c r="O7" s="27" t="n">
+      <c r="O7" s="6" t="n">
         <v>2335875</v>
       </c>
-      <c r="P7" s="27" t="n">
+      <c r="P7" s="6" t="n">
         <v>4100000</v>
       </c>
-      <c r="Q7" s="27" t="n">
+      <c r="Q7" s="6" t="n">
         <v>1450000</v>
       </c>
-      <c r="R7" s="27" t="n">
+      <c r="R7" s="6" t="n">
         <v>600000</v>
       </c>
-      <c r="S7" s="27" t="n">
+      <c r="S7" s="6" t="n">
         <v>-245000</v>
       </c>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27" t="n">
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6" t="n">
         <v>995882938.2904</v>
       </c>
-      <c r="X7" s="27" t="n">
+      <c r="X7" s="6" t="n">
         <v>1727062270.7531</v>
       </c>
-      <c r="Y7" s="27" t="n">
+      <c r="Y7" s="6" t="n">
         <v>3828081479.2755</v>
       </c>
-      <c r="Z7" s="27" t="n">
+      <c r="Z7" s="6" t="n">
         <v>8312847280.5822</v>
       </c>
-      <c r="AA7" s="27" t="n">
+      <c r="AA7" s="6" t="n">
         <v>6488614271.6003</v>
       </c>
-      <c r="AB7" s="27" t="n">
+      <c r="AB7" s="6" t="n">
         <v>9320351005.8188</v>
       </c>
-      <c r="AC7" s="27" t="n">
+      <c r="AC7" s="6" t="n">
         <v>14305442867.5493</v>
       </c>
-      <c r="AD7" s="27" t="n">
+      <c r="AD7" s="6" t="n">
         <v>41151929253.5699</v>
       </c>
-      <c r="AE7" s="27" t="n">
+      <c r="AE7" s="6" t="n">
         <v>53101507561.5764</v>
       </c>
-      <c r="AF7" s="27" t="n">
+      <c r="AF7" s="6" t="n">
         <v>62151834436.6196</v>
       </c>
-      <c r="AG7" s="27" t="n">
+      <c r="AG7" s="6" t="n">
         <v>66264680920.1594</v>
       </c>
-      <c r="AH7" s="27" t="n">
+      <c r="AH7" s="6" t="n">
         <v>67146619592.9186</v>
       </c>
-      <c r="AI7" s="27" t="n">
+      <c r="AI7" s="6" t="n">
         <v>62581435363.5812</v>
       </c>
-      <c r="AJ7" s="27" t="n">
+      <c r="AJ7" s="6" t="n">
         <v>50857444903.498</v>
       </c>
-      <c r="AK7" s="27" t="n">
+      <c r="AK7" s="6" t="n">
         <v>51567430494.4379</v>
       </c>
-      <c r="AL7" s="27" t="n">
+      <c r="AL7" s="6" t="n">
         <v>48753708679.7811</v>
       </c>
-      <c r="AM7" s="27" t="n">
+      <c r="AM7" s="6" t="n">
         <v>50300319393.6406</v>
       </c>
-      <c r="AN7" s="27" t="n">
+      <c r="AN7" s="6" t="n">
         <v>49862787751.9017</v>
       </c>
-      <c r="AO7" s="27" t="n">
+      <c r="AO7" s="6" t="n">
         <v>55097328272.2253</v>
       </c>
-      <c r="AP7" s="27" t="n">
+      <c r="AP7" s="6" t="n">
         <v>54976772204.4665</v>
       </c>
-      <c r="AQ7" s="27" t="n">
+      <c r="AQ7" s="6" t="n">
         <v>63824372022.0734</v>
       </c>
-      <c r="AR7" s="27" t="n">
+      <c r="AR7" s="6" t="n">
         <v>71891546335.4883</v>
       </c>
-      <c r="AS7" s="27" t="n">
+      <c r="AS7" s="6" t="n">
         <v>67999359130.6915</v>
       </c>
-      <c r="AT7" s="27" t="n">
+      <c r="AT7" s="6" t="n">
         <v>64110104150.2955</v>
       </c>
-      <c r="AU7" s="27"/>
-      <c r="AV7" s="27"/>
+      <c r="AU7" s="6"/>
+      <c r="AV7" s="6"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
         <f>L8</f>
       </c>
       <c r="L8"/>
-      <c r="M8" s="27" t="n">
+      <c r="M8" s="6" t="n">
         <v>118847362405</v>
       </c>
-      <c r="N8" s="27" t="n">
+      <c r="N8" s="6" t="n">
         <v>135912396844</v>
       </c>
-      <c r="O8" s="27" t="n">
+      <c r="O8" s="6" t="n">
         <v>123040243571</v>
       </c>
-      <c r="P8" s="27" t="n">
+      <c r="P8" s="6" t="n">
         <v>121053184930</v>
       </c>
-      <c r="Q8" s="27" t="n">
+      <c r="Q8" s="6" t="n">
         <v>116614929908</v>
       </c>
-      <c r="R8" s="27" t="n">
+      <c r="R8" s="6" t="n">
         <v>115925728451</v>
       </c>
-      <c r="S8" s="27" t="n">
+      <c r="S8" s="6" t="n">
         <v>118441206335</v>
       </c>
-      <c r="T8" s="27" t="n">
+      <c r="T8" s="6" t="n">
         <v>115943664327</v>
       </c>
-      <c r="U8" s="27" t="n">
+      <c r="U8" s="6" t="n">
         <v>115913423117</v>
       </c>
-      <c r="V8" s="27" t="n">
+      <c r="V8" s="6" t="n">
         <v>121191879315</v>
       </c>
-      <c r="W8" s="27" t="n">
+      <c r="W8" s="6" t="n">
         <v>122123183969.3</v>
       </c>
-      <c r="X8" s="27" t="n">
+      <c r="X8" s="6" t="n">
         <v>125236477495.875</v>
       </c>
-      <c r="Y8" s="27" t="n">
+      <c r="Y8" s="6" t="n">
         <v>135754610872.809</v>
       </c>
-      <c r="Z8" s="27" t="n">
+      <c r="Z8" s="6" t="n">
         <v>155740934679.975</v>
       </c>
-      <c r="AA8" s="27" t="n">
+      <c r="AA8" s="6" t="n">
         <v>159405879751.4</v>
       </c>
-      <c r="AB8" s="27" t="n">
+      <c r="AB8" s="6" t="n">
         <v>172589139490.937</v>
       </c>
-      <c r="AC8" s="27" t="n">
+      <c r="AC8" s="6" t="n">
         <v>157235490704.126</v>
       </c>
-      <c r="AD8" s="27" t="n">
+      <c r="AD8" s="6" t="n">
         <v>51783516705.5844</v>
       </c>
-      <c r="AE8" s="27" t="n">
+      <c r="AE8" s="6" t="n">
         <v>30390394573.127</v>
       </c>
-      <c r="AF8" s="27" t="n">
+      <c r="AF8" s="6" t="n">
         <v>22845657876.5749</v>
       </c>
-      <c r="AG8" s="27" t="n">
+      <c r="AG8" s="6" t="n">
         <v>13744751169.2694</v>
       </c>
-      <c r="AH8" s="27" t="n">
+      <c r="AH8" s="6" t="n">
         <v>11027439386.0527</v>
       </c>
-      <c r="AI8" s="27" t="n">
+      <c r="AI8" s="6" t="n">
         <v>5499831645.3876</v>
       </c>
-      <c r="AJ8" s="27" t="n">
+      <c r="AJ8" s="6" t="n">
         <v>5272188390.4106</v>
       </c>
-      <c r="AK8" s="27" t="n">
+      <c r="AK8" s="6" t="n">
         <v>2799693445.002</v>
       </c>
-      <c r="AL8" s="27" t="n">
+      <c r="AL8" s="6" t="n">
         <v>2455298878.0945</v>
       </c>
-      <c r="AM8" s="27" t="n">
+      <c r="AM8" s="6" t="n">
         <v>2379531416.7751</v>
       </c>
-      <c r="AN8" s="27" t="n">
+      <c r="AN8" s="6" t="n">
         <v>1949828809.8837</v>
       </c>
-      <c r="AO8" s="27" t="n">
+      <c r="AO8" s="6" t="n">
         <v>1040477910.3691</v>
       </c>
-      <c r="AP8" s="27" t="n">
+      <c r="AP8" s="6" t="n">
         <v>-43582714.495</v>
       </c>
-      <c r="AQ8" s="27" t="n">
+      <c r="AQ8" s="6" t="n">
         <v>385368687.1303</v>
       </c>
-      <c r="AR8" s="27" t="n">
+      <c r="AR8" s="6" t="n">
         <v>1499314532.9273</v>
       </c>
-      <c r="AS8" s="27" t="n">
+      <c r="AS8" s="6" t="n">
         <v>414380266.7902</v>
       </c>
-      <c r="AT8" s="27" t="n">
+      <c r="AT8" s="6" t="n">
         <v>235412261.9706</v>
       </c>
-      <c r="AU8" s="27"/>
-      <c r="AV8" s="27"/>
+      <c r="AU8" s="6"/>
+      <c r="AV8" s="6"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -28960,112 +28960,112 @@
       <c r="L9" t="s">
         <v>46</v>
       </c>
-      <c r="M9" s="27" t="str">
+      <c r="M9" s="6" t="str">
         <f>Sum(M2:M8)</f>
       </c>
-      <c r="N9" s="27" t="str">
+      <c r="N9" s="6" t="str">
         <f>Sum(N2:N8)</f>
       </c>
-      <c r="O9" s="27" t="str">
+      <c r="O9" s="6" t="str">
         <f>Sum(O2:O8)</f>
       </c>
-      <c r="P9" s="27" t="str">
+      <c r="P9" s="6" t="str">
         <f>Sum(P2:P8)</f>
       </c>
-      <c r="Q9" s="27" t="str">
+      <c r="Q9" s="6" t="str">
         <f>Sum(Q2:Q8)</f>
       </c>
-      <c r="R9" s="27" t="str">
+      <c r="R9" s="6" t="str">
         <f>Sum(R2:R8)</f>
       </c>
-      <c r="S9" s="27" t="str">
+      <c r="S9" s="6" t="str">
         <f>Sum(S2:S8)</f>
       </c>
-      <c r="T9" s="27" t="str">
+      <c r="T9" s="6" t="str">
         <f>Sum(T2:T8)</f>
       </c>
-      <c r="U9" s="27" t="str">
+      <c r="U9" s="6" t="str">
         <f>Sum(U2:U8)</f>
       </c>
-      <c r="V9" s="27" t="str">
+      <c r="V9" s="6" t="str">
         <f>Sum(V2:V8)</f>
       </c>
-      <c r="W9" s="27" t="str">
+      <c r="W9" s="6" t="str">
         <f>Sum(W2:W8)</f>
       </c>
-      <c r="X9" s="27" t="str">
+      <c r="X9" s="6" t="str">
         <f>Sum(X2:X8)</f>
       </c>
-      <c r="Y9" s="27" t="str">
+      <c r="Y9" s="6" t="str">
         <f>Sum(Y2:Y8)</f>
       </c>
-      <c r="Z9" s="27" t="str">
+      <c r="Z9" s="6" t="str">
         <f>Sum(Z2:Z8)</f>
       </c>
-      <c r="AA9" s="27" t="str">
+      <c r="AA9" s="6" t="str">
         <f>Sum(AA2:AA8)</f>
       </c>
-      <c r="AB9" s="27" t="str">
+      <c r="AB9" s="6" t="str">
         <f>Sum(AB2:AB8)</f>
       </c>
-      <c r="AC9" s="27" t="str">
+      <c r="AC9" s="6" t="str">
         <f>Sum(AC2:AC8)</f>
       </c>
-      <c r="AD9" s="27" t="str">
+      <c r="AD9" s="6" t="str">
         <f>Sum(AD2:AD8)</f>
       </c>
-      <c r="AE9" s="27" t="str">
+      <c r="AE9" s="6" t="str">
         <f>Sum(AE2:AE8)</f>
       </c>
-      <c r="AF9" s="27" t="str">
+      <c r="AF9" s="6" t="str">
         <f>Sum(AF2:AF8)</f>
       </c>
-      <c r="AG9" s="27" t="str">
+      <c r="AG9" s="6" t="str">
         <f>Sum(AG2:AG8)</f>
       </c>
-      <c r="AH9" s="27" t="str">
+      <c r="AH9" s="6" t="str">
         <f>Sum(AH2:AH8)</f>
       </c>
-      <c r="AI9" s="27" t="str">
+      <c r="AI9" s="6" t="str">
         <f>Sum(AI2:AI8)</f>
       </c>
-      <c r="AJ9" s="27" t="str">
+      <c r="AJ9" s="6" t="str">
         <f>Sum(AJ2:AJ8)</f>
       </c>
-      <c r="AK9" s="27" t="str">
+      <c r="AK9" s="6" t="str">
         <f>Sum(AK2:AK8)</f>
       </c>
-      <c r="AL9" s="27" t="str">
+      <c r="AL9" s="6" t="str">
         <f>Sum(AL2:AL8)</f>
       </c>
-      <c r="AM9" s="27" t="str">
+      <c r="AM9" s="6" t="str">
         <f>Sum(AM2:AM8)</f>
       </c>
-      <c r="AN9" s="27" t="str">
+      <c r="AN9" s="6" t="str">
         <f>Sum(AN2:AN8)</f>
       </c>
-      <c r="AO9" s="27" t="str">
+      <c r="AO9" s="6" t="str">
         <f>Sum(AO2:AO8)</f>
       </c>
-      <c r="AP9" s="27" t="str">
+      <c r="AP9" s="6" t="str">
         <f>Sum(AP2:AP8)</f>
       </c>
-      <c r="AQ9" s="27" t="str">
+      <c r="AQ9" s="6" t="str">
         <f>Sum(AQ2:AQ8)</f>
       </c>
-      <c r="AR9" s="27" t="str">
+      <c r="AR9" s="6" t="str">
         <f>Sum(AR2:AR8)</f>
       </c>
-      <c r="AS9" s="27" t="str">
+      <c r="AS9" s="6" t="str">
         <f>Sum(AS2:AS8)</f>
       </c>
-      <c r="AT9" s="27" t="str">
+      <c r="AT9" s="6" t="str">
         <f>Sum(AT2:AT8)</f>
       </c>
-      <c r="AU9" s="27" t="str">
+      <c r="AU9" s="6" t="str">
         <f>Sum(AU2:AU8)</f>
       </c>
-      <c r="AV9" s="27"/>
+      <c r="AV9" s="6"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -29199,16 +29199,16 @@
       <c r="A13" t="str">
         <f>L13</f>
       </c>
-      <c r="B13" s="27" t="str">
+      <c r="B13" s="6" t="str">
         <f>AQ13</f>
       </c>
-      <c r="C13" s="27" t="str">
+      <c r="C13" s="6" t="str">
         <f>AS13</f>
       </c>
-      <c r="D13" s="27" t="str">
+      <c r="D13" s="6" t="str">
         <f>AT13</f>
       </c>
-      <c r="E13" s="27"/>
+      <c r="E13" s="6"/>
       <c r="F13" s="1" t="str">
         <f>AT13/AS13-1</f>
       </c>
@@ -29223,105 +29223,105 @@
       <c r="L13" t="s">
         <v>78</v>
       </c>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="27" t="n">
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6" t="n">
         <v>125641254.735321</v>
       </c>
-      <c r="X13" s="27" t="n">
+      <c r="X13" s="6" t="n">
         <v>1069167602.4633</v>
       </c>
-      <c r="Y13" s="27" t="n">
+      <c r="Y13" s="6" t="n">
         <v>3828756253.96994</v>
       </c>
-      <c r="Z13" s="27" t="n">
+      <c r="Z13" s="6" t="n">
         <v>617520322.319818</v>
       </c>
-      <c r="AA13" s="27" t="n">
+      <c r="AA13" s="6" t="n">
         <v>1434392629.20956</v>
       </c>
-      <c r="AB13" s="27" t="n">
+      <c r="AB13" s="6" t="n">
         <v>3107659117.23767</v>
       </c>
-      <c r="AC13" s="27" t="n">
+      <c r="AC13" s="6" t="n">
         <v>13152539314.84</v>
       </c>
-      <c r="AD13" s="27" t="n">
+      <c r="AD13" s="6" t="n">
         <v>40854993584.1197</v>
       </c>
-      <c r="AE13" s="27" t="n">
+      <c r="AE13" s="6" t="n">
         <v>45657419702.4391</v>
       </c>
-      <c r="AF13" s="27" t="n">
+      <c r="AF13" s="6" t="n">
         <v>38417690856.7947</v>
       </c>
-      <c r="AG13" s="27" t="n">
+      <c r="AG13" s="6" t="n">
         <v>36638624881.2107</v>
       </c>
-      <c r="AH13" s="27" t="n">
+      <c r="AH13" s="6" t="n">
         <v>33868233178.1059</v>
       </c>
-      <c r="AI13" s="27" t="n">
+      <c r="AI13" s="6" t="n">
         <v>31167871518.5163</v>
       </c>
-      <c r="AJ13" s="27" t="n">
+      <c r="AJ13" s="6" t="n">
         <v>25097755904.9545</v>
       </c>
-      <c r="AK13" s="27" t="n">
+      <c r="AK13" s="6" t="n">
         <v>38866438567.9795</v>
       </c>
-      <c r="AL13" s="27" t="n">
+      <c r="AL13" s="6" t="n">
         <v>34584958080.3202</v>
       </c>
-      <c r="AM13" s="27" t="n">
+      <c r="AM13" s="6" t="n">
         <v>35758293441.3778</v>
       </c>
-      <c r="AN13" s="27" t="n">
+      <c r="AN13" s="6" t="n">
         <v>35897022671.9173</v>
       </c>
-      <c r="AO13" s="27" t="n">
+      <c r="AO13" s="6" t="n">
         <v>40223107676.8786</v>
       </c>
-      <c r="AP13" s="27" t="n">
+      <c r="AP13" s="6" t="n">
         <v>33460332906.5546</v>
       </c>
-      <c r="AQ13" s="27" t="n">
+      <c r="AQ13" s="6" t="n">
         <v>32731505409.1547</v>
       </c>
-      <c r="AR13" s="27" t="n">
+      <c r="AR13" s="6" t="n">
         <v>32690888511.1112</v>
       </c>
-      <c r="AS13" s="27" t="n">
+      <c r="AS13" s="6" t="n">
         <v>38450789345.0347</v>
       </c>
-      <c r="AT13" s="27" t="n">
+      <c r="AT13" s="6" t="n">
         <v>35866308853.3797</v>
       </c>
-      <c r="AU13" s="27"/>
-      <c r="AV13" s="27"/>
+      <c r="AU13" s="6"/>
+      <c r="AV13" s="6"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
         <f>L14</f>
       </c>
-      <c r="B14" s="27" t="str">
+      <c r="B14" s="6" t="str">
         <f>AQ14</f>
       </c>
-      <c r="C14" s="27" t="str">
+      <c r="C14" s="6" t="str">
         <f>AS14</f>
       </c>
-      <c r="D14" s="27" t="str">
+      <c r="D14" s="6" t="str">
         <f>AT14</f>
       </c>
-      <c r="E14" s="27"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="1" t="str">
         <f>AT14/AS14-1</f>
       </c>
@@ -29336,107 +29336,107 @@
       <c r="L14" t="s">
         <v>79</v>
       </c>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="27"/>
-      <c r="V14" s="27" t="n">
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6" t="n">
         <v>5707821.9250186</v>
       </c>
-      <c r="W14" s="27" t="n">
+      <c r="W14" s="6" t="n">
         <v>1909128817.3796</v>
       </c>
-      <c r="X14" s="27" t="n">
+      <c r="X14" s="6" t="n">
         <v>6685689746.33634</v>
       </c>
-      <c r="Y14" s="27" t="n">
+      <c r="Y14" s="6" t="n">
         <v>4526405193.22075</v>
       </c>
-      <c r="Z14" s="27" t="n">
+      <c r="Z14" s="6" t="n">
         <v>8873879680.43964</v>
       </c>
-      <c r="AA14" s="27" t="n">
+      <c r="AA14" s="6" t="n">
         <v>9240665477.06059</v>
       </c>
-      <c r="AB14" s="27" t="n">
+      <c r="AB14" s="6" t="n">
         <v>15029479547.891</v>
       </c>
-      <c r="AC14" s="27" t="n">
+      <c r="AC14" s="6" t="n">
         <v>24714109263.9685</v>
       </c>
-      <c r="AD14" s="27" t="n">
+      <c r="AD14" s="6" t="n">
         <v>70164006419.8734</v>
       </c>
-      <c r="AE14" s="27" t="n">
+      <c r="AE14" s="6" t="n">
         <v>89659855774.216</v>
       </c>
-      <c r="AF14" s="27" t="n">
+      <c r="AF14" s="6" t="n">
         <v>79767195797.1637</v>
       </c>
-      <c r="AG14" s="27" t="n">
+      <c r="AG14" s="6" t="n">
         <v>92228896068.7972</v>
       </c>
-      <c r="AH14" s="27" t="n">
+      <c r="AH14" s="6" t="n">
         <v>86169233532.3891</v>
       </c>
-      <c r="AI14" s="27" t="n">
+      <c r="AI14" s="6" t="n">
         <v>88591042286.5473</v>
       </c>
-      <c r="AJ14" s="27" t="n">
+      <c r="AJ14" s="6" t="n">
         <v>66273211667.3038</v>
       </c>
-      <c r="AK14" s="27" t="n">
+      <c r="AK14" s="6" t="n">
         <v>52627141883.6038</v>
       </c>
-      <c r="AL14" s="27" t="n">
+      <c r="AL14" s="6" t="n">
         <v>53924986001.0507</v>
       </c>
-      <c r="AM14" s="27" t="n">
+      <c r="AM14" s="6" t="n">
         <v>58811516229.2476</v>
       </c>
-      <c r="AN14" s="27" t="n">
+      <c r="AN14" s="6" t="n">
         <v>70172094152.0334</v>
       </c>
-      <c r="AO14" s="27" t="n">
+      <c r="AO14" s="6" t="n">
         <v>77803697982.0956</v>
       </c>
-      <c r="AP14" s="27" t="n">
+      <c r="AP14" s="6" t="n">
         <v>85176442913.8112</v>
       </c>
-      <c r="AQ14" s="27" t="n">
+      <c r="AQ14" s="6" t="n">
         <v>108161680232.87</v>
       </c>
-      <c r="AR14" s="27" t="n">
+      <c r="AR14" s="6" t="n">
         <v>66932708584.1965</v>
       </c>
-      <c r="AS14" s="27" t="n">
+      <c r="AS14" s="6" t="n">
         <v>67967750090.541</v>
       </c>
-      <c r="AT14" s="27" t="n">
+      <c r="AT14" s="6" t="n">
         <v>68481733084.6695</v>
       </c>
-      <c r="AU14" s="27"/>
-      <c r="AV14" s="27"/>
+      <c r="AU14" s="6"/>
+      <c r="AV14" s="6"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
         <f>L15</f>
       </c>
-      <c r="B15" s="27" t="str">
+      <c r="B15" s="6" t="str">
         <f>AQ15</f>
       </c>
-      <c r="C15" s="27" t="str">
+      <c r="C15" s="6" t="str">
         <f>AS15</f>
       </c>
-      <c r="D15" s="27" t="str">
+      <c r="D15" s="6" t="str">
         <f>AT15</f>
       </c>
-      <c r="E15" s="27"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="1" t="str">
         <f>AT15/AS15-1</f>
       </c>
@@ -29451,119 +29451,119 @@
       <c r="L15" t="s">
         <v>80</v>
       </c>
-      <c r="M15" s="27" t="n">
+      <c r="M15" s="6" t="n">
         <v>2347499.99874869</v>
       </c>
-      <c r="N15" s="27" t="n">
+      <c r="N15" s="6" t="n">
         <v>7725974.64408208</v>
       </c>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27" t="n">
+      <c r="O15" s="6"/>
+      <c r="P15" s="6" t="n">
         <v>5266672.36504324</v>
       </c>
-      <c r="Q15" s="27" t="n">
+      <c r="Q15" s="6" t="n">
         <v>3021125.38987562</v>
       </c>
-      <c r="R15" s="27" t="n">
+      <c r="R15" s="6" t="n">
         <v>887559.442248306</v>
       </c>
-      <c r="S15" s="27" t="n">
+      <c r="S15" s="6" t="n">
         <v>469713.471559615</v>
       </c>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27" t="n">
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6" t="n">
         <v>4891037.53445358</v>
       </c>
-      <c r="W15" s="27" t="n">
+      <c r="W15" s="6" t="n">
         <v>4183581490.69318</v>
       </c>
-      <c r="X15" s="27" t="n">
+      <c r="X15" s="6" t="n">
         <v>5908733082.09236</v>
       </c>
-      <c r="Y15" s="27" t="n">
+      <c r="Y15" s="6" t="n">
         <v>9721570572.46955</v>
       </c>
-      <c r="Z15" s="27" t="n">
+      <c r="Z15" s="6" t="n">
         <v>12123638816.4125</v>
       </c>
-      <c r="AA15" s="27" t="n">
+      <c r="AA15" s="6" t="n">
         <v>19783078942.5337</v>
       </c>
-      <c r="AB15" s="27" t="n">
+      <c r="AB15" s="6" t="n">
         <v>19086492864.9589</v>
       </c>
-      <c r="AC15" s="27" t="n">
+      <c r="AC15" s="6" t="n">
         <v>26741702402.8348</v>
       </c>
-      <c r="AD15" s="27" t="n">
+      <c r="AD15" s="6" t="n">
         <v>60897694406.0181</v>
       </c>
-      <c r="AE15" s="27" t="n">
+      <c r="AE15" s="6" t="n">
         <v>85240177152.1971</v>
       </c>
-      <c r="AF15" s="27" t="n">
+      <c r="AF15" s="6" t="n">
         <v>89091170020.6176</v>
       </c>
-      <c r="AG15" s="27" t="n">
+      <c r="AG15" s="6" t="n">
         <v>86533047810.0765</v>
       </c>
-      <c r="AH15" s="27" t="n">
+      <c r="AH15" s="6" t="n">
         <v>85038739309.4966</v>
       </c>
-      <c r="AI15" s="27" t="n">
+      <c r="AI15" s="6" t="n">
         <v>86478666636.5876</v>
       </c>
-      <c r="AJ15" s="27" t="n">
+      <c r="AJ15" s="6" t="n">
         <v>86517591864.951</v>
       </c>
-      <c r="AK15" s="27" t="n">
+      <c r="AK15" s="6" t="n">
         <v>73678533253.858</v>
       </c>
-      <c r="AL15" s="27" t="n">
+      <c r="AL15" s="6" t="n">
         <v>72965922835.828</v>
       </c>
-      <c r="AM15" s="27" t="n">
+      <c r="AM15" s="6" t="n">
         <v>81687477383.1113</v>
       </c>
-      <c r="AN15" s="27" t="n">
+      <c r="AN15" s="6" t="n">
         <v>83273671316.1752</v>
       </c>
-      <c r="AO15" s="27" t="n">
+      <c r="AO15" s="6" t="n">
         <v>95880181601.2817</v>
       </c>
-      <c r="AP15" s="27" t="n">
+      <c r="AP15" s="6" t="n">
         <v>100566843568.207</v>
       </c>
-      <c r="AQ15" s="27" t="n">
+      <c r="AQ15" s="6" t="n">
         <v>94922365783.3312</v>
       </c>
-      <c r="AR15" s="27" t="n">
+      <c r="AR15" s="6" t="n">
         <v>81610832425.5218</v>
       </c>
-      <c r="AS15" s="27" t="n">
+      <c r="AS15" s="6" t="n">
         <v>83987871946.3035</v>
       </c>
-      <c r="AT15" s="27" t="n">
+      <c r="AT15" s="6" t="n">
         <v>89778421220.0439</v>
       </c>
-      <c r="AU15" s="27"/>
-      <c r="AV15" s="27"/>
+      <c r="AU15" s="6"/>
+      <c r="AV15" s="6"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
         <f>L16</f>
       </c>
-      <c r="B16" s="27" t="str">
+      <c r="B16" s="6" t="str">
         <f>AQ16</f>
       </c>
-      <c r="C16" s="27" t="str">
+      <c r="C16" s="6" t="str">
         <f>AS16</f>
       </c>
-      <c r="D16" s="27" t="str">
+      <c r="D16" s="6" t="str">
         <f>AT16</f>
       </c>
-      <c r="E16" s="27"/>
+      <c r="E16" s="6"/>
       <c r="F16" s="1" t="str">
         <f>AT16/AS16-1</f>
       </c>
@@ -29578,105 +29578,105 @@
       <c r="L16" t="s">
         <v>81</v>
       </c>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
-      <c r="V16" s="27"/>
-      <c r="W16" s="27" t="n">
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6" t="n">
         <v>576883022.225332</v>
       </c>
-      <c r="X16" s="27" t="n">
+      <c r="X16" s="6" t="n">
         <v>842011550.381902</v>
       </c>
-      <c r="Y16" s="27" t="n">
+      <c r="Y16" s="6" t="n">
         <v>2513482675.56445</v>
       </c>
-      <c r="Z16" s="27" t="n">
+      <c r="Z16" s="6" t="n">
         <v>5097055513.56362</v>
       </c>
-      <c r="AA16" s="27" t="n">
+      <c r="AA16" s="6" t="n">
         <v>5681022045.58152</v>
       </c>
-      <c r="AB16" s="27" t="n">
+      <c r="AB16" s="6" t="n">
         <v>10733542517.2129</v>
       </c>
-      <c r="AC16" s="27" t="n">
+      <c r="AC16" s="6" t="n">
         <v>19508621245.266</v>
       </c>
-      <c r="AD16" s="27" t="n">
+      <c r="AD16" s="6" t="n">
         <v>46287348057.4411</v>
       </c>
-      <c r="AE16" s="27" t="n">
+      <c r="AE16" s="6" t="n">
         <v>57336445194.7865</v>
       </c>
-      <c r="AF16" s="27" t="n">
+      <c r="AF16" s="6" t="n">
         <v>53393373664.6557</v>
       </c>
-      <c r="AG16" s="27" t="n">
+      <c r="AG16" s="6" t="n">
         <v>56938317235.7789</v>
       </c>
-      <c r="AH16" s="27" t="n">
+      <c r="AH16" s="6" t="n">
         <v>61305995052.0968</v>
       </c>
-      <c r="AI16" s="27" t="n">
+      <c r="AI16" s="6" t="n">
         <v>54094774143.1154</v>
       </c>
-      <c r="AJ16" s="27" t="n">
+      <c r="AJ16" s="6" t="n">
         <v>35651808735.7882</v>
       </c>
-      <c r="AK16" s="27" t="n">
+      <c r="AK16" s="6" t="n">
         <v>30551882780.1018</v>
       </c>
-      <c r="AL16" s="27" t="n">
+      <c r="AL16" s="6" t="n">
         <v>32736812885.4657</v>
       </c>
-      <c r="AM16" s="27" t="n">
+      <c r="AM16" s="6" t="n">
         <v>30391631846.0293</v>
       </c>
-      <c r="AN16" s="27" t="n">
+      <c r="AN16" s="6" t="n">
         <v>40665409158.1699</v>
       </c>
-      <c r="AO16" s="27" t="n">
+      <c r="AO16" s="6" t="n">
         <v>33690086830.4936</v>
       </c>
-      <c r="AP16" s="27" t="n">
+      <c r="AP16" s="6" t="n">
         <v>29348939688.9691</v>
       </c>
-      <c r="AQ16" s="27" t="n">
+      <c r="AQ16" s="6" t="n">
         <v>32852636749.2104</v>
       </c>
-      <c r="AR16" s="27" t="n">
+      <c r="AR16" s="6" t="n">
         <v>37304320705.602</v>
       </c>
-      <c r="AS16" s="27" t="n">
+      <c r="AS16" s="6" t="n">
         <v>36645260486.1146</v>
       </c>
-      <c r="AT16" s="27" t="n">
+      <c r="AT16" s="6" t="n">
         <v>28416003107.7987</v>
       </c>
-      <c r="AU16" s="27"/>
-      <c r="AV16" s="27"/>
+      <c r="AU16" s="6"/>
+      <c r="AV16" s="6"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
         <f>L17</f>
       </c>
-      <c r="B17" s="27" t="str">
+      <c r="B17" s="6" t="str">
         <f>AQ17</f>
       </c>
-      <c r="C17" s="27" t="str">
+      <c r="C17" s="6" t="str">
         <f>AS17</f>
       </c>
-      <c r="D17" s="27" t="str">
+      <c r="D17" s="6" t="str">
         <f>AT17</f>
       </c>
-      <c r="E17" s="27"/>
+      <c r="E17" s="6"/>
       <c r="F17" s="1" t="str">
         <f>AT17/AS17-1</f>
       </c>
@@ -29691,125 +29691,125 @@
       <c r="L17" t="s">
         <v>82</v>
       </c>
-      <c r="M17" s="27" t="n">
+      <c r="M17" s="6" t="n">
         <v>3101248121.69493</v>
       </c>
-      <c r="N17" s="27" t="n">
+      <c r="N17" s="6" t="n">
         <v>474343691.633472</v>
       </c>
-      <c r="O17" s="27" t="n">
+      <c r="O17" s="6" t="n">
         <v>709278333.420097</v>
       </c>
-      <c r="P17" s="27" t="n">
+      <c r="P17" s="6" t="n">
         <v>596417198.86544</v>
       </c>
-      <c r="Q17" s="27" t="n">
+      <c r="Q17" s="6" t="n">
         <v>1013184739.16588</v>
       </c>
-      <c r="R17" s="27" t="n">
+      <c r="R17" s="6" t="n">
         <v>1213403250.25749</v>
       </c>
-      <c r="S17" s="27" t="n">
+      <c r="S17" s="6" t="n">
         <v>13527269.9420493</v>
       </c>
-      <c r="T17" s="27" t="n">
+      <c r="T17" s="6" t="n">
         <v>67706808.9701342</v>
       </c>
-      <c r="U17" s="27" t="n">
+      <c r="U17" s="6" t="n">
         <v>1828546489.27974</v>
       </c>
-      <c r="V17" s="27" t="n">
+      <c r="V17" s="6" t="n">
         <v>1693811319.75274</v>
       </c>
-      <c r="W17" s="27" t="n">
+      <c r="W17" s="6" t="n">
         <v>8435220585.78123</v>
       </c>
-      <c r="X17" s="27" t="n">
+      <c r="X17" s="6" t="n">
         <v>13447392050.4748</v>
       </c>
-      <c r="Y17" s="27" t="n">
+      <c r="Y17" s="6" t="n">
         <v>28256900222.1785</v>
       </c>
-      <c r="Z17" s="27" t="n">
+      <c r="Z17" s="6" t="n">
         <v>48567796556.9215</v>
       </c>
-      <c r="AA17" s="27" t="n">
+      <c r="AA17" s="6" t="n">
         <v>62731098918.1883</v>
       </c>
-      <c r="AB17" s="27" t="n">
+      <c r="AB17" s="6" t="n">
         <v>77845413606.14</v>
       </c>
-      <c r="AC17" s="27" t="n">
+      <c r="AC17" s="6" t="n">
         <v>95728249198.0359</v>
       </c>
-      <c r="AD17" s="27" t="n">
+      <c r="AD17" s="6" t="n">
         <v>114818232136.646</v>
       </c>
-      <c r="AE17" s="27" t="n">
+      <c r="AE17" s="6" t="n">
         <v>130572744151.617</v>
       </c>
-      <c r="AF17" s="27" t="n">
+      <c r="AF17" s="6" t="n">
         <v>127401648127.844</v>
       </c>
-      <c r="AG17" s="27" t="n">
+      <c r="AG17" s="6" t="n">
         <v>112446924388.115</v>
       </c>
-      <c r="AH17" s="27" t="n">
+      <c r="AH17" s="6" t="n">
         <v>121110786261.97</v>
       </c>
-      <c r="AI17" s="27" t="n">
+      <c r="AI17" s="6" t="n">
         <v>119366469734.028</v>
       </c>
-      <c r="AJ17" s="27" t="n">
+      <c r="AJ17" s="6" t="n">
         <v>110974005550.474</v>
       </c>
-      <c r="AK17" s="27" t="n">
+      <c r="AK17" s="6" t="n">
         <v>93879258111.1566</v>
       </c>
-      <c r="AL17" s="27" t="n">
+      <c r="AL17" s="6" t="n">
         <v>84833175022.9168</v>
       </c>
-      <c r="AM17" s="27" t="n">
+      <c r="AM17" s="6" t="n">
         <v>98519778865.863</v>
       </c>
-      <c r="AN17" s="27" t="n">
+      <c r="AN17" s="6" t="n">
         <v>99632633948.6475</v>
       </c>
-      <c r="AO17" s="27" t="n">
+      <c r="AO17" s="6" t="n">
         <v>113874745599.766</v>
       </c>
-      <c r="AP17" s="27" t="n">
+      <c r="AP17" s="6" t="n">
         <v>137252936658.953</v>
       </c>
-      <c r="AQ17" s="27" t="n">
+      <c r="AQ17" s="6" t="n">
         <v>146300257242.853</v>
       </c>
-      <c r="AR17" s="27" t="n">
+      <c r="AR17" s="6" t="n">
         <v>133139450678.35</v>
       </c>
-      <c r="AS17" s="27" t="n">
+      <c r="AS17" s="6" t="n">
         <v>134862611346.271</v>
       </c>
-      <c r="AT17" s="27" t="n">
+      <c r="AT17" s="6" t="n">
         <v>169358749192.801</v>
       </c>
-      <c r="AU17" s="27"/>
-      <c r="AV17" s="27"/>
+      <c r="AU17" s="6"/>
+      <c r="AV17" s="6"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
         <f>L18</f>
       </c>
-      <c r="B18" s="27" t="str">
+      <c r="B18" s="6" t="str">
         <f>AQ18</f>
       </c>
-      <c r="C18" s="27" t="str">
+      <c r="C18" s="6" t="str">
         <f>AS18</f>
       </c>
-      <c r="D18" s="27" t="str">
+      <c r="D18" s="6" t="str">
         <f>AT18</f>
       </c>
-      <c r="E18" s="27"/>
+      <c r="E18" s="6"/>
       <c r="F18" s="1" t="str">
         <f>AT18/AS18-1</f>
       </c>
@@ -29824,119 +29824,119 @@
       <c r="L18" t="s">
         <v>83</v>
       </c>
-      <c r="M18" s="27" t="n">
+      <c r="M18" s="6" t="n">
         <v>4550220.26189173</v>
       </c>
-      <c r="N18" s="27" t="n">
+      <c r="N18" s="6" t="n">
         <v>772797.153595184</v>
       </c>
-      <c r="O18" s="27" t="n">
+      <c r="O18" s="6" t="n">
         <v>4550594.65837499</v>
       </c>
-      <c r="P18" s="27" t="n">
+      <c r="P18" s="6" t="n">
         <v>7804256.97663218</v>
       </c>
-      <c r="Q18" s="27" t="n">
+      <c r="Q18" s="6" t="n">
         <v>2701075.84446985</v>
       </c>
-      <c r="R18" s="27" t="n">
+      <c r="R18" s="6" t="n">
         <v>1094471.01099532</v>
       </c>
-      <c r="S18" s="27" t="n">
+      <c r="S18" s="6" t="n">
         <v>-438649.897206425</v>
       </c>
-      <c r="T18" s="27"/>
-      <c r="U18" s="27"/>
-      <c r="V18" s="27"/>
-      <c r="W18" s="27" t="n">
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6" t="n">
         <v>1674251896.77993</v>
       </c>
-      <c r="X18" s="27" t="n">
+      <c r="X18" s="6" t="n">
         <v>2834778691.29717</v>
       </c>
-      <c r="Y18" s="27" t="n">
+      <c r="Y18" s="6" t="n">
         <v>6186045887.22076</v>
       </c>
-      <c r="Z18" s="27" t="n">
+      <c r="Z18" s="6" t="n">
         <v>13180273631.6333</v>
       </c>
-      <c r="AA18" s="27" t="n">
+      <c r="AA18" s="6" t="n">
         <v>10042666973.1025</v>
       </c>
-      <c r="AB18" s="27" t="n">
+      <c r="AB18" s="6" t="n">
         <v>13999449340.4104</v>
       </c>
-      <c r="AC18" s="27" t="n">
+      <c r="AC18" s="6" t="n">
         <v>20811171614.14</v>
       </c>
-      <c r="AD18" s="27" t="n">
+      <c r="AD18" s="6" t="n">
         <v>58262769719.1582</v>
       </c>
-      <c r="AE18" s="27" t="n">
+      <c r="AE18" s="6" t="n">
         <v>73651869394.5932</v>
       </c>
-      <c r="AF18" s="27" t="n">
+      <c r="AF18" s="6" t="n">
         <v>85332070918.1249</v>
       </c>
-      <c r="AG18" s="27" t="n">
+      <c r="AG18" s="6" t="n">
         <v>90197698449.5881</v>
       </c>
-      <c r="AH18" s="27" t="n">
+      <c r="AH18" s="6" t="n">
         <v>89599779831.1406</v>
       </c>
-      <c r="AI18" s="27" t="n">
+      <c r="AI18" s="6" t="n">
         <v>82019710304.484</v>
       </c>
-      <c r="AJ18" s="27" t="n">
+      <c r="AJ18" s="6" t="n">
         <v>65466290174.4904</v>
       </c>
-      <c r="AK18" s="27" t="n">
+      <c r="AK18" s="6" t="n">
         <v>65190930411.937</v>
       </c>
-      <c r="AL18" s="27" t="n">
+      <c r="AL18" s="6" t="n">
         <v>61002103510.0662</v>
       </c>
-      <c r="AM18" s="27" t="n">
+      <c r="AM18" s="6" t="n">
         <v>62438071903.6796</v>
       </c>
-      <c r="AN18" s="27" t="n">
+      <c r="AN18" s="6" t="n">
         <v>60867505020.439</v>
       </c>
-      <c r="AO18" s="27" t="n">
+      <c r="AO18" s="6" t="n">
         <v>65796623556.0121</v>
       </c>
-      <c r="AP18" s="27" t="n">
+      <c r="AP18" s="6" t="n">
         <v>64460806702.118</v>
       </c>
-      <c r="AQ18" s="27" t="n">
+      <c r="AQ18" s="6" t="n">
         <v>73869736338.0978</v>
       </c>
-      <c r="AR18" s="27" t="n">
+      <c r="AR18" s="6" t="n">
         <v>80438139882.3115</v>
       </c>
-      <c r="AS18" s="27" t="n">
+      <c r="AS18" s="6" t="n">
         <v>71110098253.9699</v>
       </c>
-      <c r="AT18" s="27" t="n">
+      <c r="AT18" s="6" t="n">
         <v>64110104150.2955</v>
       </c>
-      <c r="AU18" s="27"/>
-      <c r="AV18" s="27"/>
+      <c r="AU18" s="6"/>
+      <c r="AV18" s="6"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
         <f>L19</f>
       </c>
-      <c r="B19" s="27" t="str">
+      <c r="B19" s="6" t="str">
         <f>AQ19</f>
       </c>
-      <c r="C19" s="27" t="str">
+      <c r="C19" s="6" t="str">
         <f>AS19</f>
       </c>
-      <c r="D19" s="27" t="str">
+      <c r="D19" s="6" t="str">
         <f>AT19</f>
       </c>
-      <c r="E19" s="27"/>
+      <c r="E19" s="6"/>
       <c r="F19" s="1" t="str">
         <f>AT19/AS19-1</f>
       </c>
@@ -29949,125 +29949,125 @@
       </c>
       <c r="J19" s="1"/>
       <c r="L19"/>
-      <c r="M19" s="27" t="n">
+      <c r="M19" s="6" t="n">
         <v>245809852948.919</v>
       </c>
-      <c r="N19" s="27" t="n">
+      <c r="N19" s="6" t="n">
         <v>271402360256.698</v>
       </c>
-      <c r="O19" s="27" t="n">
+      <c r="O19" s="6" t="n">
         <v>239698731806.86</v>
       </c>
-      <c r="P19" s="27" t="n">
+      <c r="P19" s="6" t="n">
         <v>230421990983.78</v>
       </c>
-      <c r="Q19" s="27" t="n">
+      <c r="Q19" s="6" t="n">
         <v>217231565709.685</v>
       </c>
-      <c r="R19" s="27" t="n">
+      <c r="R19" s="6" t="n">
         <v>211462248696.892</v>
       </c>
-      <c r="S19" s="27" t="n">
+      <c r="S19" s="6" t="n">
         <v>212058052995.317</v>
       </c>
-      <c r="T19" s="27" t="n">
+      <c r="T19" s="6" t="n">
         <v>203966610604.009</v>
       </c>
-      <c r="U19" s="27" t="n">
+      <c r="U19" s="6" t="n">
         <v>201388436824.205</v>
       </c>
-      <c r="V19" s="27" t="n">
+      <c r="V19" s="6" t="n">
         <v>207983870386.187</v>
       </c>
-      <c r="W19" s="27" t="n">
+      <c r="W19" s="6" t="n">
         <v>205310247359.397</v>
       </c>
-      <c r="X19" s="27" t="n">
+      <c r="X19" s="6" t="n">
         <v>205561608165.765</v>
       </c>
-      <c r="Y19" s="27" t="n">
+      <c r="Y19" s="6" t="n">
         <v>219374706836.16</v>
       </c>
-      <c r="Z19" s="27" t="n">
+      <c r="Z19" s="6" t="n">
         <v>246932015643.217</v>
       </c>
-      <c r="AA19" s="27" t="n">
+      <c r="AA19" s="6" t="n">
         <v>246718343376.406</v>
       </c>
-      <c r="AB19" s="27" t="n">
+      <c r="AB19" s="6" t="n">
         <v>259234111837.631</v>
       </c>
-      <c r="AC19" s="27" t="n">
+      <c r="AC19" s="6" t="n">
         <v>228741941873.042</v>
       </c>
-      <c r="AD19" s="27" t="n">
+      <c r="AD19" s="6" t="n">
         <v>73314937204.4063</v>
       </c>
-      <c r="AE19" s="27" t="n">
+      <c r="AE19" s="6" t="n">
         <v>42151522145.6673</v>
       </c>
-      <c r="AF19" s="27" t="n">
+      <c r="AF19" s="6" t="n">
         <v>31366206899.0596</v>
       </c>
-      <c r="AG19" s="27" t="n">
+      <c r="AG19" s="6" t="n">
         <v>18708984997.9678</v>
       </c>
-      <c r="AH19" s="27" t="n">
+      <c r="AH19" s="6" t="n">
         <v>14714905189.2967</v>
       </c>
-      <c r="AI19" s="27" t="n">
+      <c r="AI19" s="6" t="n">
         <v>7208121636.35089</v>
       </c>
-      <c r="AJ19" s="27" t="n">
+      <c r="AJ19" s="6" t="n">
         <v>6786629089.9223</v>
       </c>
-      <c r="AK19" s="27" t="n">
+      <c r="AK19" s="6" t="n">
         <v>3539339051.75996</v>
       </c>
-      <c r="AL19" s="27" t="n">
+      <c r="AL19" s="6" t="n">
         <v>3072143645.38765</v>
       </c>
-      <c r="AM19" s="27" t="n">
+      <c r="AM19" s="6" t="n">
         <v>2953725850.82337</v>
       </c>
-      <c r="AN19" s="27" t="n">
+      <c r="AN19" s="6" t="n">
         <v>2380156028.68226</v>
       </c>
-      <c r="AO19" s="27" t="n">
+      <c r="AO19" s="6" t="n">
         <v>1242527279.15688</v>
       </c>
-      <c r="AP19" s="27" t="n">
+      <c r="AP19" s="6" t="n">
         <v>-51101161.8537246</v>
       </c>
-      <c r="AQ19" s="27" t="n">
+      <c r="AQ19" s="6" t="n">
         <v>446022144.979804</v>
       </c>
-      <c r="AR19" s="27" t="n">
+      <c r="AR19" s="6" t="n">
         <v>1677555683.17293</v>
       </c>
-      <c r="AS19" s="27" t="n">
+      <c r="AS19" s="6" t="n">
         <v>433336752.91445</v>
       </c>
-      <c r="AT19" s="27" t="n">
+      <c r="AT19" s="6" t="n">
         <v>235412261.9706</v>
       </c>
-      <c r="AU19" s="27"/>
-      <c r="AV19" s="27"/>
+      <c r="AU19" s="6"/>
+      <c r="AV19" s="6"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
         <f>L20</f>
       </c>
-      <c r="B20" s="27" t="str">
+      <c r="B20" s="6" t="str">
         <f>AQ20</f>
       </c>
-      <c r="C20" s="27" t="str">
+      <c r="C20" s="6" t="str">
         <f>AS20</f>
       </c>
-      <c r="D20" s="27" t="str">
+      <c r="D20" s="6" t="str">
         <f>AT20</f>
       </c>
-      <c r="E20" s="27"/>
+      <c r="E20" s="6"/>
       <c r="F20" s="1" t="str">
         <f>AT20/AS20-1</f>
       </c>
@@ -30082,112 +30082,112 @@
       <c r="L20" t="s">
         <v>46</v>
       </c>
-      <c r="M20" s="27" t="str">
+      <c r="M20" s="6" t="str">
         <f>Sum(M13:M19)</f>
       </c>
-      <c r="N20" s="27" t="str">
+      <c r="N20" s="6" t="str">
         <f>Sum(N13:N19)</f>
       </c>
-      <c r="O20" s="27" t="str">
+      <c r="O20" s="6" t="str">
         <f>Sum(O13:O19)</f>
       </c>
-      <c r="P20" s="27" t="str">
+      <c r="P20" s="6" t="str">
         <f>Sum(P13:P19)</f>
       </c>
-      <c r="Q20" s="27" t="str">
+      <c r="Q20" s="6" t="str">
         <f>Sum(Q13:Q19)</f>
       </c>
-      <c r="R20" s="27" t="str">
+      <c r="R20" s="6" t="str">
         <f>Sum(R13:R19)</f>
       </c>
-      <c r="S20" s="27" t="str">
+      <c r="S20" s="6" t="str">
         <f>Sum(S13:S19)</f>
       </c>
-      <c r="T20" s="27" t="str">
+      <c r="T20" s="6" t="str">
         <f>Sum(T13:T19)</f>
       </c>
-      <c r="U20" s="27" t="str">
+      <c r="U20" s="6" t="str">
         <f>Sum(U13:U19)</f>
       </c>
-      <c r="V20" s="27" t="str">
+      <c r="V20" s="6" t="str">
         <f>Sum(V13:V19)</f>
       </c>
-      <c r="W20" s="27" t="str">
+      <c r="W20" s="6" t="str">
         <f>Sum(W13:W19)</f>
       </c>
-      <c r="X20" s="27" t="str">
+      <c r="X20" s="6" t="str">
         <f>Sum(X13:X19)</f>
       </c>
-      <c r="Y20" s="27" t="str">
+      <c r="Y20" s="6" t="str">
         <f>Sum(Y13:Y19)</f>
       </c>
-      <c r="Z20" s="27" t="str">
+      <c r="Z20" s="6" t="str">
         <f>Sum(Z13:Z19)</f>
       </c>
-      <c r="AA20" s="27" t="str">
+      <c r="AA20" s="6" t="str">
         <f>Sum(AA13:AA19)</f>
       </c>
-      <c r="AB20" s="27" t="str">
+      <c r="AB20" s="6" t="str">
         <f>Sum(AB13:AB19)</f>
       </c>
-      <c r="AC20" s="27" t="str">
+      <c r="AC20" s="6" t="str">
         <f>Sum(AC13:AC19)</f>
       </c>
-      <c r="AD20" s="27" t="str">
+      <c r="AD20" s="6" t="str">
         <f>Sum(AD13:AD19)</f>
       </c>
-      <c r="AE20" s="27" t="str">
+      <c r="AE20" s="6" t="str">
         <f>Sum(AE13:AE19)</f>
       </c>
-      <c r="AF20" s="27" t="str">
+      <c r="AF20" s="6" t="str">
         <f>Sum(AF13:AF19)</f>
       </c>
-      <c r="AG20" s="27" t="str">
+      <c r="AG20" s="6" t="str">
         <f>Sum(AG13:AG19)</f>
       </c>
-      <c r="AH20" s="27" t="str">
+      <c r="AH20" s="6" t="str">
         <f>Sum(AH13:AH19)</f>
       </c>
-      <c r="AI20" s="27" t="str">
+      <c r="AI20" s="6" t="str">
         <f>Sum(AI13:AI19)</f>
       </c>
-      <c r="AJ20" s="27" t="str">
+      <c r="AJ20" s="6" t="str">
         <f>Sum(AJ13:AJ19)</f>
       </c>
-      <c r="AK20" s="27" t="str">
+      <c r="AK20" s="6" t="str">
         <f>Sum(AK13:AK19)</f>
       </c>
-      <c r="AL20" s="27" t="str">
+      <c r="AL20" s="6" t="str">
         <f>Sum(AL13:AL19)</f>
       </c>
-      <c r="AM20" s="27" t="str">
+      <c r="AM20" s="6" t="str">
         <f>Sum(AM13:AM19)</f>
       </c>
-      <c r="AN20" s="27" t="str">
+      <c r="AN20" s="6" t="str">
         <f>Sum(AN13:AN19)</f>
       </c>
-      <c r="AO20" s="27" t="str">
+      <c r="AO20" s="6" t="str">
         <f>Sum(AO13:AO19)</f>
       </c>
-      <c r="AP20" s="27" t="str">
+      <c r="AP20" s="6" t="str">
         <f>Sum(AP13:AP19)</f>
       </c>
-      <c r="AQ20" s="27" t="str">
+      <c r="AQ20" s="6" t="str">
         <f>Sum(AQ13:AQ19)</f>
       </c>
-      <c r="AR20" s="27" t="str">
+      <c r="AR20" s="6" t="str">
         <f>Sum(AR13:AR19)</f>
       </c>
-      <c r="AS20" s="27" t="str">
+      <c r="AS20" s="6" t="str">
         <f>Sum(AS13:AS19)</f>
       </c>
-      <c r="AT20" s="27" t="str">
+      <c r="AT20" s="6" t="str">
         <f>Sum(AT13:AT19)</f>
       </c>
-      <c r="AU20" s="27" t="str">
+      <c r="AU20" s="6" t="str">
         <f>Sum(AU13:AU19)</f>
       </c>
-      <c r="AV20" s="27"/>
+      <c r="AV20" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/NPS2024/DoD_2024_NPS.xlsx
+++ b/Output/AcqTrends/NPS2024/DoD_2024_NPS.xlsx
@@ -1,5 +1,5 @@
 
-<file path=xl/workbook.xml><?xml version="1.0" encoding="UTF-8" standalone="yes"?><workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x15 xr xr6 xr10 xr2" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2"><workbookPr date1904="false"/><bookViews><workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/></bookViews><sheets><sheet name="1 Budg" sheetId="1" state="visible" r:id="rId1"/><sheet name="2 K&Ota" sheetId="2" state="visible" r:id="rId2"/><sheet name="3 Plat" sheetId="3" state="visible" r:id="rId3"/><sheet name="5 Vend" sheetId="4" state="visible" r:id="rId4"/><sheet name="9 Dur" sheetId="5" state="visible" r:id="rId5"/><sheet name="11 OTAtype" sheetId="6" state="visible" r:id="rId6"/><sheet name="9 GFE" sheetId="7" state="visible" r:id="rId7"/><sheet name="10 Mult" sheetId="8" state="visible" r:id="rId8"/><sheet name="11 Mult" sheetId="9" state="visible" r:id="rId9"/><sheet name="1 Outlay" sheetId="10" state="visible" r:id="rId10"/><sheet name="1 TOA" sheetId="11" state="visible" r:id="rId11"/></sheets></workbook>
+<file path=xl/workbook.xml><?xml version="1.0" encoding="UTF-8" standalone="yes"?><workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x15 xr xr6 xr10 xr2" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2"><workbookPr date1904="false"/><bookViews><workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/></bookViews><sheets><sheet name="1 Budg" sheetId="1" state="visible" r:id="rId1"/><sheet name="2 K&Ota" sheetId="2" state="visible" r:id="rId2"/><sheet name="3 Plat" sheetId="3" state="visible" r:id="rId3"/><sheet name="5 Vend" sheetId="4" state="visible" r:id="rId4"/><sheet name="9 Dur" sheetId="5" state="visible" r:id="rId5"/><sheet name="11 OTAtype" sheetId="6" state="visible" r:id="rId6"/><sheet name="9 GFE" sheetId="7" state="visible" r:id="rId7"/><sheet name="10 Mult" sheetId="8" state="visible" r:id="rId8"/><sheet name="11 Mult" sheetId="9" state="visible" r:id="rId9"/><sheet name="1 Outlay" sheetId="10" state="visible" r:id="rId10"/><sheet name="1 TOA" sheetId="11" state="visible" r:id="rId11"/><sheet name="2 KOta" sheetId="12" state="visible" r:id="rId12"/><sheet name="11 MultPSC" sheetId="13" state="visible" r:id="rId13"/><sheet name="12 OTAtype" sheetId="14" state="visible" r:id="rId14"/></sheets></workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -376,23 +376,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="16">
+  <numFmts count="19">
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="170" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="213" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="233" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="220" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="178" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="229" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="238" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="183" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="185" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="204" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="209" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="215" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="222" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="228" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="189" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="192" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="223" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="234" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="237" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="239" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="240" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -428,25 +431,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="213" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="233" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="220" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="229" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="238" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="185" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="204" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="209" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="215" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="222" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="228" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="189" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="192" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="223" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="234" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="237" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="239" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="240" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2332,71 +2338,71 @@
       <c r="N2" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="17"/>
-      <c r="AJ2" s="17"/>
-      <c r="AK2" s="17" t="n">
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="14"/>
+      <c r="AK2" s="14" t="n">
         <v>27766499707.7925</v>
       </c>
-      <c r="AL2" s="17" t="n">
+      <c r="AL2" s="14" t="n">
         <v>20370470402.3352</v>
       </c>
-      <c r="AM2" s="17" t="n">
+      <c r="AM2" s="14" t="n">
         <v>15761273120.7975</v>
       </c>
-      <c r="AN2" s="17" t="n">
+      <c r="AN2" s="14" t="n">
         <v>23354753347.4642</v>
       </c>
-      <c r="AO2" s="17" t="n">
+      <c r="AO2" s="14" t="n">
         <v>33579323851.3433</v>
       </c>
-      <c r="AP2" s="17" t="n">
+      <c r="AP2" s="14" t="n">
         <v>31744209582.4775</v>
       </c>
-      <c r="AQ2" s="17" t="n">
+      <c r="AQ2" s="14" t="n">
         <v>34798072386.1799</v>
       </c>
-      <c r="AR2" s="17" t="n">
+      <c r="AR2" s="14" t="n">
         <v>38381428744.3879</v>
       </c>
-      <c r="AS2" s="17" t="n">
+      <c r="AS2" s="14" t="n">
         <v>50194113808.9869</v>
       </c>
-      <c r="AT2" s="17" t="n">
+      <c r="AT2" s="14" t="n">
         <v>24883846155.5851</v>
       </c>
-      <c r="AU2" s="17" t="n">
+      <c r="AU2" s="14" t="n">
         <v>38749898900.9551</v>
       </c>
-      <c r="AV2" s="17" t="n">
+      <c r="AV2" s="14" t="n">
         <v>65793606959.6752</v>
       </c>
-      <c r="AW2" s="17"/>
-      <c r="AX2" s="17"/>
-      <c r="AY2" s="17"/>
-      <c r="AZ2" s="17"/>
-      <c r="BA2" s="17"/>
-      <c r="BB2" s="17"/>
-      <c r="BC2" s="17"/>
+      <c r="AW2" s="14"/>
+      <c r="AX2" s="14"/>
+      <c r="AY2" s="14"/>
+      <c r="AZ2" s="14"/>
+      <c r="BA2" s="14"/>
+      <c r="BB2" s="14"/>
+      <c r="BC2" s="14"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -2411,71 +2417,71 @@
       <c r="N3" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="17"/>
-      <c r="AE3" s="17"/>
-      <c r="AF3" s="17"/>
-      <c r="AG3" s="17"/>
-      <c r="AH3" s="17"/>
-      <c r="AI3" s="17"/>
-      <c r="AJ3" s="17"/>
-      <c r="AK3" s="17" t="n">
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14"/>
+      <c r="AE3" s="14"/>
+      <c r="AF3" s="14"/>
+      <c r="AG3" s="14"/>
+      <c r="AH3" s="14"/>
+      <c r="AI3" s="14"/>
+      <c r="AJ3" s="14"/>
+      <c r="AK3" s="14" t="n">
         <v>330026805340.834</v>
       </c>
-      <c r="AL3" s="17" t="n">
+      <c r="AL3" s="14" t="n">
         <v>287169645793.985</v>
       </c>
-      <c r="AM3" s="17" t="n">
+      <c r="AM3" s="14" t="n">
         <v>267688247411.752</v>
       </c>
-      <c r="AN3" s="17" t="n">
+      <c r="AN3" s="14" t="n">
         <v>182341674892.763</v>
       </c>
-      <c r="AO3" s="17" t="n">
+      <c r="AO3" s="14" t="n">
         <v>264945449752.851</v>
       </c>
-      <c r="AP3" s="17" t="n">
+      <c r="AP3" s="14" t="n">
         <v>290110867193.627</v>
       </c>
-      <c r="AQ3" s="17" t="n">
+      <c r="AQ3" s="14" t="n">
         <v>324032036748.594</v>
       </c>
-      <c r="AR3" s="17" t="n">
+      <c r="AR3" s="14" t="n">
         <v>345594196598.929</v>
       </c>
-      <c r="AS3" s="17" t="n">
+      <c r="AS3" s="14" t="n">
         <v>372553530927.949</v>
       </c>
-      <c r="AT3" s="17" t="n">
+      <c r="AT3" s="14" t="n">
         <v>362819226712.24</v>
       </c>
-      <c r="AU3" s="17" t="n">
+      <c r="AU3" s="14" t="n">
         <v>375746041521.185</v>
       </c>
-      <c r="AV3" s="17" t="n">
+      <c r="AV3" s="14" t="n">
         <v>390453124911.284</v>
       </c>
-      <c r="AW3" s="17"/>
-      <c r="AX3" s="17"/>
-      <c r="AY3" s="17"/>
-      <c r="AZ3" s="17"/>
-      <c r="BA3" s="17"/>
-      <c r="BB3" s="17"/>
-      <c r="BC3" s="17"/>
+      <c r="AW3" s="14"/>
+      <c r="AX3" s="14"/>
+      <c r="AY3" s="14"/>
+      <c r="AZ3" s="14"/>
+      <c r="BA3" s="14"/>
+      <c r="BB3" s="14"/>
+      <c r="BC3" s="14"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -2490,99 +2496,99 @@
       <c r="N4" t="s">
         <v>44</v>
       </c>
-      <c r="O4" s="17" t="n">
+      <c r="O4" s="14" t="n">
         <v>120350129405</v>
       </c>
-      <c r="P4" s="17" t="n">
+      <c r="P4" s="14" t="n">
         <v>136154193844</v>
       </c>
-      <c r="Q4" s="17" t="n">
+      <c r="Q4" s="14" t="n">
         <v>123406660550</v>
       </c>
-      <c r="R4" s="17" t="n">
+      <c r="R4" s="14" t="n">
         <v>121373382142</v>
       </c>
-      <c r="S4" s="17" t="n">
+      <c r="S4" s="14" t="n">
         <v>117161902725</v>
       </c>
-      <c r="T4" s="17" t="n">
+      <c r="T4" s="14" t="n">
         <v>116592014868</v>
       </c>
-      <c r="U4" s="17" t="n">
+      <c r="U4" s="14" t="n">
         <v>118448779098</v>
       </c>
-      <c r="V4" s="17" t="n">
+      <c r="V4" s="14" t="n">
         <v>115982151879</v>
       </c>
-      <c r="W4" s="17" t="n">
+      <c r="W4" s="14" t="n">
         <v>116965882167</v>
       </c>
-      <c r="X4" s="17" t="n">
+      <c r="X4" s="14" t="n">
         <v>122185036488</v>
       </c>
-      <c r="Y4" s="17" t="n">
+      <c r="Y4" s="14" t="n">
         <v>132178486506.387</v>
       </c>
-      <c r="Z4" s="17" t="n">
+      <c r="Z4" s="14" t="n">
         <v>143993638622.327</v>
       </c>
-      <c r="AA4" s="17" t="n">
+      <c r="AA4" s="14" t="n">
         <v>169810521136.485</v>
       </c>
-      <c r="AB4" s="17" t="n">
+      <c r="AB4" s="14" t="n">
         <v>211533087303.861</v>
       </c>
-      <c r="AC4" s="17" t="n">
+      <c r="AC4" s="14" t="n">
         <v>229775031821.915</v>
       </c>
-      <c r="AD4" s="17" t="n">
+      <c r="AD4" s="14" t="n">
         <v>265664518702.457</v>
       </c>
-      <c r="AE4" s="17" t="n">
+      <c r="AE4" s="14" t="n">
         <v>295165186343.118</v>
       </c>
-      <c r="AF4" s="17" t="n">
+      <c r="AF4" s="14" t="n">
         <v>328154422853.492</v>
       </c>
-      <c r="AG4" s="17" t="n">
+      <c r="AG4" s="14" t="n">
         <v>377988086084.829</v>
       </c>
-      <c r="AH4" s="17" t="n">
+      <c r="AH4" s="14" t="n">
         <v>367650065478.427</v>
       </c>
-      <c r="AI4" s="17" t="n">
+      <c r="AI4" s="14" t="n">
         <v>362696345236.665</v>
       </c>
-      <c r="AJ4" s="17" t="n">
+      <c r="AJ4" s="14" t="n">
         <v>368563658869.492</v>
       </c>
-      <c r="AK4" s="17" t="n">
+      <c r="AK4" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="AL4" s="17" t="n">
+      <c r="AL4" s="14" t="n">
         <v>688297065.81</v>
       </c>
-      <c r="AM4" s="17" t="n">
+      <c r="AM4" s="14" t="n">
         <v>17295</v>
       </c>
-      <c r="AN4" s="17" t="n">
+      <c r="AN4" s="14" t="n">
         <v>68529812030.32</v>
       </c>
-      <c r="AO4" s="17"/>
-      <c r="AP4" s="17"/>
-      <c r="AQ4" s="17"/>
-      <c r="AR4" s="17"/>
-      <c r="AS4" s="17"/>
-      <c r="AT4" s="17"/>
-      <c r="AU4" s="17"/>
-      <c r="AV4" s="17"/>
-      <c r="AW4" s="17"/>
-      <c r="AX4" s="17"/>
-      <c r="AY4" s="17"/>
-      <c r="AZ4" s="17"/>
-      <c r="BA4" s="17"/>
-      <c r="BB4" s="17"/>
-      <c r="BC4" s="17"/>
+      <c r="AO4" s="14"/>
+      <c r="AP4" s="14"/>
+      <c r="AQ4" s="14"/>
+      <c r="AR4" s="14"/>
+      <c r="AS4" s="14"/>
+      <c r="AT4" s="14"/>
+      <c r="AU4" s="14"/>
+      <c r="AV4" s="14"/>
+      <c r="AW4" s="14"/>
+      <c r="AX4" s="14"/>
+      <c r="AY4" s="14"/>
+      <c r="AZ4" s="14"/>
+      <c r="BA4" s="14"/>
+      <c r="BB4" s="14"/>
+      <c r="BC4" s="14"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -2597,127 +2603,127 @@
       <c r="N5" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="17" t="n">
+      <c r="O5" s="14" t="n">
         <v>289694000000</v>
       </c>
-      <c r="P5" s="17" t="n">
+      <c r="P5" s="14" t="n">
         <v>262324000000</v>
       </c>
-      <c r="Q5" s="17" t="n">
+      <c r="Q5" s="14" t="n">
         <v>286834000000</v>
       </c>
-      <c r="R5" s="17" t="n">
+      <c r="R5" s="14" t="n">
         <v>278497000000</v>
       </c>
-      <c r="S5" s="17" t="n">
+      <c r="S5" s="14" t="n">
         <v>268553000000</v>
       </c>
-      <c r="T5" s="17" t="n">
+      <c r="T5" s="14" t="n">
         <v>259373000000</v>
       </c>
-      <c r="U5" s="17" t="n">
+      <c r="U5" s="14" t="n">
         <v>253130000000</v>
       </c>
-      <c r="V5" s="17" t="n">
+      <c r="V5" s="14" t="n">
         <v>258251000000</v>
       </c>
-      <c r="W5" s="17" t="n">
+      <c r="W5" s="14" t="n">
         <v>255793000000</v>
       </c>
-      <c r="X5" s="17" t="n">
+      <c r="X5" s="14" t="n">
         <v>261198000000</v>
       </c>
-      <c r="Y5" s="17" t="n">
+      <c r="Y5" s="14" t="n">
         <v>281029000000</v>
       </c>
-      <c r="Z5" s="17" t="n">
+      <c r="Z5" s="14" t="n">
         <v>290185000000</v>
       </c>
-      <c r="AA5" s="17" t="n">
+      <c r="AA5" s="14" t="n">
         <v>331845000000</v>
       </c>
-      <c r="AB5" s="17" t="n">
+      <c r="AB5" s="14" t="n">
         <v>387136000000</v>
       </c>
-      <c r="AC5" s="17" t="n">
+      <c r="AC5" s="14" t="n">
         <v>436439000000</v>
       </c>
-      <c r="AD5" s="17" t="n">
+      <c r="AD5" s="14" t="n">
         <v>474071000000</v>
       </c>
-      <c r="AE5" s="17" t="n">
+      <c r="AE5" s="14" t="n">
         <v>499297000000</v>
       </c>
-      <c r="AF5" s="17" t="n">
+      <c r="AF5" s="14" t="n">
         <v>528548000000</v>
       </c>
-      <c r="AG5" s="17" t="n">
+      <c r="AG5" s="14" t="n">
         <v>594632000000</v>
       </c>
-      <c r="AH5" s="17" t="n">
+      <c r="AH5" s="14" t="n">
         <v>636742000000</v>
       </c>
-      <c r="AI5" s="17" t="n">
+      <c r="AI5" s="14" t="n">
         <v>666703000000</v>
       </c>
-      <c r="AJ5" s="17" t="n">
+      <c r="AJ5" s="14" t="n">
         <v>678064000000</v>
       </c>
-      <c r="AK5" s="17" t="n">
+      <c r="AK5" s="14" t="n">
         <v>650851000000</v>
       </c>
-      <c r="AL5" s="17" t="n">
+      <c r="AL5" s="14" t="n">
         <v>607795000000</v>
       </c>
-      <c r="AM5" s="17" t="n">
+      <c r="AM5" s="14" t="n">
         <v>577897000000</v>
       </c>
-      <c r="AN5" s="17" t="n">
+      <c r="AN5" s="14" t="n">
         <v>562499000000</v>
       </c>
-      <c r="AO5" s="17" t="n">
+      <c r="AO5" s="14" t="n">
         <v>565370000000</v>
       </c>
-      <c r="AP5" s="17" t="n">
+      <c r="AP5" s="14" t="n">
         <v>568897000000</v>
       </c>
-      <c r="AQ5" s="17" t="n">
+      <c r="AQ5" s="14" t="n">
         <v>600804000000</v>
       </c>
-      <c r="AR5" s="17" t="n">
+      <c r="AR5" s="14" t="n">
         <v>653690000000</v>
       </c>
-      <c r="AS5" s="17" t="n">
+      <c r="AS5" s="14" t="n">
         <v>690363000000</v>
       </c>
-      <c r="AT5" s="17" t="n">
+      <c r="AT5" s="14" t="n">
         <v>717577000000</v>
       </c>
-      <c r="AU5" s="17" t="n">
+      <c r="AU5" s="14" t="n">
         <v>726458000000</v>
       </c>
-      <c r="AV5" s="17" t="n">
+      <c r="AV5" s="14" t="n">
         <v>775874000000</v>
       </c>
-      <c r="AW5" s="17" t="n">
+      <c r="AW5" s="14" t="n">
         <v>859539000000</v>
       </c>
-      <c r="AX5" s="17" t="n">
+      <c r="AX5" s="14" t="n">
         <v>878467000000</v>
       </c>
-      <c r="AY5" s="17" t="n">
+      <c r="AY5" s="14" t="n">
         <v>883218000000</v>
       </c>
-      <c r="AZ5" s="17" t="n">
+      <c r="AZ5" s="14" t="n">
         <v>895811000000</v>
       </c>
-      <c r="BA5" s="17" t="n">
+      <c r="BA5" s="14" t="n">
         <v>914366000000</v>
       </c>
-      <c r="BB5" s="17" t="n">
+      <c r="BB5" s="14" t="n">
         <v>934814000000</v>
       </c>
-      <c r="BC5" s="17"/>
+      <c r="BC5" s="14"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -2732,127 +2738,127 @@
       <c r="N6" t="s">
         <v>47</v>
       </c>
-      <c r="O6" s="17" t="str">
+      <c r="O6" s="14" t="str">
         <f>Sum(O2:O5)</f>
       </c>
-      <c r="P6" s="17" t="str">
+      <c r="P6" s="14" t="str">
         <f>Sum(P2:P5)</f>
       </c>
-      <c r="Q6" s="17" t="str">
+      <c r="Q6" s="14" t="str">
         <f>Sum(Q2:Q5)</f>
       </c>
-      <c r="R6" s="17" t="str">
+      <c r="R6" s="14" t="str">
         <f>Sum(R2:R5)</f>
       </c>
-      <c r="S6" s="17" t="str">
+      <c r="S6" s="14" t="str">
         <f>Sum(S2:S5)</f>
       </c>
-      <c r="T6" s="17" t="str">
+      <c r="T6" s="14" t="str">
         <f>Sum(T2:T5)</f>
       </c>
-      <c r="U6" s="17" t="str">
+      <c r="U6" s="14" t="str">
         <f>Sum(U2:U5)</f>
       </c>
-      <c r="V6" s="17" t="str">
+      <c r="V6" s="14" t="str">
         <f>Sum(V2:V5)</f>
       </c>
-      <c r="W6" s="17" t="str">
+      <c r="W6" s="14" t="str">
         <f>Sum(W2:W5)</f>
       </c>
-      <c r="X6" s="17" t="str">
+      <c r="X6" s="14" t="str">
         <f>Sum(X2:X5)</f>
       </c>
-      <c r="Y6" s="17" t="str">
+      <c r="Y6" s="14" t="str">
         <f>Sum(Y2:Y5)</f>
       </c>
-      <c r="Z6" s="17" t="str">
+      <c r="Z6" s="14" t="str">
         <f>Sum(Z2:Z5)</f>
       </c>
-      <c r="AA6" s="17" t="str">
+      <c r="AA6" s="14" t="str">
         <f>Sum(AA2:AA5)</f>
       </c>
-      <c r="AB6" s="17" t="str">
+      <c r="AB6" s="14" t="str">
         <f>Sum(AB2:AB5)</f>
       </c>
-      <c r="AC6" s="17" t="str">
+      <c r="AC6" s="14" t="str">
         <f>Sum(AC2:AC5)</f>
       </c>
-      <c r="AD6" s="17" t="str">
+      <c r="AD6" s="14" t="str">
         <f>Sum(AD2:AD5)</f>
       </c>
-      <c r="AE6" s="17" t="str">
+      <c r="AE6" s="14" t="str">
         <f>Sum(AE2:AE5)</f>
       </c>
-      <c r="AF6" s="17" t="str">
+      <c r="AF6" s="14" t="str">
         <f>Sum(AF2:AF5)</f>
       </c>
-      <c r="AG6" s="17" t="str">
+      <c r="AG6" s="14" t="str">
         <f>Sum(AG2:AG5)</f>
       </c>
-      <c r="AH6" s="17" t="str">
+      <c r="AH6" s="14" t="str">
         <f>Sum(AH2:AH5)</f>
       </c>
-      <c r="AI6" s="17" t="str">
+      <c r="AI6" s="14" t="str">
         <f>Sum(AI2:AI5)</f>
       </c>
-      <c r="AJ6" s="17" t="str">
+      <c r="AJ6" s="14" t="str">
         <f>Sum(AJ2:AJ5)</f>
       </c>
-      <c r="AK6" s="17" t="str">
+      <c r="AK6" s="14" t="str">
         <f>Sum(AK2:AK5)</f>
       </c>
-      <c r="AL6" s="17" t="str">
+      <c r="AL6" s="14" t="str">
         <f>Sum(AL2:AL5)</f>
       </c>
-      <c r="AM6" s="17" t="str">
+      <c r="AM6" s="14" t="str">
         <f>Sum(AM2:AM5)</f>
       </c>
-      <c r="AN6" s="17" t="str">
+      <c r="AN6" s="14" t="str">
         <f>Sum(AN2:AN5)</f>
       </c>
-      <c r="AO6" s="17" t="str">
+      <c r="AO6" s="14" t="str">
         <f>Sum(AO2:AO5)</f>
       </c>
-      <c r="AP6" s="17" t="str">
+      <c r="AP6" s="14" t="str">
         <f>Sum(AP2:AP5)</f>
       </c>
-      <c r="AQ6" s="17" t="str">
+      <c r="AQ6" s="14" t="str">
         <f>Sum(AQ2:AQ5)</f>
       </c>
-      <c r="AR6" s="17" t="str">
+      <c r="AR6" s="14" t="str">
         <f>Sum(AR2:AR5)</f>
       </c>
-      <c r="AS6" s="17" t="str">
+      <c r="AS6" s="14" t="str">
         <f>Sum(AS2:AS5)</f>
       </c>
-      <c r="AT6" s="17" t="str">
+      <c r="AT6" s="14" t="str">
         <f>Sum(AT2:AT5)</f>
       </c>
-      <c r="AU6" s="17" t="str">
+      <c r="AU6" s="14" t="str">
         <f>Sum(AU2:AU5)</f>
       </c>
-      <c r="AV6" s="17" t="str">
+      <c r="AV6" s="14" t="str">
         <f>Sum(AV2:AV5)</f>
       </c>
-      <c r="AW6" s="17" t="str">
+      <c r="AW6" s="14" t="str">
         <f>Sum(AW2:AW5)</f>
       </c>
-      <c r="AX6" s="17" t="str">
+      <c r="AX6" s="14" t="str">
         <f>Sum(AX2:AX5)</f>
       </c>
-      <c r="AY6" s="17" t="str">
+      <c r="AY6" s="14" t="str">
         <f>Sum(AY2:AY5)</f>
       </c>
-      <c r="AZ6" s="17" t="str">
+      <c r="AZ6" s="14" t="str">
         <f>Sum(AZ2:AZ5)</f>
       </c>
-      <c r="BA6" s="17" t="str">
+      <c r="BA6" s="14" t="str">
         <f>Sum(BA2:BA5)</f>
       </c>
-      <c r="BB6" s="17" t="str">
+      <c r="BB6" s="14" t="str">
         <f>Sum(BB2:BB5)</f>
       </c>
-      <c r="BC6" s="17"/>
+      <c r="BC6" s="14"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -3013,16 +3019,16 @@
       <c r="B10" t="str">
         <f>N10</f>
       </c>
-      <c r="C10" s="17" t="str">
+      <c r="C10" s="14" t="str">
         <f>AS10</f>
       </c>
-      <c r="D10" s="17" t="str">
+      <c r="D10" s="14" t="str">
         <f>AU10</f>
       </c>
-      <c r="E10" s="17" t="str">
+      <c r="E10" s="14" t="str">
         <f>AV10</f>
       </c>
-      <c r="F10" s="17"/>
+      <c r="F10" s="14"/>
       <c r="G10" s="1" t="str">
         <f>AV10/AU10-1</f>
       </c>
@@ -3040,71 +3046,71 @@
       <c r="N10" t="s">
         <v>42</v>
       </c>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="17"/>
-      <c r="AC10" s="17"/>
-      <c r="AD10" s="17"/>
-      <c r="AE10" s="17"/>
-      <c r="AF10" s="17"/>
-      <c r="AG10" s="17"/>
-      <c r="AH10" s="17"/>
-      <c r="AI10" s="17"/>
-      <c r="AJ10" s="17"/>
-      <c r="AK10" s="17" t="n">
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="14"/>
+      <c r="AI10" s="14"/>
+      <c r="AJ10" s="14"/>
+      <c r="AK10" s="14" t="n">
         <v>36390987981.8448</v>
       </c>
-      <c r="AL10" s="17" t="n">
+      <c r="AL10" s="14" t="n">
         <v>26221905738.2968</v>
       </c>
-      <c r="AM10" s="17" t="n">
+      <c r="AM10" s="14" t="n">
         <v>19925213441.3071</v>
       </c>
-      <c r="AN10" s="17" t="n">
+      <c r="AN10" s="14" t="n">
         <v>29222168317.7287</v>
       </c>
-      <c r="AO10" s="17" t="n">
+      <c r="AO10" s="14" t="n">
         <v>41682205250.0166</v>
       </c>
-      <c r="AP10" s="17" t="n">
+      <c r="AP10" s="14" t="n">
         <v>38750156644.7742</v>
       </c>
-      <c r="AQ10" s="17" t="n">
+      <c r="AQ10" s="14" t="n">
         <v>41555475393.5778</v>
       </c>
-      <c r="AR10" s="17" t="n">
+      <c r="AR10" s="14" t="n">
         <v>45002603100.1161</v>
       </c>
-      <c r="AS10" s="17" t="n">
+      <c r="AS10" s="14" t="n">
         <v>58094201874.9828</v>
       </c>
-      <c r="AT10" s="17" t="n">
+      <c r="AT10" s="14" t="n">
         <v>27842081578.4401</v>
       </c>
-      <c r="AU10" s="17" t="n">
+      <c r="AU10" s="14" t="n">
         <v>40522574821.365</v>
       </c>
-      <c r="AV10" s="17" t="n">
+      <c r="AV10" s="14" t="n">
         <v>65793606959.6752</v>
       </c>
-      <c r="AW10" s="17"/>
-      <c r="AX10" s="17"/>
-      <c r="AY10" s="17"/>
-      <c r="AZ10" s="17"/>
-      <c r="BA10" s="17"/>
-      <c r="BB10" s="17"/>
-      <c r="BC10" s="17"/>
+      <c r="AW10" s="14"/>
+      <c r="AX10" s="14"/>
+      <c r="AY10" s="14"/>
+      <c r="AZ10" s="14"/>
+      <c r="BA10" s="14"/>
+      <c r="BB10" s="14"/>
+      <c r="BC10" s="14"/>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -3113,16 +3119,16 @@
       <c r="B11" t="str">
         <f>N11</f>
       </c>
-      <c r="C11" s="17" t="str">
+      <c r="C11" s="14" t="str">
         <f>AS11</f>
       </c>
-      <c r="D11" s="17" t="str">
+      <c r="D11" s="14" t="str">
         <f>AU11</f>
       </c>
-      <c r="E11" s="17" t="str">
+      <c r="E11" s="14" t="str">
         <f>AV11</f>
       </c>
-      <c r="F11" s="17"/>
+      <c r="F11" s="14"/>
       <c r="G11" s="1" t="str">
         <f>AV11/AU11-1</f>
       </c>
@@ -3140,71 +3146,71 @@
       <c r="N11" t="s">
         <v>43</v>
       </c>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="17"/>
-      <c r="AC11" s="17"/>
-      <c r="AD11" s="17"/>
-      <c r="AE11" s="17"/>
-      <c r="AF11" s="17"/>
-      <c r="AG11" s="17"/>
-      <c r="AH11" s="17"/>
-      <c r="AI11" s="17"/>
-      <c r="AJ11" s="17"/>
-      <c r="AK11" s="17" t="n">
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14"/>
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="14"/>
+      <c r="AI11" s="14"/>
+      <c r="AJ11" s="14"/>
+      <c r="AK11" s="14" t="n">
         <v>432535668277.784</v>
       </c>
-      <c r="AL11" s="17" t="n">
+      <c r="AL11" s="14" t="n">
         <v>369659376253.123</v>
       </c>
-      <c r="AM11" s="17" t="n">
+      <c r="AM11" s="14" t="n">
         <v>338408288754.957</v>
       </c>
-      <c r="AN11" s="17" t="n">
+      <c r="AN11" s="14" t="n">
         <v>228151376115.108</v>
       </c>
-      <c r="AO11" s="17" t="n">
+      <c r="AO11" s="14" t="n">
         <v>328878290270.115</v>
       </c>
-      <c r="AP11" s="17" t="n">
+      <c r="AP11" s="14" t="n">
         <v>354138335651.29</v>
       </c>
-      <c r="AQ11" s="17" t="n">
+      <c r="AQ11" s="14" t="n">
         <v>386955495132.106</v>
       </c>
-      <c r="AR11" s="17" t="n">
+      <c r="AR11" s="14" t="n">
         <v>405212598176.643</v>
       </c>
-      <c r="AS11" s="17" t="n">
+      <c r="AS11" s="14" t="n">
         <v>431190002025.514</v>
       </c>
-      <c r="AT11" s="17" t="n">
+      <c r="AT11" s="14" t="n">
         <v>405951814891.826</v>
       </c>
-      <c r="AU11" s="17" t="n">
+      <c r="AU11" s="14" t="n">
         <v>392935143399.785</v>
       </c>
-      <c r="AV11" s="17" t="n">
+      <c r="AV11" s="14" t="n">
         <v>390453124911.284</v>
       </c>
-      <c r="AW11" s="17"/>
-      <c r="AX11" s="17"/>
-      <c r="AY11" s="17"/>
-      <c r="AZ11" s="17"/>
-      <c r="BA11" s="17"/>
-      <c r="BB11" s="17"/>
-      <c r="BC11" s="17"/>
+      <c r="AW11" s="14"/>
+      <c r="AX11" s="14"/>
+      <c r="AY11" s="14"/>
+      <c r="AZ11" s="14"/>
+      <c r="BA11" s="14"/>
+      <c r="BB11" s="14"/>
+      <c r="BC11" s="14"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -3213,16 +3219,16 @@
       <c r="B12" t="str">
         <f>N12</f>
       </c>
-      <c r="C12" s="17" t="str">
+      <c r="C12" s="14" t="str">
         <f>AS12</f>
       </c>
-      <c r="D12" s="17" t="str">
+      <c r="D12" s="14" t="str">
         <f>AU12</f>
       </c>
-      <c r="E12" s="17" t="str">
+      <c r="E12" s="14" t="str">
         <f>AV12</f>
       </c>
-      <c r="F12" s="17"/>
+      <c r="F12" s="14"/>
       <c r="G12" s="1" t="str">
         <f>AV12/AU12-1</f>
       </c>
@@ -3240,99 +3246,99 @@
       <c r="N12" t="s">
         <v>44</v>
       </c>
-      <c r="O12" s="17" t="n">
+      <c r="O12" s="14" t="n">
         <v>248917998790.874</v>
       </c>
-      <c r="P12" s="17" t="n">
+      <c r="P12" s="14" t="n">
         <v>271885202720.129</v>
       </c>
-      <c r="Q12" s="17" t="n">
+      <c r="Q12" s="14" t="n">
         <v>240412560734.939</v>
       </c>
-      <c r="R12" s="17" t="n">
+      <c r="R12" s="14" t="n">
         <v>231031479111.987</v>
       </c>
-      <c r="S12" s="17" t="n">
+      <c r="S12" s="14" t="n">
         <v>218250472650.085</v>
       </c>
-      <c r="T12" s="17" t="n">
+      <c r="T12" s="14" t="n">
         <v>212677633977.603</v>
       </c>
-      <c r="U12" s="17" t="n">
+      <c r="U12" s="14" t="n">
         <v>212071611328.834</v>
       </c>
-      <c r="V12" s="17" t="n">
+      <c r="V12" s="14" t="n">
         <v>204034317412.979</v>
       </c>
-      <c r="W12" s="17" t="n">
+      <c r="W12" s="14" t="n">
         <v>203216983313.484</v>
       </c>
-      <c r="X12" s="17" t="n">
+      <c r="X12" s="14" t="n">
         <v>209688280565.4</v>
       </c>
-      <c r="Y12" s="17" t="n">
+      <c r="Y12" s="14" t="n">
         <v>222214954426.99</v>
       </c>
-      <c r="Z12" s="17" t="n">
+      <c r="Z12" s="14" t="n">
         <v>236349380888.81</v>
       </c>
-      <c r="AA12" s="17" t="n">
+      <c r="AA12" s="14" t="n">
         <v>274407867640.784</v>
       </c>
-      <c r="AB12" s="17" t="n">
+      <c r="AB12" s="14" t="n">
         <v>335392180164.508</v>
       </c>
-      <c r="AC12" s="17" t="n">
+      <c r="AC12" s="14" t="n">
         <v>355631268362.082</v>
       </c>
-      <c r="AD12" s="17" t="n">
+      <c r="AD12" s="14" t="n">
         <v>399036148831.483</v>
       </c>
-      <c r="AE12" s="17" t="n">
+      <c r="AE12" s="14" t="n">
         <v>429398334912.128</v>
       </c>
-      <c r="AF12" s="17" t="n">
+      <c r="AF12" s="14" t="n">
         <v>464599981527.663</v>
       </c>
-      <c r="AG12" s="17" t="n">
+      <c r="AG12" s="14" t="n">
         <v>524270033515.516</v>
       </c>
-      <c r="AH12" s="17" t="n">
+      <c r="AH12" s="14" t="n">
         <v>504769356284.26</v>
       </c>
-      <c r="AI12" s="17" t="n">
+      <c r="AI12" s="14" t="n">
         <v>493692493831.535</v>
       </c>
-      <c r="AJ12" s="17" t="n">
+      <c r="AJ12" s="14" t="n">
         <v>491807672354.496</v>
       </c>
-      <c r="AK12" s="17" t="n">
+      <c r="AK12" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="AL12" s="17" t="n">
+      <c r="AL12" s="14" t="n">
         <v>886010996.464129</v>
       </c>
-      <c r="AM12" s="17" t="n">
+      <c r="AM12" s="14" t="n">
         <v>21864.1326640477</v>
       </c>
-      <c r="AN12" s="17" t="n">
+      <c r="AN12" s="14" t="n">
         <v>85746557548.1986</v>
       </c>
-      <c r="AO12" s="17"/>
-      <c r="AP12" s="17"/>
-      <c r="AQ12" s="17"/>
-      <c r="AR12" s="17"/>
-      <c r="AS12" s="17"/>
-      <c r="AT12" s="17"/>
-      <c r="AU12" s="17"/>
-      <c r="AV12" s="17"/>
-      <c r="AW12" s="17"/>
-      <c r="AX12" s="17"/>
-      <c r="AY12" s="17"/>
-      <c r="AZ12" s="17"/>
-      <c r="BA12" s="17"/>
-      <c r="BB12" s="17"/>
-      <c r="BC12" s="17"/>
+      <c r="AO12" s="14"/>
+      <c r="AP12" s="14"/>
+      <c r="AQ12" s="14"/>
+      <c r="AR12" s="14"/>
+      <c r="AS12" s="14"/>
+      <c r="AT12" s="14"/>
+      <c r="AU12" s="14"/>
+      <c r="AV12" s="14"/>
+      <c r="AW12" s="14"/>
+      <c r="AX12" s="14"/>
+      <c r="AY12" s="14"/>
+      <c r="AZ12" s="14"/>
+      <c r="BA12" s="14"/>
+      <c r="BB12" s="14"/>
+      <c r="BC12" s="14"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -3341,16 +3347,16 @@
       <c r="B13" t="str">
         <f>N13</f>
       </c>
-      <c r="C13" s="17" t="str">
+      <c r="C13" s="14" t="str">
         <f>AS13</f>
       </c>
-      <c r="D13" s="17" t="str">
+      <c r="D13" s="14" t="str">
         <f>AU13</f>
       </c>
-      <c r="E13" s="17" t="str">
+      <c r="E13" s="14" t="str">
         <f>AV13</f>
       </c>
-      <c r="F13" s="17"/>
+      <c r="F13" s="14"/>
       <c r="G13" s="1" t="str">
         <f>AV13/AU13-1</f>
       </c>
@@ -3368,127 +3374,127 @@
       <c r="N13" t="s">
         <v>43</v>
       </c>
-      <c r="O13" s="17" t="n">
+      <c r="O13" s="14" t="n">
         <v>599168867522.029</v>
       </c>
-      <c r="P13" s="17" t="n">
+      <c r="P13" s="14" t="n">
         <v>523832662841.61</v>
       </c>
-      <c r="Q13" s="17" t="n">
+      <c r="Q13" s="14" t="n">
         <v>558790717928.113</v>
       </c>
-      <c r="R13" s="17" t="n">
+      <c r="R13" s="14" t="n">
         <v>530112720785.642</v>
       </c>
-      <c r="S13" s="17" t="n">
+      <c r="S13" s="14" t="n">
         <v>500263462937.87</v>
       </c>
-      <c r="T13" s="17" t="n">
+      <c r="T13" s="14" t="n">
         <v>473127049224.817</v>
       </c>
-      <c r="U13" s="17" t="n">
+      <c r="U13" s="14" t="n">
         <v>453205912162.704</v>
       </c>
-      <c r="V13" s="17" t="n">
+      <c r="V13" s="14" t="n">
         <v>454311854475.601</v>
       </c>
-      <c r="W13" s="17" t="n">
+      <c r="W13" s="14" t="n">
         <v>444415763380.374</v>
       </c>
-      <c r="X13" s="17" t="n">
+      <c r="X13" s="14" t="n">
         <v>448255867341.827</v>
       </c>
-      <c r="Y13" s="17" t="n">
+      <c r="Y13" s="14" t="n">
         <v>472458477005.221</v>
       </c>
-      <c r="Z13" s="17" t="n">
+      <c r="Z13" s="14" t="n">
         <v>476306076778.206</v>
       </c>
-      <c r="AA13" s="17" t="n">
+      <c r="AA13" s="14" t="n">
         <v>536249922724.551</v>
       </c>
-      <c r="AB13" s="17" t="n">
+      <c r="AB13" s="14" t="n">
         <v>613815969478.346</v>
       </c>
-      <c r="AC13" s="17" t="n">
+      <c r="AC13" s="14" t="n">
         <v>675492693448.842</v>
       </c>
-      <c r="AD13" s="17" t="n">
+      <c r="AD13" s="14" t="n">
         <v>712068992263.739</v>
       </c>
-      <c r="AE13" s="17" t="n">
+      <c r="AE13" s="14" t="n">
         <v>726363779830.702</v>
       </c>
-      <c r="AF13" s="17" t="n">
+      <c r="AF13" s="14" t="n">
         <v>748316566637.036</v>
       </c>
-      <c r="AG13" s="17" t="n">
+      <c r="AG13" s="14" t="n">
         <v>824755462000.025</v>
       </c>
-      <c r="AH13" s="17" t="n">
+      <c r="AH13" s="14" t="n">
         <v>874222201051.157</v>
       </c>
-      <c r="AI13" s="17" t="n">
+      <c r="AI13" s="14" t="n">
         <v>907498162133.927</v>
       </c>
-      <c r="AJ13" s="17" t="n">
+      <c r="AJ13" s="14" t="n">
         <v>904801842293.038</v>
       </c>
-      <c r="AK13" s="17" t="n">
+      <c r="AK13" s="14" t="n">
         <v>853010324247.841</v>
       </c>
-      <c r="AL13" s="17" t="n">
+      <c r="AL13" s="14" t="n">
         <v>782384642250.63</v>
       </c>
-      <c r="AM13" s="17" t="n">
+      <c r="AM13" s="14" t="n">
         <v>730570492868.181</v>
       </c>
-      <c r="AN13" s="17" t="n">
+      <c r="AN13" s="14" t="n">
         <v>703815630677.12</v>
       </c>
-      <c r="AO13" s="17" t="n">
+      <c r="AO13" s="14" t="n">
         <v>701796989317.852</v>
       </c>
-      <c r="AP13" s="17" t="n">
+      <c r="AP13" s="14" t="n">
         <v>694452568033.404</v>
       </c>
-      <c r="AQ13" s="17" t="n">
+      <c r="AQ13" s="14" t="n">
         <v>717473530179.755</v>
       </c>
-      <c r="AR13" s="17" t="n">
+      <c r="AR13" s="14" t="n">
         <v>766457961125.701</v>
       </c>
-      <c r="AS13" s="17" t="n">
+      <c r="AS13" s="14" t="n">
         <v>799019734497.993</v>
       </c>
-      <c r="AT13" s="17" t="n">
+      <c r="AT13" s="14" t="n">
         <v>802883816589.107</v>
       </c>
-      <c r="AU13" s="17" t="n">
+      <c r="AU13" s="14" t="n">
         <v>759690979706.108</v>
       </c>
-      <c r="AV13" s="17" t="n">
+      <c r="AV13" s="14" t="n">
         <v>775874000000</v>
       </c>
-      <c r="AW13" s="17" t="n">
+      <c r="AW13" s="14" t="n">
         <v>837181247646.527</v>
       </c>
-      <c r="AX13" s="17" t="n">
+      <c r="AX13" s="14" t="n">
         <v>837245992301.702</v>
       </c>
-      <c r="AY13" s="17" t="n">
+      <c r="AY13" s="14" t="n">
         <v>824647554246.88</v>
       </c>
-      <c r="AZ13" s="17" t="n">
+      <c r="AZ13" s="14" t="n">
         <v>819236206162.472</v>
       </c>
-      <c r="BA13" s="17" t="n">
+      <c r="BA13" s="14" t="n">
         <v>819144705553.104</v>
       </c>
-      <c r="BB13" s="17" t="n">
+      <c r="BB13" s="14" t="n">
         <v>820305837219.535</v>
       </c>
-      <c r="BC13" s="17"/>
+      <c r="BC13" s="14"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -3497,16 +3503,16 @@
       <c r="B14" t="str">
         <f>N14</f>
       </c>
-      <c r="C14" s="17" t="str">
+      <c r="C14" s="14" t="str">
         <f>AS14</f>
       </c>
-      <c r="D14" s="17" t="str">
+      <c r="D14" s="14" t="str">
         <f>AU14</f>
       </c>
-      <c r="E14" s="17" t="str">
+      <c r="E14" s="14" t="str">
         <f>AV14</f>
       </c>
-      <c r="F14" s="17"/>
+      <c r="F14" s="14"/>
       <c r="G14" s="1" t="str">
         <f>AV14/AU14-1</f>
       </c>
@@ -3524,127 +3530,127 @@
       <c r="N14" t="s">
         <v>47</v>
       </c>
-      <c r="O14" s="17" t="str">
+      <c r="O14" s="14" t="str">
         <f>Sum(O10:O13)</f>
       </c>
-      <c r="P14" s="17" t="str">
+      <c r="P14" s="14" t="str">
         <f>Sum(P10:P13)</f>
       </c>
-      <c r="Q14" s="17" t="str">
+      <c r="Q14" s="14" t="str">
         <f>Sum(Q10:Q13)</f>
       </c>
-      <c r="R14" s="17" t="str">
+      <c r="R14" s="14" t="str">
         <f>Sum(R10:R13)</f>
       </c>
-      <c r="S14" s="17" t="str">
+      <c r="S14" s="14" t="str">
         <f>Sum(S10:S13)</f>
       </c>
-      <c r="T14" s="17" t="str">
+      <c r="T14" s="14" t="str">
         <f>Sum(T10:T13)</f>
       </c>
-      <c r="U14" s="17" t="str">
+      <c r="U14" s="14" t="str">
         <f>Sum(U10:U13)</f>
       </c>
-      <c r="V14" s="17" t="str">
+      <c r="V14" s="14" t="str">
         <f>Sum(V10:V13)</f>
       </c>
-      <c r="W14" s="17" t="str">
+      <c r="W14" s="14" t="str">
         <f>Sum(W10:W13)</f>
       </c>
-      <c r="X14" s="17" t="str">
+      <c r="X14" s="14" t="str">
         <f>Sum(X10:X13)</f>
       </c>
-      <c r="Y14" s="17" t="str">
+      <c r="Y14" s="14" t="str">
         <f>Sum(Y10:Y13)</f>
       </c>
-      <c r="Z14" s="17" t="str">
+      <c r="Z14" s="14" t="str">
         <f>Sum(Z10:Z13)</f>
       </c>
-      <c r="AA14" s="17" t="str">
+      <c r="AA14" s="14" t="str">
         <f>Sum(AA10:AA13)</f>
       </c>
-      <c r="AB14" s="17" t="str">
+      <c r="AB14" s="14" t="str">
         <f>Sum(AB10:AB13)</f>
       </c>
-      <c r="AC14" s="17" t="str">
+      <c r="AC14" s="14" t="str">
         <f>Sum(AC10:AC13)</f>
       </c>
-      <c r="AD14" s="17" t="str">
+      <c r="AD14" s="14" t="str">
         <f>Sum(AD10:AD13)</f>
       </c>
-      <c r="AE14" s="17" t="str">
+      <c r="AE14" s="14" t="str">
         <f>Sum(AE10:AE13)</f>
       </c>
-      <c r="AF14" s="17" t="str">
+      <c r="AF14" s="14" t="str">
         <f>Sum(AF10:AF13)</f>
       </c>
-      <c r="AG14" s="17" t="str">
+      <c r="AG14" s="14" t="str">
         <f>Sum(AG10:AG13)</f>
       </c>
-      <c r="AH14" s="17" t="str">
+      <c r="AH14" s="14" t="str">
         <f>Sum(AH10:AH13)</f>
       </c>
-      <c r="AI14" s="17" t="str">
+      <c r="AI14" s="14" t="str">
         <f>Sum(AI10:AI13)</f>
       </c>
-      <c r="AJ14" s="17" t="str">
+      <c r="AJ14" s="14" t="str">
         <f>Sum(AJ10:AJ13)</f>
       </c>
-      <c r="AK14" s="17" t="str">
+      <c r="AK14" s="14" t="str">
         <f>Sum(AK10:AK13)</f>
       </c>
-      <c r="AL14" s="17" t="str">
+      <c r="AL14" s="14" t="str">
         <f>Sum(AL10:AL13)</f>
       </c>
-      <c r="AM14" s="17" t="str">
+      <c r="AM14" s="14" t="str">
         <f>Sum(AM10:AM13)</f>
       </c>
-      <c r="AN14" s="17" t="str">
+      <c r="AN14" s="14" t="str">
         <f>Sum(AN10:AN13)</f>
       </c>
-      <c r="AO14" s="17" t="str">
+      <c r="AO14" s="14" t="str">
         <f>Sum(AO10:AO13)</f>
       </c>
-      <c r="AP14" s="17" t="str">
+      <c r="AP14" s="14" t="str">
         <f>Sum(AP10:AP13)</f>
       </c>
-      <c r="AQ14" s="17" t="str">
+      <c r="AQ14" s="14" t="str">
         <f>Sum(AQ10:AQ13)</f>
       </c>
-      <c r="AR14" s="17" t="str">
+      <c r="AR14" s="14" t="str">
         <f>Sum(AR10:AR13)</f>
       </c>
-      <c r="AS14" s="17" t="str">
+      <c r="AS14" s="14" t="str">
         <f>Sum(AS10:AS13)</f>
       </c>
-      <c r="AT14" s="17" t="str">
+      <c r="AT14" s="14" t="str">
         <f>Sum(AT10:AT13)</f>
       </c>
-      <c r="AU14" s="17" t="str">
+      <c r="AU14" s="14" t="str">
         <f>Sum(AU10:AU13)</f>
       </c>
-      <c r="AV14" s="17" t="str">
+      <c r="AV14" s="14" t="str">
         <f>Sum(AV10:AV13)</f>
       </c>
-      <c r="AW14" s="17" t="str">
+      <c r="AW14" s="14" t="str">
         <f>Sum(AW10:AW13)</f>
       </c>
-      <c r="AX14" s="17" t="str">
+      <c r="AX14" s="14" t="str">
         <f>Sum(AX10:AX13)</f>
       </c>
-      <c r="AY14" s="17" t="str">
+      <c r="AY14" s="14" t="str">
         <f>Sum(AY10:AY13)</f>
       </c>
-      <c r="AZ14" s="17" t="str">
+      <c r="AZ14" s="14" t="str">
         <f>Sum(AZ10:AZ13)</f>
       </c>
-      <c r="BA14" s="17" t="str">
+      <c r="BA14" s="14" t="str">
         <f>Sum(BA10:BA13)</f>
       </c>
-      <c r="BB14" s="17" t="str">
+      <c r="BB14" s="14" t="str">
         <f>Sum(BB10:BB13)</f>
       </c>
-      <c r="BC14" s="17"/>
+      <c r="BC14" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5231,6 +5237,5369 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>N1</f>
+      </c>
+      <c r="M1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>N2</f>
+      </c>
+      <c r="M2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17" t="n">
+        <v>1003576.97</v>
+      </c>
+      <c r="T2" s="17" t="n">
+        <v>357061685.3</v>
+      </c>
+      <c r="U2" s="17" t="n">
+        <v>1079497813.63</v>
+      </c>
+      <c r="V2" s="17" t="n">
+        <v>1009757071.82</v>
+      </c>
+      <c r="W2" s="17" t="n">
+        <v>2082784769.7</v>
+      </c>
+      <c r="X2" s="17"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>N3</f>
+      </c>
+      <c r="M3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" s="17" t="n">
+        <v>129800148412.8</v>
+      </c>
+      <c r="P3" s="17" t="n">
+        <v>148647289683.223</v>
+      </c>
+      <c r="Q3" s="17" t="n">
+        <v>163617709805.785</v>
+      </c>
+      <c r="R3" s="17" t="n">
+        <v>183152473080.586</v>
+      </c>
+      <c r="S3" s="17" t="n">
+        <v>192794964659.917</v>
+      </c>
+      <c r="T3" s="17" t="n">
+        <v>218384238186.164</v>
+      </c>
+      <c r="U3" s="17" t="n">
+        <v>193995037853.426</v>
+      </c>
+      <c r="V3" s="17" t="n">
+        <v>209676052547.551</v>
+      </c>
+      <c r="W3" s="17" t="n">
+        <v>225642793034.253</v>
+      </c>
+      <c r="X3" s="17"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>N4</f>
+      </c>
+      <c r="M4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" s="17" t="n">
+        <v>694883317.68</v>
+      </c>
+      <c r="P4" s="17" t="n">
+        <v>1433156330.3</v>
+      </c>
+      <c r="Q4" s="17" t="n">
+        <v>2115488321.87</v>
+      </c>
+      <c r="R4" s="17" t="n">
+        <v>3953909229.18</v>
+      </c>
+      <c r="S4" s="17" t="n">
+        <v>7210412511.82</v>
+      </c>
+      <c r="T4" s="17" t="n">
+        <v>15977844023.82</v>
+      </c>
+      <c r="U4" s="17" t="n">
+        <v>13587248379.41</v>
+      </c>
+      <c r="V4" s="17" t="n">
+        <v>9970880441.6</v>
+      </c>
+      <c r="W4" s="17" t="n">
+        <v>13597718627.55</v>
+      </c>
+      <c r="X4" s="17"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>N5</f>
+      </c>
+      <c r="M5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" s="17" t="n">
+        <v>23781261098.9443</v>
+      </c>
+      <c r="P5" s="17" t="n">
+        <v>24573276196.2158</v>
+      </c>
+      <c r="Q5" s="17" t="n">
+        <v>25597996648.6431</v>
+      </c>
+      <c r="R5" s="17" t="n">
+        <v>27242841176.5787</v>
+      </c>
+      <c r="S5" s="17" t="n">
+        <v>31029627313.4931</v>
+      </c>
+      <c r="T5" s="17" t="n">
+        <v>31730385296.1509</v>
+      </c>
+      <c r="U5" s="17" t="n">
+        <v>32848499043.4238</v>
+      </c>
+      <c r="V5" s="17" t="n">
+        <v>35326395851.8385</v>
+      </c>
+      <c r="W5" s="17" t="n">
+        <v>43247146108.6712</v>
+      </c>
+      <c r="X5" s="17"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <f>M6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>N6</f>
+      </c>
+      <c r="M6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N6" t="s">
+        <v>57</v>
+      </c>
+      <c r="O6" s="17" t="n">
+        <v>120603002254.88</v>
+      </c>
+      <c r="P6" s="17" t="n">
+        <v>125137638219.523</v>
+      </c>
+      <c r="Q6" s="17" t="n">
+        <v>131399208203.59</v>
+      </c>
+      <c r="R6" s="17" t="n">
+        <v>148574738300.029</v>
+      </c>
+      <c r="S6" s="17" t="n">
+        <v>159815344233.307</v>
+      </c>
+      <c r="T6" s="17" t="n">
+        <v>172402223143.601</v>
+      </c>
+      <c r="U6" s="17" t="n">
+        <v>160008849942.056</v>
+      </c>
+      <c r="V6" s="17" t="n">
+        <v>169216514631.91</v>
+      </c>
+      <c r="W6" s="17" t="n">
+        <v>187356782728.035</v>
+      </c>
+      <c r="X6" s="17"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>M7</f>
+      </c>
+      <c r="B7" t="str">
+        <f>N7</f>
+      </c>
+      <c r="M7" t="s">
+        <v>58</v>
+      </c>
+      <c r="N7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O7" s="17" t="n">
+        <v>30000</v>
+      </c>
+      <c r="P7" s="17" t="n">
+        <v>3581529.4308</v>
+      </c>
+      <c r="Q7" s="17" t="n">
+        <v>1345607</v>
+      </c>
+      <c r="R7" s="17" t="n">
+        <v>-212795.3691</v>
+      </c>
+      <c r="S7" s="17" t="n">
+        <v>465885</v>
+      </c>
+      <c r="T7" s="17" t="n">
+        <v>245000</v>
+      </c>
+      <c r="U7" s="17" t="n">
+        <v>386316</v>
+      </c>
+      <c r="V7" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="17" t="n">
+        <v>10000</v>
+      </c>
+      <c r="X7" s="17"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <f>M8</f>
+      </c>
+      <c r="B8" t="str">
+        <f>N8</f>
+      </c>
+      <c r="M8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8" s="17" t="str">
+        <f>Sum(O2:O7)</f>
+      </c>
+      <c r="P8" s="17" t="str">
+        <f>Sum(P2:P7)</f>
+      </c>
+      <c r="Q8" s="17" t="str">
+        <f>Sum(Q2:Q7)</f>
+      </c>
+      <c r="R8" s="17" t="str">
+        <f>Sum(R2:R7)</f>
+      </c>
+      <c r="S8" s="17" t="str">
+        <f>Sum(S2:S7)</f>
+      </c>
+      <c r="T8" s="17" t="str">
+        <f>Sum(T2:T7)</f>
+      </c>
+      <c r="U8" s="17" t="str">
+        <f>Sum(U2:U7)</f>
+      </c>
+      <c r="V8" s="17" t="str">
+        <f>Sum(V2:V7)</f>
+      </c>
+      <c r="W8" s="17" t="str">
+        <f>Sum(W2:W7)</f>
+      </c>
+      <c r="X8" s="17"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <f>M11</f>
+      </c>
+      <c r="B11" t="str">
+        <f>N11</f>
+      </c>
+      <c r="C11" t="str">
+        <f>T11</f>
+      </c>
+      <c r="D11" t="str">
+        <f>V11</f>
+      </c>
+      <c r="E11" t="str">
+        <f>W11</f>
+      </c>
+      <c r="G11" t="str">
+        <f>V11&amp;"-"&amp;W11</f>
+      </c>
+      <c r="H11" t="str">
+        <f>T11&amp;"-"&amp;W11</f>
+      </c>
+      <c r="J11" t="str">
+        <f>"Share "&amp;W11</f>
+      </c>
+      <c r="M11" t="s">
+        <v>48</v>
+      </c>
+      <c r="N11" t="s">
+        <v>49</v>
+      </c>
+      <c r="O11" t="s">
+        <v>27</v>
+      </c>
+      <c r="P11" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>29</v>
+      </c>
+      <c r="R11" t="s">
+        <v>30</v>
+      </c>
+      <c r="S11" t="s">
+        <v>31</v>
+      </c>
+      <c r="T11" t="s">
+        <v>32</v>
+      </c>
+      <c r="U11" t="s">
+        <v>33</v>
+      </c>
+      <c r="V11" t="s">
+        <v>34</v>
+      </c>
+      <c r="W11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <f>M12</f>
+      </c>
+      <c r="B12" t="str">
+        <f>N12</f>
+      </c>
+      <c r="C12" s="17" t="str">
+        <f>T12</f>
+      </c>
+      <c r="D12" s="17" t="str">
+        <f>V12</f>
+      </c>
+      <c r="E12" s="17" t="str">
+        <f>W12</f>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="1" t="str">
+        <f>W12/V12-1</f>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f>W12/T12-1</f>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1" t="str">
+        <f>W12/Sum(W$11:W$17)</f>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="M12" t="s">
+        <v>50</v>
+      </c>
+      <c r="N12" t="s">
+        <v>51</v>
+      </c>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17" t="n">
+        <v>1176703.87838105</v>
+      </c>
+      <c r="T12" s="17" t="n">
+        <v>413259883.550845</v>
+      </c>
+      <c r="U12" s="17" t="n">
+        <v>1207830413.4704</v>
+      </c>
+      <c r="V12" s="17" t="n">
+        <v>1055950019.34882</v>
+      </c>
+      <c r="W12" s="17" t="n">
+        <v>2082784769.7</v>
+      </c>
+      <c r="X12" s="17"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <f>M13</f>
+      </c>
+      <c r="B13" t="str">
+        <f>N13</f>
+      </c>
+      <c r="C13" s="17" t="str">
+        <f>T13</f>
+      </c>
+      <c r="D13" s="17" t="str">
+        <f>V13</f>
+      </c>
+      <c r="E13" s="17" t="str">
+        <f>W13</f>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="1" t="str">
+        <f>W13/V13-1</f>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f>W13/T13-1</f>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1" t="str">
+        <f>W13/Sum(W$11:W$17)</f>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="M13" t="s">
+        <v>52</v>
+      </c>
+      <c r="N13" t="s">
+        <v>51</v>
+      </c>
+      <c r="O13" s="17" t="n">
+        <v>162409841292.409</v>
+      </c>
+      <c r="P13" s="17" t="n">
+        <v>184516724215.902</v>
+      </c>
+      <c r="Q13" s="17" t="n">
+        <v>199728138398.289</v>
+      </c>
+      <c r="R13" s="17" t="n">
+        <v>218718669353.533</v>
+      </c>
+      <c r="S13" s="17" t="n">
+        <v>226053994291.7</v>
+      </c>
+      <c r="T13" s="17" t="n">
+        <v>252755892210.41</v>
+      </c>
+      <c r="U13" s="17" t="n">
+        <v>217057509355.939</v>
+      </c>
+      <c r="V13" s="17" t="n">
+        <v>219268017945.646</v>
+      </c>
+      <c r="W13" s="17" t="n">
+        <v>225642793034.253</v>
+      </c>
+      <c r="X13" s="17"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <f>M14</f>
+      </c>
+      <c r="B14" t="str">
+        <f>N14</f>
+      </c>
+      <c r="C14" s="17" t="str">
+        <f>T14</f>
+      </c>
+      <c r="D14" s="17" t="str">
+        <f>V14</f>
+      </c>
+      <c r="E14" s="17" t="str">
+        <f>W14</f>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="1" t="str">
+        <f>W14/V14-1</f>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f>W14/T14-1</f>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1" t="str">
+        <f>W14/Sum(W$11:W$17)</f>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="M14" t="s">
+        <v>53</v>
+      </c>
+      <c r="N14" t="s">
+        <v>54</v>
+      </c>
+      <c r="O14" s="17" t="n">
+        <v>869458862.113459</v>
+      </c>
+      <c r="P14" s="17" t="n">
+        <v>1778985085.56584</v>
+      </c>
+      <c r="Q14" s="17" t="n">
+        <v>2582376595.00278</v>
+      </c>
+      <c r="R14" s="17" t="n">
+        <v>4721714923.11983</v>
+      </c>
+      <c r="S14" s="17" t="n">
+        <v>8454279662.6609</v>
+      </c>
+      <c r="T14" s="17" t="n">
+        <v>18492608511.4107</v>
+      </c>
+      <c r="U14" s="17" t="n">
+        <v>15202524378.2965</v>
+      </c>
+      <c r="V14" s="17" t="n">
+        <v>10427014268.1498</v>
+      </c>
+      <c r="W14" s="17" t="n">
+        <v>13597718627.55</v>
+      </c>
+      <c r="X14" s="17"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <f>M15</f>
+      </c>
+      <c r="B15" t="str">
+        <f>N15</f>
+      </c>
+      <c r="C15" s="17" t="str">
+        <f>T15</f>
+      </c>
+      <c r="D15" s="17" t="str">
+        <f>V15</f>
+      </c>
+      <c r="E15" s="17" t="str">
+        <f>W15</f>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="1" t="str">
+        <f>W15/V15-1</f>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f>W15/T15-1</f>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1" t="str">
+        <f>W15/Sum(W$11:W$17)</f>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="M15" t="s">
+        <v>55</v>
+      </c>
+      <c r="N15" t="s">
+        <v>54</v>
+      </c>
+      <c r="O15" s="17" t="n">
+        <v>29755827616.8504</v>
+      </c>
+      <c r="P15" s="17" t="n">
+        <v>30502947188.8857</v>
+      </c>
+      <c r="Q15" s="17" t="n">
+        <v>31247474515.0013</v>
+      </c>
+      <c r="R15" s="17" t="n">
+        <v>32533101362.6512</v>
+      </c>
+      <c r="S15" s="17" t="n">
+        <v>36382543537.7477</v>
+      </c>
+      <c r="T15" s="17" t="n">
+        <v>36724453707.4691</v>
+      </c>
+      <c r="U15" s="17" t="n">
+        <v>36753586418.1931</v>
+      </c>
+      <c r="V15" s="17" t="n">
+        <v>36942458165.7425</v>
+      </c>
+      <c r="W15" s="17" t="n">
+        <v>43247146108.6712</v>
+      </c>
+      <c r="X15" s="17"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <f>M16</f>
+      </c>
+      <c r="B16" t="str">
+        <f>N16</f>
+      </c>
+      <c r="C16" s="17" t="str">
+        <f>T16</f>
+      </c>
+      <c r="D16" s="17" t="str">
+        <f>V16</f>
+      </c>
+      <c r="E16" s="17" t="str">
+        <f>W16</f>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="1" t="str">
+        <f>W16/V16-1</f>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f>W16/T16-1</f>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1" t="str">
+        <f>W16/Sum(W$11:W$17)</f>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="M16" t="s">
+        <v>56</v>
+      </c>
+      <c r="N16" t="s">
+        <v>57</v>
+      </c>
+      <c r="O16" s="17" t="n">
+        <v>150902095992.3</v>
+      </c>
+      <c r="P16" s="17" t="n">
+        <v>155334060443.263</v>
+      </c>
+      <c r="Q16" s="17" t="n">
+        <v>160399013484.935</v>
+      </c>
+      <c r="R16" s="17" t="n">
+        <v>177426318705.693</v>
+      </c>
+      <c r="S16" s="17" t="n">
+        <v>187385064629.507</v>
+      </c>
+      <c r="T16" s="17" t="n">
+        <v>199536734389.102</v>
+      </c>
+      <c r="U16" s="17" t="n">
+        <v>179030983615.014</v>
+      </c>
+      <c r="V16" s="17" t="n">
+        <v>176957593946.476</v>
+      </c>
+      <c r="W16" s="17" t="n">
+        <v>187356782728.035</v>
+      </c>
+      <c r="X16" s="17"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <f>M17</f>
+      </c>
+      <c r="B17" t="str">
+        <f>N17</f>
+      </c>
+      <c r="C17" s="17" t="str">
+        <f>T17</f>
+      </c>
+      <c r="D17" s="17" t="str">
+        <f>V17</f>
+      </c>
+      <c r="E17" s="17" t="str">
+        <f>W17</f>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="1" t="str">
+        <f>W17/V17-1</f>
+      </c>
+      <c r="H17" s="1" t="str">
+        <f>W17/T17-1</f>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1" t="str">
+        <f>W17/Sum(W$11:W$17)</f>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="M17" t="s">
+        <v>58</v>
+      </c>
+      <c r="N17" t="s">
+        <v>58</v>
+      </c>
+      <c r="O17" s="17" t="n">
+        <v>37536.9003683804</v>
+      </c>
+      <c r="P17" s="17" t="n">
+        <v>4445772.80663764</v>
+      </c>
+      <c r="Q17" s="17" t="n">
+        <v>1642582.46521554</v>
+      </c>
+      <c r="R17" s="17" t="n">
+        <v>-254117.889817779</v>
+      </c>
+      <c r="S17" s="17" t="n">
+        <v>546254.749528136</v>
+      </c>
+      <c r="T17" s="17" t="n">
+        <v>283560.728127099</v>
+      </c>
+      <c r="U17" s="17" t="n">
+        <v>432241.925938871</v>
+      </c>
+      <c r="V17" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" s="17" t="n">
+        <v>10000</v>
+      </c>
+      <c r="X17" s="17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <f>M18</f>
+      </c>
+      <c r="B18" t="str">
+        <f>N18</f>
+      </c>
+      <c r="C18" s="17" t="str">
+        <f>T18</f>
+      </c>
+      <c r="D18" s="17" t="str">
+        <f>V18</f>
+      </c>
+      <c r="E18" s="17" t="str">
+        <f>W18</f>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="1" t="str">
+        <f>W18/V18-1</f>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f>W18/T18-1</f>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1" t="str">
+        <f>Sum(J$11:J$17)</f>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="M18" t="s">
+        <v>46</v>
+      </c>
+      <c r="N18" t="s">
+        <v>47</v>
+      </c>
+      <c r="O18" s="17" t="str">
+        <f>Sum(O12:O17)</f>
+      </c>
+      <c r="P18" s="17" t="str">
+        <f>Sum(P12:P17)</f>
+      </c>
+      <c r="Q18" s="17" t="str">
+        <f>Sum(Q12:Q17)</f>
+      </c>
+      <c r="R18" s="17" t="str">
+        <f>Sum(R12:R17)</f>
+      </c>
+      <c r="S18" s="17" t="str">
+        <f>Sum(S12:S17)</f>
+      </c>
+      <c r="T18" s="17" t="str">
+        <f>Sum(T12:T17)</f>
+      </c>
+      <c r="U18" s="17" t="str">
+        <f>Sum(U12:U17)</f>
+      </c>
+      <c r="V18" s="17" t="str">
+        <f>Sum(V12:V17)</f>
+      </c>
+      <c r="W18" s="17" t="str">
+        <f>Sum(W12:W17)</f>
+      </c>
+      <c r="X18" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>N1</f>
+      </c>
+      <c r="C1" t="str">
+        <f>AI1</f>
+      </c>
+      <c r="D1" t="str">
+        <f>AK1</f>
+      </c>
+      <c r="E1" t="str">
+        <f>AL1</f>
+      </c>
+      <c r="G1" t="str">
+        <f>AK1&amp;"-"&amp;AL1</f>
+      </c>
+      <c r="H1" t="str">
+        <f>AI1&amp;"-"&amp;AL1</f>
+      </c>
+      <c r="J1" t="str">
+        <f>"Share "&amp;AL1</f>
+      </c>
+      <c r="M1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>N2</f>
+      </c>
+      <c r="C2" s="18" t="str">
+        <f>AI2</f>
+      </c>
+      <c r="D2" s="18" t="str">
+        <f>AK2</f>
+      </c>
+      <c r="E2" s="18" t="str">
+        <f>AL2</f>
+      </c>
+      <c r="F2" s="18"/>
+      <c r="G2" s="1" t="str">
+        <f>AL2/AK2-1</f>
+      </c>
+      <c r="H2" s="1" t="str">
+        <f>AL2/AI2-1</f>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="str">
+        <f>AL2/Sum(AL$1:AL$30)</f>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="M2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18" t="n">
+        <v>397365806.319116</v>
+      </c>
+      <c r="R2" s="18" t="n">
+        <v>2839480303.02883</v>
+      </c>
+      <c r="S2" s="18" t="n">
+        <v>4109445149.76701</v>
+      </c>
+      <c r="T2" s="18" t="n">
+        <v>7875574308.78399</v>
+      </c>
+      <c r="U2" s="18" t="n">
+        <v>7073998460.09372</v>
+      </c>
+      <c r="V2" s="18" t="n">
+        <v>6152213033.87404</v>
+      </c>
+      <c r="W2" s="18" t="n">
+        <v>5801207584.22227</v>
+      </c>
+      <c r="X2" s="18" t="n">
+        <v>2668848611.28076</v>
+      </c>
+      <c r="Y2" s="18" t="n">
+        <v>792576556.757872</v>
+      </c>
+      <c r="Z2" s="18" t="n">
+        <v>56035989.1754174</v>
+      </c>
+      <c r="AA2" s="18" t="n">
+        <v>2849315372.07039</v>
+      </c>
+      <c r="AB2" s="18" t="n">
+        <v>2915235881.85436</v>
+      </c>
+      <c r="AC2" s="18" t="n">
+        <v>-22828334.1764098</v>
+      </c>
+      <c r="AD2" s="18" t="n">
+        <v>9053791.37420698</v>
+      </c>
+      <c r="AE2" s="18" t="n">
+        <v>14219533.5008926</v>
+      </c>
+      <c r="AF2" s="18" t="n">
+        <v>51965389.4391825</v>
+      </c>
+      <c r="AG2" s="18" t="n">
+        <v>1889872947.93917</v>
+      </c>
+      <c r="AH2" s="18" t="n">
+        <v>4149941105.51202</v>
+      </c>
+      <c r="AI2" s="18" t="n">
+        <v>2513447394.60167</v>
+      </c>
+      <c r="AJ2" s="18" t="n">
+        <v>2384770193.94276</v>
+      </c>
+      <c r="AK2" s="18" t="n">
+        <v>2177721855.78697</v>
+      </c>
+      <c r="AL2" s="18" t="n">
+        <v>1773563167.807</v>
+      </c>
+      <c r="AM2" s="18"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>N3</f>
+      </c>
+      <c r="C3" s="18" t="str">
+        <f>AI3</f>
+      </c>
+      <c r="D3" s="18" t="str">
+        <f>AK3</f>
+      </c>
+      <c r="E3" s="18" t="str">
+        <f>AL3</f>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="1" t="str">
+        <f>AL3/AK3-1</f>
+      </c>
+      <c r="H3" s="1" t="str">
+        <f>AL3/AI3-1</f>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="str">
+        <f>AL3/Sum(AL$1:AL$30)</f>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="M3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" t="s">
+        <v>99</v>
+      </c>
+      <c r="O3" s="18" t="n">
+        <v>892703.070821061</v>
+      </c>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18" t="n">
+        <v>555016414.132698</v>
+      </c>
+      <c r="R3" s="18" t="n">
+        <v>581237098.983541</v>
+      </c>
+      <c r="S3" s="18" t="n">
+        <v>612865751.753848</v>
+      </c>
+      <c r="T3" s="18" t="n">
+        <v>968359556.618929</v>
+      </c>
+      <c r="U3" s="18" t="n">
+        <v>1383139767.5459</v>
+      </c>
+      <c r="V3" s="18" t="n">
+        <v>100628033.2243</v>
+      </c>
+      <c r="W3" s="18" t="n">
+        <v>6179231553.48301</v>
+      </c>
+      <c r="X3" s="18" t="n">
+        <v>3426854207.2981</v>
+      </c>
+      <c r="Y3" s="18" t="n">
+        <v>3813123902.50872</v>
+      </c>
+      <c r="Z3" s="18" t="n">
+        <v>4279209448.87573</v>
+      </c>
+      <c r="AA3" s="18" t="n">
+        <v>5854121087.39238</v>
+      </c>
+      <c r="AB3" s="18" t="n">
+        <v>4053717172.65866</v>
+      </c>
+      <c r="AC3" s="18" t="n">
+        <v>3396788701.03342</v>
+      </c>
+      <c r="AD3" s="18" t="n">
+        <v>3573693639.78001</v>
+      </c>
+      <c r="AE3" s="18" t="n">
+        <v>4569729826.82835</v>
+      </c>
+      <c r="AF3" s="18" t="n">
+        <v>3053492264.81399</v>
+      </c>
+      <c r="AG3" s="18" t="n">
+        <v>1123486359.85999</v>
+      </c>
+      <c r="AH3" s="18" t="n">
+        <v>1152110340.69979</v>
+      </c>
+      <c r="AI3" s="18" t="n">
+        <v>1397012313.55159</v>
+      </c>
+      <c r="AJ3" s="18" t="n">
+        <v>1156028730.96057</v>
+      </c>
+      <c r="AK3" s="18" t="n">
+        <v>567453299.051815</v>
+      </c>
+      <c r="AL3" s="18" t="n">
+        <v>1330217877.4287</v>
+      </c>
+      <c r="AM3" s="18"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>N4</f>
+      </c>
+      <c r="C4" s="18" t="str">
+        <f>AI4</f>
+      </c>
+      <c r="D4" s="18" t="str">
+        <f>AK4</f>
+      </c>
+      <c r="E4" s="18" t="str">
+        <f>AL4</f>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="1" t="str">
+        <f>AL4/AK4-1</f>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f>AL4/AI4-1</f>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="str">
+        <f>AL4/Sum(AL$1:AL$30)</f>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="M4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" t="s">
+        <v>107</v>
+      </c>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18" t="n">
+        <v>5424175.49620942</v>
+      </c>
+      <c r="X4" s="18" t="n">
+        <v>4545847.42086142</v>
+      </c>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18" t="n">
+        <v>29658.1528392675</v>
+      </c>
+      <c r="AA4" s="18" t="n">
+        <v>177999.135688306</v>
+      </c>
+      <c r="AB4" s="18" t="n">
+        <v>366463.704148641</v>
+      </c>
+      <c r="AC4" s="18" t="n">
+        <v>361553.021921799</v>
+      </c>
+      <c r="AD4" s="18" t="n">
+        <v>18212.7539111367</v>
+      </c>
+      <c r="AE4" s="18" t="n">
+        <v>-186507.915454998</v>
+      </c>
+      <c r="AF4" s="18" t="n">
+        <v>123931.738910087</v>
+      </c>
+      <c r="AG4" s="18" t="n">
+        <v>334492.279988446</v>
+      </c>
+      <c r="AH4" s="18" t="n">
+        <v>2087251.70038931</v>
+      </c>
+      <c r="AI4" s="18" t="n">
+        <v>712707.795095527</v>
+      </c>
+      <c r="AJ4" s="18" t="n">
+        <v>188380405.952412</v>
+      </c>
+      <c r="AK4" s="18" t="n">
+        <v>-4976172.57976131</v>
+      </c>
+      <c r="AL4" s="18" t="n">
+        <v>2374808234.41</v>
+      </c>
+      <c r="AM4" s="18"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>N5</f>
+      </c>
+      <c r="C5" s="18" t="str">
+        <f>AI5</f>
+      </c>
+      <c r="D5" s="18" t="str">
+        <f>AK5</f>
+      </c>
+      <c r="E5" s="18" t="str">
+        <f>AL5</f>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="1" t="str">
+        <f>AL5/AK5-1</f>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f>AL5/AI5-1</f>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="str">
+        <f>AL5/Sum(AL$1:AL$30)</f>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="M5" t="s">
+        <v>60</v>
+      </c>
+      <c r="N5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O5" s="18" t="n">
+        <v>109206957.341737</v>
+      </c>
+      <c r="P5" s="18" t="n">
+        <v>78664277.7731819</v>
+      </c>
+      <c r="Q5" s="18" t="n">
+        <v>66992284.2710572</v>
+      </c>
+      <c r="R5" s="18" t="n">
+        <v>404040532.852753</v>
+      </c>
+      <c r="S5" s="18" t="n">
+        <v>736761571.956634</v>
+      </c>
+      <c r="T5" s="18" t="n">
+        <v>1021494944.62273</v>
+      </c>
+      <c r="U5" s="18" t="n">
+        <v>978315934.406207</v>
+      </c>
+      <c r="V5" s="18" t="n">
+        <v>649952028.996232</v>
+      </c>
+      <c r="W5" s="18" t="n">
+        <v>377510464.973437</v>
+      </c>
+      <c r="X5" s="18" t="n">
+        <v>499052946.570925</v>
+      </c>
+      <c r="Y5" s="18" t="n">
+        <v>766800014.407336</v>
+      </c>
+      <c r="Z5" s="18" t="n">
+        <v>1423976671.54069</v>
+      </c>
+      <c r="AA5" s="18" t="n">
+        <v>1292106995.74913</v>
+      </c>
+      <c r="AB5" s="18" t="n">
+        <v>1630447418.57498</v>
+      </c>
+      <c r="AC5" s="18" t="n">
+        <v>1512529318.16832</v>
+      </c>
+      <c r="AD5" s="18" t="n">
+        <v>1290370117.97345</v>
+      </c>
+      <c r="AE5" s="18" t="n">
+        <v>1621381828.83097</v>
+      </c>
+      <c r="AF5" s="18" t="n">
+        <v>3099806534.2644</v>
+      </c>
+      <c r="AG5" s="18" t="n">
+        <v>4053256762.29813</v>
+      </c>
+      <c r="AH5" s="18" t="n">
+        <v>3966701986.28081</v>
+      </c>
+      <c r="AI5" s="18" t="n">
+        <v>3198323399.12932</v>
+      </c>
+      <c r="AJ5" s="18" t="n">
+        <v>2635245573.85011</v>
+      </c>
+      <c r="AK5" s="18" t="n">
+        <v>3471732807.83605</v>
+      </c>
+      <c r="AL5" s="18" t="n">
+        <v>2533857690.4549</v>
+      </c>
+      <c r="AM5" s="18"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <f>M6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>N6</f>
+      </c>
+      <c r="C6" s="18" t="str">
+        <f>AI6</f>
+      </c>
+      <c r="D6" s="18" t="str">
+        <f>AK6</f>
+      </c>
+      <c r="E6" s="18" t="str">
+        <f>AL6</f>
+      </c>
+      <c r="F6" s="18"/>
+      <c r="G6" s="1" t="str">
+        <f>AL6/AK6-1</f>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f>AL6/AI6-1</f>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="str">
+        <f>AL6/Sum(AL$1:AL$30)</f>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="M6" t="s">
+        <v>61</v>
+      </c>
+      <c r="N6" t="s">
+        <v>98</v>
+      </c>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="18"/>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="18" t="n">
+        <v>12160191.0669516</v>
+      </c>
+      <c r="AI6" s="18" t="n">
+        <v>10933558.8603299</v>
+      </c>
+      <c r="AJ6" s="18" t="n">
+        <v>4871322.51090028</v>
+      </c>
+      <c r="AK6" s="18" t="n">
+        <v>1117618.84445737</v>
+      </c>
+      <c r="AL6" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="18"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>M7</f>
+      </c>
+      <c r="B7" t="str">
+        <f>N7</f>
+      </c>
+      <c r="C7" s="18" t="str">
+        <f>AI7</f>
+      </c>
+      <c r="D7" s="18" t="str">
+        <f>AK7</f>
+      </c>
+      <c r="E7" s="18" t="str">
+        <f>AL7</f>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="1" t="str">
+        <f>AL7/AK7-1</f>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f>AL7/AI7-1</f>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1" t="str">
+        <f>AL7/Sum(AL$1:AL$30)</f>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="M7" t="s">
+        <v>61</v>
+      </c>
+      <c r="N7" t="s">
+        <v>101</v>
+      </c>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18" t="n">
+        <v>3410852.86305641</v>
+      </c>
+      <c r="AK7" s="18" t="n">
+        <v>28998040.0169742</v>
+      </c>
+      <c r="AL7" s="18" t="n">
+        <v>30841171.9922</v>
+      </c>
+      <c r="AM7" s="18"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <f>M8</f>
+      </c>
+      <c r="B8" t="str">
+        <f>N8</f>
+      </c>
+      <c r="C8" s="18" t="str">
+        <f>AI8</f>
+      </c>
+      <c r="D8" s="18" t="str">
+        <f>AK8</f>
+      </c>
+      <c r="E8" s="18" t="str">
+        <f>AL8</f>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="1" t="str">
+        <f>AL8/AK8-1</f>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f>AL8/AI8-1</f>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1" t="str">
+        <f>AL8/Sum(AL$1:AL$30)</f>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="M8" t="s">
+        <v>61</v>
+      </c>
+      <c r="N8" t="s">
+        <v>107</v>
+      </c>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18" t="n">
+        <v>51120.2682274273</v>
+      </c>
+      <c r="Z8" s="18" t="n">
+        <v>82036.6051261196</v>
+      </c>
+      <c r="AA8" s="18" t="n">
+        <v>75091.8703551646</v>
+      </c>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="18" t="n">
+        <v>70359.6512026736</v>
+      </c>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="18" t="n">
+        <v>57255.9559744389</v>
+      </c>
+      <c r="AG8" s="18" t="n">
+        <v>61030.2232231585</v>
+      </c>
+      <c r="AH8" s="18" t="n">
+        <v>149805.720453464</v>
+      </c>
+      <c r="AI8" s="18"/>
+      <c r="AJ8" s="18"/>
+      <c r="AK8" s="18" t="n">
+        <v>6363281.23189551</v>
+      </c>
+      <c r="AL8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="18"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <f>M9</f>
+      </c>
+      <c r="B9" t="str">
+        <f>N9</f>
+      </c>
+      <c r="C9" s="18" t="str">
+        <f>AI9</f>
+      </c>
+      <c r="D9" s="18" t="str">
+        <f>AK9</f>
+      </c>
+      <c r="E9" s="18" t="str">
+        <f>AL9</f>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="1" t="str">
+        <f>AL9/AK9-1</f>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f>AL9/AI9-1</f>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1" t="str">
+        <f>AL9/Sum(AL$1:AL$30)</f>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="M9" t="s">
+        <v>61</v>
+      </c>
+      <c r="N9" t="s">
+        <v>113</v>
+      </c>
+      <c r="O9" s="18" t="n">
+        <v>117167358.741587</v>
+      </c>
+      <c r="P9" s="18" t="n">
+        <v>236186060.154231</v>
+      </c>
+      <c r="Q9" s="18" t="n">
+        <v>634464512.668636</v>
+      </c>
+      <c r="R9" s="18" t="n">
+        <v>864023861.474285</v>
+      </c>
+      <c r="S9" s="18" t="n">
+        <v>2049791362.45062</v>
+      </c>
+      <c r="T9" s="18" t="n">
+        <v>1433805998.70756</v>
+      </c>
+      <c r="U9" s="18" t="n">
+        <v>1804372908.85056</v>
+      </c>
+      <c r="V9" s="18" t="n">
+        <v>335651403.418063</v>
+      </c>
+      <c r="W9" s="18" t="n">
+        <v>324443752.831616</v>
+      </c>
+      <c r="X9" s="18" t="n">
+        <v>567996028.748357</v>
+      </c>
+      <c r="Y9" s="18" t="n">
+        <v>565211835.902704</v>
+      </c>
+      <c r="Z9" s="18" t="n">
+        <v>903230861.010044</v>
+      </c>
+      <c r="AA9" s="18" t="n">
+        <v>892749555.066973</v>
+      </c>
+      <c r="AB9" s="18" t="n">
+        <v>1204769184.84938</v>
+      </c>
+      <c r="AC9" s="18" t="n">
+        <v>1011874940.41063</v>
+      </c>
+      <c r="AD9" s="18" t="n">
+        <v>985367747.868534</v>
+      </c>
+      <c r="AE9" s="18" t="n">
+        <v>1480137091.91365</v>
+      </c>
+      <c r="AF9" s="18" t="n">
+        <v>2130580898.6656</v>
+      </c>
+      <c r="AG9" s="18" t="n">
+        <v>2385810261.75137</v>
+      </c>
+      <c r="AH9" s="18" t="n">
+        <v>2357996865.22165</v>
+      </c>
+      <c r="AI9" s="18" t="n">
+        <v>1902499199.59765</v>
+      </c>
+      <c r="AJ9" s="18" t="n">
+        <v>2168681693.04048</v>
+      </c>
+      <c r="AK9" s="18" t="n">
+        <v>1667122386.08287</v>
+      </c>
+      <c r="AL9" s="18" t="n">
+        <v>2830774022.9565</v>
+      </c>
+      <c r="AM9" s="18"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="B10" t="str">
+        <f>N10</f>
+      </c>
+      <c r="C10" s="18" t="str">
+        <f>AI10</f>
+      </c>
+      <c r="D10" s="18" t="str">
+        <f>AK10</f>
+      </c>
+      <c r="E10" s="18" t="str">
+        <f>AL10</f>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="1" t="str">
+        <f>AL10/AK10-1</f>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f>AL10/AI10-1</f>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1" t="str">
+        <f>AL10/Sum(AL$1:AL$30)</f>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="M10" t="s">
+        <v>62</v>
+      </c>
+      <c r="N10" t="s">
+        <v>113</v>
+      </c>
+      <c r="O10" s="18" t="n">
+        <v>122810538.8715</v>
+      </c>
+      <c r="P10" s="18" t="n">
+        <v>88054801.3379279</v>
+      </c>
+      <c r="Q10" s="18" t="n">
+        <v>77403630.2273528</v>
+      </c>
+      <c r="R10" s="18" t="n">
+        <v>94785852.1989474</v>
+      </c>
+      <c r="S10" s="18" t="n">
+        <v>231725349.862572</v>
+      </c>
+      <c r="T10" s="18" t="n">
+        <v>284834141.930451</v>
+      </c>
+      <c r="U10" s="18" t="n">
+        <v>291808323.569528</v>
+      </c>
+      <c r="V10" s="18" t="n">
+        <v>663339717.454926</v>
+      </c>
+      <c r="W10" s="18" t="n">
+        <v>704910596.756886</v>
+      </c>
+      <c r="X10" s="18" t="n">
+        <v>692531237.335692</v>
+      </c>
+      <c r="Y10" s="18" t="n">
+        <v>1623479140.11611</v>
+      </c>
+      <c r="Z10" s="18" t="n">
+        <v>1888415968.34233</v>
+      </c>
+      <c r="AA10" s="18" t="n">
+        <v>1670124429.61354</v>
+      </c>
+      <c r="AB10" s="18" t="n">
+        <v>1647880034.34434</v>
+      </c>
+      <c r="AC10" s="18" t="n">
+        <v>1964593999.37621</v>
+      </c>
+      <c r="AD10" s="18" t="n">
+        <v>1531318000.2639</v>
+      </c>
+      <c r="AE10" s="18" t="n">
+        <v>1198422252.3702</v>
+      </c>
+      <c r="AF10" s="18" t="n">
+        <v>1143481661.1258</v>
+      </c>
+      <c r="AG10" s="18" t="n">
+        <v>1251612669.78872</v>
+      </c>
+      <c r="AH10" s="18" t="n">
+        <v>1422651243.24051</v>
+      </c>
+      <c r="AI10" s="18" t="n">
+        <v>1853615449.27931</v>
+      </c>
+      <c r="AJ10" s="18" t="n">
+        <v>2165396538.68423</v>
+      </c>
+      <c r="AK10" s="18" t="n">
+        <v>3094706690.9881</v>
+      </c>
+      <c r="AL10" s="18" t="n">
+        <v>2397983066.7312</v>
+      </c>
+      <c r="AM10" s="18"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <f>M11</f>
+      </c>
+      <c r="B11" t="str">
+        <f>N11</f>
+      </c>
+      <c r="C11" s="18" t="str">
+        <f>AI11</f>
+      </c>
+      <c r="D11" s="18" t="str">
+        <f>AK11</f>
+      </c>
+      <c r="E11" s="18" t="str">
+        <f>AL11</f>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="1" t="str">
+        <f>AL11/AK11-1</f>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f>AL11/AI11-1</f>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1" t="str">
+        <f>AL11/Sum(AL$1:AL$30)</f>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="M11" t="s">
+        <v>63</v>
+      </c>
+      <c r="N11" t="s">
+        <v>98</v>
+      </c>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="18"/>
+      <c r="AC11" s="18"/>
+      <c r="AD11" s="18"/>
+      <c r="AE11" s="18"/>
+      <c r="AF11" s="18"/>
+      <c r="AG11" s="18"/>
+      <c r="AH11" s="18"/>
+      <c r="AI11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="18"/>
+      <c r="AK11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="18"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <f>M12</f>
+      </c>
+      <c r="B12" t="str">
+        <f>N12</f>
+      </c>
+      <c r="C12" s="18" t="str">
+        <f>AI12</f>
+      </c>
+      <c r="D12" s="18" t="str">
+        <f>AK12</f>
+      </c>
+      <c r="E12" s="18" t="str">
+        <f>AL12</f>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="G12" s="1" t="str">
+        <f>AL12/AK12-1</f>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f>AL12/AI12-1</f>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1" t="str">
+        <f>AL12/Sum(AL$1:AL$30)</f>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="M12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N12" t="s">
+        <v>107</v>
+      </c>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="18"/>
+      <c r="AG12" s="18" t="n">
+        <v>70904.422648404</v>
+      </c>
+      <c r="AH12" s="18" t="n">
+        <v>29111.3797740244</v>
+      </c>
+      <c r="AI12" s="18" t="n">
+        <v>14330.0249566311</v>
+      </c>
+      <c r="AJ12" s="18" t="n">
+        <v>37143.9530268016</v>
+      </c>
+      <c r="AK12" s="18" t="n">
+        <v>41286.3053100184</v>
+      </c>
+      <c r="AL12" s="18"/>
+      <c r="AM12" s="18"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <f>M13</f>
+      </c>
+      <c r="B13" t="str">
+        <f>N13</f>
+      </c>
+      <c r="C13" s="18" t="str">
+        <f>AI13</f>
+      </c>
+      <c r="D13" s="18" t="str">
+        <f>AK13</f>
+      </c>
+      <c r="E13" s="18" t="str">
+        <f>AL13</f>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="1" t="str">
+        <f>AL13/AK13-1</f>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f>AL13/AI13-1</f>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1" t="str">
+        <f>AL13/Sum(AL$1:AL$30)</f>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="M13" t="s">
+        <v>63</v>
+      </c>
+      <c r="N13" t="s">
+        <v>113</v>
+      </c>
+      <c r="O13" s="18" t="n">
+        <v>223312048.663891</v>
+      </c>
+      <c r="P13" s="18" t="n">
+        <v>911363466.256188</v>
+      </c>
+      <c r="Q13" s="18" t="n">
+        <v>994764781.322826</v>
+      </c>
+      <c r="R13" s="18" t="n">
+        <v>571862227.634484</v>
+      </c>
+      <c r="S13" s="18" t="n">
+        <v>849865107.155529</v>
+      </c>
+      <c r="T13" s="18" t="n">
+        <v>518649498.643925</v>
+      </c>
+      <c r="U13" s="18" t="n">
+        <v>446811488.845499</v>
+      </c>
+      <c r="V13" s="18" t="n">
+        <v>-15993539.8353005</v>
+      </c>
+      <c r="W13" s="18" t="n">
+        <v>152455436.824145</v>
+      </c>
+      <c r="X13" s="18" t="n">
+        <v>218258523.191347</v>
+      </c>
+      <c r="Y13" s="18" t="n">
+        <v>253114336.078972</v>
+      </c>
+      <c r="Z13" s="18" t="n">
+        <v>378662643.214911</v>
+      </c>
+      <c r="AA13" s="18" t="n">
+        <v>351556730.035811</v>
+      </c>
+      <c r="AB13" s="18" t="n">
+        <v>127801010.859185</v>
+      </c>
+      <c r="AC13" s="18" t="n">
+        <v>330231829.756293</v>
+      </c>
+      <c r="AD13" s="18" t="n">
+        <v>1209450013.4581</v>
+      </c>
+      <c r="AE13" s="18" t="n">
+        <v>1350262720.16384</v>
+      </c>
+      <c r="AF13" s="18" t="n">
+        <v>1486640992.77409</v>
+      </c>
+      <c r="AG13" s="18" t="n">
+        <v>1557449770.55963</v>
+      </c>
+      <c r="AH13" s="18" t="n">
+        <v>1275736401.31365</v>
+      </c>
+      <c r="AI13" s="18" t="n">
+        <v>798237731.466745</v>
+      </c>
+      <c r="AJ13" s="18" t="n">
+        <v>431256166.360568</v>
+      </c>
+      <c r="AK13" s="18" t="n">
+        <v>364289934.361393</v>
+      </c>
+      <c r="AL13" s="18" t="n">
+        <v>447981792.5263</v>
+      </c>
+      <c r="AM13" s="18"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <f>M14</f>
+      </c>
+      <c r="B14" t="str">
+        <f>N14</f>
+      </c>
+      <c r="C14" s="18" t="str">
+        <f>AI14</f>
+      </c>
+      <c r="D14" s="18" t="str">
+        <f>AK14</f>
+      </c>
+      <c r="E14" s="18" t="str">
+        <f>AL14</f>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="1" t="str">
+        <f>AL14/AK14-1</f>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f>AL14/AI14-1</f>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1" t="str">
+        <f>AL14/Sum(AL$1:AL$30)</f>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="M14" t="s">
+        <v>64</v>
+      </c>
+      <c r="N14" t="s">
+        <v>101</v>
+      </c>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="18"/>
+      <c r="AC14" s="18"/>
+      <c r="AD14" s="18"/>
+      <c r="AE14" s="18"/>
+      <c r="AF14" s="18"/>
+      <c r="AG14" s="18"/>
+      <c r="AH14" s="18"/>
+      <c r="AI14" s="18"/>
+      <c r="AJ14" s="18" t="n">
+        <v>757267483.173988</v>
+      </c>
+      <c r="AK14" s="18" t="n">
+        <v>880702039.273206</v>
+      </c>
+      <c r="AL14" s="18" t="n">
+        <v>1730402389.9924</v>
+      </c>
+      <c r="AM14" s="18"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <f>M15</f>
+      </c>
+      <c r="B15" t="str">
+        <f>N15</f>
+      </c>
+      <c r="C15" s="18" t="str">
+        <f>AI15</f>
+      </c>
+      <c r="D15" s="18" t="str">
+        <f>AK15</f>
+      </c>
+      <c r="E15" s="18" t="str">
+        <f>AL15</f>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="1" t="str">
+        <f>AL15/AK15-1</f>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f>AL15/AI15-1</f>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1" t="str">
+        <f>AL15/Sum(AL$1:AL$30)</f>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="M15" t="s">
+        <v>64</v>
+      </c>
+      <c r="N15" t="s">
+        <v>106</v>
+      </c>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18" t="n">
+        <v>54446922.3707664</v>
+      </c>
+      <c r="Z15" s="18" t="n">
+        <v>355439677.925857</v>
+      </c>
+      <c r="AA15" s="18" t="n">
+        <v>471119588.652068</v>
+      </c>
+      <c r="AB15" s="18" t="n">
+        <v>438549754.464684</v>
+      </c>
+      <c r="AC15" s="18" t="n">
+        <v>344467231.951312</v>
+      </c>
+      <c r="AD15" s="18" t="n">
+        <v>895996065.036764</v>
+      </c>
+      <c r="AE15" s="18" t="n">
+        <v>1159442710.57902</v>
+      </c>
+      <c r="AF15" s="18" t="n">
+        <v>837962271.26235</v>
+      </c>
+      <c r="AG15" s="18" t="n">
+        <v>137259921.116006</v>
+      </c>
+      <c r="AH15" s="18" t="n">
+        <v>155866452.151691</v>
+      </c>
+      <c r="AI15" s="18" t="n">
+        <v>1911969073.48287</v>
+      </c>
+      <c r="AJ15" s="18" t="n">
+        <v>693066248.953756</v>
+      </c>
+      <c r="AK15" s="18" t="n">
+        <v>538465808.250516</v>
+      </c>
+      <c r="AL15" s="18" t="n">
+        <v>660934111.0548</v>
+      </c>
+      <c r="AM15" s="18"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <f>M16</f>
+      </c>
+      <c r="B16" t="str">
+        <f>N16</f>
+      </c>
+      <c r="C16" s="18" t="str">
+        <f>AI16</f>
+      </c>
+      <c r="D16" s="18" t="str">
+        <f>AK16</f>
+      </c>
+      <c r="E16" s="18" t="str">
+        <f>AL16</f>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16" s="1" t="str">
+        <f>AL16/AK16-1</f>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f>AL16/AI16-1</f>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1" t="str">
+        <f>AL16/Sum(AL$1:AL$30)</f>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="M16" t="s">
+        <v>64</v>
+      </c>
+      <c r="N16" t="s">
+        <v>113</v>
+      </c>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" s="18" t="n">
+        <v>2181673.56151467</v>
+      </c>
+      <c r="V16" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" s="18" t="n">
+        <v>17357638.3002127</v>
+      </c>
+      <c r="X16" s="18" t="n">
+        <v>46593781.2247896</v>
+      </c>
+      <c r="Y16" s="18" t="n">
+        <v>116959202.771747</v>
+      </c>
+      <c r="Z16" s="18" t="n">
+        <v>155802852.826609</v>
+      </c>
+      <c r="AA16" s="18" t="n">
+        <v>84570347.1752452</v>
+      </c>
+      <c r="AB16" s="18" t="n">
+        <v>116070626.196534</v>
+      </c>
+      <c r="AC16" s="18" t="n">
+        <v>201457162.968298</v>
+      </c>
+      <c r="AD16" s="18" t="n">
+        <v>168371795.707106</v>
+      </c>
+      <c r="AE16" s="18" t="n">
+        <v>201940089.381481</v>
+      </c>
+      <c r="AF16" s="18" t="n">
+        <v>358027778.532408</v>
+      </c>
+      <c r="AG16" s="18" t="n">
+        <v>352371006.282432</v>
+      </c>
+      <c r="AH16" s="18" t="n">
+        <v>468552576.636055</v>
+      </c>
+      <c r="AI16" s="18" t="n">
+        <v>475248308.919858</v>
+      </c>
+      <c r="AJ16" s="18" t="n">
+        <v>470506533.662932</v>
+      </c>
+      <c r="AK16" s="18" t="n">
+        <v>732830376.291269</v>
+      </c>
+      <c r="AL16" s="18" t="n">
+        <v>658606978.5541</v>
+      </c>
+      <c r="AM16" s="18"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <f>M17</f>
+      </c>
+      <c r="B17" t="str">
+        <f>N17</f>
+      </c>
+      <c r="C17" s="18" t="str">
+        <f>AI17</f>
+      </c>
+      <c r="D17" s="18" t="str">
+        <f>AK17</f>
+      </c>
+      <c r="E17" s="18" t="str">
+        <f>AL17</f>
+      </c>
+      <c r="F17" s="18"/>
+      <c r="G17" s="1" t="str">
+        <f>AL17/AK17-1</f>
+      </c>
+      <c r="H17" s="1" t="str">
+        <f>AL17/AI17-1</f>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1" t="str">
+        <f>AL17/Sum(AL$1:AL$30)</f>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="M17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N17" t="s">
+        <v>106</v>
+      </c>
+      <c r="O17" s="18" t="n">
+        <v>488214064.171057</v>
+      </c>
+      <c r="P17" s="18" t="n">
+        <v>449148858.4313</v>
+      </c>
+      <c r="Q17" s="18" t="n">
+        <v>350018324.397305</v>
+      </c>
+      <c r="R17" s="18" t="n">
+        <v>271799752.179984</v>
+      </c>
+      <c r="S17" s="18" t="n">
+        <v>465295533.048704</v>
+      </c>
+      <c r="T17" s="18" t="n">
+        <v>383698529.162693</v>
+      </c>
+      <c r="U17" s="18" t="n">
+        <v>589608609.043846</v>
+      </c>
+      <c r="V17" s="18" t="n">
+        <v>487175349.69558</v>
+      </c>
+      <c r="W17" s="18" t="n">
+        <v>998603316.92027</v>
+      </c>
+      <c r="X17" s="18" t="n">
+        <v>125977100.829538</v>
+      </c>
+      <c r="Y17" s="18" t="n">
+        <v>93945822.0569957</v>
+      </c>
+      <c r="Z17" s="18" t="n">
+        <v>6323212.95197715</v>
+      </c>
+      <c r="AA17" s="18" t="n">
+        <v>-901805.866280797</v>
+      </c>
+      <c r="AB17" s="18" t="n">
+        <v>142285309.503426</v>
+      </c>
+      <c r="AC17" s="18" t="n">
+        <v>130065358.295645</v>
+      </c>
+      <c r="AD17" s="18" t="n">
+        <v>138221564.409731</v>
+      </c>
+      <c r="AE17" s="18" t="n">
+        <v>134982842.860277</v>
+      </c>
+      <c r="AF17" s="18" t="n">
+        <v>567267030.107956</v>
+      </c>
+      <c r="AG17" s="18" t="n">
+        <v>993567024.518339</v>
+      </c>
+      <c r="AH17" s="18" t="n">
+        <v>1054733613.76892</v>
+      </c>
+      <c r="AI17" s="18" t="n">
+        <v>1200420238.37927</v>
+      </c>
+      <c r="AJ17" s="18" t="n">
+        <v>1276043983.69188</v>
+      </c>
+      <c r="AK17" s="18" t="n">
+        <v>327643124.314858</v>
+      </c>
+      <c r="AL17" s="18" t="n">
+        <v>965168691.875</v>
+      </c>
+      <c r="AM17" s="18"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <f>M18</f>
+      </c>
+      <c r="B18" t="str">
+        <f>N18</f>
+      </c>
+      <c r="C18" s="18" t="str">
+        <f>AI18</f>
+      </c>
+      <c r="D18" s="18" t="str">
+        <f>AK18</f>
+      </c>
+      <c r="E18" s="18" t="str">
+        <f>AL18</f>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="1" t="str">
+        <f>AL18/AK18-1</f>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f>AL18/AI18-1</f>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1" t="str">
+        <f>AL18/Sum(AL$1:AL$30)</f>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="M18" t="s">
+        <v>65</v>
+      </c>
+      <c r="N18" t="s">
+        <v>107</v>
+      </c>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="18"/>
+      <c r="AA18" s="18" t="n">
+        <v>3709846.7500795</v>
+      </c>
+      <c r="AB18" s="18" t="n">
+        <v>-103790.857395698</v>
+      </c>
+      <c r="AC18" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="18"/>
+      <c r="AE18" s="18"/>
+      <c r="AF18" s="18"/>
+      <c r="AG18" s="18"/>
+      <c r="AH18" s="18"/>
+      <c r="AI18" s="18"/>
+      <c r="AJ18" s="18"/>
+      <c r="AK18" s="18"/>
+      <c r="AL18" s="18"/>
+      <c r="AM18" s="18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <f>M19</f>
+      </c>
+      <c r="B19" t="str">
+        <f>N19</f>
+      </c>
+      <c r="C19" s="18" t="str">
+        <f>AI19</f>
+      </c>
+      <c r="D19" s="18" t="str">
+        <f>AK19</f>
+      </c>
+      <c r="E19" s="18" t="str">
+        <f>AL19</f>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="1" t="str">
+        <f>AL19/AK19-1</f>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f>AL19/AI19-1</f>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1" t="str">
+        <f>AL19/Sum(AL$1:AL$30)</f>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="M19" t="s">
+        <v>65</v>
+      </c>
+      <c r="N19" t="s">
+        <v>113</v>
+      </c>
+      <c r="O19" s="18" t="n">
+        <v>671130044.724945</v>
+      </c>
+      <c r="P19" s="18" t="n">
+        <v>570905583.114454</v>
+      </c>
+      <c r="Q19" s="18" t="n">
+        <v>627560231.606834</v>
+      </c>
+      <c r="R19" s="18" t="n">
+        <v>519166081.625699</v>
+      </c>
+      <c r="S19" s="18" t="n">
+        <v>218772405.327859</v>
+      </c>
+      <c r="T19" s="18" t="n">
+        <v>118302073.019267</v>
+      </c>
+      <c r="U19" s="18" t="n">
+        <v>74477356.8078603</v>
+      </c>
+      <c r="V19" s="18" t="n">
+        <v>56087280.6333292</v>
+      </c>
+      <c r="W19" s="18" t="n">
+        <v>283161879.87861</v>
+      </c>
+      <c r="X19" s="18" t="n">
+        <v>700474406.004065</v>
+      </c>
+      <c r="Y19" s="18" t="n">
+        <v>1260599838.53752</v>
+      </c>
+      <c r="Z19" s="18" t="n">
+        <v>909460050.792516</v>
+      </c>
+      <c r="AA19" s="18" t="n">
+        <v>666223205.584859</v>
+      </c>
+      <c r="AB19" s="18" t="n">
+        <v>651160168.945446</v>
+      </c>
+      <c r="AC19" s="18" t="n">
+        <v>912820475.551143</v>
+      </c>
+      <c r="AD19" s="18" t="n">
+        <v>1002421406.28641</v>
+      </c>
+      <c r="AE19" s="18" t="n">
+        <v>674290174.911787</v>
+      </c>
+      <c r="AF19" s="18" t="n">
+        <v>649824225.375488</v>
+      </c>
+      <c r="AG19" s="18" t="n">
+        <v>649538586.881449</v>
+      </c>
+      <c r="AH19" s="18" t="n">
+        <v>189366448.688801</v>
+      </c>
+      <c r="AI19" s="18" t="n">
+        <v>195936223.699008</v>
+      </c>
+      <c r="AJ19" s="18" t="n">
+        <v>133963554.858339</v>
+      </c>
+      <c r="AK19" s="18" t="n">
+        <v>340501966.29442</v>
+      </c>
+      <c r="AL19" s="18" t="n">
+        <v>224946227.4268</v>
+      </c>
+      <c r="AM19" s="18"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <f>M20</f>
+      </c>
+      <c r="B20" t="str">
+        <f>N20</f>
+      </c>
+      <c r="C20" s="18" t="str">
+        <f>AI20</f>
+      </c>
+      <c r="D20" s="18" t="str">
+        <f>AK20</f>
+      </c>
+      <c r="E20" s="18" t="str">
+        <f>AL20</f>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="1" t="str">
+        <f>AL20/AK20-1</f>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f>AL20/AI20-1</f>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1" t="str">
+        <f>AL20/Sum(AL$1:AL$30)</f>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="M20" t="s">
+        <v>66</v>
+      </c>
+      <c r="N20" t="s">
+        <v>107</v>
+      </c>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="18" t="n">
+        <v>32040.0657332272</v>
+      </c>
+      <c r="AA20" s="18" t="n">
+        <v>328446.150222485</v>
+      </c>
+      <c r="AB20" s="18"/>
+      <c r="AC20" s="18" t="n">
+        <v>1479006.59267125</v>
+      </c>
+      <c r="AD20" s="18" t="n">
+        <v>-22952.8636404553</v>
+      </c>
+      <c r="AE20" s="18" t="n">
+        <v>1599.17422487555</v>
+      </c>
+      <c r="AF20" s="18" t="n">
+        <v>9074682.06859339</v>
+      </c>
+      <c r="AG20" s="18" t="n">
+        <v>300835.75866751</v>
+      </c>
+      <c r="AH20" s="18" t="n">
+        <v>101609.023301843</v>
+      </c>
+      <c r="AI20" s="18" t="n">
+        <v>24562.1228616275</v>
+      </c>
+      <c r="AJ20" s="18" t="n">
+        <v>405328.346884603</v>
+      </c>
+      <c r="AK20" s="18" t="n">
+        <v>66516.0400461046</v>
+      </c>
+      <c r="AL20" s="18" t="n">
+        <v>1089571.6679</v>
+      </c>
+      <c r="AM20" s="18"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <f>M21</f>
+      </c>
+      <c r="B21" t="str">
+        <f>N21</f>
+      </c>
+      <c r="C21" s="18" t="str">
+        <f>AI21</f>
+      </c>
+      <c r="D21" s="18" t="str">
+        <f>AK21</f>
+      </c>
+      <c r="E21" s="18" t="str">
+        <f>AL21</f>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="G21" s="1" t="str">
+        <f>AL21/AK21-1</f>
+      </c>
+      <c r="H21" s="1" t="str">
+        <f>AL21/AI21-1</f>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1" t="str">
+        <f>AL21/Sum(AL$1:AL$30)</f>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="M21" t="s">
+        <v>66</v>
+      </c>
+      <c r="N21" t="s">
+        <v>113</v>
+      </c>
+      <c r="O21" s="18" t="n">
+        <v>920011377.240056</v>
+      </c>
+      <c r="P21" s="18" t="n">
+        <v>1068804178.51338</v>
+      </c>
+      <c r="Q21" s="18" t="n">
+        <v>2278313971.68038</v>
+      </c>
+      <c r="R21" s="18" t="n">
+        <v>1314182313.45545</v>
+      </c>
+      <c r="S21" s="18" t="n">
+        <v>432992232.292929</v>
+      </c>
+      <c r="T21" s="18" t="n">
+        <v>2394157457.34838</v>
+      </c>
+      <c r="U21" s="18" t="n">
+        <v>1143204740.6086</v>
+      </c>
+      <c r="V21" s="18" t="n">
+        <v>103016588.539979</v>
+      </c>
+      <c r="W21" s="18" t="n">
+        <v>2687277024.39891</v>
+      </c>
+      <c r="X21" s="18" t="n">
+        <v>2747476959.29644</v>
+      </c>
+      <c r="Y21" s="18" t="n">
+        <v>2126802365.57939</v>
+      </c>
+      <c r="Z21" s="18" t="n">
+        <v>3622030816.31332</v>
+      </c>
+      <c r="AA21" s="18" t="n">
+        <v>1595485000.28951</v>
+      </c>
+      <c r="AB21" s="18" t="n">
+        <v>3790198396.21208</v>
+      </c>
+      <c r="AC21" s="18" t="n">
+        <v>3937035512.29619</v>
+      </c>
+      <c r="AD21" s="18" t="n">
+        <v>1694586798.54266</v>
+      </c>
+      <c r="AE21" s="18" t="n">
+        <v>311067182.825565</v>
+      </c>
+      <c r="AF21" s="18" t="n">
+        <v>201622854.876921</v>
+      </c>
+      <c r="AG21" s="18" t="n">
+        <v>277523211.229546</v>
+      </c>
+      <c r="AH21" s="18" t="n">
+        <v>395454241.548094</v>
+      </c>
+      <c r="AI21" s="18" t="n">
+        <v>1670638472.96543</v>
+      </c>
+      <c r="AJ21" s="18" t="n">
+        <v>8038054342.62638</v>
+      </c>
+      <c r="AK21" s="18" t="n">
+        <v>280205649.137431</v>
+      </c>
+      <c r="AL21" s="18" t="n">
+        <v>272695242.7823</v>
+      </c>
+      <c r="AM21" s="18"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <f>M22</f>
+      </c>
+      <c r="B22" t="str">
+        <f>N22</f>
+      </c>
+      <c r="C22" s="18" t="str">
+        <f>AI22</f>
+      </c>
+      <c r="D22" s="18" t="str">
+        <f>AK22</f>
+      </c>
+      <c r="E22" s="18" t="str">
+        <f>AL22</f>
+      </c>
+      <c r="F22" s="18"/>
+      <c r="G22" s="1" t="str">
+        <f>AL22/AK22-1</f>
+      </c>
+      <c r="H22" s="1" t="str">
+        <f>AL22/AI22-1</f>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1" t="str">
+        <f>AL22/Sum(AL$1:AL$30)</f>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="M22" t="s">
+        <v>67</v>
+      </c>
+      <c r="N22" t="s">
+        <v>101</v>
+      </c>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="18"/>
+      <c r="Y22" s="18"/>
+      <c r="Z22" s="18"/>
+      <c r="AA22" s="18"/>
+      <c r="AB22" s="18"/>
+      <c r="AC22" s="18"/>
+      <c r="AD22" s="18"/>
+      <c r="AE22" s="18"/>
+      <c r="AF22" s="18"/>
+      <c r="AG22" s="18"/>
+      <c r="AH22" s="18"/>
+      <c r="AI22" s="18"/>
+      <c r="AJ22" s="18" t="n">
+        <v>19209656.7738677</v>
+      </c>
+      <c r="AK22" s="18" t="n">
+        <v>17844100.5483761</v>
+      </c>
+      <c r="AL22" s="18" t="n">
+        <v>66464625.3829</v>
+      </c>
+      <c r="AM22" s="18"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <f>M23</f>
+      </c>
+      <c r="B23" t="str">
+        <f>N23</f>
+      </c>
+      <c r="C23" s="18" t="str">
+        <f>AI23</f>
+      </c>
+      <c r="D23" s="18" t="str">
+        <f>AK23</f>
+      </c>
+      <c r="E23" s="18" t="str">
+        <f>AL23</f>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="G23" s="1" t="str">
+        <f>AL23/AK23-1</f>
+      </c>
+      <c r="H23" s="1" t="str">
+        <f>AL23/AI23-1</f>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1" t="str">
+        <f>AL23/Sum(AL$1:AL$30)</f>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="M23" t="s">
+        <v>67</v>
+      </c>
+      <c r="N23" t="s">
+        <v>113</v>
+      </c>
+      <c r="O23" s="18" t="n">
+        <v>107842459.647253</v>
+      </c>
+      <c r="P23" s="18" t="n">
+        <v>82556981.5931506</v>
+      </c>
+      <c r="Q23" s="18" t="n">
+        <v>22481693.6368648</v>
+      </c>
+      <c r="R23" s="18" t="n">
+        <v>200023151.917637</v>
+      </c>
+      <c r="S23" s="18" t="n">
+        <v>266872614.610659</v>
+      </c>
+      <c r="T23" s="18" t="n">
+        <v>141816686.702248</v>
+      </c>
+      <c r="U23" s="18" t="n">
+        <v>108743826.528041</v>
+      </c>
+      <c r="V23" s="18" t="n">
+        <v>186734670.666863</v>
+      </c>
+      <c r="W23" s="18" t="n">
+        <v>322297421.472713</v>
+      </c>
+      <c r="X23" s="18" t="n">
+        <v>415406866.648108</v>
+      </c>
+      <c r="Y23" s="18" t="n">
+        <v>843276437.805503</v>
+      </c>
+      <c r="Z23" s="18" t="n">
+        <v>850814445.684947</v>
+      </c>
+      <c r="AA23" s="18" t="n">
+        <v>779688347.098058</v>
+      </c>
+      <c r="AB23" s="18" t="n">
+        <v>844398972.17768</v>
+      </c>
+      <c r="AC23" s="18" t="n">
+        <v>555036719.286072</v>
+      </c>
+      <c r="AD23" s="18" t="n">
+        <v>640698318.198843</v>
+      </c>
+      <c r="AE23" s="18" t="n">
+        <v>856909971.773057</v>
+      </c>
+      <c r="AF23" s="18" t="n">
+        <v>1127150163.91419</v>
+      </c>
+      <c r="AG23" s="18" t="n">
+        <v>813628065.877135</v>
+      </c>
+      <c r="AH23" s="18" t="n">
+        <v>1275927940.64558</v>
+      </c>
+      <c r="AI23" s="18" t="n">
+        <v>1452405988.5093</v>
+      </c>
+      <c r="AJ23" s="18" t="n">
+        <v>1068487182.28569</v>
+      </c>
+      <c r="AK23" s="18" t="n">
+        <v>1140134795.39803</v>
+      </c>
+      <c r="AL23" s="18" t="n">
+        <v>1813922907.9572</v>
+      </c>
+      <c r="AM23" s="18"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <f>M24</f>
+      </c>
+      <c r="B24" t="str">
+        <f>N24</f>
+      </c>
+      <c r="C24" s="18" t="str">
+        <f>AI24</f>
+      </c>
+      <c r="D24" s="18" t="str">
+        <f>AK24</f>
+      </c>
+      <c r="E24" s="18" t="str">
+        <f>AL24</f>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="G24" s="1" t="str">
+        <f>AL24/AK24-1</f>
+      </c>
+      <c r="H24" s="1" t="str">
+        <f>AL24/AI24-1</f>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1" t="str">
+        <f>AL24/Sum(AL$1:AL$30)</f>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="M24" t="s">
+        <v>68</v>
+      </c>
+      <c r="N24" t="s">
+        <v>113</v>
+      </c>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18" t="n">
+        <v>500949.16616074</v>
+      </c>
+      <c r="R24" s="18" t="n">
+        <v>1421347.21043611</v>
+      </c>
+      <c r="S24" s="18" t="n">
+        <v>5361383.98554956</v>
+      </c>
+      <c r="T24" s="18" t="n">
+        <v>26297114.4989144</v>
+      </c>
+      <c r="U24" s="18" t="n">
+        <v>12353385.0704913</v>
+      </c>
+      <c r="V24" s="18" t="n">
+        <v>11072724.4866451</v>
+      </c>
+      <c r="W24" s="18" t="n">
+        <v>22635387.9657976</v>
+      </c>
+      <c r="X24" s="18" t="n">
+        <v>31649377.8563304</v>
+      </c>
+      <c r="Y24" s="18" t="n">
+        <v>69082762.8801099</v>
+      </c>
+      <c r="Z24" s="18" t="n">
+        <v>128686448.144607</v>
+      </c>
+      <c r="AA24" s="18" t="n">
+        <v>325700106.458828</v>
+      </c>
+      <c r="AB24" s="18" t="n">
+        <v>278518343.995549</v>
+      </c>
+      <c r="AC24" s="18" t="n">
+        <v>144342756.273598</v>
+      </c>
+      <c r="AD24" s="18" t="n">
+        <v>118176555.747178</v>
+      </c>
+      <c r="AE24" s="18" t="n">
+        <v>94268986.8709606</v>
+      </c>
+      <c r="AF24" s="18" t="n">
+        <v>118450998.461128</v>
+      </c>
+      <c r="AG24" s="18" t="n">
+        <v>258474156.294841</v>
+      </c>
+      <c r="AH24" s="18" t="n">
+        <v>102898869.604246</v>
+      </c>
+      <c r="AI24" s="18" t="n">
+        <v>157248779.412383</v>
+      </c>
+      <c r="AJ24" s="18" t="n">
+        <v>175345363.055805</v>
+      </c>
+      <c r="AK24" s="18" t="n">
+        <v>267336269.068938</v>
+      </c>
+      <c r="AL24" s="18" t="n">
+        <v>423359381.986</v>
+      </c>
+      <c r="AM24" s="18"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <f>M25</f>
+      </c>
+      <c r="B25" t="str">
+        <f>N25</f>
+      </c>
+      <c r="C25" s="18" t="str">
+        <f>AI25</f>
+      </c>
+      <c r="D25" s="18" t="str">
+        <f>AK25</f>
+      </c>
+      <c r="E25" s="18" t="str">
+        <f>AL25</f>
+      </c>
+      <c r="F25" s="18"/>
+      <c r="G25" s="1" t="str">
+        <f>AL25/AK25-1</f>
+      </c>
+      <c r="H25" s="1" t="str">
+        <f>AL25/AI25-1</f>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1" t="str">
+        <f>AL25/Sum(AL$1:AL$30)</f>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="M25" t="s">
+        <v>69</v>
+      </c>
+      <c r="N25" t="s">
+        <v>100</v>
+      </c>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="18"/>
+      <c r="X25" s="18"/>
+      <c r="Y25" s="18"/>
+      <c r="Z25" s="18"/>
+      <c r="AA25" s="18" t="n">
+        <v>125000163.703681</v>
+      </c>
+      <c r="AB25" s="18" t="n">
+        <v>1935898147.18375</v>
+      </c>
+      <c r="AC25" s="18" t="n">
+        <v>1790916506.22487</v>
+      </c>
+      <c r="AD25" s="18" t="n">
+        <v>1538167312.90319</v>
+      </c>
+      <c r="AE25" s="18" t="n">
+        <v>1609352726.59283</v>
+      </c>
+      <c r="AF25" s="18" t="n">
+        <v>2236356244.3371</v>
+      </c>
+      <c r="AG25" s="18" t="n">
+        <v>2166925748.75746</v>
+      </c>
+      <c r="AH25" s="18" t="n">
+        <v>3511954025.72948</v>
+      </c>
+      <c r="AI25" s="18" t="n">
+        <v>4090629028.34183</v>
+      </c>
+      <c r="AJ25" s="18" t="n">
+        <v>1681840936.61825</v>
+      </c>
+      <c r="AK25" s="18" t="n">
+        <v>2065826953.45297</v>
+      </c>
+      <c r="AL25" s="18" t="n">
+        <v>5182942540.7032</v>
+      </c>
+      <c r="AM25" s="18"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <f>M26</f>
+      </c>
+      <c r="B26" t="str">
+        <f>N26</f>
+      </c>
+      <c r="C26" s="18" t="str">
+        <f>AI26</f>
+      </c>
+      <c r="D26" s="18" t="str">
+        <f>AK26</f>
+      </c>
+      <c r="E26" s="18" t="str">
+        <f>AL26</f>
+      </c>
+      <c r="F26" s="18"/>
+      <c r="G26" s="1" t="str">
+        <f>AL26/AK26-1</f>
+      </c>
+      <c r="H26" s="1" t="str">
+        <f>AL26/AI26-1</f>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1" t="str">
+        <f>AL26/Sum(AL$1:AL$30)</f>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="M26" t="s">
+        <v>69</v>
+      </c>
+      <c r="N26" t="s">
+        <v>107</v>
+      </c>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="18"/>
+      <c r="W26" s="18"/>
+      <c r="X26" s="18" t="n">
+        <v>4486.42603499513</v>
+      </c>
+      <c r="Y26" s="18"/>
+      <c r="Z26" s="18" t="n">
+        <v>7060.95153928015</v>
+      </c>
+      <c r="AA26" s="18"/>
+      <c r="AB26" s="18"/>
+      <c r="AC26" s="18"/>
+      <c r="AD26" s="18"/>
+      <c r="AE26" s="18"/>
+      <c r="AF26" s="18"/>
+      <c r="AG26" s="18"/>
+      <c r="AH26" s="18"/>
+      <c r="AI26" s="18"/>
+      <c r="AJ26" s="18"/>
+      <c r="AK26" s="18"/>
+      <c r="AL26" s="18"/>
+      <c r="AM26" s="18"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <f>M27</f>
+      </c>
+      <c r="B27" t="str">
+        <f>N27</f>
+      </c>
+      <c r="C27" s="18" t="str">
+        <f>AI27</f>
+      </c>
+      <c r="D27" s="18" t="str">
+        <f>AK27</f>
+      </c>
+      <c r="E27" s="18" t="str">
+        <f>AL27</f>
+      </c>
+      <c r="F27" s="18"/>
+      <c r="G27" s="1" t="str">
+        <f>AL27/AK27-1</f>
+      </c>
+      <c r="H27" s="1" t="str">
+        <f>AL27/AI27-1</f>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1" t="str">
+        <f>AL27/Sum(AL$1:AL$30)</f>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="M27" t="s">
+        <v>69</v>
+      </c>
+      <c r="N27" t="s">
+        <v>113</v>
+      </c>
+      <c r="O27" s="18" t="n">
+        <v>1698942072.72133</v>
+      </c>
+      <c r="P27" s="18" t="n">
+        <v>667231689.746218</v>
+      </c>
+      <c r="Q27" s="18" t="n">
+        <v>229541392.802605</v>
+      </c>
+      <c r="R27" s="18" t="n">
+        <v>486241383.126826</v>
+      </c>
+      <c r="S27" s="18" t="n">
+        <v>253193877.894965</v>
+      </c>
+      <c r="T27" s="18" t="n">
+        <v>264367639.007765</v>
+      </c>
+      <c r="U27" s="18" t="n">
+        <v>125002327.636753</v>
+      </c>
+      <c r="V27" s="18" t="n">
+        <v>150089414.363696</v>
+      </c>
+      <c r="W27" s="18" t="n">
+        <v>156376649.404194</v>
+      </c>
+      <c r="X27" s="18" t="n">
+        <v>199993240.767862</v>
+      </c>
+      <c r="Y27" s="18" t="n">
+        <v>352434737.714835</v>
+      </c>
+      <c r="Z27" s="18" t="n">
+        <v>380434494.637766</v>
+      </c>
+      <c r="AA27" s="18" t="n">
+        <v>190225792.981314</v>
+      </c>
+      <c r="AB27" s="18" t="n">
+        <v>225966566.606211</v>
+      </c>
+      <c r="AC27" s="18" t="n">
+        <v>739024872.525312</v>
+      </c>
+      <c r="AD27" s="18" t="n">
+        <v>361043114.103746</v>
+      </c>
+      <c r="AE27" s="18" t="n">
+        <v>907288272.127476</v>
+      </c>
+      <c r="AF27" s="18" t="n">
+        <v>239157821.384092</v>
+      </c>
+      <c r="AG27" s="18" t="n">
+        <v>371016642.551373</v>
+      </c>
+      <c r="AH27" s="18" t="n">
+        <v>236180652.3815</v>
+      </c>
+      <c r="AI27" s="18" t="n">
+        <v>375701740.003395</v>
+      </c>
+      <c r="AJ27" s="18" t="n">
+        <v>124981625.204131</v>
+      </c>
+      <c r="AK27" s="18" t="n">
+        <v>155254674.062914</v>
+      </c>
+      <c r="AL27" s="18" t="n">
+        <v>160257277.9173</v>
+      </c>
+      <c r="AM27" s="18"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <f>M28</f>
+      </c>
+      <c r="B28" t="str">
+        <f>N28</f>
+      </c>
+      <c r="C28" s="18" t="str">
+        <f>AI28</f>
+      </c>
+      <c r="D28" s="18" t="str">
+        <f>AK28</f>
+      </c>
+      <c r="E28" s="18" t="str">
+        <f>AL28</f>
+      </c>
+      <c r="F28" s="18"/>
+      <c r="G28" s="1" t="str">
+        <f>AL28/AK28-1</f>
+      </c>
+      <c r="H28" s="1" t="str">
+        <f>AL28/AI28-1</f>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1" t="str">
+        <f>AL28/Sum(AL$1:AL$30)</f>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="M28" t="s">
+        <v>69</v>
+      </c>
+      <c r="N28" t="s">
+        <v>114</v>
+      </c>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="18"/>
+      <c r="X28" s="18" t="n">
+        <v>3782387076.99513</v>
+      </c>
+      <c r="Y28" s="18" t="n">
+        <v>3387582400.12545</v>
+      </c>
+      <c r="Z28" s="18" t="n">
+        <v>4410410862.72054</v>
+      </c>
+      <c r="AA28" s="18" t="n">
+        <v>3654380675.46002</v>
+      </c>
+      <c r="AB28" s="18" t="n">
+        <v>3257988992.66375</v>
+      </c>
+      <c r="AC28" s="18" t="n">
+        <v>1803980241.77711</v>
+      </c>
+      <c r="AD28" s="18" t="n">
+        <v>123539349.430913</v>
+      </c>
+      <c r="AE28" s="18" t="n">
+        <v>339566824.935044</v>
+      </c>
+      <c r="AF28" s="18" t="n">
+        <v>120213554.580293</v>
+      </c>
+      <c r="AG28" s="18" t="n">
+        <v>113022221.000859</v>
+      </c>
+      <c r="AH28" s="18" t="n">
+        <v>137986537.460037</v>
+      </c>
+      <c r="AI28" s="18" t="n">
+        <v>83996828.7864444</v>
+      </c>
+      <c r="AJ28" s="18" t="n">
+        <v>124947692.277727</v>
+      </c>
+      <c r="AK28" s="18" t="n">
+        <v>80673877.3906123</v>
+      </c>
+      <c r="AL28" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="18"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <f>M29</f>
+      </c>
+      <c r="B29" t="str">
+        <f>N29</f>
+      </c>
+      <c r="C29" s="18" t="str">
+        <f>AI29</f>
+      </c>
+      <c r="D29" s="18" t="str">
+        <f>AK29</f>
+      </c>
+      <c r="E29" s="18" t="str">
+        <f>AL29</f>
+      </c>
+      <c r="F29" s="18"/>
+      <c r="G29" s="1" t="str">
+        <f>AL29/AK29-1</f>
+      </c>
+      <c r="H29" s="1" t="str">
+        <f>AL29/AI29-1</f>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1" t="str">
+        <f>AL29/Sum(AL$1:AL$30)</f>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="M29" t="s">
+        <v>70</v>
+      </c>
+      <c r="N29" t="s">
+        <v>113</v>
+      </c>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18" t="n">
+        <v>5539683.33692797</v>
+      </c>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18" t="n">
+        <v>6825742.08321724</v>
+      </c>
+      <c r="T29" s="18"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="18" t="n">
+        <v>6314582.84521379</v>
+      </c>
+      <c r="W29" s="18" t="n">
+        <v>35852222.5157703</v>
+      </c>
+      <c r="X29" s="18" t="n">
+        <v>86097755.4160805</v>
+      </c>
+      <c r="Y29" s="18" t="n">
+        <v>340123073.330009</v>
+      </c>
+      <c r="Z29" s="18" t="n">
+        <v>690048328.860365</v>
+      </c>
+      <c r="AA29" s="18" t="n">
+        <v>1539310026.41604</v>
+      </c>
+      <c r="AB29" s="18" t="n">
+        <v>42919830.0068344</v>
+      </c>
+      <c r="AC29" s="18" t="n">
+        <v>31864603.0937122</v>
+      </c>
+      <c r="AD29" s="18" t="n">
+        <v>128760602.731185</v>
+      </c>
+      <c r="AE29" s="18" t="n">
+        <v>129737430.059346</v>
+      </c>
+      <c r="AF29" s="18" t="n">
+        <v>104426431.698331</v>
+      </c>
+      <c r="AG29" s="18" t="n">
+        <v>70540909.6698193</v>
+      </c>
+      <c r="AH29" s="18" t="n">
+        <v>235407372.418415</v>
+      </c>
+      <c r="AI29" s="18" t="n">
+        <v>238596052.902256</v>
+      </c>
+      <c r="AJ29" s="18" t="n">
+        <v>92717804.8975845</v>
+      </c>
+      <c r="AK29" s="18" t="n">
+        <v>106530961.41211</v>
+      </c>
+      <c r="AL29" s="18" t="n">
+        <v>96650466.9706</v>
+      </c>
+      <c r="AM29" s="18"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <f>M30</f>
+      </c>
+      <c r="B30" t="str">
+        <f>N30</f>
+      </c>
+      <c r="C30" s="18" t="str">
+        <f>AI30</f>
+      </c>
+      <c r="D30" s="18" t="str">
+        <f>AK30</f>
+      </c>
+      <c r="E30" s="18" t="str">
+        <f>AL30</f>
+      </c>
+      <c r="F30" s="18"/>
+      <c r="G30" s="1" t="str">
+        <f>AL30/AK30-1</f>
+      </c>
+      <c r="H30" s="1" t="str">
+        <f>AL30/AI30-1</f>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1" t="str">
+        <f>AL30/Sum(AL$1:AL$30)</f>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="M30" t="s">
+        <v>58</v>
+      </c>
+      <c r="N30"/>
+      <c r="O30" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18" t="n">
+        <v>459601.468371854</v>
+      </c>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="18"/>
+      <c r="U30" s="18"/>
+      <c r="V30" s="18"/>
+      <c r="W30" s="18" t="n">
+        <v>-137465.716340228</v>
+      </c>
+      <c r="X30" s="18"/>
+      <c r="Y30" s="18"/>
+      <c r="Z30" s="18"/>
+      <c r="AA30" s="18"/>
+      <c r="AB30" s="18"/>
+      <c r="AC30" s="18"/>
+      <c r="AD30" s="18"/>
+      <c r="AE30" s="18"/>
+      <c r="AF30" s="18" t="n">
+        <v>24414.0000046899</v>
+      </c>
+      <c r="AG30" s="18" t="n">
+        <v>-278246.133397523</v>
+      </c>
+      <c r="AH30" s="18"/>
+      <c r="AI30" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="18"/>
+      <c r="AK30" s="18"/>
+      <c r="AL30" s="18"/>
+      <c r="AM30" s="18"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <f>M31</f>
+      </c>
+      <c r="B31" t="str">
+        <f>N31</f>
+      </c>
+      <c r="C31" s="18" t="str">
+        <f>AI31</f>
+      </c>
+      <c r="D31" s="18" t="str">
+        <f>AK31</f>
+      </c>
+      <c r="E31" s="18" t="str">
+        <f>AL31</f>
+      </c>
+      <c r="F31" s="18"/>
+      <c r="G31" s="1" t="str">
+        <f>AL31/AK31-1</f>
+      </c>
+      <c r="H31" s="1" t="str">
+        <f>AL31/AI31-1</f>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1" t="str">
+        <f>Sum(J$1:J$30)</f>
+      </c>
+      <c r="K31" s="1"/>
+      <c r="M31" t="s">
+        <v>46</v>
+      </c>
+      <c r="N31" t="s">
+        <v>47</v>
+      </c>
+      <c r="O31" s="18" t="str">
+        <f>Sum(O2:O30)</f>
+      </c>
+      <c r="P31" s="18" t="str">
+        <f>Sum(P2:P30)</f>
+      </c>
+      <c r="Q31" s="18" t="str">
+        <f>Sum(Q2:Q30)</f>
+      </c>
+      <c r="R31" s="18" t="str">
+        <f>Sum(R2:R30)</f>
+      </c>
+      <c r="S31" s="18" t="str">
+        <f>Sum(S2:S30)</f>
+      </c>
+      <c r="T31" s="18" t="str">
+        <f>Sum(T2:T30)</f>
+      </c>
+      <c r="U31" s="18" t="str">
+        <f>Sum(U2:U30)</f>
+      </c>
+      <c r="V31" s="18" t="str">
+        <f>Sum(V2:V30)</f>
+      </c>
+      <c r="W31" s="18" t="str">
+        <f>Sum(W2:W30)</f>
+      </c>
+      <c r="X31" s="18" t="str">
+        <f>Sum(X2:X30)</f>
+      </c>
+      <c r="Y31" s="18" t="str">
+        <f>Sum(Y2:Y30)</f>
+      </c>
+      <c r="Z31" s="18" t="str">
+        <f>Sum(Z2:Z30)</f>
+      </c>
+      <c r="AA31" s="18" t="str">
+        <f>Sum(AA2:AA30)</f>
+      </c>
+      <c r="AB31" s="18" t="str">
+        <f>Sum(AB2:AB30)</f>
+      </c>
+      <c r="AC31" s="18" t="str">
+        <f>Sum(AC2:AC30)</f>
+      </c>
+      <c r="AD31" s="18" t="str">
+        <f>Sum(AD2:AD30)</f>
+      </c>
+      <c r="AE31" s="18" t="str">
+        <f>Sum(AE2:AE30)</f>
+      </c>
+      <c r="AF31" s="18" t="str">
+        <f>Sum(AF2:AF30)</f>
+      </c>
+      <c r="AG31" s="18" t="str">
+        <f>Sum(AG2:AG30)</f>
+      </c>
+      <c r="AH31" s="18" t="str">
+        <f>Sum(AH2:AH30)</f>
+      </c>
+      <c r="AI31" s="18" t="str">
+        <f>Sum(AI2:AI30)</f>
+      </c>
+      <c r="AJ31" s="18" t="str">
+        <f>Sum(AJ2:AJ30)</f>
+      </c>
+      <c r="AK31" s="18" t="str">
+        <f>Sum(AK2:AK30)</f>
+      </c>
+      <c r="AL31" s="18" t="str">
+        <f>Sum(AL2:AL30)</f>
+      </c>
+      <c r="AM31" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>N1</f>
+      </c>
+      <c r="M1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>N2</f>
+      </c>
+      <c r="M2" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" t="s">
+        <v>87</v>
+      </c>
+      <c r="O2" s="20" t="n">
+        <v>305798391.22</v>
+      </c>
+      <c r="P2" s="20" t="n">
+        <v>467083660.6</v>
+      </c>
+      <c r="Q2" s="20" t="n">
+        <v>623306976.79</v>
+      </c>
+      <c r="R2" s="20" t="n">
+        <v>902166349.31</v>
+      </c>
+      <c r="S2" s="20" t="n">
+        <v>1545404234.55</v>
+      </c>
+      <c r="T2" s="20" t="n">
+        <v>2947049116.68</v>
+      </c>
+      <c r="U2" s="20" t="n">
+        <v>4946987294.07</v>
+      </c>
+      <c r="V2" s="20" t="n">
+        <v>13038972855.76</v>
+      </c>
+      <c r="W2" s="20" t="n">
+        <v>9791890070.47</v>
+      </c>
+      <c r="X2" s="20" t="n">
+        <v>5526836631.66</v>
+      </c>
+      <c r="Y2" s="20" t="n">
+        <v>5551948646.64</v>
+      </c>
+      <c r="Z2" s="20" t="n">
+        <v>900528444.88</v>
+      </c>
+      <c r="AA2" s="20"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>N3</f>
+      </c>
+      <c r="M3" t="s">
+        <v>86</v>
+      </c>
+      <c r="N3" t="s">
+        <v>88</v>
+      </c>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20" t="n">
+        <v>348308</v>
+      </c>
+      <c r="V3" s="20" t="n">
+        <v>229376133.84</v>
+      </c>
+      <c r="W3" s="20" t="n">
+        <v>763694993.38</v>
+      </c>
+      <c r="X3" s="20" t="n">
+        <v>571942623.76</v>
+      </c>
+      <c r="Y3" s="20" t="n">
+        <v>1420811414.95</v>
+      </c>
+      <c r="Z3" s="20" t="n">
+        <v>134979795.75</v>
+      </c>
+      <c r="AA3" s="20"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>N4</f>
+      </c>
+      <c r="M4" t="s">
+        <v>89</v>
+      </c>
+      <c r="N4" t="s">
+        <v>87</v>
+      </c>
+      <c r="O4" s="20" t="n">
+        <v>1087637</v>
+      </c>
+      <c r="P4" s="20" t="n">
+        <v>2694831</v>
+      </c>
+      <c r="Q4" s="20" t="n">
+        <v>2316363</v>
+      </c>
+      <c r="R4" s="20" t="n">
+        <v>4928841</v>
+      </c>
+      <c r="S4" s="20" t="n">
+        <v>50000</v>
+      </c>
+      <c r="T4" s="20" t="n">
+        <v>31955707.71</v>
+      </c>
+      <c r="U4" s="20" t="n">
+        <v>167767241.67</v>
+      </c>
+      <c r="V4" s="20" t="n">
+        <v>621072980.27</v>
+      </c>
+      <c r="W4" s="20" t="n">
+        <v>946299367.02</v>
+      </c>
+      <c r="X4" s="20" t="n">
+        <v>1392818930.33</v>
+      </c>
+      <c r="Y4" s="20" t="n">
+        <v>2396228169.59</v>
+      </c>
+      <c r="Z4" s="20" t="n">
+        <v>287480377.3</v>
+      </c>
+      <c r="AA4" s="20"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>N5</f>
+      </c>
+      <c r="M5" t="s">
+        <v>89</v>
+      </c>
+      <c r="N5" t="s">
+        <v>88</v>
+      </c>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20" t="n">
+        <v>10203844.83</v>
+      </c>
+      <c r="W5" s="20" t="n">
+        <v>37345087.25</v>
+      </c>
+      <c r="X5" s="20" t="n">
+        <v>80559943.51</v>
+      </c>
+      <c r="Y5" s="20" t="n">
+        <v>213676422.24</v>
+      </c>
+      <c r="Z5" s="20" t="n">
+        <v>42162701.4</v>
+      </c>
+      <c r="AA5" s="20"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <f>M6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>N6</f>
+      </c>
+      <c r="M6" t="s">
+        <v>90</v>
+      </c>
+      <c r="N6" t="s">
+        <v>87</v>
+      </c>
+      <c r="O6" s="20" t="n">
+        <v>3903539</v>
+      </c>
+      <c r="P6" s="20" t="n">
+        <v>4636181</v>
+      </c>
+      <c r="Q6" s="20" t="n">
+        <v>4993631</v>
+      </c>
+      <c r="R6" s="20" t="n">
+        <v>250037783</v>
+      </c>
+      <c r="S6" s="20" t="n">
+        <v>187693198</v>
+      </c>
+      <c r="T6" s="20" t="n">
+        <v>526509339.38</v>
+      </c>
+      <c r="U6" s="20" t="n">
+        <v>1428461728.3</v>
+      </c>
+      <c r="V6" s="20" t="n">
+        <v>1358409639.11</v>
+      </c>
+      <c r="W6" s="20" t="n">
+        <v>1922431021.18</v>
+      </c>
+      <c r="X6" s="20" t="n">
+        <v>1373770303.73</v>
+      </c>
+      <c r="Y6" s="20" t="n">
+        <v>2582227987.89</v>
+      </c>
+      <c r="Z6" s="20" t="n">
+        <v>1081080934.21</v>
+      </c>
+      <c r="AA6" s="20"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>M7</f>
+      </c>
+      <c r="B7" t="str">
+        <f>N7</f>
+      </c>
+      <c r="M7" t="s">
+        <v>90</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20" t="n">
+        <v>76299804.16</v>
+      </c>
+      <c r="W7" s="20" t="n">
+        <v>62117307.39</v>
+      </c>
+      <c r="X7" s="20" t="n">
+        <v>61769399.21</v>
+      </c>
+      <c r="Y7" s="20" t="n">
+        <v>107150475.74</v>
+      </c>
+      <c r="Z7" s="20" t="n">
+        <v>31352988.8</v>
+      </c>
+      <c r="AA7" s="20"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <f>M8</f>
+      </c>
+      <c r="B8" t="str">
+        <f>N8</f>
+      </c>
+      <c r="M8" t="s">
+        <v>90</v>
+      </c>
+      <c r="N8"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20" t="n">
+        <v>235000</v>
+      </c>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="20"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <f>M9</f>
+      </c>
+      <c r="B9" t="str">
+        <f>N9</f>
+      </c>
+      <c r="M9" t="s">
+        <v>91</v>
+      </c>
+      <c r="N9" t="s">
+        <v>87</v>
+      </c>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20" t="n">
+        <v>623617676</v>
+      </c>
+      <c r="Y9" s="20" t="n">
+        <v>1151457876.22</v>
+      </c>
+      <c r="Z9" s="20" t="n">
+        <v>205871368</v>
+      </c>
+      <c r="AA9" s="20"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="B10" t="str">
+        <f>N10</f>
+      </c>
+      <c r="M10" t="s">
+        <v>92</v>
+      </c>
+      <c r="N10" t="s">
+        <v>87</v>
+      </c>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20" t="n">
+        <v>79948980</v>
+      </c>
+      <c r="W10" s="20" t="n">
+        <v>160693402</v>
+      </c>
+      <c r="X10" s="20" t="n">
+        <v>232946539</v>
+      </c>
+      <c r="Y10" s="20" t="n">
+        <v>421174933.8</v>
+      </c>
+      <c r="Z10" s="20" t="n">
+        <v>48319960</v>
+      </c>
+      <c r="AA10" s="20"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <f>M11</f>
+      </c>
+      <c r="B11" t="str">
+        <f>N11</f>
+      </c>
+      <c r="M11" t="s">
+        <v>92</v>
+      </c>
+      <c r="N11" t="s">
+        <v>88</v>
+      </c>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20" t="n">
+        <v>3500000</v>
+      </c>
+      <c r="X11" s="20" t="n">
+        <v>6155000</v>
+      </c>
+      <c r="Y11" s="20" t="n">
+        <v>8050000</v>
+      </c>
+      <c r="Z11" s="20" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="AA11" s="20"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <f>M12</f>
+      </c>
+      <c r="B12" t="str">
+        <f>N12</f>
+      </c>
+      <c r="M12" t="s">
+        <v>93</v>
+      </c>
+      <c r="N12" t="s">
+        <v>87</v>
+      </c>
+      <c r="O12" s="20" t="n">
+        <v>22014936</v>
+      </c>
+      <c r="P12" s="20" t="n">
+        <v>40849581</v>
+      </c>
+      <c r="Q12" s="20" t="n">
+        <v>62907051</v>
+      </c>
+      <c r="R12" s="20" t="n">
+        <v>214782354.78</v>
+      </c>
+      <c r="S12" s="20" t="n">
+        <v>379711068.32</v>
+      </c>
+      <c r="T12" s="20" t="n">
+        <v>377879847.47</v>
+      </c>
+      <c r="U12" s="20" t="n">
+        <v>423307981.86</v>
+      </c>
+      <c r="V12" s="20" t="n">
+        <v>354104917.18</v>
+      </c>
+      <c r="W12" s="20" t="n">
+        <v>347468914.34</v>
+      </c>
+      <c r="X12" s="20" t="n">
+        <v>312343199.61</v>
+      </c>
+      <c r="Y12" s="20" t="n">
+        <v>469335440.28</v>
+      </c>
+      <c r="Z12" s="20" t="n">
+        <v>130386939.07</v>
+      </c>
+      <c r="AA12" s="20"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <f>M13</f>
+      </c>
+      <c r="B13" t="str">
+        <f>N13</f>
+      </c>
+      <c r="M13" t="s">
+        <v>93</v>
+      </c>
+      <c r="N13" t="s">
+        <v>88</v>
+      </c>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20" t="n">
+        <v>6065329.49</v>
+      </c>
+      <c r="Z13" s="20" t="n">
+        <v>3293394</v>
+      </c>
+      <c r="AA13" s="20"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <f>M14</f>
+      </c>
+      <c r="B14" t="str">
+        <f>N14</f>
+      </c>
+      <c r="M14" t="s">
+        <v>94</v>
+      </c>
+      <c r="N14" t="s">
+        <v>87</v>
+      </c>
+      <c r="O14" s="20" t="n">
+        <v>7755269.51</v>
+      </c>
+      <c r="P14" s="20" t="n">
+        <v>8294831</v>
+      </c>
+      <c r="Q14" s="20" t="n">
+        <v>1359295.89</v>
+      </c>
+      <c r="R14" s="20" t="n">
+        <v>61241002.21</v>
+      </c>
+      <c r="S14" s="20" t="n">
+        <v>2629821</v>
+      </c>
+      <c r="T14" s="20" t="n">
+        <v>70515217.94</v>
+      </c>
+      <c r="U14" s="20" t="n">
+        <v>243888265.92</v>
+      </c>
+      <c r="V14" s="20" t="n">
+        <v>525334651.5</v>
+      </c>
+      <c r="W14" s="20" t="n">
+        <v>418465604.4</v>
+      </c>
+      <c r="X14" s="20" t="n">
+        <v>508547161.27</v>
+      </c>
+      <c r="Y14" s="20" t="n">
+        <v>1025345573.13</v>
+      </c>
+      <c r="Z14" s="20" t="n">
+        <v>174609780.59</v>
+      </c>
+      <c r="AA14" s="20"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <f>M15</f>
+      </c>
+      <c r="B15" t="str">
+        <f>N15</f>
+      </c>
+      <c r="M15" t="s">
+        <v>94</v>
+      </c>
+      <c r="N15" t="s">
+        <v>88</v>
+      </c>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20" t="n">
+        <v>655268.97</v>
+      </c>
+      <c r="V15" s="20" t="n">
+        <v>41181902.47</v>
+      </c>
+      <c r="W15" s="20" t="n">
+        <v>212840425.61</v>
+      </c>
+      <c r="X15" s="20" t="n">
+        <v>289330105.34</v>
+      </c>
+      <c r="Y15" s="20" t="n">
+        <v>327031127.28</v>
+      </c>
+      <c r="Z15" s="20" t="n">
+        <v>83820685.66</v>
+      </c>
+      <c r="AA15" s="20"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <f>M16</f>
+      </c>
+      <c r="B16" t="str">
+        <f>N16</f>
+      </c>
+      <c r="M16" t="s">
+        <v>46</v>
+      </c>
+      <c r="N16" t="s">
+        <v>47</v>
+      </c>
+      <c r="O16" s="20" t="str">
+        <f>Sum(O2:O15)</f>
+      </c>
+      <c r="P16" s="20" t="str">
+        <f>Sum(P2:P15)</f>
+      </c>
+      <c r="Q16" s="20" t="str">
+        <f>Sum(Q2:Q15)</f>
+      </c>
+      <c r="R16" s="20" t="str">
+        <f>Sum(R2:R15)</f>
+      </c>
+      <c r="S16" s="20" t="str">
+        <f>Sum(S2:S15)</f>
+      </c>
+      <c r="T16" s="20" t="str">
+        <f>Sum(T2:T15)</f>
+      </c>
+      <c r="U16" s="20" t="str">
+        <f>Sum(U2:U15)</f>
+      </c>
+      <c r="V16" s="20" t="str">
+        <f>Sum(V2:V15)</f>
+      </c>
+      <c r="W16" s="20" t="str">
+        <f>Sum(W2:W15)</f>
+      </c>
+      <c r="X16" s="20" t="str">
+        <f>Sum(X2:X15)</f>
+      </c>
+      <c r="Y16" s="20" t="str">
+        <f>Sum(Y2:Y15)</f>
+      </c>
+      <c r="Z16" s="20" t="str">
+        <f>Sum(Z2:Z15)</f>
+      </c>
+      <c r="AA16" s="20"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <f>M19</f>
+      </c>
+      <c r="B19" t="str">
+        <f>N19</f>
+      </c>
+      <c r="C19" t="str">
+        <f>V19</f>
+      </c>
+      <c r="D19" t="str">
+        <f>X19</f>
+      </c>
+      <c r="E19" t="str">
+        <f>Y19</f>
+      </c>
+      <c r="G19" t="str">
+        <f>X19&amp;"-"&amp;Y19</f>
+      </c>
+      <c r="H19" t="str">
+        <f>V19&amp;"-"&amp;Y19</f>
+      </c>
+      <c r="J19" t="str">
+        <f>"Share "&amp;Y19</f>
+      </c>
+      <c r="M19" t="s">
+        <v>84</v>
+      </c>
+      <c r="N19" t="s">
+        <v>85</v>
+      </c>
+      <c r="O19" t="s">
+        <v>25</v>
+      </c>
+      <c r="P19" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>27</v>
+      </c>
+      <c r="R19" t="s">
+        <v>28</v>
+      </c>
+      <c r="S19" t="s">
+        <v>29</v>
+      </c>
+      <c r="T19" t="s">
+        <v>30</v>
+      </c>
+      <c r="U19" t="s">
+        <v>31</v>
+      </c>
+      <c r="V19" t="s">
+        <v>32</v>
+      </c>
+      <c r="W19" t="s">
+        <v>33</v>
+      </c>
+      <c r="X19" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <f>M20</f>
+      </c>
+      <c r="B20" t="str">
+        <f>N20</f>
+      </c>
+      <c r="C20" s="20" t="str">
+        <f>V20</f>
+      </c>
+      <c r="D20" s="20" t="str">
+        <f>X20</f>
+      </c>
+      <c r="E20" s="20" t="str">
+        <f>Y20</f>
+      </c>
+      <c r="F20" s="20"/>
+      <c r="G20" s="1" t="str">
+        <f>Y20/X20-1</f>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f>Y20/V20-1</f>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1" t="str">
+        <f>Y20/Sum(Y$19:Y$33)</f>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="M20" t="s">
+        <v>86</v>
+      </c>
+      <c r="N20" t="s">
+        <v>87</v>
+      </c>
+      <c r="O20" s="20" t="n">
+        <v>378171377.680593</v>
+      </c>
+      <c r="P20" s="20" t="n">
+        <v>566665177.182479</v>
+      </c>
+      <c r="Q20" s="20" t="n">
+        <v>747624036.852</v>
+      </c>
+      <c r="R20" s="20" t="n">
+        <v>1073208090.22237</v>
+      </c>
+      <c r="S20" s="20" t="n">
+        <v>1806150861.75354</v>
+      </c>
+      <c r="T20" s="20" t="n">
+        <v>3365269271.17564</v>
+      </c>
+      <c r="U20" s="20" t="n">
+        <v>5540502579.60784</v>
+      </c>
+      <c r="V20" s="20" t="n">
+        <v>14411074711.4441</v>
+      </c>
+      <c r="W20" s="20" t="n">
+        <v>10470346583.216</v>
+      </c>
+      <c r="X20" s="20" t="n">
+        <v>5526836631.66</v>
+      </c>
+      <c r="Y20" s="20" t="n">
+        <v>5295439621.87335</v>
+      </c>
+      <c r="Z20" s="20" t="n">
+        <v>839093948.1948</v>
+      </c>
+      <c r="AA20" s="20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <f>M21</f>
+      </c>
+      <c r="B21" t="str">
+        <f>N21</f>
+      </c>
+      <c r="C21" s="20" t="str">
+        <f>V21</f>
+      </c>
+      <c r="D21" s="20" t="str">
+        <f>X21</f>
+      </c>
+      <c r="E21" s="20" t="str">
+        <f>Y21</f>
+      </c>
+      <c r="F21" s="20"/>
+      <c r="G21" s="1" t="str">
+        <f>Y21/X21-1</f>
+      </c>
+      <c r="H21" s="1" t="str">
+        <f>Y21/V21-1</f>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1" t="str">
+        <f>Y21/Sum(Y$19:Y$33)</f>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="M21" t="s">
+        <v>86</v>
+      </c>
+      <c r="N21" t="s">
+        <v>88</v>
+      </c>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20" t="n">
+        <v>390096.286443129</v>
+      </c>
+      <c r="V21" s="20" t="n">
+        <v>253513573.37401</v>
+      </c>
+      <c r="W21" s="20" t="n">
+        <v>816609582.727026</v>
+      </c>
+      <c r="X21" s="20" t="n">
+        <v>571942623.76</v>
+      </c>
+      <c r="Y21" s="20" t="n">
+        <v>1355167625.06251</v>
+      </c>
+      <c r="Z21" s="20" t="n">
+        <v>125771407.206896</v>
+      </c>
+      <c r="AA21" s="20"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <f>M22</f>
+      </c>
+      <c r="B22" t="str">
+        <f>N22</f>
+      </c>
+      <c r="C22" s="20" t="str">
+        <f>V22</f>
+      </c>
+      <c r="D22" s="20" t="str">
+        <f>X22</f>
+      </c>
+      <c r="E22" s="20" t="str">
+        <f>Y22</f>
+      </c>
+      <c r="F22" s="20"/>
+      <c r="G22" s="1" t="str">
+        <f>Y22/X22-1</f>
+      </c>
+      <c r="H22" s="1" t="str">
+        <f>Y22/V22-1</f>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1" t="str">
+        <f>Y22/Sum(Y$19:Y$33)</f>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="M22" t="s">
+        <v>89</v>
+      </c>
+      <c r="N22" t="s">
+        <v>87</v>
+      </c>
+      <c r="O22" s="20" t="n">
+        <v>1345046.91494756</v>
+      </c>
+      <c r="P22" s="20" t="n">
+        <v>3269364.8159951</v>
+      </c>
+      <c r="Q22" s="20" t="n">
+        <v>2778355.96481389</v>
+      </c>
+      <c r="R22" s="20" t="n">
+        <v>5863300.08946288</v>
+      </c>
+      <c r="S22" s="20" t="n">
+        <v>58436.1949247365</v>
+      </c>
+      <c r="T22" s="20" t="n">
+        <v>36490590.0571763</v>
+      </c>
+      <c r="U22" s="20" t="n">
+        <v>187895132.934856</v>
+      </c>
+      <c r="V22" s="20" t="n">
+        <v>686429001.650722</v>
+      </c>
+      <c r="W22" s="20" t="n">
+        <v>1011866174.2392</v>
+      </c>
+      <c r="X22" s="20" t="n">
+        <v>1392818930.33</v>
+      </c>
+      <c r="Y22" s="20" t="n">
+        <v>2285518544.9122</v>
+      </c>
+      <c r="Z22" s="20" t="n">
+        <v>267868323.525674</v>
+      </c>
+      <c r="AA22" s="20"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <f>M23</f>
+      </c>
+      <c r="B23" t="str">
+        <f>N23</f>
+      </c>
+      <c r="C23" s="20" t="str">
+        <f>V23</f>
+      </c>
+      <c r="D23" s="20" t="str">
+        <f>X23</f>
+      </c>
+      <c r="E23" s="20" t="str">
+        <f>Y23</f>
+      </c>
+      <c r="F23" s="20"/>
+      <c r="G23" s="1" t="str">
+        <f>Y23/X23-1</f>
+      </c>
+      <c r="H23" s="1" t="str">
+        <f>Y23/V23-1</f>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1" t="str">
+        <f>Y23/Sum(Y$19:Y$33)</f>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="M23" t="s">
+        <v>89</v>
+      </c>
+      <c r="N23" t="s">
+        <v>88</v>
+      </c>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20" t="n">
+        <v>11277603.8278317</v>
+      </c>
+      <c r="W23" s="20" t="n">
+        <v>39932638.5277905</v>
+      </c>
+      <c r="X23" s="20" t="n">
+        <v>80559943.51</v>
+      </c>
+      <c r="Y23" s="20" t="n">
+        <v>203804225.256049</v>
+      </c>
+      <c r="Z23" s="20" t="n">
+        <v>39286341.0205757</v>
+      </c>
+      <c r="AA23" s="20"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <f>M24</f>
+      </c>
+      <c r="B24" t="str">
+        <f>N24</f>
+      </c>
+      <c r="C24" s="20" t="str">
+        <f>V24</f>
+      </c>
+      <c r="D24" s="20" t="str">
+        <f>X24</f>
+      </c>
+      <c r="E24" s="20" t="str">
+        <f>Y24</f>
+      </c>
+      <c r="F24" s="20"/>
+      <c r="G24" s="1" t="str">
+        <f>Y24/X24-1</f>
+      </c>
+      <c r="H24" s="1" t="str">
+        <f>Y24/V24-1</f>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1" t="str">
+        <f>Y24/Sum(Y$19:Y$33)</f>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="M24" t="s">
+        <v>90</v>
+      </c>
+      <c r="N24" t="s">
+        <v>87</v>
+      </c>
+      <c r="O24" s="20" t="n">
+        <v>4827385.50575925</v>
+      </c>
+      <c r="P24" s="20" t="n">
+        <v>5624607.64403593</v>
+      </c>
+      <c r="Q24" s="20" t="n">
+        <v>5989598.55382319</v>
+      </c>
+      <c r="R24" s="20" t="n">
+        <v>297442452.583275</v>
+      </c>
+      <c r="S24" s="20" t="n">
+        <v>219361526.087503</v>
+      </c>
+      <c r="T24" s="20" t="n">
+        <v>601227068.383093</v>
+      </c>
+      <c r="U24" s="20" t="n">
+        <v>1599841564.17873</v>
+      </c>
+      <c r="V24" s="20" t="n">
+        <v>1501356204.55044</v>
+      </c>
+      <c r="W24" s="20" t="n">
+        <v>2055631643.04542</v>
+      </c>
+      <c r="X24" s="20" t="n">
+        <v>1373770303.73</v>
+      </c>
+      <c r="Y24" s="20" t="n">
+        <v>2462924870.18201</v>
+      </c>
+      <c r="Z24" s="20" t="n">
+        <v>1007329057.24624</v>
+      </c>
+      <c r="AA24" s="20"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <f>M25</f>
+      </c>
+      <c r="B25" t="str">
+        <f>N25</f>
+      </c>
+      <c r="C25" s="20" t="str">
+        <f>V25</f>
+      </c>
+      <c r="D25" s="20" t="str">
+        <f>X25</f>
+      </c>
+      <c r="E25" s="20" t="str">
+        <f>Y25</f>
+      </c>
+      <c r="F25" s="20"/>
+      <c r="G25" s="1" t="str">
+        <f>Y25/X25-1</f>
+      </c>
+      <c r="H25" s="1" t="str">
+        <f>Y25/V25-1</f>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1" t="str">
+        <f>Y25/Sum(Y$19:Y$33)</f>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="M25" t="s">
+        <v>90</v>
+      </c>
+      <c r="N25" t="s">
+        <v>88</v>
+      </c>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20" t="n">
+        <v>84328895.4108511</v>
+      </c>
+      <c r="W25" s="20" t="n">
+        <v>66421266.2222263</v>
+      </c>
+      <c r="X25" s="20" t="n">
+        <v>61769399.21</v>
+      </c>
+      <c r="Y25" s="20" t="n">
+        <v>102199950.116536</v>
+      </c>
+      <c r="Z25" s="20" t="n">
+        <v>29214072.3699239</v>
+      </c>
+      <c r="AA25" s="20"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <f>M26</f>
+      </c>
+      <c r="B26" t="str">
+        <f>N26</f>
+      </c>
+      <c r="C26" s="20" t="str">
+        <f>V26</f>
+      </c>
+      <c r="D26" s="20" t="str">
+        <f>X26</f>
+      </c>
+      <c r="E26" s="20" t="str">
+        <f>Y26</f>
+      </c>
+      <c r="F26" s="20"/>
+      <c r="G26" s="1" t="str">
+        <f>Y26/X26-1</f>
+      </c>
+      <c r="H26" s="1" t="str">
+        <f>Y26/V26-1</f>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1" t="str">
+        <f>Y26/Sum(Y$19:Y$33)</f>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="M26" t="s">
+        <v>90</v>
+      </c>
+      <c r="N26"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="20" t="n">
+        <v>259729.243603212</v>
+      </c>
+      <c r="W26" s="20"/>
+      <c r="X26" s="20"/>
+      <c r="Y26" s="20"/>
+      <c r="Z26" s="20"/>
+      <c r="AA26" s="20"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <f>M27</f>
+      </c>
+      <c r="B27" t="str">
+        <f>N27</f>
+      </c>
+      <c r="C27" s="20" t="str">
+        <f>V27</f>
+      </c>
+      <c r="D27" s="20" t="str">
+        <f>X27</f>
+      </c>
+      <c r="E27" s="20" t="str">
+        <f>Y27</f>
+      </c>
+      <c r="F27" s="20"/>
+      <c r="G27" s="1" t="str">
+        <f>Y27/X27-1</f>
+      </c>
+      <c r="H27" s="1" t="str">
+        <f>Y27/V27-1</f>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1" t="str">
+        <f>Y27/Sum(Y$19:Y$33)</f>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="M27" t="s">
+        <v>91</v>
+      </c>
+      <c r="N27" t="s">
+        <v>87</v>
+      </c>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="20" t="n">
+        <v>623617676</v>
+      </c>
+      <c r="Y27" s="20" t="n">
+        <v>1098258656.32667</v>
+      </c>
+      <c r="Z27" s="20" t="n">
+        <v>191826721.274089</v>
+      </c>
+      <c r="AA27" s="20"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <f>M28</f>
+      </c>
+      <c r="B28" t="str">
+        <f>N28</f>
+      </c>
+      <c r="C28" s="20" t="str">
+        <f>V28</f>
+      </c>
+      <c r="D28" s="20" t="str">
+        <f>X28</f>
+      </c>
+      <c r="E28" s="20" t="str">
+        <f>Y28</f>
+      </c>
+      <c r="F28" s="20"/>
+      <c r="G28" s="1" t="str">
+        <f>Y28/X28-1</f>
+      </c>
+      <c r="H28" s="1" t="str">
+        <f>Y28/V28-1</f>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1" t="str">
+        <f>Y28/Sum(Y$19:Y$33)</f>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="M28" t="s">
+        <v>92</v>
+      </c>
+      <c r="N28" t="s">
+        <v>87</v>
+      </c>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="20" t="n">
+        <v>88362077.0308439</v>
+      </c>
+      <c r="W28" s="20" t="n">
+        <v>171827461.344783</v>
+      </c>
+      <c r="X28" s="20" t="n">
+        <v>232946539</v>
+      </c>
+      <c r="Y28" s="20" t="n">
+        <v>401715969.317218</v>
+      </c>
+      <c r="Z28" s="20" t="n">
+        <v>45023548.3882107</v>
+      </c>
+      <c r="AA28" s="20"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <f>M29</f>
+      </c>
+      <c r="B29" t="str">
+        <f>N29</f>
+      </c>
+      <c r="C29" s="20" t="str">
+        <f>V29</f>
+      </c>
+      <c r="D29" s="20" t="str">
+        <f>X29</f>
+      </c>
+      <c r="E29" s="20" t="str">
+        <f>Y29</f>
+      </c>
+      <c r="F29" s="20"/>
+      <c r="G29" s="1" t="str">
+        <f>Y29/X29-1</f>
+      </c>
+      <c r="H29" s="1" t="str">
+        <f>Y29/V29-1</f>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1" t="str">
+        <f>Y29/Sum(Y$19:Y$33)</f>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="M29" t="s">
+        <v>92</v>
+      </c>
+      <c r="N29" t="s">
+        <v>88</v>
+      </c>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="20" t="n">
+        <v>3742506.58223503</v>
+      </c>
+      <c r="X29" s="20" t="n">
+        <v>6155000</v>
+      </c>
+      <c r="Y29" s="20" t="n">
+        <v>7678076.95445432</v>
+      </c>
+      <c r="Z29" s="20" t="n">
+        <v>2329448.76135094</v>
+      </c>
+      <c r="AA29" s="20"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <f>M30</f>
+      </c>
+      <c r="B30" t="str">
+        <f>N30</f>
+      </c>
+      <c r="C30" s="20" t="str">
+        <f>V30</f>
+      </c>
+      <c r="D30" s="20" t="str">
+        <f>X30</f>
+      </c>
+      <c r="E30" s="20" t="str">
+        <f>Y30</f>
+      </c>
+      <c r="F30" s="20"/>
+      <c r="G30" s="1" t="str">
+        <f>Y30/X30-1</f>
+      </c>
+      <c r="H30" s="1" t="str">
+        <f>Y30/V30-1</f>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1" t="str">
+        <f>Y30/Sum(Y$19:Y$33)</f>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="M30" t="s">
+        <v>93</v>
+      </c>
+      <c r="N30" t="s">
+        <v>87</v>
+      </c>
+      <c r="O30" s="20" t="n">
+        <v>27225187.9529364</v>
+      </c>
+      <c r="P30" s="20" t="n">
+        <v>49558648.7128662</v>
+      </c>
+      <c r="Q30" s="20" t="n">
+        <v>75453709.2738494</v>
+      </c>
+      <c r="R30" s="20" t="n">
+        <v>255502946.838135</v>
+      </c>
+      <c r="S30" s="20" t="n">
+        <v>443777400.068549</v>
+      </c>
+      <c r="T30" s="20" t="n">
+        <v>431505342.645909</v>
+      </c>
+      <c r="U30" s="20" t="n">
+        <v>474094398.478706</v>
+      </c>
+      <c r="V30" s="20" t="n">
+        <v>391367669.34187</v>
+      </c>
+      <c r="W30" s="20" t="n">
+        <v>371544199.725575</v>
+      </c>
+      <c r="X30" s="20" t="n">
+        <v>312343199.61</v>
+      </c>
+      <c r="Y30" s="20" t="n">
+        <v>447651382.350626</v>
+      </c>
+      <c r="Z30" s="20" t="n">
+        <v>121491877.485181</v>
+      </c>
+      <c r="AA30" s="20"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <f>M31</f>
+      </c>
+      <c r="B31" t="str">
+        <f>N31</f>
+      </c>
+      <c r="C31" s="20" t="str">
+        <f>V31</f>
+      </c>
+      <c r="D31" s="20" t="str">
+        <f>X31</f>
+      </c>
+      <c r="E31" s="20" t="str">
+        <f>Y31</f>
+      </c>
+      <c r="F31" s="20"/>
+      <c r="G31" s="1" t="str">
+        <f>Y31/X31-1</f>
+      </c>
+      <c r="H31" s="1" t="str">
+        <f>Y31/V31-1</f>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1" t="str">
+        <f>Y31/Sum(Y$19:Y$33)</f>
+      </c>
+      <c r="K31" s="1"/>
+      <c r="M31" t="s">
+        <v>93</v>
+      </c>
+      <c r="N31" t="s">
+        <v>88</v>
+      </c>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="20"/>
+      <c r="X31" s="20"/>
+      <c r="Y31" s="20" t="n">
+        <v>5785101.43830325</v>
+      </c>
+      <c r="Z31" s="20" t="n">
+        <v>3068717.02957624</v>
+      </c>
+      <c r="AA31" s="20"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <f>M32</f>
+      </c>
+      <c r="B32" t="str">
+        <f>N32</f>
+      </c>
+      <c r="C32" s="20" t="str">
+        <f>V32</f>
+      </c>
+      <c r="D32" s="20" t="str">
+        <f>X32</f>
+      </c>
+      <c r="E32" s="20" t="str">
+        <f>Y32</f>
+      </c>
+      <c r="F32" s="20"/>
+      <c r="G32" s="1" t="str">
+        <f>Y32/X32-1</f>
+      </c>
+      <c r="H32" s="1" t="str">
+        <f>Y32/V32-1</f>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1" t="str">
+        <f>Y32/Sum(Y$19:Y$33)</f>
+      </c>
+      <c r="K32" s="1"/>
+      <c r="M32" t="s">
+        <v>94</v>
+      </c>
+      <c r="N32" t="s">
+        <v>87</v>
+      </c>
+      <c r="O32" s="20" t="n">
+        <v>9590701.06019964</v>
+      </c>
+      <c r="P32" s="20" t="n">
+        <v>10063276.1854177</v>
+      </c>
+      <c r="Q32" s="20" t="n">
+        <v>1630404.14819633</v>
+      </c>
+      <c r="R32" s="20" t="n">
+        <v>72851685.3630883</v>
+      </c>
+      <c r="S32" s="20" t="n">
+        <v>3073534.65146331</v>
+      </c>
+      <c r="T32" s="20" t="n">
+        <v>80522138.141718</v>
+      </c>
+      <c r="U32" s="20" t="n">
+        <v>273148784.531065</v>
+      </c>
+      <c r="V32" s="20" t="n">
+        <v>580616049.670859</v>
+      </c>
+      <c r="W32" s="20" t="n">
+        <v>447460079.687418</v>
+      </c>
+      <c r="X32" s="20" t="n">
+        <v>508547161.27</v>
+      </c>
+      <c r="Y32" s="20" t="n">
+        <v>977972946.012573</v>
+      </c>
+      <c r="Z32" s="20" t="n">
+        <v>162697814.846054</v>
+      </c>
+      <c r="AA32" s="20"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <f>M33</f>
+      </c>
+      <c r="B33" t="str">
+        <f>N33</f>
+      </c>
+      <c r="C33" s="20" t="str">
+        <f>V33</f>
+      </c>
+      <c r="D33" s="20" t="str">
+        <f>X33</f>
+      </c>
+      <c r="E33" s="20" t="str">
+        <f>Y33</f>
+      </c>
+      <c r="F33" s="20"/>
+      <c r="G33" s="1" t="str">
+        <f>Y33/X33-1</f>
+      </c>
+      <c r="H33" s="1" t="str">
+        <f>Y33/V33-1</f>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1" t="str">
+        <f>Y33/Sum(Y$19:Y$33)</f>
+      </c>
+      <c r="K33" s="1"/>
+      <c r="M33" t="s">
+        <v>94</v>
+      </c>
+      <c r="N33" t="s">
+        <v>88</v>
+      </c>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="20" t="n">
+        <v>733884.928908937</v>
+      </c>
+      <c r="V33" s="20" t="n">
+        <v>45515507.9943589</v>
+      </c>
+      <c r="W33" s="20" t="n">
+        <v>227587626.80318</v>
+      </c>
+      <c r="X33" s="20" t="n">
+        <v>289330105.34</v>
+      </c>
+      <c r="Y33" s="20" t="n">
+        <v>311921759.22457</v>
+      </c>
+      <c r="Z33" s="20" t="n">
+        <v>78102396.9545093</v>
+      </c>
+      <c r="AA33" s="20"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <f>M34</f>
+      </c>
+      <c r="B34" t="str">
+        <f>N34</f>
+      </c>
+      <c r="C34" s="20" t="str">
+        <f>V34</f>
+      </c>
+      <c r="D34" s="20" t="str">
+        <f>X34</f>
+      </c>
+      <c r="E34" s="20" t="str">
+        <f>Y34</f>
+      </c>
+      <c r="F34" s="20"/>
+      <c r="G34" s="1" t="str">
+        <f>Y34/X34-1</f>
+      </c>
+      <c r="H34" s="1" t="str">
+        <f>Y34/V34-1</f>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1" t="str">
+        <f>Sum(J$19:J$33)</f>
+      </c>
+      <c r="K34" s="1"/>
+      <c r="M34" t="s">
+        <v>46</v>
+      </c>
+      <c r="N34" t="s">
+        <v>47</v>
+      </c>
+      <c r="O34" s="20" t="str">
+        <f>Sum(O20:O33)</f>
+      </c>
+      <c r="P34" s="20" t="str">
+        <f>Sum(P20:P33)</f>
+      </c>
+      <c r="Q34" s="20" t="str">
+        <f>Sum(Q20:Q33)</f>
+      </c>
+      <c r="R34" s="20" t="str">
+        <f>Sum(R20:R33)</f>
+      </c>
+      <c r="S34" s="20" t="str">
+        <f>Sum(S20:S33)</f>
+      </c>
+      <c r="T34" s="20" t="str">
+        <f>Sum(T20:T33)</f>
+      </c>
+      <c r="U34" s="20" t="str">
+        <f>Sum(U20:U33)</f>
+      </c>
+      <c r="V34" s="20" t="str">
+        <f>Sum(V20:V33)</f>
+      </c>
+      <c r="W34" s="20" t="str">
+        <f>Sum(W20:W33)</f>
+      </c>
+      <c r="X34" s="20" t="str">
+        <f>Sum(X20:X33)</f>
+      </c>
+      <c r="Y34" s="20" t="str">
+        <f>Sum(Y20:Y33)</f>
+      </c>
+      <c r="Z34" s="20" t="str">
+        <f>Sum(Z20:Z33)</f>
+      </c>
+      <c r="AA34" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
@@ -11615,49 +16984,49 @@
         <v>28856537609.4008</v>
       </c>
       <c r="AE2" s="6" t="n">
-        <v>32918333257.7996</v>
+        <v>32918075773.2283</v>
       </c>
       <c r="AF2" s="6" t="n">
-        <v>27982781956.5677</v>
+        <v>27981624445.2773</v>
       </c>
       <c r="AG2" s="6" t="n">
-        <v>26925101823.8642</v>
+        <v>26916948312.8638</v>
       </c>
       <c r="AH2" s="6" t="n">
-        <v>25383249734.8523</v>
+        <v>25381059794.7938</v>
       </c>
       <c r="AI2" s="6" t="n">
-        <v>23787502633.623</v>
+        <v>23781236602.951</v>
       </c>
       <c r="AJ2" s="6" t="n">
-        <v>19379007554.8761</v>
+        <v>19497175336.1248</v>
       </c>
       <c r="AK2" s="6" t="n">
-        <v>30747380744.5107</v>
+        <v>30744190284.6907</v>
       </c>
       <c r="AL2" s="6" t="n">
-        <v>27795154129.3778</v>
+        <v>27640767677.3332</v>
       </c>
       <c r="AM2" s="6" t="n">
-        <v>28805779377.7706</v>
+        <v>28807000700.5906</v>
       </c>
       <c r="AN2" s="6" t="n">
-        <v>29380095861.5903</v>
+        <v>29406916248.8912</v>
       </c>
       <c r="AO2" s="6" t="n">
-        <v>33679774859.5694</v>
+        <v>33682363136.9994</v>
       </c>
       <c r="AP2" s="6" t="n">
-        <v>28524917595.697</v>
+        <v>28537357724.827</v>
       </c>
       <c r="AQ2" s="6" t="n">
-        <v>28188037094.745</v>
+        <v>28280428246.215</v>
       </c>
       <c r="AR2" s="6" t="n">
-        <v>28916592990.3707</v>
+        <v>29217464869.0707</v>
       </c>
       <c r="AS2" s="6" t="n">
-        <v>36726212081.2067</v>
+        <v>36768744492.4267</v>
       </c>
       <c r="AT2" s="6" t="n">
         <v>35866308853.3797</v>
@@ -11709,49 +17078,49 @@
         <v>49557963726.3316</v>
       </c>
       <c r="AE3" s="6" t="n">
-        <v>64643593135.688</v>
+        <v>64642941835.688</v>
       </c>
       <c r="AF3" s="6" t="n">
-        <v>58097990671.3053</v>
+        <v>58098643257.0653</v>
       </c>
       <c r="AG3" s="6" t="n">
-        <v>67758147379.2357</v>
+        <v>67756921458.8457</v>
       </c>
       <c r="AH3" s="6" t="n">
-        <v>64586495747.2838</v>
+        <v>64575747345.7738</v>
       </c>
       <c r="AI3" s="6" t="n">
-        <v>67600259891.7727</v>
+        <v>67595393425.143</v>
       </c>
       <c r="AJ3" s="6" t="n">
-        <v>51210243620.4042</v>
+        <v>51484301339.8842</v>
       </c>
       <c r="AK3" s="6" t="n">
-        <v>41657813363.9425</v>
+        <v>41629203081.7025</v>
       </c>
       <c r="AL3" s="6" t="n">
-        <v>42835460844.3285</v>
+        <v>43097580358.3998</v>
       </c>
       <c r="AM3" s="6" t="n">
-        <v>47589798534.4249</v>
+        <v>47378754022.3691</v>
       </c>
       <c r="AN3" s="6" t="n">
-        <v>57435706375.6419</v>
+        <v>57485126680.2272</v>
       </c>
       <c r="AO3" s="6" t="n">
-        <v>65154109617.7211</v>
+        <v>65151912922.4511</v>
       </c>
       <c r="AP3" s="6" t="n">
-        <v>72632741246.7473</v>
+        <v>72644543852.8073</v>
       </c>
       <c r="AQ3" s="6" t="n">
-        <v>93441407616.2817</v>
+        <v>93453038550.4417</v>
       </c>
       <c r="AR3" s="6" t="n">
-        <v>59725303964.9188</v>
+        <v>59821074027.5788</v>
       </c>
       <c r="AS3" s="6" t="n">
-        <v>64977354912.5522</v>
+        <v>64994474219.4722</v>
       </c>
       <c r="AT3" s="6" t="n">
         <v>68481733084.6695</v>
@@ -11806,7 +17175,7 @@
         <v>12781940166.5436</v>
       </c>
       <c r="AB4" s="6" t="n">
-        <v>12707016796.6515</v>
+        <v>12707129305.2915</v>
       </c>
       <c r="AC4" s="6" t="n">
         <v>18382045134.1066</v>
@@ -11821,43 +17190,43 @@
         <v>64889783985.1913</v>
       </c>
       <c r="AG4" s="6" t="n">
-        <v>63572657191.7349</v>
+        <v>63572407065.2249</v>
       </c>
       <c r="AH4" s="6" t="n">
-        <v>63725600442.4643</v>
+        <v>63728548103.9943</v>
       </c>
       <c r="AI4" s="6" t="n">
-        <v>65815030221.4321</v>
+        <v>65983640595.1122</v>
       </c>
       <c r="AJ4" s="6" t="n">
-        <v>66964751367.6749</v>
+        <v>67211134917.3349</v>
       </c>
       <c r="AK4" s="6" t="n">
-        <v>58309981851.2406</v>
+        <v>58281307207.8006</v>
       </c>
       <c r="AL4" s="6" t="n">
-        <v>58366416459.388</v>
+        <v>58315355386.1029</v>
       </c>
       <c r="AM4" s="6" t="n">
-        <v>65535918612.6766</v>
+        <v>65807704779.3839</v>
       </c>
       <c r="AN4" s="6" t="n">
-        <v>68125145752.3103</v>
+        <v>68217966167.0995</v>
       </c>
       <c r="AO4" s="6" t="n">
-        <v>80279591310.8038</v>
+        <v>80288950328.7238</v>
       </c>
       <c r="AP4" s="6" t="n">
-        <v>85738902157.8339</v>
+        <v>85770574912.6139</v>
       </c>
       <c r="AQ4" s="6" t="n">
-        <v>81988285081.9869</v>
+        <v>82014106010.0969</v>
       </c>
       <c r="AR4" s="6" t="n">
-        <v>72842293355.4339</v>
+        <v>72939639695.5639</v>
       </c>
       <c r="AS4" s="6" t="n">
-        <v>80274934049.5966</v>
+        <v>80313789564.7666</v>
       </c>
       <c r="AT4" s="6" t="n">
         <v>89778421220.0439</v>
@@ -11907,49 +17276,49 @@
         <v>32693496752.3323</v>
       </c>
       <c r="AE5" s="6" t="n">
-        <v>41337811890.809</v>
+        <v>41338416839.809</v>
       </c>
       <c r="AF5" s="6" t="n">
-        <v>38889271201.3227</v>
+        <v>38889201730.5229</v>
       </c>
       <c r="AG5" s="6" t="n">
-        <v>41827647762.2652</v>
+        <v>41830329250.2352</v>
       </c>
       <c r="AH5" s="6" t="n">
-        <v>45954725921.5003</v>
+        <v>45943085309.8793</v>
       </c>
       <c r="AI5" s="6" t="n">
-        <v>41292253704.7036</v>
+        <v>41274574111.2405</v>
       </c>
       <c r="AJ5" s="6" t="n">
-        <v>27488772706.4096</v>
+        <v>27696084407.0696</v>
       </c>
       <c r="AK5" s="6" t="n">
-        <v>24165486123.675</v>
+        <v>24167197519.375</v>
       </c>
       <c r="AL5" s="6" t="n">
-        <v>26130195725.889</v>
+        <v>26163704965.6678</v>
       </c>
       <c r="AM5" s="6" t="n">
-        <v>24403666498.5291</v>
+        <v>24483600183.9948</v>
       </c>
       <c r="AN5" s="6" t="n">
-        <v>33231364527.172</v>
+        <v>33313188457.7358</v>
       </c>
       <c r="AO5" s="6" t="n">
-        <v>28224110474.6967</v>
+        <v>28211687367.8067</v>
       </c>
       <c r="AP5" s="6" t="n">
-        <v>25023676257.7595</v>
+        <v>25030868434.1995</v>
       </c>
       <c r="AQ5" s="6" t="n">
-        <v>28381856145.7306</v>
+        <v>28385087232.3506</v>
       </c>
       <c r="AR5" s="6" t="n">
-        <v>33301388814.7596</v>
+        <v>33340717530.8196</v>
       </c>
       <c r="AS5" s="6" t="n">
-        <v>35031099866.5774</v>
+        <v>35042199201.2074</v>
       </c>
       <c r="AT5" s="6" t="n">
         <v>28416003107.7987</v>
@@ -12007,10 +17376,10 @@
         <v>30631888746.4587</v>
       </c>
       <c r="AA6" s="6" t="n">
-        <v>40518316023.8198</v>
+        <v>40530857470.8198</v>
       </c>
       <c r="AB6" s="6" t="n">
-        <v>51825215497.3668</v>
+        <v>51826794137.3968</v>
       </c>
       <c r="AC6" s="6" t="n">
         <v>65802878622.2959</v>
@@ -12019,49 +17388,49 @@
         <v>81097959961.1024</v>
       </c>
       <c r="AE6" s="6" t="n">
-        <v>94140385147.4107</v>
+        <v>94140306524.4107</v>
       </c>
       <c r="AF6" s="6" t="n">
-        <v>92796320086.1754</v>
+        <v>92793319747.1754</v>
       </c>
       <c r="AG6" s="6" t="n">
-        <v>82611474288.6061</v>
+        <v>82610307060.0663</v>
       </c>
       <c r="AH6" s="6" t="n">
-        <v>90735366329.7512</v>
+        <v>90761159336.0793</v>
       </c>
       <c r="AI6" s="6" t="n">
-        <v>91052858783.2865</v>
+        <v>91077193305.2115</v>
       </c>
       <c r="AJ6" s="6" t="n">
-        <v>85768400643.238</v>
+        <v>86210083967.808</v>
       </c>
       <c r="AK6" s="6" t="n">
-        <v>74125425586.7234</v>
+        <v>74260515794.5409</v>
       </c>
       <c r="AL6" s="6" t="n">
-        <v>67822450560.4621</v>
+        <v>67799824325.1675</v>
       </c>
       <c r="AM6" s="6" t="n">
-        <v>79361724301.8173</v>
+        <v>79367863107.4402</v>
       </c>
       <c r="AN6" s="6" t="n">
-        <v>80859143885.7745</v>
+        <v>81619262660.3654</v>
       </c>
       <c r="AO6" s="6" t="n">
-        <v>95341873588.239</v>
+        <v>95357389196.199</v>
       </c>
       <c r="AP6" s="6" t="n">
-        <v>116946358107.857</v>
+        <v>117059090928.897</v>
       </c>
       <c r="AQ6" s="6" t="n">
-        <v>126342295963.308</v>
+        <v>126405243988.628</v>
       </c>
       <c r="AR6" s="6" t="n">
-        <v>118730610616.246</v>
+        <v>118993315876.376</v>
       </c>
       <c r="AS6" s="6" t="n">
-        <v>128838260117.925</v>
+        <v>128962993546.785</v>
       </c>
       <c r="AT6" s="6" t="n">
         <v>169358749192.801</v>
@@ -12119,55 +17488,55 @@
         <v>9320351005.8188</v>
       </c>
       <c r="AC7" s="6" t="n">
-        <v>14305439657.5493</v>
+        <v>14305442867.5493</v>
       </c>
       <c r="AD7" s="6" t="n">
-        <v>41150939292.5699</v>
+        <v>41151929253.5699</v>
       </c>
       <c r="AE7" s="6" t="n">
-        <v>53100621923.5764</v>
+        <v>53101507561.5764</v>
       </c>
       <c r="AF7" s="6" t="n">
-        <v>62151502528.2763</v>
+        <v>62151834436.6196</v>
       </c>
       <c r="AG7" s="6" t="n">
-        <v>65971425889.1494</v>
+        <v>66264680920.1594</v>
       </c>
       <c r="AH7" s="6" t="n">
-        <v>67153848761.3261</v>
+        <v>67146619592.9186</v>
       </c>
       <c r="AI7" s="6" t="n">
-        <v>62588165748.7813</v>
+        <v>62581435363.5812</v>
       </c>
       <c r="AJ7" s="6" t="n">
-        <v>50544463167.548</v>
+        <v>50857444903.498</v>
       </c>
       <c r="AK7" s="6" t="n">
-        <v>51547540465.2048</v>
+        <v>51567430494.4379</v>
       </c>
       <c r="AL7" s="6" t="n">
-        <v>48772289059.0484</v>
+        <v>48753708679.7811</v>
       </c>
       <c r="AM7" s="6" t="n">
-        <v>50288505272.3723</v>
+        <v>50300319393.6406</v>
       </c>
       <c r="AN7" s="6" t="n">
-        <v>49652639879.9378</v>
+        <v>49862787751.9017</v>
       </c>
       <c r="AO7" s="6" t="n">
-        <v>55249902000.4253</v>
+        <v>55097328272.2253</v>
       </c>
       <c r="AP7" s="6" t="n">
-        <v>54817389440.3165</v>
+        <v>54976772204.4665</v>
       </c>
       <c r="AQ7" s="6" t="n">
-        <v>63789606036.7334</v>
+        <v>63824372022.0734</v>
       </c>
       <c r="AR7" s="6" t="n">
-        <v>71837220134.9483</v>
+        <v>71891546335.4883</v>
       </c>
       <c r="AS7" s="6" t="n">
-        <v>67956721736.6515</v>
+        <v>67999359130.6915</v>
       </c>
       <c r="AT7" s="6" t="n">
         <v>64110104150.2955</v>
@@ -12229,40 +17598,40 @@
         <v>172589139490.937</v>
       </c>
       <c r="AC8" s="6" t="n">
-        <v>157235485520.126</v>
+        <v>157235490704.126</v>
       </c>
       <c r="AD8" s="6" t="n">
         <v>51783516705.5844</v>
       </c>
       <c r="AE8" s="6" t="n">
-        <v>30390903944.127</v>
+        <v>30390394573.127</v>
       </c>
       <c r="AF8" s="6" t="n">
         <v>22845657876.5749</v>
       </c>
       <c r="AG8" s="6" t="n">
-        <v>13737414506.1522</v>
+        <v>13744751169.2694</v>
       </c>
       <c r="AH8" s="6" t="n">
-        <v>11026629023.9841</v>
+        <v>11027439386.0527</v>
       </c>
       <c r="AI8" s="6" t="n">
-        <v>5500359671.9876</v>
+        <v>5499831645.3876</v>
       </c>
       <c r="AJ8" s="6" t="n">
-        <v>5225413282.5306</v>
+        <v>5272188390.4106</v>
       </c>
       <c r="AK8" s="6" t="n">
-        <v>2730732489.202</v>
+        <v>2799693445.002</v>
       </c>
       <c r="AL8" s="6" t="n">
-        <v>2462474988.1306</v>
+        <v>2455298878.0945</v>
       </c>
       <c r="AM8" s="6" t="n">
-        <v>2376393030.8013</v>
+        <v>2379531416.7751</v>
       </c>
       <c r="AN8" s="6" t="n">
-        <v>1932163982.5914</v>
+        <v>1949828809.8837</v>
       </c>
       <c r="AO8" s="6" t="n">
         <v>1040477910.3691</v>
@@ -12274,7 +17643,7 @@
         <v>385368687.1303</v>
       </c>
       <c r="AR8" s="6" t="n">
-        <v>1499363278.2273</v>
+        <v>1499314532.9273</v>
       </c>
       <c r="AS8" s="6" t="n">
         <v>414380266.7902</v>
@@ -12590,49 +17959,49 @@
         <v>40854993584.1197</v>
       </c>
       <c r="AE13" s="6" t="n">
-        <v>45657776833.9196</v>
+        <v>45657419702.4391</v>
       </c>
       <c r="AF13" s="6" t="n">
-        <v>38419280075.1407</v>
+        <v>38417690856.7947</v>
       </c>
       <c r="AG13" s="6" t="n">
-        <v>36649723220.7229</v>
+        <v>36638624881.2107</v>
       </c>
       <c r="AH13" s="6" t="n">
-        <v>33871155412.2894</v>
+        <v>33868233178.1059</v>
       </c>
       <c r="AI13" s="6" t="n">
-        <v>31176083826.4874</v>
+        <v>31167871518.5163</v>
       </c>
       <c r="AJ13" s="6" t="n">
-        <v>24945644325.7908</v>
+        <v>25097755904.9545</v>
       </c>
       <c r="AK13" s="6" t="n">
-        <v>38870471909.2205</v>
+        <v>38866438567.9795</v>
       </c>
       <c r="AL13" s="6" t="n">
-        <v>34778131042.6077</v>
+        <v>34584958080.3202</v>
       </c>
       <c r="AM13" s="6" t="n">
-        <v>35756777406.4306</v>
+        <v>35758293441.3778</v>
       </c>
       <c r="AN13" s="6" t="n">
-        <v>35864283025.1328</v>
+        <v>35897022671.9173</v>
       </c>
       <c r="AO13" s="6" t="n">
-        <v>40220016784.4332</v>
+        <v>40223107676.8786</v>
       </c>
       <c r="AP13" s="6" t="n">
-        <v>33445746732.6662</v>
+        <v>33460332906.5546</v>
       </c>
       <c r="AQ13" s="6" t="n">
-        <v>32624572747.1819</v>
+        <v>32731505409.1547</v>
       </c>
       <c r="AR13" s="6" t="n">
-        <v>32354248453.9814</v>
+        <v>32690888511.1112</v>
       </c>
       <c r="AS13" s="6" t="n">
-        <v>38406311220.8362</v>
+        <v>38450789345.0347</v>
       </c>
       <c r="AT13" s="6" t="n">
         <v>35866308853.3797</v>
@@ -12705,49 +18074,49 @@
         <v>70164006419.8734</v>
       </c>
       <c r="AE14" s="6" t="n">
-        <v>89660759128.2777</v>
+        <v>89659855774.216</v>
       </c>
       <c r="AF14" s="6" t="n">
-        <v>79766299822.0914</v>
+        <v>79767195797.1637</v>
       </c>
       <c r="AG14" s="6" t="n">
-        <v>92230564758.6048</v>
+        <v>92228896068.7972</v>
       </c>
       <c r="AH14" s="6" t="n">
-        <v>86183576092.2182</v>
+        <v>86169233532.3891</v>
       </c>
       <c r="AI14" s="6" t="n">
-        <v>88597420315.1249</v>
+        <v>88591042286.5473</v>
       </c>
       <c r="AJ14" s="6" t="n">
-        <v>65920430629.5997</v>
+        <v>66273211667.3038</v>
       </c>
       <c r="AK14" s="6" t="n">
-        <v>52663310661.08</v>
+        <v>52627141883.6038</v>
       </c>
       <c r="AL14" s="6" t="n">
-        <v>53597014198.2406</v>
+        <v>53924986001.0507</v>
       </c>
       <c r="AM14" s="6" t="n">
-        <v>59073486979.6815</v>
+        <v>58811516229.2476</v>
       </c>
       <c r="AN14" s="6" t="n">
-        <v>70111766786.2145</v>
+        <v>70172094152.0334</v>
       </c>
       <c r="AO14" s="6" t="n">
-        <v>77806321251.4315</v>
+        <v>77803697982.0956</v>
       </c>
       <c r="AP14" s="6" t="n">
-        <v>85162604241.9993</v>
+        <v>85176442913.8112</v>
       </c>
       <c r="AQ14" s="6" t="n">
-        <v>108148218697.526</v>
+        <v>108161680232.87</v>
       </c>
       <c r="AR14" s="6" t="n">
-        <v>66825553207.9463</v>
+        <v>66932708584.1965</v>
       </c>
       <c r="AS14" s="6" t="n">
-        <v>67949847633.6254</v>
+        <v>67967750090.541</v>
       </c>
       <c r="AT14" s="6" t="n">
         <v>68481733084.6695</v>
@@ -12823,7 +18192,7 @@
         <v>19783078942.5337</v>
       </c>
       <c r="AB15" s="6" t="n">
-        <v>19086323873.576</v>
+        <v>19086492864.9589</v>
       </c>
       <c r="AC15" s="6" t="n">
         <v>26741702402.8348</v>
@@ -12838,43 +18207,43 @@
         <v>89091170020.6176</v>
       </c>
       <c r="AG15" s="6" t="n">
-        <v>86533388275.5433</v>
+        <v>86533047810.0765</v>
       </c>
       <c r="AH15" s="6" t="n">
-        <v>85034805979.3349</v>
+        <v>85038739309.4966</v>
       </c>
       <c r="AI15" s="6" t="n">
-        <v>86257684584.5904</v>
+        <v>86478666636.5876</v>
       </c>
       <c r="AJ15" s="6" t="n">
-        <v>86200434426.4114</v>
+        <v>86517591864.951</v>
       </c>
       <c r="AK15" s="6" t="n">
-        <v>73714783395.9954</v>
+        <v>73678533253.858</v>
       </c>
       <c r="AL15" s="6" t="n">
-        <v>73029811983.1815</v>
+        <v>72965922835.828</v>
       </c>
       <c r="AM15" s="6" t="n">
-        <v>81350107672.0665</v>
+        <v>81687477383.1113</v>
       </c>
       <c r="AN15" s="6" t="n">
-        <v>83160365435.8203</v>
+        <v>83273671316.1752</v>
       </c>
       <c r="AO15" s="6" t="n">
-        <v>95869005164.9962</v>
+        <v>95880181601.2817</v>
       </c>
       <c r="AP15" s="6" t="n">
-        <v>100529706951.383</v>
+        <v>100566843568.207</v>
       </c>
       <c r="AQ15" s="6" t="n">
-        <v>94892480880.5729</v>
+        <v>94922365783.3312</v>
       </c>
       <c r="AR15" s="6" t="n">
-        <v>81501913381.162</v>
+        <v>81610832425.5218</v>
       </c>
       <c r="AS15" s="6" t="n">
-        <v>83947238923.6284</v>
+        <v>83987871946.3035</v>
       </c>
       <c r="AT15" s="6" t="n">
         <v>89778421220.0439</v>
@@ -12945,49 +18314,49 @@
         <v>46287348057.4411</v>
       </c>
       <c r="AE16" s="6" t="n">
-        <v>57335606129.6303</v>
+        <v>57336445194.7865</v>
       </c>
       <c r="AF16" s="6" t="n">
-        <v>53393469045.3837</v>
+        <v>53393373664.6557</v>
       </c>
       <c r="AG16" s="6" t="n">
-        <v>56934667266.5953</v>
+        <v>56938317235.7789</v>
       </c>
       <c r="AH16" s="6" t="n">
-        <v>61321528168.204</v>
+        <v>61305995052.0968</v>
       </c>
       <c r="AI16" s="6" t="n">
-        <v>54117945154.2263</v>
+        <v>54094774143.1154</v>
       </c>
       <c r="AJ16" s="6" t="n">
-        <v>35384946568.8483</v>
+        <v>35651808735.7882</v>
       </c>
       <c r="AK16" s="6" t="n">
-        <v>30549719254.0754</v>
+        <v>30551882780.1018</v>
       </c>
       <c r="AL16" s="6" t="n">
-        <v>32694885118.9658</v>
+        <v>32736812885.4657</v>
       </c>
       <c r="AM16" s="6" t="n">
-        <v>30292409708.6592</v>
+        <v>30391631846.0293</v>
       </c>
       <c r="AN16" s="6" t="n">
-        <v>40565526686.1115</v>
+        <v>40665409158.1699</v>
       </c>
       <c r="AO16" s="6" t="n">
-        <v>33704922368.1334</v>
+        <v>33690086830.4936</v>
       </c>
       <c r="AP16" s="6" t="n">
-        <v>29340506791.2802</v>
+        <v>29348939688.9691</v>
       </c>
       <c r="AQ16" s="6" t="n">
-        <v>32848897119.5181</v>
+        <v>32852636749.2104</v>
       </c>
       <c r="AR16" s="6" t="n">
-        <v>37260316522.5641</v>
+        <v>37304320705.602</v>
       </c>
       <c r="AS16" s="6" t="n">
-        <v>36633653394.7216</v>
+        <v>36645260486.1146</v>
       </c>
       <c r="AT16" s="6" t="n">
         <v>28416003107.7987</v>
@@ -13066,10 +18435,10 @@
         <v>48567796556.9215</v>
       </c>
       <c r="AA17" s="6" t="n">
-        <v>62711688059.3655</v>
+        <v>62731098918.1883</v>
       </c>
       <c r="AB17" s="6" t="n">
-        <v>77843042441.0291</v>
+        <v>77845413606.14</v>
       </c>
       <c r="AC17" s="6" t="n">
         <v>95728249198.0359</v>
@@ -13078,49 +18447,49 @@
         <v>114818232136.646</v>
       </c>
       <c r="AE17" s="6" t="n">
-        <v>130572853201.834</v>
+        <v>130572744151.617</v>
       </c>
       <c r="AF17" s="6" t="n">
-        <v>127405767477.54</v>
+        <v>127401648127.844</v>
       </c>
       <c r="AG17" s="6" t="n">
-        <v>112448513188.157</v>
+        <v>112446924388.115</v>
       </c>
       <c r="AH17" s="6" t="n">
-        <v>121076368331.444</v>
+        <v>121110786261.97</v>
       </c>
       <c r="AI17" s="6" t="n">
-        <v>119334576722.513</v>
+        <v>119366469734.028</v>
       </c>
       <c r="AJ17" s="6" t="n">
-        <v>110405448306.861</v>
+        <v>110974005550.474</v>
       </c>
       <c r="AK17" s="6" t="n">
-        <v>93708478682.1115</v>
+        <v>93879258111.1566</v>
       </c>
       <c r="AL17" s="6" t="n">
-        <v>84861485647.5823</v>
+        <v>84833175022.9168</v>
       </c>
       <c r="AM17" s="6" t="n">
-        <v>98512158731.6073</v>
+        <v>98519778865.863</v>
       </c>
       <c r="AN17" s="6" t="n">
-        <v>98704756960.3261</v>
+        <v>99632633948.6475</v>
       </c>
       <c r="AO17" s="6" t="n">
-        <v>113856217031.354</v>
+        <v>113874745599.766</v>
       </c>
       <c r="AP17" s="6" t="n">
-        <v>137120756316.334</v>
+        <v>137252936658.953</v>
       </c>
       <c r="AQ17" s="6" t="n">
-        <v>146227401782.061</v>
+        <v>146300257242.853</v>
       </c>
       <c r="AR17" s="6" t="n">
-        <v>132845514554.573</v>
+        <v>133139450678.35</v>
       </c>
       <c r="AS17" s="6" t="n">
-        <v>134732171787.793</v>
+        <v>134862611346.271</v>
       </c>
       <c r="AT17" s="6" t="n">
         <v>169358749192.801</v>
@@ -13199,55 +18568,55 @@
         <v>13999449340.4104</v>
       </c>
       <c r="AC18" s="6" t="n">
-        <v>20811166944.3188</v>
+        <v>20811171614.14</v>
       </c>
       <c r="AD18" s="6" t="n">
-        <v>58261368135.5431</v>
+        <v>58262769719.1582</v>
       </c>
       <c r="AE18" s="6" t="n">
-        <v>73650641013.3796</v>
+        <v>73651869394.5932</v>
       </c>
       <c r="AF18" s="6" t="n">
-        <v>85331615220.7743</v>
+        <v>85332070918.1249</v>
       </c>
       <c r="AG18" s="6" t="n">
-        <v>89798527601.8821</v>
+        <v>90197698449.5881</v>
       </c>
       <c r="AH18" s="6" t="n">
-        <v>89609426361.3994</v>
+        <v>89599779831.1406</v>
       </c>
       <c r="AI18" s="6" t="n">
-        <v>82028531199.0695</v>
+        <v>82019710304.484</v>
       </c>
       <c r="AJ18" s="6" t="n">
-        <v>65063404162.7394</v>
+        <v>65466290174.4904</v>
       </c>
       <c r="AK18" s="6" t="n">
-        <v>65165785674.2762</v>
+        <v>65190930411.937</v>
       </c>
       <c r="AL18" s="6" t="n">
-        <v>61025351838.2449</v>
+        <v>61002103510.0662</v>
       </c>
       <c r="AM18" s="6" t="n">
-        <v>62423406967.9074</v>
+        <v>62438071903.6796</v>
       </c>
       <c r="AN18" s="6" t="n">
-        <v>60610977513.0834</v>
+        <v>60867505020.439</v>
       </c>
       <c r="AO18" s="6" t="n">
-        <v>65978825424.4822</v>
+        <v>65796623556.0121</v>
       </c>
       <c r="AP18" s="6" t="n">
-        <v>64273928841.8953</v>
+        <v>64460806702.118</v>
       </c>
       <c r="AQ18" s="6" t="n">
-        <v>73829498509.0486</v>
+        <v>73869736338.0978</v>
       </c>
       <c r="AR18" s="6" t="n">
-        <v>80377355287.4453</v>
+        <v>80438139882.3115</v>
       </c>
       <c r="AS18" s="6" t="n">
-        <v>71065510344.3449</v>
+        <v>71110098253.9699</v>
       </c>
       <c r="AT18" s="6" t="n">
         <v>64110104150.2955</v>
@@ -13330,40 +18699,40 @@
         <v>259234111837.631</v>
       </c>
       <c r="AC19" s="6" t="n">
-        <v>228741934331.499</v>
+        <v>228741941873.042</v>
       </c>
       <c r="AD19" s="6" t="n">
         <v>73314937204.4063</v>
       </c>
       <c r="AE19" s="6" t="n">
-        <v>42152228643.9964</v>
+        <v>42151522145.6673</v>
       </c>
       <c r="AF19" s="6" t="n">
         <v>31366206899.0596</v>
       </c>
       <c r="AG19" s="6" t="n">
-        <v>18698998529.7877</v>
+        <v>18708984997.9678</v>
       </c>
       <c r="AH19" s="6" t="n">
-        <v>14713823850.2305</v>
+        <v>14714905189.2967</v>
       </c>
       <c r="AI19" s="6" t="n">
-        <v>7208813672.07224</v>
+        <v>7208121636.35089</v>
       </c>
       <c r="AJ19" s="6" t="n">
-        <v>6726417791.63105</v>
+        <v>6786629089.9223</v>
       </c>
       <c r="AK19" s="6" t="n">
-        <v>3452159434.16813</v>
+        <v>3539339051.75996</v>
       </c>
       <c r="AL19" s="6" t="n">
-        <v>3081122609.63623</v>
+        <v>3072143645.38765</v>
       </c>
       <c r="AM19" s="6" t="n">
-        <v>2949830154.50462</v>
+        <v>2953725850.82337</v>
       </c>
       <c r="AN19" s="6" t="n">
-        <v>2358592574.00241</v>
+        <v>2380156028.68226</v>
       </c>
       <c r="AO19" s="6" t="n">
         <v>1242527279.15688</v>
@@ -13375,7 +18744,7 @@
         <v>446022144.979804</v>
       </c>
       <c r="AR19" s="6" t="n">
-        <v>1677610223.39998</v>
+        <v>1677555683.17293</v>
       </c>
       <c r="AS19" s="6" t="n">
         <v>433336752.91445</v>

--- a/Output/AcqTrends/NPS2024/DoD_2024_NPS.xlsx
+++ b/Output/AcqTrends/NPS2024/DoD_2024_NPS.xlsx
@@ -1,5 +1,5 @@
 
-<file path=xl/workbook.xml><?xml version="1.0" encoding="UTF-8" standalone="yes"?><workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x15 xr xr6 xr10 xr2" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2"><workbookPr date1904="false"/><bookViews><workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/></bookViews><sheets><sheet name="1 Budg" sheetId="1" state="visible" r:id="rId1"/><sheet name="2 K&Ota" sheetId="2" state="visible" r:id="rId2"/><sheet name="3 Plat" sheetId="3" state="visible" r:id="rId3"/><sheet name="5 Vend" sheetId="4" state="visible" r:id="rId4"/><sheet name="9 Dur" sheetId="5" state="visible" r:id="rId5"/><sheet name="11 OTAtype" sheetId="6" state="visible" r:id="rId6"/><sheet name="9 GFE" sheetId="7" state="visible" r:id="rId7"/><sheet name="10 Mult" sheetId="8" state="visible" r:id="rId8"/><sheet name="11 Mult" sheetId="9" state="visible" r:id="rId9"/><sheet name="1 Outlay" sheetId="10" state="visible" r:id="rId10"/><sheet name="1 TOA" sheetId="11" state="visible" r:id="rId11"/><sheet name="12 OTAtype" sheetId="12" state="visible" r:id="rId12"/><sheet name="9 DIB count" sheetId="13" state="visible" r:id="rId13"/><sheet name="DIB dollars" sheetId="14" state="visible" r:id="rId14"/><sheet name="11 NTDC" sheetId="15" state="visible" r:id="rId15"/><sheet name="4 Cust" sheetId="16" state="visible" r:id="rId16"/><sheet name="10 DIB dollars" sheetId="17" state="visible" r:id="rId17"/><sheet name="5a VendIntl" sheetId="18" state="visible" r:id="rId18"/><sheet name="5 VendNTDC" sheetId="19" state="visible" r:id="rId19"/><sheet name="11 MultPSC" sheetId="20" state="visible" r:id="rId20"/></sheets></workbook>
+<file path=xl/workbook.xml><?xml version="1.0" encoding="UTF-8" standalone="yes"?><workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x15 xr xr6 xr10 xr2" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2"><workbookPr date1904="false"/><bookViews><workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/></bookViews><sheets><sheet name="1 Budg" sheetId="1" state="visible" r:id="rId1"/><sheet name="2 K&Ota" sheetId="2" state="visible" r:id="rId2"/><sheet name="3 Plat" sheetId="3" state="visible" r:id="rId3"/><sheet name="5 Vend" sheetId="4" state="visible" r:id="rId4"/><sheet name="9 Dur" sheetId="5" state="visible" r:id="rId5"/><sheet name="11 OTAtype" sheetId="6" state="visible" r:id="rId6"/><sheet name="9 GFE" sheetId="7" state="visible" r:id="rId7"/><sheet name="10 Mult" sheetId="8" state="visible" r:id="rId8"/><sheet name="11 Mult" sheetId="9" state="visible" r:id="rId9"/><sheet name="1 Outlay" sheetId="10" state="visible" r:id="rId10"/><sheet name="1 TOA" sheetId="11" state="visible" r:id="rId11"/><sheet name="12 OTAtype" sheetId="12" state="visible" r:id="rId12"/><sheet name="9 DIB count" sheetId="13" state="visible" r:id="rId13"/><sheet name="DIB dollars" sheetId="14" state="visible" r:id="rId14"/><sheet name="11 NTDC" sheetId="15" state="visible" r:id="rId15"/><sheet name="4 Cust" sheetId="16" state="visible" r:id="rId16"/><sheet name="10 DIB dollars" sheetId="17" state="visible" r:id="rId17"/><sheet name="5a VendIntl" sheetId="18" state="visible" r:id="rId18"/><sheet name="5 VendNTDC" sheetId="19" state="visible" r:id="rId19"/><sheet name="11 MultPSC" sheetId="20" state="visible" r:id="rId20"/><sheet name="7a Mult" sheetId="21" state="visible" r:id="rId21"/></sheets></workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -456,7 +456,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="26">
+  <numFmts count="27">
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="170" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="245" formatCode="0.00,,,&quot;B&quot;"/>
@@ -481,8 +481,9 @@
     <numFmt numFmtId="250" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="255" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="259" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="265" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="266" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="269" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="270" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -518,7 +519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -545,8 +546,9 @@
     <xf numFmtId="250" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="255" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="259" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="265" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="266" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="269" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="270" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -20178,16 +20180,16 @@
       <c r="B2" t="str">
         <f>N2</f>
       </c>
-      <c r="C2" s="27" t="str">
+      <c r="C2" s="26" t="str">
         <f>AI2</f>
       </c>
-      <c r="D2" s="27" t="str">
+      <c r="D2" s="26" t="str">
         <f>AK2</f>
       </c>
-      <c r="E2" s="27" t="str">
+      <c r="E2" s="26" t="str">
         <f>AL2</f>
       </c>
-      <c r="F2" s="27"/>
+      <c r="F2" s="26"/>
       <c r="G2" s="1" t="str">
         <f>AL2/AK2-1</f>
       </c>
@@ -20205,75 +20207,75 @@
       <c r="N2" t="s">
         <v>98</v>
       </c>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27" t="n">
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26" t="n">
         <v>397365806.319116</v>
       </c>
-      <c r="R2" s="27" t="n">
+      <c r="R2" s="26" t="n">
         <v>2839480303.02883</v>
       </c>
-      <c r="S2" s="27" t="n">
+      <c r="S2" s="26" t="n">
         <v>4109445149.76701</v>
       </c>
-      <c r="T2" s="27" t="n">
+      <c r="T2" s="26" t="n">
         <v>7875574308.78399</v>
       </c>
-      <c r="U2" s="27" t="n">
+      <c r="U2" s="26" t="n">
         <v>7073998460.09372</v>
       </c>
-      <c r="V2" s="27" t="n">
+      <c r="V2" s="26" t="n">
         <v>6152213033.87404</v>
       </c>
-      <c r="W2" s="27" t="n">
+      <c r="W2" s="26" t="n">
         <v>5801207584.22227</v>
       </c>
-      <c r="X2" s="27" t="n">
+      <c r="X2" s="26" t="n">
         <v>2668848611.28076</v>
       </c>
-      <c r="Y2" s="27" t="n">
+      <c r="Y2" s="26" t="n">
         <v>792576556.757872</v>
       </c>
-      <c r="Z2" s="27" t="n">
+      <c r="Z2" s="26" t="n">
         <v>56035989.1754174</v>
       </c>
-      <c r="AA2" s="27" t="n">
+      <c r="AA2" s="26" t="n">
         <v>2849315372.07039</v>
       </c>
-      <c r="AB2" s="27" t="n">
+      <c r="AB2" s="26" t="n">
         <v>2915235881.85436</v>
       </c>
-      <c r="AC2" s="27" t="n">
+      <c r="AC2" s="26" t="n">
         <v>-22828334.1764098</v>
       </c>
-      <c r="AD2" s="27" t="n">
+      <c r="AD2" s="26" t="n">
         <v>9053791.37420698</v>
       </c>
-      <c r="AE2" s="27" t="n">
+      <c r="AE2" s="26" t="n">
         <v>14219533.5008926</v>
       </c>
-      <c r="AF2" s="27" t="n">
+      <c r="AF2" s="26" t="n">
         <v>51965389.4391825</v>
       </c>
-      <c r="AG2" s="27" t="n">
+      <c r="AG2" s="26" t="n">
         <v>1889872947.93917</v>
       </c>
-      <c r="AH2" s="27" t="n">
+      <c r="AH2" s="26" t="n">
         <v>4149941105.51202</v>
       </c>
-      <c r="AI2" s="27" t="n">
+      <c r="AI2" s="26" t="n">
         <v>2513447394.60167</v>
       </c>
-      <c r="AJ2" s="27" t="n">
+      <c r="AJ2" s="26" t="n">
         <v>2384770193.94276</v>
       </c>
-      <c r="AK2" s="27" t="n">
+      <c r="AK2" s="26" t="n">
         <v>2177721855.78697</v>
       </c>
-      <c r="AL2" s="27" t="n">
+      <c r="AL2" s="26" t="n">
         <v>1773563167.807</v>
       </c>
-      <c r="AM2" s="27"/>
+      <c r="AM2" s="26"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -20282,16 +20284,16 @@
       <c r="B3" t="str">
         <f>N3</f>
       </c>
-      <c r="C3" s="27" t="str">
+      <c r="C3" s="26" t="str">
         <f>AI3</f>
       </c>
-      <c r="D3" s="27" t="str">
+      <c r="D3" s="26" t="str">
         <f>AK3</f>
       </c>
-      <c r="E3" s="27" t="str">
+      <c r="E3" s="26" t="str">
         <f>AL3</f>
       </c>
-      <c r="F3" s="27"/>
+      <c r="F3" s="26"/>
       <c r="G3" s="1" t="str">
         <f>AL3/AK3-1</f>
       </c>
@@ -20309,77 +20311,77 @@
       <c r="N3" t="s">
         <v>99</v>
       </c>
-      <c r="O3" s="27" t="n">
+      <c r="O3" s="26" t="n">
         <v>892703.070821061</v>
       </c>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27" t="n">
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26" t="n">
         <v>555016414.132698</v>
       </c>
-      <c r="R3" s="27" t="n">
+      <c r="R3" s="26" t="n">
         <v>581237098.983541</v>
       </c>
-      <c r="S3" s="27" t="n">
+      <c r="S3" s="26" t="n">
         <v>612865751.753848</v>
       </c>
-      <c r="T3" s="27" t="n">
+      <c r="T3" s="26" t="n">
         <v>968359556.618929</v>
       </c>
-      <c r="U3" s="27" t="n">
+      <c r="U3" s="26" t="n">
         <v>1383139767.5459</v>
       </c>
-      <c r="V3" s="27" t="n">
+      <c r="V3" s="26" t="n">
         <v>100628033.2243</v>
       </c>
-      <c r="W3" s="27" t="n">
+      <c r="W3" s="26" t="n">
         <v>6179231553.48301</v>
       </c>
-      <c r="X3" s="27" t="n">
+      <c r="X3" s="26" t="n">
         <v>3426854207.2981</v>
       </c>
-      <c r="Y3" s="27" t="n">
+      <c r="Y3" s="26" t="n">
         <v>3813123902.50872</v>
       </c>
-      <c r="Z3" s="27" t="n">
+      <c r="Z3" s="26" t="n">
         <v>4279209448.87573</v>
       </c>
-      <c r="AA3" s="27" t="n">
+      <c r="AA3" s="26" t="n">
         <v>5854121087.39238</v>
       </c>
-      <c r="AB3" s="27" t="n">
+      <c r="AB3" s="26" t="n">
         <v>4053717172.65866</v>
       </c>
-      <c r="AC3" s="27" t="n">
+      <c r="AC3" s="26" t="n">
         <v>3396788701.03342</v>
       </c>
-      <c r="AD3" s="27" t="n">
+      <c r="AD3" s="26" t="n">
         <v>3573693639.78001</v>
       </c>
-      <c r="AE3" s="27" t="n">
+      <c r="AE3" s="26" t="n">
         <v>4569729826.82835</v>
       </c>
-      <c r="AF3" s="27" t="n">
+      <c r="AF3" s="26" t="n">
         <v>3053492264.81399</v>
       </c>
-      <c r="AG3" s="27" t="n">
+      <c r="AG3" s="26" t="n">
         <v>1123486359.85999</v>
       </c>
-      <c r="AH3" s="27" t="n">
+      <c r="AH3" s="26" t="n">
         <v>1152110340.69979</v>
       </c>
-      <c r="AI3" s="27" t="n">
+      <c r="AI3" s="26" t="n">
         <v>1397012313.55159</v>
       </c>
-      <c r="AJ3" s="27" t="n">
+      <c r="AJ3" s="26" t="n">
         <v>1156028730.96057</v>
       </c>
-      <c r="AK3" s="27" t="n">
+      <c r="AK3" s="26" t="n">
         <v>567453299.051815</v>
       </c>
-      <c r="AL3" s="27" t="n">
+      <c r="AL3" s="26" t="n">
         <v>1330217877.4287</v>
       </c>
-      <c r="AM3" s="27"/>
+      <c r="AM3" s="26"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -20388,16 +20390,16 @@
       <c r="B4" t="str">
         <f>N4</f>
       </c>
-      <c r="C4" s="27" t="str">
+      <c r="C4" s="26" t="str">
         <f>AI4</f>
       </c>
-      <c r="D4" s="27" t="str">
+      <c r="D4" s="26" t="str">
         <f>AK4</f>
       </c>
-      <c r="E4" s="27" t="str">
+      <c r="E4" s="26" t="str">
         <f>AL4</f>
       </c>
-      <c r="F4" s="27"/>
+      <c r="F4" s="26"/>
       <c r="G4" s="1" t="str">
         <f>AL4/AK4-1</f>
       </c>
@@ -20415,61 +20417,61 @@
       <c r="N4" t="s">
         <v>107</v>
       </c>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27" t="n">
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26" t="n">
         <v>5424175.49620942</v>
       </c>
-      <c r="X4" s="27" t="n">
+      <c r="X4" s="26" t="n">
         <v>4545847.42086142</v>
       </c>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="27" t="n">
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26" t="n">
         <v>29658.1528392675</v>
       </c>
-      <c r="AA4" s="27" t="n">
+      <c r="AA4" s="26" t="n">
         <v>177999.135688306</v>
       </c>
-      <c r="AB4" s="27" t="n">
+      <c r="AB4" s="26" t="n">
         <v>366463.704148641</v>
       </c>
-      <c r="AC4" s="27" t="n">
+      <c r="AC4" s="26" t="n">
         <v>361553.021921799</v>
       </c>
-      <c r="AD4" s="27" t="n">
+      <c r="AD4" s="26" t="n">
         <v>18212.7539111367</v>
       </c>
-      <c r="AE4" s="27" t="n">
+      <c r="AE4" s="26" t="n">
         <v>-186507.915454998</v>
       </c>
-      <c r="AF4" s="27" t="n">
+      <c r="AF4" s="26" t="n">
         <v>123931.738910087</v>
       </c>
-      <c r="AG4" s="27" t="n">
+      <c r="AG4" s="26" t="n">
         <v>334492.279988446</v>
       </c>
-      <c r="AH4" s="27" t="n">
+      <c r="AH4" s="26" t="n">
         <v>2087251.70038931</v>
       </c>
-      <c r="AI4" s="27" t="n">
+      <c r="AI4" s="26" t="n">
         <v>712707.795095527</v>
       </c>
-      <c r="AJ4" s="27" t="n">
+      <c r="AJ4" s="26" t="n">
         <v>188380405.952412</v>
       </c>
-      <c r="AK4" s="27" t="n">
+      <c r="AK4" s="26" t="n">
         <v>-4976172.57976131</v>
       </c>
-      <c r="AL4" s="27" t="n">
+      <c r="AL4" s="26" t="n">
         <v>2374808234.41</v>
       </c>
-      <c r="AM4" s="27"/>
+      <c r="AM4" s="26"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -20478,16 +20480,16 @@
       <c r="B5" t="str">
         <f>N5</f>
       </c>
-      <c r="C5" s="27" t="str">
+      <c r="C5" s="26" t="str">
         <f>AI5</f>
       </c>
-      <c r="D5" s="27" t="str">
+      <c r="D5" s="26" t="str">
         <f>AK5</f>
       </c>
-      <c r="E5" s="27" t="str">
+      <c r="E5" s="26" t="str">
         <f>AL5</f>
       </c>
-      <c r="F5" s="27"/>
+      <c r="F5" s="26"/>
       <c r="G5" s="1" t="str">
         <f>AL5/AK5-1</f>
       </c>
@@ -20505,79 +20507,79 @@
       <c r="N5" t="s">
         <v>113</v>
       </c>
-      <c r="O5" s="27" t="n">
+      <c r="O5" s="26" t="n">
         <v>109206957.341737</v>
       </c>
-      <c r="P5" s="27" t="n">
+      <c r="P5" s="26" t="n">
         <v>78664277.7731819</v>
       </c>
-      <c r="Q5" s="27" t="n">
+      <c r="Q5" s="26" t="n">
         <v>66992284.2710572</v>
       </c>
-      <c r="R5" s="27" t="n">
+      <c r="R5" s="26" t="n">
         <v>404040532.852753</v>
       </c>
-      <c r="S5" s="27" t="n">
+      <c r="S5" s="26" t="n">
         <v>736761571.956634</v>
       </c>
-      <c r="T5" s="27" t="n">
+      <c r="T5" s="26" t="n">
         <v>1021494944.62273</v>
       </c>
-      <c r="U5" s="27" t="n">
+      <c r="U5" s="26" t="n">
         <v>978315934.406207</v>
       </c>
-      <c r="V5" s="27" t="n">
+      <c r="V5" s="26" t="n">
         <v>649952028.996232</v>
       </c>
-      <c r="W5" s="27" t="n">
+      <c r="W5" s="26" t="n">
         <v>377510464.973437</v>
       </c>
-      <c r="X5" s="27" t="n">
+      <c r="X5" s="26" t="n">
         <v>499052946.570925</v>
       </c>
-      <c r="Y5" s="27" t="n">
+      <c r="Y5" s="26" t="n">
         <v>766800014.407336</v>
       </c>
-      <c r="Z5" s="27" t="n">
+      <c r="Z5" s="26" t="n">
         <v>1423976671.54069</v>
       </c>
-      <c r="AA5" s="27" t="n">
+      <c r="AA5" s="26" t="n">
         <v>1292106995.74913</v>
       </c>
-      <c r="AB5" s="27" t="n">
+      <c r="AB5" s="26" t="n">
         <v>1630447418.57498</v>
       </c>
-      <c r="AC5" s="27" t="n">
+      <c r="AC5" s="26" t="n">
         <v>1512529318.16832</v>
       </c>
-      <c r="AD5" s="27" t="n">
+      <c r="AD5" s="26" t="n">
         <v>1290370117.97345</v>
       </c>
-      <c r="AE5" s="27" t="n">
+      <c r="AE5" s="26" t="n">
         <v>1621381828.83097</v>
       </c>
-      <c r="AF5" s="27" t="n">
+      <c r="AF5" s="26" t="n">
         <v>3099806534.2644</v>
       </c>
-      <c r="AG5" s="27" t="n">
+      <c r="AG5" s="26" t="n">
         <v>4053256762.29813</v>
       </c>
-      <c r="AH5" s="27" t="n">
+      <c r="AH5" s="26" t="n">
         <v>3966701986.28081</v>
       </c>
-      <c r="AI5" s="27" t="n">
+      <c r="AI5" s="26" t="n">
         <v>3198323399.12932</v>
       </c>
-      <c r="AJ5" s="27" t="n">
+      <c r="AJ5" s="26" t="n">
         <v>2635245573.85011</v>
       </c>
-      <c r="AK5" s="27" t="n">
+      <c r="AK5" s="26" t="n">
         <v>3471732807.83605</v>
       </c>
-      <c r="AL5" s="27" t="n">
+      <c r="AL5" s="26" t="n">
         <v>2533857690.4549</v>
       </c>
-      <c r="AM5" s="27"/>
+      <c r="AM5" s="26"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -20586,16 +20588,16 @@
       <c r="B6" t="str">
         <f>N6</f>
       </c>
-      <c r="C6" s="27" t="str">
+      <c r="C6" s="26" t="str">
         <f>AI6</f>
       </c>
-      <c r="D6" s="27" t="str">
+      <c r="D6" s="26" t="str">
         <f>AK6</f>
       </c>
-      <c r="E6" s="27" t="str">
+      <c r="E6" s="26" t="str">
         <f>AL6</f>
       </c>
-      <c r="F6" s="27"/>
+      <c r="F6" s="26"/>
       <c r="G6" s="1" t="str">
         <f>AL6/AK6-1</f>
       </c>
@@ -20613,41 +20615,41 @@
       <c r="N6" t="s">
         <v>98</v>
       </c>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="27"/>
-      <c r="AB6" s="27"/>
-      <c r="AC6" s="27"/>
-      <c r="AD6" s="27"/>
-      <c r="AE6" s="27"/>
-      <c r="AF6" s="27"/>
-      <c r="AG6" s="27"/>
-      <c r="AH6" s="27" t="n">
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="26"/>
+      <c r="AE6" s="26"/>
+      <c r="AF6" s="26"/>
+      <c r="AG6" s="26"/>
+      <c r="AH6" s="26" t="n">
         <v>12160191.0669516</v>
       </c>
-      <c r="AI6" s="27" t="n">
+      <c r="AI6" s="26" t="n">
         <v>10933558.8603299</v>
       </c>
-      <c r="AJ6" s="27" t="n">
+      <c r="AJ6" s="26" t="n">
         <v>4871322.51090028</v>
       </c>
-      <c r="AK6" s="27" t="n">
+      <c r="AK6" s="26" t="n">
         <v>1117618.84445737</v>
       </c>
-      <c r="AL6" s="27" t="n">
+      <c r="AL6" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="AM6" s="27"/>
+      <c r="AM6" s="26"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -20656,16 +20658,16 @@
       <c r="B7" t="str">
         <f>N7</f>
       </c>
-      <c r="C7" s="27" t="str">
+      <c r="C7" s="26" t="str">
         <f>AI7</f>
       </c>
-      <c r="D7" s="27" t="str">
+      <c r="D7" s="26" t="str">
         <f>AK7</f>
       </c>
-      <c r="E7" s="27" t="str">
+      <c r="E7" s="26" t="str">
         <f>AL7</f>
       </c>
-      <c r="F7" s="27"/>
+      <c r="F7" s="26"/>
       <c r="G7" s="1" t="str">
         <f>AL7/AK7-1</f>
       </c>
@@ -20683,37 +20685,37 @@
       <c r="N7" t="s">
         <v>101</v>
       </c>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="27"/>
-      <c r="AB7" s="27"/>
-      <c r="AC7" s="27"/>
-      <c r="AD7" s="27"/>
-      <c r="AE7" s="27"/>
-      <c r="AF7" s="27"/>
-      <c r="AG7" s="27"/>
-      <c r="AH7" s="27"/>
-      <c r="AI7" s="27"/>
-      <c r="AJ7" s="27" t="n">
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="26"/>
+      <c r="AE7" s="26"/>
+      <c r="AF7" s="26"/>
+      <c r="AG7" s="26"/>
+      <c r="AH7" s="26"/>
+      <c r="AI7" s="26"/>
+      <c r="AJ7" s="26" t="n">
         <v>3410852.86305641</v>
       </c>
-      <c r="AK7" s="27" t="n">
+      <c r="AK7" s="26" t="n">
         <v>28998040.0169742</v>
       </c>
-      <c r="AL7" s="27" t="n">
+      <c r="AL7" s="26" t="n">
         <v>30841171.9922</v>
       </c>
-      <c r="AM7" s="27"/>
+      <c r="AM7" s="26"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -20722,16 +20724,16 @@
       <c r="B8" t="str">
         <f>N8</f>
       </c>
-      <c r="C8" s="27" t="str">
+      <c r="C8" s="26" t="str">
         <f>AI8</f>
       </c>
-      <c r="D8" s="27" t="str">
+      <c r="D8" s="26" t="str">
         <f>AK8</f>
       </c>
-      <c r="E8" s="27" t="str">
+      <c r="E8" s="26" t="str">
         <f>AL8</f>
       </c>
-      <c r="F8" s="27"/>
+      <c r="F8" s="26"/>
       <c r="G8" s="1" t="str">
         <f>AL8/AK8-1</f>
       </c>
@@ -20749,49 +20751,49 @@
       <c r="N8" t="s">
         <v>107</v>
       </c>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="27"/>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="27" t="n">
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26" t="n">
         <v>51120.2682274273</v>
       </c>
-      <c r="Z8" s="27" t="n">
+      <c r="Z8" s="26" t="n">
         <v>82036.6051261196</v>
       </c>
-      <c r="AA8" s="27" t="n">
+      <c r="AA8" s="26" t="n">
         <v>75091.8703551646</v>
       </c>
-      <c r="AB8" s="27"/>
-      <c r="AC8" s="27" t="n">
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26" t="n">
         <v>70359.6512026736</v>
       </c>
-      <c r="AD8" s="27"/>
-      <c r="AE8" s="27"/>
-      <c r="AF8" s="27" t="n">
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="26" t="n">
         <v>57255.9559744389</v>
       </c>
-      <c r="AG8" s="27" t="n">
+      <c r="AG8" s="26" t="n">
         <v>61030.2232231585</v>
       </c>
-      <c r="AH8" s="27" t="n">
+      <c r="AH8" s="26" t="n">
         <v>149805.720453464</v>
       </c>
-      <c r="AI8" s="27"/>
-      <c r="AJ8" s="27"/>
-      <c r="AK8" s="27" t="n">
+      <c r="AI8" s="26"/>
+      <c r="AJ8" s="26"/>
+      <c r="AK8" s="26" t="n">
         <v>6363281.23189551</v>
       </c>
-      <c r="AL8" s="27" t="n">
+      <c r="AL8" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="AM8" s="27"/>
+      <c r="AM8" s="26"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -20800,16 +20802,16 @@
       <c r="B9" t="str">
         <f>N9</f>
       </c>
-      <c r="C9" s="27" t="str">
+      <c r="C9" s="26" t="str">
         <f>AI9</f>
       </c>
-      <c r="D9" s="27" t="str">
+      <c r="D9" s="26" t="str">
         <f>AK9</f>
       </c>
-      <c r="E9" s="27" t="str">
+      <c r="E9" s="26" t="str">
         <f>AL9</f>
       </c>
-      <c r="F9" s="27"/>
+      <c r="F9" s="26"/>
       <c r="G9" s="1" t="str">
         <f>AL9/AK9-1</f>
       </c>
@@ -20827,79 +20829,79 @@
       <c r="N9" t="s">
         <v>113</v>
       </c>
-      <c r="O9" s="27" t="n">
+      <c r="O9" s="26" t="n">
         <v>117167358.741587</v>
       </c>
-      <c r="P9" s="27" t="n">
+      <c r="P9" s="26" t="n">
         <v>236186060.154231</v>
       </c>
-      <c r="Q9" s="27" t="n">
+      <c r="Q9" s="26" t="n">
         <v>634464512.668636</v>
       </c>
-      <c r="R9" s="27" t="n">
+      <c r="R9" s="26" t="n">
         <v>864023861.474285</v>
       </c>
-      <c r="S9" s="27" t="n">
+      <c r="S9" s="26" t="n">
         <v>2049791362.45062</v>
       </c>
-      <c r="T9" s="27" t="n">
+      <c r="T9" s="26" t="n">
         <v>1433805998.70756</v>
       </c>
-      <c r="U9" s="27" t="n">
+      <c r="U9" s="26" t="n">
         <v>1804372908.85056</v>
       </c>
-      <c r="V9" s="27" t="n">
+      <c r="V9" s="26" t="n">
         <v>335651403.418063</v>
       </c>
-      <c r="W9" s="27" t="n">
+      <c r="W9" s="26" t="n">
         <v>324443752.831616</v>
       </c>
-      <c r="X9" s="27" t="n">
+      <c r="X9" s="26" t="n">
         <v>567996028.748357</v>
       </c>
-      <c r="Y9" s="27" t="n">
+      <c r="Y9" s="26" t="n">
         <v>565211835.902704</v>
       </c>
-      <c r="Z9" s="27" t="n">
+      <c r="Z9" s="26" t="n">
         <v>903230861.010044</v>
       </c>
-      <c r="AA9" s="27" t="n">
+      <c r="AA9" s="26" t="n">
         <v>892749555.066973</v>
       </c>
-      <c r="AB9" s="27" t="n">
+      <c r="AB9" s="26" t="n">
         <v>1204769184.84938</v>
       </c>
-      <c r="AC9" s="27" t="n">
+      <c r="AC9" s="26" t="n">
         <v>1011874940.41063</v>
       </c>
-      <c r="AD9" s="27" t="n">
+      <c r="AD9" s="26" t="n">
         <v>985367747.868534</v>
       </c>
-      <c r="AE9" s="27" t="n">
+      <c r="AE9" s="26" t="n">
         <v>1480137091.91365</v>
       </c>
-      <c r="AF9" s="27" t="n">
+      <c r="AF9" s="26" t="n">
         <v>2130580898.6656</v>
       </c>
-      <c r="AG9" s="27" t="n">
+      <c r="AG9" s="26" t="n">
         <v>2385810261.75137</v>
       </c>
-      <c r="AH9" s="27" t="n">
+      <c r="AH9" s="26" t="n">
         <v>2357996865.22165</v>
       </c>
-      <c r="AI9" s="27" t="n">
+      <c r="AI9" s="26" t="n">
         <v>1902499199.59765</v>
       </c>
-      <c r="AJ9" s="27" t="n">
+      <c r="AJ9" s="26" t="n">
         <v>2168681693.04048</v>
       </c>
-      <c r="AK9" s="27" t="n">
+      <c r="AK9" s="26" t="n">
         <v>1667122386.08287</v>
       </c>
-      <c r="AL9" s="27" t="n">
+      <c r="AL9" s="26" t="n">
         <v>2830774022.9565</v>
       </c>
-      <c r="AM9" s="27"/>
+      <c r="AM9" s="26"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -20908,16 +20910,16 @@
       <c r="B10" t="str">
         <f>N10</f>
       </c>
-      <c r="C10" s="27" t="str">
+      <c r="C10" s="26" t="str">
         <f>AI10</f>
       </c>
-      <c r="D10" s="27" t="str">
+      <c r="D10" s="26" t="str">
         <f>AK10</f>
       </c>
-      <c r="E10" s="27" t="str">
+      <c r="E10" s="26" t="str">
         <f>AL10</f>
       </c>
-      <c r="F10" s="27"/>
+      <c r="F10" s="26"/>
       <c r="G10" s="1" t="str">
         <f>AL10/AK10-1</f>
       </c>
@@ -20935,79 +20937,79 @@
       <c r="N10" t="s">
         <v>113</v>
       </c>
-      <c r="O10" s="27" t="n">
+      <c r="O10" s="26" t="n">
         <v>122810538.8715</v>
       </c>
-      <c r="P10" s="27" t="n">
+      <c r="P10" s="26" t="n">
         <v>88054801.3379279</v>
       </c>
-      <c r="Q10" s="27" t="n">
+      <c r="Q10" s="26" t="n">
         <v>77403630.2273528</v>
       </c>
-      <c r="R10" s="27" t="n">
+      <c r="R10" s="26" t="n">
         <v>94785852.1989474</v>
       </c>
-      <c r="S10" s="27" t="n">
+      <c r="S10" s="26" t="n">
         <v>231725349.862572</v>
       </c>
-      <c r="T10" s="27" t="n">
+      <c r="T10" s="26" t="n">
         <v>284834141.930451</v>
       </c>
-      <c r="U10" s="27" t="n">
+      <c r="U10" s="26" t="n">
         <v>291808323.569528</v>
       </c>
-      <c r="V10" s="27" t="n">
+      <c r="V10" s="26" t="n">
         <v>663339717.454926</v>
       </c>
-      <c r="W10" s="27" t="n">
+      <c r="W10" s="26" t="n">
         <v>704910596.756886</v>
       </c>
-      <c r="X10" s="27" t="n">
+      <c r="X10" s="26" t="n">
         <v>692531237.335692</v>
       </c>
-      <c r="Y10" s="27" t="n">
+      <c r="Y10" s="26" t="n">
         <v>1623479140.11611</v>
       </c>
-      <c r="Z10" s="27" t="n">
+      <c r="Z10" s="26" t="n">
         <v>1888415968.34233</v>
       </c>
-      <c r="AA10" s="27" t="n">
+      <c r="AA10" s="26" t="n">
         <v>1670124429.61354</v>
       </c>
-      <c r="AB10" s="27" t="n">
+      <c r="AB10" s="26" t="n">
         <v>1647880034.34434</v>
       </c>
-      <c r="AC10" s="27" t="n">
+      <c r="AC10" s="26" t="n">
         <v>1964593999.37621</v>
       </c>
-      <c r="AD10" s="27" t="n">
+      <c r="AD10" s="26" t="n">
         <v>1531318000.2639</v>
       </c>
-      <c r="AE10" s="27" t="n">
+      <c r="AE10" s="26" t="n">
         <v>1198422252.3702</v>
       </c>
-      <c r="AF10" s="27" t="n">
+      <c r="AF10" s="26" t="n">
         <v>1143481661.1258</v>
       </c>
-      <c r="AG10" s="27" t="n">
+      <c r="AG10" s="26" t="n">
         <v>1251612669.78872</v>
       </c>
-      <c r="AH10" s="27" t="n">
+      <c r="AH10" s="26" t="n">
         <v>1422651243.24051</v>
       </c>
-      <c r="AI10" s="27" t="n">
+      <c r="AI10" s="26" t="n">
         <v>1853615449.27931</v>
       </c>
-      <c r="AJ10" s="27" t="n">
+      <c r="AJ10" s="26" t="n">
         <v>2165396538.68423</v>
       </c>
-      <c r="AK10" s="27" t="n">
+      <c r="AK10" s="26" t="n">
         <v>3094706690.9881</v>
       </c>
-      <c r="AL10" s="27" t="n">
+      <c r="AL10" s="26" t="n">
         <v>2397983066.7312</v>
       </c>
-      <c r="AM10" s="27"/>
+      <c r="AM10" s="26"/>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -21016,16 +21018,16 @@
       <c r="B11" t="str">
         <f>N11</f>
       </c>
-      <c r="C11" s="27" t="str">
+      <c r="C11" s="26" t="str">
         <f>AI11</f>
       </c>
-      <c r="D11" s="27" t="str">
+      <c r="D11" s="26" t="str">
         <f>AK11</f>
       </c>
-      <c r="E11" s="27" t="str">
+      <c r="E11" s="26" t="str">
         <f>AL11</f>
       </c>
-      <c r="F11" s="27"/>
+      <c r="F11" s="26"/>
       <c r="G11" s="1" t="str">
         <f>AL11/AK11-1</f>
       </c>
@@ -21043,37 +21045,37 @@
       <c r="N11" t="s">
         <v>98</v>
       </c>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="27"/>
-      <c r="X11" s="27"/>
-      <c r="Y11" s="27"/>
-      <c r="Z11" s="27"/>
-      <c r="AA11" s="27"/>
-      <c r="AB11" s="27"/>
-      <c r="AC11" s="27"/>
-      <c r="AD11" s="27"/>
-      <c r="AE11" s="27"/>
-      <c r="AF11" s="27"/>
-      <c r="AG11" s="27"/>
-      <c r="AH11" s="27"/>
-      <c r="AI11" s="27" t="n">
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="26"/>
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="26"/>
+      <c r="AE11" s="26"/>
+      <c r="AF11" s="26"/>
+      <c r="AG11" s="26"/>
+      <c r="AH11" s="26"/>
+      <c r="AI11" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="AJ11" s="27"/>
-      <c r="AK11" s="27" t="n">
+      <c r="AJ11" s="26"/>
+      <c r="AK11" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="AL11" s="27" t="n">
+      <c r="AL11" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="AM11" s="27"/>
+      <c r="AM11" s="26"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -21082,16 +21084,16 @@
       <c r="B12" t="str">
         <f>N12</f>
       </c>
-      <c r="C12" s="27" t="str">
+      <c r="C12" s="26" t="str">
         <f>AI12</f>
       </c>
-      <c r="D12" s="27" t="str">
+      <c r="D12" s="26" t="str">
         <f>AK12</f>
       </c>
-      <c r="E12" s="27" t="str">
+      <c r="E12" s="26" t="str">
         <f>AL12</f>
       </c>
-      <c r="F12" s="27"/>
+      <c r="F12" s="26"/>
       <c r="G12" s="1" t="str">
         <f>AL12/AK12-1</f>
       </c>
@@ -21109,41 +21111,41 @@
       <c r="N12" t="s">
         <v>107</v>
       </c>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="27"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="27"/>
-      <c r="X12" s="27"/>
-      <c r="Y12" s="27"/>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="27"/>
-      <c r="AB12" s="27"/>
-      <c r="AC12" s="27"/>
-      <c r="AD12" s="27"/>
-      <c r="AE12" s="27"/>
-      <c r="AF12" s="27"/>
-      <c r="AG12" s="27" t="n">
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="26"/>
+      <c r="AC12" s="26"/>
+      <c r="AD12" s="26"/>
+      <c r="AE12" s="26"/>
+      <c r="AF12" s="26"/>
+      <c r="AG12" s="26" t="n">
         <v>70904.422648404</v>
       </c>
-      <c r="AH12" s="27" t="n">
+      <c r="AH12" s="26" t="n">
         <v>29111.3797740244</v>
       </c>
-      <c r="AI12" s="27" t="n">
+      <c r="AI12" s="26" t="n">
         <v>14330.0249566311</v>
       </c>
-      <c r="AJ12" s="27" t="n">
+      <c r="AJ12" s="26" t="n">
         <v>37143.9530268016</v>
       </c>
-      <c r="AK12" s="27" t="n">
+      <c r="AK12" s="26" t="n">
         <v>41286.3053100184</v>
       </c>
-      <c r="AL12" s="27"/>
-      <c r="AM12" s="27"/>
+      <c r="AL12" s="26"/>
+      <c r="AM12" s="26"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -21152,16 +21154,16 @@
       <c r="B13" t="str">
         <f>N13</f>
       </c>
-      <c r="C13" s="27" t="str">
+      <c r="C13" s="26" t="str">
         <f>AI13</f>
       </c>
-      <c r="D13" s="27" t="str">
+      <c r="D13" s="26" t="str">
         <f>AK13</f>
       </c>
-      <c r="E13" s="27" t="str">
+      <c r="E13" s="26" t="str">
         <f>AL13</f>
       </c>
-      <c r="F13" s="27"/>
+      <c r="F13" s="26"/>
       <c r="G13" s="1" t="str">
         <f>AL13/AK13-1</f>
       </c>
@@ -21179,79 +21181,79 @@
       <c r="N13" t="s">
         <v>113</v>
       </c>
-      <c r="O13" s="27" t="n">
+      <c r="O13" s="26" t="n">
         <v>223312048.663891</v>
       </c>
-      <c r="P13" s="27" t="n">
+      <c r="P13" s="26" t="n">
         <v>911363466.256188</v>
       </c>
-      <c r="Q13" s="27" t="n">
+      <c r="Q13" s="26" t="n">
         <v>994764781.322826</v>
       </c>
-      <c r="R13" s="27" t="n">
+      <c r="R13" s="26" t="n">
         <v>571862227.634484</v>
       </c>
-      <c r="S13" s="27" t="n">
+      <c r="S13" s="26" t="n">
         <v>849865107.155529</v>
       </c>
-      <c r="T13" s="27" t="n">
+      <c r="T13" s="26" t="n">
         <v>518649498.643925</v>
       </c>
-      <c r="U13" s="27" t="n">
+      <c r="U13" s="26" t="n">
         <v>446811488.845499</v>
       </c>
-      <c r="V13" s="27" t="n">
+      <c r="V13" s="26" t="n">
         <v>-15993539.8353005</v>
       </c>
-      <c r="W13" s="27" t="n">
+      <c r="W13" s="26" t="n">
         <v>152455436.824145</v>
       </c>
-      <c r="X13" s="27" t="n">
+      <c r="X13" s="26" t="n">
         <v>218258523.191347</v>
       </c>
-      <c r="Y13" s="27" t="n">
+      <c r="Y13" s="26" t="n">
         <v>253114336.078972</v>
       </c>
-      <c r="Z13" s="27" t="n">
+      <c r="Z13" s="26" t="n">
         <v>378662643.214911</v>
       </c>
-      <c r="AA13" s="27" t="n">
+      <c r="AA13" s="26" t="n">
         <v>351556730.035811</v>
       </c>
-      <c r="AB13" s="27" t="n">
+      <c r="AB13" s="26" t="n">
         <v>127801010.859185</v>
       </c>
-      <c r="AC13" s="27" t="n">
+      <c r="AC13" s="26" t="n">
         <v>330231829.756293</v>
       </c>
-      <c r="AD13" s="27" t="n">
+      <c r="AD13" s="26" t="n">
         <v>1209450013.4581</v>
       </c>
-      <c r="AE13" s="27" t="n">
+      <c r="AE13" s="26" t="n">
         <v>1350262720.16384</v>
       </c>
-      <c r="AF13" s="27" t="n">
+      <c r="AF13" s="26" t="n">
         <v>1486640992.77409</v>
       </c>
-      <c r="AG13" s="27" t="n">
+      <c r="AG13" s="26" t="n">
         <v>1557449770.55963</v>
       </c>
-      <c r="AH13" s="27" t="n">
+      <c r="AH13" s="26" t="n">
         <v>1275736401.31365</v>
       </c>
-      <c r="AI13" s="27" t="n">
+      <c r="AI13" s="26" t="n">
         <v>798237731.466745</v>
       </c>
-      <c r="AJ13" s="27" t="n">
+      <c r="AJ13" s="26" t="n">
         <v>431256166.360568</v>
       </c>
-      <c r="AK13" s="27" t="n">
+      <c r="AK13" s="26" t="n">
         <v>364289934.361393</v>
       </c>
-      <c r="AL13" s="27" t="n">
+      <c r="AL13" s="26" t="n">
         <v>447981792.5263</v>
       </c>
-      <c r="AM13" s="27"/>
+      <c r="AM13" s="26"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -21260,16 +21262,16 @@
       <c r="B14" t="str">
         <f>N14</f>
       </c>
-      <c r="C14" s="27" t="str">
+      <c r="C14" s="26" t="str">
         <f>AI14</f>
       </c>
-      <c r="D14" s="27" t="str">
+      <c r="D14" s="26" t="str">
         <f>AK14</f>
       </c>
-      <c r="E14" s="27" t="str">
+      <c r="E14" s="26" t="str">
         <f>AL14</f>
       </c>
-      <c r="F14" s="27"/>
+      <c r="F14" s="26"/>
       <c r="G14" s="1" t="str">
         <f>AL14/AK14-1</f>
       </c>
@@ -21287,37 +21289,37 @@
       <c r="N14" t="s">
         <v>101</v>
       </c>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="27"/>
-      <c r="V14" s="27"/>
-      <c r="W14" s="27"/>
-      <c r="X14" s="27"/>
-      <c r="Y14" s="27"/>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="27"/>
-      <c r="AB14" s="27"/>
-      <c r="AC14" s="27"/>
-      <c r="AD14" s="27"/>
-      <c r="AE14" s="27"/>
-      <c r="AF14" s="27"/>
-      <c r="AG14" s="27"/>
-      <c r="AH14" s="27"/>
-      <c r="AI14" s="27"/>
-      <c r="AJ14" s="27" t="n">
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="26"/>
+      <c r="AD14" s="26"/>
+      <c r="AE14" s="26"/>
+      <c r="AF14" s="26"/>
+      <c r="AG14" s="26"/>
+      <c r="AH14" s="26"/>
+      <c r="AI14" s="26"/>
+      <c r="AJ14" s="26" t="n">
         <v>757267483.173988</v>
       </c>
-      <c r="AK14" s="27" t="n">
+      <c r="AK14" s="26" t="n">
         <v>880702039.273206</v>
       </c>
-      <c r="AL14" s="27" t="n">
+      <c r="AL14" s="26" t="n">
         <v>1730402389.9924</v>
       </c>
-      <c r="AM14" s="27"/>
+      <c r="AM14" s="26"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -21326,16 +21328,16 @@
       <c r="B15" t="str">
         <f>N15</f>
       </c>
-      <c r="C15" s="27" t="str">
+      <c r="C15" s="26" t="str">
         <f>AI15</f>
       </c>
-      <c r="D15" s="27" t="str">
+      <c r="D15" s="26" t="str">
         <f>AK15</f>
       </c>
-      <c r="E15" s="27" t="str">
+      <c r="E15" s="26" t="str">
         <f>AL15</f>
       </c>
-      <c r="F15" s="27"/>
+      <c r="F15" s="26"/>
       <c r="G15" s="1" t="str">
         <f>AL15/AK15-1</f>
       </c>
@@ -21353,59 +21355,59 @@
       <c r="N15" t="s">
         <v>106</v>
       </c>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="27" t="n">
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26" t="n">
         <v>54446922.3707664</v>
       </c>
-      <c r="Z15" s="27" t="n">
+      <c r="Z15" s="26" t="n">
         <v>355439677.925857</v>
       </c>
-      <c r="AA15" s="27" t="n">
+      <c r="AA15" s="26" t="n">
         <v>471119588.652068</v>
       </c>
-      <c r="AB15" s="27" t="n">
+      <c r="AB15" s="26" t="n">
         <v>438549754.464684</v>
       </c>
-      <c r="AC15" s="27" t="n">
+      <c r="AC15" s="26" t="n">
         <v>344467231.951312</v>
       </c>
-      <c r="AD15" s="27" t="n">
+      <c r="AD15" s="26" t="n">
         <v>895996065.036764</v>
       </c>
-      <c r="AE15" s="27" t="n">
+      <c r="AE15" s="26" t="n">
         <v>1159442710.57902</v>
       </c>
-      <c r="AF15" s="27" t="n">
+      <c r="AF15" s="26" t="n">
         <v>837962271.26235</v>
       </c>
-      <c r="AG15" s="27" t="n">
+      <c r="AG15" s="26" t="n">
         <v>137259921.116006</v>
       </c>
-      <c r="AH15" s="27" t="n">
+      <c r="AH15" s="26" t="n">
         <v>155866452.151691</v>
       </c>
-      <c r="AI15" s="27" t="n">
+      <c r="AI15" s="26" t="n">
         <v>1911969073.48287</v>
       </c>
-      <c r="AJ15" s="27" t="n">
+      <c r="AJ15" s="26" t="n">
         <v>693066248.953756</v>
       </c>
-      <c r="AK15" s="27" t="n">
+      <c r="AK15" s="26" t="n">
         <v>538465808.250516</v>
       </c>
-      <c r="AL15" s="27" t="n">
+      <c r="AL15" s="26" t="n">
         <v>660934111.0548</v>
       </c>
-      <c r="AM15" s="27"/>
+      <c r="AM15" s="26"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -21414,16 +21416,16 @@
       <c r="B16" t="str">
         <f>N16</f>
       </c>
-      <c r="C16" s="27" t="str">
+      <c r="C16" s="26" t="str">
         <f>AI16</f>
       </c>
-      <c r="D16" s="27" t="str">
+      <c r="D16" s="26" t="str">
         <f>AK16</f>
       </c>
-      <c r="E16" s="27" t="str">
+      <c r="E16" s="26" t="str">
         <f>AL16</f>
       </c>
-      <c r="F16" s="27"/>
+      <c r="F16" s="26"/>
       <c r="G16" s="1" t="str">
         <f>AL16/AK16-1</f>
       </c>
@@ -21441,69 +21443,69 @@
       <c r="N16" t="s">
         <v>113</v>
       </c>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27" t="n">
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="U16" s="27" t="n">
+      <c r="U16" s="26" t="n">
         <v>2181673.56151467</v>
       </c>
-      <c r="V16" s="27" t="n">
+      <c r="V16" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="W16" s="27" t="n">
+      <c r="W16" s="26" t="n">
         <v>17357638.3002127</v>
       </c>
-      <c r="X16" s="27" t="n">
+      <c r="X16" s="26" t="n">
         <v>46593781.2247896</v>
       </c>
-      <c r="Y16" s="27" t="n">
+      <c r="Y16" s="26" t="n">
         <v>116959202.771747</v>
       </c>
-      <c r="Z16" s="27" t="n">
+      <c r="Z16" s="26" t="n">
         <v>155802852.826609</v>
       </c>
-      <c r="AA16" s="27" t="n">
+      <c r="AA16" s="26" t="n">
         <v>84570347.1752452</v>
       </c>
-      <c r="AB16" s="27" t="n">
+      <c r="AB16" s="26" t="n">
         <v>116070626.196534</v>
       </c>
-      <c r="AC16" s="27" t="n">
+      <c r="AC16" s="26" t="n">
         <v>201457162.968298</v>
       </c>
-      <c r="AD16" s="27" t="n">
+      <c r="AD16" s="26" t="n">
         <v>168371795.707106</v>
       </c>
-      <c r="AE16" s="27" t="n">
+      <c r="AE16" s="26" t="n">
         <v>201940089.381481</v>
       </c>
-      <c r="AF16" s="27" t="n">
+      <c r="AF16" s="26" t="n">
         <v>358027778.532408</v>
       </c>
-      <c r="AG16" s="27" t="n">
+      <c r="AG16" s="26" t="n">
         <v>352371006.282432</v>
       </c>
-      <c r="AH16" s="27" t="n">
+      <c r="AH16" s="26" t="n">
         <v>468552576.636055</v>
       </c>
-      <c r="AI16" s="27" t="n">
+      <c r="AI16" s="26" t="n">
         <v>475248308.919858</v>
       </c>
-      <c r="AJ16" s="27" t="n">
+      <c r="AJ16" s="26" t="n">
         <v>470506533.662932</v>
       </c>
-      <c r="AK16" s="27" t="n">
+      <c r="AK16" s="26" t="n">
         <v>732830376.291269</v>
       </c>
-      <c r="AL16" s="27" t="n">
+      <c r="AL16" s="26" t="n">
         <v>658606978.5541</v>
       </c>
-      <c r="AM16" s="27"/>
+      <c r="AM16" s="26"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -21512,16 +21514,16 @@
       <c r="B17" t="str">
         <f>N17</f>
       </c>
-      <c r="C17" s="27" t="str">
+      <c r="C17" s="26" t="str">
         <f>AI17</f>
       </c>
-      <c r="D17" s="27" t="str">
+      <c r="D17" s="26" t="str">
         <f>AK17</f>
       </c>
-      <c r="E17" s="27" t="str">
+      <c r="E17" s="26" t="str">
         <f>AL17</f>
       </c>
-      <c r="F17" s="27"/>
+      <c r="F17" s="26"/>
       <c r="G17" s="1" t="str">
         <f>AL17/AK17-1</f>
       </c>
@@ -21539,79 +21541,79 @@
       <c r="N17" t="s">
         <v>106</v>
       </c>
-      <c r="O17" s="27" t="n">
+      <c r="O17" s="26" t="n">
         <v>488214064.171057</v>
       </c>
-      <c r="P17" s="27" t="n">
+      <c r="P17" s="26" t="n">
         <v>449148858.4313</v>
       </c>
-      <c r="Q17" s="27" t="n">
+      <c r="Q17" s="26" t="n">
         <v>350018324.397305</v>
       </c>
-      <c r="R17" s="27" t="n">
+      <c r="R17" s="26" t="n">
         <v>271799752.179984</v>
       </c>
-      <c r="S17" s="27" t="n">
+      <c r="S17" s="26" t="n">
         <v>465295533.048704</v>
       </c>
-      <c r="T17" s="27" t="n">
+      <c r="T17" s="26" t="n">
         <v>383698529.162693</v>
       </c>
-      <c r="U17" s="27" t="n">
+      <c r="U17" s="26" t="n">
         <v>589608609.043846</v>
       </c>
-      <c r="V17" s="27" t="n">
+      <c r="V17" s="26" t="n">
         <v>487175349.69558</v>
       </c>
-      <c r="W17" s="27" t="n">
+      <c r="W17" s="26" t="n">
         <v>998603316.92027</v>
       </c>
-      <c r="X17" s="27" t="n">
+      <c r="X17" s="26" t="n">
         <v>125977100.829538</v>
       </c>
-      <c r="Y17" s="27" t="n">
+      <c r="Y17" s="26" t="n">
         <v>93945822.0569957</v>
       </c>
-      <c r="Z17" s="27" t="n">
+      <c r="Z17" s="26" t="n">
         <v>6323212.95197715</v>
       </c>
-      <c r="AA17" s="27" t="n">
+      <c r="AA17" s="26" t="n">
         <v>-901805.866280797</v>
       </c>
-      <c r="AB17" s="27" t="n">
+      <c r="AB17" s="26" t="n">
         <v>142285309.503426</v>
       </c>
-      <c r="AC17" s="27" t="n">
+      <c r="AC17" s="26" t="n">
         <v>130065358.295645</v>
       </c>
-      <c r="AD17" s="27" t="n">
+      <c r="AD17" s="26" t="n">
         <v>138221564.409731</v>
       </c>
-      <c r="AE17" s="27" t="n">
+      <c r="AE17" s="26" t="n">
         <v>134982842.860277</v>
       </c>
-      <c r="AF17" s="27" t="n">
+      <c r="AF17" s="26" t="n">
         <v>567267030.107956</v>
       </c>
-      <c r="AG17" s="27" t="n">
+      <c r="AG17" s="26" t="n">
         <v>993567024.518339</v>
       </c>
-      <c r="AH17" s="27" t="n">
+      <c r="AH17" s="26" t="n">
         <v>1054733613.76892</v>
       </c>
-      <c r="AI17" s="27" t="n">
+      <c r="AI17" s="26" t="n">
         <v>1200420238.37927</v>
       </c>
-      <c r="AJ17" s="27" t="n">
+      <c r="AJ17" s="26" t="n">
         <v>1276043983.69188</v>
       </c>
-      <c r="AK17" s="27" t="n">
+      <c r="AK17" s="26" t="n">
         <v>327643124.314858</v>
       </c>
-      <c r="AL17" s="27" t="n">
+      <c r="AL17" s="26" t="n">
         <v>965168691.875</v>
       </c>
-      <c r="AM17" s="27"/>
+      <c r="AM17" s="26"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -21620,16 +21622,16 @@
       <c r="B18" t="str">
         <f>N18</f>
       </c>
-      <c r="C18" s="27" t="str">
+      <c r="C18" s="26" t="str">
         <f>AI18</f>
       </c>
-      <c r="D18" s="27" t="str">
+      <c r="D18" s="26" t="str">
         <f>AK18</f>
       </c>
-      <c r="E18" s="27" t="str">
+      <c r="E18" s="26" t="str">
         <f>AL18</f>
       </c>
-      <c r="F18" s="27"/>
+      <c r="F18" s="26"/>
       <c r="G18" s="1" t="str">
         <f>AL18/AK18-1</f>
       </c>
@@ -21647,37 +21649,37 @@
       <c r="N18" t="s">
         <v>107</v>
       </c>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="27"/>
-      <c r="V18" s="27"/>
-      <c r="W18" s="27"/>
-      <c r="X18" s="27"/>
-      <c r="Y18" s="27"/>
-      <c r="Z18" s="27"/>
-      <c r="AA18" s="27" t="n">
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="26" t="n">
         <v>3709846.7500795</v>
       </c>
-      <c r="AB18" s="27" t="n">
+      <c r="AB18" s="26" t="n">
         <v>-103790.857395698</v>
       </c>
-      <c r="AC18" s="27" t="n">
+      <c r="AC18" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="AD18" s="27"/>
-      <c r="AE18" s="27"/>
-      <c r="AF18" s="27"/>
-      <c r="AG18" s="27"/>
-      <c r="AH18" s="27"/>
-      <c r="AI18" s="27"/>
-      <c r="AJ18" s="27"/>
-      <c r="AK18" s="27"/>
-      <c r="AL18" s="27"/>
-      <c r="AM18" s="27"/>
+      <c r="AD18" s="26"/>
+      <c r="AE18" s="26"/>
+      <c r="AF18" s="26"/>
+      <c r="AG18" s="26"/>
+      <c r="AH18" s="26"/>
+      <c r="AI18" s="26"/>
+      <c r="AJ18" s="26"/>
+      <c r="AK18" s="26"/>
+      <c r="AL18" s="26"/>
+      <c r="AM18" s="26"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -21686,16 +21688,16 @@
       <c r="B19" t="str">
         <f>N19</f>
       </c>
-      <c r="C19" s="27" t="str">
+      <c r="C19" s="26" t="str">
         <f>AI19</f>
       </c>
-      <c r="D19" s="27" t="str">
+      <c r="D19" s="26" t="str">
         <f>AK19</f>
       </c>
-      <c r="E19" s="27" t="str">
+      <c r="E19" s="26" t="str">
         <f>AL19</f>
       </c>
-      <c r="F19" s="27"/>
+      <c r="F19" s="26"/>
       <c r="G19" s="1" t="str">
         <f>AL19/AK19-1</f>
       </c>
@@ -21713,79 +21715,79 @@
       <c r="N19" t="s">
         <v>113</v>
       </c>
-      <c r="O19" s="27" t="n">
+      <c r="O19" s="26" t="n">
         <v>671130044.724945</v>
       </c>
-      <c r="P19" s="27" t="n">
+      <c r="P19" s="26" t="n">
         <v>570905583.114454</v>
       </c>
-      <c r="Q19" s="27" t="n">
+      <c r="Q19" s="26" t="n">
         <v>627560231.606834</v>
       </c>
-      <c r="R19" s="27" t="n">
+      <c r="R19" s="26" t="n">
         <v>519166081.625699</v>
       </c>
-      <c r="S19" s="27" t="n">
+      <c r="S19" s="26" t="n">
         <v>218772405.327859</v>
       </c>
-      <c r="T19" s="27" t="n">
+      <c r="T19" s="26" t="n">
         <v>118302073.019267</v>
       </c>
-      <c r="U19" s="27" t="n">
+      <c r="U19" s="26" t="n">
         <v>74477356.8078603</v>
       </c>
-      <c r="V19" s="27" t="n">
+      <c r="V19" s="26" t="n">
         <v>56087280.6333292</v>
       </c>
-      <c r="W19" s="27" t="n">
+      <c r="W19" s="26" t="n">
         <v>283161879.87861</v>
       </c>
-      <c r="X19" s="27" t="n">
+      <c r="X19" s="26" t="n">
         <v>700474406.004065</v>
       </c>
-      <c r="Y19" s="27" t="n">
+      <c r="Y19" s="26" t="n">
         <v>1260599838.53752</v>
       </c>
-      <c r="Z19" s="27" t="n">
+      <c r="Z19" s="26" t="n">
         <v>909460050.792516</v>
       </c>
-      <c r="AA19" s="27" t="n">
+      <c r="AA19" s="26" t="n">
         <v>666223205.584859</v>
       </c>
-      <c r="AB19" s="27" t="n">
+      <c r="AB19" s="26" t="n">
         <v>651160168.945446</v>
       </c>
-      <c r="AC19" s="27" t="n">
+      <c r="AC19" s="26" t="n">
         <v>912820475.551143</v>
       </c>
-      <c r="AD19" s="27" t="n">
+      <c r="AD19" s="26" t="n">
         <v>1002421406.28641</v>
       </c>
-      <c r="AE19" s="27" t="n">
+      <c r="AE19" s="26" t="n">
         <v>674290174.911787</v>
       </c>
-      <c r="AF19" s="27" t="n">
+      <c r="AF19" s="26" t="n">
         <v>649824225.375488</v>
       </c>
-      <c r="AG19" s="27" t="n">
+      <c r="AG19" s="26" t="n">
         <v>649538586.881449</v>
       </c>
-      <c r="AH19" s="27" t="n">
+      <c r="AH19" s="26" t="n">
         <v>189366448.688801</v>
       </c>
-      <c r="AI19" s="27" t="n">
+      <c r="AI19" s="26" t="n">
         <v>195936223.699008</v>
       </c>
-      <c r="AJ19" s="27" t="n">
+      <c r="AJ19" s="26" t="n">
         <v>133963554.858339</v>
       </c>
-      <c r="AK19" s="27" t="n">
+      <c r="AK19" s="26" t="n">
         <v>340501966.29442</v>
       </c>
-      <c r="AL19" s="27" t="n">
+      <c r="AL19" s="26" t="n">
         <v>224946227.4268</v>
       </c>
-      <c r="AM19" s="27"/>
+      <c r="AM19" s="26"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -21794,16 +21796,16 @@
       <c r="B20" t="str">
         <f>N20</f>
       </c>
-      <c r="C20" s="27" t="str">
+      <c r="C20" s="26" t="str">
         <f>AI20</f>
       </c>
-      <c r="D20" s="27" t="str">
+      <c r="D20" s="26" t="str">
         <f>AK20</f>
       </c>
-      <c r="E20" s="27" t="str">
+      <c r="E20" s="26" t="str">
         <f>AL20</f>
       </c>
-      <c r="F20" s="27"/>
+      <c r="F20" s="26"/>
       <c r="G20" s="1" t="str">
         <f>AL20/AK20-1</f>
       </c>
@@ -21821,61 +21823,61 @@
       <c r="N20" t="s">
         <v>107</v>
       </c>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="27" t="n">
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="X20" s="27" t="n">
+      <c r="X20" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="Y20" s="27" t="n">
+      <c r="Y20" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="Z20" s="27" t="n">
+      <c r="Z20" s="26" t="n">
         <v>32040.0657332272</v>
       </c>
-      <c r="AA20" s="27" t="n">
+      <c r="AA20" s="26" t="n">
         <v>328446.150222485</v>
       </c>
-      <c r="AB20" s="27"/>
-      <c r="AC20" s="27" t="n">
+      <c r="AB20" s="26"/>
+      <c r="AC20" s="26" t="n">
         <v>1479006.59267125</v>
       </c>
-      <c r="AD20" s="27" t="n">
+      <c r="AD20" s="26" t="n">
         <v>-22952.8636404553</v>
       </c>
-      <c r="AE20" s="27" t="n">
+      <c r="AE20" s="26" t="n">
         <v>1599.17422487555</v>
       </c>
-      <c r="AF20" s="27" t="n">
+      <c r="AF20" s="26" t="n">
         <v>9074682.06859339</v>
       </c>
-      <c r="AG20" s="27" t="n">
+      <c r="AG20" s="26" t="n">
         <v>300835.75866751</v>
       </c>
-      <c r="AH20" s="27" t="n">
+      <c r="AH20" s="26" t="n">
         <v>101609.023301843</v>
       </c>
-      <c r="AI20" s="27" t="n">
+      <c r="AI20" s="26" t="n">
         <v>24562.1228616275</v>
       </c>
-      <c r="AJ20" s="27" t="n">
+      <c r="AJ20" s="26" t="n">
         <v>405328.346884603</v>
       </c>
-      <c r="AK20" s="27" t="n">
+      <c r="AK20" s="26" t="n">
         <v>66516.0400461046</v>
       </c>
-      <c r="AL20" s="27" t="n">
+      <c r="AL20" s="26" t="n">
         <v>1089571.6679</v>
       </c>
-      <c r="AM20" s="27"/>
+      <c r="AM20" s="26"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -21884,16 +21886,16 @@
       <c r="B21" t="str">
         <f>N21</f>
       </c>
-      <c r="C21" s="27" t="str">
+      <c r="C21" s="26" t="str">
         <f>AI21</f>
       </c>
-      <c r="D21" s="27" t="str">
+      <c r="D21" s="26" t="str">
         <f>AK21</f>
       </c>
-      <c r="E21" s="27" t="str">
+      <c r="E21" s="26" t="str">
         <f>AL21</f>
       </c>
-      <c r="F21" s="27"/>
+      <c r="F21" s="26"/>
       <c r="G21" s="1" t="str">
         <f>AL21/AK21-1</f>
       </c>
@@ -21911,79 +21913,79 @@
       <c r="N21" t="s">
         <v>113</v>
       </c>
-      <c r="O21" s="27" t="n">
+      <c r="O21" s="26" t="n">
         <v>920011377.240056</v>
       </c>
-      <c r="P21" s="27" t="n">
+      <c r="P21" s="26" t="n">
         <v>1068804178.51338</v>
       </c>
-      <c r="Q21" s="27" t="n">
+      <c r="Q21" s="26" t="n">
         <v>2278313971.68038</v>
       </c>
-      <c r="R21" s="27" t="n">
+      <c r="R21" s="26" t="n">
         <v>1314182313.45545</v>
       </c>
-      <c r="S21" s="27" t="n">
+      <c r="S21" s="26" t="n">
         <v>432992232.292929</v>
       </c>
-      <c r="T21" s="27" t="n">
+      <c r="T21" s="26" t="n">
         <v>2394157457.34838</v>
       </c>
-      <c r="U21" s="27" t="n">
+      <c r="U21" s="26" t="n">
         <v>1143204740.6086</v>
       </c>
-      <c r="V21" s="27" t="n">
+      <c r="V21" s="26" t="n">
         <v>103016588.539979</v>
       </c>
-      <c r="W21" s="27" t="n">
+      <c r="W21" s="26" t="n">
         <v>2687277024.39891</v>
       </c>
-      <c r="X21" s="27" t="n">
+      <c r="X21" s="26" t="n">
         <v>2747476959.29644</v>
       </c>
-      <c r="Y21" s="27" t="n">
+      <c r="Y21" s="26" t="n">
         <v>2126802365.57939</v>
       </c>
-      <c r="Z21" s="27" t="n">
+      <c r="Z21" s="26" t="n">
         <v>3622030816.31332</v>
       </c>
-      <c r="AA21" s="27" t="n">
+      <c r="AA21" s="26" t="n">
         <v>1595485000.28951</v>
       </c>
-      <c r="AB21" s="27" t="n">
+      <c r="AB21" s="26" t="n">
         <v>3790198396.21208</v>
       </c>
-      <c r="AC21" s="27" t="n">
+      <c r="AC21" s="26" t="n">
         <v>3937035512.29619</v>
       </c>
-      <c r="AD21" s="27" t="n">
+      <c r="AD21" s="26" t="n">
         <v>1694586798.54266</v>
       </c>
-      <c r="AE21" s="27" t="n">
+      <c r="AE21" s="26" t="n">
         <v>311067182.825565</v>
       </c>
-      <c r="AF21" s="27" t="n">
+      <c r="AF21" s="26" t="n">
         <v>201622854.876921</v>
       </c>
-      <c r="AG21" s="27" t="n">
+      <c r="AG21" s="26" t="n">
         <v>277523211.229546</v>
       </c>
-      <c r="AH21" s="27" t="n">
+      <c r="AH21" s="26" t="n">
         <v>395454241.548094</v>
       </c>
-      <c r="AI21" s="27" t="n">
+      <c r="AI21" s="26" t="n">
         <v>1670638472.96543</v>
       </c>
-      <c r="AJ21" s="27" t="n">
+      <c r="AJ21" s="26" t="n">
         <v>8038054342.62638</v>
       </c>
-      <c r="AK21" s="27" t="n">
+      <c r="AK21" s="26" t="n">
         <v>280205649.137431</v>
       </c>
-      <c r="AL21" s="27" t="n">
+      <c r="AL21" s="26" t="n">
         <v>272695242.7823</v>
       </c>
-      <c r="AM21" s="27"/>
+      <c r="AM21" s="26"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -21992,16 +21994,16 @@
       <c r="B22" t="str">
         <f>N22</f>
       </c>
-      <c r="C22" s="27" t="str">
+      <c r="C22" s="26" t="str">
         <f>AI22</f>
       </c>
-      <c r="D22" s="27" t="str">
+      <c r="D22" s="26" t="str">
         <f>AK22</f>
       </c>
-      <c r="E22" s="27" t="str">
+      <c r="E22" s="26" t="str">
         <f>AL22</f>
       </c>
-      <c r="F22" s="27"/>
+      <c r="F22" s="26"/>
       <c r="G22" s="1" t="str">
         <f>AL22/AK22-1</f>
       </c>
@@ -22019,37 +22021,37 @@
       <c r="N22" t="s">
         <v>101</v>
       </c>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="27"/>
-      <c r="W22" s="27"/>
-      <c r="X22" s="27"/>
-      <c r="Y22" s="27"/>
-      <c r="Z22" s="27"/>
-      <c r="AA22" s="27"/>
-      <c r="AB22" s="27"/>
-      <c r="AC22" s="27"/>
-      <c r="AD22" s="27"/>
-      <c r="AE22" s="27"/>
-      <c r="AF22" s="27"/>
-      <c r="AG22" s="27"/>
-      <c r="AH22" s="27"/>
-      <c r="AI22" s="27"/>
-      <c r="AJ22" s="27" t="n">
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="26"/>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="26"/>
+      <c r="AC22" s="26"/>
+      <c r="AD22" s="26"/>
+      <c r="AE22" s="26"/>
+      <c r="AF22" s="26"/>
+      <c r="AG22" s="26"/>
+      <c r="AH22" s="26"/>
+      <c r="AI22" s="26"/>
+      <c r="AJ22" s="26" t="n">
         <v>19209656.7738677</v>
       </c>
-      <c r="AK22" s="27" t="n">
+      <c r="AK22" s="26" t="n">
         <v>17844100.5483761</v>
       </c>
-      <c r="AL22" s="27" t="n">
+      <c r="AL22" s="26" t="n">
         <v>66464625.3829</v>
       </c>
-      <c r="AM22" s="27"/>
+      <c r="AM22" s="26"/>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -22058,16 +22060,16 @@
       <c r="B23" t="str">
         <f>N23</f>
       </c>
-      <c r="C23" s="27" t="str">
+      <c r="C23" s="26" t="str">
         <f>AI23</f>
       </c>
-      <c r="D23" s="27" t="str">
+      <c r="D23" s="26" t="str">
         <f>AK23</f>
       </c>
-      <c r="E23" s="27" t="str">
+      <c r="E23" s="26" t="str">
         <f>AL23</f>
       </c>
-      <c r="F23" s="27"/>
+      <c r="F23" s="26"/>
       <c r="G23" s="1" t="str">
         <f>AL23/AK23-1</f>
       </c>
@@ -22085,79 +22087,79 @@
       <c r="N23" t="s">
         <v>113</v>
       </c>
-      <c r="O23" s="27" t="n">
+      <c r="O23" s="26" t="n">
         <v>107842459.647253</v>
       </c>
-      <c r="P23" s="27" t="n">
+      <c r="P23" s="26" t="n">
         <v>82556981.5931506</v>
       </c>
-      <c r="Q23" s="27" t="n">
+      <c r="Q23" s="26" t="n">
         <v>22481693.6368648</v>
       </c>
-      <c r="R23" s="27" t="n">
+      <c r="R23" s="26" t="n">
         <v>200023151.917637</v>
       </c>
-      <c r="S23" s="27" t="n">
+      <c r="S23" s="26" t="n">
         <v>266872614.610659</v>
       </c>
-      <c r="T23" s="27" t="n">
+      <c r="T23" s="26" t="n">
         <v>141816686.702248</v>
       </c>
-      <c r="U23" s="27" t="n">
+      <c r="U23" s="26" t="n">
         <v>108743826.528041</v>
       </c>
-      <c r="V23" s="27" t="n">
+      <c r="V23" s="26" t="n">
         <v>186734670.666863</v>
       </c>
-      <c r="W23" s="27" t="n">
+      <c r="W23" s="26" t="n">
         <v>322297421.472713</v>
       </c>
-      <c r="X23" s="27" t="n">
+      <c r="X23" s="26" t="n">
         <v>415406866.648108</v>
       </c>
-      <c r="Y23" s="27" t="n">
+      <c r="Y23" s="26" t="n">
         <v>843276437.805503</v>
       </c>
-      <c r="Z23" s="27" t="n">
+      <c r="Z23" s="26" t="n">
         <v>850814445.684947</v>
       </c>
-      <c r="AA23" s="27" t="n">
+      <c r="AA23" s="26" t="n">
         <v>779688347.098058</v>
       </c>
-      <c r="AB23" s="27" t="n">
+      <c r="AB23" s="26" t="n">
         <v>844398972.17768</v>
       </c>
-      <c r="AC23" s="27" t="n">
+      <c r="AC23" s="26" t="n">
         <v>555036719.286072</v>
       </c>
-      <c r="AD23" s="27" t="n">
+      <c r="AD23" s="26" t="n">
         <v>640698318.198843</v>
       </c>
-      <c r="AE23" s="27" t="n">
+      <c r="AE23" s="26" t="n">
         <v>856909971.773057</v>
       </c>
-      <c r="AF23" s="27" t="n">
+      <c r="AF23" s="26" t="n">
         <v>1127150163.91419</v>
       </c>
-      <c r="AG23" s="27" t="n">
+      <c r="AG23" s="26" t="n">
         <v>813628065.877135</v>
       </c>
-      <c r="AH23" s="27" t="n">
+      <c r="AH23" s="26" t="n">
         <v>1275927940.64558</v>
       </c>
-      <c r="AI23" s="27" t="n">
+      <c r="AI23" s="26" t="n">
         <v>1452405988.5093</v>
       </c>
-      <c r="AJ23" s="27" t="n">
+      <c r="AJ23" s="26" t="n">
         <v>1068487182.28569</v>
       </c>
-      <c r="AK23" s="27" t="n">
+      <c r="AK23" s="26" t="n">
         <v>1140134795.39803</v>
       </c>
-      <c r="AL23" s="27" t="n">
+      <c r="AL23" s="26" t="n">
         <v>1813922907.9572</v>
       </c>
-      <c r="AM23" s="27"/>
+      <c r="AM23" s="26"/>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -22166,16 +22168,16 @@
       <c r="B24" t="str">
         <f>N24</f>
       </c>
-      <c r="C24" s="27" t="str">
+      <c r="C24" s="26" t="str">
         <f>AI24</f>
       </c>
-      <c r="D24" s="27" t="str">
+      <c r="D24" s="26" t="str">
         <f>AK24</f>
       </c>
-      <c r="E24" s="27" t="str">
+      <c r="E24" s="26" t="str">
         <f>AL24</f>
       </c>
-      <c r="F24" s="27"/>
+      <c r="F24" s="26"/>
       <c r="G24" s="1" t="str">
         <f>AL24/AK24-1</f>
       </c>
@@ -22193,75 +22195,75 @@
       <c r="N24" t="s">
         <v>113</v>
       </c>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27" t="n">
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26" t="n">
         <v>500949.16616074</v>
       </c>
-      <c r="R24" s="27" t="n">
+      <c r="R24" s="26" t="n">
         <v>1421347.21043611</v>
       </c>
-      <c r="S24" s="27" t="n">
+      <c r="S24" s="26" t="n">
         <v>5361383.98554956</v>
       </c>
-      <c r="T24" s="27" t="n">
+      <c r="T24" s="26" t="n">
         <v>26297114.4989144</v>
       </c>
-      <c r="U24" s="27" t="n">
+      <c r="U24" s="26" t="n">
         <v>12353385.0704913</v>
       </c>
-      <c r="V24" s="27" t="n">
+      <c r="V24" s="26" t="n">
         <v>11072724.4866451</v>
       </c>
-      <c r="W24" s="27" t="n">
+      <c r="W24" s="26" t="n">
         <v>22635387.9657976</v>
       </c>
-      <c r="X24" s="27" t="n">
+      <c r="X24" s="26" t="n">
         <v>31649377.8563304</v>
       </c>
-      <c r="Y24" s="27" t="n">
+      <c r="Y24" s="26" t="n">
         <v>69082762.8801099</v>
       </c>
-      <c r="Z24" s="27" t="n">
+      <c r="Z24" s="26" t="n">
         <v>128686448.144607</v>
       </c>
-      <c r="AA24" s="27" t="n">
+      <c r="AA24" s="26" t="n">
         <v>325700106.458828</v>
       </c>
-      <c r="AB24" s="27" t="n">
+      <c r="AB24" s="26" t="n">
         <v>278518343.995549</v>
       </c>
-      <c r="AC24" s="27" t="n">
+      <c r="AC24" s="26" t="n">
         <v>144342756.273598</v>
       </c>
-      <c r="AD24" s="27" t="n">
+      <c r="AD24" s="26" t="n">
         <v>118176555.747178</v>
       </c>
-      <c r="AE24" s="27" t="n">
+      <c r="AE24" s="26" t="n">
         <v>94268986.8709606</v>
       </c>
-      <c r="AF24" s="27" t="n">
+      <c r="AF24" s="26" t="n">
         <v>118450998.461128</v>
       </c>
-      <c r="AG24" s="27" t="n">
+      <c r="AG24" s="26" t="n">
         <v>258474156.294841</v>
       </c>
-      <c r="AH24" s="27" t="n">
+      <c r="AH24" s="26" t="n">
         <v>102898869.604246</v>
       </c>
-      <c r="AI24" s="27" t="n">
+      <c r="AI24" s="26" t="n">
         <v>157248779.412383</v>
       </c>
-      <c r="AJ24" s="27" t="n">
+      <c r="AJ24" s="26" t="n">
         <v>175345363.055805</v>
       </c>
-      <c r="AK24" s="27" t="n">
+      <c r="AK24" s="26" t="n">
         <v>267336269.068938</v>
       </c>
-      <c r="AL24" s="27" t="n">
+      <c r="AL24" s="26" t="n">
         <v>423359381.986</v>
       </c>
-      <c r="AM24" s="27"/>
+      <c r="AM24" s="26"/>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -22270,16 +22272,16 @@
       <c r="B25" t="str">
         <f>N25</f>
       </c>
-      <c r="C25" s="27" t="str">
+      <c r="C25" s="26" t="str">
         <f>AI25</f>
       </c>
-      <c r="D25" s="27" t="str">
+      <c r="D25" s="26" t="str">
         <f>AK25</f>
       </c>
-      <c r="E25" s="27" t="str">
+      <c r="E25" s="26" t="str">
         <f>AL25</f>
       </c>
-      <c r="F25" s="27"/>
+      <c r="F25" s="26"/>
       <c r="G25" s="1" t="str">
         <f>AL25/AK25-1</f>
       </c>
@@ -22297,55 +22299,55 @@
       <c r="N25" t="s">
         <v>100</v>
       </c>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="27"/>
-      <c r="W25" s="27"/>
-      <c r="X25" s="27"/>
-      <c r="Y25" s="27"/>
-      <c r="Z25" s="27"/>
-      <c r="AA25" s="27" t="n">
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="26"/>
+      <c r="Z25" s="26"/>
+      <c r="AA25" s="26" t="n">
         <v>125000163.703681</v>
       </c>
-      <c r="AB25" s="27" t="n">
+      <c r="AB25" s="26" t="n">
         <v>1935898147.18375</v>
       </c>
-      <c r="AC25" s="27" t="n">
+      <c r="AC25" s="26" t="n">
         <v>1790916506.22487</v>
       </c>
-      <c r="AD25" s="27" t="n">
+      <c r="AD25" s="26" t="n">
         <v>1538167312.90319</v>
       </c>
-      <c r="AE25" s="27" t="n">
+      <c r="AE25" s="26" t="n">
         <v>1609352726.59283</v>
       </c>
-      <c r="AF25" s="27" t="n">
+      <c r="AF25" s="26" t="n">
         <v>2236356244.3371</v>
       </c>
-      <c r="AG25" s="27" t="n">
+      <c r="AG25" s="26" t="n">
         <v>2166925748.75746</v>
       </c>
-      <c r="AH25" s="27" t="n">
+      <c r="AH25" s="26" t="n">
         <v>3511954025.72948</v>
       </c>
-      <c r="AI25" s="27" t="n">
+      <c r="AI25" s="26" t="n">
         <v>4090629028.34183</v>
       </c>
-      <c r="AJ25" s="27" t="n">
+      <c r="AJ25" s="26" t="n">
         <v>1681840936.61825</v>
       </c>
-      <c r="AK25" s="27" t="n">
+      <c r="AK25" s="26" t="n">
         <v>2065826953.45297</v>
       </c>
-      <c r="AL25" s="27" t="n">
+      <c r="AL25" s="26" t="n">
         <v>5182942540.7032</v>
       </c>
-      <c r="AM25" s="27"/>
+      <c r="AM25" s="26"/>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -22354,16 +22356,16 @@
       <c r="B26" t="str">
         <f>N26</f>
       </c>
-      <c r="C26" s="27" t="str">
+      <c r="C26" s="26" t="str">
         <f>AI26</f>
       </c>
-      <c r="D26" s="27" t="str">
+      <c r="D26" s="26" t="str">
         <f>AK26</f>
       </c>
-      <c r="E26" s="27" t="str">
+      <c r="E26" s="26" t="str">
         <f>AL26</f>
       </c>
-      <c r="F26" s="27"/>
+      <c r="F26" s="26"/>
       <c r="G26" s="1" t="str">
         <f>AL26/AK26-1</f>
       </c>
@@ -22381,35 +22383,35 @@
       <c r="N26" t="s">
         <v>107</v>
       </c>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="27"/>
-      <c r="U26" s="27"/>
-      <c r="V26" s="27"/>
-      <c r="W26" s="27"/>
-      <c r="X26" s="27" t="n">
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="26"/>
+      <c r="X26" s="26" t="n">
         <v>4486.42603499513</v>
       </c>
-      <c r="Y26" s="27"/>
-      <c r="Z26" s="27" t="n">
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="26" t="n">
         <v>7060.95153928015</v>
       </c>
-      <c r="AA26" s="27"/>
-      <c r="AB26" s="27"/>
-      <c r="AC26" s="27"/>
-      <c r="AD26" s="27"/>
-      <c r="AE26" s="27"/>
-      <c r="AF26" s="27"/>
-      <c r="AG26" s="27"/>
-      <c r="AH26" s="27"/>
-      <c r="AI26" s="27"/>
-      <c r="AJ26" s="27"/>
-      <c r="AK26" s="27"/>
-      <c r="AL26" s="27"/>
-      <c r="AM26" s="27"/>
+      <c r="AA26" s="26"/>
+      <c r="AB26" s="26"/>
+      <c r="AC26" s="26"/>
+      <c r="AD26" s="26"/>
+      <c r="AE26" s="26"/>
+      <c r="AF26" s="26"/>
+      <c r="AG26" s="26"/>
+      <c r="AH26" s="26"/>
+      <c r="AI26" s="26"/>
+      <c r="AJ26" s="26"/>
+      <c r="AK26" s="26"/>
+      <c r="AL26" s="26"/>
+      <c r="AM26" s="26"/>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -22418,16 +22420,16 @@
       <c r="B27" t="str">
         <f>N27</f>
       </c>
-      <c r="C27" s="27" t="str">
+      <c r="C27" s="26" t="str">
         <f>AI27</f>
       </c>
-      <c r="D27" s="27" t="str">
+      <c r="D27" s="26" t="str">
         <f>AK27</f>
       </c>
-      <c r="E27" s="27" t="str">
+      <c r="E27" s="26" t="str">
         <f>AL27</f>
       </c>
-      <c r="F27" s="27"/>
+      <c r="F27" s="26"/>
       <c r="G27" s="1" t="str">
         <f>AL27/AK27-1</f>
       </c>
@@ -22445,79 +22447,79 @@
       <c r="N27" t="s">
         <v>113</v>
       </c>
-      <c r="O27" s="27" t="n">
+      <c r="O27" s="26" t="n">
         <v>1698942072.72133</v>
       </c>
-      <c r="P27" s="27" t="n">
+      <c r="P27" s="26" t="n">
         <v>667231689.746218</v>
       </c>
-      <c r="Q27" s="27" t="n">
+      <c r="Q27" s="26" t="n">
         <v>229541392.802605</v>
       </c>
-      <c r="R27" s="27" t="n">
+      <c r="R27" s="26" t="n">
         <v>486241383.126826</v>
       </c>
-      <c r="S27" s="27" t="n">
+      <c r="S27" s="26" t="n">
         <v>253193877.894965</v>
       </c>
-      <c r="T27" s="27" t="n">
+      <c r="T27" s="26" t="n">
         <v>264367639.007765</v>
       </c>
-      <c r="U27" s="27" t="n">
+      <c r="U27" s="26" t="n">
         <v>125002327.636753</v>
       </c>
-      <c r="V27" s="27" t="n">
+      <c r="V27" s="26" t="n">
         <v>150089414.363696</v>
       </c>
-      <c r="W27" s="27" t="n">
+      <c r="W27" s="26" t="n">
         <v>156376649.404194</v>
       </c>
-      <c r="X27" s="27" t="n">
+      <c r="X27" s="26" t="n">
         <v>199993240.767862</v>
       </c>
-      <c r="Y27" s="27" t="n">
+      <c r="Y27" s="26" t="n">
         <v>352434737.714835</v>
       </c>
-      <c r="Z27" s="27" t="n">
+      <c r="Z27" s="26" t="n">
         <v>380434494.637766</v>
       </c>
-      <c r="AA27" s="27" t="n">
+      <c r="AA27" s="26" t="n">
         <v>190225792.981314</v>
       </c>
-      <c r="AB27" s="27" t="n">
+      <c r="AB27" s="26" t="n">
         <v>225966566.606211</v>
       </c>
-      <c r="AC27" s="27" t="n">
+      <c r="AC27" s="26" t="n">
         <v>739024872.525312</v>
       </c>
-      <c r="AD27" s="27" t="n">
+      <c r="AD27" s="26" t="n">
         <v>361043114.103746</v>
       </c>
-      <c r="AE27" s="27" t="n">
+      <c r="AE27" s="26" t="n">
         <v>907288272.127476</v>
       </c>
-      <c r="AF27" s="27" t="n">
+      <c r="AF27" s="26" t="n">
         <v>239157821.384092</v>
       </c>
-      <c r="AG27" s="27" t="n">
+      <c r="AG27" s="26" t="n">
         <v>371016642.551373</v>
       </c>
-      <c r="AH27" s="27" t="n">
+      <c r="AH27" s="26" t="n">
         <v>236180652.3815</v>
       </c>
-      <c r="AI27" s="27" t="n">
+      <c r="AI27" s="26" t="n">
         <v>375701740.003395</v>
       </c>
-      <c r="AJ27" s="27" t="n">
+      <c r="AJ27" s="26" t="n">
         <v>124981625.204131</v>
       </c>
-      <c r="AK27" s="27" t="n">
+      <c r="AK27" s="26" t="n">
         <v>155254674.062914</v>
       </c>
-      <c r="AL27" s="27" t="n">
+      <c r="AL27" s="26" t="n">
         <v>160257277.9173</v>
       </c>
-      <c r="AM27" s="27"/>
+      <c r="AM27" s="26"/>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -22526,16 +22528,16 @@
       <c r="B28" t="str">
         <f>N28</f>
       </c>
-      <c r="C28" s="27" t="str">
+      <c r="C28" s="26" t="str">
         <f>AI28</f>
       </c>
-      <c r="D28" s="27" t="str">
+      <c r="D28" s="26" t="str">
         <f>AK28</f>
       </c>
-      <c r="E28" s="27" t="str">
+      <c r="E28" s="26" t="str">
         <f>AL28</f>
       </c>
-      <c r="F28" s="27"/>
+      <c r="F28" s="26"/>
       <c r="G28" s="1" t="str">
         <f>AL28/AK28-1</f>
       </c>
@@ -22553,61 +22555,61 @@
       <c r="N28" t="s">
         <v>114</v>
       </c>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="27"/>
-      <c r="R28" s="27"/>
-      <c r="S28" s="27"/>
-      <c r="T28" s="27"/>
-      <c r="U28" s="27"/>
-      <c r="V28" s="27"/>
-      <c r="W28" s="27"/>
-      <c r="X28" s="27" t="n">
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="26"/>
+      <c r="W28" s="26"/>
+      <c r="X28" s="26" t="n">
         <v>3782387076.99513</v>
       </c>
-      <c r="Y28" s="27" t="n">
+      <c r="Y28" s="26" t="n">
         <v>3387582400.12545</v>
       </c>
-      <c r="Z28" s="27" t="n">
+      <c r="Z28" s="26" t="n">
         <v>4410410862.72054</v>
       </c>
-      <c r="AA28" s="27" t="n">
+      <c r="AA28" s="26" t="n">
         <v>3654380675.46002</v>
       </c>
-      <c r="AB28" s="27" t="n">
+      <c r="AB28" s="26" t="n">
         <v>3257988992.66375</v>
       </c>
-      <c r="AC28" s="27" t="n">
+      <c r="AC28" s="26" t="n">
         <v>1803980241.77711</v>
       </c>
-      <c r="AD28" s="27" t="n">
+      <c r="AD28" s="26" t="n">
         <v>123539349.430913</v>
       </c>
-      <c r="AE28" s="27" t="n">
+      <c r="AE28" s="26" t="n">
         <v>339566824.935044</v>
       </c>
-      <c r="AF28" s="27" t="n">
+      <c r="AF28" s="26" t="n">
         <v>120213554.580293</v>
       </c>
-      <c r="AG28" s="27" t="n">
+      <c r="AG28" s="26" t="n">
         <v>113022221.000859</v>
       </c>
-      <c r="AH28" s="27" t="n">
+      <c r="AH28" s="26" t="n">
         <v>137986537.460037</v>
       </c>
-      <c r="AI28" s="27" t="n">
+      <c r="AI28" s="26" t="n">
         <v>83996828.7864444</v>
       </c>
-      <c r="AJ28" s="27" t="n">
+      <c r="AJ28" s="26" t="n">
         <v>124947692.277727</v>
       </c>
-      <c r="AK28" s="27" t="n">
+      <c r="AK28" s="26" t="n">
         <v>80673877.3906123</v>
       </c>
-      <c r="AL28" s="27" t="n">
+      <c r="AL28" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="AM28" s="27"/>
+      <c r="AM28" s="26"/>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -22616,16 +22618,16 @@
       <c r="B29" t="str">
         <f>N29</f>
       </c>
-      <c r="C29" s="27" t="str">
+      <c r="C29" s="26" t="str">
         <f>AI29</f>
       </c>
-      <c r="D29" s="27" t="str">
+      <c r="D29" s="26" t="str">
         <f>AK29</f>
       </c>
-      <c r="E29" s="27" t="str">
+      <c r="E29" s="26" t="str">
         <f>AL29</f>
       </c>
-      <c r="F29" s="27"/>
+      <c r="F29" s="26"/>
       <c r="G29" s="1" t="str">
         <f>AL29/AK29-1</f>
       </c>
@@ -22643,69 +22645,69 @@
       <c r="N29" t="s">
         <v>113</v>
       </c>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27" t="n">
+      <c r="O29" s="26"/>
+      <c r="P29" s="26" t="n">
         <v>5539683.33692797</v>
       </c>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="27" t="n">
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26" t="n">
         <v>6825742.08321724</v>
       </c>
-      <c r="T29" s="27"/>
-      <c r="U29" s="27"/>
-      <c r="V29" s="27" t="n">
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="26" t="n">
         <v>6314582.84521379</v>
       </c>
-      <c r="W29" s="27" t="n">
+      <c r="W29" s="26" t="n">
         <v>35852222.5157703</v>
       </c>
-      <c r="X29" s="27" t="n">
+      <c r="X29" s="26" t="n">
         <v>86097755.4160805</v>
       </c>
-      <c r="Y29" s="27" t="n">
+      <c r="Y29" s="26" t="n">
         <v>340123073.330009</v>
       </c>
-      <c r="Z29" s="27" t="n">
+      <c r="Z29" s="26" t="n">
         <v>690048328.860365</v>
       </c>
-      <c r="AA29" s="27" t="n">
+      <c r="AA29" s="26" t="n">
         <v>1539310026.41604</v>
       </c>
-      <c r="AB29" s="27" t="n">
+      <c r="AB29" s="26" t="n">
         <v>42919830.0068344</v>
       </c>
-      <c r="AC29" s="27" t="n">
+      <c r="AC29" s="26" t="n">
         <v>31864603.0937122</v>
       </c>
-      <c r="AD29" s="27" t="n">
+      <c r="AD29" s="26" t="n">
         <v>128760602.731185</v>
       </c>
-      <c r="AE29" s="27" t="n">
+      <c r="AE29" s="26" t="n">
         <v>129737430.059346</v>
       </c>
-      <c r="AF29" s="27" t="n">
+      <c r="AF29" s="26" t="n">
         <v>104426431.698331</v>
       </c>
-      <c r="AG29" s="27" t="n">
+      <c r="AG29" s="26" t="n">
         <v>70540909.6698193</v>
       </c>
-      <c r="AH29" s="27" t="n">
+      <c r="AH29" s="26" t="n">
         <v>235407372.418415</v>
       </c>
-      <c r="AI29" s="27" t="n">
+      <c r="AI29" s="26" t="n">
         <v>238596052.902256</v>
       </c>
-      <c r="AJ29" s="27" t="n">
+      <c r="AJ29" s="26" t="n">
         <v>92717804.8975845</v>
       </c>
-      <c r="AK29" s="27" t="n">
+      <c r="AK29" s="26" t="n">
         <v>106530961.41211</v>
       </c>
-      <c r="AL29" s="27" t="n">
+      <c r="AL29" s="26" t="n">
         <v>96650466.9706</v>
       </c>
-      <c r="AM29" s="27"/>
+      <c r="AM29" s="26"/>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -22714,16 +22716,16 @@
       <c r="B30" t="str">
         <f>N30</f>
       </c>
-      <c r="C30" s="27" t="str">
+      <c r="C30" s="26" t="str">
         <f>AI30</f>
       </c>
-      <c r="D30" s="27" t="str">
+      <c r="D30" s="26" t="str">
         <f>AK30</f>
       </c>
-      <c r="E30" s="27" t="str">
+      <c r="E30" s="26" t="str">
         <f>AL30</f>
       </c>
-      <c r="F30" s="27"/>
+      <c r="F30" s="26"/>
       <c r="G30" s="1" t="str">
         <f>AL30/AK30-1</f>
       </c>
@@ -22739,43 +22741,43 @@
         <v>58</v>
       </c>
       <c r="N30"/>
-      <c r="O30" s="27" t="n">
+      <c r="O30" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27" t="n">
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26" t="n">
         <v>459601.468371854</v>
       </c>
-      <c r="R30" s="27"/>
-      <c r="S30" s="27"/>
-      <c r="T30" s="27"/>
-      <c r="U30" s="27"/>
-      <c r="V30" s="27"/>
-      <c r="W30" s="27" t="n">
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="26"/>
+      <c r="W30" s="26" t="n">
         <v>-137465.716340228</v>
       </c>
-      <c r="X30" s="27"/>
-      <c r="Y30" s="27"/>
-      <c r="Z30" s="27"/>
-      <c r="AA30" s="27"/>
-      <c r="AB30" s="27"/>
-      <c r="AC30" s="27"/>
-      <c r="AD30" s="27"/>
-      <c r="AE30" s="27"/>
-      <c r="AF30" s="27" t="n">
+      <c r="X30" s="26"/>
+      <c r="Y30" s="26"/>
+      <c r="Z30" s="26"/>
+      <c r="AA30" s="26"/>
+      <c r="AB30" s="26"/>
+      <c r="AC30" s="26"/>
+      <c r="AD30" s="26"/>
+      <c r="AE30" s="26"/>
+      <c r="AF30" s="26" t="n">
         <v>24414.0000046899</v>
       </c>
-      <c r="AG30" s="27" t="n">
+      <c r="AG30" s="26" t="n">
         <v>-278246.133397523</v>
       </c>
-      <c r="AH30" s="27"/>
-      <c r="AI30" s="27" t="n">
+      <c r="AH30" s="26"/>
+      <c r="AI30" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="AJ30" s="27"/>
-      <c r="AK30" s="27"/>
-      <c r="AL30" s="27"/>
-      <c r="AM30" s="27"/>
+      <c r="AJ30" s="26"/>
+      <c r="AK30" s="26"/>
+      <c r="AL30" s="26"/>
+      <c r="AM30" s="26"/>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -22784,16 +22786,16 @@
       <c r="B31" t="str">
         <f>N31</f>
       </c>
-      <c r="C31" s="27" t="str">
+      <c r="C31" s="26" t="str">
         <f>AI31</f>
       </c>
-      <c r="D31" s="27" t="str">
+      <c r="D31" s="26" t="str">
         <f>AK31</f>
       </c>
-      <c r="E31" s="27" t="str">
+      <c r="E31" s="26" t="str">
         <f>AL31</f>
       </c>
-      <c r="F31" s="27"/>
+      <c r="F31" s="26"/>
       <c r="G31" s="1" t="str">
         <f>AL31/AK31-1</f>
       </c>
@@ -22811,79 +22813,4050 @@
       <c r="N31" t="s">
         <v>47</v>
       </c>
-      <c r="O31" s="27" t="str">
+      <c r="O31" s="26" t="str">
         <f>Sum(O2:O30)</f>
       </c>
-      <c r="P31" s="27" t="str">
+      <c r="P31" s="26" t="str">
         <f>Sum(P2:P30)</f>
       </c>
-      <c r="Q31" s="27" t="str">
+      <c r="Q31" s="26" t="str">
         <f>Sum(Q2:Q30)</f>
       </c>
-      <c r="R31" s="27" t="str">
+      <c r="R31" s="26" t="str">
         <f>Sum(R2:R30)</f>
       </c>
-      <c r="S31" s="27" t="str">
+      <c r="S31" s="26" t="str">
         <f>Sum(S2:S30)</f>
       </c>
-      <c r="T31" s="27" t="str">
+      <c r="T31" s="26" t="str">
         <f>Sum(T2:T30)</f>
       </c>
-      <c r="U31" s="27" t="str">
+      <c r="U31" s="26" t="str">
         <f>Sum(U2:U30)</f>
       </c>
-      <c r="V31" s="27" t="str">
+      <c r="V31" s="26" t="str">
         <f>Sum(V2:V30)</f>
       </c>
-      <c r="W31" s="27" t="str">
+      <c r="W31" s="26" t="str">
         <f>Sum(W2:W30)</f>
       </c>
-      <c r="X31" s="27" t="str">
+      <c r="X31" s="26" t="str">
         <f>Sum(X2:X30)</f>
       </c>
-      <c r="Y31" s="27" t="str">
+      <c r="Y31" s="26" t="str">
         <f>Sum(Y2:Y30)</f>
       </c>
-      <c r="Z31" s="27" t="str">
+      <c r="Z31" s="26" t="str">
         <f>Sum(Z2:Z30)</f>
       </c>
-      <c r="AA31" s="27" t="str">
+      <c r="AA31" s="26" t="str">
         <f>Sum(AA2:AA30)</f>
       </c>
-      <c r="AB31" s="27" t="str">
+      <c r="AB31" s="26" t="str">
         <f>Sum(AB2:AB30)</f>
       </c>
-      <c r="AC31" s="27" t="str">
+      <c r="AC31" s="26" t="str">
         <f>Sum(AC2:AC30)</f>
       </c>
-      <c r="AD31" s="27" t="str">
+      <c r="AD31" s="26" t="str">
         <f>Sum(AD2:AD30)</f>
       </c>
-      <c r="AE31" s="27" t="str">
+      <c r="AE31" s="26" t="str">
         <f>Sum(AE2:AE30)</f>
       </c>
-      <c r="AF31" s="27" t="str">
+      <c r="AF31" s="26" t="str">
         <f>Sum(AF2:AF30)</f>
       </c>
-      <c r="AG31" s="27" t="str">
+      <c r="AG31" s="26" t="str">
         <f>Sum(AG2:AG30)</f>
       </c>
-      <c r="AH31" s="27" t="str">
+      <c r="AH31" s="26" t="str">
         <f>Sum(AH2:AH30)</f>
       </c>
-      <c r="AI31" s="27" t="str">
+      <c r="AI31" s="26" t="str">
         <f>Sum(AI2:AI30)</f>
       </c>
-      <c r="AJ31" s="27" t="str">
+      <c r="AJ31" s="26" t="str">
         <f>Sum(AJ2:AJ30)</f>
       </c>
-      <c r="AK31" s="27" t="str">
+      <c r="AK31" s="26" t="str">
         <f>Sum(AK2:AK30)</f>
       </c>
-      <c r="AL31" s="27" t="str">
+      <c r="AL31" s="26" t="str">
         <f>Sum(AL2:AL30)</f>
       </c>
-      <c r="AM31" s="27"/>
+      <c r="AM31" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>N1</f>
+      </c>
+      <c r="C1" t="str">
+        <f>AI1</f>
+      </c>
+      <c r="D1" t="str">
+        <f>AK1</f>
+      </c>
+      <c r="E1" t="str">
+        <f>AL1</f>
+      </c>
+      <c r="G1" t="str">
+        <f>AK1&amp;"-"&amp;AL1</f>
+      </c>
+      <c r="H1" t="str">
+        <f>AI1&amp;"-"&amp;AL1</f>
+      </c>
+      <c r="J1" t="str">
+        <f>"Share "&amp;AL1</f>
+      </c>
+      <c r="M1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>N2</f>
+      </c>
+      <c r="C2" s="28" t="str">
+        <f>AI2</f>
+      </c>
+      <c r="D2" s="28" t="str">
+        <f>AK2</f>
+      </c>
+      <c r="E2" s="28" t="str">
+        <f>AL2</f>
+      </c>
+      <c r="F2" s="28"/>
+      <c r="G2" s="1" t="str">
+        <f>AL2/AK2-1</f>
+      </c>
+      <c r="H2" s="1" t="str">
+        <f>AL2/AI2-1</f>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="str">
+        <f>AL2/Sum(AL$1:AL$37)</f>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" s="28" t="n">
+        <v>59437630207.2448</v>
+      </c>
+      <c r="P2" s="28" t="n">
+        <v>59211288108.7318</v>
+      </c>
+      <c r="Q2" s="28" t="n">
+        <v>62045010242.571</v>
+      </c>
+      <c r="R2" s="28" t="n">
+        <v>74254668857.86</v>
+      </c>
+      <c r="S2" s="28" t="n">
+        <v>68525978638.2338</v>
+      </c>
+      <c r="T2" s="28" t="n">
+        <v>61154400064.5777</v>
+      </c>
+      <c r="U2" s="28" t="n">
+        <v>69080591718.6393</v>
+      </c>
+      <c r="V2" s="28" t="n">
+        <v>78727250348.9854</v>
+      </c>
+      <c r="W2" s="28" t="n">
+        <v>80182202668.0941</v>
+      </c>
+      <c r="X2" s="28" t="n">
+        <v>83197598996.438</v>
+      </c>
+      <c r="Y2" s="28" t="n">
+        <v>78877621776.0082</v>
+      </c>
+      <c r="Z2" s="28" t="n">
+        <v>83974635584.593</v>
+      </c>
+      <c r="AA2" s="28" t="n">
+        <v>85757952898.3284</v>
+      </c>
+      <c r="AB2" s="28" t="n">
+        <v>78300475981.4131</v>
+      </c>
+      <c r="AC2" s="28" t="n">
+        <v>61433665596.8671</v>
+      </c>
+      <c r="AD2" s="28" t="n">
+        <v>63998322849.6493</v>
+      </c>
+      <c r="AE2" s="28" t="n">
+        <v>79196536179.6018</v>
+      </c>
+      <c r="AF2" s="28" t="n">
+        <v>88768995949.5139</v>
+      </c>
+      <c r="AG2" s="28" t="n">
+        <v>79109600577.5145</v>
+      </c>
+      <c r="AH2" s="28" t="n">
+        <v>84277119720.0796</v>
+      </c>
+      <c r="AI2" s="28" t="n">
+        <v>105306850242.087</v>
+      </c>
+      <c r="AJ2" s="28" t="n">
+        <v>64147589758.4595</v>
+      </c>
+      <c r="AK2" s="28" t="n">
+        <v>61632524801.5775</v>
+      </c>
+      <c r="AL2" s="28" t="n">
+        <v>79188466054.4052</v>
+      </c>
+      <c r="AM2" s="28"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>N3</f>
+      </c>
+      <c r="C3" s="28" t="str">
+        <f>AI3</f>
+      </c>
+      <c r="D3" s="28" t="str">
+        <f>AK3</f>
+      </c>
+      <c r="E3" s="28" t="str">
+        <f>AL3</f>
+      </c>
+      <c r="F3" s="28"/>
+      <c r="G3" s="1" t="str">
+        <f>AL3/AK3-1</f>
+      </c>
+      <c r="H3" s="1" t="str">
+        <f>AL3/AI3-1</f>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="str">
+        <f>AL3/Sum(AL$1:AL$37)</f>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" s="28" t="n">
+        <v>34768195529.1791</v>
+      </c>
+      <c r="P3" s="28" t="n">
+        <v>36508946193.8254</v>
+      </c>
+      <c r="Q3" s="28" t="n">
+        <v>41023799914.6688</v>
+      </c>
+      <c r="R3" s="28" t="n">
+        <v>48642520203.3657</v>
+      </c>
+      <c r="S3" s="28" t="n">
+        <v>55556887911.2154</v>
+      </c>
+      <c r="T3" s="28" t="n">
+        <v>62001073253.6825</v>
+      </c>
+      <c r="U3" s="28" t="n">
+        <v>63839431332.7391</v>
+      </c>
+      <c r="V3" s="28" t="n">
+        <v>73923513044.6965</v>
+      </c>
+      <c r="W3" s="28" t="n">
+        <v>78629077856.0985</v>
+      </c>
+      <c r="X3" s="28" t="n">
+        <v>74222496251.542</v>
+      </c>
+      <c r="Y3" s="28" t="n">
+        <v>70259981678.1793</v>
+      </c>
+      <c r="Z3" s="28" t="n">
+        <v>62882297569.0752</v>
+      </c>
+      <c r="AA3" s="28" t="n">
+        <v>57340974239.2376</v>
+      </c>
+      <c r="AB3" s="28" t="n">
+        <v>46179793496.1404</v>
+      </c>
+      <c r="AC3" s="28" t="n">
+        <v>43865569649.2852</v>
+      </c>
+      <c r="AD3" s="28" t="n">
+        <v>41021334099.7071</v>
+      </c>
+      <c r="AE3" s="28" t="n">
+        <v>43068459427.2238</v>
+      </c>
+      <c r="AF3" s="28" t="n">
+        <v>43960250354.657</v>
+      </c>
+      <c r="AG3" s="28" t="n">
+        <v>47767789115.0819</v>
+      </c>
+      <c r="AH3" s="28" t="n">
+        <v>50054140169.9917</v>
+      </c>
+      <c r="AI3" s="28" t="n">
+        <v>48243857054.4228</v>
+      </c>
+      <c r="AJ3" s="28" t="n">
+        <v>40394212433.5729</v>
+      </c>
+      <c r="AK3" s="28" t="n">
+        <v>40880963113.3212</v>
+      </c>
+      <c r="AL3" s="28" t="n">
+        <v>38848195826.6314</v>
+      </c>
+      <c r="AM3" s="28"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>N4</f>
+      </c>
+      <c r="C4" s="28" t="str">
+        <f>AI4</f>
+      </c>
+      <c r="D4" s="28" t="str">
+        <f>AK4</f>
+      </c>
+      <c r="E4" s="28" t="str">
+        <f>AL4</f>
+      </c>
+      <c r="F4" s="28"/>
+      <c r="G4" s="1" t="str">
+        <f>AL4/AK4-1</f>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f>AL4/AI4-1</f>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="str">
+        <f>AL4/Sum(AL$1:AL$37)</f>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" s="28" t="n">
+        <v>34845438461.4852</v>
+      </c>
+      <c r="P4" s="28" t="n">
+        <v>37772643397.6964</v>
+      </c>
+      <c r="Q4" s="28" t="n">
+        <v>42038900597.5546</v>
+      </c>
+      <c r="R4" s="28" t="n">
+        <v>54521454605.5789</v>
+      </c>
+      <c r="S4" s="28" t="n">
+        <v>54894821503.216</v>
+      </c>
+      <c r="T4" s="28" t="n">
+        <v>58851160100.7417</v>
+      </c>
+      <c r="U4" s="28" t="n">
+        <v>65958170056.6272</v>
+      </c>
+      <c r="V4" s="28" t="n">
+        <v>64734205711.1249</v>
+      </c>
+      <c r="W4" s="28" t="n">
+        <v>78729947568.4735</v>
+      </c>
+      <c r="X4" s="28" t="n">
+        <v>69787451609.7343</v>
+      </c>
+      <c r="Y4" s="28" t="n">
+        <v>75130636538.9975</v>
+      </c>
+      <c r="Z4" s="28" t="n">
+        <v>64466910296.1132</v>
+      </c>
+      <c r="AA4" s="28" t="n">
+        <v>57390278285.8079</v>
+      </c>
+      <c r="AB4" s="28" t="n">
+        <v>45628972412.1476</v>
+      </c>
+      <c r="AC4" s="28" t="n">
+        <v>47658584817.1531</v>
+      </c>
+      <c r="AD4" s="28" t="n">
+        <v>43160720063.759</v>
+      </c>
+      <c r="AE4" s="28" t="n">
+        <v>43574194513.3891</v>
+      </c>
+      <c r="AF4" s="28" t="n">
+        <v>42871228807.6289</v>
+      </c>
+      <c r="AG4" s="28" t="n">
+        <v>50555168530.8503</v>
+      </c>
+      <c r="AH4" s="28" t="n">
+        <v>56413189615.2018</v>
+      </c>
+      <c r="AI4" s="28" t="n">
+        <v>64399583980.7981</v>
+      </c>
+      <c r="AJ4" s="28" t="n">
+        <v>51996916181.6673</v>
+      </c>
+      <c r="AK4" s="28" t="n">
+        <v>53742518637.1049</v>
+      </c>
+      <c r="AL4" s="28" t="n">
+        <v>58831781203.8491</v>
+      </c>
+      <c r="AM4" s="28"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>N5</f>
+      </c>
+      <c r="C5" s="28" t="str">
+        <f>AI5</f>
+      </c>
+      <c r="D5" s="28" t="str">
+        <f>AK5</f>
+      </c>
+      <c r="E5" s="28" t="str">
+        <f>AL5</f>
+      </c>
+      <c r="F5" s="28"/>
+      <c r="G5" s="1" t="str">
+        <f>AL5/AK5-1</f>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f>AL5/AI5-1</f>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="str">
+        <f>AL5/Sum(AL$1:AL$37)</f>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O5" s="28" t="n">
+        <v>5486401618.741</v>
+      </c>
+      <c r="P5" s="28" t="n">
+        <v>4501552552.14442</v>
+      </c>
+      <c r="Q5" s="28" t="n">
+        <v>6737236663.50749</v>
+      </c>
+      <c r="R5" s="28" t="n">
+        <v>14715023805.6295</v>
+      </c>
+      <c r="S5" s="28" t="n">
+        <v>12366738212.5134</v>
+      </c>
+      <c r="T5" s="28" t="n">
+        <v>22404590773.3968</v>
+      </c>
+      <c r="U5" s="28" t="n">
+        <v>22899529411.2001</v>
+      </c>
+      <c r="V5" s="28" t="n">
+        <v>39879407830.0741</v>
+      </c>
+      <c r="W5" s="28" t="n">
+        <v>54903154886.5868</v>
+      </c>
+      <c r="X5" s="28" t="n">
+        <v>39200973932.8275</v>
+      </c>
+      <c r="Y5" s="28" t="n">
+        <v>33184595595.5146</v>
+      </c>
+      <c r="Z5" s="28" t="n">
+        <v>23656616905.0863</v>
+      </c>
+      <c r="AA5" s="28" t="n">
+        <v>12227239764.3852</v>
+      </c>
+      <c r="AB5" s="28" t="n">
+        <v>8720432427.42899</v>
+      </c>
+      <c r="AC5" s="28" t="n">
+        <v>6109362711.39505</v>
+      </c>
+      <c r="AD5" s="28" t="n">
+        <v>7268400402.10253</v>
+      </c>
+      <c r="AE5" s="28" t="n">
+        <v>7039765507.06837</v>
+      </c>
+      <c r="AF5" s="28" t="n">
+        <v>7834619497.10597</v>
+      </c>
+      <c r="AG5" s="28" t="n">
+        <v>12427551361.541</v>
+      </c>
+      <c r="AH5" s="28" t="n">
+        <v>12792869915.6386</v>
+      </c>
+      <c r="AI5" s="28" t="n">
+        <v>11853747657.4827</v>
+      </c>
+      <c r="AJ5" s="28" t="n">
+        <v>9646849791.19473</v>
+      </c>
+      <c r="AK5" s="28" t="n">
+        <v>10250823000.495</v>
+      </c>
+      <c r="AL5" s="28" t="n">
+        <v>13182088217.2964</v>
+      </c>
+      <c r="AM5" s="28"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <f>M6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>N6</f>
+      </c>
+      <c r="C6" s="28" t="str">
+        <f>AI6</f>
+      </c>
+      <c r="D6" s="28" t="str">
+        <f>AK6</f>
+      </c>
+      <c r="E6" s="28" t="str">
+        <f>AL6</f>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="1" t="str">
+        <f>AL6/AK6-1</f>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f>AL6/AI6-1</f>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="str">
+        <f>AL6/Sum(AL$1:AL$37)</f>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>64</v>
+      </c>
+      <c r="O6" s="28" t="n">
+        <v>5045267109.98122</v>
+      </c>
+      <c r="P6" s="28" t="n">
+        <v>5522106588.75984</v>
+      </c>
+      <c r="Q6" s="28" t="n">
+        <v>7638005785.78996</v>
+      </c>
+      <c r="R6" s="28" t="n">
+        <v>7985417138.06481</v>
+      </c>
+      <c r="S6" s="28" t="n">
+        <v>9275006859.15106</v>
+      </c>
+      <c r="T6" s="28" t="n">
+        <v>9752243441.45016</v>
+      </c>
+      <c r="U6" s="28" t="n">
+        <v>9836779545.36759</v>
+      </c>
+      <c r="V6" s="28" t="n">
+        <v>11762748167.2363</v>
+      </c>
+      <c r="W6" s="28" t="n">
+        <v>12135169178.6461</v>
+      </c>
+      <c r="X6" s="28" t="n">
+        <v>14364662126.6358</v>
+      </c>
+      <c r="Y6" s="28" t="n">
+        <v>14173262656.3534</v>
+      </c>
+      <c r="Z6" s="28" t="n">
+        <v>14004449651.2624</v>
+      </c>
+      <c r="AA6" s="28" t="n">
+        <v>14194639883.275</v>
+      </c>
+      <c r="AB6" s="28" t="n">
+        <v>13183896752.6168</v>
+      </c>
+      <c r="AC6" s="28" t="n">
+        <v>9932761347.10288</v>
+      </c>
+      <c r="AD6" s="28" t="n">
+        <v>10387013822.3683</v>
+      </c>
+      <c r="AE6" s="28" t="n">
+        <v>10622531855.8714</v>
+      </c>
+      <c r="AF6" s="28" t="n">
+        <v>9013122793.04847</v>
+      </c>
+      <c r="AG6" s="28" t="n">
+        <v>15227823170.5868</v>
+      </c>
+      <c r="AH6" s="28" t="n">
+        <v>16420864595.8319</v>
+      </c>
+      <c r="AI6" s="28" t="n">
+        <v>19725617745.0437</v>
+      </c>
+      <c r="AJ6" s="28" t="n">
+        <v>11358816271.512</v>
+      </c>
+      <c r="AK6" s="28" t="n">
+        <v>12086366837.6955</v>
+      </c>
+      <c r="AL6" s="28" t="n">
+        <v>9328016402.2707</v>
+      </c>
+      <c r="AM6" s="28"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>M7</f>
+      </c>
+      <c r="B7" t="str">
+        <f>N7</f>
+      </c>
+      <c r="C7" s="28" t="str">
+        <f>AI7</f>
+      </c>
+      <c r="D7" s="28" t="str">
+        <f>AK7</f>
+      </c>
+      <c r="E7" s="28" t="str">
+        <f>AL7</f>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="1" t="str">
+        <f>AL7/AK7-1</f>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f>AL7/AI7-1</f>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1" t="str">
+        <f>AL7/Sum(AL$1:AL$37)</f>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" s="28" t="n">
+        <v>13435598330.5683</v>
+      </c>
+      <c r="P7" s="28" t="n">
+        <v>13950648160.02</v>
+      </c>
+      <c r="Q7" s="28" t="n">
+        <v>18994035366.7322</v>
+      </c>
+      <c r="R7" s="28" t="n">
+        <v>20726949632.1088</v>
+      </c>
+      <c r="S7" s="28" t="n">
+        <v>21126764847.6258</v>
+      </c>
+      <c r="T7" s="28" t="n">
+        <v>21788942600.008</v>
+      </c>
+      <c r="U7" s="28" t="n">
+        <v>21195043275.7669</v>
+      </c>
+      <c r="V7" s="28" t="n">
+        <v>24865486517.8887</v>
+      </c>
+      <c r="W7" s="28" t="n">
+        <v>25342423889.8857</v>
+      </c>
+      <c r="X7" s="28" t="n">
+        <v>23577297358.9515</v>
+      </c>
+      <c r="Y7" s="28" t="n">
+        <v>20840917989.4607</v>
+      </c>
+      <c r="Z7" s="28" t="n">
+        <v>19095311804.9431</v>
+      </c>
+      <c r="AA7" s="28" t="n">
+        <v>19237426337.9476</v>
+      </c>
+      <c r="AB7" s="28" t="n">
+        <v>15687246139.3307</v>
+      </c>
+      <c r="AC7" s="28" t="n">
+        <v>14418520032.2436</v>
+      </c>
+      <c r="AD7" s="28" t="n">
+        <v>15099274424.0167</v>
+      </c>
+      <c r="AE7" s="28" t="n">
+        <v>18869485905.0668</v>
+      </c>
+      <c r="AF7" s="28" t="n">
+        <v>19800058049.2375</v>
+      </c>
+      <c r="AG7" s="28" t="n">
+        <v>23259023201.0931</v>
+      </c>
+      <c r="AH7" s="28" t="n">
+        <v>24931471583.4004</v>
+      </c>
+      <c r="AI7" s="28" t="n">
+        <v>25432379888.0451</v>
+      </c>
+      <c r="AJ7" s="28" t="n">
+        <v>22680048765.6849</v>
+      </c>
+      <c r="AK7" s="28" t="n">
+        <v>20245438341.2182</v>
+      </c>
+      <c r="AL7" s="28" t="n">
+        <v>32153931499.6371</v>
+      </c>
+      <c r="AM7" s="28"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <f>M8</f>
+      </c>
+      <c r="B8" t="str">
+        <f>N8</f>
+      </c>
+      <c r="C8" s="28" t="str">
+        <f>AI8</f>
+      </c>
+      <c r="D8" s="28" t="str">
+        <f>AK8</f>
+      </c>
+      <c r="E8" s="28" t="str">
+        <f>AL8</f>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="1" t="str">
+        <f>AL8/AK8-1</f>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f>AL8/AI8-1</f>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1" t="str">
+        <f>AL8/Sum(AL$1:AL$37)</f>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>66</v>
+      </c>
+      <c r="O8" s="28" t="n">
+        <v>13599844108.49</v>
+      </c>
+      <c r="P8" s="28" t="n">
+        <v>15714301819.3469</v>
+      </c>
+      <c r="Q8" s="28" t="n">
+        <v>19362539644.5374</v>
+      </c>
+      <c r="R8" s="28" t="n">
+        <v>23329912347.2169</v>
+      </c>
+      <c r="S8" s="28" t="n">
+        <v>27915106150.7801</v>
+      </c>
+      <c r="T8" s="28" t="n">
+        <v>45352309280.1752</v>
+      </c>
+      <c r="U8" s="28" t="n">
+        <v>49217710774.7539</v>
+      </c>
+      <c r="V8" s="28" t="n">
+        <v>48447005805.0982</v>
+      </c>
+      <c r="W8" s="28" t="n">
+        <v>51535253186.3158</v>
+      </c>
+      <c r="X8" s="28" t="n">
+        <v>45003213342.7918</v>
+      </c>
+      <c r="Y8" s="28" t="n">
+        <v>34855501734.0309</v>
+      </c>
+      <c r="Z8" s="28" t="n">
+        <v>33400676989.0475</v>
+      </c>
+      <c r="AA8" s="28" t="n">
+        <v>42248469023.2739</v>
+      </c>
+      <c r="AB8" s="28" t="n">
+        <v>27901183172.6728</v>
+      </c>
+      <c r="AC8" s="28" t="n">
+        <v>24455753017.8212</v>
+      </c>
+      <c r="AD8" s="28" t="n">
+        <v>22328873891.1759</v>
+      </c>
+      <c r="AE8" s="28" t="n">
+        <v>21604268464.1588</v>
+      </c>
+      <c r="AF8" s="28" t="n">
+        <v>23900473892.8282</v>
+      </c>
+      <c r="AG8" s="28" t="n">
+        <v>27092086222.2132</v>
+      </c>
+      <c r="AH8" s="28" t="n">
+        <v>24575350374.7523</v>
+      </c>
+      <c r="AI8" s="28" t="n">
+        <v>25808726525.6529</v>
+      </c>
+      <c r="AJ8" s="28" t="n">
+        <v>50368819400.4044</v>
+      </c>
+      <c r="AK8" s="28" t="n">
+        <v>59121216072.2072</v>
+      </c>
+      <c r="AL8" s="28" t="n">
+        <v>29089255998.0359</v>
+      </c>
+      <c r="AM8" s="28"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <f>M9</f>
+      </c>
+      <c r="B9" t="str">
+        <f>N9</f>
+      </c>
+      <c r="C9" s="28" t="str">
+        <f>AI9</f>
+      </c>
+      <c r="D9" s="28" t="str">
+        <f>AK9</f>
+      </c>
+      <c r="E9" s="28" t="str">
+        <f>AL9</f>
+      </c>
+      <c r="F9" s="28"/>
+      <c r="G9" s="1" t="str">
+        <f>AL9/AK9-1</f>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f>AL9/AI9-1</f>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1" t="str">
+        <f>AL9/Sum(AL$1:AL$37)</f>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>67</v>
+      </c>
+      <c r="O9" s="28" t="n">
+        <v>20767413713.2481</v>
+      </c>
+      <c r="P9" s="28" t="n">
+        <v>20306854243.3095</v>
+      </c>
+      <c r="Q9" s="28" t="n">
+        <v>25570813448.6109</v>
+      </c>
+      <c r="R9" s="28" t="n">
+        <v>29013802951.095</v>
+      </c>
+      <c r="S9" s="28" t="n">
+        <v>31521536515.0873</v>
+      </c>
+      <c r="T9" s="28" t="n">
+        <v>38045813744.8321</v>
+      </c>
+      <c r="U9" s="28" t="n">
+        <v>41671259072.7507</v>
+      </c>
+      <c r="V9" s="28" t="n">
+        <v>42705687859.4677</v>
+      </c>
+      <c r="W9" s="28" t="n">
+        <v>46545271135.9775</v>
+      </c>
+      <c r="X9" s="28" t="n">
+        <v>52078221829.0095</v>
+      </c>
+      <c r="Y9" s="28" t="n">
+        <v>51666965340.8638</v>
+      </c>
+      <c r="Z9" s="28" t="n">
+        <v>49611852653.0253</v>
+      </c>
+      <c r="AA9" s="28" t="n">
+        <v>48692611895.5762</v>
+      </c>
+      <c r="AB9" s="28" t="n">
+        <v>40105868731.5607</v>
+      </c>
+      <c r="AC9" s="28" t="n">
+        <v>38392477279.3417</v>
+      </c>
+      <c r="AD9" s="28" t="n">
+        <v>37081314392.2876</v>
+      </c>
+      <c r="AE9" s="28" t="n">
+        <v>36427765440.3668</v>
+      </c>
+      <c r="AF9" s="28" t="n">
+        <v>37175858213.5962</v>
+      </c>
+      <c r="AG9" s="28" t="n">
+        <v>40923264507.7221</v>
+      </c>
+      <c r="AH9" s="28" t="n">
+        <v>43623515994.3633</v>
+      </c>
+      <c r="AI9" s="28" t="n">
+        <v>44618031494.4688</v>
+      </c>
+      <c r="AJ9" s="28" t="n">
+        <v>52413135742.2336</v>
+      </c>
+      <c r="AK9" s="28" t="n">
+        <v>52210081301.9729</v>
+      </c>
+      <c r="AL9" s="28" t="n">
+        <v>60139105077.5851</v>
+      </c>
+      <c r="AM9" s="28"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="B10" t="str">
+        <f>N10</f>
+      </c>
+      <c r="C10" s="28" t="str">
+        <f>AI10</f>
+      </c>
+      <c r="D10" s="28" t="str">
+        <f>AK10</f>
+      </c>
+      <c r="E10" s="28" t="str">
+        <f>AL10</f>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="1" t="str">
+        <f>AL10/AK10-1</f>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f>AL10/AI10-1</f>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1" t="str">
+        <f>AL10/Sum(AL$1:AL$37)</f>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>68</v>
+      </c>
+      <c r="O10" s="28" t="n">
+        <v>10939220871.4553</v>
+      </c>
+      <c r="P10" s="28" t="n">
+        <v>12179783486.7693</v>
+      </c>
+      <c r="Q10" s="28" t="n">
+        <v>17040037883.7473</v>
+      </c>
+      <c r="R10" s="28" t="n">
+        <v>25534021476.9988</v>
+      </c>
+      <c r="S10" s="28" t="n">
+        <v>31137361156.8747</v>
+      </c>
+      <c r="T10" s="28" t="n">
+        <v>33338045571.908</v>
+      </c>
+      <c r="U10" s="28" t="n">
+        <v>35249102232.8704</v>
+      </c>
+      <c r="V10" s="28" t="n">
+        <v>34672632661.2006</v>
+      </c>
+      <c r="W10" s="28" t="n">
+        <v>38070842439.1344</v>
+      </c>
+      <c r="X10" s="28" t="n">
+        <v>42079352047.9846</v>
+      </c>
+      <c r="Y10" s="28" t="n">
+        <v>40692280556.1576</v>
+      </c>
+      <c r="Z10" s="28" t="n">
+        <v>46439621415.0193</v>
+      </c>
+      <c r="AA10" s="28" t="n">
+        <v>42363709065.2208</v>
+      </c>
+      <c r="AB10" s="28" t="n">
+        <v>37922429188.4619</v>
+      </c>
+      <c r="AC10" s="28" t="n">
+        <v>30548151693.1742</v>
+      </c>
+      <c r="AD10" s="28" t="n">
+        <v>26985941054.5395</v>
+      </c>
+      <c r="AE10" s="28" t="n">
+        <v>27516210797.6896</v>
+      </c>
+      <c r="AF10" s="28" t="n">
+        <v>29520298083.32</v>
+      </c>
+      <c r="AG10" s="28" t="n">
+        <v>30788001089.3238</v>
+      </c>
+      <c r="AH10" s="28" t="n">
+        <v>31908499545.9515</v>
+      </c>
+      <c r="AI10" s="28" t="n">
+        <v>30992189989.7488</v>
+      </c>
+      <c r="AJ10" s="28" t="n">
+        <v>29625263732.6794</v>
+      </c>
+      <c r="AK10" s="28" t="n">
+        <v>29471816376.8176</v>
+      </c>
+      <c r="AL10" s="28" t="n">
+        <v>29427671490.9201</v>
+      </c>
+      <c r="AM10" s="28"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <f>M11</f>
+      </c>
+      <c r="B11" t="str">
+        <f>N11</f>
+      </c>
+      <c r="C11" s="28" t="str">
+        <f>AI11</f>
+      </c>
+      <c r="D11" s="28" t="str">
+        <f>AK11</f>
+      </c>
+      <c r="E11" s="28" t="str">
+        <f>AL11</f>
+      </c>
+      <c r="F11" s="28"/>
+      <c r="G11" s="1" t="str">
+        <f>AL11/AK11-1</f>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f>AL11/AI11-1</f>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1" t="str">
+        <f>AL11/Sum(AL$1:AL$37)</f>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>69</v>
+      </c>
+      <c r="O11" s="28" t="n">
+        <v>14029816529.6979</v>
+      </c>
+      <c r="P11" s="28" t="n">
+        <v>19693077994.1455</v>
+      </c>
+      <c r="Q11" s="28" t="n">
+        <v>20286025886.8329</v>
+      </c>
+      <c r="R11" s="28" t="n">
+        <v>19606615458.3899</v>
+      </c>
+      <c r="S11" s="28" t="n">
+        <v>22719496478.7208</v>
+      </c>
+      <c r="T11" s="28" t="n">
+        <v>20824757419.5954</v>
+      </c>
+      <c r="U11" s="28" t="n">
+        <v>24343095620.097</v>
+      </c>
+      <c r="V11" s="28" t="n">
+        <v>24277298681.8482</v>
+      </c>
+      <c r="W11" s="28" t="n">
+        <v>26685281355.7328</v>
+      </c>
+      <c r="X11" s="28" t="n">
+        <v>25465454401.248</v>
+      </c>
+      <c r="Y11" s="28" t="n">
+        <v>19177140401.0576</v>
+      </c>
+      <c r="Z11" s="28" t="n">
+        <v>31675399289.0885</v>
+      </c>
+      <c r="AA11" s="28" t="n">
+        <v>25728406328.1075</v>
+      </c>
+      <c r="AB11" s="28" t="n">
+        <v>22758150479.3814</v>
+      </c>
+      <c r="AC11" s="28" t="n">
+        <v>23779399846.1562</v>
+      </c>
+      <c r="AD11" s="28" t="n">
+        <v>22940958920.9842</v>
+      </c>
+      <c r="AE11" s="28" t="n">
+        <v>25919316968.3142</v>
+      </c>
+      <c r="AF11" s="28" t="n">
+        <v>28868564130.0456</v>
+      </c>
+      <c r="AG11" s="28" t="n">
+        <v>32486710691.5765</v>
+      </c>
+      <c r="AH11" s="28" t="n">
+        <v>33177715360.1961</v>
+      </c>
+      <c r="AI11" s="28" t="n">
+        <v>40352386332.7043</v>
+      </c>
+      <c r="AJ11" s="28" t="n">
+        <v>32292179611.2139</v>
+      </c>
+      <c r="AK11" s="28" t="n">
+        <v>31958476175.6901</v>
+      </c>
+      <c r="AL11" s="28" t="n">
+        <v>33560949773.3629</v>
+      </c>
+      <c r="AM11" s="28"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <f>M12</f>
+      </c>
+      <c r="B12" t="str">
+        <f>N12</f>
+      </c>
+      <c r="C12" s="28" t="str">
+        <f>AI12</f>
+      </c>
+      <c r="D12" s="28" t="str">
+        <f>AK12</f>
+      </c>
+      <c r="E12" s="28" t="str">
+        <f>AL12</f>
+      </c>
+      <c r="F12" s="28"/>
+      <c r="G12" s="1" t="str">
+        <f>AL12/AK12-1</f>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f>AL12/AI12-1</f>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1" t="str">
+        <f>AL12/Sum(AL$1:AL$37)</f>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>70</v>
+      </c>
+      <c r="O12" s="28" t="n">
+        <v>5350758182.21668</v>
+      </c>
+      <c r="P12" s="28" t="n">
+        <v>6813302852.76457</v>
+      </c>
+      <c r="Q12" s="28" t="n">
+        <v>7261784219.33336</v>
+      </c>
+      <c r="R12" s="28" t="n">
+        <v>8386638909.27419</v>
+      </c>
+      <c r="S12" s="28" t="n">
+        <v>9710946898.27079</v>
+      </c>
+      <c r="T12" s="28" t="n">
+        <v>9796685806.18224</v>
+      </c>
+      <c r="U12" s="28" t="n">
+        <v>11653358946.5798</v>
+      </c>
+      <c r="V12" s="28" t="n">
+        <v>11617955357.7599</v>
+      </c>
+      <c r="W12" s="28" t="n">
+        <v>13248156910.4665</v>
+      </c>
+      <c r="X12" s="28" t="n">
+        <v>14162004767.0274</v>
+      </c>
+      <c r="Y12" s="28" t="n">
+        <v>11983297502.0378</v>
+      </c>
+      <c r="Z12" s="28" t="n">
+        <v>13008660848.8734</v>
+      </c>
+      <c r="AA12" s="28" t="n">
+        <v>11440019151.6497</v>
+      </c>
+      <c r="AB12" s="28" t="n">
+        <v>9638259353.92449</v>
+      </c>
+      <c r="AC12" s="28" t="n">
+        <v>9818042915.03198</v>
+      </c>
+      <c r="AD12" s="28" t="n">
+        <v>7311026374.04543</v>
+      </c>
+      <c r="AE12" s="28" t="n">
+        <v>7292140324.87504</v>
+      </c>
+      <c r="AF12" s="28" t="n">
+        <v>7233282612.5749</v>
+      </c>
+      <c r="AG12" s="28" t="n">
+        <v>7016909571.99987</v>
+      </c>
+      <c r="AH12" s="28" t="n">
+        <v>8184757971.31364</v>
+      </c>
+      <c r="AI12" s="28" t="n">
+        <v>8239113043.87752</v>
+      </c>
+      <c r="AJ12" s="28" t="n">
+        <v>3973024257.29143</v>
+      </c>
+      <c r="AK12" s="28" t="n">
+        <v>4769784821.65306</v>
+      </c>
+      <c r="AL12" s="28" t="n">
+        <v>5025451538.9715</v>
+      </c>
+      <c r="AM12" s="28"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <f>M13</f>
+      </c>
+      <c r="B13" t="str">
+        <f>N13</f>
+      </c>
+      <c r="C13" s="28" t="str">
+        <f>AI13</f>
+      </c>
+      <c r="D13" s="28" t="str">
+        <f>AK13</f>
+      </c>
+      <c r="E13" s="28" t="str">
+        <f>AL13</f>
+      </c>
+      <c r="F13" s="28"/>
+      <c r="G13" s="1" t="str">
+        <f>AL13/AK13-1</f>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f>AL13/AI13-1</f>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1" t="str">
+        <f>AL13/Sum(AL$1:AL$37)</f>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
+        <v>58</v>
+      </c>
+      <c r="O13" s="28" t="n">
+        <v>49452293.8135696</v>
+      </c>
+      <c r="P13" s="28" t="n">
+        <v>15843052.9291712</v>
+      </c>
+      <c r="Q13" s="28" t="n">
+        <v>134821636.298449</v>
+      </c>
+      <c r="R13" s="28" t="n">
+        <v>119967911.594207</v>
+      </c>
+      <c r="S13" s="28" t="n">
+        <v>10934521.6829519</v>
+      </c>
+      <c r="T13" s="28" t="n">
+        <v>5711674.56061679</v>
+      </c>
+      <c r="U13" s="28" t="n">
+        <v>159658855.74992</v>
+      </c>
+      <c r="V13" s="28" t="n">
+        <v>25551712.5387472</v>
+      </c>
+      <c r="W13" s="28" t="n">
+        <v>647942.206328159</v>
+      </c>
+      <c r="X13" s="28" t="n">
+        <v>1353970.82348517</v>
+      </c>
+      <c r="Y13" s="28" t="n">
+        <v>-320199.707200513</v>
+      </c>
+      <c r="Z13" s="28" t="n">
+        <v>-139337.836141756</v>
+      </c>
+      <c r="AA13" s="28" t="n">
+        <v>-7077.20300901423</v>
+      </c>
+      <c r="AB13" s="28" t="n">
+        <v>-117424.5440476</v>
+      </c>
+      <c r="AC13" s="28" t="n">
+        <v>567671.010781381</v>
+      </c>
+      <c r="AD13" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="28" t="n">
+        <v>4443615.1319988</v>
+      </c>
+      <c r="AF13" s="28" t="n">
+        <v>-299.071500057452</v>
+      </c>
+      <c r="AG13" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="28" t="n">
+        <v>546254.749528136</v>
+      </c>
+      <c r="AI13" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="28" t="n">
+        <v>421053.108340354</v>
+      </c>
+      <c r="AK13" s="28" t="n">
+        <v>62577.4762279629</v>
+      </c>
+      <c r="AL13" s="28" t="n">
+        <v>30637.5606</v>
+      </c>
+      <c r="AM13" s="28"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <f>M14</f>
+      </c>
+      <c r="B14" t="str">
+        <f>N14</f>
+      </c>
+      <c r="C14" s="28" t="str">
+        <f>AI14</f>
+      </c>
+      <c r="D14" s="28" t="str">
+        <f>AK14</f>
+      </c>
+      <c r="E14" s="28" t="str">
+        <f>AL14</f>
+      </c>
+      <c r="F14" s="28"/>
+      <c r="G14" s="1" t="str">
+        <f>AL14/AK14-1</f>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f>AL14/AI14-1</f>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1" t="str">
+        <f>AL14/Sum(AL$1:AL$37)</f>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>60</v>
+      </c>
+      <c r="O14" s="28" t="n">
+        <v>110099660.412558</v>
+      </c>
+      <c r="P14" s="28" t="n">
+        <v>78664277.7731819</v>
+      </c>
+      <c r="Q14" s="28" t="n">
+        <v>1019374504.72287</v>
+      </c>
+      <c r="R14" s="28" t="n">
+        <v>3824757934.86512</v>
+      </c>
+      <c r="S14" s="28" t="n">
+        <v>5459072473.47749</v>
+      </c>
+      <c r="T14" s="28" t="n">
+        <v>9865428810.02565</v>
+      </c>
+      <c r="U14" s="28" t="n">
+        <v>9435454162.04582</v>
+      </c>
+      <c r="V14" s="28" t="n">
+        <v>6902793096.09457</v>
+      </c>
+      <c r="W14" s="28" t="n">
+        <v>12363373778.1749</v>
+      </c>
+      <c r="X14" s="28" t="n">
+        <v>6599301612.57065</v>
+      </c>
+      <c r="Y14" s="28" t="n">
+        <v>5372500473.67393</v>
+      </c>
+      <c r="Z14" s="28" t="n">
+        <v>5759251767.74467</v>
+      </c>
+      <c r="AA14" s="28" t="n">
+        <v>9995721454.34759</v>
+      </c>
+      <c r="AB14" s="28" t="n">
+        <v>8599766936.79214</v>
+      </c>
+      <c r="AC14" s="28" t="n">
+        <v>4886851238.04725</v>
+      </c>
+      <c r="AD14" s="28" t="n">
+        <v>4873135761.88157</v>
+      </c>
+      <c r="AE14" s="28" t="n">
+        <v>6205144681.24476</v>
+      </c>
+      <c r="AF14" s="28" t="n">
+        <v>6205388120.25648</v>
+      </c>
+      <c r="AG14" s="28" t="n">
+        <v>7066950562.37728</v>
+      </c>
+      <c r="AH14" s="28" t="n">
+        <v>9270840684.193</v>
+      </c>
+      <c r="AI14" s="28" t="n">
+        <v>7109495815.07767</v>
+      </c>
+      <c r="AJ14" s="28" t="n">
+        <v>6364424904.70585</v>
+      </c>
+      <c r="AK14" s="28" t="n">
+        <v>6211931790.09507</v>
+      </c>
+      <c r="AL14" s="28" t="n">
+        <v>8012446970.1006</v>
+      </c>
+      <c r="AM14" s="28"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <f>M15</f>
+      </c>
+      <c r="B15" t="str">
+        <f>N15</f>
+      </c>
+      <c r="C15" s="28" t="str">
+        <f>AI15</f>
+      </c>
+      <c r="D15" s="28" t="str">
+        <f>AK15</f>
+      </c>
+      <c r="E15" s="28" t="str">
+        <f>AL15</f>
+      </c>
+      <c r="F15" s="28"/>
+      <c r="G15" s="1" t="str">
+        <f>AL15/AK15-1</f>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f>AL15/AI15-1</f>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1" t="str">
+        <f>AL15/Sum(AL$1:AL$37)</f>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>61</v>
+      </c>
+      <c r="O15" s="28" t="n">
+        <v>117167358.741587</v>
+      </c>
+      <c r="P15" s="28" t="n">
+        <v>236186060.154231</v>
+      </c>
+      <c r="Q15" s="28" t="n">
+        <v>634464512.668636</v>
+      </c>
+      <c r="R15" s="28" t="n">
+        <v>864023861.474285</v>
+      </c>
+      <c r="S15" s="28" t="n">
+        <v>2049791362.45062</v>
+      </c>
+      <c r="T15" s="28" t="n">
+        <v>1433805998.70756</v>
+      </c>
+      <c r="U15" s="28" t="n">
+        <v>1804372908.85056</v>
+      </c>
+      <c r="V15" s="28" t="n">
+        <v>335651403.418063</v>
+      </c>
+      <c r="W15" s="28" t="n">
+        <v>324443752.831616</v>
+      </c>
+      <c r="X15" s="28" t="n">
+        <v>567996028.748357</v>
+      </c>
+      <c r="Y15" s="28" t="n">
+        <v>565262956.170931</v>
+      </c>
+      <c r="Z15" s="28" t="n">
+        <v>903312897.61517</v>
+      </c>
+      <c r="AA15" s="28" t="n">
+        <v>892824646.937328</v>
+      </c>
+      <c r="AB15" s="28" t="n">
+        <v>1204769184.84938</v>
+      </c>
+      <c r="AC15" s="28" t="n">
+        <v>1011945300.06183</v>
+      </c>
+      <c r="AD15" s="28" t="n">
+        <v>985367747.868534</v>
+      </c>
+      <c r="AE15" s="28" t="n">
+        <v>1480137091.91365</v>
+      </c>
+      <c r="AF15" s="28" t="n">
+        <v>2130638154.62157</v>
+      </c>
+      <c r="AG15" s="28" t="n">
+        <v>2385871291.9746</v>
+      </c>
+      <c r="AH15" s="28" t="n">
+        <v>2370306862.00905</v>
+      </c>
+      <c r="AI15" s="28" t="n">
+        <v>1913432758.45798</v>
+      </c>
+      <c r="AJ15" s="28" t="n">
+        <v>2176963868.41443</v>
+      </c>
+      <c r="AK15" s="28" t="n">
+        <v>1703601326.1762</v>
+      </c>
+      <c r="AL15" s="28" t="n">
+        <v>2861615194.9487</v>
+      </c>
+      <c r="AM15" s="28"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <f>M16</f>
+      </c>
+      <c r="B16" t="str">
+        <f>N16</f>
+      </c>
+      <c r="C16" s="28" t="str">
+        <f>AI16</f>
+      </c>
+      <c r="D16" s="28" t="str">
+        <f>AK16</f>
+      </c>
+      <c r="E16" s="28" t="str">
+        <f>AL16</f>
+      </c>
+      <c r="F16" s="28"/>
+      <c r="G16" s="1" t="str">
+        <f>AL16/AK16-1</f>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f>AL16/AI16-1</f>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1" t="str">
+        <f>AL16/Sum(AL$1:AL$37)</f>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>62</v>
+      </c>
+      <c r="O16" s="28" t="n">
+        <v>122810538.8715</v>
+      </c>
+      <c r="P16" s="28" t="n">
+        <v>88054801.3379279</v>
+      </c>
+      <c r="Q16" s="28" t="n">
+        <v>77403630.2273528</v>
+      </c>
+      <c r="R16" s="28" t="n">
+        <v>94785852.1989474</v>
+      </c>
+      <c r="S16" s="28" t="n">
+        <v>231725349.862572</v>
+      </c>
+      <c r="T16" s="28" t="n">
+        <v>284834141.930451</v>
+      </c>
+      <c r="U16" s="28" t="n">
+        <v>291808323.569528</v>
+      </c>
+      <c r="V16" s="28" t="n">
+        <v>663339717.454926</v>
+      </c>
+      <c r="W16" s="28" t="n">
+        <v>704910596.756886</v>
+      </c>
+      <c r="X16" s="28" t="n">
+        <v>692531237.335692</v>
+      </c>
+      <c r="Y16" s="28" t="n">
+        <v>1623479140.11611</v>
+      </c>
+      <c r="Z16" s="28" t="n">
+        <v>1888415968.34233</v>
+      </c>
+      <c r="AA16" s="28" t="n">
+        <v>1670124429.61354</v>
+      </c>
+      <c r="AB16" s="28" t="n">
+        <v>1647880034.34434</v>
+      </c>
+      <c r="AC16" s="28" t="n">
+        <v>1964593999.37621</v>
+      </c>
+      <c r="AD16" s="28" t="n">
+        <v>1531318000.2639</v>
+      </c>
+      <c r="AE16" s="28" t="n">
+        <v>1198422252.3702</v>
+      </c>
+      <c r="AF16" s="28" t="n">
+        <v>1143481661.1258</v>
+      </c>
+      <c r="AG16" s="28" t="n">
+        <v>1251612669.78872</v>
+      </c>
+      <c r="AH16" s="28" t="n">
+        <v>1422651243.24051</v>
+      </c>
+      <c r="AI16" s="28" t="n">
+        <v>1853615449.27931</v>
+      </c>
+      <c r="AJ16" s="28" t="n">
+        <v>2165396538.68423</v>
+      </c>
+      <c r="AK16" s="28" t="n">
+        <v>3094706690.9881</v>
+      </c>
+      <c r="AL16" s="28" t="n">
+        <v>2397983066.7312</v>
+      </c>
+      <c r="AM16" s="28"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <f>M17</f>
+      </c>
+      <c r="B17" t="str">
+        <f>N17</f>
+      </c>
+      <c r="C17" s="28" t="str">
+        <f>AI17</f>
+      </c>
+      <c r="D17" s="28" t="str">
+        <f>AK17</f>
+      </c>
+      <c r="E17" s="28" t="str">
+        <f>AL17</f>
+      </c>
+      <c r="F17" s="28"/>
+      <c r="G17" s="1" t="str">
+        <f>AL17/AK17-1</f>
+      </c>
+      <c r="H17" s="1" t="str">
+        <f>AL17/AI17-1</f>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1" t="str">
+        <f>AL17/Sum(AL$1:AL$37)</f>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>63</v>
+      </c>
+      <c r="O17" s="28" t="n">
+        <v>223312048.663891</v>
+      </c>
+      <c r="P17" s="28" t="n">
+        <v>911363466.256188</v>
+      </c>
+      <c r="Q17" s="28" t="n">
+        <v>994764781.322826</v>
+      </c>
+      <c r="R17" s="28" t="n">
+        <v>571862227.634484</v>
+      </c>
+      <c r="S17" s="28" t="n">
+        <v>849865107.155529</v>
+      </c>
+      <c r="T17" s="28" t="n">
+        <v>518649498.643925</v>
+      </c>
+      <c r="U17" s="28" t="n">
+        <v>446811488.845499</v>
+      </c>
+      <c r="V17" s="28" t="n">
+        <v>-15993539.8353005</v>
+      </c>
+      <c r="W17" s="28" t="n">
+        <v>152455436.824145</v>
+      </c>
+      <c r="X17" s="28" t="n">
+        <v>218258523.191347</v>
+      </c>
+      <c r="Y17" s="28" t="n">
+        <v>253114336.078972</v>
+      </c>
+      <c r="Z17" s="28" t="n">
+        <v>378662643.214911</v>
+      </c>
+      <c r="AA17" s="28" t="n">
+        <v>351556730.035811</v>
+      </c>
+      <c r="AB17" s="28" t="n">
+        <v>127801010.859185</v>
+      </c>
+      <c r="AC17" s="28" t="n">
+        <v>330231829.756293</v>
+      </c>
+      <c r="AD17" s="28" t="n">
+        <v>1209450013.4581</v>
+      </c>
+      <c r="AE17" s="28" t="n">
+        <v>1350262720.16384</v>
+      </c>
+      <c r="AF17" s="28" t="n">
+        <v>1486640992.77409</v>
+      </c>
+      <c r="AG17" s="28" t="n">
+        <v>1557520674.98228</v>
+      </c>
+      <c r="AH17" s="28" t="n">
+        <v>1275765512.69342</v>
+      </c>
+      <c r="AI17" s="28" t="n">
+        <v>798252061.491702</v>
+      </c>
+      <c r="AJ17" s="28" t="n">
+        <v>431293310.313594</v>
+      </c>
+      <c r="AK17" s="28" t="n">
+        <v>364331220.666703</v>
+      </c>
+      <c r="AL17" s="28" t="n">
+        <v>447981792.5263</v>
+      </c>
+      <c r="AM17" s="28"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <f>M18</f>
+      </c>
+      <c r="B18" t="str">
+        <f>N18</f>
+      </c>
+      <c r="C18" s="28" t="str">
+        <f>AI18</f>
+      </c>
+      <c r="D18" s="28" t="str">
+        <f>AK18</f>
+      </c>
+      <c r="E18" s="28" t="str">
+        <f>AL18</f>
+      </c>
+      <c r="F18" s="28"/>
+      <c r="G18" s="1" t="str">
+        <f>AL18/AK18-1</f>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f>AL18/AI18-1</f>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1" t="str">
+        <f>AL18/Sum(AL$1:AL$37)</f>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>64</v>
+      </c>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" s="28" t="n">
+        <v>2181673.56151467</v>
+      </c>
+      <c r="V18" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" s="28" t="n">
+        <v>17357638.3002127</v>
+      </c>
+      <c r="X18" s="28" t="n">
+        <v>46593781.2247896</v>
+      </c>
+      <c r="Y18" s="28" t="n">
+        <v>171406125.142513</v>
+      </c>
+      <c r="Z18" s="28" t="n">
+        <v>511242530.752466</v>
+      </c>
+      <c r="AA18" s="28" t="n">
+        <v>555689935.827313</v>
+      </c>
+      <c r="AB18" s="28" t="n">
+        <v>554620380.661219</v>
+      </c>
+      <c r="AC18" s="28" t="n">
+        <v>545924394.91961</v>
+      </c>
+      <c r="AD18" s="28" t="n">
+        <v>1064367860.74387</v>
+      </c>
+      <c r="AE18" s="28" t="n">
+        <v>1361382799.9605</v>
+      </c>
+      <c r="AF18" s="28" t="n">
+        <v>1195990049.79476</v>
+      </c>
+      <c r="AG18" s="28" t="n">
+        <v>489630927.398439</v>
+      </c>
+      <c r="AH18" s="28" t="n">
+        <v>624419028.787747</v>
+      </c>
+      <c r="AI18" s="28" t="n">
+        <v>2387217382.40273</v>
+      </c>
+      <c r="AJ18" s="28" t="n">
+        <v>1920840265.79068</v>
+      </c>
+      <c r="AK18" s="28" t="n">
+        <v>2151998223.81499</v>
+      </c>
+      <c r="AL18" s="28" t="n">
+        <v>3049943479.6013</v>
+      </c>
+      <c r="AM18" s="28"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <f>M19</f>
+      </c>
+      <c r="B19" t="str">
+        <f>N19</f>
+      </c>
+      <c r="C19" s="28" t="str">
+        <f>AI19</f>
+      </c>
+      <c r="D19" s="28" t="str">
+        <f>AK19</f>
+      </c>
+      <c r="E19" s="28" t="str">
+        <f>AL19</f>
+      </c>
+      <c r="F19" s="28"/>
+      <c r="G19" s="1" t="str">
+        <f>AL19/AK19-1</f>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f>AL19/AI19-1</f>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1" t="str">
+        <f>AL19/Sum(AL$1:AL$37)</f>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>65</v>
+      </c>
+      <c r="O19" s="28" t="n">
+        <v>1159344108.896</v>
+      </c>
+      <c r="P19" s="28" t="n">
+        <v>1020054441.54575</v>
+      </c>
+      <c r="Q19" s="28" t="n">
+        <v>977578556.004139</v>
+      </c>
+      <c r="R19" s="28" t="n">
+        <v>790965833.805683</v>
+      </c>
+      <c r="S19" s="28" t="n">
+        <v>684067938.376563</v>
+      </c>
+      <c r="T19" s="28" t="n">
+        <v>502000602.18196</v>
+      </c>
+      <c r="U19" s="28" t="n">
+        <v>664085965.851707</v>
+      </c>
+      <c r="V19" s="28" t="n">
+        <v>543262630.328909</v>
+      </c>
+      <c r="W19" s="28" t="n">
+        <v>1281765196.79888</v>
+      </c>
+      <c r="X19" s="28" t="n">
+        <v>826451506.833603</v>
+      </c>
+      <c r="Y19" s="28" t="n">
+        <v>1354545660.59451</v>
+      </c>
+      <c r="Z19" s="28" t="n">
+        <v>915783263.744493</v>
+      </c>
+      <c r="AA19" s="28" t="n">
+        <v>669031246.468658</v>
+      </c>
+      <c r="AB19" s="28" t="n">
+        <v>793341687.591477</v>
+      </c>
+      <c r="AC19" s="28" t="n">
+        <v>1042885833.84679</v>
+      </c>
+      <c r="AD19" s="28" t="n">
+        <v>1140642970.69615</v>
+      </c>
+      <c r="AE19" s="28" t="n">
+        <v>809273017.772064</v>
+      </c>
+      <c r="AF19" s="28" t="n">
+        <v>1217091255.48344</v>
+      </c>
+      <c r="AG19" s="28" t="n">
+        <v>1643105611.39979</v>
+      </c>
+      <c r="AH19" s="28" t="n">
+        <v>1244100062.45772</v>
+      </c>
+      <c r="AI19" s="28" t="n">
+        <v>1396356462.07828</v>
+      </c>
+      <c r="AJ19" s="28" t="n">
+        <v>1410007538.55022</v>
+      </c>
+      <c r="AK19" s="28" t="n">
+        <v>668145090.609278</v>
+      </c>
+      <c r="AL19" s="28" t="n">
+        <v>1190114919.3018</v>
+      </c>
+      <c r="AM19" s="28"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <f>M20</f>
+      </c>
+      <c r="B20" t="str">
+        <f>N20</f>
+      </c>
+      <c r="C20" s="28" t="str">
+        <f>AI20</f>
+      </c>
+      <c r="D20" s="28" t="str">
+        <f>AK20</f>
+      </c>
+      <c r="E20" s="28" t="str">
+        <f>AL20</f>
+      </c>
+      <c r="F20" s="28"/>
+      <c r="G20" s="1" t="str">
+        <f>AL20/AK20-1</f>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f>AL20/AI20-1</f>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1" t="str">
+        <f>AL20/Sum(AL$1:AL$37)</f>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>66</v>
+      </c>
+      <c r="O20" s="28" t="n">
+        <v>920011377.240056</v>
+      </c>
+      <c r="P20" s="28" t="n">
+        <v>1068804178.51338</v>
+      </c>
+      <c r="Q20" s="28" t="n">
+        <v>2278313971.68038</v>
+      </c>
+      <c r="R20" s="28" t="n">
+        <v>1314182313.45545</v>
+      </c>
+      <c r="S20" s="28" t="n">
+        <v>432992232.292929</v>
+      </c>
+      <c r="T20" s="28" t="n">
+        <v>2394157457.34838</v>
+      </c>
+      <c r="U20" s="28" t="n">
+        <v>1143204740.6086</v>
+      </c>
+      <c r="V20" s="28" t="n">
+        <v>103016588.539979</v>
+      </c>
+      <c r="W20" s="28" t="n">
+        <v>2687277024.39891</v>
+      </c>
+      <c r="X20" s="28" t="n">
+        <v>2747476959.29644</v>
+      </c>
+      <c r="Y20" s="28" t="n">
+        <v>2126802365.57939</v>
+      </c>
+      <c r="Z20" s="28" t="n">
+        <v>3622062856.37905</v>
+      </c>
+      <c r="AA20" s="28" t="n">
+        <v>1595813446.43973</v>
+      </c>
+      <c r="AB20" s="28" t="n">
+        <v>3790198396.21208</v>
+      </c>
+      <c r="AC20" s="28" t="n">
+        <v>3938514518.88886</v>
+      </c>
+      <c r="AD20" s="28" t="n">
+        <v>1694563845.67902</v>
+      </c>
+      <c r="AE20" s="28" t="n">
+        <v>311068781.99979</v>
+      </c>
+      <c r="AF20" s="28" t="n">
+        <v>210697536.945514</v>
+      </c>
+      <c r="AG20" s="28" t="n">
+        <v>277824046.988213</v>
+      </c>
+      <c r="AH20" s="28" t="n">
+        <v>395555850.571396</v>
+      </c>
+      <c r="AI20" s="28" t="n">
+        <v>1670663035.0883</v>
+      </c>
+      <c r="AJ20" s="28" t="n">
+        <v>8038459670.97326</v>
+      </c>
+      <c r="AK20" s="28" t="n">
+        <v>280272165.177478</v>
+      </c>
+      <c r="AL20" s="28" t="n">
+        <v>273784814.4502</v>
+      </c>
+      <c r="AM20" s="28"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <f>M21</f>
+      </c>
+      <c r="B21" t="str">
+        <f>N21</f>
+      </c>
+      <c r="C21" s="28" t="str">
+        <f>AI21</f>
+      </c>
+      <c r="D21" s="28" t="str">
+        <f>AK21</f>
+      </c>
+      <c r="E21" s="28" t="str">
+        <f>AL21</f>
+      </c>
+      <c r="F21" s="28"/>
+      <c r="G21" s="1" t="str">
+        <f>AL21/AK21-1</f>
+      </c>
+      <c r="H21" s="1" t="str">
+        <f>AL21/AI21-1</f>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1" t="str">
+        <f>AL21/Sum(AL$1:AL$37)</f>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>67</v>
+      </c>
+      <c r="O21" s="28" t="n">
+        <v>107842459.647253</v>
+      </c>
+      <c r="P21" s="28" t="n">
+        <v>82556981.5931506</v>
+      </c>
+      <c r="Q21" s="28" t="n">
+        <v>22481693.6368648</v>
+      </c>
+      <c r="R21" s="28" t="n">
+        <v>200023151.917637</v>
+      </c>
+      <c r="S21" s="28" t="n">
+        <v>266872614.610659</v>
+      </c>
+      <c r="T21" s="28" t="n">
+        <v>141816686.702248</v>
+      </c>
+      <c r="U21" s="28" t="n">
+        <v>108743826.528041</v>
+      </c>
+      <c r="V21" s="28" t="n">
+        <v>186734670.666863</v>
+      </c>
+      <c r="W21" s="28" t="n">
+        <v>322297421.472713</v>
+      </c>
+      <c r="X21" s="28" t="n">
+        <v>415406866.648108</v>
+      </c>
+      <c r="Y21" s="28" t="n">
+        <v>843276437.805503</v>
+      </c>
+      <c r="Z21" s="28" t="n">
+        <v>850814445.684947</v>
+      </c>
+      <c r="AA21" s="28" t="n">
+        <v>779688347.098058</v>
+      </c>
+      <c r="AB21" s="28" t="n">
+        <v>844398972.17768</v>
+      </c>
+      <c r="AC21" s="28" t="n">
+        <v>555036719.286072</v>
+      </c>
+      <c r="AD21" s="28" t="n">
+        <v>640698318.198843</v>
+      </c>
+      <c r="AE21" s="28" t="n">
+        <v>856909971.773057</v>
+      </c>
+      <c r="AF21" s="28" t="n">
+        <v>1127150163.91419</v>
+      </c>
+      <c r="AG21" s="28" t="n">
+        <v>813628065.877135</v>
+      </c>
+      <c r="AH21" s="28" t="n">
+        <v>1275927940.64558</v>
+      </c>
+      <c r="AI21" s="28" t="n">
+        <v>1452405988.5093</v>
+      </c>
+      <c r="AJ21" s="28" t="n">
+        <v>1087696839.05956</v>
+      </c>
+      <c r="AK21" s="28" t="n">
+        <v>1157978895.9464</v>
+      </c>
+      <c r="AL21" s="28" t="n">
+        <v>1880387533.3401</v>
+      </c>
+      <c r="AM21" s="28"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <f>M22</f>
+      </c>
+      <c r="B22" t="str">
+        <f>N22</f>
+      </c>
+      <c r="C22" s="28" t="str">
+        <f>AI22</f>
+      </c>
+      <c r="D22" s="28" t="str">
+        <f>AK22</f>
+      </c>
+      <c r="E22" s="28" t="str">
+        <f>AL22</f>
+      </c>
+      <c r="F22" s="28"/>
+      <c r="G22" s="1" t="str">
+        <f>AL22/AK22-1</f>
+      </c>
+      <c r="H22" s="1" t="str">
+        <f>AL22/AI22-1</f>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1" t="str">
+        <f>AL22/Sum(AL$1:AL$37)</f>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>68</v>
+      </c>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28" t="n">
+        <v>500949.16616074</v>
+      </c>
+      <c r="R22" s="28" t="n">
+        <v>1421347.21043611</v>
+      </c>
+      <c r="S22" s="28" t="n">
+        <v>5361383.98554956</v>
+      </c>
+      <c r="T22" s="28" t="n">
+        <v>26297114.4989143</v>
+      </c>
+      <c r="U22" s="28" t="n">
+        <v>12353385.0704913</v>
+      </c>
+      <c r="V22" s="28" t="n">
+        <v>11072724.4866451</v>
+      </c>
+      <c r="W22" s="28" t="n">
+        <v>22635387.9657976</v>
+      </c>
+      <c r="X22" s="28" t="n">
+        <v>31649377.8563304</v>
+      </c>
+      <c r="Y22" s="28" t="n">
+        <v>69082762.8801099</v>
+      </c>
+      <c r="Z22" s="28" t="n">
+        <v>128686448.144607</v>
+      </c>
+      <c r="AA22" s="28" t="n">
+        <v>325700106.458828</v>
+      </c>
+      <c r="AB22" s="28" t="n">
+        <v>278518343.995549</v>
+      </c>
+      <c r="AC22" s="28" t="n">
+        <v>144342756.273598</v>
+      </c>
+      <c r="AD22" s="28" t="n">
+        <v>118176555.747178</v>
+      </c>
+      <c r="AE22" s="28" t="n">
+        <v>94268986.8709606</v>
+      </c>
+      <c r="AF22" s="28" t="n">
+        <v>118450998.461128</v>
+      </c>
+      <c r="AG22" s="28" t="n">
+        <v>258474156.294841</v>
+      </c>
+      <c r="AH22" s="28" t="n">
+        <v>102898869.604246</v>
+      </c>
+      <c r="AI22" s="28" t="n">
+        <v>157248779.412383</v>
+      </c>
+      <c r="AJ22" s="28" t="n">
+        <v>175345363.055805</v>
+      </c>
+      <c r="AK22" s="28" t="n">
+        <v>267336269.068938</v>
+      </c>
+      <c r="AL22" s="28" t="n">
+        <v>423359381.986</v>
+      </c>
+      <c r="AM22" s="28"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <f>M23</f>
+      </c>
+      <c r="B23" t="str">
+        <f>N23</f>
+      </c>
+      <c r="C23" s="28" t="str">
+        <f>AI23</f>
+      </c>
+      <c r="D23" s="28" t="str">
+        <f>AK23</f>
+      </c>
+      <c r="E23" s="28" t="str">
+        <f>AL23</f>
+      </c>
+      <c r="F23" s="28"/>
+      <c r="G23" s="1" t="str">
+        <f>AL23/AK23-1</f>
+      </c>
+      <c r="H23" s="1" t="str">
+        <f>AL23/AI23-1</f>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1" t="str">
+        <f>AL23/Sum(AL$1:AL$37)</f>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>69</v>
+      </c>
+      <c r="O23" s="28" t="n">
+        <v>1698942072.72133</v>
+      </c>
+      <c r="P23" s="28" t="n">
+        <v>667231689.746219</v>
+      </c>
+      <c r="Q23" s="28" t="n">
+        <v>229541392.802605</v>
+      </c>
+      <c r="R23" s="28" t="n">
+        <v>486241383.126826</v>
+      </c>
+      <c r="S23" s="28" t="n">
+        <v>253193877.894965</v>
+      </c>
+      <c r="T23" s="28" t="n">
+        <v>264367639.007765</v>
+      </c>
+      <c r="U23" s="28" t="n">
+        <v>125002327.636753</v>
+      </c>
+      <c r="V23" s="28" t="n">
+        <v>150089414.363696</v>
+      </c>
+      <c r="W23" s="28" t="n">
+        <v>156376649.404194</v>
+      </c>
+      <c r="X23" s="28" t="n">
+        <v>3982384804.18903</v>
+      </c>
+      <c r="Y23" s="28" t="n">
+        <v>3740017137.84028</v>
+      </c>
+      <c r="Z23" s="28" t="n">
+        <v>4790852418.30985</v>
+      </c>
+      <c r="AA23" s="28" t="n">
+        <v>3969606632.14502</v>
+      </c>
+      <c r="AB23" s="28" t="n">
+        <v>5419853706.45371</v>
+      </c>
+      <c r="AC23" s="28" t="n">
+        <v>4333921620.52729</v>
+      </c>
+      <c r="AD23" s="28" t="n">
+        <v>2022749776.43785</v>
+      </c>
+      <c r="AE23" s="28" t="n">
+        <v>2856207823.65535</v>
+      </c>
+      <c r="AF23" s="28" t="n">
+        <v>2595727620.30149</v>
+      </c>
+      <c r="AG23" s="28" t="n">
+        <v>2650964612.30969</v>
+      </c>
+      <c r="AH23" s="28" t="n">
+        <v>3886121215.57102</v>
+      </c>
+      <c r="AI23" s="28" t="n">
+        <v>4550327597.13167</v>
+      </c>
+      <c r="AJ23" s="28" t="n">
+        <v>1931770254.10011</v>
+      </c>
+      <c r="AK23" s="28" t="n">
+        <v>2301755504.90649</v>
+      </c>
+      <c r="AL23" s="28" t="n">
+        <v>5343199818.6205</v>
+      </c>
+      <c r="AM23" s="28"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <f>M24</f>
+      </c>
+      <c r="B24" t="str">
+        <f>N24</f>
+      </c>
+      <c r="C24" s="28" t="str">
+        <f>AI24</f>
+      </c>
+      <c r="D24" s="28" t="str">
+        <f>AK24</f>
+      </c>
+      <c r="E24" s="28" t="str">
+        <f>AL24</f>
+      </c>
+      <c r="F24" s="28"/>
+      <c r="G24" s="1" t="str">
+        <f>AL24/AK24-1</f>
+      </c>
+      <c r="H24" s="1" t="str">
+        <f>AL24/AI24-1</f>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1" t="str">
+        <f>AL24/Sum(AL$1:AL$37)</f>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>70</v>
+      </c>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28" t="n">
+        <v>5539683.33692797</v>
+      </c>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28" t="n">
+        <v>6825742.08321724</v>
+      </c>
+      <c r="T24" s="28"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="28" t="n">
+        <v>6314582.84521379</v>
+      </c>
+      <c r="W24" s="28" t="n">
+        <v>35852222.5157703</v>
+      </c>
+      <c r="X24" s="28" t="n">
+        <v>86097755.4160805</v>
+      </c>
+      <c r="Y24" s="28" t="n">
+        <v>340123073.330009</v>
+      </c>
+      <c r="Z24" s="28" t="n">
+        <v>690048328.860365</v>
+      </c>
+      <c r="AA24" s="28" t="n">
+        <v>1539310026.41604</v>
+      </c>
+      <c r="AB24" s="28" t="n">
+        <v>42919830.0068344</v>
+      </c>
+      <c r="AC24" s="28" t="n">
+        <v>31864603.0937122</v>
+      </c>
+      <c r="AD24" s="28" t="n">
+        <v>128760602.731185</v>
+      </c>
+      <c r="AE24" s="28" t="n">
+        <v>129737430.059346</v>
+      </c>
+      <c r="AF24" s="28" t="n">
+        <v>104426431.698331</v>
+      </c>
+      <c r="AG24" s="28" t="n">
+        <v>70540909.6698193</v>
+      </c>
+      <c r="AH24" s="28" t="n">
+        <v>235407372.418415</v>
+      </c>
+      <c r="AI24" s="28" t="n">
+        <v>238596052.902256</v>
+      </c>
+      <c r="AJ24" s="28" t="n">
+        <v>92717804.8975845</v>
+      </c>
+      <c r="AK24" s="28" t="n">
+        <v>106530961.41211</v>
+      </c>
+      <c r="AL24" s="28" t="n">
+        <v>96650466.9706</v>
+      </c>
+      <c r="AM24" s="28"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <f>M25</f>
+      </c>
+      <c r="B25" t="str">
+        <f>N25</f>
+      </c>
+      <c r="C25" s="28" t="str">
+        <f>AI25</f>
+      </c>
+      <c r="D25" s="28" t="str">
+        <f>AK25</f>
+      </c>
+      <c r="E25" s="28" t="str">
+        <f>AL25</f>
+      </c>
+      <c r="F25" s="28"/>
+      <c r="G25" s="1" t="str">
+        <f>AL25/AK25-1</f>
+      </c>
+      <c r="H25" s="1" t="str">
+        <f>AL25/AI25-1</f>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1" t="str">
+        <f>AL25/Sum(AL$1:AL$37)</f>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>58</v>
+      </c>
+      <c r="O25" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28" t="n">
+        <v>459601.468371854</v>
+      </c>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="28" t="n">
+        <v>-137465.716340228</v>
+      </c>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="28"/>
+      <c r="AA25" s="28"/>
+      <c r="AB25" s="28"/>
+      <c r="AC25" s="28"/>
+      <c r="AD25" s="28"/>
+      <c r="AE25" s="28"/>
+      <c r="AF25" s="28" t="n">
+        <v>24414.0000046899</v>
+      </c>
+      <c r="AG25" s="28" t="n">
+        <v>-278246.133397523</v>
+      </c>
+      <c r="AH25" s="28"/>
+      <c r="AI25" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="28"/>
+      <c r="AK25" s="28"/>
+      <c r="AL25" s="28"/>
+      <c r="AM25" s="28"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <f>M26</f>
+      </c>
+      <c r="B26" t="str">
+        <f>N26</f>
+      </c>
+      <c r="C26" s="28" t="str">
+        <f>AI26</f>
+      </c>
+      <c r="D26" s="28" t="str">
+        <f>AK26</f>
+      </c>
+      <c r="E26" s="28" t="str">
+        <f>AL26</f>
+      </c>
+      <c r="F26" s="28"/>
+      <c r="G26" s="1" t="str">
+        <f>AL26/AK26-1</f>
+      </c>
+      <c r="H26" s="1" t="str">
+        <f>AL26/AI26-1</f>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1" t="str">
+        <f>AL26/Sum(AL$1:AL$37)</f>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="M26"/>
+      <c r="N26" t="s">
+        <v>60</v>
+      </c>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28" t="n">
+        <v>88782.6081063167</v>
+      </c>
+      <c r="R26" s="28" t="n">
+        <v>58740.4359506725</v>
+      </c>
+      <c r="S26" s="28" t="n">
+        <v>58473.3406997969</v>
+      </c>
+      <c r="T26" s="28" t="n">
+        <v>65540.7904377821</v>
+      </c>
+      <c r="U26" s="28" t="n">
+        <v>2388344.07513449</v>
+      </c>
+      <c r="V26" s="28" t="n">
+        <v>1028052.53095425</v>
+      </c>
+      <c r="W26" s="28" t="n">
+        <v>5732552.80384665</v>
+      </c>
+      <c r="X26" s="28" t="n">
+        <v>612129733.265517</v>
+      </c>
+      <c r="Y26" s="28" t="n">
+        <v>2318978099.51455</v>
+      </c>
+      <c r="Z26" s="28" t="n">
+        <v>4076742626.7202</v>
+      </c>
+      <c r="AA26" s="28" t="n">
+        <v>6670588645.54964</v>
+      </c>
+      <c r="AB26" s="28" t="n">
+        <v>7821366508.605</v>
+      </c>
+      <c r="AC26" s="28" t="n">
+        <v>7270226157.10031</v>
+      </c>
+      <c r="AD26" s="28" t="n">
+        <v>8380826025.0685</v>
+      </c>
+      <c r="AE26" s="28" t="n">
+        <v>8419411546.72308</v>
+      </c>
+      <c r="AF26" s="28" t="n">
+        <v>10386011014.295</v>
+      </c>
+      <c r="AG26" s="28" t="n">
+        <v>13393000116.2458</v>
+      </c>
+      <c r="AH26" s="28" t="n">
+        <v>12007101903.2371</v>
+      </c>
+      <c r="AI26" s="28" t="n">
+        <v>9471941480.27614</v>
+      </c>
+      <c r="AJ26" s="28" t="n">
+        <v>10400930530.9528</v>
+      </c>
+      <c r="AK26" s="28" t="n">
+        <v>10705051157.1382</v>
+      </c>
+      <c r="AL26" s="28" t="n">
+        <v>9794733268.5566</v>
+      </c>
+      <c r="AM26" s="28"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <f>M27</f>
+      </c>
+      <c r="B27" t="str">
+        <f>N27</f>
+      </c>
+      <c r="C27" s="28" t="str">
+        <f>AI27</f>
+      </c>
+      <c r="D27" s="28" t="str">
+        <f>AK27</f>
+      </c>
+      <c r="E27" s="28" t="str">
+        <f>AL27</f>
+      </c>
+      <c r="F27" s="28"/>
+      <c r="G27" s="1" t="str">
+        <f>AL27/AK27-1</f>
+      </c>
+      <c r="H27" s="1" t="str">
+        <f>AL27/AI27-1</f>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1" t="str">
+        <f>AL27/Sum(AL$1:AL$37)</f>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="M27"/>
+      <c r="N27" t="s">
+        <v>61</v>
+      </c>
+      <c r="O27" s="28" t="n">
+        <v>121901.546037816</v>
+      </c>
+      <c r="P27" s="28" t="n">
+        <v>155279.178538003</v>
+      </c>
+      <c r="Q27" s="28" t="n">
+        <v>38954903.1404768</v>
+      </c>
+      <c r="R27" s="28" t="n">
+        <v>402926282.031057</v>
+      </c>
+      <c r="S27" s="28" t="n">
+        <v>483048973.991048</v>
+      </c>
+      <c r="T27" s="28" t="n">
+        <v>734028.714018279</v>
+      </c>
+      <c r="U27" s="28" t="n">
+        <v>115586018.057399</v>
+      </c>
+      <c r="V27" s="28" t="n">
+        <v>4491438.38510094</v>
+      </c>
+      <c r="W27" s="28" t="n">
+        <v>39356243.9821647</v>
+      </c>
+      <c r="X27" s="28" t="n">
+        <v>1191034547.82878</v>
+      </c>
+      <c r="Y27" s="28" t="n">
+        <v>5555807016.97248</v>
+      </c>
+      <c r="Z27" s="28" t="n">
+        <v>6186452913.57098</v>
+      </c>
+      <c r="AA27" s="28" t="n">
+        <v>6824042605.09828</v>
+      </c>
+      <c r="AB27" s="28" t="n">
+        <v>6133664404.0626</v>
+      </c>
+      <c r="AC27" s="28" t="n">
+        <v>6894375367.19155</v>
+      </c>
+      <c r="AD27" s="28" t="n">
+        <v>7488775559.49069</v>
+      </c>
+      <c r="AE27" s="28" t="n">
+        <v>9265311179.078</v>
+      </c>
+      <c r="AF27" s="28" t="n">
+        <v>9920156725.62689</v>
+      </c>
+      <c r="AG27" s="28" t="n">
+        <v>10705026502.6295</v>
+      </c>
+      <c r="AH27" s="28" t="n">
+        <v>12052534955.6319</v>
+      </c>
+      <c r="AI27" s="28" t="n">
+        <v>13930985991.5944</v>
+      </c>
+      <c r="AJ27" s="28" t="n">
+        <v>13101671327.0954</v>
+      </c>
+      <c r="AK27" s="28" t="n">
+        <v>13457736778.8239</v>
+      </c>
+      <c r="AL27" s="28" t="n">
+        <v>14665170959.18</v>
+      </c>
+      <c r="AM27" s="28"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <f>M28</f>
+      </c>
+      <c r="B28" t="str">
+        <f>N28</f>
+      </c>
+      <c r="C28" s="28" t="str">
+        <f>AI28</f>
+      </c>
+      <c r="D28" s="28" t="str">
+        <f>AK28</f>
+      </c>
+      <c r="E28" s="28" t="str">
+        <f>AL28</f>
+      </c>
+      <c r="F28" s="28"/>
+      <c r="G28" s="1" t="str">
+        <f>AL28/AK28-1</f>
+      </c>
+      <c r="H28" s="1" t="str">
+        <f>AL28/AI28-1</f>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1" t="str">
+        <f>AL28/Sum(AL$1:AL$37)</f>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="M28"/>
+      <c r="N28" t="s">
+        <v>62</v>
+      </c>
+      <c r="O28" s="28" t="n">
+        <v>39537.1635171595</v>
+      </c>
+      <c r="P28" s="28" t="n">
+        <v>11857.3844225089</v>
+      </c>
+      <c r="Q28" s="28" t="n">
+        <v>213090.524371351</v>
+      </c>
+      <c r="R28" s="28" t="n">
+        <v>331823.612037028</v>
+      </c>
+      <c r="S28" s="28" t="n">
+        <v>132363217.068347</v>
+      </c>
+      <c r="T28" s="28" t="n">
+        <v>284576013.958451</v>
+      </c>
+      <c r="U28" s="28" t="n">
+        <v>14145804.3832542</v>
+      </c>
+      <c r="V28" s="28" t="n">
+        <v>8062053.05121426</v>
+      </c>
+      <c r="W28" s="28" t="n">
+        <v>26186628.4295973</v>
+      </c>
+      <c r="X28" s="28" t="n">
+        <v>1548408015.84414</v>
+      </c>
+      <c r="Y28" s="28" t="n">
+        <v>6598927086.25821</v>
+      </c>
+      <c r="Z28" s="28" t="n">
+        <v>6477280270.35404</v>
+      </c>
+      <c r="AA28" s="28" t="n">
+        <v>5169838758.34336</v>
+      </c>
+      <c r="AB28" s="28" t="n">
+        <v>3545325371.11388</v>
+      </c>
+      <c r="AC28" s="28" t="n">
+        <v>3732250779.61309</v>
+      </c>
+      <c r="AD28" s="28" t="n">
+        <v>2968378868.42426</v>
+      </c>
+      <c r="AE28" s="28" t="n">
+        <v>3054444771.22353</v>
+      </c>
+      <c r="AF28" s="28" t="n">
+        <v>2940142196.06581</v>
+      </c>
+      <c r="AG28" s="28" t="n">
+        <v>4266759374.85061</v>
+      </c>
+      <c r="AH28" s="28" t="n">
+        <v>3229821040.63068</v>
+      </c>
+      <c r="AI28" s="28" t="n">
+        <v>3410731278.66021</v>
+      </c>
+      <c r="AJ28" s="28" t="n">
+        <v>3165545608.12906</v>
+      </c>
+      <c r="AK28" s="28" t="n">
+        <v>3112302096.41636</v>
+      </c>
+      <c r="AL28" s="28" t="n">
+        <v>3822091228.2961</v>
+      </c>
+      <c r="AM28" s="28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <f>M29</f>
+      </c>
+      <c r="B29" t="str">
+        <f>N29</f>
+      </c>
+      <c r="C29" s="28" t="str">
+        <f>AI29</f>
+      </c>
+      <c r="D29" s="28" t="str">
+        <f>AK29</f>
+      </c>
+      <c r="E29" s="28" t="str">
+        <f>AL29</f>
+      </c>
+      <c r="F29" s="28"/>
+      <c r="G29" s="1" t="str">
+        <f>AL29/AK29-1</f>
+      </c>
+      <c r="H29" s="1" t="str">
+        <f>AL29/AI29-1</f>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1" t="str">
+        <f>AL29/Sum(AL$1:AL$37)</f>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="M29"/>
+      <c r="N29" t="s">
+        <v>63</v>
+      </c>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28" t="n">
+        <v>35220.0114371892</v>
+      </c>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="28" t="n">
+        <v>27016.2523782265</v>
+      </c>
+      <c r="S29" s="28" t="n">
+        <v>9566940.03588217</v>
+      </c>
+      <c r="T29" s="28" t="n">
+        <v>404096.625943742</v>
+      </c>
+      <c r="U29" s="28" t="n">
+        <v>121714664.317684</v>
+      </c>
+      <c r="V29" s="28" t="n">
+        <v>60068899.9211299</v>
+      </c>
+      <c r="W29" s="28" t="n">
+        <v>87589971.6929088</v>
+      </c>
+      <c r="X29" s="28" t="n">
+        <v>170288877.448139</v>
+      </c>
+      <c r="Y29" s="28" t="n">
+        <v>1043831364.74133</v>
+      </c>
+      <c r="Z29" s="28" t="n">
+        <v>2087004692.18305</v>
+      </c>
+      <c r="AA29" s="28" t="n">
+        <v>1613503047.68528</v>
+      </c>
+      <c r="AB29" s="28" t="n">
+        <v>771094724.499151</v>
+      </c>
+      <c r="AC29" s="28" t="n">
+        <v>924076708.160585</v>
+      </c>
+      <c r="AD29" s="28" t="n">
+        <v>899764329.80243</v>
+      </c>
+      <c r="AE29" s="28" t="n">
+        <v>730015167.49964</v>
+      </c>
+      <c r="AF29" s="28" t="n">
+        <v>736481338.920816</v>
+      </c>
+      <c r="AG29" s="28" t="n">
+        <v>1166953025.36129</v>
+      </c>
+      <c r="AH29" s="28" t="n">
+        <v>1076411753.88416</v>
+      </c>
+      <c r="AI29" s="28" t="n">
+        <v>951577789.067674</v>
+      </c>
+      <c r="AJ29" s="28" t="n">
+        <v>783441410.4828</v>
+      </c>
+      <c r="AK29" s="28" t="n">
+        <v>632140291.083439</v>
+      </c>
+      <c r="AL29" s="28" t="n">
+        <v>849695860.3289</v>
+      </c>
+      <c r="AM29" s="28"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <f>M30</f>
+      </c>
+      <c r="B30" t="str">
+        <f>N30</f>
+      </c>
+      <c r="C30" s="28" t="str">
+        <f>AI30</f>
+      </c>
+      <c r="D30" s="28" t="str">
+        <f>AK30</f>
+      </c>
+      <c r="E30" s="28" t="str">
+        <f>AL30</f>
+      </c>
+      <c r="F30" s="28"/>
+      <c r="G30" s="1" t="str">
+        <f>AL30/AK30-1</f>
+      </c>
+      <c r="H30" s="1" t="str">
+        <f>AL30/AI30-1</f>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1" t="str">
+        <f>AL30/Sum(AL$1:AL$37)</f>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="M30"/>
+      <c r="N30" t="s">
+        <v>64</v>
+      </c>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="28"/>
+      <c r="T30" s="28"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="28"/>
+      <c r="W30" s="28" t="n">
+        <v>20801.6657432797</v>
+      </c>
+      <c r="X30" s="28" t="n">
+        <v>4385631.43219983</v>
+      </c>
+      <c r="Y30" s="28" t="n">
+        <v>5711568.77602996</v>
+      </c>
+      <c r="Z30" s="28" t="n">
+        <v>42944578.3947859</v>
+      </c>
+      <c r="AA30" s="28" t="n">
+        <v>163327830.031058</v>
+      </c>
+      <c r="AB30" s="28" t="n">
+        <v>196775001.378034</v>
+      </c>
+      <c r="AC30" s="28" t="n">
+        <v>288532606.074592</v>
+      </c>
+      <c r="AD30" s="28" t="n">
+        <v>287019832.243438</v>
+      </c>
+      <c r="AE30" s="28" t="n">
+        <v>411567244.282609</v>
+      </c>
+      <c r="AF30" s="28" t="n">
+        <v>327849685.856822</v>
+      </c>
+      <c r="AG30" s="28" t="n">
+        <v>316973809.605532</v>
+      </c>
+      <c r="AH30" s="28" t="n">
+        <v>345110208.004501</v>
+      </c>
+      <c r="AI30" s="28" t="n">
+        <v>304719580.443848</v>
+      </c>
+      <c r="AJ30" s="28" t="n">
+        <v>256606038.770676</v>
+      </c>
+      <c r="AK30" s="28" t="n">
+        <v>211019393.141999</v>
+      </c>
+      <c r="AL30" s="28" t="n">
+        <v>187846087.1899</v>
+      </c>
+      <c r="AM30" s="28"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <f>M31</f>
+      </c>
+      <c r="B31" t="str">
+        <f>N31</f>
+      </c>
+      <c r="C31" s="28" t="str">
+        <f>AI31</f>
+      </c>
+      <c r="D31" s="28" t="str">
+        <f>AK31</f>
+      </c>
+      <c r="E31" s="28" t="str">
+        <f>AL31</f>
+      </c>
+      <c r="F31" s="28"/>
+      <c r="G31" s="1" t="str">
+        <f>AL31/AK31-1</f>
+      </c>
+      <c r="H31" s="1" t="str">
+        <f>AL31/AI31-1</f>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1" t="str">
+        <f>AL31/Sum(AL$1:AL$37)</f>
+      </c>
+      <c r="K31" s="1"/>
+      <c r="M31"/>
+      <c r="N31" t="s">
+        <v>65</v>
+      </c>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28" t="n">
+        <v>22404.9414960198</v>
+      </c>
+      <c r="Q31" s="28" t="n">
+        <v>130795.241740486</v>
+      </c>
+      <c r="R31" s="28" t="n">
+        <v>3183326.83939643</v>
+      </c>
+      <c r="S31" s="28" t="n">
+        <v>2184070.18723811</v>
+      </c>
+      <c r="T31" s="28"/>
+      <c r="U31" s="28" t="n">
+        <v>-8172.94364349171</v>
+      </c>
+      <c r="V31" s="28" t="n">
+        <v>80537.598800247</v>
+      </c>
+      <c r="W31" s="28" t="n">
+        <v>14627579.714907</v>
+      </c>
+      <c r="X31" s="28" t="n">
+        <v>193597676.828593</v>
+      </c>
+      <c r="Y31" s="28" t="n">
+        <v>513721198.980414</v>
+      </c>
+      <c r="Z31" s="28" t="n">
+        <v>572520050.77653</v>
+      </c>
+      <c r="AA31" s="28" t="n">
+        <v>643921169.835762</v>
+      </c>
+      <c r="AB31" s="28" t="n">
+        <v>364884455.265084</v>
+      </c>
+      <c r="AC31" s="28" t="n">
+        <v>439364195.845513</v>
+      </c>
+      <c r="AD31" s="28" t="n">
+        <v>451062390.72536</v>
+      </c>
+      <c r="AE31" s="28" t="n">
+        <v>699929880.569686</v>
+      </c>
+      <c r="AF31" s="28" t="n">
+        <v>1011776485.77272</v>
+      </c>
+      <c r="AG31" s="28" t="n">
+        <v>979217228.180228</v>
+      </c>
+      <c r="AH31" s="28" t="n">
+        <v>971937109.404067</v>
+      </c>
+      <c r="AI31" s="28" t="n">
+        <v>787594377.744917</v>
+      </c>
+      <c r="AJ31" s="28" t="n">
+        <v>565931396.048196</v>
+      </c>
+      <c r="AK31" s="28" t="n">
+        <v>543300908.795098</v>
+      </c>
+      <c r="AL31" s="28" t="n">
+        <v>763142293.0524</v>
+      </c>
+      <c r="AM31" s="28"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <f>M32</f>
+      </c>
+      <c r="B32" t="str">
+        <f>N32</f>
+      </c>
+      <c r="C32" s="28" t="str">
+        <f>AI32</f>
+      </c>
+      <c r="D32" s="28" t="str">
+        <f>AK32</f>
+      </c>
+      <c r="E32" s="28" t="str">
+        <f>AL32</f>
+      </c>
+      <c r="F32" s="28"/>
+      <c r="G32" s="1" t="str">
+        <f>AL32/AK32-1</f>
+      </c>
+      <c r="H32" s="1" t="str">
+        <f>AL32/AI32-1</f>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1" t="str">
+        <f>AL32/Sum(AL$1:AL$37)</f>
+      </c>
+      <c r="K32" s="1"/>
+      <c r="M32"/>
+      <c r="N32" t="s">
+        <v>66</v>
+      </c>
+      <c r="O32" s="28" t="n">
+        <v>44356.2300636898</v>
+      </c>
+      <c r="P32" s="28" t="n">
+        <v>24834.1952259912</v>
+      </c>
+      <c r="Q32" s="28" t="n">
+        <v>1977.94122380886</v>
+      </c>
+      <c r="R32" s="28" t="n">
+        <v>85721.7278551064</v>
+      </c>
+      <c r="S32" s="28" t="n">
+        <v>1162156.27633252</v>
+      </c>
+      <c r="T32" s="28" t="n">
+        <v>825135.011793281</v>
+      </c>
+      <c r="U32" s="28" t="n">
+        <v>3322219.55686801</v>
+      </c>
+      <c r="V32" s="28" t="n">
+        <v>101593.614081384</v>
+      </c>
+      <c r="W32" s="28" t="n">
+        <v>9341551.93573075</v>
+      </c>
+      <c r="X32" s="28" t="n">
+        <v>1152622965.70966</v>
+      </c>
+      <c r="Y32" s="28" t="n">
+        <v>3089466560.40175</v>
+      </c>
+      <c r="Z32" s="28" t="n">
+        <v>2992576365.33954</v>
+      </c>
+      <c r="AA32" s="28" t="n">
+        <v>2490260083.24563</v>
+      </c>
+      <c r="AB32" s="28" t="n">
+        <v>2627181365.63245</v>
+      </c>
+      <c r="AC32" s="28" t="n">
+        <v>2375363852.43009</v>
+      </c>
+      <c r="AD32" s="28" t="n">
+        <v>2334217042.54905</v>
+      </c>
+      <c r="AE32" s="28" t="n">
+        <v>2171279379.85528</v>
+      </c>
+      <c r="AF32" s="28" t="n">
+        <v>2246374419.64007</v>
+      </c>
+      <c r="AG32" s="28" t="n">
+        <v>2921101985.13095</v>
+      </c>
+      <c r="AH32" s="28" t="n">
+        <v>2259755968.22502</v>
+      </c>
+      <c r="AI32" s="28" t="n">
+        <v>2149429816.63024</v>
+      </c>
+      <c r="AJ32" s="28" t="n">
+        <v>1786279013.91066</v>
+      </c>
+      <c r="AK32" s="28" t="n">
+        <v>1826965555.36117</v>
+      </c>
+      <c r="AL32" s="28" t="n">
+        <v>2668142061.7994</v>
+      </c>
+      <c r="AM32" s="28"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <f>M33</f>
+      </c>
+      <c r="B33" t="str">
+        <f>N33</f>
+      </c>
+      <c r="C33" s="28" t="str">
+        <f>AI33</f>
+      </c>
+      <c r="D33" s="28" t="str">
+        <f>AK33</f>
+      </c>
+      <c r="E33" s="28" t="str">
+        <f>AL33</f>
+      </c>
+      <c r="F33" s="28"/>
+      <c r="G33" s="1" t="str">
+        <f>AL33/AK33-1</f>
+      </c>
+      <c r="H33" s="1" t="str">
+        <f>AL33/AI33-1</f>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1" t="str">
+        <f>AL33/Sum(AL$1:AL$37)</f>
+      </c>
+      <c r="K33" s="1"/>
+      <c r="M33"/>
+      <c r="N33" t="s">
+        <v>67</v>
+      </c>
+      <c r="O33" s="28" t="n">
+        <v>34094.1963771208</v>
+      </c>
+      <c r="P33" s="28" t="n">
+        <v>43297.6233035028</v>
+      </c>
+      <c r="Q33" s="28" t="n">
+        <v>3231.93010426284</v>
+      </c>
+      <c r="R33" s="28" t="n">
+        <v>109639.440117756</v>
+      </c>
+      <c r="S33" s="28" t="n">
+        <v>89702.1806809532</v>
+      </c>
+      <c r="T33" s="28" t="n">
+        <v>2102905.86921693</v>
+      </c>
+      <c r="U33" s="28" t="n">
+        <v>2792969.62515505</v>
+      </c>
+      <c r="V33" s="28" t="n">
+        <v>774194.50053328</v>
+      </c>
+      <c r="W33" s="28" t="n">
+        <v>4568091.23544807</v>
+      </c>
+      <c r="X33" s="28" t="n">
+        <v>392529038.768772</v>
+      </c>
+      <c r="Y33" s="28" t="n">
+        <v>2039932625.55851</v>
+      </c>
+      <c r="Z33" s="28" t="n">
+        <v>2730828412.32614</v>
+      </c>
+      <c r="AA33" s="28" t="n">
+        <v>3108485908.55767</v>
+      </c>
+      <c r="AB33" s="28" t="n">
+        <v>2922572734.76019</v>
+      </c>
+      <c r="AC33" s="28" t="n">
+        <v>3366537187.70226</v>
+      </c>
+      <c r="AD33" s="28" t="n">
+        <v>3684599738.1382</v>
+      </c>
+      <c r="AE33" s="28" t="n">
+        <v>4167357876.89657</v>
+      </c>
+      <c r="AF33" s="28" t="n">
+        <v>4584510678.82899</v>
+      </c>
+      <c r="AG33" s="28" t="n">
+        <v>4440562919.42043</v>
+      </c>
+      <c r="AH33" s="28" t="n">
+        <v>5041285251.75421</v>
+      </c>
+      <c r="AI33" s="28" t="n">
+        <v>5194831825.99352</v>
+      </c>
+      <c r="AJ33" s="28" t="n">
+        <v>5003627562.93249</v>
+      </c>
+      <c r="AK33" s="28" t="n">
+        <v>4203547954.81404</v>
+      </c>
+      <c r="AL33" s="28" t="n">
+        <v>5314455357.6316</v>
+      </c>
+      <c r="AM33" s="28"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <f>M34</f>
+      </c>
+      <c r="B34" t="str">
+        <f>N34</f>
+      </c>
+      <c r="C34" s="28" t="str">
+        <f>AI34</f>
+      </c>
+      <c r="D34" s="28" t="str">
+        <f>AK34</f>
+      </c>
+      <c r="E34" s="28" t="str">
+        <f>AL34</f>
+      </c>
+      <c r="F34" s="28"/>
+      <c r="G34" s="1" t="str">
+        <f>AL34/AK34-1</f>
+      </c>
+      <c r="H34" s="1" t="str">
+        <f>AL34/AI34-1</f>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1" t="str">
+        <f>AL34/Sum(AL$1:AL$37)</f>
+      </c>
+      <c r="K34" s="1"/>
+      <c r="M34"/>
+      <c r="N34" t="s">
+        <v>68</v>
+      </c>
+      <c r="O34" s="28"/>
+      <c r="P34" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="28"/>
+      <c r="R34" s="28" t="n">
+        <v>78650.4027061392</v>
+      </c>
+      <c r="S34" s="28" t="n">
+        <v>1335628.77350029</v>
+      </c>
+      <c r="T34" s="28" t="n">
+        <v>311256.255400325</v>
+      </c>
+      <c r="U34" s="28" t="n">
+        <v>540073.902612377</v>
+      </c>
+      <c r="V34" s="28" t="n">
+        <v>321444.048514667</v>
+      </c>
+      <c r="W34" s="28" t="n">
+        <v>4625463.0552281</v>
+      </c>
+      <c r="X34" s="28" t="n">
+        <v>71395653.1316492</v>
+      </c>
+      <c r="Y34" s="28" t="n">
+        <v>4190230205.715</v>
+      </c>
+      <c r="Z34" s="28" t="n">
+        <v>2527296847.05199</v>
+      </c>
+      <c r="AA34" s="28" t="n">
+        <v>1693208879.73707</v>
+      </c>
+      <c r="AB34" s="28" t="n">
+        <v>1343758410.90124</v>
+      </c>
+      <c r="AC34" s="28" t="n">
+        <v>1761952167.05773</v>
+      </c>
+      <c r="AD34" s="28" t="n">
+        <v>1671169337.45091</v>
+      </c>
+      <c r="AE34" s="28" t="n">
+        <v>1976663244.44468</v>
+      </c>
+      <c r="AF34" s="28" t="n">
+        <v>2455367162.96736</v>
+      </c>
+      <c r="AG34" s="28" t="n">
+        <v>2929681898.88994</v>
+      </c>
+      <c r="AH34" s="28" t="n">
+        <v>2730325001.58468</v>
+      </c>
+      <c r="AI34" s="28" t="n">
+        <v>3082715782.99036</v>
+      </c>
+      <c r="AJ34" s="28" t="n">
+        <v>2460198571.08159</v>
+      </c>
+      <c r="AK34" s="28" t="n">
+        <v>2374115033.23245</v>
+      </c>
+      <c r="AL34" s="28" t="n">
+        <v>2240772265.4566</v>
+      </c>
+      <c r="AM34" s="28"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <f>M35</f>
+      </c>
+      <c r="B35" t="str">
+        <f>N35</f>
+      </c>
+      <c r="C35" s="28" t="str">
+        <f>AI35</f>
+      </c>
+      <c r="D35" s="28" t="str">
+        <f>AK35</f>
+      </c>
+      <c r="E35" s="28" t="str">
+        <f>AL35</f>
+      </c>
+      <c r="F35" s="28"/>
+      <c r="G35" s="1" t="str">
+        <f>AL35/AK35-1</f>
+      </c>
+      <c r="H35" s="1" t="str">
+        <f>AL35/AI35-1</f>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1" t="str">
+        <f>AL35/Sum(AL$1:AL$37)</f>
+      </c>
+      <c r="K35" s="1"/>
+      <c r="M35"/>
+      <c r="N35" t="s">
+        <v>69</v>
+      </c>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="28"/>
+      <c r="S35" s="28" t="n">
+        <v>90762.380376701</v>
+      </c>
+      <c r="T35" s="28" t="n">
+        <v>38174.0993192643</v>
+      </c>
+      <c r="U35" s="28" t="n">
+        <v>25296.8727560127</v>
+      </c>
+      <c r="V35" s="28" t="n">
+        <v>28327.7297134271</v>
+      </c>
+      <c r="W35" s="28" t="n">
+        <v>1939292.5513807</v>
+      </c>
+      <c r="X35" s="28" t="n">
+        <v>74074441.659049</v>
+      </c>
+      <c r="Y35" s="28" t="n">
+        <v>985640029.965081</v>
+      </c>
+      <c r="Z35" s="28" t="n">
+        <v>1415271534.38846</v>
+      </c>
+      <c r="AA35" s="28" t="n">
+        <v>1522249504.59586</v>
+      </c>
+      <c r="AB35" s="28" t="n">
+        <v>1628913012.44509</v>
+      </c>
+      <c r="AC35" s="28" t="n">
+        <v>2008659725.34528</v>
+      </c>
+      <c r="AD35" s="28" t="n">
+        <v>1917770730.406</v>
+      </c>
+      <c r="AE35" s="28" t="n">
+        <v>1825389562.69747</v>
+      </c>
+      <c r="AF35" s="28" t="n">
+        <v>1763806059.26269</v>
+      </c>
+      <c r="AG35" s="28" t="n">
+        <v>2258094248.31883</v>
+      </c>
+      <c r="AH35" s="28" t="n">
+        <v>1999826373.27885</v>
+      </c>
+      <c r="AI35" s="28" t="n">
+        <v>1490895103.15333</v>
+      </c>
+      <c r="AJ35" s="28" t="n">
+        <v>1575600990.50541</v>
+      </c>
+      <c r="AK35" s="28" t="n">
+        <v>1706764968.4498</v>
+      </c>
+      <c r="AL35" s="28" t="n">
+        <v>1176812391.9736</v>
+      </c>
+      <c r="AM35" s="28"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <f>M36</f>
+      </c>
+      <c r="B36" t="str">
+        <f>N36</f>
+      </c>
+      <c r="C36" s="28" t="str">
+        <f>AI36</f>
+      </c>
+      <c r="D36" s="28" t="str">
+        <f>AK36</f>
+      </c>
+      <c r="E36" s="28" t="str">
+        <f>AL36</f>
+      </c>
+      <c r="F36" s="28"/>
+      <c r="G36" s="1" t="str">
+        <f>AL36/AK36-1</f>
+      </c>
+      <c r="H36" s="1" t="str">
+        <f>AL36/AI36-1</f>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1" t="str">
+        <f>AL36/Sum(AL$1:AL$37)</f>
+      </c>
+      <c r="K36" s="1"/>
+      <c r="M36"/>
+      <c r="N36" t="s">
+        <v>70</v>
+      </c>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="28"/>
+      <c r="T36" s="28"/>
+      <c r="U36" s="28" t="n">
+        <v>78048.5698650646</v>
+      </c>
+      <c r="V36" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" s="28" t="n">
+        <v>8681.10340283808</v>
+      </c>
+      <c r="X36" s="28" t="n">
+        <v>4660614.01923905</v>
+      </c>
+      <c r="Y36" s="28" t="n">
+        <v>48781465.3749677</v>
+      </c>
+      <c r="Z36" s="28" t="n">
+        <v>43375404.0815239</v>
+      </c>
+      <c r="AA36" s="28" t="n">
+        <v>60444442.2066983</v>
+      </c>
+      <c r="AB36" s="28" t="n">
+        <v>81108748.8727496</v>
+      </c>
+      <c r="AC36" s="28" t="n">
+        <v>73215923.2150877</v>
+      </c>
+      <c r="AD36" s="28" t="n">
+        <v>44068841.4941145</v>
+      </c>
+      <c r="AE36" s="28" t="n">
+        <v>51188952.6455068</v>
+      </c>
+      <c r="AF36" s="28" t="n">
+        <v>31923929.028834</v>
+      </c>
+      <c r="AG36" s="28" t="n">
+        <v>13801966.3770497</v>
+      </c>
+      <c r="AH36" s="28" t="n">
+        <v>37055967.4610133</v>
+      </c>
+      <c r="AI36" s="28" t="n">
+        <v>8673963.87083551</v>
+      </c>
+      <c r="AJ36" s="28" t="n">
+        <v>1859473.97107768</v>
+      </c>
+      <c r="AK36" s="28" t="n">
+        <v>5150671.7791419</v>
+      </c>
+      <c r="AL36" s="28" t="n">
+        <v>9018123.405</v>
+      </c>
+      <c r="AM36" s="28"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <f>M37</f>
+      </c>
+      <c r="B37" t="str">
+        <f>N37</f>
+      </c>
+      <c r="C37" s="28" t="str">
+        <f>AI37</f>
+      </c>
+      <c r="D37" s="28" t="str">
+        <f>AK37</f>
+      </c>
+      <c r="E37" s="28" t="str">
+        <f>AL37</f>
+      </c>
+      <c r="F37" s="28"/>
+      <c r="G37" s="1" t="str">
+        <f>AL37/AK37-1</f>
+      </c>
+      <c r="H37" s="1" t="str">
+        <f>AL37/AI37-1</f>
+      </c>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1" t="str">
+        <f>AL37/Sum(AL$1:AL$37)</f>
+      </c>
+      <c r="K37" s="1"/>
+      <c r="M37"/>
+      <c r="N37" t="s">
+        <v>58</v>
+      </c>
+      <c r="O37" s="28" t="n">
+        <v>147956.539710947</v>
+      </c>
+      <c r="P37" s="28" t="n">
+        <v>283964.776313332</v>
+      </c>
+      <c r="Q37" s="28" t="n">
+        <v>579975.513087649</v>
+      </c>
+      <c r="R37" s="28" t="n">
+        <v>121760.900734853</v>
+      </c>
+      <c r="S37" s="28" t="n">
+        <v>20662.2860412155</v>
+      </c>
+      <c r="T37" s="28"/>
+      <c r="U37" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" s="28"/>
+      <c r="W37" s="28"/>
+      <c r="X37" s="28"/>
+      <c r="Y37" s="28" t="n">
+        <v>-25428.8904879254</v>
+      </c>
+      <c r="Z37" s="28" t="n">
+        <v>-48577.7752125464</v>
+      </c>
+      <c r="AA37" s="28" t="n">
+        <v>-1412.65160243094</v>
+      </c>
+      <c r="AB37" s="28" t="n">
+        <v>-10944.1296577568</v>
+      </c>
+      <c r="AC37" s="28"/>
+      <c r="AD37" s="28" t="n">
+        <v>37536.9003683804</v>
+      </c>
+      <c r="AE37" s="28" t="n">
+        <v>2157.67476297287</v>
+      </c>
+      <c r="AF37" s="28" t="n">
+        <v>1633115.93671372</v>
+      </c>
+      <c r="AG37" s="28" t="n">
+        <v>24128.2435797438</v>
+      </c>
+      <c r="AH37" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="28" t="n">
+        <v>11573.9072704938</v>
+      </c>
+      <c r="AJ37" s="28" t="n">
+        <v>11188.817598517</v>
+      </c>
+      <c r="AK37" s="28" t="n">
+        <v>963216.022693404</v>
+      </c>
+      <c r="AL37" s="28" t="n">
+        <v>2440814.9855</v>
+      </c>
+      <c r="AM37" s="28"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <f>M38</f>
+      </c>
+      <c r="B38" t="str">
+        <f>N38</f>
+      </c>
+      <c r="C38" s="28" t="str">
+        <f>AI38</f>
+      </c>
+      <c r="D38" s="28" t="str">
+        <f>AK38</f>
+      </c>
+      <c r="E38" s="28" t="str">
+        <f>AL38</f>
+      </c>
+      <c r="F38" s="28"/>
+      <c r="G38" s="1" t="str">
+        <f>AL38/AK38-1</f>
+      </c>
+      <c r="H38" s="1" t="str">
+        <f>AL38/AI38-1</f>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1" t="str">
+        <f>Sum(J$1:J$37)</f>
+      </c>
+      <c r="K38" s="1"/>
+      <c r="M38" t="s">
+        <v>46</v>
+      </c>
+      <c r="N38" t="s">
+        <v>47</v>
+      </c>
+      <c r="O38" s="28" t="str">
+        <f>Sum(O2:O37)</f>
+      </c>
+      <c r="P38" s="28" t="str">
+        <f>Sum(P2:P37)</f>
+      </c>
+      <c r="Q38" s="28" t="str">
+        <f>Sum(Q2:Q37)</f>
+      </c>
+      <c r="R38" s="28" t="str">
+        <f>Sum(R2:R37)</f>
+      </c>
+      <c r="S38" s="28" t="str">
+        <f>Sum(S2:S37)</f>
+      </c>
+      <c r="T38" s="28" t="str">
+        <f>Sum(T2:T37)</f>
+      </c>
+      <c r="U38" s="28" t="str">
+        <f>Sum(U2:U37)</f>
+      </c>
+      <c r="V38" s="28" t="str">
+        <f>Sum(V2:V37)</f>
+      </c>
+      <c r="W38" s="28" t="str">
+        <f>Sum(W2:W37)</f>
+      </c>
+      <c r="X38" s="28" t="str">
+        <f>Sum(X2:X37)</f>
+      </c>
+      <c r="Y38" s="28" t="str">
+        <f>Sum(Y2:Y37)</f>
+      </c>
+      <c r="Z38" s="28" t="str">
+        <f>Sum(Z2:Z37)</f>
+      </c>
+      <c r="AA38" s="28" t="str">
+        <f>Sum(AA2:AA37)</f>
+      </c>
+      <c r="AB38" s="28" t="str">
+        <f>Sum(AB2:AB37)</f>
+      </c>
+      <c r="AC38" s="28" t="str">
+        <f>Sum(AC2:AC37)</f>
+      </c>
+      <c r="AD38" s="28" t="str">
+        <f>Sum(AD2:AD37)</f>
+      </c>
+      <c r="AE38" s="28" t="str">
+        <f>Sum(AE2:AE37)</f>
+      </c>
+      <c r="AF38" s="28" t="str">
+        <f>Sum(AF2:AF37)</f>
+      </c>
+      <c r="AG38" s="28" t="str">
+        <f>Sum(AG2:AG37)</f>
+      </c>
+      <c r="AH38" s="28" t="str">
+        <f>Sum(AH2:AH37)</f>
+      </c>
+      <c r="AI38" s="28" t="str">
+        <f>Sum(AI2:AI37)</f>
+      </c>
+      <c r="AJ38" s="28" t="str">
+        <f>Sum(AJ2:AJ37)</f>
+      </c>
+      <c r="AK38" s="28" t="str">
+        <f>Sum(AK2:AK37)</f>
+      </c>
+      <c r="AL38" s="28" t="str">
+        <f>Sum(AL2:AL37)</f>
+      </c>
+      <c r="AM38" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/NPS2024/DoD_2024_NPS.xlsx
+++ b/Output/AcqTrends/NPS2024/DoD_2024_NPS.xlsx
@@ -3,7 +3,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
   <si>
     <t xml:space="preserve">source</t>
   </si>
@@ -451,6 +451,9 @@
   <si>
     <t xml:space="preserve">VendorSize_NTDC</t>
   </si>
+  <si>
+    <t xml:space="preserve">Budget Outlays</t>
+  </si>
 </sst>
 </file>
 
@@ -469,7 +472,7 @@
     <numFmt numFmtId="204" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="209" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="215" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="223" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="280" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="189" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="192" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="225" formatCode="0.00,,,&quot;B&quot;"/>
@@ -482,9 +485,9 @@
     <numFmt numFmtId="255" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="259" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="266" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="276" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="278" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="277" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="278" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="281" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -535,7 +538,7 @@
     <xf numFmtId="204" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="209" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="215" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="223" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="280" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="189" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="192" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="225" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -548,9 +551,9 @@
     <xf numFmtId="255" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="259" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="266" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="276" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="278" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="277" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="278" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="281" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2431,76 +2434,132 @@
         <f>N2</f>
       </c>
       <c r="M2" t="s">
-        <v>41</v>
+        <v>148</v>
       </c>
       <c r="N2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="14"/>
-      <c r="AF2" s="14"/>
-      <c r="AG2" s="14"/>
-      <c r="AH2" s="14"/>
-      <c r="AI2" s="14"/>
-      <c r="AJ2" s="14"/>
-      <c r="AK2" s="14" t="n">
-        <v>27766499707.7925</v>
-      </c>
-      <c r="AL2" s="14" t="n">
-        <v>20370470402.3352</v>
-      </c>
-      <c r="AM2" s="14" t="n">
-        <v>15761273120.7975</v>
-      </c>
-      <c r="AN2" s="14" t="n">
-        <v>23354753347.4642</v>
-      </c>
-      <c r="AO2" s="14" t="n">
-        <v>33579323851.3433</v>
-      </c>
-      <c r="AP2" s="14" t="n">
-        <v>31744209582.4775</v>
-      </c>
-      <c r="AQ2" s="14" t="n">
-        <v>34798072386.1799</v>
-      </c>
-      <c r="AR2" s="14" t="n">
-        <v>38381428744.3879</v>
-      </c>
-      <c r="AS2" s="14" t="n">
-        <v>50194113808.9869</v>
-      </c>
-      <c r="AT2" s="14" t="n">
-        <v>24883846155.5851</v>
-      </c>
-      <c r="AU2" s="14" t="n">
-        <v>38749898900.9551</v>
-      </c>
-      <c r="AV2" s="14" t="n">
-        <v>65793606959.6752</v>
-      </c>
-      <c r="AW2" s="14"/>
-      <c r="AX2" s="14"/>
-      <c r="AY2" s="14"/>
-      <c r="AZ2" s="14"/>
-      <c r="BA2" s="14"/>
-      <c r="BB2" s="14"/>
-      <c r="BC2" s="14"/>
+        <v>43</v>
+      </c>
+      <c r="O2" s="29" t="n">
+        <v>289694000000</v>
+      </c>
+      <c r="P2" s="29" t="n">
+        <v>262324000000</v>
+      </c>
+      <c r="Q2" s="29" t="n">
+        <v>286834000000</v>
+      </c>
+      <c r="R2" s="29" t="n">
+        <v>278497000000</v>
+      </c>
+      <c r="S2" s="29" t="n">
+        <v>268553000000</v>
+      </c>
+      <c r="T2" s="29" t="n">
+        <v>259373000000</v>
+      </c>
+      <c r="U2" s="29" t="n">
+        <v>253130000000</v>
+      </c>
+      <c r="V2" s="29" t="n">
+        <v>258251000000</v>
+      </c>
+      <c r="W2" s="29" t="n">
+        <v>255793000000</v>
+      </c>
+      <c r="X2" s="29" t="n">
+        <v>261198000000</v>
+      </c>
+      <c r="Y2" s="29" t="n">
+        <v>281029000000</v>
+      </c>
+      <c r="Z2" s="29" t="n">
+        <v>290185000000</v>
+      </c>
+      <c r="AA2" s="29" t="n">
+        <v>331845000000</v>
+      </c>
+      <c r="AB2" s="29" t="n">
+        <v>387136000000</v>
+      </c>
+      <c r="AC2" s="29" t="n">
+        <v>436439000000</v>
+      </c>
+      <c r="AD2" s="29" t="n">
+        <v>474071000000</v>
+      </c>
+      <c r="AE2" s="29" t="n">
+        <v>499297000000</v>
+      </c>
+      <c r="AF2" s="29" t="n">
+        <v>528548000000</v>
+      </c>
+      <c r="AG2" s="29" t="n">
+        <v>594632000000</v>
+      </c>
+      <c r="AH2" s="29" t="n">
+        <v>636742000000</v>
+      </c>
+      <c r="AI2" s="29" t="n">
+        <v>666703000000</v>
+      </c>
+      <c r="AJ2" s="29" t="n">
+        <v>678064000000</v>
+      </c>
+      <c r="AK2" s="29" t="n">
+        <v>650851000000</v>
+      </c>
+      <c r="AL2" s="29" t="n">
+        <v>607795000000</v>
+      </c>
+      <c r="AM2" s="29" t="n">
+        <v>577897000000</v>
+      </c>
+      <c r="AN2" s="29" t="n">
+        <v>562499000000</v>
+      </c>
+      <c r="AO2" s="29" t="n">
+        <v>565370000000</v>
+      </c>
+      <c r="AP2" s="29" t="n">
+        <v>568897000000</v>
+      </c>
+      <c r="AQ2" s="29" t="n">
+        <v>600804000000</v>
+      </c>
+      <c r="AR2" s="29" t="n">
+        <v>653690000000</v>
+      </c>
+      <c r="AS2" s="29" t="n">
+        <v>690363000000</v>
+      </c>
+      <c r="AT2" s="29" t="n">
+        <v>717577000000</v>
+      </c>
+      <c r="AU2" s="29" t="n">
+        <v>726458000000</v>
+      </c>
+      <c r="AV2" s="29" t="n">
+        <v>775874000000</v>
+      </c>
+      <c r="AW2" s="29" t="n">
+        <v>859539000000</v>
+      </c>
+      <c r="AX2" s="29" t="n">
+        <v>878467000000</v>
+      </c>
+      <c r="AY2" s="29" t="n">
+        <v>883218000000</v>
+      </c>
+      <c r="AZ2" s="29" t="n">
+        <v>895811000000</v>
+      </c>
+      <c r="BA2" s="29" t="n">
+        <v>914366000000</v>
+      </c>
+      <c r="BB2" s="29" t="n">
+        <v>934814000000</v>
+      </c>
+      <c r="BC2" s="29"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -2513,73 +2572,73 @@
         <v>41</v>
       </c>
       <c r="N3" t="s">
-        <v>43</v>
-      </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14"/>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="14"/>
-      <c r="AE3" s="14"/>
-      <c r="AF3" s="14"/>
-      <c r="AG3" s="14"/>
-      <c r="AH3" s="14"/>
-      <c r="AI3" s="14"/>
-      <c r="AJ3" s="14"/>
-      <c r="AK3" s="14" t="n">
-        <v>330026805340.834</v>
-      </c>
-      <c r="AL3" s="14" t="n">
-        <v>287169645793.985</v>
-      </c>
-      <c r="AM3" s="14" t="n">
-        <v>267688247411.752</v>
-      </c>
-      <c r="AN3" s="14" t="n">
-        <v>182341674892.763</v>
-      </c>
-      <c r="AO3" s="14" t="n">
-        <v>264945449752.851</v>
-      </c>
-      <c r="AP3" s="14" t="n">
-        <v>290110867193.627</v>
-      </c>
-      <c r="AQ3" s="14" t="n">
-        <v>324032036748.594</v>
-      </c>
-      <c r="AR3" s="14" t="n">
-        <v>345594196598.929</v>
-      </c>
-      <c r="AS3" s="14" t="n">
-        <v>372553530927.949</v>
-      </c>
-      <c r="AT3" s="14" t="n">
-        <v>362819226712.24</v>
-      </c>
-      <c r="AU3" s="14" t="n">
-        <v>375746041521.185</v>
-      </c>
-      <c r="AV3" s="14" t="n">
-        <v>390453124911.284</v>
-      </c>
-      <c r="AW3" s="14"/>
-      <c r="AX3" s="14"/>
-      <c r="AY3" s="14"/>
-      <c r="AZ3" s="14"/>
-      <c r="BA3" s="14"/>
-      <c r="BB3" s="14"/>
-      <c r="BC3" s="14"/>
+        <v>42</v>
+      </c>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="29"/>
+      <c r="AJ3" s="29"/>
+      <c r="AK3" s="29" t="n">
+        <v>27766499707.7925</v>
+      </c>
+      <c r="AL3" s="29" t="n">
+        <v>20370470402.3352</v>
+      </c>
+      <c r="AM3" s="29" t="n">
+        <v>15761273120.7975</v>
+      </c>
+      <c r="AN3" s="29" t="n">
+        <v>23354753347.4642</v>
+      </c>
+      <c r="AO3" s="29" t="n">
+        <v>33579323851.3433</v>
+      </c>
+      <c r="AP3" s="29" t="n">
+        <v>31744209582.4775</v>
+      </c>
+      <c r="AQ3" s="29" t="n">
+        <v>34798072386.1799</v>
+      </c>
+      <c r="AR3" s="29" t="n">
+        <v>38381428744.3879</v>
+      </c>
+      <c r="AS3" s="29" t="n">
+        <v>50194113808.9869</v>
+      </c>
+      <c r="AT3" s="29" t="n">
+        <v>24883846155.5851</v>
+      </c>
+      <c r="AU3" s="29" t="n">
+        <v>38749898900.9551</v>
+      </c>
+      <c r="AV3" s="29" t="n">
+        <v>65793606959.6752</v>
+      </c>
+      <c r="AW3" s="29"/>
+      <c r="AX3" s="29"/>
+      <c r="AY3" s="29"/>
+      <c r="AZ3" s="29"/>
+      <c r="BA3" s="29"/>
+      <c r="BB3" s="29"/>
+      <c r="BC3" s="29"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -2594,99 +2653,99 @@
       <c r="N4" t="s">
         <v>44</v>
       </c>
-      <c r="O4" s="14" t="n">
+      <c r="O4" s="29" t="n">
         <v>120350129405</v>
       </c>
-      <c r="P4" s="14" t="n">
+      <c r="P4" s="29" t="n">
         <v>136154193844</v>
       </c>
-      <c r="Q4" s="14" t="n">
+      <c r="Q4" s="29" t="n">
         <v>123406660550</v>
       </c>
-      <c r="R4" s="14" t="n">
+      <c r="R4" s="29" t="n">
         <v>121373382142</v>
       </c>
-      <c r="S4" s="14" t="n">
+      <c r="S4" s="29" t="n">
         <v>117161902725</v>
       </c>
-      <c r="T4" s="14" t="n">
+      <c r="T4" s="29" t="n">
         <v>116592014868</v>
       </c>
-      <c r="U4" s="14" t="n">
+      <c r="U4" s="29" t="n">
         <v>118448779098</v>
       </c>
-      <c r="V4" s="14" t="n">
+      <c r="V4" s="29" t="n">
         <v>115982151879</v>
       </c>
-      <c r="W4" s="14" t="n">
+      <c r="W4" s="29" t="n">
         <v>116965882167</v>
       </c>
-      <c r="X4" s="14" t="n">
+      <c r="X4" s="29" t="n">
         <v>122185036488</v>
       </c>
-      <c r="Y4" s="14" t="n">
+      <c r="Y4" s="29" t="n">
         <v>132178486506.387</v>
       </c>
-      <c r="Z4" s="14" t="n">
+      <c r="Z4" s="29" t="n">
         <v>143993638622.327</v>
       </c>
-      <c r="AA4" s="14" t="n">
+      <c r="AA4" s="29" t="n">
         <v>169810521136.485</v>
       </c>
-      <c r="AB4" s="14" t="n">
+      <c r="AB4" s="29" t="n">
         <v>211533087303.861</v>
       </c>
-      <c r="AC4" s="14" t="n">
+      <c r="AC4" s="29" t="n">
         <v>229775031821.915</v>
       </c>
-      <c r="AD4" s="14" t="n">
+      <c r="AD4" s="29" t="n">
         <v>265664518702.457</v>
       </c>
-      <c r="AE4" s="14" t="n">
+      <c r="AE4" s="29" t="n">
         <v>295165186343.118</v>
       </c>
-      <c r="AF4" s="14" t="n">
+      <c r="AF4" s="29" t="n">
         <v>328154422853.492</v>
       </c>
-      <c r="AG4" s="14" t="n">
+      <c r="AG4" s="29" t="n">
         <v>377988086084.829</v>
       </c>
-      <c r="AH4" s="14" t="n">
+      <c r="AH4" s="29" t="n">
         <v>367650065478.427</v>
       </c>
-      <c r="AI4" s="14" t="n">
+      <c r="AI4" s="29" t="n">
         <v>362696345236.665</v>
       </c>
-      <c r="AJ4" s="14" t="n">
+      <c r="AJ4" s="29" t="n">
         <v>368563658869.492</v>
       </c>
-      <c r="AK4" s="14" t="n">
+      <c r="AK4" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="AL4" s="14" t="n">
+      <c r="AL4" s="29" t="n">
         <v>688297065.81</v>
       </c>
-      <c r="AM4" s="14" t="n">
+      <c r="AM4" s="29" t="n">
         <v>17295</v>
       </c>
-      <c r="AN4" s="14" t="n">
+      <c r="AN4" s="29" t="n">
         <v>68529812030.32</v>
       </c>
-      <c r="AO4" s="14"/>
-      <c r="AP4" s="14"/>
-      <c r="AQ4" s="14"/>
-      <c r="AR4" s="14"/>
-      <c r="AS4" s="14"/>
-      <c r="AT4" s="14"/>
-      <c r="AU4" s="14"/>
-      <c r="AV4" s="14"/>
-      <c r="AW4" s="14"/>
-      <c r="AX4" s="14"/>
-      <c r="AY4" s="14"/>
-      <c r="AZ4" s="14"/>
-      <c r="BA4" s="14"/>
-      <c r="BB4" s="14"/>
-      <c r="BC4" s="14"/>
+      <c r="AO4" s="29"/>
+      <c r="AP4" s="29"/>
+      <c r="AQ4" s="29"/>
+      <c r="AR4" s="29"/>
+      <c r="AS4" s="29"/>
+      <c r="AT4" s="29"/>
+      <c r="AU4" s="29"/>
+      <c r="AV4" s="29"/>
+      <c r="AW4" s="29"/>
+      <c r="AX4" s="29"/>
+      <c r="AY4" s="29"/>
+      <c r="AZ4" s="29"/>
+      <c r="BA4" s="29"/>
+      <c r="BB4" s="29"/>
+      <c r="BC4" s="29"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -2696,132 +2755,76 @@
         <f>N5</f>
       </c>
       <c r="M5" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="N5" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="14" t="n">
-        <v>289694000000</v>
-      </c>
-      <c r="P5" s="14" t="n">
-        <v>262324000000</v>
-      </c>
-      <c r="Q5" s="14" t="n">
-        <v>286834000000</v>
-      </c>
-      <c r="R5" s="14" t="n">
-        <v>278497000000</v>
-      </c>
-      <c r="S5" s="14" t="n">
-        <v>268553000000</v>
-      </c>
-      <c r="T5" s="14" t="n">
-        <v>259373000000</v>
-      </c>
-      <c r="U5" s="14" t="n">
-        <v>253130000000</v>
-      </c>
-      <c r="V5" s="14" t="n">
-        <v>258251000000</v>
-      </c>
-      <c r="W5" s="14" t="n">
-        <v>255793000000</v>
-      </c>
-      <c r="X5" s="14" t="n">
-        <v>261198000000</v>
-      </c>
-      <c r="Y5" s="14" t="n">
-        <v>281029000000</v>
-      </c>
-      <c r="Z5" s="14" t="n">
-        <v>290185000000</v>
-      </c>
-      <c r="AA5" s="14" t="n">
-        <v>331845000000</v>
-      </c>
-      <c r="AB5" s="14" t="n">
-        <v>387136000000</v>
-      </c>
-      <c r="AC5" s="14" t="n">
-        <v>436439000000</v>
-      </c>
-      <c r="AD5" s="14" t="n">
-        <v>474071000000</v>
-      </c>
-      <c r="AE5" s="14" t="n">
-        <v>499297000000</v>
-      </c>
-      <c r="AF5" s="14" t="n">
-        <v>528548000000</v>
-      </c>
-      <c r="AG5" s="14" t="n">
-        <v>594632000000</v>
-      </c>
-      <c r="AH5" s="14" t="n">
-        <v>636742000000</v>
-      </c>
-      <c r="AI5" s="14" t="n">
-        <v>666703000000</v>
-      </c>
-      <c r="AJ5" s="14" t="n">
-        <v>678064000000</v>
-      </c>
-      <c r="AK5" s="14" t="n">
-        <v>650851000000</v>
-      </c>
-      <c r="AL5" s="14" t="n">
-        <v>607795000000</v>
-      </c>
-      <c r="AM5" s="14" t="n">
-        <v>577897000000</v>
-      </c>
-      <c r="AN5" s="14" t="n">
-        <v>562499000000</v>
-      </c>
-      <c r="AO5" s="14" t="n">
-        <v>565370000000</v>
-      </c>
-      <c r="AP5" s="14" t="n">
-        <v>568897000000</v>
-      </c>
-      <c r="AQ5" s="14" t="n">
-        <v>600804000000</v>
-      </c>
-      <c r="AR5" s="14" t="n">
-        <v>653690000000</v>
-      </c>
-      <c r="AS5" s="14" t="n">
-        <v>690363000000</v>
-      </c>
-      <c r="AT5" s="14" t="n">
-        <v>717577000000</v>
-      </c>
-      <c r="AU5" s="14" t="n">
-        <v>726458000000</v>
-      </c>
-      <c r="AV5" s="14" t="n">
-        <v>775874000000</v>
-      </c>
-      <c r="AW5" s="14" t="n">
-        <v>859539000000</v>
-      </c>
-      <c r="AX5" s="14" t="n">
-        <v>878467000000</v>
-      </c>
-      <c r="AY5" s="14" t="n">
-        <v>883218000000</v>
-      </c>
-      <c r="AZ5" s="14" t="n">
-        <v>895811000000</v>
-      </c>
-      <c r="BA5" s="14" t="n">
-        <v>914366000000</v>
-      </c>
-      <c r="BB5" s="14" t="n">
-        <v>934814000000</v>
-      </c>
-      <c r="BC5" s="14"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="29"/>
+      <c r="AD5" s="29"/>
+      <c r="AE5" s="29"/>
+      <c r="AF5" s="29"/>
+      <c r="AG5" s="29"/>
+      <c r="AH5" s="29"/>
+      <c r="AI5" s="29"/>
+      <c r="AJ5" s="29"/>
+      <c r="AK5" s="29" t="n">
+        <v>330026805340.834</v>
+      </c>
+      <c r="AL5" s="29" t="n">
+        <v>287169645793.985</v>
+      </c>
+      <c r="AM5" s="29" t="n">
+        <v>267688247411.752</v>
+      </c>
+      <c r="AN5" s="29" t="n">
+        <v>182341674892.763</v>
+      </c>
+      <c r="AO5" s="29" t="n">
+        <v>264945449752.851</v>
+      </c>
+      <c r="AP5" s="29" t="n">
+        <v>290110867193.627</v>
+      </c>
+      <c r="AQ5" s="29" t="n">
+        <v>324032036748.594</v>
+      </c>
+      <c r="AR5" s="29" t="n">
+        <v>345594196598.929</v>
+      </c>
+      <c r="AS5" s="29" t="n">
+        <v>372553530927.949</v>
+      </c>
+      <c r="AT5" s="29" t="n">
+        <v>362819226712.24</v>
+      </c>
+      <c r="AU5" s="29" t="n">
+        <v>375746041521.185</v>
+      </c>
+      <c r="AV5" s="29" t="n">
+        <v>390453124911.284</v>
+      </c>
+      <c r="AW5" s="29"/>
+      <c r="AX5" s="29"/>
+      <c r="AY5" s="29"/>
+      <c r="AZ5" s="29"/>
+      <c r="BA5" s="29"/>
+      <c r="BB5" s="29"/>
+      <c r="BC5" s="29"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -2836,127 +2839,127 @@
       <c r="N6" t="s">
         <v>47</v>
       </c>
-      <c r="O6" s="14" t="str">
+      <c r="O6" s="29" t="str">
         <f>Sum(O2:O5)</f>
       </c>
-      <c r="P6" s="14" t="str">
+      <c r="P6" s="29" t="str">
         <f>Sum(P2:P5)</f>
       </c>
-      <c r="Q6" s="14" t="str">
+      <c r="Q6" s="29" t="str">
         <f>Sum(Q2:Q5)</f>
       </c>
-      <c r="R6" s="14" t="str">
+      <c r="R6" s="29" t="str">
         <f>Sum(R2:R5)</f>
       </c>
-      <c r="S6" s="14" t="str">
+      <c r="S6" s="29" t="str">
         <f>Sum(S2:S5)</f>
       </c>
-      <c r="T6" s="14" t="str">
+      <c r="T6" s="29" t="str">
         <f>Sum(T2:T5)</f>
       </c>
-      <c r="U6" s="14" t="str">
+      <c r="U6" s="29" t="str">
         <f>Sum(U2:U5)</f>
       </c>
-      <c r="V6" s="14" t="str">
+      <c r="V6" s="29" t="str">
         <f>Sum(V2:V5)</f>
       </c>
-      <c r="W6" s="14" t="str">
+      <c r="W6" s="29" t="str">
         <f>Sum(W2:W5)</f>
       </c>
-      <c r="X6" s="14" t="str">
+      <c r="X6" s="29" t="str">
         <f>Sum(X2:X5)</f>
       </c>
-      <c r="Y6" s="14" t="str">
+      <c r="Y6" s="29" t="str">
         <f>Sum(Y2:Y5)</f>
       </c>
-      <c r="Z6" s="14" t="str">
+      <c r="Z6" s="29" t="str">
         <f>Sum(Z2:Z5)</f>
       </c>
-      <c r="AA6" s="14" t="str">
+      <c r="AA6" s="29" t="str">
         <f>Sum(AA2:AA5)</f>
       </c>
-      <c r="AB6" s="14" t="str">
+      <c r="AB6" s="29" t="str">
         <f>Sum(AB2:AB5)</f>
       </c>
-      <c r="AC6" s="14" t="str">
+      <c r="AC6" s="29" t="str">
         <f>Sum(AC2:AC5)</f>
       </c>
-      <c r="AD6" s="14" t="str">
+      <c r="AD6" s="29" t="str">
         <f>Sum(AD2:AD5)</f>
       </c>
-      <c r="AE6" s="14" t="str">
+      <c r="AE6" s="29" t="str">
         <f>Sum(AE2:AE5)</f>
       </c>
-      <c r="AF6" s="14" t="str">
+      <c r="AF6" s="29" t="str">
         <f>Sum(AF2:AF5)</f>
       </c>
-      <c r="AG6" s="14" t="str">
+      <c r="AG6" s="29" t="str">
         <f>Sum(AG2:AG5)</f>
       </c>
-      <c r="AH6" s="14" t="str">
+      <c r="AH6" s="29" t="str">
         <f>Sum(AH2:AH5)</f>
       </c>
-      <c r="AI6" s="14" t="str">
+      <c r="AI6" s="29" t="str">
         <f>Sum(AI2:AI5)</f>
       </c>
-      <c r="AJ6" s="14" t="str">
+      <c r="AJ6" s="29" t="str">
         <f>Sum(AJ2:AJ5)</f>
       </c>
-      <c r="AK6" s="14" t="str">
+      <c r="AK6" s="29" t="str">
         <f>Sum(AK2:AK5)</f>
       </c>
-      <c r="AL6" s="14" t="str">
+      <c r="AL6" s="29" t="str">
         <f>Sum(AL2:AL5)</f>
       </c>
-      <c r="AM6" s="14" t="str">
+      <c r="AM6" s="29" t="str">
         <f>Sum(AM2:AM5)</f>
       </c>
-      <c r="AN6" s="14" t="str">
+      <c r="AN6" s="29" t="str">
         <f>Sum(AN2:AN5)</f>
       </c>
-      <c r="AO6" s="14" t="str">
+      <c r="AO6" s="29" t="str">
         <f>Sum(AO2:AO5)</f>
       </c>
-      <c r="AP6" s="14" t="str">
+      <c r="AP6" s="29" t="str">
         <f>Sum(AP2:AP5)</f>
       </c>
-      <c r="AQ6" s="14" t="str">
+      <c r="AQ6" s="29" t="str">
         <f>Sum(AQ2:AQ5)</f>
       </c>
-      <c r="AR6" s="14" t="str">
+      <c r="AR6" s="29" t="str">
         <f>Sum(AR2:AR5)</f>
       </c>
-      <c r="AS6" s="14" t="str">
+      <c r="AS6" s="29" t="str">
         <f>Sum(AS2:AS5)</f>
       </c>
-      <c r="AT6" s="14" t="str">
+      <c r="AT6" s="29" t="str">
         <f>Sum(AT2:AT5)</f>
       </c>
-      <c r="AU6" s="14" t="str">
+      <c r="AU6" s="29" t="str">
         <f>Sum(AU2:AU5)</f>
       </c>
-      <c r="AV6" s="14" t="str">
+      <c r="AV6" s="29" t="str">
         <f>Sum(AV2:AV5)</f>
       </c>
-      <c r="AW6" s="14" t="str">
+      <c r="AW6" s="29" t="str">
         <f>Sum(AW2:AW5)</f>
       </c>
-      <c r="AX6" s="14" t="str">
+      <c r="AX6" s="29" t="str">
         <f>Sum(AX2:AX5)</f>
       </c>
-      <c r="AY6" s="14" t="str">
+      <c r="AY6" s="29" t="str">
         <f>Sum(AY2:AY5)</f>
       </c>
-      <c r="AZ6" s="14" t="str">
+      <c r="AZ6" s="29" t="str">
         <f>Sum(AZ2:AZ5)</f>
       </c>
-      <c r="BA6" s="14" t="str">
+      <c r="BA6" s="29" t="str">
         <f>Sum(BA2:BA5)</f>
       </c>
-      <c r="BB6" s="14" t="str">
+      <c r="BB6" s="29" t="str">
         <f>Sum(BB2:BB5)</f>
       </c>
-      <c r="BC6" s="14"/>
+      <c r="BC6" s="29"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -3117,16 +3120,16 @@
       <c r="B10" t="str">
         <f>N10</f>
       </c>
-      <c r="C10" s="14" t="str">
+      <c r="C10" s="29" t="str">
         <f>AS10</f>
       </c>
-      <c r="D10" s="14" t="str">
+      <c r="D10" s="29" t="str">
         <f>AU10</f>
       </c>
-      <c r="E10" s="14" t="str">
+      <c r="E10" s="29" t="str">
         <f>AV10</f>
       </c>
-      <c r="F10" s="14"/>
+      <c r="F10" s="29"/>
       <c r="G10" s="1" t="str">
         <f>AV10/AU10-1</f>
       </c>
@@ -3139,76 +3142,132 @@
       </c>
       <c r="K10" s="1"/>
       <c r="M10" t="s">
-        <v>41</v>
+        <v>148</v>
       </c>
       <c r="N10" t="s">
-        <v>42</v>
-      </c>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
-      <c r="AC10" s="14"/>
-      <c r="AD10" s="14"/>
-      <c r="AE10" s="14"/>
-      <c r="AF10" s="14"/>
-      <c r="AG10" s="14"/>
-      <c r="AH10" s="14"/>
-      <c r="AI10" s="14"/>
-      <c r="AJ10" s="14"/>
-      <c r="AK10" s="14" t="n">
-        <v>36390987981.8448</v>
-      </c>
-      <c r="AL10" s="14" t="n">
-        <v>26221905738.2968</v>
-      </c>
-      <c r="AM10" s="14" t="n">
-        <v>19925213441.3071</v>
-      </c>
-      <c r="AN10" s="14" t="n">
-        <v>29222168317.7287</v>
-      </c>
-      <c r="AO10" s="14" t="n">
-        <v>41682205250.0166</v>
-      </c>
-      <c r="AP10" s="14" t="n">
-        <v>38750156644.7742</v>
-      </c>
-      <c r="AQ10" s="14" t="n">
-        <v>41555475393.5778</v>
-      </c>
-      <c r="AR10" s="14" t="n">
-        <v>45002603100.1161</v>
-      </c>
-      <c r="AS10" s="14" t="n">
-        <v>58094201874.9828</v>
-      </c>
-      <c r="AT10" s="14" t="n">
-        <v>27842081578.4401</v>
-      </c>
-      <c r="AU10" s="14" t="n">
-        <v>40522574821.365</v>
-      </c>
-      <c r="AV10" s="14" t="n">
-        <v>65793606959.6752</v>
-      </c>
-      <c r="AW10" s="14"/>
-      <c r="AX10" s="14"/>
-      <c r="AY10" s="14"/>
-      <c r="AZ10" s="14"/>
-      <c r="BA10" s="14"/>
-      <c r="BB10" s="14"/>
-      <c r="BC10" s="14"/>
+        <v>43</v>
+      </c>
+      <c r="O10" s="29" t="n">
+        <v>599168867522.029</v>
+      </c>
+      <c r="P10" s="29" t="n">
+        <v>523832662841.61</v>
+      </c>
+      <c r="Q10" s="29" t="n">
+        <v>558790717928.113</v>
+      </c>
+      <c r="R10" s="29" t="n">
+        <v>530112720785.642</v>
+      </c>
+      <c r="S10" s="29" t="n">
+        <v>500263462937.87</v>
+      </c>
+      <c r="T10" s="29" t="n">
+        <v>473127049224.817</v>
+      </c>
+      <c r="U10" s="29" t="n">
+        <v>453205912162.704</v>
+      </c>
+      <c r="V10" s="29" t="n">
+        <v>454311854475.601</v>
+      </c>
+      <c r="W10" s="29" t="n">
+        <v>444415763380.374</v>
+      </c>
+      <c r="X10" s="29" t="n">
+        <v>448255867341.827</v>
+      </c>
+      <c r="Y10" s="29" t="n">
+        <v>472458477005.221</v>
+      </c>
+      <c r="Z10" s="29" t="n">
+        <v>476306076778.206</v>
+      </c>
+      <c r="AA10" s="29" t="n">
+        <v>536249922724.551</v>
+      </c>
+      <c r="AB10" s="29" t="n">
+        <v>613815969478.346</v>
+      </c>
+      <c r="AC10" s="29" t="n">
+        <v>675492693448.842</v>
+      </c>
+      <c r="AD10" s="29" t="n">
+        <v>712068992263.739</v>
+      </c>
+      <c r="AE10" s="29" t="n">
+        <v>726363779830.702</v>
+      </c>
+      <c r="AF10" s="29" t="n">
+        <v>748316566637.036</v>
+      </c>
+      <c r="AG10" s="29" t="n">
+        <v>824755462000.025</v>
+      </c>
+      <c r="AH10" s="29" t="n">
+        <v>874222201051.157</v>
+      </c>
+      <c r="AI10" s="29" t="n">
+        <v>907498162133.927</v>
+      </c>
+      <c r="AJ10" s="29" t="n">
+        <v>904801842293.038</v>
+      </c>
+      <c r="AK10" s="29" t="n">
+        <v>853010324247.841</v>
+      </c>
+      <c r="AL10" s="29" t="n">
+        <v>782384642250.63</v>
+      </c>
+      <c r="AM10" s="29" t="n">
+        <v>730570492868.181</v>
+      </c>
+      <c r="AN10" s="29" t="n">
+        <v>703815630677.12</v>
+      </c>
+      <c r="AO10" s="29" t="n">
+        <v>701796989317.852</v>
+      </c>
+      <c r="AP10" s="29" t="n">
+        <v>694452568033.404</v>
+      </c>
+      <c r="AQ10" s="29" t="n">
+        <v>717473530179.755</v>
+      </c>
+      <c r="AR10" s="29" t="n">
+        <v>766457961125.701</v>
+      </c>
+      <c r="AS10" s="29" t="n">
+        <v>799019734497.993</v>
+      </c>
+      <c r="AT10" s="29" t="n">
+        <v>802883816589.107</v>
+      </c>
+      <c r="AU10" s="29" t="n">
+        <v>759690979706.108</v>
+      </c>
+      <c r="AV10" s="29" t="n">
+        <v>775874000000</v>
+      </c>
+      <c r="AW10" s="29" t="n">
+        <v>837181247646.527</v>
+      </c>
+      <c r="AX10" s="29" t="n">
+        <v>837245992301.702</v>
+      </c>
+      <c r="AY10" s="29" t="n">
+        <v>824647554246.88</v>
+      </c>
+      <c r="AZ10" s="29" t="n">
+        <v>819236206162.472</v>
+      </c>
+      <c r="BA10" s="29" t="n">
+        <v>819144705553.104</v>
+      </c>
+      <c r="BB10" s="29" t="n">
+        <v>820305837219.535</v>
+      </c>
+      <c r="BC10" s="29"/>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -3217,16 +3276,16 @@
       <c r="B11" t="str">
         <f>N11</f>
       </c>
-      <c r="C11" s="14" t="str">
+      <c r="C11" s="29" t="str">
         <f>AS11</f>
       </c>
-      <c r="D11" s="14" t="str">
+      <c r="D11" s="29" t="str">
         <f>AU11</f>
       </c>
-      <c r="E11" s="14" t="str">
+      <c r="E11" s="29" t="str">
         <f>AV11</f>
       </c>
-      <c r="F11" s="14"/>
+      <c r="F11" s="29"/>
       <c r="G11" s="1" t="str">
         <f>AV11/AU11-1</f>
       </c>
@@ -3242,73 +3301,73 @@
         <v>41</v>
       </c>
       <c r="N11" t="s">
-        <v>43</v>
-      </c>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="14"/>
-      <c r="AC11" s="14"/>
-      <c r="AD11" s="14"/>
-      <c r="AE11" s="14"/>
-      <c r="AF11" s="14"/>
-      <c r="AG11" s="14"/>
-      <c r="AH11" s="14"/>
-      <c r="AI11" s="14"/>
-      <c r="AJ11" s="14"/>
-      <c r="AK11" s="14" t="n">
-        <v>432535668277.784</v>
-      </c>
-      <c r="AL11" s="14" t="n">
-        <v>369659376253.123</v>
-      </c>
-      <c r="AM11" s="14" t="n">
-        <v>338408288754.957</v>
-      </c>
-      <c r="AN11" s="14" t="n">
-        <v>228151376115.108</v>
-      </c>
-      <c r="AO11" s="14" t="n">
-        <v>328878290270.115</v>
-      </c>
-      <c r="AP11" s="14" t="n">
-        <v>354138335651.29</v>
-      </c>
-      <c r="AQ11" s="14" t="n">
-        <v>386955495132.106</v>
-      </c>
-      <c r="AR11" s="14" t="n">
-        <v>405212598176.643</v>
-      </c>
-      <c r="AS11" s="14" t="n">
-        <v>431190002025.514</v>
-      </c>
-      <c r="AT11" s="14" t="n">
-        <v>405951814891.826</v>
-      </c>
-      <c r="AU11" s="14" t="n">
-        <v>392935143399.785</v>
-      </c>
-      <c r="AV11" s="14" t="n">
-        <v>390453124911.284</v>
-      </c>
-      <c r="AW11" s="14"/>
-      <c r="AX11" s="14"/>
-      <c r="AY11" s="14"/>
-      <c r="AZ11" s="14"/>
-      <c r="BA11" s="14"/>
-      <c r="BB11" s="14"/>
-      <c r="BC11" s="14"/>
+        <v>42</v>
+      </c>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="29"/>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="29"/>
+      <c r="AA11" s="29"/>
+      <c r="AB11" s="29"/>
+      <c r="AC11" s="29"/>
+      <c r="AD11" s="29"/>
+      <c r="AE11" s="29"/>
+      <c r="AF11" s="29"/>
+      <c r="AG11" s="29"/>
+      <c r="AH11" s="29"/>
+      <c r="AI11" s="29"/>
+      <c r="AJ11" s="29"/>
+      <c r="AK11" s="29" t="n">
+        <v>36390987981.8448</v>
+      </c>
+      <c r="AL11" s="29" t="n">
+        <v>26221905738.2968</v>
+      </c>
+      <c r="AM11" s="29" t="n">
+        <v>19925213441.3071</v>
+      </c>
+      <c r="AN11" s="29" t="n">
+        <v>29222168317.7287</v>
+      </c>
+      <c r="AO11" s="29" t="n">
+        <v>41682205250.0166</v>
+      </c>
+      <c r="AP11" s="29" t="n">
+        <v>38750156644.7742</v>
+      </c>
+      <c r="AQ11" s="29" t="n">
+        <v>41555475393.5778</v>
+      </c>
+      <c r="AR11" s="29" t="n">
+        <v>45002603100.1161</v>
+      </c>
+      <c r="AS11" s="29" t="n">
+        <v>58094201874.9828</v>
+      </c>
+      <c r="AT11" s="29" t="n">
+        <v>27842081578.4401</v>
+      </c>
+      <c r="AU11" s="29" t="n">
+        <v>40522574821.365</v>
+      </c>
+      <c r="AV11" s="29" t="n">
+        <v>65793606959.6752</v>
+      </c>
+      <c r="AW11" s="29"/>
+      <c r="AX11" s="29"/>
+      <c r="AY11" s="29"/>
+      <c r="AZ11" s="29"/>
+      <c r="BA11" s="29"/>
+      <c r="BB11" s="29"/>
+      <c r="BC11" s="29"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -3317,16 +3376,16 @@
       <c r="B12" t="str">
         <f>N12</f>
       </c>
-      <c r="C12" s="14" t="str">
+      <c r="C12" s="29" t="str">
         <f>AS12</f>
       </c>
-      <c r="D12" s="14" t="str">
+      <c r="D12" s="29" t="str">
         <f>AU12</f>
       </c>
-      <c r="E12" s="14" t="str">
+      <c r="E12" s="29" t="str">
         <f>AV12</f>
       </c>
-      <c r="F12" s="14"/>
+      <c r="F12" s="29"/>
       <c r="G12" s="1" t="str">
         <f>AV12/AU12-1</f>
       </c>
@@ -3344,99 +3403,99 @@
       <c r="N12" t="s">
         <v>44</v>
       </c>
-      <c r="O12" s="14" t="n">
+      <c r="O12" s="29" t="n">
         <v>248917998790.874</v>
       </c>
-      <c r="P12" s="14" t="n">
+      <c r="P12" s="29" t="n">
         <v>271885202720.129</v>
       </c>
-      <c r="Q12" s="14" t="n">
+      <c r="Q12" s="29" t="n">
         <v>240412560734.939</v>
       </c>
-      <c r="R12" s="14" t="n">
+      <c r="R12" s="29" t="n">
         <v>231031479111.987</v>
       </c>
-      <c r="S12" s="14" t="n">
+      <c r="S12" s="29" t="n">
         <v>218250472650.085</v>
       </c>
-      <c r="T12" s="14" t="n">
+      <c r="T12" s="29" t="n">
         <v>212677633977.603</v>
       </c>
-      <c r="U12" s="14" t="n">
+      <c r="U12" s="29" t="n">
         <v>212071611328.834</v>
       </c>
-      <c r="V12" s="14" t="n">
+      <c r="V12" s="29" t="n">
         <v>204034317412.979</v>
       </c>
-      <c r="W12" s="14" t="n">
+      <c r="W12" s="29" t="n">
         <v>203216983313.484</v>
       </c>
-      <c r="X12" s="14" t="n">
+      <c r="X12" s="29" t="n">
         <v>209688280565.4</v>
       </c>
-      <c r="Y12" s="14" t="n">
+      <c r="Y12" s="29" t="n">
         <v>222214954426.99</v>
       </c>
-      <c r="Z12" s="14" t="n">
+      <c r="Z12" s="29" t="n">
         <v>236349380888.81</v>
       </c>
-      <c r="AA12" s="14" t="n">
+      <c r="AA12" s="29" t="n">
         <v>274407867640.784</v>
       </c>
-      <c r="AB12" s="14" t="n">
+      <c r="AB12" s="29" t="n">
         <v>335392180164.508</v>
       </c>
-      <c r="AC12" s="14" t="n">
+      <c r="AC12" s="29" t="n">
         <v>355631268362.082</v>
       </c>
-      <c r="AD12" s="14" t="n">
+      <c r="AD12" s="29" t="n">
         <v>399036148831.483</v>
       </c>
-      <c r="AE12" s="14" t="n">
+      <c r="AE12" s="29" t="n">
         <v>429398334912.128</v>
       </c>
-      <c r="AF12" s="14" t="n">
+      <c r="AF12" s="29" t="n">
         <v>464599981527.663</v>
       </c>
-      <c r="AG12" s="14" t="n">
+      <c r="AG12" s="29" t="n">
         <v>524270033515.516</v>
       </c>
-      <c r="AH12" s="14" t="n">
+      <c r="AH12" s="29" t="n">
         <v>504769356284.26</v>
       </c>
-      <c r="AI12" s="14" t="n">
+      <c r="AI12" s="29" t="n">
         <v>493692493831.535</v>
       </c>
-      <c r="AJ12" s="14" t="n">
+      <c r="AJ12" s="29" t="n">
         <v>491807672354.496</v>
       </c>
-      <c r="AK12" s="14" t="n">
+      <c r="AK12" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="AL12" s="14" t="n">
+      <c r="AL12" s="29" t="n">
         <v>886010996.464129</v>
       </c>
-      <c r="AM12" s="14" t="n">
+      <c r="AM12" s="29" t="n">
         <v>21864.1326640477</v>
       </c>
-      <c r="AN12" s="14" t="n">
+      <c r="AN12" s="29" t="n">
         <v>85746557548.1986</v>
       </c>
-      <c r="AO12" s="14"/>
-      <c r="AP12" s="14"/>
-      <c r="AQ12" s="14"/>
-      <c r="AR12" s="14"/>
-      <c r="AS12" s="14"/>
-      <c r="AT12" s="14"/>
-      <c r="AU12" s="14"/>
-      <c r="AV12" s="14"/>
-      <c r="AW12" s="14"/>
-      <c r="AX12" s="14"/>
-      <c r="AY12" s="14"/>
-      <c r="AZ12" s="14"/>
-      <c r="BA12" s="14"/>
-      <c r="BB12" s="14"/>
-      <c r="BC12" s="14"/>
+      <c r="AO12" s="29"/>
+      <c r="AP12" s="29"/>
+      <c r="AQ12" s="29"/>
+      <c r="AR12" s="29"/>
+      <c r="AS12" s="29"/>
+      <c r="AT12" s="29"/>
+      <c r="AU12" s="29"/>
+      <c r="AV12" s="29"/>
+      <c r="AW12" s="29"/>
+      <c r="AX12" s="29"/>
+      <c r="AY12" s="29"/>
+      <c r="AZ12" s="29"/>
+      <c r="BA12" s="29"/>
+      <c r="BB12" s="29"/>
+      <c r="BC12" s="29"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -3445,16 +3504,16 @@
       <c r="B13" t="str">
         <f>N13</f>
       </c>
-      <c r="C13" s="14" t="str">
+      <c r="C13" s="29" t="str">
         <f>AS13</f>
       </c>
-      <c r="D13" s="14" t="str">
+      <c r="D13" s="29" t="str">
         <f>AU13</f>
       </c>
-      <c r="E13" s="14" t="str">
+      <c r="E13" s="29" t="str">
         <f>AV13</f>
       </c>
-      <c r="F13" s="14"/>
+      <c r="F13" s="29"/>
       <c r="G13" s="1" t="str">
         <f>AV13/AU13-1</f>
       </c>
@@ -3467,132 +3526,76 @@
       </c>
       <c r="K13" s="1"/>
       <c r="M13" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="N13" t="s">
         <v>43</v>
       </c>
-      <c r="O13" s="14" t="n">
-        <v>599168867522.029</v>
-      </c>
-      <c r="P13" s="14" t="n">
-        <v>523832662841.61</v>
-      </c>
-      <c r="Q13" s="14" t="n">
-        <v>558790717928.113</v>
-      </c>
-      <c r="R13" s="14" t="n">
-        <v>530112720785.642</v>
-      </c>
-      <c r="S13" s="14" t="n">
-        <v>500263462937.87</v>
-      </c>
-      <c r="T13" s="14" t="n">
-        <v>473127049224.817</v>
-      </c>
-      <c r="U13" s="14" t="n">
-        <v>453205912162.704</v>
-      </c>
-      <c r="V13" s="14" t="n">
-        <v>454311854475.601</v>
-      </c>
-      <c r="W13" s="14" t="n">
-        <v>444415763380.374</v>
-      </c>
-      <c r="X13" s="14" t="n">
-        <v>448255867341.827</v>
-      </c>
-      <c r="Y13" s="14" t="n">
-        <v>472458477005.221</v>
-      </c>
-      <c r="Z13" s="14" t="n">
-        <v>476306076778.206</v>
-      </c>
-      <c r="AA13" s="14" t="n">
-        <v>536249922724.551</v>
-      </c>
-      <c r="AB13" s="14" t="n">
-        <v>613815969478.346</v>
-      </c>
-      <c r="AC13" s="14" t="n">
-        <v>675492693448.842</v>
-      </c>
-      <c r="AD13" s="14" t="n">
-        <v>712068992263.739</v>
-      </c>
-      <c r="AE13" s="14" t="n">
-        <v>726363779830.702</v>
-      </c>
-      <c r="AF13" s="14" t="n">
-        <v>748316566637.036</v>
-      </c>
-      <c r="AG13" s="14" t="n">
-        <v>824755462000.025</v>
-      </c>
-      <c r="AH13" s="14" t="n">
-        <v>874222201051.157</v>
-      </c>
-      <c r="AI13" s="14" t="n">
-        <v>907498162133.927</v>
-      </c>
-      <c r="AJ13" s="14" t="n">
-        <v>904801842293.038</v>
-      </c>
-      <c r="AK13" s="14" t="n">
-        <v>853010324247.841</v>
-      </c>
-      <c r="AL13" s="14" t="n">
-        <v>782384642250.63</v>
-      </c>
-      <c r="AM13" s="14" t="n">
-        <v>730570492868.181</v>
-      </c>
-      <c r="AN13" s="14" t="n">
-        <v>703815630677.12</v>
-      </c>
-      <c r="AO13" s="14" t="n">
-        <v>701796989317.852</v>
-      </c>
-      <c r="AP13" s="14" t="n">
-        <v>694452568033.404</v>
-      </c>
-      <c r="AQ13" s="14" t="n">
-        <v>717473530179.755</v>
-      </c>
-      <c r="AR13" s="14" t="n">
-        <v>766457961125.701</v>
-      </c>
-      <c r="AS13" s="14" t="n">
-        <v>799019734497.993</v>
-      </c>
-      <c r="AT13" s="14" t="n">
-        <v>802883816589.107</v>
-      </c>
-      <c r="AU13" s="14" t="n">
-        <v>759690979706.108</v>
-      </c>
-      <c r="AV13" s="14" t="n">
-        <v>775874000000</v>
-      </c>
-      <c r="AW13" s="14" t="n">
-        <v>837181247646.527</v>
-      </c>
-      <c r="AX13" s="14" t="n">
-        <v>837245992301.702</v>
-      </c>
-      <c r="AY13" s="14" t="n">
-        <v>824647554246.88</v>
-      </c>
-      <c r="AZ13" s="14" t="n">
-        <v>819236206162.472</v>
-      </c>
-      <c r="BA13" s="14" t="n">
-        <v>819144705553.104</v>
-      </c>
-      <c r="BB13" s="14" t="n">
-        <v>820305837219.535</v>
-      </c>
-      <c r="BC13" s="14"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="29"/>
+      <c r="AB13" s="29"/>
+      <c r="AC13" s="29"/>
+      <c r="AD13" s="29"/>
+      <c r="AE13" s="29"/>
+      <c r="AF13" s="29"/>
+      <c r="AG13" s="29"/>
+      <c r="AH13" s="29"/>
+      <c r="AI13" s="29"/>
+      <c r="AJ13" s="29"/>
+      <c r="AK13" s="29" t="n">
+        <v>432535668277.784</v>
+      </c>
+      <c r="AL13" s="29" t="n">
+        <v>369659376253.123</v>
+      </c>
+      <c r="AM13" s="29" t="n">
+        <v>338408288754.957</v>
+      </c>
+      <c r="AN13" s="29" t="n">
+        <v>228151376115.108</v>
+      </c>
+      <c r="AO13" s="29" t="n">
+        <v>328878290270.115</v>
+      </c>
+      <c r="AP13" s="29" t="n">
+        <v>354138335651.29</v>
+      </c>
+      <c r="AQ13" s="29" t="n">
+        <v>386955495132.106</v>
+      </c>
+      <c r="AR13" s="29" t="n">
+        <v>405212598176.643</v>
+      </c>
+      <c r="AS13" s="29" t="n">
+        <v>431190002025.514</v>
+      </c>
+      <c r="AT13" s="29" t="n">
+        <v>405951814891.826</v>
+      </c>
+      <c r="AU13" s="29" t="n">
+        <v>392935143399.785</v>
+      </c>
+      <c r="AV13" s="29" t="n">
+        <v>390453124911.284</v>
+      </c>
+      <c r="AW13" s="29"/>
+      <c r="AX13" s="29"/>
+      <c r="AY13" s="29"/>
+      <c r="AZ13" s="29"/>
+      <c r="BA13" s="29"/>
+      <c r="BB13" s="29"/>
+      <c r="BC13" s="29"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -3601,16 +3604,16 @@
       <c r="B14" t="str">
         <f>N14</f>
       </c>
-      <c r="C14" s="14" t="str">
+      <c r="C14" s="29" t="str">
         <f>AS14</f>
       </c>
-      <c r="D14" s="14" t="str">
+      <c r="D14" s="29" t="str">
         <f>AU14</f>
       </c>
-      <c r="E14" s="14" t="str">
+      <c r="E14" s="29" t="str">
         <f>AV14</f>
       </c>
-      <c r="F14" s="14"/>
+      <c r="F14" s="29"/>
       <c r="G14" s="1" t="str">
         <f>AV14/AU14-1</f>
       </c>
@@ -3628,127 +3631,127 @@
       <c r="N14" t="s">
         <v>47</v>
       </c>
-      <c r="O14" s="14" t="str">
+      <c r="O14" s="29" t="str">
         <f>Sum(O10:O13)</f>
       </c>
-      <c r="P14" s="14" t="str">
+      <c r="P14" s="29" t="str">
         <f>Sum(P10:P13)</f>
       </c>
-      <c r="Q14" s="14" t="str">
+      <c r="Q14" s="29" t="str">
         <f>Sum(Q10:Q13)</f>
       </c>
-      <c r="R14" s="14" t="str">
+      <c r="R14" s="29" t="str">
         <f>Sum(R10:R13)</f>
       </c>
-      <c r="S14" s="14" t="str">
+      <c r="S14" s="29" t="str">
         <f>Sum(S10:S13)</f>
       </c>
-      <c r="T14" s="14" t="str">
+      <c r="T14" s="29" t="str">
         <f>Sum(T10:T13)</f>
       </c>
-      <c r="U14" s="14" t="str">
+      <c r="U14" s="29" t="str">
         <f>Sum(U10:U13)</f>
       </c>
-      <c r="V14" s="14" t="str">
+      <c r="V14" s="29" t="str">
         <f>Sum(V10:V13)</f>
       </c>
-      <c r="W14" s="14" t="str">
+      <c r="W14" s="29" t="str">
         <f>Sum(W10:W13)</f>
       </c>
-      <c r="X14" s="14" t="str">
+      <c r="X14" s="29" t="str">
         <f>Sum(X10:X13)</f>
       </c>
-      <c r="Y14" s="14" t="str">
+      <c r="Y14" s="29" t="str">
         <f>Sum(Y10:Y13)</f>
       </c>
-      <c r="Z14" s="14" t="str">
+      <c r="Z14" s="29" t="str">
         <f>Sum(Z10:Z13)</f>
       </c>
-      <c r="AA14" s="14" t="str">
+      <c r="AA14" s="29" t="str">
         <f>Sum(AA10:AA13)</f>
       </c>
-      <c r="AB14" s="14" t="str">
+      <c r="AB14" s="29" t="str">
         <f>Sum(AB10:AB13)</f>
       </c>
-      <c r="AC14" s="14" t="str">
+      <c r="AC14" s="29" t="str">
         <f>Sum(AC10:AC13)</f>
       </c>
-      <c r="AD14" s="14" t="str">
+      <c r="AD14" s="29" t="str">
         <f>Sum(AD10:AD13)</f>
       </c>
-      <c r="AE14" s="14" t="str">
+      <c r="AE14" s="29" t="str">
         <f>Sum(AE10:AE13)</f>
       </c>
-      <c r="AF14" s="14" t="str">
+      <c r="AF14" s="29" t="str">
         <f>Sum(AF10:AF13)</f>
       </c>
-      <c r="AG14" s="14" t="str">
+      <c r="AG14" s="29" t="str">
         <f>Sum(AG10:AG13)</f>
       </c>
-      <c r="AH14" s="14" t="str">
+      <c r="AH14" s="29" t="str">
         <f>Sum(AH10:AH13)</f>
       </c>
-      <c r="AI14" s="14" t="str">
+      <c r="AI14" s="29" t="str">
         <f>Sum(AI10:AI13)</f>
       </c>
-      <c r="AJ14" s="14" t="str">
+      <c r="AJ14" s="29" t="str">
         <f>Sum(AJ10:AJ13)</f>
       </c>
-      <c r="AK14" s="14" t="str">
+      <c r="AK14" s="29" t="str">
         <f>Sum(AK10:AK13)</f>
       </c>
-      <c r="AL14" s="14" t="str">
+      <c r="AL14" s="29" t="str">
         <f>Sum(AL10:AL13)</f>
       </c>
-      <c r="AM14" s="14" t="str">
+      <c r="AM14" s="29" t="str">
         <f>Sum(AM10:AM13)</f>
       </c>
-      <c r="AN14" s="14" t="str">
+      <c r="AN14" s="29" t="str">
         <f>Sum(AN10:AN13)</f>
       </c>
-      <c r="AO14" s="14" t="str">
+      <c r="AO14" s="29" t="str">
         <f>Sum(AO10:AO13)</f>
       </c>
-      <c r="AP14" s="14" t="str">
+      <c r="AP14" s="29" t="str">
         <f>Sum(AP10:AP13)</f>
       </c>
-      <c r="AQ14" s="14" t="str">
+      <c r="AQ14" s="29" t="str">
         <f>Sum(AQ10:AQ13)</f>
       </c>
-      <c r="AR14" s="14" t="str">
+      <c r="AR14" s="29" t="str">
         <f>Sum(AR10:AR13)</f>
       </c>
-      <c r="AS14" s="14" t="str">
+      <c r="AS14" s="29" t="str">
         <f>Sum(AS10:AS13)</f>
       </c>
-      <c r="AT14" s="14" t="str">
+      <c r="AT14" s="29" t="str">
         <f>Sum(AT10:AT13)</f>
       </c>
-      <c r="AU14" s="14" t="str">
+      <c r="AU14" s="29" t="str">
         <f>Sum(AU10:AU13)</f>
       </c>
-      <c r="AV14" s="14" t="str">
+      <c r="AV14" s="29" t="str">
         <f>Sum(AV10:AV13)</f>
       </c>
-      <c r="AW14" s="14" t="str">
+      <c r="AW14" s="29" t="str">
         <f>Sum(AW10:AW13)</f>
       </c>
-      <c r="AX14" s="14" t="str">
+      <c r="AX14" s="29" t="str">
         <f>Sum(AX10:AX13)</f>
       </c>
-      <c r="AY14" s="14" t="str">
+      <c r="AY14" s="29" t="str">
         <f>Sum(AY10:AY13)</f>
       </c>
-      <c r="AZ14" s="14" t="str">
+      <c r="AZ14" s="29" t="str">
         <f>Sum(AZ10:AZ13)</f>
       </c>
-      <c r="BA14" s="14" t="str">
+      <c r="BA14" s="29" t="str">
         <f>Sum(BA10:BA13)</f>
       </c>
-      <c r="BB14" s="14" t="str">
+      <c r="BB14" s="29" t="str">
         <f>Sum(BB10:BB13)</f>
       </c>
-      <c r="BC14" s="14"/>
+      <c r="BC14" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23017,16 +23020,16 @@
       <c r="B2" t="str">
         <f>N2</f>
       </c>
-      <c r="C2" s="29" t="str">
+      <c r="C2" s="27" t="str">
         <f>AI2</f>
       </c>
-      <c r="D2" s="29" t="str">
+      <c r="D2" s="27" t="str">
         <f>AK2</f>
       </c>
-      <c r="E2" s="29" t="str">
+      <c r="E2" s="27" t="str">
         <f>AL2</f>
       </c>
-      <c r="F2" s="29"/>
+      <c r="F2" s="27"/>
       <c r="G2" s="1" t="str">
         <f>AL2/AK2-1</f>
       </c>
@@ -23044,79 +23047,79 @@
       <c r="N2" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="29" t="n">
+      <c r="O2" s="27" t="n">
         <v>59437630207.2448</v>
       </c>
-      <c r="P2" s="29" t="n">
+      <c r="P2" s="27" t="n">
         <v>59211288108.7318</v>
       </c>
-      <c r="Q2" s="29" t="n">
+      <c r="Q2" s="27" t="n">
         <v>62045010242.571</v>
       </c>
-      <c r="R2" s="29" t="n">
+      <c r="R2" s="27" t="n">
         <v>74254668857.86</v>
       </c>
-      <c r="S2" s="29" t="n">
+      <c r="S2" s="27" t="n">
         <v>68525978638.2338</v>
       </c>
-      <c r="T2" s="29" t="n">
+      <c r="T2" s="27" t="n">
         <v>61154400064.5777</v>
       </c>
-      <c r="U2" s="29" t="n">
+      <c r="U2" s="27" t="n">
         <v>69080591718.6393</v>
       </c>
-      <c r="V2" s="29" t="n">
+      <c r="V2" s="27" t="n">
         <v>78727250348.9854</v>
       </c>
-      <c r="W2" s="29" t="n">
+      <c r="W2" s="27" t="n">
         <v>80182202668.0941</v>
       </c>
-      <c r="X2" s="29" t="n">
+      <c r="X2" s="27" t="n">
         <v>83197598996.438</v>
       </c>
-      <c r="Y2" s="29" t="n">
+      <c r="Y2" s="27" t="n">
         <v>78877621776.0082</v>
       </c>
-      <c r="Z2" s="29" t="n">
+      <c r="Z2" s="27" t="n">
         <v>83974635584.593</v>
       </c>
-      <c r="AA2" s="29" t="n">
+      <c r="AA2" s="27" t="n">
         <v>85757952898.3284</v>
       </c>
-      <c r="AB2" s="29" t="n">
+      <c r="AB2" s="27" t="n">
         <v>78300475981.4131</v>
       </c>
-      <c r="AC2" s="29" t="n">
+      <c r="AC2" s="27" t="n">
         <v>61433665596.8671</v>
       </c>
-      <c r="AD2" s="29" t="n">
+      <c r="AD2" s="27" t="n">
         <v>63998322849.6493</v>
       </c>
-      <c r="AE2" s="29" t="n">
+      <c r="AE2" s="27" t="n">
         <v>79196536179.6018</v>
       </c>
-      <c r="AF2" s="29" t="n">
+      <c r="AF2" s="27" t="n">
         <v>88768995949.5139</v>
       </c>
-      <c r="AG2" s="29" t="n">
+      <c r="AG2" s="27" t="n">
         <v>79109600577.5145</v>
       </c>
-      <c r="AH2" s="29" t="n">
+      <c r="AH2" s="27" t="n">
         <v>84277119720.0796</v>
       </c>
-      <c r="AI2" s="29" t="n">
+      <c r="AI2" s="27" t="n">
         <v>105306850242.087</v>
       </c>
-      <c r="AJ2" s="29" t="n">
+      <c r="AJ2" s="27" t="n">
         <v>64147589758.4595</v>
       </c>
-      <c r="AK2" s="29" t="n">
+      <c r="AK2" s="27" t="n">
         <v>61632524801.5775</v>
       </c>
-      <c r="AL2" s="29" t="n">
+      <c r="AL2" s="27" t="n">
         <v>79188466054.4052</v>
       </c>
-      <c r="AM2" s="29"/>
+      <c r="AM2" s="27"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -23125,16 +23128,16 @@
       <c r="B3" t="str">
         <f>N3</f>
       </c>
-      <c r="C3" s="29" t="str">
+      <c r="C3" s="27" t="str">
         <f>AI3</f>
       </c>
-      <c r="D3" s="29" t="str">
+      <c r="D3" s="27" t="str">
         <f>AK3</f>
       </c>
-      <c r="E3" s="29" t="str">
+      <c r="E3" s="27" t="str">
         <f>AL3</f>
       </c>
-      <c r="F3" s="29"/>
+      <c r="F3" s="27"/>
       <c r="G3" s="1" t="str">
         <f>AL3/AK3-1</f>
       </c>
@@ -23152,79 +23155,79 @@
       <c r="N3" t="s">
         <v>61</v>
       </c>
-      <c r="O3" s="29" t="n">
+      <c r="O3" s="27" t="n">
         <v>34768195529.1791</v>
       </c>
-      <c r="P3" s="29" t="n">
+      <c r="P3" s="27" t="n">
         <v>36508946193.8254</v>
       </c>
-      <c r="Q3" s="29" t="n">
+      <c r="Q3" s="27" t="n">
         <v>41023799914.6688</v>
       </c>
-      <c r="R3" s="29" t="n">
+      <c r="R3" s="27" t="n">
         <v>48642520203.3657</v>
       </c>
-      <c r="S3" s="29" t="n">
+      <c r="S3" s="27" t="n">
         <v>55556887911.2154</v>
       </c>
-      <c r="T3" s="29" t="n">
+      <c r="T3" s="27" t="n">
         <v>62001073253.6825</v>
       </c>
-      <c r="U3" s="29" t="n">
+      <c r="U3" s="27" t="n">
         <v>63839431332.7391</v>
       </c>
-      <c r="V3" s="29" t="n">
+      <c r="V3" s="27" t="n">
         <v>73923513044.6965</v>
       </c>
-      <c r="W3" s="29" t="n">
+      <c r="W3" s="27" t="n">
         <v>78629077856.0985</v>
       </c>
-      <c r="X3" s="29" t="n">
+      <c r="X3" s="27" t="n">
         <v>74222496251.542</v>
       </c>
-      <c r="Y3" s="29" t="n">
+      <c r="Y3" s="27" t="n">
         <v>70259981678.1793</v>
       </c>
-      <c r="Z3" s="29" t="n">
+      <c r="Z3" s="27" t="n">
         <v>62882297569.0752</v>
       </c>
-      <c r="AA3" s="29" t="n">
+      <c r="AA3" s="27" t="n">
         <v>57340974239.2376</v>
       </c>
-      <c r="AB3" s="29" t="n">
+      <c r="AB3" s="27" t="n">
         <v>46179793496.1404</v>
       </c>
-      <c r="AC3" s="29" t="n">
+      <c r="AC3" s="27" t="n">
         <v>43865569649.2852</v>
       </c>
-      <c r="AD3" s="29" t="n">
+      <c r="AD3" s="27" t="n">
         <v>41021334099.7071</v>
       </c>
-      <c r="AE3" s="29" t="n">
+      <c r="AE3" s="27" t="n">
         <v>43068459427.2238</v>
       </c>
-      <c r="AF3" s="29" t="n">
+      <c r="AF3" s="27" t="n">
         <v>43960250354.657</v>
       </c>
-      <c r="AG3" s="29" t="n">
+      <c r="AG3" s="27" t="n">
         <v>47767789115.0819</v>
       </c>
-      <c r="AH3" s="29" t="n">
+      <c r="AH3" s="27" t="n">
         <v>50054140169.9917</v>
       </c>
-      <c r="AI3" s="29" t="n">
+      <c r="AI3" s="27" t="n">
         <v>48243857054.4228</v>
       </c>
-      <c r="AJ3" s="29" t="n">
+      <c r="AJ3" s="27" t="n">
         <v>40394212433.5729</v>
       </c>
-      <c r="AK3" s="29" t="n">
+      <c r="AK3" s="27" t="n">
         <v>40880963113.3212</v>
       </c>
-      <c r="AL3" s="29" t="n">
+      <c r="AL3" s="27" t="n">
         <v>38848195826.6314</v>
       </c>
-      <c r="AM3" s="29"/>
+      <c r="AM3" s="27"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -23233,16 +23236,16 @@
       <c r="B4" t="str">
         <f>N4</f>
       </c>
-      <c r="C4" s="29" t="str">
+      <c r="C4" s="27" t="str">
         <f>AI4</f>
       </c>
-      <c r="D4" s="29" t="str">
+      <c r="D4" s="27" t="str">
         <f>AK4</f>
       </c>
-      <c r="E4" s="29" t="str">
+      <c r="E4" s="27" t="str">
         <f>AL4</f>
       </c>
-      <c r="F4" s="29"/>
+      <c r="F4" s="27"/>
       <c r="G4" s="1" t="str">
         <f>AL4/AK4-1</f>
       </c>
@@ -23260,79 +23263,79 @@
       <c r="N4" t="s">
         <v>62</v>
       </c>
-      <c r="O4" s="29" t="n">
+      <c r="O4" s="27" t="n">
         <v>34845438461.4852</v>
       </c>
-      <c r="P4" s="29" t="n">
+      <c r="P4" s="27" t="n">
         <v>37772643397.6964</v>
       </c>
-      <c r="Q4" s="29" t="n">
+      <c r="Q4" s="27" t="n">
         <v>42038900597.5546</v>
       </c>
-      <c r="R4" s="29" t="n">
+      <c r="R4" s="27" t="n">
         <v>54521454605.5789</v>
       </c>
-      <c r="S4" s="29" t="n">
+      <c r="S4" s="27" t="n">
         <v>54894821503.216</v>
       </c>
-      <c r="T4" s="29" t="n">
+      <c r="T4" s="27" t="n">
         <v>58851160100.7417</v>
       </c>
-      <c r="U4" s="29" t="n">
+      <c r="U4" s="27" t="n">
         <v>65958170056.6272</v>
       </c>
-      <c r="V4" s="29" t="n">
+      <c r="V4" s="27" t="n">
         <v>64734205711.1249</v>
       </c>
-      <c r="W4" s="29" t="n">
+      <c r="W4" s="27" t="n">
         <v>78729947568.4735</v>
       </c>
-      <c r="X4" s="29" t="n">
+      <c r="X4" s="27" t="n">
         <v>69787451609.7343</v>
       </c>
-      <c r="Y4" s="29" t="n">
+      <c r="Y4" s="27" t="n">
         <v>75130636538.9975</v>
       </c>
-      <c r="Z4" s="29" t="n">
+      <c r="Z4" s="27" t="n">
         <v>64466910296.1132</v>
       </c>
-      <c r="AA4" s="29" t="n">
+      <c r="AA4" s="27" t="n">
         <v>57390278285.8079</v>
       </c>
-      <c r="AB4" s="29" t="n">
+      <c r="AB4" s="27" t="n">
         <v>45628972412.1476</v>
       </c>
-      <c r="AC4" s="29" t="n">
+      <c r="AC4" s="27" t="n">
         <v>47658584817.1531</v>
       </c>
-      <c r="AD4" s="29" t="n">
+      <c r="AD4" s="27" t="n">
         <v>43160720063.759</v>
       </c>
-      <c r="AE4" s="29" t="n">
+      <c r="AE4" s="27" t="n">
         <v>43574194513.3891</v>
       </c>
-      <c r="AF4" s="29" t="n">
+      <c r="AF4" s="27" t="n">
         <v>42871228807.6289</v>
       </c>
-      <c r="AG4" s="29" t="n">
+      <c r="AG4" s="27" t="n">
         <v>50555168530.8503</v>
       </c>
-      <c r="AH4" s="29" t="n">
+      <c r="AH4" s="27" t="n">
         <v>56413189615.2018</v>
       </c>
-      <c r="AI4" s="29" t="n">
+      <c r="AI4" s="27" t="n">
         <v>64399583980.7981</v>
       </c>
-      <c r="AJ4" s="29" t="n">
+      <c r="AJ4" s="27" t="n">
         <v>51996916181.6673</v>
       </c>
-      <c r="AK4" s="29" t="n">
+      <c r="AK4" s="27" t="n">
         <v>53742518637.1049</v>
       </c>
-      <c r="AL4" s="29" t="n">
+      <c r="AL4" s="27" t="n">
         <v>58831781203.8491</v>
       </c>
-      <c r="AM4" s="29"/>
+      <c r="AM4" s="27"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -23341,16 +23344,16 @@
       <c r="B5" t="str">
         <f>N5</f>
       </c>
-      <c r="C5" s="29" t="str">
+      <c r="C5" s="27" t="str">
         <f>AI5</f>
       </c>
-      <c r="D5" s="29" t="str">
+      <c r="D5" s="27" t="str">
         <f>AK5</f>
       </c>
-      <c r="E5" s="29" t="str">
+      <c r="E5" s="27" t="str">
         <f>AL5</f>
       </c>
-      <c r="F5" s="29"/>
+      <c r="F5" s="27"/>
       <c r="G5" s="1" t="str">
         <f>AL5/AK5-1</f>
       </c>
@@ -23368,79 +23371,79 @@
       <c r="N5" t="s">
         <v>63</v>
       </c>
-      <c r="O5" s="29" t="n">
+      <c r="O5" s="27" t="n">
         <v>5486401618.741</v>
       </c>
-      <c r="P5" s="29" t="n">
+      <c r="P5" s="27" t="n">
         <v>4501552552.14442</v>
       </c>
-      <c r="Q5" s="29" t="n">
+      <c r="Q5" s="27" t="n">
         <v>6737236663.50749</v>
       </c>
-      <c r="R5" s="29" t="n">
+      <c r="R5" s="27" t="n">
         <v>14715023805.6295</v>
       </c>
-      <c r="S5" s="29" t="n">
+      <c r="S5" s="27" t="n">
         <v>12366738212.5134</v>
       </c>
-      <c r="T5" s="29" t="n">
+      <c r="T5" s="27" t="n">
         <v>22404590773.3968</v>
       </c>
-      <c r="U5" s="29" t="n">
+      <c r="U5" s="27" t="n">
         <v>22899529411.2001</v>
       </c>
-      <c r="V5" s="29" t="n">
+      <c r="V5" s="27" t="n">
         <v>39879407830.0741</v>
       </c>
-      <c r="W5" s="29" t="n">
+      <c r="W5" s="27" t="n">
         <v>54903154886.5868</v>
       </c>
-      <c r="X5" s="29" t="n">
+      <c r="X5" s="27" t="n">
         <v>39200973932.8275</v>
       </c>
-      <c r="Y5" s="29" t="n">
+      <c r="Y5" s="27" t="n">
         <v>33184595595.5146</v>
       </c>
-      <c r="Z5" s="29" t="n">
+      <c r="Z5" s="27" t="n">
         <v>23656616905.0863</v>
       </c>
-      <c r="AA5" s="29" t="n">
+      <c r="AA5" s="27" t="n">
         <v>12227239764.3852</v>
       </c>
-      <c r="AB5" s="29" t="n">
+      <c r="AB5" s="27" t="n">
         <v>8720432427.42899</v>
       </c>
-      <c r="AC5" s="29" t="n">
+      <c r="AC5" s="27" t="n">
         <v>6109362711.39505</v>
       </c>
-      <c r="AD5" s="29" t="n">
+      <c r="AD5" s="27" t="n">
         <v>7268400402.10253</v>
       </c>
-      <c r="AE5" s="29" t="n">
+      <c r="AE5" s="27" t="n">
         <v>7039765507.06837</v>
       </c>
-      <c r="AF5" s="29" t="n">
+      <c r="AF5" s="27" t="n">
         <v>7834619497.10597</v>
       </c>
-      <c r="AG5" s="29" t="n">
+      <c r="AG5" s="27" t="n">
         <v>12427551361.541</v>
       </c>
-      <c r="AH5" s="29" t="n">
+      <c r="AH5" s="27" t="n">
         <v>12792869915.6386</v>
       </c>
-      <c r="AI5" s="29" t="n">
+      <c r="AI5" s="27" t="n">
         <v>11853747657.4827</v>
       </c>
-      <c r="AJ5" s="29" t="n">
+      <c r="AJ5" s="27" t="n">
         <v>9646849791.19473</v>
       </c>
-      <c r="AK5" s="29" t="n">
+      <c r="AK5" s="27" t="n">
         <v>10250823000.495</v>
       </c>
-      <c r="AL5" s="29" t="n">
+      <c r="AL5" s="27" t="n">
         <v>13182088217.2964</v>
       </c>
-      <c r="AM5" s="29"/>
+      <c r="AM5" s="27"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -23449,16 +23452,16 @@
       <c r="B6" t="str">
         <f>N6</f>
       </c>
-      <c r="C6" s="29" t="str">
+      <c r="C6" s="27" t="str">
         <f>AI6</f>
       </c>
-      <c r="D6" s="29" t="str">
+      <c r="D6" s="27" t="str">
         <f>AK6</f>
       </c>
-      <c r="E6" s="29" t="str">
+      <c r="E6" s="27" t="str">
         <f>AL6</f>
       </c>
-      <c r="F6" s="29"/>
+      <c r="F6" s="27"/>
       <c r="G6" s="1" t="str">
         <f>AL6/AK6-1</f>
       </c>
@@ -23476,79 +23479,79 @@
       <c r="N6" t="s">
         <v>64</v>
       </c>
-      <c r="O6" s="29" t="n">
+      <c r="O6" s="27" t="n">
         <v>5045267109.98122</v>
       </c>
-      <c r="P6" s="29" t="n">
+      <c r="P6" s="27" t="n">
         <v>5522106588.75984</v>
       </c>
-      <c r="Q6" s="29" t="n">
+      <c r="Q6" s="27" t="n">
         <v>7638005785.78996</v>
       </c>
-      <c r="R6" s="29" t="n">
+      <c r="R6" s="27" t="n">
         <v>7985417138.06481</v>
       </c>
-      <c r="S6" s="29" t="n">
+      <c r="S6" s="27" t="n">
         <v>9275006859.15106</v>
       </c>
-      <c r="T6" s="29" t="n">
+      <c r="T6" s="27" t="n">
         <v>9752243441.45016</v>
       </c>
-      <c r="U6" s="29" t="n">
+      <c r="U6" s="27" t="n">
         <v>9836779545.36759</v>
       </c>
-      <c r="V6" s="29" t="n">
+      <c r="V6" s="27" t="n">
         <v>11762748167.2363</v>
       </c>
-      <c r="W6" s="29" t="n">
+      <c r="W6" s="27" t="n">
         <v>12135169178.6461</v>
       </c>
-      <c r="X6" s="29" t="n">
+      <c r="X6" s="27" t="n">
         <v>14364662126.6358</v>
       </c>
-      <c r="Y6" s="29" t="n">
+      <c r="Y6" s="27" t="n">
         <v>14173262656.3534</v>
       </c>
-      <c r="Z6" s="29" t="n">
+      <c r="Z6" s="27" t="n">
         <v>14004449651.2624</v>
       </c>
-      <c r="AA6" s="29" t="n">
+      <c r="AA6" s="27" t="n">
         <v>14194639883.275</v>
       </c>
-      <c r="AB6" s="29" t="n">
+      <c r="AB6" s="27" t="n">
         <v>13183896752.6168</v>
       </c>
-      <c r="AC6" s="29" t="n">
+      <c r="AC6" s="27" t="n">
         <v>9932761347.10288</v>
       </c>
-      <c r="AD6" s="29" t="n">
+      <c r="AD6" s="27" t="n">
         <v>10387013822.3683</v>
       </c>
-      <c r="AE6" s="29" t="n">
+      <c r="AE6" s="27" t="n">
         <v>10622531855.8714</v>
       </c>
-      <c r="AF6" s="29" t="n">
+      <c r="AF6" s="27" t="n">
         <v>9013122793.04847</v>
       </c>
-      <c r="AG6" s="29" t="n">
+      <c r="AG6" s="27" t="n">
         <v>15227823170.5868</v>
       </c>
-      <c r="AH6" s="29" t="n">
+      <c r="AH6" s="27" t="n">
         <v>16420864595.8319</v>
       </c>
-      <c r="AI6" s="29" t="n">
+      <c r="AI6" s="27" t="n">
         <v>19725617745.0437</v>
       </c>
-      <c r="AJ6" s="29" t="n">
+      <c r="AJ6" s="27" t="n">
         <v>11358816271.512</v>
       </c>
-      <c r="AK6" s="29" t="n">
+      <c r="AK6" s="27" t="n">
         <v>12086366837.6955</v>
       </c>
-      <c r="AL6" s="29" t="n">
+      <c r="AL6" s="27" t="n">
         <v>9328016402.2707</v>
       </c>
-      <c r="AM6" s="29"/>
+      <c r="AM6" s="27"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -23557,16 +23560,16 @@
       <c r="B7" t="str">
         <f>N7</f>
       </c>
-      <c r="C7" s="29" t="str">
+      <c r="C7" s="27" t="str">
         <f>AI7</f>
       </c>
-      <c r="D7" s="29" t="str">
+      <c r="D7" s="27" t="str">
         <f>AK7</f>
       </c>
-      <c r="E7" s="29" t="str">
+      <c r="E7" s="27" t="str">
         <f>AL7</f>
       </c>
-      <c r="F7" s="29"/>
+      <c r="F7" s="27"/>
       <c r="G7" s="1" t="str">
         <f>AL7/AK7-1</f>
       </c>
@@ -23584,79 +23587,79 @@
       <c r="N7" t="s">
         <v>65</v>
       </c>
-      <c r="O7" s="29" t="n">
+      <c r="O7" s="27" t="n">
         <v>13435598330.5683</v>
       </c>
-      <c r="P7" s="29" t="n">
+      <c r="P7" s="27" t="n">
         <v>13950648160.02</v>
       </c>
-      <c r="Q7" s="29" t="n">
+      <c r="Q7" s="27" t="n">
         <v>18994035366.7322</v>
       </c>
-      <c r="R7" s="29" t="n">
+      <c r="R7" s="27" t="n">
         <v>20726949632.1088</v>
       </c>
-      <c r="S7" s="29" t="n">
+      <c r="S7" s="27" t="n">
         <v>21126764847.6258</v>
       </c>
-      <c r="T7" s="29" t="n">
+      <c r="T7" s="27" t="n">
         <v>21788942600.008</v>
       </c>
-      <c r="U7" s="29" t="n">
+      <c r="U7" s="27" t="n">
         <v>21195043275.7669</v>
       </c>
-      <c r="V7" s="29" t="n">
+      <c r="V7" s="27" t="n">
         <v>24865486517.8887</v>
       </c>
-      <c r="W7" s="29" t="n">
+      <c r="W7" s="27" t="n">
         <v>25342423889.8857</v>
       </c>
-      <c r="X7" s="29" t="n">
+      <c r="X7" s="27" t="n">
         <v>23577297358.9515</v>
       </c>
-      <c r="Y7" s="29" t="n">
+      <c r="Y7" s="27" t="n">
         <v>20840917989.4607</v>
       </c>
-      <c r="Z7" s="29" t="n">
+      <c r="Z7" s="27" t="n">
         <v>19095311804.9431</v>
       </c>
-      <c r="AA7" s="29" t="n">
+      <c r="AA7" s="27" t="n">
         <v>19237426337.9476</v>
       </c>
-      <c r="AB7" s="29" t="n">
+      <c r="AB7" s="27" t="n">
         <v>15687246139.3307</v>
       </c>
-      <c r="AC7" s="29" t="n">
+      <c r="AC7" s="27" t="n">
         <v>14418520032.2436</v>
       </c>
-      <c r="AD7" s="29" t="n">
+      <c r="AD7" s="27" t="n">
         <v>15099274424.0167</v>
       </c>
-      <c r="AE7" s="29" t="n">
+      <c r="AE7" s="27" t="n">
         <v>18869485905.0668</v>
       </c>
-      <c r="AF7" s="29" t="n">
+      <c r="AF7" s="27" t="n">
         <v>19800058049.2375</v>
       </c>
-      <c r="AG7" s="29" t="n">
+      <c r="AG7" s="27" t="n">
         <v>23259023201.0931</v>
       </c>
-      <c r="AH7" s="29" t="n">
+      <c r="AH7" s="27" t="n">
         <v>24931471583.4004</v>
       </c>
-      <c r="AI7" s="29" t="n">
+      <c r="AI7" s="27" t="n">
         <v>25432379888.0451</v>
       </c>
-      <c r="AJ7" s="29" t="n">
+      <c r="AJ7" s="27" t="n">
         <v>22680048765.6849</v>
       </c>
-      <c r="AK7" s="29" t="n">
+      <c r="AK7" s="27" t="n">
         <v>20245438341.2182</v>
       </c>
-      <c r="AL7" s="29" t="n">
+      <c r="AL7" s="27" t="n">
         <v>32153931499.6371</v>
       </c>
-      <c r="AM7" s="29"/>
+      <c r="AM7" s="27"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -23665,16 +23668,16 @@
       <c r="B8" t="str">
         <f>N8</f>
       </c>
-      <c r="C8" s="29" t="str">
+      <c r="C8" s="27" t="str">
         <f>AI8</f>
       </c>
-      <c r="D8" s="29" t="str">
+      <c r="D8" s="27" t="str">
         <f>AK8</f>
       </c>
-      <c r="E8" s="29" t="str">
+      <c r="E8" s="27" t="str">
         <f>AL8</f>
       </c>
-      <c r="F8" s="29"/>
+      <c r="F8" s="27"/>
       <c r="G8" s="1" t="str">
         <f>AL8/AK8-1</f>
       </c>
@@ -23692,79 +23695,79 @@
       <c r="N8" t="s">
         <v>66</v>
       </c>
-      <c r="O8" s="29" t="n">
+      <c r="O8" s="27" t="n">
         <v>13599844108.49</v>
       </c>
-      <c r="P8" s="29" t="n">
+      <c r="P8" s="27" t="n">
         <v>15714301819.3469</v>
       </c>
-      <c r="Q8" s="29" t="n">
+      <c r="Q8" s="27" t="n">
         <v>19362539644.5374</v>
       </c>
-      <c r="R8" s="29" t="n">
+      <c r="R8" s="27" t="n">
         <v>23329912347.2169</v>
       </c>
-      <c r="S8" s="29" t="n">
+      <c r="S8" s="27" t="n">
         <v>27915106150.7801</v>
       </c>
-      <c r="T8" s="29" t="n">
+      <c r="T8" s="27" t="n">
         <v>45352309280.1752</v>
       </c>
-      <c r="U8" s="29" t="n">
+      <c r="U8" s="27" t="n">
         <v>49217710774.7539</v>
       </c>
-      <c r="V8" s="29" t="n">
+      <c r="V8" s="27" t="n">
         <v>48447005805.0982</v>
       </c>
-      <c r="W8" s="29" t="n">
+      <c r="W8" s="27" t="n">
         <v>51535253186.3158</v>
       </c>
-      <c r="X8" s="29" t="n">
+      <c r="X8" s="27" t="n">
         <v>45003213342.7918</v>
       </c>
-      <c r="Y8" s="29" t="n">
+      <c r="Y8" s="27" t="n">
         <v>34855501734.0309</v>
       </c>
-      <c r="Z8" s="29" t="n">
+      <c r="Z8" s="27" t="n">
         <v>33400676989.0475</v>
       </c>
-      <c r="AA8" s="29" t="n">
+      <c r="AA8" s="27" t="n">
         <v>42248469023.2739</v>
       </c>
-      <c r="AB8" s="29" t="n">
+      <c r="AB8" s="27" t="n">
         <v>27901183172.6728</v>
       </c>
-      <c r="AC8" s="29" t="n">
+      <c r="AC8" s="27" t="n">
         <v>24455753017.8212</v>
       </c>
-      <c r="AD8" s="29" t="n">
+      <c r="AD8" s="27" t="n">
         <v>22328873891.1759</v>
       </c>
-      <c r="AE8" s="29" t="n">
+      <c r="AE8" s="27" t="n">
         <v>21604268464.1588</v>
       </c>
-      <c r="AF8" s="29" t="n">
+      <c r="AF8" s="27" t="n">
         <v>23900473892.8282</v>
       </c>
-      <c r="AG8" s="29" t="n">
+      <c r="AG8" s="27" t="n">
         <v>27092086222.2132</v>
       </c>
-      <c r="AH8" s="29" t="n">
+      <c r="AH8" s="27" t="n">
         <v>24575350374.7523</v>
       </c>
-      <c r="AI8" s="29" t="n">
+      <c r="AI8" s="27" t="n">
         <v>25808726525.6529</v>
       </c>
-      <c r="AJ8" s="29" t="n">
+      <c r="AJ8" s="27" t="n">
         <v>50368819400.4044</v>
       </c>
-      <c r="AK8" s="29" t="n">
+      <c r="AK8" s="27" t="n">
         <v>59121216072.2072</v>
       </c>
-      <c r="AL8" s="29" t="n">
+      <c r="AL8" s="27" t="n">
         <v>29089255998.0359</v>
       </c>
-      <c r="AM8" s="29"/>
+      <c r="AM8" s="27"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -23773,16 +23776,16 @@
       <c r="B9" t="str">
         <f>N9</f>
       </c>
-      <c r="C9" s="29" t="str">
+      <c r="C9" s="27" t="str">
         <f>AI9</f>
       </c>
-      <c r="D9" s="29" t="str">
+      <c r="D9" s="27" t="str">
         <f>AK9</f>
       </c>
-      <c r="E9" s="29" t="str">
+      <c r="E9" s="27" t="str">
         <f>AL9</f>
       </c>
-      <c r="F9" s="29"/>
+      <c r="F9" s="27"/>
       <c r="G9" s="1" t="str">
         <f>AL9/AK9-1</f>
       </c>
@@ -23800,79 +23803,79 @@
       <c r="N9" t="s">
         <v>67</v>
       </c>
-      <c r="O9" s="29" t="n">
+      <c r="O9" s="27" t="n">
         <v>20767413713.2481</v>
       </c>
-      <c r="P9" s="29" t="n">
+      <c r="P9" s="27" t="n">
         <v>20306854243.3095</v>
       </c>
-      <c r="Q9" s="29" t="n">
+      <c r="Q9" s="27" t="n">
         <v>25570813448.6109</v>
       </c>
-      <c r="R9" s="29" t="n">
+      <c r="R9" s="27" t="n">
         <v>29013802951.095</v>
       </c>
-      <c r="S9" s="29" t="n">
+      <c r="S9" s="27" t="n">
         <v>31521536515.0873</v>
       </c>
-      <c r="T9" s="29" t="n">
+      <c r="T9" s="27" t="n">
         <v>38045813744.8321</v>
       </c>
-      <c r="U9" s="29" t="n">
+      <c r="U9" s="27" t="n">
         <v>41671259072.7507</v>
       </c>
-      <c r="V9" s="29" t="n">
+      <c r="V9" s="27" t="n">
         <v>42705687859.4677</v>
       </c>
-      <c r="W9" s="29" t="n">
+      <c r="W9" s="27" t="n">
         <v>46545271135.9775</v>
       </c>
-      <c r="X9" s="29" t="n">
+      <c r="X9" s="27" t="n">
         <v>52078221829.0095</v>
       </c>
-      <c r="Y9" s="29" t="n">
+      <c r="Y9" s="27" t="n">
         <v>51666965340.8638</v>
       </c>
-      <c r="Z9" s="29" t="n">
+      <c r="Z9" s="27" t="n">
         <v>49611852653.0253</v>
       </c>
-      <c r="AA9" s="29" t="n">
+      <c r="AA9" s="27" t="n">
         <v>48692611895.5762</v>
       </c>
-      <c r="AB9" s="29" t="n">
+      <c r="AB9" s="27" t="n">
         <v>40105868731.5607</v>
       </c>
-      <c r="AC9" s="29" t="n">
+      <c r="AC9" s="27" t="n">
         <v>38392477279.3417</v>
       </c>
-      <c r="AD9" s="29" t="n">
+      <c r="AD9" s="27" t="n">
         <v>37081314392.2876</v>
       </c>
-      <c r="AE9" s="29" t="n">
+      <c r="AE9" s="27" t="n">
         <v>36427765440.3668</v>
       </c>
-      <c r="AF9" s="29" t="n">
+      <c r="AF9" s="27" t="n">
         <v>37175858213.5962</v>
       </c>
-      <c r="AG9" s="29" t="n">
+      <c r="AG9" s="27" t="n">
         <v>40923264507.7221</v>
       </c>
-      <c r="AH9" s="29" t="n">
+      <c r="AH9" s="27" t="n">
         <v>43623515994.3633</v>
       </c>
-      <c r="AI9" s="29" t="n">
+      <c r="AI9" s="27" t="n">
         <v>44618031494.4688</v>
       </c>
-      <c r="AJ9" s="29" t="n">
+      <c r="AJ9" s="27" t="n">
         <v>52413135742.2336</v>
       </c>
-      <c r="AK9" s="29" t="n">
+      <c r="AK9" s="27" t="n">
         <v>52210081301.9729</v>
       </c>
-      <c r="AL9" s="29" t="n">
+      <c r="AL9" s="27" t="n">
         <v>60139105077.5851</v>
       </c>
-      <c r="AM9" s="29"/>
+      <c r="AM9" s="27"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -23881,16 +23884,16 @@
       <c r="B10" t="str">
         <f>N10</f>
       </c>
-      <c r="C10" s="29" t="str">
+      <c r="C10" s="27" t="str">
         <f>AI10</f>
       </c>
-      <c r="D10" s="29" t="str">
+      <c r="D10" s="27" t="str">
         <f>AK10</f>
       </c>
-      <c r="E10" s="29" t="str">
+      <c r="E10" s="27" t="str">
         <f>AL10</f>
       </c>
-      <c r="F10" s="29"/>
+      <c r="F10" s="27"/>
       <c r="G10" s="1" t="str">
         <f>AL10/AK10-1</f>
       </c>
@@ -23908,79 +23911,79 @@
       <c r="N10" t="s">
         <v>68</v>
       </c>
-      <c r="O10" s="29" t="n">
+      <c r="O10" s="27" t="n">
         <v>10939220871.4553</v>
       </c>
-      <c r="P10" s="29" t="n">
+      <c r="P10" s="27" t="n">
         <v>12179783486.7693</v>
       </c>
-      <c r="Q10" s="29" t="n">
+      <c r="Q10" s="27" t="n">
         <v>17040037883.7473</v>
       </c>
-      <c r="R10" s="29" t="n">
+      <c r="R10" s="27" t="n">
         <v>25534021476.9988</v>
       </c>
-      <c r="S10" s="29" t="n">
+      <c r="S10" s="27" t="n">
         <v>31137361156.8747</v>
       </c>
-      <c r="T10" s="29" t="n">
+      <c r="T10" s="27" t="n">
         <v>33338045571.908</v>
       </c>
-      <c r="U10" s="29" t="n">
+      <c r="U10" s="27" t="n">
         <v>35249102232.8704</v>
       </c>
-      <c r="V10" s="29" t="n">
+      <c r="V10" s="27" t="n">
         <v>34672632661.2006</v>
       </c>
-      <c r="W10" s="29" t="n">
+      <c r="W10" s="27" t="n">
         <v>38070842439.1344</v>
       </c>
-      <c r="X10" s="29" t="n">
+      <c r="X10" s="27" t="n">
         <v>42079352047.9846</v>
       </c>
-      <c r="Y10" s="29" t="n">
+      <c r="Y10" s="27" t="n">
         <v>40692280556.1576</v>
       </c>
-      <c r="Z10" s="29" t="n">
+      <c r="Z10" s="27" t="n">
         <v>46439621415.0193</v>
       </c>
-      <c r="AA10" s="29" t="n">
+      <c r="AA10" s="27" t="n">
         <v>42363709065.2208</v>
       </c>
-      <c r="AB10" s="29" t="n">
+      <c r="AB10" s="27" t="n">
         <v>37922429188.4619</v>
       </c>
-      <c r="AC10" s="29" t="n">
+      <c r="AC10" s="27" t="n">
         <v>30548151693.1742</v>
       </c>
-      <c r="AD10" s="29" t="n">
+      <c r="AD10" s="27" t="n">
         <v>26985941054.5395</v>
       </c>
-      <c r="AE10" s="29" t="n">
+      <c r="AE10" s="27" t="n">
         <v>27516210797.6896</v>
       </c>
-      <c r="AF10" s="29" t="n">
+      <c r="AF10" s="27" t="n">
         <v>29520298083.32</v>
       </c>
-      <c r="AG10" s="29" t="n">
+      <c r="AG10" s="27" t="n">
         <v>30788001089.3238</v>
       </c>
-      <c r="AH10" s="29" t="n">
+      <c r="AH10" s="27" t="n">
         <v>31908499545.9515</v>
       </c>
-      <c r="AI10" s="29" t="n">
+      <c r="AI10" s="27" t="n">
         <v>30992189989.7488</v>
       </c>
-      <c r="AJ10" s="29" t="n">
+      <c r="AJ10" s="27" t="n">
         <v>29625263732.6794</v>
       </c>
-      <c r="AK10" s="29" t="n">
+      <c r="AK10" s="27" t="n">
         <v>29471816376.8176</v>
       </c>
-      <c r="AL10" s="29" t="n">
+      <c r="AL10" s="27" t="n">
         <v>29427671490.9201</v>
       </c>
-      <c r="AM10" s="29"/>
+      <c r="AM10" s="27"/>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -23989,16 +23992,16 @@
       <c r="B11" t="str">
         <f>N11</f>
       </c>
-      <c r="C11" s="29" t="str">
+      <c r="C11" s="27" t="str">
         <f>AI11</f>
       </c>
-      <c r="D11" s="29" t="str">
+      <c r="D11" s="27" t="str">
         <f>AK11</f>
       </c>
-      <c r="E11" s="29" t="str">
+      <c r="E11" s="27" t="str">
         <f>AL11</f>
       </c>
-      <c r="F11" s="29"/>
+      <c r="F11" s="27"/>
       <c r="G11" s="1" t="str">
         <f>AL11/AK11-1</f>
       </c>
@@ -24016,79 +24019,79 @@
       <c r="N11" t="s">
         <v>69</v>
       </c>
-      <c r="O11" s="29" t="n">
+      <c r="O11" s="27" t="n">
         <v>14029816529.6979</v>
       </c>
-      <c r="P11" s="29" t="n">
+      <c r="P11" s="27" t="n">
         <v>19693077994.1455</v>
       </c>
-      <c r="Q11" s="29" t="n">
+      <c r="Q11" s="27" t="n">
         <v>20286025886.8329</v>
       </c>
-      <c r="R11" s="29" t="n">
+      <c r="R11" s="27" t="n">
         <v>19606615458.3899</v>
       </c>
-      <c r="S11" s="29" t="n">
+      <c r="S11" s="27" t="n">
         <v>22719496478.7208</v>
       </c>
-      <c r="T11" s="29" t="n">
+      <c r="T11" s="27" t="n">
         <v>20824757419.5954</v>
       </c>
-      <c r="U11" s="29" t="n">
+      <c r="U11" s="27" t="n">
         <v>24343095620.097</v>
       </c>
-      <c r="V11" s="29" t="n">
+      <c r="V11" s="27" t="n">
         <v>24277298681.8482</v>
       </c>
-      <c r="W11" s="29" t="n">
+      <c r="W11" s="27" t="n">
         <v>26685281355.7328</v>
       </c>
-      <c r="X11" s="29" t="n">
+      <c r="X11" s="27" t="n">
         <v>25465454401.248</v>
       </c>
-      <c r="Y11" s="29" t="n">
+      <c r="Y11" s="27" t="n">
         <v>19177140401.0576</v>
       </c>
-      <c r="Z11" s="29" t="n">
+      <c r="Z11" s="27" t="n">
         <v>31675399289.0885</v>
       </c>
-      <c r="AA11" s="29" t="n">
+      <c r="AA11" s="27" t="n">
         <v>25728406328.1075</v>
       </c>
-      <c r="AB11" s="29" t="n">
+      <c r="AB11" s="27" t="n">
         <v>22758150479.3814</v>
       </c>
-      <c r="AC11" s="29" t="n">
+      <c r="AC11" s="27" t="n">
         <v>23779399846.1562</v>
       </c>
-      <c r="AD11" s="29" t="n">
+      <c r="AD11" s="27" t="n">
         <v>22940958920.9842</v>
       </c>
-      <c r="AE11" s="29" t="n">
+      <c r="AE11" s="27" t="n">
         <v>25919316968.3142</v>
       </c>
-      <c r="AF11" s="29" t="n">
+      <c r="AF11" s="27" t="n">
         <v>28868564130.0456</v>
       </c>
-      <c r="AG11" s="29" t="n">
+      <c r="AG11" s="27" t="n">
         <v>32486710691.5765</v>
       </c>
-      <c r="AH11" s="29" t="n">
+      <c r="AH11" s="27" t="n">
         <v>33177715360.1961</v>
       </c>
-      <c r="AI11" s="29" t="n">
+      <c r="AI11" s="27" t="n">
         <v>40352386332.7043</v>
       </c>
-      <c r="AJ11" s="29" t="n">
+      <c r="AJ11" s="27" t="n">
         <v>32292179611.2139</v>
       </c>
-      <c r="AK11" s="29" t="n">
+      <c r="AK11" s="27" t="n">
         <v>31958476175.6901</v>
       </c>
-      <c r="AL11" s="29" t="n">
+      <c r="AL11" s="27" t="n">
         <v>33560949773.3629</v>
       </c>
-      <c r="AM11" s="29"/>
+      <c r="AM11" s="27"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -24097,16 +24100,16 @@
       <c r="B12" t="str">
         <f>N12</f>
       </c>
-      <c r="C12" s="29" t="str">
+      <c r="C12" s="27" t="str">
         <f>AI12</f>
       </c>
-      <c r="D12" s="29" t="str">
+      <c r="D12" s="27" t="str">
         <f>AK12</f>
       </c>
-      <c r="E12" s="29" t="str">
+      <c r="E12" s="27" t="str">
         <f>AL12</f>
       </c>
-      <c r="F12" s="29"/>
+      <c r="F12" s="27"/>
       <c r="G12" s="1" t="str">
         <f>AL12/AK12-1</f>
       </c>
@@ -24124,79 +24127,79 @@
       <c r="N12" t="s">
         <v>70</v>
       </c>
-      <c r="O12" s="29" t="n">
+      <c r="O12" s="27" t="n">
         <v>5350758182.21668</v>
       </c>
-      <c r="P12" s="29" t="n">
+      <c r="P12" s="27" t="n">
         <v>6813302852.76457</v>
       </c>
-      <c r="Q12" s="29" t="n">
+      <c r="Q12" s="27" t="n">
         <v>7261784219.33336</v>
       </c>
-      <c r="R12" s="29" t="n">
+      <c r="R12" s="27" t="n">
         <v>8386638909.27419</v>
       </c>
-      <c r="S12" s="29" t="n">
+      <c r="S12" s="27" t="n">
         <v>9710946898.27079</v>
       </c>
-      <c r="T12" s="29" t="n">
+      <c r="T12" s="27" t="n">
         <v>9796685806.18224</v>
       </c>
-      <c r="U12" s="29" t="n">
+      <c r="U12" s="27" t="n">
         <v>11653358946.5798</v>
       </c>
-      <c r="V12" s="29" t="n">
+      <c r="V12" s="27" t="n">
         <v>11617955357.7599</v>
       </c>
-      <c r="W12" s="29" t="n">
+      <c r="W12" s="27" t="n">
         <v>13248156910.4665</v>
       </c>
-      <c r="X12" s="29" t="n">
+      <c r="X12" s="27" t="n">
         <v>14162004767.0274</v>
       </c>
-      <c r="Y12" s="29" t="n">
+      <c r="Y12" s="27" t="n">
         <v>11983297502.0378</v>
       </c>
-      <c r="Z12" s="29" t="n">
+      <c r="Z12" s="27" t="n">
         <v>13008660848.8734</v>
       </c>
-      <c r="AA12" s="29" t="n">
+      <c r="AA12" s="27" t="n">
         <v>11440019151.6497</v>
       </c>
-      <c r="AB12" s="29" t="n">
+      <c r="AB12" s="27" t="n">
         <v>9638259353.92449</v>
       </c>
-      <c r="AC12" s="29" t="n">
+      <c r="AC12" s="27" t="n">
         <v>9818042915.03198</v>
       </c>
-      <c r="AD12" s="29" t="n">
+      <c r="AD12" s="27" t="n">
         <v>7311026374.04543</v>
       </c>
-      <c r="AE12" s="29" t="n">
+      <c r="AE12" s="27" t="n">
         <v>7292140324.87504</v>
       </c>
-      <c r="AF12" s="29" t="n">
+      <c r="AF12" s="27" t="n">
         <v>7233282612.5749</v>
       </c>
-      <c r="AG12" s="29" t="n">
+      <c r="AG12" s="27" t="n">
         <v>7016909571.99987</v>
       </c>
-      <c r="AH12" s="29" t="n">
+      <c r="AH12" s="27" t="n">
         <v>8184757971.31364</v>
       </c>
-      <c r="AI12" s="29" t="n">
+      <c r="AI12" s="27" t="n">
         <v>8239113043.87752</v>
       </c>
-      <c r="AJ12" s="29" t="n">
+      <c r="AJ12" s="27" t="n">
         <v>3973024257.29143</v>
       </c>
-      <c r="AK12" s="29" t="n">
+      <c r="AK12" s="27" t="n">
         <v>4769784821.65306</v>
       </c>
-      <c r="AL12" s="29" t="n">
+      <c r="AL12" s="27" t="n">
         <v>5025451538.9715</v>
       </c>
-      <c r="AM12" s="29"/>
+      <c r="AM12" s="27"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -24205,16 +24208,16 @@
       <c r="B13" t="str">
         <f>N13</f>
       </c>
-      <c r="C13" s="29" t="str">
+      <c r="C13" s="27" t="str">
         <f>AI13</f>
       </c>
-      <c r="D13" s="29" t="str">
+      <c r="D13" s="27" t="str">
         <f>AK13</f>
       </c>
-      <c r="E13" s="29" t="str">
+      <c r="E13" s="27" t="str">
         <f>AL13</f>
       </c>
-      <c r="F13" s="29"/>
+      <c r="F13" s="27"/>
       <c r="G13" s="1" t="str">
         <f>AL13/AK13-1</f>
       </c>
@@ -24232,79 +24235,79 @@
       <c r="N13" t="s">
         <v>58</v>
       </c>
-      <c r="O13" s="29" t="n">
+      <c r="O13" s="27" t="n">
         <v>49452293.8135696</v>
       </c>
-      <c r="P13" s="29" t="n">
+      <c r="P13" s="27" t="n">
         <v>15843052.9291712</v>
       </c>
-      <c r="Q13" s="29" t="n">
+      <c r="Q13" s="27" t="n">
         <v>134821636.298449</v>
       </c>
-      <c r="R13" s="29" t="n">
+      <c r="R13" s="27" t="n">
         <v>119967911.594207</v>
       </c>
-      <c r="S13" s="29" t="n">
+      <c r="S13" s="27" t="n">
         <v>10934521.6829519</v>
       </c>
-      <c r="T13" s="29" t="n">
+      <c r="T13" s="27" t="n">
         <v>5711674.56061679</v>
       </c>
-      <c r="U13" s="29" t="n">
+      <c r="U13" s="27" t="n">
         <v>159658855.74992</v>
       </c>
-      <c r="V13" s="29" t="n">
+      <c r="V13" s="27" t="n">
         <v>25551712.5387472</v>
       </c>
-      <c r="W13" s="29" t="n">
+      <c r="W13" s="27" t="n">
         <v>647942.206328159</v>
       </c>
-      <c r="X13" s="29" t="n">
+      <c r="X13" s="27" t="n">
         <v>1353970.82348517</v>
       </c>
-      <c r="Y13" s="29" t="n">
+      <c r="Y13" s="27" t="n">
         <v>-320199.707200513</v>
       </c>
-      <c r="Z13" s="29" t="n">
+      <c r="Z13" s="27" t="n">
         <v>-139337.836141756</v>
       </c>
-      <c r="AA13" s="29" t="n">
+      <c r="AA13" s="27" t="n">
         <v>-7077.20300901423</v>
       </c>
-      <c r="AB13" s="29" t="n">
+      <c r="AB13" s="27" t="n">
         <v>-117424.5440476</v>
       </c>
-      <c r="AC13" s="29" t="n">
+      <c r="AC13" s="27" t="n">
         <v>567671.010781381</v>
       </c>
-      <c r="AD13" s="29" t="n">
+      <c r="AD13" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="AE13" s="29" t="n">
+      <c r="AE13" s="27" t="n">
         <v>4443615.1319988</v>
       </c>
-      <c r="AF13" s="29" t="n">
+      <c r="AF13" s="27" t="n">
         <v>-299.071500057452</v>
       </c>
-      <c r="AG13" s="29" t="n">
+      <c r="AG13" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="AH13" s="29" t="n">
+      <c r="AH13" s="27" t="n">
         <v>546254.749528136</v>
       </c>
-      <c r="AI13" s="29" t="n">
+      <c r="AI13" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="AJ13" s="29" t="n">
+      <c r="AJ13" s="27" t="n">
         <v>421053.108340354</v>
       </c>
-      <c r="AK13" s="29" t="n">
+      <c r="AK13" s="27" t="n">
         <v>62577.4762279629</v>
       </c>
-      <c r="AL13" s="29" t="n">
+      <c r="AL13" s="27" t="n">
         <v>30637.5606</v>
       </c>
-      <c r="AM13" s="29"/>
+      <c r="AM13" s="27"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -24313,16 +24316,16 @@
       <c r="B14" t="str">
         <f>N14</f>
       </c>
-      <c r="C14" s="29" t="str">
+      <c r="C14" s="27" t="str">
         <f>AI14</f>
       </c>
-      <c r="D14" s="29" t="str">
+      <c r="D14" s="27" t="str">
         <f>AK14</f>
       </c>
-      <c r="E14" s="29" t="str">
+      <c r="E14" s="27" t="str">
         <f>AL14</f>
       </c>
-      <c r="F14" s="29"/>
+      <c r="F14" s="27"/>
       <c r="G14" s="1" t="str">
         <f>AL14/AK14-1</f>
       </c>
@@ -24340,79 +24343,79 @@
       <c r="N14" t="s">
         <v>60</v>
       </c>
-      <c r="O14" s="29" t="n">
+      <c r="O14" s="27" t="n">
         <v>110099660.412558</v>
       </c>
-      <c r="P14" s="29" t="n">
+      <c r="P14" s="27" t="n">
         <v>78664277.7731819</v>
       </c>
-      <c r="Q14" s="29" t="n">
+      <c r="Q14" s="27" t="n">
         <v>1019374504.72287</v>
       </c>
-      <c r="R14" s="29" t="n">
+      <c r="R14" s="27" t="n">
         <v>3824757934.86512</v>
       </c>
-      <c r="S14" s="29" t="n">
+      <c r="S14" s="27" t="n">
         <v>5459072473.47749</v>
       </c>
-      <c r="T14" s="29" t="n">
+      <c r="T14" s="27" t="n">
         <v>9865428810.02565</v>
       </c>
-      <c r="U14" s="29" t="n">
+      <c r="U14" s="27" t="n">
         <v>9435454162.04582</v>
       </c>
-      <c r="V14" s="29" t="n">
+      <c r="V14" s="27" t="n">
         <v>6902793096.09457</v>
       </c>
-      <c r="W14" s="29" t="n">
+      <c r="W14" s="27" t="n">
         <v>12363373778.1749</v>
       </c>
-      <c r="X14" s="29" t="n">
+      <c r="X14" s="27" t="n">
         <v>6599301612.57065</v>
       </c>
-      <c r="Y14" s="29" t="n">
+      <c r="Y14" s="27" t="n">
         <v>5372500473.67393</v>
       </c>
-      <c r="Z14" s="29" t="n">
+      <c r="Z14" s="27" t="n">
         <v>5759251767.74467</v>
       </c>
-      <c r="AA14" s="29" t="n">
+      <c r="AA14" s="27" t="n">
         <v>9995721454.34759</v>
       </c>
-      <c r="AB14" s="29" t="n">
+      <c r="AB14" s="27" t="n">
         <v>8599766936.79214</v>
       </c>
-      <c r="AC14" s="29" t="n">
+      <c r="AC14" s="27" t="n">
         <v>4886851238.04725</v>
       </c>
-      <c r="AD14" s="29" t="n">
+      <c r="AD14" s="27" t="n">
         <v>4873135761.88157</v>
       </c>
-      <c r="AE14" s="29" t="n">
+      <c r="AE14" s="27" t="n">
         <v>6205144681.24476</v>
       </c>
-      <c r="AF14" s="29" t="n">
+      <c r="AF14" s="27" t="n">
         <v>6205388120.25648</v>
       </c>
-      <c r="AG14" s="29" t="n">
+      <c r="AG14" s="27" t="n">
         <v>7066950562.37728</v>
       </c>
-      <c r="AH14" s="29" t="n">
+      <c r="AH14" s="27" t="n">
         <v>9270840684.193</v>
       </c>
-      <c r="AI14" s="29" t="n">
+      <c r="AI14" s="27" t="n">
         <v>7109495815.07767</v>
       </c>
-      <c r="AJ14" s="29" t="n">
+      <c r="AJ14" s="27" t="n">
         <v>6364424904.70585</v>
       </c>
-      <c r="AK14" s="29" t="n">
+      <c r="AK14" s="27" t="n">
         <v>6211931790.09507</v>
       </c>
-      <c r="AL14" s="29" t="n">
+      <c r="AL14" s="27" t="n">
         <v>8012446970.1006</v>
       </c>
-      <c r="AM14" s="29"/>
+      <c r="AM14" s="27"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -24421,16 +24424,16 @@
       <c r="B15" t="str">
         <f>N15</f>
       </c>
-      <c r="C15" s="29" t="str">
+      <c r="C15" s="27" t="str">
         <f>AI15</f>
       </c>
-      <c r="D15" s="29" t="str">
+      <c r="D15" s="27" t="str">
         <f>AK15</f>
       </c>
-      <c r="E15" s="29" t="str">
+      <c r="E15" s="27" t="str">
         <f>AL15</f>
       </c>
-      <c r="F15" s="29"/>
+      <c r="F15" s="27"/>
       <c r="G15" s="1" t="str">
         <f>AL15/AK15-1</f>
       </c>
@@ -24448,79 +24451,79 @@
       <c r="N15" t="s">
         <v>61</v>
       </c>
-      <c r="O15" s="29" t="n">
+      <c r="O15" s="27" t="n">
         <v>117167358.741587</v>
       </c>
-      <c r="P15" s="29" t="n">
+      <c r="P15" s="27" t="n">
         <v>236186060.154231</v>
       </c>
-      <c r="Q15" s="29" t="n">
+      <c r="Q15" s="27" t="n">
         <v>634464512.668636</v>
       </c>
-      <c r="R15" s="29" t="n">
+      <c r="R15" s="27" t="n">
         <v>864023861.474285</v>
       </c>
-      <c r="S15" s="29" t="n">
+      <c r="S15" s="27" t="n">
         <v>2049791362.45062</v>
       </c>
-      <c r="T15" s="29" t="n">
+      <c r="T15" s="27" t="n">
         <v>1433805998.70756</v>
       </c>
-      <c r="U15" s="29" t="n">
+      <c r="U15" s="27" t="n">
         <v>1804372908.85056</v>
       </c>
-      <c r="V15" s="29" t="n">
+      <c r="V15" s="27" t="n">
         <v>335651403.418063</v>
       </c>
-      <c r="W15" s="29" t="n">
+      <c r="W15" s="27" t="n">
         <v>324443752.831616</v>
       </c>
-      <c r="X15" s="29" t="n">
+      <c r="X15" s="27" t="n">
         <v>567996028.748357</v>
       </c>
-      <c r="Y15" s="29" t="n">
+      <c r="Y15" s="27" t="n">
         <v>565262956.170931</v>
       </c>
-      <c r="Z15" s="29" t="n">
+      <c r="Z15" s="27" t="n">
         <v>903312897.61517</v>
       </c>
-      <c r="AA15" s="29" t="n">
+      <c r="AA15" s="27" t="n">
         <v>892824646.937328</v>
       </c>
-      <c r="AB15" s="29" t="n">
+      <c r="AB15" s="27" t="n">
         <v>1204769184.84938</v>
       </c>
-      <c r="AC15" s="29" t="n">
+      <c r="AC15" s="27" t="n">
         <v>1011945300.06183</v>
       </c>
-      <c r="AD15" s="29" t="n">
+      <c r="AD15" s="27" t="n">
         <v>985367747.868534</v>
       </c>
-      <c r="AE15" s="29" t="n">
+      <c r="AE15" s="27" t="n">
         <v>1480137091.91365</v>
       </c>
-      <c r="AF15" s="29" t="n">
+      <c r="AF15" s="27" t="n">
         <v>2130638154.62157</v>
       </c>
-      <c r="AG15" s="29" t="n">
+      <c r="AG15" s="27" t="n">
         <v>2385871291.9746</v>
       </c>
-      <c r="AH15" s="29" t="n">
+      <c r="AH15" s="27" t="n">
         <v>2370306862.00905</v>
       </c>
-      <c r="AI15" s="29" t="n">
+      <c r="AI15" s="27" t="n">
         <v>1913432758.45798</v>
       </c>
-      <c r="AJ15" s="29" t="n">
+      <c r="AJ15" s="27" t="n">
         <v>2176963868.41443</v>
       </c>
-      <c r="AK15" s="29" t="n">
+      <c r="AK15" s="27" t="n">
         <v>1703601326.1762</v>
       </c>
-      <c r="AL15" s="29" t="n">
+      <c r="AL15" s="27" t="n">
         <v>2861615194.9487</v>
       </c>
-      <c r="AM15" s="29"/>
+      <c r="AM15" s="27"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -24529,16 +24532,16 @@
       <c r="B16" t="str">
         <f>N16</f>
       </c>
-      <c r="C16" s="29" t="str">
+      <c r="C16" s="27" t="str">
         <f>AI16</f>
       </c>
-      <c r="D16" s="29" t="str">
+      <c r="D16" s="27" t="str">
         <f>AK16</f>
       </c>
-      <c r="E16" s="29" t="str">
+      <c r="E16" s="27" t="str">
         <f>AL16</f>
       </c>
-      <c r="F16" s="29"/>
+      <c r="F16" s="27"/>
       <c r="G16" s="1" t="str">
         <f>AL16/AK16-1</f>
       </c>
@@ -24556,79 +24559,79 @@
       <c r="N16" t="s">
         <v>62</v>
       </c>
-      <c r="O16" s="29" t="n">
+      <c r="O16" s="27" t="n">
         <v>122810538.8715</v>
       </c>
-      <c r="P16" s="29" t="n">
+      <c r="P16" s="27" t="n">
         <v>88054801.3379279</v>
       </c>
-      <c r="Q16" s="29" t="n">
+      <c r="Q16" s="27" t="n">
         <v>77403630.2273528</v>
       </c>
-      <c r="R16" s="29" t="n">
+      <c r="R16" s="27" t="n">
         <v>94785852.1989474</v>
       </c>
-      <c r="S16" s="29" t="n">
+      <c r="S16" s="27" t="n">
         <v>231725349.862572</v>
       </c>
-      <c r="T16" s="29" t="n">
+      <c r="T16" s="27" t="n">
         <v>284834141.930451</v>
       </c>
-      <c r="U16" s="29" t="n">
+      <c r="U16" s="27" t="n">
         <v>291808323.569528</v>
       </c>
-      <c r="V16" s="29" t="n">
+      <c r="V16" s="27" t="n">
         <v>663339717.454926</v>
       </c>
-      <c r="W16" s="29" t="n">
+      <c r="W16" s="27" t="n">
         <v>704910596.756886</v>
       </c>
-      <c r="X16" s="29" t="n">
+      <c r="X16" s="27" t="n">
         <v>692531237.335692</v>
       </c>
-      <c r="Y16" s="29" t="n">
+      <c r="Y16" s="27" t="n">
         <v>1623479140.11611</v>
       </c>
-      <c r="Z16" s="29" t="n">
+      <c r="Z16" s="27" t="n">
         <v>1888415968.34233</v>
       </c>
-      <c r="AA16" s="29" t="n">
+      <c r="AA16" s="27" t="n">
         <v>1670124429.61354</v>
       </c>
-      <c r="AB16" s="29" t="n">
+      <c r="AB16" s="27" t="n">
         <v>1647880034.34434</v>
       </c>
-      <c r="AC16" s="29" t="n">
+      <c r="AC16" s="27" t="n">
         <v>1964593999.37621</v>
       </c>
-      <c r="AD16" s="29" t="n">
+      <c r="AD16" s="27" t="n">
         <v>1531318000.2639</v>
       </c>
-      <c r="AE16" s="29" t="n">
+      <c r="AE16" s="27" t="n">
         <v>1198422252.3702</v>
       </c>
-      <c r="AF16" s="29" t="n">
+      <c r="AF16" s="27" t="n">
         <v>1143481661.1258</v>
       </c>
-      <c r="AG16" s="29" t="n">
+      <c r="AG16" s="27" t="n">
         <v>1251612669.78872</v>
       </c>
-      <c r="AH16" s="29" t="n">
+      <c r="AH16" s="27" t="n">
         <v>1422651243.24051</v>
       </c>
-      <c r="AI16" s="29" t="n">
+      <c r="AI16" s="27" t="n">
         <v>1853615449.27931</v>
       </c>
-      <c r="AJ16" s="29" t="n">
+      <c r="AJ16" s="27" t="n">
         <v>2165396538.68423</v>
       </c>
-      <c r="AK16" s="29" t="n">
+      <c r="AK16" s="27" t="n">
         <v>3094706690.9881</v>
       </c>
-      <c r="AL16" s="29" t="n">
+      <c r="AL16" s="27" t="n">
         <v>2397983066.7312</v>
       </c>
-      <c r="AM16" s="29"/>
+      <c r="AM16" s="27"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -24637,16 +24640,16 @@
       <c r="B17" t="str">
         <f>N17</f>
       </c>
-      <c r="C17" s="29" t="str">
+      <c r="C17" s="27" t="str">
         <f>AI17</f>
       </c>
-      <c r="D17" s="29" t="str">
+      <c r="D17" s="27" t="str">
         <f>AK17</f>
       </c>
-      <c r="E17" s="29" t="str">
+      <c r="E17" s="27" t="str">
         <f>AL17</f>
       </c>
-      <c r="F17" s="29"/>
+      <c r="F17" s="27"/>
       <c r="G17" s="1" t="str">
         <f>AL17/AK17-1</f>
       </c>
@@ -24664,79 +24667,79 @@
       <c r="N17" t="s">
         <v>63</v>
       </c>
-      <c r="O17" s="29" t="n">
+      <c r="O17" s="27" t="n">
         <v>223312048.663891</v>
       </c>
-      <c r="P17" s="29" t="n">
+      <c r="P17" s="27" t="n">
         <v>911363466.256188</v>
       </c>
-      <c r="Q17" s="29" t="n">
+      <c r="Q17" s="27" t="n">
         <v>994764781.322826</v>
       </c>
-      <c r="R17" s="29" t="n">
+      <c r="R17" s="27" t="n">
         <v>571862227.634484</v>
       </c>
-      <c r="S17" s="29" t="n">
+      <c r="S17" s="27" t="n">
         <v>849865107.155529</v>
       </c>
-      <c r="T17" s="29" t="n">
+      <c r="T17" s="27" t="n">
         <v>518649498.643925</v>
       </c>
-      <c r="U17" s="29" t="n">
+      <c r="U17" s="27" t="n">
         <v>446811488.845499</v>
       </c>
-      <c r="V17" s="29" t="n">
+      <c r="V17" s="27" t="n">
         <v>-15993539.8353005</v>
       </c>
-      <c r="W17" s="29" t="n">
+      <c r="W17" s="27" t="n">
         <v>152455436.824145</v>
       </c>
-      <c r="X17" s="29" t="n">
+      <c r="X17" s="27" t="n">
         <v>218258523.191347</v>
       </c>
-      <c r="Y17" s="29" t="n">
+      <c r="Y17" s="27" t="n">
         <v>253114336.078972</v>
       </c>
-      <c r="Z17" s="29" t="n">
+      <c r="Z17" s="27" t="n">
         <v>378662643.214911</v>
       </c>
-      <c r="AA17" s="29" t="n">
+      <c r="AA17" s="27" t="n">
         <v>351556730.035811</v>
       </c>
-      <c r="AB17" s="29" t="n">
+      <c r="AB17" s="27" t="n">
         <v>127801010.859185</v>
       </c>
-      <c r="AC17" s="29" t="n">
+      <c r="AC17" s="27" t="n">
         <v>330231829.756293</v>
       </c>
-      <c r="AD17" s="29" t="n">
+      <c r="AD17" s="27" t="n">
         <v>1209450013.4581</v>
       </c>
-      <c r="AE17" s="29" t="n">
+      <c r="AE17" s="27" t="n">
         <v>1350262720.16384</v>
       </c>
-      <c r="AF17" s="29" t="n">
+      <c r="AF17" s="27" t="n">
         <v>1486640992.77409</v>
       </c>
-      <c r="AG17" s="29" t="n">
+      <c r="AG17" s="27" t="n">
         <v>1557520674.98228</v>
       </c>
-      <c r="AH17" s="29" t="n">
+      <c r="AH17" s="27" t="n">
         <v>1275765512.69342</v>
       </c>
-      <c r="AI17" s="29" t="n">
+      <c r="AI17" s="27" t="n">
         <v>798252061.491702</v>
       </c>
-      <c r="AJ17" s="29" t="n">
+      <c r="AJ17" s="27" t="n">
         <v>431293310.313594</v>
       </c>
-      <c r="AK17" s="29" t="n">
+      <c r="AK17" s="27" t="n">
         <v>364331220.666703</v>
       </c>
-      <c r="AL17" s="29" t="n">
+      <c r="AL17" s="27" t="n">
         <v>447981792.5263</v>
       </c>
-      <c r="AM17" s="29"/>
+      <c r="AM17" s="27"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -24745,16 +24748,16 @@
       <c r="B18" t="str">
         <f>N18</f>
       </c>
-      <c r="C18" s="29" t="str">
+      <c r="C18" s="27" t="str">
         <f>AI18</f>
       </c>
-      <c r="D18" s="29" t="str">
+      <c r="D18" s="27" t="str">
         <f>AK18</f>
       </c>
-      <c r="E18" s="29" t="str">
+      <c r="E18" s="27" t="str">
         <f>AL18</f>
       </c>
-      <c r="F18" s="29"/>
+      <c r="F18" s="27"/>
       <c r="G18" s="1" t="str">
         <f>AL18/AK18-1</f>
       </c>
@@ -24772,69 +24775,69 @@
       <c r="N18" t="s">
         <v>64</v>
       </c>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29" t="n">
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="U18" s="29" t="n">
+      <c r="U18" s="27" t="n">
         <v>2181673.56151467</v>
       </c>
-      <c r="V18" s="29" t="n">
+      <c r="V18" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="W18" s="29" t="n">
+      <c r="W18" s="27" t="n">
         <v>17357638.3002127</v>
       </c>
-      <c r="X18" s="29" t="n">
+      <c r="X18" s="27" t="n">
         <v>46593781.2247896</v>
       </c>
-      <c r="Y18" s="29" t="n">
+      <c r="Y18" s="27" t="n">
         <v>171406125.142513</v>
       </c>
-      <c r="Z18" s="29" t="n">
+      <c r="Z18" s="27" t="n">
         <v>511242530.752466</v>
       </c>
-      <c r="AA18" s="29" t="n">
+      <c r="AA18" s="27" t="n">
         <v>555689935.827313</v>
       </c>
-      <c r="AB18" s="29" t="n">
+      <c r="AB18" s="27" t="n">
         <v>554620380.661219</v>
       </c>
-      <c r="AC18" s="29" t="n">
+      <c r="AC18" s="27" t="n">
         <v>545924394.91961</v>
       </c>
-      <c r="AD18" s="29" t="n">
+      <c r="AD18" s="27" t="n">
         <v>1064367860.74387</v>
       </c>
-      <c r="AE18" s="29" t="n">
+      <c r="AE18" s="27" t="n">
         <v>1361382799.9605</v>
       </c>
-      <c r="AF18" s="29" t="n">
+      <c r="AF18" s="27" t="n">
         <v>1195990049.79476</v>
       </c>
-      <c r="AG18" s="29" t="n">
+      <c r="AG18" s="27" t="n">
         <v>489630927.398439</v>
       </c>
-      <c r="AH18" s="29" t="n">
+      <c r="AH18" s="27" t="n">
         <v>624419028.787747</v>
       </c>
-      <c r="AI18" s="29" t="n">
+      <c r="AI18" s="27" t="n">
         <v>2387217382.40273</v>
       </c>
-      <c r="AJ18" s="29" t="n">
+      <c r="AJ18" s="27" t="n">
         <v>1920840265.79068</v>
       </c>
-      <c r="AK18" s="29" t="n">
+      <c r="AK18" s="27" t="n">
         <v>2151998223.81499</v>
       </c>
-      <c r="AL18" s="29" t="n">
+      <c r="AL18" s="27" t="n">
         <v>3049943479.6013</v>
       </c>
-      <c r="AM18" s="29"/>
+      <c r="AM18" s="27"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -24843,16 +24846,16 @@
       <c r="B19" t="str">
         <f>N19</f>
       </c>
-      <c r="C19" s="29" t="str">
+      <c r="C19" s="27" t="str">
         <f>AI19</f>
       </c>
-      <c r="D19" s="29" t="str">
+      <c r="D19" s="27" t="str">
         <f>AK19</f>
       </c>
-      <c r="E19" s="29" t="str">
+      <c r="E19" s="27" t="str">
         <f>AL19</f>
       </c>
-      <c r="F19" s="29"/>
+      <c r="F19" s="27"/>
       <c r="G19" s="1" t="str">
         <f>AL19/AK19-1</f>
       </c>
@@ -24870,79 +24873,79 @@
       <c r="N19" t="s">
         <v>65</v>
       </c>
-      <c r="O19" s="29" t="n">
+      <c r="O19" s="27" t="n">
         <v>1159344108.896</v>
       </c>
-      <c r="P19" s="29" t="n">
+      <c r="P19" s="27" t="n">
         <v>1020054441.54575</v>
       </c>
-      <c r="Q19" s="29" t="n">
+      <c r="Q19" s="27" t="n">
         <v>977578556.004139</v>
       </c>
-      <c r="R19" s="29" t="n">
+      <c r="R19" s="27" t="n">
         <v>790965833.805683</v>
       </c>
-      <c r="S19" s="29" t="n">
+      <c r="S19" s="27" t="n">
         <v>684067938.376563</v>
       </c>
-      <c r="T19" s="29" t="n">
+      <c r="T19" s="27" t="n">
         <v>502000602.18196</v>
       </c>
-      <c r="U19" s="29" t="n">
+      <c r="U19" s="27" t="n">
         <v>664085965.851707</v>
       </c>
-      <c r="V19" s="29" t="n">
+      <c r="V19" s="27" t="n">
         <v>543262630.328909</v>
       </c>
-      <c r="W19" s="29" t="n">
+      <c r="W19" s="27" t="n">
         <v>1281765196.79888</v>
       </c>
-      <c r="X19" s="29" t="n">
+      <c r="X19" s="27" t="n">
         <v>826451506.833603</v>
       </c>
-      <c r="Y19" s="29" t="n">
+      <c r="Y19" s="27" t="n">
         <v>1354545660.59451</v>
       </c>
-      <c r="Z19" s="29" t="n">
+      <c r="Z19" s="27" t="n">
         <v>915783263.744493</v>
       </c>
-      <c r="AA19" s="29" t="n">
+      <c r="AA19" s="27" t="n">
         <v>669031246.468658</v>
       </c>
-      <c r="AB19" s="29" t="n">
+      <c r="AB19" s="27" t="n">
         <v>793341687.591477</v>
       </c>
-      <c r="AC19" s="29" t="n">
+      <c r="AC19" s="27" t="n">
         <v>1042885833.84679</v>
       </c>
-      <c r="AD19" s="29" t="n">
+      <c r="AD19" s="27" t="n">
         <v>1140642970.69615</v>
       </c>
-      <c r="AE19" s="29" t="n">
+      <c r="AE19" s="27" t="n">
         <v>809273017.772064</v>
       </c>
-      <c r="AF19" s="29" t="n">
+      <c r="AF19" s="27" t="n">
         <v>1217091255.48344</v>
       </c>
-      <c r="AG19" s="29" t="n">
+      <c r="AG19" s="27" t="n">
         <v>1643105611.39979</v>
       </c>
-      <c r="AH19" s="29" t="n">
+      <c r="AH19" s="27" t="n">
         <v>1244100062.45772</v>
       </c>
-      <c r="AI19" s="29" t="n">
+      <c r="AI19" s="27" t="n">
         <v>1396356462.07828</v>
       </c>
-      <c r="AJ19" s="29" t="n">
+      <c r="AJ19" s="27" t="n">
         <v>1410007538.55022</v>
       </c>
-      <c r="AK19" s="29" t="n">
+      <c r="AK19" s="27" t="n">
         <v>668145090.609278</v>
       </c>
-      <c r="AL19" s="29" t="n">
+      <c r="AL19" s="27" t="n">
         <v>1190114919.3018</v>
       </c>
-      <c r="AM19" s="29"/>
+      <c r="AM19" s="27"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -24951,16 +24954,16 @@
       <c r="B20" t="str">
         <f>N20</f>
       </c>
-      <c r="C20" s="29" t="str">
+      <c r="C20" s="27" t="str">
         <f>AI20</f>
       </c>
-      <c r="D20" s="29" t="str">
+      <c r="D20" s="27" t="str">
         <f>AK20</f>
       </c>
-      <c r="E20" s="29" t="str">
+      <c r="E20" s="27" t="str">
         <f>AL20</f>
       </c>
-      <c r="F20" s="29"/>
+      <c r="F20" s="27"/>
       <c r="G20" s="1" t="str">
         <f>AL20/AK20-1</f>
       </c>
@@ -24978,79 +24981,79 @@
       <c r="N20" t="s">
         <v>66</v>
       </c>
-      <c r="O20" s="29" t="n">
+      <c r="O20" s="27" t="n">
         <v>920011377.240056</v>
       </c>
-      <c r="P20" s="29" t="n">
+      <c r="P20" s="27" t="n">
         <v>1068804178.51338</v>
       </c>
-      <c r="Q20" s="29" t="n">
+      <c r="Q20" s="27" t="n">
         <v>2278313971.68038</v>
       </c>
-      <c r="R20" s="29" t="n">
+      <c r="R20" s="27" t="n">
         <v>1314182313.45545</v>
       </c>
-      <c r="S20" s="29" t="n">
+      <c r="S20" s="27" t="n">
         <v>432992232.292929</v>
       </c>
-      <c r="T20" s="29" t="n">
+      <c r="T20" s="27" t="n">
         <v>2394157457.34838</v>
       </c>
-      <c r="U20" s="29" t="n">
+      <c r="U20" s="27" t="n">
         <v>1143204740.6086</v>
       </c>
-      <c r="V20" s="29" t="n">
+      <c r="V20" s="27" t="n">
         <v>103016588.539979</v>
       </c>
-      <c r="W20" s="29" t="n">
+      <c r="W20" s="27" t="n">
         <v>2687277024.39891</v>
       </c>
-      <c r="X20" s="29" t="n">
+      <c r="X20" s="27" t="n">
         <v>2747476959.29644</v>
       </c>
-      <c r="Y20" s="29" t="n">
+      <c r="Y20" s="27" t="n">
         <v>2126802365.57939</v>
       </c>
-      <c r="Z20" s="29" t="n">
+      <c r="Z20" s="27" t="n">
         <v>3622062856.37905</v>
       </c>
-      <c r="AA20" s="29" t="n">
+      <c r="AA20" s="27" t="n">
         <v>1595813446.43973</v>
       </c>
-      <c r="AB20" s="29" t="n">
+      <c r="AB20" s="27" t="n">
         <v>3790198396.21208</v>
       </c>
-      <c r="AC20" s="29" t="n">
+      <c r="AC20" s="27" t="n">
         <v>3938514518.88886</v>
       </c>
-      <c r="AD20" s="29" t="n">
+      <c r="AD20" s="27" t="n">
         <v>1694563845.67902</v>
       </c>
-      <c r="AE20" s="29" t="n">
+      <c r="AE20" s="27" t="n">
         <v>311068781.99979</v>
       </c>
-      <c r="AF20" s="29" t="n">
+      <c r="AF20" s="27" t="n">
         <v>210697536.945514</v>
       </c>
-      <c r="AG20" s="29" t="n">
+      <c r="AG20" s="27" t="n">
         <v>277824046.988213</v>
       </c>
-      <c r="AH20" s="29" t="n">
+      <c r="AH20" s="27" t="n">
         <v>395555850.571396</v>
       </c>
-      <c r="AI20" s="29" t="n">
+      <c r="AI20" s="27" t="n">
         <v>1670663035.0883</v>
       </c>
-      <c r="AJ20" s="29" t="n">
+      <c r="AJ20" s="27" t="n">
         <v>8038459670.97326</v>
       </c>
-      <c r="AK20" s="29" t="n">
+      <c r="AK20" s="27" t="n">
         <v>280272165.177478</v>
       </c>
-      <c r="AL20" s="29" t="n">
+      <c r="AL20" s="27" t="n">
         <v>273784814.4502</v>
       </c>
-      <c r="AM20" s="29"/>
+      <c r="AM20" s="27"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -25059,16 +25062,16 @@
       <c r="B21" t="str">
         <f>N21</f>
       </c>
-      <c r="C21" s="29" t="str">
+      <c r="C21" s="27" t="str">
         <f>AI21</f>
       </c>
-      <c r="D21" s="29" t="str">
+      <c r="D21" s="27" t="str">
         <f>AK21</f>
       </c>
-      <c r="E21" s="29" t="str">
+      <c r="E21" s="27" t="str">
         <f>AL21</f>
       </c>
-      <c r="F21" s="29"/>
+      <c r="F21" s="27"/>
       <c r="G21" s="1" t="str">
         <f>AL21/AK21-1</f>
       </c>
@@ -25086,79 +25089,79 @@
       <c r="N21" t="s">
         <v>67</v>
       </c>
-      <c r="O21" s="29" t="n">
+      <c r="O21" s="27" t="n">
         <v>107842459.647253</v>
       </c>
-      <c r="P21" s="29" t="n">
+      <c r="P21" s="27" t="n">
         <v>82556981.5931506</v>
       </c>
-      <c r="Q21" s="29" t="n">
+      <c r="Q21" s="27" t="n">
         <v>22481693.6368648</v>
       </c>
-      <c r="R21" s="29" t="n">
+      <c r="R21" s="27" t="n">
         <v>200023151.917637</v>
       </c>
-      <c r="S21" s="29" t="n">
+      <c r="S21" s="27" t="n">
         <v>266872614.610659</v>
       </c>
-      <c r="T21" s="29" t="n">
+      <c r="T21" s="27" t="n">
         <v>141816686.702248</v>
       </c>
-      <c r="U21" s="29" t="n">
+      <c r="U21" s="27" t="n">
         <v>108743826.528041</v>
       </c>
-      <c r="V21" s="29" t="n">
+      <c r="V21" s="27" t="n">
         <v>186734670.666863</v>
       </c>
-      <c r="W21" s="29" t="n">
+      <c r="W21" s="27" t="n">
         <v>322297421.472713</v>
       </c>
-      <c r="X21" s="29" t="n">
+      <c r="X21" s="27" t="n">
         <v>415406866.648108</v>
       </c>
-      <c r="Y21" s="29" t="n">
+      <c r="Y21" s="27" t="n">
         <v>843276437.805503</v>
       </c>
-      <c r="Z21" s="29" t="n">
+      <c r="Z21" s="27" t="n">
         <v>850814445.684947</v>
       </c>
-      <c r="AA21" s="29" t="n">
+      <c r="AA21" s="27" t="n">
         <v>779688347.098058</v>
       </c>
-      <c r="AB21" s="29" t="n">
+      <c r="AB21" s="27" t="n">
         <v>844398972.17768</v>
       </c>
-      <c r="AC21" s="29" t="n">
+      <c r="AC21" s="27" t="n">
         <v>555036719.286072</v>
       </c>
-      <c r="AD21" s="29" t="n">
+      <c r="AD21" s="27" t="n">
         <v>640698318.198843</v>
       </c>
-      <c r="AE21" s="29" t="n">
+      <c r="AE21" s="27" t="n">
         <v>856909971.773057</v>
       </c>
-      <c r="AF21" s="29" t="n">
+      <c r="AF21" s="27" t="n">
         <v>1127150163.91419</v>
       </c>
-      <c r="AG21" s="29" t="n">
+      <c r="AG21" s="27" t="n">
         <v>813628065.877135</v>
       </c>
-      <c r="AH21" s="29" t="n">
+      <c r="AH21" s="27" t="n">
         <v>1275927940.64558</v>
       </c>
-      <c r="AI21" s="29" t="n">
+      <c r="AI21" s="27" t="n">
         <v>1452405988.5093</v>
       </c>
-      <c r="AJ21" s="29" t="n">
+      <c r="AJ21" s="27" t="n">
         <v>1087696839.05956</v>
       </c>
-      <c r="AK21" s="29" t="n">
+      <c r="AK21" s="27" t="n">
         <v>1157978895.9464</v>
       </c>
-      <c r="AL21" s="29" t="n">
+      <c r="AL21" s="27" t="n">
         <v>1880387533.3401</v>
       </c>
-      <c r="AM21" s="29"/>
+      <c r="AM21" s="27"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -25167,16 +25170,16 @@
       <c r="B22" t="str">
         <f>N22</f>
       </c>
-      <c r="C22" s="29" t="str">
+      <c r="C22" s="27" t="str">
         <f>AI22</f>
       </c>
-      <c r="D22" s="29" t="str">
+      <c r="D22" s="27" t="str">
         <f>AK22</f>
       </c>
-      <c r="E22" s="29" t="str">
+      <c r="E22" s="27" t="str">
         <f>AL22</f>
       </c>
-      <c r="F22" s="29"/>
+      <c r="F22" s="27"/>
       <c r="G22" s="1" t="str">
         <f>AL22/AK22-1</f>
       </c>
@@ -25194,75 +25197,75 @@
       <c r="N22" t="s">
         <v>68</v>
       </c>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29" t="n">
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27" t="n">
         <v>500949.16616074</v>
       </c>
-      <c r="R22" s="29" t="n">
+      <c r="R22" s="27" t="n">
         <v>1421347.21043611</v>
       </c>
-      <c r="S22" s="29" t="n">
+      <c r="S22" s="27" t="n">
         <v>5361383.98554956</v>
       </c>
-      <c r="T22" s="29" t="n">
+      <c r="T22" s="27" t="n">
         <v>26297114.4989143</v>
       </c>
-      <c r="U22" s="29" t="n">
+      <c r="U22" s="27" t="n">
         <v>12353385.0704913</v>
       </c>
-      <c r="V22" s="29" t="n">
+      <c r="V22" s="27" t="n">
         <v>11072724.4866451</v>
       </c>
-      <c r="W22" s="29" t="n">
+      <c r="W22" s="27" t="n">
         <v>22635387.9657976</v>
       </c>
-      <c r="X22" s="29" t="n">
+      <c r="X22" s="27" t="n">
         <v>31649377.8563304</v>
       </c>
-      <c r="Y22" s="29" t="n">
+      <c r="Y22" s="27" t="n">
         <v>69082762.8801099</v>
       </c>
-      <c r="Z22" s="29" t="n">
+      <c r="Z22" s="27" t="n">
         <v>128686448.144607</v>
       </c>
-      <c r="AA22" s="29" t="n">
+      <c r="AA22" s="27" t="n">
         <v>325700106.458828</v>
       </c>
-      <c r="AB22" s="29" t="n">
+      <c r="AB22" s="27" t="n">
         <v>278518343.995549</v>
       </c>
-      <c r="AC22" s="29" t="n">
+      <c r="AC22" s="27" t="n">
         <v>144342756.273598</v>
       </c>
-      <c r="AD22" s="29" t="n">
+      <c r="AD22" s="27" t="n">
         <v>118176555.747178</v>
       </c>
-      <c r="AE22" s="29" t="n">
+      <c r="AE22" s="27" t="n">
         <v>94268986.8709606</v>
       </c>
-      <c r="AF22" s="29" t="n">
+      <c r="AF22" s="27" t="n">
         <v>118450998.461128</v>
       </c>
-      <c r="AG22" s="29" t="n">
+      <c r="AG22" s="27" t="n">
         <v>258474156.294841</v>
       </c>
-      <c r="AH22" s="29" t="n">
+      <c r="AH22" s="27" t="n">
         <v>102898869.604246</v>
       </c>
-      <c r="AI22" s="29" t="n">
+      <c r="AI22" s="27" t="n">
         <v>157248779.412383</v>
       </c>
-      <c r="AJ22" s="29" t="n">
+      <c r="AJ22" s="27" t="n">
         <v>175345363.055805</v>
       </c>
-      <c r="AK22" s="29" t="n">
+      <c r="AK22" s="27" t="n">
         <v>267336269.068938</v>
       </c>
-      <c r="AL22" s="29" t="n">
+      <c r="AL22" s="27" t="n">
         <v>423359381.986</v>
       </c>
-      <c r="AM22" s="29"/>
+      <c r="AM22" s="27"/>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -25271,16 +25274,16 @@
       <c r="B23" t="str">
         <f>N23</f>
       </c>
-      <c r="C23" s="29" t="str">
+      <c r="C23" s="27" t="str">
         <f>AI23</f>
       </c>
-      <c r="D23" s="29" t="str">
+      <c r="D23" s="27" t="str">
         <f>AK23</f>
       </c>
-      <c r="E23" s="29" t="str">
+      <c r="E23" s="27" t="str">
         <f>AL23</f>
       </c>
-      <c r="F23" s="29"/>
+      <c r="F23" s="27"/>
       <c r="G23" s="1" t="str">
         <f>AL23/AK23-1</f>
       </c>
@@ -25298,79 +25301,79 @@
       <c r="N23" t="s">
         <v>69</v>
       </c>
-      <c r="O23" s="29" t="n">
+      <c r="O23" s="27" t="n">
         <v>1698942072.72133</v>
       </c>
-      <c r="P23" s="29" t="n">
+      <c r="P23" s="27" t="n">
         <v>667231689.746219</v>
       </c>
-      <c r="Q23" s="29" t="n">
+      <c r="Q23" s="27" t="n">
         <v>229541392.802605</v>
       </c>
-      <c r="R23" s="29" t="n">
+      <c r="R23" s="27" t="n">
         <v>486241383.126826</v>
       </c>
-      <c r="S23" s="29" t="n">
+      <c r="S23" s="27" t="n">
         <v>253193877.894965</v>
       </c>
-      <c r="T23" s="29" t="n">
+      <c r="T23" s="27" t="n">
         <v>264367639.007765</v>
       </c>
-      <c r="U23" s="29" t="n">
+      <c r="U23" s="27" t="n">
         <v>125002327.636753</v>
       </c>
-      <c r="V23" s="29" t="n">
+      <c r="V23" s="27" t="n">
         <v>150089414.363696</v>
       </c>
-      <c r="W23" s="29" t="n">
+      <c r="W23" s="27" t="n">
         <v>156376649.404194</v>
       </c>
-      <c r="X23" s="29" t="n">
+      <c r="X23" s="27" t="n">
         <v>3982384804.18903</v>
       </c>
-      <c r="Y23" s="29" t="n">
+      <c r="Y23" s="27" t="n">
         <v>3740017137.84028</v>
       </c>
-      <c r="Z23" s="29" t="n">
+      <c r="Z23" s="27" t="n">
         <v>4790852418.30985</v>
       </c>
-      <c r="AA23" s="29" t="n">
+      <c r="AA23" s="27" t="n">
         <v>3969606632.14502</v>
       </c>
-      <c r="AB23" s="29" t="n">
+      <c r="AB23" s="27" t="n">
         <v>5419853706.45371</v>
       </c>
-      <c r="AC23" s="29" t="n">
+      <c r="AC23" s="27" t="n">
         <v>4333921620.52729</v>
       </c>
-      <c r="AD23" s="29" t="n">
+      <c r="AD23" s="27" t="n">
         <v>2022749776.43785</v>
       </c>
-      <c r="AE23" s="29" t="n">
+      <c r="AE23" s="27" t="n">
         <v>2856207823.65535</v>
       </c>
-      <c r="AF23" s="29" t="n">
+      <c r="AF23" s="27" t="n">
         <v>2595727620.30149</v>
       </c>
-      <c r="AG23" s="29" t="n">
+      <c r="AG23" s="27" t="n">
         <v>2650964612.30969</v>
       </c>
-      <c r="AH23" s="29" t="n">
+      <c r="AH23" s="27" t="n">
         <v>3886121215.57102</v>
       </c>
-      <c r="AI23" s="29" t="n">
+      <c r="AI23" s="27" t="n">
         <v>4550327597.13167</v>
       </c>
-      <c r="AJ23" s="29" t="n">
+      <c r="AJ23" s="27" t="n">
         <v>1931770254.10011</v>
       </c>
-      <c r="AK23" s="29" t="n">
+      <c r="AK23" s="27" t="n">
         <v>2301755504.90649</v>
       </c>
-      <c r="AL23" s="29" t="n">
+      <c r="AL23" s="27" t="n">
         <v>5343199818.6205</v>
       </c>
-      <c r="AM23" s="29"/>
+      <c r="AM23" s="27"/>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -25379,16 +25382,16 @@
       <c r="B24" t="str">
         <f>N24</f>
       </c>
-      <c r="C24" s="29" t="str">
+      <c r="C24" s="27" t="str">
         <f>AI24</f>
       </c>
-      <c r="D24" s="29" t="str">
+      <c r="D24" s="27" t="str">
         <f>AK24</f>
       </c>
-      <c r="E24" s="29" t="str">
+      <c r="E24" s="27" t="str">
         <f>AL24</f>
       </c>
-      <c r="F24" s="29"/>
+      <c r="F24" s="27"/>
       <c r="G24" s="1" t="str">
         <f>AL24/AK24-1</f>
       </c>
@@ -25406,69 +25409,69 @@
       <c r="N24" t="s">
         <v>70</v>
       </c>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29" t="n">
+      <c r="O24" s="27"/>
+      <c r="P24" s="27" t="n">
         <v>5539683.33692797</v>
       </c>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29" t="n">
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27" t="n">
         <v>6825742.08321724</v>
       </c>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="29" t="n">
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="27" t="n">
         <v>6314582.84521379</v>
       </c>
-      <c r="W24" s="29" t="n">
+      <c r="W24" s="27" t="n">
         <v>35852222.5157703</v>
       </c>
-      <c r="X24" s="29" t="n">
+      <c r="X24" s="27" t="n">
         <v>86097755.4160805</v>
       </c>
-      <c r="Y24" s="29" t="n">
+      <c r="Y24" s="27" t="n">
         <v>340123073.330009</v>
       </c>
-      <c r="Z24" s="29" t="n">
+      <c r="Z24" s="27" t="n">
         <v>690048328.860365</v>
       </c>
-      <c r="AA24" s="29" t="n">
+      <c r="AA24" s="27" t="n">
         <v>1539310026.41604</v>
       </c>
-      <c r="AB24" s="29" t="n">
+      <c r="AB24" s="27" t="n">
         <v>42919830.0068344</v>
       </c>
-      <c r="AC24" s="29" t="n">
+      <c r="AC24" s="27" t="n">
         <v>31864603.0937122</v>
       </c>
-      <c r="AD24" s="29" t="n">
+      <c r="AD24" s="27" t="n">
         <v>128760602.731185</v>
       </c>
-      <c r="AE24" s="29" t="n">
+      <c r="AE24" s="27" t="n">
         <v>129737430.059346</v>
       </c>
-      <c r="AF24" s="29" t="n">
+      <c r="AF24" s="27" t="n">
         <v>104426431.698331</v>
       </c>
-      <c r="AG24" s="29" t="n">
+      <c r="AG24" s="27" t="n">
         <v>70540909.6698193</v>
       </c>
-      <c r="AH24" s="29" t="n">
+      <c r="AH24" s="27" t="n">
         <v>235407372.418415</v>
       </c>
-      <c r="AI24" s="29" t="n">
+      <c r="AI24" s="27" t="n">
         <v>238596052.902256</v>
       </c>
-      <c r="AJ24" s="29" t="n">
+      <c r="AJ24" s="27" t="n">
         <v>92717804.8975845</v>
       </c>
-      <c r="AK24" s="29" t="n">
+      <c r="AK24" s="27" t="n">
         <v>106530961.41211</v>
       </c>
-      <c r="AL24" s="29" t="n">
+      <c r="AL24" s="27" t="n">
         <v>96650466.9706</v>
       </c>
-      <c r="AM24" s="29"/>
+      <c r="AM24" s="27"/>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -25477,16 +25480,16 @@
       <c r="B25" t="str">
         <f>N25</f>
       </c>
-      <c r="C25" s="29" t="str">
+      <c r="C25" s="27" t="str">
         <f>AI25</f>
       </c>
-      <c r="D25" s="29" t="str">
+      <c r="D25" s="27" t="str">
         <f>AK25</f>
       </c>
-      <c r="E25" s="29" t="str">
+      <c r="E25" s="27" t="str">
         <f>AL25</f>
       </c>
-      <c r="F25" s="29"/>
+      <c r="F25" s="27"/>
       <c r="G25" s="1" t="str">
         <f>AL25/AK25-1</f>
       </c>
@@ -25504,43 +25507,43 @@
       <c r="N25" t="s">
         <v>58</v>
       </c>
-      <c r="O25" s="29" t="n">
+      <c r="O25" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29" t="n">
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27" t="n">
         <v>459601.468371854</v>
       </c>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="29"/>
-      <c r="V25" s="29"/>
-      <c r="W25" s="29" t="n">
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="27" t="n">
         <v>-137465.716340228</v>
       </c>
-      <c r="X25" s="29"/>
-      <c r="Y25" s="29"/>
-      <c r="Z25" s="29"/>
-      <c r="AA25" s="29"/>
-      <c r="AB25" s="29"/>
-      <c r="AC25" s="29"/>
-      <c r="AD25" s="29"/>
-      <c r="AE25" s="29"/>
-      <c r="AF25" s="29" t="n">
+      <c r="X25" s="27"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="27"/>
+      <c r="AD25" s="27"/>
+      <c r="AE25" s="27"/>
+      <c r="AF25" s="27" t="n">
         <v>24414.0000046899</v>
       </c>
-      <c r="AG25" s="29" t="n">
+      <c r="AG25" s="27" t="n">
         <v>-278246.133397523</v>
       </c>
-      <c r="AH25" s="29"/>
-      <c r="AI25" s="29" t="n">
+      <c r="AH25" s="27"/>
+      <c r="AI25" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="AJ25" s="29"/>
-      <c r="AK25" s="29"/>
-      <c r="AL25" s="29"/>
-      <c r="AM25" s="29"/>
+      <c r="AJ25" s="27"/>
+      <c r="AK25" s="27"/>
+      <c r="AL25" s="27"/>
+      <c r="AM25" s="27"/>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -25549,16 +25552,16 @@
       <c r="B26" t="str">
         <f>N26</f>
       </c>
-      <c r="C26" s="29" t="str">
+      <c r="C26" s="27" t="str">
         <f>AI26</f>
       </c>
-      <c r="D26" s="29" t="str">
+      <c r="D26" s="27" t="str">
         <f>AK26</f>
       </c>
-      <c r="E26" s="29" t="str">
+      <c r="E26" s="27" t="str">
         <f>AL26</f>
       </c>
-      <c r="F26" s="29"/>
+      <c r="F26" s="27"/>
       <c r="G26" s="1" t="str">
         <f>AL26/AK26-1</f>
       </c>
@@ -25574,75 +25577,75 @@
       <c r="N26" t="s">
         <v>60</v>
       </c>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29" t="n">
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27" t="n">
         <v>88782.6081063167</v>
       </c>
-      <c r="R26" s="29" t="n">
+      <c r="R26" s="27" t="n">
         <v>58740.4359506725</v>
       </c>
-      <c r="S26" s="29" t="n">
+      <c r="S26" s="27" t="n">
         <v>58473.3406997969</v>
       </c>
-      <c r="T26" s="29" t="n">
+      <c r="T26" s="27" t="n">
         <v>65540.7904377821</v>
       </c>
-      <c r="U26" s="29" t="n">
+      <c r="U26" s="27" t="n">
         <v>2388344.07513449</v>
       </c>
-      <c r="V26" s="29" t="n">
+      <c r="V26" s="27" t="n">
         <v>1028052.53095425</v>
       </c>
-      <c r="W26" s="29" t="n">
+      <c r="W26" s="27" t="n">
         <v>5732552.80384665</v>
       </c>
-      <c r="X26" s="29" t="n">
+      <c r="X26" s="27" t="n">
         <v>612129733.265517</v>
       </c>
-      <c r="Y26" s="29" t="n">
+      <c r="Y26" s="27" t="n">
         <v>2318978099.51455</v>
       </c>
-      <c r="Z26" s="29" t="n">
+      <c r="Z26" s="27" t="n">
         <v>4076742626.7202</v>
       </c>
-      <c r="AA26" s="29" t="n">
+      <c r="AA26" s="27" t="n">
         <v>6670588645.54964</v>
       </c>
-      <c r="AB26" s="29" t="n">
+      <c r="AB26" s="27" t="n">
         <v>7821366508.605</v>
       </c>
-      <c r="AC26" s="29" t="n">
+      <c r="AC26" s="27" t="n">
         <v>7270226157.10031</v>
       </c>
-      <c r="AD26" s="29" t="n">
+      <c r="AD26" s="27" t="n">
         <v>8380826025.0685</v>
       </c>
-      <c r="AE26" s="29" t="n">
+      <c r="AE26" s="27" t="n">
         <v>8419411546.72308</v>
       </c>
-      <c r="AF26" s="29" t="n">
+      <c r="AF26" s="27" t="n">
         <v>10386011014.295</v>
       </c>
-      <c r="AG26" s="29" t="n">
+      <c r="AG26" s="27" t="n">
         <v>13393000116.2458</v>
       </c>
-      <c r="AH26" s="29" t="n">
+      <c r="AH26" s="27" t="n">
         <v>12007101903.2371</v>
       </c>
-      <c r="AI26" s="29" t="n">
+      <c r="AI26" s="27" t="n">
         <v>9471941480.27614</v>
       </c>
-      <c r="AJ26" s="29" t="n">
+      <c r="AJ26" s="27" t="n">
         <v>10400930530.9528</v>
       </c>
-      <c r="AK26" s="29" t="n">
+      <c r="AK26" s="27" t="n">
         <v>10705051157.1382</v>
       </c>
-      <c r="AL26" s="29" t="n">
+      <c r="AL26" s="27" t="n">
         <v>9794733268.5566</v>
       </c>
-      <c r="AM26" s="29"/>
+      <c r="AM26" s="27"/>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -25651,16 +25654,16 @@
       <c r="B27" t="str">
         <f>N27</f>
       </c>
-      <c r="C27" s="29" t="str">
+      <c r="C27" s="27" t="str">
         <f>AI27</f>
       </c>
-      <c r="D27" s="29" t="str">
+      <c r="D27" s="27" t="str">
         <f>AK27</f>
       </c>
-      <c r="E27" s="29" t="str">
+      <c r="E27" s="27" t="str">
         <f>AL27</f>
       </c>
-      <c r="F27" s="29"/>
+      <c r="F27" s="27"/>
       <c r="G27" s="1" t="str">
         <f>AL27/AK27-1</f>
       </c>
@@ -25676,79 +25679,79 @@
       <c r="N27" t="s">
         <v>61</v>
       </c>
-      <c r="O27" s="29" t="n">
+      <c r="O27" s="27" t="n">
         <v>121901.546037816</v>
       </c>
-      <c r="P27" s="29" t="n">
+      <c r="P27" s="27" t="n">
         <v>155279.178538003</v>
       </c>
-      <c r="Q27" s="29" t="n">
+      <c r="Q27" s="27" t="n">
         <v>38954903.1404768</v>
       </c>
-      <c r="R27" s="29" t="n">
+      <c r="R27" s="27" t="n">
         <v>402926282.031057</v>
       </c>
-      <c r="S27" s="29" t="n">
+      <c r="S27" s="27" t="n">
         <v>483048973.991048</v>
       </c>
-      <c r="T27" s="29" t="n">
+      <c r="T27" s="27" t="n">
         <v>734028.714018279</v>
       </c>
-      <c r="U27" s="29" t="n">
+      <c r="U27" s="27" t="n">
         <v>115586018.057399</v>
       </c>
-      <c r="V27" s="29" t="n">
+      <c r="V27" s="27" t="n">
         <v>4491438.38510094</v>
       </c>
-      <c r="W27" s="29" t="n">
+      <c r="W27" s="27" t="n">
         <v>39356243.9821647</v>
       </c>
-      <c r="X27" s="29" t="n">
+      <c r="X27" s="27" t="n">
         <v>1191034547.82878</v>
       </c>
-      <c r="Y27" s="29" t="n">
+      <c r="Y27" s="27" t="n">
         <v>5555807016.97248</v>
       </c>
-      <c r="Z27" s="29" t="n">
+      <c r="Z27" s="27" t="n">
         <v>6186452913.57098</v>
       </c>
-      <c r="AA27" s="29" t="n">
+      <c r="AA27" s="27" t="n">
         <v>6824042605.09828</v>
       </c>
-      <c r="AB27" s="29" t="n">
+      <c r="AB27" s="27" t="n">
         <v>6133664404.0626</v>
       </c>
-      <c r="AC27" s="29" t="n">
+      <c r="AC27" s="27" t="n">
         <v>6894375367.19155</v>
       </c>
-      <c r="AD27" s="29" t="n">
+      <c r="AD27" s="27" t="n">
         <v>7488775559.49069</v>
       </c>
-      <c r="AE27" s="29" t="n">
+      <c r="AE27" s="27" t="n">
         <v>9265311179.078</v>
       </c>
-      <c r="AF27" s="29" t="n">
+      <c r="AF27" s="27" t="n">
         <v>9920156725.62689</v>
       </c>
-      <c r="AG27" s="29" t="n">
+      <c r="AG27" s="27" t="n">
         <v>10705026502.6295</v>
       </c>
-      <c r="AH27" s="29" t="n">
+      <c r="AH27" s="27" t="n">
         <v>12052534955.6319</v>
       </c>
-      <c r="AI27" s="29" t="n">
+      <c r="AI27" s="27" t="n">
         <v>13930985991.5944</v>
       </c>
-      <c r="AJ27" s="29" t="n">
+      <c r="AJ27" s="27" t="n">
         <v>13101671327.0954</v>
       </c>
-      <c r="AK27" s="29" t="n">
+      <c r="AK27" s="27" t="n">
         <v>13457736778.8239</v>
       </c>
-      <c r="AL27" s="29" t="n">
+      <c r="AL27" s="27" t="n">
         <v>14665170959.18</v>
       </c>
-      <c r="AM27" s="29"/>
+      <c r="AM27" s="27"/>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -25757,16 +25760,16 @@
       <c r="B28" t="str">
         <f>N28</f>
       </c>
-      <c r="C28" s="29" t="str">
+      <c r="C28" s="27" t="str">
         <f>AI28</f>
       </c>
-      <c r="D28" s="29" t="str">
+      <c r="D28" s="27" t="str">
         <f>AK28</f>
       </c>
-      <c r="E28" s="29" t="str">
+      <c r="E28" s="27" t="str">
         <f>AL28</f>
       </c>
-      <c r="F28" s="29"/>
+      <c r="F28" s="27"/>
       <c r="G28" s="1" t="str">
         <f>AL28/AK28-1</f>
       </c>
@@ -25782,79 +25785,79 @@
       <c r="N28" t="s">
         <v>62</v>
       </c>
-      <c r="O28" s="29" t="n">
+      <c r="O28" s="27" t="n">
         <v>39537.1635171595</v>
       </c>
-      <c r="P28" s="29" t="n">
+      <c r="P28" s="27" t="n">
         <v>11857.3844225089</v>
       </c>
-      <c r="Q28" s="29" t="n">
+      <c r="Q28" s="27" t="n">
         <v>213090.524371351</v>
       </c>
-      <c r="R28" s="29" t="n">
+      <c r="R28" s="27" t="n">
         <v>331823.612037028</v>
       </c>
-      <c r="S28" s="29" t="n">
+      <c r="S28" s="27" t="n">
         <v>132363217.068347</v>
       </c>
-      <c r="T28" s="29" t="n">
+      <c r="T28" s="27" t="n">
         <v>284576013.958451</v>
       </c>
-      <c r="U28" s="29" t="n">
+      <c r="U28" s="27" t="n">
         <v>14145804.3832542</v>
       </c>
-      <c r="V28" s="29" t="n">
+      <c r="V28" s="27" t="n">
         <v>8062053.05121426</v>
       </c>
-      <c r="W28" s="29" t="n">
+      <c r="W28" s="27" t="n">
         <v>26186628.4295973</v>
       </c>
-      <c r="X28" s="29" t="n">
+      <c r="X28" s="27" t="n">
         <v>1548408015.84414</v>
       </c>
-      <c r="Y28" s="29" t="n">
+      <c r="Y28" s="27" t="n">
         <v>6598927086.25821</v>
       </c>
-      <c r="Z28" s="29" t="n">
+      <c r="Z28" s="27" t="n">
         <v>6477280270.35404</v>
       </c>
-      <c r="AA28" s="29" t="n">
+      <c r="AA28" s="27" t="n">
         <v>5169838758.34336</v>
       </c>
-      <c r="AB28" s="29" t="n">
+      <c r="AB28" s="27" t="n">
         <v>3545325371.11388</v>
       </c>
-      <c r="AC28" s="29" t="n">
+      <c r="AC28" s="27" t="n">
         <v>3732250779.61309</v>
       </c>
-      <c r="AD28" s="29" t="n">
+      <c r="AD28" s="27" t="n">
         <v>2968378868.42426</v>
       </c>
-      <c r="AE28" s="29" t="n">
+      <c r="AE28" s="27" t="n">
         <v>3054444771.22353</v>
       </c>
-      <c r="AF28" s="29" t="n">
+      <c r="AF28" s="27" t="n">
         <v>2940142196.06581</v>
       </c>
-      <c r="AG28" s="29" t="n">
+      <c r="AG28" s="27" t="n">
         <v>4266759374.85061</v>
       </c>
-      <c r="AH28" s="29" t="n">
+      <c r="AH28" s="27" t="n">
         <v>3229821040.63068</v>
       </c>
-      <c r="AI28" s="29" t="n">
+      <c r="AI28" s="27" t="n">
         <v>3410731278.66021</v>
       </c>
-      <c r="AJ28" s="29" t="n">
+      <c r="AJ28" s="27" t="n">
         <v>3165545608.12906</v>
       </c>
-      <c r="AK28" s="29" t="n">
+      <c r="AK28" s="27" t="n">
         <v>3112302096.41636</v>
       </c>
-      <c r="AL28" s="29" t="n">
+      <c r="AL28" s="27" t="n">
         <v>3822091228.2961</v>
       </c>
-      <c r="AM28" s="29"/>
+      <c r="AM28" s="27"/>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -25863,16 +25866,16 @@
       <c r="B29" t="str">
         <f>N29</f>
       </c>
-      <c r="C29" s="29" t="str">
+      <c r="C29" s="27" t="str">
         <f>AI29</f>
       </c>
-      <c r="D29" s="29" t="str">
+      <c r="D29" s="27" t="str">
         <f>AK29</f>
       </c>
-      <c r="E29" s="29" t="str">
+      <c r="E29" s="27" t="str">
         <f>AL29</f>
       </c>
-      <c r="F29" s="29"/>
+      <c r="F29" s="27"/>
       <c r="G29" s="1" t="str">
         <f>AL29/AK29-1</f>
       </c>
@@ -25888,75 +25891,75 @@
       <c r="N29" t="s">
         <v>63</v>
       </c>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29" t="n">
+      <c r="O29" s="27"/>
+      <c r="P29" s="27" t="n">
         <v>35220.0114371892</v>
       </c>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29" t="n">
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27" t="n">
         <v>27016.2523782265</v>
       </c>
-      <c r="S29" s="29" t="n">
+      <c r="S29" s="27" t="n">
         <v>9566940.03588217</v>
       </c>
-      <c r="T29" s="29" t="n">
+      <c r="T29" s="27" t="n">
         <v>404096.625943742</v>
       </c>
-      <c r="U29" s="29" t="n">
+      <c r="U29" s="27" t="n">
         <v>121714664.317684</v>
       </c>
-      <c r="V29" s="29" t="n">
+      <c r="V29" s="27" t="n">
         <v>60068899.9211299</v>
       </c>
-      <c r="W29" s="29" t="n">
+      <c r="W29" s="27" t="n">
         <v>87589971.6929088</v>
       </c>
-      <c r="X29" s="29" t="n">
+      <c r="X29" s="27" t="n">
         <v>170288877.448139</v>
       </c>
-      <c r="Y29" s="29" t="n">
+      <c r="Y29" s="27" t="n">
         <v>1043831364.74133</v>
       </c>
-      <c r="Z29" s="29" t="n">
+      <c r="Z29" s="27" t="n">
         <v>2087004692.18305</v>
       </c>
-      <c r="AA29" s="29" t="n">
+      <c r="AA29" s="27" t="n">
         <v>1613503047.68528</v>
       </c>
-      <c r="AB29" s="29" t="n">
+      <c r="AB29" s="27" t="n">
         <v>771094724.499151</v>
       </c>
-      <c r="AC29" s="29" t="n">
+      <c r="AC29" s="27" t="n">
         <v>924076708.160585</v>
       </c>
-      <c r="AD29" s="29" t="n">
+      <c r="AD29" s="27" t="n">
         <v>899764329.80243</v>
       </c>
-      <c r="AE29" s="29" t="n">
+      <c r="AE29" s="27" t="n">
         <v>730015167.49964</v>
       </c>
-      <c r="AF29" s="29" t="n">
+      <c r="AF29" s="27" t="n">
         <v>736481338.920816</v>
       </c>
-      <c r="AG29" s="29" t="n">
+      <c r="AG29" s="27" t="n">
         <v>1166953025.36129</v>
       </c>
-      <c r="AH29" s="29" t="n">
+      <c r="AH29" s="27" t="n">
         <v>1076411753.88416</v>
       </c>
-      <c r="AI29" s="29" t="n">
+      <c r="AI29" s="27" t="n">
         <v>951577789.067674</v>
       </c>
-      <c r="AJ29" s="29" t="n">
+      <c r="AJ29" s="27" t="n">
         <v>783441410.4828</v>
       </c>
-      <c r="AK29" s="29" t="n">
+      <c r="AK29" s="27" t="n">
         <v>632140291.083439</v>
       </c>
-      <c r="AL29" s="29" t="n">
+      <c r="AL29" s="27" t="n">
         <v>849695860.3289</v>
       </c>
-      <c r="AM29" s="29"/>
+      <c r="AM29" s="27"/>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -25965,16 +25968,16 @@
       <c r="B30" t="str">
         <f>N30</f>
       </c>
-      <c r="C30" s="29" t="str">
+      <c r="C30" s="27" t="str">
         <f>AI30</f>
       </c>
-      <c r="D30" s="29" t="str">
+      <c r="D30" s="27" t="str">
         <f>AK30</f>
       </c>
-      <c r="E30" s="29" t="str">
+      <c r="E30" s="27" t="str">
         <f>AL30</f>
       </c>
-      <c r="F30" s="29"/>
+      <c r="F30" s="27"/>
       <c r="G30" s="1" t="str">
         <f>AL30/AK30-1</f>
       </c>
@@ -25990,63 +25993,63 @@
       <c r="N30" t="s">
         <v>64</v>
       </c>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
-      <c r="T30" s="29"/>
-      <c r="U30" s="29"/>
-      <c r="V30" s="29"/>
-      <c r="W30" s="29" t="n">
+      <c r="O30" s="27"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="27"/>
+      <c r="U30" s="27"/>
+      <c r="V30" s="27"/>
+      <c r="W30" s="27" t="n">
         <v>20801.6657432797</v>
       </c>
-      <c r="X30" s="29" t="n">
+      <c r="X30" s="27" t="n">
         <v>4385631.43219983</v>
       </c>
-      <c r="Y30" s="29" t="n">
+      <c r="Y30" s="27" t="n">
         <v>5711568.77602996</v>
       </c>
-      <c r="Z30" s="29" t="n">
+      <c r="Z30" s="27" t="n">
         <v>42944578.3947859</v>
       </c>
-      <c r="AA30" s="29" t="n">
+      <c r="AA30" s="27" t="n">
         <v>163327830.031058</v>
       </c>
-      <c r="AB30" s="29" t="n">
+      <c r="AB30" s="27" t="n">
         <v>196775001.378034</v>
       </c>
-      <c r="AC30" s="29" t="n">
+      <c r="AC30" s="27" t="n">
         <v>288532606.074592</v>
       </c>
-      <c r="AD30" s="29" t="n">
+      <c r="AD30" s="27" t="n">
         <v>287019832.243438</v>
       </c>
-      <c r="AE30" s="29" t="n">
+      <c r="AE30" s="27" t="n">
         <v>411567244.282609</v>
       </c>
-      <c r="AF30" s="29" t="n">
+      <c r="AF30" s="27" t="n">
         <v>327849685.856822</v>
       </c>
-      <c r="AG30" s="29" t="n">
+      <c r="AG30" s="27" t="n">
         <v>316973809.605532</v>
       </c>
-      <c r="AH30" s="29" t="n">
+      <c r="AH30" s="27" t="n">
         <v>345110208.004501</v>
       </c>
-      <c r="AI30" s="29" t="n">
+      <c r="AI30" s="27" t="n">
         <v>304719580.443848</v>
       </c>
-      <c r="AJ30" s="29" t="n">
+      <c r="AJ30" s="27" t="n">
         <v>256606038.770676</v>
       </c>
-      <c r="AK30" s="29" t="n">
+      <c r="AK30" s="27" t="n">
         <v>211019393.141999</v>
       </c>
-      <c r="AL30" s="29" t="n">
+      <c r="AL30" s="27" t="n">
         <v>187846087.1899</v>
       </c>
-      <c r="AM30" s="29"/>
+      <c r="AM30" s="27"/>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -26055,16 +26058,16 @@
       <c r="B31" t="str">
         <f>N31</f>
       </c>
-      <c r="C31" s="29" t="str">
+      <c r="C31" s="27" t="str">
         <f>AI31</f>
       </c>
-      <c r="D31" s="29" t="str">
+      <c r="D31" s="27" t="str">
         <f>AK31</f>
       </c>
-      <c r="E31" s="29" t="str">
+      <c r="E31" s="27" t="str">
         <f>AL31</f>
       </c>
-      <c r="F31" s="29"/>
+      <c r="F31" s="27"/>
       <c r="G31" s="1" t="str">
         <f>AL31/AK31-1</f>
       </c>
@@ -26080,75 +26083,75 @@
       <c r="N31" t="s">
         <v>65</v>
       </c>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29" t="n">
+      <c r="O31" s="27"/>
+      <c r="P31" s="27" t="n">
         <v>22404.9414960198</v>
       </c>
-      <c r="Q31" s="29" t="n">
+      <c r="Q31" s="27" t="n">
         <v>130795.241740486</v>
       </c>
-      <c r="R31" s="29" t="n">
+      <c r="R31" s="27" t="n">
         <v>3183326.83939643</v>
       </c>
-      <c r="S31" s="29" t="n">
+      <c r="S31" s="27" t="n">
         <v>2184070.18723811</v>
       </c>
-      <c r="T31" s="29"/>
-      <c r="U31" s="29" t="n">
+      <c r="T31" s="27"/>
+      <c r="U31" s="27" t="n">
         <v>-8172.94364349171</v>
       </c>
-      <c r="V31" s="29" t="n">
+      <c r="V31" s="27" t="n">
         <v>80537.598800247</v>
       </c>
-      <c r="W31" s="29" t="n">
+      <c r="W31" s="27" t="n">
         <v>14627579.714907</v>
       </c>
-      <c r="X31" s="29" t="n">
+      <c r="X31" s="27" t="n">
         <v>193597676.828593</v>
       </c>
-      <c r="Y31" s="29" t="n">
+      <c r="Y31" s="27" t="n">
         <v>513721198.980414</v>
       </c>
-      <c r="Z31" s="29" t="n">
+      <c r="Z31" s="27" t="n">
         <v>572520050.77653</v>
       </c>
-      <c r="AA31" s="29" t="n">
+      <c r="AA31" s="27" t="n">
         <v>643921169.835762</v>
       </c>
-      <c r="AB31" s="29" t="n">
+      <c r="AB31" s="27" t="n">
         <v>364884455.265084</v>
       </c>
-      <c r="AC31" s="29" t="n">
+      <c r="AC31" s="27" t="n">
         <v>439364195.845513</v>
       </c>
-      <c r="AD31" s="29" t="n">
+      <c r="AD31" s="27" t="n">
         <v>451062390.72536</v>
       </c>
-      <c r="AE31" s="29" t="n">
+      <c r="AE31" s="27" t="n">
         <v>699929880.569686</v>
       </c>
-      <c r="AF31" s="29" t="n">
+      <c r="AF31" s="27" t="n">
         <v>1011776485.77272</v>
       </c>
-      <c r="AG31" s="29" t="n">
+      <c r="AG31" s="27" t="n">
         <v>979217228.180228</v>
       </c>
-      <c r="AH31" s="29" t="n">
+      <c r="AH31" s="27" t="n">
         <v>971937109.404067</v>
       </c>
-      <c r="AI31" s="29" t="n">
+      <c r="AI31" s="27" t="n">
         <v>787594377.744917</v>
       </c>
-      <c r="AJ31" s="29" t="n">
+      <c r="AJ31" s="27" t="n">
         <v>565931396.048196</v>
       </c>
-      <c r="AK31" s="29" t="n">
+      <c r="AK31" s="27" t="n">
         <v>543300908.795098</v>
       </c>
-      <c r="AL31" s="29" t="n">
+      <c r="AL31" s="27" t="n">
         <v>763142293.0524</v>
       </c>
-      <c r="AM31" s="29"/>
+      <c r="AM31" s="27"/>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -26157,16 +26160,16 @@
       <c r="B32" t="str">
         <f>N32</f>
       </c>
-      <c r="C32" s="29" t="str">
+      <c r="C32" s="27" t="str">
         <f>AI32</f>
       </c>
-      <c r="D32" s="29" t="str">
+      <c r="D32" s="27" t="str">
         <f>AK32</f>
       </c>
-      <c r="E32" s="29" t="str">
+      <c r="E32" s="27" t="str">
         <f>AL32</f>
       </c>
-      <c r="F32" s="29"/>
+      <c r="F32" s="27"/>
       <c r="G32" s="1" t="str">
         <f>AL32/AK32-1</f>
       </c>
@@ -26182,79 +26185,79 @@
       <c r="N32" t="s">
         <v>66</v>
       </c>
-      <c r="O32" s="29" t="n">
+      <c r="O32" s="27" t="n">
         <v>44356.2300636898</v>
       </c>
-      <c r="P32" s="29" t="n">
+      <c r="P32" s="27" t="n">
         <v>24834.1952259912</v>
       </c>
-      <c r="Q32" s="29" t="n">
+      <c r="Q32" s="27" t="n">
         <v>1977.94122380886</v>
       </c>
-      <c r="R32" s="29" t="n">
+      <c r="R32" s="27" t="n">
         <v>85721.7278551064</v>
       </c>
-      <c r="S32" s="29" t="n">
+      <c r="S32" s="27" t="n">
         <v>1162156.27633252</v>
       </c>
-      <c r="T32" s="29" t="n">
+      <c r="T32" s="27" t="n">
         <v>825135.011793281</v>
       </c>
-      <c r="U32" s="29" t="n">
+      <c r="U32" s="27" t="n">
         <v>3322219.55686801</v>
       </c>
-      <c r="V32" s="29" t="n">
+      <c r="V32" s="27" t="n">
         <v>101593.614081384</v>
       </c>
-      <c r="W32" s="29" t="n">
+      <c r="W32" s="27" t="n">
         <v>9341551.93573075</v>
       </c>
-      <c r="X32" s="29" t="n">
+      <c r="X32" s="27" t="n">
         <v>1152622965.70966</v>
       </c>
-      <c r="Y32" s="29" t="n">
+      <c r="Y32" s="27" t="n">
         <v>3089466560.40175</v>
       </c>
-      <c r="Z32" s="29" t="n">
+      <c r="Z32" s="27" t="n">
         <v>2992576365.33954</v>
       </c>
-      <c r="AA32" s="29" t="n">
+      <c r="AA32" s="27" t="n">
         <v>2490260083.24563</v>
       </c>
-      <c r="AB32" s="29" t="n">
+      <c r="AB32" s="27" t="n">
         <v>2627181365.63245</v>
       </c>
-      <c r="AC32" s="29" t="n">
+      <c r="AC32" s="27" t="n">
         <v>2375363852.43009</v>
       </c>
-      <c r="AD32" s="29" t="n">
+      <c r="AD32" s="27" t="n">
         <v>2334217042.54905</v>
       </c>
-      <c r="AE32" s="29" t="n">
+      <c r="AE32" s="27" t="n">
         <v>2171279379.85528</v>
       </c>
-      <c r="AF32" s="29" t="n">
+      <c r="AF32" s="27" t="n">
         <v>2246374419.64007</v>
       </c>
-      <c r="AG32" s="29" t="n">
+      <c r="AG32" s="27" t="n">
         <v>2921101985.13095</v>
       </c>
-      <c r="AH32" s="29" t="n">
+      <c r="AH32" s="27" t="n">
         <v>2259755968.22502</v>
       </c>
-      <c r="AI32" s="29" t="n">
+      <c r="AI32" s="27" t="n">
         <v>2149429816.63024</v>
       </c>
-      <c r="AJ32" s="29" t="n">
+      <c r="AJ32" s="27" t="n">
         <v>1786279013.91066</v>
       </c>
-      <c r="AK32" s="29" t="n">
+      <c r="AK32" s="27" t="n">
         <v>1826965555.36117</v>
       </c>
-      <c r="AL32" s="29" t="n">
+      <c r="AL32" s="27" t="n">
         <v>2668142061.7994</v>
       </c>
-      <c r="AM32" s="29"/>
+      <c r="AM32" s="27"/>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -26263,16 +26266,16 @@
       <c r="B33" t="str">
         <f>N33</f>
       </c>
-      <c r="C33" s="29" t="str">
+      <c r="C33" s="27" t="str">
         <f>AI33</f>
       </c>
-      <c r="D33" s="29" t="str">
+      <c r="D33" s="27" t="str">
         <f>AK33</f>
       </c>
-      <c r="E33" s="29" t="str">
+      <c r="E33" s="27" t="str">
         <f>AL33</f>
       </c>
-      <c r="F33" s="29"/>
+      <c r="F33" s="27"/>
       <c r="G33" s="1" t="str">
         <f>AL33/AK33-1</f>
       </c>
@@ -26288,79 +26291,79 @@
       <c r="N33" t="s">
         <v>67</v>
       </c>
-      <c r="O33" s="29" t="n">
+      <c r="O33" s="27" t="n">
         <v>34094.1963771208</v>
       </c>
-      <c r="P33" s="29" t="n">
+      <c r="P33" s="27" t="n">
         <v>43297.6233035028</v>
       </c>
-      <c r="Q33" s="29" t="n">
+      <c r="Q33" s="27" t="n">
         <v>3231.93010426284</v>
       </c>
-      <c r="R33" s="29" t="n">
+      <c r="R33" s="27" t="n">
         <v>109639.440117756</v>
       </c>
-      <c r="S33" s="29" t="n">
+      <c r="S33" s="27" t="n">
         <v>89702.1806809532</v>
       </c>
-      <c r="T33" s="29" t="n">
+      <c r="T33" s="27" t="n">
         <v>2102905.86921693</v>
       </c>
-      <c r="U33" s="29" t="n">
+      <c r="U33" s="27" t="n">
         <v>2792969.62515505</v>
       </c>
-      <c r="V33" s="29" t="n">
+      <c r="V33" s="27" t="n">
         <v>774194.50053328</v>
       </c>
-      <c r="W33" s="29" t="n">
+      <c r="W33" s="27" t="n">
         <v>4568091.23544807</v>
       </c>
-      <c r="X33" s="29" t="n">
+      <c r="X33" s="27" t="n">
         <v>392529038.768772</v>
       </c>
-      <c r="Y33" s="29" t="n">
+      <c r="Y33" s="27" t="n">
         <v>2039932625.55851</v>
       </c>
-      <c r="Z33" s="29" t="n">
+      <c r="Z33" s="27" t="n">
         <v>2730828412.32614</v>
       </c>
-      <c r="AA33" s="29" t="n">
+      <c r="AA33" s="27" t="n">
         <v>3108485908.55767</v>
       </c>
-      <c r="AB33" s="29" t="n">
+      <c r="AB33" s="27" t="n">
         <v>2922572734.76019</v>
       </c>
-      <c r="AC33" s="29" t="n">
+      <c r="AC33" s="27" t="n">
         <v>3366537187.70226</v>
       </c>
-      <c r="AD33" s="29" t="n">
+      <c r="AD33" s="27" t="n">
         <v>3684599738.1382</v>
       </c>
-      <c r="AE33" s="29" t="n">
+      <c r="AE33" s="27" t="n">
         <v>4167357876.89657</v>
       </c>
-      <c r="AF33" s="29" t="n">
+      <c r="AF33" s="27" t="n">
         <v>4584510678.82899</v>
       </c>
-      <c r="AG33" s="29" t="n">
+      <c r="AG33" s="27" t="n">
         <v>4440562919.42043</v>
       </c>
-      <c r="AH33" s="29" t="n">
+      <c r="AH33" s="27" t="n">
         <v>5041285251.75421</v>
       </c>
-      <c r="AI33" s="29" t="n">
+      <c r="AI33" s="27" t="n">
         <v>5194831825.99352</v>
       </c>
-      <c r="AJ33" s="29" t="n">
+      <c r="AJ33" s="27" t="n">
         <v>5003627562.93249</v>
       </c>
-      <c r="AK33" s="29" t="n">
+      <c r="AK33" s="27" t="n">
         <v>4203547954.81404</v>
       </c>
-      <c r="AL33" s="29" t="n">
+      <c r="AL33" s="27" t="n">
         <v>5314455357.6316</v>
       </c>
-      <c r="AM33" s="29"/>
+      <c r="AM33" s="27"/>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -26369,16 +26372,16 @@
       <c r="B34" t="str">
         <f>N34</f>
       </c>
-      <c r="C34" s="29" t="str">
+      <c r="C34" s="27" t="str">
         <f>AI34</f>
       </c>
-      <c r="D34" s="29" t="str">
+      <c r="D34" s="27" t="str">
         <f>AK34</f>
       </c>
-      <c r="E34" s="29" t="str">
+      <c r="E34" s="27" t="str">
         <f>AL34</f>
       </c>
-      <c r="F34" s="29"/>
+      <c r="F34" s="27"/>
       <c r="G34" s="1" t="str">
         <f>AL34/AK34-1</f>
       </c>
@@ -26394,75 +26397,75 @@
       <c r="N34" t="s">
         <v>68</v>
       </c>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29" t="n">
+      <c r="O34" s="27"/>
+      <c r="P34" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="29" t="n">
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27" t="n">
         <v>78650.4027061392</v>
       </c>
-      <c r="S34" s="29" t="n">
+      <c r="S34" s="27" t="n">
         <v>1335628.77350029</v>
       </c>
-      <c r="T34" s="29" t="n">
+      <c r="T34" s="27" t="n">
         <v>311256.255400325</v>
       </c>
-      <c r="U34" s="29" t="n">
+      <c r="U34" s="27" t="n">
         <v>540073.902612377</v>
       </c>
-      <c r="V34" s="29" t="n">
+      <c r="V34" s="27" t="n">
         <v>321444.048514667</v>
       </c>
-      <c r="W34" s="29" t="n">
+      <c r="W34" s="27" t="n">
         <v>4625463.0552281</v>
       </c>
-      <c r="X34" s="29" t="n">
+      <c r="X34" s="27" t="n">
         <v>71395653.1316492</v>
       </c>
-      <c r="Y34" s="29" t="n">
+      <c r="Y34" s="27" t="n">
         <v>4190230205.715</v>
       </c>
-      <c r="Z34" s="29" t="n">
+      <c r="Z34" s="27" t="n">
         <v>2527296847.05199</v>
       </c>
-      <c r="AA34" s="29" t="n">
+      <c r="AA34" s="27" t="n">
         <v>1693208879.73707</v>
       </c>
-      <c r="AB34" s="29" t="n">
+      <c r="AB34" s="27" t="n">
         <v>1343758410.90124</v>
       </c>
-      <c r="AC34" s="29" t="n">
+      <c r="AC34" s="27" t="n">
         <v>1761952167.05773</v>
       </c>
-      <c r="AD34" s="29" t="n">
+      <c r="AD34" s="27" t="n">
         <v>1671169337.45091</v>
       </c>
-      <c r="AE34" s="29" t="n">
+      <c r="AE34" s="27" t="n">
         <v>1976663244.44468</v>
       </c>
-      <c r="AF34" s="29" t="n">
+      <c r="AF34" s="27" t="n">
         <v>2455367162.96736</v>
       </c>
-      <c r="AG34" s="29" t="n">
+      <c r="AG34" s="27" t="n">
         <v>2929681898.88994</v>
       </c>
-      <c r="AH34" s="29" t="n">
+      <c r="AH34" s="27" t="n">
         <v>2730325001.58468</v>
       </c>
-      <c r="AI34" s="29" t="n">
+      <c r="AI34" s="27" t="n">
         <v>3082715782.99036</v>
       </c>
-      <c r="AJ34" s="29" t="n">
+      <c r="AJ34" s="27" t="n">
         <v>2460198571.08159</v>
       </c>
-      <c r="AK34" s="29" t="n">
+      <c r="AK34" s="27" t="n">
         <v>2374115033.23245</v>
       </c>
-      <c r="AL34" s="29" t="n">
+      <c r="AL34" s="27" t="n">
         <v>2240772265.4566</v>
       </c>
-      <c r="AM34" s="29"/>
+      <c r="AM34" s="27"/>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -26471,16 +26474,16 @@
       <c r="B35" t="str">
         <f>N35</f>
       </c>
-      <c r="C35" s="29" t="str">
+      <c r="C35" s="27" t="str">
         <f>AI35</f>
       </c>
-      <c r="D35" s="29" t="str">
+      <c r="D35" s="27" t="str">
         <f>AK35</f>
       </c>
-      <c r="E35" s="29" t="str">
+      <c r="E35" s="27" t="str">
         <f>AL35</f>
       </c>
-      <c r="F35" s="29"/>
+      <c r="F35" s="27"/>
       <c r="G35" s="1" t="str">
         <f>AL35/AK35-1</f>
       </c>
@@ -26496,71 +26499,71 @@
       <c r="N35" t="s">
         <v>69</v>
       </c>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="29"/>
-      <c r="R35" s="29"/>
-      <c r="S35" s="29" t="n">
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="27" t="n">
         <v>90762.380376701</v>
       </c>
-      <c r="T35" s="29" t="n">
+      <c r="T35" s="27" t="n">
         <v>38174.0993192643</v>
       </c>
-      <c r="U35" s="29" t="n">
+      <c r="U35" s="27" t="n">
         <v>25296.8727560127</v>
       </c>
-      <c r="V35" s="29" t="n">
+      <c r="V35" s="27" t="n">
         <v>28327.7297134271</v>
       </c>
-      <c r="W35" s="29" t="n">
+      <c r="W35" s="27" t="n">
         <v>1939292.5513807</v>
       </c>
-      <c r="X35" s="29" t="n">
+      <c r="X35" s="27" t="n">
         <v>74074441.659049</v>
       </c>
-      <c r="Y35" s="29" t="n">
+      <c r="Y35" s="27" t="n">
         <v>985640029.965081</v>
       </c>
-      <c r="Z35" s="29" t="n">
+      <c r="Z35" s="27" t="n">
         <v>1415271534.38846</v>
       </c>
-      <c r="AA35" s="29" t="n">
+      <c r="AA35" s="27" t="n">
         <v>1522249504.59586</v>
       </c>
-      <c r="AB35" s="29" t="n">
+      <c r="AB35" s="27" t="n">
         <v>1628913012.44509</v>
       </c>
-      <c r="AC35" s="29" t="n">
+      <c r="AC35" s="27" t="n">
         <v>2008659725.34528</v>
       </c>
-      <c r="AD35" s="29" t="n">
+      <c r="AD35" s="27" t="n">
         <v>1917770730.406</v>
       </c>
-      <c r="AE35" s="29" t="n">
+      <c r="AE35" s="27" t="n">
         <v>1825389562.69747</v>
       </c>
-      <c r="AF35" s="29" t="n">
+      <c r="AF35" s="27" t="n">
         <v>1763806059.26269</v>
       </c>
-      <c r="AG35" s="29" t="n">
+      <c r="AG35" s="27" t="n">
         <v>2258094248.31883</v>
       </c>
-      <c r="AH35" s="29" t="n">
+      <c r="AH35" s="27" t="n">
         <v>1999826373.27885</v>
       </c>
-      <c r="AI35" s="29" t="n">
+      <c r="AI35" s="27" t="n">
         <v>1490895103.15333</v>
       </c>
-      <c r="AJ35" s="29" t="n">
+      <c r="AJ35" s="27" t="n">
         <v>1575600990.50541</v>
       </c>
-      <c r="AK35" s="29" t="n">
+      <c r="AK35" s="27" t="n">
         <v>1706764968.4498</v>
       </c>
-      <c r="AL35" s="29" t="n">
+      <c r="AL35" s="27" t="n">
         <v>1176812391.9736</v>
       </c>
-      <c r="AM35" s="29"/>
+      <c r="AM35" s="27"/>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -26569,16 +26572,16 @@
       <c r="B36" t="str">
         <f>N36</f>
       </c>
-      <c r="C36" s="29" t="str">
+      <c r="C36" s="27" t="str">
         <f>AI36</f>
       </c>
-      <c r="D36" s="29" t="str">
+      <c r="D36" s="27" t="str">
         <f>AK36</f>
       </c>
-      <c r="E36" s="29" t="str">
+      <c r="E36" s="27" t="str">
         <f>AL36</f>
       </c>
-      <c r="F36" s="29"/>
+      <c r="F36" s="27"/>
       <c r="G36" s="1" t="str">
         <f>AL36/AK36-1</f>
       </c>
@@ -26594,67 +26597,67 @@
       <c r="N36" t="s">
         <v>70</v>
       </c>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="29"/>
-      <c r="S36" s="29"/>
-      <c r="T36" s="29"/>
-      <c r="U36" s="29" t="n">
+      <c r="O36" s="27"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27"/>
+      <c r="S36" s="27"/>
+      <c r="T36" s="27"/>
+      <c r="U36" s="27" t="n">
         <v>78048.5698650646</v>
       </c>
-      <c r="V36" s="29" t="n">
+      <c r="V36" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="W36" s="29" t="n">
+      <c r="W36" s="27" t="n">
         <v>8681.10340283808</v>
       </c>
-      <c r="X36" s="29" t="n">
+      <c r="X36" s="27" t="n">
         <v>4660614.01923905</v>
       </c>
-      <c r="Y36" s="29" t="n">
+      <c r="Y36" s="27" t="n">
         <v>48781465.3749677</v>
       </c>
-      <c r="Z36" s="29" t="n">
+      <c r="Z36" s="27" t="n">
         <v>43375404.0815239</v>
       </c>
-      <c r="AA36" s="29" t="n">
+      <c r="AA36" s="27" t="n">
         <v>60444442.2066983</v>
       </c>
-      <c r="AB36" s="29" t="n">
+      <c r="AB36" s="27" t="n">
         <v>81108748.8727496</v>
       </c>
-      <c r="AC36" s="29" t="n">
+      <c r="AC36" s="27" t="n">
         <v>73215923.2150877</v>
       </c>
-      <c r="AD36" s="29" t="n">
+      <c r="AD36" s="27" t="n">
         <v>44068841.4941145</v>
       </c>
-      <c r="AE36" s="29" t="n">
+      <c r="AE36" s="27" t="n">
         <v>51188952.6455068</v>
       </c>
-      <c r="AF36" s="29" t="n">
+      <c r="AF36" s="27" t="n">
         <v>31923929.028834</v>
       </c>
-      <c r="AG36" s="29" t="n">
+      <c r="AG36" s="27" t="n">
         <v>13801966.3770497</v>
       </c>
-      <c r="AH36" s="29" t="n">
+      <c r="AH36" s="27" t="n">
         <v>37055967.4610133</v>
       </c>
-      <c r="AI36" s="29" t="n">
+      <c r="AI36" s="27" t="n">
         <v>8673963.87083551</v>
       </c>
-      <c r="AJ36" s="29" t="n">
+      <c r="AJ36" s="27" t="n">
         <v>1859473.97107768</v>
       </c>
-      <c r="AK36" s="29" t="n">
+      <c r="AK36" s="27" t="n">
         <v>5150671.7791419</v>
       </c>
-      <c r="AL36" s="29" t="n">
+      <c r="AL36" s="27" t="n">
         <v>9018123.405</v>
       </c>
-      <c r="AM36" s="29"/>
+      <c r="AM36" s="27"/>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -26663,16 +26666,16 @@
       <c r="B37" t="str">
         <f>N37</f>
       </c>
-      <c r="C37" s="29" t="str">
+      <c r="C37" s="27" t="str">
         <f>AI37</f>
       </c>
-      <c r="D37" s="29" t="str">
+      <c r="D37" s="27" t="str">
         <f>AK37</f>
       </c>
-      <c r="E37" s="29" t="str">
+      <c r="E37" s="27" t="str">
         <f>AL37</f>
       </c>
-      <c r="F37" s="29"/>
+      <c r="F37" s="27"/>
       <c r="G37" s="1" t="str">
         <f>AL37/AK37-1</f>
       </c>
@@ -26688,69 +26691,69 @@
       <c r="N37" t="s">
         <v>58</v>
       </c>
-      <c r="O37" s="29" t="n">
+      <c r="O37" s="27" t="n">
         <v>147956.539710947</v>
       </c>
-      <c r="P37" s="29" t="n">
+      <c r="P37" s="27" t="n">
         <v>283964.776313332</v>
       </c>
-      <c r="Q37" s="29" t="n">
+      <c r="Q37" s="27" t="n">
         <v>579975.513087649</v>
       </c>
-      <c r="R37" s="29" t="n">
+      <c r="R37" s="27" t="n">
         <v>121760.900734853</v>
       </c>
-      <c r="S37" s="29" t="n">
+      <c r="S37" s="27" t="n">
         <v>20662.2860412155</v>
       </c>
-      <c r="T37" s="29"/>
-      <c r="U37" s="29" t="n">
+      <c r="T37" s="27"/>
+      <c r="U37" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="V37" s="29"/>
-      <c r="W37" s="29"/>
-      <c r="X37" s="29"/>
-      <c r="Y37" s="29" t="n">
+      <c r="V37" s="27"/>
+      <c r="W37" s="27"/>
+      <c r="X37" s="27"/>
+      <c r="Y37" s="27" t="n">
         <v>-25428.8904879254</v>
       </c>
-      <c r="Z37" s="29" t="n">
+      <c r="Z37" s="27" t="n">
         <v>-48577.7752125464</v>
       </c>
-      <c r="AA37" s="29" t="n">
+      <c r="AA37" s="27" t="n">
         <v>-1412.65160243094</v>
       </c>
-      <c r="AB37" s="29" t="n">
+      <c r="AB37" s="27" t="n">
         <v>-10944.1296577568</v>
       </c>
-      <c r="AC37" s="29"/>
-      <c r="AD37" s="29" t="n">
+      <c r="AC37" s="27"/>
+      <c r="AD37" s="27" t="n">
         <v>37536.9003683804</v>
       </c>
-      <c r="AE37" s="29" t="n">
+      <c r="AE37" s="27" t="n">
         <v>2157.67476297287</v>
       </c>
-      <c r="AF37" s="29" t="n">
+      <c r="AF37" s="27" t="n">
         <v>1633115.93671372</v>
       </c>
-      <c r="AG37" s="29" t="n">
+      <c r="AG37" s="27" t="n">
         <v>24128.2435797438</v>
       </c>
-      <c r="AH37" s="29" t="n">
+      <c r="AH37" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="AI37" s="29" t="n">
+      <c r="AI37" s="27" t="n">
         <v>11573.9072704938</v>
       </c>
-      <c r="AJ37" s="29" t="n">
+      <c r="AJ37" s="27" t="n">
         <v>11188.817598517</v>
       </c>
-      <c r="AK37" s="29" t="n">
+      <c r="AK37" s="27" t="n">
         <v>963216.022693404</v>
       </c>
-      <c r="AL37" s="29" t="n">
+      <c r="AL37" s="27" t="n">
         <v>2440814.9855</v>
       </c>
-      <c r="AM37" s="29"/>
+      <c r="AM37" s="27"/>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -26759,16 +26762,16 @@
       <c r="B38" t="str">
         <f>N38</f>
       </c>
-      <c r="C38" s="29" t="str">
+      <c r="C38" s="27" t="str">
         <f>AI38</f>
       </c>
-      <c r="D38" s="29" t="str">
+      <c r="D38" s="27" t="str">
         <f>AK38</f>
       </c>
-      <c r="E38" s="29" t="str">
+      <c r="E38" s="27" t="str">
         <f>AL38</f>
       </c>
-      <c r="F38" s="29"/>
+      <c r="F38" s="27"/>
       <c r="G38" s="1" t="str">
         <f>AL38/AK38-1</f>
       </c>
@@ -26786,79 +26789,79 @@
       <c r="N38" t="s">
         <v>47</v>
       </c>
-      <c r="O38" s="29" t="str">
+      <c r="O38" s="27" t="str">
         <f>Sum(O2:O37)</f>
       </c>
-      <c r="P38" s="29" t="str">
+      <c r="P38" s="27" t="str">
         <f>Sum(P2:P37)</f>
       </c>
-      <c r="Q38" s="29" t="str">
+      <c r="Q38" s="27" t="str">
         <f>Sum(Q2:Q37)</f>
       </c>
-      <c r="R38" s="29" t="str">
+      <c r="R38" s="27" t="str">
         <f>Sum(R2:R37)</f>
       </c>
-      <c r="S38" s="29" t="str">
+      <c r="S38" s="27" t="str">
         <f>Sum(S2:S37)</f>
       </c>
-      <c r="T38" s="29" t="str">
+      <c r="T38" s="27" t="str">
         <f>Sum(T2:T37)</f>
       </c>
-      <c r="U38" s="29" t="str">
+      <c r="U38" s="27" t="str">
         <f>Sum(U2:U37)</f>
       </c>
-      <c r="V38" s="29" t="str">
+      <c r="V38" s="27" t="str">
         <f>Sum(V2:V37)</f>
       </c>
-      <c r="W38" s="29" t="str">
+      <c r="W38" s="27" t="str">
         <f>Sum(W2:W37)</f>
       </c>
-      <c r="X38" s="29" t="str">
+      <c r="X38" s="27" t="str">
         <f>Sum(X2:X37)</f>
       </c>
-      <c r="Y38" s="29" t="str">
+      <c r="Y38" s="27" t="str">
         <f>Sum(Y2:Y37)</f>
       </c>
-      <c r="Z38" s="29" t="str">
+      <c r="Z38" s="27" t="str">
         <f>Sum(Z2:Z37)</f>
       </c>
-      <c r="AA38" s="29" t="str">
+      <c r="AA38" s="27" t="str">
         <f>Sum(AA2:AA37)</f>
       </c>
-      <c r="AB38" s="29" t="str">
+      <c r="AB38" s="27" t="str">
         <f>Sum(AB2:AB37)</f>
       </c>
-      <c r="AC38" s="29" t="str">
+      <c r="AC38" s="27" t="str">
         <f>Sum(AC2:AC37)</f>
       </c>
-      <c r="AD38" s="29" t="str">
+      <c r="AD38" s="27" t="str">
         <f>Sum(AD2:AD37)</f>
       </c>
-      <c r="AE38" s="29" t="str">
+      <c r="AE38" s="27" t="str">
         <f>Sum(AE2:AE37)</f>
       </c>
-      <c r="AF38" s="29" t="str">
+      <c r="AF38" s="27" t="str">
         <f>Sum(AF2:AF37)</f>
       </c>
-      <c r="AG38" s="29" t="str">
+      <c r="AG38" s="27" t="str">
         <f>Sum(AG2:AG37)</f>
       </c>
-      <c r="AH38" s="29" t="str">
+      <c r="AH38" s="27" t="str">
         <f>Sum(AH2:AH37)</f>
       </c>
-      <c r="AI38" s="29" t="str">
+      <c r="AI38" s="27" t="str">
         <f>Sum(AI2:AI37)</f>
       </c>
-      <c r="AJ38" s="29" t="str">
+      <c r="AJ38" s="27" t="str">
         <f>Sum(AJ2:AJ37)</f>
       </c>
-      <c r="AK38" s="29" t="str">
+      <c r="AK38" s="27" t="str">
         <f>Sum(AK2:AK37)</f>
       </c>
-      <c r="AL38" s="29" t="str">
+      <c r="AL38" s="27" t="str">
         <f>Sum(AL2:AL37)</f>
       </c>
-      <c r="AM38" s="29"/>
+      <c r="AM38" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
